--- a/data/02_intermediate/cleaned_Don_Choa_songs.xlsx
+++ b/data/02_intermediate/cleaned_Don_Choa_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C'est pour nos familles On sait d'où on vient sans savoir où on va À voir l'état de ces rues et leur évolution On se demande sincèrement à quand l'émeute, la révolution ? Hé ducon si je pose autant de questions, c'est que j'ai pas les solutions Que faire quand y'a rien à clé de nos bonnes résolutions Ça peut plus durer, combien se l'seront juré Pour finir sous une pierre tombale ou devant les jurés Dommage qu'il n'y ait pas toujours de récompense à nos efforts Qu'à la moindre erreur la justice nous fasse payer le prix fort On fait c'qu'on peut avec c'qu'on a, les moyens du bord Mais la devise reste sauve c'qui peut encore l'être Femmes et gosses d'abord J'pleure pas sur mon sort y'a pire que moi À l'heure où tu m'écoutes au dessus de ta tête t'as peut-être plus d'toit Mon job n'est pas d'noircir c'tableau De toute façon c'est pas d'ma faute si la misère d'meure le pire des fléau On cherche pas à s'enrichir sur les malheurs des autres Toutes les vérités sont bonnes à dire et même les nôtres Au cours d'une vie y'a tout un tas de trucs qui n's'oublient pas Tel le décès de ton gosse avant qu'il puisse faire ses premiers pas Notre issue finale seul l'avenir le dira Dieu seul sait comment ça s'finira ou négociera Mystère et suspense Soit en taule, soit en Benz neuve à fonder une famille au top Ou à laisser une femme veuve et toute une flopée de petits Sat derrière La vie tient à peu de choses Cette phrase pourrait être ma dernière Quand j'quitte mes gars Qui t'dit que j'vais les revoir J'suis pas à l'abri d'la bavure Du mec qui me dit faire son devoir Et ou d'une fan qui aurait pété les plombs Voudrait m'buter comme John Lennon, Martin Luther ou Malcolm Tout n'est qu'incertitude, c'est l'embrouille Dur de voir clair au milieu de ces turpitudes Dédié à ceux et celles qui mènent des vies d'chiens ou d'chiennes J'rapporte la mienne et t'as l'impression que j'raconte la tienne C'est l'effet FF, des gars plus vrais qu'nature Ce côté pied sur Terre et à la fois immature Quand j'plane comme Bob Marley J'sais plus si c'est moi ou la rue qui est en train d'parler J'compte plus voir la vie réaliser mes vux Mais si j'crève j'aurais vu naître le Hors-Série Volume 1 et Si Dieu Veut Sur ce avant de dire au r'voir à jamais J'ai sûrement tout un tas d'trucs à connaître, d'épreuves à surmonter Peu importe tant que les miens sont à mes côtés J'ferais peut-être partie de ceux sur qu'il faudra compter You might also like J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Peu importe la manière forte ou douce Chacun essaie de survivre conscient qu'on y reste tous J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Croire en l'argent, son pouvoir, le respect qu'il dégage Puiser la force dans l'amour, la haine, la peine ou la rage Il fallait que je maîtrise les mots pour m'défendre car ce sont des munitions Si t'as pas les mots t'es baisé Fallait que je brûle mes illusions Fallait bien que j'les crie aussi c'est ça le drame On t'écoute quand tu fais du bruit qu'tu casses ou qu'tu pointes une arme La mienne un Mic, je filme la vie comme Spike Fume la nuit non stop fallait que j'décompresse Nom d'code Don Cho' Fallait que j'le dise haut Fallait que j'vise On avait allumé un feu fallait qu'j'l'attise Fallait qu'j'aie un but fallait qu'j'fasse mon truc Y'a pas d'magie Même si j'parle au passé c'est du futur qu'il s'agit Il fallait pas que je sois trop feignant car je ne suis pas né dans la soie Fallait qu'j'y croie et pas en me plaignant, mon prénom c'est François Ne régnant sur rien, fallait bien qu'je parte Fallait que j'revienne les mains pleines FF fallait que j'le marque Fallait qu'on vienne et qu'on démontre à n'importe quel endroit qu'ce soit Fallait qu'tu viennes à notre rencontre Peu importe quand peut-être ce soir Fallait qu'on garde espoir c'est tout c'qu'on pouvait faire Fallait qu'on soit sincères pas dire tout c'qui pouvait plaire Fallait qu'j'défende mon avis mon corps mon humour Ma famille mes amis jusqu'à la mort mon amour Il le fallait et tant mieux s'il le fallait bien J'reste anxieux ne croyez pas que pour moi tout allait bien Tapez m'en 5 mais pas dans les yeux si vous me recevez bien J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Peu importe la manière forte ou douce Chacun essaie de survivre conscient qu'on y reste tous J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Croire en l'argent, son pouvoir, le respect qu'il dégage Puiser la force dans l'amour, la haine, la peine ou la rage Sommes-nous faux ou vrais ? À ton avis, bons ou mauvais ? Demande à ton ami peut-être qu'il nous connaît ? Entre le bien et le mal on navigue On s'dit que tout est écrit, et qu'c'est la vie quoi qu'il arrive Le système abîme les nôtres donc la haine les anime Et c'est normal si tu le ressens lorsqu'on rime Certains trouvent incompréhensible Normal, c'n'est pas eux la cible Au tribunal, c'est jamais leurs noms qu'on cite Eux n'ont jamais eu besoin de voler pour vivre Ou connaître le mal-être à cause d'une vie sans équilibre Ou se droguer pour se sentir libre Ou se mettre ivre pour oublier le combat qui s'livre Tout ce que je raconte est minime Je ne suis ni un caïd, ni un saint, ni accro à la cocaïne J'suis simple comme mes frères et les tiens sans rire Et j'sais qu'on nourrit tous le mal et fait la grève de la faim Ou bien comme Ali Brahim J'vais là où la vie m'mène, là où mes pieds m'trainent J'viens d'là où on emmerde l'système De là où les rues craignent, de là où la haine imprègne De là où les gens enfreignent, de là où le bien et le mal règnent Bref je vois que c'est les mêmes histoires chez les riches et les pauvres Deal de shit et d'gave et de jeunes qui s'gâchent Dans certains cas c'est un gag, qu'on ait des parents placés ou pas C'est leur égo qu'on nargue et là y'a plus de blancs et de nègres Du père smicard à celui qui roule en cabriolet Ce même dégoût quand c'est ta chair qui vient te cambrioler Meurt d'une seringue au bras et complètement isolé Ça m'rend fou d'les voir sabîmer à en être désolés On a tous des ambitions différentes Respectons nos différences Dans nos rues peu ont les bonnes références Conséquence c'est la merde Et on s'y accommode On vit sur les nerfs Et y'a plus rien de commode C'est les sous qui tiennent les commandes Pourquoi jouer le voyou quand t'as tout c'que tu demandes Chez nous y'a pas d'secret le pognon régit tout Les jeux sont faits et en fin d'course il nous désunit tous J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Peu importe la manière forte ou douce Chacun essaie de survivre conscient qu'on y reste tous J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Croire en l'argent, son pouvoir, le respect qu'il dégage Puiser la force dans l'amour, la haine, la peine ou la rage6</t>
+          <t>C'est pour nos familles On sait d'où on vient sans savoir où on va À voir l'état de ces rues et leur évolution On se demande sincèrement à quand l'émeute, la révolution ? Hé ducon si je pose autant de questions, c'est que j'ai pas les solutions Que faire quand y'a rien à clé de nos bonnes résolutions Ça peut plus durer, combien se l'seront juré Pour finir sous une pierre tombale ou devant les jurés Dommage qu'il n'y ait pas toujours de récompense à nos efforts Qu'à la moindre erreur la justice nous fasse payer le prix fort On fait c'qu'on peut avec c'qu'on a, les moyens du bord Mais la devise reste sauve c'qui peut encore l'être Femmes et gosses d'abord J'pleure pas sur mon sort y'a pire que moi À l'heure où tu m'écoutes au dessus de ta tête t'as peut-être plus d'toit Mon job n'est pas d'noircir c'tableau De toute façon c'est pas d'ma faute si la misère d'meure le pire des fléau On cherche pas à s'enrichir sur les malheurs des autres Toutes les vérités sont bonnes à dire et même les nôtres Au cours d'une vie y'a tout un tas de trucs qui n's'oublient pas Tel le décès de ton gosse avant qu'il puisse faire ses premiers pas Notre issue finale seul l'avenir le dira Dieu seul sait comment ça s'finira ou négociera Mystère et suspense Soit en taule, soit en Benz neuve à fonder une famille au top Ou à laisser une femme veuve et toute une flopée de petits Sat derrière La vie tient à peu de choses Cette phrase pourrait être ma dernière Quand j'quitte mes gars Qui t'dit que j'vais les revoir J'suis pas à l'abri d'la bavure Du mec qui me dit faire son devoir Et ou d'une fan qui aurait pété les plombs Voudrait m'buter comme John Lennon, Martin Luther ou Malcolm Tout n'est qu'incertitude, c'est l'embrouille Dur de voir clair au milieu de ces turpitudes Dédié à ceux et celles qui mènent des vies d'chiens ou d'chiennes J'rapporte la mienne et t'as l'impression que j'raconte la tienne C'est l'effet FF, des gars plus vrais qu'nature Ce côté pied sur Terre et à la fois immature Quand j'plane comme Bob Marley J'sais plus si c'est moi ou la rue qui est en train d'parler J'compte plus voir la vie réaliser mes vux Mais si j'crève j'aurais vu naître le Hors-Série Volume 1 et Si Dieu Veut Sur ce avant de dire au r'voir à jamais J'ai sûrement tout un tas d'trucs à connaître, d'épreuves à surmonter Peu importe tant que les miens sont à mes côtés J'ferais peut-être partie de ceux sur qu'il faudra compter J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Peu importe la manière forte ou douce Chacun essaie de survivre conscient qu'on y reste tous J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Croire en l'argent, son pouvoir, le respect qu'il dégage Puiser la force dans l'amour, la haine, la peine ou la rage Il fallait que je maîtrise les mots pour m'défendre car ce sont des munitions Si t'as pas les mots t'es baisé Fallait que je brûle mes illusions Fallait bien que j'les crie aussi c'est ça le drame On t'écoute quand tu fais du bruit qu'tu casses ou qu'tu pointes une arme La mienne un Mic, je filme la vie comme Spike Fume la nuit non stop fallait que j'décompresse Nom d'code Don Cho' Fallait que j'le dise haut Fallait que j'vise On avait allumé un feu fallait qu'j'l'attise Fallait qu'j'aie un but fallait qu'j'fasse mon truc Y'a pas d'magie Même si j'parle au passé c'est du futur qu'il s'agit Il fallait pas que je sois trop feignant car je ne suis pas né dans la soie Fallait qu'j'y croie et pas en me plaignant, mon prénom c'est François Ne régnant sur rien, fallait bien qu'je parte Fallait que j'revienne les mains pleines FF fallait que j'le marque Fallait qu'on vienne et qu'on démontre à n'importe quel endroit qu'ce soit Fallait qu'tu viennes à notre rencontre Peu importe quand peut-être ce soir Fallait qu'on garde espoir c'est tout c'qu'on pouvait faire Fallait qu'on soit sincères pas dire tout c'qui pouvait plaire Fallait qu'j'défende mon avis mon corps mon humour Ma famille mes amis jusqu'à la mort mon amour Il le fallait et tant mieux s'il le fallait bien J'reste anxieux ne croyez pas que pour moi tout allait bien Tapez m'en 5 mais pas dans les yeux si vous me recevez bien J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Peu importe la manière forte ou douce Chacun essaie de survivre conscient qu'on y reste tous J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Croire en l'argent, son pouvoir, le respect qu'il dégage Puiser la force dans l'amour, la haine, la peine ou la rage Sommes-nous faux ou vrais ? À ton avis, bons ou mauvais ? Demande à ton ami peut-être qu'il nous connaît ? Entre le bien et le mal on navigue On s'dit que tout est écrit, et qu'c'est la vie quoi qu'il arrive Le système abîme les nôtres donc la haine les anime Et c'est normal si tu le ressens lorsqu'on rime Certains trouvent incompréhensible Normal, c'n'est pas eux la cible Au tribunal, c'est jamais leurs noms qu'on cite Eux n'ont jamais eu besoin de voler pour vivre Ou connaître le mal-être à cause d'une vie sans équilibre Ou se droguer pour se sentir libre Ou se mettre ivre pour oublier le combat qui s'livre Tout ce que je raconte est minime Je ne suis ni un caïd, ni un saint, ni accro à la cocaïne J'suis simple comme mes frères et les tiens sans rire Et j'sais qu'on nourrit tous le mal et fait la grève de la faim Ou bien comme Ali Brahim J'vais là où la vie m'mène, là où mes pieds m'trainent J'viens d'là où on emmerde l'système De là où les rues craignent, de là où la haine imprègne De là où les gens enfreignent, de là où le bien et le mal règnent Bref je vois que c'est les mêmes histoires chez les riches et les pauvres Deal de shit et d'gave et de jeunes qui s'gâchent Dans certains cas c'est un gag, qu'on ait des parents placés ou pas C'est leur égo qu'on nargue et là y'a plus de blancs et de nègres Du père smicard à celui qui roule en cabriolet Ce même dégoût quand c'est ta chair qui vient te cambrioler Meurt d'une seringue au bras et complètement isolé Ça m'rend fou d'les voir sabîmer à en être désolés On a tous des ambitions différentes Respectons nos différences Dans nos rues peu ont les bonnes références Conséquence c'est la merde Et on s'y accommode On vit sur les nerfs Et y'a plus rien de commode C'est les sous qui tiennent les commandes Pourquoi jouer le voyou quand t'as tout c'que tu demandes Chez nous y'a pas d'secret le pognon régit tout Les jeux sont faits et en fin d'course il nous désunit tous J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Peu importe la manière forte ou douce Chacun essaie de survivre conscient qu'on y reste tous J'vais là où la vie m'mène Là où mes pieds m'trainent J'viens d'là où les gens disent tous emmerder l'système Croire en l'argent, son pouvoir, le respect qu'il dégage Puiser la force dans l'amour, la haine, la peine ou la rage6</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ouha, tout le monde lève les bras Ouha c'est c'que la fonky family est là Ouha, que pasa que pasa ? Ouha, les jeunes du mic center Le Rat, check check du Rat dans l'art Don Choa pour la chaude ambiance tout le monde est relax Ouais, me sentir mixé sur la face B, le quartier du panier est dans la place ok Écoute et goute le son de Pone, Djellahi, King Shu, Crack Shu, Naomi Karima toute la Fonky Family Chaud les potos, Chill check le micro Je mimmisce dans le rythme comme la pieuvre peut flinguer Mes potes sont tous dingues, et la musique commence à schlinguer Une odeur qui pue le hangar moite Car le rap est né dans les caves et pas dans les boîtes, vu ? L.A.I. range ta panoplie de DJ Mets de la dance, pour ces izes qui n'ont rien pigé Mais sers-moi, un rythme qui frappe, un ascète À multiples facettes quand je pique une nouvelle cassette Pour le plaisir, pas de ramage, ni de fromage De racolage, je prends le mic pour faire des dommages Et j'assure plus que l'UAP, mon style est impec Les sec, à la tech, mec déclenche le plan ORSEC Fini, donc plus d'embrouillaminis, les règles ainsi définies Énoncent le rap appartient à l'infini Éloge à la mémoire des évaporés, unique Jamais autant de types sont morts pour l'amour d'une musique Une combinaison d'instruments, de scratches, de samplers C'est sur la face B que le hip-hop prend de l'ampleur Cut Killer, voilà de l'espace, en masse avec classe Scratche, cute en place, que je claque l'autre face You might also like Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B C'est du nouveau son qui frappe dans tes woofers Pas un discours d'esbrouffeur, qui confère cette couleur à tes boomers Les bufs badent Balla, les stressés croient en Pasqua Les FAF deviennent fadas, Akhenaton nique la halla J'ai choisi un éventail d'instrus de disques moisis Il y avait Saïd, Majid Mourad et son frère Razi Puis Houari, c'était l'été 85 Au centre ville de Marseille on entendait le bruit des flingues, dingue Les escaliers du centre Bourse, le quartier Belsunce Les Carmes, le Panier, c'est là où tout a commencé Les jeunes troquaient les cyclos pour les GTI pas pareil Ainsi se forgea le style des bad boys de Marseille Des histoires de barbares tous les soirs Dans les bars il n'était jamais trop tard pour une bagarre T'es jeune, t'es le roi, t'as peur de rien Jusqu'au jour où tu prends un pain d'un Marines américain Je pesais 65 kg et ce type 120 Je suis tombé sec, un coquard, et deux dents en moins Mais fils, qu'est-ce que j'ai pu rigoler Chaque fois qu'un se faisait balafrer par les clandos du quartier Maintenant je vis tranquille Toujours dans la même ville, mais plus d'embrouilles débiles Je suis passé sur la face A, j'ai eu la renommée Mais putain ce que j'aime déchirer sur la face B Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B Je fonce, avec fougue, dans le fond du microsillon Nous sommes des Attila ce sont des sons que nous pillons J'aime, je respecte les artistes que je sample, obsédé Par la destinée du vinyle alors fuck the CD, ouais Si j'ai pu débuter ce métier C'est qu'on a pu disposer des faces B, des nouveautés Sarcastiques, textes sur du plastique 100 personnes maximum, mais c'était fantastique J'aurais pu parler d'amour sur la face A Mais cette face-là ne m'intéresse pas Je suis de l'autre côté de la force De l'autre côté du risque, de l'autre côté du disque La partie émergée d'une puissance occulte Je demande à ce pays, la dignité pour mon culte Et tôt ou tard, ils seront bouche-bée Confondus d'avoir ignoré le pouvoir de la face B Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B1</t>
+          <t>Ouha, tout le monde lève les bras Ouha c'est c'que la fonky family est là Ouha, que pasa que pasa ? Ouha, les jeunes du mic center Le Rat, check check du Rat dans l'art Don Choa pour la chaude ambiance tout le monde est relax Ouais, me sentir mixé sur la face B, le quartier du panier est dans la place ok Écoute et goute le son de Pone, Djellahi, King Shu, Crack Shu, Naomi Karima toute la Fonky Family Chaud les potos, Chill check le micro Je mimmisce dans le rythme comme la pieuvre peut flinguer Mes potes sont tous dingues, et la musique commence à schlinguer Une odeur qui pue le hangar moite Car le rap est né dans les caves et pas dans les boîtes, vu ? L.A.I. range ta panoplie de DJ Mets de la dance, pour ces izes qui n'ont rien pigé Mais sers-moi, un rythme qui frappe, un ascète À multiples facettes quand je pique une nouvelle cassette Pour le plaisir, pas de ramage, ni de fromage De racolage, je prends le mic pour faire des dommages Et j'assure plus que l'UAP, mon style est impec Les sec, à la tech, mec déclenche le plan ORSEC Fini, donc plus d'embrouillaminis, les règles ainsi définies Énoncent le rap appartient à l'infini Éloge à la mémoire des évaporés, unique Jamais autant de types sont morts pour l'amour d'une musique Une combinaison d'instruments, de scratches, de samplers C'est sur la face B que le hip-hop prend de l'ampleur Cut Killer, voilà de l'espace, en masse avec classe Scratche, cute en place, que je claque l'autre face Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B C'est du nouveau son qui frappe dans tes woofers Pas un discours d'esbrouffeur, qui confère cette couleur à tes boomers Les bufs badent Balla, les stressés croient en Pasqua Les FAF deviennent fadas, Akhenaton nique la halla J'ai choisi un éventail d'instrus de disques moisis Il y avait Saïd, Majid Mourad et son frère Razi Puis Houari, c'était l'été 85 Au centre ville de Marseille on entendait le bruit des flingues, dingue Les escaliers du centre Bourse, le quartier Belsunce Les Carmes, le Panier, c'est là où tout a commencé Les jeunes troquaient les cyclos pour les GTI pas pareil Ainsi se forgea le style des bad boys de Marseille Des histoires de barbares tous les soirs Dans les bars il n'était jamais trop tard pour une bagarre T'es jeune, t'es le roi, t'as peur de rien Jusqu'au jour où tu prends un pain d'un Marines américain Je pesais 65 kg et ce type 120 Je suis tombé sec, un coquard, et deux dents en moins Mais fils, qu'est-ce que j'ai pu rigoler Chaque fois qu'un se faisait balafrer par les clandos du quartier Maintenant je vis tranquille Toujours dans la même ville, mais plus d'embrouilles débiles Je suis passé sur la face A, j'ai eu la renommée Mais putain ce que j'aime déchirer sur la face B Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B Je fonce, avec fougue, dans le fond du microsillon Nous sommes des Attila ce sont des sons que nous pillons J'aime, je respecte les artistes que je sample, obsédé Par la destinée du vinyle alors fuck the CD, ouais Si j'ai pu débuter ce métier C'est qu'on a pu disposer des faces B, des nouveautés Sarcastiques, textes sur du plastique 100 personnes maximum, mais c'était fantastique J'aurais pu parler d'amour sur la face A Mais cette face-là ne m'intéresse pas Je suis de l'autre côté de la force De l'autre côté du risque, de l'autre côté du disque La partie émergée d'une puissance occulte Je demande à ce pays, la dignité pour mon culte Et tôt ou tard, ils seront bouche-bée Confondus d'avoir ignoré le pouvoir de la face B Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B1</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>This is a Nass production Mmh, mmh Merde alors Tu veux la guerre, juste après, tu bipes ton père ok À rien ça sert de faire pousser des affaires gamberge Plus de mala, tu t'es retrouvé à terre mala Maintenant, malade, tu grattes des blondes à l'after Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Lunettes de ski dans le Rover, derrière les pecs, j'ai un grand cur piou Loin des traîtres, loin des pompeurs, tu fais le fou, après tu ramènes ton père fiou, fiou, fiou Vingt projets après, j'ai les dents aiguisées, oue, oue, oue les schmitts ils ont des gros pet', des charbons déguisés wouh, wouh Frérot, tu deviens chaud bizarre quand t'as tisé, wouh tu dis que tu tires, tu sais même pas viser wouh J'suis dans des bails de malade, pas de mala, pas de cala, peu de câlins rah, rah, rah Pas de calibre, une pensée aux frères pas libres, à ceux qui rêvent de palettes ou de conduire la Ferrari wouh Pas b'soin de palettes au volant non, non, j'suis dans la soucoupe volante non Pas b'soin de palettes au volant non, j'suis dans la soucoupe volante Ça sent la beuh, fais vura, j'suis l'vingt-deux Ça sent la beuh, fais vura, j'suis l'vingt-deux You might also like Oh, j'suis carrément dans l'truc han Carrément, trois By SFR, mec C'est carrément les stup' brr, brr, han, les p'tits sont dans Matrix, Opinel On t'fait carrément du X, han, c'est que les frérots, que les numéros Que la plata, que la pasta, sa grand-mère taffer au bureau, oh Fer tchécoslovaque, boîtes de 30 arrivent sur l'Zodiac 'fack J'ai même pas bu d'Jack, bande organisée comme si t'avais vu l'Diable Et sur les jantes, ça roule, Vovo j'rentre à la 'son, minable 7.65 près des couilles, ça bosse pas la zone abdominale Ça tourne comme des civ' en automatique, tout niquer en équipe, c'est la thématique Pour le territoire, entre ennemis, ça s'éradique, sous shit et alcool, t'es tarpin lunatique J'entends le bruit du RR-1000, ça te cherche ça zone, outillé outillé Dans le quartier, la guigne ça va plus vite qu'une Audi, eh Audi, eh Il a acheté une Kalash' parce qu'on lui a dit Pas besoin d'savoir viser savoir viser À Marseille, à peine majeur, ça t'fait des RDC très organisé organisé À l'aise, j'vais t'niquer ta mère et tu ne verras jamais l'iPhone 13 C'est nous la tess, déstresse, K-K-K.O.F.S J'lui ai donné un faux nom, elle m'a donné un faux num', c'est une pute celle-là hey Elle fait la pucelle, j'prends mes lovés, je me taille voir les putes à Bruxelles wow Elle est plein de feinte, elle repart avec moi, elle est venue avec eux Je la branche à 20 heures, je la nique à 22, j'ai allumé la lumière, en fait, elle était 'quinte Que veux-tu que j'te dise de plus ? J'vise la tête ou je vise le but Le paradis est sous les pieds de ta mère mais t'es un fils de pute Là, j'suis en Audi, j'pars en virée, j'fais le tour de la ville, Soma me dit Fais-moi tirer Zone sombre dans le cendrier, fais pas trop de boulettes à la quali', mmh Non, tu n'peux pas l'nier, cette année, je vais te la bousiller, mmh Dom Pérignon, sapé, elle me trouve mignon Toi, tu fais le fou, quand j'sors le Glock, tu d'viens tout mignon J'sors mon mzing et tu zina, on t'allume, tu te zimen On t'fait danser, danser, dan-, danser, danser, dan- Tu vas crier Zim Zimma Oh, faya bondé, toi, tu n'arrives plus à bander Moi, j'vide mon barreau, j'pense aux frères derrière les barreaux Brillant, brillant, grillé, grillé, j'roule un pivado Vaillant, vaillant, toujours prêt pour monter dans un braquo' Me rate pas, j'reviens, j'te rate pas sur la vie d'ma mère Besoin d'dégun, Belsunce Breakdown T-MAX, pote-cra, j'suis une 22, donne-nous le, donne le go Andale, gandale, faut faire carnage à la Kalash' Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Survêt' Quechua ouais, dernier Merco ouais, showcase dans l'club ouais, faut faire des choix ouais Sur mon perchoir ouais, dans mon ghetto ouais, j'vois le bédo ouais, coupe au séchoir Survêt', baskets, plein de business, ça s'mange, ça s'tue comme du beefsteak Y a la fusée dans le Grinder, calibré comme les Peaky Blinders J'vois loin dans les étoiles, ah, et j'vois qu'tu es sûr de toi, ah Moula, moula, de té-cô, kichta lourde en mandat de dépôt Moula, moula, de té-cô, kichta lourde en mandat de dépôt J'suis sur la Corniche, j'fais le Tony, la gow est bombée dans le bolide ouais Bernard Tapie au bout du fil allô, allô, j'suis immortel comme le COVID Elle fait la fille bien, j'veux une coquine, terr-terr, pin-pon, c'est la routine C'est Marseille, salope, c'est pas Brooklyn, c'est Marseille, salope, c'est pas Brooklyn Prince de la ville dans le binks, j'fais le biff en équipe comme dans Heat comme dans Heat À 2000 sur l'périph' comme Lewis, on est quatre et pas dix et pas dix, dix Tu veux appeler l'dire ou applaudir, garde la monnaie, tu peux arrondir Elle a un sale boule, je veux rebondir, si je tire, c'dans la carotide Sur le bitume, j'fais du Billie Jean, c'est bouillant, c'est la canicule 40 degrés à l'ombre, c'est les Philippines T'as reconnu le matricule, tête cramée dans la tribune, y a la zone, y a la tribu, attitude depuis le début le début Le J me fait la passe, unh, et moi, je mets le but le but Je me regarde dans la glace, unh, j'ai jamais fait la pute Pour avoir la classe, pas besoin de notice, ça fait bang, bang, bang, c'est l'agonie, la police On les aime pas, c'est la folie, j'vise la lucarne comme le coup d'tête de Boli Abonné, j'suis dans le bolide, j'm'en bats les couilles de Clyde et Bonnie Ça s'propage comme le COVID, j'suis dans les airs comme un Boeing Alcoolisé, dans le bordel, elle a sympathisé Elle a trop sucé, on s'en bat les couilles, on la f'ra resucer On est trop rusés, sans l'succès, on s'est quand même propulsés Oui Paris, c'est magique magique, mais Marseille reste unique ouais Ici, y a pas d'limites limites, champion dans l'foot et l'shit Bloqués dans l'tiekson, certains voient pas plus loin que Lançon Merco GTS, conduite normale sous ballons hmm, ouais Fourgon d'armes de l'Est, camion semi plein d'ballots La moula jaune, ouais la moula jaune, comme la Bonne Mère, les cigales sonnent ouais, jusqu'à la Canebière En crabe sur les RR 1000, j'passe par les rues où y a pas d'civils vroum, vroum Fond dcinq, j'suis à Bougainville, j'passe faire un tour vers le centre-ville Ah putain, j'ai le pétard dans le jean, cache-le vite, y a les hams paw, paw Grosse kichta qui s'allume comme Billie Jean, 3.5.5 dans le sac, oh Je baise ma vida, j'vais m'vider, j'vais piler, c'est la fin, fume ton dernier pilon J'suis serein, t'es nerveux, J't'ouvre la tête au marteau, t'es un d'ces fils de chien qui retient que le seul nom Je m'endors c'est la guerre, j'me réveille, c'est la même Ouais ça fait très longtemps qu'on a banni la paix Je sors du forgeron, je parle une première fois, la deuxième fois je te fends le crâne a l'épée 20 heures de cellule sur 24, à 3 dans un 9 mètres carré, 40 degrés je suffoque J'connais les tes-traî, ouais toujours en retrait, jamais d'la vida j'tourne mon dos, gros je pivote La Grinta, du monde dans les gradins, se lève et m'applaudit, moi, j'attends la Ôla J'suis numéro 9, c'est moi qui plante les butes, et je choque comme cartel de Sinaloa brrw Parlez, parlez ça fait guili-guili 1.3, 0.9, j'suis frais comme les Guirri J'suis vrai comme un DZ, j'suis vrai comme Valkyrie Je reviens du désert, j'ai très gros appétit Ça remplit un chargeur et ça l'vide dans ta mère Rajoute deux-trois zéros sur mon putain d'salaire, sur mon putain d'vécu, sur mon putain de compte Sur mon putain de score, ouais, la putain d'ta mère Vite fait, bien fait, j'pose le truc, machin qui frotte mon fute 3.5 tout black, t'sais qu'ça pique L'équipe 1.3, t'sais qu'ça kick Toi, reste à sec, p'tit insecte On s'fait solo, nique ta secte, j'taffe sans cesse J'veux pas d'C.C, un peu d'Vovo décomplexe RS4 break, que des têtes au carbo, ça travaille les pecs sans penser aux abdos ouais Tu vois là, l'beat, j'l'ai choppé par l'cou, même à 46, tu vas l'saigner partout Crochet dans les artères, p'tite merde C'est plus des gifles mais des balles qui s'perdent La jalousie, pour moi, c'est un mystère, comme ceux qui pompent fort un peu comme leur sister comme leur sister T'as reconnu l'accent d'en bas ah ouais, fais pas celui qu'entend pas ah ouais On va te mêler comme Tong Po, tu trahis, nan, c'est pas sympa eh ouais Fais nous la passe le J, bah ouais, tout le Sud réuni, bah ouais C'est fini, donc n'insiste pas, à mes yeux tu n'existes pas 6h du mat', je dors pas, j'écris des rimes hors-pair J'm'en sors pas, tu sais comment je compte faire C'est le retour de la Soude, on reprend du service Faut des sous et y faut les faire vite Le son, c'est de la bombe, tu l'entends, tu sers fils T'en voulais, t'es servi Ne fais pas la bombe, tu peux pas me plaire miss Car tu fais trop la folle comme c'est pas permis Bang bang bang j'arrive comme un Fayzer Dans les rues de Mars' avec le flow assassin Ça veut piquer la gadji de ton poto, c'est malsain Oh, fils de pute gros fils de pute C'est Massilia, on est des milliers, on veut des milliards, on prend l'or s'il y est Ouais c'est Massilia, gros, c'est la guérilla, là, c'est la série A, 1.3.9, c'est sérieux J'crois qu'il mon pris pour un con, hein, j'crois que j'vais péter un plomb, hein J'croise les doigts et je compte, il m'dit Tu vas faire quoi ?, j'vais sortir un pompe C'est les quartiers Sud au volant, 1.3.9, c'est affolant Demande à mes collègues, ne crois pas qu'j'suis à fond, là Tu veux tester mais t'es trop lent, j't'efface en rigolant J'envoie un freestyle et tout le quartier fait la ola Place au pirate place au pirate, voiture full black voiture full black Aujourd'hui, j'fais le mac', j'mets le bandeau à Tupac Sur moi, j'ai une plaquette, 308 break c'est la bac Pare-balles et les claquettes, j'suis cramou, j'crois qu'ils me traquent J'ai pas changé d'époque, j'suis toujours sous bob J'croise une gadji, elle m'dit Tu rappes bien, mon bébé J'suis dans la loc', j'passe à la lim' J'crois qu'cette histoire va se finir à Pépé Lacoste TN, le boss, toute l'année, rien qu'je bosse J'ai même plus le temps d'me poser, j'vois les potos sous rosé Changement, j'arrive dans le temps mort, si tu m'fais la passe, ça va faire but Y a des putes qui font des mecs en or, des filles bien qui font des fils de pute Sur la côte en Bande organisée, que des carbos chargés dans le 4x4 T'as vu l'gang, tu veux sympathiser, grosse équipe de vikings barbue comme à Kattegatt Trop de coups de salope et je suis consterné, que tu t'inventes des vies, arrête, on t'a cerné Ça prend la route, ça pilote avec les g'noux, ça roule un pétard à 15h encore les yeux cernés Ton blaze est noté sur le carnet, p'tite merde, dis-moi qui tu voulais berner ? À la base, t'étais un mec bien, en kehba tu t'es réincarné J'traine avec des mecs clean, j'traine avec des mecs louches J'traine avec des Kevin, des Marvin, j'traine avec des mecs chouch Posté sur le terrain, toute l'année, toi t'es sur le banc d'touche Chaud comme elle sentait fort, tous ses morts, na3teha bain d'bouche C'est Marseille, poto, tempère, un clic-clic dans l'fute pour t'enterrer Ça claque la kichta loin du terrain, minimum, on brisera tous tes rêves Le Soleil s'lève pour tout l'monde, toi, t'es à l'ouest à l'ouest En Moonwalk, on débarque à l'aise à l'aise Dans le Vito, j'recompte la somme et là, midi-minuit, j'suis pump it up Hola chica, me gusta tu ? Vura vura, ne bois pas tout Tu trouves ça embêtant, qu'à la fin, ça t'met pas dedans Trop d'gentils jouent les méchants, devant l'canon deviennent tout doux Ils manquent du shit dans l'secteur, ça l'ravitaille en Subaru 13 Organisé, bordélique, grosse équipe, venue frapper comme un corps d'élite Marseille trace sa route hors des pistes, hors des pistes, bordélique Y a ceux que la Haute dénigre aie, passe entre les gouttes de pluie Rimeur de feu, plie en freestyle, enfant du cagnard a trop de style Aller, aller, faut laisser passer, parole d'hier est toujours valable Cruelle, insolente et restée vraie, éclats inespérés dans nos palabres Arkana, loin des radars oui, oui, capuchée comme La Rabia ah Un gros doigt devant vos caméras, le smile des favelas malgré les drames, hélas oy J'suis l'reflet de ma zone, puche-caté sous l'Aston, hey En PV, elle m'aborde, en public, elle veut qu'on s'pète, hey Quand t'es discrète, c'est bon dél', ils m'ont déféré pour m'libérer, fais l'bisou à ton bae On fait pas crari, du bloc au siège de la Ferrari Les Marseillais cramés sur Paris J'en veux une qui poucave pas son mari C'est des bambinos, à la place, jai mis lappuie gauche À la place de s'plaindre, fais les choses mi primo 13 Organisé dans la Benz à Ciro Fais pas l'voyou, t'vas t'manger l'revers à Nadal Tu fais le fou mais pas d'manies avec Madame La vie, c'est chaud c'est chaud Sur Paris, c'est chaud c'est chaud Sous vodka, Capri Sun, mes pensées sont bien sombres Quand elle bouge dans la salle, j'aimerai l'avoir pour moi seul Solo solo, solo solo, pour moi seul Solo solo, solo solo, pour moi seul Elle est pleine de manières mais j'ai fini solo Elle est belle, elle est mimi mais j'ai fini solo Solo, solo, ouais, solo, ouais, solo, mais j'ai fini solo On connaît le mitard ouais, on connait le danger ouais Ici, y a pas de blabla, pour la monnaie, ça blague pas, fais gaffe, ils vont te manger ouais On arrive au quartier ouais, tout le monde a plongé ouais Les petits sont barbares, font des trucs de bâtards, vraiment, tout a changé ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Eyah, voilà Sopra' mbaba, eyah, Sopra' Saitama, eyah Bientôt plus connu qu'Halliday, eyah QN dans le sang, eyah, quetas dans le son, eyah Choqué quand tu lis mon CV, eyah T'as mis une croix sur Marseille car tu sais qu'c'est là qu'est l'trésor 13 Organisé pour l'oseille, normal, ici, c'est les Cités d'or La Bonne Mère la huitième merveille On est vrai depuis les dinosaures Y a vos rappeurs dans nos cendriers, eyah En position, j'ai la fenêtre de tir, donne-moi le go, on me mandate et je tue Celui qui fait le plus cramé qu'en dit le plus aux stup' C'est souvent les proches qui seront les plus grosses putes Le mec, il investit, mes couilles, il veut le bénéfice T'es pas rentré avec la merde comme père et fils Véridique han, vérifie, une frappe de bâtard, DP qui fait la passe décisive, nan Si t'as la haine, y a la médecine douce, au loin, je vois ta grand-mère en train de faire le signe JuL On va épargner les femmes et les enfants 13 Organisé à l'infini comme un puit sans fond Minuit sur la Daytona, le charbon ferme, c'est pas raisonnable Y a des clients qui viennent de Saint-Cannat, en Clio 3 remplie de nanas 4 heures j'arrive pas à dormir, j'appelle Smogo, direction l'after J'fais des tout droit, y a une queue d'bâtard, j'repère une blonde, c'est un avatar 13 Organisé, fuck la banalisée, tu vas analyser, tu vas réaliser Même alcoolisé, t'inquiète, on sait tous viser Même alcoolisé, t'inquiète, on sait tous viser Shouf, la collision, le boulon, y a tout l'monde, on nique ta mère au harpon Réponds quand tu me dois du bifton, des litrons, ouais, j'vais compter les moutons en prison La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais Marseille, c'est l'meilleur, mon frère, ça date pas d'hier Né au cur d'la haine avec une mentalité meurtrière Nous sommes des briquets allumés dans la poudrière Ça fait boom, que des hommes, tu l'ressens, ça résonne Monte le son à balle, j'suis la voix de la jungle Pour ceux en cavale, empegué ou à jeun J'fais pas le voyou mais s'il faut, j'sors le machin J'représente le 13 de Tokyo à Agen Le revers à Nadal, j'fais péter la raquette Fais pas trop la mignonne, j'te baise sur la moquette Ravale ma fierté, j'suis qu'un homme sur la planète Et j'dis merci à JuL, il m'a sorti d'la retraite, Tonyno MC du ShootStar ouais, bande de bâtards ouais Faut éviter les radars, 50 frères à ma table 50 frères à ma table, j'ai chargé la AK au volant du A4 J'envoie la frappe, t'es khapta J'connais bien ta maman, tu peux m'appeler papa Ra-ta-ta-ta, la mule, c'est ta tata J'ai pas l'vague à l'âme, j'suis prêt pour l'Valhalla Y a tout Marseille sur l'titre, ça sent le classique, sent le hit Ça sent la rue, ça sent le shit, j'entends déjà les rageux parler dans le vide Parle mais ton flow est mort dans le film, j'suis dans le sale, j'suis dans le dîn J'suis dans le stade, j'suis dans la ville, j'suis dans le stud', j'suis dans ma suite J'fais dans le dur, j'fais dans le sweet, frère J'suis pas dans la série mais j'suis validé 12 mesures dans le barillet Passe au contrôle qualité, flow bien calibré, zone 13 quadrillée Hasta la muerte, 13 Organisé, l'projet est lourd, gros, t'as pas idée C'est QLF, wesh yo, pas de pression, laissons passer les mauvais garçons akha J'ai vu ta sur en caleçon, vas-y, descends, arrête de regarder les nichons akha Le J dans la maison, arrête de faire le mec qui parle trop, on va te baisons Et tu as vu, j'ai pas mis la veste, torse nu comme à Bucarest Elle est bonne, elle veut que j'la baise, nique ta mère, on te laisse les restes Organisé, 13, calibré, dans l'tieks, y a le CZ chargé chargé Maintenant, vide la caisse ou alors, j't'agresse comme un vrai Marseillais brr J'pense à la folle qu'j'ai cassée, aux frères au shtar qui s'tuent au pasta pasta J'récupère, j'envoie un placé, toi, t'es un faux boy, fais demi, trace trace J'arrive à fond, fais de la place, dans la 'teille, j'vide la canette, han Sur scène, j'arrive en claquettes comme le J et j'fume sur la plaquette, han plaquette Et pas mercé, t'as tout claqué au tiercé tiercé On sait qu't'es en train de nous pister On sait que tu tapes la C, non, fucking, non, non J'remonte la pente en SLR, c'est nous les boss, bande de comiques Ils sont nombreux, j'vais faire un strike comme une grosse partie de bowling T'as le nez dans la farine, moi, j'ai les épaules solides Dans la Matrix, j'suis dans X-Men, j'suis dans un film comme Wolverine J'suis avec la zone en personne, t'es dans les bouchons, tu klaxonnes 13 Organisé, ça cartonne, passe à La Caste', ça charbonne 1.3, nous le sommes, partout dans le sale, ça mise dans le son, ça mise dans le sale 68 000 vaillants dans le stade, 100 000 dans le sac, s'amuse dans le sale Tire-nous vers le haut, pas dans la tête, jamais formaté, vas-y, calmate On va tout gâter et ouais, ma gâtée, t'aimes te faire mater, vas-y, callate Ah, ah, poto, que pasa ? C'est notre quart d'heure, coup du pied, Carter La bella ragazza, c'est notre quatre-heures, a mi casa, cité Carter C'est Marseille, bébé, on t'a déjà dit, la Kala' sortie du capéo Pour les gens d'en bas, plus de tragédie, lève ton verre et zumba caféw À travers les baffles, j'te mets des biffles, j'ai vendu la came, j'ai fait du chiffre Yo, la police me traque et les bâtards me pistent, j'suis à bord du Zodiac, Jack Da' au fond d'une crique Y a pas d'intérim dans la zone comme Kery, on est des enfants terribles, calibrés comme Guirri Entrée sur l'périph', de la drogue dans l'ferri, de l'autre côté d'la rive, dans le brouillard, j'navigue J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' Charcle les kilos comme un libéro eh, ravitaille toute la French Riviera 13.0.15, c'est le numéro eh, en temps et en heure, on vous livrera Y a trop d'homicides, pas d'super-héros, les mains sales dans la street, qui les lavera ? J'vis la zone, c'est la vraie, y a pas d'caméras, j'fais la 'sique et la suite qui vivra, verra Mets du Jack et des ices dans le gobelet, j'suis léwé, j'fais le beau, quand tu tarbala Plus le temps, j'vois plus l'heure sous la jubilé, j'en roule un, en roue libre, c'est d'la Dybala Très organisé comme dans Heat, le chemin est long et dur comme ma bite Vas-y fais le fou qu'on rapplique, on t'envoie des piques on t'la pique super rapide Salope, t'as fait la pute on te veut plus dans l'équipe, j'suis entouré d'cramés que tu vois pas dans les clips Tu pries pour des lovés, on prie pour que Dieu nous guide Et quand y a des tes-traî, on prie Dieu pour qu'ils nous quittent Ma gadji, elle est chargée, chargée Ma Kalash', elle est chargée, chargée Ils font les fous mais les gars sachez, sachez Que c'est cagoulé qu'on va les chercher Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa M.A.R.S, Les Oliviers, c'est la zone, faut qu'on encaisse Des grosses sommes en vitesse, faut des mapes' pour la madre, c'est chaud, faut de l'espèce Moi, j'reste hip-hop et ça, depuis longtemps Salope, vas-y tiens prends ça dans tes dents Seul dans ma tête, j'mets les pleins phares, pied droit collé au plancher Trahison nocturne, cauchemars, 1.3, danger Gros culs, chichas, ballons, welcome 13 Organisé C'est la guérilla, donc prévient Macron que La Marseillaise, on va la remixer On va te faire du sale, et t'as pas idée, te faire danser, comme t'as pas idée Demande à Gastambide, Validé, Marseille City, ouais, qualité Viens pas chez nous, on va pas t'aimer, fais pas le fou, ça va pas t'aider hey Et si tu parles de foot, d'étoiles et de coupe, on est les seuls qui l'ont soulevée Et ouais mon pote hey, quoi d'neuf les folles hey, en direct d'la zone hey, c'est Vinz, tu connais Et ouais mon pote ouais, ouais, quoi d'neuf les folles ouais, en direct d'la zone ouais, c'est Vinz, tu connais J'arrive en , Tokarev, détonation devant le bloc ça veut brasser comme dans Blow Sur la côte en Christian Dior on fait les beaux, FrèresJ enfoiré 13 organisé, j'suis au hazi, paire de Yeezy, argent easy Dans la cuisine, pochon est vert, j'ai pas fini, c'est trop facile Notre mode de vie, il vous fascine, bande d'enculés Numéro 4, j'soulève la coupe, Basile Boli, fais moi la passe j'mets un bowlin J'ai l'attitude d'puis ma jolie, ça vient d'en bas, c'est la folie, j'suis avec l'ovni Hey yo, ouais c'est Marseille p'tit cur, si t'as la mentale tu seras ma baby girl Hey yo, 6 colis dans l'secteur, ouais on t'ramène que la frappe même devant l'inspecteur Hey yo, on a la Champion's League, hein, on vous laisse Neymar et la Ligue 1 Pas l'temps cest chaud dans la ville,zin y'a les schmits je crois ça lever la hein Plus de 13 , et j'ai beau on fait des bails Ça descend grosse kichta vers l'Espagne, ça remonte, distrib', tasse la maille Marseille, c'est malade, Coca ou salade J'suis dans les parages, j'recherche une Kalash' Tête dans les nuages, la douane au péage Les petits vont te faire 4000 la Kalash' Appel d'Algérie, le couz' veut un visa, la p'tite a grandi, donne son cul à Ibiza Frère, t'es trop bizarre ouais, t'es trop bizarre On va t'faire glisser sans pitié comme Ivar Zipette, pépette, vol à la tirette, chica chica, la p'tite aime les galipettes Showcase à Phuket, touche pas la mallette, le P.38 est caché dans l'appuie-tête Eh ouais c'est l'Algé', ra-ta-ta j'vais t'apprendre à danser hey J'fais des hits chaque été, là, c'est l'hiver, j'vais t'apprendre à rapper RS6 sur la Corniche, ça va vite J'ai chauffé la miss et les disques Y a de l'oeil dans l'air, sa mère, ça ma fatigué J'ai mis la cagoule, j'suis rentré dans le 13 Organisé Qu'est-ce tu as, tu veux qu'on s'tape ? Ok, chez moi on démarre au quart de tour Même chez toi, tu m'entends partout 1.3 gravé sur l'bambou Yeah, on arrive en ville comme Balavoine Déstresse, l'ouvreuse n'a pas vu la douane Devenu Jedi, le jeune padawan, on n'oublie pas l'époque où on n'avait r-one eh Chemin de la Bigotte, que tu prends la mâche, que tu bouges, tu gigottes hey, hey Descends du nord comme Visigoths, que ça paranoïd, gros, que ça psychote Eh, eh, bande organisée ouais, ouais, ouais Eh, eh, sors le cross volé ouais, ouais, ouais Fais pas l'con papy, j'te mets au tapis J'suis dans l'ombre tapi, pendant qu'tu tapines Psychothérapie, emmerdeur de base J'suis dans la partie comme un vendeur de taz Whisky ice, Marseille vice, 13, très au point, très organized Hypnotized, c'est une prise d'otage, c'est pas d'la folie, c'est du pilotage Roule, comme Jo la Mitraille, dis-moi si j'te saoule Je n'ai pas le time pour ces fils de poules Avant qu'je me taille, j'fais le signe de JuL le signe de Ju-Ju-JuL De retour sur les prémices, entends ces folles qui gémissent Marseille, tu le sais, miss, on fait des aces comme au tennis Boss One et Mombi s'adaptent, on est disque d'or, nous, ça date Style en survet' ou cravate, dans l'rap, on te met des savates Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà J'suis l'frère d'une star depuis la primaire Donc les jaloux, les lovés, les gens louches, les gens vrais, les mauvais Vérité, on connait, on connait, ça parle mal en public et s'excuse en privé J'suis dans l'espace, j'rentre partout, j'prends tout et j'pars Poto, j'suis en croco, défouraille la compo' Pas de bimbo, pas de mytho, pas de m'zigues dans la Vuitton J'ai les locks dans le guidon, j'vide mon sac Eh oui, papa, j'ai le flow pam-pam, mi corazón, tu aimes ma zone, scooter, peuf peuf J'fume ma chicha en Fiat 500, en semaine, on est plein de flics, descentes Bouge-toi de là que je mette l'essence, j'ai vidé mon carburant dans la piste de danse Oui, ok, je vous pisse sur les dents, c'est ma façon de vous dire bonjour poliment M'en bats les couilles qu'tu sois le meilleur, nous, on donne toujours l'meilleur Ailleurs, on voit le néant, Marseille, c'est notre régiment C'est moi le petit bâtard qui fait trembler cette putain d'ville eh J'entends que des ragots, mais dis-moi, frérot, on flippe de qui, nous ? eh Tu connais ma team eh, la monnaie du shit qui nous active eh Que des vantards, starfoullah, retiens-moi, j'vais faire une dinguerie Viens voir dans ma ville, poursuites, braquages, bendo Qué pasa bellissima, reste tranquille ou prends l'métro C'est bête, elle me filoche eh, appelle de phares dans l'rétro Dans l'réseau depuis minot eh, fais beleck à la Mondéo Pour kichta, j'assassine, ça boit du Coca dans la bassine Quand tu dors, on tartine, j'suis en d'or et platine Tout est illégal, à 240 sur l'A7 J'me taille au Sénégal après t'avoir laissé par terre Dadi Marseille, étoile légendaire sur le maillot On met ton camp sur le banc, j'ai le col levé à la Cantona Crois pas qu'la vie c'est un dream car, dehors, c'est marche ou crève Moi, j'ai toujours la même team, j'fais toujours partie d'la crème J'ai connu l'âge d'or du rap, quelques déceptions dans le hood Moi, de la gloire, je m'en tape, avec les frères, on s'serre les coudes</t>
+          <t>This is a Nass production Mmh, mmh Merde alors Tu veux la guerre, juste après, tu bipes ton père ok À rien ça sert de faire pousser des affaires gamberge Plus de mala, tu t'es retrouvé à terre mala Maintenant, malade, tu grattes des blondes à l'after Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Lunettes de ski dans le Rover, derrière les pecs, j'ai un grand cur piou Loin des traîtres, loin des pompeurs, tu fais le fou, après tu ramènes ton père fiou, fiou, fiou Vingt projets après, j'ai les dents aiguisées, oue, oue, oue les schmitts ils ont des gros pet', des charbons déguisés wouh, wouh Frérot, tu deviens chaud bizarre quand t'as tisé, wouh tu dis que tu tires, tu sais même pas viser wouh J'suis dans des bails de malade, pas de mala, pas de cala, peu de câlins rah, rah, rah Pas de calibre, une pensée aux frères pas libres, à ceux qui rêvent de palettes ou de conduire la Ferrari wouh Pas b'soin de palettes au volant non, non, j'suis dans la soucoupe volante non Pas b'soin de palettes au volant non, j'suis dans la soucoupe volante Ça sent la beuh, fais vura, j'suis l'vingt-deux Ça sent la beuh, fais vura, j'suis l'vingt-deux Oh, j'suis carrément dans l'truc han Carrément, trois By SFR, mec C'est carrément les stup' brr, brr, han, les p'tits sont dans Matrix, Opinel On t'fait carrément du X, han, c'est que les frérots, que les numéros Que la plata, que la pasta, sa grand-mère taffer au bureau, oh Fer tchécoslovaque, boîtes de 30 arrivent sur l'Zodiac 'fack J'ai même pas bu d'Jack, bande organisée comme si t'avais vu l'Diable Et sur les jantes, ça roule, Vovo j'rentre à la 'son, minable 7.65 près des couilles, ça bosse pas la zone abdominale Ça tourne comme des civ' en automatique, tout niquer en équipe, c'est la thématique Pour le territoire, entre ennemis, ça s'éradique, sous shit et alcool, t'es tarpin lunatique J'entends le bruit du RR-1000, ça te cherche ça zone, outillé outillé Dans le quartier, la guigne ça va plus vite qu'une Audi, eh Audi, eh Il a acheté une Kalash' parce qu'on lui a dit Pas besoin d'savoir viser savoir viser À Marseille, à peine majeur, ça t'fait des RDC très organisé organisé À l'aise, j'vais t'niquer ta mère et tu ne verras jamais l'iPhone 13 C'est nous la tess, déstresse, K-K-K.O.F.S J'lui ai donné un faux nom, elle m'a donné un faux num', c'est une pute celle-là hey Elle fait la pucelle, j'prends mes lovés, je me taille voir les putes à Bruxelles wow Elle est plein de feinte, elle repart avec moi, elle est venue avec eux Je la branche à 20 heures, je la nique à 22, j'ai allumé la lumière, en fait, elle était 'quinte Que veux-tu que j'te dise de plus ? J'vise la tête ou je vise le but Le paradis est sous les pieds de ta mère mais t'es un fils de pute Là, j'suis en Audi, j'pars en virée, j'fais le tour de la ville, Soma me dit Fais-moi tirer Zone sombre dans le cendrier, fais pas trop de boulettes à la quali', mmh Non, tu n'peux pas l'nier, cette année, je vais te la bousiller, mmh Dom Pérignon, sapé, elle me trouve mignon Toi, tu fais le fou, quand j'sors le Glock, tu d'viens tout mignon J'sors mon mzing et tu zina, on t'allume, tu te zimen On t'fait danser, danser, dan-, danser, danser, dan- Tu vas crier Zim Zimma Oh, faya bondé, toi, tu n'arrives plus à bander Moi, j'vide mon barreau, j'pense aux frères derrière les barreaux Brillant, brillant, grillé, grillé, j'roule un pivado Vaillant, vaillant, toujours prêt pour monter dans un braquo' Me rate pas, j'reviens, j'te rate pas sur la vie d'ma mère Besoin d'dégun, Belsunce Breakdown T-MAX, pote-cra, j'suis une 22, donne-nous le, donne le go Andale, gandale, faut faire carnage à la Kalash' Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Survêt' Quechua ouais, dernier Merco ouais, showcase dans l'club ouais, faut faire des choix ouais Sur mon perchoir ouais, dans mon ghetto ouais, j'vois le bédo ouais, coupe au séchoir Survêt', baskets, plein de business, ça s'mange, ça s'tue comme du beefsteak Y a la fusée dans le Grinder, calibré comme les Peaky Blinders J'vois loin dans les étoiles, ah, et j'vois qu'tu es sûr de toi, ah Moula, moula, de té-cô, kichta lourde en mandat de dépôt Moula, moula, de té-cô, kichta lourde en mandat de dépôt J'suis sur la Corniche, j'fais le Tony, la gow est bombée dans le bolide ouais Bernard Tapie au bout du fil allô, allô, j'suis immortel comme le COVID Elle fait la fille bien, j'veux une coquine, terr-terr, pin-pon, c'est la routine C'est Marseille, salope, c'est pas Brooklyn, c'est Marseille, salope, c'est pas Brooklyn Prince de la ville dans le binks, j'fais le biff en équipe comme dans Heat comme dans Heat À 2000 sur l'périph' comme Lewis, on est quatre et pas dix et pas dix, dix Tu veux appeler l'dire ou applaudir, garde la monnaie, tu peux arrondir Elle a un sale boule, je veux rebondir, si je tire, c'dans la carotide Sur le bitume, j'fais du Billie Jean, c'est bouillant, c'est la canicule 40 degrés à l'ombre, c'est les Philippines T'as reconnu le matricule, tête cramée dans la tribune, y a la zone, y a la tribu, attitude depuis le début le début Le J me fait la passe, unh, et moi, je mets le but le but Je me regarde dans la glace, unh, j'ai jamais fait la pute Pour avoir la classe, pas besoin de notice, ça fait bang, bang, bang, c'est l'agonie, la police On les aime pas, c'est la folie, j'vise la lucarne comme le coup d'tête de Boli Abonné, j'suis dans le bolide, j'm'en bats les couilles de Clyde et Bonnie Ça s'propage comme le COVID, j'suis dans les airs comme un Boeing Alcoolisé, dans le bordel, elle a sympathisé Elle a trop sucé, on s'en bat les couilles, on la f'ra resucer On est trop rusés, sans l'succès, on s'est quand même propulsés Oui Paris, c'est magique magique, mais Marseille reste unique ouais Ici, y a pas d'limites limites, champion dans l'foot et l'shit Bloqués dans l'tiekson, certains voient pas plus loin que Lançon Merco GTS, conduite normale sous ballons hmm, ouais Fourgon d'armes de l'Est, camion semi plein d'ballots La moula jaune, ouais la moula jaune, comme la Bonne Mère, les cigales sonnent ouais, jusqu'à la Canebière En crabe sur les RR 1000, j'passe par les rues où y a pas d'civils vroum, vroum Fond dcinq, j'suis à Bougainville, j'passe faire un tour vers le centre-ville Ah putain, j'ai le pétard dans le jean, cache-le vite, y a les hams paw, paw Grosse kichta qui s'allume comme Billie Jean, 3.5.5 dans le sac, oh Je baise ma vida, j'vais m'vider, j'vais piler, c'est la fin, fume ton dernier pilon J'suis serein, t'es nerveux, J't'ouvre la tête au marteau, t'es un d'ces fils de chien qui retient que le seul nom Je m'endors c'est la guerre, j'me réveille, c'est la même Ouais ça fait très longtemps qu'on a banni la paix Je sors du forgeron, je parle une première fois, la deuxième fois je te fends le crâne a l'épée 20 heures de cellule sur 24, à 3 dans un 9 mètres carré, 40 degrés je suffoque J'connais les tes-traî, ouais toujours en retrait, jamais d'la vida j'tourne mon dos, gros je pivote La Grinta, du monde dans les gradins, se lève et m'applaudit, moi, j'attends la Ôla J'suis numéro 9, c'est moi qui plante les butes, et je choque comme cartel de Sinaloa brrw Parlez, parlez ça fait guili-guili 1.3, 0.9, j'suis frais comme les Guirri J'suis vrai comme un DZ, j'suis vrai comme Valkyrie Je reviens du désert, j'ai très gros appétit Ça remplit un chargeur et ça l'vide dans ta mère Rajoute deux-trois zéros sur mon putain d'salaire, sur mon putain d'vécu, sur mon putain de compte Sur mon putain de score, ouais, la putain d'ta mère Vite fait, bien fait, j'pose le truc, machin qui frotte mon fute 3.5 tout black, t'sais qu'ça pique L'équipe 1.3, t'sais qu'ça kick Toi, reste à sec, p'tit insecte On s'fait solo, nique ta secte, j'taffe sans cesse J'veux pas d'C.C, un peu d'Vovo décomplexe RS4 break, que des têtes au carbo, ça travaille les pecs sans penser aux abdos ouais Tu vois là, l'beat, j'l'ai choppé par l'cou, même à 46, tu vas l'saigner partout Crochet dans les artères, p'tite merde C'est plus des gifles mais des balles qui s'perdent La jalousie, pour moi, c'est un mystère, comme ceux qui pompent fort un peu comme leur sister comme leur sister T'as reconnu l'accent d'en bas ah ouais, fais pas celui qu'entend pas ah ouais On va te mêler comme Tong Po, tu trahis, nan, c'est pas sympa eh ouais Fais nous la passe le J, bah ouais, tout le Sud réuni, bah ouais C'est fini, donc n'insiste pas, à mes yeux tu n'existes pas 6h du mat', je dors pas, j'écris des rimes hors-pair J'm'en sors pas, tu sais comment je compte faire C'est le retour de la Soude, on reprend du service Faut des sous et y faut les faire vite Le son, c'est de la bombe, tu l'entends, tu sers fils T'en voulais, t'es servi Ne fais pas la bombe, tu peux pas me plaire miss Car tu fais trop la folle comme c'est pas permis Bang bang bang j'arrive comme un Fayzer Dans les rues de Mars' avec le flow assassin Ça veut piquer la gadji de ton poto, c'est malsain Oh, fils de pute gros fils de pute C'est Massilia, on est des milliers, on veut des milliards, on prend l'or s'il y est Ouais c'est Massilia, gros, c'est la guérilla, là, c'est la série A, 1.3.9, c'est sérieux J'crois qu'il mon pris pour un con, hein, j'crois que j'vais péter un plomb, hein J'croise les doigts et je compte, il m'dit Tu vas faire quoi ?, j'vais sortir un pompe C'est les quartiers Sud au volant, 1.3.9, c'est affolant Demande à mes collègues, ne crois pas qu'j'suis à fond, là Tu veux tester mais t'es trop lent, j't'efface en rigolant J'envoie un freestyle et tout le quartier fait la ola Place au pirate place au pirate, voiture full black voiture full black Aujourd'hui, j'fais le mac', j'mets le bandeau à Tupac Sur moi, j'ai une plaquette, 308 break c'est la bac Pare-balles et les claquettes, j'suis cramou, j'crois qu'ils me traquent J'ai pas changé d'époque, j'suis toujours sous bob J'croise une gadji, elle m'dit Tu rappes bien, mon bébé J'suis dans la loc', j'passe à la lim' J'crois qu'cette histoire va se finir à Pépé Lacoste TN, le boss, toute l'année, rien qu'je bosse J'ai même plus le temps d'me poser, j'vois les potos sous rosé Changement, j'arrive dans le temps mort, si tu m'fais la passe, ça va faire but Y a des putes qui font des mecs en or, des filles bien qui font des fils de pute Sur la côte en Bande organisée, que des carbos chargés dans le 4x4 T'as vu l'gang, tu veux sympathiser, grosse équipe de vikings barbue comme à Kattegatt Trop de coups de salope et je suis consterné, que tu t'inventes des vies, arrête, on t'a cerné Ça prend la route, ça pilote avec les g'noux, ça roule un pétard à 15h encore les yeux cernés Ton blaze est noté sur le carnet, p'tite merde, dis-moi qui tu voulais berner ? À la base, t'étais un mec bien, en kehba tu t'es réincarné J'traine avec des mecs clean, j'traine avec des mecs louches J'traine avec des Kevin, des Marvin, j'traine avec des mecs chouch Posté sur le terrain, toute l'année, toi t'es sur le banc d'touche Chaud comme elle sentait fort, tous ses morts, na3teha bain d'bouche C'est Marseille, poto, tempère, un clic-clic dans l'fute pour t'enterrer Ça claque la kichta loin du terrain, minimum, on brisera tous tes rêves Le Soleil s'lève pour tout l'monde, toi, t'es à l'ouest à l'ouest En Moonwalk, on débarque à l'aise à l'aise Dans le Vito, j'recompte la somme et là, midi-minuit, j'suis pump it up Hola chica, me gusta tu ? Vura vura, ne bois pas tout Tu trouves ça embêtant, qu'à la fin, ça t'met pas dedans Trop d'gentils jouent les méchants, devant l'canon deviennent tout doux Ils manquent du shit dans l'secteur, ça l'ravitaille en Subaru 13 Organisé, bordélique, grosse équipe, venue frapper comme un corps d'élite Marseille trace sa route hors des pistes, hors des pistes, bordélique Y a ceux que la Haute dénigre aie, passe entre les gouttes de pluie Rimeur de feu, plie en freestyle, enfant du cagnard a trop de style Aller, aller, faut laisser passer, parole d'hier est toujours valable Cruelle, insolente et restée vraie, éclats inespérés dans nos palabres Arkana, loin des radars oui, oui, capuchée comme La Rabia ah Un gros doigt devant vos caméras, le smile des favelas malgré les drames, hélas oy J'suis l'reflet de ma zone, puche-caté sous l'Aston, hey En PV, elle m'aborde, en public, elle veut qu'on s'pète, hey Quand t'es discrète, c'est bon dél', ils m'ont déféré pour m'libérer, fais l'bisou à ton bae On fait pas crari, du bloc au siège de la Ferrari Les Marseillais cramés sur Paris J'en veux une qui poucave pas son mari C'est des bambinos, à la place, jai mis lappuie gauche À la place de s'plaindre, fais les choses mi primo 13 Organisé dans la Benz à Ciro Fais pas l'voyou, t'vas t'manger l'revers à Nadal Tu fais le fou mais pas d'manies avec Madame La vie, c'est chaud c'est chaud Sur Paris, c'est chaud c'est chaud Sous vodka, Capri Sun, mes pensées sont bien sombres Quand elle bouge dans la salle, j'aimerai l'avoir pour moi seul Solo solo, solo solo, pour moi seul Solo solo, solo solo, pour moi seul Elle est pleine de manières mais j'ai fini solo Elle est belle, elle est mimi mais j'ai fini solo Solo, solo, ouais, solo, ouais, solo, mais j'ai fini solo On connaît le mitard ouais, on connait le danger ouais Ici, y a pas de blabla, pour la monnaie, ça blague pas, fais gaffe, ils vont te manger ouais On arrive au quartier ouais, tout le monde a plongé ouais Les petits sont barbares, font des trucs de bâtards, vraiment, tout a changé ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Eyah, voilà Sopra' mbaba, eyah, Sopra' Saitama, eyah Bientôt plus connu qu'Halliday, eyah QN dans le sang, eyah, quetas dans le son, eyah Choqué quand tu lis mon CV, eyah T'as mis une croix sur Marseille car tu sais qu'c'est là qu'est l'trésor 13 Organisé pour l'oseille, normal, ici, c'est les Cités d'or La Bonne Mère la huitième merveille On est vrai depuis les dinosaures Y a vos rappeurs dans nos cendriers, eyah En position, j'ai la fenêtre de tir, donne-moi le go, on me mandate et je tue Celui qui fait le plus cramé qu'en dit le plus aux stup' C'est souvent les proches qui seront les plus grosses putes Le mec, il investit, mes couilles, il veut le bénéfice T'es pas rentré avec la merde comme père et fils Véridique han, vérifie, une frappe de bâtard, DP qui fait la passe décisive, nan Si t'as la haine, y a la médecine douce, au loin, je vois ta grand-mère en train de faire le signe JuL On va épargner les femmes et les enfants 13 Organisé à l'infini comme un puit sans fond Minuit sur la Daytona, le charbon ferme, c'est pas raisonnable Y a des clients qui viennent de Saint-Cannat, en Clio 3 remplie de nanas 4 heures j'arrive pas à dormir, j'appelle Smogo, direction l'after J'fais des tout droit, y a une queue d'bâtard, j'repère une blonde, c'est un avatar 13 Organisé, fuck la banalisée, tu vas analyser, tu vas réaliser Même alcoolisé, t'inquiète, on sait tous viser Même alcoolisé, t'inquiète, on sait tous viser Shouf, la collision, le boulon, y a tout l'monde, on nique ta mère au harpon Réponds quand tu me dois du bifton, des litrons, ouais, j'vais compter les moutons en prison La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais Marseille, c'est l'meilleur, mon frère, ça date pas d'hier Né au cur d'la haine avec une mentalité meurtrière Nous sommes des briquets allumés dans la poudrière Ça fait boom, que des hommes, tu l'ressens, ça résonne Monte le son à balle, j'suis la voix de la jungle Pour ceux en cavale, empegué ou à jeun J'fais pas le voyou mais s'il faut, j'sors le machin J'représente le 13 de Tokyo à Agen Le revers à Nadal, j'fais péter la raquette Fais pas trop la mignonne, j'te baise sur la moquette Ravale ma fierté, j'suis qu'un homme sur la planète Et j'dis merci à JuL, il m'a sorti d'la retraite, Tonyno MC du ShootStar ouais, bande de bâtards ouais Faut éviter les radars, 50 frères à ma table 50 frères à ma table, j'ai chargé la AK au volant du A4 J'envoie la frappe, t'es khapta J'connais bien ta maman, tu peux m'appeler papa Ra-ta-ta-ta, la mule, c'est ta tata J'ai pas l'vague à l'âme, j'suis prêt pour l'Valhalla Y a tout Marseille sur l'titre, ça sent le classique, sent le hit Ça sent la rue, ça sent le shit, j'entends déjà les rageux parler dans le vide Parle mais ton flow est mort dans le film, j'suis dans le sale, j'suis dans le dîn J'suis dans le stade, j'suis dans la ville, j'suis dans le stud', j'suis dans ma suite J'fais dans le dur, j'fais dans le sweet, frère J'suis pas dans la série mais j'suis validé 12 mesures dans le barillet Passe au contrôle qualité, flow bien calibré, zone 13 quadrillée Hasta la muerte, 13 Organisé, l'projet est lourd, gros, t'as pas idée C'est QLF, wesh yo, pas de pression, laissons passer les mauvais garçons akha J'ai vu ta sur en caleçon, vas-y, descends, arrête de regarder les nichons akha Le J dans la maison, arrête de faire le mec qui parle trop, on va te baisons Et tu as vu, j'ai pas mis la veste, torse nu comme à Bucarest Elle est bonne, elle veut que j'la baise, nique ta mère, on te laisse les restes Organisé, 13, calibré, dans l'tieks, y a le CZ chargé chargé Maintenant, vide la caisse ou alors, j't'agresse comme un vrai Marseillais brr J'pense à la folle qu'j'ai cassée, aux frères au shtar qui s'tuent au pasta pasta J'récupère, j'envoie un placé, toi, t'es un faux boy, fais demi, trace trace J'arrive à fond, fais de la place, dans la 'teille, j'vide la canette, han Sur scène, j'arrive en claquettes comme le J et j'fume sur la plaquette, han plaquette Et pas mercé, t'as tout claqué au tiercé tiercé On sait qu't'es en train de nous pister On sait que tu tapes la C, non, fucking, non, non J'remonte la pente en SLR, c'est nous les boss, bande de comiques Ils sont nombreux, j'vais faire un strike comme une grosse partie de bowling T'as le nez dans la farine, moi, j'ai les épaules solides Dans la Matrix, j'suis dans X-Men, j'suis dans un film comme Wolverine J'suis avec la zone en personne, t'es dans les bouchons, tu klaxonnes 13 Organisé, ça cartonne, passe à La Caste', ça charbonne 1.3, nous le sommes, partout dans le sale, ça mise dans le son, ça mise dans le sale 68 000 vaillants dans le stade, 100 000 dans le sac, s'amuse dans le sale Tire-nous vers le haut, pas dans la tête, jamais formaté, vas-y, calmate On va tout gâter et ouais, ma gâtée, t'aimes te faire mater, vas-y, callate Ah, ah, poto, que pasa ? C'est notre quart d'heure, coup du pied, Carter La bella ragazza, c'est notre quatre-heures, a mi casa, cité Carter C'est Marseille, bébé, on t'a déjà dit, la Kala' sortie du capéo Pour les gens d'en bas, plus de tragédie, lève ton verre et zumba caféw À travers les baffles, j'te mets des biffles, j'ai vendu la came, j'ai fait du chiffre Yo, la police me traque et les bâtards me pistent, j'suis à bord du Zodiac, Jack Da' au fond d'une crique Y a pas d'intérim dans la zone comme Kery, on est des enfants terribles, calibrés comme Guirri Entrée sur l'périph', de la drogue dans l'ferri, de l'autre côté d'la rive, dans le brouillard, j'navigue J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' Charcle les kilos comme un libéro eh, ravitaille toute la French Riviera 13.0.15, c'est le numéro eh, en temps et en heure, on vous livrera Y a trop d'homicides, pas d'super-héros, les mains sales dans la street, qui les lavera ? J'vis la zone, c'est la vraie, y a pas d'caméras, j'fais la 'sique et la suite qui vivra, verra Mets du Jack et des ices dans le gobelet, j'suis léwé, j'fais le beau, quand tu tarbala Plus le temps, j'vois plus l'heure sous la jubilé, j'en roule un, en roue libre, c'est d'la Dybala Très organisé comme dans Heat, le chemin est long et dur comme ma bite Vas-y fais le fou qu'on rapplique, on t'envoie des piques on t'la pique super rapide Salope, t'as fait la pute on te veut plus dans l'équipe, j'suis entouré d'cramés que tu vois pas dans les clips Tu pries pour des lovés, on prie pour que Dieu nous guide Et quand y a des tes-traî, on prie Dieu pour qu'ils nous quittent Ma gadji, elle est chargée, chargée Ma Kalash', elle est chargée, chargée Ils font les fous mais les gars sachez, sachez Que c'est cagoulé qu'on va les chercher Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa M.A.R.S, Les Oliviers, c'est la zone, faut qu'on encaisse Des grosses sommes en vitesse, faut des mapes' pour la madre, c'est chaud, faut de l'espèce Moi, j'reste hip-hop et ça, depuis longtemps Salope, vas-y tiens prends ça dans tes dents Seul dans ma tête, j'mets les pleins phares, pied droit collé au plancher Trahison nocturne, cauchemars, 1.3, danger Gros culs, chichas, ballons, welcome 13 Organisé C'est la guérilla, donc prévient Macron que La Marseillaise, on va la remixer On va te faire du sale, et t'as pas idée, te faire danser, comme t'as pas idée Demande à Gastambide, Validé, Marseille City, ouais, qualité Viens pas chez nous, on va pas t'aimer, fais pas le fou, ça va pas t'aider hey Et si tu parles de foot, d'étoiles et de coupe, on est les seuls qui l'ont soulevée Et ouais mon pote hey, quoi d'neuf les folles hey, en direct d'la zone hey, c'est Vinz, tu connais Et ouais mon pote ouais, ouais, quoi d'neuf les folles ouais, en direct d'la zone ouais, c'est Vinz, tu connais J'arrive en , Tokarev, détonation devant le bloc ça veut brasser comme dans Blow Sur la côte en Christian Dior on fait les beaux, FrèresJ enfoiré 13 organisé, j'suis au hazi, paire de Yeezy, argent easy Dans la cuisine, pochon est vert, j'ai pas fini, c'est trop facile Notre mode de vie, il vous fascine, bande d'enculés Numéro 4, j'soulève la coupe, Basile Boli, fais moi la passe j'mets un bowlin J'ai l'attitude d'puis ma jolie, ça vient d'en bas, c'est la folie, j'suis avec l'ovni Hey yo, ouais c'est Marseille p'tit cur, si t'as la mentale tu seras ma baby girl Hey yo, 6 colis dans l'secteur, ouais on t'ramène que la frappe même devant l'inspecteur Hey yo, on a la Champion's League, hein, on vous laisse Neymar et la Ligue 1 Pas l'temps cest chaud dans la ville,zin y'a les schmits je crois ça lever la hein Plus de 13 , et j'ai beau on fait des bails Ça descend grosse kichta vers l'Espagne, ça remonte, distrib', tasse la maille Marseille, c'est malade, Coca ou salade J'suis dans les parages, j'recherche une Kalash' Tête dans les nuages, la douane au péage Les petits vont te faire 4000 la Kalash' Appel d'Algérie, le couz' veut un visa, la p'tite a grandi, donne son cul à Ibiza Frère, t'es trop bizarre ouais, t'es trop bizarre On va t'faire glisser sans pitié comme Ivar Zipette, pépette, vol à la tirette, chica chica, la p'tite aime les galipettes Showcase à Phuket, touche pas la mallette, le P.38 est caché dans l'appuie-tête Eh ouais c'est l'Algé', ra-ta-ta j'vais t'apprendre à danser hey J'fais des hits chaque été, là, c'est l'hiver, j'vais t'apprendre à rapper RS6 sur la Corniche, ça va vite J'ai chauffé la miss et les disques Y a de l'oeil dans l'air, sa mère, ça ma fatigué J'ai mis la cagoule, j'suis rentré dans le 13 Organisé Qu'est-ce tu as, tu veux qu'on s'tape ? Ok, chez moi on démarre au quart de tour Même chez toi, tu m'entends partout 1.3 gravé sur l'bambou Yeah, on arrive en ville comme Balavoine Déstresse, l'ouvreuse n'a pas vu la douane Devenu Jedi, le jeune padawan, on n'oublie pas l'époque où on n'avait r-one eh Chemin de la Bigotte, que tu prends la mâche, que tu bouges, tu gigottes hey, hey Descends du nord comme Visigoths, que ça paranoïd, gros, que ça psychote Eh, eh, bande organisée ouais, ouais, ouais Eh, eh, sors le cross volé ouais, ouais, ouais Fais pas l'con papy, j'te mets au tapis J'suis dans l'ombre tapi, pendant qu'tu tapines Psychothérapie, emmerdeur de base J'suis dans la partie comme un vendeur de taz Whisky ice, Marseille vice, 13, très au point, très organized Hypnotized, c'est une prise d'otage, c'est pas d'la folie, c'est du pilotage Roule, comme Jo la Mitraille, dis-moi si j'te saoule Je n'ai pas le time pour ces fils de poules Avant qu'je me taille, j'fais le signe de JuL le signe de Ju-Ju-JuL De retour sur les prémices, entends ces folles qui gémissent Marseille, tu le sais, miss, on fait des aces comme au tennis Boss One et Mombi s'adaptent, on est disque d'or, nous, ça date Style en survet' ou cravate, dans l'rap, on te met des savates Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà J'suis l'frère d'une star depuis la primaire Donc les jaloux, les lovés, les gens louches, les gens vrais, les mauvais Vérité, on connait, on connait, ça parle mal en public et s'excuse en privé J'suis dans l'espace, j'rentre partout, j'prends tout et j'pars Poto, j'suis en croco, défouraille la compo' Pas de bimbo, pas de mytho, pas de m'zigues dans la Vuitton J'ai les locks dans le guidon, j'vide mon sac Eh oui, papa, j'ai le flow pam-pam, mi corazón, tu aimes ma zone, scooter, peuf peuf J'fume ma chicha en Fiat 500, en semaine, on est plein de flics, descentes Bouge-toi de là que je mette l'essence, j'ai vidé mon carburant dans la piste de danse Oui, ok, je vous pisse sur les dents, c'est ma façon de vous dire bonjour poliment M'en bats les couilles qu'tu sois le meilleur, nous, on donne toujours l'meilleur Ailleurs, on voit le néant, Marseille, c'est notre régiment C'est moi le petit bâtard qui fait trembler cette putain d'ville eh J'entends que des ragots, mais dis-moi, frérot, on flippe de qui, nous ? eh Tu connais ma team eh, la monnaie du shit qui nous active eh Que des vantards, starfoullah, retiens-moi, j'vais faire une dinguerie Viens voir dans ma ville, poursuites, braquages, bendo Qué pasa bellissima, reste tranquille ou prends l'métro C'est bête, elle me filoche eh, appelle de phares dans l'rétro Dans l'réseau depuis minot eh, fais beleck à la Mondéo Pour kichta, j'assassine, ça boit du Coca dans la bassine Quand tu dors, on tartine, j'suis en d'or et platine Tout est illégal, à 240 sur l'A7 J'me taille au Sénégal après t'avoir laissé par terre Dadi Marseille, étoile légendaire sur le maillot On met ton camp sur le banc, j'ai le col levé à la Cantona Crois pas qu'la vie c'est un dream car, dehors, c'est marche ou crève Moi, j'ai toujours la même team, j'fais toujours partie d'la crème J'ai connu l'âge d'or du rap, quelques déceptions dans le hood Moi, de la gloire, je m'en tape, avec les frères, on s'serre les coudes</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Je le sens venir Mon jour Je sens sa présence comme une proie J'attends Lundi, mardi, dimanche, peu importe Tu n'as jamais aimée les jours de la semaine Tu me disait toujours que le temps n'est pas divisé en sept Ou en vingt-quatre Ou en douze Le temps est une surface, comme tu disais, comme les autres Jamais séparé de l'espace Jamais aussi docile que l'on aimerait Un jour, tu as vu notre place dans le monde Comme si toi, tu t'en étais séparée Ce n'était pas une vision Car nos cinq sens sont trop primitifs pour te comprendre Je pense Mais d'un coup tu savais Et tu ne devais pas me le dire, non plus Je l'ai vu dans tes yeux Le temps Tu mas dit que tu t'étais sentie petite Comme un enfant qui essaie de voir au dessus de l'armoire Une telle lassitude que tu voulais en mourir Mais que tu étais dépourvue de sentiments depuis Je ne comprenais pas pourquoi tu ne m'aimais plus Mais tu m'avais expliqué que Quand dix hommes se tiennent debout L'un dentre eux est toujours coupable de son crime Et que tu ne te lèverais pas You might also likeJ'ai pris du temps à comprendre de quel crime tu parlais Serait-il simplement de m'aimer De te laisser emportée par une douceur trop humaine à ton goût? Je me le demandais En te voyant glisser entre les écrans de ma vision J'avais pensée que Face au vide Tu t'étais perdue Tu avais laissée la partie de toi qui me connaissait dans le coin dune lacune comme offrande Mais Tu n'as connue aucune abîme Car l'espace, le temps et leurs compagnons sont bien le contraire Tu as rencontré le tout Le congestionnement de l'univers que nous Les autres N'avons jamais entériné Toi, tu l'as consacré Tu avais compris que tu avais rencontré l'infini Et quil t'a montré tout ce qu'il te manquait Avant de te l'arracher Le baiser entre le gouffre et le tout est bien mieux que les nôtres Et quand la septième dimension te caresse la nuque En contact humain n'est que lagent pathogène qui te retiens C'est pour cela que je n'ai pas pleurée après que tu partes Ils t'ont choisis Ils t'ont montrée que tu n'est quun cafard qui invente la roue et le vaccin dans un univers ou deux qui cherche beaucoup plus loin que le prix nobel Aurais-tu été plus heureuse si tu serait morte dans un lit Confortable d'ignorance et de prétention dune banalité répugnante Comme nous? J'en ai aucune idée Tu n'as pas eue cette chance Ce don de l'ignorance Depuis toujours tu as sentie son appel Et tu l'as suivi jusquau jour où tu as sû Je l'entends aussi La cacophonie des étoiles me chuchote dans l'oreille gauche Et m'offre de doux baisers sur une peau trop humaine Trop jeune pour le mériter Ici, dans la petite bulle qu'on connaît Où les disputes de cafards dans une tour d'ivoire nous occupe Où on est assez petits pour penser que tout en dehors de nous est le vide Et nous, nous sommes le tout J'attends La caresse de l'univers sur mes lèvres me promet que je suis guettée Que tu me vois toujours Si mes années de piété ignorante ne te repoussent pas</t>
+          <t>Je le sens venir Mon jour Je sens sa présence comme une proie J'attends Lundi, mardi, dimanche, peu importe Tu n'as jamais aimée les jours de la semaine Tu me disait toujours que le temps n'est pas divisé en sept Ou en vingt-quatre Ou en douze Le temps est une surface, comme tu disais, comme les autres Jamais séparé de l'espace Jamais aussi docile que l'on aimerait Un jour, tu as vu notre place dans le monde Comme si toi, tu t'en étais séparée Ce n'était pas une vision Car nos cinq sens sont trop primitifs pour te comprendre Je pense Mais d'un coup tu savais Et tu ne devais pas me le dire, non plus Je l'ai vu dans tes yeux Le temps Tu mas dit que tu t'étais sentie petite Comme un enfant qui essaie de voir au dessus de l'armoire Une telle lassitude que tu voulais en mourir Mais que tu étais dépourvue de sentiments depuis Je ne comprenais pas pourquoi tu ne m'aimais plus Mais tu m'avais expliqué que Quand dix hommes se tiennent debout L'un dentre eux est toujours coupable de son crime Et que tu ne te lèverais pas J'ai pris du temps à comprendre de quel crime tu parlais Serait-il simplement de m'aimer De te laisser emportée par une douceur trop humaine à ton goût? Je me le demandais En te voyant glisser entre les écrans de ma vision J'avais pensée que Face au vide Tu t'étais perdue Tu avais laissée la partie de toi qui me connaissait dans le coin dune lacune comme offrande Mais Tu n'as connue aucune abîme Car l'espace, le temps et leurs compagnons sont bien le contraire Tu as rencontré le tout Le congestionnement de l'univers que nous Les autres N'avons jamais entériné Toi, tu l'as consacré Tu avais compris que tu avais rencontré l'infini Et quil t'a montré tout ce qu'il te manquait Avant de te l'arracher Le baiser entre le gouffre et le tout est bien mieux que les nôtres Et quand la septième dimension te caresse la nuque En contact humain n'est que lagent pathogène qui te retiens C'est pour cela que je n'ai pas pleurée après que tu partes Ils t'ont choisis Ils t'ont montrée que tu n'est quun cafard qui invente la roue et le vaccin dans un univers ou deux qui cherche beaucoup plus loin que le prix nobel Aurais-tu été plus heureuse si tu serait morte dans un lit Confortable d'ignorance et de prétention dune banalité répugnante Comme nous? J'en ai aucune idée Tu n'as pas eue cette chance Ce don de l'ignorance Depuis toujours tu as sentie son appel Et tu l'as suivi jusquau jour où tu as sû Je l'entends aussi La cacophonie des étoiles me chuchote dans l'oreille gauche Et m'offre de doux baisers sur une peau trop humaine Trop jeune pour le mériter Ici, dans la petite bulle qu'on connaît Où les disputes de cafards dans une tour d'ivoire nous occupe Où on est assez petits pour penser que tout en dehors de nous est le vide Et nous, nous sommes le tout J'attends La caresse de l'univers sur mes lèvres me promet que je suis guettée Que tu me vois toujours Si mes années de piété ignorante ne te repoussent pas</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ma gadji C'est ma gadji J'crois que je vais finir solo Ma gadji en a marre que je traine dehors Des cheveux longs sur mon polo, merde alors alors Ma gadji, elle a le blues de moi de moi Mais c'est vrai que desfois, elle doute de moi Je lui ai dit Écoute-moi, je suis fou de toi Mi amor, je l'aime trop toutes ses manières J'la connais depuis jeune, ça date pas d'hier Elle était là bien avant toute ma carrière C'est pas mes potes, c'est elle qui surveille mes arrières Oh, ma gadji, j'compte sur toi fort, ne me salis pas Oh, ma gadji, j'te fais confiance, ne me trahis pas Forte de caractère et elle a trop de manières Elle veut la robe, elle croit qu'on va se marier On vit dans une époque où elles sont toutes 3aryan J'suis dans le Porsche avec une belle Italienne Trop de maquillage, pas de mariage J'suis aux Baléares avec Nawel et Mariah Posé en terrasse en train d'siroter sangria J'ai une préférence pour les métisses et 3arbia Pété comme Bob Marley, elle est bonita 'Sais plus comment parler, señorita J'ai sorti la kichta, que des pistaches Elle a le boule chargé, mamacita La vida loca, la mort,ou l'hôpital Kiffe la coca la couz' à Tchikita J'appelle l'avocat, j'ai rangé la guitare, j'suis cramé You might also like Oui, c'est mon cur, c'est ma gadji, je vis, je meurs pour ma gadji J'meurs pour mon cur, pour ma gadji, j'me sens tout seul sans ma gadji Trop belle, trop belle, top model, trop intelligente, Marie Curie, Prix Nobel J'arrête mon bordel, j'arrête mon bordel, tout autour du monde, y en aura jamais deux comme elle J'vois ni les jours ni les années qui passent, j'vois que l'amour et jamais je me lasse Je sens la chaleur comme le feu sur la glace, le feu sur la glace C'est la meilleure à mes yeux, c'est la plus belle, j'suis fou d'elle Ma gadji C'est la femme de ma vie, c'est ma collègue, ma prunelle Ma gadji Malgré les dettes, les problèmes et les querelles, c'est ma belle Ma gadji Quand tu parles d'elle quand elle se promène, de quoi tu t'mêles ? C'est ma gadji Ma lova, je sais qu'j'te rends loca, on s'était dit jusqu'à la fin mais bon, l'argent m'appelle Faut qu'je taille, oh, ma baby lova, tu peux rester si ça t'plait, tu peux rester mais sans t'plaindre Tu peux rester, bébé, peux pas tester tu sais, t'es consciente mais quand même, tu nies les faits J'te porte comme un trophée, p't-être que j'en ai trop fait Oh nana, non, c'est pas ma go ça Des fois, j'revends la drogua, baby mama, j'refuse de perdre un dollar Mais ça, c'est normal, elle a passé ma passion mais j'dois penser à mama J't'analyse, tu peux partir, tu l'feras quoi qu'je dise C'est vrai, j't'ai trompé plus d'une dizaine mais t'es ma gadji pour la vida Te mettre avec moi, c'est les problèmes han, j'en ai marre de voir couler tes larmes au parloir Je me rappelle de nos virées dans le Cayenne bam, bam, c'est toi la plus belle, pas b'soin de miroir Elle m'envoie je t'aime sur le PGP brr, on était ensemble, j'avais pas one Dans le trafic, jeunesse agitée, on ira à la Mecque et pas en Thaïlande Et la noche, j'ferme le rrain-té, tu cherches à me joindre mais j'suis pas là La GameBoy ne fait que bipper brr, je sers les clients, ne m'attends pas Je rentre tu fouilles mes jeans, tu penses que j'suis avec des folles nan, nan C'est toi la seule que je kiffe, de mon amour, t'as l'monopole brr Ma gadji, ma nana, mon bébé, ma moina Elle me rappelle qui est l'ennemi car j'oublie tout sous marijuana Mon bras droit, ma copilote sur la route du cash à fond, évite la douane Ma baby, ma gâtée, un mélange de 3ada et diroulou l'henna Ma Teresa Mendoza, panama pas sur le même dossard Lui qui s'manque j'vais le crosser, j'vais lui faire danser le makossa Elle me rassure quand je doute, elle sait d'où on vient donc faut faire le double On va d'l'avant, pas de moonwalk, vivons cachés, vivons loin des hassah C'est la meilleure à mes yeux, c'est la plus belle, j'suis fou d'elle Ma gadji C'est la femme de ma vie, c'est ma collègue, ma prunelle Ma gadji Malgré les dettes, les problèmes et les querelles, c'est ma belle Ma gadji Quand tu parles d'elle quand elle se promène, de quoi tu t'mêles ? C'est ma gadji Elle est passée, ça n'a pas marché, rien à cacher, sac à mâcher Cur arraché, j'l'ai cravachée, elle vit pour moi, j'meurs pour elle, pour elle j'vais kalasher Fallait tout cacher, dis pas bon, on a tout gâché On s'est clashés, s'est roulés par terre, notre love crashé C'est d'la C, t'es déclassé, jeter l'il, bâtard, c'est d'jà déplacé La mienne est bonne, affaire classée La tienne est bonne qu'à s'faire casser, eh C'est ma gadji, c'est ma D, j'f'rai pas la queue pour la voir, nan Rien à dire, c'est la D, j'suis mieux qu'eux, j'tuerais des gens pour l'avoir Pour ma chérie, pour mon bébé, tu sais comment qu'c'est, laisse-les romancer Pour ma chérie, pour mon bébé, allons danser, finir c'qu'on a commencé Pour ma chérie, pour mon bébé, laisse-les romancer Pour ma chérie, pour mon bébé, allons danser, finir c'qu'on a commencé La plus belle, la plus simple, gros, c'est ma gadji Elle a des belles fesses, elle regarde pas l'espèce, c'est ma gadji Elle rend fou, elle m'énerve des fois mais bon, c'est ma gadji Des fois, on vit l'enfer, mais dans ses yeux, j'vois le paradis Elle est là quand tous ils me laissent ma gadji, c'est mon poto Ma famille, c'est tout c'qu'il m'reste, j'ai même plus de photos S'faire des crises, à quoi ça sert ? J'vais rouler vite avec l'auto Et les gens, ils font des manières, plus de traître sur ma moto Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux La plus belle, la plus simple, gros, c'est ma gadji Elle a des belles fesses, elle regarde pas l'espèce, c'est ma gadji Elle rend fou, elle m'énerve des fois mais bon, c'est ma gadji Des fois, on vit l'enfer, mais dans ses yeux, j'vois le paradis</t>
+          <t>Ma gadji C'est ma gadji J'crois que je vais finir solo Ma gadji en a marre que je traine dehors Des cheveux longs sur mon polo, merde alors alors Ma gadji, elle a le blues de moi de moi Mais c'est vrai que desfois, elle doute de moi Je lui ai dit Écoute-moi, je suis fou de toi Mi amor, je l'aime trop toutes ses manières J'la connais depuis jeune, ça date pas d'hier Elle était là bien avant toute ma carrière C'est pas mes potes, c'est elle qui surveille mes arrières Oh, ma gadji, j'compte sur toi fort, ne me salis pas Oh, ma gadji, j'te fais confiance, ne me trahis pas Forte de caractère et elle a trop de manières Elle veut la robe, elle croit qu'on va se marier On vit dans une époque où elles sont toutes 3aryan J'suis dans le Porsche avec une belle Italienne Trop de maquillage, pas de mariage J'suis aux Baléares avec Nawel et Mariah Posé en terrasse en train d'siroter sangria J'ai une préférence pour les métisses et 3arbia Pété comme Bob Marley, elle est bonita 'Sais plus comment parler, señorita J'ai sorti la kichta, que des pistaches Elle a le boule chargé, mamacita La vida loca, la mort,ou l'hôpital Kiffe la coca la couz' à Tchikita J'appelle l'avocat, j'ai rangé la guitare, j'suis cramé Oui, c'est mon cur, c'est ma gadji, je vis, je meurs pour ma gadji J'meurs pour mon cur, pour ma gadji, j'me sens tout seul sans ma gadji Trop belle, trop belle, top model, trop intelligente, Marie Curie, Prix Nobel J'arrête mon bordel, j'arrête mon bordel, tout autour du monde, y en aura jamais deux comme elle J'vois ni les jours ni les années qui passent, j'vois que l'amour et jamais je me lasse Je sens la chaleur comme le feu sur la glace, le feu sur la glace C'est la meilleure à mes yeux, c'est la plus belle, j'suis fou d'elle Ma gadji C'est la femme de ma vie, c'est ma collègue, ma prunelle Ma gadji Malgré les dettes, les problèmes et les querelles, c'est ma belle Ma gadji Quand tu parles d'elle quand elle se promène, de quoi tu t'mêles ? C'est ma gadji Ma lova, je sais qu'j'te rends loca, on s'était dit jusqu'à la fin mais bon, l'argent m'appelle Faut qu'je taille, oh, ma baby lova, tu peux rester si ça t'plait, tu peux rester mais sans t'plaindre Tu peux rester, bébé, peux pas tester tu sais, t'es consciente mais quand même, tu nies les faits J'te porte comme un trophée, p't-être que j'en ai trop fait Oh nana, non, c'est pas ma go ça Des fois, j'revends la drogua, baby mama, j'refuse de perdre un dollar Mais ça, c'est normal, elle a passé ma passion mais j'dois penser à mama J't'analyse, tu peux partir, tu l'feras quoi qu'je dise C'est vrai, j't'ai trompé plus d'une dizaine mais t'es ma gadji pour la vida Te mettre avec moi, c'est les problèmes han, j'en ai marre de voir couler tes larmes au parloir Je me rappelle de nos virées dans le Cayenne bam, bam, c'est toi la plus belle, pas b'soin de miroir Elle m'envoie je t'aime sur le PGP brr, on était ensemble, j'avais pas one Dans le trafic, jeunesse agitée, on ira à la Mecque et pas en Thaïlande Et la noche, j'ferme le rrain-té, tu cherches à me joindre mais j'suis pas là La GameBoy ne fait que bipper brr, je sers les clients, ne m'attends pas Je rentre tu fouilles mes jeans, tu penses que j'suis avec des folles nan, nan C'est toi la seule que je kiffe, de mon amour, t'as l'monopole brr Ma gadji, ma nana, mon bébé, ma moina Elle me rappelle qui est l'ennemi car j'oublie tout sous marijuana Mon bras droit, ma copilote sur la route du cash à fond, évite la douane Ma baby, ma gâtée, un mélange de 3ada et diroulou l'henna Ma Teresa Mendoza, panama pas sur le même dossard Lui qui s'manque j'vais le crosser, j'vais lui faire danser le makossa Elle me rassure quand je doute, elle sait d'où on vient donc faut faire le double On va d'l'avant, pas de moonwalk, vivons cachés, vivons loin des hassah C'est la meilleure à mes yeux, c'est la plus belle, j'suis fou d'elle Ma gadji C'est la femme de ma vie, c'est ma collègue, ma prunelle Ma gadji Malgré les dettes, les problèmes et les querelles, c'est ma belle Ma gadji Quand tu parles d'elle quand elle se promène, de quoi tu t'mêles ? C'est ma gadji Elle est passée, ça n'a pas marché, rien à cacher, sac à mâcher Cur arraché, j'l'ai cravachée, elle vit pour moi, j'meurs pour elle, pour elle j'vais kalasher Fallait tout cacher, dis pas bon, on a tout gâché On s'est clashés, s'est roulés par terre, notre love crashé C'est d'la C, t'es déclassé, jeter l'il, bâtard, c'est d'jà déplacé La mienne est bonne, affaire classée La tienne est bonne qu'à s'faire casser, eh C'est ma gadji, c'est ma D, j'f'rai pas la queue pour la voir, nan Rien à dire, c'est la D, j'suis mieux qu'eux, j'tuerais des gens pour l'avoir Pour ma chérie, pour mon bébé, tu sais comment qu'c'est, laisse-les romancer Pour ma chérie, pour mon bébé, allons danser, finir c'qu'on a commencé Pour ma chérie, pour mon bébé, laisse-les romancer Pour ma chérie, pour mon bébé, allons danser, finir c'qu'on a commencé La plus belle, la plus simple, gros, c'est ma gadji Elle a des belles fesses, elle regarde pas l'espèce, c'est ma gadji Elle rend fou, elle m'énerve des fois mais bon, c'est ma gadji Des fois, on vit l'enfer, mais dans ses yeux, j'vois le paradis Elle est là quand tous ils me laissent ma gadji, c'est mon poto Ma famille, c'est tout c'qu'il m'reste, j'ai même plus de photos S'faire des crises, à quoi ça sert ? J'vais rouler vite avec l'auto Et les gens, ils font des manières, plus de traître sur ma moto Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux La plus belle, la plus simple, gros, c'est ma gadji Elle a des belles fesses, elle regarde pas l'espèce, c'est ma gadji Elle rend fou, elle m'énerve des fois mais bon, c'est ma gadji Des fois, on vit l'enfer, mais dans ses yeux, j'vois le paradis</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Formado em 1994, desfeito em 2006, o Fonky Family ou, simplesmente F.F. foi um dos principais representantes do Hip-Hop de rue francês. De Marselha e composto pelos MCs Le Rat Luciano, Sat, Don Choa, Menzo, e pelos produtores Pone e DJ Djel, o grupo deixou bons trabalhos como legado, e o maior deles foi o álbum Si Dieu Veut...Inch Allah Si Dieu Veut significa se Deus quiser em francês e Inch Allah nada mais é que se Deus quiser em árabe La F.F. começou a se destacar na cena underground local, até despertar a atenção do expressivo grupo IAM, também de Marselha. Assim, o grupo de garotos ganhou um contrato com a gravadora Côté Obscur, selo do IAM e, sob influência direta do lendário IAM, os jovens da F.F. começaram os trabalhos para lançar o álbum Si Dieu Veut... Em 1998 Si Dieu Veut... chama atenção pela maturidade lírica, originalidade e qualidade de produção, vale destacar que a média de idade do grupo Fonky Family ná época de concepção deste álbum girava em torno dos 20 anos! O álbum possui uma energia quase mágica, com letras nostálgicas, urbanas, inteligentes e extremamente ricas. O estilo do grupo francês até chega a lembrar o grupo paulista RZO, porém, com uma lírica mais reflexiva O álbum é rua. Si Dieu Veut... possui a alma de cada rua, cada esquina, cada beco da Marselha do fim dos anos 90. Mas não de maneira vulgar, pelo contrário. O álbum carrega uma nostalgia reflexiva, um olhar pensativo, agonizante e ao mesmo tempo agressivo e enérgico para tratar dos mais variados assuntos recorrentes a um álbum de rap. A produção é irretocável, Pone e DJ Djel recriaram com maestria toda a atmosfera nostálgica proposta pelo álbum, sob forma de um boom bap simples, rústico e encantador, e os scratches do DJ Djel, com samples de soul, jazz, maravilhosamente harmônicos que se encaixam de maneira homogênea à lírica do álbum, transportando o ouvinte para uma atmosfera única, a atmosfera Si Dieu Veut... As canções Sans Rémission Incessante e La résistance A Resistência com a participação de Akhenaton, Líder do grupo IAM entraram para a lista dos clássicos do rap francês. A faixa La Furie et La Foi A Fúria e a Fé também merece destaque, essa track foi usada como tema por J B Gillet um dos maiores skatistas da França, em sua cena no filme Rodney Vs Daewon Round II. Si Dieu Veut... se tornou um cult do rap francês, um álbum maravilhosamente rústico e nostálgico, a visão de seis garotos sobre como era crescer em Marselha no fim dos anos 90, conviver entre as escolhas, os dilemas e fatores que os cercavam. O álbum mostrou como um grupo formado por jovens pôde emplacar um disco entre os clássicos europeus NOTASYou might also like</t>
+          <t>Formado em 1994, desfeito em 2006, o Fonky Family ou, simplesmente F.F. foi um dos principais representantes do Hip-Hop de rue francês. De Marselha e composto pelos MCs Le Rat Luciano, Sat, Don Choa, Menzo, e pelos produtores Pone e DJ Djel, o grupo deixou bons trabalhos como legado, e o maior deles foi o álbum Si Dieu Veut...Inch Allah Si Dieu Veut significa se Deus quiser em francês e Inch Allah nada mais é que se Deus quiser em árabe La F.F. começou a se destacar na cena underground local, até despertar a atenção do expressivo grupo IAM, também de Marselha. Assim, o grupo de garotos ganhou um contrato com a gravadora Côté Obscur, selo do IAM e, sob influência direta do lendário IAM, os jovens da F.F. começaram os trabalhos para lançar o álbum Si Dieu Veut... Em 1998 Si Dieu Veut... chama atenção pela maturidade lírica, originalidade e qualidade de produção, vale destacar que a média de idade do grupo Fonky Family ná época de concepção deste álbum girava em torno dos 20 anos! O álbum possui uma energia quase mágica, com letras nostálgicas, urbanas, inteligentes e extremamente ricas. O estilo do grupo francês até chega a lembrar o grupo paulista RZO, porém, com uma lírica mais reflexiva O álbum é rua. Si Dieu Veut... possui a alma de cada rua, cada esquina, cada beco da Marselha do fim dos anos 90. Mas não de maneira vulgar, pelo contrário. O álbum carrega uma nostalgia reflexiva, um olhar pensativo, agonizante e ao mesmo tempo agressivo e enérgico para tratar dos mais variados assuntos recorrentes a um álbum de rap. A produção é irretocável, Pone e DJ Djel recriaram com maestria toda a atmosfera nostálgica proposta pelo álbum, sob forma de um boom bap simples, rústico e encantador, e os scratches do DJ Djel, com samples de soul, jazz, maravilhosamente harmônicos que se encaixam de maneira homogênea à lírica do álbum, transportando o ouvinte para uma atmosfera única, a atmosfera Si Dieu Veut... As canções Sans Rémission Incessante e La résistance A Resistência com a participação de Akhenaton, Líder do grupo IAM entraram para a lista dos clássicos do rap francês. A faixa La Furie et La Foi A Fúria e a Fé também merece destaque, essa track foi usada como tema por J B Gillet um dos maiores skatistas da França, em sua cena no filme Rodney Vs Daewon Round II. Si Dieu Veut... se tornou um cult do rap francês, um álbum maravilhosamente rústico e nostálgico, a visão de seis garotos sobre como era crescer em Marselha no fim dos anos 90, conviver entre as escolhas, os dilemas e fatores que os cercavam. O álbum mostrou como um grupo formado por jovens pôde emplacar um disco entre os clássicos europeus NOTAS</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Le Parc et le Panier roulent avec le Shit Squad Don't Sleep roule avec le Shit Squad Le 3e il et la FF roulent avec le Shit Squad Donne du bang, hé ! Je tombe dans la guette sans zigzaguer Aux aguets, débonze et bien gai Je suis délégué du Shit Squad, amigo bingo Si tu tiens jusqu'à la fin du gong Nous sommes tous des James Bond Du Shit sous les ongles Skunk au gong, ça laisse KO Comme un coup du fusil à pompe Et direct, on va haut... Rat-man né Batman ami de Boss One Et marié à la Marie-Jeanne Luciano, réalise ton vu Si tu veux, enfume-toi la vie, mon vieux Un peu de Marseillaise, et tu perds les cheveux Shit Squad, Tonton et ses neveux pour les nerveux Bienvenue dans Haschich City morveux J'échange mes sticks seulement contre une femme Style Néfertiti Fais fumer la FF, Tonton j'ai fini You might also like T'as pris ton paquet et ta femme avec toi Marijuana bien roulée que tu tiens entre tes doigts Quoi, l'atmosphère s'enfume Fume le Shit Squad et pas de frime sur ça La boumba si ça te dit Prends ce choco de maxi, comme si Une armada de fumeurs de gandja se disputent le contrat Eh, batty boy, tu veux rouler avec le Squad Ce n'est pas un fan-club de Ease Mais un putain de Shit Squad Roulé entre deux feuilles de Rizla Croix Original bad boy pour l'esquisse, fils Pas de paix en soirée avec les DJ, fais tourner Tu veux toucher nos phases, vas-y, mets le prix Je t'assure, c'est de la bombe Elle monte comme des bambous Le S ! Squad tient le bon bout Toujours dans les bons coups En tout cas, on s'adonne pas à la para Ici-bas, on décompresse comme on peut La THC nous conduit tout droit aux septièmes cieux Yo, pète ton joint de canna, à l'écoute des canailles Sat rime pour tout défoncer comme la bouddha Thaï Fume dans un studio ou dans un coffee-shop Ambiance Hip Hop, à voir les yeux de mes potes Pour eux, je finis en freestyle Je lâche un fonky style, la FF, tous M'Ghetta au shit M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana Si gandja il y a chez toi, gringo Elle sautera au nom du Père du Fils et du Sentenza Amen Je serai sec si tu n'es pas chaud Prépare un bon space-gaspacho Pour tous les sales muchachos de ma clique Le Squad, escouade rascale Et Tonton Pedro, Pascal Tu prendras bien un spatial Verre de mescal un poquito Débarque avec un kilo pour les mythos Lâché, donne, No te muevas, cabróncito! In situ, bratou kakou chez vous, y'a plus de sous Attention le ladre prépare un mauvais coup Un larcin, un truc de merde, un encas Nada, tu connais Sentenza Qui donc fait péter la banca ? Quand je te chope, quand je te bloque Voilà les troupes de choc Le Shit Squad de retour pour un smoke-tour Armé de stocks lourds Plat de jour space-cake, calumets Mèches allumées, atmosphère embrumée FF, fais fumer A fond défoncé à la sensi C'est ça qui m'incite Don Choa, Hannibal Smith, agence du Shit Arrivage de choix Ici on est à Marseille, mon frère Sortis tout droit du conteneur Le produit qui te met à l'envers Tu flaires les joints Mieux que les chiens de la douane volante Fumes des mixtures à base boulettes brûlantes Herbes collantes Production Tonton Pedro, le gros bonnet Tu connais l'effet Je roule avec le Shit Squad et ses doigts de fée, bébé Faf Larage, fils, ne fume pas Pedro, n'en déplaise, fume les cigarettes, le tabac à sec Et là je suis bien, mec Mes potos fument pour moi Circuit lindo thaï skunk cesse devant moi Eh, connard, j'ai pas à te dire ce qu'il faut faire Pour entrer dans la partie Fils, tu m'as bien compris Tu crois qu'il y a des vapeurs, représente l'odeur Premiers symptômes qui font sur moi Speed, des lors j'suis d'humeur On pourrait croire que j'intègre le Squad Quand je conte mes histoires de fêtes Ici à la Stormbringa Ce que je dis, fils, ça veut rien dire Mais sous l'emprise du Shit... Le Squad, c'est un hit M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Oh la gravité a frappé M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Yeah, je suis défoncé A coup de bambous Au sud, y'a du nouveau, fils Le Squad refait surface, noyé dans le masse Avec ses potos du micro, des mégots, amigo Des barreaux, il en faut pour subvenir à nos besoins Du matin au soir, plein On a cuvé comme du bon vin Le bon khéné en fait vilain Veut niquer notre business Que la guine l'a perdu Tu fuse, gus si on te frappe Comme un guerrier Hashashin Frappé après un joint, tu charase Colle tes oreilles devant tes baffles Tu rêves pas, gringo L'examen, c'est devenu l'impasse Sans cesse, représente notre emblème L'herbe épaisse, femme du Rat La princesse pour l'honneur des troupes rebelles Pour la fumette et les belles f... Daddy Mamadi, sur le mic, ça c'est acquis Fais tourner l'herbe cosmique Pour que la famille mette la panique Un bandeau-pro avec tous les machos chauds Et c'est parti pour le show FF, freestyle pour représenter avec un joint d'gandja Tu ne peux pas lutter Fumes, fumes, fumes avant que la vie ne te fume Aujourd'hui j'assume avec le Shit Squad Kif-Kif Production, association banguée Pour des fins de soirées, très fatigué J'envoie ziguer les télés Pour tous les frères avec qui j'ai calciné des bambous Du Secteur au Café Julien Les neveux ne craignent plus rien Accrochés sur la locale comme des morts de faim Shonga m'attend demain, ouais Tu reconnais la voix du Padre, sorti du trece Sur le mic, usé par le pollen et la sensi Toujours d'attaque avec le Shit Squad Mec, reste sur tes gardes En attendant lyricalement que l'on bombarde Balance nos cocktails de ferié néné Si tu cherches la khemia Y'a que chez nous que tu pourras la trouver J'fais pas de topo Je suis plein de popo Demandes à mes potes C'est un 16 S mec que j'ai sous le capot Je pose toujours à mes répèts sans oublier mon matos Un stylo, un micro, mon chocos Et vatos portos C'est comme ça que j'aime bosser Je suis pas du genre à caler ou taper des blocages Et vas-y, cesses de ricaner Ouais, mon big, Jo Popo représente pour le 3e oeil Mc j't'effrite dans mon deux-feuilles Je regarde mes potes, drôlement débonze Tous guidés par le hachich comme par erreur Haza plein de mimiques, ils sont chics Regarde-moi droit dans les yeux, khô T'y arrives pas, quel minable, ce gros Dis-moi, c'est du shit que tu fumes? Ou des pilules que tu gobes ? Combien de gosses en voulant se la jouer grands se sont perdus Je te l'avais dit de rester dans la sensi En soirée bad boy, pompe un joint Reste cool comme ton pote, l'ami, Ali, allez ha ! Je ne fume pas Mais préfère voir des gens down avec le Shit Squad Qu'être à Toxland à la CameSquadra A croire que c'est un championnat Où c'est le plus bête qui l'emportera Avant d'appuyer sur play, t'aurais dû faire un petit A la santé du Squad, Jo Popo, Luciano, Pedro Mon z'ami, c'est la vie C'est la vie qui veut ça N.I.K, N.I.K M'Ghetta au shit</t>
+          <t>Le Parc et le Panier roulent avec le Shit Squad Don't Sleep roule avec le Shit Squad Le 3e il et la FF roulent avec le Shit Squad Donne du bang, hé ! Je tombe dans la guette sans zigzaguer Aux aguets, débonze et bien gai Je suis délégué du Shit Squad, amigo bingo Si tu tiens jusqu'à la fin du gong Nous sommes tous des James Bond Du Shit sous les ongles Skunk au gong, ça laisse KO Comme un coup du fusil à pompe Et direct, on va haut... Rat-man né Batman ami de Boss One Et marié à la Marie-Jeanne Luciano, réalise ton vu Si tu veux, enfume-toi la vie, mon vieux Un peu de Marseillaise, et tu perds les cheveux Shit Squad, Tonton et ses neveux pour les nerveux Bienvenue dans Haschich City morveux J'échange mes sticks seulement contre une femme Style Néfertiti Fais fumer la FF, Tonton j'ai fini T'as pris ton paquet et ta femme avec toi Marijuana bien roulée que tu tiens entre tes doigts Quoi, l'atmosphère s'enfume Fume le Shit Squad et pas de frime sur ça La boumba si ça te dit Prends ce choco de maxi, comme si Une armada de fumeurs de gandja se disputent le contrat Eh, batty boy, tu veux rouler avec le Squad Ce n'est pas un fan-club de Ease Mais un putain de Shit Squad Roulé entre deux feuilles de Rizla Croix Original bad boy pour l'esquisse, fils Pas de paix en soirée avec les DJ, fais tourner Tu veux toucher nos phases, vas-y, mets le prix Je t'assure, c'est de la bombe Elle monte comme des bambous Le S ! Squad tient le bon bout Toujours dans les bons coups En tout cas, on s'adonne pas à la para Ici-bas, on décompresse comme on peut La THC nous conduit tout droit aux septièmes cieux Yo, pète ton joint de canna, à l'écoute des canailles Sat rime pour tout défoncer comme la bouddha Thaï Fume dans un studio ou dans un coffee-shop Ambiance Hip Hop, à voir les yeux de mes potes Pour eux, je finis en freestyle Je lâche un fonky style, la FF, tous M'Ghetta au shit M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana Si gandja il y a chez toi, gringo Elle sautera au nom du Père du Fils et du Sentenza Amen Je serai sec si tu n'es pas chaud Prépare un bon space-gaspacho Pour tous les sales muchachos de ma clique Le Squad, escouade rascale Et Tonton Pedro, Pascal Tu prendras bien un spatial Verre de mescal un poquito Débarque avec un kilo pour les mythos Lâché, donne, No te muevas, cabróncito! In situ, bratou kakou chez vous, y'a plus de sous Attention le ladre prépare un mauvais coup Un larcin, un truc de merde, un encas Nada, tu connais Sentenza Qui donc fait péter la banca ? Quand je te chope, quand je te bloque Voilà les troupes de choc Le Shit Squad de retour pour un smoke-tour Armé de stocks lourds Plat de jour space-cake, calumets Mèches allumées, atmosphère embrumée FF, fais fumer A fond défoncé à la sensi C'est ça qui m'incite Don Choa, Hannibal Smith, agence du Shit Arrivage de choix Ici on est à Marseille, mon frère Sortis tout droit du conteneur Le produit qui te met à l'envers Tu flaires les joints Mieux que les chiens de la douane volante Fumes des mixtures à base boulettes brûlantes Herbes collantes Production Tonton Pedro, le gros bonnet Tu connais l'effet Je roule avec le Shit Squad et ses doigts de fée, bébé Faf Larage, fils, ne fume pas Pedro, n'en déplaise, fume les cigarettes, le tabac à sec Et là je suis bien, mec Mes potos fument pour moi Circuit lindo thaï skunk cesse devant moi Eh, connard, j'ai pas à te dire ce qu'il faut faire Pour entrer dans la partie Fils, tu m'as bien compris Tu crois qu'il y a des vapeurs, représente l'odeur Premiers symptômes qui font sur moi Speed, des lors j'suis d'humeur On pourrait croire que j'intègre le Squad Quand je conte mes histoires de fêtes Ici à la Stormbringa Ce que je dis, fils, ça veut rien dire Mais sous l'emprise du Shit... Le Squad, c'est un hit M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Oh la gravité a frappé M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Yeah, je suis défoncé A coup de bambous Au sud, y'a du nouveau, fils Le Squad refait surface, noyé dans le masse Avec ses potos du micro, des mégots, amigo Des barreaux, il en faut pour subvenir à nos besoins Du matin au soir, plein On a cuvé comme du bon vin Le bon khéné en fait vilain Veut niquer notre business Que la guine l'a perdu Tu fuse, gus si on te frappe Comme un guerrier Hashashin Frappé après un joint, tu charase Colle tes oreilles devant tes baffles Tu rêves pas, gringo L'examen, c'est devenu l'impasse Sans cesse, représente notre emblème L'herbe épaisse, femme du Rat La princesse pour l'honneur des troupes rebelles Pour la fumette et les belles f... Daddy Mamadi, sur le mic, ça c'est acquis Fais tourner l'herbe cosmique Pour que la famille mette la panique Un bandeau-pro avec tous les machos chauds Et c'est parti pour le show FF, freestyle pour représenter avec un joint d'gandja Tu ne peux pas lutter Fumes, fumes, fumes avant que la vie ne te fume Aujourd'hui j'assume avec le Shit Squad Kif-Kif Production, association banguée Pour des fins de soirées, très fatigué J'envoie ziguer les télés Pour tous les frères avec qui j'ai calciné des bambous Du Secteur au Café Julien Les neveux ne craignent plus rien Accrochés sur la locale comme des morts de faim Shonga m'attend demain, ouais Tu reconnais la voix du Padre, sorti du trece Sur le mic, usé par le pollen et la sensi Toujours d'attaque avec le Shit Squad Mec, reste sur tes gardes En attendant lyricalement que l'on bombarde Balance nos cocktails de ferié néné Si tu cherches la khemia Y'a que chez nous que tu pourras la trouver J'fais pas de topo Je suis plein de popo Demandes à mes potes C'est un 16 S mec que j'ai sous le capot Je pose toujours à mes répèts sans oublier mon matos Un stylo, un micro, mon chocos Et vatos portos C'est comme ça que j'aime bosser Je suis pas du genre à caler ou taper des blocages Et vas-y, cesses de ricaner Ouais, mon big, Jo Popo représente pour le 3e oeil Mc j't'effrite dans mon deux-feuilles Je regarde mes potes, drôlement débonze Tous guidés par le hachich comme par erreur Haza plein de mimiques, ils sont chics Regarde-moi droit dans les yeux, khô T'y arrives pas, quel minable, ce gros Dis-moi, c'est du shit que tu fumes? Ou des pilules que tu gobes ? Combien de gosses en voulant se la jouer grands se sont perdus Je te l'avais dit de rester dans la sensi En soirée bad boy, pompe un joint Reste cool comme ton pote, l'ami, Ali, allez ha ! Je ne fume pas Mais préfère voir des gens down avec le Shit Squad Qu'être à Toxland à la CameSquadra A croire que c'est un championnat Où c'est le plus bête qui l'emportera Avant d'appuyer sur play, t'aurais dû faire un petit A la santé du Squad, Jo Popo, Luciano, Pedro Mon z'ami, c'est la vie C'est la vie qui veut ça N.I.K, N.I.K M'Ghetta au shit</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vous voulez une histoire, les enfants ? J'ai une p'tite histoire pour vous... Quand j'vois un film d'horreur, j'm'identifie au tueur Michael Myers, Jason, Fredy Krueger Hannibal Lecter, on t'avait pas menti J'ai dégusté son foie avec un excellent chianti J't'invite à ma table, et j'ai cuisiné un bout d'ton cerveau J'jette ta carcasse aux cochons, Nettoyez les os J'me lèche les babines, tu rigoles ou quoi ? Si t'as pas vu Shining, Jack Nicholson Pourquoi j'débloque ? Tu veux savoir ? Viens Mon bloc construit sur un cimetière indien Merde, j'en ai jamais marre des crimes Au fait, faut qu'j'aille remettre mon masque de Scream Devine qui va t'appeler Allô ? Oui ? Moi, j'tue toute l'année, qu'est-ce que j'm'en fous d'Halloween ? Ah, où est l'gardien du campus ? Il est die En temps d'guerre, il m'filerait une médaille Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals You might also like J'tue gratuitement, sans contrat à honorer Et, pour toi, c'était pas l'heure de faire un tour dans la forêt J'aime bien l'goût délicat qu'à la jeunesse dorée Les fils à papa, j'te les soigne façon goret Et où tu vas t'échapper avec tes jambes en charpie ? Ça va être un putain d'puzzle, ton autopsie Tu connais l'épreuve pour être un meurtrier crédible ? Non Faire dégueuler le médecin légiste Moi, j'fais pas d'fric avec les morts comme Puffy J'veux juste un peu mordre, amenez-moi Buffy Et les trois surs de Charmed Hummmmmmmmmmmm Tu sens la raideur de mon arme ? Hmmm hmmm Au fond, j'm'en bats les couilles de quoi t'as l'air, bitch J'ai même niqué la sorcière de Blair Witch Attends, j'crois qu'j'ai oublié un détail En temps d'guerre, il m'filerait une médaille Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals Tronçonneuse allumée, faut qu'j'en remette une couche Toi, t'es comme Tony attaché dans la douche Oublie Manny, la blonde en maillot bleu l'a saigné C'est ma complice, une vampire, dans l'sang, elle aime s'y baigner J'vais aller à Monaco m'occuper du Prince Rainier et d'Stéphanie J'ai eu l'tuyau par son mari Celui qui a niqué la strip-teaseuse au bord d'la piscine Au fait, pour les cadavres, y'a pas mieux qu'l'acide À force de découper, d'faire des trous, j'ai mal au dos Ta femme était trop belle, Brad Pitt, moi, c'est John Doe Pas Don Cho', celui-là aussi, j'l'ai liquidé Ce p'tit Français, il faisait style sourcils froncés Quand j'suis arrivé, mais, tinquiète, il a pas souffert J'ai tiré direct dans l'cur puis, son ventre, j'l'ai ouvert Son foie, comme d'hab', j'l'ai mangé, j'ai mis sa tête dans un bocal Et, en souvenir, je m'suis greffé ses cordes vocales x2 Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals3</t>
+          <t>Vous voulez une histoire, les enfants ? J'ai une p'tite histoire pour vous... Quand j'vois un film d'horreur, j'm'identifie au tueur Michael Myers, Jason, Fredy Krueger Hannibal Lecter, on t'avait pas menti J'ai dégusté son foie avec un excellent chianti J't'invite à ma table, et j'ai cuisiné un bout d'ton cerveau J'jette ta carcasse aux cochons, Nettoyez les os J'me lèche les babines, tu rigoles ou quoi ? Si t'as pas vu Shining, Jack Nicholson Pourquoi j'débloque ? Tu veux savoir ? Viens Mon bloc construit sur un cimetière indien Merde, j'en ai jamais marre des crimes Au fait, faut qu'j'aille remettre mon masque de Scream Devine qui va t'appeler Allô ? Oui ? Moi, j'tue toute l'année, qu'est-ce que j'm'en fous d'Halloween ? Ah, où est l'gardien du campus ? Il est die En temps d'guerre, il m'filerait une médaille Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals J'tue gratuitement, sans contrat à honorer Et, pour toi, c'était pas l'heure de faire un tour dans la forêt J'aime bien l'goût délicat qu'à la jeunesse dorée Les fils à papa, j'te les soigne façon goret Et où tu vas t'échapper avec tes jambes en charpie ? Ça va être un putain d'puzzle, ton autopsie Tu connais l'épreuve pour être un meurtrier crédible ? Non Faire dégueuler le médecin légiste Moi, j'fais pas d'fric avec les morts comme Puffy J'veux juste un peu mordre, amenez-moi Buffy Et les trois surs de Charmed Hummmmmmmmmmmm Tu sens la raideur de mon arme ? Hmmm hmmm Au fond, j'm'en bats les couilles de quoi t'as l'air, bitch J'ai même niqué la sorcière de Blair Witch Attends, j'crois qu'j'ai oublié un détail En temps d'guerre, il m'filerait une médaille Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals Tronçonneuse allumée, faut qu'j'en remette une couche Toi, t'es comme Tony attaché dans la douche Oublie Manny, la blonde en maillot bleu l'a saigné C'est ma complice, une vampire, dans l'sang, elle aime s'y baigner J'vais aller à Monaco m'occuper du Prince Rainier et d'Stéphanie J'ai eu l'tuyau par son mari Celui qui a niqué la strip-teaseuse au bord d'la piscine Au fait, pour les cadavres, y'a pas mieux qu'l'acide À force de découper, d'faire des trous, j'ai mal au dos Ta femme était trop belle, Brad Pitt, moi, c'est John Doe Pas Don Cho', celui-là aussi, j'l'ai liquidé Ce p'tit Français, il faisait style sourcils froncés Quand j'suis arrivé, mais, tinquiète, il a pas souffert J'ai tiré direct dans l'cur puis, son ventre, j'l'ai ouvert Son foie, comme d'hab', j'l'ai mangé, j'ai mis sa tête dans un bocal Et, en souvenir, je m'suis greffé ses cordes vocales x2 Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals3</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>J'préfère les choses fictives Ça m'évite de m'faire des films et d'en être victime J'kicke depuis qu'j'ai fifteen, bitch please J'avance pour garder l'équilibre comme si j'roulais à vélo Pas loin d'être intello, pélo, j'kicke comme Donatello Hello, Josman sur tes vres-lè comme Labello Hey yo, ninja flow, j'vois rouge comme Rafaello Hey oh, j'vois rouge comme Scott Summers Cyclope Punchline dans tes poumons, rien qu'tu tousses SixClopes La vie est pleine d'obstacles, j'les saute comme Ladji Doucouré Sur ma vie, c'est magique, quand j'arrive vous courrez Et vas-y, c'est facile, j't'envoie à l'asile, assis, avec un flow basique Me dépasser jamais vous pourrez Et paraît qu'y'a du talent, mon gars t'as vu ça Tu savais ap, normal j'cache ma richesse comme Cahuzac On t'a vu zinc Moi j'kiffe la iv et c'est à ça qu'on trinque Comme si j'étais à 5 contre 1, j'ai la puissance de 50 trains Et tu m'veux rencontrer parce qu'on t'a raconté qu'j'suis l'boss de ta contrée Mais j'ai déjà démontré que j'pouvais démonter des prods Tête de oim, j'ferai tourner tes proches J'ai progressé en deuspi comme si j'avais pris des prot' J'suis le prof, on dit qu'j'suis pas gentil Mais j'te baise avec galanterie J'ai pas menti, j'serais lourd aussi même si j'rappais au ralenti Si on s'ressemble c'est qu'j'suis comme toi en mieux Négro, j'ai des tas d'envieux parce qu'ils savent que j'suis talentueux Putain d'merde Moi j'suis l'huitième nain, j'viens baiser Blanche la putain d'Neige You might also like On sait qu'l'État escroque, mais petit néglige pas les profs Garde mains et baskets propres, ecsta', CC touche pas cette drogue Pourquoi cotiser 55 ans, ou bien même faire cinq ans ça comme en taule ? Bref, en gros si j'm'associe c'est 50-50 La crise fait dresser les tifs, chez nous pas de tri sélectif On fait parfois criser les vieux quand l'soir on fait crisser les pneus Tes parents rappliquent chez les bleus, t'en as même attristé les deux C'qui nous baise le fric et les gueuses, nous on tend à trise-maî les deux Tu peux t'mettre à briser des beuj' ou encore t'défriser les veuch' Ça n'empêche pas qu'le monopole tangue entre la Chine et les Feujs Demande à Nakk Mendosa On n'a pas l'même dossard, fournit pas l'même dosage Nos relations avec les keufs sont souvent tendues Celles avec les meufs, remplies de bluff, de sous-entendus C'est souvent l'temps du Je t'aime, mais on s'entend plus T'étais le A, devenue le B, désormais t'es mon plan cul Viens j't'explique en 2-4-6, sensations fortes via 2-3 spliffs Embrouille de tess de 2-3 types, un frère se perd en 2-3 clics, boom Le swag d'un pitbull, à l'affût d'une p'tite poule Tu es un prototype cool, ce soir j'ai besoin d'un p'tit... Veni vidi vici, 22 v'là les vils-ci Viens on s'éloigne d'ici, checke-moi sur N.Y ou D.C On tré-ren par la p'tite porte, on consomme d'la tise forte J'kiffe gratter dans état sous alcool dans l'sang Pique une tête chez le propriétaire lorsqu'il est absent J'ai ap d'abcès, alcool, drogue, baise ex et J'exerce et, mec, c'est entre 2 fesses que j'reste axé Mais laisse-les Tu sais, mes textes, peu les testent, expulsent Et moi je reste, peux test, avec ma et les mecs disent que j'suis désaxé Tu vas pas m'taxer ma tête Sur la MPC j'suis blessé mais God bless me Ça dit quoi enfoiré ? Moi j'suis paxé presque et que les bougs, mec, touchent leur sexe en number masqué, bref Textuelle ma gestuelle, déplacée J'crache, j'frise une haleine au taux d'alcoolémie dépassé J'brasse sans boire la tasse tout d'même Même si j'suis die mamen E.A.Z.Y. te lâche une phase quand même J'prends ma place au départ Dans mon espace, que des barges Et même si l'rappe ne m'intéresse pas, j'prends ma place quand même Grand j'ai la prose, tu psychotes quand j'mets la dose C'est la p'tite bête qui vient manger la grosse J'rapperai jusqu'à vétéran, Joss vient titiller les grands Ils vont avoir mal longtemps, ouais, j'suis un plaie béante Mais ma fainéantise, me fera pas trop bouger Flow trop urbain, j'serai sûrement enterré en ville Tu veux coucher mon flow ? Vas-y pousse d'abord J'ouvre la porte du game sans frapper, j'vous mets tous d'accord Si tu veux l'voir grimper ou grimper sur l'applaudimètre, faut s'y mettre Ils veulent me shoot, mais j'fais qu'des renvoies aux six mètres T'as jamais vu d'précision aussi nette, aussi bonne Aussi lourde, aussi fat, aussi clean, aussi propre Et pas d'souci, c'coup-ci, si j'bousille tout Ça sent l'roussi fou, quand j'troue ton crew d'pussys J'veux tout tout de suite, enfoiré j'te l'dirais pas 100 fois Mais j'ai pas besoin d'perdre la mienne pour t'laisser sans voix Fais pas le gars qui sait ou c'lui qui veut sympathiser T'as pas d'cran si t'as pas tisé, tu baves et tu veux pactiser J'me tape pour pas pisser en taule ou finir par glisser Chez moi y'a pas d'mur tapissé, quand j't'appelle demande pas qui c'est Du lourd comme d'habitude, parce qu'on incarne le rap qui tue Flow, phases, attitude qui remet en cause leurs aptitudes De toute manière s'te plaît flambe pas j'découpe tes seize Evidemment qu'mes couplets blessent, aucune salope ne touche mes fesses P'tite prod, Mitch Corp P'tite conne, j'kick propre Est-ce que tu captes le truc ? J'ai plus d'clope, c'est comme si j'en avais dix C't'odeur de peur autour de quoi j'aiguise mon appétit On m'dit C'est ça, c'est mieux pour toi mais j'suis un taré J'tise dans l'carré VIP, affalé, j'parlais d'chiffres, nouveau maléfice Un jour les tiens verront qu'tu les entubes Du moins, t'essayes en pensant qu'à ta race de vrai enculé Le gérant gère pas pour gérer mais car se géant s'tue Et t'inquiètes maintenant j'ai pété tous ceux qui dérangent plus A cause d'un plat ce sera tout l'temps d'ma faute Ce poids sur mes jambes, j'adore, il travaille mes abdos Avance besoin, qu'attend demain quand j'redeviendrai humain Et m'achèterai un feu à cause de ceux qui n'checkent pas mais s'adossent Ce genre de truc pour moi c'est quesaco Y'a un problème avec ma tête mais j'peux toujours plaire à d'autres C'est pas un 'blème, c'est qu'une putain d'observation Tu cherche une échappatoire, moi une putain qu'opère à fond DJ, fous ça dans ton Serato Ils n'servent à rien, on sert à tout va, s'en va en vrai bateau J'ai pas fini, j'vais rester là comme Platini et monter comme un putain d'alpiniste loin d'ton hexagone Tout mon schéma s'est fait là, mon négro, j'péra trop On m'envoie que d'la merde et m'envoie C'est grave chaud Je l'savais mais c'est d'la daube J'suis jamais tout seul C'est pas par choix, mon négro, sinon j'crée ma zone Dehors, négro, c'est gratos Si j'tiens bon, moi j'écris pour m'offrir un peu d'air Le deux tiers de mes amis, le trois quart de mes frères Savent que j'fais ça rapide On a trop peu à perdre pour pas qu'la folie s'rapplique On écarte ceux qui l'appellent Tant qu'les aiguilles tourneront Tous les jours j'fais la même C'est comme pousser la fonte pour surmonter la flemme Attaché à la console, j'laisse le micro à terre C'est pas pour rien qu'on sonne mais j'ferai pas danser la terre Et tu dois penser la même On s'doit garder les bons souvenirs Et ma plus grande fierté serait l'sourire de ma mère Aucune ne ferait ma paire, donc pourquoi trouver la bonne ? Y'a qu'pour une que j'voudrais la lune ou soulèverais la mer Et quand l'soleil se couchera, on débouchera la 'teille Comme tous ceux qui taffent, le 12 ont déjà tout déboursé Souvent on garde la tête haute en voyant ceux qui la perdent En attendant, faut d'la tise, pour qu'on parte jusqu'en l'air Car c'est partout la même Si tu m'croises et qu'j'te vois pas c'est qu'j'suis dans ma tête Si j'te croise et qu'tu m'vois pas c'est qu'j'suis dans ma caisse Si tu m'vois frotter en te-boî c'est qu't'es dans la cess Jamais fourré dans un coup mais bourré dans la pièce On joue dans les temps, pour le coup c'est fou les mecs Moi, j'joue des tours aux poulets tant qu'j'ai wallou dans la veste Jamais deux sans trois les gobelets, la funk et le reste Plus d'deux cent fois où j'ai poncé, défoncé, des textes Et me parlez pas d'monnaie J'ai deux oreilles, il m'faut plus que d'l'oseille pour m'raisonner J'fais du son pour oim, juste parce qu'il le fallait Si ça t'plaît c'est mieux, appelle-moi Eazy Dew Allen et mes potes kiffent la fumette À deux doigts d'en abuser Frérot, j'assume le fait que quelques uns peuvent me juger Pour l'instant c'est clean, j'suis fier d'mes plans pour l'lendemain J'sais pas qui j'pourrais croiser en chemin mais j'ai la musique Hey yo, what's up ? Jos fuckin man, j'arrive en force, en feu Ils ont des plus gros dorsaux qu'oim mais j'fais des meilleurs morceaux qu'eux J'ai beaucoup d'flow, j'ai beaucoup d'technique, en plus j'suis grave précis Donc pas besoin d'être agressif pour qu'ils apprécient J'me déguise pas, j'reste vrai J'reste délicat exprès J'suis efficace, ken une p'tite 'tasse qui n'mérite pas l'respect Donc, me compare pas, j'suis pas comme eux, téma, j'prends l'ascendant Crari, ils font tous la même chose, crari faut être dans la tendance En attendant, je fais l'taf, mé-cra, j'm'esclaffe Donc laisse place quand j'm'exclame Des jets d'flammes, les mecs clamsent Vas-y c'est mort, maintenant j'ai pris les devants Et j'crois qu'il est temps de mettre les bouchées doubles Fini la dilettante, ça y est j'ai mis les gants d'boxe Violent comme Hancock ou Bangkok T'écoutes mes rimes, ça t'arrache les oreilles comme Van Gogh Et j'suis l'meilleur par déduction rap, séduction L'éloquence est élégante, ça y est la prod est en cloque, nigga 2014, j'ai beau chercher, y a toujours pas de taf Et mon voisin du dessus, le pauvre, n'a toujours pas de fafs Et ce petit du quartier, dans le foot, rêvait de percer Maintenant c'est la drogue douce le soir qui vient le bercer Cousin, je viens d'une époque où les professeurs Ont des photos d'ados dans leur processeur De plus leur politique ne cesse de reculer Maintenant voter c'est faire une queue pour se faire enculer L'Afrique, ses guerres, ses militaires armés Comprends pourquoi mes frères traversent la Méditerranée GABOS, la rue te cueille à la naissance Te fait faner à Fleury dès l'adolescence Je vois des daronnes stressées, le daron parti, pressé Qui laissent traîner leurs gosses sur le parking On s'était dit que dans 10 piges on aura le flow Dans un teddy, bas Dickies, Polo Ralph Lau' Par manque d'intelligence, de calme, de vigilance La plupart des tits-pe craquent, braquent la diligence Paris l'incandescente, le tumulte des descentes Le cumul des décès, le vacarme des détentes Et j'entends même au loin les ambulanciers Une mère pleurer son fils des blessures pansées Des familles à plat ventre, en mauvaise posture Car l'État joue les sourds là où les gosses hurlent Négro, j'suis français comme Montana Gros et j'suis qu'un étranger sur mon canap J'propose des millions à condition qu'j'aie un fond banal Être meilleur qu'eux, c'est pas qu'mon travail Check, j'arrive sans RS4, on j'me pavane Le sol va trembler même si Billie Jean raconte des salades C'est violent, gros, c'est lourd de malade Rien à foutre de tout si t'as un mic et quelques balafres Frère, le vrai, ça marche mais t'inquiète pas qu'on cavale Au tieks on m'dit T'es perdu, force mon reuf même si tu t'acharnes, nos différends n'sont pas graves La weed a créé un putain d'truc de bâtard Pas dans la fume elle-même mais ceux qui croient qu'des pilules j'avale P'tit frère, c'est logique si j'fais pas c'qui s'fait J'ai inventé un vin et ça en sorte dans quelques mixtapes Cuit, cuit, pas un oiseau mais mon bifteck Ton vrai gars sait qui c'est qui arrive comme du ginseng Mystère comment est l'mille quand elle tient l'pieu J't'ai inventé un vent et ça avant d'te sortir un skeud Eddie, 3000seudi, 61 pieux La fin sera belle c'est pour ça qu'j'entretiens l'creux A gauche parce que j'viens d'l'Ouest Depuis l'temps quand j'arrive c'est l'feu Végéta contre Cell 2 Ils cherchent un moyen d'rapper ces textes Ceux qui préfèrent nous voir en perte plutôt qu'dans un Benz bleu Ou dans un Bentley, j'fais l'vu De sortir à la tronche d'un enfoiré, mon négro, j'fais, j'veux Ma tête fuse avec des bottes de sept lieues J'choppe des techniques mais l'risque est qu'mon petit naisse vieux En vérité, j'aime avoir l'silence Pour copuler avec une fille ayant des formes et un don pour la bouffe confirmé, de préférence J'aime le mystère sans pour autant signer Comprends le film sans avoir à le rembobiner Finesse et flow combinés Quand j'rentre en scène on m'observe avant d'laisser la place à celui qui va baragouiner Rap binaire de position comme les Playmobil Retourne souvent serrer des ratures, file en Lamborghini Parfois j'doute dois-je bosser ou non ? Mais si on m'priverait d'zique, j'serais comme un tox sous l'pont Les gens t'fient aux philosophies d'mythos Je n'fais qu'apprendre mieux vaut être fonce-dé à mi-temps qu'enfermé à huit clos Soyez au rendez-vous, soyez à l'heure Bouche bée et yeux écarquillés quand vous m'voyez à l'oeuvre J'voyais toutes ces chiennes aboyer alors Qu'aujourd'hui ces chiennes m'obéissent au doigt et à l'il Le mec tape fort, le mec frappe fort Pour les mettre d'accord, les mettre d'accord Le mec tape fort, le mec tape fort À coups d'rimes, de métaphores, de métaphores J'donne plus d'informations que tout c'que la télé lance Tout est camouflé, yo, l'éloquence est élégante Le rap c'était mieux avant c'est tout c'que ces fêlés pensent Moi, j'ramène du flow et du groove pour que ces pédés dansent J'ai mes gants, j'suis équipé, pas d'équité Entre eux et moi, tu peux pas métiqueter Jos', tu sais qui c'est J'dois esquisser un smile, viser l'soleil, avant de m'éclipser Tu m'vois tout déchiqueter, tu peux pas éviter la triste vérité Et j'peux pas hésiter devant l'but Parfois j'rêve de m'exiler dans l'Sud Paraît qu'la misère est moins pénible au soleil Donc avant d'devenir obsolète faut qu'j'passe pro Pour ça faut qu'on s'batte, bro' x4 Oh merde, pour tout ça j'étais pas prêt Tu veux qu'on s'tape, on s'tape, j'te mets dans les cordes Putain ça fait longtemps qu'on stagne, postés devant les blocs Si j'te sens pas poto, j'fais capoter l'affaire J'ai ni des dents, ni du sang, ni du temps à perdre Hey, ici c'est pas Madagascar, c'est glacé comme en Alaska Donc te prends pas pour un lascar, nigga Par ici, dans la minute, tu peux t'faire crosser Y'en a qu'on élimine pour un regard, deux-trois mots grossiers Sur le terrain, certains d'mes frères s'comportent en radins À chacune de mes passes, les flics m'observent en haut des gradins J'suis chaud bouillant, sa mère la pute, appelle les pompiers C'matin j'ai pas la pêche, j'suis pas levé du bon pied Ramène ta paire de gants si tu veux pas perdre de dent J'te l'ai déjà dit ramène mon bif, mon pote, j'aime pas trop les pertes de temps Le 3.5.7, ça c'est pour les sprinters Les gars balèzes qui veulent un peu trop jouer les Maître Splinter Est-ce que tu captes ? On est dans les bails de ninjas Amène ta part de pizza Les mecs vont m'appeler Monsieur Bachirou Aucune marche à monter j'ai un tapis rouge J'suis l'un d'ces départs à même pas 10 sous Qui taffe pour convertir le bail en Bébé, tu veux partir où ? Caméléon comme ton idée d'mon rap Non, pas de Hey, trop fort vu qu'ils ne font qu'comparer Moi et frérot sortent, ces thèmes vont de la sorte Bouteilles, balcon et bords on fait une putain d'soirée Accorde du crédit à c'sacré numéro On t'l'avait prédit, frère, on veut plus d'ces go Celles qui font belhani genre On veut plus d'ces gars j'pensais elles si vivraient ... J'pensais elles si vivraient ? surtout où est l'flow Elles m'remercient de pas être comme tous les autres Putains d'euros dans la poche de tous mes bro' Kanga munoko, négro, fecha tu boca Shut the fuck up et va m'chercher du Coca Jo, S majuscule, minuscule, me transforme au crépuscule Quand j'rappe je fais ma muscul' Ceux qui ont l'veau-cer vide vont s'taire vite Trop d'pigeons ici c'est Skyrock ou la gare d'Austerlitz ? Ils cherchent le buzz, moi l'oseille T'endors pas sur mes dettes ou tu retrouveras pas l'sommeil Moi, j'traîne, j'me tue, j'cherche les thunes jusque tard le soir J'suis meilleur qu'eux, ça crève les yeux mais ils font semblant d'pas me voir Tu parles de quoi ? T'inquiète même pas, ils finiront par me croire J'leur ferai tellement du sale, ils m'diront Jos', calme-toi À 13 ans j'étais fou, à présent j'me défoule Pour cultiver mon blé, si j'suis riche, j'suis comblé Nerfs à block, j'suis gonflé Fuck les putes, j'veux ma go, j'vais récup' mon magot Et m'barrer d'ici Je viens de là où on a du mal à respirer Le taux de chômage nous coupe le souffle et les yaourts ont expiré Je te parle de tout, des galères et des frigos Du clochard du coin de la rue ou du crochet de Luis Figo Et j'oublie pas nos mères qui jouent les gladiateurs Qui taffent dur pour ramener de quoi faire chauffer les radiateurs Une pensée pour la mienne, sans elle, mon frère, je tombe Hier, inconscient, j'ai claqué le loyer dans une paire de pompes Je l'ai claqué dans une 'teille et en Enfer je vais peut-être rôtir Comme les poulets qui m'ont dit Plus facile d'entrer en taule que d'en sortir Parmi mes shabs combien ont mangé la gamelle ? Elle est loin l'époque des Schtroumpfs qui se font courser par Gargamel Ça sent la tôle pourtant le plavan vaut de l'or On a tellement traîné dehors que le froid nous est indolore Je réfléchis trop, c'est pour ça que j'ai tué mes ongles Je fais des C.V. et des CDs en attendant de tuer les ondes Mais je veux pas tuer l'avenir, de mon futur fils de 3 ans Alors je taffe pour qu'il ne manque ni de lait ni de croissants Je suis technique sur le terrain, je joue à l'espagnol À 'iep ou en grosse bagnole, j'emmerde les Willy Sagnol S.Pri c'est oim, ouais je suis frais sur la cover J'ai pas le temps de faire le lover, je veux mes seufs dans la Rover Et j'ai appris que parmi mes potes il y avait des mythos Qui peuvent virer ennemis pour du gent-ar ou bien des clitos Pour la gloire, la haine ou la jalousie Condamnés à survivre, est-ce que c'est ça nos vies ? La ligne 3, la ligne 4, le RER B Le boulot, la bicrave et la BRB Y'a pas photo, ce sont les beaux clichés que mes gars kiffent On a pas de pellicules mais sous nos crânes c'est négatif L'amour rend aveugle, c'est pour ça que la France nous voit pas Crois pas que ton fils est un you-voi 'Pa Même si comme toi, il s'est mis dans quelques magouilles Qu'il traîne en bas avec des types qui l'appellent ma couille Papa, je me tape pour que tu passes la porte du château En chemise Dior, borsalino, la paire de Smalto J'suis pas ce rappeur paperasse avec objectif, demande Mais celui touché par la grâce à qui on dit Qu'est-ce qu'il te prend ? Comme la FF, toute la musique de France Celle qui divise pas mes frères quand toute la ville demande Ah, on pourrait tant les brûler On est les mêmes mais ils préfèrent s'entre-tuer, bande d'enculés Chacun d'mes 'blèmes j'vais les descendre, j'ai juré J'me dis qu'des galères comme moi te donnent pas le temps d'reculer Le temps est pur et L'ensemble est chez nous impeccable L'ensemble de ton crew, ces bécasses Viennent nous voir genre Vous les trouvez où ces pétasses ? C'est trop simple, Parifornie, tout est légal Et j'ai connu ce genre de bourbier Comme pire ennemi mon propre courrier J'suis grand, même vrai, toujours petit Car ma daronne a l'paradis sous l'pied J'fais que parsemer, j'fais que parfaire Et par semaine j'fais passer une masse d'herbe J'vais les shooter au ralenti comme dans Max Payne J'les aurai par l'feeling, par l'flow et par l'fer On a pas la même ta fan base bat d'l'aile On peut saboter ta life en cas d'blème On ère, les deux pieds dans la merde, j'ai la paire Je n'sens plus l'amour, le nez dans mes affaires Shooter moi-même, j'suis dans ma scène Enfoiré, t'as le seum, c'est ta sur qui m'harcèle Et elle sait qu'elle ne deviendra pas chérie J'marche seul, me passant des intentions malsaines C'est d'la remise en forme Le flow est lourd, tu sais qu'ça pèse J'fous l'bordel sur la scène mais j'garde la tête sur les trapèzes Ouais, j'suis un mec carré J'veux faire le tour du globe ou d'l'hexagone Mais j'bouffe des 'dwiches triangles parce que j'ai pas un rond, moi j'aimerais m'barrer Quand j'ken des prod', t'appelles ça des agressions par contre Quand moi j'disais ça tu trouvais ça invraisemblable, donc Quand j'entre en scène, quand j'enchaîne, redresse-toi, mets-toi en scelle Le rap j'enseigne dès mon blaze annoncé Les rimes s'amoncellent, tout l'monde sait que j'ai la prose qui tu les prostituées Du rap, et j'sais plus trop où m'situer Mais, montre qui tu es Ça c'est c'que j'fais depuis l'lancement Depuis l'commencement, maintenant, j'prends du poids depuis l'grand changement Quand j'bouge les gars s'poussent J'suis un mec au style aussi et J'shoote des cartouche une fois celles de mon stylo vidées Tu m'trouves indécent quand j'dis qu'j'palpe des seins Flow incessant, tu vois c'que j'veux dire mais j'te fais pas d'dessin Ici c'est big city, vie d'cité, mixité Vite si t'es vif, fais tes billes Évite les vils-ci, fuck les flics Si t'es apte à ça, ok on s'engage Rodéo sans casque pour des ou-s' en cash, tous ces oufs s'encastrent On veut des pourcentages Des p'tites parts, une p'tite Cab' sur le king-par Ma claque que les flics palpent Les familles du Sept-Cinq qui vivent avec sept surs et reufs Ou même sept zinc', qui te-por les mêmes fringues Les sans-fafs, les blédards, les clochards qui dorment dans des draps sales Les gangstas qui meurent dans des drive-by Les surs aux culs bombés, cambré D'origine du Maghreb ou de Bombay De Saint-Blaise à Cambrai Qui font des heures sup' au McDo Les man et les maquereaux qui manient la maille, kho Les chauffeurs de tacos Comme eux, c'qui nous importe c'est l'bénéfice C'est pour mes chacals qui s'butent au Coca-Hennessy J'suis parano et au fond je l'sais pas comme un loup qui boufferait trop d'chèvres J'vois seulement le fait qu'on m'observe Evidemment qu'c'est honnête J'tourne ma langue et finis par une vie d'amour et d'grosses fesses Je n'suis pas pour les promesses Nique l'amour, c'est trop d'stress Bordel, pour les gens présents lors du cortège A ceux qu'j'ai raté, je parie qu'ils croyaient qu'je dormais Et j'suis khalé, j'fais qu'me noyer dans des corvées En même temps coffre pour un Corvette Pour ceux qui m'connaissent, j'suis un borné Qui fait que d'la 'zique car il veut plus entendre leurs sornettes C'est fort net Un cornet, ensuite une bonne baise et dans l'verre un dernier cocktail De Trappes à l'avenue Voltaire J'essaye juste le blé, j'ai pas eu l'temps d'apprendre le solfège J'atterris dans c'merdier en soucoupe Ici j'ai presque froid, mais qu'est-ce que j'dois faire ? J'ai vu une paire, j'suis resté j'suis comme vous tous Qu'ça soit de rap ou de meufs, de frappe ou de kush Couche-toi sur le king size, mes potes et moi on fourre tout Fini l'rêve, fini d'jouer, fini d'plaire, fini tous tes frères J'ai bu la vie au goulot, j'finis c'verre sans t'faire goûter Moi, c'est les yeux plissés qu'j'finis d'faire c'que j'fais Vieux, quand j'ai les idées claires je n'finis pas la nuit entre des tchoutchs Rien qu'j'les blesse comme ça Limite fiers, ils finissent perdants On est pas d'la même mère mais on s'définit frère Pourtant à la vue d'ses formes, t'as cru t'éloigner d'Lucifer Donc pourquoi te croire si fort ? Devant, tu t'es senti frêle Tasse pudique dans l'appart, c'est pas elle qui paye les factures T'as cru qu'on avait des bords venus du Finistère ? Merde, ce biz j'gène Ces fils de n'ont pas l'bruit qu'j'ai Car j'fais l'tour du riph'-pé, mes reufs sous Mary Jane Tu voudrais couper mon filon mais je reste en haut du pilonne et Reste là, gros, t'envierras la vie qu'j'ai Fais ta vie et j'traîne La tête haute, j'les vois tous baisser les têtes Ils m'doivent le respect, négro, faut payer le dettes Ils apprécient ma cuisine, ils peuvent qu'apprécier le chef J'ai su encaisser l'échec Donc j'peux encaisser les chèques J'écris mon histoire, et ce depuis l'sommaire Nique sa mère, moi j'veux voyager tout l'summer Parfois, j'suis pris d'seum parce que le respect se meurt Mais quand on m'dit Cool l'ceau-mor, moi j'réponds Cool ci-mer Et j'suis dans cette merde, j'suis en pleine immersion Ils sont dans la trap, pour les piéger, on fait diversion Ils racontent des stories pour être crédibles, c'est débile Des stories pour lesquelles y'a p't-être dix versions Et j'me pose des questions Sur les questions en question J'entends les réponses et j'remets les réponses en question Et j'prends d'la marge, j'fais qu'd'y penser à chaque station J'suis dans l'coin, dans les sièges à 4, dans l'sens d'la marche Avec ma vois intérieure On établit des stratégies pour descendre tous ceux qui voudraient nous voir inférieurs Car plus personne n'a l'esprit judicieux Plus personne n'est vierge, même pas les casiers judiciaires Et j'souris d'abord, quand l'orgueil n'est plus là Quand ça sent l'traître, j'guette par l'il de Judas Avant d'ouvrir la porte Et rien qu'je soupire à force Les porcs, on s'nourrit avec On s'tape des fous rires avec mes potes On s'dit qu'les autres sont pourris à mort Wassup boy ? C'est pour mes dealers, mes killers Qu'écoulent des kil' depuis la GameBoy Font leur trucs boy pour remplir l'bol Errent dans l'coin, herbe dans l'joint Tchin-tchin on trinque à la tienne C'est pour mes tas d'p'tites surs Qui s'comportent ap' comme des chiennes Et puis mes gars qui s'tapent, que des braves Pas d'p'tites frappes ne t'inquiète ap' ils s'cachent C'est pour aç' qu'ils cashent sec Money money C'est pour les encaisseurs d'Assdec' Les pauvres même les Aztèques Les p'tits G-Money Ceux qui manient le Glock Ceux qui s'font soulever à six ou seven o'clock Parce qu'ils dealent en bas des bâtiments Fournissent les boloss d'la ville en tos-ma de qualité tarifé gentiment Ceux qui trafiquent la dope sans avoir d'agréments Ceux qui suivent la recette sans parler d'ingrédients Gravir les échelons, mon négro, j'fais de l'alpinisme Ouais mon négro, nan mon négro, ce n'est pas fini J'compte plus les années d'nouveaux arrivages C'bâtard il va juste faire du Gaumont à la Kamini Activiste, même pas d'ici et rarissime J'me sacrifie, prépare missiles et eux leurs artifices Et t'inquiète pas qu'on sait qu'ça part en couilles Ouais ça rend fou ces ventouses collées aux gars qui triment Idéalement, j'fais du bénef' vite Mif' et allemandes qui m'disent Alors, Ben, tu fais Bercy ? Vite les amours, vire ce sélectif Oui mais alors file une capote, mamie, c'est l'équipe La base du savoir c'est merci J'en vois aux parkas réversibles J'suis juste moi, j'ai pas besoin de ces MCs Y'a juste des vrais gars et une énergie Souhaite-moi Bon' chance, j'suis Bryan Mills Ils veulent m'atteindre, j'suis intouchable comme Bryan Mills, mothefucker J'suis à tes trousses, je te trouve et je te troue, comme Bryan Mills Pète ta bouche si tu touches à la mif' J'ai encore plein d'choses à accomplir J'veux crever vétéran, j'veux pas canner d'nos vices J'te l'apprends si t'as pas compris C'est pas en jouant au Loto qu'on va gagner nos vies J'roule qu'au feu vert, j'franchis pas la ligne blanche J'garde mes distances, j'me conduis bien car j'suis fliqué si j'flanche J'rentre dans une p'tite transe quand j'rentre en cabine Tu finis dans les abîmes car quand la bitch tremble l'alcool au goulot Mes rimes sont profondes comme le sol sous l'eau Dread lock, destroy, négro j'fais l'job, j'fais le boulot Jusqu'à c'qu'ils coulent, qu'ils s'disent Quel enculé, quel culot J'faisais ça bien avant internet Les murs comme public, j'faisais ça en interne, mec Les occasions, c'est pas fini quand t'en rates une Car personne prend la thune sans rature J'veux être torse poil, un air valeureux sur un voilier Mon accueil chaleureux, tu vas pas l'nier Habillé d'manière abstraite, y'a tout eu sur mes poignets On ne voit pas ce jeu mais le panier Ouais, j'dirai toujours que ça ira C'est ces deux notes qui vont faire que avec moi t'iras Même les menottes m'ont appris qu'on pouvait gagner Allier, rentrer l'oseille et pouvoir puff de la sativa Donc en fait c'est d'la magie noire Loin d'un monde moins fake que Paris Match Ouais qu'ça colle bien ensemble Faut Zizou pour qu't'oublies d'douter qu'on n'est pas rien ensemble Frolo, quitte ou double la mise ? Là pour combler la mif Jamais été au Parc Astérix, y'a que Paris J'dis pas qu'on fait la diff' vu que l'son l'prouve Eddie Eddie sur la gueule de l'monde-tout 3000seudi MC t'es chaud ? Viens on s'la donne, le temps d'un freestyle J'te mets à poil, comme si y'avait du GHB dans ton cristal Mon flow attire les p'tites 'tasses, efface les p'tites taches C'est Fougères Dope sur mon étiquetage, toute mon équipe passe De Paris à MTP, on finit game en MVP On shoote à trois points... Switch ! Producteur de CD, ayant des potes décédés J'fréquente rouleurs d'OCB, et arracheurs de CB Sept-Cinq, Sept-Cinq, protège ta mère et ta tête, zinc' J'suis tout droit sorti d'une arène Y'a personne qui m'arrête, surtout pas toutes tes merdes, zinc' Ancien découpeur de lamelles venu pour te la mettre On n'est pas de la même trempe Nan, on n'est pas de la même mif' Surtout pas de la même bande J'suis l'genre de type qui t'met une crampe Ou bien une trempe, en moins d'130 Sur nos armes, on a plus l'cran On a plus d'gants, on a plus l'temps Il est minuit, j'sors d'une garde-à-v', j'fais mes lacets L'OPJ m'a menacé, mais au final m'a relaxé, bitch Ouais mon négro, ouais mon rebeu, ouais mon bab' J'fais kiffer ta famille et tes amis et ton bord J'm'habillais en sorte Arrivé sur Paris, j'vois qu'ils balisent et qu'ils paniquent Vu mes qualités, ils ont validé mon score On est fatigués, on dort pas, toujours dans l'cockpit Mes gars arrachent les code-barres, les meufs s'arrachent mon code PIN Appelle le numéro d'mon code postal quand j'mets l'fire Parfois, j'suis là, j'me poste au calme mais j'rêve d'ailleurs Ouais, j'fais preuve de bon sens et d'constance Paraît qu'j'suis très fort mais depuis l'début j'fais des efforts, nigga2</t>
+          <t>J'préfère les choses fictives Ça m'évite de m'faire des films et d'en être victime J'kicke depuis qu'j'ai fifteen, bitch please J'avance pour garder l'équilibre comme si j'roulais à vélo Pas loin d'être intello, pélo, j'kicke comme Donatello Hello, Josman sur tes vres-lè comme Labello Hey yo, ninja flow, j'vois rouge comme Rafaello Hey oh, j'vois rouge comme Scott Summers Cyclope Punchline dans tes poumons, rien qu'tu tousses SixClopes La vie est pleine d'obstacles, j'les saute comme Ladji Doucouré Sur ma vie, c'est magique, quand j'arrive vous courrez Et vas-y, c'est facile, j't'envoie à l'asile, assis, avec un flow basique Me dépasser jamais vous pourrez Et paraît qu'y'a du talent, mon gars t'as vu ça Tu savais ap, normal j'cache ma richesse comme Cahuzac On t'a vu zinc Moi j'kiffe la iv et c'est à ça qu'on trinque Comme si j'étais à 5 contre 1, j'ai la puissance de 50 trains Et tu m'veux rencontrer parce qu'on t'a raconté qu'j'suis l'boss de ta contrée Mais j'ai déjà démontré que j'pouvais démonter des prods Tête de oim, j'ferai tourner tes proches J'ai progressé en deuspi comme si j'avais pris des prot' J'suis le prof, on dit qu'j'suis pas gentil Mais j'te baise avec galanterie J'ai pas menti, j'serais lourd aussi même si j'rappais au ralenti Si on s'ressemble c'est qu'j'suis comme toi en mieux Négro, j'ai des tas d'envieux parce qu'ils savent que j'suis talentueux Putain d'merde Moi j'suis l'huitième nain, j'viens baiser Blanche la putain d'Neige On sait qu'l'État escroque, mais petit néglige pas les profs Garde mains et baskets propres, ecsta', CC touche pas cette drogue Pourquoi cotiser 55 ans, ou bien même faire cinq ans ça comme en taule ? Bref, en gros si j'm'associe c'est 50-50 La crise fait dresser les tifs, chez nous pas de tri sélectif On fait parfois criser les vieux quand l'soir on fait crisser les pneus Tes parents rappliquent chez les bleus, t'en as même attristé les deux C'qui nous baise le fric et les gueuses, nous on tend à trise-maî les deux Tu peux t'mettre à briser des beuj' ou encore t'défriser les veuch' Ça n'empêche pas qu'le monopole tangue entre la Chine et les Feujs Demande à Nakk Mendosa On n'a pas l'même dossard, fournit pas l'même dosage Nos relations avec les keufs sont souvent tendues Celles avec les meufs, remplies de bluff, de sous-entendus C'est souvent l'temps du Je t'aime, mais on s'entend plus T'étais le A, devenue le B, désormais t'es mon plan cul Viens j't'explique en 2-4-6, sensations fortes via 2-3 spliffs Embrouille de tess de 2-3 types, un frère se perd en 2-3 clics, boom Le swag d'un pitbull, à l'affût d'une p'tite poule Tu es un prototype cool, ce soir j'ai besoin d'un p'tit... Veni vidi vici, 22 v'là les vils-ci Viens on s'éloigne d'ici, checke-moi sur N.Y ou D.C On tré-ren par la p'tite porte, on consomme d'la tise forte J'kiffe gratter dans état sous alcool dans l'sang Pique une tête chez le propriétaire lorsqu'il est absent J'ai ap d'abcès, alcool, drogue, baise ex et J'exerce et, mec, c'est entre 2 fesses que j'reste axé Mais laisse-les Tu sais, mes textes, peu les testent, expulsent Et moi je reste, peux test, avec ma et les mecs disent que j'suis désaxé Tu vas pas m'taxer ma tête Sur la MPC j'suis blessé mais God bless me Ça dit quoi enfoiré ? Moi j'suis paxé presque et que les bougs, mec, touchent leur sexe en number masqué, bref Textuelle ma gestuelle, déplacée J'crache, j'frise une haleine au taux d'alcoolémie dépassé J'brasse sans boire la tasse tout d'même Même si j'suis die mamen E.A.Z.Y. te lâche une phase quand même J'prends ma place au départ Dans mon espace, que des barges Et même si l'rappe ne m'intéresse pas, j'prends ma place quand même Grand j'ai la prose, tu psychotes quand j'mets la dose C'est la p'tite bête qui vient manger la grosse J'rapperai jusqu'à vétéran, Joss vient titiller les grands Ils vont avoir mal longtemps, ouais, j'suis un plaie béante Mais ma fainéantise, me fera pas trop bouger Flow trop urbain, j'serai sûrement enterré en ville Tu veux coucher mon flow ? Vas-y pousse d'abord J'ouvre la porte du game sans frapper, j'vous mets tous d'accord Si tu veux l'voir grimper ou grimper sur l'applaudimètre, faut s'y mettre Ils veulent me shoot, mais j'fais qu'des renvoies aux six mètres T'as jamais vu d'précision aussi nette, aussi bonne Aussi lourde, aussi fat, aussi clean, aussi propre Et pas d'souci, c'coup-ci, si j'bousille tout Ça sent l'roussi fou, quand j'troue ton crew d'pussys J'veux tout tout de suite, enfoiré j'te l'dirais pas 100 fois Mais j'ai pas besoin d'perdre la mienne pour t'laisser sans voix Fais pas le gars qui sait ou c'lui qui veut sympathiser T'as pas d'cran si t'as pas tisé, tu baves et tu veux pactiser J'me tape pour pas pisser en taule ou finir par glisser Chez moi y'a pas d'mur tapissé, quand j't'appelle demande pas qui c'est Du lourd comme d'habitude, parce qu'on incarne le rap qui tue Flow, phases, attitude qui remet en cause leurs aptitudes De toute manière s'te plaît flambe pas j'découpe tes seize Evidemment qu'mes couplets blessent, aucune salope ne touche mes fesses P'tite prod, Mitch Corp P'tite conne, j'kick propre Est-ce que tu captes le truc ? J'ai plus d'clope, c'est comme si j'en avais dix C't'odeur de peur autour de quoi j'aiguise mon appétit On m'dit C'est ça, c'est mieux pour toi mais j'suis un taré J'tise dans l'carré VIP, affalé, j'parlais d'chiffres, nouveau maléfice Un jour les tiens verront qu'tu les entubes Du moins, t'essayes en pensant qu'à ta race de vrai enculé Le gérant gère pas pour gérer mais car se géant s'tue Et t'inquiètes maintenant j'ai pété tous ceux qui dérangent plus A cause d'un plat ce sera tout l'temps d'ma faute Ce poids sur mes jambes, j'adore, il travaille mes abdos Avance besoin, qu'attend demain quand j'redeviendrai humain Et m'achèterai un feu à cause de ceux qui n'checkent pas mais s'adossent Ce genre de truc pour moi c'est quesaco Y'a un problème avec ma tête mais j'peux toujours plaire à d'autres C'est pas un 'blème, c'est qu'une putain d'observation Tu cherche une échappatoire, moi une putain qu'opère à fond DJ, fous ça dans ton Serato Ils n'servent à rien, on sert à tout va, s'en va en vrai bateau J'ai pas fini, j'vais rester là comme Platini et monter comme un putain d'alpiniste loin d'ton hexagone Tout mon schéma s'est fait là, mon négro, j'péra trop On m'envoie que d'la merde et m'envoie C'est grave chaud Je l'savais mais c'est d'la daube J'suis jamais tout seul C'est pas par choix, mon négro, sinon j'crée ma zone Dehors, négro, c'est gratos Si j'tiens bon, moi j'écris pour m'offrir un peu d'air Le deux tiers de mes amis, le trois quart de mes frères Savent que j'fais ça rapide On a trop peu à perdre pour pas qu'la folie s'rapplique On écarte ceux qui l'appellent Tant qu'les aiguilles tourneront Tous les jours j'fais la même C'est comme pousser la fonte pour surmonter la flemme Attaché à la console, j'laisse le micro à terre C'est pas pour rien qu'on sonne mais j'ferai pas danser la terre Et tu dois penser la même On s'doit garder les bons souvenirs Et ma plus grande fierté serait l'sourire de ma mère Aucune ne ferait ma paire, donc pourquoi trouver la bonne ? Y'a qu'pour une que j'voudrais la lune ou soulèverais la mer Et quand l'soleil se couchera, on débouchera la 'teille Comme tous ceux qui taffent, le 12 ont déjà tout déboursé Souvent on garde la tête haute en voyant ceux qui la perdent En attendant, faut d'la tise, pour qu'on parte jusqu'en l'air Car c'est partout la même Si tu m'croises et qu'j'te vois pas c'est qu'j'suis dans ma tête Si j'te croise et qu'tu m'vois pas c'est qu'j'suis dans ma caisse Si tu m'vois frotter en te-boî c'est qu't'es dans la cess Jamais fourré dans un coup mais bourré dans la pièce On joue dans les temps, pour le coup c'est fou les mecs Moi, j'joue des tours aux poulets tant qu'j'ai wallou dans la veste Jamais deux sans trois les gobelets, la funk et le reste Plus d'deux cent fois où j'ai poncé, défoncé, des textes Et me parlez pas d'monnaie J'ai deux oreilles, il m'faut plus que d'l'oseille pour m'raisonner J'fais du son pour oim, juste parce qu'il le fallait Si ça t'plaît c'est mieux, appelle-moi Eazy Dew Allen et mes potes kiffent la fumette À deux doigts d'en abuser Frérot, j'assume le fait que quelques uns peuvent me juger Pour l'instant c'est clean, j'suis fier d'mes plans pour l'lendemain J'sais pas qui j'pourrais croiser en chemin mais j'ai la musique Hey yo, what's up ? Jos fuckin man, j'arrive en force, en feu Ils ont des plus gros dorsaux qu'oim mais j'fais des meilleurs morceaux qu'eux J'ai beaucoup d'flow, j'ai beaucoup d'technique, en plus j'suis grave précis Donc pas besoin d'être agressif pour qu'ils apprécient J'me déguise pas, j'reste vrai J'reste délicat exprès J'suis efficace, ken une p'tite 'tasse qui n'mérite pas l'respect Donc, me compare pas, j'suis pas comme eux, téma, j'prends l'ascendant Crari, ils font tous la même chose, crari faut être dans la tendance En attendant, je fais l'taf, mé-cra, j'm'esclaffe Donc laisse place quand j'm'exclame Des jets d'flammes, les mecs clamsent Vas-y c'est mort, maintenant j'ai pris les devants Et j'crois qu'il est temps de mettre les bouchées doubles Fini la dilettante, ça y est j'ai mis les gants d'boxe Violent comme Hancock ou Bangkok T'écoutes mes rimes, ça t'arrache les oreilles comme Van Gogh Et j'suis l'meilleur par déduction rap, séduction L'éloquence est élégante, ça y est la prod est en cloque, nigga 2014, j'ai beau chercher, y a toujours pas de taf Et mon voisin du dessus, le pauvre, n'a toujours pas de fafs Et ce petit du quartier, dans le foot, rêvait de percer Maintenant c'est la drogue douce le soir qui vient le bercer Cousin, je viens d'une époque où les professeurs Ont des photos d'ados dans leur processeur De plus leur politique ne cesse de reculer Maintenant voter c'est faire une queue pour se faire enculer L'Afrique, ses guerres, ses militaires armés Comprends pourquoi mes frères traversent la Méditerranée GABOS, la rue te cueille à la naissance Te fait faner à Fleury dès l'adolescence Je vois des daronnes stressées, le daron parti, pressé Qui laissent traîner leurs gosses sur le parking On s'était dit que dans 10 piges on aura le flow Dans un teddy, bas Dickies, Polo Ralph Lau' Par manque d'intelligence, de calme, de vigilance La plupart des tits-pe craquent, braquent la diligence Paris l'incandescente, le tumulte des descentes Le cumul des décès, le vacarme des détentes Et j'entends même au loin les ambulanciers Une mère pleurer son fils des blessures pansées Des familles à plat ventre, en mauvaise posture Car l'État joue les sourds là où les gosses hurlent Négro, j'suis français comme Montana Gros et j'suis qu'un étranger sur mon canap J'propose des millions à condition qu'j'aie un fond banal Être meilleur qu'eux, c'est pas qu'mon travail Check, j'arrive sans RS4, on j'me pavane Le sol va trembler même si Billie Jean raconte des salades C'est violent, gros, c'est lourd de malade Rien à foutre de tout si t'as un mic et quelques balafres Frère, le vrai, ça marche mais t'inquiète pas qu'on cavale Au tieks on m'dit T'es perdu, force mon reuf même si tu t'acharnes, nos différends n'sont pas graves La weed a créé un putain d'truc de bâtard Pas dans la fume elle-même mais ceux qui croient qu'des pilules j'avale P'tit frère, c'est logique si j'fais pas c'qui s'fait J'ai inventé un vin et ça en sorte dans quelques mixtapes Cuit, cuit, pas un oiseau mais mon bifteck Ton vrai gars sait qui c'est qui arrive comme du ginseng Mystère comment est l'mille quand elle tient l'pieu J't'ai inventé un vent et ça avant d'te sortir un skeud Eddie, 3000seudi, 61 pieux La fin sera belle c'est pour ça qu'j'entretiens l'creux A gauche parce que j'viens d'l'Ouest Depuis l'temps quand j'arrive c'est l'feu Végéta contre Cell 2 Ils cherchent un moyen d'rapper ces textes Ceux qui préfèrent nous voir en perte plutôt qu'dans un Benz bleu Ou dans un Bentley, j'fais l'vu De sortir à la tronche d'un enfoiré, mon négro, j'fais, j'veux Ma tête fuse avec des bottes de sept lieues J'choppe des techniques mais l'risque est qu'mon petit naisse vieux En vérité, j'aime avoir l'silence Pour copuler avec une fille ayant des formes et un don pour la bouffe confirmé, de préférence J'aime le mystère sans pour autant signer Comprends le film sans avoir à le rembobiner Finesse et flow combinés Quand j'rentre en scène on m'observe avant d'laisser la place à celui qui va baragouiner Rap binaire de position comme les Playmobil Retourne souvent serrer des ratures, file en Lamborghini Parfois j'doute dois-je bosser ou non ? Mais si on m'priverait d'zique, j'serais comme un tox sous l'pont Les gens t'fient aux philosophies d'mythos Je n'fais qu'apprendre mieux vaut être fonce-dé à mi-temps qu'enfermé à huit clos Soyez au rendez-vous, soyez à l'heure Bouche bée et yeux écarquillés quand vous m'voyez à l'oeuvre J'voyais toutes ces chiennes aboyer alors Qu'aujourd'hui ces chiennes m'obéissent au doigt et à l'il Le mec tape fort, le mec frappe fort Pour les mettre d'accord, les mettre d'accord Le mec tape fort, le mec tape fort À coups d'rimes, de métaphores, de métaphores J'donne plus d'informations que tout c'que la télé lance Tout est camouflé, yo, l'éloquence est élégante Le rap c'était mieux avant c'est tout c'que ces fêlés pensent Moi, j'ramène du flow et du groove pour que ces pédés dansent J'ai mes gants, j'suis équipé, pas d'équité Entre eux et moi, tu peux pas métiqueter Jos', tu sais qui c'est J'dois esquisser un smile, viser l'soleil, avant de m'éclipser Tu m'vois tout déchiqueter, tu peux pas éviter la triste vérité Et j'peux pas hésiter devant l'but Parfois j'rêve de m'exiler dans l'Sud Paraît qu'la misère est moins pénible au soleil Donc avant d'devenir obsolète faut qu'j'passe pro Pour ça faut qu'on s'batte, bro' x4 Oh merde, pour tout ça j'étais pas prêt Tu veux qu'on s'tape, on s'tape, j'te mets dans les cordes Putain ça fait longtemps qu'on stagne, postés devant les blocs Si j'te sens pas poto, j'fais capoter l'affaire J'ai ni des dents, ni du sang, ni du temps à perdre Hey, ici c'est pas Madagascar, c'est glacé comme en Alaska Donc te prends pas pour un lascar, nigga Par ici, dans la minute, tu peux t'faire crosser Y'en a qu'on élimine pour un regard, deux-trois mots grossiers Sur le terrain, certains d'mes frères s'comportent en radins À chacune de mes passes, les flics m'observent en haut des gradins J'suis chaud bouillant, sa mère la pute, appelle les pompiers C'matin j'ai pas la pêche, j'suis pas levé du bon pied Ramène ta paire de gants si tu veux pas perdre de dent J'te l'ai déjà dit ramène mon bif, mon pote, j'aime pas trop les pertes de temps Le 3.5.7, ça c'est pour les sprinters Les gars balèzes qui veulent un peu trop jouer les Maître Splinter Est-ce que tu captes ? On est dans les bails de ninjas Amène ta part de pizza Les mecs vont m'appeler Monsieur Bachirou Aucune marche à monter j'ai un tapis rouge J'suis l'un d'ces départs à même pas 10 sous Qui taffe pour convertir le bail en Bébé, tu veux partir où ? Caméléon comme ton idée d'mon rap Non, pas de Hey, trop fort vu qu'ils ne font qu'comparer Moi et frérot sortent, ces thèmes vont de la sorte Bouteilles, balcon et bords on fait une putain d'soirée Accorde du crédit à c'sacré numéro On t'l'avait prédit, frère, on veut plus d'ces go Celles qui font belhani genre On veut plus d'ces gars j'pensais elles si vivraient ... J'pensais elles si vivraient ? surtout où est l'flow Elles m'remercient de pas être comme tous les autres Putains d'euros dans la poche de tous mes bro' Kanga munoko, négro, fecha tu boca Shut the fuck up et va m'chercher du Coca Jo, S majuscule, minuscule, me transforme au crépuscule Quand j'rappe je fais ma muscul' Ceux qui ont l'veau-cer vide vont s'taire vite Trop d'pigeons ici c'est Skyrock ou la gare d'Austerlitz ? Ils cherchent le buzz, moi l'oseille T'endors pas sur mes dettes ou tu retrouveras pas l'sommeil Moi, j'traîne, j'me tue, j'cherche les thunes jusque tard le soir J'suis meilleur qu'eux, ça crève les yeux mais ils font semblant d'pas me voir Tu parles de quoi ? T'inquiète même pas, ils finiront par me croire J'leur ferai tellement du sale, ils m'diront Jos', calme-toi À 13 ans j'étais fou, à présent j'me défoule Pour cultiver mon blé, si j'suis riche, j'suis comblé Nerfs à block, j'suis gonflé Fuck les putes, j'veux ma go, j'vais récup' mon magot Et m'barrer d'ici Je viens de là où on a du mal à respirer Le taux de chômage nous coupe le souffle et les yaourts ont expiré Je te parle de tout, des galères et des frigos Du clochard du coin de la rue ou du crochet de Luis Figo Et j'oublie pas nos mères qui jouent les gladiateurs Qui taffent dur pour ramener de quoi faire chauffer les radiateurs Une pensée pour la mienne, sans elle, mon frère, je tombe Hier, inconscient, j'ai claqué le loyer dans une paire de pompes Je l'ai claqué dans une 'teille et en Enfer je vais peut-être rôtir Comme les poulets qui m'ont dit Plus facile d'entrer en taule que d'en sortir Parmi mes shabs combien ont mangé la gamelle ? Elle est loin l'époque des Schtroumpfs qui se font courser par Gargamel Ça sent la tôle pourtant le plavan vaut de l'or On a tellement traîné dehors que le froid nous est indolore Je réfléchis trop, c'est pour ça que j'ai tué mes ongles Je fais des C.V. et des CDs en attendant de tuer les ondes Mais je veux pas tuer l'avenir, de mon futur fils de 3 ans Alors je taffe pour qu'il ne manque ni de lait ni de croissants Je suis technique sur le terrain, je joue à l'espagnol À 'iep ou en grosse bagnole, j'emmerde les Willy Sagnol S.Pri c'est oim, ouais je suis frais sur la cover J'ai pas le temps de faire le lover, je veux mes seufs dans la Rover Et j'ai appris que parmi mes potes il y avait des mythos Qui peuvent virer ennemis pour du gent-ar ou bien des clitos Pour la gloire, la haine ou la jalousie Condamnés à survivre, est-ce que c'est ça nos vies ? La ligne 3, la ligne 4, le RER B Le boulot, la bicrave et la BRB Y'a pas photo, ce sont les beaux clichés que mes gars kiffent On a pas de pellicules mais sous nos crânes c'est négatif L'amour rend aveugle, c'est pour ça que la France nous voit pas Crois pas que ton fils est un you-voi 'Pa Même si comme toi, il s'est mis dans quelques magouilles Qu'il traîne en bas avec des types qui l'appellent ma couille Papa, je me tape pour que tu passes la porte du château En chemise Dior, borsalino, la paire de Smalto J'suis pas ce rappeur paperasse avec objectif, demande Mais celui touché par la grâce à qui on dit Qu'est-ce qu'il te prend ? Comme la FF, toute la musique de France Celle qui divise pas mes frères quand toute la ville demande Ah, on pourrait tant les brûler On est les mêmes mais ils préfèrent s'entre-tuer, bande d'enculés Chacun d'mes 'blèmes j'vais les descendre, j'ai juré J'me dis qu'des galères comme moi te donnent pas le temps d'reculer Le temps est pur et L'ensemble est chez nous impeccable L'ensemble de ton crew, ces bécasses Viennent nous voir genre Vous les trouvez où ces pétasses ? C'est trop simple, Parifornie, tout est légal Et j'ai connu ce genre de bourbier Comme pire ennemi mon propre courrier J'suis grand, même vrai, toujours petit Car ma daronne a l'paradis sous l'pied J'fais que parsemer, j'fais que parfaire Et par semaine j'fais passer une masse d'herbe J'vais les shooter au ralenti comme dans Max Payne J'les aurai par l'feeling, par l'flow et par l'fer On a pas la même ta fan base bat d'l'aile On peut saboter ta life en cas d'blème On ère, les deux pieds dans la merde, j'ai la paire Je n'sens plus l'amour, le nez dans mes affaires Shooter moi-même, j'suis dans ma scène Enfoiré, t'as le seum, c'est ta sur qui m'harcèle Et elle sait qu'elle ne deviendra pas chérie J'marche seul, me passant des intentions malsaines C'est d'la remise en forme Le flow est lourd, tu sais qu'ça pèse J'fous l'bordel sur la scène mais j'garde la tête sur les trapèzes Ouais, j'suis un mec carré J'veux faire le tour du globe ou d'l'hexagone Mais j'bouffe des 'dwiches triangles parce que j'ai pas un rond, moi j'aimerais m'barrer Quand j'ken des prod', t'appelles ça des agressions par contre Quand moi j'disais ça tu trouvais ça invraisemblable, donc Quand j'entre en scène, quand j'enchaîne, redresse-toi, mets-toi en scelle Le rap j'enseigne dès mon blaze annoncé Les rimes s'amoncellent, tout l'monde sait que j'ai la prose qui tu les prostituées Du rap, et j'sais plus trop où m'situer Mais, montre qui tu es Ça c'est c'que j'fais depuis l'lancement Depuis l'commencement, maintenant, j'prends du poids depuis l'grand changement Quand j'bouge les gars s'poussent J'suis un mec au style aussi et J'shoote des cartouche une fois celles de mon stylo vidées Tu m'trouves indécent quand j'dis qu'j'palpe des seins Flow incessant, tu vois c'que j'veux dire mais j'te fais pas d'dessin Ici c'est big city, vie d'cité, mixité Vite si t'es vif, fais tes billes Évite les vils-ci, fuck les flics Si t'es apte à ça, ok on s'engage Rodéo sans casque pour des ou-s' en cash, tous ces oufs s'encastrent On veut des pourcentages Des p'tites parts, une p'tite Cab' sur le king-par Ma claque que les flics palpent Les familles du Sept-Cinq qui vivent avec sept surs et reufs Ou même sept zinc', qui te-por les mêmes fringues Les sans-fafs, les blédards, les clochards qui dorment dans des draps sales Les gangstas qui meurent dans des drive-by Les surs aux culs bombés, cambré D'origine du Maghreb ou de Bombay De Saint-Blaise à Cambrai Qui font des heures sup' au McDo Les man et les maquereaux qui manient la maille, kho Les chauffeurs de tacos Comme eux, c'qui nous importe c'est l'bénéfice C'est pour mes chacals qui s'butent au Coca-Hennessy J'suis parano et au fond je l'sais pas comme un loup qui boufferait trop d'chèvres J'vois seulement le fait qu'on m'observe Evidemment qu'c'est honnête J'tourne ma langue et finis par une vie d'amour et d'grosses fesses Je n'suis pas pour les promesses Nique l'amour, c'est trop d'stress Bordel, pour les gens présents lors du cortège A ceux qu'j'ai raté, je parie qu'ils croyaient qu'je dormais Et j'suis khalé, j'fais qu'me noyer dans des corvées En même temps coffre pour un Corvette Pour ceux qui m'connaissent, j'suis un borné Qui fait que d'la 'zique car il veut plus entendre leurs sornettes C'est fort net Un cornet, ensuite une bonne baise et dans l'verre un dernier cocktail De Trappes à l'avenue Voltaire J'essaye juste le blé, j'ai pas eu l'temps d'apprendre le solfège J'atterris dans c'merdier en soucoupe Ici j'ai presque froid, mais qu'est-ce que j'dois faire ? J'ai vu une paire, j'suis resté j'suis comme vous tous Qu'ça soit de rap ou de meufs, de frappe ou de kush Couche-toi sur le king size, mes potes et moi on fourre tout Fini l'rêve, fini d'jouer, fini d'plaire, fini tous tes frères J'ai bu la vie au goulot, j'finis c'verre sans t'faire goûter Moi, c'est les yeux plissés qu'j'finis d'faire c'que j'fais Vieux, quand j'ai les idées claires je n'finis pas la nuit entre des tchoutchs Rien qu'j'les blesse comme ça Limite fiers, ils finissent perdants On est pas d'la même mère mais on s'définit frère Pourtant à la vue d'ses formes, t'as cru t'éloigner d'Lucifer Donc pourquoi te croire si fort ? Devant, tu t'es senti frêle Tasse pudique dans l'appart, c'est pas elle qui paye les factures T'as cru qu'on avait des bords venus du Finistère ? Merde, ce biz j'gène Ces fils de n'ont pas l'bruit qu'j'ai Car j'fais l'tour du riph'-pé, mes reufs sous Mary Jane Tu voudrais couper mon filon mais je reste en haut du pilonne et Reste là, gros, t'envierras la vie qu'j'ai Fais ta vie et j'traîne La tête haute, j'les vois tous baisser les têtes Ils m'doivent le respect, négro, faut payer le dettes Ils apprécient ma cuisine, ils peuvent qu'apprécier le chef J'ai su encaisser l'échec Donc j'peux encaisser les chèques J'écris mon histoire, et ce depuis l'sommaire Nique sa mère, moi j'veux voyager tout l'summer Parfois, j'suis pris d'seum parce que le respect se meurt Mais quand on m'dit Cool l'ceau-mor, moi j'réponds Cool ci-mer Et j'suis dans cette merde, j'suis en pleine immersion Ils sont dans la trap, pour les piéger, on fait diversion Ils racontent des stories pour être crédibles, c'est débile Des stories pour lesquelles y'a p't-être dix versions Et j'me pose des questions Sur les questions en question J'entends les réponses et j'remets les réponses en question Et j'prends d'la marge, j'fais qu'd'y penser à chaque station J'suis dans l'coin, dans les sièges à 4, dans l'sens d'la marche Avec ma vois intérieure On établit des stratégies pour descendre tous ceux qui voudraient nous voir inférieurs Car plus personne n'a l'esprit judicieux Plus personne n'est vierge, même pas les casiers judiciaires Et j'souris d'abord, quand l'orgueil n'est plus là Quand ça sent l'traître, j'guette par l'il de Judas Avant d'ouvrir la porte Et rien qu'je soupire à force Les porcs, on s'nourrit avec On s'tape des fous rires avec mes potes On s'dit qu'les autres sont pourris à mort Wassup boy ? C'est pour mes dealers, mes killers Qu'écoulent des kil' depuis la GameBoy Font leur trucs boy pour remplir l'bol Errent dans l'coin, herbe dans l'joint Tchin-tchin on trinque à la tienne C'est pour mes tas d'p'tites surs Qui s'comportent ap' comme des chiennes Et puis mes gars qui s'tapent, que des braves Pas d'p'tites frappes ne t'inquiète ap' ils s'cachent C'est pour aç' qu'ils cashent sec Money money C'est pour les encaisseurs d'Assdec' Les pauvres même les Aztèques Les p'tits G-Money Ceux qui manient le Glock Ceux qui s'font soulever à six ou seven o'clock Parce qu'ils dealent en bas des bâtiments Fournissent les boloss d'la ville en tos-ma de qualité tarifé gentiment Ceux qui trafiquent la dope sans avoir d'agréments Ceux qui suivent la recette sans parler d'ingrédients Gravir les échelons, mon négro, j'fais de l'alpinisme Ouais mon négro, nan mon négro, ce n'est pas fini J'compte plus les années d'nouveaux arrivages C'bâtard il va juste faire du Gaumont à la Kamini Activiste, même pas d'ici et rarissime J'me sacrifie, prépare missiles et eux leurs artifices Et t'inquiète pas qu'on sait qu'ça part en couilles Ouais ça rend fou ces ventouses collées aux gars qui triment Idéalement, j'fais du bénef' vite Mif' et allemandes qui m'disent Alors, Ben, tu fais Bercy ? Vite les amours, vire ce sélectif Oui mais alors file une capote, mamie, c'est l'équipe La base du savoir c'est merci J'en vois aux parkas réversibles J'suis juste moi, j'ai pas besoin de ces MCs Y'a juste des vrais gars et une énergie Souhaite-moi Bon' chance, j'suis Bryan Mills Ils veulent m'atteindre, j'suis intouchable comme Bryan Mills, mothefucker J'suis à tes trousses, je te trouve et je te troue, comme Bryan Mills Pète ta bouche si tu touches à la mif' J'ai encore plein d'choses à accomplir J'veux crever vétéran, j'veux pas canner d'nos vices J'te l'apprends si t'as pas compris C'est pas en jouant au Loto qu'on va gagner nos vies J'roule qu'au feu vert, j'franchis pas la ligne blanche J'garde mes distances, j'me conduis bien car j'suis fliqué si j'flanche J'rentre dans une p'tite transe quand j'rentre en cabine Tu finis dans les abîmes car quand la bitch tremble l'alcool au goulot Mes rimes sont profondes comme le sol sous l'eau Dread lock, destroy, négro j'fais l'job, j'fais le boulot Jusqu'à c'qu'ils coulent, qu'ils s'disent Quel enculé, quel culot J'faisais ça bien avant internet Les murs comme public, j'faisais ça en interne, mec Les occasions, c'est pas fini quand t'en rates une Car personne prend la thune sans rature J'veux être torse poil, un air valeureux sur un voilier Mon accueil chaleureux, tu vas pas l'nier Habillé d'manière abstraite, y'a tout eu sur mes poignets On ne voit pas ce jeu mais le panier Ouais, j'dirai toujours que ça ira C'est ces deux notes qui vont faire que avec moi t'iras Même les menottes m'ont appris qu'on pouvait gagner Allier, rentrer l'oseille et pouvoir puff de la sativa Donc en fait c'est d'la magie noire Loin d'un monde moins fake que Paris Match Ouais qu'ça colle bien ensemble Faut Zizou pour qu't'oublies d'douter qu'on n'est pas rien ensemble Frolo, quitte ou double la mise ? Là pour combler la mif Jamais été au Parc Astérix, y'a que Paris J'dis pas qu'on fait la diff' vu que l'son l'prouve Eddie Eddie sur la gueule de l'monde-tout 3000seudi MC t'es chaud ? Viens on s'la donne, le temps d'un freestyle J'te mets à poil, comme si y'avait du GHB dans ton cristal Mon flow attire les p'tites 'tasses, efface les p'tites taches C'est Fougères Dope sur mon étiquetage, toute mon équipe passe De Paris à MTP, on finit game en MVP On shoote à trois points... Switch ! Producteur de CD, ayant des potes décédés J'fréquente rouleurs d'OCB, et arracheurs de CB Sept-Cinq, Sept-Cinq, protège ta mère et ta tête, zinc' J'suis tout droit sorti d'une arène Y'a personne qui m'arrête, surtout pas toutes tes merdes, zinc' Ancien découpeur de lamelles venu pour te la mettre On n'est pas de la même trempe Nan, on n'est pas de la même mif' Surtout pas de la même bande J'suis l'genre de type qui t'met une crampe Ou bien une trempe, en moins d'130 Sur nos armes, on a plus l'cran On a plus d'gants, on a plus l'temps Il est minuit, j'sors d'une garde-à-v', j'fais mes lacets L'OPJ m'a menacé, mais au final m'a relaxé, bitch Ouais mon négro, ouais mon rebeu, ouais mon bab' J'fais kiffer ta famille et tes amis et ton bord J'm'habillais en sorte Arrivé sur Paris, j'vois qu'ils balisent et qu'ils paniquent Vu mes qualités, ils ont validé mon score On est fatigués, on dort pas, toujours dans l'cockpit Mes gars arrachent les code-barres, les meufs s'arrachent mon code PIN Appelle le numéro d'mon code postal quand j'mets l'fire Parfois, j'suis là, j'me poste au calme mais j'rêve d'ailleurs Ouais, j'fais preuve de bon sens et d'constance Paraît qu'j'suis très fort mais depuis l'début j'fais des efforts, nigga2</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Viens on va s'en aller Rouler du matin au soir Et se laisser aller Zaho, Don Choa Viens on va s'en aller J'irai où tu veux memmener Où tu veux m'emmener Ok, on va y aller à la Bonnie et Clyde, clic, bang, vida loca, vie de dingue Ma belle attrape le volant, j'm'occupe de charger les flingues T'es ma vie, t'es ma weed, mes armes et ma Bible Une fois vide, la bouteille de Jack' sert de cible Shoot, chérie suis-moi on va shooter le shérif Puis faire des Photomatons sur les radars du périph' Juste moi et ma caille, c'est GTA style Carnage quand on mitraille, même l'armée n'est pas d'taille Toujours le smile même menotté au comico J'm'inquiète pas, j'sais qu'tu viendras m'chercher en hélico Et même si ça finit mal, style Tignasse et Bérénice Dis-toi il vaut mieux ça plutôt qu'on finisse RMIstes Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet You might also like Le programme c'est détente aux Pays-Bas, shopping en Italie On achète des bagnoles en Allemagne, des flingues en ex-Yougoslavie On bouge en jet privé de Colombie à Miami Jet-ski dans les West Indies à la tombée d'la nuit Ils rêvent de nous buter, d'nous mettre en HP ou en cage On s'relaxe dans une grande suite au 25ème étage Cognac Hennessy, Cristal Roederer Fait voler plus de billets que chez les faux-monnayeurs On débarque comme un verre qu'éclate dans ton écran plasma On roule à 220 en Mercedes sous le pont d'l'Alma On en amènera quelques-uns en enfer ou là-haut On partira pas seuls, attends, t'as dit quoi Zaho ? T'as dit quoi Zaho ? Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet C'est la vie qu'on s'est promis Et si demain tout doit finir, on mourra dans le même lit Crimes et délits, à la tombée de la nuit Viens on se fout des ennuis tant qu'on vit ce qu'on s'est promis Où tu vas, je te suis Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet</t>
+          <t>Viens on va s'en aller Rouler du matin au soir Et se laisser aller Zaho, Don Choa Viens on va s'en aller J'irai où tu veux memmener Où tu veux m'emmener Ok, on va y aller à la Bonnie et Clyde, clic, bang, vida loca, vie de dingue Ma belle attrape le volant, j'm'occupe de charger les flingues T'es ma vie, t'es ma weed, mes armes et ma Bible Une fois vide, la bouteille de Jack' sert de cible Shoot, chérie suis-moi on va shooter le shérif Puis faire des Photomatons sur les radars du périph' Juste moi et ma caille, c'est GTA style Carnage quand on mitraille, même l'armée n'est pas d'taille Toujours le smile même menotté au comico J'm'inquiète pas, j'sais qu'tu viendras m'chercher en hélico Et même si ça finit mal, style Tignasse et Bérénice Dis-toi il vaut mieux ça plutôt qu'on finisse RMIstes Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet Le programme c'est détente aux Pays-Bas, shopping en Italie On achète des bagnoles en Allemagne, des flingues en ex-Yougoslavie On bouge en jet privé de Colombie à Miami Jet-ski dans les West Indies à la tombée d'la nuit Ils rêvent de nous buter, d'nous mettre en HP ou en cage On s'relaxe dans une grande suite au 25ème étage Cognac Hennessy, Cristal Roederer Fait voler plus de billets que chez les faux-monnayeurs On débarque comme un verre qu'éclate dans ton écran plasma On roule à 220 en Mercedes sous le pont d'l'Alma On en amènera quelques-uns en enfer ou là-haut On partira pas seuls, attends, t'as dit quoi Zaho ? T'as dit quoi Zaho ? Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet C'est la vie qu'on s'est promis Et si demain tout doit finir, on mourra dans le même lit Crimes et délits, à la tombée de la nuit Viens on se fout des ennuis tant qu'on vit ce qu'on s'est promis Où tu vas, je te suis Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Black gold, black gold Black gold, black gold I know you better than you know yourself You're not a secret or a story to tell I walk on runways just to know you're safe Ain't nothing sacred in this hostile place Don't change, don't change I need you tonight, I need you tonight Don't change, don't change We'll take down satellites Take down satellites You're not gonna be afraid Now it's a little late Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes And we can't answer You might also like Put your hand up if you're running scared Choke my engine, it cannot be repaired Our superheroes, well, where are they now? Put your foot down till the petrol runs out Don't change, don't change I need you tonight, I need you tonight Don't change, don't change We'll take down satellites Take down satellites You're not gonna be afraid Now it's a little late Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes Black gold is the colour Did we ever belong? Black gold, black gold Black gold like no other Black gold, black gold Black gold is the colour Black gold, black gold Black gold, black gold</t>
+          <t>Black gold, black gold Black gold, black gold I know you better than you know yourself You're not a secret or a story to tell I walk on runways just to know you're safe Ain't nothing sacred in this hostile place Don't change, don't change I need you tonight, I need you tonight Don't change, don't change We'll take down satellites Take down satellites You're not gonna be afraid Now it's a little late Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes And we can't answer Put your hand up if you're running scared Choke my engine, it cannot be repaired Our superheroes, well, where are they now? Put your foot down till the petrol runs out Don't change, don't change I need you tonight, I need you tonight Don't change, don't change We'll take down satellites Take down satellites You're not gonna be afraid Now it's a little late Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes Black gold is the colour Did we ever belong? Black gold, black gold Black gold like no other Black gold, black gold Black gold is the colour Black gold, black gold Black gold, black gold</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D'minuit à 7h du mat' p'tite ballade, oh malade Tiens ta langue, range ta lame, ne rends pas lâme Mais la salope là, grimpe à l'arbre, hop là Imparable, topez là, fou comme ça, cest rare, hein madame ? Plus insomniaque que joueur hors pair de poker J'reste en décalage et s'agit-il que d'horaire ? Du crépuscule à l'aurore, faits divers à l'honneur Cafard d'os chasse quelque chose à l'odeur 1h du mat' dehors, déjà plus beaucoup d'monde 2h du mat' surtout des flics qui font leur ronde 3h du mat' les zonards cherchent des vagabondes 4h du mat' eh connard, j'ai pas vu ta tronche A 5h du mat', parait qu'tu fais l'mignon A la sortie des boites, parait aussi qu't'as des millions Moi, à 6h du mat', j'entends venir les camions Ceux qui nettoient la rue, et les travailleurs qui s'en vont Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air You might also like A 7h, je suis on n'sait où Réveille-toi c'est l'heure, il faut qu'on t'secoue Ou qu'on t'balance un verre d'eau Dédié à ceux qui partent travailler sur une bleue ou un vélo Ma vie, ça a été l'école puis l'boulot A tous les patrons chez qui j'ai bossé vafanculo J'ai porté des cagettes et rempli des palettes Tout en gardant l'espoir de croquer dans la grosse galette J'aime pas la hiérarchie, ni marcher à la baguette Le fric me fait bander à m'en faire péter la braguette J'préfère les claquettes aux chaussures de chantier Chacals, chacalettes, c'est pas d'main la veille qu'on sera rentier Le but, c'est juste de rester entier Et ça sans faire la pute même si y'a pas de sot métier Lutte, bouge, hurle, saute, envie d'vomir Des cernes sous mes yeux rouges, j'ai pas dormi Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air A 7h, les Assedic sont pas encore ouverts Suis-je assez riche pour me laisser faire ? Pour moi, la musique, c'est devenu nécessaire Et pas seulement pour niquer, payer ma facture SFR Ou ma consommation d'herbe et d'shit, c'est par ici là Chacun son biz comme Eric Sermon et Parrish Smith A 7h du mat' T'as besoin d'un joint, d'une latte, d'ton poing, d'une batte C'rap, c'est un truc de défoncé ouais Je men bats les couilles de c'que tu peux penser ouais Tu t'demandes c'que j'deviens, j'essaye d'rester debout Avec le cur sur la main, la main sur les 2 boules Un doigt en l'air contre l'état, s'ils veulent que j'me taise moi Qu'ils m'interdisent comme ce film là Baise-moi ! Laissez-moi foutre mon p'tit bordel Même s'il y'a des bruits bizarres comme dans un p'tit hôtel Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>D'minuit à 7h du mat' p'tite ballade, oh malade Tiens ta langue, range ta lame, ne rends pas lâme Mais la salope là, grimpe à l'arbre, hop là Imparable, topez là, fou comme ça, cest rare, hein madame ? Plus insomniaque que joueur hors pair de poker J'reste en décalage et s'agit-il que d'horaire ? Du crépuscule à l'aurore, faits divers à l'honneur Cafard d'os chasse quelque chose à l'odeur 1h du mat' dehors, déjà plus beaucoup d'monde 2h du mat' surtout des flics qui font leur ronde 3h du mat' les zonards cherchent des vagabondes 4h du mat' eh connard, j'ai pas vu ta tronche A 5h du mat', parait qu'tu fais l'mignon A la sortie des boites, parait aussi qu't'as des millions Moi, à 6h du mat', j'entends venir les camions Ceux qui nettoient la rue, et les travailleurs qui s'en vont Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air A 7h, je suis on n'sait où Réveille-toi c'est l'heure, il faut qu'on t'secoue Ou qu'on t'balance un verre d'eau Dédié à ceux qui partent travailler sur une bleue ou un vélo Ma vie, ça a été l'école puis l'boulot A tous les patrons chez qui j'ai bossé vafanculo J'ai porté des cagettes et rempli des palettes Tout en gardant l'espoir de croquer dans la grosse galette J'aime pas la hiérarchie, ni marcher à la baguette Le fric me fait bander à m'en faire péter la braguette J'préfère les claquettes aux chaussures de chantier Chacals, chacalettes, c'est pas d'main la veille qu'on sera rentier Le but, c'est juste de rester entier Et ça sans faire la pute même si y'a pas de sot métier Lutte, bouge, hurle, saute, envie d'vomir Des cernes sous mes yeux rouges, j'ai pas dormi Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air A 7h, les Assedic sont pas encore ouverts Suis-je assez riche pour me laisser faire ? Pour moi, la musique, c'est devenu nécessaire Et pas seulement pour niquer, payer ma facture SFR Ou ma consommation d'herbe et d'shit, c'est par ici là Chacun son biz comme Eric Sermon et Parrish Smith A 7h du mat' T'as besoin d'un joint, d'une latte, d'ton poing, d'une batte C'rap, c'est un truc de défoncé ouais Je men bats les couilles de c'que tu peux penser ouais Tu t'demandes c'que j'deviens, j'essaye d'rester debout Avec le cur sur la main, la main sur les 2 boules Un doigt en l'air contre l'état, s'ils veulent que j'me taise moi Qu'ils m'interdisent comme ce film là Baise-moi ! Laissez-moi foutre mon p'tit bordel Même s'il y'a des bruits bizarres comme dans un p'tit hôtel Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Euh, quoi dneuf docteur ? Hey, he-he-hey Qui va menlever le pain dla bouche ? qui ?, chargeur grande cap jpeux lui faire plein ddouches Hey, on sait à combien tu la touches, on la recoupe et on tord ton prix dtouche ouais, ouais Jai reçu un litron de brocolis hey, tu tires une latte tu frôles la pneumonie nan, nan Hey, no link si no money nan, nan, jte hagar ton rrain-te comme une colonie nan, nan, nan Bats les couilles d me faire émanciper hy, ce ne sont pas les bleus qui mènent la danse nan, nan, nan 350 euros pour ma fragrance, devant le proc je pue limmensité Zoubavir, moi je suis trop la cité Dino, même si je mets pas trop de TN hey Jsais quil faut récup et détaill et vi-ser zou, javel et extinct ça c'est pour lADN zou Baramine direct quand jlai senti elle elle, jvais tgrr jarrive comme un sentinelle nan, nan Piou, piou pfff à lopinel, jte laisse à lhôpital Mermoz-Pinel Cest plus lépoque Facebook, Messenger, jmachète deux trios Messenger Mademoiselle jveux savoir ton number, en parachute negro jatterris à Lumber Ils ont attendu la drill pour faire des délits tsia, moi cest VR negro jsuis V.R.A.I Hey, si jai un poto qui mtrahit, jfume mon pote comme YNW Melly Ton père frappe tellement quil lui faut deux pailles, jdrip sa mère negro jme sens comme Depay jdrip sa mère Hey, mort de rire tu nes pas de taille, toi tu nas pas dbail, en plus tes une retaille Demande à akhi jsuis fenwick du warwick, make a reservation for one week Don Papa dix ans dâge je suis on fleek, tu perds tout mon respect si tes un flic Si tes une balance, un traitre cest la même, cque tu mets dans ton naseau cest la mienne tsia Hey, jte ramène un échant de pur tsia, le kil est charclé et jte dis qucest la même tsia On a rarement été au complet, dans la meute il manquait toujours un ptit loup Tu peux aller vérifier tous mes couplets, ça fait plus ddix ans que jdis Libérez Bilou nan, nan Viens voir, viens voir, viens voir, viens voir, tu diras cest Zoubir qui ma fait goûter hey Que jserais devenu si jles avais écouté, moi perso cest Gucci qui ma dégouté hey Rolex au poignet jarrive quand même en retard tsia, jdois faire un régime, je ressemble à Mokhtar Longue vie aux bikers, la grand-mère aux motards, faut bibi les pochtar et pas finir au shtar hey Jattends une be-bom, rouge sous ses talons, jvais devenir un daron, je reviens dans pas long tsia Comme un dimanche je vais glander au salon, jnettoie mes tre-mon et je graisse mes canons hey Je lui baisse le taro que si elle me dit viens piner jlui dis claro que si , hey Jarrive en full DG, elle ma dit cest vachement baroque ici tsia Ces blagueurs jles appelle les SDF, ils changent jamais dhabits, ils nont pas à manger Quand jtaperçois negro jnai aucun réflexe, mon cerveau sait très bien que tes pas un danger De la tête aux pieds, toi tu es falshé, viens pas me serrer la main je vais me fâcher tsia Jai lseum, le rayon spiritueux est bâché, pense pas à mclasher negro jvais tout gâcher grr Bronzerland gravé sur tous les panneaux, Dino cest har mais cest pas jalapeños Jsuis plein doutils negro jsuis pas mécano, tout est noir negro comme Upamecano hey You might also like Tsia Nan, nan Nan, nan, nan</t>
+          <t>Euh, quoi dneuf docteur ? Hey, he-he-hey Qui va menlever le pain dla bouche ? qui ?, chargeur grande cap jpeux lui faire plein ddouches Hey, on sait à combien tu la touches, on la recoupe et on tord ton prix dtouche ouais, ouais Jai reçu un litron de brocolis hey, tu tires une latte tu frôles la pneumonie nan, nan Hey, no link si no money nan, nan, jte hagar ton rrain-te comme une colonie nan, nan, nan Bats les couilles d me faire émanciper hy, ce ne sont pas les bleus qui mènent la danse nan, nan, nan 350 euros pour ma fragrance, devant le proc je pue limmensité Zoubavir, moi je suis trop la cité Dino, même si je mets pas trop de TN hey Jsais quil faut récup et détaill et vi-ser zou, javel et extinct ça c'est pour lADN zou Baramine direct quand jlai senti elle elle, jvais tgrr jarrive comme un sentinelle nan, nan Piou, piou pfff à lopinel, jte laisse à lhôpital Mermoz-Pinel Cest plus lépoque Facebook, Messenger, jmachète deux trios Messenger Mademoiselle jveux savoir ton number, en parachute negro jatterris à Lumber Ils ont attendu la drill pour faire des délits tsia, moi cest VR negro jsuis V.R.A.I Hey, si jai un poto qui mtrahit, jfume mon pote comme YNW Melly Ton père frappe tellement quil lui faut deux pailles, jdrip sa mère negro jme sens comme Depay jdrip sa mère Hey, mort de rire tu nes pas de taille, toi tu nas pas dbail, en plus tes une retaille Demande à akhi jsuis fenwick du warwick, make a reservation for one week Don Papa dix ans dâge je suis on fleek, tu perds tout mon respect si tes un flic Si tes une balance, un traitre cest la même, cque tu mets dans ton naseau cest la mienne tsia Hey, jte ramène un échant de pur tsia, le kil est charclé et jte dis qucest la même tsia On a rarement été au complet, dans la meute il manquait toujours un ptit loup Tu peux aller vérifier tous mes couplets, ça fait plus ddix ans que jdis Libérez Bilou nan, nan Viens voir, viens voir, viens voir, viens voir, tu diras cest Zoubir qui ma fait goûter hey Que jserais devenu si jles avais écouté, moi perso cest Gucci qui ma dégouté hey Rolex au poignet jarrive quand même en retard tsia, jdois faire un régime, je ressemble à Mokhtar Longue vie aux bikers, la grand-mère aux motards, faut bibi les pochtar et pas finir au shtar hey Jattends une be-bom, rouge sous ses talons, jvais devenir un daron, je reviens dans pas long tsia Comme un dimanche je vais glander au salon, jnettoie mes tre-mon et je graisse mes canons hey Je lui baisse le taro que si elle me dit viens piner jlui dis claro que si , hey Jarrive en full DG, elle ma dit cest vachement baroque ici tsia Ces blagueurs jles appelle les SDF, ils changent jamais dhabits, ils nont pas à manger Quand jtaperçois negro jnai aucun réflexe, mon cerveau sait très bien que tes pas un danger De la tête aux pieds, toi tu es falshé, viens pas me serrer la main je vais me fâcher tsia Jai lseum, le rayon spiritueux est bâché, pense pas à mclasher negro jvais tout gâcher grr Bronzerland gravé sur tous les panneaux, Dino cest har mais cest pas jalapeños Jsuis plein doutils negro jsuis pas mécano, tout est noir negro comme Upamecano hey Tsia Nan, nan Nan, nan, nan</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Don-Don-Don-Don-Don Cho' ! Un peu d'anarchie dans ta partie Jusqu'à ce que mort s'ensuive ! Hein... Tous te mentent, ça va des infos, aux nymphos Seins faux, gros impôts, bosse en poste, frangin On sort l'engin si ça emmerde le monde C'est pas pour faire le con mais une volonté profonde Chauffe ça sans court-bouillon, ni micro-ondes Nage avec les gros poissons, eau profonde Viens sur le terrain, sors de ton cocon Ce n'est pas ma main qui fait sourire la Joconde Soyez sans crainte, j'arrive trop pacifique Mais j'm'arrête pas quand on me dit Oh ! Pas si vite Instant fatidique, instinct fanatique Plus du vice comme tout le monde Il s'agit de survivre, bon Je suis sur mes gardes alors j'veille Un faux pas ça peut finir l'étiquette à l'orteil Course pour l'oseille, tous poussent pour passer devant Mes raps sont pourris mais j'les vends Défends mon clan et si tu comprends plus bien Seize mesures, c'est comme deux tafs ça m'fait plus rien Il paraît que j'vois pas plus loin que le bout d'mon joint C'est vrai, et j'ai envie de trucs chics et chers Nique ces chèvres, si la fumée de mon pchh pique les lèvres T'es pas obligé d'y goûter, à part si tu veux te rajouter des problèmes Quand j'arrive, ils appellent Allô Houston nous avons un problème Ils ont besoin de limite, nous, on fait sans Plane haut, attention, on descend Qu'est ce que je vais faire avec 313 litres d'essence Vingt grammes de pollen par litre de sang ? You might also like Espèce de con, tu fumes trop ! Doucement, doucement Ralentis un peu ton flow ! Doucement, doucement Piano, piano, piano ! Doucement, doucement Du calme mon cheval ! Desperado ! J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucement Profitons tant qu'il est temps donc, tant pis, je tente En restant anti-État, ça va tranquille, et toi ? J'fais pas ça en dilettante, c'est plutôt vendetta L'époque est bouillante, ça va pas te brûler les doigts, papi Ce qu'on fume peut envoyer au tapis, j'incite pas Et c'est pas le club des 5 ou Ocapi N'hésite pas, rentre dans le gros bordel Ma clique va plus vite que tes snowborders Trop de hors-duvre provoquent le haut le cur On snob, euh, hip-hop, roots, reggaes, rockers O-ok, téléphone à ton docteur J'moquais, j'ai faim comme Hannibal Lecter T'es choqué ? Ya partout rien de personnel Sautez comme sur une mine anti-personnelle On hait tant d'choses, envie de brûler Leurs bureaux brûlés ! Leurs euros brûlés ! T'as promis de nous tuer ? Prends des piles longues durées Tous se poussent comme si j'allais envoyer la purée Le feu est allumé, il ne s'éteint pas avec de l'eau J'arrive comme trois shootés au crack avec un chalumeau Tranquille, calme toi ! Doucement, doucement Est-ce que tu sais où tu vas ? Doucement, doucement Han, han, han, han, han... Doucement, doucement J'viens prendre mon oseille et foutre mon bordel x2 J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucement Tout n'est pas que calme, luxe et biftons Y'a aussi came, mac, putes et michetons Flics et voyous, tripes et boyaux Traîtres et types loyaux, galères et tripes royaux Sur ma route, et elle était pas pavée d'or Gagne ta croûte, tandis que les camés dorment, les affamés mordent Les pieds devants tu sors si les choses se compliquent T'as pas compris ? Sors, aujourd'hui le Monde tourne vite Pour des mecs comme nous partant de tchi Pas question de tomber dans des histoires de snif Honorer nos familles reste notre priorité Et nous n'avons pas d'amis dans la haute société Y paraît qu'il y a plus de pédés qu'à Act Up 28 ans je n'ai pas monté de start up Tape tes pas de hard rock, pendant que je rappe par cur Le Monde de demain, quoi qu'il advient, nous appartient Alors je veux maintenant ! Doucement, doucement Avant que ça tourne en bain de sang ! Doucement, doucement Han, han, han, han, han... Doucement, doucement x2 J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucementParoles rédigées et expliquées par la communauté RapGenius France4</t>
+          <t>Don-Don-Don-Don-Don Cho' ! Un peu d'anarchie dans ta partie Jusqu'à ce que mort s'ensuive ! Hein... Tous te mentent, ça va des infos, aux nymphos Seins faux, gros impôts, bosse en poste, frangin On sort l'engin si ça emmerde le monde C'est pas pour faire le con mais une volonté profonde Chauffe ça sans court-bouillon, ni micro-ondes Nage avec les gros poissons, eau profonde Viens sur le terrain, sors de ton cocon Ce n'est pas ma main qui fait sourire la Joconde Soyez sans crainte, j'arrive trop pacifique Mais j'm'arrête pas quand on me dit Oh ! Pas si vite Instant fatidique, instinct fanatique Plus du vice comme tout le monde Il s'agit de survivre, bon Je suis sur mes gardes alors j'veille Un faux pas ça peut finir l'étiquette à l'orteil Course pour l'oseille, tous poussent pour passer devant Mes raps sont pourris mais j'les vends Défends mon clan et si tu comprends plus bien Seize mesures, c'est comme deux tafs ça m'fait plus rien Il paraît que j'vois pas plus loin que le bout d'mon joint C'est vrai, et j'ai envie de trucs chics et chers Nique ces chèvres, si la fumée de mon pchh pique les lèvres T'es pas obligé d'y goûter, à part si tu veux te rajouter des problèmes Quand j'arrive, ils appellent Allô Houston nous avons un problème Ils ont besoin de limite, nous, on fait sans Plane haut, attention, on descend Qu'est ce que je vais faire avec 313 litres d'essence Vingt grammes de pollen par litre de sang ? Espèce de con, tu fumes trop ! Doucement, doucement Ralentis un peu ton flow ! Doucement, doucement Piano, piano, piano ! Doucement, doucement Du calme mon cheval ! Desperado ! J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucement Profitons tant qu'il est temps donc, tant pis, je tente En restant anti-État, ça va tranquille, et toi ? J'fais pas ça en dilettante, c'est plutôt vendetta L'époque est bouillante, ça va pas te brûler les doigts, papi Ce qu'on fume peut envoyer au tapis, j'incite pas Et c'est pas le club des 5 ou Ocapi N'hésite pas, rentre dans le gros bordel Ma clique va plus vite que tes snowborders Trop de hors-duvre provoquent le haut le cur On snob, euh, hip-hop, roots, reggaes, rockers O-ok, téléphone à ton docteur J'moquais, j'ai faim comme Hannibal Lecter T'es choqué ? Ya partout rien de personnel Sautez comme sur une mine anti-personnelle On hait tant d'choses, envie de brûler Leurs bureaux brûlés ! Leurs euros brûlés ! T'as promis de nous tuer ? Prends des piles longues durées Tous se poussent comme si j'allais envoyer la purée Le feu est allumé, il ne s'éteint pas avec de l'eau J'arrive comme trois shootés au crack avec un chalumeau Tranquille, calme toi ! Doucement, doucement Est-ce que tu sais où tu vas ? Doucement, doucement Han, han, han, han, han... Doucement, doucement J'viens prendre mon oseille et foutre mon bordel x2 J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucement Tout n'est pas que calme, luxe et biftons Y'a aussi came, mac, putes et michetons Flics et voyous, tripes et boyaux Traîtres et types loyaux, galères et tripes royaux Sur ma route, et elle était pas pavée d'or Gagne ta croûte, tandis que les camés dorment, les affamés mordent Les pieds devants tu sors si les choses se compliquent T'as pas compris ? Sors, aujourd'hui le Monde tourne vite Pour des mecs comme nous partant de tchi Pas question de tomber dans des histoires de snif Honorer nos familles reste notre priorité Et nous n'avons pas d'amis dans la haute société Y paraît qu'il y a plus de pédés qu'à Act Up 28 ans je n'ai pas monté de start up Tape tes pas de hard rock, pendant que je rappe par cur Le Monde de demain, quoi qu'il advient, nous appartient Alors je veux maintenant ! Doucement, doucement Avant que ça tourne en bain de sang ! Doucement, doucement Han, han, han, han, han... Doucement, doucement x2 J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucementParoles rédigées et expliquées par la communauté RapGenius France4</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Comment sappelle lalbum ? La Cour des Grands Comment sappelle lalbum ? La Cour des Grands Mais il sort quand lalbum ? Le premier juin Mais il sort quand lalbum ? Le premier juin Est-cque tu vas lchoper ? Ouais ouais ouais Est-cque tu vas lchoper ? Ouais ouais ouais Et si tu télécharges, tes un bâtard Et si tu télécharges, tes un bâtard Voici le retour des gosses terribles J'ai grave taffé, oui le flow se mérite Il fausse mes rimes Si t'es cardiaque ou si t'es fêlé, fait pause fait vite Le Boss de la ville Rose t'envoie dans la fosse septique C'est le retour du King des mecs qui défoncent des têtes de cons Qui parlent mal Biggy débite des rimes ce mec est trop bon A paname Il se la pète c'est pour eux quelques balles de plomb Ca clashe grave Mais quand j'ai le mike ta clique se jette d'un pont Balance une instru classique que je l'astique Les mots je les mastique, puis les recrache en rap flow élastique Bigflo est l'as, la classe, l'art, la tactique MC fantastique comme Nas Envoie tous ses nazes au casse pipe Non mais les gars, écoutez moi, je mets le rap dans tous ses états J'suis Végéta, karatéka, vous avez mal mais ne cavalez pas Quand on arrive on distribue des baffes verbales On t'éclate on se tape des barres On épargnera pas ni les filles ni les gars Fermez la Ca sort les flingues les benz', ça joue les gangsta Ca joue les Ben Laden, les dingues, mais ça le fait même pas Moi je te fous des beignes, je te saigne, ouais j'suis pas sympa J'fais pointer les seins, les dindes sont en extase Et je t'ai fait une selecta des MC à écouter sous smecta Qu'est ce t'as j'suis pas ta bestah moi, je suis une guest star J'suis extra, c'est le retour de la gestapo Pour de l'exsta', tes meilleurs potos veulent ta peau J'entends le démon en moi je défie la peur Ma tête bouge de haut en bas, elle crée de la vapeur Tu sais je fais l'acteur, lourd comme un tracteur A la fin de ce couplet amène un défibrillateur Car mon cur part en couille, faut le sauver L'amour on l'a frôlé Oui la foule on la connait Non j'avoue j'ai déconné Et tous les MC font les hooligans Et tout à coup les bouls apparaissent Car les go's elles aiment les fous il parait Désolé je crois que tu voulais parler Non je ne vais pas m'arrêter là je rappe encore Tu le sais quand je prend le mic', pas de temps mort Toi t'as qu'à lever les bras et j'temporte Illégal tellement ça claque Attends que je pose le mic, ils font les macs mais je suis le master Pire que Michael, mate mes Nike, je pète les bacs J'perd les backs, j'sèche les , À coups de battes dans les pattes de ces bâtards Trop d'amateurs, trop de blagues, trop de nazes Dadoo, mon pote ça vient du sud Don Choa, mon pote ça vient du sud Set Match, mon pote ça vient du sud Demi P, mon pote ça vient du sud Bigflo Oli, mon pote ça vient du sud Iam, mon pote ça vient du sud Kimfu, mon pote ça vient du sud You might also like Un flow de malade, un enfant dur à soigner Le temps passe avec ou sans montre autour du poignet J'trace sans strass, j'reste honnête J'écris fier mes poèmes incompris comme la pierre de rosette Derrière le rideau, l'artiste se prépare On peut être partout et n'aller nulle part J'ai rallumé la flamme, c'est le début d'un incendie Ils ont brulé nos livres comme à Alexandrie Et, si tout le monde m'aime, moi, je déteste personne Le rap est mort mais s'vend encore MichaelJackson Et j'enterre ces gangsters, ces connards de bandits J'ai le regard qui tue mais comme les yeux de Gandhi J'ai vu des combats sur papier échappés des bas fond J'ai déterré la hache de guerre pour l'enterrer plus profond Le génie se distille un peu et je médite L'amour, ça crève les yeux, demande à dipe Dans l'noir, le soir, j'ravale mes doutes L'Diable m'a appellé pour acheter mon âme, je lui ai dit qu'elle en valait le double Et, dans cette conquête, je me balade et j'grave mes vers Le rap ? C'est le malade imaginaire Et il va s'manger le décor, attraper le virus J'bats des records, ma plume dévore le papyrus L'avenir se dessine, j'rime dans un but précis MC, on m'désigne messie de cette prophétie Le vynil grésille, ici, j'éclaircis le récit Net et précis, l'horizon rétrécit Depuis des années, des fous prédisent tous sa mort Mais à Planète Rap, le son tourne encore Quand je dis Dadoo, vous dites classique Je ne vais pas dans une berline jouer les macs mon frère Ni même me torcher au dollar pour du crack mon frère Page publicitaire, ouvre ton Macbook Air Google double O, tape MC légendaire Ça y est le rap change d'air, retour à l'Elysée Punchlines aiguisées, retour des dents aiguisées J'ai plus de trente piges et je n'ai pas de Bentley J'suis la mort du bling-bling dans le rap français Ici c'est Midi-P, pays des flambeurs à pile Les rolex brillent mais elles fondent à midi pile Tas d'amis en Audi sur l'autoroute du crédit J'ai vu l'avenir tirer des cartes de crédit en double file J'ai le son qui met la pression, comme un cours de zumba Tout le contraire de Booba, mon nom c'est Dooda Je rappe dans le vers, pas de revolver J'ai pas de Jack pervers, balance comme Jacques Prévert Mon rap est mort comme un vulgaire junkee Dans un costume d'égocentrie à la couleur du mépris Pas une prise un peu consciente de vide Les racines de sa conscience sont d'abord endormies Le verbe fumant du feu MC brule encore sur les platines crépitantes de nostalgie Quelques témoins n'ont pour lui que des cris, noyés par des larmes sourdes Alors je pousse pas, je rappe sans forcer, au fond je m'en bats Je dois élever ma fille, mais le rap a besoin de moi Don't make a sound pour mes saloperies de voyelles Si le rap c'est tendance, lève ton string pucelle J'suis l'école des tordus, des mordus t'entends? Mic' branché, j'suis de l'école des maquereaux d'argent Oh, j'ai déjà rappé pour pas trop d'argent Mais entre toi et moi, je préfère pour beaucoup d'argent Ouais t'as reconnu la pureté, Cosy Bang Bang Ouais t'as reconnu la dureté, ça va péter Quand je kicke j'enlève le cran de sureté T'avais déjà kiffé avant d'appuyer sur play Négro on arrive lourd, feu sur Toute la capitale et ses alentours je te jure Cette année on rentre dans la grande cour Posé dans ma grande tour je vais les rendre fou en douze mesures Nous c'est que du one shot, pas besoin d'un tas de pistes Punchline pimentée pour que ça arrache plus Raconte pas ta vie, fais tourner le oinj à Faktiss Qui vivra verra mon négro, nique sa mère le bac plus On bicrave des pulls et des teesh', étudie le disque On t'apprendra comment faire des tubes et du biff Parlons peu, parlons bien, parlons de liquide industrie des putes et du shit Le premier et le quinze juin, le rap français en avait bien besoin Mon négro précommande cette shit Faut qu'on atteigne le nombre à 7 chiffres Le premier et le quinze juin, le rap français en avait bien besoin Mon négro vas y achète le C'est moins cher et plus puissant qu'un sachet de beuh Je vais vous montrer que je suis le meilleur, sans vous parler de mon bras d'enfant Toujours un temps avance comme les cainris oui, mais je fais du rap en France Dans le futur je suis dans ton foutu seigneur Je prépare l'otage, je prépare la rançon Cette équipe veut des buts, veut faire plein de hits J'sui Pelé, le meilleur avant-centre Je prend des épaules, pas des épaulettes J'écoute pas de rap français pour être honnête Il y a que mon crew que je suis censé connaitre Négro j'ai les crocs et qu'une parole, je vais tenir mes promesses , dis moi tu veux du flow, du groove dans tes synapses Cosy Bang Bang fait danser tout le village Notre prochain album est déjà dans le sillage Cosy Cosy Bang Bang Trentenaire, trentenaire, j'en ai marre de ces bolosses et leurs sapes de merde Trop de boulettes sur mon coste-La boy Je respire le rap, tu n'en as que l'air Surpris par la foule à tous nos concerts Frappé par la foudre depuis collège Ouais depuis O'High je fais des tracks illicites Je vois même crier des meufs devant nos posters Cosy Bang Bang pour toi joli cur Premier disque, dispo chez ton disquaire Ouais harcèle ton fournisseur Grosse énergie, vibe d'apothicaire Vas y remue ton boul petite tass' Tu veux des Dès la première note tu fais des folies, folies Tu veux des selfies, tu veux des dédicaces Trop de flow, tellement Que tu vas m'accuser d'harcèlement Je ne suis que joie et bonne humeur Alors vous ferez la fête le jour de mon enterrement Tu me vois loin devant Torse bombé, je cours fièrement Tu me parles de vitesse, tu me parles de vie de rêve Je crois que je suis en plein dedans Rien d'neuf, rien d'clinquant, gun dans les tympans Vieux déglingué fringuant, cinglé, jeune délinquant Inquiet les cinq sens, cherche le billet d'cinq cent Les petits prenaient des cinq francs, maintenant ils prennent des cinq ans Pendant qu'on m'parle d'un temps qui n'pourra pas renaître Comme un printemps, j'regarde passer les putes à la fenêtre En trinquant, et j'ai crié jusqu'à c'que j'm'endorme Ma mémoire... ou une boite de Pandore Moi, j'ai déçu leurs attentes, paraît qu'c'est trop tard, c'est mort Ferme ton cul quand j'chante, que les petites garces m'ignorent Moi, j'ris quand j'me plante, on dirait qu'j'suis Garcimore Mais c'est plus pareil depuis qu'ma bande a mis la clé sous la porte Mon clan a baisé le score, ouais, mais ça fait long time Porté disparu, putain d'barbu dans la montagne On gagne ou on meurt, on s'marre et on pleure Mais, ressasser les rancurs du passé, c'est zéro euro d'l'heure J'ai rien contre le succès, thanks to the almighty N'essaie pas d'me sucer MenaceToSociety J'ai pas fait ça pour la gloire, j'ai fait ça pour le biscuit J'ai fait ça pour pouvoir me lever tous les jours à midi Et je flippe que ça soit fini, j'traîne seul le soir sous liqueur Ça parle mal sur Twitter, préviens-moi sur mon bippeur Il m'a tellement donné, j'peux pas haïr ce jeu D'l'ancien volcan, ils veulent voir rejaillir le feu Hey yo, roule un gros zbar négro Ton number one pothead est dans le spot Je veux une Jouer pour le Barça, vivre une vie de pacha Faire le même score que Jackson Thriller Ma vie est tournée vers ça Puis vice et versa je vise la couronne de Versailles Méduse sur le torse je porte du Versace Camouflage vert kaki Nouvelle chance, qui la offerte à qui ? Jirai provoquer la banque je veux pas de tes vers gratuits Pacifiste en lâme mais jai le verbe actif Cest quand les miens fondent en larmes que je me serre la vis Navigue sur des mers arides, attendant que le best arrive Pour le reste cest le même tarif Jsuis lopposé du maire de la ville Fumée dherbe à pleine narine Vivre jusquà en perdre la vie Jai versé trop de sang sur feuille blanche Aujourdhui je tombe chaque neurone pour que mon flambe Fortifie mes fondations, faut que les leurs tremblent Que leurs armes soient dirigées sur leurs propres tempes Jemmerde leur culte jai mon propre temple Quand tu tires le recul à trop dimportance Jcroise que des MC impotents Faux, comme croire de croiser les choses en votant Tu mcroiseras joint au bec en sifflotant Le futur tappartient seulement si tu prends le volant Donc met ta cagoule met les gants Jme sens mieux quand les billets se mélangent Jvais pas tirer sur les gens mais jsuis attiré par les grands de ce monde Qui me poussent à prier pour que mes plans se montent La tête appuyée sur les planches du sol On est venus en peace, négro range ton Glock En plus ça roule des spliffs toutes les 30 secondes Demi Portion tape un petit passe-passe sur la touche Mais vise la surface, l'effet de surprise Big Up à pour rester sur pause, une vida loca, cherche loccaz Un peu d'audace de faire des bêtises On a passé lâge, on sen fiche Un jour tout sefface Oui cest Rachid, fait voir ton visage Oui cest facile de parler trop mal Non cest rapide de faire des dommages Atterrit tandis que décolle lâge Pas de coloriage ne me colle pas de biatch Rien à lamiable jeune âge Je me sers de ma bouche comme une arme Où je me couche, toi tu te caches Centre de menaces, tu toublies grave Oui je vis sans, loin des strass Pourquoi tu stresses ? Faut que tu saches Manque pas dadresse à chaque message Oui les mots blessent, mais qui est sage ? Naal dine oumouk un coup de schlass Rentrer dans le moule, ça faut pas Tout est fragile, il y a tout qui se casse Qui fait la tête, et qui sécrase Sorti de Sète, Lion de lAtlas Pas de compet, jai pas le temps pour ça La grosse tête te gâchit la face Oui ça magace, pas trop ma tasse Pendant que tu parles, et bousille le taff Bigflo et Oli, freestyle Dédicace à mon crew le classique Beaucoup de bruit pour Bigflo et Oli Le sud le fait mieux, le sud le fait mieux Le sud le fait mieux, le sud le fait mieux 7 piges de silence, et le rap est blessé Il est passé de Nique Ta Mère à Mathilde Seigner Parait quil ne mange plus de porc, et se gave de billets Pour une Bentley en or, certains se mettent à briller Je ne suis pas le meilleur des oursons, au pays du rap game Moi je rappe pour ton frisson, eux ils font du rap Whats my name ? D double O dans le rap game Clint Eastwood mon nickname Tu gobes mon flow tu deviens dingue Je te bang bang, bang bang, molécules je les décompose Je naime pas quand le mic', jflingue, MC que tes Nike reposent Weed bleue dans le gros bang Mon cur vogue à Penny Lane Wicked, Wikileaks, mon flow qui tape tout ton abdomen Si je nai pas pris le mic' depuis Où vous êtes , cest que vous êtes la En paquet de six, un paquet pour six, des couches et du zetla Weed bleue qui te guette la Rap français qui te jet-lague Weed bleue qui me jette la Rap français on est quittes Donne des low-kicks comme une kalash dans un pays de apaches Grand armés de haches, et dune équipe sans attaches Jfuck tout ce business, cest de lamour au kilogramme Manager dans le money gramme, et lespoir miroite comme un hologramme Quand je dis Dadoo, vous dites classique, classique Quand je dis Dadoo, vous dites classique, classique Les MC débitent des phrases débiles Se prennent pour les rois des beats mais les échecs défilent Pourtant ils font partie des hits, ils font le tour des villes Voici venus Biggy et Oli te fait pas de bile La jeunesse ne connaît plus le respect Ils rêvent que de caisses, de liasses et de tasse-pé Ils aiment le sexe sous tous ses aspects On les engraisse au MacDo et tous ces abcès Séjour carcéral, non mais envoie le flow même si ça fait mal Contrôle parental, si tu mets pas du cul, je sais c'est pas rentable C'est lamentable mais c'est l'industrie du chiffre aujourd'hui Tu vends plus aucun disque, poursuivi par le fisc Tu veux pas prendre de risques alors tu sors une connerie En plus ça se vend par milliers Musique décevante, humilié Ils veulent que tu banques, ils veulent que tu danses, tu flanches Ils veulent nous faire plier On va pas les prier, nous on les casse, leurs tours de passe-passe, leur cache-cache face à face Qu'est ce que tu veux qu'ils fassent ? On va leur casser le dos, pour plus qu'ils fassent les beaux Télévision pour les dix petites arnaques au téléphone Met des culs dans les clips pendant que l'état nous assome Et des tonnes de codes, l'école déconne, les bonnes sont connes, à coup de Aucune envie d'vous aider, jeune padawan, vieux pédé J'vous découpe à coup d'épée, vous et vos putes toutes pétées Les fous, c'est plus c'que c'était, tout l'monde me demande Où t'étais ? Même si tu parles pas, tout se sait et, même si tu parles, tout se paie Tout se paie cash ou à crédit, come on biatch, are you ready? Are you ready? De la douleur, j'prédis, pas de douceur, j't'ai dit, moi, c'est Krueger Freddy Ou Rocco Siffredi-fredi et, tout d'un coup, ton pussy frémit, frémit J'suis la nouvelle épidémie-démie, you know I'm not good comme Amy, Amy, Amy Rest in peace miss Amy Winehouse, François in the hood, j'suis dans la White House Où ? Dans la White House où ? Dans la White House, suce mon cigare ou bye-bye pétasse Aïe, des fois, massacrer, ça fait mal au cur, aïe, mais tu l'as mérité motherfucker Die, et tu vas nous quitter motherfucker, die motherfucker, die motherfucker Tminik et j'te baise, moi, c'est Philippe Etchebest Timnik et j'te baise, moi, c'est Philippe Etchebest C'est Philippe Etchebest, Philippe, Philippe Etchebest Philippe Etchebest Y'a pas de hasard, tout est logique, j'suis un barbare technologique J'frappe à coup d'marteau dans ton crâne, et j'soigne tous tes problèmes psy-psychologiques C'est pas la peine d'appeler la police, non, à peine arrivés, ils périssent Les grillons, on les crame, on les brûle dans les flammes Comme les dragons de Daenerys Je vois des flashs, j'en entends qui rouspètent Nique la kalash, j'ai sorti la 12.7 J'arrive plus bordélique qu'un bolchévique ouzbek C'est pas Michael, mais ils vont crier Who's Bad? , à coup d'rafale dans la tête Quand ça rafale, ils se cachent, ils cavalent, là, je crache, ils avalent, ils avalent, ils avalent Dans le conduit nasal, ma came artisanale, ton style, il a mal, lyrics archi-banales Nanani nanana, mais y'a tchi, y'a nada, plus précis qu'la NASA J'suis ratatatatatatata Tminik et j'te... Tminik et j'te baise, moi, c'est Philippe Etchebest Philippe Etchebest, Philippe, Philippe Etchebest Tminik et j'te baise, moi, c'est Philippe Etchebest Pour mes sahbs, pour mes homies Pour les singes et les barges et les jolies L'ambiance elle est calme elle est cosy Oui dans ma tête, dans mes rêves, dans mes folies T'as voulu réveiller l'eau qui dort Dis moi alors quand est-ce qu'on s'isole ? J'ai des pensées insensées, c'est mon corps qui se colle Surtout ne crie pas il y a mes potes qui dorment Le jour se lève sur ton Je flippe, je redoute, mais ta Je le vis dans ma tête, et je goute tes lèvres Je remercie Dieu vers la voute céleste Cosy cosy bang bang Je vis d'amour et d'eau tiède Fuck ta parano je n'ai plus peur des triangles isocèles</t>
+          <t>Comment sappelle lalbum ? La Cour des Grands Comment sappelle lalbum ? La Cour des Grands Mais il sort quand lalbum ? Le premier juin Mais il sort quand lalbum ? Le premier juin Est-cque tu vas lchoper ? Ouais ouais ouais Est-cque tu vas lchoper ? Ouais ouais ouais Et si tu télécharges, tes un bâtard Et si tu télécharges, tes un bâtard Voici le retour des gosses terribles J'ai grave taffé, oui le flow se mérite Il fausse mes rimes Si t'es cardiaque ou si t'es fêlé, fait pause fait vite Le Boss de la ville Rose t'envoie dans la fosse septique C'est le retour du King des mecs qui défoncent des têtes de cons Qui parlent mal Biggy débite des rimes ce mec est trop bon A paname Il se la pète c'est pour eux quelques balles de plomb Ca clashe grave Mais quand j'ai le mike ta clique se jette d'un pont Balance une instru classique que je l'astique Les mots je les mastique, puis les recrache en rap flow élastique Bigflo est l'as, la classe, l'art, la tactique MC fantastique comme Nas Envoie tous ses nazes au casse pipe Non mais les gars, écoutez moi, je mets le rap dans tous ses états J'suis Végéta, karatéka, vous avez mal mais ne cavalez pas Quand on arrive on distribue des baffes verbales On t'éclate on se tape des barres On épargnera pas ni les filles ni les gars Fermez la Ca sort les flingues les benz', ça joue les gangsta Ca joue les Ben Laden, les dingues, mais ça le fait même pas Moi je te fous des beignes, je te saigne, ouais j'suis pas sympa J'fais pointer les seins, les dindes sont en extase Et je t'ai fait une selecta des MC à écouter sous smecta Qu'est ce t'as j'suis pas ta bestah moi, je suis une guest star J'suis extra, c'est le retour de la gestapo Pour de l'exsta', tes meilleurs potos veulent ta peau J'entends le démon en moi je défie la peur Ma tête bouge de haut en bas, elle crée de la vapeur Tu sais je fais l'acteur, lourd comme un tracteur A la fin de ce couplet amène un défibrillateur Car mon cur part en couille, faut le sauver L'amour on l'a frôlé Oui la foule on la connait Non j'avoue j'ai déconné Et tous les MC font les hooligans Et tout à coup les bouls apparaissent Car les go's elles aiment les fous il parait Désolé je crois que tu voulais parler Non je ne vais pas m'arrêter là je rappe encore Tu le sais quand je prend le mic', pas de temps mort Toi t'as qu'à lever les bras et j'temporte Illégal tellement ça claque Attends que je pose le mic, ils font les macs mais je suis le master Pire que Michael, mate mes Nike, je pète les bacs J'perd les backs, j'sèche les , À coups de battes dans les pattes de ces bâtards Trop d'amateurs, trop de blagues, trop de nazes Dadoo, mon pote ça vient du sud Don Choa, mon pote ça vient du sud Set Match, mon pote ça vient du sud Demi P, mon pote ça vient du sud Bigflo Oli, mon pote ça vient du sud Iam, mon pote ça vient du sud Kimfu, mon pote ça vient du sud Un flow de malade, un enfant dur à soigner Le temps passe avec ou sans montre autour du poignet J'trace sans strass, j'reste honnête J'écris fier mes poèmes incompris comme la pierre de rosette Derrière le rideau, l'artiste se prépare On peut être partout et n'aller nulle part J'ai rallumé la flamme, c'est le début d'un incendie Ils ont brulé nos livres comme à Alexandrie Et, si tout le monde m'aime, moi, je déteste personne Le rap est mort mais s'vend encore MichaelJackson Et j'enterre ces gangsters, ces connards de bandits J'ai le regard qui tue mais comme les yeux de Gandhi J'ai vu des combats sur papier échappés des bas fond J'ai déterré la hache de guerre pour l'enterrer plus profond Le génie se distille un peu et je médite L'amour, ça crève les yeux, demande à dipe Dans l'noir, le soir, j'ravale mes doutes L'Diable m'a appellé pour acheter mon âme, je lui ai dit qu'elle en valait le double Et, dans cette conquête, je me balade et j'grave mes vers Le rap ? C'est le malade imaginaire Et il va s'manger le décor, attraper le virus J'bats des records, ma plume dévore le papyrus L'avenir se dessine, j'rime dans un but précis MC, on m'désigne messie de cette prophétie Le vynil grésille, ici, j'éclaircis le récit Net et précis, l'horizon rétrécit Depuis des années, des fous prédisent tous sa mort Mais à Planète Rap, le son tourne encore Quand je dis Dadoo, vous dites classique Je ne vais pas dans une berline jouer les macs mon frère Ni même me torcher au dollar pour du crack mon frère Page publicitaire, ouvre ton Macbook Air Google double O, tape MC légendaire Ça y est le rap change d'air, retour à l'Elysée Punchlines aiguisées, retour des dents aiguisées J'ai plus de trente piges et je n'ai pas de Bentley J'suis la mort du bling-bling dans le rap français Ici c'est Midi-P, pays des flambeurs à pile Les rolex brillent mais elles fondent à midi pile Tas d'amis en Audi sur l'autoroute du crédit J'ai vu l'avenir tirer des cartes de crédit en double file J'ai le son qui met la pression, comme un cours de zumba Tout le contraire de Booba, mon nom c'est Dooda Je rappe dans le vers, pas de revolver J'ai pas de Jack pervers, balance comme Jacques Prévert Mon rap est mort comme un vulgaire junkee Dans un costume d'égocentrie à la couleur du mépris Pas une prise un peu consciente de vide Les racines de sa conscience sont d'abord endormies Le verbe fumant du feu MC brule encore sur les platines crépitantes de nostalgie Quelques témoins n'ont pour lui que des cris, noyés par des larmes sourdes Alors je pousse pas, je rappe sans forcer, au fond je m'en bats Je dois élever ma fille, mais le rap a besoin de moi Don't make a sound pour mes saloperies de voyelles Si le rap c'est tendance, lève ton string pucelle J'suis l'école des tordus, des mordus t'entends? Mic' branché, j'suis de l'école des maquereaux d'argent Oh, j'ai déjà rappé pour pas trop d'argent Mais entre toi et moi, je préfère pour beaucoup d'argent Ouais t'as reconnu la pureté, Cosy Bang Bang Ouais t'as reconnu la dureté, ça va péter Quand je kicke j'enlève le cran de sureté T'avais déjà kiffé avant d'appuyer sur play Négro on arrive lourd, feu sur Toute la capitale et ses alentours je te jure Cette année on rentre dans la grande cour Posé dans ma grande tour je vais les rendre fou en douze mesures Nous c'est que du one shot, pas besoin d'un tas de pistes Punchline pimentée pour que ça arrache plus Raconte pas ta vie, fais tourner le oinj à Faktiss Qui vivra verra mon négro, nique sa mère le bac plus On bicrave des pulls et des teesh', étudie le disque On t'apprendra comment faire des tubes et du biff Parlons peu, parlons bien, parlons de liquide industrie des putes et du shit Le premier et le quinze juin, le rap français en avait bien besoin Mon négro précommande cette shit Faut qu'on atteigne le nombre à 7 chiffres Le premier et le quinze juin, le rap français en avait bien besoin Mon négro vas y achète le C'est moins cher et plus puissant qu'un sachet de beuh Je vais vous montrer que je suis le meilleur, sans vous parler de mon bras d'enfant Toujours un temps avance comme les cainris oui, mais je fais du rap en France Dans le futur je suis dans ton foutu seigneur Je prépare l'otage, je prépare la rançon Cette équipe veut des buts, veut faire plein de hits J'sui Pelé, le meilleur avant-centre Je prend des épaules, pas des épaulettes J'écoute pas de rap français pour être honnête Il y a que mon crew que je suis censé connaitre Négro j'ai les crocs et qu'une parole, je vais tenir mes promesses , dis moi tu veux du flow, du groove dans tes synapses Cosy Bang Bang fait danser tout le village Notre prochain album est déjà dans le sillage Cosy Cosy Bang Bang Trentenaire, trentenaire, j'en ai marre de ces bolosses et leurs sapes de merde Trop de boulettes sur mon coste-La boy Je respire le rap, tu n'en as que l'air Surpris par la foule à tous nos concerts Frappé par la foudre depuis collège Ouais depuis O'High je fais des tracks illicites Je vois même crier des meufs devant nos posters Cosy Bang Bang pour toi joli cur Premier disque, dispo chez ton disquaire Ouais harcèle ton fournisseur Grosse énergie, vibe d'apothicaire Vas y remue ton boul petite tass' Tu veux des Dès la première note tu fais des folies, folies Tu veux des selfies, tu veux des dédicaces Trop de flow, tellement Que tu vas m'accuser d'harcèlement Je ne suis que joie et bonne humeur Alors vous ferez la fête le jour de mon enterrement Tu me vois loin devant Torse bombé, je cours fièrement Tu me parles de vitesse, tu me parles de vie de rêve Je crois que je suis en plein dedans Rien d'neuf, rien d'clinquant, gun dans les tympans Vieux déglingué fringuant, cinglé, jeune délinquant Inquiet les cinq sens, cherche le billet d'cinq cent Les petits prenaient des cinq francs, maintenant ils prennent des cinq ans Pendant qu'on m'parle d'un temps qui n'pourra pas renaître Comme un printemps, j'regarde passer les putes à la fenêtre En trinquant, et j'ai crié jusqu'à c'que j'm'endorme Ma mémoire... ou une boite de Pandore Moi, j'ai déçu leurs attentes, paraît qu'c'est trop tard, c'est mort Ferme ton cul quand j'chante, que les petites garces m'ignorent Moi, j'ris quand j'me plante, on dirait qu'j'suis Garcimore Mais c'est plus pareil depuis qu'ma bande a mis la clé sous la porte Mon clan a baisé le score, ouais, mais ça fait long time Porté disparu, putain d'barbu dans la montagne On gagne ou on meurt, on s'marre et on pleure Mais, ressasser les rancurs du passé, c'est zéro euro d'l'heure J'ai rien contre le succès, thanks to the almighty N'essaie pas d'me sucer MenaceToSociety J'ai pas fait ça pour la gloire, j'ai fait ça pour le biscuit J'ai fait ça pour pouvoir me lever tous les jours à midi Et je flippe que ça soit fini, j'traîne seul le soir sous liqueur Ça parle mal sur Twitter, préviens-moi sur mon bippeur Il m'a tellement donné, j'peux pas haïr ce jeu D'l'ancien volcan, ils veulent voir rejaillir le feu Hey yo, roule un gros zbar négro Ton number one pothead est dans le spot Je veux une Jouer pour le Barça, vivre une vie de pacha Faire le même score que Jackson Thriller Ma vie est tournée vers ça Puis vice et versa je vise la couronne de Versailles Méduse sur le torse je porte du Versace Camouflage vert kaki Nouvelle chance, qui la offerte à qui ? Jirai provoquer la banque je veux pas de tes vers gratuits Pacifiste en lâme mais jai le verbe actif Cest quand les miens fondent en larmes que je me serre la vis Navigue sur des mers arides, attendant que le best arrive Pour le reste cest le même tarif Jsuis lopposé du maire de la ville Fumée dherbe à pleine narine Vivre jusquà en perdre la vie Jai versé trop de sang sur feuille blanche Aujourdhui je tombe chaque neurone pour que mon flambe Fortifie mes fondations, faut que les leurs tremblent Que leurs armes soient dirigées sur leurs propres tempes Jemmerde leur culte jai mon propre temple Quand tu tires le recul à trop dimportance Jcroise que des MC impotents Faux, comme croire de croiser les choses en votant Tu mcroiseras joint au bec en sifflotant Le futur tappartient seulement si tu prends le volant Donc met ta cagoule met les gants Jme sens mieux quand les billets se mélangent Jvais pas tirer sur les gens mais jsuis attiré par les grands de ce monde Qui me poussent à prier pour que mes plans se montent La tête appuyée sur les planches du sol On est venus en peace, négro range ton Glock En plus ça roule des spliffs toutes les 30 secondes Demi Portion tape un petit passe-passe sur la touche Mais vise la surface, l'effet de surprise Big Up à pour rester sur pause, une vida loca, cherche loccaz Un peu d'audace de faire des bêtises On a passé lâge, on sen fiche Un jour tout sefface Oui cest Rachid, fait voir ton visage Oui cest facile de parler trop mal Non cest rapide de faire des dommages Atterrit tandis que décolle lâge Pas de coloriage ne me colle pas de biatch Rien à lamiable jeune âge Je me sers de ma bouche comme une arme Où je me couche, toi tu te caches Centre de menaces, tu toublies grave Oui je vis sans, loin des strass Pourquoi tu stresses ? Faut que tu saches Manque pas dadresse à chaque message Oui les mots blessent, mais qui est sage ? Naal dine oumouk un coup de schlass Rentrer dans le moule, ça faut pas Tout est fragile, il y a tout qui se casse Qui fait la tête, et qui sécrase Sorti de Sète, Lion de lAtlas Pas de compet, jai pas le temps pour ça La grosse tête te gâchit la face Oui ça magace, pas trop ma tasse Pendant que tu parles, et bousille le taff Bigflo et Oli, freestyle Dédicace à mon crew le classique Beaucoup de bruit pour Bigflo et Oli Le sud le fait mieux, le sud le fait mieux Le sud le fait mieux, le sud le fait mieux 7 piges de silence, et le rap est blessé Il est passé de Nique Ta Mère à Mathilde Seigner Parait quil ne mange plus de porc, et se gave de billets Pour une Bentley en or, certains se mettent à briller Je ne suis pas le meilleur des oursons, au pays du rap game Moi je rappe pour ton frisson, eux ils font du rap Whats my name ? D double O dans le rap game Clint Eastwood mon nickname Tu gobes mon flow tu deviens dingue Je te bang bang, bang bang, molécules je les décompose Je naime pas quand le mic', jflingue, MC que tes Nike reposent Weed bleue dans le gros bang Mon cur vogue à Penny Lane Wicked, Wikileaks, mon flow qui tape tout ton abdomen Si je nai pas pris le mic' depuis Où vous êtes , cest que vous êtes la En paquet de six, un paquet pour six, des couches et du zetla Weed bleue qui te guette la Rap français qui te jet-lague Weed bleue qui me jette la Rap français on est quittes Donne des low-kicks comme une kalash dans un pays de apaches Grand armés de haches, et dune équipe sans attaches Jfuck tout ce business, cest de lamour au kilogramme Manager dans le money gramme, et lespoir miroite comme un hologramme Quand je dis Dadoo, vous dites classique, classique Quand je dis Dadoo, vous dites classique, classique Les MC débitent des phrases débiles Se prennent pour les rois des beats mais les échecs défilent Pourtant ils font partie des hits, ils font le tour des villes Voici venus Biggy et Oli te fait pas de bile La jeunesse ne connaît plus le respect Ils rêvent que de caisses, de liasses et de tasse-pé Ils aiment le sexe sous tous ses aspects On les engraisse au MacDo et tous ces abcès Séjour carcéral, non mais envoie le flow même si ça fait mal Contrôle parental, si tu mets pas du cul, je sais c'est pas rentable C'est lamentable mais c'est l'industrie du chiffre aujourd'hui Tu vends plus aucun disque, poursuivi par le fisc Tu veux pas prendre de risques alors tu sors une connerie En plus ça se vend par milliers Musique décevante, humilié Ils veulent que tu banques, ils veulent que tu danses, tu flanches Ils veulent nous faire plier On va pas les prier, nous on les casse, leurs tours de passe-passe, leur cache-cache face à face Qu'est ce que tu veux qu'ils fassent ? On va leur casser le dos, pour plus qu'ils fassent les beaux Télévision pour les dix petites arnaques au téléphone Met des culs dans les clips pendant que l'état nous assome Et des tonnes de codes, l'école déconne, les bonnes sont connes, à coup de Aucune envie d'vous aider, jeune padawan, vieux pédé J'vous découpe à coup d'épée, vous et vos putes toutes pétées Les fous, c'est plus c'que c'était, tout l'monde me demande Où t'étais ? Même si tu parles pas, tout se sait et, même si tu parles, tout se paie Tout se paie cash ou à crédit, come on biatch, are you ready? Are you ready? De la douleur, j'prédis, pas de douceur, j't'ai dit, moi, c'est Krueger Freddy Ou Rocco Siffredi-fredi et, tout d'un coup, ton pussy frémit, frémit J'suis la nouvelle épidémie-démie, you know I'm not good comme Amy, Amy, Amy Rest in peace miss Amy Winehouse, François in the hood, j'suis dans la White House Où ? Dans la White House où ? Dans la White House, suce mon cigare ou bye-bye pétasse Aïe, des fois, massacrer, ça fait mal au cur, aïe, mais tu l'as mérité motherfucker Die, et tu vas nous quitter motherfucker, die motherfucker, die motherfucker Tminik et j'te baise, moi, c'est Philippe Etchebest Timnik et j'te baise, moi, c'est Philippe Etchebest C'est Philippe Etchebest, Philippe, Philippe Etchebest Philippe Etchebest Y'a pas de hasard, tout est logique, j'suis un barbare technologique J'frappe à coup d'marteau dans ton crâne, et j'soigne tous tes problèmes psy-psychologiques C'est pas la peine d'appeler la police, non, à peine arrivés, ils périssent Les grillons, on les crame, on les brûle dans les flammes Comme les dragons de Daenerys Je vois des flashs, j'en entends qui rouspètent Nique la kalash, j'ai sorti la 12.7 J'arrive plus bordélique qu'un bolchévique ouzbek C'est pas Michael, mais ils vont crier Who's Bad? , à coup d'rafale dans la tête Quand ça rafale, ils se cachent, ils cavalent, là, je crache, ils avalent, ils avalent, ils avalent Dans le conduit nasal, ma came artisanale, ton style, il a mal, lyrics archi-banales Nanani nanana, mais y'a tchi, y'a nada, plus précis qu'la NASA J'suis ratatatatatatata Tminik et j'te... Tminik et j'te baise, moi, c'est Philippe Etchebest Philippe Etchebest, Philippe, Philippe Etchebest Tminik et j'te baise, moi, c'est Philippe Etchebest Pour mes sahbs, pour mes homies Pour les singes et les barges et les jolies L'ambiance elle est calme elle est cosy Oui dans ma tête, dans mes rêves, dans mes folies T'as voulu réveiller l'eau qui dort Dis moi alors quand est-ce qu'on s'isole ? J'ai des pensées insensées, c'est mon corps qui se colle Surtout ne crie pas il y a mes potes qui dorment Le jour se lève sur ton Je flippe, je redoute, mais ta Je le vis dans ma tête, et je goute tes lèvres Je remercie Dieu vers la voute céleste Cosy cosy bang bang Je vis d'amour et d'eau tiède Fuck ta parano je n'ai plus peur des triangles isocèles</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie qu'ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange High dans le ciel avec un ange J'aime bien ma vie, j'ai pas envie que ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange On baise au chant du coq Là dans ta main c'est ma cock Y a nos initiales sur ta coque Hun Là j'm'habille j'ai sortit les Doc J'dis que ça va avec tes bottes Ça va pas avec tes potes Hun En plus t'as pas envie d'leur dire qu'on est ensemble Pourtant, tous les soirs, tu viens toquer à ma chambre Parce que j'suis l'seul pélo qui fait trembler tes jambes Enchanté, Laïoss, bientôt j'rentre dans la légende Don't cry Laïoss dans, dans la légende You might also like High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie qu'ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie que ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange</t>
+          <t>High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie qu'ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange High dans le ciel avec un ange J'aime bien ma vie, j'ai pas envie que ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange On baise au chant du coq Là dans ta main c'est ma cock Y a nos initiales sur ta coque Hun Là j'm'habille j'ai sortit les Doc J'dis que ça va avec tes bottes Ça va pas avec tes potes Hun En plus t'as pas envie d'leur dire qu'on est ensemble Pourtant, tous les soirs, tu viens toquer à ma chambre Parce que j'suis l'seul pélo qui fait trembler tes jambes Enchanté, Laïoss, bientôt j'rentre dans la légende Don't cry Laïoss dans, dans la légende High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie qu'ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie que ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chaud comme Marseille, on vous met le feu Le cur de la ville s'enflamme quand le son entre en jeu Les préoccupations des frères s'infiltrent dans ton Walkman L'argent, la boisson, la fumée et les femmes Je nagerais avec les femmes et un micro dans une piscine Si j'avais l'occasion de partir loin des vermines L'hésitation ne se ferait pas, c'est certain Mes poches sont vides et j'ai faim de pognon et d'un bon destin J'extirpe ces quelques mots, un stylo de mon paletot, sorti un jour Du caniveau, je roule dans les casinos Ouais, je fais le zguègue en espadrilles, mais j'assure quand même Quoi qu'il arrive, car Fonky est la Famille Autant parler des mains que la bouche chez nous n'est pas louche Méditerranéen de souche, mes styles font mouches Au milieu d'embrouilles ou de mauvais coups Je crame tous les tintanos qui nous cherchent des poux Dans la nuit, un MC check check le mic Taquiner la rime et le beat est mon véritable hobby Envoyer des styles pour tous les frères qui nique la halla Pour la première fois, le refrain commence comme ça You might also like Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys Pendant que tu fais un flop, que tu tapes un magnétoscope Don Choa calcine les rimes comme une clope en garde à vue Le hip-hop au top descend le long de la rue Et se saisit du showbiz à son insu Accepte le son, qui touche de près mes entrailles Au bercail, ma fonction est le travail Je me comporte en canaille, aïe ! Les mauvais garçons se collent comme des moucherons Au jupons, frappent sans hésiter pour le pognon Comme les apaches guinchent ton scalp Ton fric est la proie, des hordes de chiens des Alpes En veulent à tes Delacroix Mais pas moi, je suis droit, respecte les autres et crois Au pouvoir de la rime dans la destruction des hazas L'été, les quartiers, postes dans le bus Que demander de plus, fusse le funk ou des Vénus ? Gus, soi-disant ma ville pue en plus Dieu t'a-t-il fait avec un anus au lieu des sinus ? Simple dans ma façon de faire mon sang rouge clair Pourtant, j'ai la peau noire et fier de l'avoir Je cours à la gloire des quartiers avec mes idées Le produit, sera toujours enragé Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys J'en ai marre de les voir flipper Y'a pas que le mauvais côté Le Rat te le dira, la vie est faite pour s'amuser Capte le concept des mecs qui s'en battent les couilles Le bon délire est là, t'inquiète on se débrouille Mes pensées drivent coolo, coolo Voilà quelques mots Pour l'avenir incertain de mes potos Qui ont quitté les cours tôt La rage est dans mon âme pour le drame du Front National J'allume la flamme, la flamme Fils, comprends ce que tu peux comprendre Un bon conseil, prétends à ce que tu peux prétendre Réfléchis un instant avant de faire un pas, tu saisiras Pourquoi on te lèvera où que tu sois Avant, je combattais contre des moulins à vent Maintenant, je fais vibrer les salles et le public en rappant Satir au soleil, zique à l'oreille Signe une carte de visite live de Marseille La balle de ping-pong d'Ali Kong tape De Marseille à Naples, pour le rap, je capte les étapes Et cap vers le possee qui me suit J'en suis reconnaissant à fond Voilà pourquoi mes potes sont souvent Dans mes chansons Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys1</t>
+          <t>Chaud comme Marseille, on vous met le feu Le cur de la ville s'enflamme quand le son entre en jeu Les préoccupations des frères s'infiltrent dans ton Walkman L'argent, la boisson, la fumée et les femmes Je nagerais avec les femmes et un micro dans une piscine Si j'avais l'occasion de partir loin des vermines L'hésitation ne se ferait pas, c'est certain Mes poches sont vides et j'ai faim de pognon et d'un bon destin J'extirpe ces quelques mots, un stylo de mon paletot, sorti un jour Du caniveau, je roule dans les casinos Ouais, je fais le zguègue en espadrilles, mais j'assure quand même Quoi qu'il arrive, car Fonky est la Famille Autant parler des mains que la bouche chez nous n'est pas louche Méditerranéen de souche, mes styles font mouches Au milieu d'embrouilles ou de mauvais coups Je crame tous les tintanos qui nous cherchent des poux Dans la nuit, un MC check check le mic Taquiner la rime et le beat est mon véritable hobby Envoyer des styles pour tous les frères qui nique la halla Pour la première fois, le refrain commence comme ça Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys Pendant que tu fais un flop, que tu tapes un magnétoscope Don Choa calcine les rimes comme une clope en garde à vue Le hip-hop au top descend le long de la rue Et se saisit du showbiz à son insu Accepte le son, qui touche de près mes entrailles Au bercail, ma fonction est le travail Je me comporte en canaille, aïe ! Les mauvais garçons se collent comme des moucherons Au jupons, frappent sans hésiter pour le pognon Comme les apaches guinchent ton scalp Ton fric est la proie, des hordes de chiens des Alpes En veulent à tes Delacroix Mais pas moi, je suis droit, respecte les autres et crois Au pouvoir de la rime dans la destruction des hazas L'été, les quartiers, postes dans le bus Que demander de plus, fusse le funk ou des Vénus ? Gus, soi-disant ma ville pue en plus Dieu t'a-t-il fait avec un anus au lieu des sinus ? Simple dans ma façon de faire mon sang rouge clair Pourtant, j'ai la peau noire et fier de l'avoir Je cours à la gloire des quartiers avec mes idées Le produit, sera toujours enragé Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys J'en ai marre de les voir flipper Y'a pas que le mauvais côté Le Rat te le dira, la vie est faite pour s'amuser Capte le concept des mecs qui s'en battent les couilles Le bon délire est là, t'inquiète on se débrouille Mes pensées drivent coolo, coolo Voilà quelques mots Pour l'avenir incertain de mes potos Qui ont quitté les cours tôt La rage est dans mon âme pour le drame du Front National J'allume la flamme, la flamme Fils, comprends ce que tu peux comprendre Un bon conseil, prétends à ce que tu peux prétendre Réfléchis un instant avant de faire un pas, tu saisiras Pourquoi on te lèvera où que tu sois Avant, je combattais contre des moulins à vent Maintenant, je fais vibrer les salles et le public en rappant Satir au soleil, zique à l'oreille Signe une carte de visite live de Marseille La balle de ping-pong d'Ali Kong tape De Marseille à Naples, pour le rap, je capte les étapes Et cap vers le possee qui me suit J'en suis reconnaissant à fond Voilà pourquoi mes potes sont souvent Dans mes chansons Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys1</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dandyguel, Black 10 Invincible for real LR Prod, good music Yeah On vient de l'Essonne, Dandyguel Black 10, ta rime est trop one-one Tu fais ta belle, on te malmène à plus de mille, mine De rien, on passe pour des anciens Sur les faux sur les nuls, lancez des ufs XXX en huit, en quatre, en deux Adulte, ado, plaidez, aidez le hip-hop On a les mains on a les pieds dedans Le plin non-stop, j'rappe, tant mieux si ça plaît Du moment qu je ne me travestis pas T'es dans de beaux draps, vesqui pas la vérité Tu sais pas rapper, à l'époque on t'aurait rembarré Comme un lion en cage, ton rap tourne en rond Bourrés doivent être les imbéciles qui ont osé misé sur toi On rappe depuis l'époque où jamais tu ne sortais Hip-hop mon étendard, à l'époque on était durs Et non pas laissés en l'état Dire qu'il n'y a que d'la soupe serait t'mentir La résistance, un freaky flow en guise de monture You might also like Reste hip-hop Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Trop de convenances, pas assez de consistance, j'organise la résistance Si t'es hésitant j'me fous de c'que tu penses Les lyrics que j'balance, ne les mets pas de côté De toute évidence on comprend qu'le rap s'est fait boycotter Jette la pierre aux spectateurs aux faux jacteurs, au fond acteurs Trop en quête de projecteurs Et d'beaux mecs qui ont tort De n'pas comprendre que l'rap c'est d'la culture hip-hop Pour tous ceux qui dérapent, pas moyen que j'les big-up Message aux mecs sages, grands ou de bas âge Le temps j'prend pour c'pétage d'instru, je tourne la page De mon cahier d'notes pour préparer le braquage Je me tape du flop, j'suis venu exprimer ma rage On défendra ce truc sans arrêt, on raisonne comme des tarés Si parfois on tourne en rond, sur beat on met ça carré J'me prends pas un cainri, j'ai pas voté Obama Le 9-1, Viry Grigny, sera jamais l'Alabama Je lâche pas, je tape ça, du côté des minorités Je vate-sa les lopes-sa qui rappent avec médiocrité J'ai la furie et la foi comme Don Choa, j'suis trop chaud, la Pression monte, car trop d'ses-pha Reste hip-hop Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote Dandyguel, Black 10 Represent On s'empare du micro pour de nouvelles aventures</t>
+          <t>Dandyguel, Black 10 Invincible for real LR Prod, good music Yeah On vient de l'Essonne, Dandyguel Black 10, ta rime est trop one-one Tu fais ta belle, on te malmène à plus de mille, mine De rien, on passe pour des anciens Sur les faux sur les nuls, lancez des ufs XXX en huit, en quatre, en deux Adulte, ado, plaidez, aidez le hip-hop On a les mains on a les pieds dedans Le plin non-stop, j'rappe, tant mieux si ça plaît Du moment qu je ne me travestis pas T'es dans de beaux draps, vesqui pas la vérité Tu sais pas rapper, à l'époque on t'aurait rembarré Comme un lion en cage, ton rap tourne en rond Bourrés doivent être les imbéciles qui ont osé misé sur toi On rappe depuis l'époque où jamais tu ne sortais Hip-hop mon étendard, à l'époque on était durs Et non pas laissés en l'état Dire qu'il n'y a que d'la soupe serait t'mentir La résistance, un freaky flow en guise de monture Reste hip-hop Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Trop de convenances, pas assez de consistance, j'organise la résistance Si t'es hésitant j'me fous de c'que tu penses Les lyrics que j'balance, ne les mets pas de côté De toute évidence on comprend qu'le rap s'est fait boycotter Jette la pierre aux spectateurs aux faux jacteurs, au fond acteurs Trop en quête de projecteurs Et d'beaux mecs qui ont tort De n'pas comprendre que l'rap c'est d'la culture hip-hop Pour tous ceux qui dérapent, pas moyen que j'les big-up Message aux mecs sages, grands ou de bas âge Le temps j'prend pour c'pétage d'instru, je tourne la page De mon cahier d'notes pour préparer le braquage Je me tape du flop, j'suis venu exprimer ma rage On défendra ce truc sans arrêt, on raisonne comme des tarés Si parfois on tourne en rond, sur beat on met ça carré J'me prends pas un cainri, j'ai pas voté Obama Le 9-1, Viry Grigny, sera jamais l'Alabama Je lâche pas, je tape ça, du côté des minorités Je vate-sa les lopes-sa qui rappent avec médiocrité J'ai la furie et la foi comme Don Choa, j'suis trop chaud, la Pression monte, car trop d'ses-pha Reste hip-hop Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote Dandyguel, Black 10 Represent On s'empare du micro pour de nouvelles aventures</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest Han, ta cuisine est sale et ta bouffe est dégueu' Ta chatte a des champignons vénéneux Putains d'MC bons qu'à bouffer des queues J'ai deux fois leur âge, j'suis deux fois plus frais qu'eux Ouais, j'suis plus frais que ces jeunes pédés Plus frais que tous ces vieux cons de rappeurs Ouais, j'suis plus frais qu'un nouveau né Plus frais qu'un bébé dans le congélateur Poto, tu parles trop, tu m'emmerdes Ouais, ok, envoie-moi un e-mail Défoncé, je roule sur leur grand-mère Comme si j'étais Benoît Magimel Te fais pas d'espoir imaginaire Ils ne peuvent pas copier mes recettes Comme un chef, j'suis à l'aise, je les baise Avec du piment dEspelette Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest Y'a pas de hasard, tout est logique J'suis un barbare technologique J'frappe à coup d'marteau dans ton crâne Et j'soigne tous tes problèmes psy-psychologiques C'est pas la peine d'appeler la police, non À peine arrivés, ils périssent, han Les grillons, on les crame, on les brûle dans les flammes Comme les dragons de Daenerys Je vois des flashs, j'en entends qui rouspètent Nique la Kalach', j'ai sorti la 12.7 J'arrive plus bordélique qu'un Bolchevique Ouzbek C'est pas Michael, mais ils vont crier Who's Bad? À coup d'rafale dans la tête Cash, ça rafale, ils se cachent, ils cavalent Là, je crache, ils avalent, ils avalent, ils avalent Dans le conduit nasal, ma came artisanale Ah, ton style, il a mal, lyrics archi-banales Nanani nanana, mais y'a tchi, y'a nada Plus précis qu'la NASA, je tire ratatataratatatata Tatataratatatata Tatataratatatata Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe EtchebestYou might also like2</t>
+          <t>Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest Han, ta cuisine est sale et ta bouffe est dégueu' Ta chatte a des champignons vénéneux Putains d'MC bons qu'à bouffer des queues J'ai deux fois leur âge, j'suis deux fois plus frais qu'eux Ouais, j'suis plus frais que ces jeunes pédés Plus frais que tous ces vieux cons de rappeurs Ouais, j'suis plus frais qu'un nouveau né Plus frais qu'un bébé dans le congélateur Poto, tu parles trop, tu m'emmerdes Ouais, ok, envoie-moi un e-mail Défoncé, je roule sur leur grand-mère Comme si j'étais Benoît Magimel Te fais pas d'espoir imaginaire Ils ne peuvent pas copier mes recettes Comme un chef, j'suis à l'aise, je les baise Avec du piment dEspelette Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest Y'a pas de hasard, tout est logique J'suis un barbare technologique J'frappe à coup d'marteau dans ton crâne Et j'soigne tous tes problèmes psy-psychologiques C'est pas la peine d'appeler la police, non À peine arrivés, ils périssent, han Les grillons, on les crame, on les brûle dans les flammes Comme les dragons de Daenerys Je vois des flashs, j'en entends qui rouspètent Nique la Kalach', j'ai sorti la 12.7 J'arrive plus bordélique qu'un Bolchevique Ouzbek C'est pas Michael, mais ils vont crier Who's Bad? À coup d'rafale dans la tête Cash, ça rafale, ils se cachent, ils cavalent Là, je crache, ils avalent, ils avalent, ils avalent Dans le conduit nasal, ma came artisanale Ah, ton style, il a mal, lyrics archi-banales Nanani nanana, mais y'a tchi, y'a nada Plus précis qu'la NASA, je tire ratatataratatatata Tatataratatatata Tatataratatatata Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest2</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Je vais dire la légende De celui qui s'est enfui Et fait les oiseaux des Andes Se taire au cur de la nuit Le ciel était de velours Incompréhensiblement Le soir tombe et les beaux jours Meurent on ne sait comment Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Lorsque la musique est belle Tous les hommes sont égaux Et l'injustice rebelle Paris ou Santiago Nous parlons même langage Et le même chant nous lie Une cage est une cage En France comme au Chili Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda You might also likeSous le fouet de la famine Terre terre des volcans Le gendarme te domine Mon vieux pays araucan Pays double où peuvent vivre Des lièvres et des pumas Triste et beau comme le cuivre Au désert d'Atacama Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Avec tes forêts de hêtres Tes myrtes méridionaux O mon pays de salpêtre D'arsenic et de guano Mon pays contradictoire Jamais libre ni conquis Verras-tu sur ton histoire Planer l'aigle des Yankees Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Absent et présent ensemble Invisible mais trahi Neruda que tu ressembles À ton malheureux pays Ta résidence est la terre Et le ciel en même temps Silencieux solitaire Et dans la foule chantant Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda</t>
+          <t>Je vais dire la légende De celui qui s'est enfui Et fait les oiseaux des Andes Se taire au cur de la nuit Le ciel était de velours Incompréhensiblement Le soir tombe et les beaux jours Meurent on ne sait comment Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Lorsque la musique est belle Tous les hommes sont égaux Et l'injustice rebelle Paris ou Santiago Nous parlons même langage Et le même chant nous lie Une cage est une cage En France comme au Chili Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Sous le fouet de la famine Terre terre des volcans Le gendarme te domine Mon vieux pays araucan Pays double où peuvent vivre Des lièvres et des pumas Triste et beau comme le cuivre Au désert d'Atacama Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Avec tes forêts de hêtres Tes myrtes méridionaux O mon pays de salpêtre D'arsenic et de guano Mon pays contradictoire Jamais libre ni conquis Verras-tu sur ton histoire Planer l'aigle des Yankees Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Absent et présent ensemble Invisible mais trahi Neruda que tu ressembles À ton malheureux pays Ta résidence est la terre Et le ciel en même temps Silencieux solitaire Et dans la foule chantant Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Oh, oh, oh C'est lovni au mic', mec Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, cest pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Ma ville est belle mais la vie, elle y est pire qu'avant Parce que de nos jours, ici, que ça tire et rien qu'ça vend Si seulement je savais comment remonter dans l'temps J'crois que plus jamais je reverrai mon Marseille dantan Jai fait le deuil, c'est mort, cest dev'nu Baltimore Je reconnais plus mon centre-ville et mes quartiers Nord On a payé un lourd tribut, on a payé l'prix fort À qui crois-tu que sont les enfants que la ville dévore ? Dont elle recrache les corps, dont elle noircit les curs Mais qu'en ont-ils à faire au fond, cest pas leurs mères qui pleurent Leurs petits frères qui meurent au pied des barres d'immeubles Nous ont livré, abandonné à notre triste sort You might also like À Marseille, gros, tout s'passe dans la tête, laisse pas traîner tes dettes J'suis calé sur la côte, envie d'me barrer, j'prends l'A7 J'partageais mon assiette en souriant quand j'étais à sec Des quartiers Sud aux quartiers Nord, les p'tits ont faim Ils remontent d'Espagne, tu l'sais, n'est-ce pas ? Moi, j'm'attache pas, basta, t'sais qu'on baise tout, j'suis vers l'Estaque 1.3, j'tourne jamais l'dos dans le restau' Chica, une grosse kichta, verte comme pesto Envoie le feu, hachek, y a trop d'herkey, 3aychek, histoires de shit, faux chèques Histoires de shit, faux chèques, ça vend des kil', pochettes Trahi son équipe pour une p'tite qui a des p'tites fossettes, yeah Comme un vide à combler, la Parole de Dieu, ça m'aide à tout surmonter J'regarde vers le Ciel, sais qu'Il m'laissera pas tomber Des quartiers Sud aux quartiers Nord, des Baumettes au Pontet J'suis Marseillais comme Nasri, pour y arriver, j'ai souffert Combien j'ai pensé aux gens, est-ce qu'ils penseront à moi sous terre ? Tout part de la chambre, un mic', une carte son Pardon maman, j'ai fini aux geôles mais j'étais pas un mauvais garçon Né dans les quartiers Sud, j'trainais dans les quartiers Nord Lève le T-Max dans les rues, t'entends à coup d'Va niquer tes morts Ici, personne s'serre les coudes, y a trop d'problèmes d'ego Te jette pas à l'eau, ici, même les sirènes donnent des go Ils veulent trop t'voir à terre, gros, pour ça, j'tiens debout Quand les murs ont des oreilles, les problèmes sortent des égouts J'ai mon DP, ma Chabrand, j'ai des soucis, des chagrins J'fais des erreurs mais j'apprends, eux, ils parlent mais ils savent rien C'est la crise quand y a des 'blèmes dans Marseille Les mamans, elles sortent plus, ça a tiré la veille Ça sent la braise, les képis, ils harcèlent T'façon, on va finir seuls dans un coin de Marseille Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah J't'ai pris ton tapis avec une petite paire de cinq J't'ai pris ton tapin qu'a exhibé sa paire de seins Avant on était plein, maint'nant, y a plus dégun Au temps des francs, on était , on s'aimait, c'était pas pour les gains Nouvelle école, sales sont les codes, et tes potes Sale est l'époque, poussette, coup d'épaule Jadis, sous le porche, rien dans les poches L'amour était proche et aujourd'hui, la mort se rapproche Maintenant, ils font le plein, autoroute à 2.20 Dernière paire de Requin sans penser à demain C'est le début d'la fin, tout l'monde a faim Tout a changé changé, maint'nant c'est le bordel Pas trop manuel, plutôt semi-automatique Elle est refaite, l'ami, j'peux t'en dire qu'c'est de l'art plastique Deux ans de loyer entourés par un élastique On passe très vite d'un air sympathique à Saint-Patrick Electriques sont les gosses, la vie de narcos, tiens l'arme sans l'arthrose On attend pas qu'ça tombe du ciel, on fait les causes T'as grandi dans l'sah, sang froid comme dans glacière à Bielsa Chacun porte ses péchés, mais pas dans le même sac Léwé, en journée, toute l'année, trop jnouné, j'peux tourner, contourner, tourne pas trop autour du pot Tu m'remets ? C'est Papé ou plutôt, c'est Capo Marseillais, essayez, faut payer, c'est Capo Les grands influencent la pluie, tout pour les miens, mon seul appui Murder sur la piste, j'perds le temps à m'mettre sous la pluie Le temps en cristaux liquides, le temps à servir les clins Mes larmes sur les gouttes d'encre mais j'écris sur cristaux liquides Après quelques shots , j'nous r'vois young Une des plus belles vies d'voyou, 1980-quelque chose Par ces temps-là, on était bien libres comme l'art X temps après, c'est zéro peine comme l'arme, mon silence comme larme Pa-pa-pim, homme à terre, décès Cuillère, LDC sur flaque de sang RDC, c'qu'on a laissé Qui zappe le passé n'a pas d'futur à portée d'mains Qu'est-ce que la peine d'aujourd'hui peut apporter d'main ? De Saint-Antoine, au Panier, à la Cayolle Avant-après, c'est Marseille, c'est mariole Ça vit au taquet, met l'paquet dans v'là les domaines Gros, raye le parquet, t'as r'marqué, loin est demain Comme la nuit à l'Opéra, pas peur d'se salir les mains Qui nuit le paiera, et qui veut salir les miens 1.3 en mode opéra, j'suis dans ma paranoïa J'viens du ghetto, ya, t'en veux, tu paies le plot, ya Longue vie aux braves qui mettent du cur pour les 111 Y a qu'l'amour de grave, mon sang ose Comme Zizou, comme Sopra', comme le J, et merci, oh Flamme JO, toujours aussi haut, c'est Marseille, oh Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Dans une ville qui n'existe plus Des ruines et des cendres, réminiscence J'ai vu ces rues ruisseler de sang Plus rien n'a de sens Rêve incandescent, rêve de renaissance Retour au réel, petit, redescends Du passé au présent, tout part en fumée Des pensées perturbées, turbulent, tête brûlée Perdre du temps à calculer, regarder passer les trains Regarder l'sablier s'écouler grain par grain Des sous au chaud, off-shore, ça sort pas d'Oxford Onde de choc, Don Cho', trop chaud, gunshot Ici, si ça sort chargé, c'est logique La Psy, FF, PN, l'Algé, le J Et ouais, mon pote, tout a changé, c'est plus les mêmes choses Plus les mêmes façons d's'habiller, c'est plus les mêmes codes On reconnaît plus nos quartiers, c'est plus les mêmes blocs Mais mashallah, depuis le temps passé, toujours les mêmes potes On reconnaît plus nos quartiers Avant c'était respect, loyauté, plus de complicité, d'amour et de sincérité On reconnaît plus nos quartiers Maintenant, ça met le pare-balles en été Ça blague pas, la vérité, c'est chaud, y a trop d'rivalité Eh, l'atmosphère est tendue comme un string Entends-tu la voix d'la street, mon art tue On reconnaît plus nos quartiers Le petit frère te torture, homicide Tu tchatches plus, t'hallucines au rap cru, aux racistes T'as reconnu la mélodie, le sang, de la ville au grand cur Sages poètes de la street, le film des Tontons flingueurs On m'dit qu'tout a changé, méfie-toi de ton frangin Influencé et matrixé par des films à l'accent latin Bats les couilles d'ton cartel, mouille le maillot, Van Buyten Si RedBull donne des ailes, j'suis Papin, j'suis Verstappen Marseille, city beach, ça va vite, 4Motion Viens faire l'tour de la ville sur une scène en slow motion 1.3, papy, étoile, 'na-'nard Tapie, on t'fait danser dans la street comme Blackstreet No Diggity C'est V.I.N de la Psy4 a.k.a. À l'ancienne, ça f'sait les 4 Marseillais dans ta ville Déjà, une pensée aux absents Pour eux, j'porte le brassard plein d'sang en imposant mon accent Là où nous ont interdit l'accès Dans c'game, j'suis l'vaccin, pas pour tes Rolex mais pour mes frères relaxés Ici, y a qu'dans le kandou qu'on a grandi dans la soie On confie pas estime de soi et obsession d'soi Comme le groupe de François, on a la furie et la foi On porte le keffieh comme les enfants d'Rafah dans l'pe-ra J'suis pas comme eux, j'suis pas commun, jJ'suis pas con mais, joue au con et la faute, je commets J'suis une comète comorienne qui commémore les morts des quartiers Nord Ici combien se noient pour un billet comme la pochette de Kurt Cobain ? Ne prends pas notre pudeur pour une image lisse Marseille, c'est trop vrai pour ton Netflix Marseille, c'est sincère comme les larmes d'un daron Et ça, depuis les grands frères aux surnoms de pharaons Tout en détente, sans casque, en deux temps Penser à ramener le bon vieux temps, celui qu'on aime tant Mais bon je tente On peut pas leur ressembler 13 Organisé vient pour rassembler</t>
+          <t>Oh, oh, oh C'est lovni au mic', mec Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, cest pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Ma ville est belle mais la vie, elle y est pire qu'avant Parce que de nos jours, ici, que ça tire et rien qu'ça vend Si seulement je savais comment remonter dans l'temps J'crois que plus jamais je reverrai mon Marseille dantan Jai fait le deuil, c'est mort, cest dev'nu Baltimore Je reconnais plus mon centre-ville et mes quartiers Nord On a payé un lourd tribut, on a payé l'prix fort À qui crois-tu que sont les enfants que la ville dévore ? Dont elle recrache les corps, dont elle noircit les curs Mais qu'en ont-ils à faire au fond, cest pas leurs mères qui pleurent Leurs petits frères qui meurent au pied des barres d'immeubles Nous ont livré, abandonné à notre triste sort À Marseille, gros, tout s'passe dans la tête, laisse pas traîner tes dettes J'suis calé sur la côte, envie d'me barrer, j'prends l'A7 J'partageais mon assiette en souriant quand j'étais à sec Des quartiers Sud aux quartiers Nord, les p'tits ont faim Ils remontent d'Espagne, tu l'sais, n'est-ce pas ? Moi, j'm'attache pas, basta, t'sais qu'on baise tout, j'suis vers l'Estaque 1.3, j'tourne jamais l'dos dans le restau' Chica, une grosse kichta, verte comme pesto Envoie le feu, hachek, y a trop d'herkey, 3aychek, histoires de shit, faux chèques Histoires de shit, faux chèques, ça vend des kil', pochettes Trahi son équipe pour une p'tite qui a des p'tites fossettes, yeah Comme un vide à combler, la Parole de Dieu, ça m'aide à tout surmonter J'regarde vers le Ciel, sais qu'Il m'laissera pas tomber Des quartiers Sud aux quartiers Nord, des Baumettes au Pontet J'suis Marseillais comme Nasri, pour y arriver, j'ai souffert Combien j'ai pensé aux gens, est-ce qu'ils penseront à moi sous terre ? Tout part de la chambre, un mic', une carte son Pardon maman, j'ai fini aux geôles mais j'étais pas un mauvais garçon Né dans les quartiers Sud, j'trainais dans les quartiers Nord Lève le T-Max dans les rues, t'entends à coup d'Va niquer tes morts Ici, personne s'serre les coudes, y a trop d'problèmes d'ego Te jette pas à l'eau, ici, même les sirènes donnent des go Ils veulent trop t'voir à terre, gros, pour ça, j'tiens debout Quand les murs ont des oreilles, les problèmes sortent des égouts J'ai mon DP, ma Chabrand, j'ai des soucis, des chagrins J'fais des erreurs mais j'apprends, eux, ils parlent mais ils savent rien C'est la crise quand y a des 'blèmes dans Marseille Les mamans, elles sortent plus, ça a tiré la veille Ça sent la braise, les képis, ils harcèlent T'façon, on va finir seuls dans un coin de Marseille Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah J't'ai pris ton tapis avec une petite paire de cinq J't'ai pris ton tapin qu'a exhibé sa paire de seins Avant on était plein, maint'nant, y a plus dégun Au temps des francs, on était , on s'aimait, c'était pas pour les gains Nouvelle école, sales sont les codes, et tes potes Sale est l'époque, poussette, coup d'épaule Jadis, sous le porche, rien dans les poches L'amour était proche et aujourd'hui, la mort se rapproche Maintenant, ils font le plein, autoroute à 2.20 Dernière paire de Requin sans penser à demain C'est le début d'la fin, tout l'monde a faim Tout a changé changé, maint'nant c'est le bordel Pas trop manuel, plutôt semi-automatique Elle est refaite, l'ami, j'peux t'en dire qu'c'est de l'art plastique Deux ans de loyer entourés par un élastique On passe très vite d'un air sympathique à Saint-Patrick Electriques sont les gosses, la vie de narcos, tiens l'arme sans l'arthrose On attend pas qu'ça tombe du ciel, on fait les causes T'as grandi dans l'sah, sang froid comme dans glacière à Bielsa Chacun porte ses péchés, mais pas dans le même sac Léwé, en journée, toute l'année, trop jnouné, j'peux tourner, contourner, tourne pas trop autour du pot Tu m'remets ? C'est Papé ou plutôt, c'est Capo Marseillais, essayez, faut payer, c'est Capo Les grands influencent la pluie, tout pour les miens, mon seul appui Murder sur la piste, j'perds le temps à m'mettre sous la pluie Le temps en cristaux liquides, le temps à servir les clins Mes larmes sur les gouttes d'encre mais j'écris sur cristaux liquides Après quelques shots , j'nous r'vois young Une des plus belles vies d'voyou, 1980-quelque chose Par ces temps-là, on était bien libres comme l'art X temps après, c'est zéro peine comme l'arme, mon silence comme larme Pa-pa-pim, homme à terre, décès Cuillère, LDC sur flaque de sang RDC, c'qu'on a laissé Qui zappe le passé n'a pas d'futur à portée d'mains Qu'est-ce que la peine d'aujourd'hui peut apporter d'main ? De Saint-Antoine, au Panier, à la Cayolle Avant-après, c'est Marseille, c'est mariole Ça vit au taquet, met l'paquet dans v'là les domaines Gros, raye le parquet, t'as r'marqué, loin est demain Comme la nuit à l'Opéra, pas peur d'se salir les mains Qui nuit le paiera, et qui veut salir les miens 1.3 en mode opéra, j'suis dans ma paranoïa J'viens du ghetto, ya, t'en veux, tu paies le plot, ya Longue vie aux braves qui mettent du cur pour les 111 Y a qu'l'amour de grave, mon sang ose Comme Zizou, comme Sopra', comme le J, et merci, oh Flamme JO, toujours aussi haut, c'est Marseille, oh Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Dans une ville qui n'existe plus Des ruines et des cendres, réminiscence J'ai vu ces rues ruisseler de sang Plus rien n'a de sens Rêve incandescent, rêve de renaissance Retour au réel, petit, redescends Du passé au présent, tout part en fumée Des pensées perturbées, turbulent, tête brûlée Perdre du temps à calculer, regarder passer les trains Regarder l'sablier s'écouler grain par grain Des sous au chaud, off-shore, ça sort pas d'Oxford Onde de choc, Don Cho', trop chaud, gunshot Ici, si ça sort chargé, c'est logique La Psy, FF, PN, l'Algé, le J Et ouais, mon pote, tout a changé, c'est plus les mêmes choses Plus les mêmes façons d's'habiller, c'est plus les mêmes codes On reconnaît plus nos quartiers, c'est plus les mêmes blocs Mais mashallah, depuis le temps passé, toujours les mêmes potes On reconnaît plus nos quartiers Avant c'était respect, loyauté, plus de complicité, d'amour et de sincérité On reconnaît plus nos quartiers Maintenant, ça met le pare-balles en été Ça blague pas, la vérité, c'est chaud, y a trop d'rivalité Eh, l'atmosphère est tendue comme un string Entends-tu la voix d'la street, mon art tue On reconnaît plus nos quartiers Le petit frère te torture, homicide Tu tchatches plus, t'hallucines au rap cru, aux racistes T'as reconnu la mélodie, le sang, de la ville au grand cur Sages poètes de la street, le film des Tontons flingueurs On m'dit qu'tout a changé, méfie-toi de ton frangin Influencé et matrixé par des films à l'accent latin Bats les couilles d'ton cartel, mouille le maillot, Van Buyten Si RedBull donne des ailes, j'suis Papin, j'suis Verstappen Marseille, city beach, ça va vite, 4Motion Viens faire l'tour de la ville sur une scène en slow motion 1.3, papy, étoile, 'na-'nard Tapie, on t'fait danser dans la street comme Blackstreet No Diggity C'est V.I.N de la Psy4 a.k.a. À l'ancienne, ça f'sait les 4 Marseillais dans ta ville Déjà, une pensée aux absents Pour eux, j'porte le brassard plein d'sang en imposant mon accent Là où nous ont interdit l'accès Dans c'game, j'suis l'vaccin, pas pour tes Rolex mais pour mes frères relaxés Ici, y a qu'dans le kandou qu'on a grandi dans la soie On confie pas estime de soi et obsession d'soi Comme le groupe de François, on a la furie et la foi On porte le keffieh comme les enfants d'Rafah dans l'pe-ra J'suis pas comme eux, j'suis pas commun, jJ'suis pas con mais, joue au con et la faute, je commets J'suis une comète comorienne qui commémore les morts des quartiers Nord Ici combien se noient pour un billet comme la pochette de Kurt Cobain ? Ne prends pas notre pudeur pour une image lisse Marseille, c'est trop vrai pour ton Netflix Marseille, c'est sincère comme les larmes d'un daron Et ça, depuis les grands frères aux surnoms de pharaons Tout en détente, sans casque, en deux temps Penser à ramener le bon vieux temps, celui qu'on aime tant Mais bon je tente On peut pas leur ressembler 13 Organisé vient pour rassembler</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer J'ai niqué tout l'budget et j'ai même pas fait l'album Vu qu'c'est Sony qui payait, les gosses de chez moi ont dit C'est la bombe J'ai lancé un concours de rimes, personne n'a gagné J'ai dû mixer du Dadoo, du Rat, du NTM, du Marley Et du Yaniss Odua avec mes textes d'il y a quelques années Secoue-moi tout ça, comme le Mapouka, pas besoin de bazooka Juste un petit cutter, ouvre la cabine de pilotage Les égouts débordent, le sol un marécage Bien puant, chien hurlant, ça devient gluant Terrain brûlant, j'reviens suant, marche sans but Dans la rue en deux-zéro-zéro-deux, merci bon Dieu 2003 sois droit et squatte pas qu'ton pieu Dis-moi si tu m'entends maintenant, mon vieux Que tous ceux qui ne sont pas contents se plaignent en haut lieu Je m'en bats les couilles, je suis vraiment feignant et odieux Laisse-moi juste faire ce que je sais faire au mieux... You might also like Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer J'emmerde fonctionnaires, flics et curés Ça t'pose problème ? Va t'faire enculer ! Heu... c'est le petit gars sans gêne Ne mentez pas, vous voudriez que je me calme, non Vous m'préférez rageux jours et nuits Vous voudriez que je me came Tellement j'me dépense, je fais ma vie à l'arrache On veut voir la musique de France découpée à la hache Trancher la langue de Garou, rouler en camion sur Sardou Faire l'amour sans tabou aux chanteuses de chansons d'amour Il faut qu'on savoure... Sans perdre de vue le plus précieux Dédié aux mêmes que sur le premier album Si Dieu Veut Et quand on criait dans le désert logés à la même enseigne J'donnerai tout ce que j'ai pour retrouver cette ambiance à l'ancienne Avant on s'amusait, c'est maintenant qu'on galère Avec des responsabilités, gagne ton salaire Faut pas faire que se débrouiller, sauver les femmes et les enfants Je sais pas si tu m'comprends, en tout cas, si tu m'entends... Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer Je sais que vous en avez marre des leçons et de ceux qui les donnent Des rappeurs télévisés qui déconnent et que plus rien n'vous étonne Donc je vais vous donner Don Cho' Avez-vous le sang froid pour François ? Non, c'est trop, pas assez, hum, c'est pas ça, quoi faire ? Laissez-moi retourner toutes les pierres Voir ce qu'il y a de caché derrière N'aie pas peur des vapeurs toxiques Otages de l'industrie comme l'A.Z.F Hommage à ceux qui ont déjà crié pour la F.F Grillé le train pour la F.F C'est pas moi qui paierai l'amende Je suis comme toi, je veux faire mes affaires tranquillement Quand chacun y met du sien ça change les choses Tout a déjà été dit, mais on fait quoi ? Pas grand chose Je suis pas dans les grandes causes, ni dans la polémique Le milieu de la coke, les caïds ou la politique Je veux avoir à tuer personne, même pas toi MC J'me fie à mon instinct, ne dis pas que j'incite Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter le thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer J'ai niqué tout l'budget et j'ai même pas fait l'album Vu qu'c'est Sony qui payait, les gosses de chez moi ont dit C'est la bombe J'ai lancé un concours de rimes, personne n'a gagné J'ai dû mixer du Dadoo, du Rat, du NTM, du Marley Et du Yaniss Odua avec mes textes d'il y a quelques années Secoue-moi tout ça, comme le Mapouka, pas besoin de bazooka Juste un petit cutter, ouvre la cabine de pilotage Les égouts débordent, le sol un marécage Bien puant, chien hurlant, ça devient gluant Terrain brûlant, j'reviens suant, marche sans but Dans la rue en deux-zéro-zéro-deux, merci bon Dieu 2003 sois droit et squatte pas qu'ton pieu Dis-moi si tu m'entends maintenant, mon vieux Que tous ceux qui ne sont pas contents se plaignent en haut lieu Je m'en bats les couilles, je suis vraiment feignant et odieux Laisse-moi juste faire ce que je sais faire au mieux... Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer J'emmerde fonctionnaires, flics et curés Ça t'pose problème ? Va t'faire enculer ! Heu... c'est le petit gars sans gêne Ne mentez pas, vous voudriez que je me calme, non Vous m'préférez rageux jours et nuits Vous voudriez que je me came Tellement j'me dépense, je fais ma vie à l'arrache On veut voir la musique de France découpée à la hache Trancher la langue de Garou, rouler en camion sur Sardou Faire l'amour sans tabou aux chanteuses de chansons d'amour Il faut qu'on savoure... Sans perdre de vue le plus précieux Dédié aux mêmes que sur le premier album Si Dieu Veut Et quand on criait dans le désert logés à la même enseigne J'donnerai tout ce que j'ai pour retrouver cette ambiance à l'ancienne Avant on s'amusait, c'est maintenant qu'on galère Avec des responsabilités, gagne ton salaire Faut pas faire que se débrouiller, sauver les femmes et les enfants Je sais pas si tu m'comprends, en tout cas, si tu m'entends... Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer Je sais que vous en avez marre des leçons et de ceux qui les donnent Des rappeurs télévisés qui déconnent et que plus rien n'vous étonne Donc je vais vous donner Don Cho' Avez-vous le sang froid pour François ? Non, c'est trop, pas assez, hum, c'est pas ça, quoi faire ? Laissez-moi retourner toutes les pierres Voir ce qu'il y a de caché derrière N'aie pas peur des vapeurs toxiques Otages de l'industrie comme l'A.Z.F Hommage à ceux qui ont déjà crié pour la F.F Grillé le train pour la F.F C'est pas moi qui paierai l'amende Je suis comme toi, je veux faire mes affaires tranquillement Quand chacun y met du sien ça change les choses Tout a déjà été dit, mais on fait quoi ? Pas grand chose Je suis pas dans les grandes causes, ni dans la polémique Le milieu de la coke, les caïds ou la politique Je veux avoir à tuer personne, même pas toi MC J'me fie à mon instinct, ne dis pas que j'incite Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter le thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hé on est encore là, yeah ! On dit indépendants quoi qu'il arrive Y a que des enfoirés Moi, c'est hé Joey hé pour le B.O., quoi qu'il arrive Hé t'inquiète ! Hé, on est là pour foutre ça sans dessus dessous Bordéliques, whaaa Un jour la misère gèle ton cul et la vie te défie Ça te rend plus philosophe, plus cru qu'Henry Lévy Dire qu'on veut en faire des criminels, coupables de subir la crise T'as vu la bâtardise depuis que Sarko sévit ? Moi je dis mollo, trop de gens ont la tête sous l'eau Que Dieu nous pardonne, on fait ce que l'argent ordonne Pourquoi cette misère alors qu'y a assez de rizières ? Pas assez de neurones pour voir qu'y a assez d'euros ? Moi, j'ai bien foiré dans le rap, mais dans le bon sens du terme Je respecte cette démarche, mon rap admire les rap à thèmes Et si je pouvais faire plus, saches que je ferais beaucoup plus K'1 Fry rap, Resto du coeur, déclenchons le processus You might also like Pour le Resto, Popa pose avec le coeur Une rime, un service qui peut prendre de l'ampleur Pour les démunis qui profiteront du bénéfice Ancien ou ne-jeu, tu peux pas test le Project Peace Mec, en guise de maison, un carton sous un pont Sans un pot, gros gratteurs d'euros et ça à chaque saison Z'êtes zen. Nous, pour être heureux, faut qu'on soit plein aux as Mais pour eux, une pièce, un feu, un sourire, une viniasse Tous les jours devant eux on passe, souvent on les mets dans le gess Mais qu'est-ce tu veux qu'on y fasse ? Sadak et fais un geste En bref, pas de toit, pas de bouffe, ni famille Hormis la liberté, y seraient p't-être mieux traités en son-pri Le people crie famine, mais nous parle de quelle faim ? Rien dans la gamelle, ils vivent au jour le jour, ils craignent leur lendemain Juste le temps d'un refrain pour tendre la main aux miens Qui vivent la larme à l'oeil, la main sur l'arme ou le coeur sur la main Allez, lâche un peu de thune, sale jaf ! Je vois que t'es plein de liasses Mais comme d'hab, toi tu lâches ap ouais, regarde ça Pourtant les gens le savent mais ça se passe alors moi je grave Certains te braquent dans le dark et tu te demandes pourquoi, tu brailles J'ai de la peine quand je vois la haine Je vois que l'étrange gêne, or je vois que les trans' se plaignent C'est fort mais les gens crèvent Pendant que ces gens gèlent, s'aiment de-mer, le peuple saigne On a froid, faim, les jeunes sont frades, frais Certains apprennent leur destin au parquet Je suis pas né pour me faire embarquer Trop bradé, je rame trop, je casse ma barque hé C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien Un monde rempli de richesses à la merci de quelques hommes Et des peuples qui s'engraissent et d'autres qui se contentent des restes qu'on leur donne Les Restos du Coeur car le reste a eu peur On veut des gestes et pas juste des promesses, oh feinteurs Je me dois d'être solidaire pour les plus démunis sur Terre Tristes mais solitaires dans toute cette pauvreté qui prolifère Pour tous ceux qui aux yeux des autres ont si peu compté Qui doivent affronter l'indignité, réclament juste un geste de bonté Les choses s'arrangent pas, en 2003, encore des gens qui ne mangent pas Tant que ça t'arrive pas à toi, ça ne te dérange pas, ça change pas Donc le processus se déclenche Quoi de plus à part que de plus en plus font la manche ? En 2003, qui reste en France des gens malades qui meurent de faim Incroyable qu'il y en ait encore qui ne mangent pas à leur faim Ce qu'il m'arrive dans mon train-train, une seule histoire sans fin Système babyphone, un geste aux victimes Nos goûts chics 77 et boutiques Chanel et Gucci... Dis-moi qui a tué Michel Colucci Le gouvernement ne fait rien pour ceux qui dorment dehors L'été y les laissent galérer, l'hiver y ramassent les corps Ecorché par mes échecs, la poisse je l'ai pas semée Je veux brasser sans qu'on me passe les putain de bracelets Ça me lasse mais j'ai pas le droit de laisser abattre Car je pense à ceux qui souffrent et qui n'ont pas de toit De plus en plus on mendie. Comment dire que le gars qui commande, y doit être barge Qu'est-ce vous en dites ? C'est Babylone, c'est splendide On peut écrire plus de cent titres sur ça mais sans hit Ou on peut graille en restant transit, regarde et penses-y Peu de gens se doutent, la misère s'engendre des gares aux parvis L'air perdu, le flair dépourvu de sens, sans abri Là où ils mentent Le nombre de laissés-pour-compte augmente, paix Juste avec un euro, tu peux redonner le sourire On dort mal, mais c'est pas grave on a des frères à nourrir Je suis pas un guerrier au fond, juste un débrouillard Ça n'arrive pas qu'aux autres, faut s'entraider dans ce brouillard Tu peux crier plus fort la vie est belle, y en a encore qui crèvent la dalle Affalés sur le sol, sous un temps de chien à perdre la boule Paraît que la France est tout plein de couvertures sociales Mais sûr qu'ils s'intéressent plus à l'aéro-spatiale On sait que c'est dur, ça bascule Du bonheur à la bavure, v'là l'aventure d'envergure Tout ce qu'on cédait dans la merde pour qu'au fur et à mesure Sois le gardien de mon frère, je veux qu'on se rassure, enfoirés C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien4</t>
+          <t>Hé on est encore là, yeah ! On dit indépendants quoi qu'il arrive Y a que des enfoirés Moi, c'est hé Joey hé pour le B.O., quoi qu'il arrive Hé t'inquiète ! Hé, on est là pour foutre ça sans dessus dessous Bordéliques, whaaa Un jour la misère gèle ton cul et la vie te défie Ça te rend plus philosophe, plus cru qu'Henry Lévy Dire qu'on veut en faire des criminels, coupables de subir la crise T'as vu la bâtardise depuis que Sarko sévit ? Moi je dis mollo, trop de gens ont la tête sous l'eau Que Dieu nous pardonne, on fait ce que l'argent ordonne Pourquoi cette misère alors qu'y a assez de rizières ? Pas assez de neurones pour voir qu'y a assez d'euros ? Moi, j'ai bien foiré dans le rap, mais dans le bon sens du terme Je respecte cette démarche, mon rap admire les rap à thèmes Et si je pouvais faire plus, saches que je ferais beaucoup plus K'1 Fry rap, Resto du coeur, déclenchons le processus Pour le Resto, Popa pose avec le coeur Une rime, un service qui peut prendre de l'ampleur Pour les démunis qui profiteront du bénéfice Ancien ou ne-jeu, tu peux pas test le Project Peace Mec, en guise de maison, un carton sous un pont Sans un pot, gros gratteurs d'euros et ça à chaque saison Z'êtes zen. Nous, pour être heureux, faut qu'on soit plein aux as Mais pour eux, une pièce, un feu, un sourire, une viniasse Tous les jours devant eux on passe, souvent on les mets dans le gess Mais qu'est-ce tu veux qu'on y fasse ? Sadak et fais un geste En bref, pas de toit, pas de bouffe, ni famille Hormis la liberté, y seraient p't-être mieux traités en son-pri Le people crie famine, mais nous parle de quelle faim ? Rien dans la gamelle, ils vivent au jour le jour, ils craignent leur lendemain Juste le temps d'un refrain pour tendre la main aux miens Qui vivent la larme à l'oeil, la main sur l'arme ou le coeur sur la main Allez, lâche un peu de thune, sale jaf ! Je vois que t'es plein de liasses Mais comme d'hab, toi tu lâches ap ouais, regarde ça Pourtant les gens le savent mais ça se passe alors moi je grave Certains te braquent dans le dark et tu te demandes pourquoi, tu brailles J'ai de la peine quand je vois la haine Je vois que l'étrange gêne, or je vois que les trans' se plaignent C'est fort mais les gens crèvent Pendant que ces gens gèlent, s'aiment de-mer, le peuple saigne On a froid, faim, les jeunes sont frades, frais Certains apprennent leur destin au parquet Je suis pas né pour me faire embarquer Trop bradé, je rame trop, je casse ma barque hé C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien Un monde rempli de richesses à la merci de quelques hommes Et des peuples qui s'engraissent et d'autres qui se contentent des restes qu'on leur donne Les Restos du Coeur car le reste a eu peur On veut des gestes et pas juste des promesses, oh feinteurs Je me dois d'être solidaire pour les plus démunis sur Terre Tristes mais solitaires dans toute cette pauvreté qui prolifère Pour tous ceux qui aux yeux des autres ont si peu compté Qui doivent affronter l'indignité, réclament juste un geste de bonté Les choses s'arrangent pas, en 2003, encore des gens qui ne mangent pas Tant que ça t'arrive pas à toi, ça ne te dérange pas, ça change pas Donc le processus se déclenche Quoi de plus à part que de plus en plus font la manche ? En 2003, qui reste en France des gens malades qui meurent de faim Incroyable qu'il y en ait encore qui ne mangent pas à leur faim Ce qu'il m'arrive dans mon train-train, une seule histoire sans fin Système babyphone, un geste aux victimes Nos goûts chics 77 et boutiques Chanel et Gucci... Dis-moi qui a tué Michel Colucci Le gouvernement ne fait rien pour ceux qui dorment dehors L'été y les laissent galérer, l'hiver y ramassent les corps Ecorché par mes échecs, la poisse je l'ai pas semée Je veux brasser sans qu'on me passe les putain de bracelets Ça me lasse mais j'ai pas le droit de laisser abattre Car je pense à ceux qui souffrent et qui n'ont pas de toit De plus en plus on mendie. Comment dire que le gars qui commande, y doit être barge Qu'est-ce vous en dites ? C'est Babylone, c'est splendide On peut écrire plus de cent titres sur ça mais sans hit Ou on peut graille en restant transit, regarde et penses-y Peu de gens se doutent, la misère s'engendre des gares aux parvis L'air perdu, le flair dépourvu de sens, sans abri Là où ils mentent Le nombre de laissés-pour-compte augmente, paix Juste avec un euro, tu peux redonner le sourire On dort mal, mais c'est pas grave on a des frères à nourrir Je suis pas un guerrier au fond, juste un débrouillard Ça n'arrive pas qu'aux autres, faut s'entraider dans ce brouillard Tu peux crier plus fort la vie est belle, y en a encore qui crèvent la dalle Affalés sur le sol, sous un temps de chien à perdre la boule Paraît que la France est tout plein de couvertures sociales Mais sûr qu'ils s'intéressent plus à l'aéro-spatiale On sait que c'est dur, ça bascule Du bonheur à la bavure, v'là l'aventure d'envergure Tout ce qu'on cédait dans la merde pour qu'au fur et à mesure Sois le gardien de mon frère, je veux qu'on se rassure, enfoirés C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien4</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FF, On prend les mêmes et on recommence Tu sais quel genre de vie qu'on relate Dès qu'on s'lance 2000 L'heure des comptes a sonné faut qu'on s'venge Bang, bang C'est FF, Bang, bang C'est FF, Bang, bang, c'est FF J'imagine mal faire de vieux os mais si le contraire s'produit J'm'imagine mal à la tête d'un réseau Refourguer un tas de produits A chacun son truc, j'ai choisi la musique mais ça va pas sans risque Y a tout un tas d'connards et d'losers qui doivent nous jalouser Ils croient que j'ai rien d'autre à foutre que d'partouzer Faire du sport en chambre, tomber du Champ' Claquer un max de blé à bout de champs pour tuer le temps dès que ça m'chante J'ai tenté ma chance sans savoir si elle me sourirait Mon vier, maintenant c'est moi qui m'retrouve envié Ils se disent étonnés de me voir traîner seul en ville Mais j'étais là avant qu'tous s'intéressent de près à ma vie J'veux pas m'plaindre j'connaissais les règles avant d'jouer La partie n'est pas finie qu'beaucoup veulent nous voir échouer J'sais pas si j'suis prêt ou encore loin du but Vu qu'ça devient aussi dangereux et chaud que la chatte d'une pute Si tu n'protèges ni toi ni tes arrières Tu t'mets en danger le mal a une grande soif dure à étancher Y a un tas de pain sur la planche j'peux pas flancher C'est simple me fais pas chier, nous pousse pas à nous fâcher C'est maintenant ou jamais, respect, sinon va-t-on charmer ? Moi j'suis pas venu armé Si la mort donne à la vie toute sa valeur Qui sait les nôtres finiront peut-être enfin par en prendre dès tout à l'heure You might also like Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Tu cherches pas les emmerdes, elles viennent quand même toutes seules Rattrapé par ton passé ou des mecs qui veulent te casser la gueule Qu'est-c'que j'fous au mic? comme Gainsbarre, des petits trous Y paraît qu'j'suis dur ou y paraît qu'j'suis doux, nique tout Pour bien qu'tu comprennes le sens de l'expression Faut-il que je laisse une capote usagée dans ton salon? Traite-moi de salop, Don Cho salement abominable Je m'prend pas pour ton po', j'ai qu'un seul abdominal Rentre dans le coin chaud, on te plaque comme de la gomina Allez, dors comme sur les tables de l'école communale J'arrive et j'dis, c'est qui ce crétin ? Un alcoolique, un petit naïf, un malpoli qui plante un petit canif Si tu savais comment j'leur chie dessus Ils nous critiquent mais connaissent-ils vraiment la vie d'rue J'suis un parmi des millions qui n'en ont plus rien a foutre Arrive incognito comme un fou dans la foule J'préfère aller en studio que faire des trous dans la route J'préfère la classe affaire que faire un tour dans la soute Nos nerfs sont ordinaires pour de simples citadins FF, brûle ça bien si tu t'crois si malin Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Les soirées c'est mince, dingue Mais si tu me voyais en BM, bing On vient braquer tout ça mais sans flingue N'aie crainte, j'viens pas épater la galerie Il faudrait plus qu'une feinte pour stopper ma cavalerie Tu tiens à nous néguer donc on prend le large Coule les sous-marins, nie ceux qui en sous-marin joue les ennemis T'as beau envoyer tes mayday mayday , t'es mal barré Vu qu'personne ne viendra t'aider Ton organisme va serrer, ça va être infernal FF est de retour, on s'doit d'faire mal Ferme-la si t'es pas d'accord avec c'que j'défends Les mecs du béton aiment ça et en s'en servant J'vais pas soigner mon langage pour faire vendre Rapper sur des sons nazes ou sur des airs tendres Fais ton truc maintenant, qui sait où tu seras demain On peut y passer bêtement en un rien de temps C'est maintenant, pousse le son, vas-y fais le dingue Bouge ta viande, n'aie crainte si la température grimpe On est entre nous, entre crèves, entre couz' d'la zone qui ont la fièvre J'suis pas un vendeur de rêves, dédié à ceux qui sont dedans et dehors Sois dans le coup ou hors, ça vient du 13 et pas d'New-York Ici, FF, tu penses connaître la recette mais les choses ne sont jamais c'qu'elles paraissent être Si tu veux nique la fête, on donne l'alerte Pour nos frères, nos surs qui aiment l'ambiance monte parfaite Touche ton front, vois si la fièvre monte Fais pas l'croque-mort mais le croque le monde Sans regrets, sans remords, c'est maintenant à tout moment On peut y passer bêtement Sur Terre, c'est vie pour vie, il pour il, dent pour dent Perds mon clan, ma clique et les autres Ami, si tu aimes le béton, mets la main sur ton cur et vois s'il bat vite Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant</t>
+          <t>FF, On prend les mêmes et on recommence Tu sais quel genre de vie qu'on relate Dès qu'on s'lance 2000 L'heure des comptes a sonné faut qu'on s'venge Bang, bang C'est FF, Bang, bang C'est FF, Bang, bang, c'est FF J'imagine mal faire de vieux os mais si le contraire s'produit J'm'imagine mal à la tête d'un réseau Refourguer un tas de produits A chacun son truc, j'ai choisi la musique mais ça va pas sans risque Y a tout un tas d'connards et d'losers qui doivent nous jalouser Ils croient que j'ai rien d'autre à foutre que d'partouzer Faire du sport en chambre, tomber du Champ' Claquer un max de blé à bout de champs pour tuer le temps dès que ça m'chante J'ai tenté ma chance sans savoir si elle me sourirait Mon vier, maintenant c'est moi qui m'retrouve envié Ils se disent étonnés de me voir traîner seul en ville Mais j'étais là avant qu'tous s'intéressent de près à ma vie J'veux pas m'plaindre j'connaissais les règles avant d'jouer La partie n'est pas finie qu'beaucoup veulent nous voir échouer J'sais pas si j'suis prêt ou encore loin du but Vu qu'ça devient aussi dangereux et chaud que la chatte d'une pute Si tu n'protèges ni toi ni tes arrières Tu t'mets en danger le mal a une grande soif dure à étancher Y a un tas de pain sur la planche j'peux pas flancher C'est simple me fais pas chier, nous pousse pas à nous fâcher C'est maintenant ou jamais, respect, sinon va-t-on charmer ? Moi j'suis pas venu armé Si la mort donne à la vie toute sa valeur Qui sait les nôtres finiront peut-être enfin par en prendre dès tout à l'heure Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Tu cherches pas les emmerdes, elles viennent quand même toutes seules Rattrapé par ton passé ou des mecs qui veulent te casser la gueule Qu'est-c'que j'fous au mic? comme Gainsbarre, des petits trous Y paraît qu'j'suis dur ou y paraît qu'j'suis doux, nique tout Pour bien qu'tu comprennes le sens de l'expression Faut-il que je laisse une capote usagée dans ton salon? Traite-moi de salop, Don Cho salement abominable Je m'prend pas pour ton po', j'ai qu'un seul abdominal Rentre dans le coin chaud, on te plaque comme de la gomina Allez, dors comme sur les tables de l'école communale J'arrive et j'dis, c'est qui ce crétin ? Un alcoolique, un petit naïf, un malpoli qui plante un petit canif Si tu savais comment j'leur chie dessus Ils nous critiquent mais connaissent-ils vraiment la vie d'rue J'suis un parmi des millions qui n'en ont plus rien a foutre Arrive incognito comme un fou dans la foule J'préfère aller en studio que faire des trous dans la route J'préfère la classe affaire que faire un tour dans la soute Nos nerfs sont ordinaires pour de simples citadins FF, brûle ça bien si tu t'crois si malin Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Les soirées c'est mince, dingue Mais si tu me voyais en BM, bing On vient braquer tout ça mais sans flingue N'aie crainte, j'viens pas épater la galerie Il faudrait plus qu'une feinte pour stopper ma cavalerie Tu tiens à nous néguer donc on prend le large Coule les sous-marins, nie ceux qui en sous-marin joue les ennemis T'as beau envoyer tes mayday mayday , t'es mal barré Vu qu'personne ne viendra t'aider Ton organisme va serrer, ça va être infernal FF est de retour, on s'doit d'faire mal Ferme-la si t'es pas d'accord avec c'que j'défends Les mecs du béton aiment ça et en s'en servant J'vais pas soigner mon langage pour faire vendre Rapper sur des sons nazes ou sur des airs tendres Fais ton truc maintenant, qui sait où tu seras demain On peut y passer bêtement en un rien de temps C'est maintenant, pousse le son, vas-y fais le dingue Bouge ta viande, n'aie crainte si la température grimpe On est entre nous, entre crèves, entre couz' d'la zone qui ont la fièvre J'suis pas un vendeur de rêves, dédié à ceux qui sont dedans et dehors Sois dans le coup ou hors, ça vient du 13 et pas d'New-York Ici, FF, tu penses connaître la recette mais les choses ne sont jamais c'qu'elles paraissent être Si tu veux nique la fête, on donne l'alerte Pour nos frères, nos surs qui aiment l'ambiance monte parfaite Touche ton front, vois si la fièvre monte Fais pas l'croque-mort mais le croque le monde Sans regrets, sans remords, c'est maintenant à tout moment On peut y passer bêtement Sur Terre, c'est vie pour vie, il pour il, dent pour dent Perds mon clan, ma clique et les autres Ami, si tu aimes le béton, mets la main sur ton cur et vois s'il bat vite Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C'est du nique-tout les gars, en mission pour Première classe La section nique-tout, Ärsenik, hé yo ! FF, Ärsenik Plus rien n'va si les gars qui font cet art se niquent Premièrement, j'rappe salement et saluement Seulement, dernièrement y a du monde derrière moi y compris de sales mômes Deuxièmement rien à foutre des stars Du moment où Luciano J'aime ça Crée verbalement, vrai également, si des frères flippent on a l'manche. On fait l'fric illégalement sans manche L'extase manque, mes textes marquent si j'smoke FF s'marre sur Mars, tu sais d'qui on s'moque D'où vient l'malaise ? On a toujours les sales rôles D'mande à Malemek, on zonera jamais en sales Rolls J'viens d'en bas les mecs, cette vie underground n'est pas rose. Là où on s'en bat les mecs A Marseille ça d'vient le Far-West et c'est pas drôle J'amène nos potes, la preuve qu'on va niquer l'monopole Et en faire paniquer avec nos noms, mon pauvre Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro Mate la technique, j'évite le non-sens comme un virus Superstar dans l'ghetto ! Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro Mate la technique, une musique pas faite pour 100 personnes mais pour des millions You might also like Celui par qui vient l'scandale, poète vandale En dalo chauffe la dalle ou crève la dalle Sur ta face, j'essuie ma sandale Première Classe, Lino, Luciano en featuring Mon rap un sport de sang, t'es en chien si tu sors du ring J'kick la misère et les autres mendient miséricorde Et tandis qu'ils passent du bon temps, le diable me tend la corde 16 temps pour déchirer alors j's'rai bref, j'irai droit au but, j'dirai merde aux putes. J'greffe mon blaze, chef, mon HF à l'blues FF-Ärsenik et v'là douze mille façons d'mourir J'suis z'def car la rage a chou-rav l'sourire C'est pourrir dans c'trou à rat ou mourir loin du brouhaha S'nourrir d'espérance niquée comme à la roulette Sous la houlette mon staff roule et fait swinguer les zoulettes J'évite les schmits comme les boulettes sur mon satin Dixit Borsalino et le Rat, objectif atteint Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro J'marque la technique, j'évite le non-sens comme un virus superstar dans l'ghetto Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro J'crois qu'on a notre truc à faire, sur rythme la ramener Tu veux nous calmer, man, amène un mandat d'amener Yo, ma hargne se propage, cause du vacarme comme le SIDA N'épargne aucun étage, la rime mon arme, qui décida d'essayer d'nous rayer ? C'est l'heure pour eux d'payer Écoutes mon rap fait pour tailler les pourris en place, déblayer Dieu m'as compris mec, même si j'parle vite, sec comme une détonation. Celle de la F.F, c'est une déflagration A c'qu'on dit d'ma Fonky, c'est tout sauf fade Mais qu'est ce qu'on peut y faire, chef, si même ta femme nous back Du freestyle, c'est ça ma vie mec, nique les mics F.F style, fans de sous secs, shit, skyy, rap rafale, pluie d'pruneaux, avale, Don Choa mitraille, cavale Feu à volonté, sur les be-vi De minuit à 7 heures du mat, j'affûte mes styles jusqu'à l'infini Des lyrics de sniper comme mon pote Soon en graffiti Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro J'marque la technique, j'évite le non-sens comme un virus Superstar dans l'ghetto Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro Mate la technique, une musique pas faite pour 100 personnes mais pour des millions Don Choa, Le Rat Luciano, Lino, Fonky Family, Ärsenik Première Classe, il dit ça, si Dieu veut, un jour aussi nous on sera en place, yeah... Secteur Ä, c'est du nique tout F.F hein, clin d'il, 3ème il, Venom, Carré Rouge yeah La Section nique tout Première Classe, Première Classe, Première Classe Si Dieu veut nous aussi un jour on sera en place Comme dit S.A.T., c'est ma S.N.T, nique tout comme la TNT yeah, Secteur Ä, Fonky Family, Première Classe1</t>
+          <t>C'est du nique-tout les gars, en mission pour Première classe La section nique-tout, Ärsenik, hé yo ! FF, Ärsenik Plus rien n'va si les gars qui font cet art se niquent Premièrement, j'rappe salement et saluement Seulement, dernièrement y a du monde derrière moi y compris de sales mômes Deuxièmement rien à foutre des stars Du moment où Luciano J'aime ça Crée verbalement, vrai également, si des frères flippent on a l'manche. On fait l'fric illégalement sans manche L'extase manque, mes textes marquent si j'smoke FF s'marre sur Mars, tu sais d'qui on s'moque D'où vient l'malaise ? On a toujours les sales rôles D'mande à Malemek, on zonera jamais en sales Rolls J'viens d'en bas les mecs, cette vie underground n'est pas rose. Là où on s'en bat les mecs A Marseille ça d'vient le Far-West et c'est pas drôle J'amène nos potes, la preuve qu'on va niquer l'monopole Et en faire paniquer avec nos noms, mon pauvre Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro Mate la technique, j'évite le non-sens comme un virus Superstar dans l'ghetto ! Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro Mate la technique, une musique pas faite pour 100 personnes mais pour des millions Celui par qui vient l'scandale, poète vandale En dalo chauffe la dalle ou crève la dalle Sur ta face, j'essuie ma sandale Première Classe, Lino, Luciano en featuring Mon rap un sport de sang, t'es en chien si tu sors du ring J'kick la misère et les autres mendient miséricorde Et tandis qu'ils passent du bon temps, le diable me tend la corde 16 temps pour déchirer alors j's'rai bref, j'irai droit au but, j'dirai merde aux putes. J'greffe mon blaze, chef, mon HF à l'blues FF-Ärsenik et v'là douze mille façons d'mourir J'suis z'def car la rage a chou-rav l'sourire C'est pourrir dans c'trou à rat ou mourir loin du brouhaha S'nourrir d'espérance niquée comme à la roulette Sous la houlette mon staff roule et fait swinguer les zoulettes J'évite les schmits comme les boulettes sur mon satin Dixit Borsalino et le Rat, objectif atteint Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro J'marque la technique, j'évite le non-sens comme un virus superstar dans l'ghetto Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro J'crois qu'on a notre truc à faire, sur rythme la ramener Tu veux nous calmer, man, amène un mandat d'amener Yo, ma hargne se propage, cause du vacarme comme le SIDA N'épargne aucun étage, la rime mon arme, qui décida d'essayer d'nous rayer ? C'est l'heure pour eux d'payer Écoutes mon rap fait pour tailler les pourris en place, déblayer Dieu m'as compris mec, même si j'parle vite, sec comme une détonation. Celle de la F.F, c'est une déflagration A c'qu'on dit d'ma Fonky, c'est tout sauf fade Mais qu'est ce qu'on peut y faire, chef, si même ta femme nous back Du freestyle, c'est ça ma vie mec, nique les mics F.F style, fans de sous secs, shit, skyy, rap rafale, pluie d'pruneaux, avale, Don Choa mitraille, cavale Feu à volonté, sur les be-vi De minuit à 7 heures du mat, j'affûte mes styles jusqu'à l'infini Des lyrics de sniper comme mon pote Soon en graffiti Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro J'marque la technique, j'évite le non-sens comme un virus Superstar dans l'ghetto Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro Mate la technique, une musique pas faite pour 100 personnes mais pour des millions Don Choa, Le Rat Luciano, Lino, Fonky Family, Ärsenik Première Classe, il dit ça, si Dieu veut, un jour aussi nous on sera en place, yeah... Secteur Ä, c'est du nique tout F.F hein, clin d'il, 3ème il, Venom, Carré Rouge yeah La Section nique tout Première Classe, Première Classe, Première Classe Si Dieu veut nous aussi un jour on sera en place Comme dit S.A.T., c'est ma S.N.T, nique tout comme la TNT yeah, Secteur Ä, Fonky Family, Première Classe1</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Rxkz I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail The town will bury you alive, dig me out this bitch The love is faker over here, this some counterfeit I was takin' all these shots, and without a grip Now Jayden touchin' more chicken than some flower, shit Look, I make my own decisions small 'cause I'm my mama's son When I come to self, I'm centered like I seen George Washington I'm the center of my team, don't fuck with me, I'm not the one I seen what you really are inside, Jay Eazy got byakugan Or I just know if the sequence has occurred Because it's sort of like catching it is getting simpler I'm good with the signs, no signature Y'all makin' me laugh but my feelings hurt My shoulder not Forest Whitaker You tryna lean on me like I spilled the syrup But Jay don't fuck with people, Jay introvert, you get on my nerves So get off my body, don't want yo' bum ass habits rubbin' off on me I make hella bands off rapping, does it seem like just a hobby? If I talk that talk and back it up every time, is that called cocky? I don't know, I just whip it, Ricky Bobby You might also like I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail Mama moved here for a better life, it's the same for me Still, the devil's makin' deals like NHL free agency But shit get ugly, don't use makeup, nature don't use Maybelline You can take them out the hood, they'll make a hood, so Hood is with them everywhere they go, like Assassin's Creed Upstate don't change nun' but area codes, if you askin' me Look at NBA, they scorin' everywhere, don't matter teams Me, I just wanna get money, be a hero, think Lantern, I'm after Green I hope my message is save the babies if it isn't gonna save your average teen Right now, you think you know though, and you got caught, you kickin' with McAfee Right now, y'all into the same shit, but when it changes, don't grab a tape, we makin' arrangements Look, you're on a path that they are on to So, don't ride with 'em Like no packs of the mongoose, because, look, you are who you keepin' around you Because, look, compromising with mediocrity means that you allow it In that case, any time I give my two cents it's to a felon I'm keepin' it brief with 'em In that case, there's nothin' to unpack, y'all ain't about it I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail</t>
+          <t>Rxkz I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail The town will bury you alive, dig me out this bitch The love is faker over here, this some counterfeit I was takin' all these shots, and without a grip Now Jayden touchin' more chicken than some flower, shit Look, I make my own decisions small 'cause I'm my mama's son When I come to self, I'm centered like I seen George Washington I'm the center of my team, don't fuck with me, I'm not the one I seen what you really are inside, Jay Eazy got byakugan Or I just know if the sequence has occurred Because it's sort of like catching it is getting simpler I'm good with the signs, no signature Y'all makin' me laugh but my feelings hurt My shoulder not Forest Whitaker You tryna lean on me like I spilled the syrup But Jay don't fuck with people, Jay introvert, you get on my nerves So get off my body, don't want yo' bum ass habits rubbin' off on me I make hella bands off rapping, does it seem like just a hobby? If I talk that talk and back it up every time, is that called cocky? I don't know, I just whip it, Ricky Bobby I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail Mama moved here for a better life, it's the same for me Still, the devil's makin' deals like NHL free agency But shit get ugly, don't use makeup, nature don't use Maybelline You can take them out the hood, they'll make a hood, so Hood is with them everywhere they go, like Assassin's Creed Upstate don't change nun' but area codes, if you askin' me Look at NBA, they scorin' everywhere, don't matter teams Me, I just wanna get money, be a hero, think Lantern, I'm after Green I hope my message is save the babies if it isn't gonna save your average teen Right now, you think you know though, and you got caught, you kickin' with McAfee Right now, y'all into the same shit, but when it changes, don't grab a tape, we makin' arrangements Look, you're on a path that they are on to So, don't ride with 'em Like no packs of the mongoose, because, look, you are who you keepin' around you Because, look, compromising with mediocrity means that you allow it In that case, any time I give my two cents it's to a felon I'm keepin' it brief with 'em In that case, there's nothin' to unpack, y'all ain't about it I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ouai jvoulais dire, bon écoute j'voulais dire Cercle Rouge de retour contre toutes les censure possibles, oui j'vais l'dire contre tous ces fils de ...biiip Putain vous faites quoi ? c'est toi Fabien ? Mais non c'est pas moi c'est Jeff Mais arrête c'est Spirit Ouai, ouai c'est tout, à chaque fois qu'y'a une censure, hein, c'est jamais personne J'vais leur dire aussi qu'c'est des encu...biiip Ouai et pas n'prendre pour des c...tuut encore longtemps Eh vous l'faites exprès ou quoi ?biiiiiip Mais mer...biiip fais ch...biiiip... Qui fait du censeur censé Contrôler nos dires, nos raps, nos pensées Sur ce son, soeur, jcompte bien représenter Nos consors, en insensé Déverser les vérités que jrecense et dire tout cque jressens Cest ma vie ça ? alors mles brise pas si tas un 'blème avec FF de Mars' débarque et tcloue lbec, vite fait bien fait Comme des mecs cagoulés Rapper mcolle à la peau tel une sangsue Et ça se sent si jprends une version cash, que jpose dessus A coup sûr, à ce jour, personne mempêchera dlouvrir Tant qude bon et pauvres gens continueront dsouffrir Estimez-vous heureux cest juste des mots pour se faire entendre Jusquà cquon descende ensemble,pour tout foutre à feu, à cendre ! You might also like Me traite pas djeunes à problèmes Juste d'calcineur de pollen Les accrocs aiment le bordel Nos propos lsèment Mais lété est là avant quon sen mêle Heureusement, ici, on te torture pas pour ce que tu as dit Surtout si cest qudes pécadilles Là ça leur plait bien aux PDs Jsuis pas sortit de South Central, ni dnulle part Tu connais ma section, cest du nique tout comme South Park Ou l'historique FF on cherche pas la merde, cest juste le son quon trafique Au mic responsable de massacres comme Elf en Afrique Faut que jparle cash, qulétat sache, quaujourdhui notre rap marche On sacharne à nos vies donc ça fâche les vaches La rue notre repère, on a vu cque vous avez fait à nos pères Travailler pour une misère cest grave On dérange mais dorénavant cest trop tard Comme disent mes potes on a not truc à faire Jchoque les plus fort en grammaire Institution française, ceux qui empochent nos Francs Assis sur une chaise Après faudrait quon staise Nique la musique de France et la censure Qule pays srassure Cercle Rouge - FF, une grosse bavure Yo, il flippe le sas, boom et shoot La censure passe mes textes à la loupe Bosse ton jeu Boy Scout Mission accomplie tant que plane le doute Il faut quma science passe devant Mène devant Sème devant la rage Hé, mais sans laisser de bains dsang On sobstine, faut qula rime contamine Chez lhomme en baggy et blue-jean En France on sexprime, parler devient un crime Le rap est dangereux verbe, argot illicite Cest dans lregard de ses mômes, que la vérité est inscrite Je suis sur la liste de la censure, ils savent que vos oreilles sont séduites Nique la censure, il faut que la vérité soit dite Honnêtement, cest plus de rime pour plus de crimes, maintenant Que la rime est bonne et fine, je connais la bonne combine en ce-Fran De qui sont, ces balles qui sifflent sur nos têtes ? Ces préfets qui décrètent, arrêtent des lois façon chasse ouverte Parce que jsème ma graine dans leur jardin secret Pousse comme le cannabis dans leur paradis parce que jcréé La rime qui gêne, la rime qui chatouille Les consciences, mes douilles Par tes patrouilles, ta douce France part en couille Là où ça pense ça dérange Là où ça rappe ça démange La vie se mélange à lart et le mien est lécho des coups quon smange On boycotte ma prod, empêche ma plume de taffer Pour sinstaller, lautocratie passe par lautodafé On brûle les disques indésirables, les films indésirables Le genre douvrage qui inspirent les inquiétudes comme le sourire du Diable Jte promets nous on sfera plus en-lec On dira cquon a à dire et désormais ça va cogner sec Il est temps que le underground ouvre sa gueule La réalité au mic, jla donne pour ceux qui veulent Pour ceux qui tisent la bonne rime fraîche des MC's Qui toastent avec intelligence et savent cquil disent De lombre je suis sortit, désormais tes avertit Face aux grands dce monde, la vérité sort de la bouche des ptits Jaurais pu quer-bra, vivre de quage-bra Puis finir enchaîné comme Kounta Me réveiller et dire quma vie coûte à Une erreur de jeunesse mais cest pas lcas Jai choisit, de faire du peur-a hardcore sans faire de sentiments Car dans la rue pas dcharabia, avec lEtat cest la carotte quon sprend Alors la censure, rien à foutre dénonce, shoote dans ltas Enfonce lEtat, resserre létau, prononce la vendetta Le malaise faut ldécrire et puis tant pis si ça empire La merde en France cest pas nous qui lavons créée, alors pourquoi smentir LEtat nique sa même si sa mère jla connais pas Jserais certainement pas ldernier à lavoir violée dans un dmes peu-ras Crois-moi, jai la haine aucun vaccin ne pourra me calmer Et sache que lpoids dmes mots ça équivaut à 50 000 tures-voi cramées Rap corsé, langue française pour multicolore Jeunesse blessée, remplie de blessures, déçue par le tricolore Cest plus on censure Eben, quEben sait plus ses peu-ra Jveux pas surfer entre les problèmes, jveux carrément foncer dans ltas - Eh Spirit stoppe la musique, stoppe la musique Spirit Stoppe ça, stoppe ça Eben Attends tu crois vraiment là qujai été hardcore ? qujai représenté le texte au maximum, là ? - Tu vois, jcrois qutaurais pus rentrer un peu plus dans lfond du sujet, tu vois un peu plus bien dedans - Plus hardcore encore ? - Ouais, ouais, encore, vraiment tu vois Rappelle-toi Fabius sang-contaminé... Aucune censure ! Le Pen les camps dconcentration, un détail... Aucune censure ! Quand pour Chirac il y a des mauvaises odeurs... Aucune censure ! Quand les keufs flinguent des jeunes dans lcommissariat Aucune censure ! Lhistoire des sans-papiers, homme politiques Aucune censure ! Qules chômeurs sfont per-ta par les CRS Aucune censure ! Quand ces mêmes CRS foncent-dé une église Aucune censure, aucune censure, aucune censure On la reçoit comme Jean-Marie en Martinique Gauche-droite, moi jopte pour lactivisme Micro-organism Bou-A stoppe Tout pacifisme, thèse massive 9-8 jreprends mes droits en 16 mesures Extrémiste, subversif, bref contre lEtat Polémiquer, jai plus ltemps faut qutu saches ça Quand la voix nsuffit plus à sfaire entendre faut des actes, moi Dans ma chambre jproduis des bombes artisanales Donc range tes textes et fais dmême, cest facile dailleurs jai àl Sous les yeux dquoi faire craquer ta cité Sauter des têtes sitôt qujaurais ajouté le clou du spectacle à ce plan dmaître Faire participer lEtat à mon trip, mon but Faire en sorte quil mette le couvercle sur ma cocotte-minute Que vite la pression monte, compte-à-rebours enclenché Cest dors et déjà trop tard pour désamorcer Dun premier ou second degré ? Maintenant à toi de voir Mais sache que nombreux sront brûlés quand la vérité éclatera Ya trop denjeux, les jeunes qui prennent le mic sont trop dangereux LEtat me censure quand je veux cracher des vérités, vieux Ils ont trop dchoses à cacher, moi jai trop dchoses à dire Jpeux pas laisser faire un Etat qui veut interdire Toute forme dexpression de not part Quelque part, je comprends ça leur ferait peur de voir des lascars qui ont raison Et pour ceux qui ont pour vision de nous foutre en prison Sachez que sur le micro on est plus dun million Jeffraie les pince-cul en cravate, bureaucrate Qui pensent que nous naurons jamais la parole du pas dnos banlieues Un nique la police a autant dimpact que les balles dun gun Et si jdis nique la police, cest nique la police dans la tête de 300 000 jeunes Tous unis par les mêmes propos le temps dun morceau Mobilisés pour léveil des esprits bluffés par linfo Info filtrée, réseaux politiques, lEtat balise Si tous les groupes salliaient et se mettaient en cellule de crise Jaccouche mes textes dans la douleur ils veulent que je me taise Trop dmecs qui bougent contre le stylo ils veulent que je me taise Jdeale des mots pas dla came che-lou ils veulent que je me taise Que je me taise ? là le silence a lodeur de la baise Contrôles de condés hagards hein ! Tu veux que je dise quoi hein ! Que je reste cool, à laise dans mes Cortez hein ! Que je dise rien ! Finir plaqué au sol comme un Comorien Que laffaire stasse comme une liasse Que le français moyen ne voie rien Moi on me dicte pas tout Mon nique tout, cest du nique tout Mes 400 coups sont mes 4351 coups Tas le droit de dire ce qui est dit, décrire ce qui est écrit Pour eux le rap cest comme toubib prends ce quon tas prescrit On te pique tout lEtat un Picsou, qui sarrête pas à tes sous Et qui te brûle, sans dessus-dessous Double-Delta, Cercle-Rouge, cette fois-ci on brûle tout On rase tout Black PPDA alias Dadoo Et dire que je me plaignait en cours quand mon prof voulait pas que jouvre ma bouche Et dire que je me plaignait en cours quand on disait que mes textes étaient louches Le rap, le seul moyen dexpression pour H2O Jai lâché toutes mes tripes pour ce putain dsoit-disant fléau Et maintenant on ose me dire que ma zique est une musique à part Son à part de ptits délinquants finissant dans un rempart Tout lmonde sait qule rap dérange mais que veux-tu cest comme ça On nous prends pas encore au sérieux mais tinquiètes ça viendra Pour linstant je prie dur que ma zique monte et nique tout Au nom du Kappa Double Delta, H2O rappe un point cest tout Un jour tu susurre un track-show Quelques journaux tchient dssus Mais lvent tourne et plus tard un gars te tire dssus À quoi ça rime deux rimes seules ? Sonne autant devine, jbombe le torse Même si sur mes textes le ciel tombe Jbrandirai tout cqui a fait notre amitié, Sako LEtat mfait peur comme létat des miens mfait pitié, pain-co Et qumon son sur les murs et les mots servent Quon mcensure mes mots dserf Tu aurait vu dlà, ma faim dsans mesure Si le vieux lchangent, pas les vies Les mêmes ptites gens dans les faces Pleines dplis sur les mêmes pigeons Une plaie dculture nous nargue Notre art lunique chance de vendetta Comme les énarques qui niquent, narguent, font lAmérique State Dans les mairies qu'ces gars briguent Mon rap irrite parce quil se mêle dce qui gêne Et puis dquoi on smêle si on smêle pas dce qui gêne Ils ont fait dnous Sako et VenzeChill Ça compte et ??? Leur dire quon était des gosses bien ? ils en ont rien à foutre ! Comme ils en ont rien à foutre, quon ait rien dbien à foutre Comme on saccoutre ça choque leur murs Mais qui sait des pervers pleins dfoutre Par ces vers quils aillent tous se faire foutre Nous somme les Maures sur le drapeau Sarde Bâillon sur le paupières, le drapeau stargue Et nos vies sentent le graillon, à ce stade à quoi bon ? Ya quoi dbon si on sla ferme ? Si on slâche ferme, on slâche plus, jveille avec un schlass ferme Le silence implicite, complicité La chasse est ouverte, schlass à tout va Les penseurs leur camp sserre Les dents des censeurs, serre leur poings Ils veulent nous tuer parce que le mot les tue Rentrer ces voix dans nos gorges Qutout soit clair comme leau droche Jcrierai sur les toits quici pour qules bouches sferment On corrompt les curs, mes coups seront de courts textes Lécho des cris dmon âme Ldécor décrit nest pas fictif même si dès quon ldécrit Qupléthore des kleenex des curs écrits pour quil renaisse enfin Al belek quand le Arbi sy met Aucun simulacre. La censure massacrer lhomme à abattre Ainsi que, tous ceux qui ont le parler-haut trop vrai Les mecs trop près du réel qui nromancent pas les faits Ceux qui nrenoncent pas, les vrais Qui côtoient linjustice de près Ceux pour qui la misère na pas dsecret Mais créent des textes qui éveillent les consciences Dès lors, ça créé ltrouble dans lcerveau du schmidt gueulard Alors dis-leur qulheure est venue pour nous dlouvrir De tout dire, la censure quil aillent tous mourir Ils mfont surtout rire quand ils parlent dnous censurer Nous on crie, juste haut et fort ce que lélite nous fait endurer Joue les curés quand il sagit de nous, ça Quand Madonna montre son cul, là, ils applaudissent tous debout Le pouls à 140, ils rêvent dy mettre leur carotte Encore une bande de crâneuses qui joue les propres Tu ne tariras pas mon activité Main mis de côté Nassagira pas ma verve critique Mystik, dune autre école, dun autre bahut Que du chahut Je nfais quchanter les peines et les espoirs, les surs, les frères quya eu En scred, mon esprit est libre, vibre On veut mfaire fermer ma bouche car jtouche leur fibre Comment écrire quand les interdits tombent plus vite Que les caractères dun télé-script Quand nos films, nos textes, nos pensées me tètent, irritent Finis les bruits silencieux, même sse-lai, seul et scellés en solo Debout dans les roues jai lbon essieu Je suis dceux qui au micro niquent le décor Le transistor, au micro sonore, empêche ces messieurs de mi-dor À chaque attaque jbrûle vos droits dvéto Lève létendard de révolte comme létau Mon blaze me trahit Javance à tâtons avec le Cercle le plus haït On a des comptes à régler au pays dla liberté des censeurs Cest sincère ma section va saigner même si lon sen sort Les infos durent toujours une demi-heure à la télé Déclarent des contre-vérités Au J.T. lagité fait vent dEtat Les médias méditent sur que fait la police et lboycotte Quitte à cacher la réalité du monde et toffrent un bon colt Jmène mon enquête sur ma quête et pas dpitié pour les estampes Pour certains cest lfestin La mort en empestant le teston des plus démunis Cest à la pauvreté qujfais référence Ils voudraient qujla ferme alors quà peine commence ma conférence Jparle et jdis cque jai à dire forcé quça fasse grincer les dents La prise de position cest chaud selon la couleur dlépiderme Beaucoup aimerait mentendre chanter il court, il court, le furet Les moralistes de la France profonde de Monsieur lcuré Jbalance ma purée, j'évolue dans un style épuré En featuring avec le Cercle Rouge on détruira nos adversaires Ils veulent me scotcher la bouche Ils se touchent Mes speechs mettent de lordre, mes textes mordent Je gêne et sème la discorde Ma horde crie révolte, ce mot dordre Mon rap résorbe le désordre Merde la censure nous absorbent Jsuis anti-flic et F.N Nique leur mouvement de haine Les jeunes se plaignent, on baigne dans linjustice Nos stylos saignent Jlève mon majeur, jfais couler dlencre Ils veulent clouer mon bec ces cancres Jdéfonce la porte pour que la vérité entre Dans ma triste époque, jdéfends la cause de mes tristes potes Censure ou pas peu importe, jplace mes idées fortes Le flic faf nest pas une légende, il faut quon sdéfende Les gens qui commandent veulent couper mes jambes et couper ma langue LEtat nous berne, le mot nique devient mon terme Jdis cque jaime, le soin cest cque jaime Pas moyen qujme prosterne Jreste fort, jmarche encore, parle encore, gueule encore Tant quya désaccord, jrappe encore, jrappe encore La France veut m'bâillonner, me faire taire, mempêcher d'parler Ceux qui la gouverne savent que de ma bouche peut venir le danger J'pense trop, je gêne trop, la France censure mes propos À coup d'procès, coups d'matraque et d'bombes lacrymo On s'organise, papy La France flippe, papy Le mouvement d'masse fait peur, la pression monte, papy Bien, on amplifie les cris d'rage d'une jeunesse Promesse, les voitures brûlent de Strasbourg jusqu'aux tess' de l'Est C'est feu et cendres Ici, tout l'monde veut s'faire entendre La foule se mobilise, les casques de CRS vont s'fendre J'lutte pour mes convictions, céder sur seule solution Contre-censure, pression, féroce Niro en mission Ménélik, MNLK World-Disney, 24 carats Souviens-toi cest lgars qui fait la te-fê même quand ça va pas Jveux une musique plurielle, loin des envieux Que penser des gens qui pensent que le Hip Hop est à eux Si la censure est laction de faire taire les autres Très bien pourquoi faire le ménage ailleurs faisons le notre Bon ben, le premier qui sur mon texte posera une rature, se sera censure Ça coule de source tellement c'en est sûr Ai-je le droit ddire que je naime pas qutu tappelles Nique Ta Mère ? Si tu mfais taire cest sûr quil y aura dla censure dans lair Quand S préfère jouer les groupes signés sur major Est-ce de la censure, hein ? dis-moi si jai tort Arrête la langue de bois, maintenant il faut mdire de quoi il sagit Mes gars sagitent, mes beaux discours nles arrêtent pas Trop dnégro qui croient posséder la science infuse Trop dD.A. kiffent signer le beurre à profuz Trop dmédia qui à force de sucer, la bouche susent Trop dmajor qui prennent la tendance comme une muse Jai du succès, cest vrai, je sais, mais si jtombe personne me loupe Saloperie de censure, faut savoir cracher dans la soupe Pamphlet numéro 1 Ménélik Je pense cque jdis, donc jdis cque jpense Impossible de me stopper dans mon élan, première sentence Rytmo, pour abolir la censure Jtable sur les mots, finis les blessures De carrière et dégaux Ya pas deffets sans causes, une cause commune Tous pour la même cause, on cause jusquà lover-dose Ya comme une odeur, une pression sur la liberté dexpression Ils veulent refuser au public nos prestations Moi jveux dlaction dans mes textes de rap pour des lyrics Toxiques, explosifs, corrosifs, on changera pas les armes nos lexiques Hé, ils veulent nous voir les nerfs à vif À bout dnerfs, ils veulent nous voir vénèr À bout dsouffle, ils veulent et merde, mais quest-ce quelle a ma gueule ? Elle plait pas aux bâillonneurs haut-placés Message sous forme de baillonnette pour les déplacés Placer bientôt, lÂme du Razwar pour briser létau LAme du Razwar bannit lvéto Piqûre de tranquillisant comme au véto On mcensure de quoi slever tôt On msusurre que jai pas dbol, con Ils sont sûrs quils veulent me trôle-con Sassurent qumon co fasse pas trop lcon Trop jparle, quitte à être peu Des lyrics blindés, phrases subliminales Ben quoi ? tas lair surpris minable ! Quand on veut poucave des scoops Tout-ltemps on stéléscope Les ondes, les antennes scoupe Délie ta langue ou j ripe tels les scouts Puis écoute bien dire fait rire, bien faire fait taire Cest lfoutoir, lÂme du Razwar fouteurs de merde A bon entendeur demi mot Y mreste trop dcostars à tailler, les mettre à nu comme dans Streap-Tease, Demi Moore LInsomniak au mic' splace, spose Fais-moi grâce, jcause, jexplose le CSA Puis mes sujets jexpose Une grande cause impossible dtenir ma langue de mtaire Les baillons, les illères nous servent de batailles en hiver Lair de rien je signale éclaboussures, blessures LInsmoniak, lafflux dfissures, méfie-toi dla morsure Du scorpion, qui retombe sur ses pattes Qui pète le score et lpion tmet en échec et mat Leur vocal blesse, le total stress Ce sont des pestes, aussi tordues qula lettre S Les conflits confirment ma face aride Jsuis lardent défenseur aux arguments torrides 6-6-6 fois 3 font 1-9-9-8 Course poursuite du fils durant les trois 8 De chez White et Spirit, la vérité sébruite Les MCs restent les furets par qui passent les fuites Caméra, média sur mes pas Textes surveillés à la loupe de haut en bas De fond en comble, les mots des rappeurs sont guettés Boycottés, les bâtons dans les rues jles bouffe pour mieux les cracher Vomir cque jai envie ddire, ma direction Érection ou injection de rimes ma protection La ligne de conduite, fil conducteur Noyau, vif du sujet, cest là qujvais Et si on mroule je roule dessus, obligé Driver cest mon nom, quand jveux cracher, jcrache La censure va snoyer dans mon molard, quelle le sache Tu peux pas mempêcher de dire cque jai à dire Ma langue est libre et pour toi cest ce quil y a de pire Laissez-moi assurer Ya pas dblanc sûr et on est censuré Linformation circulera quand même sans censurer certains Faut se taire, bah, nique sa race, jfais mon job cest des News fraîches que les SF pêchent aux quatre coins du globe BDB OOGY car on acte dans la même bataille La censure fait quon a toujours pas dmaille Se serait con qujtravaille donc de tfaçon, garçon On sen bat les couilles, mon crew prépare son combat Et les gros tron-pa mordront à lhameçon Constamment les médias médisent sur le mouvement Une mode à coups de vent mais ça fait déjà 10 ans 10 ans quon peut sy exprimer, soi-disant Cest pas nouveau donc on chie dedans Et prie pour voir un jour le CSA les pieds devant Jdis cque jvis, jvis cque jvois Mcensurer pourquoi ? SoldaFada, black bazooka, rap renégat Opposé à tout quota en France Le rap en télésurveillance Donc ta bienveillance, yeah, on passe outre Autorité, juges, censeurs, rien à foutre Donc, cest parti, jte mets tout sur étalage comme un Pakistanais Papy jconnais, les Victoires de la Musique ce sera jsais pas qui ctannée Pas dpistonné Nakk, Nakk veut pas quon lbâillonne Dac', dac' chaque claque de nous en fait du rap tout-terrain 4x4 Ils niquent ma musique, ça mamuse, les muselières Sont pour nos gueules, jsuis ému ils ont même lu Molière SoldaFada, tu mdiras, ils sont débiles ceux-là Pour eux jsuis plus proche de Mamadou lZoulou que dÉmile Zola Avec White et Spirit, une version adéquate et jtirrite Quoi tes stérile ? taccouche pas, mon micro de 500 Watts est terrible Prendre les armes ben jsais pas. On hésite Ils ont mis des chaînes à mes ancêtres, faut pas quil mettent des chaînes à ma musique Et on verra, qui fait lcon, qui paiera Ça on lsaura, quand la majeure partie des majors participera1</t>
+          <t>Ouai jvoulais dire, bon écoute j'voulais dire Cercle Rouge de retour contre toutes les censure possibles, oui j'vais l'dire contre tous ces fils de ...biiip Putain vous faites quoi ? c'est toi Fabien ? Mais non c'est pas moi c'est Jeff Mais arrête c'est Spirit Ouai, ouai c'est tout, à chaque fois qu'y'a une censure, hein, c'est jamais personne J'vais leur dire aussi qu'c'est des encu...biiip Ouai et pas n'prendre pour des c...tuut encore longtemps Eh vous l'faites exprès ou quoi ?biiiiiip Mais mer...biiip fais ch...biiiip... Qui fait du censeur censé Contrôler nos dires, nos raps, nos pensées Sur ce son, soeur, jcompte bien représenter Nos consors, en insensé Déverser les vérités que jrecense et dire tout cque jressens Cest ma vie ça ? alors mles brise pas si tas un 'blème avec FF de Mars' débarque et tcloue lbec, vite fait bien fait Comme des mecs cagoulés Rapper mcolle à la peau tel une sangsue Et ça se sent si jprends une version cash, que jpose dessus A coup sûr, à ce jour, personne mempêchera dlouvrir Tant qude bon et pauvres gens continueront dsouffrir Estimez-vous heureux cest juste des mots pour se faire entendre Jusquà cquon descende ensemble,pour tout foutre à feu, à cendre ! Me traite pas djeunes à problèmes Juste d'calcineur de pollen Les accrocs aiment le bordel Nos propos lsèment Mais lété est là avant quon sen mêle Heureusement, ici, on te torture pas pour ce que tu as dit Surtout si cest qudes pécadilles Là ça leur plait bien aux PDs Jsuis pas sortit de South Central, ni dnulle part Tu connais ma section, cest du nique tout comme South Park Ou l'historique FF on cherche pas la merde, cest juste le son quon trafique Au mic responsable de massacres comme Elf en Afrique Faut que jparle cash, qulétat sache, quaujourdhui notre rap marche On sacharne à nos vies donc ça fâche les vaches La rue notre repère, on a vu cque vous avez fait à nos pères Travailler pour une misère cest grave On dérange mais dorénavant cest trop tard Comme disent mes potes on a not truc à faire Jchoque les plus fort en grammaire Institution française, ceux qui empochent nos Francs Assis sur une chaise Après faudrait quon staise Nique la musique de France et la censure Qule pays srassure Cercle Rouge - FF, une grosse bavure Yo, il flippe le sas, boom et shoot La censure passe mes textes à la loupe Bosse ton jeu Boy Scout Mission accomplie tant que plane le doute Il faut quma science passe devant Mène devant Sème devant la rage Hé, mais sans laisser de bains dsang On sobstine, faut qula rime contamine Chez lhomme en baggy et blue-jean En France on sexprime, parler devient un crime Le rap est dangereux verbe, argot illicite Cest dans lregard de ses mômes, que la vérité est inscrite Je suis sur la liste de la censure, ils savent que vos oreilles sont séduites Nique la censure, il faut que la vérité soit dite Honnêtement, cest plus de rime pour plus de crimes, maintenant Que la rime est bonne et fine, je connais la bonne combine en ce-Fran De qui sont, ces balles qui sifflent sur nos têtes ? Ces préfets qui décrètent, arrêtent des lois façon chasse ouverte Parce que jsème ma graine dans leur jardin secret Pousse comme le cannabis dans leur paradis parce que jcréé La rime qui gêne, la rime qui chatouille Les consciences, mes douilles Par tes patrouilles, ta douce France part en couille Là où ça pense ça dérange Là où ça rappe ça démange La vie se mélange à lart et le mien est lécho des coups quon smange On boycotte ma prod, empêche ma plume de taffer Pour sinstaller, lautocratie passe par lautodafé On brûle les disques indésirables, les films indésirables Le genre douvrage qui inspirent les inquiétudes comme le sourire du Diable Jte promets nous on sfera plus en-lec On dira cquon a à dire et désormais ça va cogner sec Il est temps que le underground ouvre sa gueule La réalité au mic, jla donne pour ceux qui veulent Pour ceux qui tisent la bonne rime fraîche des MC's Qui toastent avec intelligence et savent cquil disent De lombre je suis sortit, désormais tes avertit Face aux grands dce monde, la vérité sort de la bouche des ptits Jaurais pu quer-bra, vivre de quage-bra Puis finir enchaîné comme Kounta Me réveiller et dire quma vie coûte à Une erreur de jeunesse mais cest pas lcas Jai choisit, de faire du peur-a hardcore sans faire de sentiments Car dans la rue pas dcharabia, avec lEtat cest la carotte quon sprend Alors la censure, rien à foutre dénonce, shoote dans ltas Enfonce lEtat, resserre létau, prononce la vendetta Le malaise faut ldécrire et puis tant pis si ça empire La merde en France cest pas nous qui lavons créée, alors pourquoi smentir LEtat nique sa même si sa mère jla connais pas Jserais certainement pas ldernier à lavoir violée dans un dmes peu-ras Crois-moi, jai la haine aucun vaccin ne pourra me calmer Et sache que lpoids dmes mots ça équivaut à 50 000 tures-voi cramées Rap corsé, langue française pour multicolore Jeunesse blessée, remplie de blessures, déçue par le tricolore Cest plus on censure Eben, quEben sait plus ses peu-ra Jveux pas surfer entre les problèmes, jveux carrément foncer dans ltas - Eh Spirit stoppe la musique, stoppe la musique Spirit Stoppe ça, stoppe ça Eben Attends tu crois vraiment là qujai été hardcore ? qujai représenté le texte au maximum, là ? - Tu vois, jcrois qutaurais pus rentrer un peu plus dans lfond du sujet, tu vois un peu plus bien dedans - Plus hardcore encore ? - Ouais, ouais, encore, vraiment tu vois Rappelle-toi Fabius sang-contaminé... Aucune censure ! Le Pen les camps dconcentration, un détail... Aucune censure ! Quand pour Chirac il y a des mauvaises odeurs... Aucune censure ! Quand les keufs flinguent des jeunes dans lcommissariat Aucune censure ! Lhistoire des sans-papiers, homme politiques Aucune censure ! Qules chômeurs sfont per-ta par les CRS Aucune censure ! Quand ces mêmes CRS foncent-dé une église Aucune censure, aucune censure, aucune censure On la reçoit comme Jean-Marie en Martinique Gauche-droite, moi jopte pour lactivisme Micro-organism Bou-A stoppe Tout pacifisme, thèse massive 9-8 jreprends mes droits en 16 mesures Extrémiste, subversif, bref contre lEtat Polémiquer, jai plus ltemps faut qutu saches ça Quand la voix nsuffit plus à sfaire entendre faut des actes, moi Dans ma chambre jproduis des bombes artisanales Donc range tes textes et fais dmême, cest facile dailleurs jai àl Sous les yeux dquoi faire craquer ta cité Sauter des têtes sitôt qujaurais ajouté le clou du spectacle à ce plan dmaître Faire participer lEtat à mon trip, mon but Faire en sorte quil mette le couvercle sur ma cocotte-minute Que vite la pression monte, compte-à-rebours enclenché Cest dors et déjà trop tard pour désamorcer Dun premier ou second degré ? Maintenant à toi de voir Mais sache que nombreux sront brûlés quand la vérité éclatera Ya trop denjeux, les jeunes qui prennent le mic sont trop dangereux LEtat me censure quand je veux cracher des vérités, vieux Ils ont trop dchoses à cacher, moi jai trop dchoses à dire Jpeux pas laisser faire un Etat qui veut interdire Toute forme dexpression de not part Quelque part, je comprends ça leur ferait peur de voir des lascars qui ont raison Et pour ceux qui ont pour vision de nous foutre en prison Sachez que sur le micro on est plus dun million Jeffraie les pince-cul en cravate, bureaucrate Qui pensent que nous naurons jamais la parole du pas dnos banlieues Un nique la police a autant dimpact que les balles dun gun Et si jdis nique la police, cest nique la police dans la tête de 300 000 jeunes Tous unis par les mêmes propos le temps dun morceau Mobilisés pour léveil des esprits bluffés par linfo Info filtrée, réseaux politiques, lEtat balise Si tous les groupes salliaient et se mettaient en cellule de crise Jaccouche mes textes dans la douleur ils veulent que je me taise Trop dmecs qui bougent contre le stylo ils veulent que je me taise Jdeale des mots pas dla came che-lou ils veulent que je me taise Que je me taise ? là le silence a lodeur de la baise Contrôles de condés hagards hein ! Tu veux que je dise quoi hein ! Que je reste cool, à laise dans mes Cortez hein ! Que je dise rien ! Finir plaqué au sol comme un Comorien Que laffaire stasse comme une liasse Que le français moyen ne voie rien Moi on me dicte pas tout Mon nique tout, cest du nique tout Mes 400 coups sont mes 4351 coups Tas le droit de dire ce qui est dit, décrire ce qui est écrit Pour eux le rap cest comme toubib prends ce quon tas prescrit On te pique tout lEtat un Picsou, qui sarrête pas à tes sous Et qui te brûle, sans dessus-dessous Double-Delta, Cercle-Rouge, cette fois-ci on brûle tout On rase tout Black PPDA alias Dadoo Et dire que je me plaignait en cours quand mon prof voulait pas que jouvre ma bouche Et dire que je me plaignait en cours quand on disait que mes textes étaient louches Le rap, le seul moyen dexpression pour H2O Jai lâché toutes mes tripes pour ce putain dsoit-disant fléau Et maintenant on ose me dire que ma zique est une musique à part Son à part de ptits délinquants finissant dans un rempart Tout lmonde sait qule rap dérange mais que veux-tu cest comme ça On nous prends pas encore au sérieux mais tinquiètes ça viendra Pour linstant je prie dur que ma zique monte et nique tout Au nom du Kappa Double Delta, H2O rappe un point cest tout Un jour tu susurre un track-show Quelques journaux tchient dssus Mais lvent tourne et plus tard un gars te tire dssus À quoi ça rime deux rimes seules ? Sonne autant devine, jbombe le torse Même si sur mes textes le ciel tombe Jbrandirai tout cqui a fait notre amitié, Sako LEtat mfait peur comme létat des miens mfait pitié, pain-co Et qumon son sur les murs et les mots servent Quon mcensure mes mots dserf Tu aurait vu dlà, ma faim dsans mesure Si le vieux lchangent, pas les vies Les mêmes ptites gens dans les faces Pleines dplis sur les mêmes pigeons Une plaie dculture nous nargue Notre art lunique chance de vendetta Comme les énarques qui niquent, narguent, font lAmérique State Dans les mairies qu'ces gars briguent Mon rap irrite parce quil se mêle dce qui gêne Et puis dquoi on smêle si on smêle pas dce qui gêne Ils ont fait dnous Sako et VenzeChill Ça compte et ??? Leur dire quon était des gosses bien ? ils en ont rien à foutre ! Comme ils en ont rien à foutre, quon ait rien dbien à foutre Comme on saccoutre ça choque leur murs Mais qui sait des pervers pleins dfoutre Par ces vers quils aillent tous se faire foutre Nous somme les Maures sur le drapeau Sarde Bâillon sur le paupières, le drapeau stargue Et nos vies sentent le graillon, à ce stade à quoi bon ? Ya quoi dbon si on sla ferme ? Si on slâche ferme, on slâche plus, jveille avec un schlass ferme Le silence implicite, complicité La chasse est ouverte, schlass à tout va Les penseurs leur camp sserre Les dents des censeurs, serre leur poings Ils veulent nous tuer parce que le mot les tue Rentrer ces voix dans nos gorges Qutout soit clair comme leau droche Jcrierai sur les toits quici pour qules bouches sferment On corrompt les curs, mes coups seront de courts textes Lécho des cris dmon âme Ldécor décrit nest pas fictif même si dès quon ldécrit Qupléthore des kleenex des curs écrits pour quil renaisse enfin Al belek quand le Arbi sy met Aucun simulacre. La censure massacrer lhomme à abattre Ainsi que, tous ceux qui ont le parler-haut trop vrai Les mecs trop près du réel qui nromancent pas les faits Ceux qui nrenoncent pas, les vrais Qui côtoient linjustice de près Ceux pour qui la misère na pas dsecret Mais créent des textes qui éveillent les consciences Dès lors, ça créé ltrouble dans lcerveau du schmidt gueulard Alors dis-leur qulheure est venue pour nous dlouvrir De tout dire, la censure quil aillent tous mourir Ils mfont surtout rire quand ils parlent dnous censurer Nous on crie, juste haut et fort ce que lélite nous fait endurer Joue les curés quand il sagit de nous, ça Quand Madonna montre son cul, là, ils applaudissent tous debout Le pouls à 140, ils rêvent dy mettre leur carotte Encore une bande de crâneuses qui joue les propres Tu ne tariras pas mon activité Main mis de côté Nassagira pas ma verve critique Mystik, dune autre école, dun autre bahut Que du chahut Je nfais quchanter les peines et les espoirs, les surs, les frères quya eu En scred, mon esprit est libre, vibre On veut mfaire fermer ma bouche car jtouche leur fibre Comment écrire quand les interdits tombent plus vite Que les caractères dun télé-script Quand nos films, nos textes, nos pensées me tètent, irritent Finis les bruits silencieux, même sse-lai, seul et scellés en solo Debout dans les roues jai lbon essieu Je suis dceux qui au micro niquent le décor Le transistor, au micro sonore, empêche ces messieurs de mi-dor À chaque attaque jbrûle vos droits dvéto Lève létendard de révolte comme létau Mon blaze me trahit Javance à tâtons avec le Cercle le plus haït On a des comptes à régler au pays dla liberté des censeurs Cest sincère ma section va saigner même si lon sen sort Les infos durent toujours une demi-heure à la télé Déclarent des contre-vérités Au J.T. lagité fait vent dEtat Les médias méditent sur que fait la police et lboycotte Quitte à cacher la réalité du monde et toffrent un bon colt Jmène mon enquête sur ma quête et pas dpitié pour les estampes Pour certains cest lfestin La mort en empestant le teston des plus démunis Cest à la pauvreté qujfais référence Ils voudraient qujla ferme alors quà peine commence ma conférence Jparle et jdis cque jai à dire forcé quça fasse grincer les dents La prise de position cest chaud selon la couleur dlépiderme Beaucoup aimerait mentendre chanter il court, il court, le furet Les moralistes de la France profonde de Monsieur lcuré Jbalance ma purée, j'évolue dans un style épuré En featuring avec le Cercle Rouge on détruira nos adversaires Ils veulent me scotcher la bouche Ils se touchent Mes speechs mettent de lordre, mes textes mordent Je gêne et sème la discorde Ma horde crie révolte, ce mot dordre Mon rap résorbe le désordre Merde la censure nous absorbent Jsuis anti-flic et F.N Nique leur mouvement de haine Les jeunes se plaignent, on baigne dans linjustice Nos stylos saignent Jlève mon majeur, jfais couler dlencre Ils veulent clouer mon bec ces cancres Jdéfonce la porte pour que la vérité entre Dans ma triste époque, jdéfends la cause de mes tristes potes Censure ou pas peu importe, jplace mes idées fortes Le flic faf nest pas une légende, il faut quon sdéfende Les gens qui commandent veulent couper mes jambes et couper ma langue LEtat nous berne, le mot nique devient mon terme Jdis cque jaime, le soin cest cque jaime Pas moyen qujme prosterne Jreste fort, jmarche encore, parle encore, gueule encore Tant quya désaccord, jrappe encore, jrappe encore La France veut m'bâillonner, me faire taire, mempêcher d'parler Ceux qui la gouverne savent que de ma bouche peut venir le danger J'pense trop, je gêne trop, la France censure mes propos À coup d'procès, coups d'matraque et d'bombes lacrymo On s'organise, papy La France flippe, papy Le mouvement d'masse fait peur, la pression monte, papy Bien, on amplifie les cris d'rage d'une jeunesse Promesse, les voitures brûlent de Strasbourg jusqu'aux tess' de l'Est C'est feu et cendres Ici, tout l'monde veut s'faire entendre La foule se mobilise, les casques de CRS vont s'fendre J'lutte pour mes convictions, céder sur seule solution Contre-censure, pression, féroce Niro en mission Ménélik, MNLK World-Disney, 24 carats Souviens-toi cest lgars qui fait la te-fê même quand ça va pas Jveux une musique plurielle, loin des envieux Que penser des gens qui pensent que le Hip Hop est à eux Si la censure est laction de faire taire les autres Très bien pourquoi faire le ménage ailleurs faisons le notre Bon ben, le premier qui sur mon texte posera une rature, se sera censure Ça coule de source tellement c'en est sûr Ai-je le droit ddire que je naime pas qutu tappelles Nique Ta Mère ? Si tu mfais taire cest sûr quil y aura dla censure dans lair Quand S préfère jouer les groupes signés sur major Est-ce de la censure, hein ? dis-moi si jai tort Arrête la langue de bois, maintenant il faut mdire de quoi il sagit Mes gars sagitent, mes beaux discours nles arrêtent pas Trop dnégro qui croient posséder la science infuse Trop dD.A. kiffent signer le beurre à profuz Trop dmédia qui à force de sucer, la bouche susent Trop dmajor qui prennent la tendance comme une muse Jai du succès, cest vrai, je sais, mais si jtombe personne me loupe Saloperie de censure, faut savoir cracher dans la soupe Pamphlet numéro 1 Ménélik Je pense cque jdis, donc jdis cque jpense Impossible de me stopper dans mon élan, première sentence Rytmo, pour abolir la censure Jtable sur les mots, finis les blessures De carrière et dégaux Ya pas deffets sans causes, une cause commune Tous pour la même cause, on cause jusquà lover-dose Ya comme une odeur, une pression sur la liberté dexpression Ils veulent refuser au public nos prestations Moi jveux dlaction dans mes textes de rap pour des lyrics Toxiques, explosifs, corrosifs, on changera pas les armes nos lexiques Hé, ils veulent nous voir les nerfs à vif À bout dnerfs, ils veulent nous voir vénèr À bout dsouffle, ils veulent et merde, mais quest-ce quelle a ma gueule ? Elle plait pas aux bâillonneurs haut-placés Message sous forme de baillonnette pour les déplacés Placer bientôt, lÂme du Razwar pour briser létau LAme du Razwar bannit lvéto Piqûre de tranquillisant comme au véto On mcensure de quoi slever tôt On msusurre que jai pas dbol, con Ils sont sûrs quils veulent me trôle-con Sassurent qumon co fasse pas trop lcon Trop jparle, quitte à être peu Des lyrics blindés, phrases subliminales Ben quoi ? tas lair surpris minable ! Quand on veut poucave des scoops Tout-ltemps on stéléscope Les ondes, les antennes scoupe Délie ta langue ou j ripe tels les scouts Puis écoute bien dire fait rire, bien faire fait taire Cest lfoutoir, lÂme du Razwar fouteurs de merde A bon entendeur demi mot Y mreste trop dcostars à tailler, les mettre à nu comme dans Streap-Tease, Demi Moore LInsomniak au mic' splace, spose Fais-moi grâce, jcause, jexplose le CSA Puis mes sujets jexpose Une grande cause impossible dtenir ma langue de mtaire Les baillons, les illères nous servent de batailles en hiver Lair de rien je signale éclaboussures, blessures LInsmoniak, lafflux dfissures, méfie-toi dla morsure Du scorpion, qui retombe sur ses pattes Qui pète le score et lpion tmet en échec et mat Leur vocal blesse, le total stress Ce sont des pestes, aussi tordues qula lettre S Les conflits confirment ma face aride Jsuis lardent défenseur aux arguments torrides 6-6-6 fois 3 font 1-9-9-8 Course poursuite du fils durant les trois 8 De chez White et Spirit, la vérité sébruite Les MCs restent les furets par qui passent les fuites Caméra, média sur mes pas Textes surveillés à la loupe de haut en bas De fond en comble, les mots des rappeurs sont guettés Boycottés, les bâtons dans les rues jles bouffe pour mieux les cracher Vomir cque jai envie ddire, ma direction Érection ou injection de rimes ma protection La ligne de conduite, fil conducteur Noyau, vif du sujet, cest là qujvais Et si on mroule je roule dessus, obligé Driver cest mon nom, quand jveux cracher, jcrache La censure va snoyer dans mon molard, quelle le sache Tu peux pas mempêcher de dire cque jai à dire Ma langue est libre et pour toi cest ce quil y a de pire Laissez-moi assurer Ya pas dblanc sûr et on est censuré Linformation circulera quand même sans censurer certains Faut se taire, bah, nique sa race, jfais mon job cest des News fraîches que les SF pêchent aux quatre coins du globe BDB OOGY car on acte dans la même bataille La censure fait quon a toujours pas dmaille Se serait con qujtravaille donc de tfaçon, garçon On sen bat les couilles, mon crew prépare son combat Et les gros tron-pa mordront à lhameçon Constamment les médias médisent sur le mouvement Une mode à coups de vent mais ça fait déjà 10 ans 10 ans quon peut sy exprimer, soi-disant Cest pas nouveau donc on chie dedans Et prie pour voir un jour le CSA les pieds devant Jdis cque jvis, jvis cque jvois Mcensurer pourquoi ? SoldaFada, black bazooka, rap renégat Opposé à tout quota en France Le rap en télésurveillance Donc ta bienveillance, yeah, on passe outre Autorité, juges, censeurs, rien à foutre Donc, cest parti, jte mets tout sur étalage comme un Pakistanais Papy jconnais, les Victoires de la Musique ce sera jsais pas qui ctannée Pas dpistonné Nakk, Nakk veut pas quon lbâillonne Dac', dac' chaque claque de nous en fait du rap tout-terrain 4x4 Ils niquent ma musique, ça mamuse, les muselières Sont pour nos gueules, jsuis ému ils ont même lu Molière SoldaFada, tu mdiras, ils sont débiles ceux-là Pour eux jsuis plus proche de Mamadou lZoulou que dÉmile Zola Avec White et Spirit, une version adéquate et jtirrite Quoi tes stérile ? taccouche pas, mon micro de 500 Watts est terrible Prendre les armes ben jsais pas. On hésite Ils ont mis des chaînes à mes ancêtres, faut pas quil mettent des chaînes à ma musique Et on verra, qui fait lcon, qui paiera Ça on lsaura, quand la majeure partie des majors participera1</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Il paraîtrait qu'nos propos sont violents, mais la vie reste cruelle Comme le viol d'une fille dans une ruelle Un jeune que les flics passent à tabac et vire au violet Vois-tu tous ces gosses qui de plus en plus tôt s'mettent à voler Qu'est-ce que vous vouliez, que j'dise être désolé Mon rap lui restera dur quitte à vous affoler Et si ça te gêne, suce mon goro Depuis qu'j'suis venu au monde, j'ai rien vu d'très beau J'ai vu des potes qui sont tombés très tôt ou très bas Mène un terrible combat, ils jurent de pas s'faire ron-ba Ceux qui comprennent pas dur de pas s'faire baiser Parfois blessés dans leur chair, mais tous prêts à se dresser Ils s'disent agressés quand on livre nos pensées Sur le gouvernement, quand on s'lâche ouvertement Sans retenue, quel intérêt on a à c'que l'ordre soit maintenu Vu qu'leurs promesses sont jamais tenues You might also like Sous haute tension, mais vivants par la grâce du Très Haut Prend l'courant tu r'pars froid ou très chaud Moral zéro, ils s'font rares les héros, on n'a qu'des mots Pour t'secouer comme un rail d'héro L'arme lame d'rasoir, matraque, batte de baseball Chatte mouillée, seins qui bougent et fesses chaudes Série d'électrochocs, transaction d'coke Attente du verdict, réquisitoire du proc' J'entends d'drôles d'histoires mon pote, juste trop vrai J'crie Vive la zone et fuck le progrès J'ai si peu d'essence et tant d'choses à cramer J'ai si peu d'temps avant qu'j'me taise à jamais J'peux pas m'calmer, mec, j'veux la ramener Textes armés d'haine, et sans cran d'sureté T'sais que tout pète, c'est bien dans notre intention Don Choa, FF haute tension Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Qu'est-ce qui est mis sous haute tension ? Baiser une inconnue sans Manix Foutre un suisse dans un neiman de GSX Quand j'commence là où toi tu t'arrêtes Quand y a les civils en face et dans les poches les restes de barrette Vie dure argent et mains sales, frère, ça forge Et d'puis, tu peux pas imginer tout c'que les miens savent faire Faut qu'j'respecte ça fort Trouver l'bonheur là où il est peu importe sa forme Aller chercher les armes, s'retrouver au volant d'un bolide Ou voir mère verser des larmes Tout ça, mis sous haute tension, comme un pompe pointé vers soi Ou apprendre que son môme est en détention Quand la famille a b'soin d'argent et qu'il y a rien C'est comme voir la mort de près, l'éviter de rien Être sous haute tension, quand même, on aime bien Comme chacun des citoyens on veut dominer l'monde dès qu'ça vient On désire produire d'l'effet, profiter Car la vie est la plus grande fortune que Dieu nous ait donnée C'est pas tiré d'un roman mais inspiré d'réels faits Au bon endroit au bon moment et c'est comme ça qu'l'histoire se crée Tu crois avoir affaire aux chanteurs à la croix d'bois 'foiré T'as 4 clebs, toujours aux abois, ouais, enfoiré Ça vient d'Mars, pas celui d'Pagnol Mais d'ces rues qui sentent la tétrahydrocannabinol Merci à Dieu de m'donner ma chance, maintenir mon groupe vivant, entier C'est pas un jeu nous on n'est pas là pour plaisanter Pour c'qui nous ont quitté avant l'heure, c'est à souhaiter qu'ils aient trouvé mieux ailleurs Ce sera pas bien dur ici y a peu d'allégresse Les jours se ressemblent comme deux goutes d'eau ou presque On espère que la misère régresse Mais cette pute brise plus de foyer qu'les maitresses De Mars' on r'part en croisade contre l'état avare C'est la même merde aux 4 coins de France et d'Navarre J'laisserai qui s'mettre en travers de mon groupe de mes buts ? Ni l'fric ni la dope et encore moins une pute Prend le bien ou mal, ça m'est bien égal J'continuerai même s'ils rendaient nos phases illégales T'aimes tant mieux, t'aimes pas tant pis De toute façon qu'est-ce que ça change vu qu'on s'attend au pire FF, y a plus d'enjeu hormis sauver nos peaux Vu qu'vivre par les temps qui courent est devenu dangereux êtes vous prêts Espèces d'enfoirés êtes vous prêts ? Moi j'suis prêt Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension1</t>
+          <t>Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Il paraîtrait qu'nos propos sont violents, mais la vie reste cruelle Comme le viol d'une fille dans une ruelle Un jeune que les flics passent à tabac et vire au violet Vois-tu tous ces gosses qui de plus en plus tôt s'mettent à voler Qu'est-ce que vous vouliez, que j'dise être désolé Mon rap lui restera dur quitte à vous affoler Et si ça te gêne, suce mon goro Depuis qu'j'suis venu au monde, j'ai rien vu d'très beau J'ai vu des potes qui sont tombés très tôt ou très bas Mène un terrible combat, ils jurent de pas s'faire ron-ba Ceux qui comprennent pas dur de pas s'faire baiser Parfois blessés dans leur chair, mais tous prêts à se dresser Ils s'disent agressés quand on livre nos pensées Sur le gouvernement, quand on s'lâche ouvertement Sans retenue, quel intérêt on a à c'que l'ordre soit maintenu Vu qu'leurs promesses sont jamais tenues Sous haute tension, mais vivants par la grâce du Très Haut Prend l'courant tu r'pars froid ou très chaud Moral zéro, ils s'font rares les héros, on n'a qu'des mots Pour t'secouer comme un rail d'héro L'arme lame d'rasoir, matraque, batte de baseball Chatte mouillée, seins qui bougent et fesses chaudes Série d'électrochocs, transaction d'coke Attente du verdict, réquisitoire du proc' J'entends d'drôles d'histoires mon pote, juste trop vrai J'crie Vive la zone et fuck le progrès J'ai si peu d'essence et tant d'choses à cramer J'ai si peu d'temps avant qu'j'me taise à jamais J'peux pas m'calmer, mec, j'veux la ramener Textes armés d'haine, et sans cran d'sureté T'sais que tout pète, c'est bien dans notre intention Don Choa, FF haute tension Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Qu'est-ce qui est mis sous haute tension ? Baiser une inconnue sans Manix Foutre un suisse dans un neiman de GSX Quand j'commence là où toi tu t'arrêtes Quand y a les civils en face et dans les poches les restes de barrette Vie dure argent et mains sales, frère, ça forge Et d'puis, tu peux pas imginer tout c'que les miens savent faire Faut qu'j'respecte ça fort Trouver l'bonheur là où il est peu importe sa forme Aller chercher les armes, s'retrouver au volant d'un bolide Ou voir mère verser des larmes Tout ça, mis sous haute tension, comme un pompe pointé vers soi Ou apprendre que son môme est en détention Quand la famille a b'soin d'argent et qu'il y a rien C'est comme voir la mort de près, l'éviter de rien Être sous haute tension, quand même, on aime bien Comme chacun des citoyens on veut dominer l'monde dès qu'ça vient On désire produire d'l'effet, profiter Car la vie est la plus grande fortune que Dieu nous ait donnée C'est pas tiré d'un roman mais inspiré d'réels faits Au bon endroit au bon moment et c'est comme ça qu'l'histoire se crée Tu crois avoir affaire aux chanteurs à la croix d'bois 'foiré T'as 4 clebs, toujours aux abois, ouais, enfoiré Ça vient d'Mars, pas celui d'Pagnol Mais d'ces rues qui sentent la tétrahydrocannabinol Merci à Dieu de m'donner ma chance, maintenir mon groupe vivant, entier C'est pas un jeu nous on n'est pas là pour plaisanter Pour c'qui nous ont quitté avant l'heure, c'est à souhaiter qu'ils aient trouvé mieux ailleurs Ce sera pas bien dur ici y a peu d'allégresse Les jours se ressemblent comme deux goutes d'eau ou presque On espère que la misère régresse Mais cette pute brise plus de foyer qu'les maitresses De Mars' on r'part en croisade contre l'état avare C'est la même merde aux 4 coins de France et d'Navarre J'laisserai qui s'mettre en travers de mon groupe de mes buts ? Ni l'fric ni la dope et encore moins une pute Prend le bien ou mal, ça m'est bien égal J'continuerai même s'ils rendaient nos phases illégales T'aimes tant mieux, t'aimes pas tant pis De toute façon qu'est-ce que ça change vu qu'on s'attend au pire FF, y a plus d'enjeu hormis sauver nos peaux Vu qu'vivre par les temps qui courent est devenu dangereux êtes vous prêts Espèces d'enfoirés êtes vous prêts ? Moi j'suis prêt Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension1</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Elle avait le teint caramel j'avais la dent sucrée Le désir était trop sportif pour que j'essaie d'lutter vous avez 0 ami en commun Il faut que j'en fasse partie avant qu'elle parte et le tout sans m'incruster Jlai vue comme elle demandait au serveur son résumé Elle sort par la deuxième sortie au fond et pouf! fumée Glisser entre mes doigts comme un objet trop lustré Laissant son prénom sur un Starbucks cup Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était là devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie You might also like So jai glissé ses dm J'sais pas pourquoi jlai fait mais c'est trop tard jsuis dans ses dm eeh merde Mon message devient claustrophobe Coincé sur une petite page blanche il faut que j'me sauve Message à mon image, prisonnier d'un téléphone Qui en oublie sa fonction première à force de traverser l'époque Et y'a aucune porte pour sortir de la messagerie Mais on sait quel type d'humain se tient près de la sortie Mon style de dame à plus classe que cette manière d'approcher en a Elle connait ses classiques mais sait aussi ébrancher un arbre Elle aime B.I.G. mais connait Jeru The Damaja Et elle m'parle de Lunatik si jlui parle de B2oba Elle préfère Gibbs avec Madlib elle a même Pinata en wax Et elle baverait devant mon P-Town autographié par Jazzy Bazz Tu vois c'est ltype de styfe Qu'on rencontre qu'une seule fois Surtout quand tu glisse dans ses dm et qu'elle vague sur toi Dm Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était la devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Allô On s'follow sur instagram depuis wayback Ouin Checkez-moi bien Glisser dans ses dm comme Laurie Blouin Ouin I don't wanna be alone Chanter Sur des airs de violon Devant le feu de foyer En chest comme Joe Rocca Dans l'futur on va appeler ça la belle époque Peut-être même fall in love C'est pas impossible c'est pas impossible Parler jusqu'à oublier cqu'on voulais dire Jveux tlifter sur les pegs de mon bmx Rouler jusqu'à s'perdre dans nos souvenirs Yeah Yeah Check moi bien y dire straight up straight up Check moi bien y dire what's up whats up On s'follow sur Instagram depuis way back Mais elle me répond même pas Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était là devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie</t>
+          <t>Elle avait le teint caramel j'avais la dent sucrée Le désir était trop sportif pour que j'essaie d'lutter vous avez 0 ami en commun Il faut que j'en fasse partie avant qu'elle parte et le tout sans m'incruster Jlai vue comme elle demandait au serveur son résumé Elle sort par la deuxième sortie au fond et pouf! fumée Glisser entre mes doigts comme un objet trop lustré Laissant son prénom sur un Starbucks cup Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était là devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie So jai glissé ses dm J'sais pas pourquoi jlai fait mais c'est trop tard jsuis dans ses dm eeh merde Mon message devient claustrophobe Coincé sur une petite page blanche il faut que j'me sauve Message à mon image, prisonnier d'un téléphone Qui en oublie sa fonction première à force de traverser l'époque Et y'a aucune porte pour sortir de la messagerie Mais on sait quel type d'humain se tient près de la sortie Mon style de dame à plus classe que cette manière d'approcher en a Elle connait ses classiques mais sait aussi ébrancher un arbre Elle aime B.I.G. mais connait Jeru The Damaja Et elle m'parle de Lunatik si jlui parle de B2oba Elle préfère Gibbs avec Madlib elle a même Pinata en wax Et elle baverait devant mon P-Town autographié par Jazzy Bazz Tu vois c'est ltype de styfe Qu'on rencontre qu'une seule fois Surtout quand tu glisse dans ses dm et qu'elle vague sur toi Dm Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était la devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Allô On s'follow sur instagram depuis wayback Ouin Checkez-moi bien Glisser dans ses dm comme Laurie Blouin Ouin I don't wanna be alone Chanter Sur des airs de violon Devant le feu de foyer En chest comme Joe Rocca Dans l'futur on va appeler ça la belle époque Peut-être même fall in love C'est pas impossible c'est pas impossible Parler jusqu'à oublier cqu'on voulais dire Jveux tlifter sur les pegs de mon bmx Rouler jusqu'à s'perdre dans nos souvenirs Yeah Yeah Check moi bien y dire straight up straight up Check moi bien y dire what's up whats up On s'follow sur Instagram depuis way back Mais elle me répond même pas Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était là devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>On vient de là où les gens ont la haine Rap, drogue, putes, crimes et délits On vient de là où les gens ont la haine Marseille et sa production cest Sat Laisse les croire qu'à Marseille le Rap est mort Laisse les dire on les entend plus Laisse-les croire qu'FF c'est mort Quand ça va péter, ça va faire du bruit Faudra rechercher les survivants au milieu des débris Ici personne n'attend de moi que je le sorte de la merde Les gens veulent qu'on les représente Et qu'on oublie pas de dire à quel point c'est la merde Ce truc, c'est plus que de la musique et des mots c'est toute une vie Il en va plus de nous huit mais de l'honneur de toute une ville Crois-le ou pas, mon but c'est pas d'être célèbre C'est de dire ces choses qui auraient pu sortir tout droit de tes lèvres Je me fais aucun film, moi je connais la chanson Je veux pas de la gloire, tôt ou tard faut payer sa rançon Je reste moi-même je la fais à ma façon Ça tombe bien, à ce qui parait les jolies filles raffolent des mauvais garçons Y'en a plein ma section elles seront servies fais courir le bruit on reprend du service On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose You might also like Le Rat Luciano Peu importe le terrain, les conditions Tu connais les règles, y'en a aucune Faut du flair, de la rage et des convictions Tu affrontes ou tu crèves, tu apprends, tu prouves, tu prends ou tu trouves C'est la politique de la cité des rêves, tout à gagner, rien à perdre Tu as oublié mais on est là Un, tres, tu connais, où qu'on aille on fait halla Victoire ou défaite, on défend le scalp et le plumage Un pour la relève, deux pour les pionniers, trois pour ceux qui sont plus là Aux indés sur le chemin de la démerde Aux talents détruits avec des mains faites pour l'or qui trempent dans la merde Nous, c'est le son pour le son, le blé pour le blé, le sang pour le sang Un, très, trait pour trait, 100 vrai pour de vrai Marseille, c'est une bagarre dans la bagarre Du Rap à tous les âges, tous les arts dans les bagages, intransférable, j'ai signé à vie Ce qui est fait est fait, tu peux rien défaire Plume chargée d'encre, je fais feu au nom de ma ville, au nom des frères On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Menzo J'ai pas d'arme, pas d'armée, je suis accompagné de mon équipe 16 mesures pour tout cramer, vider toute ma haine et mes tripes J'ai quitté le dernier wagon, m'installe dans la locomotive Je suis ni le king, ni le patron mais la compétition me motive Aujourd'hui, ils veulent s'en prendre à moi Mon crew et ma ville, wesh, ils croient qu'on est des putes parce que chez nous, on se dit tranquille Nul ne connait la force que renferme Massilia Nous, on s'invite, nous on s'infiltre comme la CIA J'laisse à Dieu le soin de me juger, qui tu es pour me critiquer, nous on est humble On vient pas pour tchatcher, pour tout niquer Y'a qu'en étant soudé, qu'on pourra tout niquer N'écoute pas ceux qui disent que pour réussir faut tous se niquer Sans les miens, je me serais peut-être écroulé Ça pas toujours été drôle durant tout ce temps écoulé On a su tenir le coup on est là Touché c'est pas coulé, ici t'es à Marseille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Don Choa J'entends que ça piaille, ils disent qu'on est die, êtes-vous certains...? Toi, c'est le mec attaché sur les rails et nous c'est le train L'bolide tout terrain, solide, souterrain Nique les hautes sphères un stylo dans le holster Offre aux jaloux un jeu de fléchettes et mon poster J'trace ma route comme la roquette qui shoote l'hélicoptère Speed style kill foster, tu connais mon crew, le son fait danser les loups pas besoin de Kevin Costner Ici y'a pas de frime, y'a plus que des rimes qui puent le crime On s'invite c'est l'heure ultime, c'est des Boeing dans ton building C'est haute tension, c'est hausse le niveau d'un cran, c'est baise la musique en France Nous, on voit les choses en grand, énervés, jamais contents Depuis que le business m'a mordu Je respecte ceux que tu traites de mecs instables et de filles tordues C'est du nique tout pour le tout pour beaucoup d'oseille, on a le son qui te bouffe un bout d'oreille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose</t>
+          <t>On vient de là où les gens ont la haine Rap, drogue, putes, crimes et délits On vient de là où les gens ont la haine Marseille et sa production cest Sat Laisse les croire qu'à Marseille le Rap est mort Laisse les dire on les entend plus Laisse-les croire qu'FF c'est mort Quand ça va péter, ça va faire du bruit Faudra rechercher les survivants au milieu des débris Ici personne n'attend de moi que je le sorte de la merde Les gens veulent qu'on les représente Et qu'on oublie pas de dire à quel point c'est la merde Ce truc, c'est plus que de la musique et des mots c'est toute une vie Il en va plus de nous huit mais de l'honneur de toute une ville Crois-le ou pas, mon but c'est pas d'être célèbre C'est de dire ces choses qui auraient pu sortir tout droit de tes lèvres Je me fais aucun film, moi je connais la chanson Je veux pas de la gloire, tôt ou tard faut payer sa rançon Je reste moi-même je la fais à ma façon Ça tombe bien, à ce qui parait les jolies filles raffolent des mauvais garçons Y'en a plein ma section elles seront servies fais courir le bruit on reprend du service On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Le Rat Luciano Peu importe le terrain, les conditions Tu connais les règles, y'en a aucune Faut du flair, de la rage et des convictions Tu affrontes ou tu crèves, tu apprends, tu prouves, tu prends ou tu trouves C'est la politique de la cité des rêves, tout à gagner, rien à perdre Tu as oublié mais on est là Un, tres, tu connais, où qu'on aille on fait halla Victoire ou défaite, on défend le scalp et le plumage Un pour la relève, deux pour les pionniers, trois pour ceux qui sont plus là Aux indés sur le chemin de la démerde Aux talents détruits avec des mains faites pour l'or qui trempent dans la merde Nous, c'est le son pour le son, le blé pour le blé, le sang pour le sang Un, très, trait pour trait, 100 vrai pour de vrai Marseille, c'est une bagarre dans la bagarre Du Rap à tous les âges, tous les arts dans les bagages, intransférable, j'ai signé à vie Ce qui est fait est fait, tu peux rien défaire Plume chargée d'encre, je fais feu au nom de ma ville, au nom des frères On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Menzo J'ai pas d'arme, pas d'armée, je suis accompagné de mon équipe 16 mesures pour tout cramer, vider toute ma haine et mes tripes J'ai quitté le dernier wagon, m'installe dans la locomotive Je suis ni le king, ni le patron mais la compétition me motive Aujourd'hui, ils veulent s'en prendre à moi Mon crew et ma ville, wesh, ils croient qu'on est des putes parce que chez nous, on se dit tranquille Nul ne connait la force que renferme Massilia Nous, on s'invite, nous on s'infiltre comme la CIA J'laisse à Dieu le soin de me juger, qui tu es pour me critiquer, nous on est humble On vient pas pour tchatcher, pour tout niquer Y'a qu'en étant soudé, qu'on pourra tout niquer N'écoute pas ceux qui disent que pour réussir faut tous se niquer Sans les miens, je me serais peut-être écroulé Ça pas toujours été drôle durant tout ce temps écoulé On a su tenir le coup on est là Touché c'est pas coulé, ici t'es à Marseille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Don Choa J'entends que ça piaille, ils disent qu'on est die, êtes-vous certains...? Toi, c'est le mec attaché sur les rails et nous c'est le train L'bolide tout terrain, solide, souterrain Nique les hautes sphères un stylo dans le holster Offre aux jaloux un jeu de fléchettes et mon poster J'trace ma route comme la roquette qui shoote l'hélicoptère Speed style kill foster, tu connais mon crew, le son fait danser les loups pas besoin de Kevin Costner Ici y'a pas de frime, y'a plus que des rimes qui puent le crime On s'invite c'est l'heure ultime, c'est des Boeing dans ton building C'est haute tension, c'est hausse le niveau d'un cran, c'est baise la musique en France Nous, on voit les choses en grand, énervés, jamais contents Depuis que le business m'a mordu Je respecte ceux que tu traites de mecs instables et de filles tordues C'est du nique tout pour le tout pour beaucoup d'oseille, on a le son qui te bouffe un bout d'oreille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>I saw you walking my way Those hazel eyes, I cant forget That toasted honey skin I melt like ice cream You have me hypnotized To you my lips I cant deny I must admit that I have a crush Have a crush on you Cmon Cmon kiss ma lips And now I want you Want you to want me Im stepping into you Dont wonder what I want And now I want you to want me Dont wonder what I want Just want to boom boom bam And now I want you Want you to want me Dont wonder what I want Just wanna boom boom bam I feel this high electricity Running from your veins to me I feel it on my skin wo-oh You could draw out a new me Oh my gosh, gotta catcha hands on me You might also likeYou have me hypnotized To you my lips I cant deny I must admit That I have a crush Have a crush on you Cmon Cmon kiss my lips And now I want you Want you to want me Dont cha imagine how this could be Im stepping at you Im really into you Dont wonder what I want Just want to boom boom bam And now I want you Want you to want me Dont wonder what I want Just wanna boom boom bam Come over here Cmon cmon kiss my lips!</t>
+          <t>I saw you walking my way Those hazel eyes, I cant forget That toasted honey skin I melt like ice cream You have me hypnotized To you my lips I cant deny I must admit that I have a crush Have a crush on you Cmon Cmon kiss ma lips And now I want you Want you to want me Im stepping into you Dont wonder what I want And now I want you to want me Dont wonder what I want Just want to boom boom bam And now I want you Want you to want me Dont wonder what I want Just wanna boom boom bam I feel this high electricity Running from your veins to me I feel it on my skin wo-oh You could draw out a new me Oh my gosh, gotta catcha hands on me You have me hypnotized To you my lips I cant deny I must admit That I have a crush Have a crush on you Cmon Cmon kiss my lips And now I want you Want you to want me Dont cha imagine how this could be Im stepping at you Im really into you Dont wonder what I want Just want to boom boom bam And now I want you Want you to want me Dont wonder what I want Just wanna boom boom bam Come over here Cmon cmon kiss my lips!</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>J'rappe chaque jour avec l'amour, les nerfs et la folie La haine et la phobie, traîne un air mal poli Réveillez le petit gars sans gène Est-ce qu'il s'est ramolli le frangin ? Prêt à te sortir du lit, je renverse ton hamac Ouvre les yeux en panique, pour les cardiaques Branchez l'assistance mécanique Arnaques, crimes et conflits diplomatiques Je calcine les rimes et la médecine botanique Pas un truc fade ni trop dur, ni trop politique Quoi ? Un truc crade et de la bombe hydroponique Thaï stick... Bad weed, ne pas trop s'approcher Apprécie ces beats où le vieux te jette un rocher Faudrait qu'on se parle avant qu'on puisse plus le faire Que je me libère de mes doutes avant d'avoir un ulcère Attention, sans stress, sur terrain miné À tâtons, on progresse, est-ce que t'es bien guidé ? Papi, écoute cet air macabre Les compagnies pétrolières laissent des tas de cadavres Ça date pas d'hier, même histoire, s'ils se souvenaient Ça s'est passé près de chez toi, juste sous ton nez Si juste on se soutenait, c'est le même vieux couplet Je fais que le répéter Ça suffit pas, c'est dans le mode de vie que ça doit se refléter À chaque instant tu peux remercier et prier Je méditais un moment avant de crier... You might also like Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Anarchie sur toute la planète Agonie, trime, pour une miette de la galette Abolie la frime, le strass et les paillettes À qui profite la crise ? Qui vend les mitraillettes ? Même des gosses ont le doigt sur la gâchette Mais c'est les boss qui ont le fric dans la mallette La cupidité dévore et la chaleur crame Le feu détruit tout leur or et leurs armes Qu'eux aussi paient le prix fort des erreurs Drames en série ton décor bascule dans l'horreur Panique à bord, l'hôtesse se met à prier Je crois que, tout ce qu'il me reste à faire, c'est crier... Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Jouez gros, gagnez gros, perdez gros C'est lÉtat qui ramassera la mise et ça dans tous les cas Comment tu peux dire que jusque là ça va ? Regarde, de pire en pire donc ça s'écroulera Regarde chuter ton empire, le sang retombera Sur la nuque des vampires quand tout vole en éclat Y'a nulle part où s'enfuir, le sol s'ouvre sous tes pas On peut pardonner, oui, mais on noubliera pas Faut garder le sourire et maintenir sa foi Je fais la promo du shit et de la marijuana Mes rêves, c'est pas qu'une vie chic et voilà Si ça te gêne mon bruit Chirac... Bouffe-moi la... Toi, t'es peut-être ivre, nous, on est malade Ne citez pas mon équipe dans vos bla bla Si tu crois que j'incite, dis-moi juste à quoi ? Que les femmes fassent Huh et les mecs crient... Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>J'rappe chaque jour avec l'amour, les nerfs et la folie La haine et la phobie, traîne un air mal poli Réveillez le petit gars sans gène Est-ce qu'il s'est ramolli le frangin ? Prêt à te sortir du lit, je renverse ton hamac Ouvre les yeux en panique, pour les cardiaques Branchez l'assistance mécanique Arnaques, crimes et conflits diplomatiques Je calcine les rimes et la médecine botanique Pas un truc fade ni trop dur, ni trop politique Quoi ? Un truc crade et de la bombe hydroponique Thaï stick... Bad weed, ne pas trop s'approcher Apprécie ces beats où le vieux te jette un rocher Faudrait qu'on se parle avant qu'on puisse plus le faire Que je me libère de mes doutes avant d'avoir un ulcère Attention, sans stress, sur terrain miné À tâtons, on progresse, est-ce que t'es bien guidé ? Papi, écoute cet air macabre Les compagnies pétrolières laissent des tas de cadavres Ça date pas d'hier, même histoire, s'ils se souvenaient Ça s'est passé près de chez toi, juste sous ton nez Si juste on se soutenait, c'est le même vieux couplet Je fais que le répéter Ça suffit pas, c'est dans le mode de vie que ça doit se refléter À chaque instant tu peux remercier et prier Je méditais un moment avant de crier... Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Anarchie sur toute la planète Agonie, trime, pour une miette de la galette Abolie la frime, le strass et les paillettes À qui profite la crise ? Qui vend les mitraillettes ? Même des gosses ont le doigt sur la gâchette Mais c'est les boss qui ont le fric dans la mallette La cupidité dévore et la chaleur crame Le feu détruit tout leur or et leurs armes Qu'eux aussi paient le prix fort des erreurs Drames en série ton décor bascule dans l'horreur Panique à bord, l'hôtesse se met à prier Je crois que, tout ce qu'il me reste à faire, c'est crier... Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Jouez gros, gagnez gros, perdez gros C'est lÉtat qui ramassera la mise et ça dans tous les cas Comment tu peux dire que jusque là ça va ? Regarde, de pire en pire donc ça s'écroulera Regarde chuter ton empire, le sang retombera Sur la nuque des vampires quand tout vole en éclat Y'a nulle part où s'enfuir, le sol s'ouvre sous tes pas On peut pardonner, oui, mais on noubliera pas Faut garder le sourire et maintenir sa foi Je fais la promo du shit et de la marijuana Mes rêves, c'est pas qu'une vie chic et voilà Si ça te gêne mon bruit Chirac... Bouffe-moi la... Toi, t'es peut-être ivre, nous, on est malade Ne citez pas mon équipe dans vos bla bla Si tu crois que j'incite, dis-moi juste à quoi ? Que les femmes fassent Huh et les mecs crient... Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A la salía' de Asturias Y al entrar en la montaña Fabrico mis caramelos Pa yo venderlos en España Caramelos, caramelos Caramelos vendo yo Caramelos, caramelos Caramelos vendo yo Vendo las pastillas de mentol y cocaína Del señor Crespo de fama universal Vendo las pastillas de mentol y cocaína Sigan pidiendo, sigan pidiendo Sigan pidiendo, que esto es barato Vendo las pastillas de mentol y cocaína Que no maltratan la encía No tienen problema con la policía Vendo las pastillas de mentol y cocaína No tengan miedo! Ay! la tos... Vendo las pastillas de mentol y cocaína La ronquera, la tos catarral Vendo las pastillas de mentol y cocaína Quita el cosquilleo, la sequedad y el picor Vendo las pastillas de mentol y cocaína To se va curando chupando, chupando You might also likeAl maestro Don Antonio Chacón que después de cantar toita' una noche estas pastillas le gobernaban la garganta</t>
+          <t>A la salía' de Asturias Y al entrar en la montaña Fabrico mis caramelos Pa yo venderlos en España Caramelos, caramelos Caramelos vendo yo Caramelos, caramelos Caramelos vendo yo Vendo las pastillas de mentol y cocaína Del señor Crespo de fama universal Vendo las pastillas de mentol y cocaína Sigan pidiendo, sigan pidiendo Sigan pidiendo, que esto es barato Vendo las pastillas de mentol y cocaína Que no maltratan la encía No tienen problema con la policía Vendo las pastillas de mentol y cocaína No tengan miedo! Ay! la tos... Vendo las pastillas de mentol y cocaína La ronquera, la tos catarral Vendo las pastillas de mentol y cocaína Quita el cosquilleo, la sequedad y el picor Vendo las pastillas de mentol y cocaína To se va curando chupando, chupando Al maestro Don Antonio Chacón que después de cantar toita' una noche estas pastillas le gobernaban la garganta</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Oh ! Oh ! Enculé ! Docteur ! Docteur ! Laisse-moi sortir ! Oooh ! Ooooh ! Docteur docteur laisse-moi sortir Ou dépêche-toi de me faire une piqure pour m'endormir Oh docteur tu comat' faut te réveiller T'es sous Prozac ou quoi ? Qu'est-ce qui te fait bégayer ? Tu baves, t'as pris trop de somnifère au dessert Moi je tourne à dix joints par jour, j'ai toujours les idées claires Pendant que les flics serrent les dealeurs d'héro' L'industrie pharmaceutique prend le fric des toxicos Ils veulent te rendre accro aux anxiolytiques Pour te garder au chaud dans leurs camisoles chimiques Tout pour que tévite de gamberger Ils ont plus besoin de barreaux pour t'enfermer Ils te donnent ce qu'il faut pour supporter cette vie de chien Et t'as plus besoin de rien d'autre pour te sentir bien Laissez-moi dans mon délire, laissez-moi partir loin Si tout est encore flou, c'est que je suis encore sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale You might also like Docteur, docteur, qu'est-ce que je fais ? Quand l'alcool et la weed me font plus aucun effet Donne-moi ce qu'il faut pour que je pionce comme un bébé Bercé par la défonce et le son de la télé La télé gamin, celle qui nous éduque Vaut mieux que tes parents fassent du fric si tu veux faire des études On te demande pas ton avis, t'as pas choisi ton camp On te prend, on te jette, on t'achète, on te vend On te berne, on te ment, le temps soigne les blessures Refais-moi une piqûre, je m'endors trop lentement On peut s'en sortir, c'est ce qu'ils nous laissent croire Car ils savent comment se comporte une foule qui a perdu tout espoir Ce système formate nos pensées, nos mémoires Comment les croire ? Vous nous racontez que la moitié de l'histoire Chaque jour je me débrouille, j'avance dans le brouillard Et même si je tiens le coup, ils me maintiennent sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale À coups d'propagande ou d'came, ils nous maintiennent au calme Dans nos prisons cérébrales, lobotomie générale Devant un spectacle inhumain on fait comme si cétait normal Ici lhypocrisie, c'est le sport national Les disciples du diable viennent faire les leçons de morale Pour que personne ne différencie plus le bien du mal Traite-moi de cas social, envoie les infirmiers Tu peux me traiter, m'interner, je m'en fous Je dors à poings fermés sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale</t>
+          <t>Oh ! Oh ! Enculé ! Docteur ! Docteur ! Laisse-moi sortir ! Oooh ! Ooooh ! Docteur docteur laisse-moi sortir Ou dépêche-toi de me faire une piqure pour m'endormir Oh docteur tu comat' faut te réveiller T'es sous Prozac ou quoi ? Qu'est-ce qui te fait bégayer ? Tu baves, t'as pris trop de somnifère au dessert Moi je tourne à dix joints par jour, j'ai toujours les idées claires Pendant que les flics serrent les dealeurs d'héro' L'industrie pharmaceutique prend le fric des toxicos Ils veulent te rendre accro aux anxiolytiques Pour te garder au chaud dans leurs camisoles chimiques Tout pour que tévite de gamberger Ils ont plus besoin de barreaux pour t'enfermer Ils te donnent ce qu'il faut pour supporter cette vie de chien Et t'as plus besoin de rien d'autre pour te sentir bien Laissez-moi dans mon délire, laissez-moi partir loin Si tout est encore flou, c'est que je suis encore sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale Docteur, docteur, qu'est-ce que je fais ? Quand l'alcool et la weed me font plus aucun effet Donne-moi ce qu'il faut pour que je pionce comme un bébé Bercé par la défonce et le son de la télé La télé gamin, celle qui nous éduque Vaut mieux que tes parents fassent du fric si tu veux faire des études On te demande pas ton avis, t'as pas choisi ton camp On te prend, on te jette, on t'achète, on te vend On te berne, on te ment, le temps soigne les blessures Refais-moi une piqûre, je m'endors trop lentement On peut s'en sortir, c'est ce qu'ils nous laissent croire Car ils savent comment se comporte une foule qui a perdu tout espoir Ce système formate nos pensées, nos mémoires Comment les croire ? Vous nous racontez que la moitié de l'histoire Chaque jour je me débrouille, j'avance dans le brouillard Et même si je tiens le coup, ils me maintiennent sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale À coups d'propagande ou d'came, ils nous maintiennent au calme Dans nos prisons cérébrales, lobotomie générale Devant un spectacle inhumain on fait comme si cétait normal Ici lhypocrisie, c'est le sport national Les disciples du diable viennent faire les leçons de morale Pour que personne ne différencie plus le bien du mal Traite-moi de cas social, envoie les infirmiers Tu peux me traiter, m'interner, je m'en fous Je dors à poings fermés sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Il paraît que c'est les derniers jours, ça sent l'apocalypse Si tu veux sauver l'amour, prends un très gros calibre Un coup en l'air pour chasser les vautours, la place n'est pas libre Pas de débat, on sait déjà qui paiera les dégâts Je cherche pas à être calife à la place du calife Des fois, il faut se servir du cerveau à la place du canif Mon boulot, c'est pas de faire la morale ou parler de trucs tragiques Tout le monde veut vivre, alors travaille et trafique Va-et-vient, allées venues, descentes et montées, époque tourmentée Quelles sont tes dernières volontés ? Une bonbonne de Rhum, des bonnes chattes qui ronronnent In the jungle Are you ready to rumble ? C'est la lutte pour grailler, on devient fou à lier Don Cho Boomayé ! Que le rap retourne au Hip-Hop, les poules au poulailler Tu sens que ça vient là, ouh, ça y est Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... You might also like Impossible n'est pas ma mission Bouche-toi le nez et prends une longue respiration Ma section arrive, mettez les warnings Oh, danger, panique, orange mécanique I'm singing in the rain, vite dégaine Bientôt la Terre aura l'air d'une ville tchétchène Ils manipulent de l'ADN aux HLM Allez men, il faut traverser la Géhenne J'entends des cris entre cendres et débris Mission cherche et détruis avant que la tempête se déchaîne Le sang a un prix, j'sais pas qui il paiera Tout ce que j'ai compris c'est qui vivra verra Et qu'il y a du blé à se faire, j'aurais tort de manger 2003 sera gore avec trois grands G Et que tu sois pas d'accord, qu'est-ce que ça peut y changer ? Pourquoi je fous mon bordel ? C'est que ça me démangeait Et ce sont les ordres de King Zaman Kill them all et qu'ils aient mal Brûle quelque chose pour qu'on sente que c'est chaud Et qu'on chante tous en cur No, No, No Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... Époque choc et têtes brûlées Liqueur forte, fais fumer Les mecs se grattent les couilles et les filles se touchent les tétés En criant Nique lÉtat ! Nique lÉtat La météo dit Été torride 60 degrés, orage de feu, pluie de météorites C'était horrible répètent les deux seuls survivants Tout en se nourrissant du cadavre radioactif d'un chien errant Buvant de l'eau orange sous un ciel rouge Atmosphère étrange, on dirait que plus rien ne bouge Mais sous tes pas, tu sens tout ce qui grouille ? Cafards, morpions, serpents, scorpions Mets un gros lion ou un tigre dans ton moteur Mon délire va plus loin que le Pape sous Poppers Apocalyptique, chaleur d'enfer Navigue sur le Styx, fais un tour dans la caverne Odeur toxique, ça pue et c'est pas l'herbe Peut-être un MC qui pourrie les tripes à l'air T'as pas l'air en forme, faut pas que tu t'endormes Sinon le démon te nique avec ses grandes cornes Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... Paroles rédigées et expliquées par la communauté RapGenius France2</t>
+          <t>Il paraît que c'est les derniers jours, ça sent l'apocalypse Si tu veux sauver l'amour, prends un très gros calibre Un coup en l'air pour chasser les vautours, la place n'est pas libre Pas de débat, on sait déjà qui paiera les dégâts Je cherche pas à être calife à la place du calife Des fois, il faut se servir du cerveau à la place du canif Mon boulot, c'est pas de faire la morale ou parler de trucs tragiques Tout le monde veut vivre, alors travaille et trafique Va-et-vient, allées venues, descentes et montées, époque tourmentée Quelles sont tes dernières volontés ? Une bonbonne de Rhum, des bonnes chattes qui ronronnent In the jungle Are you ready to rumble ? C'est la lutte pour grailler, on devient fou à lier Don Cho Boomayé ! Que le rap retourne au Hip-Hop, les poules au poulailler Tu sens que ça vient là, ouh, ça y est Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... Impossible n'est pas ma mission Bouche-toi le nez et prends une longue respiration Ma section arrive, mettez les warnings Oh, danger, panique, orange mécanique I'm singing in the rain, vite dégaine Bientôt la Terre aura l'air d'une ville tchétchène Ils manipulent de l'ADN aux HLM Allez men, il faut traverser la Géhenne J'entends des cris entre cendres et débris Mission cherche et détruis avant que la tempête se déchaîne Le sang a un prix, j'sais pas qui il paiera Tout ce que j'ai compris c'est qui vivra verra Et qu'il y a du blé à se faire, j'aurais tort de manger 2003 sera gore avec trois grands G Et que tu sois pas d'accord, qu'est-ce que ça peut y changer ? Pourquoi je fous mon bordel ? C'est que ça me démangeait Et ce sont les ordres de King Zaman Kill them all et qu'ils aient mal Brûle quelque chose pour qu'on sente que c'est chaud Et qu'on chante tous en cur No, No, No Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... Époque choc et têtes brûlées Liqueur forte, fais fumer Les mecs se grattent les couilles et les filles se touchent les tétés En criant Nique lÉtat ! Nique lÉtat La météo dit Été torride 60 degrés, orage de feu, pluie de météorites C'était horrible répètent les deux seuls survivants Tout en se nourrissant du cadavre radioactif d'un chien errant Buvant de l'eau orange sous un ciel rouge Atmosphère étrange, on dirait que plus rien ne bouge Mais sous tes pas, tu sens tout ce qui grouille ? Cafards, morpions, serpents, scorpions Mets un gros lion ou un tigre dans ton moteur Mon délire va plus loin que le Pape sous Poppers Apocalyptique, chaleur d'enfer Navigue sur le Styx, fais un tour dans la caverne Odeur toxique, ça pue et c'est pas l'herbe Peut-être un MC qui pourrie les tripes à l'air T'as pas l'air en forme, faut pas que tu t'endormes Sinon le démon te nique avec ses grandes cornes Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>J'ai qu'un mic comme arme On veut me shooter comme dans Heat J'reste sur mes gardes comme les deux chiens sur mon sweat La nuit ça s'agite, j'entends des bruits de course poursuite, tragique Les p'tits partis de rien veulent tout tout de suite, logique la température monte J'brûle le mic' pour ceux qui l'voudront chaud Tu vois c'qu'on raconte, rien de nouveau sur le goudron chaud Bref comme ça tu veux qu'on s'en sorte, qu'on éclate les portes Sans faire couler le sang, sans que ce soit la joie qu'on apporte Et même si j'rame j'vais rien lâcher tout peut arriver Comme a dit Thuram J'vais rien gâcher Inchallah qu'on se retrouve tous blindés comme à South Fork Imagine, j'aime mes assos' forts Demande à K-Reen, n'épargne pas ta peine Sers-toi de la haine qui t'entraîne même si la vie est parfois dure Car c'est dans les épreuves de la vie tu sais que se forgera ton armure N'écoute pas ceux qui veulent que tu restes dans la même galère Si tu vas jusqu'au bout de tes projets tu verras le bout du tunnel Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne You might also like Jamais ne doute de toi Prends ton destin en main, sors de se sommeil Et puis agis pour demain, toi seul peut faire venir à toi ton propre soleil Va au bout de ton rêve avant que t'en crève va de l'avant Pour aller de l'avant il faut que tu te lèves, n'oublie jamais Si tu vas jusqu'au bout de ce que tu fais, tu réaliseras tous tes rêves Crois-moi, c'est vrai Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne x2 Non, lâche pas N'attends pas Que ton heure sonne Et ouais paix, grâce à Dieu encore libre J'vends ni barrette ni Beretta Avec mes gars on s'marre d'l'état, plus fan de Vu l'manège lorsqu'on m'arrêta Le destin inquiète trop d'vies, man on côtoie la rue trop vite Le ventre trop vide, trop vire mal Comme dans trop d'villes, trop l'vivent mal Demande aux oncles, notre vision du monde choque en étant quelconque C'est pas en se niquant qu'on changera l'décor Va au bout de ton rêve comme K-Reen Au bout d'ton raid, d'ton règne, sans cocaïne Paix, les gens d'ce monde, ami, personne a de vie Le monde devine la merde que c'est en voyant nos modes de vie Tu sais je viens d'où et boy to merde Trop d'doutes pour nous autres, dur d'être doux comme Boyz II Men Depuis toujours contre les leçons et les fourgons d'schmits Mon truc c'était contrôler le son, pas vendre des lingots de shit Réaliser les rêves, imaginés en QHS par mes frères Ou dans le quartier une fois cuit, HS, avec mes frères Tu sais l'ami c'est pour nos frères qu'on fait ça Ceux qui sont là dans toutes situas' et qui se lassent de cette situation Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne</t>
+          <t>J'ai qu'un mic comme arme On veut me shooter comme dans Heat J'reste sur mes gardes comme les deux chiens sur mon sweat La nuit ça s'agite, j'entends des bruits de course poursuite, tragique Les p'tits partis de rien veulent tout tout de suite, logique la température monte J'brûle le mic' pour ceux qui l'voudront chaud Tu vois c'qu'on raconte, rien de nouveau sur le goudron chaud Bref comme ça tu veux qu'on s'en sorte, qu'on éclate les portes Sans faire couler le sang, sans que ce soit la joie qu'on apporte Et même si j'rame j'vais rien lâcher tout peut arriver Comme a dit Thuram J'vais rien gâcher Inchallah qu'on se retrouve tous blindés comme à South Fork Imagine, j'aime mes assos' forts Demande à K-Reen, n'épargne pas ta peine Sers-toi de la haine qui t'entraîne même si la vie est parfois dure Car c'est dans les épreuves de la vie tu sais que se forgera ton armure N'écoute pas ceux qui veulent que tu restes dans la même galère Si tu vas jusqu'au bout de tes projets tu verras le bout du tunnel Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne Jamais ne doute de toi Prends ton destin en main, sors de se sommeil Et puis agis pour demain, toi seul peut faire venir à toi ton propre soleil Va au bout de ton rêve avant que t'en crève va de l'avant Pour aller de l'avant il faut que tu te lèves, n'oublie jamais Si tu vas jusqu'au bout de ce que tu fais, tu réaliseras tous tes rêves Crois-moi, c'est vrai Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne x2 Non, lâche pas N'attends pas Que ton heure sonne Et ouais paix, grâce à Dieu encore libre J'vends ni barrette ni Beretta Avec mes gars on s'marre d'l'état, plus fan de Vu l'manège lorsqu'on m'arrêta Le destin inquiète trop d'vies, man on côtoie la rue trop vite Le ventre trop vide, trop vire mal Comme dans trop d'villes, trop l'vivent mal Demande aux oncles, notre vision du monde choque en étant quelconque C'est pas en se niquant qu'on changera l'décor Va au bout de ton rêve comme K-Reen Au bout d'ton raid, d'ton règne, sans cocaïne Paix, les gens d'ce monde, ami, personne a de vie Le monde devine la merde que c'est en voyant nos modes de vie Tu sais je viens d'où et boy to merde Trop d'doutes pour nous autres, dur d'être doux comme Boyz II Men Depuis toujours contre les leçons et les fourgons d'schmits Mon truc c'était contrôler le son, pas vendre des lingots de shit Réaliser les rêves, imaginés en QHS par mes frères Ou dans le quartier une fois cuit, HS, avec mes frères Tu sais l'ami c'est pour nos frères qu'on fait ça Ceux qui sont là dans toutes situas' et qui se lassent de cette situation Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction autodestruction C'est c'qu'ils attendent, c'est c'qu'ils veulent autodestruction Paranoïa, gamberger tout seul autodestruction Fumer des clopes, manger au MacDo autodestruction Télévision, lavage de cerveau autodestruction Les vices et le mensonge se répandent même dans l'instruction Dites la vérité aux enfants autodestruction Plus tu vis et plus tu apprends faut une direction Envie, avarice, pognon sanglant autodestruction Luxure, jalousie, le monde en cendres autodestruction Ils ne veulent pas nous voir ensemble autodestruction Couteaux, kebbouz, putes et partouzes autodestruction Si ça part en couilles un peu partout autodestruction Colonialisme, impérialisme autodestruction Et tous les mots qui finissent en -isme autodestruction Ils combattent les ganjamans poto attention Remercie et prie Almighty High protection You might also like À tuer le temps il n'y a qu'un pas Pourquoi t'en vouloir d'écrire chez nous ce qui ne va pas XXX certitudes en un instant réduites à néant Mon peuple XXX à graille tout en se détruisant Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction On brûle notre jeunesse par les deux bouts autodestruction Tu l'sais, partout tu vas entendre parler d'nous La vie s'consume comme un zedou Même après dix sky, on reste debout autodestruction Depuis l'esclavage et les coups d'bambou Le noir m'colle à la peau comme le cambouis Moi j'suis un bamboula, on fait du bon boulot Tiens le bon bout là Un mec cool, eux, ils disent c'est un bon boug ça autodestruction Lorsque le diable a susurré Tu comprends pourquoi mon esprit est déstructuré Des coups durs, des points d'suture au mental Suicide à p'tit feu comme des soudures sur l'métal On s'noie dans l'alcool Juste un chemin pour arriver plus vite à l'alcôve Et puis ces lâches cognent Et puis c'est là j'colle comme la skunk ou la taule Tepa mon nom d'code, déstructuré comme l'atome Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction J'perds ma vie à tuer l'temps L'atmosphère sur nous a déteint On la répand jusqu'au jour où on s'éteint Un mode de vie incertain, un système trop insultant Qui tombera par ceux qui en sont l'résultat Et vu l'état des choses, personne n'ose forcer l'destin On connaît les causes, mais on fait qu's'plaindre et on reste plein À s'laisser mourir, même étant lucides Autodestruction avec comme seule solution l'suicide Ignorance à foison, haine tolérance zéro Comme ce poison dans les veines où se mêlent alcool héro Autodestruction physique ou cérébrale Nos courtes existences, c'est bien loin d'être la quête du Saint Graal Si ça sent la mort, c'est c'nuage de fumée qui nous contient Rien n'convient et c'est avec la rage de vivre qu'on tient C'est p't-être une façon d'abréger nos douleurs Quand notre sang devient noir, partout c'est la seule couleur Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Cet État t'assomme et t'laisse sur place assise Défoncé, affaibli par cette vie qui t'brutalise Ton cerveau gamberge jusqu'à toucher le sol Perdu dans ta foncedé, t'as cassé ta boussole La nuit tu pleures à l'aide, malheureux d'être seul Mais c'est toi-même, chaque jour, qui dépose ton linceul Tu t'consumes à p'tit feu vers un suicide à long terme Mais ta vie n'se résume que par débauche et haine Mais la partie s'arrête, tuée par toi-même Ne vois-tu pas qu'tu vas droit dans les filets du système Qui sème les graines de la haine Que tu prends par les veines jusqu'à l'autodestruction À tuer le temps il n'y a qu'un pas Pourquoi t'en vouloir d'écrire chez nous ce qui ne va pas XXX certitudes en un instant réduites à néant Mon peuple XXX à graille tout en se détruisant Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction</t>
+          <t>Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction autodestruction C'est c'qu'ils attendent, c'est c'qu'ils veulent autodestruction Paranoïa, gamberger tout seul autodestruction Fumer des clopes, manger au MacDo autodestruction Télévision, lavage de cerveau autodestruction Les vices et le mensonge se répandent même dans l'instruction Dites la vérité aux enfants autodestruction Plus tu vis et plus tu apprends faut une direction Envie, avarice, pognon sanglant autodestruction Luxure, jalousie, le monde en cendres autodestruction Ils ne veulent pas nous voir ensemble autodestruction Couteaux, kebbouz, putes et partouzes autodestruction Si ça part en couilles un peu partout autodestruction Colonialisme, impérialisme autodestruction Et tous les mots qui finissent en -isme autodestruction Ils combattent les ganjamans poto attention Remercie et prie Almighty High protection À tuer le temps il n'y a qu'un pas Pourquoi t'en vouloir d'écrire chez nous ce qui ne va pas XXX certitudes en un instant réduites à néant Mon peuple XXX à graille tout en se détruisant Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction On brûle notre jeunesse par les deux bouts autodestruction Tu l'sais, partout tu vas entendre parler d'nous La vie s'consume comme un zedou Même après dix sky, on reste debout autodestruction Depuis l'esclavage et les coups d'bambou Le noir m'colle à la peau comme le cambouis Moi j'suis un bamboula, on fait du bon boulot Tiens le bon bout là Un mec cool, eux, ils disent c'est un bon boug ça autodestruction Lorsque le diable a susurré Tu comprends pourquoi mon esprit est déstructuré Des coups durs, des points d'suture au mental Suicide à p'tit feu comme des soudures sur l'métal On s'noie dans l'alcool Juste un chemin pour arriver plus vite à l'alcôve Et puis ces lâches cognent Et puis c'est là j'colle comme la skunk ou la taule Tepa mon nom d'code, déstructuré comme l'atome Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction J'perds ma vie à tuer l'temps L'atmosphère sur nous a déteint On la répand jusqu'au jour où on s'éteint Un mode de vie incertain, un système trop insultant Qui tombera par ceux qui en sont l'résultat Et vu l'état des choses, personne n'ose forcer l'destin On connaît les causes, mais on fait qu's'plaindre et on reste plein À s'laisser mourir, même étant lucides Autodestruction avec comme seule solution l'suicide Ignorance à foison, haine tolérance zéro Comme ce poison dans les veines où se mêlent alcool héro Autodestruction physique ou cérébrale Nos courtes existences, c'est bien loin d'être la quête du Saint Graal Si ça sent la mort, c'est c'nuage de fumée qui nous contient Rien n'convient et c'est avec la rage de vivre qu'on tient C'est p't-être une façon d'abréger nos douleurs Quand notre sang devient noir, partout c'est la seule couleur Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Cet État t'assomme et t'laisse sur place assise Défoncé, affaibli par cette vie qui t'brutalise Ton cerveau gamberge jusqu'à toucher le sol Perdu dans ta foncedé, t'as cassé ta boussole La nuit tu pleures à l'aide, malheureux d'être seul Mais c'est toi-même, chaque jour, qui dépose ton linceul Tu t'consumes à p'tit feu vers un suicide à long terme Mais ta vie n'se résume que par débauche et haine Mais la partie s'arrête, tuée par toi-même Ne vois-tu pas qu'tu vas droit dans les filets du système Qui sème les graines de la haine Que tu prends par les veines jusqu'à l'autodestruction À tuer le temps il n'y a qu'un pas Pourquoi t'en vouloir d'écrire chez nous ce qui ne va pas XXX certitudes en un instant réduites à néant Mon peuple XXX à graille tout en se détruisant Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Faut qu'on se sorte d'ici, qu'on se tire tous de là Kertra, Fonky Family Dis-toi qu'ici-bas, j'ai trop rappé par bénévolat Et maintenant, c'est pour eux de payer Ça va en chier pour les nantis Kertra, Fonky Family et maintenant Je m'obstine et même si ça rapporte peu, personne nous mettra au pas On représente nos gars, qui soient tombés pour faute, grave ou pas À ce moment précis, je n'ai que mon rap pour espérer de plus beaux lendemains Demande aux miens, les jours meilleurs ne viennent pas en un tour de main Non, si c'était le cas, on le saurait et on ne se plaindrait pas tant Peut-être qu'on ne passerait pas tout ce temps chez nous à écrire des heures durant Quoique dehors je rate rien, je connais le décor, les acteurs, le scénar' avant de l'avoir lu La fin de ce putain de film avant de l'avoir vu Quand tout sera terminé, elles seront où les putes qui me trouvaient mignon ? Sûrement au large quand elles verront qu'on ne brasse pas des millions C'est ça la vie, faut se montrer vif dans ce monde, cet abattoir Tout va si vite, jeune, t'y laisses ta peau quand t'as pas d'échappatoire La mienne reste l'écriture, juste basée sur des faits réels À les entendre, tu comprends cash qu'ils viennent des vraies ruelles Celles où les jeunes veulent autant de fric à la banque que dans le matelas Respect aux nôtres de Marseille jusqu'à Mantes-la You might also like Comme je voyais le monde d'la musique, je croyais qu'ça rendait riche un seul disque Une seule couv' ou un seul clip, plein de flouze sans un seul risque Soldat du hip-hop sans sol fixe, t'inquiète, je me plaindrais pas Je mange sans bosser à heure fixe, je sais même pas si je bosse moi Cherche l'os moi, va jouer le zguègue dans le showbizz Si j'aurais voulu vendre mon cul, j'aurais fait gigolo Elles font de grosses bises à toi parce que ton truc s'vend bien Regarde bien qu'ils lui rendent son contrat, pour eux, il vaut plus rien Ils sont rapides à calculer, ces enculés Tu crois qu'ils sont là pour rigoler, alors Pourtant j'en ai vu un qui est payé des millions à picoler, alors Ce milieu-là est bizarre, rien à voir avec la rue Combien ont pété les plombs avec tout ce qu'ils ont vu Tout ce qu'ils ont bu, tout ce qu'ils ont pu sniffer Toutes les putes qu'ils ont eu, tout ce qu'ils ont dû kiffer Tout ce qu'ils ont su, le succès, ça peut changer un homme Même avec une faim énorme, garde la tête froide, mécréant FF, un album si Dieu veut et Dieu est grand Scratches Ce qu'on essaye d'expliquer et quoi que tu fasses, tu dois t'appliquer Beaucoup ont cru que faire un album c'était pas compliqué La route est longue et la réussite ne vient pas rappliquer À chaque seconde tu te dois de savoir répliquer Le business de la sique-mu, fils, n'a rien à voir avec le business de la rue, fils Et c'est comme ça, fils, tu sors un skeudi, deux skeudis, ça y est t'es che-ri Tout le monde te charrie, pour les nnes-ch' t'es le nouveau chéri Mais c'est du vent pour réussir à t'enrichir La sagesse est le début donc commence à réfléchir J'dis pas qu'il y a pas de seille-o parce que là, ce serait te mentir À vrai dire, comme qui dirait, je préfère avertir Ils niaient qui aujourd'hui avouent, alors qu'avant ils niaient Je les vois chialer, alors que dans le temps au loin ils riaient On lâchera pas l'affaire jusqu'à ce qu'on revienne briller On restera maintenant qu'on y est Scratches</t>
+          <t>Faut qu'on se sorte d'ici, qu'on se tire tous de là Kertra, Fonky Family Dis-toi qu'ici-bas, j'ai trop rappé par bénévolat Et maintenant, c'est pour eux de payer Ça va en chier pour les nantis Kertra, Fonky Family et maintenant Je m'obstine et même si ça rapporte peu, personne nous mettra au pas On représente nos gars, qui soient tombés pour faute, grave ou pas À ce moment précis, je n'ai que mon rap pour espérer de plus beaux lendemains Demande aux miens, les jours meilleurs ne viennent pas en un tour de main Non, si c'était le cas, on le saurait et on ne se plaindrait pas tant Peut-être qu'on ne passerait pas tout ce temps chez nous à écrire des heures durant Quoique dehors je rate rien, je connais le décor, les acteurs, le scénar' avant de l'avoir lu La fin de ce putain de film avant de l'avoir vu Quand tout sera terminé, elles seront où les putes qui me trouvaient mignon ? Sûrement au large quand elles verront qu'on ne brasse pas des millions C'est ça la vie, faut se montrer vif dans ce monde, cet abattoir Tout va si vite, jeune, t'y laisses ta peau quand t'as pas d'échappatoire La mienne reste l'écriture, juste basée sur des faits réels À les entendre, tu comprends cash qu'ils viennent des vraies ruelles Celles où les jeunes veulent autant de fric à la banque que dans le matelas Respect aux nôtres de Marseille jusqu'à Mantes-la Comme je voyais le monde d'la musique, je croyais qu'ça rendait riche un seul disque Une seule couv' ou un seul clip, plein de flouze sans un seul risque Soldat du hip-hop sans sol fixe, t'inquiète, je me plaindrais pas Je mange sans bosser à heure fixe, je sais même pas si je bosse moi Cherche l'os moi, va jouer le zguègue dans le showbizz Si j'aurais voulu vendre mon cul, j'aurais fait gigolo Elles font de grosses bises à toi parce que ton truc s'vend bien Regarde bien qu'ils lui rendent son contrat, pour eux, il vaut plus rien Ils sont rapides à calculer, ces enculés Tu crois qu'ils sont là pour rigoler, alors Pourtant j'en ai vu un qui est payé des millions à picoler, alors Ce milieu-là est bizarre, rien à voir avec la rue Combien ont pété les plombs avec tout ce qu'ils ont vu Tout ce qu'ils ont bu, tout ce qu'ils ont pu sniffer Toutes les putes qu'ils ont eu, tout ce qu'ils ont dû kiffer Tout ce qu'ils ont su, le succès, ça peut changer un homme Même avec une faim énorme, garde la tête froide, mécréant FF, un album si Dieu veut et Dieu est grand Scratches Ce qu'on essaye d'expliquer et quoi que tu fasses, tu dois t'appliquer Beaucoup ont cru que faire un album c'était pas compliqué La route est longue et la réussite ne vient pas rappliquer À chaque seconde tu te dois de savoir répliquer Le business de la sique-mu, fils, n'a rien à voir avec le business de la rue, fils Et c'est comme ça, fils, tu sors un skeudi, deux skeudis, ça y est t'es che-ri Tout le monde te charrie, pour les nnes-ch' t'es le nouveau chéri Mais c'est du vent pour réussir à t'enrichir La sagesse est le début donc commence à réfléchir J'dis pas qu'il y a pas de seille-o parce que là, ce serait te mentir À vrai dire, comme qui dirait, je préfère avertir Ils niaient qui aujourd'hui avouent, alors qu'avant ils niaient Je les vois chialer, alors que dans le temps au loin ils riaient On lâchera pas l'affaire jusqu'à ce qu'on revienne briller On restera maintenant qu'on y est Scratches</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sat Je réponds de rien le jour où les miens nont plus rien à se mettre sous la dent Putain de merde, il faut que je fasse rentrer les sous à temps Je suis plus motivé que jamais je joue pas pour jouer Je suis condamné à réussir moi je joue pour gagner Que Dieu tentende, le plus tôt sera le mieux Parce que le diable se fait tentant Cet enfoiré na pas fini de me tester Le plus dur nest pas de trouver le droit chemin cest dy rester Parfois je suis dépassé, je crois que je vais serrer Des fois je me dis tant que jy serais pas passé je réessayerai Souvent je me remonte le moral en me disant tout bas Ça ira mieux demain et puis tant que la famille va tout va Jremonte le terrain, parti de derrière je vais de lavant Parce que jai pas le pouvoir de revenir en arrière Tu veux toucher les sommets frère, faut plus semer Le plus dur nest pas de faire des choix cest de les assumer Don Choa À la poursuite de mon rêve si Dieu veut jirai au bout Parce que je veux rentrer dedans et pas tourner autour Déjà perdu trop de temps si tu savais tout ce que je regrette Le passé me revient sous forme de doutes ou de dettes Ma vie je lai misé sur un coup de tête Et maintenant je sais plus si je dois lenvisager sous forme de route ou de quête Mais malgré, les obstacles je serai sincère et entier Tu préfères être hypocrite pour être le patron du chantier Chacal, chacalette, on sera jamais des rentiers Au mieux on sera des vieux avec des cannes et des dentiers Donne le meilleur quel que soit ton but ou ton métier Et ne juge pas, moi-même pour les putes, jai du respect Ne juge pas les gens tu sais pas par quoi il sont passés De nos jours ça rappe pas pour sexprimer mais pour ramasser Faire sauter le coffre et les portes du succès cadenassé Et on en donne toujours plus parce que cest jamais assez You might also like Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien Le Rat Luciano En traînant où les grands traînent jai pris les manières, appris le manège Tout appris sur la monnaie et le mal-être, tout sur la vie en bande Tout appris sur le manque, sur le vol, sur les jeux Tout sur les ventes de la drogue, tout sur les dégâts des feux Depuis, bons ou pas, je fais mes choix Je mets la merde en perspective Je fais de ma putain de vie ce que je veux quelle soit Un pour les miens, deux pour la monnaie Mec ma vie ne sarrête pas au Rap Jpeux tout quitter dans la minute même Moi cest lépoque dialogue de sourd Affronte ou crève dans larène L'époque moi je veux faire des sous, j'veux la villa de rêve Lépoque tente pour le tout Lépoque rend coup pour coup Lépoque dangereuse Lépoque pou pou pou pou pou pou Chacun, sa putain dâme Chacun, ses putains de choix Chacun, son braquage, sa putain darme Chacun, sa putain de voie, ses putains de proies Son putain dart, et le mien dart Cest tout le quartier dans ma putain de voix Menzo Dans la vie, personne ne peut le faire ou y croire à ta place Tas le choix ou tu baisses les bras ou tes le premier de la classe Au départ on passe par les mêmes voies les mêmes parcours Certains trouvent leurs routes, dautres empruntent lissue de secours Mais quoi quil en soit frangin, cest toi seul qui décide Ton avenir est entre tes mains et cest toi seul qui le dessine Fais ce que tas à faire mais surtout noublies pas Que personne ne viendra purger ta peine si tes jugé coupable Donne le meilleur, repousse tes limites, cest le prix Reconnais cqui est bon et ce qui est mauvais pour toi, puis fais ltri Cette vie ressemble à un combat, la rue à un ring, chaque jour à un round On fait avec en se serrant les coudes On sait que ça tient à rien Pour aller loin faut se donner les moyens Ni plus ni moins, cest ça ou rien Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien</t>
+          <t>Sat Je réponds de rien le jour où les miens nont plus rien à se mettre sous la dent Putain de merde, il faut que je fasse rentrer les sous à temps Je suis plus motivé que jamais je joue pas pour jouer Je suis condamné à réussir moi je joue pour gagner Que Dieu tentende, le plus tôt sera le mieux Parce que le diable se fait tentant Cet enfoiré na pas fini de me tester Le plus dur nest pas de trouver le droit chemin cest dy rester Parfois je suis dépassé, je crois que je vais serrer Des fois je me dis tant que jy serais pas passé je réessayerai Souvent je me remonte le moral en me disant tout bas Ça ira mieux demain et puis tant que la famille va tout va Jremonte le terrain, parti de derrière je vais de lavant Parce que jai pas le pouvoir de revenir en arrière Tu veux toucher les sommets frère, faut plus semer Le plus dur nest pas de faire des choix cest de les assumer Don Choa À la poursuite de mon rêve si Dieu veut jirai au bout Parce que je veux rentrer dedans et pas tourner autour Déjà perdu trop de temps si tu savais tout ce que je regrette Le passé me revient sous forme de doutes ou de dettes Ma vie je lai misé sur un coup de tête Et maintenant je sais plus si je dois lenvisager sous forme de route ou de quête Mais malgré, les obstacles je serai sincère et entier Tu préfères être hypocrite pour être le patron du chantier Chacal, chacalette, on sera jamais des rentiers Au mieux on sera des vieux avec des cannes et des dentiers Donne le meilleur quel que soit ton but ou ton métier Et ne juge pas, moi-même pour les putes, jai du respect Ne juge pas les gens tu sais pas par quoi il sont passés De nos jours ça rappe pas pour sexprimer mais pour ramasser Faire sauter le coffre et les portes du succès cadenassé Et on en donne toujours plus parce que cest jamais assez Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien Le Rat Luciano En traînant où les grands traînent jai pris les manières, appris le manège Tout appris sur la monnaie et le mal-être, tout sur la vie en bande Tout appris sur le manque, sur le vol, sur les jeux Tout sur les ventes de la drogue, tout sur les dégâts des feux Depuis, bons ou pas, je fais mes choix Je mets la merde en perspective Je fais de ma putain de vie ce que je veux quelle soit Un pour les miens, deux pour la monnaie Mec ma vie ne sarrête pas au Rap Jpeux tout quitter dans la minute même Moi cest lépoque dialogue de sourd Affronte ou crève dans larène L'époque moi je veux faire des sous, j'veux la villa de rêve Lépoque tente pour le tout Lépoque rend coup pour coup Lépoque dangereuse Lépoque pou pou pou pou pou pou Chacun, sa putain dâme Chacun, ses putains de choix Chacun, son braquage, sa putain darme Chacun, sa putain de voie, ses putains de proies Son putain dart, et le mien dart Cest tout le quartier dans ma putain de voix Menzo Dans la vie, personne ne peut le faire ou y croire à ta place Tas le choix ou tu baisses les bras ou tes le premier de la classe Au départ on passe par les mêmes voies les mêmes parcours Certains trouvent leurs routes, dautres empruntent lissue de secours Mais quoi quil en soit frangin, cest toi seul qui décide Ton avenir est entre tes mains et cest toi seul qui le dessine Fais ce que tas à faire mais surtout noublies pas Que personne ne viendra purger ta peine si tes jugé coupable Donne le meilleur, repousse tes limites, cest le prix Reconnais cqui est bon et ce qui est mauvais pour toi, puis fais ltri Cette vie ressemble à un combat, la rue à un ring, chaque jour à un round On fait avec en se serrant les coudes On sait que ça tient à rien Pour aller loin faut se donner les moyens Ni plus ni moins, cest ça ou rien Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prends la harbat, popo national, normal Tout le tiek' international, madame Elle m'fait des caprices, elle me trouve mignon Mon collègue khapta sous Don Perignan Les civils rien qu'ils ont la haine Comme Riyad Mahrez j'leur mets des petits ponts Pochon vert, jaune ou violet , la zone est minée J'fais danser bonita sous les cocotiers Nous on fête le single d'or, indé J'ai une tête de cramé, j'passe la douane On arrive en showcase tah Amsterdam En cellule, pété, le pétou en flamme Si j'ramène le quartier, la boîte on la crâme J'suis posé devant le Monde, moi je dis pas non J'me balec de ta minch mais j'dis pas non De la cellule à la vie, c'est plus comme avant J'vois la terre tourner, j'ai plus le temps You might also like International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Salsa, bonita, j'te fais danser 80 kil' ? Moi j'les fais passer Il m'appelle en cellule Gambino c'est good! Ramène ta copine, on va la chasser L'équipe, ils font des tours et des rodéos Obligé d'mettre deux p'tits au réseau J'baise le game Juliette, j'suis pas Roméo Mode avion C'est toi le patron Donc envoie la paye-paye Brunette, c'est nous les barons Donc envoie la teille-teille Ça gamberge dans la cellule Ça fume le pet' de la veille-veille Ce soir c'est nous on les allume Demande à Nasser, à Kamel International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame International-nal, j'prends la national-nal Gambino en légende-gende , j'évite les banals-nals International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame</t>
+          <t>Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prends la harbat, popo national, normal Tout le tiek' international, madame Elle m'fait des caprices, elle me trouve mignon Mon collègue khapta sous Don Perignan Les civils rien qu'ils ont la haine Comme Riyad Mahrez j'leur mets des petits ponts Pochon vert, jaune ou violet , la zone est minée J'fais danser bonita sous les cocotiers Nous on fête le single d'or, indé J'ai une tête de cramé, j'passe la douane On arrive en showcase tah Amsterdam En cellule, pété, le pétou en flamme Si j'ramène le quartier, la boîte on la crâme J'suis posé devant le Monde, moi je dis pas non J'me balec de ta minch mais j'dis pas non De la cellule à la vie, c'est plus comme avant J'vois la terre tourner, j'ai plus le temps International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Salsa, bonita, j'te fais danser 80 kil' ? Moi j'les fais passer Il m'appelle en cellule Gambino c'est good! Ramène ta copine, on va la chasser L'équipe, ils font des tours et des rodéos Obligé d'mettre deux p'tits au réseau J'baise le game Juliette, j'suis pas Roméo Mode avion C'est toi le patron Donc envoie la paye-paye Brunette, c'est nous les barons Donc envoie la teille-teille Ça gamberge dans la cellule Ça fume le pet' de la veille-veille Ce soir c'est nous on les allume Demande à Nasser, à Kamel International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame International-nal, j'prends la national-nal Gambino en légende-gende , j'évite les banals-nals International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Check 1,1,1 x12 Check 1,1,1, hommage au bon vieux temps C'est Menz' et Don Choa tu sais qu'on rentre dedans Basket survêtement cassette dans l'poste Ragga dancehall break et hard-rock Joint d'shit ou d'herbe y avait pas d'coke Et pour le son des concerts des ingénieurs d'Europe Pas autant d'gens, beaucoup moins d'argent Dans ce mouvement ils croyaient qu'ça passerait vite comme un coup d'vent Et quoi dire maintenant la rue reprend ses droits Il était temps courage honneur et devoir Essaie d'contester ou même de nous tester L'essentiel c'est qu'on y est et qu'on va y rester Dans cet art qui fut détester aujourd'hui Même les parents y accordent du respect et nous disent Loin d'être blindés encore en train d'chercher l'fric Grâce à Dieu on n'est pas recherchés par les flics Peut-être qu'ils nous écoutent quand on parle de la crise Vu qu'l'État s'mêe de tout, contrôle et divise Nique le monopole, laissez-nous vivre Nos visions n'sont pas drôles, non et on n'a pas tout dit Vole au-dessus des taudis ? viens on t'amène Est-ce un sol maudit ? tout seul s'en sortir quand même Ne croient plus au paradis vu qu'ils vivent en enfer T'as reconnu Mamadi et le p'tit gars sans gène You might also likeCheck 1,1,1 x8 Rappelle-toi du bon vieux temps x12</t>
+          <t>Check 1,1,1 x12 Check 1,1,1, hommage au bon vieux temps C'est Menz' et Don Choa tu sais qu'on rentre dedans Basket survêtement cassette dans l'poste Ragga dancehall break et hard-rock Joint d'shit ou d'herbe y avait pas d'coke Et pour le son des concerts des ingénieurs d'Europe Pas autant d'gens, beaucoup moins d'argent Dans ce mouvement ils croyaient qu'ça passerait vite comme un coup d'vent Et quoi dire maintenant la rue reprend ses droits Il était temps courage honneur et devoir Essaie d'contester ou même de nous tester L'essentiel c'est qu'on y est et qu'on va y rester Dans cet art qui fut détester aujourd'hui Même les parents y accordent du respect et nous disent Loin d'être blindés encore en train d'chercher l'fric Grâce à Dieu on n'est pas recherchés par les flics Peut-être qu'ils nous écoutent quand on parle de la crise Vu qu'l'État s'mêe de tout, contrôle et divise Nique le monopole, laissez-nous vivre Nos visions n'sont pas drôles, non et on n'a pas tout dit Vole au-dessus des taudis ? viens on t'amène Est-ce un sol maudit ? tout seul s'en sortir quand même Ne croient plus au paradis vu qu'ils vivent en enfer T'as reconnu Mamadi et le p'tit gars sans gène Check 1,1,1 x8 Rappelle-toi du bon vieux temps x12</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Le Rat Luciano Et tu vas rien m'enlever Ni le peu de foi que j'ai Ni mon nom dans le business Ni le poids de mes pêchés Ni mon style de vie, ni mon beefsteak Ni l'amour des miens, ni mon histoire Ni mes défaites, ni mes victoires Ni le soutien des tiens, ni ton nom sur ma liste noire Tu peux pas m'enlever ma loyauté envers le rap Ma reconnaissance envers la rue Ceux qui font du son qui frappe Tu as beau parler sur mon compte, mais en vrai Le respect que les gens me donnent, ça tu peux pas me l'enlever C'est comme toutes ses heures dures en mémoire Ma rancur, mon droit d'y croire Mes mots, la voix de mon cur, l'équipe qui bouge pour moi Tu peux pas m'enlever mon sens de la famille, ni mes adversaires d'aujourd'hui amis autrefois Toutes ces années que j'ai investies dans la musique Toutes mes chéries amoureuses Mon côté rien à foutre du biz Tu peux pas m'enlever les souvenirs Ni mon public restreint mais fidèles Qui me salut toujours avec respect et sourire You might also like Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Sat Durant ma courte vie, j'ai connu des jolies filles De celles qui te font oublier tes soucis dès qu'elles ôtent leur lingerie fine J'ai eu la chance de faire de long et beau voyages De gagner plus d'argent que ma mère en 20 ans de ménages J'ai pris le micro aux quatre coins du globe Était ému de voir les lettres FF dans les premières lignes du top C'est pas donné à tout le monde Sur le dernier album on a parlé au nom d'un demi-million de personnes Boy, pour autant ça lève rien à mes doutes Tu peux pas m'attendre au tournant Je dériverais pas de ma route Tu peux rien enlever à notre histoire rude boy Si on faisait pas le poids on aurait sauté depuis Bad Boys Déjà 10 ans que ma plume combat l'épée J'ai le devoir d'éveiller une conscience à chaque nouveau LP Te méprend pas sur moi je ne suis pas triste Avec le temps on oublie pas on cicatrise Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Menzo Je me fous que tu sois le plus grand Le plus fort ou le meilleur Tu peux rien contre ma réussite ni contre mes malheurs Imagine toi à ma place, tu fonces ou tu fais du sur place Nous fallait qu'on le fasse Qu'on se batte et qu'on se surpasse Tu peux rien m'enlever Ni ma foi ni ma volonté Si on en est là c'est forcément qu'on l'a mérité Je rappe et protège mes biens sans oublier d'où je viens C'est pour nos socios, nos vatos qu'aujourd'hui on revient Quand l'amour apparait Il ne fait jamais nuit Quand tu sors de l'ombre Frangin, tu ne peux éviter les ennuis Chez nous la réussite dans le foot, dans le rap peuvent te nuire Mais les croyants savent qu'il n'y a que Dieu qui peut nous détruire Tu peux rien m'enlever Ni nos victoires, ni nos trophées A force de trop parler, mouanama Tu peux t'étouffer 2005, nouveau départ vers une nouvelle étape Avant de passer à la trappe et que l'avenir nous échappe Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Don Choa Pas même la plus bidon de mes rimes gars Tu peux rien m'enlever Tu peux juste répéter que je le mérite pas Mais mon appétit pour plus ne me quitte pas Plus tu montes Plus tu te rends comptes que tu peux tomber vite bas Plus sa rentre plus je suis loin du compte Je continue j'avance même si vers la fin du monde C'est la vie que tu veux m'apprendre Parle-moi des risques mec Tu peux rien me prendre à part si t'es du fisc Dans l'industrie du disque on évolue Déteste moi mon fric, les blondes que je nique, les ondes que je pollue Le shit que je brûle mauvaise influence Non chacun fait ses choix et paye le prix de son imprudence Je vais pas mentir dans mes raps même si t'insistes Sain d'esprit mais nique le civisme Je suis pas l'instit Qu'un petit con dans le game Pas au bout de notre peine Tes critiques valent rien, tu veux juste notre pain Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever !</t>
+          <t>Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Le Rat Luciano Et tu vas rien m'enlever Ni le peu de foi que j'ai Ni mon nom dans le business Ni le poids de mes pêchés Ni mon style de vie, ni mon beefsteak Ni l'amour des miens, ni mon histoire Ni mes défaites, ni mes victoires Ni le soutien des tiens, ni ton nom sur ma liste noire Tu peux pas m'enlever ma loyauté envers le rap Ma reconnaissance envers la rue Ceux qui font du son qui frappe Tu as beau parler sur mon compte, mais en vrai Le respect que les gens me donnent, ça tu peux pas me l'enlever C'est comme toutes ses heures dures en mémoire Ma rancur, mon droit d'y croire Mes mots, la voix de mon cur, l'équipe qui bouge pour moi Tu peux pas m'enlever mon sens de la famille, ni mes adversaires d'aujourd'hui amis autrefois Toutes ces années que j'ai investies dans la musique Toutes mes chéries amoureuses Mon côté rien à foutre du biz Tu peux pas m'enlever les souvenirs Ni mon public restreint mais fidèles Qui me salut toujours avec respect et sourire Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Sat Durant ma courte vie, j'ai connu des jolies filles De celles qui te font oublier tes soucis dès qu'elles ôtent leur lingerie fine J'ai eu la chance de faire de long et beau voyages De gagner plus d'argent que ma mère en 20 ans de ménages J'ai pris le micro aux quatre coins du globe Était ému de voir les lettres FF dans les premières lignes du top C'est pas donné à tout le monde Sur le dernier album on a parlé au nom d'un demi-million de personnes Boy, pour autant ça lève rien à mes doutes Tu peux pas m'attendre au tournant Je dériverais pas de ma route Tu peux rien enlever à notre histoire rude boy Si on faisait pas le poids on aurait sauté depuis Bad Boys Déjà 10 ans que ma plume combat l'épée J'ai le devoir d'éveiller une conscience à chaque nouveau LP Te méprend pas sur moi je ne suis pas triste Avec le temps on oublie pas on cicatrise Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Menzo Je me fous que tu sois le plus grand Le plus fort ou le meilleur Tu peux rien contre ma réussite ni contre mes malheurs Imagine toi à ma place, tu fonces ou tu fais du sur place Nous fallait qu'on le fasse Qu'on se batte et qu'on se surpasse Tu peux rien m'enlever Ni ma foi ni ma volonté Si on en est là c'est forcément qu'on l'a mérité Je rappe et protège mes biens sans oublier d'où je viens C'est pour nos socios, nos vatos qu'aujourd'hui on revient Quand l'amour apparait Il ne fait jamais nuit Quand tu sors de l'ombre Frangin, tu ne peux éviter les ennuis Chez nous la réussite dans le foot, dans le rap peuvent te nuire Mais les croyants savent qu'il n'y a que Dieu qui peut nous détruire Tu peux rien m'enlever Ni nos victoires, ni nos trophées A force de trop parler, mouanama Tu peux t'étouffer 2005, nouveau départ vers une nouvelle étape Avant de passer à la trappe et que l'avenir nous échappe Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Don Choa Pas même la plus bidon de mes rimes gars Tu peux rien m'enlever Tu peux juste répéter que je le mérite pas Mais mon appétit pour plus ne me quitte pas Plus tu montes Plus tu te rends comptes que tu peux tomber vite bas Plus sa rentre plus je suis loin du compte Je continue j'avance même si vers la fin du monde C'est la vie que tu veux m'apprendre Parle-moi des risques mec Tu peux rien me prendre à part si t'es du fisc Dans l'industrie du disque on évolue Déteste moi mon fric, les blondes que je nique, les ondes que je pollue Le shit que je brûle mauvaise influence Non chacun fait ses choix et paye le prix de son imprudence Je vais pas mentir dans mes raps même si t'insistes Sain d'esprit mais nique le civisme Je suis pas l'instit Qu'un petit con dans le game Pas au bout de notre peine Tes critiques valent rien, tu veux juste notre pain Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever !</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Chaud comme Marseille, on vous met le feu Le cur de la ville s'enflamme quand le son entre en jeu Les préoccupations des frères s'infiltrent dans ton Walkman L'argent, la boisson, la fumée et les femmes Je nagerais avec les femmes et un micro dans une piscine Si j'avais l'occasion de partir loin des vermines L'hésitation ne se ferait pas, c'est certain Mes poches sont vides et j'ai faim de pognon et d'un bon destin J'extirpe ces quelques mots, un stylo de mon paletot, sorti un jour Du caniveau, je roule dans les casinos Ouais, je fais le zguègue en espadrilles, mais j'assure quand même Quoi qu'il arrive, car Fonky est la Famille Autant parler des mains que la bouche chez nous n'est pas louche Méditerranéen de souche, mes styles font mouches Au milieu d'embrouilles ou de mauvais coups Je crame tous les tintanos qui nous cherchent des poux Dans la nuit, un MC check check le mic Taquiner la rime et le beat est mon véritable hobby Envoyer des styles pour tous les frères qui nique la halla Pour la première fois, le refrain commence comme ça You might also like Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys Pendant que tu fais un flop, que tu tapes un magnétoscope Don Choa calcine les rimes comme une clope en garde à vue Le hip-hop au top descend le long de la rue Et se saisit du showbiz à son insu Accepte le son, qui touche de près mes entrailles Au bercail, ma fonction est le travail Je me comporte en canaille, aïe ! Les mauvais garçons se collent comme des moucherons Au jupons, frappent sans hésiter pour le pognon Comme les apaches guinchent ton scalp Ton fric est la proie, des hordes de chiens des Alpes En veulent à tes Delacroix Mais pas moi, je suis droit, respecte les autres et crois Au pouvoir de la rime dans la destruction des hazas L'été, les quartiers, postes dans le bus Que demander de plus, fusse le funk ou des Vénus ? Gus, soi-disant ma ville pue en plus Dieu t'a-t-il fait avec un anus au lieu des sinus ? Simple dans ma façon de faire mon sang rouge clair Pourtant, j'ai la peau noire et fier de l'avoir Je cours à la gloire des quartiers avec mes idées Le produit, sera toujours enragé Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys J'en ai marre de les voir flipper Y'a pas que le mauvais côté Le Rat te le dira, la vie est faite pour s'amuser Capte le concept des mecs qui s'en battent les couilles Le bon délire est là, t'inquiète on se débrouille Mes pensées drivent coolo, coolo Voilà quelques mots Pour l'avenir incertain de mes potos Qui ont quitté les cours tôt La rage est dans mon âme pour le drame du Front National J'allume la flamme, la flamme Fils, comprends ce que tu peux comprendre Un bon conseil, prétends à ce que tu peux prétendre Réfléchis un instant avant de faire un pas, tu saisiras Pourquoi on te lèvera où que tu sois Avant, je combattais contre des moulins à vent Maintenant, je fais vibrer les salles et le public en rappant Satir au soleil, zique à l'oreille Signe une carte de visite live de Marseille La balle de ping-pong d'Ali Kong tape De Marseille à Naples, pour le rap, je capte les étapes Et cap vers le possee qui me suit J'en suis reconnaissant à fond Voilà pourquoi mes potes sont souvent Dans mes chansons Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys1</t>
+          <t>Chaud comme Marseille, on vous met le feu Le cur de la ville s'enflamme quand le son entre en jeu Les préoccupations des frères s'infiltrent dans ton Walkman L'argent, la boisson, la fumée et les femmes Je nagerais avec les femmes et un micro dans une piscine Si j'avais l'occasion de partir loin des vermines L'hésitation ne se ferait pas, c'est certain Mes poches sont vides et j'ai faim de pognon et d'un bon destin J'extirpe ces quelques mots, un stylo de mon paletot, sorti un jour Du caniveau, je roule dans les casinos Ouais, je fais le zguègue en espadrilles, mais j'assure quand même Quoi qu'il arrive, car Fonky est la Famille Autant parler des mains que la bouche chez nous n'est pas louche Méditerranéen de souche, mes styles font mouches Au milieu d'embrouilles ou de mauvais coups Je crame tous les tintanos qui nous cherchent des poux Dans la nuit, un MC check check le mic Taquiner la rime et le beat est mon véritable hobby Envoyer des styles pour tous les frères qui nique la halla Pour la première fois, le refrain commence comme ça Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys Pendant que tu fais un flop, que tu tapes un magnétoscope Don Choa calcine les rimes comme une clope en garde à vue Le hip-hop au top descend le long de la rue Et se saisit du showbiz à son insu Accepte le son, qui touche de près mes entrailles Au bercail, ma fonction est le travail Je me comporte en canaille, aïe ! Les mauvais garçons se collent comme des moucherons Au jupons, frappent sans hésiter pour le pognon Comme les apaches guinchent ton scalp Ton fric est la proie, des hordes de chiens des Alpes En veulent à tes Delacroix Mais pas moi, je suis droit, respecte les autres et crois Au pouvoir de la rime dans la destruction des hazas L'été, les quartiers, postes dans le bus Que demander de plus, fusse le funk ou des Vénus ? Gus, soi-disant ma ville pue en plus Dieu t'a-t-il fait avec un anus au lieu des sinus ? Simple dans ma façon de faire mon sang rouge clair Pourtant, j'ai la peau noire et fier de l'avoir Je cours à la gloire des quartiers avec mes idées Le produit, sera toujours enragé Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys J'en ai marre de les voir flipper Y'a pas que le mauvais côté Le Rat te le dira, la vie est faite pour s'amuser Capte le concept des mecs qui s'en battent les couilles Le bon délire est là, t'inquiète on se débrouille Mes pensées drivent coolo, coolo Voilà quelques mots Pour l'avenir incertain de mes potos Qui ont quitté les cours tôt La rage est dans mon âme pour le drame du Front National J'allume la flamme, la flamme Fils, comprends ce que tu peux comprendre Un bon conseil, prétends à ce que tu peux prétendre Réfléchis un instant avant de faire un pas, tu saisiras Pourquoi on te lèvera où que tu sois Avant, je combattais contre des moulins à vent Maintenant, je fais vibrer les salles et le public en rappant Satir au soleil, zique à l'oreille Signe une carte de visite live de Marseille La balle de ping-pong d'Ali Kong tape De Marseille à Naples, pour le rap, je capte les étapes Et cap vers le possee qui me suit J'en suis reconnaissant à fond Voilà pourquoi mes potes sont souvent Dans mes chansons Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys1</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>OK ! Tu peux m'appeler chip leader Le niqueur du bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker, serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Bienvenue dans le real game, blindé de grosses blinds Les MC veulent du fame mais moi, je baise ces grosses dindes Attention ça va vite, c'est tragique, c'est cruel Moi, jai le sourire, pourquoi, je viens de saigner Patrick Bruel C'est Don Cho A.K.A. Mister Chip Leader Et tu voudrais ty frotter, mais tas un trop petit kicker À ma table les players meurent dans la douleur En balançant bêtement leur tapis sur un vieux tirage couleur Rien à foutre tes pourcentages, tes putains de statistiques Sérieux, je tattends et je te nique quand tes en kilt Ouais je te baise, et quand je te laisse, tes en kilt Je te laisse en morceaux, MC Ikea tes en kit Oh les cons, ils marronnent ils ont la haine Au bouton, jenvoie une centaine dans la plaine Cest pas des balles, arrête de taffoler Paye, hé le croupier, passe les jetons de mon côté You might also like OK ! Tu peux m'appeler chip leader Le niqueur de bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker, serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Tes toxico, tes drogué, ce putain de jeu ta rendu fou Tas plus de quoi payer ton loyer, mais moi je men fous Je prends tes sous, je prends ton cash, tes bijoux Ta bagnole, ta baraque, mec, en quelques coups de cartes Tu me dois le prix dun appart Ici cest sérieux, ici cest high tech Si tu veux tamuser cest PES ou MySpace Paye en espèces, dépêche-toi, sors la maille Sors ta maille, quest-ce que tu brailles Tes pas de taille, you can die Trop endetté, tes wanted, mets les voiles Le seul truc qui peut te sauver cest 5 numéros et 2 étoiles Mais ferme ta gueule, va pleurer chez ta consoleuse Je viens te chanter une petite berceuse avec ma langue tronçonneuse Excusez-moi jai pas bien vu il faisait noir Mais je crois que jai égorgé le vieux Sarkozy dans la baignoire J'suis dur comme un bad beat à la river Appelle-moi World poker serial killer OK ! Tu peux m'appeler chip leader Le niqueur de bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros</t>
+          <t>OK ! Tu peux m'appeler chip leader Le niqueur du bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker, serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Bienvenue dans le real game, blindé de grosses blinds Les MC veulent du fame mais moi, je baise ces grosses dindes Attention ça va vite, c'est tragique, c'est cruel Moi, jai le sourire, pourquoi, je viens de saigner Patrick Bruel C'est Don Cho A.K.A. Mister Chip Leader Et tu voudrais ty frotter, mais tas un trop petit kicker À ma table les players meurent dans la douleur En balançant bêtement leur tapis sur un vieux tirage couleur Rien à foutre tes pourcentages, tes putains de statistiques Sérieux, je tattends et je te nique quand tes en kilt Ouais je te baise, et quand je te laisse, tes en kilt Je te laisse en morceaux, MC Ikea tes en kit Oh les cons, ils marronnent ils ont la haine Au bouton, jenvoie une centaine dans la plaine Cest pas des balles, arrête de taffoler Paye, hé le croupier, passe les jetons de mon côté OK ! Tu peux m'appeler chip leader Le niqueur de bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker, serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Tes toxico, tes drogué, ce putain de jeu ta rendu fou Tas plus de quoi payer ton loyer, mais moi je men fous Je prends tes sous, je prends ton cash, tes bijoux Ta bagnole, ta baraque, mec, en quelques coups de cartes Tu me dois le prix dun appart Ici cest sérieux, ici cest high tech Si tu veux tamuser cest PES ou MySpace Paye en espèces, dépêche-toi, sors la maille Sors ta maille, quest-ce que tu brailles Tes pas de taille, you can die Trop endetté, tes wanted, mets les voiles Le seul truc qui peut te sauver cest 5 numéros et 2 étoiles Mais ferme ta gueule, va pleurer chez ta consoleuse Je viens te chanter une petite berceuse avec ma langue tronçonneuse Excusez-moi jai pas bien vu il faisait noir Mais je crois que jai égorgé le vieux Sarkozy dans la baignoire J'suis dur comme un bad beat à la river Appelle-moi World poker serial killer OK ! Tu peux m'appeler chip leader Le niqueur de bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Stef Backer Beatmaker On est vif, on est revif, demande à mon pote Amine Quand ça va mal il faut du biff, ah ouais c'est les vitamines Ils veulent nous vacciner comme des ienchs, t'sais très bien qu'c'est pas logique Eh ouais c'est moi qu'avait la chemise dans mon freestyle d'anthologie C'est l'grand classico, j'mouille le maillot pour le J On a tous refait les chicos, on mise sur la technologie Légalement, illégalement, crame l'osille n'importe comment Y a ds gamos devant le stud' qui valent le prix d'un appartement J'ai plein de Rolex mais j'ai pas l'temps, j'gue-nar les keufs en boitant Aujourd'hui j'ai fumé trop de verte, dans mon cerveau c'est le printemps Ça peut s'finir en bain d'sang tout ça juste pour un Nous frère on est titulaire on va pas jouer les remplaçants J'aime bouffe et les pasta, les casse et les casse-dalle Mes potos sont pas stables, t'es costaud, j'te castagne Une photo, j'suis re-sta, la coco ne touche pas, j'ai vovo, une fiesta Dans le bendo, je fête ça, les bicos, les rastas, les blancos, les rapzas Une moto, tu passes pas, un couteau et basta Une photo, j'te baise pas, des kilos, j'te laisse pas C'est trop chaud, ne rêve pas, j'vais mollo, j'me presse pas La boco, les messes basses, je coco, je laisse passe Une vovo, une impasse, j'm'envo'vo' dans l'espace Tu me coco, ne teste pas, j'te coco, tu pèse pas Mais coco, dis qu'est-ce t'as, j'suis chaos, j'suis gangsta You might also like Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala OJ, tonton, jogging coton, grosse team, gros son Cristalline, potion, one love Marsilia Comme une ville d'adoption, une fonky familia, yeah C'est l'heure du classico, j'suis pas français, j'suis parigo J'trouve l'inspi au bistrot, j'réponds pas au bigo, occupé à m'dérégler Le cur lourd, j'te mens quand j'te dis qu'c'est léger Dis, si tu m'écoutais dans mon jardin secret, tous les mômes ont des rêves Tous les hommes ont des regrets, la limite c'est l'mur J'ai besoin d'vérifier si j'ai bien la tête dure, ouais Tu vas pas r'voir ça d'si tôt, te casse minôt C'est Marseille et Paname, le grand classico Débarque dans l'top comme Despacito Le hip-hop c'est un cadavre et j'suis un asticot À l'aise en business comme en classe éco Palace ou Algeco, j'ai l'feeling ma gueule, Boly, Waddle J'écoute pas les conseils à part ceux d'mon amie pone J'cours que pour l'oseille où les cris dans l'babyphone Dédicace à toutes les zones des Bouches-du-Rhône à l'IDF Don Choa is back, comme Karim Benzema en EDF Déstresse, on se dépêche d'vider la caisse Partage de bénefs, yes, le J c'est le S Moi c'est GER en mode S.N.I.P.E.R Si j'étais d'Paris, j'aurais vendu de la beuh dans le RER J'roule en GTR, ça se tire dessus comme dans GTA Dans la rue beaucoup d'acteurs sont bons qu'à faire du théâtre J'pilote comme Statham, hamdoullah j'ai pas pris d'platane Nerveux comme Zlatan, tu parles de rafales t'as pas de charme Dans les étoiles, je pense au poto là-haut AK47 c'est pas un pistolet à eau J'vais la chercher en merco à 45 C'est pas ma faute à moi si elle repart enceinte J'ai grossi d'la taille, jfais du 46 Y'en a beaucoup pour réussir, ils sont passés par en dessous Moi, je perds pas le nord, j'vais passer par un psy Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala J'vis ma vie, faut pas me casser les couilles RS3 pas d'plaque, faut esquiver la fouille Dans la cale y a des requins, par terre y a des douilles Baba j'me débrouille, ne t'inquiète même pas pour le reste Grandis sur le terrain, pas la tête à faire la malla J'écris seul pas besoin de DA, quelque millions c'est l'idéal Discret comme un pirate, on marque des buts pendant qu'ils ratent Faut des projets durables et dépenser l'argent du rap Wesh le J c'est comment ? Ils parlent trop ces commères J'vais pas changer pour du buzz, allez tous niquer vos mères Il est plein d'actions de boloss, il va finir par te blesser J'ai pas fini le lycée, j'ai fini déscolarisé avec C'est des fous à lier, tout ça pour mailler Te-ma leur trou de balle, ce qu'on leur insère J'préfère être sincère quitte à m'faire noyer et prendre l'escalier Que sucer ces fils de pute dans l'ascenseur pour me faire choyer J'vois que des menteurs, vous faites pas les stars dehors Y a que dans vos clips que vous faites des transacs avec des sacs de drogue On veut le monde chico, on veut rien à part le globe Moi J'peux claquer l'avance de l'album dans la garde-robe Et y a plus de ce-pla dans l'Aston ni dans mon corazon Tu m'verras pas faire le bandeur d'hommes peu importe la somme Tu verras pas ça de si tôt, aquarium dans le Vito C'est pas Despacito, c'est le grand classico Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala</t>
+          <t>Stef Backer Beatmaker On est vif, on est revif, demande à mon pote Amine Quand ça va mal il faut du biff, ah ouais c'est les vitamines Ils veulent nous vacciner comme des ienchs, t'sais très bien qu'c'est pas logique Eh ouais c'est moi qu'avait la chemise dans mon freestyle d'anthologie C'est l'grand classico, j'mouille le maillot pour le J On a tous refait les chicos, on mise sur la technologie Légalement, illégalement, crame l'osille n'importe comment Y a ds gamos devant le stud' qui valent le prix d'un appartement J'ai plein de Rolex mais j'ai pas l'temps, j'gue-nar les keufs en boitant Aujourd'hui j'ai fumé trop de verte, dans mon cerveau c'est le printemps Ça peut s'finir en bain d'sang tout ça juste pour un Nous frère on est titulaire on va pas jouer les remplaçants J'aime bouffe et les pasta, les casse et les casse-dalle Mes potos sont pas stables, t'es costaud, j'te castagne Une photo, j'suis re-sta, la coco ne touche pas, j'ai vovo, une fiesta Dans le bendo, je fête ça, les bicos, les rastas, les blancos, les rapzas Une moto, tu passes pas, un couteau et basta Une photo, j'te baise pas, des kilos, j'te laisse pas C'est trop chaud, ne rêve pas, j'vais mollo, j'me presse pas La boco, les messes basses, je coco, je laisse passe Une vovo, une impasse, j'm'envo'vo' dans l'espace Tu me coco, ne teste pas, j'te coco, tu pèse pas Mais coco, dis qu'est-ce t'as, j'suis chaos, j'suis gangsta Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala OJ, tonton, jogging coton, grosse team, gros son Cristalline, potion, one love Marsilia Comme une ville d'adoption, une fonky familia, yeah C'est l'heure du classico, j'suis pas français, j'suis parigo J'trouve l'inspi au bistrot, j'réponds pas au bigo, occupé à m'dérégler Le cur lourd, j'te mens quand j'te dis qu'c'est léger Dis, si tu m'écoutais dans mon jardin secret, tous les mômes ont des rêves Tous les hommes ont des regrets, la limite c'est l'mur J'ai besoin d'vérifier si j'ai bien la tête dure, ouais Tu vas pas r'voir ça d'si tôt, te casse minôt C'est Marseille et Paname, le grand classico Débarque dans l'top comme Despacito Le hip-hop c'est un cadavre et j'suis un asticot À l'aise en business comme en classe éco Palace ou Algeco, j'ai l'feeling ma gueule, Boly, Waddle J'écoute pas les conseils à part ceux d'mon amie pone J'cours que pour l'oseille où les cris dans l'babyphone Dédicace à toutes les zones des Bouches-du-Rhône à l'IDF Don Choa is back, comme Karim Benzema en EDF Déstresse, on se dépêche d'vider la caisse Partage de bénefs, yes, le J c'est le S Moi c'est GER en mode S.N.I.P.E.R Si j'étais d'Paris, j'aurais vendu de la beuh dans le RER J'roule en GTR, ça se tire dessus comme dans GTA Dans la rue beaucoup d'acteurs sont bons qu'à faire du théâtre J'pilote comme Statham, hamdoullah j'ai pas pris d'platane Nerveux comme Zlatan, tu parles de rafales t'as pas de charme Dans les étoiles, je pense au poto là-haut AK47 c'est pas un pistolet à eau J'vais la chercher en merco à 45 C'est pas ma faute à moi si elle repart enceinte J'ai grossi d'la taille, jfais du 46 Y'en a beaucoup pour réussir, ils sont passés par en dessous Moi, je perds pas le nord, j'vais passer par un psy Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala J'vis ma vie, faut pas me casser les couilles RS3 pas d'plaque, faut esquiver la fouille Dans la cale y a des requins, par terre y a des douilles Baba j'me débrouille, ne t'inquiète même pas pour le reste Grandis sur le terrain, pas la tête à faire la malla J'écris seul pas besoin de DA, quelque millions c'est l'idéal Discret comme un pirate, on marque des buts pendant qu'ils ratent Faut des projets durables et dépenser l'argent du rap Wesh le J c'est comment ? Ils parlent trop ces commères J'vais pas changer pour du buzz, allez tous niquer vos mères Il est plein d'actions de boloss, il va finir par te blesser J'ai pas fini le lycée, j'ai fini déscolarisé avec C'est des fous à lier, tout ça pour mailler Te-ma leur trou de balle, ce qu'on leur insère J'préfère être sincère quitte à m'faire noyer et prendre l'escalier Que sucer ces fils de pute dans l'ascenseur pour me faire choyer J'vois que des menteurs, vous faites pas les stars dehors Y a que dans vos clips que vous faites des transacs avec des sacs de drogue On veut le monde chico, on veut rien à part le globe Moi J'peux claquer l'avance de l'album dans la garde-robe Et y a plus de ce-pla dans l'Aston ni dans mon corazon Tu m'verras pas faire le bandeur d'hommes peu importe la somme Tu verras pas ça de si tôt, aquarium dans le Vito C'est pas Despacito, c'est le grand classico Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Viens on va s'en aller Rouler du matin au soir Et se laisser aller Zaho, Don Choa Viens on va s'en aller J'irai où tu veux memmener Où tu veux m'emmener Ok, on va y aller à la Bonnie et Clyde, clic, bang, vida loca, vie de dingue Ma belle attrape le volant, j'm'occupe de charger les flingues T'es ma vie, t'es ma weed, mes armes et ma Bible Une fois vide, la bouteille de Jack' sert de cible Shoot, chérie suis-moi on va shooter le shérif Puis faire des Photomatons sur les radars du périph' Juste moi et ma caille, c'est GTA style Carnage quand on mitraille, même l'armée n'est pas d'taille Toujours le smile même menotté au comico J'm'inquiète pas, j'sais qu'tu viendras m'chercher en hélico Et même si ça finit mal, style Tignasse et Bérénice Dis-toi il vaut mieux ça plutôt qu'on finisse RMIstes Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet You might also like Le programme c'est détente aux Pays-Bas, shopping en Italie On achète des bagnoles en Allemagne, des flingues en ex-Yougoslavie On bouge en jet privé de Colombie à Miami Jet-ski dans les West Indies à la tombée d'la nuit Ils rêvent de nous buter, d'nous mettre en HP ou en cage On s'relaxe dans une grande suite au 25ème étage Cognac Hennessy, Cristal Roederer Fait voler plus de billets que chez les faux-monnayeurs On débarque comme un verre qu'éclate dans ton écran plasma On roule à 220 en Mercedes sous le pont d'l'Alma On en amènera quelques-uns en enfer ou là-haut On partira pas seuls, attends, t'as dit quoi Zaho ? T'as dit quoi Zaho ? Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet C'est la vie qu'on s'est promis Et si demain tout doit finir, on mourra dans le même lit Crimes et délits, à la tombée de la nuit Viens on se fout des ennuis tant qu'on vit ce qu'on s'est promis Où tu vas, je te suis Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet</t>
+          <t>Viens on va s'en aller Rouler du matin au soir Et se laisser aller Zaho, Don Choa Viens on va s'en aller J'irai où tu veux memmener Où tu veux m'emmener Ok, on va y aller à la Bonnie et Clyde, clic, bang, vida loca, vie de dingue Ma belle attrape le volant, j'm'occupe de charger les flingues T'es ma vie, t'es ma weed, mes armes et ma Bible Une fois vide, la bouteille de Jack' sert de cible Shoot, chérie suis-moi on va shooter le shérif Puis faire des Photomatons sur les radars du périph' Juste moi et ma caille, c'est GTA style Carnage quand on mitraille, même l'armée n'est pas d'taille Toujours le smile même menotté au comico J'm'inquiète pas, j'sais qu'tu viendras m'chercher en hélico Et même si ça finit mal, style Tignasse et Bérénice Dis-toi il vaut mieux ça plutôt qu'on finisse RMIstes Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet Le programme c'est détente aux Pays-Bas, shopping en Italie On achète des bagnoles en Allemagne, des flingues en ex-Yougoslavie On bouge en jet privé de Colombie à Miami Jet-ski dans les West Indies à la tombée d'la nuit Ils rêvent de nous buter, d'nous mettre en HP ou en cage On s'relaxe dans une grande suite au 25ème étage Cognac Hennessy, Cristal Roederer Fait voler plus de billets que chez les faux-monnayeurs On débarque comme un verre qu'éclate dans ton écran plasma On roule à 220 en Mercedes sous le pont d'l'Alma On en amènera quelques-uns en enfer ou là-haut On partira pas seuls, attends, t'as dit quoi Zaho ? T'as dit quoi Zaho ? Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet C'est la vie qu'on s'est promis Et si demain tout doit finir, on mourra dans le même lit Crimes et délits, à la tombée de la nuit Viens on se fout des ennuis tant qu'on vit ce qu'on s'est promis Où tu vas, je te suis Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2003, yeah Don Cho', on dit quoi négro? Yeah, Don't Sleep, Horseck Fonky Flex Sta-Beu C'est pour les ladies Qui aiment les friandises Hey yo yo J'suis parfois distant, discret ou parfois distrait Mais quand j'crane, mes notes sont loin d's'effacer comme de la craie Crois-moi j'suis anti-crari, les faux m'contrarient, les gos m'contrarient Donc j'parie sur le rap et pas sur Paris En pagaille j'balance des vibes, tu pagayes, t'as pas d'hype Busta Flex le prototype, donne-moi ton corps on te scalpe Flex Sta-Beu a.k.a. B-b-b-bounce A.k.a. danger danger, c'est l'heure de s'venger, d'trancher Car ma source de flow jamais ne tarit Ta meuf en redemande et applaudit comme une otarie Ça vient du 1-3 en passant par le 9-3 et le 9-5 Synchro comme un offset, encore un autre set Encore une meuf enceinte D'un p'tit gars sans-gêne comme Don Choa My man Horseck a l'il du tigre comme Rocky Balboa Le rap ne peut pas m'abandonner J'suis dans l'son depuis qu'j'ai d'la morve au nez 2003, dix ans d'rimes, faut pas déconner On n'm'a jamais décoré et j'suis encore là Prêt à foutre le souk et tout l'monde est cord-d'a C'est, prêt à foutre le souk et tout l'monde est cord-d'a C'est Don Choa, Horseck, Fonky Flex Busta You might also like De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera Le style coule fluide comme l'ADSL, c'est incontestable J'excelle comme une SL4 traçant mon destin J'préfère les scènes et le rap, parsemer mes vibes Plutôt que m'saigner les veines à engraisser l'État En France j'ai des contentieux et pas d'compte en Suisse Jamais prétentieux, intense dans mes textes sensés et construits J'suis un lyriciste, explicite, un missile J't'explique que cette musique m'excite comme une MILF, c'est Jusqu'à c'que j'crève, j'irai cracher mes vers Faits de crasse et de merde, de trash et de haine, car J'suis né pour le faire, emmêler le verbe, car J'suis né pour le dire, préparé au pire J'lâche une salve de sale flow donc levez vos verres Bougez vos derches, hochez vos têtes et jumpez en l'air Encore un nèg' fait de chair et de flow Un type qui respire grâce à de l'air et des mots Un genre de Shakespeare usant des lettres du ghetto Et qui s'en extirpe en maîtrisant son micro Négro, yo De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera Tu sais c'qui manque dans mes textes quoi?, juste un ple-sam Mais c'est comme la fin d'tes règles, y a juste un peu d'sang Est-ce que t'as vu c'qu'il nous reste, quoi?, juste un peu d'encre Laisse-les parler, laisse c'est juste un peu d'vent Calme avant la tornade Donne un mic, on rentre dans ça comme Razorback Saque ton quater back, no job dans l'biz No coke dans l'pif, trop d'choc dans l'spliff Faut qu'j'croque, Don't Sleep Bouge ton corps, Flex comme Fonky Sta-Beu Don Cho', Horseck et mes gars niquent au MK2 Pas de chute comme Nikkei ou Dow Jones Chope les charts hits entre Indochine et Tom Jones Du pur shit si t'en as, do-do-do donne Wicked weed, même les gars crient ropopopom pom Faut pas qu'tu t'étonnes, des tubes on en a des tonnes Appelle Don Cho' présent pour qu'le bon son résonne De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera</t>
+          <t>2003, yeah Don Cho', on dit quoi négro? Yeah, Don't Sleep, Horseck Fonky Flex Sta-Beu C'est pour les ladies Qui aiment les friandises Hey yo yo J'suis parfois distant, discret ou parfois distrait Mais quand j'crane, mes notes sont loin d's'effacer comme de la craie Crois-moi j'suis anti-crari, les faux m'contrarient, les gos m'contrarient Donc j'parie sur le rap et pas sur Paris En pagaille j'balance des vibes, tu pagayes, t'as pas d'hype Busta Flex le prototype, donne-moi ton corps on te scalpe Flex Sta-Beu a.k.a. B-b-b-bounce A.k.a. danger danger, c'est l'heure de s'venger, d'trancher Car ma source de flow jamais ne tarit Ta meuf en redemande et applaudit comme une otarie Ça vient du 1-3 en passant par le 9-3 et le 9-5 Synchro comme un offset, encore un autre set Encore une meuf enceinte D'un p'tit gars sans-gêne comme Don Choa My man Horseck a l'il du tigre comme Rocky Balboa Le rap ne peut pas m'abandonner J'suis dans l'son depuis qu'j'ai d'la morve au nez 2003, dix ans d'rimes, faut pas déconner On n'm'a jamais décoré et j'suis encore là Prêt à foutre le souk et tout l'monde est cord-d'a C'est, prêt à foutre le souk et tout l'monde est cord-d'a C'est Don Choa, Horseck, Fonky Flex Busta De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera Le style coule fluide comme l'ADSL, c'est incontestable J'excelle comme une SL4 traçant mon destin J'préfère les scènes et le rap, parsemer mes vibes Plutôt que m'saigner les veines à engraisser l'État En France j'ai des contentieux et pas d'compte en Suisse Jamais prétentieux, intense dans mes textes sensés et construits J'suis un lyriciste, explicite, un missile J't'explique que cette musique m'excite comme une MILF, c'est Jusqu'à c'que j'crève, j'irai cracher mes vers Faits de crasse et de merde, de trash et de haine, car J'suis né pour le faire, emmêler le verbe, car J'suis né pour le dire, préparé au pire J'lâche une salve de sale flow donc levez vos verres Bougez vos derches, hochez vos têtes et jumpez en l'air Encore un nèg' fait de chair et de flow Un type qui respire grâce à de l'air et des mots Un genre de Shakespeare usant des lettres du ghetto Et qui s'en extirpe en maîtrisant son micro Négro, yo De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera Tu sais c'qui manque dans mes textes quoi?, juste un ple-sam Mais c'est comme la fin d'tes règles, y a juste un peu d'sang Est-ce que t'as vu c'qu'il nous reste, quoi?, juste un peu d'encre Laisse-les parler, laisse c'est juste un peu d'vent Calme avant la tornade Donne un mic, on rentre dans ça comme Razorback Saque ton quater back, no job dans l'biz No coke dans l'pif, trop d'choc dans l'spliff Faut qu'j'croque, Don't Sleep Bouge ton corps, Flex comme Fonky Sta-Beu Don Cho', Horseck et mes gars niquent au MK2 Pas de chute comme Nikkei ou Dow Jones Chope les charts hits entre Indochine et Tom Jones Du pur shit si t'en as, do-do-do donne Wicked weed, même les gars crient ropopopom pom Faut pas qu'tu t'étonnes, des tubes on en a des tonnes Appelle Don Cho' présent pour qu'le bon son résonne De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Marseille, han Skalp, yeah han, han Mister Don Choa han, han Han, han, Tony P han, han Okay, okay yeah, okay Vas-y Depuis tout jeune dans le game, du basket à la scène Les efforts sont les mêmes, la compète dans les veines Maillons fort de la chaine, le début de mon règne Le chemin de la gloire est long, parsemé de peines Tu vois la réussite tient à peu de chose 20 pour cent de volonté, de sacrifices à haute dose 20 pour cent de talent, 20 pour cent de chance 20 pour cent de capacités pour dead la concurrence Fais-toi plaisir gamin, ton destin est dans tes mains Dix pour cent de fun, on est jeune, on a soif de victoires On a du cur, on arrête pas Tony P, frérot, j'ai le buzz Et je m'installe tranquillement dans le rap Les derniers dix pour cent du boulot, c'est mon entourage Je garde la tête froide malgré les orages L'argent et le succès n'auront jamais mon âme I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah You might also like Okay, j'ai toujours cru à mon potentiel Mais dans une cage, difficile de déployer ses ailes Pour toucher le ciel, il m'a fallu de la bravoure Voilà à quoi ça sert les crocs, limer les barreaux qui t'entourent J'ai le parcours d'un jeune qui croit aux miracles Qu'à des éclairs dans les yeux depuis son coup de foudre pour le rap J'ai tout fait pour faire partie des meilleurs Et depuis la concurrence s'est noyé dans ma sueur J'fais mon beurre pour les tartines de ma famille C'est pour eux que dans le rap, j'suis le tsunami Je vis de mon hobby Et les jaloux ont le rire qu'a la couleur du maillot de Kobe File-moi la balle Tony, j'ai promis de dominer l'rap avec mes gimmicks Mes potes m'ont dit Vas-y fonce l'ami, crois-y à ton accent du midi. Et vois aujourd'hui où j'en suis I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown Faites place au ptit gars sans gêne L'anarchie dans les gênes J'ai l'haleine de la hyène Et la haine de l'alien De la lave dans les veines Majeur levé comme emblème quand j'me ramène T'entends Pull-up, pull-up come again. On m'a dit T'y arriveras pas, tu t'fais des films. Les clefs de la réussite, si j'les trouve pas, j'ferai les fils J'me débrouille man, every day I'm hustlin Money, money time, j'te baise, j'te baise sans vaseline C'pas le même jeu, ni les mêmes billets Toi c'est la CFA 2, moi, c'est la NBA J'marche sur des douilles Ils veulent voir d'quoi j'suis capable ? Moi j'veux qu'ils m'bouffent les couilles, donc j'les mets sur la table Putain d'instinct animal, j'fais pas l'truc à demi man J'ai la technique, le fair-play et le sourire de Zidane On tient mains sur nos guiboles Demande à Tony P's all On roule, on rode On roule, on rode Jusqu'au prochain épisode I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah Tony P, Sopra', Mister Don Choa FF, Psy 4 Yeah, yeah Skalpovich, Skalpovich Pour les clefs de la réussite frangin</t>
+          <t>Marseille, han Skalp, yeah han, han Mister Don Choa han, han Han, han, Tony P han, han Okay, okay yeah, okay Vas-y Depuis tout jeune dans le game, du basket à la scène Les efforts sont les mêmes, la compète dans les veines Maillons fort de la chaine, le début de mon règne Le chemin de la gloire est long, parsemé de peines Tu vois la réussite tient à peu de chose 20 pour cent de volonté, de sacrifices à haute dose 20 pour cent de talent, 20 pour cent de chance 20 pour cent de capacités pour dead la concurrence Fais-toi plaisir gamin, ton destin est dans tes mains Dix pour cent de fun, on est jeune, on a soif de victoires On a du cur, on arrête pas Tony P, frérot, j'ai le buzz Et je m'installe tranquillement dans le rap Les derniers dix pour cent du boulot, c'est mon entourage Je garde la tête froide malgré les orages L'argent et le succès n'auront jamais mon âme I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah Okay, j'ai toujours cru à mon potentiel Mais dans une cage, difficile de déployer ses ailes Pour toucher le ciel, il m'a fallu de la bravoure Voilà à quoi ça sert les crocs, limer les barreaux qui t'entourent J'ai le parcours d'un jeune qui croit aux miracles Qu'à des éclairs dans les yeux depuis son coup de foudre pour le rap J'ai tout fait pour faire partie des meilleurs Et depuis la concurrence s'est noyé dans ma sueur J'fais mon beurre pour les tartines de ma famille C'est pour eux que dans le rap, j'suis le tsunami Je vis de mon hobby Et les jaloux ont le rire qu'a la couleur du maillot de Kobe File-moi la balle Tony, j'ai promis de dominer l'rap avec mes gimmicks Mes potes m'ont dit Vas-y fonce l'ami, crois-y à ton accent du midi. Et vois aujourd'hui où j'en suis I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown Faites place au ptit gars sans gêne L'anarchie dans les gênes J'ai l'haleine de la hyène Et la haine de l'alien De la lave dans les veines Majeur levé comme emblème quand j'me ramène T'entends Pull-up, pull-up come again. On m'a dit T'y arriveras pas, tu t'fais des films. Les clefs de la réussite, si j'les trouve pas, j'ferai les fils J'me débrouille man, every day I'm hustlin Money, money time, j'te baise, j'te baise sans vaseline C'pas le même jeu, ni les mêmes billets Toi c'est la CFA 2, moi, c'est la NBA J'marche sur des douilles Ils veulent voir d'quoi j'suis capable ? Moi j'veux qu'ils m'bouffent les couilles, donc j'les mets sur la table Putain d'instinct animal, j'fais pas l'truc à demi man J'ai la technique, le fair-play et le sourire de Zidane On tient mains sur nos guiboles Demande à Tony P's all On roule, on rode On roule, on rode Jusqu'au prochain épisode I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah Tony P, Sopra', Mister Don Choa FF, Psy 4 Yeah, yeah Skalpovich, Skalpovich Pour les clefs de la réussite frangin</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Jeune SkeeZ sur le beat Je suis de bonne humeur aujourd'hui Je roule à cinquante et jt'emmerde Je suis de bonne humeur aujourd'hui de très bonne humeur aujourdhui Je roule à cinquante et j't'emmerde Je suis de bonne humeur aujourd'hui, je roule à cinquante et je t'emmerde Ma voiture sort pas de chez Pozzi, j'arriverai à destination quand même Je compte acquérir un immeuble, je prends des infos, je me renseigne Faire les sous pour les besoins de la famille, tous les jours, c'est la même rengaine Tu fais du stop, je fais l'plein, jallume une clope, je fais lplein J'écris pour ne pas quon m'oublie, j'écris pour devenir quelqu'un Jfais pas de la zumba comme bon nombre, je mérite qu'une rue porte mon nom J'veux pas que ma chérie porte mon nom, ni qu'elle me suive comme mon ombre Je suis parti depuis plusieurs semaines, elle veut savoir quand j'rentre à la maison Je suis chez le coiffeur, je te rappelle, je dois ramener ma coupe à la raison Je suis apolitique et athée au lit, je suis gâté J'éteins la radio, c'est éclaté, donnez le ballon à Mbappé Paris, c'est la rue à mon père, je laisse les jolies filles traverser J'ai de l'amour pour mes confrères, je laisse toujours les MC traverser J'aime les vans et les fourgonnettes, un jour je roulerai en GMC Inch'Allah Si tu veux m'check par la fenêtre, faudra te mettre sur la pointe des pieds You might also like Je suis de bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde hey, salut Je suis de bonne humeur aujourd'hui de très bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde Tout va bien mais vous boudez, moi, j'suis dans un good mood today J'ai autre chose à foutre que vous écouter ou mater les boules au passage clouté Feu vert, ça klaxonne derrière, moi, j'démarre pas, non, j'ai pas calé J'ai les yeux fermés et les bras en l'air, je chante à tue-tête sur Mariah Carey Yeah, yeah Dans les nuages, les pieds sur les freins et l'embrayage Quand ça roule bien, j'trouve ça dommage, vu qu'j'écris mes textes dans les embouteillages J'veux pas semer la discorde, j'baisse la vitre, j'fais un p'tit coucou Mon bolide sort de l'usine Ford, fabriqué par Philippe Poutou Pas besoin d'une caisse de pimp, on est bien, on est comme des kings Sur la route avec mon pote Flynt, road movie avec et Clint Eastwood my mental is good, j'fais pas la morale, j'fais mon rap discount Je n'ai pas le time pour tous leurs discours, shut up, shit Je suis de bonne humeur aujourd'hui de très bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde ah ouais ? Je suis de bonne humeur aujourd'hui de très bonne humeur Je roule à cinquante et j't'emmerde je roule à trente même Je suis de bonne humeur aujourd'hui je suis pas ta mère, je suis pas ta sur Je roule à cinquante et j't'emmerde j'baisse la vitre, j'fais un p'tit coucou Je suis de bonne humeur aujourd'hui je vous en prie Je roule à cinquante et j't'emmerde hey Je suis de bonne humeur aujourd'hui</t>
+          <t>Jeune SkeeZ sur le beat Je suis de bonne humeur aujourd'hui Je roule à cinquante et jt'emmerde Je suis de bonne humeur aujourd'hui de très bonne humeur aujourdhui Je roule à cinquante et j't'emmerde Je suis de bonne humeur aujourd'hui, je roule à cinquante et je t'emmerde Ma voiture sort pas de chez Pozzi, j'arriverai à destination quand même Je compte acquérir un immeuble, je prends des infos, je me renseigne Faire les sous pour les besoins de la famille, tous les jours, c'est la même rengaine Tu fais du stop, je fais l'plein, jallume une clope, je fais lplein J'écris pour ne pas quon m'oublie, j'écris pour devenir quelqu'un Jfais pas de la zumba comme bon nombre, je mérite qu'une rue porte mon nom J'veux pas que ma chérie porte mon nom, ni qu'elle me suive comme mon ombre Je suis parti depuis plusieurs semaines, elle veut savoir quand j'rentre à la maison Je suis chez le coiffeur, je te rappelle, je dois ramener ma coupe à la raison Je suis apolitique et athée au lit, je suis gâté J'éteins la radio, c'est éclaté, donnez le ballon à Mbappé Paris, c'est la rue à mon père, je laisse les jolies filles traverser J'ai de l'amour pour mes confrères, je laisse toujours les MC traverser J'aime les vans et les fourgonnettes, un jour je roulerai en GMC Inch'Allah Si tu veux m'check par la fenêtre, faudra te mettre sur la pointe des pieds Je suis de bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde hey, salut Je suis de bonne humeur aujourd'hui de très bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde Tout va bien mais vous boudez, moi, j'suis dans un good mood today J'ai autre chose à foutre que vous écouter ou mater les boules au passage clouté Feu vert, ça klaxonne derrière, moi, j'démarre pas, non, j'ai pas calé J'ai les yeux fermés et les bras en l'air, je chante à tue-tête sur Mariah Carey Yeah, yeah Dans les nuages, les pieds sur les freins et l'embrayage Quand ça roule bien, j'trouve ça dommage, vu qu'j'écris mes textes dans les embouteillages J'veux pas semer la discorde, j'baisse la vitre, j'fais un p'tit coucou Mon bolide sort de l'usine Ford, fabriqué par Philippe Poutou Pas besoin d'une caisse de pimp, on est bien, on est comme des kings Sur la route avec mon pote Flynt, road movie avec et Clint Eastwood my mental is good, j'fais pas la morale, j'fais mon rap discount Je n'ai pas le time pour tous leurs discours, shut up, shit Je suis de bonne humeur aujourd'hui de très bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde ah ouais ? Je suis de bonne humeur aujourd'hui de très bonne humeur Je roule à cinquante et j't'emmerde je roule à trente même Je suis de bonne humeur aujourd'hui je suis pas ta mère, je suis pas ta sur Je roule à cinquante et j't'emmerde j'baisse la vitre, j'fais un p'tit coucou Je suis de bonne humeur aujourd'hui je vous en prie Je roule à cinquante et j't'emmerde hey Je suis de bonne humeur aujourd'hui</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dans les clubs il y a des go mortelles On va jouer les pilleurs rien que pour elles Prêt à ambiancer ces miss Soudain le regard de cette métisse Me stoppe, je n'ai pas pu résister Miss t'es rea-really bonne, rea- really really bonne Et c'est du vrai, pas du si-sili silicone Tu t'éclates, tu déboites, tu squattes le podium L'air est moite, la boite d'vient une fumerie d'opium J'te mens pas, tu chauffes de haut en bas Quand on voit ton bon-pas on dit matte la bomba Ton regard ne trompe pas tu as c'que les autres n'ont pas Me mets pas de stop, girl, donne moi ton number Hey miss, me mets pas de stop, approche-toi faut que j'te dise j'te dise J'peux pas partir sans ton phone, lâche-moi ton 06 Tu m'rends dingue, t'es trop belle trop belle Demain j't'apelle Hey miss, me mets pas de stop, hey miss, hey miss Hey miss, me mets pas de stop, hey miss, hey miss Approches-toi faut que j'te dise Tu veux danser pour une bague de fiancé Tu veux l'son pour danser à la Beyoncé Tu veux t'ambiancer, reste dans ta lancée J'viens pas t'offenser même si j'suis défoncé Lady, tu sais ce que j'veux n'est-ce pas Et si tu viens pas, j'en mourrais pas Mais ça te chauffe, approche, faut pas que tu t'arrêtes Dans ma poche, c'est ni mon phone, ni mes cigarettes J'viens claquer ma paye, siffler les bouteilles Vider les cocktails, vise la top-model Jette un il dans le club tu vois cette go mortelle Trop belle, donne moi ton phone et demain j't'appelle Tu m'as trop rendu fou miss Impossible que j't'oublie J'peux pas repartir sans ton 06 You might also like Hey miss, me mets pas de stop, approche-toi faut que j'te dise j'te dise J'peux pas partir sans ton phone, lâche-moi ton 06 Tu m'rends dingue, t'es trop belle trop belle Demain j't'apelle</t>
+          <t>Dans les clubs il y a des go mortelles On va jouer les pilleurs rien que pour elles Prêt à ambiancer ces miss Soudain le regard de cette métisse Me stoppe, je n'ai pas pu résister Miss t'es rea-really bonne, rea- really really bonne Et c'est du vrai, pas du si-sili silicone Tu t'éclates, tu déboites, tu squattes le podium L'air est moite, la boite d'vient une fumerie d'opium J'te mens pas, tu chauffes de haut en bas Quand on voit ton bon-pas on dit matte la bomba Ton regard ne trompe pas tu as c'que les autres n'ont pas Me mets pas de stop, girl, donne moi ton number Hey miss, me mets pas de stop, approche-toi faut que j'te dise j'te dise J'peux pas partir sans ton phone, lâche-moi ton 06 Tu m'rends dingue, t'es trop belle trop belle Demain j't'apelle Hey miss, me mets pas de stop, hey miss, hey miss Hey miss, me mets pas de stop, hey miss, hey miss Approches-toi faut que j'te dise Tu veux danser pour une bague de fiancé Tu veux l'son pour danser à la Beyoncé Tu veux t'ambiancer, reste dans ta lancée J'viens pas t'offenser même si j'suis défoncé Lady, tu sais ce que j'veux n'est-ce pas Et si tu viens pas, j'en mourrais pas Mais ça te chauffe, approche, faut pas que tu t'arrêtes Dans ma poche, c'est ni mon phone, ni mes cigarettes J'viens claquer ma paye, siffler les bouteilles Vider les cocktails, vise la top-model Jette un il dans le club tu vois cette go mortelle Trop belle, donne moi ton phone et demain j't'appelle Tu m'as trop rendu fou miss Impossible que j't'oublie J'peux pas repartir sans ton 06 Hey miss, me mets pas de stop, approche-toi faut que j'te dise j'te dise J'peux pas partir sans ton phone, lâche-moi ton 06 Tu m'rends dingue, t'es trop belle trop belle Demain j't'apelle</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sat Je réponds de rien le jour où les miens nont plus rien à se mettre sous la dent Putain de merde, il faut que je fasse rentrer les sous à temps Je suis plus motivé que jamais je joue pas pour jouer Je suis condamné à réussir moi je joue pour gagner Que Dieu tentende, le plus tôt sera le mieux Parce que le diable se fait tentant Cet enfoiré na pas fini de me tester Le plus dur nest pas de trouver le droit chemin cest dy rester Parfois je suis dépassé, je crois que je vais serrer Des fois je me dis tant que jy serais pas passé je réessayerai Souvent je me remonte le moral en me disant tout bas Ça ira mieux demain et puis tant que la famille va tout va Jremonte le terrain, parti de derrière je vais de lavant Parce que jai pas le pouvoir de revenir en arrière Tu veux toucher les sommets frère, faut plus semer Le plus dur nest pas de faire des choix cest de les assumer Don Choa À la poursuite de mon rêve si Dieu veut jirai au bout Parce que je veux rentrer dedans et pas tourner autour Déjà perdu trop de temps si tu savais tout ce que je regrette Le passé me revient sous forme de doutes ou de dettes Ma vie je lai misé sur un coup de tête Et maintenant je sais plus si je dois lenvisager sous forme de route ou de quête Mais malgré, les obstacles je serai sincère et entier Tu préfères être hypocrite pour être le patron du chantier Chacal, chacalette, on sera jamais des rentiers Au mieux on sera des vieux avec des cannes et des dentiers Donne le meilleur quel que soit ton but ou ton métier Et ne juge pas, moi-même pour les putes, jai du respect Ne juge pas les gens tu sais pas par quoi il sont passés De nos jours ça rappe pas pour sexprimer mais pour ramasser Faire sauter le coffre et les portes du succès cadenassé Et on en donne toujours plus parce que cest jamais assez You might also like Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien Le Rat Luciano En traînant où les grands traînent jai pris les manières, appris le manège Tout appris sur la monnaie et le mal-être, tout sur la vie en bande Tout appris sur le manque, sur le vol, sur les jeux Tout sur les ventes de la drogue, tout sur les dégâts des feux Depuis, bons ou pas, je fais mes choix Je mets la merde en perspective Je fais de ma putain de vie ce que je veux quelle soit Un pour les miens, deux pour la monnaie Mec ma vie ne sarrête pas au Rap Jpeux tout quitter dans la minute même Moi cest lépoque dialogue de sourd Affronte ou crève dans larène L'époque moi je veux faire des sous, j'veux la villa de rêve Lépoque tente pour le tout Lépoque rend coup pour coup Lépoque dangereuse Lépoque pou pou pou pou pou pou Chacun, sa putain dâme Chacun, ses putains de choix Chacun, son braquage, sa putain darme Chacun, sa putain de voie, ses putains de proies Son putain dart, et le mien dart Cest tout le quartier dans ma putain de voix Menzo Dans la vie, personne ne peut le faire ou y croire à ta place Tas le choix ou tu baisses les bras ou tes le premier de la classe Au départ on passe par les mêmes voies les mêmes parcours Certains trouvent leurs routes, dautres empruntent lissue de secours Mais quoi quil en soit frangin, cest toi seul qui décide Ton avenir est entre tes mains et cest toi seul qui le dessine Fais ce que tas à faire mais surtout noublies pas Que personne ne viendra purger ta peine si tes jugé coupable Donne le meilleur, repousse tes limites, cest le prix Reconnais cqui est bon et ce qui est mauvais pour toi, puis fais ltri Cette vie ressemble à un combat, la rue à un ring, chaque jour à un round On fait avec en se serrant les coudes On sait que ça tient à rien Pour aller loin faut se donner les moyens Ni plus ni moins, cest ça ou rien Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien</t>
+          <t>Sat Je réponds de rien le jour où les miens nont plus rien à se mettre sous la dent Putain de merde, il faut que je fasse rentrer les sous à temps Je suis plus motivé que jamais je joue pas pour jouer Je suis condamné à réussir moi je joue pour gagner Que Dieu tentende, le plus tôt sera le mieux Parce que le diable se fait tentant Cet enfoiré na pas fini de me tester Le plus dur nest pas de trouver le droit chemin cest dy rester Parfois je suis dépassé, je crois que je vais serrer Des fois je me dis tant que jy serais pas passé je réessayerai Souvent je me remonte le moral en me disant tout bas Ça ira mieux demain et puis tant que la famille va tout va Jremonte le terrain, parti de derrière je vais de lavant Parce que jai pas le pouvoir de revenir en arrière Tu veux toucher les sommets frère, faut plus semer Le plus dur nest pas de faire des choix cest de les assumer Don Choa À la poursuite de mon rêve si Dieu veut jirai au bout Parce que je veux rentrer dedans et pas tourner autour Déjà perdu trop de temps si tu savais tout ce que je regrette Le passé me revient sous forme de doutes ou de dettes Ma vie je lai misé sur un coup de tête Et maintenant je sais plus si je dois lenvisager sous forme de route ou de quête Mais malgré, les obstacles je serai sincère et entier Tu préfères être hypocrite pour être le patron du chantier Chacal, chacalette, on sera jamais des rentiers Au mieux on sera des vieux avec des cannes et des dentiers Donne le meilleur quel que soit ton but ou ton métier Et ne juge pas, moi-même pour les putes, jai du respect Ne juge pas les gens tu sais pas par quoi il sont passés De nos jours ça rappe pas pour sexprimer mais pour ramasser Faire sauter le coffre et les portes du succès cadenassé Et on en donne toujours plus parce que cest jamais assez Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien Le Rat Luciano En traînant où les grands traînent jai pris les manières, appris le manège Tout appris sur la monnaie et le mal-être, tout sur la vie en bande Tout appris sur le manque, sur le vol, sur les jeux Tout sur les ventes de la drogue, tout sur les dégâts des feux Depuis, bons ou pas, je fais mes choix Je mets la merde en perspective Je fais de ma putain de vie ce que je veux quelle soit Un pour les miens, deux pour la monnaie Mec ma vie ne sarrête pas au Rap Jpeux tout quitter dans la minute même Moi cest lépoque dialogue de sourd Affronte ou crève dans larène L'époque moi je veux faire des sous, j'veux la villa de rêve Lépoque tente pour le tout Lépoque rend coup pour coup Lépoque dangereuse Lépoque pou pou pou pou pou pou Chacun, sa putain dâme Chacun, ses putains de choix Chacun, son braquage, sa putain darme Chacun, sa putain de voie, ses putains de proies Son putain dart, et le mien dart Cest tout le quartier dans ma putain de voix Menzo Dans la vie, personne ne peut le faire ou y croire à ta place Tas le choix ou tu baisses les bras ou tes le premier de la classe Au départ on passe par les mêmes voies les mêmes parcours Certains trouvent leurs routes, dautres empruntent lissue de secours Mais quoi quil en soit frangin, cest toi seul qui décide Ton avenir est entre tes mains et cest toi seul qui le dessine Fais ce que tas à faire mais surtout noublies pas Que personne ne viendra purger ta peine si tes jugé coupable Donne le meilleur, repousse tes limites, cest le prix Reconnais cqui est bon et ce qui est mauvais pour toi, puis fais ltri Cette vie ressemble à un combat, la rue à un ring, chaque jour à un round On fait avec en se serrant les coudes On sait que ça tient à rien Pour aller loin faut se donner les moyens Ni plus ni moins, cest ça ou rien Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>J'débarque à l'heure où la piste est déjà humide Dedans plus que des femmes vénales et des gars cupides Moi, j'ai pas besoin de boire, j'suis déjà stupide Et, si tu me refiles ta bouteille, c'est que t'es pas lucide Montre tes orteils si t'es pas pudique Y'a toutes sortes de freestyles sur la voie publique J'sors un truc de forme conique à déconseiller aux comiques Ici, c'est pas la colonie, ni le jardin zoologique Garde les yeux dans les orbites quand tu marches Reste ou pars, mais fais pas style Y'en a marre Juste derrière toi, où ça ? Oh pardon Demande une blonde à la brune et la tournée au patron x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Elles veulent qu'des blindés, pas des soûlards qui branchent en bandes Ok, laisse tomber, c'est pour rien que tu bandes J'ai l'air d'un obsédé ou d'un tox' en manque Ou d'un rappeur qui a plus rien sur son compte en banque ? Don't Sleep sur les platines, de la fumée dans la cabine Marijuana la vitamine, jamais de rail dans la narine Je suis ni dans la marine, ni l'armée Juste prêt à semer la panique qui la fait Quoi ? J'ai pas vomi sur le mic, ni sur tes Nike C'est pas moi qu'ai volé la selle de ton mountain bike Rentre à pied mais rentre entier Ramène-là à lhôtel ou nique dans le chantier You might also like x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Ouais, y a des femmes célibataires, ouais, elles sont à fond Ouais, elles dansent la fonk mais certaines sentent la skunk Sous les aisselles donc dis-leur de pas lever les bras Une nuit avec elle tu peux jeter les draps Trop près du feu tu vas griller Aaah À côté des enceintes, on s'entend plus crier Quoi ?! Qui veut boire à lil et rentrer sans payer ? Moi ! Dire que, tout à l'heure, faut aller travailler Ah... Appelle la police, Chirac ou David Douillet Tu peux leur dire d'aller tous se faire fouiller On n'a que le cur et les couilles Mon armée de salauds se débrouille Je veux pas laisser de douille Don Choa mitraille x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille x2 Mets le feu sur le toit de la discothèque Big up le DJ car il envoie des petites rockets Levez pas les bras, y'a des pickpockets Quoi faire ? Hurler, terre brûlée x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>J'débarque à l'heure où la piste est déjà humide Dedans plus que des femmes vénales et des gars cupides Moi, j'ai pas besoin de boire, j'suis déjà stupide Et, si tu me refiles ta bouteille, c'est que t'es pas lucide Montre tes orteils si t'es pas pudique Y'a toutes sortes de freestyles sur la voie publique J'sors un truc de forme conique à déconseiller aux comiques Ici, c'est pas la colonie, ni le jardin zoologique Garde les yeux dans les orbites quand tu marches Reste ou pars, mais fais pas style Y'en a marre Juste derrière toi, où ça ? Oh pardon Demande une blonde à la brune et la tournée au patron x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Elles veulent qu'des blindés, pas des soûlards qui branchent en bandes Ok, laisse tomber, c'est pour rien que tu bandes J'ai l'air d'un obsédé ou d'un tox' en manque Ou d'un rappeur qui a plus rien sur son compte en banque ? Don't Sleep sur les platines, de la fumée dans la cabine Marijuana la vitamine, jamais de rail dans la narine Je suis ni dans la marine, ni l'armée Juste prêt à semer la panique qui la fait Quoi ? J'ai pas vomi sur le mic, ni sur tes Nike C'est pas moi qu'ai volé la selle de ton mountain bike Rentre à pied mais rentre entier Ramène-là à lhôtel ou nique dans le chantier x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Ouais, y a des femmes célibataires, ouais, elles sont à fond Ouais, elles dansent la fonk mais certaines sentent la skunk Sous les aisselles donc dis-leur de pas lever les bras Une nuit avec elle tu peux jeter les draps Trop près du feu tu vas griller Aaah À côté des enceintes, on s'entend plus crier Quoi ?! Qui veut boire à lil et rentrer sans payer ? Moi ! Dire que, tout à l'heure, faut aller travailler Ah... Appelle la police, Chirac ou David Douillet Tu peux leur dire d'aller tous se faire fouiller On n'a que le cur et les couilles Mon armée de salauds se débrouille Je veux pas laisser de douille Don Choa mitraille x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille x2 Mets le feu sur le toit de la discothèque Big up le DJ car il envoie des petites rockets Levez pas les bras, y'a des pickpockets Quoi faire ? Hurler, terre brûlée x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis J'me rappelle de c'qui m'a fait mal, ça m'l'aisse un sale arrière-goût Faudrait garder qu'les bons souvenirs, j'me rappelle trop, ça m'rend fou J'me rappelle qu'y'a rien à y faire mais, quand même, ça m'ronge On a chacun c'qu'on regrette, ses remords, sa fierté, sa honte Sans pudeur au mic, j'veux une revanche comme Mike Rouge de rage quand j'braille, rappelle-toi qu'on sort des entrailles Sanglantes de la femme tremblante Sèche tes larmes, entre dans ce monde et écoute ceux qui s'lamentent Ça m'rappelle un truc, fallait qu'j'ai un but, y'a pas d'remède La vie va te décevoir si tu fais qu'attendre un peu d'aide J'me rappelle d'où on est parti, et qu'il faut niquer l'bénef Va fouiller le fond d'tes archives, mon groupe, c'est la FF Maintenant qu'on a fait des disques, tu t'rappelles de moi Je m'rappelle et, toi, t'idéalises, quoi ? Tu t'rappelles pas ? J'me rappelle quand on m'a trahi, rejeté, détesté, haï Je me rappelle que j'me sens naïf et que l'espoir doit rejaillir J'me rappelle c'que c'est de perdre des êtres chers de sa famille J'me rappelle quand on parlait sur un banc, j'me rappelle mes amis Ceux qu'on a, ceux qu'on a perdu, des visages dans ma tête dure Ici bas, ça sent l'pourri, envoyez-moi un peu d'air pur J'brûle la verdure dans des feuilles à rouler Goûte à l'amertume depuis qu'la première larme de mon il a coulé Tu sais qu'ils se foutent de savoir si ce monde nous convient Lâche rien, on se souvient d'où on vient You might also like Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis J'ai des séquelles dans la mémoire, des squelettes dans l'armoire Je jette une belette dans ta baignoire, une allumette dans l'réservoir J'aurai beau courir, mon passé me suit comme mon ombre Vous voudriez que j'me suicide, comme mon oncle ? Lutte, jusqu'à ce que tout soit fini, et donne le compte On monte le score, hausse le ton, cogne fort, et monte le son Quand j'arrivais, ils disaient Hmm, hmm, nan nan nan Et, aujourd'hui, écoute-moi rire Ha ha ha ha ha J'remercie et prie à chaque instant avec insistance Laisse-moi cracher sur les hautes instances devant l'assistance J'ai pas la prétention de dire c'que nous devons faire Laisse-moi exprimer ma joie avec ceux qui m'sont chers Tout serait différent si on était moins paresseux, mon frère Si on s'entraidait au lieu du contraire Les dirigeants oublient l'temps où ils pleuraient pour qu'on leur change leur couche S'ils s'en rappelaient, ils auraient plus d'humanité pour ceux qui souffrent Ceux qui se sentent prisonniers, enfermés même au dehors Assis au bord de la fenêtre en rêvant d'un autre décor Rappelle-toi que ceux en fauteuil roulant nous voient courir Rappelle-toi de ces parents qui voient leurs enfants mourir Ici bas abominations, meurtres, viols, incestes Un royaume attend ses princes et ses princesses Ils se foutent de savoir si ce monde nous convient Lâche rien, on se souvient d'où on vient Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis</t>
+          <t>Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis J'me rappelle de c'qui m'a fait mal, ça m'l'aisse un sale arrière-goût Faudrait garder qu'les bons souvenirs, j'me rappelle trop, ça m'rend fou J'me rappelle qu'y'a rien à y faire mais, quand même, ça m'ronge On a chacun c'qu'on regrette, ses remords, sa fierté, sa honte Sans pudeur au mic, j'veux une revanche comme Mike Rouge de rage quand j'braille, rappelle-toi qu'on sort des entrailles Sanglantes de la femme tremblante Sèche tes larmes, entre dans ce monde et écoute ceux qui s'lamentent Ça m'rappelle un truc, fallait qu'j'ai un but, y'a pas d'remède La vie va te décevoir si tu fais qu'attendre un peu d'aide J'me rappelle d'où on est parti, et qu'il faut niquer l'bénef Va fouiller le fond d'tes archives, mon groupe, c'est la FF Maintenant qu'on a fait des disques, tu t'rappelles de moi Je m'rappelle et, toi, t'idéalises, quoi ? Tu t'rappelles pas ? J'me rappelle quand on m'a trahi, rejeté, détesté, haï Je me rappelle que j'me sens naïf et que l'espoir doit rejaillir J'me rappelle c'que c'est de perdre des êtres chers de sa famille J'me rappelle quand on parlait sur un banc, j'me rappelle mes amis Ceux qu'on a, ceux qu'on a perdu, des visages dans ma tête dure Ici bas, ça sent l'pourri, envoyez-moi un peu d'air pur J'brûle la verdure dans des feuilles à rouler Goûte à l'amertume depuis qu'la première larme de mon il a coulé Tu sais qu'ils se foutent de savoir si ce monde nous convient Lâche rien, on se souvient d'où on vient Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis J'ai des séquelles dans la mémoire, des squelettes dans l'armoire Je jette une belette dans ta baignoire, une allumette dans l'réservoir J'aurai beau courir, mon passé me suit comme mon ombre Vous voudriez que j'me suicide, comme mon oncle ? Lutte, jusqu'à ce que tout soit fini, et donne le compte On monte le score, hausse le ton, cogne fort, et monte le son Quand j'arrivais, ils disaient Hmm, hmm, nan nan nan Et, aujourd'hui, écoute-moi rire Ha ha ha ha ha J'remercie et prie à chaque instant avec insistance Laisse-moi cracher sur les hautes instances devant l'assistance J'ai pas la prétention de dire c'que nous devons faire Laisse-moi exprimer ma joie avec ceux qui m'sont chers Tout serait différent si on était moins paresseux, mon frère Si on s'entraidait au lieu du contraire Les dirigeants oublient l'temps où ils pleuraient pour qu'on leur change leur couche S'ils s'en rappelaient, ils auraient plus d'humanité pour ceux qui souffrent Ceux qui se sentent prisonniers, enfermés même au dehors Assis au bord de la fenêtre en rêvant d'un autre décor Rappelle-toi que ceux en fauteuil roulant nous voient courir Rappelle-toi de ces parents qui voient leurs enfants mourir Ici bas abominations, meurtres, viols, incestes Un royaume attend ses princes et ses princesses Ils se foutent de savoir si ce monde nous convient Lâche rien, on se souvient d'où on vient Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>La rue nous surveille et observe telle une caméra On veut tous le million et la Porsche Carrera Peu importe le moyen par lequel on y accédera Est ce pour le Diable ou les Anges qu'on cédera ? Est ce que c'est dans l'travail où l'bizz qu'on finira ? Nul ne sait si c'est au paradis ou en enfer qu'on ira Seul la teneur de nos actes nous l'indiquera C'est encore trop tôt pour le dire qui vivra verra S'il y a un paradis c'est qu'il y a un enfer S'il y a du bien c'est qu'il y a du mal S'il y a un Dieu c'est qu'il y a un Diable Je suis pris entre les deux feux C'est un peu le lot d'chacun faut faire avec c'est inévitable Pris entre deux feux quand une garce me dit J'me fous que t'aies une gonze vas-y serre moi Pris entre deux feux lorsque mes gars m'disent Vas-y fume, bois, ça fait du bien Alors que c'est mauvais pour moi Si j'foire à qui veux-tu que je m'en prenne hormis à moi même Personne ne me force ni ne m'entraîne Qui que tu sois tu restes seul maître à bord De ce jour de ta naissance jusqu'à celui de ta mort On a tous une tâche à accomplir Que ce soit en bien ou en mal J'ferais mon truc avant de partir Rejoindre les Anges au cieux C'est tout ce que je nous souhaite Que brûler en enfer, quoiqu'on y est déjà peut-être ? You might also like C'est une histoire de haine et d'amour Je brûle entre ces deux feux Tu ne vois pas le point rouge entre tes deux yeux ? Mort en sursis, tous on s'contente de peu Les limites se r'poussent, ça t'rend nerveux Boulot sérieux Don' sale gamin Rentre dans le rap comme deux doigts dans un sac à main Si on te tire dessus de chaque côté de la rue Couche toi sous les balles que ces cons sentretuent Il était une fois entre ciel et terre Entre dans un monde nouveau comme si c'était hier Entre paix, guerres, cris et prières C'est comme ça qu'on vit entre ciel et terre Je me souviens de tout comme si c'était hier Verse par terre pour un ami mis en terre Va dire aux Anges qu'ici l'argent est l'nerf de la guerre C'est comme ça qu'on vit entre ciel et terre Béton style, quelque soit l'âge, le sexe, l'niveau d'étude La vie fait de nous ce qu'on est y'a pas de quoi garder rancune Être déboussolé ou plein damertume Tant qu'on a la volonté, la liberté d'choisir pas d'inquiétude Nous apprenons jour et nuit la vie entre ciel et terre On peut répondre non et oui Aimer mère et père Évaluer le pour et le contre Se retrouver haut et bas Perdre ou retrouver son compte lorsqu'on est entre le bien et le mal Ce que la vie offre à la vie Ne nourrit pas tout le temps l'espoir On croit aux amours tolérances douceurs et joies Y'a aussi le côté morose Haine humeur noire, angoisse, fureur, crainte, tristesse, et désespoir Chacun choisit ses valeurs, sa manière d'être et de voir Son code moral, son mode de vie, son clan et son devoir J'dis ces trucs histoire de faire savoir Ce que c'est de ne savoir que faire A part se servir de son savoir La vie te donne et elle te l'reprend aussitôt Y'a t-il pire que la destiné d'un nécessiteux Dans la pauvreté totalisons la force et résiste Garde la foi en Dieu et je les félicite On n'a pas toujours ce qu'on mérite Pas toujours à manger dans la marmite Là le mal et le bien se précipitent Testent le peuple pour voir ses limites Entre ciel et terre, Satan s'agite Il était une fois entre ciel et terre Entre dans un monde nouveau comme si c'était hier Entre paix, guerres, cris et prières C'est comme ça qu'on vit entre ciel et terre Je me souviens de tout comme si c'était hier Verse par terre pour un ami mis en terre Va dire aux Anges qu'ici l'argent est l'nerf de la guerre C'est comme ça qu'on vit entre ciel et terre</t>
+          <t>La rue nous surveille et observe telle une caméra On veut tous le million et la Porsche Carrera Peu importe le moyen par lequel on y accédera Est ce pour le Diable ou les Anges qu'on cédera ? Est ce que c'est dans l'travail où l'bizz qu'on finira ? Nul ne sait si c'est au paradis ou en enfer qu'on ira Seul la teneur de nos actes nous l'indiquera C'est encore trop tôt pour le dire qui vivra verra S'il y a un paradis c'est qu'il y a un enfer S'il y a du bien c'est qu'il y a du mal S'il y a un Dieu c'est qu'il y a un Diable Je suis pris entre les deux feux C'est un peu le lot d'chacun faut faire avec c'est inévitable Pris entre deux feux quand une garce me dit J'me fous que t'aies une gonze vas-y serre moi Pris entre deux feux lorsque mes gars m'disent Vas-y fume, bois, ça fait du bien Alors que c'est mauvais pour moi Si j'foire à qui veux-tu que je m'en prenne hormis à moi même Personne ne me force ni ne m'entraîne Qui que tu sois tu restes seul maître à bord De ce jour de ta naissance jusqu'à celui de ta mort On a tous une tâche à accomplir Que ce soit en bien ou en mal J'ferais mon truc avant de partir Rejoindre les Anges au cieux C'est tout ce que je nous souhaite Que brûler en enfer, quoiqu'on y est déjà peut-être ? C'est une histoire de haine et d'amour Je brûle entre ces deux feux Tu ne vois pas le point rouge entre tes deux yeux ? Mort en sursis, tous on s'contente de peu Les limites se r'poussent, ça t'rend nerveux Boulot sérieux Don' sale gamin Rentre dans le rap comme deux doigts dans un sac à main Si on te tire dessus de chaque côté de la rue Couche toi sous les balles que ces cons sentretuent Il était une fois entre ciel et terre Entre dans un monde nouveau comme si c'était hier Entre paix, guerres, cris et prières C'est comme ça qu'on vit entre ciel et terre Je me souviens de tout comme si c'était hier Verse par terre pour un ami mis en terre Va dire aux Anges qu'ici l'argent est l'nerf de la guerre C'est comme ça qu'on vit entre ciel et terre Béton style, quelque soit l'âge, le sexe, l'niveau d'étude La vie fait de nous ce qu'on est y'a pas de quoi garder rancune Être déboussolé ou plein damertume Tant qu'on a la volonté, la liberté d'choisir pas d'inquiétude Nous apprenons jour et nuit la vie entre ciel et terre On peut répondre non et oui Aimer mère et père Évaluer le pour et le contre Se retrouver haut et bas Perdre ou retrouver son compte lorsqu'on est entre le bien et le mal Ce que la vie offre à la vie Ne nourrit pas tout le temps l'espoir On croit aux amours tolérances douceurs et joies Y'a aussi le côté morose Haine humeur noire, angoisse, fureur, crainte, tristesse, et désespoir Chacun choisit ses valeurs, sa manière d'être et de voir Son code moral, son mode de vie, son clan et son devoir J'dis ces trucs histoire de faire savoir Ce que c'est de ne savoir que faire A part se servir de son savoir La vie te donne et elle te l'reprend aussitôt Y'a t-il pire que la destiné d'un nécessiteux Dans la pauvreté totalisons la force et résiste Garde la foi en Dieu et je les félicite On n'a pas toujours ce qu'on mérite Pas toujours à manger dans la marmite Là le mal et le bien se précipitent Testent le peuple pour voir ses limites Entre ciel et terre, Satan s'agite Il était une fois entre ciel et terre Entre dans un monde nouveau comme si c'était hier Entre paix, guerres, cris et prières C'est comme ça qu'on vit entre ciel et terre Je me souviens de tout comme si c'était hier Verse par terre pour un ami mis en terre Va dire aux Anges qu'ici l'argent est l'nerf de la guerre C'est comme ça qu'on vit entre ciel et terre</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Moral de guerrier Dj Djel, please, augmente le level Ceci est destiné aux types qui nous en veulent D'autant plus à ceux qui en veulent Il faut qu'on trempe le maillot tel les eleven d'une équipe La rythmique fourrée dans les veines, quoi qu'il advienne Te casse pour l'équipement hypocrite, on est loin d'être quittes C'est que le commencement, les membres du premier régiment Et des morts subites sur beat j'mène seul Façon Nelson là où on crèche jeunes Les murs sont assez grands ne voyez-vous pas qu'ils tiennent seuls Dans l'under, si difficultueux d'être tendre Ces vers engendrent les racistes d'aller s'faire pendre Dans l'under on y découvre une richesse d'artistes Qui n'demandent qu'à s'faire entendre Eh là, soldats, équipe de choc esprit d'clan Les résistants sautent sur ce son, on navigue Là en pleine crise de démence mais c'est comme ça qu'je suis Dès qu'la partie commence ceux qui aiment nous suivent Nique la présidence ! C'est un message du maquis Nique la musique de France ! Mais ça on t'l'a déjà dit, ouais Chut chut chut chut, laissez-nous faire face aux ennemis ces Putes putes putes, pour régner tentent en vain d'nous diviser Nan nan, soudés soudés Don Don Alerte sur le Fonk' Don, jump comme Buju Banton On attaque, c'est l'moment, faut qu'ça tacle et comment Sur un mic, étonnant, reggae night, come one You might also like Hip hop du ghetto, tu cherchais le seum quand t'as appuyé sur play Minot esprit d'clan, quand vient l'moment aiguise les Crocs comme ciselés, Wesley Frérot au M.I.C.R.O, la famille VS Le reste du monde, s'il faut, PS 2001 c'est chaud, reste fidèle comme Castro Avant qu'ma clique annonce l'apocalypse show, gringo Oublie l'stress, et viens voir ce qu'est avoir des corones Conio, car XXX, on jouera des mots à la vitesse de flingues Façon bang bang, pour les rendre dingues dingues dingues Si ça schlingue la tyrannie après notre passage Personne n'a dit qu'on était là pour avertir d'un quelconque mauvais présage 143 et l'reuf, représente l'esprit d'clan Engage cette même force qu'après les dominés les dominants Les rapaces rendent hommage Faut pas s'voiler la face dans l'rap y a plus d'valeur D'ailleurs y a qu'à voir d'quoi on parle De flics, de sexe, de tess de folles en chaleur Rien hormis c'putain d'esprit d'clan On s'bat tous pour une même cause sans faire partie du même camp Pour c'qui parlent en mal de nous qu'ils viennent sur scène merde J'voudrais leur faire payer la rime qu'ils viennent de m'faire perdre On n'a qu'une vie, qu'un amour, qu'une famille qu'un groupe Qu'un ami, qu'une mère, j'aurai p't-être pas d'autres chances de les rendre fiers Frère, faut pas qu'on coule comme l'OM Tu les trouves pas cools, nos, textes, normal c'est pas des poèmes Bébé donne ça jusqu'à c'que les flics se ramènent C'est pas tous les jours noël, conçoit qu'on ait la haine Au M.I.C, qui c'est ? Jo Pop's OK j'y vais Pour ma famille, mon clan, j'suis prêt à tout niquer 2001 l'année de tous les dangers faut qu'on soit 3 fois plus engagés Du hip hop on n'compte pas en être ses naufragés On ramène du neuf un nouveau cri d'ralliement FF, Venin, Troiz, Cocoss les enfants du ciment On est tous des gars censés, sincères Tous soudés m'baba ? pour quitter ensemble cet enfer Qu'on soit un jour fierté d'nos pères et d'nos frères Ça c'est l'esprit du clan, ça ça n's'achète pas Ça n'se travaille pas, ou on l'est ou on l'est pas Et nous on fonctionne comme ça Considérez ça comme des liens fraternels Qu'on touche à l'un d'nous au mic on peut devenir très cruels Fonky Family, déclare l'esprit d'clan V.E.N.I.N, déclare l'esprit d'clan Cocoss et le reuf, déclarent l'esprit d'clan 3ème il et All Star, déclarent l'esprit d'clan Le clan, c'est comme le destin dans une vie t'en as qu'un Et quand j'cause du mien putain j'le fais pas d'mauvais cur Il est gravé dans mon esprit et même si j'décède Si l'un d'nous saigne, faut pas que l'un d'nous cède Paix à mon clan, ma clique et c'qui nous narguent Ce coup là c'qui parle c'est la hargne Si t'aimes, lève ta paluche ou ta Heine T'as pas b'soin d'dessin, tu l'sais J'apprécierai comme quand j'pose mes mains sales sur des seins Le temps contient toutes sortes de choses que nous verrons naître Pour l'moment j'marche avec 3ème il, venin, Cocoss et FF Paix aux élèves du grand Maître Confondez pas c'qu'on est et c'qu'on laisse paraitre On commence là où tout l'monde s'arrête On est juste des frères unis par les liens sacrés d'la vie Juste des têtes bornées, endurcies par les lieux ? On vis juste, une bande d'enfoirés qui saisit sa chance au vol On parle ni d'monopole ni d'devenir vos idoles Juste un cocktail explosif qui donne des frissons Juste des braves qui tapent l'incruste sans piston C'est juré sur la mère à XXX Que sur l'album FF on donne, le meilleur d'nous même, quitte à créer un putsch Les mitchs ? love ça too much Ancrés dans l'enfer du devoir, si on représente de toi-même viens vite voir Viens avec les tiens, plus on est d'fous plus on rit Promis, pas d'bizarrerie, juste un peu d'ces rues Si ça charrie, ben c'est tous nous ça une bande de sgegs Un esprit saint, qui s'prend pas au sérieux même pas un brin, cousin Quoi qu'il en soit, j'reste un khel, un vrai mec des Comores Mon rap c'est pas un rêve, j'narre gros des remords Je me nourris de haine, y a qu'les miens que j'honore Si tu veux tu m'aimes, sinon Vaya con Dios J'suis entouré d'mes frères une équipe de sales gosses Avec qui j'traîne le 3, Venin FF et Cocoss Voilà l'clan sur lequel je repose 2001, c'est sur un putain d'son d'Djel qu'on repart Gaffe aux bâtards, on est toujours en guerre contre l'État avare Et qui protège, à Marseille, à part Notre-Dame de la Garde Ma famille, ceux qui ont cru, et nous ont soutenus Depuis le départ Hey yo c'est chaud kho, au M.I.C.R.O 143, les reufs XXX pour les frérots Émissaire des ghettos momento ? j'le dis pour ceux qui doutent XXX Mon clan se dresse contre leur politique jusqu'à la base collabo Ceux qui dans la confusion trouvent l'extase XXX Comme dit le F l'intelligence c'est comme un parachute Quand on l'a pas on s'écrase Suppôts d'nazi ces flics nazes, et toutes ces langues de putes à l'occase Ces charlots pour eux j'ai des fuck phases minot XXX Il parait que des mecs ont XXX de schneck Qu'ils ne peuvent fermer leur bec, inspecte le clan Appuie sur REC car si on t'y reprend tu signeras tes obsèques Sur ce asalamalek J'ai un clan car j'aime pas marcher seul ou mal accompagné Et c'est d'puis gosse que cet état d'esprit m'a gagné J'y pense tellement fort, j'en ai du mal à rimer À la vie à la mort et peu importe c'qui doit arriver Malgré les hauts et les bas l'amour et mon clan est là dans mon cur Et rien n'peut l'tuer, même pas les balles Rien n'peut l'tuer, même pas ta haine Tu sais qu'Fel mise tout sur son C.L.A.N Et si tu l'savais pas maintenant j't'ai mis au parfum Ça risque d'être danger, en 2.0.0.1 J'n'ai plus d'limite comme les mômes C'est bientôt la fin du monde J'dis c'que j'pense car attendre demain j'suis mort Scratches</t>
+          <t>Moral de guerrier Dj Djel, please, augmente le level Ceci est destiné aux types qui nous en veulent D'autant plus à ceux qui en veulent Il faut qu'on trempe le maillot tel les eleven d'une équipe La rythmique fourrée dans les veines, quoi qu'il advienne Te casse pour l'équipement hypocrite, on est loin d'être quittes C'est que le commencement, les membres du premier régiment Et des morts subites sur beat j'mène seul Façon Nelson là où on crèche jeunes Les murs sont assez grands ne voyez-vous pas qu'ils tiennent seuls Dans l'under, si difficultueux d'être tendre Ces vers engendrent les racistes d'aller s'faire pendre Dans l'under on y découvre une richesse d'artistes Qui n'demandent qu'à s'faire entendre Eh là, soldats, équipe de choc esprit d'clan Les résistants sautent sur ce son, on navigue Là en pleine crise de démence mais c'est comme ça qu'je suis Dès qu'la partie commence ceux qui aiment nous suivent Nique la présidence ! C'est un message du maquis Nique la musique de France ! Mais ça on t'l'a déjà dit, ouais Chut chut chut chut, laissez-nous faire face aux ennemis ces Putes putes putes, pour régner tentent en vain d'nous diviser Nan nan, soudés soudés Don Don Alerte sur le Fonk' Don, jump comme Buju Banton On attaque, c'est l'moment, faut qu'ça tacle et comment Sur un mic, étonnant, reggae night, come one Hip hop du ghetto, tu cherchais le seum quand t'as appuyé sur play Minot esprit d'clan, quand vient l'moment aiguise les Crocs comme ciselés, Wesley Frérot au M.I.C.R.O, la famille VS Le reste du monde, s'il faut, PS 2001 c'est chaud, reste fidèle comme Castro Avant qu'ma clique annonce l'apocalypse show, gringo Oublie l'stress, et viens voir ce qu'est avoir des corones Conio, car XXX, on jouera des mots à la vitesse de flingues Façon bang bang, pour les rendre dingues dingues dingues Si ça schlingue la tyrannie après notre passage Personne n'a dit qu'on était là pour avertir d'un quelconque mauvais présage 143 et l'reuf, représente l'esprit d'clan Engage cette même force qu'après les dominés les dominants Les rapaces rendent hommage Faut pas s'voiler la face dans l'rap y a plus d'valeur D'ailleurs y a qu'à voir d'quoi on parle De flics, de sexe, de tess de folles en chaleur Rien hormis c'putain d'esprit d'clan On s'bat tous pour une même cause sans faire partie du même camp Pour c'qui parlent en mal de nous qu'ils viennent sur scène merde J'voudrais leur faire payer la rime qu'ils viennent de m'faire perdre On n'a qu'une vie, qu'un amour, qu'une famille qu'un groupe Qu'un ami, qu'une mère, j'aurai p't-être pas d'autres chances de les rendre fiers Frère, faut pas qu'on coule comme l'OM Tu les trouves pas cools, nos, textes, normal c'est pas des poèmes Bébé donne ça jusqu'à c'que les flics se ramènent C'est pas tous les jours noël, conçoit qu'on ait la haine Au M.I.C, qui c'est ? Jo Pop's OK j'y vais Pour ma famille, mon clan, j'suis prêt à tout niquer 2001 l'année de tous les dangers faut qu'on soit 3 fois plus engagés Du hip hop on n'compte pas en être ses naufragés On ramène du neuf un nouveau cri d'ralliement FF, Venin, Troiz, Cocoss les enfants du ciment On est tous des gars censés, sincères Tous soudés m'baba ? pour quitter ensemble cet enfer Qu'on soit un jour fierté d'nos pères et d'nos frères Ça c'est l'esprit du clan, ça ça n's'achète pas Ça n'se travaille pas, ou on l'est ou on l'est pas Et nous on fonctionne comme ça Considérez ça comme des liens fraternels Qu'on touche à l'un d'nous au mic on peut devenir très cruels Fonky Family, déclare l'esprit d'clan V.E.N.I.N, déclare l'esprit d'clan Cocoss et le reuf, déclarent l'esprit d'clan 3ème il et All Star, déclarent l'esprit d'clan Le clan, c'est comme le destin dans une vie t'en as qu'un Et quand j'cause du mien putain j'le fais pas d'mauvais cur Il est gravé dans mon esprit et même si j'décède Si l'un d'nous saigne, faut pas que l'un d'nous cède Paix à mon clan, ma clique et c'qui nous narguent Ce coup là c'qui parle c'est la hargne Si t'aimes, lève ta paluche ou ta Heine T'as pas b'soin d'dessin, tu l'sais J'apprécierai comme quand j'pose mes mains sales sur des seins Le temps contient toutes sortes de choses que nous verrons naître Pour l'moment j'marche avec 3ème il, venin, Cocoss et FF Paix aux élèves du grand Maître Confondez pas c'qu'on est et c'qu'on laisse paraitre On commence là où tout l'monde s'arrête On est juste des frères unis par les liens sacrés d'la vie Juste des têtes bornées, endurcies par les lieux ? On vis juste, une bande d'enfoirés qui saisit sa chance au vol On parle ni d'monopole ni d'devenir vos idoles Juste un cocktail explosif qui donne des frissons Juste des braves qui tapent l'incruste sans piston C'est juré sur la mère à XXX Que sur l'album FF on donne, le meilleur d'nous même, quitte à créer un putsch Les mitchs ? love ça too much Ancrés dans l'enfer du devoir, si on représente de toi-même viens vite voir Viens avec les tiens, plus on est d'fous plus on rit Promis, pas d'bizarrerie, juste un peu d'ces rues Si ça charrie, ben c'est tous nous ça une bande de sgegs Un esprit saint, qui s'prend pas au sérieux même pas un brin, cousin Quoi qu'il en soit, j'reste un khel, un vrai mec des Comores Mon rap c'est pas un rêve, j'narre gros des remords Je me nourris de haine, y a qu'les miens que j'honore Si tu veux tu m'aimes, sinon Vaya con Dios J'suis entouré d'mes frères une équipe de sales gosses Avec qui j'traîne le 3, Venin FF et Cocoss Voilà l'clan sur lequel je repose 2001, c'est sur un putain d'son d'Djel qu'on repart Gaffe aux bâtards, on est toujours en guerre contre l'État avare Et qui protège, à Marseille, à part Notre-Dame de la Garde Ma famille, ceux qui ont cru, et nous ont soutenus Depuis le départ Hey yo c'est chaud kho, au M.I.C.R.O 143, les reufs XXX pour les frérots Émissaire des ghettos momento ? j'le dis pour ceux qui doutent XXX Mon clan se dresse contre leur politique jusqu'à la base collabo Ceux qui dans la confusion trouvent l'extase XXX Comme dit le F l'intelligence c'est comme un parachute Quand on l'a pas on s'écrase Suppôts d'nazi ces flics nazes, et toutes ces langues de putes à l'occase Ces charlots pour eux j'ai des fuck phases minot XXX Il parait que des mecs ont XXX de schneck Qu'ils ne peuvent fermer leur bec, inspecte le clan Appuie sur REC car si on t'y reprend tu signeras tes obsèques Sur ce asalamalek J'ai un clan car j'aime pas marcher seul ou mal accompagné Et c'est d'puis gosse que cet état d'esprit m'a gagné J'y pense tellement fort, j'en ai du mal à rimer À la vie à la mort et peu importe c'qui doit arriver Malgré les hauts et les bas l'amour et mon clan est là dans mon cur Et rien n'peut l'tuer, même pas les balles Rien n'peut l'tuer, même pas ta haine Tu sais qu'Fel mise tout sur son C.L.A.N Et si tu l'savais pas maintenant j't'ai mis au parfum Ça risque d'être danger, en 2.0.0.1 J'n'ai plus d'limite comme les mômes C'est bientôt la fin du monde J'dis c'que j'pense car attendre demain j'suis mort Scratches</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Faut qu'on saccroche quand la vie nous défie, car On sera jamais c'qu'on veut être si on fuit gars De toute façon ici-bas, rien nest gratuit Faut toujours payer l'prix fort, j'crois qu'c'est pour ça Qu'chaque jour on s'bat Des vapeurs toxiques, pas de toxiques Que des affamés gonflés à bloc, chiche enfoiré Do you smoke shit ? Paix aux Pour tout cramer, ça finit jamais Pille le stock, chie sur les porcs qui dorment et rro-pchi Mon armée kamikaze marche sur le fil Opération, ouvre le gaz, crame sur le grill Explosion dans la chaleur de la nuit, peur sur la ville Plus de héros, c'est Don Cho mais appelle-moi Cahill Séronégatif à mon dernier test Strictly hétéro sans sédatif, mon rap fait taper la sieste ou agiter la tête Fou, fais chauffer ta caisse, on veut tous la bouffe dans lassiette Chez nous c'est pas tous les jours la fête Boss Oni Douze mesures pour dire à ceux quj'aime l'amour que j'leur porte Dire à ceux qui mdétestent qu'ils courent tous à leur perte Qu'on joue tous la même partie avec des dés différents ton innocence si entre nous y a différend FF et l'Troiz sur un son d'Luch, c'est opé Autant qu'Saïdou en mission en Bosnie, es-tu prêt? Faut si peu pour égayer une ville walaye Chez nous soit conscient qu'les mecs dépriment walaye Si les primes s'amoncèlent, c'est qu'plus rien n'se négocie Si les bleds paumés deviennent dangereux, c'est qu'ils existent eux aussi L'attitude des hommes bouge peu, seules les conditions progressent La faim on l'a grosse, c'est dû à ceux qu'nos rimes agressent You might also like Yo, croire à la beauté du monde ou à la vie en rose À la longue ça gonfle, et à force on est toujours en rogne C'est rare d'avoir l'moral en hausse, même avec des ronds On en devient morose, cherche les solutions mais tourne en rond La vie c'est pas que drogue, sexe et pèze La vie c'est dur mais faut être là sinon c'est toi qu'elle baise Faut lutter sans trêve, jouer là où d'autres stressent Posé là où nombreux s'taisent jusqu'à c'qu'on en crève Les tracas rongent, mais pour isoler y a pas qu'les bringues Au bout d'ses rêves, pour y aller y a pas qu'les pleins Pour être classe dans cette vie, faut pas qu'les fringues C'est comme les braquages, pour les faire, faut pas qu'les flingues Faut qu'on s'accroche quand la vie nous défie, car On sera jamais c'qu'on veut être si on fuit gars De toute façon ici-bas, rien n'est gratuit Faut toujours payer l'prix fort, j'crois qu'c'est pour ça Qu'chaque jour on s'bat Comment oublier qu'on doit tous mourir, hein? Que si tu baisses ta garde on t'blesse et on t'baise avec le sourire J'veux bien finir dans l'rôle du plouc ou du sous-fifre À condition d'avoir une vie intense et de riches souvenirs J'ai pas trop l'temps d'm'étaler ni d'détailler J'ai douze mesures avant de m'tailler, d'détaler Retrouver ces rues et caler, ces SDF étalés Ces histoires propres à nos coins et à ces foutues cages d'escalier Si ces murs parlaient, ils t'diraient à quel point l'cadre est sordide, morbide Que Troiz et FF c'est du solide La même équipe, la même famille Unis à la vie par l'même péril, à la mort dans l'même périple C'est pas des paroles qui vont nous faire du mal, enfoiré tu t'fais du mal Remballe tes putain d'critiques à dix balles J'déballe, parle de rue mec et je me régale Les moments qu'j'ai vécus, d'acc', n'ont pas d'égal Rappe pour les khels des Comores jusqu'au Sénégal Pour nos parents qui s'sont battus pour qu'on n'ait pas la dalle J'me dois de pas râler, c'qu'on a fait, il le fallait C'qu'on raconte c'est c'qui fallait Qu'on s'le dise, on n'en a rien à carrer C'est l'Troiz, FF, Section Nique Tout dites-leur faut niquer l'bénef! Car chez nous y a pas d'chef La vie c'est bref, faut tout niquer avant qu'on crève faut tout niquer avant qu'on crève Que chaque jour qui s'lève soit béni Chaque paroles broie des curs, laisse des âmes en furie J'vais sauver ma gueule tant que j'vis M'en sortir seul, compter sur qui qu'ce soit oublie Qu'on fasse tant d'bruit, entendre tant d'cris Rapporte tant d'joie Comme ce fameux soir où tu nous as vus pour la première fois Que c'morceau soit en repeat dans ta sono jusqu'à c'qu'elle si si Dans l'juke-box du bar du coin, autant de fois qu'nécessaire si si Que ton voisin s'arrache les cheveux parce qu'il sature Trop dis-lui de s'taire Et s'il appelle les dis-leur qu'FF, Troiz Sont aussi dangereux qu'un bon si si J'uvre pour l'amour de cette musique qui d'tes enceintes résonne Dans l'cur des mômes, classés number one Faut qu'on s'accroche quand la vie nous défie, car On sera jamais c'qu'on veut être si on fuit gars De toute façon ici-bas, rien n'est gratuit Faut toujours payer l'prix fort, j'crois qu'c'est pour ça Qu'chaque jour on s'bat</t>
+          <t>Faut qu'on saccroche quand la vie nous défie, car On sera jamais c'qu'on veut être si on fuit gars De toute façon ici-bas, rien nest gratuit Faut toujours payer l'prix fort, j'crois qu'c'est pour ça Qu'chaque jour on s'bat Des vapeurs toxiques, pas de toxiques Que des affamés gonflés à bloc, chiche enfoiré Do you smoke shit ? Paix aux Pour tout cramer, ça finit jamais Pille le stock, chie sur les porcs qui dorment et rro-pchi Mon armée kamikaze marche sur le fil Opération, ouvre le gaz, crame sur le grill Explosion dans la chaleur de la nuit, peur sur la ville Plus de héros, c'est Don Cho mais appelle-moi Cahill Séronégatif à mon dernier test Strictly hétéro sans sédatif, mon rap fait taper la sieste ou agiter la tête Fou, fais chauffer ta caisse, on veut tous la bouffe dans lassiette Chez nous c'est pas tous les jours la fête Boss Oni Douze mesures pour dire à ceux quj'aime l'amour que j'leur porte Dire à ceux qui mdétestent qu'ils courent tous à leur perte Qu'on joue tous la même partie avec des dés différents ton innocence si entre nous y a différend FF et l'Troiz sur un son d'Luch, c'est opé Autant qu'Saïdou en mission en Bosnie, es-tu prêt? Faut si peu pour égayer une ville walaye Chez nous soit conscient qu'les mecs dépriment walaye Si les primes s'amoncèlent, c'est qu'plus rien n'se négocie Si les bleds paumés deviennent dangereux, c'est qu'ils existent eux aussi L'attitude des hommes bouge peu, seules les conditions progressent La faim on l'a grosse, c'est dû à ceux qu'nos rimes agressent Yo, croire à la beauté du monde ou à la vie en rose À la longue ça gonfle, et à force on est toujours en rogne C'est rare d'avoir l'moral en hausse, même avec des ronds On en devient morose, cherche les solutions mais tourne en rond La vie c'est pas que drogue, sexe et pèze La vie c'est dur mais faut être là sinon c'est toi qu'elle baise Faut lutter sans trêve, jouer là où d'autres stressent Posé là où nombreux s'taisent jusqu'à c'qu'on en crève Les tracas rongent, mais pour isoler y a pas qu'les bringues Au bout d'ses rêves, pour y aller y a pas qu'les pleins Pour être classe dans cette vie, faut pas qu'les fringues C'est comme les braquages, pour les faire, faut pas qu'les flingues Faut qu'on s'accroche quand la vie nous défie, car On sera jamais c'qu'on veut être si on fuit gars De toute façon ici-bas, rien n'est gratuit Faut toujours payer l'prix fort, j'crois qu'c'est pour ça Qu'chaque jour on s'bat Comment oublier qu'on doit tous mourir, hein? Que si tu baisses ta garde on t'blesse et on t'baise avec le sourire J'veux bien finir dans l'rôle du plouc ou du sous-fifre À condition d'avoir une vie intense et de riches souvenirs J'ai pas trop l'temps d'm'étaler ni d'détailler J'ai douze mesures avant de m'tailler, d'détaler Retrouver ces rues et caler, ces SDF étalés Ces histoires propres à nos coins et à ces foutues cages d'escalier Si ces murs parlaient, ils t'diraient à quel point l'cadre est sordide, morbide Que Troiz et FF c'est du solide La même équipe, la même famille Unis à la vie par l'même péril, à la mort dans l'même périple C'est pas des paroles qui vont nous faire du mal, enfoiré tu t'fais du mal Remballe tes putain d'critiques à dix balles J'déballe, parle de rue mec et je me régale Les moments qu'j'ai vécus, d'acc', n'ont pas d'égal Rappe pour les khels des Comores jusqu'au Sénégal Pour nos parents qui s'sont battus pour qu'on n'ait pas la dalle J'me dois de pas râler, c'qu'on a fait, il le fallait C'qu'on raconte c'est c'qui fallait Qu'on s'le dise, on n'en a rien à carrer C'est l'Troiz, FF, Section Nique Tout dites-leur faut niquer l'bénef! Car chez nous y a pas d'chef La vie c'est bref, faut tout niquer avant qu'on crève faut tout niquer avant qu'on crève Que chaque jour qui s'lève soit béni Chaque paroles broie des curs, laisse des âmes en furie J'vais sauver ma gueule tant que j'vis M'en sortir seul, compter sur qui qu'ce soit oublie Qu'on fasse tant d'bruit, entendre tant d'cris Rapporte tant d'joie Comme ce fameux soir où tu nous as vus pour la première fois Que c'morceau soit en repeat dans ta sono jusqu'à c'qu'elle si si Dans l'juke-box du bar du coin, autant de fois qu'nécessaire si si Que ton voisin s'arrache les cheveux parce qu'il sature Trop dis-lui de s'taire Et s'il appelle les dis-leur qu'FF, Troiz Sont aussi dangereux qu'un bon si si J'uvre pour l'amour de cette musique qui d'tes enceintes résonne Dans l'cur des mômes, classés number one Faut qu'on s'accroche quand la vie nous défie, car On sera jamais c'qu'on veut être si on fuit gars De toute façon ici-bas, rien n'est gratuit Faut toujours payer l'prix fort, j'crois qu'c'est pour ça Qu'chaque jour on s'bat</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pour mes dogs, Don Choa, Nega, Stress, L.U.C.I.A.N.O On na pas le C.I.A à nos fesses, demandes à Juliano Cest une connexion de plus pour ta collection Du son à mettre dans le baccara ou le turbo injection Avec la section dans la jungle, on va niquer la hype F.F, Double Pact vont te rendre high pour la night Mon slogan conjo faut le faire et les fuck Les faux frères, on les bloque et je donne ce que jai en stock Quand il y a un trafic dart, il te faut le meilleur Comme dans le trafic darmes ou chez les faux-monnayeurs Mes gars me disent vas -y, cest lheure dêtre présent Parle-leur de notre présent, fais leur fermer leur grandes gueules et représente Représente pour nous-mêmes, nos mamans et nos mômes Dans ce monde lamour cest tout ce quon a, bonhomme Il ny aura jamais nos figures sur les billets de banque, frère Plutôt sur les fichiers de bacs ou sur les pages de fait divers Faut le faire pour toucher au fruit de la gloire, vraiment faut le faire Cest le moment, profitons-en, vu que la vie, Dieu la offerte Le truc est brouillon autant que nos existences Cest chaud bouillant mammy si ça texcite danse Rien ne va, alors nique tout F.F, Double Pact, faut le faire et les fuck Saisi quici on donne le maximum pour le hip-hop Double Pact, F.F, faut le faire et les fuck Rien ne va alors nique tout F.F, Double Pact, faut le faire et les fuck Tous ensemble pour tout niquer Double Pact, F.F, faut le faire et les fuck You might also like Le rap synonyme de défonce et de biz comme zetla fille Tomber la chemise comme Zebda Je brille sous la lune prépare la vendetta Nocif comme ce que t'allumes, les Glocks devant l'état Fuis avant qu'on t'allume, nos armes sont en métal Crache un feu qui consume les salles, Monsieur Hannibal Ah ! La vie et ses aléas, les bas, les hauts Ça choque comme le Paléo et c'est chaud comme les Baléares Allégorie personnelle de type existentiel On est venu du sol pour finir notre vie au ciel C'est pas difficile, faut qu'on excelle du style S.S.L Cette vie peut être docile et chienne, si tu la provoques J'aime la mienne, elle est trop chaude T'as deviné qui vient, F.F, Double Pact, éléctrochoc Elle est trop chic, non nique ça, viens dans nos rues Viens qu'on t'explique ça bien Ne touche pas notre truc, c'est sacré comme le pain Mais qui peut nous l'enlever de la bouche S'il y a des volontaires je leur dis see ya sur un pur son de pillard Ambiance de bar à billard, ruelle et coin de trottoir, faut le faire et les fuck Rien ne va, alors nique tout F.F, Double Pact, faut le faire et les fuck Saisi quici on donne le maximum pour le hip-hop Double Pact, F.F, faut le faire et les fuck Rien ne va alors nique tout F.F, Double Pact, faut le faire et les fuck Tous ensemble pour tout niquer Double Pact, F.F, faut le faire et les fuck</t>
+          <t>Pour mes dogs, Don Choa, Nega, Stress, L.U.C.I.A.N.O On na pas le C.I.A à nos fesses, demandes à Juliano Cest une connexion de plus pour ta collection Du son à mettre dans le baccara ou le turbo injection Avec la section dans la jungle, on va niquer la hype F.F, Double Pact vont te rendre high pour la night Mon slogan conjo faut le faire et les fuck Les faux frères, on les bloque et je donne ce que jai en stock Quand il y a un trafic dart, il te faut le meilleur Comme dans le trafic darmes ou chez les faux-monnayeurs Mes gars me disent vas -y, cest lheure dêtre présent Parle-leur de notre présent, fais leur fermer leur grandes gueules et représente Représente pour nous-mêmes, nos mamans et nos mômes Dans ce monde lamour cest tout ce quon a, bonhomme Il ny aura jamais nos figures sur les billets de banque, frère Plutôt sur les fichiers de bacs ou sur les pages de fait divers Faut le faire pour toucher au fruit de la gloire, vraiment faut le faire Cest le moment, profitons-en, vu que la vie, Dieu la offerte Le truc est brouillon autant que nos existences Cest chaud bouillant mammy si ça texcite danse Rien ne va, alors nique tout F.F, Double Pact, faut le faire et les fuck Saisi quici on donne le maximum pour le hip-hop Double Pact, F.F, faut le faire et les fuck Rien ne va alors nique tout F.F, Double Pact, faut le faire et les fuck Tous ensemble pour tout niquer Double Pact, F.F, faut le faire et les fuck Le rap synonyme de défonce et de biz comme zetla fille Tomber la chemise comme Zebda Je brille sous la lune prépare la vendetta Nocif comme ce que t'allumes, les Glocks devant l'état Fuis avant qu'on t'allume, nos armes sont en métal Crache un feu qui consume les salles, Monsieur Hannibal Ah ! La vie et ses aléas, les bas, les hauts Ça choque comme le Paléo et c'est chaud comme les Baléares Allégorie personnelle de type existentiel On est venu du sol pour finir notre vie au ciel C'est pas difficile, faut qu'on excelle du style S.S.L Cette vie peut être docile et chienne, si tu la provoques J'aime la mienne, elle est trop chaude T'as deviné qui vient, F.F, Double Pact, éléctrochoc Elle est trop chic, non nique ça, viens dans nos rues Viens qu'on t'explique ça bien Ne touche pas notre truc, c'est sacré comme le pain Mais qui peut nous l'enlever de la bouche S'il y a des volontaires je leur dis see ya sur un pur son de pillard Ambiance de bar à billard, ruelle et coin de trottoir, faut le faire et les fuck Rien ne va, alors nique tout F.F, Double Pact, faut le faire et les fuck Saisi quici on donne le maximum pour le hip-hop Double Pact, F.F, faut le faire et les fuck Rien ne va alors nique tout F.F, Double Pact, faut le faire et les fuck Tous ensemble pour tout niquer Double Pact, F.F, faut le faire et les fuck</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Le Parc et le Panier roulent avec le Shit Squad Don't Sleep roule avec le Shit Squad Le 3e il et la FF roulent avec le Shit Squad Donne du bang, hé ! Je tombe dans la guette sans zigzaguer Aux aguets, débonze et bien gai Je suis délégué du Shit Squad, amigo bingo Si tu tiens jusqu'à la fin du gong Nous sommes tous des James Bond Du Shit sous les ongles Skunk au gong, ça laisse KO Comme un coup du fusil à pompe Et direct, on va haut... Rat-man né Batman ami de Boss One Et marié à la Marie-Jeanne Luciano, réalise ton vu Si tu veux, enfume-toi la vie, mon vieux Un peu de Marseillaise, et tu perds les cheveux Shit Squad, Tonton et ses neveux pour les nerveux Bienvenue dans Haschich City morveux J'échange mes sticks seulement contre une femme Style Néfertiti Fais fumer la FF, Tonton j'ai fini You might also like T'as pris ton paquet et ta femme avec toi Marijuana bien roulée que tu tiens entre tes doigts Quoi, l'atmosphère s'enfume Fume le Shit Squad et pas de frime sur ça La boumba si ça te dit Prends ce choco de maxi, comme si Une armada de fumeurs de gandja se disputent le contrat Eh, batty boy, tu veux rouler avec le Squad Ce n'est pas un fan-club de Ease Mais un putain de Shit Squad Roulé entre deux feuilles de Rizla Croix Original bad boy pour l'esquisse, fils Pas de paix en soirée avec les DJ, fais tourner Tu veux toucher nos phases, vas-y, mets le prix Je t'assure, c'est de la bombe Elle monte comme des bambous Le S ! Squad tient le bon bout Toujours dans les bons coups En tout cas, on s'adonne pas à la para Ici-bas, on décompresse comme on peut La THC nous conduit tout droit aux septièmes cieux Yo, pète ton joint de canna, à l'écoute des canailles Sat rime pour tout défoncer comme la bouddha Thaï Fume dans un studio ou dans un coffee-shop Ambiance Hip Hop, à voir les yeux de mes potes Pour eux, je finis en freestyle Je lâche un fonky style, la FF, tous M'Ghetta au shit M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana Si gandja il y a chez toi, gringo Elle sautera au nom du Père du Fils et du Sentenza Amen Je serai sec si tu n'es pas chaud Prépare un bon space-gaspacho Pour tous les sales muchachos de ma clique Le Squad, escouade rascale Et Tonton Pedro, Pascal Tu prendras bien un spatial Verre de mescal un poquito Débarque avec un kilo pour les mythos Lâché, donne, No te muevas, cabróncito! In situ, bratou kakou chez vous, y'a plus de sous Attention le ladre prépare un mauvais coup Un larcin, un truc de merde, un encas Nada, tu connais Sentenza Qui donc fait péter la banca ? Quand je te chope, quand je te bloque Voilà les troupes de choc Le Shit Squad de retour pour un smoke-tour Armé de stocks lourds Plat de jour space-cake, calumets Mèches allumées, atmosphère embrumée FF, fais fumer A fond défoncé à la sensi C'est ça qui m'incite Don Choa, Hannibal Smith, agence du Shit Arrivage de choix Ici on est à Marseille, mon frère Sortis tout droit du conteneur Le produit qui te met à l'envers Tu flaires les joints Mieux que les chiens de la douane volante Fumes des mixtures à base boulettes brûlantes Herbes collantes Production Tonton Pedro, le gros bonnet Tu connais l'effet Je roule avec le Shit Squad et ses doigts de fée, bébé Faf Larage, fils, ne fume pas Pedro, n'en déplaise, fume les cigarettes, le tabac à sec Et là je suis bien, mec Mes potos fument pour moi Circuit lindo thaï skunk cesse devant moi Eh, connard, j'ai pas à te dire ce qu'il faut faire Pour entrer dans la partie Fils, tu m'as bien compris Tu crois qu'il y a des vapeurs, représente l'odeur Premiers symptômes qui font sur moi Speed, des lors j'suis d'humeur On pourrait croire que j'intègre le Squad Quand je conte mes histoires de fêtes Ici à la Stormbringa Ce que je dis, fils, ça veut rien dire Mais sous l'emprise du Shit... Le Squad, c'est un hit M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Oh la gravité a frappé M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Yeah, je suis défoncé A coup de bambous Au sud, y'a du nouveau, fils Le Squad refait surface, noyé dans le masse Avec ses potos du micro, des mégots, amigo Des barreaux, il en faut pour subvenir à nos besoins Du matin au soir, plein On a cuvé comme du bon vin Le bon khéné en fait vilain Veut niquer notre business Que la guine l'a perdu Tu fuse, gus si on te frappe Comme un guerrier Hashashin Frappé après un joint, tu charase Colle tes oreilles devant tes baffles Tu rêves pas, gringo L'examen, c'est devenu l'impasse Sans cesse, représente notre emblème L'herbe épaisse, femme du Rat La princesse pour l'honneur des troupes rebelles Pour la fumette et les belles f... Daddy Mamadi, sur le mic, ça c'est acquis Fais tourner l'herbe cosmique Pour que la famille mette la panique Un bandeau-pro avec tous les machos chauds Et c'est parti pour le show FF, freestyle pour représenter avec un joint d'gandja Tu ne peux pas lutter Fumes, fumes, fumes avant que la vie ne te fume Aujourd'hui j'assume avec le Shit Squad Kif-Kif Production, association banguée Pour des fins de soirées, très fatigué J'envoie ziguer les télés Pour tous les frères avec qui j'ai calciné des bambous Du Secteur au Café Julien Les neveux ne craignent plus rien Accrochés sur la locale comme des morts de faim Shonga m'attend demain, ouais Tu reconnais la voix du Padre, sorti du trece Sur le mic, usé par le pollen et la sensi Toujours d'attaque avec le Shit Squad Mec, reste sur tes gardes En attendant lyricalement que l'on bombarde Balance nos cocktails de ferié néné Si tu cherches la khemia Y'a que chez nous que tu pourras la trouver J'fais pas de topo Je suis plein de popo Demandes à mes potes C'est un 16 S mec que j'ai sous le capot Je pose toujours à mes répèts sans oublier mon matos Un stylo, un micro, mon chocos Et vatos portos C'est comme ça que j'aime bosser Je suis pas du genre à caler ou taper des blocages Et vas-y, cesses de ricaner Ouais, mon big, Jo Popo représente pour le 3e oeil Mc j't'effrite dans mon deux-feuilles Je regarde mes potes, drôlement débonze Tous guidés par le hachich comme par erreur Haza plein de mimiques, ils sont chics Regarde-moi droit dans les yeux, khô T'y arrives pas, quel minable, ce gros Dis-moi, c'est du shit que tu fumes? Ou des pilules que tu gobes ? Combien de gosses en voulant se la jouer grands se sont perdus Je te l'avais dit de rester dans la sensi En soirée bad boy, pompe un joint Reste cool comme ton pote, l'ami, Ali, allez ha ! Je ne fume pas Mais préfère voir des gens down avec le Shit Squad Qu'être à Toxland à la CameSquadra A croire que c'est un championnat Où c'est le plus bête qui l'emportera Avant d'appuyer sur play, t'aurais dû faire un petit A la santé du Squad, Jo Popo, Luciano, Pedro Mon z'ami, c'est la vie C'est la vie qui veut ça N.I.K, N.I.K M'Ghetta au shit</t>
+          <t>Le Parc et le Panier roulent avec le Shit Squad Don't Sleep roule avec le Shit Squad Le 3e il et la FF roulent avec le Shit Squad Donne du bang, hé ! Je tombe dans la guette sans zigzaguer Aux aguets, débonze et bien gai Je suis délégué du Shit Squad, amigo bingo Si tu tiens jusqu'à la fin du gong Nous sommes tous des James Bond Du Shit sous les ongles Skunk au gong, ça laisse KO Comme un coup du fusil à pompe Et direct, on va haut... Rat-man né Batman ami de Boss One Et marié à la Marie-Jeanne Luciano, réalise ton vu Si tu veux, enfume-toi la vie, mon vieux Un peu de Marseillaise, et tu perds les cheveux Shit Squad, Tonton et ses neveux pour les nerveux Bienvenue dans Haschich City morveux J'échange mes sticks seulement contre une femme Style Néfertiti Fais fumer la FF, Tonton j'ai fini T'as pris ton paquet et ta femme avec toi Marijuana bien roulée que tu tiens entre tes doigts Quoi, l'atmosphère s'enfume Fume le Shit Squad et pas de frime sur ça La boumba si ça te dit Prends ce choco de maxi, comme si Une armada de fumeurs de gandja se disputent le contrat Eh, batty boy, tu veux rouler avec le Squad Ce n'est pas un fan-club de Ease Mais un putain de Shit Squad Roulé entre deux feuilles de Rizla Croix Original bad boy pour l'esquisse, fils Pas de paix en soirée avec les DJ, fais tourner Tu veux toucher nos phases, vas-y, mets le prix Je t'assure, c'est de la bombe Elle monte comme des bambous Le S ! Squad tient le bon bout Toujours dans les bons coups En tout cas, on s'adonne pas à la para Ici-bas, on décompresse comme on peut La THC nous conduit tout droit aux septièmes cieux Yo, pète ton joint de canna, à l'écoute des canailles Sat rime pour tout défoncer comme la bouddha Thaï Fume dans un studio ou dans un coffee-shop Ambiance Hip Hop, à voir les yeux de mes potes Pour eux, je finis en freestyle Je lâche un fonky style, la FF, tous M'Ghetta au shit M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana Si gandja il y a chez toi, gringo Elle sautera au nom du Père du Fils et du Sentenza Amen Je serai sec si tu n'es pas chaud Prépare un bon space-gaspacho Pour tous les sales muchachos de ma clique Le Squad, escouade rascale Et Tonton Pedro, Pascal Tu prendras bien un spatial Verre de mescal un poquito Débarque avec un kilo pour les mythos Lâché, donne, No te muevas, cabróncito! In situ, bratou kakou chez vous, y'a plus de sous Attention le ladre prépare un mauvais coup Un larcin, un truc de merde, un encas Nada, tu connais Sentenza Qui donc fait péter la banca ? Quand je te chope, quand je te bloque Voilà les troupes de choc Le Shit Squad de retour pour un smoke-tour Armé de stocks lourds Plat de jour space-cake, calumets Mèches allumées, atmosphère embrumée FF, fais fumer A fond défoncé à la sensi C'est ça qui m'incite Don Choa, Hannibal Smith, agence du Shit Arrivage de choix Ici on est à Marseille, mon frère Sortis tout droit du conteneur Le produit qui te met à l'envers Tu flaires les joints Mieux que les chiens de la douane volante Fumes des mixtures à base boulettes brûlantes Herbes collantes Production Tonton Pedro, le gros bonnet Tu connais l'effet Je roule avec le Shit Squad et ses doigts de fée, bébé Faf Larage, fils, ne fume pas Pedro, n'en déplaise, fume les cigarettes, le tabac à sec Et là je suis bien, mec Mes potos fument pour moi Circuit lindo thaï skunk cesse devant moi Eh, connard, j'ai pas à te dire ce qu'il faut faire Pour entrer dans la partie Fils, tu m'as bien compris Tu crois qu'il y a des vapeurs, représente l'odeur Premiers symptômes qui font sur moi Speed, des lors j'suis d'humeur On pourrait croire que j'intègre le Squad Quand je conte mes histoires de fêtes Ici à la Stormbringa Ce que je dis, fils, ça veut rien dire Mais sous l'emprise du Shit... Le Squad, c'est un hit M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Oh la gravité a frappé M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Yeah, je suis défoncé A coup de bambous Au sud, y'a du nouveau, fils Le Squad refait surface, noyé dans le masse Avec ses potos du micro, des mégots, amigo Des barreaux, il en faut pour subvenir à nos besoins Du matin au soir, plein On a cuvé comme du bon vin Le bon khéné en fait vilain Veut niquer notre business Que la guine l'a perdu Tu fuse, gus si on te frappe Comme un guerrier Hashashin Frappé après un joint, tu charase Colle tes oreilles devant tes baffles Tu rêves pas, gringo L'examen, c'est devenu l'impasse Sans cesse, représente notre emblème L'herbe épaisse, femme du Rat La princesse pour l'honneur des troupes rebelles Pour la fumette et les belles f... Daddy Mamadi, sur le mic, ça c'est acquis Fais tourner l'herbe cosmique Pour que la famille mette la panique Un bandeau-pro avec tous les machos chauds Et c'est parti pour le show FF, freestyle pour représenter avec un joint d'gandja Tu ne peux pas lutter Fumes, fumes, fumes avant que la vie ne te fume Aujourd'hui j'assume avec le Shit Squad Kif-Kif Production, association banguée Pour des fins de soirées, très fatigué J'envoie ziguer les télés Pour tous les frères avec qui j'ai calciné des bambous Du Secteur au Café Julien Les neveux ne craignent plus rien Accrochés sur la locale comme des morts de faim Shonga m'attend demain, ouais Tu reconnais la voix du Padre, sorti du trece Sur le mic, usé par le pollen et la sensi Toujours d'attaque avec le Shit Squad Mec, reste sur tes gardes En attendant lyricalement que l'on bombarde Balance nos cocktails de ferié néné Si tu cherches la khemia Y'a que chez nous que tu pourras la trouver J'fais pas de topo Je suis plein de popo Demandes à mes potes C'est un 16 S mec que j'ai sous le capot Je pose toujours à mes répèts sans oublier mon matos Un stylo, un micro, mon chocos Et vatos portos C'est comme ça que j'aime bosser Je suis pas du genre à caler ou taper des blocages Et vas-y, cesses de ricaner Ouais, mon big, Jo Popo représente pour le 3e oeil Mc j't'effrite dans mon deux-feuilles Je regarde mes potes, drôlement débonze Tous guidés par le hachich comme par erreur Haza plein de mimiques, ils sont chics Regarde-moi droit dans les yeux, khô T'y arrives pas, quel minable, ce gros Dis-moi, c'est du shit que tu fumes? Ou des pilules que tu gobes ? Combien de gosses en voulant se la jouer grands se sont perdus Je te l'avais dit de rester dans la sensi En soirée bad boy, pompe un joint Reste cool comme ton pote, l'ami, Ali, allez ha ! Je ne fume pas Mais préfère voir des gens down avec le Shit Squad Qu'être à Toxland à la CameSquadra A croire que c'est un championnat Où c'est le plus bête qui l'emportera Avant d'appuyer sur play, t'aurais dû faire un petit A la santé du Squad, Jo Popo, Luciano, Pedro Mon z'ami, c'est la vie C'est la vie qui veut ça N.I.K, N.I.K M'Ghetta au shit</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Le Rat Luciano, FF Deuxième arrondissement Je souhaite beaucoup de courage à toute la ville Courage à notre équipe Et tu le sais, fier d'être marseillais! À la vie à la mort C'est Don Cho' FF, Fonky Family Big-up, big-up, big-up l'OM et tous ses supporters C'est Memen Pour l'Olympique de Marseille Le virage Sud et le virage Nord Allez l'OM !You might also like</t>
+          <t>Le Rat Luciano, FF Deuxième arrondissement Je souhaite beaucoup de courage à toute la ville Courage à notre équipe Et tu le sais, fier d'être marseillais! À la vie à la mort C'est Don Cho' FF, Fonky Family Big-up, big-up, big-up l'OM et tous ses supporters C'est Memen Pour l'Olympique de Marseille Le virage Sud et le virage Nord Allez l'OM !</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>J'écris donc je suis, eux suivent la tendance La tendance sent le rance, loin du sens de la vie Érection du bras droit, j'vis pas dans cette France Si ce jour est à eux, j'fais banco sur la nuit Petit-fils d'immigrés, la mémoire dans le sens C'est bien la milice française qui a mit mes deux grands-pères dans les camps Famille italienne logée au quartier Saint-Jean C'est ça ! Raflée au beau-matin, Opération Sultan J'aurais pu caressr la haine, cultiver la vengance Mais je n'ai que poésie et mélodie pour engeance Cela dit, chacun son spot mais tiens la distance Ou tu risques de voir c'que ta mère te montrait dans les films J'fais pas de danses à la con, à deux doigts de l'abîme Ou me faire taper sur l'épaule par le Président de la ? C'est ça ! Dans mon monde, on argumente pas avec toi J'ai ni le temps, ni l'énergie consacré à faire ça Ce quotidien on le capte pas si on vit à Versailles Les grands ont tous cinq doigts mais ils parlent avec trois Anti putes à buzz et allergiques aux bruits de battes J'fricotte avec ces prods qui donnent pull-up et ?shot You might also likeOn fait un good job, pas un tour de chauffe Un coup de chatte, d'un MC en Gucci avec un goût de chiottes Tchaaa, 1.3, Planète Mars Bouay, C.V Ouais x3 Classique comme une paire de Nike Attends j'récupère le mic J'suis full Frozen, Cali ? Si ils tirent, c'est sûr que je vais leur mettre le strike strike La mentale et du toupet Ça part comme de la machin pas coupé T'as vu là j'suis dans lappel groupé Merci les khos, ceux qui ont pas douté Tu prends pipi dans le sauna J'ai investi plus qu'une Daytona Que ça veut eh-eh, elle sait c'qu'on a La j'suis en feu-eu comme Fofana Un béret, une canne Je les choque comme Biggie Je ne fais que du sale, du flagrant délit Tu test, on te bousille, on te fuck, on te bannis De côté j'ai du lourd, demande à Solda Guirri Biggie On caillasse, la police, les balances sont punis On les mets dans la cave et on les tabassent, c'est horrible On t'arrange, tu allonges, la mallette, la valise Si tu payes pas à temps, dans ta voiture on te carbonise Fais le malin, fais le malade, fais le canard, fais le zonard Fais la mala, c'est mes amis qui te feront dans l'Audi noire Tu nous verras, tu nous paieras, tu mourras, on laissera pas de preuves On t'allumera, on est sans foi ni loi, on est des bandits J'représente tous les chiens de la casse, tous les chiens de la casse J'voulais remplir mes murs de disques d'or, mais j'ai pas la place Et je voulais, faire le tour de l'Atlas Ils font pas le quart d'mon taff, et ils veulent ma place Si ça rafale, ça débite, c'qui te tue, c'est les potes Et ceux qui jalousent, c'est les putes, c'est quoi cette putain d'époque ? Je les épates, coup de batte, on suit pas, on suce pas Goodbye, goodnight, c'est quoi cette putain d'époque ? J'porte un calibre à la taille comme une montre au poignet J'te parle pas de ménage quand j'te dis J'nettoyais On a surfait sur la vague où certains se sont noyés La promenade devient une cage, trop de crânes se font broyés J'fume la frappe de Nador, balafré comme Albator Si j'avoue jamais mes tords, c'est parce que je n'en ai pas Avant de parler, agis d'abord, on te gifle si t'es pas d'accord Si on tenvoie la corde, c'est pour t'attacher avec J'ai des armes si t'as des pecs, les douilles peuvent faire tomber des armoires Je côtoie la mort, c'est pour ça que j'ai le regard noir T'as plein d'histoires, j'vais finir par t'appeler Père Castor Zehma ?, mets toi à l'affût et casse-toi Je vois rouge sous les ditas J'arrive en T-Max kité Rafale dans l'habitacle La Terre, plusieurs l'ont quittés On arrive fonsdés, on va niquer le game, choquer, choquer le rap français Ta bitch, la faire danser, la baiser, la faire pioncer Finir et r'commencer, fais pas le fou, on va te tarter Sont personne dans leurs quartiers J'peux pas mourir comme Biggie Ou comme Tupac Amaru Oh mon Andalouse Tous ils sont jaloux Sans pression comme Vinicius, y'a trop de gadjis, faut un bus Tout le monde me dit T'abuses, j'leur répond Il me faut un Russe Elle veut du Venetta, Loro Piana, la poupetta Mais bon, j'suis trop pété, j'm'endors sur son gros terma Ça critique vers la droite, ça critique vers la gauche Ils ont qu'à s'mettre des doigts, j'pense qu'à remplir ma sacoche Marseillais comme la L2, la A7, l'A55 On est 152, imagine si tu nos feintes haha La il me faut 400 plaques Sans prendre le RS4 sans plaque On arrive en équipe le projet on est 404 Sur le booster on est quatre sans casque On les braque sans masque C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Sur la vie de ma mère Et de but en blanc, poto on les bute en blanc Mon poto c'est le 13 Toujours en équipe sanglants On les braque sans cagoule sans gants La putain de sa mère C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Hé ! Un jour où l'autre on t'aura, on te rafale, te laisse parterre comme dans Gomorra On mangeait le pain sec, pas de sauce Amora, Marseille c'est la mafia, 1.3 la Camorra Avec toi on coupe les ponts c'est définitif, je rêve pas de gros culs, je rêve d'Infinity Elle a des gros seins, cache ça dans ton soutif, elle est trop matrixé un peu comme Trinity Tu veux ma vie ? Prend tout ce qu'il y a avec. J'en veux pas je te la donne Retour d'Hollande, t'es revenu avec 50 grammes, on dirait que t'as fais passer la tonne Oh comique Quand t'as rien, pas de pécule, pas de parloir, c'est pas de leau la taule C'est pas de leau Quand t'es dedans, tout le monde tourne le dos et ta gadji fait sa folle Capitale de la drogue, drogue, drogue, yes sir Du Frozen, que ça smoke, smoke, smoke, yes sir C'est le new 13'Organisé, essaie pas de nous rivaliser Et au pire si on vient en grosse équipe, c'est comme ça c'est la cité RS6 plaqué Pologne mais le bolide est allemand Dans tous les dièses ça charbonne, on se fait plaisir après le Khedma Tu nous fais l'ancien, oui zehma celui qui brasse Ça t'as vu au Kyliad avec Assia de Nasdas 1.3, 5.7, Python, pas de Cobra, tout dans la tête fiston, pas de gros bras Tu te colles de partout, tu donnes ton cul, R'key? sur R'key?, tu es dans de beaux draps Securitas dans le Porsche, pas de menta, ça troue des corps chez nous, pas de Van Damme Ça pense à ta mort, y'a pas de renta, et quand t'es parterre y'a pas de mandat C'est le 13, organe électrique, on va te niquer toi et tes piques DP cagoule levée c'est pratique, la prod je la lève, je la cric Pour tout les cafards postés dans le bloc, ça fout des mini-Uzi dans le froc Pour tout les quartiers où y'a la frappe, nous c'est le 13, on est dans le truc Dans le caleçon, des boules, dans le chargeur, des balles Y'a heja déboule, y'a les keufs détalle Marseille danger Malaga, Rotter', Alger, harraga J'détaille, j'détalle, j'ai la dalle, chargé, Arai, bécane go Air Max, T-Max, j'démarre fort, pull crache nique tous tes morts gros Organisés comme des pros, t'es solo, on est trop On a fait TP dans la zone la, la, la On a tout niqué pour la somme la, la, la On a esquivé les matons la, la, la 13'Organisé, personne va nous canaliser Lame aiguisée, je souris comme Adebisi, tu vas souffrir selon les organes visés Fais attention à ton intonation, t'es une salope y'a pas d'autres appellations T'es bon qu'à parler, t'as jamais fait l'action, ils sont pas doués en rap, ils sont doués en fellation Tester ? Vaut mieux éviter. Sans hésiter, je suis venu viser les points vitaux J'ai vu tomber la neige en été, j'vois défiler les chiennes, à croire j'suis un véto Appelle le dieci-siete 17, on arrive, commence à t'inquiéter Toi tu parles de la rue comme si tu y étais, la nuit j'entends chuchoter les métaux En GTS Panamera, dans le ghetto la paix se fait rare Nique aujourd'hui, demain on verra, j'ai coffré les albums dans les Tera Ça passe à lacte, ça colle, ça appuie, tout le monde sur tes côtés quand t'as le terrain Un peu de love, ça fait le beau-temps la pluie, fais pas confiance, fais pas l'erreur J'suis pas d'ces bâtards la qui courent, plein de phrases à 20K quand c'est bourré Mental en acier, j'réfléchis trois fois, sur un coup de nerf j'allais mourir Allumé, allumé, allumé, c'est la loi de la jungle, tu te fais allumer Y'a trop de traitres et de folles en effet, Marseille oui tu le sais gros c'est animé Faut le cash pour le Riyadh à 'Kech, c'est pour ça que l'instru j'l'a saccage Ils sont moches comme des mecs qui ont vendus la mèche, nous on va la mettre même si ils sont à 10 dans la cage Un 10 pour la route qui nous paie, un 10 en bas de vos écrans y'en a pas On fait bande à part avec l'argent qu'on a pas, et le talent qu'on ment pas Dos à dos comme Kappa, seuls on va soulever la Copa Intégrer le quota, la proc' nous met coupable, avant que les coups partent C'est que du business, la cagoule est noire comme les gants, tellement je bombarde, je vais me faire flasher Ne donnes pas trop tes plans aux gens, en équipe ils viendront pour t'éclater C'est que du business, j'te fais pas confiance, teste moi tu vas voir j'fais pas que chanter Le regard est noir comme les vitres teintées, 280 sur la route, toute Alicante Vroom, vroom, tu entends que le moteur, j'éclate tellement fort qu'elle veut pas me lâcher Boom, boom, juste en bas de la tess, celui qui sort est revenu pour manger La miss elle a pas trouvée le prince charmant, c'est mes rats de la tess qui vont t'aborder De Lyon à Marseille c'est la même rengaine, dégaine noire dans le noir pour vesqui les condés D'or et de platine, le cur est black, dans la selha, les pus les blocs J'finis l'taff, j'ai repris ça le matin, gros j'vais pas t'apprendre tous les codes C'est paire de Gore et c'est paire d'Oakley, quand tu parles faut en faire autant Quand faut test ça va pas te rater, y'a des hmm qui partent pas à blanc Faut pas quitter le ghetto, ya un tas de rouleaux sous cello' Nique, mes sapes sont sous scellé quand je recompte du vert, du yellow Mes gros sait gérer les pagailles, y'a des pes-pom, des libéraux Faut pas jouer les fêlés, faut pas jouer les héros Ça va te mettre la coupe au carré, dans la ville du ballon rond Moi c'est Lil Jah Prod, mais comme Marley j'te fais un p'tit pont Virage DP, Vélodrome chaud comme volcan, si j'fais ça c'est pour la mama Si tu veux faire le bonhomme, tu prends le souffle d'Hiroshima J'arrive à l'abordage avec l'équipage, dans l'instru, dans le découpage Lil Jah, l'Ovni et Sauzer on débarque, sur une scène moi j'ai pas le trac T'es pas concentré, on te rattrape, je crois en Dieu et son karma Rebelle comme Ché Guevara, pour les p'tits de l'Estaque à Saint-Jean la Puenta Bien le bonjour c'est la came qu'on vend Ici, même B-John? sonne normal, j'suis busy, j'sors un gun comme normal J'les bousille, en Prada sur la chaussée, un coup de fil et bientôt un p'tit vient te schlasser Comme à l'époque des Croisades, tu te manges un KO quand la lune est en croissant T'avais jamais vu ça depuis Jacque Mes', un pétard qui provient de Bucarest Un négro connu pour des faits d'armes, des salopes qui nous font les Fidel Castro Et y'en a des tonnes et des tonnes, toi le jour où tu portes une Daytona je doute Je les vois tous cavaler quand ça détonne, j'les ai vu avaler, qui ça étonne ? C'est Marseille ta grand-mère, ça fait du sale, ça maîtrise pas la grammaire J'suis dans soucis, j'sers les camés, sale pute c'est d'la fraîche la con d'sa ? ta mère Wesh bébé, j'viens d'faire six chiffres c'est le bingo Marseille bébé, on parle pas avec les gringos La plus belle, j'la vois, j'suis khapta sur l'allée J'mets la première et andale, j'suis dans les îles sous Bob Marley C'est Marseille en be-bom, madame veut tester le pe-pom Elle veut LV, Gucci, mais j'vais finir dans le deux-temps On arrive en travers dans le 4Matic, ils ont du mal à respirer comme des asthmatiques On change pas l'équipe toujours la même tactique, posté sur le terrain avec un joint de Static Y'a pas de balles factices, que ça pactise, pas sûr que tu t'en tireras Ce n'est pas dit que le plus fort durera, ça te retrouvera même caché dans le Jura On est cramés comme la plaque de ?, pour la plata gros le petit t'attache Ils sont déterminés, tu leur parles pas d'âge, nan poto y'a plus de places pour le partage Nan ce n'est pas la même pour tous, on sait que pour les notres ils ont plus d'estime Un jour où l'autre poto tout se paye, comme ceux qui font subir à la Palestine La rue c'est pas C8, ça veut tout contrôler comme le G8 Tu fais rien pour ta mère mais tu claques tout pour ta pute qui consomme plus qu'un 4.2L V8 J'sais que les hommes de parole ça court pas les rues, j'te parle c'est sincère je ne joue pas de rôle On peut le faire poto même si ça paraît rude, t'as merdé fils de pute n'inverse pas les rôles C'est pas Marseille, c'est le ralliement, c'est les gars d'ici qui flambent C'est les bâtiments, c'est les grandes baraques, c'est le p'tit bar qui fait l'angle Le diable qui joue les anges, ça fleurit sous les lampes C'est trop inné, on arrose les pieds de la Skunk à l'eau du robinet Je s'rais le gominé, en Stone l'hiver, on peut tous monter, ça va pas se livrer Ça prolifère, rouge dans les yeux, sous le conifère, que des gros tickets J'baise des travailleuses, pris dans l'ivresse, j'ai le feu sous les doigts Love la vitesse et on secoue les boîtes, ça va mettre les voiles si ça pue la friteuse Conduite du genou, ça ressert en ligne droite Attends le sang Vas-y j'arrive Attends le sang Attends un peu Donnes moi une chaise Vas-y ramène J'ai pas besoin d'être debout, pour que je les baise Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Hausse son Paul Shark, j'la fais tchouper dans la Bentayga cette petite kahba T'sais qu'pour 7500 j'fais les papiers à Air Harraga ? elle a trop la dalle J'attends rien de personne, j'fais des bails Des fois j'ai pleuré seul, sous bouteille Elle me fait la fille d'Insta, sous Lidl Elle se met fraîche dans sa chambre, en poubelle Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Tu l'verras pas qu'on souffre Pas à n'importe qui on s'ouvre Dans le dur, dans le vrai, j'suis en panne de temps Que des coups de pfff, à tout je m'attends J'm'aère, je ère, y'a R Signé Moumzer d'la Zer Chabrand collée sur le ventre, j'apprends, à tout j'me relève Les tirs, des poteaux rentrants, j'me tire, ma petite m'attend J'perds le contrôle, t'façon j'm'enfous moi j'crois qu'j'suis gris J'tourne dans la zone, énervé le BM je l'ai plié Cali j'consomme, sur ma vie sinon j'vais vrillé Rien qu'ils chantonnent, ils ont parlés quand j'avais nié Dis moi où tu étais quand y'avait walou, nada Quand y'avait rien dans la CB, que je mettais des revers comme Nadal On barode avec le T, j'ai fini plus loin que Malaga J'ai tout mis dans l'OCB, un boulot j'te le fais harraga I'm not a hip?, I'm in a Bentley Gimme a tap now, can even end trip ? Whenever I tryna go, I'm around here I keep a blade like I'm Snipes Wesley You know where I come from, don't try me They get Pop'd like Smoke or IP? Men, I can't even stab his body They wont play tous les mecs de ma ville J'ai pris sur moi pour pas rapper en anglais, but I can't held myself Drop if you really tryna spend this bag, hop in the jet or the brand-new ? Call all my niggas like Wesh le gang, they ain't gonna play tough when I stop his bands They tryna eat all out of my plate, I tryna fuck all my hit J'veux péter le champ' comme pilote de la F1, dans l'appart ça détaille fort de la S1 Dans le sac y'a le prix du Audi S1, on fait les cartes, on veut le code et on décaisse hein On est pas au flambe?, c'est la cité dans le 7R, on plait aux femmes, c'est la cité dans le secteur C'est la guerre, on a des traqueurs indétectables, on fait la paire, moi et mes couilles c'est le spectacle J'suis cramé comme Metah, chromé comme métal, la me-ar est létale, on bang on est fi dar On te rend méconnaissable, et faut qu'tu négocies, on veut remplir des salles, mes collègues aussi La j'suis d'humeur monotone, les schmitts qui passent, Molotov Que des colleurs, que des pocs, j'te croise, heynen, coup d'épaule Spliff au bec, j'suis sur la E17, 4 harbis dans un Audi break Tard la nuit j'm'enfume au Sour Diesel, avec j'fais des boulettes sur le jean Diesel J'roule à contre-sens pour finir dans l'top Ten, Amnésia, Hollandaise comme Robben La qualité t'inquiètes c'est de la Top Shelf, j'sors tout d'mes couilles y'a la douane française J'voulais pas m'salir la ligne est d'jà franchie, j'ressors blanchis, sourire d'affranchis Cali Weed scellé dans la saisie, ? j'avais d'jà senti Le ? m'appelle, j'le visser dans l'quart d'heure, qualité pas chère qui t'laisse parterre QN, La Haine, fumette dans l'artère, j'suis la 13014ème balle dans l'chargeur En freestyle, Le J m'appelle, donc j'arrive haut les curs J'me méfie de ceux qui ont du sucre dans la bouche et du venin dans le cur Qu'est-ce que la vie de rêve ? Voilà une question à méditer Des mythos m'ont promis de l'aide, au final c'est Dieu qui m'a facilité Ce mois-ci ça a rafalé combien d'fois ? Bienvenue à Marseille Y'a des mecs qui te cloueront sur une croix, si tu veux jouer l'immortel Mets pas ton nez dans mes affaires, tu veux nous faire mais tu tiens pas la route Je leur mets la patate à Fédor, quand on est faits d'or, sache qu'on ne craint pas la rouille J'ai des foutues pensées, elles sont ancestrales, et souvent j'me demande quand tout ça cessera Le viseur est sur toi quand passe sur l'estrade, comme l'envers du décor il est assez crade Frérot on a souffert jusqu'à l'insomnie, quand tu vois que le visage devient démoniaque Ils ont parlés trop vite moi j'ai rien compris, elle est bonne on l'a parfume à l'ammoniaque La vie cette pute elle a brisée des rêves, moi j'étais qu'un gosse qui essayait de tourner la roue Tourner la roue mais le monde est cruel comme aller bien sans Mel?, il faut finir le round J'connais sa mère pas son itinéraire, un désaccord et y'a mutinerie Soldat de Marseille avec un oeil de verre, pour tout prendre il te faudra plus qu'une vie C'est 1.3 Marseille bébé, c'est inné on fait TB En C.P ça fait TP, p'tit du CV froisse ta CB Week-end Monté-Carlo, suite et cuistot privé Mariage ?, fils de pute j'vais pas m'en privé Et vas-y vole petit pélican, amorti, lucarne, Bellingham J'fais mes comptes jusqu'à Alicante, elles sont jalouses mais on est polygames En Liga, eux ils sont reléguables, fais pas le raciste à la Monégasque Trop fier c'est moi qui régale, salon, yacht, en mode Monégasque Baisse pas les bras, redouble d'efforts, dans les difficultés on a vu les plus forts Pas de hasards, pas d'ironies du sort, j'suis pas à l'abri, pour moi envoie d'la ce-for J'suis dans l'sud, j'prends pas le nord, pendant j'coulais un bronze j'ai rêvé de l'or On est discrets, évite de parler fort, n'oublie pas d'où tu viens, surtout dans le Grand Fort? Sort couvert c'est glacial dehors J'suis dans l'nord, on descend vers le port J'refais tout, j'repense à tout Chacun ses atouts, sur le route j'mets des accoups Tu croyais quoi ? On est plusieurs dans ma tête, mais ? c'est moi le chef J'ai fais du bien, on peut aussi te faire du mal, me demande pas pour combien On est niah?, mais si j'dois t'niquer ta mère, on l'fera pas sur du Take Un petit pas, et tout le monde fait marche arrière, un peu comme cet Augustin J'm'en bas les couilles si t'as pas la ref', le savoir est une arme que je brandis On fait pas d'exceptions à la règle, tant que la moula sonne, bah j'fais la diff' Calibré dans l'bas du bâtiment, j'me suis tout en haut du Sofitel Affolant, j'ai fais et refais le tour de la ville, j'ai claqué des salaires dans des paires italiennes C'est banal ici on a tous bibi, gros zouave resert les loups, ceux qui ont soifs Un douze sur moi, faut pas qu't'essayes, mec du CV quoi qu'il en soit Et même vacances, chemise en soie, ça reste à l'affût des poignets Ça vient de la Plaine jusqu'au Panier, gros c'est le 1.3 quoi qu'il en soit J'sais qu'toi t'es tout doux, nan fais pas celui qui aime les calibres On me dit Pour toi j'les fais dodo, mais tranquille, prends des années c'est pas la peine Merci le J pour l'assist', toute la ville rep' à l'appel J'tournais partout pour la SIM, minimum 2G pour l'appel 0.1 vers faire place, et laisse faire, on avait besoin d'espace, et d'espèces Donc on a pris des risques, pas à moi j'ai que les restes, la cité, je l'incarne, j'ai l'instinct Pour les faire, coups bas, là laisse moi un instant, j'ai la vista de Modri, Iniesta Tu connais j'suis dans les dièses, nan j'suis pas la pour le buzz, moi j'suis là que pour ma ville, mes ? dans l'cur Palpité ? Viens. Assieds toi, j'colle, manita reste à ta place, eux j'sais même pas t'es qui toi Faut que j'la quitte même si j'l'aime trop, tu sais que pour ma cité moi j'donne tout Ça presse la détente, shooter sur bécane, c'est plus comme avant ça tire dans l'tas Des minots chargés jusqu'aux dents, gantés La lumière viendra comme dans Billie Jean, Billie Billie T'as une vision de l'infini, 1.3.0 j'mets plus de limites La lumière viendra comme dans Billie Jean, Billie Billie Funambule, j'marche sur un fil, tu m'sors ton ? ça défile J'crois qu't'as raison j'suis dans l'bail, et puis c't'année on f'ra du sale RS4, j'mets les flammes, pour tous ces ? qui m'veulent du mal J'les shooterai tou-tou-tous, un par un je leur ferai du sale On fire, j'suis comme Jordan, j'suis dans les airs, rien que je fly Gambino, les z'hommes, www.vaniquertesmorts.com Ce soir elle s'est fait coquette, elle consomme ces morts j'ai niqué un vert pomme Ohh single de dia-dia, tu guettes ça ma baby J'aime pas les putas, c'est le 1.3, ça touche le RSA, ça roule en RS3 Ça fait tourner le four et ça pointe à la SPIP, cagoulé comme Hitch, tu t'prends un coup d'cric Y'a des bons et des putas et des bandeurs de hits, la vie ça va vite, parce que avant l'Covid Le jobbeur à décapsule, il fait tourner le shit J'suis au stade popopopopo Le virage m'a appellé, popopopopo, on fait trembler tout le Vél' J'aurais allumé un pét' avec si j'avais porté la flamme comme Jul J'crois que mehlich on va faire avec, si t'as le zemeh et pas d'bezoul Faut la Sacem à Cheb Khaled, ennemi public, Saddam, Ben Laden On s'en balek des strasses, des paillettes, et si ça flop j'décharge des palettes Quiquonque fait le King-Kong, et les balles du AK font du ping-pong P'tit con te jettes pas, j'mets des p'tits ponts, sort le cocktail et le chiffon Si tu veut la selha, y'a c'qu'il faut, des blancs, des noirs et des bicots D'or et d'plata sur le tifo, chico Pas d'estime, ils se ventent pour briller J'suis au rendez-vous même si j'suis trop grillé En Palestine, où vont mes prières Garder la face surtout faut pas plier Viens voir comment on est doués Le Loupe débarque, allez courez Tu fais le fou, on va te retrouver Viens voir comment on est chauds, vient voir comment on est capables J'débarque même dans ton ghetto, j'déverse ma haine, ça fait pa-pa Marseille, GTA, ? , corniche, Clio 3, réserve, ça c'cale à Cor-Beach ? Que des 30 ?, cagoule dans la biche?, sur les pleins capuches, c'est la rue ma biche Toi, tu parles des gens, tu m'intéresses pas, tu parles d'oseille t'es au RSA 13'Organisé comme le MS13, ça te ? au bar, ça met le GS3? Coeur cassé comme Bambi, fais un bisou à ton ? chérie j't'en prie J'suis comme ceux qui m'écoutent, on s'est compris Coeur cassé comme Bambi J'reviens gazé et tant pis J'suis gazé et tant pis, j'suis comme ceux qui m'écoutent, on s'est compris Y'a pas de ?, on s'est compris, y'a pas de Ohhhhh Hamo C'est La Scampia, pose ton cul à terre Ohhhhh Hamo ? On compte plus les décès, ni les perquis', ici tout est biaisé, c'est hyper triste Les mères ont les bras baissées et les pères prient, car ça rêve de Féfé et de berlines Trop de blessés, beaucoup de guerres crimes, la ville est aggressée, réput' ternie M'empêche pas de rêver, tout est permis, je veux la LDC sous des zerbi? Du feu dans mes poèmes, moi j'n'ai plus le temps, jamais trop tard pour frapper Supporter de l'O.M, noir et musulman, j'suis le cauchemar de Galtier Faut qu'on rappe, faut qu'on les choque, faut qu'on les traumatise, moi j'me rappelle à l'époque ils me faisaient pas la bise Celle-là c'est pour Gordech? parti beaucoup trop tôt, bruits d'armes la gamberge du ghetto Khapta, t'as façon de parler tout tes mimiques ça passe pas, en vrai niquer des mères je sais pas j'suis bon qu'à ça Des sous contre du shit avec un tour de passe-passe avec un tour de passe-passe C'est plus fort que moi, j'vide la bouteille J'suis agen tous ces morts, c'est mort j'vide la bouteille Hier encore ça tirait, tirait, c'est des traîtres, c'est des Tiro? 6 heures du mat', j'suis déchiré chiré, moi j'ai esquivé les gyros gyros J'suis Marseille, j'suis le 1.3 comme la vente de Coca', atmosphère électrique j'me place comme Big Poppa C'est 13'Organisé, DZ mon avocat, coup d'schlass dans la ceinture, j'te termine au Toka' J'fais du rap de crapule, pas de nez dans la coco, j'arrive comme à l'ancienne, VR6 full Croco Sauvage comme Dothraki, barbare comme Khal Drogo, ça m'entoure des gros coups, mafieux comme la Mocro? J'arrive comme Marcheur Blanc, j't'ouvre le crâne à l'épée, j'compte plus les heures de gardav', ni les heures de TP J'suis le Réal de Madrid comme Kakà ou Pépé, violent depuis le CP, PGP full C.P On fuck la Fashion Week, pas de dégaine de pétasse, on braque après on s'casse, on brasse après on tasse Chez nous y'a pas de Féfé, R19 j'mets les gaz, ? foudroie la prod et Sysa sur Pégase 11.43 j'ai décapoté, ça bipe sur le bleu toute la journée J'ai vidé la 'teille j'suis assommé, brolique sous la ceinture j'deviens jnouné Dis moi où Dadinho n'a pas allumé, j'fais parti des négros miraculés J'en ai bégayé, on a assumé, ils m'appellent le sang, c'est des enculés Comme le J j'représente la zone, c'est seulement le frérot qui a fini en zone Garder le moral ça brise pas les hommes, 13'Organisé ça fait l'effet d'une bombe D'une bombe, d'une bombe, 13'Organisé ça fait l'effet d'une bombe On verbalise puis on pénalise, quand c'est la crise, que la moula qui nous canalise Pas tout seul j'suis en bande organisée, on est là pour traumatiser J'roule une gros joint sous la lune, j'm'évade même sans thunes, la tête dans les étoiles, les pieds sur le bitume Entre le bien et le mal, j'sais plus où je me situe, j'rêve de nouveaux horizons même si ici ça tue Et ouais ça tue en rafale, comme aux Favelas, matin midi soir ça remplit le sac de mapessa On porte nos couilles sur le terrain, comme Makélélé, les gars ça tire, même les condés dansent la Macarena J'sors du four ça sent le poulet, y'a les schmitts qui tournent, on s'en bat les-les Y'a les schmitts qui tournent, on s'en bat les-les, allumer le feu, c'que tu fais c'est laid C'que tu fais c'est pété, moi j'écoute pas, accepte les critiques et devient plus fort On va choquer du monde, la y'a toute la ciudad, j'ai mis les lunettes à Mad Max avec la ? En ce moment couci-couça, en manque de moula donc j'ai bipé le 'zin Pardonner les fous c'est un truc que j'fais pas, y'a pas de silencieux donc j'utilise un coussin Ah haut les mains haut les mains, t'as claqué tout ton biff maintenant tu veux le mien T'auras rien t'auras rien, y'a que quand tout va bien qu't'es le frangin t'es le frangin Doucement, pousse toi et assis toi regarde faire les anciens J'ai les crocs, j'ai la rage comme un chien quand ça touche à mon pain Ya des frères qui sont tombés bêtement Jai pas changé depuis mes 20 ans Jarrive 1.3.9, je crie Vatos Cest le D est-ce que tu me remets maintenant ?? Jarrive inattendu comme un coup de tazer Jarrive tendu comme le cul de ta sur Ouais dans les rues de Marseille elle arrive par la poste, on a plus de passeur Regarde les bandits brasser Je béni lavenir, je maudis le passé Sur le prado je conduis gazé Je reviens de loin comme Jean-Louis Gasset Je suis un couche tard, jai ma tare-Gui Ne la touche pas, cest ma barbie Marseille freestyle légendaire dans la poche jai du méchant teh tu serres</t>
+          <t>J'écris donc je suis, eux suivent la tendance La tendance sent le rance, loin du sens de la vie Érection du bras droit, j'vis pas dans cette France Si ce jour est à eux, j'fais banco sur la nuit Petit-fils d'immigrés, la mémoire dans le sens C'est bien la milice française qui a mit mes deux grands-pères dans les camps Famille italienne logée au quartier Saint-Jean C'est ça ! Raflée au beau-matin, Opération Sultan J'aurais pu caressr la haine, cultiver la vengance Mais je n'ai que poésie et mélodie pour engeance Cela dit, chacun son spot mais tiens la distance Ou tu risques de voir c'que ta mère te montrait dans les films J'fais pas de danses à la con, à deux doigts de l'abîme Ou me faire taper sur l'épaule par le Président de la ? C'est ça ! Dans mon monde, on argumente pas avec toi J'ai ni le temps, ni l'énergie consacré à faire ça Ce quotidien on le capte pas si on vit à Versailles Les grands ont tous cinq doigts mais ils parlent avec trois Anti putes à buzz et allergiques aux bruits de battes J'fricotte avec ces prods qui donnent pull-up et ?shot On fait un good job, pas un tour de chauffe Un coup de chatte, d'un MC en Gucci avec un goût de chiottes Tchaaa, 1.3, Planète Mars Bouay, C.V Ouais x3 Classique comme une paire de Nike Attends j'récupère le mic J'suis full Frozen, Cali ? Si ils tirent, c'est sûr que je vais leur mettre le strike strike La mentale et du toupet Ça part comme de la machin pas coupé T'as vu là j'suis dans lappel groupé Merci les khos, ceux qui ont pas douté Tu prends pipi dans le sauna J'ai investi plus qu'une Daytona Que ça veut eh-eh, elle sait c'qu'on a La j'suis en feu-eu comme Fofana Un béret, une canne Je les choque comme Biggie Je ne fais que du sale, du flagrant délit Tu test, on te bousille, on te fuck, on te bannis De côté j'ai du lourd, demande à Solda Guirri Biggie On caillasse, la police, les balances sont punis On les mets dans la cave et on les tabassent, c'est horrible On t'arrange, tu allonges, la mallette, la valise Si tu payes pas à temps, dans ta voiture on te carbonise Fais le malin, fais le malade, fais le canard, fais le zonard Fais la mala, c'est mes amis qui te feront dans l'Audi noire Tu nous verras, tu nous paieras, tu mourras, on laissera pas de preuves On t'allumera, on est sans foi ni loi, on est des bandits J'représente tous les chiens de la casse, tous les chiens de la casse J'voulais remplir mes murs de disques d'or, mais j'ai pas la place Et je voulais, faire le tour de l'Atlas Ils font pas le quart d'mon taff, et ils veulent ma place Si ça rafale, ça débite, c'qui te tue, c'est les potes Et ceux qui jalousent, c'est les putes, c'est quoi cette putain d'époque ? Je les épates, coup de batte, on suit pas, on suce pas Goodbye, goodnight, c'est quoi cette putain d'époque ? J'porte un calibre à la taille comme une montre au poignet J'te parle pas de ménage quand j'te dis J'nettoyais On a surfait sur la vague où certains se sont noyés La promenade devient une cage, trop de crânes se font broyés J'fume la frappe de Nador, balafré comme Albator Si j'avoue jamais mes tords, c'est parce que je n'en ai pas Avant de parler, agis d'abord, on te gifle si t'es pas d'accord Si on tenvoie la corde, c'est pour t'attacher avec J'ai des armes si t'as des pecs, les douilles peuvent faire tomber des armoires Je côtoie la mort, c'est pour ça que j'ai le regard noir T'as plein d'histoires, j'vais finir par t'appeler Père Castor Zehma ?, mets toi à l'affût et casse-toi Je vois rouge sous les ditas J'arrive en T-Max kité Rafale dans l'habitacle La Terre, plusieurs l'ont quittés On arrive fonsdés, on va niquer le game, choquer, choquer le rap français Ta bitch, la faire danser, la baiser, la faire pioncer Finir et r'commencer, fais pas le fou, on va te tarter Sont personne dans leurs quartiers J'peux pas mourir comme Biggie Ou comme Tupac Amaru Oh mon Andalouse Tous ils sont jaloux Sans pression comme Vinicius, y'a trop de gadjis, faut un bus Tout le monde me dit T'abuses, j'leur répond Il me faut un Russe Elle veut du Venetta, Loro Piana, la poupetta Mais bon, j'suis trop pété, j'm'endors sur son gros terma Ça critique vers la droite, ça critique vers la gauche Ils ont qu'à s'mettre des doigts, j'pense qu'à remplir ma sacoche Marseillais comme la L2, la A7, l'A55 On est 152, imagine si tu nos feintes haha La il me faut 400 plaques Sans prendre le RS4 sans plaque On arrive en équipe le projet on est 404 Sur le booster on est quatre sans casque On les braque sans masque C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Sur la vie de ma mère Et de but en blanc, poto on les bute en blanc Mon poto c'est le 13 Toujours en équipe sanglants On les braque sans cagoule sans gants La putain de sa mère C'est Marseille bébé T'es bonne je te fais un bébé J'ai des armes scellés par les keufs mais j'ai payé mon avocat avec de la végé Hé ! Un jour où l'autre on t'aura, on te rafale, te laisse parterre comme dans Gomorra On mangeait le pain sec, pas de sauce Amora, Marseille c'est la mafia, 1.3 la Camorra Avec toi on coupe les ponts c'est définitif, je rêve pas de gros culs, je rêve d'Infinity Elle a des gros seins, cache ça dans ton soutif, elle est trop matrixé un peu comme Trinity Tu veux ma vie ? Prend tout ce qu'il y a avec. J'en veux pas je te la donne Retour d'Hollande, t'es revenu avec 50 grammes, on dirait que t'as fais passer la tonne Oh comique Quand t'as rien, pas de pécule, pas de parloir, c'est pas de leau la taule C'est pas de leau Quand t'es dedans, tout le monde tourne le dos et ta gadji fait sa folle Capitale de la drogue, drogue, drogue, yes sir Du Frozen, que ça smoke, smoke, smoke, yes sir C'est le new 13'Organisé, essaie pas de nous rivaliser Et au pire si on vient en grosse équipe, c'est comme ça c'est la cité RS6 plaqué Pologne mais le bolide est allemand Dans tous les dièses ça charbonne, on se fait plaisir après le Khedma Tu nous fais l'ancien, oui zehma celui qui brasse Ça t'as vu au Kyliad avec Assia de Nasdas 1.3, 5.7, Python, pas de Cobra, tout dans la tête fiston, pas de gros bras Tu te colles de partout, tu donnes ton cul, R'key? sur R'key?, tu es dans de beaux draps Securitas dans le Porsche, pas de menta, ça troue des corps chez nous, pas de Van Damme Ça pense à ta mort, y'a pas de renta, et quand t'es parterre y'a pas de mandat C'est le 13, organe électrique, on va te niquer toi et tes piques DP cagoule levée c'est pratique, la prod je la lève, je la cric Pour tout les cafards postés dans le bloc, ça fout des mini-Uzi dans le froc Pour tout les quartiers où y'a la frappe, nous c'est le 13, on est dans le truc Dans le caleçon, des boules, dans le chargeur, des balles Y'a heja déboule, y'a les keufs détalle Marseille danger Malaga, Rotter', Alger, harraga J'détaille, j'détalle, j'ai la dalle, chargé, Arai, bécane go Air Max, T-Max, j'démarre fort, pull crache nique tous tes morts gros Organisés comme des pros, t'es solo, on est trop On a fait TP dans la zone la, la, la On a tout niqué pour la somme la, la, la On a esquivé les matons la, la, la 13'Organisé, personne va nous canaliser Lame aiguisée, je souris comme Adebisi, tu vas souffrir selon les organes visés Fais attention à ton intonation, t'es une salope y'a pas d'autres appellations T'es bon qu'à parler, t'as jamais fait l'action, ils sont pas doués en rap, ils sont doués en fellation Tester ? Vaut mieux éviter. Sans hésiter, je suis venu viser les points vitaux J'ai vu tomber la neige en été, j'vois défiler les chiennes, à croire j'suis un véto Appelle le dieci-siete 17, on arrive, commence à t'inquiéter Toi tu parles de la rue comme si tu y étais, la nuit j'entends chuchoter les métaux En GTS Panamera, dans le ghetto la paix se fait rare Nique aujourd'hui, demain on verra, j'ai coffré les albums dans les Tera Ça passe à lacte, ça colle, ça appuie, tout le monde sur tes côtés quand t'as le terrain Un peu de love, ça fait le beau-temps la pluie, fais pas confiance, fais pas l'erreur J'suis pas d'ces bâtards la qui courent, plein de phrases à 20K quand c'est bourré Mental en acier, j'réfléchis trois fois, sur un coup de nerf j'allais mourir Allumé, allumé, allumé, c'est la loi de la jungle, tu te fais allumer Y'a trop de traitres et de folles en effet, Marseille oui tu le sais gros c'est animé Faut le cash pour le Riyadh à 'Kech, c'est pour ça que l'instru j'l'a saccage Ils sont moches comme des mecs qui ont vendus la mèche, nous on va la mettre même si ils sont à 10 dans la cage Un 10 pour la route qui nous paie, un 10 en bas de vos écrans y'en a pas On fait bande à part avec l'argent qu'on a pas, et le talent qu'on ment pas Dos à dos comme Kappa, seuls on va soulever la Copa Intégrer le quota, la proc' nous met coupable, avant que les coups partent C'est que du business, la cagoule est noire comme les gants, tellement je bombarde, je vais me faire flasher Ne donnes pas trop tes plans aux gens, en équipe ils viendront pour t'éclater C'est que du business, j'te fais pas confiance, teste moi tu vas voir j'fais pas que chanter Le regard est noir comme les vitres teintées, 280 sur la route, toute Alicante Vroom, vroom, tu entends que le moteur, j'éclate tellement fort qu'elle veut pas me lâcher Boom, boom, juste en bas de la tess, celui qui sort est revenu pour manger La miss elle a pas trouvée le prince charmant, c'est mes rats de la tess qui vont t'aborder De Lyon à Marseille c'est la même rengaine, dégaine noire dans le noir pour vesqui les condés D'or et de platine, le cur est black, dans la selha, les pus les blocs J'finis l'taff, j'ai repris ça le matin, gros j'vais pas t'apprendre tous les codes C'est paire de Gore et c'est paire d'Oakley, quand tu parles faut en faire autant Quand faut test ça va pas te rater, y'a des hmm qui partent pas à blanc Faut pas quitter le ghetto, ya un tas de rouleaux sous cello' Nique, mes sapes sont sous scellé quand je recompte du vert, du yellow Mes gros sait gérer les pagailles, y'a des pes-pom, des libéraux Faut pas jouer les fêlés, faut pas jouer les héros Ça va te mettre la coupe au carré, dans la ville du ballon rond Moi c'est Lil Jah Prod, mais comme Marley j'te fais un p'tit pont Virage DP, Vélodrome chaud comme volcan, si j'fais ça c'est pour la mama Si tu veux faire le bonhomme, tu prends le souffle d'Hiroshima J'arrive à l'abordage avec l'équipage, dans l'instru, dans le découpage Lil Jah, l'Ovni et Sauzer on débarque, sur une scène moi j'ai pas le trac T'es pas concentré, on te rattrape, je crois en Dieu et son karma Rebelle comme Ché Guevara, pour les p'tits de l'Estaque à Saint-Jean la Puenta Bien le bonjour c'est la came qu'on vend Ici, même B-John? sonne normal, j'suis busy, j'sors un gun comme normal J'les bousille, en Prada sur la chaussée, un coup de fil et bientôt un p'tit vient te schlasser Comme à l'époque des Croisades, tu te manges un KO quand la lune est en croissant T'avais jamais vu ça depuis Jacque Mes', un pétard qui provient de Bucarest Un négro connu pour des faits d'armes, des salopes qui nous font les Fidel Castro Et y'en a des tonnes et des tonnes, toi le jour où tu portes une Daytona je doute Je les vois tous cavaler quand ça détonne, j'les ai vu avaler, qui ça étonne ? C'est Marseille ta grand-mère, ça fait du sale, ça maîtrise pas la grammaire J'suis dans soucis, j'sers les camés, sale pute c'est d'la fraîche la con d'sa ? ta mère Wesh bébé, j'viens d'faire six chiffres c'est le bingo Marseille bébé, on parle pas avec les gringos La plus belle, j'la vois, j'suis khapta sur l'allée J'mets la première et andale, j'suis dans les îles sous Bob Marley C'est Marseille en be-bom, madame veut tester le pe-pom Elle veut LV, Gucci, mais j'vais finir dans le deux-temps On arrive en travers dans le 4Matic, ils ont du mal à respirer comme des asthmatiques On change pas l'équipe toujours la même tactique, posté sur le terrain avec un joint de Static Y'a pas de balles factices, que ça pactise, pas sûr que tu t'en tireras Ce n'est pas dit que le plus fort durera, ça te retrouvera même caché dans le Jura On est cramés comme la plaque de ?, pour la plata gros le petit t'attache Ils sont déterminés, tu leur parles pas d'âge, nan poto y'a plus de places pour le partage Nan ce n'est pas la même pour tous, on sait que pour les notres ils ont plus d'estime Un jour où l'autre poto tout se paye, comme ceux qui font subir à la Palestine La rue c'est pas C8, ça veut tout contrôler comme le G8 Tu fais rien pour ta mère mais tu claques tout pour ta pute qui consomme plus qu'un 4.2L V8 J'sais que les hommes de parole ça court pas les rues, j'te parle c'est sincère je ne joue pas de rôle On peut le faire poto même si ça paraît rude, t'as merdé fils de pute n'inverse pas les rôles C'est pas Marseille, c'est le ralliement, c'est les gars d'ici qui flambent C'est les bâtiments, c'est les grandes baraques, c'est le p'tit bar qui fait l'angle Le diable qui joue les anges, ça fleurit sous les lampes C'est trop inné, on arrose les pieds de la Skunk à l'eau du robinet Je s'rais le gominé, en Stone l'hiver, on peut tous monter, ça va pas se livrer Ça prolifère, rouge dans les yeux, sous le conifère, que des gros tickets J'baise des travailleuses, pris dans l'ivresse, j'ai le feu sous les doigts Love la vitesse et on secoue les boîtes, ça va mettre les voiles si ça pue la friteuse Conduite du genou, ça ressert en ligne droite Attends le sang Vas-y j'arrive Attends le sang Attends un peu Donnes moi une chaise Vas-y ramène J'ai pas besoin d'être debout, pour que je les baise Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Hausse son Paul Shark, j'la fais tchouper dans la Bentayga cette petite kahba T'sais qu'pour 7500 j'fais les papiers à Air Harraga ? elle a trop la dalle J'attends rien de personne, j'fais des bails Des fois j'ai pleuré seul, sous bouteille Elle me fait la fille d'Insta, sous Lidl Elle se met fraîche dans sa chambre, en poubelle Elle me dit T'es fou, tu veux me casser sans la bague sans la bague Marbella ou Braga, j'fais des vacances j'remonte du taga d'la bonne selha Tu l'verras pas qu'on souffre Pas à n'importe qui on s'ouvre Dans le dur, dans le vrai, j'suis en panne de temps Que des coups de pfff, à tout je m'attends J'm'aère, je ère, y'a R Signé Moumzer d'la Zer Chabrand collée sur le ventre, j'apprends, à tout j'me relève Les tirs, des poteaux rentrants, j'me tire, ma petite m'attend J'perds le contrôle, t'façon j'm'enfous moi j'crois qu'j'suis gris J'tourne dans la zone, énervé le BM je l'ai plié Cali j'consomme, sur ma vie sinon j'vais vrillé Rien qu'ils chantonnent, ils ont parlés quand j'avais nié Dis moi où tu étais quand y'avait walou, nada Quand y'avait rien dans la CB, que je mettais des revers comme Nadal On barode avec le T, j'ai fini plus loin que Malaga J'ai tout mis dans l'OCB, un boulot j'te le fais harraga I'm not a hip?, I'm in a Bentley Gimme a tap now, can even end trip ? Whenever I tryna go, I'm around here I keep a blade like I'm Snipes Wesley You know where I come from, don't try me They get Pop'd like Smoke or IP? Men, I can't even stab his body They wont play tous les mecs de ma ville J'ai pris sur moi pour pas rapper en anglais, but I can't held myself Drop if you really tryna spend this bag, hop in the jet or the brand-new ? Call all my niggas like Wesh le gang, they ain't gonna play tough when I stop his bands They tryna eat all out of my plate, I tryna fuck all my hit J'veux péter le champ' comme pilote de la F1, dans l'appart ça détaille fort de la S1 Dans le sac y'a le prix du Audi S1, on fait les cartes, on veut le code et on décaisse hein On est pas au flambe?, c'est la cité dans le 7R, on plait aux femmes, c'est la cité dans le secteur C'est la guerre, on a des traqueurs indétectables, on fait la paire, moi et mes couilles c'est le spectacle J'suis cramé comme Metah, chromé comme métal, la me-ar est létale, on bang on est fi dar On te rend méconnaissable, et faut qu'tu négocies, on veut remplir des salles, mes collègues aussi La j'suis d'humeur monotone, les schmitts qui passent, Molotov Que des colleurs, que des pocs, j'te croise, heynen, coup d'épaule Spliff au bec, j'suis sur la E17, 4 harbis dans un Audi break Tard la nuit j'm'enfume au Sour Diesel, avec j'fais des boulettes sur le jean Diesel J'roule à contre-sens pour finir dans l'top Ten, Amnésia, Hollandaise comme Robben La qualité t'inquiètes c'est de la Top Shelf, j'sors tout d'mes couilles y'a la douane française J'voulais pas m'salir la ligne est d'jà franchie, j'ressors blanchis, sourire d'affranchis Cali Weed scellé dans la saisie, ? j'avais d'jà senti Le ? m'appelle, j'le visser dans l'quart d'heure, qualité pas chère qui t'laisse parterre QN, La Haine, fumette dans l'artère, j'suis la 13014ème balle dans l'chargeur En freestyle, Le J m'appelle, donc j'arrive haut les curs J'me méfie de ceux qui ont du sucre dans la bouche et du venin dans le cur Qu'est-ce que la vie de rêve ? Voilà une question à méditer Des mythos m'ont promis de l'aide, au final c'est Dieu qui m'a facilité Ce mois-ci ça a rafalé combien d'fois ? Bienvenue à Marseille Y'a des mecs qui te cloueront sur une croix, si tu veux jouer l'immortel Mets pas ton nez dans mes affaires, tu veux nous faire mais tu tiens pas la route Je leur mets la patate à Fédor, quand on est faits d'or, sache qu'on ne craint pas la rouille J'ai des foutues pensées, elles sont ancestrales, et souvent j'me demande quand tout ça cessera Le viseur est sur toi quand passe sur l'estrade, comme l'envers du décor il est assez crade Frérot on a souffert jusqu'à l'insomnie, quand tu vois que le visage devient démoniaque Ils ont parlés trop vite moi j'ai rien compris, elle est bonne on l'a parfume à l'ammoniaque La vie cette pute elle a brisée des rêves, moi j'étais qu'un gosse qui essayait de tourner la roue Tourner la roue mais le monde est cruel comme aller bien sans Mel?, il faut finir le round J'connais sa mère pas son itinéraire, un désaccord et y'a mutinerie Soldat de Marseille avec un oeil de verre, pour tout prendre il te faudra plus qu'une vie C'est 1.3 Marseille bébé, c'est inné on fait TB En C.P ça fait TP, p'tit du CV froisse ta CB Week-end Monté-Carlo, suite et cuistot privé Mariage ?, fils de pute j'vais pas m'en privé Et vas-y vole petit pélican, amorti, lucarne, Bellingham J'fais mes comptes jusqu'à Alicante, elles sont jalouses mais on est polygames En Liga, eux ils sont reléguables, fais pas le raciste à la Monégasque Trop fier c'est moi qui régale, salon, yacht, en mode Monégasque Baisse pas les bras, redouble d'efforts, dans les difficultés on a vu les plus forts Pas de hasards, pas d'ironies du sort, j'suis pas à l'abri, pour moi envoie d'la ce-for J'suis dans l'sud, j'prends pas le nord, pendant j'coulais un bronze j'ai rêvé de l'or On est discrets, évite de parler fort, n'oublie pas d'où tu viens, surtout dans le Grand Fort? Sort couvert c'est glacial dehors J'suis dans l'nord, on descend vers le port J'refais tout, j'repense à tout Chacun ses atouts, sur le route j'mets des accoups Tu croyais quoi ? On est plusieurs dans ma tête, mais ? c'est moi le chef J'ai fais du bien, on peut aussi te faire du mal, me demande pas pour combien On est niah?, mais si j'dois t'niquer ta mère, on l'fera pas sur du Take Un petit pas, et tout le monde fait marche arrière, un peu comme cet Augustin J'm'en bas les couilles si t'as pas la ref', le savoir est une arme que je brandis On fait pas d'exceptions à la règle, tant que la moula sonne, bah j'fais la diff' Calibré dans l'bas du bâtiment, j'me suis tout en haut du Sofitel Affolant, j'ai fais et refais le tour de la ville, j'ai claqué des salaires dans des paires italiennes C'est banal ici on a tous bibi, gros zouave resert les loups, ceux qui ont soifs Un douze sur moi, faut pas qu't'essayes, mec du CV quoi qu'il en soit Et même vacances, chemise en soie, ça reste à l'affût des poignets Ça vient de la Plaine jusqu'au Panier, gros c'est le 1.3 quoi qu'il en soit J'sais qu'toi t'es tout doux, nan fais pas celui qui aime les calibres On me dit Pour toi j'les fais dodo, mais tranquille, prends des années c'est pas la peine Merci le J pour l'assist', toute la ville rep' à l'appel J'tournais partout pour la SIM, minimum 2G pour l'appel 0.1 vers faire place, et laisse faire, on avait besoin d'espace, et d'espèces Donc on a pris des risques, pas à moi j'ai que les restes, la cité, je l'incarne, j'ai l'instinct Pour les faire, coups bas, là laisse moi un instant, j'ai la vista de Modri, Iniesta Tu connais j'suis dans les dièses, nan j'suis pas la pour le buzz, moi j'suis là que pour ma ville, mes ? dans l'cur Palpité ? Viens. Assieds toi, j'colle, manita reste à ta place, eux j'sais même pas t'es qui toi Faut que j'la quitte même si j'l'aime trop, tu sais que pour ma cité moi j'donne tout Ça presse la détente, shooter sur bécane, c'est plus comme avant ça tire dans l'tas Des minots chargés jusqu'aux dents, gantés La lumière viendra comme dans Billie Jean, Billie Billie T'as une vision de l'infini, 1.3.0 j'mets plus de limites La lumière viendra comme dans Billie Jean, Billie Billie Funambule, j'marche sur un fil, tu m'sors ton ? ça défile J'crois qu't'as raison j'suis dans l'bail, et puis c't'année on f'ra du sale RS4, j'mets les flammes, pour tous ces ? qui m'veulent du mal J'les shooterai tou-tou-tous, un par un je leur ferai du sale On fire, j'suis comme Jordan, j'suis dans les airs, rien que je fly Gambino, les z'hommes, www.vaniquertesmorts.com Ce soir elle s'est fait coquette, elle consomme ces morts j'ai niqué un vert pomme Ohh single de dia-dia, tu guettes ça ma baby J'aime pas les putas, c'est le 1.3, ça touche le RSA, ça roule en RS3 Ça fait tourner le four et ça pointe à la SPIP, cagoulé comme Hitch, tu t'prends un coup d'cric Y'a des bons et des putas et des bandeurs de hits, la vie ça va vite, parce que avant l'Covid Le jobbeur à décapsule, il fait tourner le shit J'suis au stade popopopopo Le virage m'a appellé, popopopopo, on fait trembler tout le Vél' J'aurais allumé un pét' avec si j'avais porté la flamme comme Jul J'crois que mehlich on va faire avec, si t'as le zemeh et pas d'bezoul Faut la Sacem à Cheb Khaled, ennemi public, Saddam, Ben Laden On s'en balek des strasses, des paillettes, et si ça flop j'décharge des palettes Quiquonque fait le King-Kong, et les balles du AK font du ping-pong P'tit con te jettes pas, j'mets des p'tits ponts, sort le cocktail et le chiffon Si tu veut la selha, y'a c'qu'il faut, des blancs, des noirs et des bicots D'or et d'plata sur le tifo, chico Pas d'estime, ils se ventent pour briller J'suis au rendez-vous même si j'suis trop grillé En Palestine, où vont mes prières Garder la face surtout faut pas plier Viens voir comment on est doués Le Loupe débarque, allez courez Tu fais le fou, on va te retrouver Viens voir comment on est chauds, vient voir comment on est capables J'débarque même dans ton ghetto, j'déverse ma haine, ça fait pa-pa Marseille, GTA, ? , corniche, Clio 3, réserve, ça c'cale à Cor-Beach ? Que des 30 ?, cagoule dans la biche?, sur les pleins capuches, c'est la rue ma biche Toi, tu parles des gens, tu m'intéresses pas, tu parles d'oseille t'es au RSA 13'Organisé comme le MS13, ça te ? au bar, ça met le GS3? Coeur cassé comme Bambi, fais un bisou à ton ? chérie j't'en prie J'suis comme ceux qui m'écoutent, on s'est compris Coeur cassé comme Bambi J'reviens gazé et tant pis J'suis gazé et tant pis, j'suis comme ceux qui m'écoutent, on s'est compris Y'a pas de ?, on s'est compris, y'a pas de Ohhhhh Hamo C'est La Scampia, pose ton cul à terre Ohhhhh Hamo ? On compte plus les décès, ni les perquis', ici tout est biaisé, c'est hyper triste Les mères ont les bras baissées et les pères prient, car ça rêve de Féfé et de berlines Trop de blessés, beaucoup de guerres crimes, la ville est aggressée, réput' ternie M'empêche pas de rêver, tout est permis, je veux la LDC sous des zerbi? Du feu dans mes poèmes, moi j'n'ai plus le temps, jamais trop tard pour frapper Supporter de l'O.M, noir et musulman, j'suis le cauchemar de Galtier Faut qu'on rappe, faut qu'on les choque, faut qu'on les traumatise, moi j'me rappelle à l'époque ils me faisaient pas la bise Celle-là c'est pour Gordech? parti beaucoup trop tôt, bruits d'armes la gamberge du ghetto Khapta, t'as façon de parler tout tes mimiques ça passe pas, en vrai niquer des mères je sais pas j'suis bon qu'à ça Des sous contre du shit avec un tour de passe-passe avec un tour de passe-passe C'est plus fort que moi, j'vide la bouteille J'suis agen tous ces morts, c'est mort j'vide la bouteille Hier encore ça tirait, tirait, c'est des traîtres, c'est des Tiro? 6 heures du mat', j'suis déchiré chiré, moi j'ai esquivé les gyros gyros J'suis Marseille, j'suis le 1.3 comme la vente de Coca', atmosphère électrique j'me place comme Big Poppa C'est 13'Organisé, DZ mon avocat, coup d'schlass dans la ceinture, j'te termine au Toka' J'fais du rap de crapule, pas de nez dans la coco, j'arrive comme à l'ancienne, VR6 full Croco Sauvage comme Dothraki, barbare comme Khal Drogo, ça m'entoure des gros coups, mafieux comme la Mocro? J'arrive comme Marcheur Blanc, j't'ouvre le crâne à l'épée, j'compte plus les heures de gardav', ni les heures de TP J'suis le Réal de Madrid comme Kakà ou Pépé, violent depuis le CP, PGP full C.P On fuck la Fashion Week, pas de dégaine de pétasse, on braque après on s'casse, on brasse après on tasse Chez nous y'a pas de Féfé, R19 j'mets les gaz, ? foudroie la prod et Sysa sur Pégase 11.43 j'ai décapoté, ça bipe sur le bleu toute la journée J'ai vidé la 'teille j'suis assommé, brolique sous la ceinture j'deviens jnouné Dis moi où Dadinho n'a pas allumé, j'fais parti des négros miraculés J'en ai bégayé, on a assumé, ils m'appellent le sang, c'est des enculés Comme le J j'représente la zone, c'est seulement le frérot qui a fini en zone Garder le moral ça brise pas les hommes, 13'Organisé ça fait l'effet d'une bombe D'une bombe, d'une bombe, 13'Organisé ça fait l'effet d'une bombe On verbalise puis on pénalise, quand c'est la crise, que la moula qui nous canalise Pas tout seul j'suis en bande organisée, on est là pour traumatiser J'roule une gros joint sous la lune, j'm'évade même sans thunes, la tête dans les étoiles, les pieds sur le bitume Entre le bien et le mal, j'sais plus où je me situe, j'rêve de nouveaux horizons même si ici ça tue Et ouais ça tue en rafale, comme aux Favelas, matin midi soir ça remplit le sac de mapessa On porte nos couilles sur le terrain, comme Makélélé, les gars ça tire, même les condés dansent la Macarena J'sors du four ça sent le poulet, y'a les schmitts qui tournent, on s'en bat les-les Y'a les schmitts qui tournent, on s'en bat les-les, allumer le feu, c'que tu fais c'est laid C'que tu fais c'est pété, moi j'écoute pas, accepte les critiques et devient plus fort On va choquer du monde, la y'a toute la ciudad, j'ai mis les lunettes à Mad Max avec la ? En ce moment couci-couça, en manque de moula donc j'ai bipé le 'zin Pardonner les fous c'est un truc que j'fais pas, y'a pas de silencieux donc j'utilise un coussin Ah haut les mains haut les mains, t'as claqué tout ton biff maintenant tu veux le mien T'auras rien t'auras rien, y'a que quand tout va bien qu't'es le frangin t'es le frangin Doucement, pousse toi et assis toi regarde faire les anciens J'ai les crocs, j'ai la rage comme un chien quand ça touche à mon pain Ya des frères qui sont tombés bêtement Jai pas changé depuis mes 20 ans Jarrive 1.3.9, je crie Vatos Cest le D est-ce que tu me remets maintenant ?? Jarrive inattendu comme un coup de tazer Jarrive tendu comme le cul de ta sur Ouais dans les rues de Marseille elle arrive par la poste, on a plus de passeur Regarde les bandits brasser Je béni lavenir, je maudis le passé Sur le prado je conduis gazé Je reviens de loin comme Jean-Louis Gasset Je suis un couche tard, jai ma tare-Gui Ne la touche pas, cest ma barbie Marseille freestyle légendaire dans la poche jai du méchant teh tu serres</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Le ghetto se porte à lesprit comme une sangsue Un pavé du sang dessus Les douilles se brouillent pour des mille et des cent Les gosses tuent quand les parents se tuent Lapparence prime belle Mercedes cest lassurance crime Crame les cimes si tes pas Tony Montana tes Sim Coup dcrapule le sang sur tes mains cest lestime Loseille sballade tes le chasseur de prime Traîne pas dans lvide, un spliff trop chargé Tauras besoin de ton speed quand les gradés vont charger Car jai vu trop dflingues montés chargés Vu trop de gosse montés chargés Des fauves montés chars cannons sciés pour décharger Bandes rivales les jeunes se régalent la mort fait bander En bande on est comme devant le vide les yeux bandés La cité quatre murs, un état desprit Scène censure du crime pur plein de ça à lesprit Elle se déplace habite les corps comme une épidémie Même chez les sock trop dchaleur sur mon épidermie Ghetto 2000 trop dvices on lavait prédit Galaxie de glace finit les cartes de crédit Lavenir doit payer plus quun délit plus quun braquo garnit Faut sblinder comme lUS Army Avoir plus doseille que dheures d4sommeil Libéralisme ! snifer coke quand dautres sommeillent You might also like G-h-e-t-t-o 2-triple zéro, le ghetto cest dla cocaïne Les jeunes marchent à la protéine Rêve américain Syndicat du crime Les jeunes caïds s'réunissent comme au MEDEF Tous def Ça fait gamberger de trimer en bas Les crev's fauchent le blé comme les mioches de Cochabamba Trop peu de scrupules pour 10 types affamés Profit sur la came, le savoir-faire spèse au gramme près Très tôt, les gens deviennent dingues, flinguent À tour de bras Ghetto gros bras Crament le sol, comme Stallone dans Cobra Microsociété, les boss créent des emplois Appel aux crevards Motivés comme des soldats Une paie royale mais rien de légal Quand seulement 35h peuvent être fatales La balance bascule, tout le monde bouscule Pour le trésor d'or, tout le monde s'encule Les jeunes se foutent du bien ou du mal Illégal ou légal, de nos jours il n'y a plus dmorale Chômeurs officiels, blindés officieux La prime du mois est décernée au plus vicieux Ton licenciement, c'est ta tête qu'on explose Plus de sursis, quand arrive l'overdose G-h-e-t-t-o 2-triple zéro, le ghetto cest dla cocaïne Les jeunes marchent à la protéine Tu veux peser tlancer dans ce dur business La fessée les pures nuits de sexe Mais ça finit sec tu passes au cachet Subutex Un bain dsang pour celui qui tourne pas rond Dans la zone la pure se transforme en poudre marron Le daron boulot, dodo, sans repos Le fils baron, ghetto, coco, séropo Stressé, la dernière fois que je tai vu marcher dans la rue Tavais lsachet dans ltube peut-être caché dans le cul Tu veux une salope qui te séduit par son déshabillage Ou la coke quelle sorte son étui à maquillage Tu veux lmonde à toi Mais si tu voles pas droit Tu feras pas ta loi Rappelle-toi nencule pas les boss Ou cest sur ta vie quils feront un trait csoir Fallait le prévoir un affamé payé en blé noir Tu veux les narines en or comme Mick Jagger Jai vu trop dpauvres qui se piquent Seigneur ! G-h-e-t-t-o 2-triple zéro, le ghetto cest dla cocaïne Les jeunes marchent à la protéine</t>
+          <t>Le ghetto se porte à lesprit comme une sangsue Un pavé du sang dessus Les douilles se brouillent pour des mille et des cent Les gosses tuent quand les parents se tuent Lapparence prime belle Mercedes cest lassurance crime Crame les cimes si tes pas Tony Montana tes Sim Coup dcrapule le sang sur tes mains cest lestime Loseille sballade tes le chasseur de prime Traîne pas dans lvide, un spliff trop chargé Tauras besoin de ton speed quand les gradés vont charger Car jai vu trop dflingues montés chargés Vu trop de gosse montés chargés Des fauves montés chars cannons sciés pour décharger Bandes rivales les jeunes se régalent la mort fait bander En bande on est comme devant le vide les yeux bandés La cité quatre murs, un état desprit Scène censure du crime pur plein de ça à lesprit Elle se déplace habite les corps comme une épidémie Même chez les sock trop dchaleur sur mon épidermie Ghetto 2000 trop dvices on lavait prédit Galaxie de glace finit les cartes de crédit Lavenir doit payer plus quun délit plus quun braquo garnit Faut sblinder comme lUS Army Avoir plus doseille que dheures d4sommeil Libéralisme ! snifer coke quand dautres sommeillent G-h-e-t-t-o 2-triple zéro, le ghetto cest dla cocaïne Les jeunes marchent à la protéine Rêve américain Syndicat du crime Les jeunes caïds s'réunissent comme au MEDEF Tous def Ça fait gamberger de trimer en bas Les crev's fauchent le blé comme les mioches de Cochabamba Trop peu de scrupules pour 10 types affamés Profit sur la came, le savoir-faire spèse au gramme près Très tôt, les gens deviennent dingues, flinguent À tour de bras Ghetto gros bras Crament le sol, comme Stallone dans Cobra Microsociété, les boss créent des emplois Appel aux crevards Motivés comme des soldats Une paie royale mais rien de légal Quand seulement 35h peuvent être fatales La balance bascule, tout le monde bouscule Pour le trésor d'or, tout le monde s'encule Les jeunes se foutent du bien ou du mal Illégal ou légal, de nos jours il n'y a plus dmorale Chômeurs officiels, blindés officieux La prime du mois est décernée au plus vicieux Ton licenciement, c'est ta tête qu'on explose Plus de sursis, quand arrive l'overdose G-h-e-t-t-o 2-triple zéro, le ghetto cest dla cocaïne Les jeunes marchent à la protéine Tu veux peser tlancer dans ce dur business La fessée les pures nuits de sexe Mais ça finit sec tu passes au cachet Subutex Un bain dsang pour celui qui tourne pas rond Dans la zone la pure se transforme en poudre marron Le daron boulot, dodo, sans repos Le fils baron, ghetto, coco, séropo Stressé, la dernière fois que je tai vu marcher dans la rue Tavais lsachet dans ltube peut-être caché dans le cul Tu veux une salope qui te séduit par son déshabillage Ou la coke quelle sorte son étui à maquillage Tu veux lmonde à toi Mais si tu voles pas droit Tu feras pas ta loi Rappelle-toi nencule pas les boss Ou cest sur ta vie quils feront un trait csoir Fallait le prévoir un affamé payé en blé noir Tu veux les narines en or comme Mick Jagger Jai vu trop dpauvres qui se piquent Seigneur ! G-h-e-t-t-o 2-triple zéro, le ghetto cest dla cocaïne Les jeunes marchent à la protéine</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ici c'est Assedic, Intérim, Cotorep et RMI Ceux qui s'endorment à l'heure du crime, s'réveillent au TGI Ici c'est les bons d'la CAF, les cartes de CMU Beaucoup qui taffent dur pour claquer la paye au PMU En stress les CRS viennent quadriller la Zup On est harcelés par la Bac et pistés par les Stups C'est des contrôles d'identité tous les quarts d'heure Il y a les braqueurs, les dealers et les carteurs Chacun sa vie, chacun sa vie Chacun sa merde, chacun sa merde Tout a un prix, moi j'fais mon biz J'ai rien à perdre, j'ai rien à perdre Faut rien lâcher, faut rien lâcher Fais tes affaires, fais tes affaires Tu veux la paix, tu veux la paix Prépare la guerre Chaque jour faut se battre, chaque jour faut se battre C'est la vie d'un ghetto youth, c'est la vie d'un ghetto youth Toujours la même histoire, toujours la même histoire Juste la vie d'un ghetto youth, juste la vie d'un ghetto youth You might also like J'suis pas PDG d'une PME Juste hargneux et haineux Fais la queue à l'ANPE Tu trouves même pas un CNE C'est pas les APL qui t'empêchent de devenir SDF Plutôt rentrer avec un RPG dans la BDF On veut niquer l'bénef Que nos vies se mettent à chiffrer Quand nos modèles sont positifs C'est au test HIV Trop d'anciens mélangent l'héro et la CC Trop d'jeunes ont le matos pour cloner ta CB Chacun sa vie, chacun sa vie Chacun sa merde, chacun sa merde Tout a un prix, moi j'fais mon biz J'ai rien à perdre, j'ai rien à perdre Faut rien lâcher, faut rien lâcher Fais tes affaires, fais tes affaires Tu veux la paix, tu veux la paix Prépare la guerre Chaque jour faut se battre, chaque jour faut se battre C'est la vie d'un ghetto youth, c'est la vie d'un ghetto youth Toujours la même histoire, toujours la même histoire Juste la vie d'un ghetto youth, juste la vie d'un ghetto youth Pour tous les ghettos youths, toutes les vibes, tous les styles, tous les absents Dédicaces de tarés, tous les ages, tous les absents Ghetto youth, toutes les vibes, tous les styles, tous les absents Dédicaces de tarés tous les âges, tous les absents Chaque jour faut se battre, chaque jour faut se battre C'est la vie d'un ghetto youth, c'est la vie d'un ghetto youth Toujours la même histoire, toujours la même histoire Juste la vie d'un ghetto youth, juste la vie d'un ghetto youth</t>
+          <t>Ici c'est Assedic, Intérim, Cotorep et RMI Ceux qui s'endorment à l'heure du crime, s'réveillent au TGI Ici c'est les bons d'la CAF, les cartes de CMU Beaucoup qui taffent dur pour claquer la paye au PMU En stress les CRS viennent quadriller la Zup On est harcelés par la Bac et pistés par les Stups C'est des contrôles d'identité tous les quarts d'heure Il y a les braqueurs, les dealers et les carteurs Chacun sa vie, chacun sa vie Chacun sa merde, chacun sa merde Tout a un prix, moi j'fais mon biz J'ai rien à perdre, j'ai rien à perdre Faut rien lâcher, faut rien lâcher Fais tes affaires, fais tes affaires Tu veux la paix, tu veux la paix Prépare la guerre Chaque jour faut se battre, chaque jour faut se battre C'est la vie d'un ghetto youth, c'est la vie d'un ghetto youth Toujours la même histoire, toujours la même histoire Juste la vie d'un ghetto youth, juste la vie d'un ghetto youth J'suis pas PDG d'une PME Juste hargneux et haineux Fais la queue à l'ANPE Tu trouves même pas un CNE C'est pas les APL qui t'empêchent de devenir SDF Plutôt rentrer avec un RPG dans la BDF On veut niquer l'bénef Que nos vies se mettent à chiffrer Quand nos modèles sont positifs C'est au test HIV Trop d'anciens mélangent l'héro et la CC Trop d'jeunes ont le matos pour cloner ta CB Chacun sa vie, chacun sa vie Chacun sa merde, chacun sa merde Tout a un prix, moi j'fais mon biz J'ai rien à perdre, j'ai rien à perdre Faut rien lâcher, faut rien lâcher Fais tes affaires, fais tes affaires Tu veux la paix, tu veux la paix Prépare la guerre Chaque jour faut se battre, chaque jour faut se battre C'est la vie d'un ghetto youth, c'est la vie d'un ghetto youth Toujours la même histoire, toujours la même histoire Juste la vie d'un ghetto youth, juste la vie d'un ghetto youth Pour tous les ghettos youths, toutes les vibes, tous les styles, tous les absents Dédicaces de tarés, tous les ages, tous les absents Ghetto youth, toutes les vibes, tous les styles, tous les absents Dédicaces de tarés tous les âges, tous les absents Chaque jour faut se battre, chaque jour faut se battre C'est la vie d'un ghetto youth, c'est la vie d'un ghetto youth Toujours la même histoire, toujours la même histoire Juste la vie d'un ghetto youth, juste la vie d'un ghetto youth</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Back in the dayz when I was a teenager Scrute lhorizon, constate la recrudescence De frères pleins de rêves candides, voici le retour à ladolescence Stérile, linnocence originelle Comme à lécole maternelle, secrets de polichinelle Croire le temps suspendu, délinquance puérile Voici le retour à lâge ingrat, lâge bête et futile Ici cest lécole des coups durs, les gradués tinsultent Jai bluffé, je ne suis quun enfant dans un corps dadulte Et nombre de mes amis sont dans le cas Aussi la tête pleine de tracas, mes rêves volent en éclats Ils ont voulu que je remplace mon padre à la maison Moccuper des cadets mais la lâcheté a eu raison Dès que jai eu loccasion de fuir les responsabilités Qui ont laissé ma mère au bout du rouleau comme ce boulot de nécessité Vivre ma passion pour le rap Changer de cap jusquà ce que la vie me rattrape Peu dissues, peu détapes sans diplôme si tu chômes Si tu croules sous les dettes, reflète ce syndrome Jai foiré mes études par négligence, réminiscence Retour, retour à ladolescence Autour de la chrysalide, on parle dinfanticide Dune crise qui se développe comme au Polaroïd Seconde après seconde, on change de morphologie On rugit, on rougit, on régit, on agit Et si la sagesse est une preuve du temps qui passe Les mécanismes de défense de lenfance jamais ne seffacent Je suis resté à côté de mes pompes dans mes baskets Des rêves sous la casquette à lheure où dautres végètent Rebelle positif, jai choisi mon camp, jai choisi mon temps Jai choisi mon heure, je choisis maintenant Dêtre un frein infernal à la spirale du mal Même si ma naïveté demeure un dédale Quy a que dalle, aux réunions familiales Mon père me fait la morale, ma vie d M.C. un scandale Mais tu sais, chacune de mes actions moffre un frisson Que je voudrais transmettre à mon fiston Mon cur est fait de chair, pas de biftons En voie de disparition comme le bison Je ne suis pas innocent, mon développement est constant Jai lesprit incandescent, chronique dadolescent Il faut que tu piges que On oublie rien, on s'habitue pas non plus You might also like De la chrysalide à lair libre, plongé dans le vide La chute est longue et en bas y a pas de place libre En perte déquilibre, de reconnaissance Cest un retour à ladolescence Grandir cest perdre un peu ses rêves Partir pour ce long suicide sans trêve Sur cette terre peuplée de vieux enfants Pavé au mic défend, pourfend les idées reçues Les voies sans issue, les espoirs déçus Retour à ladolescence, retour à linsouciance perdue Mourir vieux sans avoir été con, ou bien roi ou bien patron Définition de ma génération perdue Celle à qui tout est dû à tort ou à raison De toute façon la mort suit les saisons De toute façon la mort suit les saisons De toute façon la mort suit les saisons Et puis le temps nous fait cortège, époque oblige Cest lheure du grand vertige après 25 piges On dit plus que tu traînes, mec on dit que tu végètes Pire que tu rejettes, cest dans le passé que tu te projettes Peu de projets tant quon se tient à ce cordon Qui te nourrit au sein mais cest labandon Pardon, perdons, rendons notre fierté la bradons Gardons les pieds sur terre, ten as le don Ça me fait sortir de mes gonds car ils se trompent Ils ont cru ainsi que ma fierté sestompe Même la femme que jaime dit comprendre et consent A faire delle une mère et de moi un père absent Met laccent sur ce job à temps plein sans heures fixes Qui ne paie ni les factures, ni les sacrifices Pour elle et pour les autres je vis damour et de chimères Par peur de la décevoir et que ça se bousille dans les chaumières Peur du bon sens, valeur quils encensent On me classe parmi ceux que lépoque décontenance Et tout est permis mais lhistoire perd patience Réminiscence, retour, retour à ladolescence</t>
+          <t>Back in the dayz when I was a teenager Scrute lhorizon, constate la recrudescence De frères pleins de rêves candides, voici le retour à ladolescence Stérile, linnocence originelle Comme à lécole maternelle, secrets de polichinelle Croire le temps suspendu, délinquance puérile Voici le retour à lâge ingrat, lâge bête et futile Ici cest lécole des coups durs, les gradués tinsultent Jai bluffé, je ne suis quun enfant dans un corps dadulte Et nombre de mes amis sont dans le cas Aussi la tête pleine de tracas, mes rêves volent en éclats Ils ont voulu que je remplace mon padre à la maison Moccuper des cadets mais la lâcheté a eu raison Dès que jai eu loccasion de fuir les responsabilités Qui ont laissé ma mère au bout du rouleau comme ce boulot de nécessité Vivre ma passion pour le rap Changer de cap jusquà ce que la vie me rattrape Peu dissues, peu détapes sans diplôme si tu chômes Si tu croules sous les dettes, reflète ce syndrome Jai foiré mes études par négligence, réminiscence Retour, retour à ladolescence Autour de la chrysalide, on parle dinfanticide Dune crise qui se développe comme au Polaroïd Seconde après seconde, on change de morphologie On rugit, on rougit, on régit, on agit Et si la sagesse est une preuve du temps qui passe Les mécanismes de défense de lenfance jamais ne seffacent Je suis resté à côté de mes pompes dans mes baskets Des rêves sous la casquette à lheure où dautres végètent Rebelle positif, jai choisi mon camp, jai choisi mon temps Jai choisi mon heure, je choisis maintenant Dêtre un frein infernal à la spirale du mal Même si ma naïveté demeure un dédale Quy a que dalle, aux réunions familiales Mon père me fait la morale, ma vie d M.C. un scandale Mais tu sais, chacune de mes actions moffre un frisson Que je voudrais transmettre à mon fiston Mon cur est fait de chair, pas de biftons En voie de disparition comme le bison Je ne suis pas innocent, mon développement est constant Jai lesprit incandescent, chronique dadolescent Il faut que tu piges que On oublie rien, on s'habitue pas non plus De la chrysalide à lair libre, plongé dans le vide La chute est longue et en bas y a pas de place libre En perte déquilibre, de reconnaissance Cest un retour à ladolescence Grandir cest perdre un peu ses rêves Partir pour ce long suicide sans trêve Sur cette terre peuplée de vieux enfants Pavé au mic défend, pourfend les idées reçues Les voies sans issue, les espoirs déçus Retour à ladolescence, retour à linsouciance perdue Mourir vieux sans avoir été con, ou bien roi ou bien patron Définition de ma génération perdue Celle à qui tout est dû à tort ou à raison De toute façon la mort suit les saisons De toute façon la mort suit les saisons De toute façon la mort suit les saisons Et puis le temps nous fait cortège, époque oblige Cest lheure du grand vertige après 25 piges On dit plus que tu traînes, mec on dit que tu végètes Pire que tu rejettes, cest dans le passé que tu te projettes Peu de projets tant quon se tient à ce cordon Qui te nourrit au sein mais cest labandon Pardon, perdons, rendons notre fierté la bradons Gardons les pieds sur terre, ten as le don Ça me fait sortir de mes gonds car ils se trompent Ils ont cru ainsi que ma fierté sestompe Même la femme que jaime dit comprendre et consent A faire delle une mère et de moi un père absent Met laccent sur ce job à temps plein sans heures fixes Qui ne paie ni les factures, ni les sacrifices Pour elle et pour les autres je vis damour et de chimères Par peur de la décevoir et que ça se bousille dans les chaumières Peur du bon sens, valeur quils encensent On me classe parmi ceux que lépoque décontenance Et tout est permis mais lhistoire perd patience Réminiscence, retour, retour à ladolescence</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>J'ai commencé le rap, c'était le noir pas l'pollen Des impros d'un quart d'heure, wesh pas d'problème J'traîne en ville, TN bulle d'air crevées J'me nique à la Play jusqu'au soleil levé J'dansais le mia sur la piste du Maxi Club Tag dans l'métro comme IV my People J'suis dans l'Blackout de Method et Redman Nique sa mère l'école, nique sa mère le khedma J'ai seize balais et j'freestyle avec Luc' Pull MDLR, T-shirt Carré Rouge 2Pac et Scarfac dans la chambre en poster J'racktte les portables les soirs de concert De plus en plus, j'noircis les feuilles de papier Je fais tourner mon blaze à chaque fête du Panier Cousine lève ton verre, cousin lève ton pétard J'fais le hip-hop tah l'tiékar J'ai commencé l'rap c'était l'disque d'or à cent-mille Des impros toute la nuit, wesh tranquille J'traîne en ville, mes Stan Smith sur l'macadam The Low End Theory, Tribe Called Quest dans l'walkman Ouais man, j'casse mes premiers Neimans Time for sum aktion, premier album de Redman J'ai dix-sept piges et j'freestyle avec Sike Trimballe de la beuh sur un vieux Mountain Bike Et quand j'prends le mic, j'entends les schnecks miauler J'mange pas grâce au rap, j'me sape avec des chèques volés J'serre des tchay d'Arnaud Ben' au Mirail Whoop, à la Snoop Doggy Dogg Doggystyle Boom bye bye à la Buju Banton Bob Marley, Super Cat, c'est les trucs que j'chantonne Quand j'fraude le train pour partir à Seille-Mar J'fais le hip-hop tah l'tiékar You might also like J'suis venu dans l'rap avec un boum boum boum comme leur milice Mon toupet et un coup d'boule pour qu'on en finisse Petit j'étais peace mais susceptible Mon rap est bon, mais les grands se disent sceptiques À dix-sept piges, eh fils Avec les filles, peu de décadence, couz' On m'dit vite apprends XXX pour les guet-apens d'zouz Mais moi, j'voulais être XXX comme ces fêlés qui défilaient dans les films Au final, j'fais du breakdance, j'bouge putain ça pète ouais ils peuvent s'attendre à dead J'pose mes premières grosses rimes dans la chambre à XXX J'bosse dans mon coin, d'autres pas J'dérange pendant qu'eux se mélangent, moi j'me compare Foncer et poncer, nos causes sont les mêmes Forcé d'exploser, ma prose a les nerfs Respect s'gagne mais le succès ne paye pas Imprévu au départ J'fais le hip-hop tah l'tiékar J'ai fait mes débuts dans le rap loin de l'époque de Lollipop Loin de ceux qui parlent mal eh oui man je leur dis fuck J'opte pour la méthode forte, péter les portes du hip-hop Ouais mon pote, on est loin d'l'époque du digicode Des succès avec des lyrics limite bof Des chefs qui parlent quand j'écris, plein de chichis qui chipotent Loin XXX quand on quitte l'école off On fais les quatre-cents coups, mes gars s'en foutent, dépité XXX Quand j'y repense j'en rigole, j'me moque Putain je vise le top, j'ai eu le flop, fuck C'était pas les sacs Louis Vuitton mais les sacoches Lacoste Aucun logiciel, on s'enregistrait d'poste à poste Pas de porte-à-porte avec mes gars mes compères Pas du genre à lécher les bottes donc on rate des concerts Du genre à kicker dans une cave, posés pépères peinards On fait le hip-hop tah l'tiékar It was all a dream Shake that ass, girl Shimmy shimmy yo, shimmy yeah, shimmy ya Whoop! whoop! Oh no! Ah yeah J'fais le hip-hop tah l'tiékar La la lala lala la la J'ai commencé le rap avant d'apprendre à parler Première basse, premières claques, premières phases à lâcher Inconnu célèbre, écriture controversée J'ai commencé le rap, je devrais le terminer Sauvage, insolent, impossible à dompter On n'arrête pas le minot, on n'arrête pas le progrès Habilement, rapidement, je suis toujours motivé J'aime la difficulté, j'aime innover De plus en plus de rappeurs, de moins en moins de flow Du mal à écrire, de moins en moins de mots Trop de swag, trop de style, trop de flou De plus en plus de trop, de moins en moins de tout Man on fire n'est plus ailleurs, rap français va brûler vif Depuis que j'ai vu les chiffres, l'écriture est numérique Sur la route quatre-vingt-huit, j'fais l'accent d'blédard J'fais le hip-hop tah l'tiékar J'ai commencé le rap en freestyle mi-93 Des impros pures qui m'propulsent à être une machine robuste Hip-hop Hooray, c'est ça qui m'rend mature Mon frère face, swinguer sur Naughty By Nature J'passe de l'immature amateur de rap pur Au rap dur qui fracture mais n'paye pas mes factures À cette époque on aimait braquer le beat On faisait ça par amour et pas pour draguer les filles Internet n'y était pas, les rappeurs étaient XXX Parlaient que du bonheur Embarqués dans les backs, l'honneur Était présent, personne ne posait pareil Y avait du style à revendre, d'la bombe sur appareil yeah Du Plan d'Aou aux Oliviers, du Panier à Paris Que des balles dans le barillet, du rap bad boy, des MC Marines L'industrie du disque est sans pitié car On fait trop d'hip-hop tah l'tiékar J'ai commencé l'rap, pas d'piles dans l'poste j'étais un big boss Une impro à l'arrêt du bus, crache-lui un p'tit XXX J'ai les crocs, pas d'casse-croûte, avant qu'j'craque faut qu'j'croque tout Du rap XXX j'fais l'casse-cou, j'suis un casse-couilles Open-mic, on squatte ou bien on casse tout Pas là pour parler, constate qu'on débarque de partout C'était l'époque du mouv' soi-disant hip-hop Beaucoup ont coulé sous les flops, d'autres brûlé sous les spots Couillé tous leurs potes et jamais ouvert aucune porte J'ai jamais cherché la tune, j'relate des lacunes de toutes sortes On dit qu'c'était mieux avant, mais j'étais là avant Si tu veux j'te refais l'décor mais son corps n'est pas excitant En bref, on est persistant pour rien d'bandant Et j'en connais qui bandent mou d'être indépendants T'entends, c'est un kif, un biz ou même une perte de temps Mais je l'aime toujours autant J'fais du hip-hop tah XXX J'ai commencé l'rap, j'portais un bob Lacoste J'sors avec mes potes avec mon poste J'traîne en ville, juste en face d'une Poste J'parlais pas d'BMX, j'voulais les clés du porche Dans l'Nord, j'me prends pour un boss Pour un oui, pour un non j'bombe le torse J'monte sur scène en claquettes Fila Pose le micro, m'jette dans la foule, XXX J'crie tout haut tout fort centre-ville, c'est la grillade J'gratte des prods à Pone et au grand frère Freeman Dans le métro avec mes potes rien qu'je parade C'est pas le rap qui m'paye ma p'tite paire de Dockside En mode Mode de vie béton style, chapeau d'paille J'bois ma Smirnoff avec une paille J'improvise des pas d'danse sur l'asphalte Pour un rien ça part en fight C'est ça mon frère, le hip-hop tah l'tiékar It was all a dream Shake that ass, girl Shimmy shimmy yo, shimmy yeah, shimmy ya Whoop! whoop! Oh no! Ah yeah J'fais le hip-hop tah l'tiékar La la lala lala la la</t>
+          <t>J'ai commencé le rap, c'était le noir pas l'pollen Des impros d'un quart d'heure, wesh pas d'problème J'traîne en ville, TN bulle d'air crevées J'me nique à la Play jusqu'au soleil levé J'dansais le mia sur la piste du Maxi Club Tag dans l'métro comme IV my People J'suis dans l'Blackout de Method et Redman Nique sa mère l'école, nique sa mère le khedma J'ai seize balais et j'freestyle avec Luc' Pull MDLR, T-shirt Carré Rouge 2Pac et Scarfac dans la chambre en poster J'racktte les portables les soirs de concert De plus en plus, j'noircis les feuilles de papier Je fais tourner mon blaze à chaque fête du Panier Cousine lève ton verre, cousin lève ton pétard J'fais le hip-hop tah l'tiékar J'ai commencé l'rap c'était l'disque d'or à cent-mille Des impros toute la nuit, wesh tranquille J'traîne en ville, mes Stan Smith sur l'macadam The Low End Theory, Tribe Called Quest dans l'walkman Ouais man, j'casse mes premiers Neimans Time for sum aktion, premier album de Redman J'ai dix-sept piges et j'freestyle avec Sike Trimballe de la beuh sur un vieux Mountain Bike Et quand j'prends le mic, j'entends les schnecks miauler J'mange pas grâce au rap, j'me sape avec des chèques volés J'serre des tchay d'Arnaud Ben' au Mirail Whoop, à la Snoop Doggy Dogg Doggystyle Boom bye bye à la Buju Banton Bob Marley, Super Cat, c'est les trucs que j'chantonne Quand j'fraude le train pour partir à Seille-Mar J'fais le hip-hop tah l'tiékar J'suis venu dans l'rap avec un boum boum boum comme leur milice Mon toupet et un coup d'boule pour qu'on en finisse Petit j'étais peace mais susceptible Mon rap est bon, mais les grands se disent sceptiques À dix-sept piges, eh fils Avec les filles, peu de décadence, couz' On m'dit vite apprends XXX pour les guet-apens d'zouz Mais moi, j'voulais être XXX comme ces fêlés qui défilaient dans les films Au final, j'fais du breakdance, j'bouge putain ça pète ouais ils peuvent s'attendre à dead J'pose mes premières grosses rimes dans la chambre à XXX J'bosse dans mon coin, d'autres pas J'dérange pendant qu'eux se mélangent, moi j'me compare Foncer et poncer, nos causes sont les mêmes Forcé d'exploser, ma prose a les nerfs Respect s'gagne mais le succès ne paye pas Imprévu au départ J'fais le hip-hop tah l'tiékar J'ai fait mes débuts dans le rap loin de l'époque de Lollipop Loin de ceux qui parlent mal eh oui man je leur dis fuck J'opte pour la méthode forte, péter les portes du hip-hop Ouais mon pote, on est loin d'l'époque du digicode Des succès avec des lyrics limite bof Des chefs qui parlent quand j'écris, plein de chichis qui chipotent Loin XXX quand on quitte l'école off On fais les quatre-cents coups, mes gars s'en foutent, dépité XXX Quand j'y repense j'en rigole, j'me moque Putain je vise le top, j'ai eu le flop, fuck C'était pas les sacs Louis Vuitton mais les sacoches Lacoste Aucun logiciel, on s'enregistrait d'poste à poste Pas de porte-à-porte avec mes gars mes compères Pas du genre à lécher les bottes donc on rate des concerts Du genre à kicker dans une cave, posés pépères peinards On fait le hip-hop tah l'tiékar It was all a dream Shake that ass, girl Shimmy shimmy yo, shimmy yeah, shimmy ya Whoop! whoop! Oh no! Ah yeah J'fais le hip-hop tah l'tiékar La la lala lala la la J'ai commencé le rap avant d'apprendre à parler Première basse, premières claques, premières phases à lâcher Inconnu célèbre, écriture controversée J'ai commencé le rap, je devrais le terminer Sauvage, insolent, impossible à dompter On n'arrête pas le minot, on n'arrête pas le progrès Habilement, rapidement, je suis toujours motivé J'aime la difficulté, j'aime innover De plus en plus de rappeurs, de moins en moins de flow Du mal à écrire, de moins en moins de mots Trop de swag, trop de style, trop de flou De plus en plus de trop, de moins en moins de tout Man on fire n'est plus ailleurs, rap français va brûler vif Depuis que j'ai vu les chiffres, l'écriture est numérique Sur la route quatre-vingt-huit, j'fais l'accent d'blédard J'fais le hip-hop tah l'tiékar J'ai commencé le rap en freestyle mi-93 Des impros pures qui m'propulsent à être une machine robuste Hip-hop Hooray, c'est ça qui m'rend mature Mon frère face, swinguer sur Naughty By Nature J'passe de l'immature amateur de rap pur Au rap dur qui fracture mais n'paye pas mes factures À cette époque on aimait braquer le beat On faisait ça par amour et pas pour draguer les filles Internet n'y était pas, les rappeurs étaient XXX Parlaient que du bonheur Embarqués dans les backs, l'honneur Était présent, personne ne posait pareil Y avait du style à revendre, d'la bombe sur appareil yeah Du Plan d'Aou aux Oliviers, du Panier à Paris Que des balles dans le barillet, du rap bad boy, des MC Marines L'industrie du disque est sans pitié car On fait trop d'hip-hop tah l'tiékar J'ai commencé l'rap, pas d'piles dans l'poste j'étais un big boss Une impro à l'arrêt du bus, crache-lui un p'tit XXX J'ai les crocs, pas d'casse-croûte, avant qu'j'craque faut qu'j'croque tout Du rap XXX j'fais l'casse-cou, j'suis un casse-couilles Open-mic, on squatte ou bien on casse tout Pas là pour parler, constate qu'on débarque de partout C'était l'époque du mouv' soi-disant hip-hop Beaucoup ont coulé sous les flops, d'autres brûlé sous les spots Couillé tous leurs potes et jamais ouvert aucune porte J'ai jamais cherché la tune, j'relate des lacunes de toutes sortes On dit qu'c'était mieux avant, mais j'étais là avant Si tu veux j'te refais l'décor mais son corps n'est pas excitant En bref, on est persistant pour rien d'bandant Et j'en connais qui bandent mou d'être indépendants T'entends, c'est un kif, un biz ou même une perte de temps Mais je l'aime toujours autant J'fais du hip-hop tah XXX J'ai commencé l'rap, j'portais un bob Lacoste J'sors avec mes potes avec mon poste J'traîne en ville, juste en face d'une Poste J'parlais pas d'BMX, j'voulais les clés du porche Dans l'Nord, j'me prends pour un boss Pour un oui, pour un non j'bombe le torse J'monte sur scène en claquettes Fila Pose le micro, m'jette dans la foule, XXX J'crie tout haut tout fort centre-ville, c'est la grillade J'gratte des prods à Pone et au grand frère Freeman Dans le métro avec mes potes rien qu'je parade C'est pas le rap qui m'paye ma p'tite paire de Dockside En mode Mode de vie béton style, chapeau d'paille J'bois ma Smirnoff avec une paille J'improvise des pas d'danse sur l'asphalte Pour un rien ça part en fight C'est ça mon frère, le hip-hop tah l'tiékar It was all a dream Shake that ass, girl Shimmy shimmy yo, shimmy yeah, shimmy ya Whoop! whoop! Oh no! Ah yeah J'fais le hip-hop tah l'tiékar La la lala lala la la</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Si tu supportes pas la chaleur, sors de là Apporte une arme, viens en sueur ou juste au bord des larmes Cascadeurs bordéliques donnent FF section On nique on parle, rien à foutre des putains d'élections Hardcore, comme le déclenchement d'une putain d'érection Suite au déhanchement, d'une putain tout court J'sais pas ou j'cours, franchement, tout m'saoule J'suis pas cool-cool, on m'dit t'es fou-fou, allez roule-roule Mon crew t'troue, prend pas d'risque, tu l'as bien senti Vendre des disques ne nous a p't-être pas rendu gentils Bandits d'bandits, le stress devient palpable, attaque, accable Mais j'marche sans pare balle Pur jus d'ruelle piquant, pour un plat relevé Ceux qui nous traitent de mal élevés pourraient ne pas s'en relever Merci Dieu, juste pour être en vie Une pensée à ceux enfermés, ou toujours en fuite FF, c'est l'histoire sans fin de gars sincères Arrivés d'nulle part on sabote tout en 5-5 Ça monte au cerveau comme un bon mélange Ça déménage, ça laisse des traces dans les méninges Mi démon mi ange Attention, danger You might also like On n'a pas des guns, mais s'tu veux vas-y dégaine Tue-nous d'vant les jeunes, pour qu'à la fin ils te dédaignent On n'a connu aucune des guerres mais au cas où on sera dégaine Dis-nous qu'est-ce qui pèse ne sera pas à la one again C'est pour tous mes frères morts et c'qui sont grâce a Dieu Encore sains et saufs c'qui vivent marginalement Tout c'qui aiment quand ça chauffe, FF tu sais qui est-ce On essaie d'interpréter c'qu'on écrit magistralement Pur béton style, comme à l'ancienne qu'on s'tâte Nous et la belle existence, ça fait contraste Ça fait quoi, ça fait qu'on crache On s'tue à la tâche comme toi, penses-tu qu'on s'gâche ? Tout l'monde sait à peut près c'qu'on vaut, et c'que nous voulons 2000, frérot, FF c'est du chaud bouillant Mais il vole ton poste, me respecte toi et ton pote Quand l'adrénaline monte, faut pas qu'ça bloque on arrive De nulle part, sabote tout en 5-5 sans flingue on fait ça à la vrai Dédié à nos zinzins, FF c'est l'histoire sans fin On t'parle de c'qui schlingue le plus quand l'son flingue x2 FF, c'est l'histoire sans fin de gars sincères Arrivés d'nulle part on sabote tout en 5-5 Ça monte au cerveau comme un bon mélange Ça déménage, ça laisse des traces dans les méninges Mi démon mi ange Attention, danger FF x10 C'est un vrai don d'Dieu de pouvoir s'exprimer d'vant tous ces gens Autant rester vrai pas jouer un rôle ou s'donner un genre C'est dans nos curs dans nos rues qu'les vraies rimes naissent Loin des stars à la con de la Jet 7 du gratin et tout l'show business Le vrai combat c'est face à toi-même que tu l'livres Dieu n'a jamais souhaité qu'il soit si essaie d'survivre C'est chacun sa merde, en fait je serais quoi sans FF Comme un gosse livré à lui même et serait loin de sa mère Ça part dans tous les sens comme dans une orgie Dès j'commence à écrire sans savoir où j'vais en v'nir Conscient qu'au quotidien tout s'complique Qu'on soit qu'moi et les miens moi et ma clique Qu'on ait plus d'temps à perdre qu'on soit tous comme speeds Plus j'connais mes gars, plus j'aime ces chiens Ok, plus j'connais les femmes, et plus j'aime les chiennes Faut pas m'en vouloir, fallait bien qu'fasse ma bulle FF toujours sur le fil du rasoir tel un alcoolique funambule Putain, 3 ans c'était long, ça a laissé comme un manque Peu importe ton sexe, ton age, ta couleur, ton compte en banque FF revient, cherche plus à comprendre d'où proviennent ces liens C'est allé trop loin, c'est l'histoire sans fin Merci à Dieu d'nous avoir sorti de la misère À c'jour tout c'que j'ai vécu et vu m'sert Y a plus d'mystère, j'crois qu'j'vais rester dans la même filière Ne pas trahir les miens représenter les mêmes gars qu'hier Tu m'croyais mort en enterré ? Ouais dans tes rêves Face à ceux qui tiennent les rênes on s'élève On révèle, ce que tous pensent tout bas, en fait on célèbre Nos rues nos styles de vie de dingues que t'aimes, ou pas Plus l'travail est dur, j'en suis qu'plus fier Quand les gens s'reconnaissent en ces phases et les reprennent comme une prière Ça m'dépasse, comme une garce qui s'dit prête à baiser avec moi Parce que je fais partie d'FF de Mars Béton style scratch x2 FF, c'est l'histoire sans fin de gars sincères Arrivés d'nulle part on sabote tout en 5-5 Ça monte au cerveau comme un bon mélange Ça déménage, ça laisse des traces dans les méninges Mi démon mi ange Attention, danger</t>
+          <t>Si tu supportes pas la chaleur, sors de là Apporte une arme, viens en sueur ou juste au bord des larmes Cascadeurs bordéliques donnent FF section On nique on parle, rien à foutre des putains d'élections Hardcore, comme le déclenchement d'une putain d'érection Suite au déhanchement, d'une putain tout court J'sais pas ou j'cours, franchement, tout m'saoule J'suis pas cool-cool, on m'dit t'es fou-fou, allez roule-roule Mon crew t'troue, prend pas d'risque, tu l'as bien senti Vendre des disques ne nous a p't-être pas rendu gentils Bandits d'bandits, le stress devient palpable, attaque, accable Mais j'marche sans pare balle Pur jus d'ruelle piquant, pour un plat relevé Ceux qui nous traitent de mal élevés pourraient ne pas s'en relever Merci Dieu, juste pour être en vie Une pensée à ceux enfermés, ou toujours en fuite FF, c'est l'histoire sans fin de gars sincères Arrivés d'nulle part on sabote tout en 5-5 Ça monte au cerveau comme un bon mélange Ça déménage, ça laisse des traces dans les méninges Mi démon mi ange Attention, danger On n'a pas des guns, mais s'tu veux vas-y dégaine Tue-nous d'vant les jeunes, pour qu'à la fin ils te dédaignent On n'a connu aucune des guerres mais au cas où on sera dégaine Dis-nous qu'est-ce qui pèse ne sera pas à la one again C'est pour tous mes frères morts et c'qui sont grâce a Dieu Encore sains et saufs c'qui vivent marginalement Tout c'qui aiment quand ça chauffe, FF tu sais qui est-ce On essaie d'interpréter c'qu'on écrit magistralement Pur béton style, comme à l'ancienne qu'on s'tâte Nous et la belle existence, ça fait contraste Ça fait quoi, ça fait qu'on crache On s'tue à la tâche comme toi, penses-tu qu'on s'gâche ? Tout l'monde sait à peut près c'qu'on vaut, et c'que nous voulons 2000, frérot, FF c'est du chaud bouillant Mais il vole ton poste, me respecte toi et ton pote Quand l'adrénaline monte, faut pas qu'ça bloque on arrive De nulle part, sabote tout en 5-5 sans flingue on fait ça à la vrai Dédié à nos zinzins, FF c'est l'histoire sans fin On t'parle de c'qui schlingue le plus quand l'son flingue x2 FF, c'est l'histoire sans fin de gars sincères Arrivés d'nulle part on sabote tout en 5-5 Ça monte au cerveau comme un bon mélange Ça déménage, ça laisse des traces dans les méninges Mi démon mi ange Attention, danger FF x10 C'est un vrai don d'Dieu de pouvoir s'exprimer d'vant tous ces gens Autant rester vrai pas jouer un rôle ou s'donner un genre C'est dans nos curs dans nos rues qu'les vraies rimes naissent Loin des stars à la con de la Jet 7 du gratin et tout l'show business Le vrai combat c'est face à toi-même que tu l'livres Dieu n'a jamais souhaité qu'il soit si essaie d'survivre C'est chacun sa merde, en fait je serais quoi sans FF Comme un gosse livré à lui même et serait loin de sa mère Ça part dans tous les sens comme dans une orgie Dès j'commence à écrire sans savoir où j'vais en v'nir Conscient qu'au quotidien tout s'complique Qu'on soit qu'moi et les miens moi et ma clique Qu'on ait plus d'temps à perdre qu'on soit tous comme speeds Plus j'connais mes gars, plus j'aime ces chiens Ok, plus j'connais les femmes, et plus j'aime les chiennes Faut pas m'en vouloir, fallait bien qu'fasse ma bulle FF toujours sur le fil du rasoir tel un alcoolique funambule Putain, 3 ans c'était long, ça a laissé comme un manque Peu importe ton sexe, ton age, ta couleur, ton compte en banque FF revient, cherche plus à comprendre d'où proviennent ces liens C'est allé trop loin, c'est l'histoire sans fin Merci à Dieu d'nous avoir sorti de la misère À c'jour tout c'que j'ai vécu et vu m'sert Y a plus d'mystère, j'crois qu'j'vais rester dans la même filière Ne pas trahir les miens représenter les mêmes gars qu'hier Tu m'croyais mort en enterré ? Ouais dans tes rêves Face à ceux qui tiennent les rênes on s'élève On révèle, ce que tous pensent tout bas, en fait on célèbre Nos rues nos styles de vie de dingues que t'aimes, ou pas Plus l'travail est dur, j'en suis qu'plus fier Quand les gens s'reconnaissent en ces phases et les reprennent comme une prière Ça m'dépasse, comme une garce qui s'dit prête à baiser avec moi Parce que je fais partie d'FF de Mars Béton style scratch x2 FF, c'est l'histoire sans fin de gars sincères Arrivés d'nulle part on sabote tout en 5-5 Ça monte au cerveau comme un bon mélange Ça déménage, ça laisse des traces dans les méninges Mi démon mi ange Attention, danger</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Je suis dans la ville à 130, huh Les autorités on s'en branle T'inquiète les hagars savent à qui s'en prendre J'ai capté le vice Si t'es gentil on te bouffe, on prend ça pour de la faiblesse Non, ne fais pas le peace J'ai ton adresse et même ceux de ta mifa J'ai deux-trois poids dans la police, ouais j'ai deux, trois ma3rifa Que Dieu nous donne la santé parce que le reste est futile J'fais pas confiance à des mecs qui peuvent pas se payer un Fuze Tea J'rappe pour les tirailleurs et les Indigènes C'qui combat le COVID à l'huile de nigelle Pour la pizza moi je vais la manger chez Michel Toi, tu es le roi des fils de pute mais sur Insta j'ai mis j'aime Ils aiment tous l'argent mais ils savent pas en faire Même s'ils étaient millionnaire, ils niqueraient tout en faisant la fête Je prends mon cachet 20 sur 20 Je fais des showcases en survêt Ne croyez pas que je suis tout seul Oui, mon équipe me surveille On est chargé, Glock dans la caisse comme dans l'go-fast Plein phares, vroum dans ma team il y a deux, trois kufars J'suis matrixé je te nique ta mère sans raison Grosse embrouille, gros calibre oh, grosse combinaison Bienvenue dans la méta, toujours anti-état Pour le refrain c'est Vita, pour la promo c'est néta La police veut nous péta, pour la bagarre j'ai mes gars Pour ralentir les dégâts, j'irai prié à Mecca Ouais RG, je t'avais dit qu'il nous aime pas eux Ils nous craignent parce qu'ils le savent très bien qu'on n'est pas eux Et que Dieu m'éloigne de ceux qui parle de moi C'est pas grave mais n'oublie pas que ta carrière elle part de moi Pardonne-moi si je t'ai fait du mal, gros, c'était voulu Les gens disent que t'as changé quand t'évolues Je suis mal à l'aise quand je suis dans le VIP Je suis comme dans le vide Pour les feats vaut mieux qu'on évite Je veux pas qu'on m'invite On parait cool en vrai nous on s'en bat les couilles Nique ton marabout, ici les grigris n'arrêtent pas les douilles Je suis musulman, je réponds au Salaam-Alaikum Alaikum-Salaam Maintenant tu peux tracer ta route Ça fait un pour la mama Deux, deux pour la mama Trois pour la mama Quatre pour la mala Entre le halal et le haram, je suis mitigé Entre les parents et les profs, je suis négligé T'as fait le voyou, dans le temps on va te corriger Respecter la daronne, c'est comme la prière, c'est obligé Sur la vie de ma mère, santé et bonheur You might also like On a des sous, oui, on leur doit des comptes, non On a grandi ensemble, oui, mais est-ce qu'on est des potes? Non Je veux un 4x4, la doré ou la Black Card Je veux un 4x4, la doré ou la Black Card Dis-moi tu étais où quand on dînait avec un quatre quart? Quand on dînait avec les faux prince de Lidl Petit guns, tu nous casses les couilles on met pas de middle, ma gueule J'ai tout niqué mais en vrai c'était évident J'ai fait le trou tout seul moi, je suis pas venu en featant J'ai les dents, les rappeurs de chez moi je les pends Tu peux pas te comparer à nous, gros, tu poses même pas dans les temps Tu parles de braquages, de Kalash et de pétage De kilos, gros mytho, t'as même pas fait du guettage Je passe la douane avec le shit entre les couilles J'ai fait des sous, vas-y dis-moi que tu as pas les boules Je rappe comme la FF, Don Choa et Menzo Tu voudrais que je meurs alors qu'on a bu dans le même seau Fianso m'a dit baise le rap, fais leur des ish-ish On a pressé la détente, eux ils ont pressé des pshit-pshit Je suis rancunier mais je suis aussi reconnaissant J'ai fait couler le sang à ceux qui m'ont hagar adolescent J'étais petit, moi à l'époque j'avais la hachma Aujourd'hui, je fais des films avec Gilles Lellouche et Reichman Je peux garder la pêche man, les traîtres on les tèj man Le manager, c'est Deichmann J'écoute du Renaud Quand je veux écouter du vrai rap gros, j'écoute du Relo Fais-moi la passe mon ami On rattrape pas le péno J'écoute du Hasni, du Mami, du Khaled, du Bello Marseille, en vrai, c'est la guerre entre res-frè Tu as trahi la Honda on t'a tué c'est bien fait On a des sous? Oui, on leur doit des comptes? Non On a grandi ensemble? Oui, mais est-ce qu'on est des potes? Non</t>
+          <t>Je suis dans la ville à 130, huh Les autorités on s'en branle T'inquiète les hagars savent à qui s'en prendre J'ai capté le vice Si t'es gentil on te bouffe, on prend ça pour de la faiblesse Non, ne fais pas le peace J'ai ton adresse et même ceux de ta mifa J'ai deux-trois poids dans la police, ouais j'ai deux, trois ma3rifa Que Dieu nous donne la santé parce que le reste est futile J'fais pas confiance à des mecs qui peuvent pas se payer un Fuze Tea J'rappe pour les tirailleurs et les Indigènes C'qui combat le COVID à l'huile de nigelle Pour la pizza moi je vais la manger chez Michel Toi, tu es le roi des fils de pute mais sur Insta j'ai mis j'aime Ils aiment tous l'argent mais ils savent pas en faire Même s'ils étaient millionnaire, ils niqueraient tout en faisant la fête Je prends mon cachet 20 sur 20 Je fais des showcases en survêt Ne croyez pas que je suis tout seul Oui, mon équipe me surveille On est chargé, Glock dans la caisse comme dans l'go-fast Plein phares, vroum dans ma team il y a deux, trois kufars J'suis matrixé je te nique ta mère sans raison Grosse embrouille, gros calibre oh, grosse combinaison Bienvenue dans la méta, toujours anti-état Pour le refrain c'est Vita, pour la promo c'est néta La police veut nous péta, pour la bagarre j'ai mes gars Pour ralentir les dégâts, j'irai prié à Mecca Ouais RG, je t'avais dit qu'il nous aime pas eux Ils nous craignent parce qu'ils le savent très bien qu'on n'est pas eux Et que Dieu m'éloigne de ceux qui parle de moi C'est pas grave mais n'oublie pas que ta carrière elle part de moi Pardonne-moi si je t'ai fait du mal, gros, c'était voulu Les gens disent que t'as changé quand t'évolues Je suis mal à l'aise quand je suis dans le VIP Je suis comme dans le vide Pour les feats vaut mieux qu'on évite Je veux pas qu'on m'invite On parait cool en vrai nous on s'en bat les couilles Nique ton marabout, ici les grigris n'arrêtent pas les douilles Je suis musulman, je réponds au Salaam-Alaikum Alaikum-Salaam Maintenant tu peux tracer ta route Ça fait un pour la mama Deux, deux pour la mama Trois pour la mama Quatre pour la mala Entre le halal et le haram, je suis mitigé Entre les parents et les profs, je suis négligé T'as fait le voyou, dans le temps on va te corriger Respecter la daronne, c'est comme la prière, c'est obligé Sur la vie de ma mère, santé et bonheur On a des sous, oui, on leur doit des comptes, non On a grandi ensemble, oui, mais est-ce qu'on est des potes? Non Je veux un 4x4, la doré ou la Black Card Je veux un 4x4, la doré ou la Black Card Dis-moi tu étais où quand on dînait avec un quatre quart? Quand on dînait avec les faux prince de Lidl Petit guns, tu nous casses les couilles on met pas de middle, ma gueule J'ai tout niqué mais en vrai c'était évident J'ai fait le trou tout seul moi, je suis pas venu en featant J'ai les dents, les rappeurs de chez moi je les pends Tu peux pas te comparer à nous, gros, tu poses même pas dans les temps Tu parles de braquages, de Kalash et de pétage De kilos, gros mytho, t'as même pas fait du guettage Je passe la douane avec le shit entre les couilles J'ai fait des sous, vas-y dis-moi que tu as pas les boules Je rappe comme la FF, Don Choa et Menzo Tu voudrais que je meurs alors qu'on a bu dans le même seau Fianso m'a dit baise le rap, fais leur des ish-ish On a pressé la détente, eux ils ont pressé des pshit-pshit Je suis rancunier mais je suis aussi reconnaissant J'ai fait couler le sang à ceux qui m'ont hagar adolescent J'étais petit, moi à l'époque j'avais la hachma Aujourd'hui, je fais des films avec Gilles Lellouche et Reichman Je peux garder la pêche man, les traîtres on les tèj man Le manager, c'est Deichmann J'écoute du Renaud Quand je veux écouter du vrai rap gros, j'écoute du Relo Fais-moi la passe mon ami On rattrape pas le péno J'écoute du Hasni, du Mami, du Khaled, du Bello Marseille, en vrai, c'est la guerre entre res-frè Tu as trahi la Honda on t'a tué c'est bien fait On a des sous? Oui, on leur doit des comptes? Non On a grandi ensemble? Oui, mais est-ce qu'on est des potes? Non</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cours enfoiré cours, cours enfoiré Cours, cours enfoiré cours, cours Enfoiré cours enfoiré cours, cours Enfoiré cours, cours enfoiré J'ai les couilles pleines le cerveau vide Le cur plein de haine et les nerfs solides Atmosphère torride Petite paye pour gros risque appelle-moi lyrics grossiste Ou petite teigneux terroriste, kamikaze l'ami Ma manière dopérer jsors du maquis en Armani Gianfranco Ferret, parle-moi de money l'ami C'est tout ce que j'ai en tête Ma philosophie c'est Gandhi avec un AK47 J'aime pas voir des mains trainées du coté de mon assiette Jtranche jte fais danser au son de la machette J'enclenche pied au plancher, jveux manger, me venger Jsuis dérangé, t'es en danger même au fond de ta cachette Ici cest sud crade de tous les côtés ça craque Ça deale, ça vole et ça braque les pirates passent à la gratte Combats si tu veux ta part Rends-toi si tu veux pas de drame Chacun son gun ou sa lame tes cris se noient dans le vacarme You might also like Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Sarko reprends ton Karcher, va plutôt nettoyer ta femme J'arrive les deux majeurs en l'air, sans gêne et sans états d'âme Allumez les fumigènes, sonnez l'alarme ! Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Et les écoliers d'hier se mettent à trafiquer la came Mon son pollue l'atmosphère et fait fondre le macadam Allumez les fumigènes, sonnez l'alarme ! Viens nager dans les grands fonds regarde les sourires carnassiers J'ai les dents longues le mental et les mâchoires en acier Jmords et jmarrête pas tant que j'ai pas assez ramassé Ou quils me foutent en camisole dans une cellule matelassée Jmarche entre les rapaces les hyènes et les panthères Moi jveux ma place au sommet de la chaine alimentaire Jvais pas faire du sur-place, ramer toute ma vie entière Mets pas ton calibre en l'air shoot-moi si t'est si gangster Y'a le chien de la casse et le chien de la douane Moi je fracasse te fie pas à mon calme padawan Ça parle de came et d'arnaque De braquage et de car-jack pour ce 4X4 Grosse liasse grosse bitch à quatre pattes Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Sarko reprends ton Karcher, va plutôt nettoyer ta femme J'arrive les deux majeurs en l'air, sans gêne et sans états d'âme Allumez les fumigènes, sonnez l'alarme ! Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Et les écoliers d'hier se mettent à trafiquer la came Mon son pollue l'atmosphère et fait fondre le macadam Allumez les fumigènes, sonnez l'alarme ! Cours enfoiré cours, cours enfoiré Cours, cours enfoiré cours, cours enfoiré Cours, cours enfoiré cours, cours enfoiré Cours, cours enfoiré cours, cours enfoiré Ici cest sud crade de tous les côtés ça craque Ça deal ça vole et ça braque les pirates passent à la trappe Combats si tu veux ta part Rends-toi si tu veux pas de drame Chacun son gun ou sa lame Tes cris se noient dans le vacarme Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Sarko reprends ton Karcher, va plutôt nettoyer ta femme J'arrive les deux majeurs en l'air, sans gêne et sans états d'âme Allumez les fumigènes, sonnez l'alarme ! Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Et les écoliers d'hier se mettent à trafiquer la came Mon son pollue l'atmosphère et fait fondre le macadam Allumez les fumigènes, sonnez l'alarme !</t>
+          <t>Cours enfoiré cours, cours enfoiré Cours, cours enfoiré cours, cours Enfoiré cours enfoiré cours, cours Enfoiré cours, cours enfoiré J'ai les couilles pleines le cerveau vide Le cur plein de haine et les nerfs solides Atmosphère torride Petite paye pour gros risque appelle-moi lyrics grossiste Ou petite teigneux terroriste, kamikaze l'ami Ma manière dopérer jsors du maquis en Armani Gianfranco Ferret, parle-moi de money l'ami C'est tout ce que j'ai en tête Ma philosophie c'est Gandhi avec un AK47 J'aime pas voir des mains trainées du coté de mon assiette Jtranche jte fais danser au son de la machette J'enclenche pied au plancher, jveux manger, me venger Jsuis dérangé, t'es en danger même au fond de ta cachette Ici cest sud crade de tous les côtés ça craque Ça deale, ça vole et ça braque les pirates passent à la gratte Combats si tu veux ta part Rends-toi si tu veux pas de drame Chacun son gun ou sa lame tes cris se noient dans le vacarme Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Sarko reprends ton Karcher, va plutôt nettoyer ta femme J'arrive les deux majeurs en l'air, sans gêne et sans états d'âme Allumez les fumigènes, sonnez l'alarme ! Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Et les écoliers d'hier se mettent à trafiquer la came Mon son pollue l'atmosphère et fait fondre le macadam Allumez les fumigènes, sonnez l'alarme ! Viens nager dans les grands fonds regarde les sourires carnassiers J'ai les dents longues le mental et les mâchoires en acier Jmords et jmarrête pas tant que j'ai pas assez ramassé Ou quils me foutent en camisole dans une cellule matelassée Jmarche entre les rapaces les hyènes et les panthères Moi jveux ma place au sommet de la chaine alimentaire Jvais pas faire du sur-place, ramer toute ma vie entière Mets pas ton calibre en l'air shoot-moi si t'est si gangster Y'a le chien de la casse et le chien de la douane Moi je fracasse te fie pas à mon calme padawan Ça parle de came et d'arnaque De braquage et de car-jack pour ce 4X4 Grosse liasse grosse bitch à quatre pattes Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Sarko reprends ton Karcher, va plutôt nettoyer ta femme J'arrive les deux majeurs en l'air, sans gêne et sans états d'âme Allumez les fumigènes, sonnez l'alarme ! Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Et les écoliers d'hier se mettent à trafiquer la came Mon son pollue l'atmosphère et fait fondre le macadam Allumez les fumigènes, sonnez l'alarme ! Cours enfoiré cours, cours enfoiré Cours, cours enfoiré cours, cours enfoiré Cours, cours enfoiré cours, cours enfoiré Cours, cours enfoiré cours, cours enfoiré Ici cest sud crade de tous les côtés ça craque Ça deal ça vole et ça braque les pirates passent à la trappe Combats si tu veux ta part Rends-toi si tu veux pas de drame Chacun son gun ou sa lame Tes cris se noient dans le vacarme Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Sarko reprends ton Karcher, va plutôt nettoyer ta femme J'arrive les deux majeurs en l'air, sans gêne et sans états d'âme Allumez les fumigènes, sonnez l'alarme ! Sur le bitume c'est bouillant C'est trop chaud ça y est ça crame Et les écoliers d'hier se mettent à trafiquer la came Mon son pollue l'atmosphère et fait fondre le macadam Allumez les fumigènes, sonnez l'alarme !</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>x2 Noublie pas mon nom, les jours sont longs Je serais ton ombre, élèverais ton môme Tout près lun de lautre Même si le ton monte Wesh ma belle ! À cqui paraît ça marche, lamour Fais gaffe car les Je taime, cest à la mode de nos jours Avant toutes choses, avant qudes liens se créent Dis-toi bien que jsuis pas lgenre dhomme Qui se trouvent dans ton jardin secret Jai ni lpoème ni la rose pour tséduire Ni lBM ni lcarrosse pour tconduire Jme dis que, lamour, ça rend triste, ça torture lesprit En plus de ça, rien que jregarde les corps et les strings Là où jvis, y'a pas de romantisme à la belle étoile Ça speed, wesh, jsuis bien, et toi ? Et on finit sous lmême toit Que pense à vivre ou mourir lun près de lautre Ils disent que lamour abîme lêtre, écrit le sur ton carnet dnotes Nous deux on a rien à voir, mauvais moments p'tite chatoune Certains veulent ma monnaie et ma mort Tas vu autour comment ma vie tourne Putain, à cause de ça, jaurais jamais dfiston, dfistoune Donc crache la terre, la merde You might also like x2 Noublie pas mon nom, les jours sont longs Je serais ton ombre, élèverais ton môme Tout près lun de lautre Même si le ton monte Tu voulais changer ma vie, laisse tomber, déstresse Je ferais pas un bon mari, je trompe même mes maîtresses Tu veux des promesses, des mensonges, des poèmes et des chansons Tu nous vois ensemble, en songe, le ventre rond, non ! Je viendrais pas sur un cheval, tamener sous des cascades Jsuis blessé à lintérieur, le cur pas stable Mon amour mignore, et ça ma rendu malade Quand jtéléphonais chez elle, sa sur mdisait Elle est pas là Jlai pas appelé du nom dune autre, jai pas promené au bras dune autre Cest ptêtre juste que mon visage sentait la chatte dune autre Évitons à tout prix dcrier drame sur le pas dune porte Y'a des limites à cquune femme supporte Cest foutu maintenant, tu veux plus vieillir près de moi Et jme sens comme un trottoir sale que la pluie nettoie À louest, fou, anormal, ma vie, cest quoi ? Tu sais pourquoi jdors mal, ma vie cest toi x2 Noublie pas mon nom, les jours sont longs Je serais ton ombre, élèverais ton môme Tout près lun de lautre Même si le ton monte On se cherche, on se trouve pas Moi, tout cque jveux, cest le creux de tes bras Je me donne toute à toi, tu ne vois pas Que faut-il que je fasse ? Je ne sais pas On se perd dans une hargne Où personne ne trouve sa place Dans un nid, faut que ça passe Faut quça passe ou quça casse On se cherche, on se trouve pas On sattire, on senroule dans de beaux draps Tisse une toile damour et de soie Et, un jour, lautre sen va Dans les tempêtes quon traverse Trop de peines, trop de bonheurs gâchés Où est passée toute la tendresse ? Trop de manques, trop de vides à combler Quand la douleur nous transperce Je tremble, déchirée, blessée Mal à lintérieur sans cesse Tu saignes des pensées Noublie pas mon nom, les jours sont longs Je serais ton ombre, élèverais ton môme Tout près lun de lautre Même si le ton monte</t>
+          <t>x2 Noublie pas mon nom, les jours sont longs Je serais ton ombre, élèverais ton môme Tout près lun de lautre Même si le ton monte Wesh ma belle ! À cqui paraît ça marche, lamour Fais gaffe car les Je taime, cest à la mode de nos jours Avant toutes choses, avant qudes liens se créent Dis-toi bien que jsuis pas lgenre dhomme Qui se trouvent dans ton jardin secret Jai ni lpoème ni la rose pour tséduire Ni lBM ni lcarrosse pour tconduire Jme dis que, lamour, ça rend triste, ça torture lesprit En plus de ça, rien que jregarde les corps et les strings Là où jvis, y'a pas de romantisme à la belle étoile Ça speed, wesh, jsuis bien, et toi ? Et on finit sous lmême toit Que pense à vivre ou mourir lun près de lautre Ils disent que lamour abîme lêtre, écrit le sur ton carnet dnotes Nous deux on a rien à voir, mauvais moments p'tite chatoune Certains veulent ma monnaie et ma mort Tas vu autour comment ma vie tourne Putain, à cause de ça, jaurais jamais dfiston, dfistoune Donc crache la terre, la merde x2 Noublie pas mon nom, les jours sont longs Je serais ton ombre, élèverais ton môme Tout près lun de lautre Même si le ton monte Tu voulais changer ma vie, laisse tomber, déstresse Je ferais pas un bon mari, je trompe même mes maîtresses Tu veux des promesses, des mensonges, des poèmes et des chansons Tu nous vois ensemble, en songe, le ventre rond, non ! Je viendrais pas sur un cheval, tamener sous des cascades Jsuis blessé à lintérieur, le cur pas stable Mon amour mignore, et ça ma rendu malade Quand jtéléphonais chez elle, sa sur mdisait Elle est pas là Jlai pas appelé du nom dune autre, jai pas promené au bras dune autre Cest ptêtre juste que mon visage sentait la chatte dune autre Évitons à tout prix dcrier drame sur le pas dune porte Y'a des limites à cquune femme supporte Cest foutu maintenant, tu veux plus vieillir près de moi Et jme sens comme un trottoir sale que la pluie nettoie À louest, fou, anormal, ma vie, cest quoi ? Tu sais pourquoi jdors mal, ma vie cest toi x2 Noublie pas mon nom, les jours sont longs Je serais ton ombre, élèverais ton môme Tout près lun de lautre Même si le ton monte On se cherche, on se trouve pas Moi, tout cque jveux, cest le creux de tes bras Je me donne toute à toi, tu ne vois pas Que faut-il que je fasse ? Je ne sais pas On se perd dans une hargne Où personne ne trouve sa place Dans un nid, faut que ça passe Faut quça passe ou quça casse On se cherche, on se trouve pas On sattire, on senroule dans de beaux draps Tisse une toile damour et de soie Et, un jour, lautre sen va Dans les tempêtes quon traverse Trop de peines, trop de bonheurs gâchés Où est passée toute la tendresse ? Trop de manques, trop de vides à combler Quand la douleur nous transperce Je tremble, déchirée, blessée Mal à lintérieur sans cesse Tu saignes des pensées Noublie pas mon nom, les jours sont longs Je serais ton ombre, élèverais ton môme Tout près lun de lautre Même si le ton monte</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Jungle de béton... On vit les uns sur les autres, noyés dans la masse La tête dans le désordre, les pieds dans la crasse Faut cogner fort pour se faire sa place Ceux qui dorment dehors rêvent de palace Mauvais dans le mauvais ordre pour les chiens de la casse Trop de morts, trop de gosses se retrouvent à la DDASS Des mains faites pour lor, des équipes de rapaces Ma génération part en dérapage Dans la nuit, j'entends les bruits de courses poursuites Partis de rien on veut tout, tout de suite On roule à vive allure on se soule vite C'est le ghetto, pays d'escrocs Seul Coluche t'invite au resto Y'a beaucoup d'envieux le monde est à ceux qui ont des hommes en bleu Qui se lèvent tôt On voit trop de peines et d'espoir déçus Quand on traine le soir dans ces rues Si ma haine ne prend pas le dessus La flemme me freine et vivre me tue Les snobs nous plaignent, nous on en peut plus Les portes se ferment je cherche une issue Je sens que je vais perdre la tête si je reste dans cette... Jungle de béton ici c'est marche ou crève Jungle de béton ya ni pause ni trêve Jungle de béton en manque d'oxygène Jungle de béton, de béton Jungle de béton x6 Faut que je sorte de là où je vais perdre la raison You might also like Je suis pas armé mais dangereux Pas de ceux qui se contentent de peu Les yeux vitreux et le ventre creux Les fauves nerveux se mangent entre eux Naie pas peur rentre dans le jeu plongent dans le feu Même couverts de gazoline anonyme On arrive sexe en vaseline et ça s'anime Tu le sais la miss si t'es d'ici t'en paies le prix Les condés embarquent n'importe qui T'as pas besoin d'être un bandit Pour qu'ils te mettent les menottes toute la nuit Beaucoup qui souffrent et qui subissent Démuni face à l'injustice Démuni le vice s'incruste vite qui vient te relever si tu glisses ? Y'a beaucoup de charbonneurs Tous n'ont pas le sens de l'honneur Si ce frère à la vie à la mort Qu'au poste il te balance sans remords On encaisse encore et encore Le temps presse il faut que je m'en sorte Je sens que je vais perdre la tête si je reste dans cette ... Jungle de béton ici c'est marche ou crève Jungle de béton ya ni pause ni trêve Jungle de béton en manque d'oxygène Jungle de béton, de béton Jungle de béton x6 Faut que je sorte de là où je vais perdre la raison Produit de cet environnement Produit de ce conditionnement Les pieds prisonniers du ciment Faut que je sorte de là où je vais perdre la raison Jungle de béton ici c'est marche ou crève Jungle de béton ya ni pause ni trêve Jungle de béton en manque d'oxygène Jungle de béton, de béton Jungle de béton x6 Faut que je sorte de là où je vais perdre la raison</t>
+          <t>Jungle de béton... On vit les uns sur les autres, noyés dans la masse La tête dans le désordre, les pieds dans la crasse Faut cogner fort pour se faire sa place Ceux qui dorment dehors rêvent de palace Mauvais dans le mauvais ordre pour les chiens de la casse Trop de morts, trop de gosses se retrouvent à la DDASS Des mains faites pour lor, des équipes de rapaces Ma génération part en dérapage Dans la nuit, j'entends les bruits de courses poursuites Partis de rien on veut tout, tout de suite On roule à vive allure on se soule vite C'est le ghetto, pays d'escrocs Seul Coluche t'invite au resto Y'a beaucoup d'envieux le monde est à ceux qui ont des hommes en bleu Qui se lèvent tôt On voit trop de peines et d'espoir déçus Quand on traine le soir dans ces rues Si ma haine ne prend pas le dessus La flemme me freine et vivre me tue Les snobs nous plaignent, nous on en peut plus Les portes se ferment je cherche une issue Je sens que je vais perdre la tête si je reste dans cette... Jungle de béton ici c'est marche ou crève Jungle de béton ya ni pause ni trêve Jungle de béton en manque d'oxygène Jungle de béton, de béton Jungle de béton x6 Faut que je sorte de là où je vais perdre la raison Je suis pas armé mais dangereux Pas de ceux qui se contentent de peu Les yeux vitreux et le ventre creux Les fauves nerveux se mangent entre eux Naie pas peur rentre dans le jeu plongent dans le feu Même couverts de gazoline anonyme On arrive sexe en vaseline et ça s'anime Tu le sais la miss si t'es d'ici t'en paies le prix Les condés embarquent n'importe qui T'as pas besoin d'être un bandit Pour qu'ils te mettent les menottes toute la nuit Beaucoup qui souffrent et qui subissent Démuni face à l'injustice Démuni le vice s'incruste vite qui vient te relever si tu glisses ? Y'a beaucoup de charbonneurs Tous n'ont pas le sens de l'honneur Si ce frère à la vie à la mort Qu'au poste il te balance sans remords On encaisse encore et encore Le temps presse il faut que je m'en sorte Je sens que je vais perdre la tête si je reste dans cette ... Jungle de béton ici c'est marche ou crève Jungle de béton ya ni pause ni trêve Jungle de béton en manque d'oxygène Jungle de béton, de béton Jungle de béton x6 Faut que je sorte de là où je vais perdre la raison Produit de cet environnement Produit de ce conditionnement Les pieds prisonniers du ciment Faut que je sorte de là où je vais perdre la raison Jungle de béton ici c'est marche ou crève Jungle de béton ya ni pause ni trêve Jungle de béton en manque d'oxygène Jungle de béton, de béton Jungle de béton x6 Faut que je sorte de là où je vais perdre la raison</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>On mitraille sans flingue ni fusil, psalmodie, sol maudit Agonie, pas d'harmonie, passe la money L'Produit FF nocif carbonise, des fesses rôtissent, atomisent Explosif, on voit qu'c'est p't-être possible et ça motive N'importe quel motif fera l'affaire pour qu'ils partent en guerre Entrée du gouffre, ça sent l'souffre, avant s'ouvre les portes de l'enfer Tempête du desert, tête nucléaire, où est la serrure ? Système tordu, misère, torture, coups et blessures Peu importe ton fric, ta carrure, si tu t'retrouves à la rue Tu perds vite ta belle allure, on t'calcule plus comme un fantôme au milieu des zombies Les morts vivants s'endorment piqués par des vampires Que le diable les emporte, leurs états, leurs empires Ils pensent qu'à s'agrandir, on s'demande comment s'affranchir Faut l'répéter personne n'est à l'abri Et quand l'malheur frappe chez les autres, tu dis juste C'est la vie, ces choses-là arrivent T'as pas appris qu'le sort est imprévisible, rien n'est hasardeux Tu sens ces forces invisibles ? Qu'est-ce que j'peux dire à part que J'reste là à attendre et regarder tomber l'soleil ? Il suffit pas d'secouer l'cul d'une blindée pour voir tomber d'l'oseille J'ai grandi dans l'manque, un taudis et l'bonheur Appris que dans la difficulté faut garder son honneur Que chacun sur Terre a son lot de malheurs On nous juge sur notre couleur et pas sur nos valeurs On nous montre du doigt comme si on était des voleurs J'tiens à dire que chez nous y'a pas qu'des braqueurs, des dealers La vie ne sourit pas qu'aux meilleurs J'ai su très tôt qu'j'étais ni un zazou ni un Zizou Qu'il fallait qu'j'tienne le coup pour sortir de ce zoo Si j'suis là c'est grâce à mes gars et à vous C'est fou, FF pour foufoua, les langues de putes Les sous-souas gardent le vécu, nos vies, c'est pas un film de cul Ouais, souvent ça dit ça tue mais ça tue pas Grâce a Dieu, on est loin de tout c'qu'il s'passe là-bas Mais, chez nous, y'a aussi des haineux, des tar-ba Qui, pour un rien, vont t'sortir un gun et tabattre You might also like On dit c'qu'il s'passe ici, si ça te parait trop fou Sache que, quoi qu'il arrive, on ira jusquau bout On dit c'qu'il s'passe ici, si ça te parait trop fou Sache que, quoi qu'il arrive, on ira jusquau bout Tant que merde il y aura, j'y survivrai comme Gloria J'la rapperai car des thèses Hallelujah La vie est faite d'un tas daléas Et si gloire il y a, t'es pas à l'abri regarde Alliyah J'rappe pas pour passer dans les clubs J'ai jamais fait ça pour être apprécié des thug's Le rap, c'est mon terrain d'jeu, les défaites me rendent hargneux Et m'font écrire des trucs plus hard, vieux Chaque jour, je m'engraine, je m'entraîne L'âme en peine, histoire de laisser mon empreinte La vie, c'est traitre, ça frappe quand tu t'y attends l'moins Si tu recules, elle t'accule et te fini dans l'coin À quoi bon crier, prier, supplier ? Y'a qu'un langage celui des billets Hé, vivre, c'est souffrir Faut croire qu'on est maso pour tous vouloir survivre Surprise, c'que j'dis dans mes textes, c'est pas c'que j'aimerais dire Car, peut-être que, c'que j'vis, c'est pas c'que j'aimerais vivre Putain, j'aimerais être sain, mais, chaque jour, dans l'sang J'ai trois à quatre grammes, deux à trois litres aux cinq Je m'rends contre que, vivre, c'est pas simple J'pense malsain et j'm'imagine avec la cagoule et l'machin Pendant que dorment pa' et man', j'pense qu'à ramener leur repas C'est pour ça qu'à l'heure où tout l'monde s'arrête, je repars Écoute, les douleurs parlent, j'ai plus l'temps et trop de retard J'veux ma part, la paix et éviter la barre Frais dans l'message car on meurt tous un jour ou l'autre Honneur aux nôtres, des sages à c'qui pratiquent le vol à la roulotte Tout c'qu'ils fraudent pour vivre, tout c'qu'ils vivent loin d'leur gosse Tout c'qu'ils vibrent avec du vrai dans l'poste J'suis bien qu'dans mon mini monde, j'aurais jamais la vie de rêve Ni l'dernier BM mais j'veux minimum un môme Toi, t'sais pas toi, avant toute chose J'veillerai sur les miens jusqu'à c'que la mort nous sépare On dit c'qu'il s'passe ici, si ça te parait trop fou Sache que, quoi qu'il arrive, on ira jusquau bout On dit c'qu'il s'passe ici, si ça te parait trop fou Sache que, quoi qu'il arrive, on ira jusquau bout1</t>
+          <t>On mitraille sans flingue ni fusil, psalmodie, sol maudit Agonie, pas d'harmonie, passe la money L'Produit FF nocif carbonise, des fesses rôtissent, atomisent Explosif, on voit qu'c'est p't-être possible et ça motive N'importe quel motif fera l'affaire pour qu'ils partent en guerre Entrée du gouffre, ça sent l'souffre, avant s'ouvre les portes de l'enfer Tempête du desert, tête nucléaire, où est la serrure ? Système tordu, misère, torture, coups et blessures Peu importe ton fric, ta carrure, si tu t'retrouves à la rue Tu perds vite ta belle allure, on t'calcule plus comme un fantôme au milieu des zombies Les morts vivants s'endorment piqués par des vampires Que le diable les emporte, leurs états, leurs empires Ils pensent qu'à s'agrandir, on s'demande comment s'affranchir Faut l'répéter personne n'est à l'abri Et quand l'malheur frappe chez les autres, tu dis juste C'est la vie, ces choses-là arrivent T'as pas appris qu'le sort est imprévisible, rien n'est hasardeux Tu sens ces forces invisibles ? Qu'est-ce que j'peux dire à part que J'reste là à attendre et regarder tomber l'soleil ? Il suffit pas d'secouer l'cul d'une blindée pour voir tomber d'l'oseille J'ai grandi dans l'manque, un taudis et l'bonheur Appris que dans la difficulté faut garder son honneur Que chacun sur Terre a son lot de malheurs On nous juge sur notre couleur et pas sur nos valeurs On nous montre du doigt comme si on était des voleurs J'tiens à dire que chez nous y'a pas qu'des braqueurs, des dealers La vie ne sourit pas qu'aux meilleurs J'ai su très tôt qu'j'étais ni un zazou ni un Zizou Qu'il fallait qu'j'tienne le coup pour sortir de ce zoo Si j'suis là c'est grâce à mes gars et à vous C'est fou, FF pour foufoua, les langues de putes Les sous-souas gardent le vécu, nos vies, c'est pas un film de cul Ouais, souvent ça dit ça tue mais ça tue pas Grâce a Dieu, on est loin de tout c'qu'il s'passe là-bas Mais, chez nous, y'a aussi des haineux, des tar-ba Qui, pour un rien, vont t'sortir un gun et tabattre On dit c'qu'il s'passe ici, si ça te parait trop fou Sache que, quoi qu'il arrive, on ira jusquau bout On dit c'qu'il s'passe ici, si ça te parait trop fou Sache que, quoi qu'il arrive, on ira jusquau bout Tant que merde il y aura, j'y survivrai comme Gloria J'la rapperai car des thèses Hallelujah La vie est faite d'un tas daléas Et si gloire il y a, t'es pas à l'abri regarde Alliyah J'rappe pas pour passer dans les clubs J'ai jamais fait ça pour être apprécié des thug's Le rap, c'est mon terrain d'jeu, les défaites me rendent hargneux Et m'font écrire des trucs plus hard, vieux Chaque jour, je m'engraine, je m'entraîne L'âme en peine, histoire de laisser mon empreinte La vie, c'est traitre, ça frappe quand tu t'y attends l'moins Si tu recules, elle t'accule et te fini dans l'coin À quoi bon crier, prier, supplier ? Y'a qu'un langage celui des billets Hé, vivre, c'est souffrir Faut croire qu'on est maso pour tous vouloir survivre Surprise, c'que j'dis dans mes textes, c'est pas c'que j'aimerais dire Car, peut-être que, c'que j'vis, c'est pas c'que j'aimerais vivre Putain, j'aimerais être sain, mais, chaque jour, dans l'sang J'ai trois à quatre grammes, deux à trois litres aux cinq Je m'rends contre que, vivre, c'est pas simple J'pense malsain et j'm'imagine avec la cagoule et l'machin Pendant que dorment pa' et man', j'pense qu'à ramener leur repas C'est pour ça qu'à l'heure où tout l'monde s'arrête, je repars Écoute, les douleurs parlent, j'ai plus l'temps et trop de retard J'veux ma part, la paix et éviter la barre Frais dans l'message car on meurt tous un jour ou l'autre Honneur aux nôtres, des sages à c'qui pratiquent le vol à la roulotte Tout c'qu'ils fraudent pour vivre, tout c'qu'ils vivent loin d'leur gosse Tout c'qu'ils vibrent avec du vrai dans l'poste J'suis bien qu'dans mon mini monde, j'aurais jamais la vie de rêve Ni l'dernier BM mais j'veux minimum un môme Toi, t'sais pas toi, avant toute chose J'veillerai sur les miens jusqu'à c'que la mort nous sépare On dit c'qu'il s'passe ici, si ça te parait trop fou Sache que, quoi qu'il arrive, on ira jusquau bout On dit c'qu'il s'passe ici, si ça te parait trop fou Sache que, quoi qu'il arrive, on ira jusquau bout1</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Dès qu'j'ouvre les yeux, j'ai les nerfs dès qu'j'émerge, ça dégénère Dès qu'j'me lève, j'vais faire des guerres et, même si j'perds, j'persévère C'est des merdes et ça fait les fiers, c'est des traîtres et ça fait les frères Ah, ça m'dégoûte, ça m'fait gerber, pas moyen d'les laisser faire J'vais leur niquer leurs pères les putes et leurs mères les proxénètes Nique ces putes incultes, ces stup', ces juges, ces proc' sévères Ces brutes, ces tortionnaires, ces étudiants, ces fonctionnaires niquez-les Nique l'État et tous ses avatars niquez-les, tous les condés sont des bâtards niquez-les Tous les blindés sont des avares niquez-les, j'vais les massacrer comme un vrai barbare J'vais les découper comme un steak tartare, j'vais les éduquer comme un mec d'Harvard J'vais les fumer comme un p'tit pétard, les calciner en deuxtrois barres Laisse-les, laisse-les jouer les stars, attendre les entendre crier Nahh Ces psychopathes en Gucci Flow Michel Colucci La nuit, j'crame des bouts d'shit J'distribue des coups d'chibre Psychopathes en Gucci Flow Michel Colucci Pas l'temps pour tes bullshits Pas l'temps pour tes bullshits On va tuer des nazis comme à Stalingrad Comme à Stalingrad, comme à Stalingrad On va tuer des nazis comme à Stalingrad Comme à Stalingrad, comme à Stalingrad On va tuer des nazis comme à Stalingrad Comme à Stalin-Stalin-Stalingrad On va tuer des nazis comme à Stalingrad Kill them all et qu'ils aient mal Aucune envie d'vous aider, jeune padawan, vieux pédé J'vous découpe à coup d'épée, vous et vos putes toutes pétées Les fous, c'est plus c'que c'était, tout l'monde me demande Où t'étais ? Même si tu parles pas, tout se sait et, même si tu parles, tout se paie Tout se paie cash ou à crédit, come on biatch, are you ready? Are you ready? De la douleur, j'prédis, pas de douceur, j't'ai dit, moi, c'est Krueger Freddy Ou Rocco Siffredi-fredi et, tout d'un coup, ton pussy frémit, frémit J'suis la nouvelle épidémie-démie, you know I'm not good comme Amy, Amy, Amy Rest in peace miss Amy Winehouse, François in the hood, j'suis dans la White House Où ? Dans la White House où ? dans la White House, suce mon cigare ou bye bye pétasse Aïe, des fois, massacrer, ça fait mal au cur, aïe, mais tu l'as mérité motherfucker Die, et tu dois nous quitter motherfucker, die motherfucker, die motherfucker Ces psychopathes en Gucci Flow Michel Colucci La nuit, j'crame des bouts d'shit J'distribue des coups d'chibre Psychopathes en Gucci Flow Michel Colucci Pas l'temps pour tes bullshits Pas l'temps pour tes bullshits On va tuer des nazis comme à Stalingrad Comme à Stalingrad, comme à Stalingrad On va tuer des nazis comme à Stalingrad Comme à Stalingrad, comme à Stalingrad On va tuer des nazis comme à Stalingrad Comme à Stalin-Stalin-Stalingrad On va tuer des nazis comme à Stalingrad Kill them all et qu'ils aient mal x4 Kill them all, kill them all Kill them all et qu'ils aient mal Kill them all, kill them all Kill them all et qu'ils aient malYou might also like</t>
+          <t>Dès qu'j'ouvre les yeux, j'ai les nerfs dès qu'j'émerge, ça dégénère Dès qu'j'me lève, j'vais faire des guerres et, même si j'perds, j'persévère C'est des merdes et ça fait les fiers, c'est des traîtres et ça fait les frères Ah, ça m'dégoûte, ça m'fait gerber, pas moyen d'les laisser faire J'vais leur niquer leurs pères les putes et leurs mères les proxénètes Nique ces putes incultes, ces stup', ces juges, ces proc' sévères Ces brutes, ces tortionnaires, ces étudiants, ces fonctionnaires niquez-les Nique l'État et tous ses avatars niquez-les, tous les condés sont des bâtards niquez-les Tous les blindés sont des avares niquez-les, j'vais les massacrer comme un vrai barbare J'vais les découper comme un steak tartare, j'vais les éduquer comme un mec d'Harvard J'vais les fumer comme un p'tit pétard, les calciner en deuxtrois barres Laisse-les, laisse-les jouer les stars, attendre les entendre crier Nahh Ces psychopathes en Gucci Flow Michel Colucci La nuit, j'crame des bouts d'shit J'distribue des coups d'chibre Psychopathes en Gucci Flow Michel Colucci Pas l'temps pour tes bullshits Pas l'temps pour tes bullshits On va tuer des nazis comme à Stalingrad Comme à Stalingrad, comme à Stalingrad On va tuer des nazis comme à Stalingrad Comme à Stalingrad, comme à Stalingrad On va tuer des nazis comme à Stalingrad Comme à Stalin-Stalin-Stalingrad On va tuer des nazis comme à Stalingrad Kill them all et qu'ils aient mal Aucune envie d'vous aider, jeune padawan, vieux pédé J'vous découpe à coup d'épée, vous et vos putes toutes pétées Les fous, c'est plus c'que c'était, tout l'monde me demande Où t'étais ? Même si tu parles pas, tout se sait et, même si tu parles, tout se paie Tout se paie cash ou à crédit, come on biatch, are you ready? Are you ready? De la douleur, j'prédis, pas de douceur, j't'ai dit, moi, c'est Krueger Freddy Ou Rocco Siffredi-fredi et, tout d'un coup, ton pussy frémit, frémit J'suis la nouvelle épidémie-démie, you know I'm not good comme Amy, Amy, Amy Rest in peace miss Amy Winehouse, François in the hood, j'suis dans la White House Où ? Dans la White House où ? dans la White House, suce mon cigare ou bye bye pétasse Aïe, des fois, massacrer, ça fait mal au cur, aïe, mais tu l'as mérité motherfucker Die, et tu dois nous quitter motherfucker, die motherfucker, die motherfucker Ces psychopathes en Gucci Flow Michel Colucci La nuit, j'crame des bouts d'shit J'distribue des coups d'chibre Psychopathes en Gucci Flow Michel Colucci Pas l'temps pour tes bullshits Pas l'temps pour tes bullshits On va tuer des nazis comme à Stalingrad Comme à Stalingrad, comme à Stalingrad On va tuer des nazis comme à Stalingrad Comme à Stalingrad, comme à Stalingrad On va tuer des nazis comme à Stalingrad Comme à Stalin-Stalin-Stalingrad On va tuer des nazis comme à Stalingrad Kill them all et qu'ils aient mal x4 Kill them all, kill them all Kill them all et qu'ils aient mal Kill them all, kill them all Kill them all et qu'ils aient mal</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FF, On prend les mêmes et on recommence Tu sais quel genre de vie qu'on relate Dès qu'on s'lance 2000 L'heure des comptes a sonné faut qu'on s'venge Bang, bang C'est FF, Bang, bang C'est FF, Bang, bang, c'est FF J'imagine mal faire de vieux os mais si le contraire s'produit J'm'imagine mal à la tête d'un réseau Refourguer un tas de produits A chacun son truc, j'ai choisi la musique mais ça va pas sans risque Y a tout un tas d'connards et d'losers qui doivent nous jalouser Ils croient que j'ai rien d'autre à foutre que d'partouzer Faire du sport en chambre, tomber du Champ' Claquer un max de blé à bout de champs pour tuer le temps dès que ça m'chante J'ai tenté ma chance sans savoir si elle me sourirait Mon vier, maintenant c'est moi qui m'retrouve envié Ils se disent étonnés de me voir traîner seul en ville Mais j'étais là avant qu'tous s'intéressent de près à ma vie J'veux pas m'plaindre j'connaissais les règles avant d'jouer La partie n'est pas finie qu'beaucoup veulent nous voir échouer J'sais pas si j'suis prêt ou encore loin du but Vu qu'ça devient aussi dangereux et chaud que la chatte d'une pute Si tu n'protèges ni toi ni tes arrières Tu t'mets en danger le mal a une grande soif dure à étancher Y a un tas de pain sur la planche j'peux pas flancher C'est simple me fais pas chier, nous pousse pas à nous fâcher C'est maintenant ou jamais, respect, sinon va-t-on charmer ? Moi j'suis pas venu armé Si la mort donne à la vie toute sa valeur Qui sait les nôtres finiront peut-être enfin par en prendre dès tout à l'heure You might also like Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Tu cherches pas les emmerdes, elles viennent quand même toutes seules Rattrapé par ton passé ou des mecs qui veulent te casser la gueule Qu'est-c'que j'fous au mic? comme Gainsbarre, des petits trous Y paraît qu'j'suis dur ou y paraît qu'j'suis doux, nique tout Pour bien qu'tu comprennes le sens de l'expression Faut-il que je laisse une capote usagée dans ton salon? Traite-moi de salop, Don Cho salement abominable Je m'prend pas pour ton po', j'ai qu'un seul abdominal Rentre dans le coin chaud, on te plaque comme de la gomina Allez, dors comme sur les tables de l'école communale J'arrive et j'dis, c'est qui ce crétin ? Un alcoolique, un petit naïf, un malpoli qui plante un petit canif Si tu savais comment j'leur chie dessus Ils nous critiquent mais connaissent-ils vraiment la vie d'rue J'suis un parmi des millions qui n'en ont plus rien a foutre Arrive incognito comme un fou dans la foule J'préfère aller en studio que faire des trous dans la route J'préfère la classe affaire que faire un tour dans la soute Nos nerfs sont ordinaires pour de simples citadins FF, brûle ça bien si tu t'crois si malin Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Les soirées c'est mince, dingue Mais si tu me voyais en BM, bing On vient braquer tout ça mais sans flingue N'aie crainte, j'viens pas épater la galerie Il faudrait plus qu'une feinte pour stopper ma cavalerie Tu tiens à nous néguer donc on prend le large Coule les sous-marins, nie ceux qui en sous-marin joue les ennemis T'as beau envoyer tes mayday mayday , t'es mal barré Vu qu'personne ne viendra t'aider Ton organisme va serrer, ça va être infernal FF est de retour, on s'doit d'faire mal Ferme-la si t'es pas d'accord avec c'que j'défends Les mecs du béton aiment ça et en s'en servant J'vais pas soigner mon langage pour faire vendre Rapper sur des sons nazes ou sur des airs tendres Fais ton truc maintenant, qui sait où tu seras demain On peut y passer bêtement en un rien de temps C'est maintenant, pousse le son, vas-y fais le dingue Bouge ta viande, n'aie crainte si la température grimpe On est entre nous, entre crèves, entre couz' d'la zone qui ont la fièvre J'suis pas un vendeur de rêves, dédié à ceux qui sont dedans et dehors Sois dans le coup ou hors, ça vient du 13 et pas d'New-York Ici, FF, tu penses connaître la recette mais les choses ne sont jamais c'qu'elles paraissent être Si tu veux nique la fête, on donne l'alerte Pour nos frères, nos surs qui aiment l'ambiance monte parfaite Touche ton front, vois si la fièvre monte Fais pas l'croque-mort mais le croque le monde Sans regrets, sans remords, c'est maintenant à tout moment On peut y passer bêtement Sur Terre, c'est vie pour vie, il pour il, dent pour dent Perds mon clan, ma clique et les autres Ami, si tu aimes le béton, mets la main sur ton cur et vois s'il bat vite Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant</t>
+          <t>FF, On prend les mêmes et on recommence Tu sais quel genre de vie qu'on relate Dès qu'on s'lance 2000 L'heure des comptes a sonné faut qu'on s'venge Bang, bang C'est FF, Bang, bang C'est FF, Bang, bang, c'est FF J'imagine mal faire de vieux os mais si le contraire s'produit J'm'imagine mal à la tête d'un réseau Refourguer un tas de produits A chacun son truc, j'ai choisi la musique mais ça va pas sans risque Y a tout un tas d'connards et d'losers qui doivent nous jalouser Ils croient que j'ai rien d'autre à foutre que d'partouzer Faire du sport en chambre, tomber du Champ' Claquer un max de blé à bout de champs pour tuer le temps dès que ça m'chante J'ai tenté ma chance sans savoir si elle me sourirait Mon vier, maintenant c'est moi qui m'retrouve envié Ils se disent étonnés de me voir traîner seul en ville Mais j'étais là avant qu'tous s'intéressent de près à ma vie J'veux pas m'plaindre j'connaissais les règles avant d'jouer La partie n'est pas finie qu'beaucoup veulent nous voir échouer J'sais pas si j'suis prêt ou encore loin du but Vu qu'ça devient aussi dangereux et chaud que la chatte d'une pute Si tu n'protèges ni toi ni tes arrières Tu t'mets en danger le mal a une grande soif dure à étancher Y a un tas de pain sur la planche j'peux pas flancher C'est simple me fais pas chier, nous pousse pas à nous fâcher C'est maintenant ou jamais, respect, sinon va-t-on charmer ? Moi j'suis pas venu armé Si la mort donne à la vie toute sa valeur Qui sait les nôtres finiront peut-être enfin par en prendre dès tout à l'heure Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Tu cherches pas les emmerdes, elles viennent quand même toutes seules Rattrapé par ton passé ou des mecs qui veulent te casser la gueule Qu'est-c'que j'fous au mic? comme Gainsbarre, des petits trous Y paraît qu'j'suis dur ou y paraît qu'j'suis doux, nique tout Pour bien qu'tu comprennes le sens de l'expression Faut-il que je laisse une capote usagée dans ton salon? Traite-moi de salop, Don Cho salement abominable Je m'prend pas pour ton po', j'ai qu'un seul abdominal Rentre dans le coin chaud, on te plaque comme de la gomina Allez, dors comme sur les tables de l'école communale J'arrive et j'dis, c'est qui ce crétin ? Un alcoolique, un petit naïf, un malpoli qui plante un petit canif Si tu savais comment j'leur chie dessus Ils nous critiquent mais connaissent-ils vraiment la vie d'rue J'suis un parmi des millions qui n'en ont plus rien a foutre Arrive incognito comme un fou dans la foule J'préfère aller en studio que faire des trous dans la route J'préfère la classe affaire que faire un tour dans la soute Nos nerfs sont ordinaires pour de simples citadins FF, brûle ça bien si tu t'crois si malin Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Les soirées c'est mince, dingue Mais si tu me voyais en BM, bing On vient braquer tout ça mais sans flingue N'aie crainte, j'viens pas épater la galerie Il faudrait plus qu'une feinte pour stopper ma cavalerie Tu tiens à nous néguer donc on prend le large Coule les sous-marins, nie ceux qui en sous-marin joue les ennemis T'as beau envoyer tes mayday mayday , t'es mal barré Vu qu'personne ne viendra t'aider Ton organisme va serrer, ça va être infernal FF est de retour, on s'doit d'faire mal Ferme-la si t'es pas d'accord avec c'que j'défends Les mecs du béton aiment ça et en s'en servant J'vais pas soigner mon langage pour faire vendre Rapper sur des sons nazes ou sur des airs tendres Fais ton truc maintenant, qui sait où tu seras demain On peut y passer bêtement en un rien de temps C'est maintenant, pousse le son, vas-y fais le dingue Bouge ta viande, n'aie crainte si la température grimpe On est entre nous, entre crèves, entre couz' d'la zone qui ont la fièvre J'suis pas un vendeur de rêves, dédié à ceux qui sont dedans et dehors Sois dans le coup ou hors, ça vient du 13 et pas d'New-York Ici, FF, tu penses connaître la recette mais les choses ne sont jamais c'qu'elles paraissent être Si tu veux nique la fête, on donne l'alerte Pour nos frères, nos surs qui aiment l'ambiance monte parfaite Touche ton front, vois si la fièvre monte Fais pas l'croque-mort mais le croque le monde Sans regrets, sans remords, c'est maintenant à tout moment On peut y passer bêtement Sur Terre, c'est vie pour vie, il pour il, dent pour dent Perds mon clan, ma clique et les autres Ami, si tu aimes le béton, mets la main sur ton cur et vois s'il bat vite Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>x2 Partout c'est la guerre, c'est l'agonie sur la Terre Certains se croient au Paradis, mais sont dans les caves de l'Enfer C'est le frère contre le frère, et le fils contre le père Bienvenue dans le troisième millénaire, mais qu'est-ce que t'espères ? Don Choa La situation dégénère, les trêves sont éphémères Vois ces enfants et leurs mères massacrés par des mercenaires Entre civils ou militaires, à coup de missiles ou de pierres La Terre n'est plus qu'un cimetière et partout c'est la guerre Les conflits prolifèrent dans les zones pétrolifères Rien n'apaise la soif de sang du plus cruel des mammifères Il ne reste que cendres et poussières, l'humanité est suicidaire On laisse faire Lucifer et les disciples d'Hitler Ce sera la guerre tant que le système aura la même philosophie Qu'il y aura des citoyens de première et de deuxième catégorie Et tant qu'on voudra pas atteindre mais juste rêver d'une paix durable Ce sera la guerre et pendant que le monde crève on fait du Rap x2 Partout c'est la guerre, c'est l'agonie sur la Terre Certains se croient au Paradis, mais sont dans les caves de l'Enfer C'est le frère contre le frère, et le fils contre le père Bienvenue dans le troisième millénaire, mais qu'est-ce que t'espères ? You might also like Partout c'est la guerre pour mille et une raisons, en voici quelques-unes À commencer parce qu'il y a des riches au nord et des pauvres au sud C'est la guerre parce que l'Occident a pillé l'Orient Parce qu'y en a qui en ont trop, parce qu'y en a qui n'ont rien C'est la merde, qui croire, tous se disent du camp du bien Mais dans le fond qui se soucie réellement du genre humain Qui se soucie des enfants, des malades, des frères qui meurent Des frères qui vont en taule, des mères qui pleurent C'est la guerre parce que la haine nous a rendus aveugle Parce que personne ne veut de l'orphelin et que tout le monde veut baiser la veuve C'est la guerre parce que des coins de rue ont pris de la valeur T'as pas idée de ce que certains peuvent rapporter dans l'heure C'est la guerre parce que l'on veut tout ce que l'on voit dans les vitrines Si c'est la guerre, putain je ne veux pas être sa prochaine victime Dieu seul sait où tout ça mène J'finirai sur un message de paix Salem, Shalom, Amen x2 Partout c'est la guerre, c'est l'agonie sur la Terre Certains se croient au Paradis, mais sont dans les caves de l'Enfer C'est le frère contre le frère, et le fils contre le père Bienvenue dans le troisième millénaire, mais qu'est-ce que t'espères ? Le Rat Luciano Ça bosse, ça se branle, ça flambe, ça arrache Ça vend, ça cambute, ça arnaque, ça ment, ça se rend pas, ça fonce Ça ne demande rien, ça prend, ça apprend, ça souffre Ça affronte, ça se pend Ça tente, ça se trempe, ça court après le sublime Ça se la joue et dès que ça subit ça tremble, ça supplie Ça se manque, et dès que tu sors le pistolet ça se planque, ça chambre Et dès que tu sors la monnaie ça se cambre Ça se nique à l'alcool, à la drogue, ça vise le pactole Ça pense plus en grammes mais en tonnes Ça a plus peur de la taule, ça veut être en place Rayer le patron, baiser la patronne, la patrouille et remettre tout le monde en place Ça devient chaud, ça se laisse faire, ça se défend Ça part, ça s'arme, ça revient, ça tire, ça dépend Ça se bat, ça s'allie, ça s'aide, ça se salit, ça s'insulte Ça se salut, ça s'aime, ça s'trahit x2 Partout c'est la guerre, c'est l'agonie sur la Terre Certains se croient au Paradis, mais sont dans les caves de l'Enfer C'est le frère contre le frère, et le fils contre le père Bienvenue dans le troisième millénaire, mais qu'est-ce que t'espères ? Menzo C'est la guerre ici, pas de bombardement, ni d'couvre-feu Dans la jungle urbaine, pour t'en sortir évite les coups foireux Chez nous tu peux perdre la vie pour un portable ou 20 euros La bêtise humaine peut pousser un frère derrière les barreaux Dans nos zones tellement d'armes qu'on pourrait faire la guerre à lÉtat On vit au rythme des règlements de compte, des meurtres, des vendettas Tellement d'amour mais c'est la guerre et jusqu'au bout on va la faire On sait que baisser sa garde, c'est la perdre C'est chacun pour sa gueule mais t'as pas fait tout ça seul La loi il pour il nous a rendus tous aveugles J'ai rien d'un pacifiste mais je déteste la guerre Normal, toujours des innocents qu'on envoie sous terre x2 Partout c'est la guerre, c'est l'agonie sur la Terre Certains se croient au Paradis, mais sont dans les caves de l'Enfer C'est le frère contre le frère, et le fils contre le père Bienvenue dans le troisième millénaire, mais qu'est-ce que t'espères ?</t>
+          <t>x2 Partout c'est la guerre, c'est l'agonie sur la Terre Certains se croient au Paradis, mais sont dans les caves de l'Enfer C'est le frère contre le frère, et le fils contre le père Bienvenue dans le troisième millénaire, mais qu'est-ce que t'espères ? Don Choa La situation dégénère, les trêves sont éphémères Vois ces enfants et leurs mères massacrés par des mercenaires Entre civils ou militaires, à coup de missiles ou de pierres La Terre n'est plus qu'un cimetière et partout c'est la guerre Les conflits prolifèrent dans les zones pétrolifères Rien n'apaise la soif de sang du plus cruel des mammifères Il ne reste que cendres et poussières, l'humanité est suicidaire On laisse faire Lucifer et les disciples d'Hitler Ce sera la guerre tant que le système aura la même philosophie Qu'il y aura des citoyens de première et de deuxième catégorie Et tant qu'on voudra pas atteindre mais juste rêver d'une paix durable Ce sera la guerre et pendant que le monde crève on fait du Rap x2 Partout c'est la guerre, c'est l'agonie sur la Terre Certains se croient au Paradis, mais sont dans les caves de l'Enfer C'est le frère contre le frère, et le fils contre le père Bienvenue dans le troisième millénaire, mais qu'est-ce que t'espères ? Partout c'est la guerre pour mille et une raisons, en voici quelques-unes À commencer parce qu'il y a des riches au nord et des pauvres au sud C'est la guerre parce que l'Occident a pillé l'Orient Parce qu'y en a qui en ont trop, parce qu'y en a qui n'ont rien C'est la merde, qui croire, tous se disent du camp du bien Mais dans le fond qui se soucie réellement du genre humain Qui se soucie des enfants, des malades, des frères qui meurent Des frères qui vont en taule, des mères qui pleurent C'est la guerre parce que la haine nous a rendus aveugle Parce que personne ne veut de l'orphelin et que tout le monde veut baiser la veuve C'est la guerre parce que des coins de rue ont pris de la valeur T'as pas idée de ce que certains peuvent rapporter dans l'heure C'est la guerre parce que l'on veut tout ce que l'on voit dans les vitrines Si c'est la guerre, putain je ne veux pas être sa prochaine victime Dieu seul sait où tout ça mène J'finirai sur un message de paix Salem, Shalom, Amen x2 Partout c'est la guerre, c'est l'agonie sur la Terre Certains se croient au Paradis, mais sont dans les caves de l'Enfer C'est le frère contre le frère, et le fils contre le père Bienvenue dans le troisième millénaire, mais qu'est-ce que t'espères ? Le Rat Luciano Ça bosse, ça se branle, ça flambe, ça arrache Ça vend, ça cambute, ça arnaque, ça ment, ça se rend pas, ça fonce Ça ne demande rien, ça prend, ça apprend, ça souffre Ça affronte, ça se pend Ça tente, ça se trempe, ça court après le sublime Ça se la joue et dès que ça subit ça tremble, ça supplie Ça se manque, et dès que tu sors le pistolet ça se planque, ça chambre Et dès que tu sors la monnaie ça se cambre Ça se nique à l'alcool, à la drogue, ça vise le pactole Ça pense plus en grammes mais en tonnes Ça a plus peur de la taule, ça veut être en place Rayer le patron, baiser la patronne, la patrouille et remettre tout le monde en place Ça devient chaud, ça se laisse faire, ça se défend Ça part, ça s'arme, ça revient, ça tire, ça dépend Ça se bat, ça s'allie, ça s'aide, ça se salit, ça s'insulte Ça se salut, ça s'aime, ça s'trahit x2 Partout c'est la guerre, c'est l'agonie sur la Terre Certains se croient au Paradis, mais sont dans les caves de l'Enfer C'est le frère contre le frère, et le fils contre le père Bienvenue dans le troisième millénaire, mais qu'est-ce que t'espères ? Menzo C'est la guerre ici, pas de bombardement, ni d'couvre-feu Dans la jungle urbaine, pour t'en sortir évite les coups foireux Chez nous tu peux perdre la vie pour un portable ou 20 euros La bêtise humaine peut pousser un frère derrière les barreaux Dans nos zones tellement d'armes qu'on pourrait faire la guerre à lÉtat On vit au rythme des règlements de compte, des meurtres, des vendettas Tellement d'amour mais c'est la guerre et jusqu'au bout on va la faire On sait que baisser sa garde, c'est la perdre C'est chacun pour sa gueule mais t'as pas fait tout ça seul La loi il pour il nous a rendus tous aveugles J'ai rien d'un pacifiste mais je déteste la guerre Normal, toujours des innocents qu'on envoie sous terre x2 Partout c'est la guerre, c'est l'agonie sur la Terre Certains se croient au Paradis, mais sont dans les caves de l'Enfer C'est le frère contre le frère, et le fils contre le père Bienvenue dans le troisième millénaire, mais qu'est-ce que t'espères ?</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Claps your hands everybody 8 Qu'est-ce que tu connais sur un top model Faisant la bouffe puis la vaisselle Connais-tu un gentleman officiel? Mes fesses aiment le lin Les caisses, sièges en cuir ou en daim Mes mains ne pressent que du fric ou des seins Qu'est-ce que tu connais sur un jet-ski, une fois mi dé-blin Sur un hit sans refrain, la frime quand t'as faim Sans fric tu n'es rien Donc mets-toi ça dans le crâne, sinon file et dès demain Jette-toi vite sous un train Mec, les prix augmentent de la pipe jusqu'au pain Du shit jusqu'au vin, du pit jusqu'au fringues Dis-toi que je remue mon cou Que ma tête soit dans tous les bons coups Dis-moi, des gagnants, t'en connais beaucoup? Je roule une bête de bagnole allemande, t'en connais le coût Je roule un pét' droit venu de Hollande, t'en connais le goût C'est dans le biz qu'on reconnaît les fous Quand j'investis, faut que dans le mille je voie mes sous Laisse-nous débarquer Coup de pied dans la porte Ambiance hip-hop T'aimes quand ça saute Entends-nous débarquer Coup de pied dans la porte Je vais fumer ma camelote Et flinguer trois capotes You might also like Hardcore, Family Fonk Eh Maestro, rapporte hip-hop, salopes et skunk Je freestyle trop, sous alcool ou à jeun Je reste le même con de Don Cho' 2001 De danger en zone rouge, c'est chaud bouillant Des grosses bulles à la surface Mon truc est plus crasse que classe Mais vendu même en grandes surfaces Tu fais du sur-place, on te coupe en deux comme la monarchie Putain, mon petit bordel tourne à la grosse anarchie Sur tout le terrain, avance en trout goal volant Je ne vis ni dans le Parrain ni à Pornoland Monte dans mon train, ça va trop vite comme une mort violente Mal au cur, les mecs dégueulent et s'endorment dedans Sample ce texte que j'attaque Et mes textes comme mes doigts sentent le shit et la chatte Ah! Je veux niquer le plat avant de quitter la table Manger un peu m'a filé la dalle Rap de chacal, mets le feu ou comme ils disent, fais kiffer la salle C'est fatal comme de fumer zamal Attentat verbal explosion verticale, cherche la douille ou la balle Mes couilles normal, X-X-X-barge écrits dans la marge, quitte quitte la ville, prends le large Crie ou chantonne, haute tension ils s'endorment Je bouge à la fantôme avec z'yeux rouges et dents jaunes Mets tout dans l'enveloppe, t'inquiète je vais pas la perdre Je répète, Art de rue bordélique, what's the flav'? Laisse-nous débarquer Coup de pied dans la porte Ambiance hip-hop T'aimes quand ça saute Entends-nous débarquer Coup de pied dans la porte Je vais fumer ma camelote Et flinguer trois capotes Qu'est-ce tu connais sur le carré VIP dans le club Sur un DJ qui annonce ton entrée dans le club Don Cho', Dany Dan! Quand mon crew n'est pas au complet je me fais chier dans le club Mais bon, les absents ont tort, surtout dans les clubs Autographes, photographes, dès que je mets le pied dans le club Même quand je sors pas de chez oim, j'ai un pied dans le club Car mes disques sont les tubes réclamés dans les clubs Pourquoi? Question bête, ils sont faits pour les clubs Ils font chanter les clubs, tchiki danser tchiki tanguer les clubs Véridique, tu peux même changer de club Pour un freestyle, maintenant je fais banquer les clubs C'est comme si j'étais Tiger Woods et que tu me tendais le club Tu sais comment je suis dans le club Avec un mic je fous ma merde, je chie dans le club J'oublie mes blèmes dès que je suis dans le club Hey hey! Fais gaffe y a ta go qui me suit dans le club Yo, et sa meilleure copine qui veut que je la hmmm dans le club Je suis là pour fumer ma conso et frotter mon zob Je marche dans une fumée épaisse qui fait pleurer ton il Tu crois le rap c'est le cannabis, y a qu'à se baisser on le cueille? Parano fanatique venu ramasser son beurre Ils croyaient avoir la tactique, maintenant leurs femmes sont veuves Conseil pratique, prépare-toi bien pour ton heure Don Cho', stock smoker, Pop Dan, clock sonneur Laisse-nous débarquer Coup de pied dans la porte Ambiance hip-hop T'aimes quand ça saute Entends-nous débarquer Coup de pied dans la porte Je vais fumer ma camelote Et flinguer trois capotes</t>
+          <t>Claps your hands everybody 8 Qu'est-ce que tu connais sur un top model Faisant la bouffe puis la vaisselle Connais-tu un gentleman officiel? Mes fesses aiment le lin Les caisses, sièges en cuir ou en daim Mes mains ne pressent que du fric ou des seins Qu'est-ce que tu connais sur un jet-ski, une fois mi dé-blin Sur un hit sans refrain, la frime quand t'as faim Sans fric tu n'es rien Donc mets-toi ça dans le crâne, sinon file et dès demain Jette-toi vite sous un train Mec, les prix augmentent de la pipe jusqu'au pain Du shit jusqu'au vin, du pit jusqu'au fringues Dis-toi que je remue mon cou Que ma tête soit dans tous les bons coups Dis-moi, des gagnants, t'en connais beaucoup? Je roule une bête de bagnole allemande, t'en connais le coût Je roule un pét' droit venu de Hollande, t'en connais le goût C'est dans le biz qu'on reconnaît les fous Quand j'investis, faut que dans le mille je voie mes sous Laisse-nous débarquer Coup de pied dans la porte Ambiance hip-hop T'aimes quand ça saute Entends-nous débarquer Coup de pied dans la porte Je vais fumer ma camelote Et flinguer trois capotes Hardcore, Family Fonk Eh Maestro, rapporte hip-hop, salopes et skunk Je freestyle trop, sous alcool ou à jeun Je reste le même con de Don Cho' 2001 De danger en zone rouge, c'est chaud bouillant Des grosses bulles à la surface Mon truc est plus crasse que classe Mais vendu même en grandes surfaces Tu fais du sur-place, on te coupe en deux comme la monarchie Putain, mon petit bordel tourne à la grosse anarchie Sur tout le terrain, avance en trout goal volant Je ne vis ni dans le Parrain ni à Pornoland Monte dans mon train, ça va trop vite comme une mort violente Mal au cur, les mecs dégueulent et s'endorment dedans Sample ce texte que j'attaque Et mes textes comme mes doigts sentent le shit et la chatte Ah! Je veux niquer le plat avant de quitter la table Manger un peu m'a filé la dalle Rap de chacal, mets le feu ou comme ils disent, fais kiffer la salle C'est fatal comme de fumer zamal Attentat verbal explosion verticale, cherche la douille ou la balle Mes couilles normal, X-X-X-barge écrits dans la marge, quitte quitte la ville, prends le large Crie ou chantonne, haute tension ils s'endorment Je bouge à la fantôme avec z'yeux rouges et dents jaunes Mets tout dans l'enveloppe, t'inquiète je vais pas la perdre Je répète, Art de rue bordélique, what's the flav'? Laisse-nous débarquer Coup de pied dans la porte Ambiance hip-hop T'aimes quand ça saute Entends-nous débarquer Coup de pied dans la porte Je vais fumer ma camelote Et flinguer trois capotes Qu'est-ce tu connais sur le carré VIP dans le club Sur un DJ qui annonce ton entrée dans le club Don Cho', Dany Dan! Quand mon crew n'est pas au complet je me fais chier dans le club Mais bon, les absents ont tort, surtout dans les clubs Autographes, photographes, dès que je mets le pied dans le club Même quand je sors pas de chez oim, j'ai un pied dans le club Car mes disques sont les tubes réclamés dans les clubs Pourquoi? Question bête, ils sont faits pour les clubs Ils font chanter les clubs, tchiki danser tchiki tanguer les clubs Véridique, tu peux même changer de club Pour un freestyle, maintenant je fais banquer les clubs C'est comme si j'étais Tiger Woods et que tu me tendais le club Tu sais comment je suis dans le club Avec un mic je fous ma merde, je chie dans le club J'oublie mes blèmes dès que je suis dans le club Hey hey! Fais gaffe y a ta go qui me suit dans le club Yo, et sa meilleure copine qui veut que je la hmmm dans le club Je suis là pour fumer ma conso et frotter mon zob Je marche dans une fumée épaisse qui fait pleurer ton il Tu crois le rap c'est le cannabis, y a qu'à se baisser on le cueille? Parano fanatique venu ramasser son beurre Ils croyaient avoir la tactique, maintenant leurs femmes sont veuves Conseil pratique, prépare-toi bien pour ton heure Don Cho', stock smoker, Pop Dan, clock sonneur Laisse-nous débarquer Coup de pied dans la porte Ambiance hip-hop T'aimes quand ça saute Entends-nous débarquer Coup de pied dans la porte Je vais fumer ma camelote Et flinguer trois capotes</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Il paraîtrait qu'nos propos sont violents, mais la vie reste cruelle Comme le viol d'une fille dans une ruelle Un jeune que les flics passent à tabac et vire au violet Vois-tu tous ces gosses qui de plus en plus tôt s'mettent à voler Qu'est-ce que vous vouliez, que j'dise être désolé Mon rap lui restera dur quitte à vous affoler Et si ça te gêne, suce mon goro Depuis qu'j'suis venu au monde, j'ai rien vu d'très beau J'ai vu des potes qui sont tombés très tôt ou très bas Mène un terrible combat, ils jurent de pas s'faire ron-ba Ceux qui comprennent pas dur de pas s'faire baiser Parfois blessés dans leur chair, mais tous prêts à se dresser Ils s'disent agressés quand on livre nos pensées Sur le gouvernement, quand on s'lâche ouvertement Sans retenue, quel intérêt on a à c'que l'ordre soit maintenu Vu qu'leurs promesses sont jamais tenues You might also like Sous haute tension, mais vivants par la grâce du Très Haut Prend l'courant tu r'pars froid ou très chaud Moral zéro, ils s'font rares les héros, on n'a qu'des mots Pour t'secouer comme un rail d'héro L'arme lame d'rasoir, matraque, batte de baseball Chatte mouillée, seins qui bougent et fesses chaudes Série d'électrochocs, transaction d'coke Attente du verdict, réquisitoire du proc' J'entends d'drôles d'histoires mon pote, juste trop vrai J'crie Vive la zone et fuck le progrès J'ai si peu d'essence et tant d'choses à cramer J'ai si peu d'temps avant qu'j'me taise à jamais J'peux pas m'calmer, mec, j'veux la ramener Textes armés d'haine, et sans cran d'sureté T'sais que tout pète, c'est bien dans notre intention Don Choa, FF haute tension Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Qu'est-ce qui est mis sous haute tension ? Baiser une inconnue sans Manix Foutre un suisse dans un neiman de GSX Quand j'commence là où toi tu t'arrêtes Quand y a les civils en face et dans les poches les restes de barrette Vie dure argent et mains sales, frère, ça forge Et d'puis, tu peux pas imginer tout c'que les miens savent faire Faut qu'j'respecte ça fort Trouver l'bonheur là où il est peu importe sa forme Aller chercher les armes, s'retrouver au volant d'un bolide Ou voir mère verser des larmes Tout ça, mis sous haute tension, comme un pompe pointé vers soi Ou apprendre que son môme est en détention Quand la famille a b'soin d'argent et qu'il y a rien C'est comme voir la mort de près, l'éviter de rien Être sous haute tension, quand même, on aime bien Comme chacun des citoyens on veut dominer l'monde dès qu'ça vient On désire produire d'l'effet, profiter Car la vie est la plus grande fortune que Dieu nous ait donnée C'est pas tiré d'un roman mais inspiré d'réels faits Au bon endroit au bon moment et c'est comme ça qu'l'histoire se crée Tu crois avoir affaire aux chanteurs à la croix d'bois 'foiré T'as 4 clebs, toujours aux abois, ouais, enfoiré Ça vient d'Mars, pas celui d'Pagnol Mais d'ces rues qui sentent la tétrahydrocannabinol Merci à Dieu de m'donner ma chance, maintenir mon groupe vivant, entier C'est pas un jeu nous on n'est pas là pour plaisanter Pour c'qui nous ont quitté avant l'heure, c'est à souhaiter qu'ils aient trouvé mieux ailleurs Ce sera pas bien dur ici y a peu d'allégresse Les jours se ressemblent comme deux goutes d'eau ou presque On espère que la misère régresse Mais cette pute brise plus de foyer qu'les maitresses De Mars' on r'part en croisade contre l'état avare C'est la même merde aux 4 coins de France et d'Navarre J'laisserai qui s'mettre en travers de mon groupe de mes buts ? Ni l'fric ni la dope et encore moins une pute Prend le bien ou mal, ça m'est bien égal J'continuerai même s'ils rendaient nos phases illégales T'aimes tant mieux, t'aimes pas tant pis De toute façon qu'est-ce que ça change vu qu'on s'attend au pire FF, y a plus d'enjeu hormis sauver nos peaux Vu qu'vivre par les temps qui courent est devenu dangereux êtes vous prêts Espèces d'enfoirés êtes vous prêts ? Moi j'suis prêt Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension1</t>
+          <t>Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Il paraîtrait qu'nos propos sont violents, mais la vie reste cruelle Comme le viol d'une fille dans une ruelle Un jeune que les flics passent à tabac et vire au violet Vois-tu tous ces gosses qui de plus en plus tôt s'mettent à voler Qu'est-ce que vous vouliez, que j'dise être désolé Mon rap lui restera dur quitte à vous affoler Et si ça te gêne, suce mon goro Depuis qu'j'suis venu au monde, j'ai rien vu d'très beau J'ai vu des potes qui sont tombés très tôt ou très bas Mène un terrible combat, ils jurent de pas s'faire ron-ba Ceux qui comprennent pas dur de pas s'faire baiser Parfois blessés dans leur chair, mais tous prêts à se dresser Ils s'disent agressés quand on livre nos pensées Sur le gouvernement, quand on s'lâche ouvertement Sans retenue, quel intérêt on a à c'que l'ordre soit maintenu Vu qu'leurs promesses sont jamais tenues Sous haute tension, mais vivants par la grâce du Très Haut Prend l'courant tu r'pars froid ou très chaud Moral zéro, ils s'font rares les héros, on n'a qu'des mots Pour t'secouer comme un rail d'héro L'arme lame d'rasoir, matraque, batte de baseball Chatte mouillée, seins qui bougent et fesses chaudes Série d'électrochocs, transaction d'coke Attente du verdict, réquisitoire du proc' J'entends d'drôles d'histoires mon pote, juste trop vrai J'crie Vive la zone et fuck le progrès J'ai si peu d'essence et tant d'choses à cramer J'ai si peu d'temps avant qu'j'me taise à jamais J'peux pas m'calmer, mec, j'veux la ramener Textes armés d'haine, et sans cran d'sureté T'sais que tout pète, c'est bien dans notre intention Don Choa, FF haute tension Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Qu'est-ce qui est mis sous haute tension ? Baiser une inconnue sans Manix Foutre un suisse dans un neiman de GSX Quand j'commence là où toi tu t'arrêtes Quand y a les civils en face et dans les poches les restes de barrette Vie dure argent et mains sales, frère, ça forge Et d'puis, tu peux pas imginer tout c'que les miens savent faire Faut qu'j'respecte ça fort Trouver l'bonheur là où il est peu importe sa forme Aller chercher les armes, s'retrouver au volant d'un bolide Ou voir mère verser des larmes Tout ça, mis sous haute tension, comme un pompe pointé vers soi Ou apprendre que son môme est en détention Quand la famille a b'soin d'argent et qu'il y a rien C'est comme voir la mort de près, l'éviter de rien Être sous haute tension, quand même, on aime bien Comme chacun des citoyens on veut dominer l'monde dès qu'ça vient On désire produire d'l'effet, profiter Car la vie est la plus grande fortune que Dieu nous ait donnée C'est pas tiré d'un roman mais inspiré d'réels faits Au bon endroit au bon moment et c'est comme ça qu'l'histoire se crée Tu crois avoir affaire aux chanteurs à la croix d'bois 'foiré T'as 4 clebs, toujours aux abois, ouais, enfoiré Ça vient d'Mars, pas celui d'Pagnol Mais d'ces rues qui sentent la tétrahydrocannabinol Merci à Dieu de m'donner ma chance, maintenir mon groupe vivant, entier C'est pas un jeu nous on n'est pas là pour plaisanter Pour c'qui nous ont quitté avant l'heure, c'est à souhaiter qu'ils aient trouvé mieux ailleurs Ce sera pas bien dur ici y a peu d'allégresse Les jours se ressemblent comme deux goutes d'eau ou presque On espère que la misère régresse Mais cette pute brise plus de foyer qu'les maitresses De Mars' on r'part en croisade contre l'état avare C'est la même merde aux 4 coins de France et d'Navarre J'laisserai qui s'mettre en travers de mon groupe de mes buts ? Ni l'fric ni la dope et encore moins une pute Prend le bien ou mal, ça m'est bien égal J'continuerai même s'ils rendaient nos phases illégales T'aimes tant mieux, t'aimes pas tant pis De toute façon qu'est-ce que ça change vu qu'on s'attend au pire FF, y a plus d'enjeu hormis sauver nos peaux Vu qu'vivre par les temps qui courent est devenu dangereux êtes vous prêts Espèces d'enfoirés êtes vous prêts ? Moi j'suis prêt Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension1</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ils disent Regarde-les, ceux-là, traîner Les mecs, c'est que des bons à rien ou des délinquants Et, les femmes, c'est des garces, des connes Les enfants, ils sont foutus... Ne croyez pas ça Je sais qu'on est des rois et des reines Faut qu'on soit dignes de ça, fiers et responsables Marche sur un sol dur, marche sur un sol froid Marche entre les ordures, ne lâches rien, accroches-toi Je m'appuie contre le mur quand je marche plus trop droit Marche, accélère l'allure, je crache sur nos lois Les discours ne m'ont pas convaincu, si tu voyais ce que je vois On est peut-être bêtes mais on ne veut pas être dupes Excuse-moi s'il faut laisser les esprits crédules dans leur monde confortable Tu peux pas tout cacher comme le numéro de ton portable La vérité veut remonter, ça devient insupportable Qui va saigner ? Qui sera épargné ? Qui va en profiter ? Ils promotionnent la vanité, pub et reportages Les plus grosses caisses, les plus gros océans entre eux et les plus gros carnages Lavage de cerveau, qui n'en est pas l'otage ? C'est ta voiture qui est neuve et c'est toi qui est d'occas' Là où on s'côtoie, où on s'voit, où on marche, où on parle Où on se toise, où on se croise, où on s'froisse, où on squatte, cours You might also like Voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Amour du risque, tentation, nécessité, sensations Ça va vite, attention, les mecs en détention rêvent d'un tour Sur la voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Sur la voie publique, un brasier sous une pluie fine Montre-nous une meilleure voie pour qu'on vive plus clean Grandis sur un sol dur, grandis sur un sol froid Grandis en mauvaise posture, t'es pas le seul, console-toi Grandis en te forgeant une armure, obstacles, épreuves et combats Grandis, celui qui s'en sort est-il forcément celui qu'on croit ? Donne-moi la force, merci de m'laisser tenter ma chance Mets-nous d'accord, c'est uni, et ensemble qu'on avance On se fait des torts par les actes ou juste avec la langue Surveille tes paroles, elles se perdent comme des balles redescendent Blesses-tu aveuglement ? Entre pleurs et meuglements Comptes et règlements, faut-il répéter que la télé ment ? Tous dans légarement, létat vend alcool, calmants On réfléchit trop rarement, te fait pas baisser légalement En jouant le rôle qu'on attend de toi, t'en deviens l'otage C'est tes vêtements qui sont neufs et c'est toi qui est d'occas' Là où on s'côtoie, où on s'croise, où on s'voit, où on s'toise Où on s'froisse, où on squatte, où on parle, où on marche, cours Voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Amour du risque, tentation, nécessité, sensations Ça va vite, attention, les mecs en détention rêvent d'un tour Sur la voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Sur la voie publique, un brasier sous une pluie fine Montre-nous une meilleure voie pour qu'on vive plus clean Ils dorment sur un sol dur, dorment sur un sol froid Dorment à côté des ordures, meurent sans que tu t'en aperçoives Dehors, l'hiver, c'est pas une vie, ne me dis pas que c'est un choix Tu parles d'insécurité mais, toi, tu as un toit Tu te crois plus malin que les autres, le système te mettra un doigt T'as beau avoir une bonne porte, tu trouveras le poison chez toi Il passera de ton sang à celui de tes descendants J'ai les nerfs contre cette ado qui insulte ses parents Ce mec qui roule en roadster, claque des plaques avec des putains À sa mère, il ramène même pas une baguette de pain Regardez derrière les apparences, bande de comedientes Je médite en fumant la plante des traficantes C'est juste du son, on ne va pas te prendre en otage Ton monde est sanglant et ton cur est d'occas' Là où on s'côtoie, où on s'croise, où on s'voit, où on s'toise Où on s'froisse, où on squatte, où on parle, où on marche, cours Voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Amour du risque, tentation, nécessité, sensations Ça va vite, attention, les mecs en détention rêvent d'un tour Sur la voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Sur la voie publique, un brasier sous une pluie fine Montre-nous une meilleure voie pour qu'on vive plus clean</t>
+          <t>Ils disent Regarde-les, ceux-là, traîner Les mecs, c'est que des bons à rien ou des délinquants Et, les femmes, c'est des garces, des connes Les enfants, ils sont foutus... Ne croyez pas ça Je sais qu'on est des rois et des reines Faut qu'on soit dignes de ça, fiers et responsables Marche sur un sol dur, marche sur un sol froid Marche entre les ordures, ne lâches rien, accroches-toi Je m'appuie contre le mur quand je marche plus trop droit Marche, accélère l'allure, je crache sur nos lois Les discours ne m'ont pas convaincu, si tu voyais ce que je vois On est peut-être bêtes mais on ne veut pas être dupes Excuse-moi s'il faut laisser les esprits crédules dans leur monde confortable Tu peux pas tout cacher comme le numéro de ton portable La vérité veut remonter, ça devient insupportable Qui va saigner ? Qui sera épargné ? Qui va en profiter ? Ils promotionnent la vanité, pub et reportages Les plus grosses caisses, les plus gros océans entre eux et les plus gros carnages Lavage de cerveau, qui n'en est pas l'otage ? C'est ta voiture qui est neuve et c'est toi qui est d'occas' Là où on s'côtoie, où on s'voit, où on marche, où on parle Où on se toise, où on se croise, où on s'froisse, où on squatte, cours Voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Amour du risque, tentation, nécessité, sensations Ça va vite, attention, les mecs en détention rêvent d'un tour Sur la voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Sur la voie publique, un brasier sous une pluie fine Montre-nous une meilleure voie pour qu'on vive plus clean Grandis sur un sol dur, grandis sur un sol froid Grandis en mauvaise posture, t'es pas le seul, console-toi Grandis en te forgeant une armure, obstacles, épreuves et combats Grandis, celui qui s'en sort est-il forcément celui qu'on croit ? Donne-moi la force, merci de m'laisser tenter ma chance Mets-nous d'accord, c'est uni, et ensemble qu'on avance On se fait des torts par les actes ou juste avec la langue Surveille tes paroles, elles se perdent comme des balles redescendent Blesses-tu aveuglement ? Entre pleurs et meuglements Comptes et règlements, faut-il répéter que la télé ment ? Tous dans légarement, létat vend alcool, calmants On réfléchit trop rarement, te fait pas baisser légalement En jouant le rôle qu'on attend de toi, t'en deviens l'otage C'est tes vêtements qui sont neufs et c'est toi qui est d'occas' Là où on s'côtoie, où on s'croise, où on s'voit, où on s'toise Où on s'froisse, où on squatte, où on parle, où on marche, cours Voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Amour du risque, tentation, nécessité, sensations Ça va vite, attention, les mecs en détention rêvent d'un tour Sur la voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Sur la voie publique, un brasier sous une pluie fine Montre-nous une meilleure voie pour qu'on vive plus clean Ils dorment sur un sol dur, dorment sur un sol froid Dorment à côté des ordures, meurent sans que tu t'en aperçoives Dehors, l'hiver, c'est pas une vie, ne me dis pas que c'est un choix Tu parles d'insécurité mais, toi, tu as un toit Tu te crois plus malin que les autres, le système te mettra un doigt T'as beau avoir une bonne porte, tu trouveras le poison chez toi Il passera de ton sang à celui de tes descendants J'ai les nerfs contre cette ado qui insulte ses parents Ce mec qui roule en roadster, claque des plaques avec des putains À sa mère, il ramène même pas une baguette de pain Regardez derrière les apparences, bande de comedientes Je médite en fumant la plante des traficantes C'est juste du son, on ne va pas te prendre en otage Ton monde est sanglant et ton cur est d'occas' Là où on s'côtoie, où on s'croise, où on s'voit, où on s'toise Où on s'froisse, où on squatte, où on parle, où on marche, cours Voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Amour du risque, tentation, nécessité, sensations Ça va vite, attention, les mecs en détention rêvent d'un tour Sur la voie publique, qui te relèvera si tu glisses ? Il y a toujours plus de flics et toujours pas de justice Sur la voie publique, un brasier sous une pluie fine Montre-nous une meilleure voie pour qu'on vive plus clean</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Yeah, Jeune SkeeZ La-la-la-la-la J'aimerais bien plonger dans ma piscine Que la chance me fasse un p'tit signe J'aimerais bien plonger dans ma piscine Les vrais frérots, c'est rarissime Le docteur dit que c'est c'qu'il me faut parce que j'ai grise mine Je n'veux plus avoir la tête sous l'eau que dans ma piscine C'est bon pour le dos, le moral et les rondeurs Je t'inviterai d bon cur à venir faire quelqus longueurs Je la vois déjà devant mon pavillon, je fais la planche Je regarde passer les avions Si tu as hérité, toutes mes félicitations Je souhaite pareil à mes enfants, je veux leur léguer la maison, la télévision Et la piscine Que la chance me fasse un p'tit signe J'aimerais bien plonger dans ma piscine Les vrais frérots, c'est rarissime You might also like Je veux plonger dans mon bassin Et plonger dans ton bassin Faire des longueurs dans ton bassin J'irai où tu voudras, quand tu voudras, comme Joe Dassin Il fait trop chaud dans ma cuisine, dans mon tablier, eh J'vais sauter dans la piscine tout habillé C'est vrai, la vie est difficile, le monde n'est pas à nous Si tout l'monde avait une belle piscine, là, y'aurait pas d'jaloux Eh, dans l'eau, j'suis comme un poisson, j'suis comme un p'tit piranha Et je nage comme le bébé sur la pochette de Nirvana Ouais, je nage vers le billet, au milieu d'tous ces requins J'ai les dents qui rayent le liner, tu connais déjà l'refrain J'aimerais bien plonger dans ma piscine Que la chance me fasse un p'tit signe J'aimerais bien plonger dans ma piscine Les vrais frérots, c'est rarissime les vrais frérots, c'est rarissime Je veux plonger dans mon bassin Et plonger dans ton bassin Faire des longueurs dans ton bassin J'irai où tu voudras, quand tu voudras, comme Joe Dassin La-la-la-la La-la-la-la, la-la, la-la La-la-la-la, la piscine La-la-la-la</t>
+          <t>Yeah, Jeune SkeeZ La-la-la-la-la J'aimerais bien plonger dans ma piscine Que la chance me fasse un p'tit signe J'aimerais bien plonger dans ma piscine Les vrais frérots, c'est rarissime Le docteur dit que c'est c'qu'il me faut parce que j'ai grise mine Je n'veux plus avoir la tête sous l'eau que dans ma piscine C'est bon pour le dos, le moral et les rondeurs Je t'inviterai d bon cur à venir faire quelqus longueurs Je la vois déjà devant mon pavillon, je fais la planche Je regarde passer les avions Si tu as hérité, toutes mes félicitations Je souhaite pareil à mes enfants, je veux leur léguer la maison, la télévision Et la piscine Que la chance me fasse un p'tit signe J'aimerais bien plonger dans ma piscine Les vrais frérots, c'est rarissime Je veux plonger dans mon bassin Et plonger dans ton bassin Faire des longueurs dans ton bassin J'irai où tu voudras, quand tu voudras, comme Joe Dassin Il fait trop chaud dans ma cuisine, dans mon tablier, eh J'vais sauter dans la piscine tout habillé C'est vrai, la vie est difficile, le monde n'est pas à nous Si tout l'monde avait une belle piscine, là, y'aurait pas d'jaloux Eh, dans l'eau, j'suis comme un poisson, j'suis comme un p'tit piranha Et je nage comme le bébé sur la pochette de Nirvana Ouais, je nage vers le billet, au milieu d'tous ces requins J'ai les dents qui rayent le liner, tu connais déjà l'refrain J'aimerais bien plonger dans ma piscine Que la chance me fasse un p'tit signe J'aimerais bien plonger dans ma piscine Les vrais frérots, c'est rarissime les vrais frérots, c'est rarissime Je veux plonger dans mon bassin Et plonger dans ton bassin Faire des longueurs dans ton bassin J'irai où tu voudras, quand tu voudras, comme Joe Dassin La-la-la-la La-la-la-la, la-la, la-la La-la-la-la, la piscine La-la-la-la</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Nom de code Boss One membre du 3 Annonce l'arrivée imminente de la FF Qui vient terroriser le marché du rap français Pour une lutte acharnée et sans pitié Nique la musique de France comme slogan 3ème il fait partie du régiment Les autres vont en prendre un coup La résistance débarque et nique tout FF débarque, bordélique, sale son qui saturent en concert On s'en sort, le fric, on sue, frère on s'sert du mic à la guérilleros Lâchés dans une jungle d'acier, parmi les plus grands carnassiers Hip Hop au vent, officiers d'une armée clandestine, agent sous couvertures Pour foutre la pourriture sur les zones Chasser les caves et fatigués, dont tout le monde se fout 30 secondes d'écoute T'es dégoûté, j'espère muter leur biz, péter leur disque Saboter leurs clips, pisser sur leur lyrics, juge, pd, prend le risque Prie le ciel, montre que t'es un homme, boy Et joue les home-boys pour rien, dis-leur le Rat Ok Choa, L.U.C.I.A.N.O, une guerrilla des plus responsables Nique la musique par politesse plus c'est impensable Puisque l'on manie le mic avec dextérité Et nique tout daigne, voilà la vérité FF en déplacement même le couvre-feu décrété Mon équipe fait la différence face aux couillons et crétins Si je rappe c'est pas grâce au président français Texte réel et cruel profondément pensé Le mouvement devient grand comme l'océan, pour néant Trop de MC suppléants, flippés enfin et finissent fainéants J'la, nique-la, musique de la hass, l'ami Fais courir le bruit car voilà la rage Et mes sons sortis de la rue sans jouer le Kaiser Luciano baise la gueule des nazes pour la caille, sur Dédié au groupe de l'ombre si cela te la coupe longue Ronge-toi les ongles, le dangereux son pousse à se ranger dans les ombres You might also like En fait j'ai pas le choix pour m'en sortir faut que je brille Plus qu'un saphir un diams, que les ladies clament ça Que les faux clamsent, FF proclame la vérité Rap de rue, haut de gamme, au triste contenu Compte tenu que des gens comptent sur nous on continue Loin des call girls et coke ici c'est la qu'on smoke Comme vous on se moque des caves aux lyrics moisis Fils à papa pour qui le mic n'est qu'un loisir Y a pas de secret tout est parti de petites salles Contrebandiers en rime, freestyle à la salle de C'est une orgie du style Caligula On nique la musique de France ou la canicule À quand, l'album platinium tune Que je puisse dire m'mam, tu vois j'ai pas fais cela pour des prunes, l'ami C'est l'appel du 18 juin, écoute le speech FF débarque avec des troupes de textes à Omaha Beach Pète un pet en prime time sur chaîne musicale La dream team nique la zique de Gaule commando verbal Fous à lier aidés par des bataillons alliés Tout aimer, des clips spoliés Ce soir les sanglots longs des violons de Pone, thème de la résistance FFIFF nique la musique de France La gloire est loin, aujourd'hui j'ai la chance de dire ce que je vis Ce qui me déplaît dans pays je remballe la musique de France Méfiance, liberté d'expression Pour quel genre de chansons, FF de Mars mon bataillon Une telle équipe c'est au mic KO, trop de faux Faut rester vrai tout se paie, donne pas ton cul pour un peu d'blé J'comprends qu'il faut mater ça fissa, messieurs c'est pas tout ça On n'est pas star indéfiniment, restons fidèles au mouvement Éternel résistant, combattant au mic Appel au regroupement Fox trot, fox trot, reçu 5 sur 5 C'est pas le 18 juin mais je répond à l'appel Liquide les collabos, j'ai mon fusil et ma pelle Pour enterrer ceux qui prêchent le faux, voilà le temps des maquisards La famille balance le rap chaud, fais taire les balances et les bavards Branleurs c'est l'heure il faut se réveiller, l'avenir n'est pas ensoleillé Je sort du merdier marseillais pour te rayer Nique la musique de France en beauté, partout d'tous les côtés On souille la variété, plein les couilles tu sais qu'on s'débrouille FF rap vérité, ceux que nos mots irritent nous traitent de terroristes Le droit de parler librement doit pas servir qu'aux racistes On s'acharne à la tâche et tu as pas tout vu Parole du mec qui calcine les rimes comme une clope en garde à vue Don Choa, FF mon cur et mon sale son Devine pourquoi on s'incrusterait même dans la Chance aux Chansons A coups de pied au cul on se fait une place, taille notre part dans l'gâteau Droit au but comme l'OM nique tout à la Canto, eh La FF de Mars' représente la résistance Fais courir le bruit je nique la musique de France C'est l'appel du 18 juin, écoute le speech FF débarque avec des troupes de textes à Omaha Beach Pète un pet en prime time sur chaîne musicale La dream team nique la zique de Gaule commando verbal Fous à lier aidés par des bataillons alliés Tout aimer, des clips spoliés Ce soir les sanglots longs des violons de Pone, thème de la résistance FFIFF nique la musique de France Nique la musique de France</t>
+          <t>Nom de code Boss One membre du 3 Annonce l'arrivée imminente de la FF Qui vient terroriser le marché du rap français Pour une lutte acharnée et sans pitié Nique la musique de France comme slogan 3ème il fait partie du régiment Les autres vont en prendre un coup La résistance débarque et nique tout FF débarque, bordélique, sale son qui saturent en concert On s'en sort, le fric, on sue, frère on s'sert du mic à la guérilleros Lâchés dans une jungle d'acier, parmi les plus grands carnassiers Hip Hop au vent, officiers d'une armée clandestine, agent sous couvertures Pour foutre la pourriture sur les zones Chasser les caves et fatigués, dont tout le monde se fout 30 secondes d'écoute T'es dégoûté, j'espère muter leur biz, péter leur disque Saboter leurs clips, pisser sur leur lyrics, juge, pd, prend le risque Prie le ciel, montre que t'es un homme, boy Et joue les home-boys pour rien, dis-leur le Rat Ok Choa, L.U.C.I.A.N.O, une guerrilla des plus responsables Nique la musique par politesse plus c'est impensable Puisque l'on manie le mic avec dextérité Et nique tout daigne, voilà la vérité FF en déplacement même le couvre-feu décrété Mon équipe fait la différence face aux couillons et crétins Si je rappe c'est pas grâce au président français Texte réel et cruel profondément pensé Le mouvement devient grand comme l'océan, pour néant Trop de MC suppléants, flippés enfin et finissent fainéants J'la, nique-la, musique de la hass, l'ami Fais courir le bruit car voilà la rage Et mes sons sortis de la rue sans jouer le Kaiser Luciano baise la gueule des nazes pour la caille, sur Dédié au groupe de l'ombre si cela te la coupe longue Ronge-toi les ongles, le dangereux son pousse à se ranger dans les ombres En fait j'ai pas le choix pour m'en sortir faut que je brille Plus qu'un saphir un diams, que les ladies clament ça Que les faux clamsent, FF proclame la vérité Rap de rue, haut de gamme, au triste contenu Compte tenu que des gens comptent sur nous on continue Loin des call girls et coke ici c'est la qu'on smoke Comme vous on se moque des caves aux lyrics moisis Fils à papa pour qui le mic n'est qu'un loisir Y a pas de secret tout est parti de petites salles Contrebandiers en rime, freestyle à la salle de C'est une orgie du style Caligula On nique la musique de France ou la canicule À quand, l'album platinium tune Que je puisse dire m'mam, tu vois j'ai pas fais cela pour des prunes, l'ami C'est l'appel du 18 juin, écoute le speech FF débarque avec des troupes de textes à Omaha Beach Pète un pet en prime time sur chaîne musicale La dream team nique la zique de Gaule commando verbal Fous à lier aidés par des bataillons alliés Tout aimer, des clips spoliés Ce soir les sanglots longs des violons de Pone, thème de la résistance FFIFF nique la musique de France La gloire est loin, aujourd'hui j'ai la chance de dire ce que je vis Ce qui me déplaît dans pays je remballe la musique de France Méfiance, liberté d'expression Pour quel genre de chansons, FF de Mars mon bataillon Une telle équipe c'est au mic KO, trop de faux Faut rester vrai tout se paie, donne pas ton cul pour un peu d'blé J'comprends qu'il faut mater ça fissa, messieurs c'est pas tout ça On n'est pas star indéfiniment, restons fidèles au mouvement Éternel résistant, combattant au mic Appel au regroupement Fox trot, fox trot, reçu 5 sur 5 C'est pas le 18 juin mais je répond à l'appel Liquide les collabos, j'ai mon fusil et ma pelle Pour enterrer ceux qui prêchent le faux, voilà le temps des maquisards La famille balance le rap chaud, fais taire les balances et les bavards Branleurs c'est l'heure il faut se réveiller, l'avenir n'est pas ensoleillé Je sort du merdier marseillais pour te rayer Nique la musique de France en beauté, partout d'tous les côtés On souille la variété, plein les couilles tu sais qu'on s'débrouille FF rap vérité, ceux que nos mots irritent nous traitent de terroristes Le droit de parler librement doit pas servir qu'aux racistes On s'acharne à la tâche et tu as pas tout vu Parole du mec qui calcine les rimes comme une clope en garde à vue Don Choa, FF mon cur et mon sale son Devine pourquoi on s'incrusterait même dans la Chance aux Chansons A coups de pied au cul on se fait une place, taille notre part dans l'gâteau Droit au but comme l'OM nique tout à la Canto, eh La FF de Mars' représente la résistance Fais courir le bruit je nique la musique de France C'est l'appel du 18 juin, écoute le speech FF débarque avec des troupes de textes à Omaha Beach Pète un pet en prime time sur chaîne musicale La dream team nique la zique de Gaule commando verbal Fous à lier aidés par des bataillons alliés Tout aimer, des clips spoliés Ce soir les sanglots longs des violons de Pone, thème de la résistance FFIFF nique la musique de France Nique la musique de France</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Attention, attention Ceci nest pas une leçon d'morale Je parle comme je me parle à moi-même Vous voulez savoir cque jai à dire aux gosses ? Hein ? Écoutez vos parents avant d'm'écouter à moi Est-ce que tu crois vraiment qu'y a qu'le fric qui compte ? Moi non, et pas qu'depuis qu'j'ai des patates sur le compte Tout ce qui monte doit redescendre, ne tenflamme pas ou on t'inonde Un plein d'essence et puis fire ! C'est un p'tit Monde On passe du dessus au dessous Dans mon périmètre y a pas qu'des déçus ou des fous On a tous une âme et une vie Aussi sûr qu'un coup de queue peut niquer plus d'une vie Tous un destin en commun mais chacun son avis Fais-toi une idée d'chacun ou répète ce qu'on t'a dit Appelle ça adultère ou polygamie Appelle ça abus d'herbe ou toxicomanie Les gens croient ce qu'ils voient ou ce qu'on leur a appris Espèce d'enfoiré tu peux me dire ce qu'on t'a dit ? x2 La vérité blesse, latmosphère est tendue Fais gaffe à ce que tu sèmes, tu l'récoltes au centuple Accroche-toi, t'y es presque, on a trop attendu Ça se passe dans la tête mais tu peux lavoir dans l'... You might also like Est-ce que je suis parfait ? Est-ce qu'il y a rien que je regrette ? Est-ce que le mal que jai fait n'est pas retombé sur ma tête ? Je ne suis pas un exemple, faut toujours que je répète Maintenant qu'j'ai tellement eu de chance, je comprends que tu m'détestes Je ne sais pas comment tu penses mais j'vais pas men faire Si tu m'en veux par ce que je fais, qu'est ce que tu voudrais faire ? On se prend la tête pour rien putain, tout l'temps qu'on perd Tu veux qu'on t'aide mais tu fais rien, eh, j'suis pas ton père Je ne peux pas vivre à la place dun autre, même si c'est mon frère Je ne veux pas non plus les places des autres, même si elles sont chères Je suis con ou cramé ou juste un incendiaire ? Je suis bon ou mauvais ou juste à la frontière ? Débonze ou crevé ? Nomade ou sédentaire ? T'as besoin dun rail dans l'nez ou juste de soins dentaires ? La vérité blesse, latmosphère est tendue Fais gaffe à ce que tu sèmes, tu l'récoltes au centuple Accroche-toi, t'y es presque, on a trop attendu Ça se passe dans la tête mais tu peux lavoir dans l'... C'est dur de faire et facile de parler Tu m'décris l'paradis comme si tu venais d'y aller Avec tout c'qu'on voit, on veut tout consommer Et ceux qui veulent le pouvoir, cest qu'ils veulent tout contrôler Est-ce qu'on vit dans la peur ? Et qu'on vive séparés Est-ce qu'il y a des erreurs qu'on n'peut pas réparer ? C'est comme quand ta voiture veut pas démarrer Il y a ceux qui t'poussent et ceux qui restent à se marrer Appelle à la rescousse ce sont ceux qui parlaient En quelques secousses, leur moral disparaît Chacun donne le nom qu'il veut à la même réalité Dis moi est-ce qu'on vit tous dans la même égalité ? T'as peut-être entendu qu'on lui avait dit qu'à ce qu'il paraît T'es p'têtre sûr à 100 mais ça reste à parier La vérité blesse, latmosphère est tendue Fais gaffe à ce que tu sèmes, tu l'récoltes au centuple Accroche-toi, t'y es presque, on a trop attendu Ça se passe dans la tête mais tu peux lavoir dans l'... Ne te tritures pas le cerveau jusqu'à perdre le sourire Viens au monde en criant, repars dans un soupir Rien nest définitif à part naître et mourir En trois minutes et quelques, est-ce qu'on a le temps de tout dire ? x2 La vérité blesse, latmosphère est tendue Fais gaffe à ce que tu sèmes, tu l'récoltes au centuple Accroche-toi, t'y es presque, on a trop attendu Ça se passe dans la tête mais tu peux lavoir dans l'... Tu m'dis Je sais, je sais, faut agir maintenant Et je vais, je vais, ça a niqué beaucoup de gens Faut se lever, se lever, la volonté et beaucoup de chance Si tes sur le coup, tente le tout pour le tout Paroles rédigées et expliquées par la communauté RapGenius France1</t>
+          <t>Attention, attention Ceci nest pas une leçon d'morale Je parle comme je me parle à moi-même Vous voulez savoir cque jai à dire aux gosses ? Hein ? Écoutez vos parents avant d'm'écouter à moi Est-ce que tu crois vraiment qu'y a qu'le fric qui compte ? Moi non, et pas qu'depuis qu'j'ai des patates sur le compte Tout ce qui monte doit redescendre, ne tenflamme pas ou on t'inonde Un plein d'essence et puis fire ! C'est un p'tit Monde On passe du dessus au dessous Dans mon périmètre y a pas qu'des déçus ou des fous On a tous une âme et une vie Aussi sûr qu'un coup de queue peut niquer plus d'une vie Tous un destin en commun mais chacun son avis Fais-toi une idée d'chacun ou répète ce qu'on t'a dit Appelle ça adultère ou polygamie Appelle ça abus d'herbe ou toxicomanie Les gens croient ce qu'ils voient ou ce qu'on leur a appris Espèce d'enfoiré tu peux me dire ce qu'on t'a dit ? x2 La vérité blesse, latmosphère est tendue Fais gaffe à ce que tu sèmes, tu l'récoltes au centuple Accroche-toi, t'y es presque, on a trop attendu Ça se passe dans la tête mais tu peux lavoir dans l'... Est-ce que je suis parfait ? Est-ce qu'il y a rien que je regrette ? Est-ce que le mal que jai fait n'est pas retombé sur ma tête ? Je ne suis pas un exemple, faut toujours que je répète Maintenant qu'j'ai tellement eu de chance, je comprends que tu m'détestes Je ne sais pas comment tu penses mais j'vais pas men faire Si tu m'en veux par ce que je fais, qu'est ce que tu voudrais faire ? On se prend la tête pour rien putain, tout l'temps qu'on perd Tu veux qu'on t'aide mais tu fais rien, eh, j'suis pas ton père Je ne peux pas vivre à la place dun autre, même si c'est mon frère Je ne veux pas non plus les places des autres, même si elles sont chères Je suis con ou cramé ou juste un incendiaire ? Je suis bon ou mauvais ou juste à la frontière ? Débonze ou crevé ? Nomade ou sédentaire ? T'as besoin dun rail dans l'nez ou juste de soins dentaires ? La vérité blesse, latmosphère est tendue Fais gaffe à ce que tu sèmes, tu l'récoltes au centuple Accroche-toi, t'y es presque, on a trop attendu Ça se passe dans la tête mais tu peux lavoir dans l'... C'est dur de faire et facile de parler Tu m'décris l'paradis comme si tu venais d'y aller Avec tout c'qu'on voit, on veut tout consommer Et ceux qui veulent le pouvoir, cest qu'ils veulent tout contrôler Est-ce qu'on vit dans la peur ? Et qu'on vive séparés Est-ce qu'il y a des erreurs qu'on n'peut pas réparer ? C'est comme quand ta voiture veut pas démarrer Il y a ceux qui t'poussent et ceux qui restent à se marrer Appelle à la rescousse ce sont ceux qui parlaient En quelques secousses, leur moral disparaît Chacun donne le nom qu'il veut à la même réalité Dis moi est-ce qu'on vit tous dans la même égalité ? T'as peut-être entendu qu'on lui avait dit qu'à ce qu'il paraît T'es p'têtre sûr à 100 mais ça reste à parier La vérité blesse, latmosphère est tendue Fais gaffe à ce que tu sèmes, tu l'récoltes au centuple Accroche-toi, t'y es presque, on a trop attendu Ça se passe dans la tête mais tu peux lavoir dans l'... Ne te tritures pas le cerveau jusqu'à perdre le sourire Viens au monde en criant, repars dans un soupir Rien nest définitif à part naître et mourir En trois minutes et quelques, est-ce qu'on a le temps de tout dire ? x2 La vérité blesse, latmosphère est tendue Fais gaffe à ce que tu sèmes, tu l'récoltes au centuple Accroche-toi, t'y es presque, on a trop attendu Ça se passe dans la tête mais tu peux lavoir dans l'... Tu m'dis Je sais, je sais, faut agir maintenant Et je vais, je vais, ça a niqué beaucoup de gens Faut se lever, se lever, la volonté et beaucoup de chance Si tes sur le coup, tente le tout pour le tout Paroles rédigées et expliquées par la communauté RapGenius France1</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Le commissaire veut s'mouver Il fume des gros joints en dansant dans son bureau Il est pété au JD Défoncé en sueur, sa femme l'appelle est lui dit Sa fille a découcher Il a les nerfs, il imagine qu'elle s'est fait piner de tous les côtés C'est sur toi qu'il va s'défouler Vu qu'il t'a sous la main Qu'est ce qu'il va se passer après ? Le procureur est déprimé Qu'est-ce qui est encore arrivé à cet enculé ? Il a la haine depuis que sa femme veut plus piner Il a vraiment les nerfs, vraiment les nerfs Il n'a qu'une envie, c'est se venger Et vu que tu es devant lui, c'est sur toi que ça va s'passer C'est du ferme que tu vas manger La morale de tout ça, c'est que... Il vaut mieux ne pas tomber Sur ces bâtards qui ont du pouvoir Autrement dit, sur des hauts placés mal lunésYou might also like</t>
+          <t>Le commissaire veut s'mouver Il fume des gros joints en dansant dans son bureau Il est pété au JD Défoncé en sueur, sa femme l'appelle est lui dit Sa fille a découcher Il a les nerfs, il imagine qu'elle s'est fait piner de tous les côtés C'est sur toi qu'il va s'défouler Vu qu'il t'a sous la main Qu'est ce qu'il va se passer après ? Le procureur est déprimé Qu'est-ce qui est encore arrivé à cet enculé ? Il a la haine depuis que sa femme veut plus piner Il a vraiment les nerfs, vraiment les nerfs Il n'a qu'une envie, c'est se venger Et vu que tu es devant lui, c'est sur toi que ça va s'passer C'est du ferme que tu vas manger La morale de tout ça, c'est que... Il vaut mieux ne pas tomber Sur ces bâtards qui ont du pouvoir Autrement dit, sur des hauts placés mal lunés</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Mais qui peut nous découper ? x2 On est allez trop loin dans ce jeu pour en restez là Qui veut testez la Fonk Fam On est allez trop loin dans ce jeu pour en restez là Prends ça au sérieux avant testez la Famille infâme Sat LArtificier Je veux pas prétendre te cribler de trou comme une passoire J'invite les Mc de mes 2 qui veulent ma peau à aller se rasseoir J'entre dans le vive tranche comme une lame de rasoir Explosive comme une putain balle dans le réservoir C'est dangereux Comme un colis qui fait tic-tac Insulte mon crew on te plie en 2 comme un clic-clac Merde Ta mal choisit ton soir pour me tester Personne va te pleurez c'est au mic que tu vas-y restez Panique à déplorer quand ma clique se déploie sur la scène Et comme avec les Neg' Faut que ça saigne Fuck le social je veux voir FF zoner De gratte-ciel représenter jusque dans nos sous-sols Freestyle agressif, notes sacrifiées J'emmerde la justice et rap au nom de ceux dont y faut se méfier FF Si tu passes après faut que tu représentes sur une garce comme au micro Croit pas qu'on plaisante You might also like Don Choa Salement abominable FF rentre dedans Marre de cette attente interminable J'ai pas 32 ans mais pas 18 non plus Tu veux la suite marché conclue Tant que tu veux tu me critique moi je t'aime moi non plus Le monde évolue si vite Chacun veux palper son due Mais si ça part en poursuite tu peux embrasser mon cul Chien de malin on va-ten laisser des cicatrices Elle est plus large que le vagin d'une actrice de XXX On crame nos petits sticks vite et quand une bombe passe T'entends kskskss sans stress Mon micro est une arme tellement belle Comme American express ne sortez pas sans elle ? Vous me reconnaissez c'est le petit gars sans gêne Mon rap c'est de la tendresse comme un doigt entre tes lèvres Miss essuie tout grand tes lèvres Of the Fuck skool Funk soon De la Skunk je roule d'une bonne coule On te soûle salopard gros con de bourge J'épargne personne Les apparences trompent comme ces putains qui ont l'air bonne de loin Espèce d'obsédés mon but principal c'est de faire d'autre CD Alors fait le maintenait Do it now Je shoot puis ciao Chiennes et chattes font Ouw puis Miaouw Le Rat Luciano FF 2000 Parler à cur ouvert j'aime le faire mdam FF c'est mon groupe tous mes frères d'âmes Je donne tout mon amour Sans qu'ils sachent avec eux jusqu'à la mort Quitte à ce qu'on se tue à la tâche Quand j'écris c'est profond comme ce que ma mère me dit On à faim donne l'alerte La plupart des jours son merdique Le son choc tous qui bougent Du moins ça en a l'air Demande au jeune public Ça ne va pas et tu le sais dès qu'on parle Donc n'attend rien de jolie venant de notre part En 2000 la machine FF repart Grâce à Dieu on est encore en vie Quand tu veux on en reparle Faut pas que tu tarde ni que tu down men On dit des choses par besoin amour ou par haine Et on nous casse ça motive La roue tourne et plus vite que ce qu'on ne le croit Mon petit en 2000 FF Est ce qu'il y a danger ? Donne l'alerte Menzo Y a de l'action dans l'air Faut sonnez l'alerte Fier de retrouver mon équipe de mercenaire A ceux qui croyaient en notre perte On relance la compète 2000 faut ramener un son qui pète Avant on l'a niqué Aujourd'hui faut qu'on la raquette Tout en restant vrai et honnête Sur terre nul ne gratte des Hassanettes On doit les mériter FF pour les nôtres Croit entendus des débilités donc note Quon ne baissera pas notre froc Devant l'adversité Message adressé ouais A nos adversaires Etes-vous prêt pour la victoire Verse ici c'est l'inverse D'autres cas nous intéressent Ne pensez pas nous terrasser Endurcis par la galère qu'on traverse Par les malheurs qui font qu'un proche nous délaisse Et qu'une guerre n'a pas délais Alors prévient les tiens Ouais de pas se mêler Les miens pourront déclencher ou non On nest pas méchant C'est la paix que nous voulons On est déjà allez trop loin La victoire se gagne aussi au poing Miens tiens même sans armes Prêt à se battre avec ses poings Qu'on laissera jamais Dans un putain coin Je sais pas qu'est-ce tu as A mal parlez de nous continue comme ça On s'occupe de tout En aucun cas on va lâcher ce qu'on a FF est allez trop loin pour en restez là Je sais pas qu'est-ce tu as A mal parlez de nous continue comme ça On s'occupe de tout En aucun cas on va lâcher ce qu'on a FF est allez trop loin Tous aux abris quadrillez la ville FF x2</t>
+          <t>Mais qui peut nous découper ? x2 On est allez trop loin dans ce jeu pour en restez là Qui veut testez la Fonk Fam On est allez trop loin dans ce jeu pour en restez là Prends ça au sérieux avant testez la Famille infâme Sat LArtificier Je veux pas prétendre te cribler de trou comme une passoire J'invite les Mc de mes 2 qui veulent ma peau à aller se rasseoir J'entre dans le vive tranche comme une lame de rasoir Explosive comme une putain balle dans le réservoir C'est dangereux Comme un colis qui fait tic-tac Insulte mon crew on te plie en 2 comme un clic-clac Merde Ta mal choisit ton soir pour me tester Personne va te pleurez c'est au mic que tu vas-y restez Panique à déplorer quand ma clique se déploie sur la scène Et comme avec les Neg' Faut que ça saigne Fuck le social je veux voir FF zoner De gratte-ciel représenter jusque dans nos sous-sols Freestyle agressif, notes sacrifiées J'emmerde la justice et rap au nom de ceux dont y faut se méfier FF Si tu passes après faut que tu représentes sur une garce comme au micro Croit pas qu'on plaisante Don Choa Salement abominable FF rentre dedans Marre de cette attente interminable J'ai pas 32 ans mais pas 18 non plus Tu veux la suite marché conclue Tant que tu veux tu me critique moi je t'aime moi non plus Le monde évolue si vite Chacun veux palper son due Mais si ça part en poursuite tu peux embrasser mon cul Chien de malin on va-ten laisser des cicatrices Elle est plus large que le vagin d'une actrice de XXX On crame nos petits sticks vite et quand une bombe passe T'entends kskskss sans stress Mon micro est une arme tellement belle Comme American express ne sortez pas sans elle ? Vous me reconnaissez c'est le petit gars sans gêne Mon rap c'est de la tendresse comme un doigt entre tes lèvres Miss essuie tout grand tes lèvres Of the Fuck skool Funk soon De la Skunk je roule d'une bonne coule On te soûle salopard gros con de bourge J'épargne personne Les apparences trompent comme ces putains qui ont l'air bonne de loin Espèce d'obsédés mon but principal c'est de faire d'autre CD Alors fait le maintenait Do it now Je shoot puis ciao Chiennes et chattes font Ouw puis Miaouw Le Rat Luciano FF 2000 Parler à cur ouvert j'aime le faire mdam FF c'est mon groupe tous mes frères d'âmes Je donne tout mon amour Sans qu'ils sachent avec eux jusqu'à la mort Quitte à ce qu'on se tue à la tâche Quand j'écris c'est profond comme ce que ma mère me dit On à faim donne l'alerte La plupart des jours son merdique Le son choc tous qui bougent Du moins ça en a l'air Demande au jeune public Ça ne va pas et tu le sais dès qu'on parle Donc n'attend rien de jolie venant de notre part En 2000 la machine FF repart Grâce à Dieu on est encore en vie Quand tu veux on en reparle Faut pas que tu tarde ni que tu down men On dit des choses par besoin amour ou par haine Et on nous casse ça motive La roue tourne et plus vite que ce qu'on ne le croit Mon petit en 2000 FF Est ce qu'il y a danger ? Donne l'alerte Menzo Y a de l'action dans l'air Faut sonnez l'alerte Fier de retrouver mon équipe de mercenaire A ceux qui croyaient en notre perte On relance la compète 2000 faut ramener un son qui pète Avant on l'a niqué Aujourd'hui faut qu'on la raquette Tout en restant vrai et honnête Sur terre nul ne gratte des Hassanettes On doit les mériter FF pour les nôtres Croit entendus des débilités donc note Quon ne baissera pas notre froc Devant l'adversité Message adressé ouais A nos adversaires Etes-vous prêt pour la victoire Verse ici c'est l'inverse D'autres cas nous intéressent Ne pensez pas nous terrasser Endurcis par la galère qu'on traverse Par les malheurs qui font qu'un proche nous délaisse Et qu'une guerre n'a pas délais Alors prévient les tiens Ouais de pas se mêler Les miens pourront déclencher ou non On nest pas méchant C'est la paix que nous voulons On est déjà allez trop loin La victoire se gagne aussi au poing Miens tiens même sans armes Prêt à se battre avec ses poings Qu'on laissera jamais Dans un putain coin Je sais pas qu'est-ce tu as A mal parlez de nous continue comme ça On s'occupe de tout En aucun cas on va lâcher ce qu'on a FF est allez trop loin pour en restez là Je sais pas qu'est-ce tu as A mal parlez de nous continue comme ça On s'occupe de tout En aucun cas on va lâcher ce qu'on a FF est allez trop loin Tous aux abris quadrillez la ville FF x2</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Premier sentiment qui vient, c'est bien qu'le monde est froid, l'amour de tes parents comblera l'effroi Peau contre peau, c'est le premier des filaments bleus filaments bleus, filaments bleus Leurs yeux t'accompagnent pendant tes premiers pas, tu t'souviendras d'leurs pupilles jusqu'au trépas Certainement après mais ça, on l'sait pas Ça s'poursuit dans la cour de récréation, on s'choisit les uns les autres révélation Qui crée l'action ? On en reparle après, on a vibré à fond Mais tu pressens déjà là qu'tout s'organise, on choisit sa place mais on s'formalise Chacun veut être le chef, l'âge veut qu'y ait rien d'musical à part les chaises Et on traine ensemble, on traine en bande On verra bien après c'qui crée l'entente Un ballon qui r'vient pas, ça désenchante Ça durera deux jours, t'es fâché pour la vie Et le monde tournera malgré ton avis Les flots sont tourmentés mais faut qu'tu navigues et qu'tu tiennes le navire Don't think about tomorrow You still believe your Hey, on grandit, on grandit, on perd des filaments bleus Les premières trahisons sont celles qui t'scient l'âme en deux On grandit, on grandit, y aura d'autres filaments bleus De vraies connexions, il t'en faudra finalement peu On grandit, on grandit, on perd des filaments bleus Les premières trahisons sont celles qui t'scient l'âme en deux On grandit, on grandit, y aura d'autres filaments bleus De vraies connexions, il t'en faudra finalement peu You might also like J'nous revois tellement à l'adolescence Prêts pour l'asile, feu dans tous les sens La bande à t'inquiète, ça parle de mixtapes et du prix d'la plaquette On voulait d'belles sapes pour séduire, p't-être devenir même amoureux Comme si c'était d'ça qu'elles tombaient amoureuses et pas d'un filament bleu Certains l'ont su avant d'autres, c'est p't-être qu'une histoire de maturité Mais c'est rare que la vie s'repasse en replay Y a des occasions qu'on trouve pas sur eBay Par la suite, si t'as d'la chance, tu rencontreras p't-être celle qui s'ra pas comme les autres Faudra sûrement qu'tu sois pas comme les autres et qu'tu résistes à son jeu Partout la crispation pleut Échange de regards, t'as pas fait connaissance, elle était si belle sur ce quai d'métro La timidité a niqué l'jet-pro, en amour, y a pas d'égalité des chances Si ça s'trouve, ce monde vous appartenait à vous deux Faut donner la chance à chacun des filaments bleus Don't think about tomorrow You still believe your Hey, on mûrit, on mûrit, on perd des filaments bleus Les dernières déceptions sont celles qui t'scient l'âme en deux On mûrit, on mûrit, y aura d'autres filaments bleus De vraies connexions, il t'en faudra finalement peu On mûrit, on mûrit, on perd des filaments bleus Les dernières déceptions sont celles qui t'scient l'âme en deux On mûrit, on mûrit, y aura d'autres filaments bleus De vraies connexions, il t'en faudra finalement peu Le temps est compté, celui qu'j'voulais devenir s'est un peu éloigné mais j'pourrais l'tenir J'ai noté tous les rêves que j'pouvais retenir, rappelle-toi que la vie est belle J'vois des filaments, j'oublie la rentabilité, les curs se métallisent par avidité On finit grave inhibés Solitaires, on veut trouver l'âme sur dans chaque nouvelle application 'cation, 'cation Y a moins d'implication, plus de choix, moins d'fois où l'cur palpite à fond Faut croire qu'on est vieux avant l'âge, qu'l'amour est un luxe qu'on n'parvient plus à s'accorder On pense à c'qu'on prend, pas ce qu'on peut apporter Mille fois j'me suis sabordé vu que j'avais le vice à ma portée Sur la piste de danse ,pantin désaccordé, sentiments factices et le désaccord naît À marcher sous la lune, j'voyais ombres cornées Un jour, on a fait connaissance, un jour, j'me suis redonné chance de découvrir ce que c'est Que de vivre en mieux Demain, p't-être qu'on créera le plus grand des filaments bleus Don't think about tomorrow You still believe your On vieillit, on vieillit, on est des filaments bleus Finies les illusions, plus rien n'te scie l'âme en deux On vieillit, on vieillit, on est des filaments bleus De vraies connexions, il en fallait finalement peu On vieillit, on vieillit, on est des filaments bleus Finies les illusions, plus rien n'te scie l'âme en deux On vieillit, on vieillit, on est des filaments bleus De vraies connexions, il en fallait finalement peu</t>
+          <t>Premier sentiment qui vient, c'est bien qu'le monde est froid, l'amour de tes parents comblera l'effroi Peau contre peau, c'est le premier des filaments bleus filaments bleus, filaments bleus Leurs yeux t'accompagnent pendant tes premiers pas, tu t'souviendras d'leurs pupilles jusqu'au trépas Certainement après mais ça, on l'sait pas Ça s'poursuit dans la cour de récréation, on s'choisit les uns les autres révélation Qui crée l'action ? On en reparle après, on a vibré à fond Mais tu pressens déjà là qu'tout s'organise, on choisit sa place mais on s'formalise Chacun veut être le chef, l'âge veut qu'y ait rien d'musical à part les chaises Et on traine ensemble, on traine en bande On verra bien après c'qui crée l'entente Un ballon qui r'vient pas, ça désenchante Ça durera deux jours, t'es fâché pour la vie Et le monde tournera malgré ton avis Les flots sont tourmentés mais faut qu'tu navigues et qu'tu tiennes le navire Don't think about tomorrow You still believe your Hey, on grandit, on grandit, on perd des filaments bleus Les premières trahisons sont celles qui t'scient l'âme en deux On grandit, on grandit, y aura d'autres filaments bleus De vraies connexions, il t'en faudra finalement peu On grandit, on grandit, on perd des filaments bleus Les premières trahisons sont celles qui t'scient l'âme en deux On grandit, on grandit, y aura d'autres filaments bleus De vraies connexions, il t'en faudra finalement peu J'nous revois tellement à l'adolescence Prêts pour l'asile, feu dans tous les sens La bande à t'inquiète, ça parle de mixtapes et du prix d'la plaquette On voulait d'belles sapes pour séduire, p't-être devenir même amoureux Comme si c'était d'ça qu'elles tombaient amoureuses et pas d'un filament bleu Certains l'ont su avant d'autres, c'est p't-être qu'une histoire de maturité Mais c'est rare que la vie s'repasse en replay Y a des occasions qu'on trouve pas sur eBay Par la suite, si t'as d'la chance, tu rencontreras p't-être celle qui s'ra pas comme les autres Faudra sûrement qu'tu sois pas comme les autres et qu'tu résistes à son jeu Partout la crispation pleut Échange de regards, t'as pas fait connaissance, elle était si belle sur ce quai d'métro La timidité a niqué l'jet-pro, en amour, y a pas d'égalité des chances Si ça s'trouve, ce monde vous appartenait à vous deux Faut donner la chance à chacun des filaments bleus Don't think about tomorrow You still believe your Hey, on mûrit, on mûrit, on perd des filaments bleus Les dernières déceptions sont celles qui t'scient l'âme en deux On mûrit, on mûrit, y aura d'autres filaments bleus De vraies connexions, il t'en faudra finalement peu On mûrit, on mûrit, on perd des filaments bleus Les dernières déceptions sont celles qui t'scient l'âme en deux On mûrit, on mûrit, y aura d'autres filaments bleus De vraies connexions, il t'en faudra finalement peu Le temps est compté, celui qu'j'voulais devenir s'est un peu éloigné mais j'pourrais l'tenir J'ai noté tous les rêves que j'pouvais retenir, rappelle-toi que la vie est belle J'vois des filaments, j'oublie la rentabilité, les curs se métallisent par avidité On finit grave inhibés Solitaires, on veut trouver l'âme sur dans chaque nouvelle application 'cation, 'cation Y a moins d'implication, plus de choix, moins d'fois où l'cur palpite à fond Faut croire qu'on est vieux avant l'âge, qu'l'amour est un luxe qu'on n'parvient plus à s'accorder On pense à c'qu'on prend, pas ce qu'on peut apporter Mille fois j'me suis sabordé vu que j'avais le vice à ma portée Sur la piste de danse ,pantin désaccordé, sentiments factices et le désaccord naît À marcher sous la lune, j'voyais ombres cornées Un jour, on a fait connaissance, un jour, j'me suis redonné chance de découvrir ce que c'est Que de vivre en mieux Demain, p't-être qu'on créera le plus grand des filaments bleus Don't think about tomorrow You still believe your On vieillit, on vieillit, on est des filaments bleus Finies les illusions, plus rien n'te scie l'âme en deux On vieillit, on vieillit, on est des filaments bleus De vraies connexions, il en fallait finalement peu On vieillit, on vieillit, on est des filaments bleus Finies les illusions, plus rien n'te scie l'âme en deux On vieillit, on vieillit, on est des filaments bleus De vraies connexions, il en fallait finalement peu</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Le Rat Luciano Ma putain de vie, c'est le quartier mais le quartier c'est pas la vie ESSE, n'oublie jamais c'est ton ennemi comme ton ami ESSE, on te respecte ou on te craint ou on t'aide ou on laisse Ou on te baise ou on te hait ou on t'aime Pour ce que tu es parce que tu pèse Et oui, ESSE, c'est le bonheur total ou le chaos comme dans Les Princes de la ville ESSE, ou tu bosses ou tu fraudes ou tu traques ou tu trinques ou tu es ou tu l'es pas Donc ou tu tiens ou tu craques ou tu crèves Le quartier c'est la jungle, ça vole tes rêves, c'est des vrais risques Ca rigole pas, ça donne le respect que tu mérites Nos lois remplacent leurs lois, la folie remplace l'amour Les balles remplacent les mots comme dans Boyz N the Hood C'est anti hamma, hostile panorama C'est tout le monde qui veut tes ronds, c'est l'esprit Tar la fama C'est la rébellion, une armée de lions Qui veut devenir millionnaire en attendant que le monde s'améliore On tient le coup avec la force et le courage Tous affamés d'euros, tous fous de rage On compte que sur Dieu, le sang et nos corro C'est zéro limite quand c'est vital On dévore la vie pendant que d'autres la rêvent en supportant l'inévitable C'est bonne oeuvre, violence aveugle, bonne voie, illégale manoeuvre Ca ferme jamais l'oeil, ça ferme jamais sa gueule Ca donne sa vie pour ses valeurs C'est habitué à se serrer la ceinture, c'est tenace face au malheur C'est des jours doux, des jours dramatiques Des histoires trop tristes pour des larmes Trop pour de la musique You might also like Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Sat l'Artificier Le quartier c'est des gosses qui savent tout trop tôt Vu qu'on t'y enseigne tout Des jeunes filles enceintes tôt, des frères derrière les barreaux C'est des pères qui se dérobent Des mères debout dès l'aube pour aller laver la merde chez les autres C'est ça la vie dans le quartier Oh mon Dieu des agression de passants Rap, drogue, sport comme passe-temps Vente de produits illicites et volés On sent la misère transpirer sur les murs, et les volets C'est des tags, des injures sur les murs, des cages d'escalier Des arrestations qui se déroulent en live sur le palier C'est des combats de dogs, de tox à la recherche d'une dose Des parents désespérés de leurs gosses Pour la plupart c'est pas tes amis mais que des potes C'est des pères de famille que l'on menotte sous les yeux de leur minotte C'est des coups de balance, des nuits au poste et aux urgences Un cercle vicieux de violence et de vengeance Des embrouilles bidons, des coups de parano Des menaces en l'air, des fringues et des flingues en affaire Des sales enfoirés, des mecs braves Des gens étranges, des gloires d'hier devenues des épaves C'est des trucs graves, des rixes, des rails, des fixs, des drames Des pauvres filles qui finissent dans des caves Du sang, des larmes, des vraies, des fausses Cartier Personne t'y fera de quartier, c'est ça la vie de quartier Le Rat Luciano A tous les quartiers du Sud, tous les quartiers du Nord Tous les quartiers de l'Est, tous les quartiers de l'Ouest Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Menzo Le quartier c'est le ghetto Don Choa Mais ce ghetto c'est pas Varsovie ESSE Menzo N'oublie jamais Don Choa On se sauve ou on perd sa vie, j'essaie Menzo Faut que je me lève Don Choa Et je me traîne Menzo Tant de traîtres Don Choa N'attends pas de trêve Menzo Prépare-toi à la guerre Don Choa C'est la même histoire depuis Adam et Eve Menzo Le renard perd ses poils Don Choa Mais pas le vice Menzo ESSE Don Choa Faudrait se barrer avec des millions d'euros Menzo Comme Jean-Marie MESSIER Don Choa Et c'est pour ça Menzo Que nos frères et nos soeurs Don Choa Etudient Menzo Dans leurs piaules Don Choa Et certains prennent dix piges Menzo Coupés du monde Don Choa Passent des diplômes en taule Menzo Pendant qu'd'autres dehors Don Choa N'ont qu'un carton pour s'abriter Menzo Là Don Choa Où les flics qui tuent Menzo Se font acquitter Don Choa Ce qu'ils appellent zones Menzo D'urbanisation prioritaires Don Choa En fait Menzo Ce sont des zones Don Choa D'impunité policières Menzo Et malgré tout ça Don Choa Y a pas de quartier sans gens qui sortent Menzo Qui s'engagent dans l'armée Don Choa Ou dans les forces de l'ordre Menzo Mais Don Choa Vont-ils calmer ces condés Menzo Qui insultent et qui cognent Don Choa La ségrégation on s'en rend compte Menzo Sur les bancs de l'école Don Choa Ça passe de la colle à la coke Menzo Et du couteau au colt Don Choa Ton pote peut être ton ennemi Menzo Et ton ennemi ton pote Sat Lourds secrets, tragédies, trahisons, décès Le Rat Luciano Le quartier à des raisons que ta raison ignore, ESSE Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang</t>
+          <t>Le Rat Luciano Ma putain de vie, c'est le quartier mais le quartier c'est pas la vie ESSE, n'oublie jamais c'est ton ennemi comme ton ami ESSE, on te respecte ou on te craint ou on t'aide ou on laisse Ou on te baise ou on te hait ou on t'aime Pour ce que tu es parce que tu pèse Et oui, ESSE, c'est le bonheur total ou le chaos comme dans Les Princes de la ville ESSE, ou tu bosses ou tu fraudes ou tu traques ou tu trinques ou tu es ou tu l'es pas Donc ou tu tiens ou tu craques ou tu crèves Le quartier c'est la jungle, ça vole tes rêves, c'est des vrais risques Ca rigole pas, ça donne le respect que tu mérites Nos lois remplacent leurs lois, la folie remplace l'amour Les balles remplacent les mots comme dans Boyz N the Hood C'est anti hamma, hostile panorama C'est tout le monde qui veut tes ronds, c'est l'esprit Tar la fama C'est la rébellion, une armée de lions Qui veut devenir millionnaire en attendant que le monde s'améliore On tient le coup avec la force et le courage Tous affamés d'euros, tous fous de rage On compte que sur Dieu, le sang et nos corro C'est zéro limite quand c'est vital On dévore la vie pendant que d'autres la rêvent en supportant l'inévitable C'est bonne oeuvre, violence aveugle, bonne voie, illégale manoeuvre Ca ferme jamais l'oeil, ça ferme jamais sa gueule Ca donne sa vie pour ses valeurs C'est habitué à se serrer la ceinture, c'est tenace face au malheur C'est des jours doux, des jours dramatiques Des histoires trop tristes pour des larmes Trop pour de la musique Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Sat l'Artificier Le quartier c'est des gosses qui savent tout trop tôt Vu qu'on t'y enseigne tout Des jeunes filles enceintes tôt, des frères derrière les barreaux C'est des pères qui se dérobent Des mères debout dès l'aube pour aller laver la merde chez les autres C'est ça la vie dans le quartier Oh mon Dieu des agression de passants Rap, drogue, sport comme passe-temps Vente de produits illicites et volés On sent la misère transpirer sur les murs, et les volets C'est des tags, des injures sur les murs, des cages d'escalier Des arrestations qui se déroulent en live sur le palier C'est des combats de dogs, de tox à la recherche d'une dose Des parents désespérés de leurs gosses Pour la plupart c'est pas tes amis mais que des potes C'est des pères de famille que l'on menotte sous les yeux de leur minotte C'est des coups de balance, des nuits au poste et aux urgences Un cercle vicieux de violence et de vengeance Des embrouilles bidons, des coups de parano Des menaces en l'air, des fringues et des flingues en affaire Des sales enfoirés, des mecs braves Des gens étranges, des gloires d'hier devenues des épaves C'est des trucs graves, des rixes, des rails, des fixs, des drames Des pauvres filles qui finissent dans des caves Du sang, des larmes, des vraies, des fausses Cartier Personne t'y fera de quartier, c'est ça la vie de quartier Le Rat Luciano A tous les quartiers du Sud, tous les quartiers du Nord Tous les quartiers de l'Est, tous les quartiers de l'Ouest Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Menzo Le quartier c'est le ghetto Don Choa Mais ce ghetto c'est pas Varsovie ESSE Menzo N'oublie jamais Don Choa On se sauve ou on perd sa vie, j'essaie Menzo Faut que je me lève Don Choa Et je me traîne Menzo Tant de traîtres Don Choa N'attends pas de trêve Menzo Prépare-toi à la guerre Don Choa C'est la même histoire depuis Adam et Eve Menzo Le renard perd ses poils Don Choa Mais pas le vice Menzo ESSE Don Choa Faudrait se barrer avec des millions d'euros Menzo Comme Jean-Marie MESSIER Don Choa Et c'est pour ça Menzo Que nos frères et nos soeurs Don Choa Etudient Menzo Dans leurs piaules Don Choa Et certains prennent dix piges Menzo Coupés du monde Don Choa Passent des diplômes en taule Menzo Pendant qu'd'autres dehors Don Choa N'ont qu'un carton pour s'abriter Menzo Là Don Choa Où les flics qui tuent Menzo Se font acquitter Don Choa Ce qu'ils appellent zones Menzo D'urbanisation prioritaires Don Choa En fait Menzo Ce sont des zones Don Choa D'impunité policières Menzo Et malgré tout ça Don Choa Y a pas de quartier sans gens qui sortent Menzo Qui s'engagent dans l'armée Don Choa Ou dans les forces de l'ordre Menzo Mais Don Choa Vont-ils calmer ces condés Menzo Qui insultent et qui cognent Don Choa La ségrégation on s'en rend compte Menzo Sur les bancs de l'école Don Choa Ça passe de la colle à la coke Menzo Et du couteau au colt Don Choa Ton pote peut être ton ennemi Menzo Et ton ennemi ton pote Sat Lourds secrets, tragédies, trahisons, décès Le Rat Luciano Le quartier à des raisons que ta raison ignore, ESSE Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Le Rat Luciano Ma putain de vie, c'est le quartier mais le quartier c'est pas la vie ESSE, n'oublie jamais c'est ton ennemi comme ton ami ESSE, on te respecte ou on te craint ou on t'aide ou on laisse Ou on te baise ou on te hait ou on t'aime Pour ce que tu es parce que tu pèse Et oui, ESSE, c'est le bonheur total ou le chaos comme dans Les Princes de la ville ESSE, ou tu bosses ou tu fraudes ou tu traques ou tu trinques ou tu es ou tu l'es pas Donc ou tu tiens ou tu craques ou tu crèves Le quartier c'est la jungle, ça vole tes rêves, c'est des vrais risques Ca rigole pas, ça donne le respect que tu mérites Nos lois remplacent leurs lois, la folie remplace l'amour Les balles remplacent les mots comme dans Boyz N the Hood C'est anti hamma, hostile panorama C'est tout le monde qui veut tes ronds, c'est l'esprit Tar la fama C'est la rébellion, une armée de lions Qui veut devenir millionnaire en attendant que le monde s'améliore On tient le coup avec la force et le courage Tous affamés d'euros, tous fous de rage On compte que sur Dieu, le sang et nos corro C'est zéro limite quand c'est vital On dévore la vie pendant que d'autres la rêvent en supportant l'inévitable C'est bonne oeuvre, violence aveugle, bonne voie, illégale manoeuvre Ca ferme jamais l'oeil, ça ferme jamais sa gueule Ca donne sa vie pour ses valeurs C'est habitué à se serrer la ceinture, c'est tenace face au malheur C'est des jours doux, des jours dramatiques Des histoires trop tristes pour des larmes Trop pour de la musique You might also like Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Sat l'Artificier Le quartier c'est des gosses qui savent tout trop tôt Vu qu'on t'y enseigne tout Des jeunes filles enceintes tôt, des frères derrière les barreaux C'est des pères qui se dérobent Des mères debout dès l'aube pour aller laver la merde chez les autres C'est ça la vie dans le quartier Oh mon Dieu des agression de passants Rap, drogue, sport comme passe-temps Vente de produits illicites et volés On sent la misère transpirer sur les murs, et les volets C'est des tags, des injures sur les murs, des cages d'escalier Des arrestations qui se déroulent en live sur le palier C'est des combats de dogs, de tox à la recherche d'une dose Des parents désespérés de leurs gosses Pour la plupart c'est pas tes amis mais que des potes C'est des pères de famille que l'on menotte sous les yeux de leur minotte C'est des coups de balance, des nuits au poste et aux urgences Un cercle vicieux de violence et de vengeance Des embrouilles bidons, des coups de parano Des menaces en l'air, des fringues et des flingues en affaire Des sales enfoirés, des mecs braves Des gens étranges, des gloires d'hier devenues des épaves C'est des trucs graves, des rixes, des rails, des fixs, des drames Des pauvres filles qui finissent dans des caves Du sang, des larmes, des vraies, des fausses Cartier Personne t'y fera de quartier, c'est ça la vie de quartier Le Rat Luciano A tous les quartiers du Sud, tous les quartiers du Nord Tous les quartiers de l'Est, tous les quartiers de l'Ouest Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Menzo Le quartier c'est le ghetto Don Choa Mais ce ghetto c'est pas Varsovie ESSE Menzo N'oublie jamais Don Choa On se sauve ou on perd sa vie, j'essaie Menzo Faut que je me lève Don Choa Et je me traîne Menzo Tant de traîtres Don Choa N'attends pas de trêve Menzo Prépare-toi à la guerre Don Choa C'est la même histoire depuis Adam et Eve Menzo Le renard perd ses poils Don Choa Mais pas le vice Menzo ESSE Don Choa Faudrait se barrer avec des millions d'euros Menzo Comme Jean-Marie MESSIER Don Choa Et c'est pour ça Menzo Que nos frères et nos soeurs Don Choa Etudient Menzo Dans leurs piaules Don Choa Et certains prennent dix piges Menzo Coupés du monde Don Choa Passent des diplômes en taule Menzo Pendant qu'd'autres dehors Don Choa N'ont qu'un carton pour s'abriter Menzo Là Don Choa Où les flics qui tuent Menzo Se font acquitter Don Choa Ce qu'ils appellent zones Menzo D'urbanisation prioritaires Don Choa En fait Menzo Ce sont des zones Don Choa D'impunité policières Menzo Et malgré tout ça Don Choa Y a pas de quartier sans gens qui sortent Menzo Qui s'engagent dans l'armée Don Choa Ou dans les forces de l'ordre Menzo Mais Don Choa Vont-ils calmer ces condés Menzo Qui insultent et qui cognent Don Choa La ségrégation on s'en rend compte Menzo Sur les bancs de l'école Don Choa Ça passe de la colle à la coke Menzo Et du couteau au colt Don Choa Ton pote peut être ton ennemi Menzo Et ton ennemi ton pote Sat Lourds secrets, tragédies, trahisons, décès Le Rat Luciano Le quartier à des raisons que ta raison ignore, ESSE Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang</t>
+          <t>Le Rat Luciano Ma putain de vie, c'est le quartier mais le quartier c'est pas la vie ESSE, n'oublie jamais c'est ton ennemi comme ton ami ESSE, on te respecte ou on te craint ou on t'aide ou on laisse Ou on te baise ou on te hait ou on t'aime Pour ce que tu es parce que tu pèse Et oui, ESSE, c'est le bonheur total ou le chaos comme dans Les Princes de la ville ESSE, ou tu bosses ou tu fraudes ou tu traques ou tu trinques ou tu es ou tu l'es pas Donc ou tu tiens ou tu craques ou tu crèves Le quartier c'est la jungle, ça vole tes rêves, c'est des vrais risques Ca rigole pas, ça donne le respect que tu mérites Nos lois remplacent leurs lois, la folie remplace l'amour Les balles remplacent les mots comme dans Boyz N the Hood C'est anti hamma, hostile panorama C'est tout le monde qui veut tes ronds, c'est l'esprit Tar la fama C'est la rébellion, une armée de lions Qui veut devenir millionnaire en attendant que le monde s'améliore On tient le coup avec la force et le courage Tous affamés d'euros, tous fous de rage On compte que sur Dieu, le sang et nos corro C'est zéro limite quand c'est vital On dévore la vie pendant que d'autres la rêvent en supportant l'inévitable C'est bonne oeuvre, violence aveugle, bonne voie, illégale manoeuvre Ca ferme jamais l'oeil, ça ferme jamais sa gueule Ca donne sa vie pour ses valeurs C'est habitué à se serrer la ceinture, c'est tenace face au malheur C'est des jours doux, des jours dramatiques Des histoires trop tristes pour des larmes Trop pour de la musique Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Sat l'Artificier Le quartier c'est des gosses qui savent tout trop tôt Vu qu'on t'y enseigne tout Des jeunes filles enceintes tôt, des frères derrière les barreaux C'est des pères qui se dérobent Des mères debout dès l'aube pour aller laver la merde chez les autres C'est ça la vie dans le quartier Oh mon Dieu des agression de passants Rap, drogue, sport comme passe-temps Vente de produits illicites et volés On sent la misère transpirer sur les murs, et les volets C'est des tags, des injures sur les murs, des cages d'escalier Des arrestations qui se déroulent en live sur le palier C'est des combats de dogs, de tox à la recherche d'une dose Des parents désespérés de leurs gosses Pour la plupart c'est pas tes amis mais que des potes C'est des pères de famille que l'on menotte sous les yeux de leur minotte C'est des coups de balance, des nuits au poste et aux urgences Un cercle vicieux de violence et de vengeance Des embrouilles bidons, des coups de parano Des menaces en l'air, des fringues et des flingues en affaire Des sales enfoirés, des mecs braves Des gens étranges, des gloires d'hier devenues des épaves C'est des trucs graves, des rixes, des rails, des fixs, des drames Des pauvres filles qui finissent dans des caves Du sang, des larmes, des vraies, des fausses Cartier Personne t'y fera de quartier, c'est ça la vie de quartier Le Rat Luciano A tous les quartiers du Sud, tous les quartiers du Nord Tous les quartiers de l'Est, tous les quartiers de l'Ouest Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Menzo Le quartier c'est le ghetto Don Choa Mais ce ghetto c'est pas Varsovie ESSE Menzo N'oublie jamais Don Choa On se sauve ou on perd sa vie, j'essaie Menzo Faut que je me lève Don Choa Et je me traîne Menzo Tant de traîtres Don Choa N'attends pas de trêve Menzo Prépare-toi à la guerre Don Choa C'est la même histoire depuis Adam et Eve Menzo Le renard perd ses poils Don Choa Mais pas le vice Menzo ESSE Don Choa Faudrait se barrer avec des millions d'euros Menzo Comme Jean-Marie MESSIER Don Choa Et c'est pour ça Menzo Que nos frères et nos soeurs Don Choa Etudient Menzo Dans leurs piaules Don Choa Et certains prennent dix piges Menzo Coupés du monde Don Choa Passent des diplômes en taule Menzo Pendant qu'd'autres dehors Don Choa N'ont qu'un carton pour s'abriter Menzo Là Don Choa Où les flics qui tuent Menzo Se font acquitter Don Choa Ce qu'ils appellent zones Menzo D'urbanisation prioritaires Don Choa En fait Menzo Ce sont des zones Don Choa D'impunité policières Menzo Et malgré tout ça Don Choa Y a pas de quartier sans gens qui sortent Menzo Qui s'engagent dans l'armée Don Choa Ou dans les forces de l'ordre Menzo Mais Don Choa Vont-ils calmer ces condés Menzo Qui insultent et qui cognent Don Choa La ségrégation on s'en rend compte Menzo Sur les bancs de l'école Don Choa Ça passe de la colle à la coke Menzo Et du couteau au colt Don Choa Ton pote peut être ton ennemi Menzo Et ton ennemi ton pote Sat Lourds secrets, tragédies, trahisons, décès Le Rat Luciano Le quartier à des raisons que ta raison ignore, ESSE Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>New combinaison, Ital session, sing My selecta, Imhotep Fais péter V'là du bon et du naturel, naturel Brr brr! Comme un sound-system, sound-system Tu peux consommer nos décibels, décibels Sans modération, on reste opérationnels, well À ceux qui fument et ceux qui fument pas, j'dédie mes vers Ne fais pas tourner ton herbe si elle est coupée au verre pilé Garde ton pollen mixé au henné Si t'arrives pas à t'arrêtr, essaie au moins de friner ta dépendance Moi j'cultive mon indépendance J'vais pas m'mettre à taper la blanche parce que ça fait tendance J'pose le cur et l'âme serrés, lames acérées À cause des grammes, trop des miens serrés, égarés Incarcérés derrière des barreaux pour des barreaux Menottés devant la daronne, le daron Amer est l'arôme, y a rien d'marrant, tu craches marron Tu perds la pêche, tu tournes en rond Malgré les drames, on retient le liquide lacrymal Sur l'bitume c'qui nous maintient c'est l'instinct animal C'est Kalif, j'fais plaisir comme un rajout d'fameux J'rappe pour les mecs naturels qui portent leurs bijoux d'famille Chez nous l'respect s'achète pas, il est mutuel Tous les mecs rêvent de toucher la rette-ba grâce à la mutuelle Hamdek, la coke te laisse épave si tu roules avec elle Sur l'visage de nos aînés, j'ai pu voir les séquelles Chez nous ça charcle au 22 long Rifle Où l'or du Rif les rend tous paranos comme Gollum dans Lord of Rings Les quartiers s'divisent en réseaux, la résine en barrettes Y a que la merde à l'horizon, la moitié finissent aux Baumettes You might also like V'là du bon et du naturel, naturel Brr brr! Comme un sound-system, sound-system Tu peux consommer nos décibels, décibels Sans modération, on reste opérationnels, well Derrière le mic et dans la vie j'suis tel quel, naturel et sincère On y arrivera par tous les moyens t'inquiète, la famille derrière Aucun repos, aidés par la force des khos en haut et ceux au dépôt Le temps est sombre, attention c'est chaud Drôle d'époque, heureusement Qu'la naturelle me déporte loin des tensions Marseille représente, Tony est d'la partie Paix à ceux qu'Sheitan appâte, à ceux en bas d'la pente et ceux partis Ceux dans l'décor, où tu vois qu'des mecs à cran J'te parle de l'envers du décor, pas celui qu'tu vois à l'écran Pose ta blanche, nous c'est au naturel qu'on s'met stone Génération 2000 c'est chaud, demande à Stone Voilà pourquoi on a c'ton L'herbe ou l'shit, fumer ou la vendre, j'préfère J'parle de chiffres XXX c'est ma démerde J'ramène le kif, Tonton sur un beat Sur Marseille jeunes consomment ma chronique, Shoot Star préserve Autant de matière dans la poche que dans l'sang Shit Squad, drogue tue leurs penchants XXX si ton grossiste est dans l'champ J'vais pour tout niquer, tes clients savent très bien que j'ai le street vécu, le vrai dans l'genre Stone Black, le cercle des douze grammes J'prends le droit de port comme le pushka, l'passeport Carré Rouge, gars Si c'est pour faire cinq-cinq, mec dégage XXX quand on télécharge XXX le chargeur La popo, la popo À Marseille Chacun détient son réseau La popo, la popo Oui tu connais Allez, donne-moi ça, mon grand Tu veux tirer une taffe ou deux, prends un ticket et fais la queue Je fume que la meilleure beuh, pas du shit qui pue le pneu Haineux, l'odeur de mon spliff te fait saigner le nez À la skunk j'suis parfumé, FF, fais fumer Défoncé à la sensimilia J'ai trouvé le dossier Clearstream dans le string de Cécilia Qu'est-ce qu'y a? Mon son un dérivé d'opium J'fais pousser mes lyrics sous des lampes à sodium J'viens piller la plantation, tu cherches des sensations Va plutôt jouer la salope sur l'Île de la Tentation Mauvaises fréquentations, recherché par la douane Jette ta came, on plane trop pour toi, Padawan Pas de poudre aux yeux et encore moins de poudre au nez J'suis drogué à l'oxygène, j'ai pas les poumons goudronnés On m'localise, sur moi les schmitts se focalisent Préviens les flics et faux caïds, j'ai pas de shit ni cocaïne J'suis pas un junkie accro qui s'alcoolise Ni de ces jeunes qui boivent et vomissent, ont les doigts qui jaunissent J'perds pas de temps, j'suis à deux-trente, faut pas qu'les fous m'approchent J'ai passé la sixième, ne confonds pas quand j'dis que j'roule à gauche J'suis speed comme Anelka, petit bouffon Toi t'es à terre comme Buffon, t'admires la finesse de ma panenka Naturel, pas pistonné, j'écris pas mes textes au bistouri Mes couplets sont pas siliconés V'là du bon et du naturel, naturel Brr brr! Comme un sound-system, sound-system Tu peux consommer nos décibels, décibels Sans modération, on reste opérationnels, well</t>
+          <t>New combinaison, Ital session, sing My selecta, Imhotep Fais péter V'là du bon et du naturel, naturel Brr brr! Comme un sound-system, sound-system Tu peux consommer nos décibels, décibels Sans modération, on reste opérationnels, well À ceux qui fument et ceux qui fument pas, j'dédie mes vers Ne fais pas tourner ton herbe si elle est coupée au verre pilé Garde ton pollen mixé au henné Si t'arrives pas à t'arrêtr, essaie au moins de friner ta dépendance Moi j'cultive mon indépendance J'vais pas m'mettre à taper la blanche parce que ça fait tendance J'pose le cur et l'âme serrés, lames acérées À cause des grammes, trop des miens serrés, égarés Incarcérés derrière des barreaux pour des barreaux Menottés devant la daronne, le daron Amer est l'arôme, y a rien d'marrant, tu craches marron Tu perds la pêche, tu tournes en rond Malgré les drames, on retient le liquide lacrymal Sur l'bitume c'qui nous maintient c'est l'instinct animal C'est Kalif, j'fais plaisir comme un rajout d'fameux J'rappe pour les mecs naturels qui portent leurs bijoux d'famille Chez nous l'respect s'achète pas, il est mutuel Tous les mecs rêvent de toucher la rette-ba grâce à la mutuelle Hamdek, la coke te laisse épave si tu roules avec elle Sur l'visage de nos aînés, j'ai pu voir les séquelles Chez nous ça charcle au 22 long Rifle Où l'or du Rif les rend tous paranos comme Gollum dans Lord of Rings Les quartiers s'divisent en réseaux, la résine en barrettes Y a que la merde à l'horizon, la moitié finissent aux Baumettes V'là du bon et du naturel, naturel Brr brr! Comme un sound-system, sound-system Tu peux consommer nos décibels, décibels Sans modération, on reste opérationnels, well Derrière le mic et dans la vie j'suis tel quel, naturel et sincère On y arrivera par tous les moyens t'inquiète, la famille derrière Aucun repos, aidés par la force des khos en haut et ceux au dépôt Le temps est sombre, attention c'est chaud Drôle d'époque, heureusement Qu'la naturelle me déporte loin des tensions Marseille représente, Tony est d'la partie Paix à ceux qu'Sheitan appâte, à ceux en bas d'la pente et ceux partis Ceux dans l'décor, où tu vois qu'des mecs à cran J'te parle de l'envers du décor, pas celui qu'tu vois à l'écran Pose ta blanche, nous c'est au naturel qu'on s'met stone Génération 2000 c'est chaud, demande à Stone Voilà pourquoi on a c'ton L'herbe ou l'shit, fumer ou la vendre, j'préfère J'parle de chiffres XXX c'est ma démerde J'ramène le kif, Tonton sur un beat Sur Marseille jeunes consomment ma chronique, Shoot Star préserve Autant de matière dans la poche que dans l'sang Shit Squad, drogue tue leurs penchants XXX si ton grossiste est dans l'champ J'vais pour tout niquer, tes clients savent très bien que j'ai le street vécu, le vrai dans l'genre Stone Black, le cercle des douze grammes J'prends le droit de port comme le pushka, l'passeport Carré Rouge, gars Si c'est pour faire cinq-cinq, mec dégage XXX quand on télécharge XXX le chargeur La popo, la popo À Marseille Chacun détient son réseau La popo, la popo Oui tu connais Allez, donne-moi ça, mon grand Tu veux tirer une taffe ou deux, prends un ticket et fais la queue Je fume que la meilleure beuh, pas du shit qui pue le pneu Haineux, l'odeur de mon spliff te fait saigner le nez À la skunk j'suis parfumé, FF, fais fumer Défoncé à la sensimilia J'ai trouvé le dossier Clearstream dans le string de Cécilia Qu'est-ce qu'y a? Mon son un dérivé d'opium J'fais pousser mes lyrics sous des lampes à sodium J'viens piller la plantation, tu cherches des sensations Va plutôt jouer la salope sur l'Île de la Tentation Mauvaises fréquentations, recherché par la douane Jette ta came, on plane trop pour toi, Padawan Pas de poudre aux yeux et encore moins de poudre au nez J'suis drogué à l'oxygène, j'ai pas les poumons goudronnés On m'localise, sur moi les schmitts se focalisent Préviens les flics et faux caïds, j'ai pas de shit ni cocaïne J'suis pas un junkie accro qui s'alcoolise Ni de ces jeunes qui boivent et vomissent, ont les doigts qui jaunissent J'perds pas de temps, j'suis à deux-trente, faut pas qu'les fous m'approchent J'ai passé la sixième, ne confonds pas quand j'dis que j'roule à gauche J'suis speed comme Anelka, petit bouffon Toi t'es à terre comme Buffon, t'admires la finesse de ma panenka Naturel, pas pistonné, j'écris pas mes textes au bistouri Mes couplets sont pas siliconés V'là du bon et du naturel, naturel Brr brr! Comme un sound-system, sound-system Tu peux consommer nos décibels, décibels Sans modération, on reste opérationnels, well</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Tailleur de diamants Il a façonné le monde à son image Maintenant les gens ont des têtes de diamant Le diamond cutter, le diamond cutter Ils ont des têtes d'animaux de diamant F.F, F.F Usain Bolt sur les turntables Sucker MC you can suck my balls Smooth criminal pour la free party Ici c'est Don Cho' et my man Djelahi Section Nique Tout in the area Équipé pour découper et pour la guérilla T'endors pas sur le funk criminel Tchik tchik D, tchik J, tchik Djel Gangsta Boogie, Gangsta Boogie 8 once again, back is the incredible listen to the bass here we go again mother fucker bass! how low can you go Gangsta Boogie, Gangsta Boogie 8 You might also like Ok, aguerri comme à l'époque des RDR, appelle-moi Djel Fonk Fam c'est mon groupe, one love à Fel Don Cho, Sat, Pone, Fafa, Luc' et Menzo Belsunce, c'est la base, mondial est le réseau Don Cho c'est le poto, old school vétéran Quand on mixe en club, ça pète comme à Téhéran Et j'fly, tête de beuh dans mon grinder L'eau a coulé depuis les graffitis dans l'under Je vis hip-hop, bouffe hip-hop, chie hip-hop Des good vibes qu'on partage avec les potes Black, white, sont les rythmes et les rimes à l'ancienne Clair et précis comme un Main sur le vinyle, chapeau sur la tête Cercle en soirée, j'te fais tourner sur la tête Old school dans l'esprit Boogie Down On lâchera pas les platines, demande à Get Down Jump, jump, jump Everybody jump kick that style, wicked, wild buck buck buck... booyakacha! happy face nigga never seen me smile Gangsta Boogie, Gangsta Boogie 8 Chaque fois que je kick, ça fait clic-clic paw J'représente M.A.R.S City Town Wicked Style, Fonky Fam J'ai le funk qu'il te faut j'ai le flow qui t'calme Oh! J'm'en vais niquer tous ces clones Waw! J'm'en vais brûler tous ces clowns J'rappe pas je crache des flammes Sat! Mama said knock you out Hit me! Gangsta Boogie, Gangsta Boogie 8</t>
+          <t>Tailleur de diamants Il a façonné le monde à son image Maintenant les gens ont des têtes de diamant Le diamond cutter, le diamond cutter Ils ont des têtes d'animaux de diamant F.F, F.F Usain Bolt sur les turntables Sucker MC you can suck my balls Smooth criminal pour la free party Ici c'est Don Cho' et my man Djelahi Section Nique Tout in the area Équipé pour découper et pour la guérilla T'endors pas sur le funk criminel Tchik tchik D, tchik J, tchik Djel Gangsta Boogie, Gangsta Boogie 8 once again, back is the incredible listen to the bass here we go again mother fucker bass! how low can you go Gangsta Boogie, Gangsta Boogie 8 Ok, aguerri comme à l'époque des RDR, appelle-moi Djel Fonk Fam c'est mon groupe, one love à Fel Don Cho, Sat, Pone, Fafa, Luc' et Menzo Belsunce, c'est la base, mondial est le réseau Don Cho c'est le poto, old school vétéran Quand on mixe en club, ça pète comme à Téhéran Et j'fly, tête de beuh dans mon grinder L'eau a coulé depuis les graffitis dans l'under Je vis hip-hop, bouffe hip-hop, chie hip-hop Des good vibes qu'on partage avec les potes Black, white, sont les rythmes et les rimes à l'ancienne Clair et précis comme un Main sur le vinyle, chapeau sur la tête Cercle en soirée, j'te fais tourner sur la tête Old school dans l'esprit Boogie Down On lâchera pas les platines, demande à Get Down Jump, jump, jump Everybody jump kick that style, wicked, wild buck buck buck... booyakacha! happy face nigga never seen me smile Gangsta Boogie, Gangsta Boogie 8 Chaque fois que je kick, ça fait clic-clic paw J'représente M.A.R.S City Town Wicked Style, Fonky Fam J'ai le funk qu'il te faut j'ai le flow qui t'calme Oh! J'm'en vais niquer tous ces clones Waw! J'm'en vais brûler tous ces clowns J'rappe pas je crache des flammes Sat! Mama said knock you out Hit me! Gangsta Boogie, Gangsta Boogie 8</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>T'écoutes mon Rap dans un hall avec un gros join d'shit, jyeah Tu sais que c'est chaud, t'attends le prochain freestyle Tu sèches l'école parce que t'as besoin d'vivre libre Vaut mieux décoller car les lendemains filent vite Quand j'cours après mon bus J'me dis qu'faut que j'reprenne le sport Mais j'devrais stopper la clope et mettre les deux pieds dehors Et la semaine dernière un d'mes reufs est mort Envie d'rester dans ma tanière, secoué d'pleurs énormes Hey, gros, comprends mon avis négatif face à l'humanité factice Leur vanité m'afflige, j'ai bâti mes tactiques et pratiquer la rime Fatigué d'la frime, des amitiés quasi léthargiques Animées par des mécanismes, j'ai besoin d'idéal Stolen times over years Summer sky in the city Winter's coming next But like in the spring and all the best Chante, chante, poupée ! Flyin' through the river, it's remind me all the fever J'me bats contre la guerre, j'me suis enrôlé Phaal Philly pacifiste, faut s'cramponner Le chemin du but final est une randonnée Quand j'aurais l'argent et un grand sommier je menvolerai Sans problème dans votre ciel, sans artifices Le temps volé est l'truc que ne voit pas l'iris Ma milice n'a pas d'limite, arrivistes Atypiques depuis qu'on participe On a l'Rap qui kiffe mais y'a du time qui glisse Ma famille vit sa vie, oui, moi, j'suis grave busy La nuit j'gribouille des phrases hybrides J'kiffe c'que j'fais, crois pas que j'broie du noir Le temps c'est de l'argent, j'gaspille pas pour en avoir plus tard You might also like Frère, attends, j'perds pas d'temps Dans les magouilles des gratteurs Quand ça m'enchante, j'prends la tangente Devant les mics ou les rappeurs Plus l'temps de m'associer, sinon 'vec des lutins de l'enfer Aider mes putains de grands frère et des stups en ma possession Les putes demandent ma profession, ces connes j'leur dis MC C'est comme ler-dea de sensi mais plus dans la prose et l'son Vois que j'perds pas une seconde, j'dois faire d'la thune d'ce don Dans l'sombre et avant de sombrer Froid, y'a pas plus qu'ce monde Pas l'temps pour la fête, dans leur rave-party, en douce, hier Un type est mort, piqué fort, tant de rêves partis en poussière J'ai pas d'montre par contre, j'vois qu'le temps passe vite J'suis la preuve que ça a saigné, comme une boite de Tampax vide Stolen times over years Summer sky in the city Winter's coming next But like in the spring and all the best Vas-y, chante ! Vas-y, chante ! Flyin' through the river, it's remind me all the fever J'ai perdu tellement de temps Avec des gens qui n'en valaient pas la peine Que j'ai appris à observer les travers de l'espèce humaine A mon avis, certains d'entre eux ne feront pas long feu Des manqueurs de respects Des faux bandits, des producteurs véreux Mais tu peux m'croire, j'ai passé l'éponge sur cette illusion Car quand un poto traverse le pare-brise Tu t'poses vite mille questions, ouais Et c'est la famille qui manque en premier A chaque fois qu'un proche disparaît Le disque s'arrête le temps d'pleurer Puis la vie reprend son cours bien vite, les années filent, tu sais Donc j'préfère chiller avec mes soss que mendier mon succès Mon crew s'déplace fait ses affaires tranquillement Parait qu'ce ness-bi rend fou mais, pour nous, ça sera différent Stolen times over years Summer sky in the city Winter's coming next But like in the spring and all the best Donne-leur ça, chérie ! Flyin' through the river, it's remind me all the fever Mais le temps passe, demain, j'sais pas c'que j'ferai Time to relax J'veux pas faire la gueule au réveil Quand les lumières de la ville s'éteignent Time is money so I save it Stolen times over years</t>
+          <t>T'écoutes mon Rap dans un hall avec un gros join d'shit, jyeah Tu sais que c'est chaud, t'attends le prochain freestyle Tu sèches l'école parce que t'as besoin d'vivre libre Vaut mieux décoller car les lendemains filent vite Quand j'cours après mon bus J'me dis qu'faut que j'reprenne le sport Mais j'devrais stopper la clope et mettre les deux pieds dehors Et la semaine dernière un d'mes reufs est mort Envie d'rester dans ma tanière, secoué d'pleurs énormes Hey, gros, comprends mon avis négatif face à l'humanité factice Leur vanité m'afflige, j'ai bâti mes tactiques et pratiquer la rime Fatigué d'la frime, des amitiés quasi léthargiques Animées par des mécanismes, j'ai besoin d'idéal Stolen times over years Summer sky in the city Winter's coming next But like in the spring and all the best Chante, chante, poupée ! Flyin' through the river, it's remind me all the fever J'me bats contre la guerre, j'me suis enrôlé Phaal Philly pacifiste, faut s'cramponner Le chemin du but final est une randonnée Quand j'aurais l'argent et un grand sommier je menvolerai Sans problème dans votre ciel, sans artifices Le temps volé est l'truc que ne voit pas l'iris Ma milice n'a pas d'limite, arrivistes Atypiques depuis qu'on participe On a l'Rap qui kiffe mais y'a du time qui glisse Ma famille vit sa vie, oui, moi, j'suis grave busy La nuit j'gribouille des phrases hybrides J'kiffe c'que j'fais, crois pas que j'broie du noir Le temps c'est de l'argent, j'gaspille pas pour en avoir plus tard Frère, attends, j'perds pas d'temps Dans les magouilles des gratteurs Quand ça m'enchante, j'prends la tangente Devant les mics ou les rappeurs Plus l'temps de m'associer, sinon 'vec des lutins de l'enfer Aider mes putains de grands frère et des stups en ma possession Les putes demandent ma profession, ces connes j'leur dis MC C'est comme ler-dea de sensi mais plus dans la prose et l'son Vois que j'perds pas une seconde, j'dois faire d'la thune d'ce don Dans l'sombre et avant de sombrer Froid, y'a pas plus qu'ce monde Pas l'temps pour la fête, dans leur rave-party, en douce, hier Un type est mort, piqué fort, tant de rêves partis en poussière J'ai pas d'montre par contre, j'vois qu'le temps passe vite J'suis la preuve que ça a saigné, comme une boite de Tampax vide Stolen times over years Summer sky in the city Winter's coming next But like in the spring and all the best Vas-y, chante ! Vas-y, chante ! Flyin' through the river, it's remind me all the fever J'ai perdu tellement de temps Avec des gens qui n'en valaient pas la peine Que j'ai appris à observer les travers de l'espèce humaine A mon avis, certains d'entre eux ne feront pas long feu Des manqueurs de respects Des faux bandits, des producteurs véreux Mais tu peux m'croire, j'ai passé l'éponge sur cette illusion Car quand un poto traverse le pare-brise Tu t'poses vite mille questions, ouais Et c'est la famille qui manque en premier A chaque fois qu'un proche disparaît Le disque s'arrête le temps d'pleurer Puis la vie reprend son cours bien vite, les années filent, tu sais Donc j'préfère chiller avec mes soss que mendier mon succès Mon crew s'déplace fait ses affaires tranquillement Parait qu'ce ness-bi rend fou mais, pour nous, ça sera différent Stolen times over years Summer sky in the city Winter's coming next But like in the spring and all the best Donne-leur ça, chérie ! Flyin' through the river, it's remind me all the fever Mais le temps passe, demain, j'sais pas c'que j'ferai Time to relax J'veux pas faire la gueule au réveil Quand les lumières de la ville s'éteignent Time is money so I save it Stolen times over years</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Marseille, han Skalp, yeah han, han Mister Don Choa han, han Han, han, Tony P han, han Okay, okay yeah, okay Vas-y Depuis tout jeune dans le game, du basket à la scène Les efforts sont les mêmes, la compète dans les veines Maillons fort de la chaine, le début de mon règne Le chemin de la gloire est long, parsemé de peines Tu vois la réussite tient à peu de chose 20 pour cent de volonté, de sacrifices à haute dose 20 pour cent de talent, 20 pour cent de chance 20 pour cent de capacités pour dead la concurrence Fais-toi plaisir gamin, ton destin est dans tes mains Dix pour cent de fun, on est jeune, on a soif de victoires On a du cur, on arrête pas Tony P, frérot, j'ai le buzz Et je m'installe tranquillement dans le rap Les derniers dix pour cent du boulot, c'est mon entourage Je garde la tête froide malgré les orages L'argent et le succès n'auront jamais mon âme I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah You might also like Okay, j'ai toujours cru à mon potentiel Mais dans une cage, difficile de déployer ses ailes Pour toucher le ciel, il m'a fallu de la bravoure Voilà à quoi ça sert les crocs, limer les barreaux qui t'entourent J'ai le parcours d'un jeune qui croit aux miracles Qu'à des éclairs dans les yeux depuis son coup de foudre pour le rap J'ai tout fait pour faire partie des meilleurs Et depuis la concurrence s'est noyé dans ma sueur J'fais mon beurre pour les tartines de ma famille C'est pour eux que dans le rap, j'suis le tsunami Je vis de mon hobby Et les jaloux ont le rire qu'a la couleur du maillot de Kobe File-moi la balle Tony, j'ai promis de dominer l'rap avec mes gimmicks Mes potes m'ont dit Vas-y fonce l'ami, crois-y à ton accent du midi. Et vois aujourd'hui où j'en suis I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown Faites place au ptit gars sans gêne L'anarchie dans les gênes J'ai l'haleine de la hyène Et la haine de l'alien De la lave dans les veines Majeur levé comme emblème quand j'me ramène T'entends Pull-up, pull-up come again. On m'a dit T'y arriveras pas, tu t'fais des films. Les clefs de la réussite, si j'les trouve pas, j'ferai les fils J'me débrouille man, every day I'm hustlin Money, money time, j'te baise, j'te baise sans vaseline C'pas le même jeu, ni les mêmes billets Toi c'est la CFA 2, moi, c'est la NBA J'marche sur des douilles Ils veulent voir d'quoi j'suis capable ? Moi j'veux qu'ils m'bouffent les couilles, donc j'les mets sur la table Putain d'instinct animal, j'fais pas l'truc à demi man J'ai la technique, le fair-play et le sourire de Zidane On tient mains sur nos guiboles Demande à Tony P's all On roule, on rode On roule, on rode Jusqu'au prochain épisode I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah Tony P, Sopra', Mister Don Choa FF, Psy 4 Yeah, yeah Skalpovich, Skalpovich Pour les clefs de la réussite frangin</t>
+          <t>Marseille, han Skalp, yeah han, han Mister Don Choa han, han Han, han, Tony P han, han Okay, okay yeah, okay Vas-y Depuis tout jeune dans le game, du basket à la scène Les efforts sont les mêmes, la compète dans les veines Maillons fort de la chaine, le début de mon règne Le chemin de la gloire est long, parsemé de peines Tu vois la réussite tient à peu de chose 20 pour cent de volonté, de sacrifices à haute dose 20 pour cent de talent, 20 pour cent de chance 20 pour cent de capacités pour dead la concurrence Fais-toi plaisir gamin, ton destin est dans tes mains Dix pour cent de fun, on est jeune, on a soif de victoires On a du cur, on arrête pas Tony P, frérot, j'ai le buzz Et je m'installe tranquillement dans le rap Les derniers dix pour cent du boulot, c'est mon entourage Je garde la tête froide malgré les orages L'argent et le succès n'auront jamais mon âme I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah Okay, j'ai toujours cru à mon potentiel Mais dans une cage, difficile de déployer ses ailes Pour toucher le ciel, il m'a fallu de la bravoure Voilà à quoi ça sert les crocs, limer les barreaux qui t'entourent J'ai le parcours d'un jeune qui croit aux miracles Qu'à des éclairs dans les yeux depuis son coup de foudre pour le rap J'ai tout fait pour faire partie des meilleurs Et depuis la concurrence s'est noyé dans ma sueur J'fais mon beurre pour les tartines de ma famille C'est pour eux que dans le rap, j'suis le tsunami Je vis de mon hobby Et les jaloux ont le rire qu'a la couleur du maillot de Kobe File-moi la balle Tony, j'ai promis de dominer l'rap avec mes gimmicks Mes potes m'ont dit Vas-y fonce l'ami, crois-y à ton accent du midi. Et vois aujourd'hui où j'en suis I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown Faites place au ptit gars sans gêne L'anarchie dans les gênes J'ai l'haleine de la hyène Et la haine de l'alien De la lave dans les veines Majeur levé comme emblème quand j'me ramène T'entends Pull-up, pull-up come again. On m'a dit T'y arriveras pas, tu t'fais des films. Les clefs de la réussite, si j'les trouve pas, j'ferai les fils J'me débrouille man, every day I'm hustlin Money, money time, j'te baise, j'te baise sans vaseline C'pas le même jeu, ni les mêmes billets Toi c'est la CFA 2, moi, c'est la NBA J'marche sur des douilles Ils veulent voir d'quoi j'suis capable ? Moi j'veux qu'ils m'bouffent les couilles, donc j'les mets sur la table Putain d'instinct animal, j'fais pas l'truc à demi man J'ai la technique, le fair-play et le sourire de Zidane On tient mains sur nos guiboles Demande à Tony P's all On roule, on rode On roule, on rode Jusqu'au prochain épisode I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah Tony P, Sopra', Mister Don Choa FF, Psy 4 Yeah, yeah Skalpovich, Skalpovich Pour les clefs de la réussite frangin</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Hey..Hey...Hey...Uh...Hey...Hey...Hey Kimfu production Laissez tomber les mecs, le sud reste reste le best Les putes testent mais restent à terre Je rap et j'suis un prestataire Toujours cool, toujours clean, j'ai le rap qui plaît à ton père Toulouse roule, Toulouse Lille, le sud est la base de la terre C'est le son des mecs frais, pas ceux des proxénètes hey Ceux qui sont propres et nets, qui ont la démerde dans les gènes hey J'suis pas conventionnel, j'ai le son ascensionnel J'ai le flow, j'ai le fond, le reste n'est que personnel Le but c'est d'être millionnaire, la musique reste secondaire Les études c'est ma peur primaire, ton oseille c'est ma serpillère hey C'est pour les mecs frais du Capitole à Sesquières De Marseille jusqu'à A.T.L, j'te parle comme à mon petit frère Le sud reste le best dans ce domaine tu n'as qu'à Le s-s-sud reste le best dans ce domaine tu n'as qu'a crier Le sud reste le best dans ce domaine tu n'as qu'à Le s-s-sud reste le best, le s-s-sud reste le best N'essaie même pas de le faire car le sud le fait mieux Lelelelelele fait mieux, lelelelelele fait mieux N'essaie même pas de le faire, n'essaie même pas de le faire N'essaie même pas de le faire, lelele sud le fait mieux You might also like C'est le son des dingues, gros quatre-quatre et rodéos Grosses frappes, grosses arnaques, grosses liasses pour les escrocs Gros cash, grosses biatchs, trop falchs mais qui ont trop les crocs Deux-trois packs, deux-trois jacks trop d'herbe et de hach dans le cerveau frérot Mon équipe veut voler haut, on joue pas le zéro-zéro On débarque, on te claque, on est barge, on t'éclate le nez comme un rail d'héro Les gars vous parlez trop et moi j'pense qu'aux euros Comme les kids illégaux, illicites tous les gros On fait du travail de pro Tu voudrais le faire mais le sud le fait mieux Fais pas trop le fier ou tu restes à terre, faut que t'évites la guerre, tu te fais vieux Tu comprends plus rien à ce jeu, on balaye ton rap poussiéreux On roule en tête faut que je te le répète, lelele sud le fait mieux J'viens du Sud brûlant, Sud puant, Sud bruyant Sud chaud bouillant Sud brûlant, Sud puant, Sud bruyant Sud chaud bouillant Sud brûlant, Sud puant, Sud bruyant Sud chaud bouillant Sûr qu't'es dans l'Sud, les gens suent dans ma zone de turbulences N'essaie même pas de le faire car le sud le fait mieux Lelelelelele fait mieux, lelelelelele fait mieux N'essaie même pas de le faire, n'essaie même pas de le faire N'essaie même pas de le faire, lelele sud le fait mieux C'est avec Billy Bats et Don Choa, qu' Sopra'mbaba prend le mic pour représenter le sud Des phrases en rafale pour les mecs qui ont la dalle et qui ne baissent pas leur fut J'en ai marre de t'entendre dire que tu es le b-b-b-best La laisse que t'as au cou, tout le monde sait qu'elle porte mon adresse Je te baise toi qui croyait que le sud-est et l'ouest ne savaient rapper que des SOS écoute mes prouesses J'entends Halla tourner en boucle dans toutes les caisses Envoie même du reggae j'te prouve aussi que j'y suis à l'aise Ha Ha Ha C'est bien Soprano la pleureuse Qui était parti voir un Psy pour pouvoir être heureuse Ha Ha Ha Il est à la bien sur du funk, sur un piano ou du crunk T'as l'impression de voir un dunk Houuuuu T'es vite ridiculisé quand mes rimes aiguisées glissent où tu sais Sopra'mbaba encore plus fâché depuis qu'Hitler a pris l'Élysée Misez sur notre accent ou hissez vite le drapeau blanc Car le rap du sud vient coloniser ! N'essaie même pas de le faire car le sud le fait mieux Lelelelelele fait mieux, lelelelelele fait mieux N'essaie même pas de le faire, n'essaie même pas de le faire N'essaie même pas de le faire, lelele sud le fait mieux N'essaie même pas de le faire car le sud le fait mieux Lelelelelele fait mieux, lelelelelele fait mieux N'essaie même pas de le faire, n'essaie même pas de le faire N'essaie même pas de le faire, lelele sud le fait mieux</t>
+          <t>Hey..Hey...Hey...Uh...Hey...Hey...Hey Kimfu production Laissez tomber les mecs, le sud reste reste le best Les putes testent mais restent à terre Je rap et j'suis un prestataire Toujours cool, toujours clean, j'ai le rap qui plaît à ton père Toulouse roule, Toulouse Lille, le sud est la base de la terre C'est le son des mecs frais, pas ceux des proxénètes hey Ceux qui sont propres et nets, qui ont la démerde dans les gènes hey J'suis pas conventionnel, j'ai le son ascensionnel J'ai le flow, j'ai le fond, le reste n'est que personnel Le but c'est d'être millionnaire, la musique reste secondaire Les études c'est ma peur primaire, ton oseille c'est ma serpillère hey C'est pour les mecs frais du Capitole à Sesquières De Marseille jusqu'à A.T.L, j'te parle comme à mon petit frère Le sud reste le best dans ce domaine tu n'as qu'à Le s-s-sud reste le best dans ce domaine tu n'as qu'a crier Le sud reste le best dans ce domaine tu n'as qu'à Le s-s-sud reste le best, le s-s-sud reste le best N'essaie même pas de le faire car le sud le fait mieux Lelelelelele fait mieux, lelelelelele fait mieux N'essaie même pas de le faire, n'essaie même pas de le faire N'essaie même pas de le faire, lelele sud le fait mieux C'est le son des dingues, gros quatre-quatre et rodéos Grosses frappes, grosses arnaques, grosses liasses pour les escrocs Gros cash, grosses biatchs, trop falchs mais qui ont trop les crocs Deux-trois packs, deux-trois jacks trop d'herbe et de hach dans le cerveau frérot Mon équipe veut voler haut, on joue pas le zéro-zéro On débarque, on te claque, on est barge, on t'éclate le nez comme un rail d'héro Les gars vous parlez trop et moi j'pense qu'aux euros Comme les kids illégaux, illicites tous les gros On fait du travail de pro Tu voudrais le faire mais le sud le fait mieux Fais pas trop le fier ou tu restes à terre, faut que t'évites la guerre, tu te fais vieux Tu comprends plus rien à ce jeu, on balaye ton rap poussiéreux On roule en tête faut que je te le répète, lelele sud le fait mieux J'viens du Sud brûlant, Sud puant, Sud bruyant Sud chaud bouillant Sud brûlant, Sud puant, Sud bruyant Sud chaud bouillant Sud brûlant, Sud puant, Sud bruyant Sud chaud bouillant Sûr qu't'es dans l'Sud, les gens suent dans ma zone de turbulences N'essaie même pas de le faire car le sud le fait mieux Lelelelelele fait mieux, lelelelelele fait mieux N'essaie même pas de le faire, n'essaie même pas de le faire N'essaie même pas de le faire, lelele sud le fait mieux C'est avec Billy Bats et Don Choa, qu' Sopra'mbaba prend le mic pour représenter le sud Des phrases en rafale pour les mecs qui ont la dalle et qui ne baissent pas leur fut J'en ai marre de t'entendre dire que tu es le b-b-b-best La laisse que t'as au cou, tout le monde sait qu'elle porte mon adresse Je te baise toi qui croyait que le sud-est et l'ouest ne savaient rapper que des SOS écoute mes prouesses J'entends Halla tourner en boucle dans toutes les caisses Envoie même du reggae j'te prouve aussi que j'y suis à l'aise Ha Ha Ha C'est bien Soprano la pleureuse Qui était parti voir un Psy pour pouvoir être heureuse Ha Ha Ha Il est à la bien sur du funk, sur un piano ou du crunk T'as l'impression de voir un dunk Houuuuu T'es vite ridiculisé quand mes rimes aiguisées glissent où tu sais Sopra'mbaba encore plus fâché depuis qu'Hitler a pris l'Élysée Misez sur notre accent ou hissez vite le drapeau blanc Car le rap du sud vient coloniser ! N'essaie même pas de le faire car le sud le fait mieux Lelelelelele fait mieux, lelelelelele fait mieux N'essaie même pas de le faire, n'essaie même pas de le faire N'essaie même pas de le faire, lelele sud le fait mieux N'essaie même pas de le faire car le sud le fait mieux Lelelelelele fait mieux, lelelelelele fait mieux N'essaie même pas de le faire, n'essaie même pas de le faire N'essaie même pas de le faire, lelele sud le fait mieux</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Wesh wesh XXX c'est la dèche rien n'a changé On envahit les lieux avec des rimes qui créent une tuerie Wesh wesh XXX c'est la dèche rien n'a changé Pour ces MC, j'annonce une lyricale pénurie FF de Mars, Faf Larage, K-Rhyme Le Roi T'entends que Djel scratch au best Le mic j'l'arrache sec, c'est Don Choa Approche toi, clash, test, tu seras la poupée pour le crash test Mon groupe et Faf mec, K-Rhyme Le Roi on détourne les convois Ouvre des larges becs, faim de cash, je crache net, le rage que j'envoie Avec ma voix, et ma foi à chaque check Je tâche d'exceller, si je vexe, mes excuses enculé, tu ruses ? On dirait un con de flic zélé Pour les mecs de ton style mon assemblée de fêlés dit juste Niquez-les Mon cur devient sec, ex-gosse aussi féroce que rusé Je bosse avec l'envie d'avoir tout ce que la vie m'a refusé Comprends ou cherche, j'suis qu'un témoin pas muet Faut se remuer le derche, tu sais qu'on est pas les seuls à suer Hé mec, au mic j'suis là, on sait que j'suis là Sur une Ampex c'est ça quoi Je confirme ce que je dis, j'ai conçu ce que je suis, Le Roi Je guide ma conduite, y a pas de fuites sur le site de Mars Tu piges ? Le coach du Hip Hop dans la mêlée Faut s'en méfier, transpirer pour prospérer Dans les studios, mic en main, OK ? Play, fin prêt, t'es prêt ? Tout part de là, sur un rythme, une rime sur une feuille à plat Surtout dit pas n'importe quoi dans l'ensemble On ne sort pas de là où les MCs se ressemblent Flambent, tremblent sur des fringues minables Vas te faire pendre, je comprends pas, j'étais rien B'sahtik Maintenant que j'avance Khamsa fhaynik You might also like J'compte violer l'histoire à condition d'lui faire un enfant J'suis de l'école des enfoirés La vie c'est une fente faut lui fourrer au fond Yeah yeah une fente, un fion, une pute qui mérite qu'on se batte pour elle Plus rien ne me retient quand je représente les miens Au pluriel, et pour rien J'pourrais oublier ces endroits pourris, je l'affirme Maintenant la ferme mec, au nom de ma firme que les Faux aillent s'faire mettre On est tous comme l'infirme dans Usual Infâmes et fiers mec, ferme, je confirme des frères m'aiment Et si le truc est confus c'est ce qu'on préfère man Normal avec ce qu'on fume On sait ce qu'on peut faire et le mène jusqu'au bout Pour jamais regretter ce qu'on fût, à qui on se confie ? Ceux qui écoutent Ce qu'on fait, les mêmes qui nous suivent malgré ce qu'on fit Rien de neuf hormis narrer ce qu'on vit chez nous, mettre à l'écrit Ce qu'on voit, ce qu'on décrit C'est juste le monde tel qu'il est chez vous Conçois la haine des miens dans mes chants, la même dans mes chants Tu plonges ? J'suis de mèche Ce même besoin de vaincre se lit dans les yeux des méchants On fait notre truc même si c'est à l'arraché, ici c'est la FF, Le Roi et Larage Là Rat, j'le dis, laisses Sat, crois pas qu'on arrache L'ami, on n'est pas de ceux qui mentent, il nous faut ce qui monte Ceux qui nous en veulent, nique eux, chez nous la haine c'est pas ce qui manque C'est tout ce qu'on sait faire, parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère C'est tout ce qu'on sait faire Parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère À l'arrache, Larage, crois pas que le Duc stagne, invite des potos, style On s'en carre FF, Le Roi tu parles, il t'faut au moins ça, la race sur track C'est normal tu raques On parle gars fils, mais c'est dû à l'arraché Les pauv' taches, nous font chier Les gores du mic sont larges et fichés Ici c'est pas le Grand Wizard, le Grand Masta, le Gangsta, nan Juste Faf Larage Mista Mise la ganache fils, ta bourse, ta main au feu, que même en vrac on fait des heureux En guise de, heu de garanties, d'panache, d'exemple, si j'te dis que ce titre Fait au feeling file, j'me vante ? Nan Conforme aux Normes Marseillaises ouais mec Menzo l'est Tu me suis, ce qu'ils font mérite le respect, désolé Si tu croyais que j'allais rester sans rien dire ou me faire muscler Je lutte même si je me sens mal comme mes frères aux isolées Toute la langue avant que je t'la coupe M'la coule dur, va fencule si tu crois Le contraire, je veux que tu coules J'te jure dans ma bouche gras d'injures pour les putes et les p'tits cons Beaucoup d'amour pour mes amis, et y a pas de type comme Tony La vie amère comme la pomme, aussi triste qu'une journée d'automne Ça t'étonne un rap à l'arraché Accompagné d'un Nomade et de Faf Larage, dans ce monde de chienne Vaut mieux finir vieux et sage Mars, v'là l'addition</t>
+          <t>Wesh wesh XXX c'est la dèche rien n'a changé On envahit les lieux avec des rimes qui créent une tuerie Wesh wesh XXX c'est la dèche rien n'a changé Pour ces MC, j'annonce une lyricale pénurie FF de Mars, Faf Larage, K-Rhyme Le Roi T'entends que Djel scratch au best Le mic j'l'arrache sec, c'est Don Choa Approche toi, clash, test, tu seras la poupée pour le crash test Mon groupe et Faf mec, K-Rhyme Le Roi on détourne les convois Ouvre des larges becs, faim de cash, je crache net, le rage que j'envoie Avec ma voix, et ma foi à chaque check Je tâche d'exceller, si je vexe, mes excuses enculé, tu ruses ? On dirait un con de flic zélé Pour les mecs de ton style mon assemblée de fêlés dit juste Niquez-les Mon cur devient sec, ex-gosse aussi féroce que rusé Je bosse avec l'envie d'avoir tout ce que la vie m'a refusé Comprends ou cherche, j'suis qu'un témoin pas muet Faut se remuer le derche, tu sais qu'on est pas les seuls à suer Hé mec, au mic j'suis là, on sait que j'suis là Sur une Ampex c'est ça quoi Je confirme ce que je dis, j'ai conçu ce que je suis, Le Roi Je guide ma conduite, y a pas de fuites sur le site de Mars Tu piges ? Le coach du Hip Hop dans la mêlée Faut s'en méfier, transpirer pour prospérer Dans les studios, mic en main, OK ? Play, fin prêt, t'es prêt ? Tout part de là, sur un rythme, une rime sur une feuille à plat Surtout dit pas n'importe quoi dans l'ensemble On ne sort pas de là où les MCs se ressemblent Flambent, tremblent sur des fringues minables Vas te faire pendre, je comprends pas, j'étais rien B'sahtik Maintenant que j'avance Khamsa fhaynik J'compte violer l'histoire à condition d'lui faire un enfant J'suis de l'école des enfoirés La vie c'est une fente faut lui fourrer au fond Yeah yeah une fente, un fion, une pute qui mérite qu'on se batte pour elle Plus rien ne me retient quand je représente les miens Au pluriel, et pour rien J'pourrais oublier ces endroits pourris, je l'affirme Maintenant la ferme mec, au nom de ma firme que les Faux aillent s'faire mettre On est tous comme l'infirme dans Usual Infâmes et fiers mec, ferme, je confirme des frères m'aiment Et si le truc est confus c'est ce qu'on préfère man Normal avec ce qu'on fume On sait ce qu'on peut faire et le mène jusqu'au bout Pour jamais regretter ce qu'on fût, à qui on se confie ? Ceux qui écoutent Ce qu'on fait, les mêmes qui nous suivent malgré ce qu'on fit Rien de neuf hormis narrer ce qu'on vit chez nous, mettre à l'écrit Ce qu'on voit, ce qu'on décrit C'est juste le monde tel qu'il est chez vous Conçois la haine des miens dans mes chants, la même dans mes chants Tu plonges ? J'suis de mèche Ce même besoin de vaincre se lit dans les yeux des méchants On fait notre truc même si c'est à l'arraché, ici c'est la FF, Le Roi et Larage Là Rat, j'le dis, laisses Sat, crois pas qu'on arrache L'ami, on n'est pas de ceux qui mentent, il nous faut ce qui monte Ceux qui nous en veulent, nique eux, chez nous la haine c'est pas ce qui manque C'est tout ce qu'on sait faire, parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère C'est tout ce qu'on sait faire Parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère À l'arrache, Larage, crois pas que le Duc stagne, invite des potos, style On s'en carre FF, Le Roi tu parles, il t'faut au moins ça, la race sur track C'est normal tu raques On parle gars fils, mais c'est dû à l'arraché Les pauv' taches, nous font chier Les gores du mic sont larges et fichés Ici c'est pas le Grand Wizard, le Grand Masta, le Gangsta, nan Juste Faf Larage Mista Mise la ganache fils, ta bourse, ta main au feu, que même en vrac on fait des heureux En guise de, heu de garanties, d'panache, d'exemple, si j'te dis que ce titre Fait au feeling file, j'me vante ? Nan Conforme aux Normes Marseillaises ouais mec Menzo l'est Tu me suis, ce qu'ils font mérite le respect, désolé Si tu croyais que j'allais rester sans rien dire ou me faire muscler Je lutte même si je me sens mal comme mes frères aux isolées Toute la langue avant que je t'la coupe M'la coule dur, va fencule si tu crois Le contraire, je veux que tu coules J'te jure dans ma bouche gras d'injures pour les putes et les p'tits cons Beaucoup d'amour pour mes amis, et y a pas de type comme Tony La vie amère comme la pomme, aussi triste qu'une journée d'automne Ça t'étonne un rap à l'arraché Accompagné d'un Nomade et de Faf Larage, dans ce monde de chienne Vaut mieux finir vieux et sage Mars, v'là l'addition</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Au royaume du béton, l'espoir luit Si t'es curieux de Louïe, dors pas, prend soin d'lui Autour de moi ça sent mauvais Les lascars se battent Besoin d'organisation... Les jeunes du milieu, c'est la merde! Besoin d'organisation, soyons liés jusqu'en haut lieu.. Marseille, Toulouse FF, Kappa Double Delta.. Écoute.. Les balles filent comme des lasers Des frères foutus comme des bulldozers Se serrent dans les soirées 500 Celsius, tout le monde est Cassius Clay Les clés à mollette remplacent les gants Fracassent les têtes Serre les dents, t'es dans la fosse Ici les gosses démontent les boss Et mettent des bosses à coups de crosse Trop de bifs Les plus agressifs kiffent les canifs Ca gicle à coups de couteaux, finit dans le caniv' Au final, plus de festival, plus de salles Plus de son, plus de mic, plus de sono Plus de bals, plus de bons Où est l'organisation? où est le pur son? Où sont les vrais MC qui respectent ça comme une vraie passion? Puisque c'est la même musique, même pratique Même douleur, même couleur, même technique Même haine, même peine, même taille Autant partager la même bataille You might also like On vise l'organisation Pour la familia faut les millions Double D, FF au diapason Même s'il y a beaucoup de confusion On vise l'organisation Gazier, check ça ! Dans la chaleur de la nuit J'entends le bruit des rodéos Ici c'est pas qu'on s'ennuie Mais j'nous verrai bien en Ford Mondéo Mes potes et moi, des bières et du shit Tout le monde est haut et high, chaud, musique à fond Le monde est à nous, direction une soirée Pleine d'belles nanas classes, cannabis, whisky-ananas DJ, envoie du son qu'on fasse danser les miss! On s'installe dans la place, sans emmerder personne Pas comme ces caves qui font les macs Prennent des claques ensuite s'étonnent Cheh! T'prend pas pour Superman, sous alcool faut s'contrôler Y aura toujours quelqu'un pour te reprendre de volée Les temps sont durs, c'est pas nouveau et ça rend nerveux Y'a qu'au pied du mur qu'on voit les vrais durs, la rue c'est sérieux Chacun son couteau, mieux vaut être le boucher que la volaille C'est con mais, de nos jours, tout le monde veut jouer la racaille J'ai pas d'morale, j'sais juste qu'y a trop d'tension Marseille-Toulouse, l'organisation FF sur la ligne de front On vise l'organisation Pour la familia faut les millions Double D, FF au diapason Même s'il y a beaucoup de confusion On vise l'organisation Gazier, check ça ! Dans ce métier, faut pas se presser C'est les putes qui montent en premier L'oseille arrose d'abord les tasspé Qui baissent leurs frocs, baisent les phoques L'époque rage de sauvages, ne paie plus C'est les stocks de vice puant qui font tomber les écus Comme les bonnes cuvées de caves Faut en tirer de son vécu Le sens des coups donne l'expérience Pour les jeunes de la rue De la rue à la ruée vers l'or On joue avec les miradors Après la timinico, certains n'ont que le rap et le sport Carote, bébar de Barbès à Arnaud-Bernard Les jeunes tricards Le chômage a fait de nous des renards J'veux pas finir au tapis comme Bernard Mais comme lui les milliards Bluffer les snobs avec mon riz dans leur caviar Rêve réalisé, c'est ambition organisée On peut pas tout niquer Si le biz n'est pas contrôlé serré Ici, les junkies sont les dealers du passé Donc après réflexion, je vise l'organisation On vise l'organisation Pour la familia faut les millions Double D, FF au diapason Même s'il y a beaucoup de confusion On vise l'organisation Gazier, check ça ! On vient d'là où les gens ont la haine Séquences chocs, rien d'une vie d'rêve Mais on l'aime gonflée à bloc dés qu'on s'lève Quoi d'autre? Moment d'angoisse pure comme d'autres Dédié aux gens durs vivant menant vie dure Note! Ma dernière chance sera démentielle La faillite menace, violent verbalement Ça m'lasse jamais, hélas. En bref, on rit pas trop On rap et tu ris. Rien à foutre, FF de rue Fait du rap tuerie, on a rien de plus Que d'parler sans jouer les colosses Encore une chose l'ami C'est fini l'temps de Colors On est presque idem dealers jeunes Tous des caïds ! Range ton calibre Jeune, jette ta cocaïne! J'viens d'un monde différent Celui d'aujourd'hui, fier et errant On dit les mêmes choses Comme on s' conduit entre frères, ça choque Main dans la main, on s'démerde Les miens m'représentent, et qui j'représente ? D'après toi ? Merde ! Les mêmes jeunes, les mêmes coins de rue Pleins d'jeunes, froids et unis C'est pour les frères morts jeunes On vise l'organisation Pour la familia faut les millions Double D, FF au diapason Même s'il y a beaucoup de confusion On vise l'organisation Gazier, check ça ! FF double Delta Marseille-Toulouse C'est comme ça qu'ça s'fait En toute sincérité Pas d'histoire d'blé Check ça..</t>
+          <t>Au royaume du béton, l'espoir luit Si t'es curieux de Louïe, dors pas, prend soin d'lui Autour de moi ça sent mauvais Les lascars se battent Besoin d'organisation... Les jeunes du milieu, c'est la merde! Besoin d'organisation, soyons liés jusqu'en haut lieu.. Marseille, Toulouse FF, Kappa Double Delta.. Écoute.. Les balles filent comme des lasers Des frères foutus comme des bulldozers Se serrent dans les soirées 500 Celsius, tout le monde est Cassius Clay Les clés à mollette remplacent les gants Fracassent les têtes Serre les dents, t'es dans la fosse Ici les gosses démontent les boss Et mettent des bosses à coups de crosse Trop de bifs Les plus agressifs kiffent les canifs Ca gicle à coups de couteaux, finit dans le caniv' Au final, plus de festival, plus de salles Plus de son, plus de mic, plus de sono Plus de bals, plus de bons Où est l'organisation? où est le pur son? Où sont les vrais MC qui respectent ça comme une vraie passion? Puisque c'est la même musique, même pratique Même douleur, même couleur, même technique Même haine, même peine, même taille Autant partager la même bataille On vise l'organisation Pour la familia faut les millions Double D, FF au diapason Même s'il y a beaucoup de confusion On vise l'organisation Gazier, check ça ! Dans la chaleur de la nuit J'entends le bruit des rodéos Ici c'est pas qu'on s'ennuie Mais j'nous verrai bien en Ford Mondéo Mes potes et moi, des bières et du shit Tout le monde est haut et high, chaud, musique à fond Le monde est à nous, direction une soirée Pleine d'belles nanas classes, cannabis, whisky-ananas DJ, envoie du son qu'on fasse danser les miss! On s'installe dans la place, sans emmerder personne Pas comme ces caves qui font les macs Prennent des claques ensuite s'étonnent Cheh! T'prend pas pour Superman, sous alcool faut s'contrôler Y aura toujours quelqu'un pour te reprendre de volée Les temps sont durs, c'est pas nouveau et ça rend nerveux Y'a qu'au pied du mur qu'on voit les vrais durs, la rue c'est sérieux Chacun son couteau, mieux vaut être le boucher que la volaille C'est con mais, de nos jours, tout le monde veut jouer la racaille J'ai pas d'morale, j'sais juste qu'y a trop d'tension Marseille-Toulouse, l'organisation FF sur la ligne de front On vise l'organisation Pour la familia faut les millions Double D, FF au diapason Même s'il y a beaucoup de confusion On vise l'organisation Gazier, check ça ! Dans ce métier, faut pas se presser C'est les putes qui montent en premier L'oseille arrose d'abord les tasspé Qui baissent leurs frocs, baisent les phoques L'époque rage de sauvages, ne paie plus C'est les stocks de vice puant qui font tomber les écus Comme les bonnes cuvées de caves Faut en tirer de son vécu Le sens des coups donne l'expérience Pour les jeunes de la rue De la rue à la ruée vers l'or On joue avec les miradors Après la timinico, certains n'ont que le rap et le sport Carote, bébar de Barbès à Arnaud-Bernard Les jeunes tricards Le chômage a fait de nous des renards J'veux pas finir au tapis comme Bernard Mais comme lui les milliards Bluffer les snobs avec mon riz dans leur caviar Rêve réalisé, c'est ambition organisée On peut pas tout niquer Si le biz n'est pas contrôlé serré Ici, les junkies sont les dealers du passé Donc après réflexion, je vise l'organisation On vise l'organisation Pour la familia faut les millions Double D, FF au diapason Même s'il y a beaucoup de confusion On vise l'organisation Gazier, check ça ! On vient d'là où les gens ont la haine Séquences chocs, rien d'une vie d'rêve Mais on l'aime gonflée à bloc dés qu'on s'lève Quoi d'autre? Moment d'angoisse pure comme d'autres Dédié aux gens durs vivant menant vie dure Note! Ma dernière chance sera démentielle La faillite menace, violent verbalement Ça m'lasse jamais, hélas. En bref, on rit pas trop On rap et tu ris. Rien à foutre, FF de rue Fait du rap tuerie, on a rien de plus Que d'parler sans jouer les colosses Encore une chose l'ami C'est fini l'temps de Colors On est presque idem dealers jeunes Tous des caïds ! Range ton calibre Jeune, jette ta cocaïne! J'viens d'un monde différent Celui d'aujourd'hui, fier et errant On dit les mêmes choses Comme on s' conduit entre frères, ça choque Main dans la main, on s'démerde Les miens m'représentent, et qui j'représente ? D'après toi ? Merde ! Les mêmes jeunes, les mêmes coins de rue Pleins d'jeunes, froids et unis C'est pour les frères morts jeunes On vise l'organisation Pour la familia faut les millions Double D, FF au diapason Même s'il y a beaucoup de confusion On vise l'organisation Gazier, check ça ! FF double Delta Marseille-Toulouse C'est comme ça qu'ça s'fait En toute sincérité Pas d'histoire d'blé Check ça..</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po Po-po-po-po-po La-la-la-la-la X X un bedo dans les pogos Une soirée a l'hosto Les loubards sortent et foutent la merde Tout les soirs font l'plein d'essence J'peux pas gratter sans blinder l'sens Des putains de rimes qui m'foutent à terre C'est plus fort que moi faut que j'me perde? Que je retrouve mon innocence Des plus forts j'ai ressenti l'offence Il y a pas moyen que j'obtempère Je fais vivre le X dans tête Je travaille X Rare sont les loubards à la retraite Ne pas être coupable c'est ma quête Trop de coups bas, n'écoute pas les traîtres Je suis un punk saoule sans la crête Trop de dégoût du coup sert-moi des coups? Je suis fou dans ma tête You might also like Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po Po-po-po-po-po La-la-la-la-la X X un bedo dans les pogos Une soirée a l'hosto Couteau de boucher pour la froideur L'image est forte mais véridique Vérité de barge hérétique On court après le temps jusqu'à pas d'heure J'ai pas confiance en ces gratteurs Ouai les rappeurs parlent de broly? Discret, tranchant et poli Mon son c'est le bruit du sécateur Je veux m'étaler sur les draps X Grailler, brayer sur mes tracks Rapper, parler pour les braves Loulouloulou Papapapa Froid et flou comme un X Malibou tout, magie vaudou? Abracadabra Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po Po-po-po-po-po La-la-la-la-la X X un bedo dans les pogos Une soirée a l'hosto Po-po-po-po-po Matte ma marijuana Des gros mythos sous coco Bla-bla-bla-bla-bla Je vais rafaler comme un robot Ra-ta-ta-ta-ta-ta Envoie-leur la moto ??? Regarde moi sortir de sous terre Rouler à x X X Dans la vie tu gagne et tu perd Je vous X j'ai souffert On te laisse à terre le ventre ouvert X Vieux chirurgien sans diplôme De 10 kilos a 10 tonnes Je me rappelle pu où j'ai déjà vu ton cul Mais t'es pas Paris Hilton Les chiffrements , x Sous exta ils sont dans les Simpsons Tous des fous, Alzheimer, Parkinson Rendez vous à quelle heure place Wilson ? Po-po-po-po-po Matte ma marijuana Des gros mythos sous coco Bla-bla-bla-bla-bla Je vais rafaler comme un robot Ra-ta-ta-ta-ta-ta Envoie leurs la moto ???</t>
+          <t>Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po Po-po-po-po-po La-la-la-la-la X X un bedo dans les pogos Une soirée a l'hosto Les loubards sortent et foutent la merde Tout les soirs font l'plein d'essence J'peux pas gratter sans blinder l'sens Des putains de rimes qui m'foutent à terre C'est plus fort que moi faut que j'me perde? Que je retrouve mon innocence Des plus forts j'ai ressenti l'offence Il y a pas moyen que j'obtempère Je fais vivre le X dans tête Je travaille X Rare sont les loubards à la retraite Ne pas être coupable c'est ma quête Trop de coups bas, n'écoute pas les traîtres Je suis un punk saoule sans la crête Trop de dégoût du coup sert-moi des coups? Je suis fou dans ma tête Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po Po-po-po-po-po La-la-la-la-la X X un bedo dans les pogos Une soirée a l'hosto Couteau de boucher pour la froideur L'image est forte mais véridique Vérité de barge hérétique On court après le temps jusqu'à pas d'heure J'ai pas confiance en ces gratteurs Ouai les rappeurs parlent de broly? Discret, tranchant et poli Mon son c'est le bruit du sécateur Je veux m'étaler sur les draps X Grailler, brayer sur mes tracks Rapper, parler pour les braves Loulouloulou Papapapa Froid et flou comme un X Malibou tout, magie vaudou? Abracadabra Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po La-la-la-la-la Po-po-po-po-po Po-po-po-po-po La-la-la-la-la X X un bedo dans les pogos Une soirée a l'hosto Po-po-po-po-po Matte ma marijuana Des gros mythos sous coco Bla-bla-bla-bla-bla Je vais rafaler comme un robot Ra-ta-ta-ta-ta-ta Envoie-leur la moto ??? Regarde moi sortir de sous terre Rouler à x X X Dans la vie tu gagne et tu perd Je vous X j'ai souffert On te laisse à terre le ventre ouvert X Vieux chirurgien sans diplôme De 10 kilos a 10 tonnes Je me rappelle pu où j'ai déjà vu ton cul Mais t'es pas Paris Hilton Les chiffrements , x Sous exta ils sont dans les Simpsons Tous des fous, Alzheimer, Parkinson Rendez vous à quelle heure place Wilson ? Po-po-po-po-po Matte ma marijuana Des gros mythos sous coco Bla-bla-bla-bla-bla Je vais rafaler comme un robot Ra-ta-ta-ta-ta-ta Envoie leurs la moto ???</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Fils du dragon ! Nous avons des traditions très ancrées chez les dragons... Fils du dragon ! Ils ont une armée de tueurs sans scrupules et sur-entraînés... Fils du dragon ! J'ai entendu parlé d'un de leurs tueurs, le plus efficace... Fils du dragon ! Il s'appelle le Freeman... Fils du dragon ! C'est un tueur redoutable... Fils du dragon ! Son corps est entièrement recouvert d'un tatouage... Fils du dragon ! Représentant un dragon, mais c'est tout ce que je sais... Fils du dragon ! Ah, j'allais oublier, je viens d'apprendre que le Freeman est actuellement à Marseille... Fils du dragon ! L'École du Micro d'Argent Fils du dragon ! L'École du Micro d'Argent, C.O. Un nouveau guerrier de Marseille travaille ses poings sur la plaine Serein Que mon enveloppe charnelle et mon esprit ne doivent en faire qu'un Mes maîtres veillent à mon évolution Maniement du mic, hold-up mental dans le donjon L'illusion Le don dont je me sers dans mes vers Existe depuis des millénaires Chez les fils du dragon Le corps tatoué de la bête qui réside en moi Ma plume affutée, j'exécute mon premier contrat Mon aura s'agrandit, la cosmos énergie m'envahit Notre bannière brille comme une étoile dans la galaxie Que la rage me guide La bataille approche, je fais le vide Le dragon sort du lagon, fait surface, voilà l'intrépide Sur terre, ma vue s'éclaircit, efface mes soucis Mon peuple maudit, pour mon école et ma vie L'ex Malek Sultan est devenu un Freeman Plane Sur les gammes musicales Expression lyricale Joute verbale, cale Les mauvaises langues les fils du mal M'attaquent, le Graal La dalle de connaissance pousse Mon verset subliminal Prépare pleins d'coups Freeman ne rate jamais son coup You might also like Fils du dragon Représente lÉcole du Micro d'Argent Khéops veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Freeman veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Sentenza veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Shurik'n veille, Marseille et ses agents Nos règles sont très claires Nous ne devons pas intervenir sans raison Car nous avons une réputation à respecter. Freeman ne peut pas être atteint Au cur de la bataille Le micro flamboyant je taille cisaille Tranche dans le vif Ma troupe domine, je reste craintif Loin d'être passif Toujours à l'affût de l'imprévu, mon oreille siffle On parle de moi, mon adversaire K.O J'arrache son micro Comme trophée pour mon armée Lemblème levée C'est l'honneur qui m'a précédé J'ai rien cherché Un rocher au milieu d'une rivière sépare l'eau Juste un instant Et c'est ce moment que vous profitez pour vous faire les dents Idiots ! Croire qu'on s'endormirait sur nos lauriers Elle est pour vous cette avalanche de mots Que j'ai créée Et celui qui n'a pas cru en nous qu'il soit damné Car la marée de ton impertinence va les couler Je survole les plaines, les combats sont terminés L'Ecole du Micro d'Argent a triomphé avec si peu de guerriers On apparaît, tu disparais Comme la fumée d'une flamme qu'on ne peut contrôler Guerrier dans l'âme,béni par la chimane Mon corps brûle dévoué je serai à r entaille En sang man L'écrit n'attend pas, l'homme prie,temps gris Terre rouge, j'ai plus de flow, mon casque détruit Plan de bataille, tourner 360 pour punir, UN seul pour juger Poète, maître des lettres, guide mes versets Le cur pur, le côté obscur guide mes pensées Voyez le cercle s'accomplir Fuir Ne sert à rien mécréant Dans ton esprit carré t'entends Le dragon existe depuis l'aube des temps Pour tous les combattants c'est tentant Fils du dragon Représente lÉcole du Micro d'Argent Khéops veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Freeman veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Sentenza veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Shurik'n veille, Marseille et ses agents Nos règles sont très claires Nous ne devons pas intervenir sans raison Car nous avons une réputation à respecter. Freeman ne peut pas être atteint Neuf sept Représente lÉcole du Micro d'Argent Les mecs de rue veillent Marseille Mon clan Neuf sept Représente lÉcole du Micro d'Argent Les mecs de rue, mon clan</t>
+          <t>Fils du dragon ! Nous avons des traditions très ancrées chez les dragons... Fils du dragon ! Ils ont une armée de tueurs sans scrupules et sur-entraînés... Fils du dragon ! J'ai entendu parlé d'un de leurs tueurs, le plus efficace... Fils du dragon ! Il s'appelle le Freeman... Fils du dragon ! C'est un tueur redoutable... Fils du dragon ! Son corps est entièrement recouvert d'un tatouage... Fils du dragon ! Représentant un dragon, mais c'est tout ce que je sais... Fils du dragon ! Ah, j'allais oublier, je viens d'apprendre que le Freeman est actuellement à Marseille... Fils du dragon ! L'École du Micro d'Argent Fils du dragon ! L'École du Micro d'Argent, C.O. Un nouveau guerrier de Marseille travaille ses poings sur la plaine Serein Que mon enveloppe charnelle et mon esprit ne doivent en faire qu'un Mes maîtres veillent à mon évolution Maniement du mic, hold-up mental dans le donjon L'illusion Le don dont je me sers dans mes vers Existe depuis des millénaires Chez les fils du dragon Le corps tatoué de la bête qui réside en moi Ma plume affutée, j'exécute mon premier contrat Mon aura s'agrandit, la cosmos énergie m'envahit Notre bannière brille comme une étoile dans la galaxie Que la rage me guide La bataille approche, je fais le vide Le dragon sort du lagon, fait surface, voilà l'intrépide Sur terre, ma vue s'éclaircit, efface mes soucis Mon peuple maudit, pour mon école et ma vie L'ex Malek Sultan est devenu un Freeman Plane Sur les gammes musicales Expression lyricale Joute verbale, cale Les mauvaises langues les fils du mal M'attaquent, le Graal La dalle de connaissance pousse Mon verset subliminal Prépare pleins d'coups Freeman ne rate jamais son coup Fils du dragon Représente lÉcole du Micro d'Argent Khéops veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Freeman veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Sentenza veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Shurik'n veille, Marseille et ses agents Nos règles sont très claires Nous ne devons pas intervenir sans raison Car nous avons une réputation à respecter. Freeman ne peut pas être atteint Au cur de la bataille Le micro flamboyant je taille cisaille Tranche dans le vif Ma troupe domine, je reste craintif Loin d'être passif Toujours à l'affût de l'imprévu, mon oreille siffle On parle de moi, mon adversaire K.O J'arrache son micro Comme trophée pour mon armée Lemblème levée C'est l'honneur qui m'a précédé J'ai rien cherché Un rocher au milieu d'une rivière sépare l'eau Juste un instant Et c'est ce moment que vous profitez pour vous faire les dents Idiots ! Croire qu'on s'endormirait sur nos lauriers Elle est pour vous cette avalanche de mots Que j'ai créée Et celui qui n'a pas cru en nous qu'il soit damné Car la marée de ton impertinence va les couler Je survole les plaines, les combats sont terminés L'Ecole du Micro d'Argent a triomphé avec si peu de guerriers On apparaît, tu disparais Comme la fumée d'une flamme qu'on ne peut contrôler Guerrier dans l'âme,béni par la chimane Mon corps brûle dévoué je serai à r entaille En sang man L'écrit n'attend pas, l'homme prie,temps gris Terre rouge, j'ai plus de flow, mon casque détruit Plan de bataille, tourner 360 pour punir, UN seul pour juger Poète, maître des lettres, guide mes versets Le cur pur, le côté obscur guide mes pensées Voyez le cercle s'accomplir Fuir Ne sert à rien mécréant Dans ton esprit carré t'entends Le dragon existe depuis l'aube des temps Pour tous les combattants c'est tentant Fils du dragon Représente lÉcole du Micro d'Argent Khéops veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Freeman veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Sentenza veille, Marseille et ses agents Fils du dragon Représente lÉcole du Micro d'Argent Shurik'n veille, Marseille et ses agents Nos règles sont très claires Nous ne devons pas intervenir sans raison Car nous avons une réputation à respecter. Freeman ne peut pas être atteint Neuf sept Représente lÉcole du Micro d'Argent Les mecs de rue veillent Marseille Mon clan Neuf sept Représente lÉcole du Micro d'Argent Les mecs de rue, mon clan</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou You might also like On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise,</t>
+          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise, c'est aux armes, ci</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Le passé est mort mais c'est son fantôme qui nous poursuit Défoncé trop angoissé pour fermer l'il de la nuit La pression, les questions, les doutes, le stress La nostalgie, les regrets quand je pense à ma jeunesse D'abord j'ai rêvé puis j'ai vu, puis j'ai sué, j'y ai cru Puis j'ai fumé et j'ai bu puis qu'est-ce que j'ai fait? Je sais plus Des années gâchées, des occasions ratées Dans ma tête l'obsession de ne pas avoir fait ce qu'il fallait Des fois juste pas assez, des fois tellement nimporte quoi Jusqu'à perdre la confiance et l'estime de soi Peu à peu j'ai trouvé la foi, certain jour je l'ai perdue Aujourd'hui je regrette rien de plus que je ce que je n'ai plus En premier mes disparus, leurs souvenirs me hantent Et quand ils viennent dans mes rêves au réveil ils me manquent A travers moi, il faut qu'on voie que leur travail porte ses fruits Quand je m'autodétruis, c'est leur voix qui me dit Ne te tue pas. X5 Mais je tombe je sombre, il faut que je me relève Cloué au sol je sens doucement que je crève Dans cette vie qui me blesse, ces nuits qui m'achèvent Je suis à deux doigts du coma quand le jour se lève Pas une heure de trêve, je te l'ai dit c'est le stress Dans ma tête c'est l'argent, l'argent, les traîtres Je me sens con quand je pense qu'ils m'ont fait saigner le cur Des fois, j'aimerais leur pardonner Le plus souvent j'aimerais qu'ils meurent J'aimerais qu'ils pleurent, j'aimerais qu'ils souffrent Et toute cette haine me pousse vers le gouffre Faut que je me libère, il faut que je souffle Il faut que je respire, j'ai du mal, je m'étouffe Mon cerveau me joue des tours Je veux repousser mes limites Mais quand je vais trop loin, les miens me disent You might also like Ne te tue pas. X5 On est trop vrai pour tous ces bâtards Chérie trop vrai quand on rit ou quand on a le cafard Trop vrai au milieu de tous ces putains d'hypocrites Parce qu'on est trop vrai, on est trop souvent trop seul et trop triste Trop vrais c'est pas pour ça qu'on est trop naïf Trop vrai et ces enculés vont connaitre le tarif Tellement vrai que l'ambiance tourne à la haute tension Rien à foutre, vengeance c'est le nom de ma mission Trop vrai pour succomber à leurs confusions Trop vrai pour laisser tomber dans ce monde de compétition Trop vrai la rage me maintient en condition Trop vrai donc on se donne les moyens de nos ambitions Vise le meilleur si tu ne peux pas oublier le pire En vrai, je n'ai qu'une chose à te dire Ne te tue pas X51</t>
+          <t>Le passé est mort mais c'est son fantôme qui nous poursuit Défoncé trop angoissé pour fermer l'il de la nuit La pression, les questions, les doutes, le stress La nostalgie, les regrets quand je pense à ma jeunesse D'abord j'ai rêvé puis j'ai vu, puis j'ai sué, j'y ai cru Puis j'ai fumé et j'ai bu puis qu'est-ce que j'ai fait? Je sais plus Des années gâchées, des occasions ratées Dans ma tête l'obsession de ne pas avoir fait ce qu'il fallait Des fois juste pas assez, des fois tellement nimporte quoi Jusqu'à perdre la confiance et l'estime de soi Peu à peu j'ai trouvé la foi, certain jour je l'ai perdue Aujourd'hui je regrette rien de plus que je ce que je n'ai plus En premier mes disparus, leurs souvenirs me hantent Et quand ils viennent dans mes rêves au réveil ils me manquent A travers moi, il faut qu'on voie que leur travail porte ses fruits Quand je m'autodétruis, c'est leur voix qui me dit Ne te tue pas. X5 Mais je tombe je sombre, il faut que je me relève Cloué au sol je sens doucement que je crève Dans cette vie qui me blesse, ces nuits qui m'achèvent Je suis à deux doigts du coma quand le jour se lève Pas une heure de trêve, je te l'ai dit c'est le stress Dans ma tête c'est l'argent, l'argent, les traîtres Je me sens con quand je pense qu'ils m'ont fait saigner le cur Des fois, j'aimerais leur pardonner Le plus souvent j'aimerais qu'ils meurent J'aimerais qu'ils pleurent, j'aimerais qu'ils souffrent Et toute cette haine me pousse vers le gouffre Faut que je me libère, il faut que je souffle Il faut que je respire, j'ai du mal, je m'étouffe Mon cerveau me joue des tours Je veux repousser mes limites Mais quand je vais trop loin, les miens me disent Ne te tue pas. X5 On est trop vrai pour tous ces bâtards Chérie trop vrai quand on rit ou quand on a le cafard Trop vrai au milieu de tous ces putains d'hypocrites Parce qu'on est trop vrai, on est trop souvent trop seul et trop triste Trop vrais c'est pas pour ça qu'on est trop naïf Trop vrai et ces enculés vont connaitre le tarif Tellement vrai que l'ambiance tourne à la haute tension Rien à foutre, vengeance c'est le nom de ma mission Trop vrai pour succomber à leurs confusions Trop vrai pour laisser tomber dans ce monde de compétition Trop vrai la rage me maintient en condition Trop vrai donc on se donne les moyens de nos ambitions Vise le meilleur si tu ne peux pas oublier le pire En vrai, je n'ai qu'une chose à te dire Ne te tue pas X51</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Marié à la rue, dans la rue à Marseille Le micro marche, pas besoin de diplôme pour le prendre Mets la main sur un joint ça part en boum son Cous' bombe dessus, même déçu, bon sang Faut qu'tu sues, le boxon vient du Sud Pas sûr, alors suis, j'dois dire public merci Comment faire si on m'siffle ? J'm'imagine sur Bercy et j'persiste Le Rat manie le mic, l'ami Comme Many manie le flingue, dans les rues de Miami La nuit est gâtée, R.A.T va t'gâter mais pas feinter Si tu viens te la péter, beauté ça va s'gâter Mes potes peuvent te ganter, t'mainter Noqch. Le hip-hop marche et nous on s'torche Je n'suis pas un prince de galère, comme Bruce Cracheur de rimes dans une vie d'kelbouz ou d'kebouze Des fois jesbroufe encore à l'aluminium J'bouffe, j'bois, j'flambe, jour nuit mignonne De toute façon on reste natures dans c'dur métier F.F représente nique tout et plus d'pitié, présent pour piller F.F surprend à sec à froid Viens là il faut y croire à la furie à la foi F.F sur beat, c'est d'la fusillade comme dans Heat Rejoins-nous vite, F.F s'infiltre en France sans chercher le hit Les chacals fâchés fument le shit et vont haut Avec des rimes prennent du liquide et ciao You might also like On défend le hip-hop de rue avec furie On descend les faux et les intrus, c'est une tuerie Bouge mec, cherche pas c'qui cloche On représente nos proches avant d'penser à nos poches, gazier On défend le hip-hop de rue avec furie On descend les faux et les intrus, c'est une tuerie Bouge fille, cherche pas c'qui cloche Vas-y r'mue tes fesses, fais honneur à la F.F, beauté Sheitan motive ma génération, attention Furie et foi en mission, F.F de Mars' à travers la France On représente nos proches avant nos poches et ce à tout prix Faut qu'mon rap de rue crée la surprise dans c'putain d'pays Quel est le crime si ce n'est dire c'qu'on vit J'évince le faux avance et fout l'feu Faux, en garde ! Par amour section Fonk' Fam' Action font qu'fous, donc on nique tout, au mic sans coup d'kung fu Tu sais, j'viens pas pour défiler ni pour m'filer Mais si des mecs viennent nous défier on va pas s'défiler 9-7 , F.F débarque Coup d'cocktail explosif, lyrics corrosifs, la famille en furie S'bat pour le hip-hop, celui d'la rue J'fume, j'prends des cuites mais pour les hits j'donne pas mon cul Faut que le rap sauvage perce, j'y persévère sans cesse Pour que les truffes stressent, se taisent et disparaissent net Même combat de Paris à Marseille Rien à voir avec les embrouilles bidons, New-York L.A Si t'es down avec ça, vas-y lève ton bras Bébé lève ton bas je me le mets sur la tête on fait la nouba Au fait moi c'est Sat, j'rappe pour la Fonky Rien à voir avec ce putain de Simple et Funky J'ai été bercé à coups de Kool The Gang Je prétends pas être dans le rap depuis ma naissance, c'est dingue mais On défend le hip-hop de rue avec furie On descend les faux et les intrus, c'est une tuerie Bouge mec, cherche pas c'qui cloche On représente nos proches avant d'penser à nos poches, gazier On défend le hip-hop de rue avec furie On descend les faux et les intrus, c'est une tuerie Bouge fille, cherche pas c'qui cloche Vas-y r'mue tes fesses, fais honneur à la FF, beauté On défend les jeunes fiers et décidés Pas la peine d'être aidé la F.F se faufile, fonce pour accéder à la salle des coffres Effraction, dangereux son, chauds comme le sang Offre une belle récompense pour les services de mon clan Celui des rataclans, à qui je dédie mes mots Don Choa mon mic et mon manche sont ready la démo démarre On crie vengeance mais tient bien trop de monde à l'écart Regarde ces bourges en cabriolet, ma parole ils ont tout ces bâtards Qu'est-ce qu'il nous reste ? Même l'espoir se barre Il nous faudrait juste un peu de chance, merde, j'en ai marre de cette routine La misère et la déprime poussent au crime Les minots rêvent de la carrière de Jacques Mesrine FF de Mars' défend le hip-hop de rue avec furie Nique les intrus</t>
+          <t>Marié à la rue, dans la rue à Marseille Le micro marche, pas besoin de diplôme pour le prendre Mets la main sur un joint ça part en boum son Cous' bombe dessus, même déçu, bon sang Faut qu'tu sues, le boxon vient du Sud Pas sûr, alors suis, j'dois dire public merci Comment faire si on m'siffle ? J'm'imagine sur Bercy et j'persiste Le Rat manie le mic, l'ami Comme Many manie le flingue, dans les rues de Miami La nuit est gâtée, R.A.T va t'gâter mais pas feinter Si tu viens te la péter, beauté ça va s'gâter Mes potes peuvent te ganter, t'mainter Noqch. Le hip-hop marche et nous on s'torche Je n'suis pas un prince de galère, comme Bruce Cracheur de rimes dans une vie d'kelbouz ou d'kebouze Des fois jesbroufe encore à l'aluminium J'bouffe, j'bois, j'flambe, jour nuit mignonne De toute façon on reste natures dans c'dur métier F.F représente nique tout et plus d'pitié, présent pour piller F.F surprend à sec à froid Viens là il faut y croire à la furie à la foi F.F sur beat, c'est d'la fusillade comme dans Heat Rejoins-nous vite, F.F s'infiltre en France sans chercher le hit Les chacals fâchés fument le shit et vont haut Avec des rimes prennent du liquide et ciao On défend le hip-hop de rue avec furie On descend les faux et les intrus, c'est une tuerie Bouge mec, cherche pas c'qui cloche On représente nos proches avant d'penser à nos poches, gazier On défend le hip-hop de rue avec furie On descend les faux et les intrus, c'est une tuerie Bouge fille, cherche pas c'qui cloche Vas-y r'mue tes fesses, fais honneur à la F.F, beauté Sheitan motive ma génération, attention Furie et foi en mission, F.F de Mars' à travers la France On représente nos proches avant nos poches et ce à tout prix Faut qu'mon rap de rue crée la surprise dans c'putain d'pays Quel est le crime si ce n'est dire c'qu'on vit J'évince le faux avance et fout l'feu Faux, en garde ! Par amour section Fonk' Fam' Action font qu'fous, donc on nique tout, au mic sans coup d'kung fu Tu sais, j'viens pas pour défiler ni pour m'filer Mais si des mecs viennent nous défier on va pas s'défiler 9-7 , F.F débarque Coup d'cocktail explosif, lyrics corrosifs, la famille en furie S'bat pour le hip-hop, celui d'la rue J'fume, j'prends des cuites mais pour les hits j'donne pas mon cul Faut que le rap sauvage perce, j'y persévère sans cesse Pour que les truffes stressent, se taisent et disparaissent net Même combat de Paris à Marseille Rien à voir avec les embrouilles bidons, New-York L.A Si t'es down avec ça, vas-y lève ton bras Bébé lève ton bas je me le mets sur la tête on fait la nouba Au fait moi c'est Sat, j'rappe pour la Fonky Rien à voir avec ce putain de Simple et Funky J'ai été bercé à coups de Kool The Gang Je prétends pas être dans le rap depuis ma naissance, c'est dingue mais On défend le hip-hop de rue avec furie On descend les faux et les intrus, c'est une tuerie Bouge mec, cherche pas c'qui cloche On représente nos proches avant d'penser à nos poches, gazier On défend le hip-hop de rue avec furie On descend les faux et les intrus, c'est une tuerie Bouge fille, cherche pas c'qui cloche Vas-y r'mue tes fesses, fais honneur à la FF, beauté On défend les jeunes fiers et décidés Pas la peine d'être aidé la F.F se faufile, fonce pour accéder à la salle des coffres Effraction, dangereux son, chauds comme le sang Offre une belle récompense pour les services de mon clan Celui des rataclans, à qui je dédie mes mots Don Choa mon mic et mon manche sont ready la démo démarre On crie vengeance mais tient bien trop de monde à l'écart Regarde ces bourges en cabriolet, ma parole ils ont tout ces bâtards Qu'est-ce qu'il nous reste ? Même l'espoir se barre Il nous faudrait juste un peu de chance, merde, j'en ai marre de cette routine La misère et la déprime poussent au crime Les minots rêvent de la carrière de Jacques Mesrine FF de Mars' défend le hip-hop de rue avec furie Nique les intrus</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Les plus belles choses sont invisible à l'il nu Et seul un homme au cur pur pourra s'vanter d'les avoir vues En amitié, comme en amour, faut savoir donner sans rien jamais espérer avoir en retour On peut pas toujours dire qu'on savait pas Tant qu'on s' trouve, qu'on s'manque, qu'on tombe pas Le tout s'est de s'relever, histoire de pouvoir s'regarder dans un miroir Pour pas décevoir celle qui ta élevé Dis-toi qu'ton cas n'a rien d'unique, et qu'sans ma musique J'y serai perdu tel un amnésique Compte pas sur la chance, ça change de main Mais si tu t'résigne, c'est clair un autre viendra la saisir Fuck les travers, fuck les tourments Si tu savais combien d'faux frère m'attende au tournant Mais la vie est devant et non derrière Et sans l'renier le passé n'est qu'un fardeau dont on peut s'défaire On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour You might also like T'auras pas toujours ton dû Même si tu t'lèves et qu'tu bouges ton cul C'est ça la vie, c'est pas facile et nous non plus Qu'est-ce t'en conclu ? Appel à l'aide, personne répond plus Les plombs ont fondu, les oppresseurs font du zèle Bientôt tout brûle, seuls les oiseux ont des ailes Tourne pas autour du pot en diesel ou en turbo On avance, dis-toi, construire ça met du temps J'regarde, jécoute dans tous les sens Puis j'fais le tri en méditant Plus tu vis, plus tu apprends, y compris le bizness Aujourd'hui on est riche man, mais c'est une autre richesse Pas celle que tu arbores comme la monnaie et l'or C'est pas ça qui changera l'décor On vient pas remettre de l'ordre On a qu'un appétit énorme Encore plus faim qu'au début De toute façon on repartira nu comme on est venu Ici-bas les humains n'font qu'un court passage Laisse les critiquer, ils savent pas, c'est pas grave Ils savent pas par quoi on est passé Ils croient qu'on est fracassé Montrons qu'on est conscient, une route de plus a traversé C'est une lutte constante Car ils rendent le monde si dur Enlève nous l'micro on ira l'écrire sur les murs On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour Aujourd'hui on est des hommes, frérot Plus des gamins, c'est une nouvelle étape Vers des nouveau lendemain avant d'passer à la table de Dieu Montre-moi le chemin, tu m'as donné le rap Donc j'lève mes deux mains Les miens et moi, c'est le bonheur qu'on demande Dans ce monde on mettra plus à l'amende T'entend tout ceux qui s'lamentent On rêve tous d'une belle villa à la campagne Des jours heureux avec des enfants et sa compagne Pour y arriver, gars faut avoir la hargne Toujours se battre dans la vie et rien lâcher pour la gagne Le but c'est d'finir bruni brindille qu'avec FF Un jour on franchisse la dernière ligne Qu'on entraine avec nous frangins, frangines Qui se battent pour leur coutume et défendent leur origine La vie est éphémère, on y perd frère, père, mère, ça laisse un goût amer On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour L'aiguille tourne et on vieillit tous super vite Laisse-moi causer avant qu'tout se termine Laisse-moi qu'je bordélise, j'me fous d'ta super mine D'ta super vie et si j'ai rien à craindre à part celui qui supervise J'fais plus confiance J'suis à deux doigts d'perdre le contact avec ma conscience J'fais qu'flirter avec l'imprudence Car la vie c'est comme l'océan Tant qu'tu t'es pas noyé, t'ignores sa puissance Depuis qu'mes vrais ennemis se sont fait connaître J'marche à 1,2,3,4,5 barrettes chaque jour Cela s'répète sinon j'fais mieux qu'certain Moins bien qu'd'autres et j'cherche toujours à bien vivre D'une manière ou d'une autre J'suis devenu parano comme y dise, mais laissez-moi rêvez les yeux ouverts Car tôt ou tard, il me mettront sous terre Avec la vie qu'je mène j'irai pas loin Donc laissez-moi dire à ma mère que j'l'aime Plus que c'que j'm'aime J'aurais dû rester bien au chaud dans son ventre Car ici l'mal domine et l'bonheur on s'l'invente Wesh tu me suis, on s'plaint mais grâce à Dieu on a encore nos jambes Que la foi prenne racine dans la vie de nos gens Ici, les belles choses divisent charme et pucelette Ici c'est devenu dangereux d'être devenu quelqu'un d'honnête Ici les prétentieux narguent et méprisent l'autre Ici nos curs s'parle voilà pourquoi on est plus potes On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour</t>
+          <t>Les plus belles choses sont invisible à l'il nu Et seul un homme au cur pur pourra s'vanter d'les avoir vues En amitié, comme en amour, faut savoir donner sans rien jamais espérer avoir en retour On peut pas toujours dire qu'on savait pas Tant qu'on s' trouve, qu'on s'manque, qu'on tombe pas Le tout s'est de s'relever, histoire de pouvoir s'regarder dans un miroir Pour pas décevoir celle qui ta élevé Dis-toi qu'ton cas n'a rien d'unique, et qu'sans ma musique J'y serai perdu tel un amnésique Compte pas sur la chance, ça change de main Mais si tu t'résigne, c'est clair un autre viendra la saisir Fuck les travers, fuck les tourments Si tu savais combien d'faux frère m'attende au tournant Mais la vie est devant et non derrière Et sans l'renier le passé n'est qu'un fardeau dont on peut s'défaire On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour T'auras pas toujours ton dû Même si tu t'lèves et qu'tu bouges ton cul C'est ça la vie, c'est pas facile et nous non plus Qu'est-ce t'en conclu ? Appel à l'aide, personne répond plus Les plombs ont fondu, les oppresseurs font du zèle Bientôt tout brûle, seuls les oiseux ont des ailes Tourne pas autour du pot en diesel ou en turbo On avance, dis-toi, construire ça met du temps J'regarde, jécoute dans tous les sens Puis j'fais le tri en méditant Plus tu vis, plus tu apprends, y compris le bizness Aujourd'hui on est riche man, mais c'est une autre richesse Pas celle que tu arbores comme la monnaie et l'or C'est pas ça qui changera l'décor On vient pas remettre de l'ordre On a qu'un appétit énorme Encore plus faim qu'au début De toute façon on repartira nu comme on est venu Ici-bas les humains n'font qu'un court passage Laisse les critiquer, ils savent pas, c'est pas grave Ils savent pas par quoi on est passé Ils croient qu'on est fracassé Montrons qu'on est conscient, une route de plus a traversé C'est une lutte constante Car ils rendent le monde si dur Enlève nous l'micro on ira l'écrire sur les murs On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour Aujourd'hui on est des hommes, frérot Plus des gamins, c'est une nouvelle étape Vers des nouveau lendemain avant d'passer à la table de Dieu Montre-moi le chemin, tu m'as donné le rap Donc j'lève mes deux mains Les miens et moi, c'est le bonheur qu'on demande Dans ce monde on mettra plus à l'amende T'entend tout ceux qui s'lamentent On rêve tous d'une belle villa à la campagne Des jours heureux avec des enfants et sa compagne Pour y arriver, gars faut avoir la hargne Toujours se battre dans la vie et rien lâcher pour la gagne Le but c'est d'finir bruni brindille qu'avec FF Un jour on franchisse la dernière ligne Qu'on entraine avec nous frangins, frangines Qui se battent pour leur coutume et défendent leur origine La vie est éphémère, on y perd frère, père, mère, ça laisse un goût amer On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour L'aiguille tourne et on vieillit tous super vite Laisse-moi causer avant qu'tout se termine Laisse-moi qu'je bordélise, j'me fous d'ta super mine D'ta super vie et si j'ai rien à craindre à part celui qui supervise J'fais plus confiance J'suis à deux doigts d'perdre le contact avec ma conscience J'fais qu'flirter avec l'imprudence Car la vie c'est comme l'océan Tant qu'tu t'es pas noyé, t'ignores sa puissance Depuis qu'mes vrais ennemis se sont fait connaître J'marche à 1,2,3,4,5 barrettes chaque jour Cela s'répète sinon j'fais mieux qu'certain Moins bien qu'd'autres et j'cherche toujours à bien vivre D'une manière ou d'une autre J'suis devenu parano comme y dise, mais laissez-moi rêvez les yeux ouverts Car tôt ou tard, il me mettront sous terre Avec la vie qu'je mène j'irai pas loin Donc laissez-moi dire à ma mère que j'l'aime Plus que c'que j'm'aime J'aurais dû rester bien au chaud dans son ventre Car ici l'mal domine et l'bonheur on s'l'invente Wesh tu me suis, on s'plaint mais grâce à Dieu on a encore nos jambes Que la foi prenne racine dans la vie de nos gens Ici, les belles choses divisent charme et pucelette Ici c'est devenu dangereux d'être devenu quelqu'un d'honnête Ici les prétentieux narguent et méprisent l'autre Ici nos curs s'parle voilà pourquoi on est plus potes On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour On a plus ou moins d'risque à courir Plus ou moins d'bouche à nourrir Plus ou moins d'porte à ouvrir Mais il faut vire Si t'attend un justicier pour t'secourir Tu verras qu'les huissiers accourir Nouveau jour</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Tout pour le tout et ça passe ou ça casse Le pouls s'accélère, no stress, relax Goût du danger, besoin de cash Tout pour le tout, t'es sur le coup ? Si ça part en course poursuite, trace, mets les gaz Les jours passent vite, roule, fume, écrase Tousse et crache Grosse voiture, grande famille, parabole sur la toiture Immense villa, j'file dans la nature Voilà mes rêves immatures aux yeux d'certains Ils diraient plus ça s'ils m'voyaient rouler en 4x4 demain En fait, j'm'en fous tant qu'j'ai ma tête et mes corones J'dirais qu'vivre vaut l'coup, j'rappe pour ceux et celles qui se reconnaissent Entre routine et dangers imprévus Une fois les conneries faites, tu peux pas revenir au début Perdu dans c'monde ingrat, ces sombres impasses Tu cherches un pigeon bien gras ou de bonnes chiennes classes ? Nuit du chasseur, frissons, stress Rue poisseuse, saison sèche Tant qu'y'en a qui en veulent, y'en a qui en vendent Et, si tu t'sens seul, travaille en bande Ouvre grand ta gueule pour qu'on t'entende Une poussière dans l'il, une douleur dans l'ventre Le sol en feu, pauvres enfants Le Ciel en deuil, le monde en sang Chacun devant Dieu, tout le monde ensemble Nos meilleurs vux ? Tout l'monde s'en branle LÉtat nous veut sous sa dépendance Comme un troupeau d'bufs, attends la sentence C'qui compte pour eux le compte en banque Leurs ambiances joyeuses deviennent sanglantes Tu rentres dans l'jeu, fais pas semblant Chemin dangereux, démarre en pente Lieutenants nerveux et stups en planque Avocat véreux et tox en manque Si y'a d'l'enjeu, direct ça plante En moins de deux SAMU, urgences Y'en a qui meurent pendant qu'y en a qui dansent Si tu veux la sûreté, recherche la prudence De nos jours, à qui tu peux donner ta confiance ? Époque crapuleuse, chacun sa chance Tout a l'air hasardeux, rien n'est perdu d'avance La foi et la volonté inversent la tendance Vivre avec peu, qui s'en contente ? Vivre avec mieux ? L'occas' est tentante Mauvais choix, erreurs, faut bien qu'tu te plantes La faim peut changer la façon dont tu penses Tu t'vois l'arme à la main, les billets dans l'sac Ça sert plus à rien si t'es coincé dans l'sas On m'dit qu'j'suis gamin ou attardé mental J'arrive comme ce lycéen qui a tiré dans l'tas Rasseyez-vous, c'est pas l'heure de l'entracte J'passe en douceur, comme une lettre à l'antraxe Repars en chasse, m'arrêter n'y pense pas Plus rien m'retiens, on est un paquet dans c'cas Il faut lutter pour s'libérer d'ses entraves J'emmerde lÉlysée, le pouvoir central N'as-tu pas reniflé cette odeur de scandale ? C'est la même vieille danse de vandales, la machine s'emballe Même si on s'sent mal, faut aller gagner sa vie Une pensée pour ceux qui y laissent la leur Dans la chaleur de la nuit, tu peux tout ramener ou tout perdre Quand une porte est fermée, beaucoup d'autres sont ouvertes Les anciens ont souffert, laisse-les souffler Mets-toi à couvert, le shérif veut shooter T'as des larmes au souper et tu veux t'affranchir Donnes-moi la nourriture et laisses-moi grandirYou might also like</t>
+          <t>Tout pour le tout et ça passe ou ça casse Le pouls s'accélère, no stress, relax Goût du danger, besoin de cash Tout pour le tout, t'es sur le coup ? Si ça part en course poursuite, trace, mets les gaz Les jours passent vite, roule, fume, écrase Tousse et crache Grosse voiture, grande famille, parabole sur la toiture Immense villa, j'file dans la nature Voilà mes rêves immatures aux yeux d'certains Ils diraient plus ça s'ils m'voyaient rouler en 4x4 demain En fait, j'm'en fous tant qu'j'ai ma tête et mes corones J'dirais qu'vivre vaut l'coup, j'rappe pour ceux et celles qui se reconnaissent Entre routine et dangers imprévus Une fois les conneries faites, tu peux pas revenir au début Perdu dans c'monde ingrat, ces sombres impasses Tu cherches un pigeon bien gras ou de bonnes chiennes classes ? Nuit du chasseur, frissons, stress Rue poisseuse, saison sèche Tant qu'y'en a qui en veulent, y'en a qui en vendent Et, si tu t'sens seul, travaille en bande Ouvre grand ta gueule pour qu'on t'entende Une poussière dans l'il, une douleur dans l'ventre Le sol en feu, pauvres enfants Le Ciel en deuil, le monde en sang Chacun devant Dieu, tout le monde ensemble Nos meilleurs vux ? Tout l'monde s'en branle LÉtat nous veut sous sa dépendance Comme un troupeau d'bufs, attends la sentence C'qui compte pour eux le compte en banque Leurs ambiances joyeuses deviennent sanglantes Tu rentres dans l'jeu, fais pas semblant Chemin dangereux, démarre en pente Lieutenants nerveux et stups en planque Avocat véreux et tox en manque Si y'a d'l'enjeu, direct ça plante En moins de deux SAMU, urgences Y'en a qui meurent pendant qu'y en a qui dansent Si tu veux la sûreté, recherche la prudence De nos jours, à qui tu peux donner ta confiance ? Époque crapuleuse, chacun sa chance Tout a l'air hasardeux, rien n'est perdu d'avance La foi et la volonté inversent la tendance Vivre avec peu, qui s'en contente ? Vivre avec mieux ? L'occas' est tentante Mauvais choix, erreurs, faut bien qu'tu te plantes La faim peut changer la façon dont tu penses Tu t'vois l'arme à la main, les billets dans l'sac Ça sert plus à rien si t'es coincé dans l'sas On m'dit qu'j'suis gamin ou attardé mental J'arrive comme ce lycéen qui a tiré dans l'tas Rasseyez-vous, c'est pas l'heure de l'entracte J'passe en douceur, comme une lettre à l'antraxe Repars en chasse, m'arrêter n'y pense pas Plus rien m'retiens, on est un paquet dans c'cas Il faut lutter pour s'libérer d'ses entraves J'emmerde lÉlysée, le pouvoir central N'as-tu pas reniflé cette odeur de scandale ? C'est la même vieille danse de vandales, la machine s'emballe Même si on s'sent mal, faut aller gagner sa vie Une pensée pour ceux qui y laissent la leur Dans la chaleur de la nuit, tu peux tout ramener ou tout perdre Quand une porte est fermée, beaucoup d'autres sont ouvertes Les anciens ont souffert, laisse-les souffler Mets-toi à couvert, le shérif veut shooter T'as des larmes au souper et tu veux t'affranchir Donnes-moi la nourriture et laisses-moi grandir</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Refrain Costard cravate derrière ton bureau escroc C'est pas toi qui vis dans le ghetto La misère est devenue notre quotidien Pour survivre le citoyen est devenu malsain 1998 toujours la même haine, c'est la section faut tout niquer Et notre sista, ce qui consiste à dire rien que la vérité Dans la vie tout doit se mériter, j'ai hérité de la férocité Du droit de défendre mon identité avec sincérité Rap ragga même combat association marseillaise pour que ça marche A l'aise sans ce combat FF 2 Mars bannit les Dabas C'est une bombe à retardement Pense bien que c'est le moment de dire ce qu'on pense L'état nous berne et ça c'est une évidence Dans ce monde de violence, de voraces Où on prendra toujours pour cible nos races Le racisme laisse des traces Et ça c'est dommage, arriveront-ils a faire le ménage Celui qui n'est pas content faudra quil dégage Fais hommage à nos sages parents Pour qui ça n'a pas toujours été marrant On nous interdira jamais d'être différent Y'a plus de différence entre un franc et dix francs Je dis ce que je pense et c'est jamais évident.. You might also like Allez dire aux autorités que les jeunes de maintenant sont des guerriers Ne veulent plus laisser tomber, préfèrent lutter à la sans pitié Tentent le tout pour le tout en espérant beaucoup de money Mais les flics les shootent sans hésiter Franchement c'est un scandale Toujours les même condamnés L'état cherche des cobayes Mais bientôt la roue va tourner Franchement y'a des batailles Coups de matraques à volonté Mais jusqu'où les hommes iront dans leur perversité Refrain Costard cravate derrière ton bureau escroc C'est pas toi qui vit dans le ghetto La misère est devenue notre quotidien Pour survivre le citoyen est devenu malsain On bave loin de la Dolce Vita pas question de grève L'heure est grave et ils rêvent, ma secte est chaude ancien élève Plein de rébellion sans pause et déterminé Petit lion crinière pelée, dents longues Je donne juste mon opinion du monde, une vision Partagée par beaucoup d'enragés en vain Traités de sauvageons et de voyous, trop de talents gâchés Faut se hisser soi-même au sommet, on glisse entre danger et vice Insulte de la police, les patrons veulent serrer la vis Ne jamais lâcher la bride, qu'ils s'attendent à des nuits torrides Je vais faire gigoter leurs gros bides à coup de rimes solides On la ramène sur le rythme d'Imhotep sort ton talkie Dis-leur qu'il y a 3 suspects, Micky et 2 gars de la Fonky Mec n'essaye même pas de bâillonner mon bataillon On dit ce qu'on pense voyons, et on s'en bat les couilles de toute façon Je vois une minorité dans la prospérité jusqu'à postérité Pour la majorité l'austérité, ils cachent la vérité Car c'est un couteau tranchant, si tu es un grand arbre On a la petite hache affûtée pour te faire tomber Les droits de l'Homme n'existeront jamais Car le misérable est fait par l'avare, damné Trimer, ne rien dire accepter sa destinée Voué à l'échec face à tant de blé Certains se prostituent et d'autres renient leurs racines Les homos nous envahissent et la maladie contamine Certains bossent au bureau mais d'autres travaillent à l'usine D'autres profitent du pouvoir et par derrière ils nous assassinent Costard cravate derrière ton bureau escroc C'est pas toi qui vis dans le ghetto La misère est devenue notre quotidien Tu te tais, tu fais rien alors qui'l suffit d'un mot Les droits de l'Homme n'existeront jamais Car le misérable est fait par l'avare, damné Trimer, ne rien dire accepter sa destinée Voué à l'échec face à tant de blé Costard cravate derrière ton bureau escroc C'est pas toi qui vis dans le ghetto Fonky Family, Micky ne mâchent pas les mots On dit ce qu'on pense au micro, Micky sait ça Refrain Costard cravate derrière ton bureau escroc C'est pas toi qui vit dans le ghetto La misère est devenue notre quotidien Pour survivre le citoyen est devenu malsain1</t>
+          <t>Refrain Costard cravate derrière ton bureau escroc C'est pas toi qui vis dans le ghetto La misère est devenue notre quotidien Pour survivre le citoyen est devenu malsain 1998 toujours la même haine, c'est la section faut tout niquer Et notre sista, ce qui consiste à dire rien que la vérité Dans la vie tout doit se mériter, j'ai hérité de la férocité Du droit de défendre mon identité avec sincérité Rap ragga même combat association marseillaise pour que ça marche A l'aise sans ce combat FF 2 Mars bannit les Dabas C'est une bombe à retardement Pense bien que c'est le moment de dire ce qu'on pense L'état nous berne et ça c'est une évidence Dans ce monde de violence, de voraces Où on prendra toujours pour cible nos races Le racisme laisse des traces Et ça c'est dommage, arriveront-ils a faire le ménage Celui qui n'est pas content faudra quil dégage Fais hommage à nos sages parents Pour qui ça n'a pas toujours été marrant On nous interdira jamais d'être différent Y'a plus de différence entre un franc et dix francs Je dis ce que je pense et c'est jamais évident.. Allez dire aux autorités que les jeunes de maintenant sont des guerriers Ne veulent plus laisser tomber, préfèrent lutter à la sans pitié Tentent le tout pour le tout en espérant beaucoup de money Mais les flics les shootent sans hésiter Franchement c'est un scandale Toujours les même condamnés L'état cherche des cobayes Mais bientôt la roue va tourner Franchement y'a des batailles Coups de matraques à volonté Mais jusqu'où les hommes iront dans leur perversité Refrain Costard cravate derrière ton bureau escroc C'est pas toi qui vit dans le ghetto La misère est devenue notre quotidien Pour survivre le citoyen est devenu malsain On bave loin de la Dolce Vita pas question de grève L'heure est grave et ils rêvent, ma secte est chaude ancien élève Plein de rébellion sans pause et déterminé Petit lion crinière pelée, dents longues Je donne juste mon opinion du monde, une vision Partagée par beaucoup d'enragés en vain Traités de sauvageons et de voyous, trop de talents gâchés Faut se hisser soi-même au sommet, on glisse entre danger et vice Insulte de la police, les patrons veulent serrer la vis Ne jamais lâcher la bride, qu'ils s'attendent à des nuits torrides Je vais faire gigoter leurs gros bides à coup de rimes solides On la ramène sur le rythme d'Imhotep sort ton talkie Dis-leur qu'il y a 3 suspects, Micky et 2 gars de la Fonky Mec n'essaye même pas de bâillonner mon bataillon On dit ce qu'on pense voyons, et on s'en bat les couilles de toute façon Je vois une minorité dans la prospérité jusqu'à postérité Pour la majorité l'austérité, ils cachent la vérité Car c'est un couteau tranchant, si tu es un grand arbre On a la petite hache affûtée pour te faire tomber Les droits de l'Homme n'existeront jamais Car le misérable est fait par l'avare, damné Trimer, ne rien dire accepter sa destinée Voué à l'échec face à tant de blé Certains se prostituent et d'autres renient leurs racines Les homos nous envahissent et la maladie contamine Certains bossent au bureau mais d'autres travaillent à l'usine D'autres profitent du pouvoir et par derrière ils nous assassinent Costard cravate derrière ton bureau escroc C'est pas toi qui vis dans le ghetto La misère est devenue notre quotidien Tu te tais, tu fais rien alors qui'l suffit d'un mot Les droits de l'Homme n'existeront jamais Car le misérable est fait par l'avare, damné Trimer, ne rien dire accepter sa destinée Voué à l'échec face à tant de blé Costard cravate derrière ton bureau escroc C'est pas toi qui vis dans le ghetto Fonky Family, Micky ne mâchent pas les mots On dit ce qu'on pense au micro, Micky sait ça Refrain Costard cravate derrière ton bureau escroc C'est pas toi qui vit dans le ghetto La misère est devenue notre quotidien Pour survivre le citoyen est devenu malsain1</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Le Rat Luciano Ma putain de vie, c'est le quartier mais le quartier c'est pas la vie ESSE, n'oublie jamais c'est ton ennemi comme ton ami ESSE, on te respecte ou on te craint ou on t'aide ou on laisse Ou on te baise ou on te hait ou on t'aime Pour ce que tu es parce que tu pèse Et oui, ESSE, c'est le bonheur total ou le chaos comme dans Les Princes de la ville ESSE, ou tu bosses ou tu fraudes ou tu traques ou tu trinques ou tu es ou tu l'es pas Donc ou tu tiens ou tu craques ou tu crèves Le quartier c'est la jungle, ça vole tes rêves, c'est des vrais risques Ca rigole pas, ça donne le respect que tu mérites Nos lois remplacent leurs lois, la folie remplace l'amour Les balles remplacent les mots comme dans Boyz N the Hood C'est anti hamma, hostile panorama C'est tout le monde qui veut tes ronds, c'est l'esprit Tar la fama C'est la rébellion, une armée de lions Qui veut devenir millionnaire en attendant que le monde s'améliore On tient le coup avec la force et le courage Tous affamés d'euros, tous fous de rage On compte que sur Dieu, le sang et nos corro C'est zéro limite quand c'est vital On dévore la vie pendant que d'autres la rêvent en supportant l'inévitable C'est bonne oeuvre, violence aveugle, bonne voie, illégale manoeuvre Ca ferme jamais l'oeil, ça ferme jamais sa gueule Ca donne sa vie pour ses valeurs C'est habitué à se serrer la ceinture, c'est tenace face au malheur C'est des jours doux, des jours dramatiques Des histoires trop tristes pour des larmes Trop pour de la musique You might also like Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Sat l'Artificier Le quartier c'est des gosses qui savent tout trop tôt Vu qu'on t'y enseigne tout Des jeunes filles enceintes tôt, des frères derrière les barreaux C'est des pères qui se dérobent Des mères debout dès l'aube pour aller laver la merde chez les autres C'est ça la vie dans le quartier Oh mon Dieu des agression de passants Rap, drogue, sport comme passe-temps Vente de produits illicites et volés On sent la misère transpirer sur les murs, et les volets C'est des tags, des injures sur les murs, des cages d'escalier Des arrestations qui se déroulent en live sur le palier C'est des combats de dogs, de tox à la recherche d'une dose Des parents désespérés de leurs gosses Pour la plupart c'est pas tes amis mais que des potes C'est des pères de famille que l'on menotte sous les yeux de leur minotte C'est des coups de balance, des nuits au poste et aux urgences Un cercle vicieux de violence et de vengeance Des embrouilles bidons, des coups de parano Des menaces en l'air, des fringues et des flingues en affaire Des sales enfoirés, des mecs braves Des gens étranges, des gloires d'hier devenues des épaves C'est des trucs graves, des rixes, des rails, des fixs, des drames Des pauvres filles qui finissent dans des caves Du sang, des larmes, des vraies, des fausses Cartier Personne t'y fera de quartier, c'est ça la vie de quartier Le Rat Luciano A tous les quartiers du Sud, tous les quartiers du Nord Tous les quartiers de l'Est, tous les quartiers de l'Ouest Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Menzo Le quartier c'est le ghetto Don Choa Mais ce ghetto c'est pas Varsovie ESSE Menzo N'oublie jamais Don Choa On se sauve ou on perd sa vie, j'essaie Menzo Faut que je me lève Don Choa Et je me traîne Menzo Tant de traîtres Don Choa N'attends pas de trêve Menzo Prépare-toi à la guerre Don Choa C'est la même histoire depuis Adam et Eve Menzo Le renard perd ses poils Don Choa Mais pas le vice Menzo ESSE Don Choa Faudrait se barrer avec des millions d'euros Menzo Comme Jean-Marie MESSIER Don Choa Et c'est pour ça Menzo Que nos frères et nos soeurs Don Choa Etudient Menzo Dans leurs piaules Don Choa Et certains prennent dix piges Menzo Coupés du monde Don Choa Passent des diplômes en taule Menzo Pendant qu'd'autres dehors Don Choa N'ont qu'un carton pour s'abriter Menzo Là Don Choa Où les flics qui tuent Menzo Se font acquitter Don Choa Ce qu'ils appellent zones Menzo D'urbanisation prioritaires Don Choa En fait Menzo Ce sont des zones Don Choa D'impunité policières Menzo Et malgré tout ça Don Choa Y a pas de quartier sans gens qui sortent Menzo Qui s'engagent dans l'armée Don Choa Ou dans les forces de l'ordre Menzo Mais Don Choa Vont-ils calmer ces condés Menzo Qui insultent et qui cognent Don Choa La ségrégation on s'en rend compte Menzo Sur les bancs de l'école Don Choa Ça passe de la colle à la coke Menzo Et du couteau au colt Don Choa Ton pote peut être ton ennemi Menzo Et ton ennemi ton pote Sat Lourds secrets, tragédies, trahisons, décès Le Rat Luciano Le quartier à des raisons que ta raison ignore, ESSE Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang</t>
+          <t>Le Rat Luciano Ma putain de vie, c'est le quartier mais le quartier c'est pas la vie ESSE, n'oublie jamais c'est ton ennemi comme ton ami ESSE, on te respecte ou on te craint ou on t'aide ou on laisse Ou on te baise ou on te hait ou on t'aime Pour ce que tu es parce que tu pèse Et oui, ESSE, c'est le bonheur total ou le chaos comme dans Les Princes de la ville ESSE, ou tu bosses ou tu fraudes ou tu traques ou tu trinques ou tu es ou tu l'es pas Donc ou tu tiens ou tu craques ou tu crèves Le quartier c'est la jungle, ça vole tes rêves, c'est des vrais risques Ca rigole pas, ça donne le respect que tu mérites Nos lois remplacent leurs lois, la folie remplace l'amour Les balles remplacent les mots comme dans Boyz N the Hood C'est anti hamma, hostile panorama C'est tout le monde qui veut tes ronds, c'est l'esprit Tar la fama C'est la rébellion, une armée de lions Qui veut devenir millionnaire en attendant que le monde s'améliore On tient le coup avec la force et le courage Tous affamés d'euros, tous fous de rage On compte que sur Dieu, le sang et nos corro C'est zéro limite quand c'est vital On dévore la vie pendant que d'autres la rêvent en supportant l'inévitable C'est bonne oeuvre, violence aveugle, bonne voie, illégale manoeuvre Ca ferme jamais l'oeil, ça ferme jamais sa gueule Ca donne sa vie pour ses valeurs C'est habitué à se serrer la ceinture, c'est tenace face au malheur C'est des jours doux, des jours dramatiques Des histoires trop tristes pour des larmes Trop pour de la musique Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Sat l'Artificier Le quartier c'est des gosses qui savent tout trop tôt Vu qu'on t'y enseigne tout Des jeunes filles enceintes tôt, des frères derrière les barreaux C'est des pères qui se dérobent Des mères debout dès l'aube pour aller laver la merde chez les autres C'est ça la vie dans le quartier Oh mon Dieu des agression de passants Rap, drogue, sport comme passe-temps Vente de produits illicites et volés On sent la misère transpirer sur les murs, et les volets C'est des tags, des injures sur les murs, des cages d'escalier Des arrestations qui se déroulent en live sur le palier C'est des combats de dogs, de tox à la recherche d'une dose Des parents désespérés de leurs gosses Pour la plupart c'est pas tes amis mais que des potes C'est des pères de famille que l'on menotte sous les yeux de leur minotte C'est des coups de balance, des nuits au poste et aux urgences Un cercle vicieux de violence et de vengeance Des embrouilles bidons, des coups de parano Des menaces en l'air, des fringues et des flingues en affaire Des sales enfoirés, des mecs braves Des gens étranges, des gloires d'hier devenues des épaves C'est des trucs graves, des rixes, des rails, des fixs, des drames Des pauvres filles qui finissent dans des caves Du sang, des larmes, des vraies, des fausses Cartier Personne t'y fera de quartier, c'est ça la vie de quartier Le Rat Luciano A tous les quartiers du Sud, tous les quartiers du Nord Tous les quartiers de l'Est, tous les quartiers de l'Ouest Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang Menzo Le quartier c'est le ghetto Don Choa Mais ce ghetto c'est pas Varsovie ESSE Menzo N'oublie jamais Don Choa On se sauve ou on perd sa vie, j'essaie Menzo Faut que je me lève Don Choa Et je me traîne Menzo Tant de traîtres Don Choa N'attends pas de trêve Menzo Prépare-toi à la guerre Don Choa C'est la même histoire depuis Adam et Eve Menzo Le renard perd ses poils Don Choa Mais pas le vice Menzo ESSE Don Choa Faudrait se barrer avec des millions d'euros Menzo Comme Jean-Marie MESSIER Don Choa Et c'est pour ça Menzo Que nos frères et nos soeurs Don Choa Etudient Menzo Dans leurs piaules Don Choa Et certains prennent dix piges Menzo Coupés du monde Don Choa Passent des diplômes en taule Menzo Pendant qu'd'autres dehors Don Choa N'ont qu'un carton pour s'abriter Menzo Là Don Choa Où les flics qui tuent Menzo Se font acquitter Don Choa Ce qu'ils appellent zones Menzo D'urbanisation prioritaires Don Choa En fait Menzo Ce sont des zones Don Choa D'impunité policières Menzo Et malgré tout ça Don Choa Y a pas de quartier sans gens qui sortent Menzo Qui s'engagent dans l'armée Don Choa Ou dans les forces de l'ordre Menzo Mais Don Choa Vont-ils calmer ces condés Menzo Qui insultent et qui cognent Don Choa La ségrégation on s'en rend compte Menzo Sur les bancs de l'école Don Choa Ça passe de la colle à la coke Menzo Et du couteau au colt Don Choa Ton pote peut être ton ennemi Menzo Et ton ennemi ton pote Sat Lourds secrets, tragédies, trahisons, décès Le Rat Luciano Le quartier à des raisons que ta raison ignore, ESSE Parce que l'on veut tous être le gros bonnet, brasser la grosse monnaie Tous les quartiers pleurent du sang Parce que ça en vend, parce que ça en met dans le nez Tous nos quartiers pleurent du sang Parce qu'il y a des risques à charbonner, parce que ça va trop loin pour pardonner Tous nos quartiers pleurent du sang Parce que le diable veut nous détourner du tout puissant Tous nos quartiers pleurent du sang</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Moi j'pue l'immigration comme une vieille cassette de raï Par rapport à c'que j'suis, c'que j'fais, c'que j'graille J'connais la valeur de la ferraille d'la tune Des dégâts que cause une arme Des corps entourés d'craie, des larmes, des funérailles J'connais la valeur d'la ferraille, gros Les délires des grosses chaînes C'est périmé depuis Fun Raï Extrait du darwa, d'un quartier bouillant d'parias On raccroche avec le banditisme avec un mariage Ça plaide jamais coupable, inviolable mentalement Ça collectionne les cicatrices depuis garnements On aime avoir l'dernier mot, foolek impérialement Mais humble, jusqu'à l'enterrement mon grand J'aime la femme, ou la flamme qu'allume mon deux-feuilles Les failles dans la justice ou les mecs fiables J'aime parler des choses graves avec un soupçon d'humour Alors l'micro j'le bastonne, j'lui fais l'amour C'est la routine on roule, on rôde À l'heure où ça roupille C'est la routine on roule, on rôde C'est la routine, j'connais la valeur d'la ferraille, d'la tune, d'l'acier On roule, on rôde avec amour On roule, on rôde, on roule, on fraude avec amour On s'mouille, on grogne, on s'fout du monde avec amour Tout c'qu'on fait avec amour, sans regrets Sans remords, jusqu'à la mort bref, on l'fait.. You might also like Sourire aux lèvres, larmes aux yeux À jeun ou bien ivre, j'me vide J'pose franc dès qu'mon cur vibre C'est avec les plus modestes que j'aime vivre J'aime l'odeur du béton, car elle aussi m'enivre Au fait, fais-en si tu es majeur et qu't'as les mains libres Ça risque d'être long comme le combat qu'les miens livrent Eh ma belle, dire c'qu'on aime c'est l'thème 113, F.F, pour tous les anti-système On aime Dieu, on aime mère, on aime père On aime savoir nos frères heureux Et quand nos surs trouvent leurs repères On aime tenir aux nôtres, jusqu'à nos vies d'dogs On aime les gens d'la zone et la musique d'hommes On n'aime pas l'État, on aime leurs sous et leur fameux sexe On aime..., glouglou et bang bang On aime écouter les conseils des anciens Veiller sur les nôtres et remercier Dieu chaque matin C'est la routine on roule, on rôde Quand d'autres roupillent Ça s'met en rogne pour des broutilles On roule, on rôde, on aime les virées nocturnes Les concerts, les compliments sincères La déroute des commissaires J'suis pas venu pour aller, j'aime ma vie comme elle est Ses hauts et ses bas, dans mon allée J'ai pas souvent l'inspiration et quand j'écris J'les dérange, ma ville m'inspire La rue c'est ma vie, ma ville Vitry Avec amour depuis l'âge ingrat Depuis qu'la poisse nous colle aux doigts, comme le gras Les bras toujours ouverts pour les proches, mon pote Vigilance en permanence quand les sirènes et les torches s'agitent On aime quand tu les évites On aime les coups à la Spaggiari Quand les voyous cogitent Quand les potos sont libérés pour bonne conduite Quand on fume, à s'mettre à l'envers comme dans l'grand huit C'est la routine on roule, on rôde À l'heure où ça roupille C'est la routine on roule, on rôde C'est la routine, j'connais la valeur d'la ferraille, d'la tune, d'l'acier On roule, on rôde avec amour On roule, on rôde, on roule, on fraude avec amour On s'mouille, on grogne, on s'fout du monde avec amour Tout c'qu'on fait avec amour, sans regrets Sans remords, jusqu'à la mort pour toujours Ouvrez grand les portes, on sait qu'on n'obtient rien sans effort Ancré dans l'décor, personne veut finir à terre ou dans les cordes Regarde ma sueur et ma rancur transpirer par mes pores On en a marre d'voir des gamins embarqués par les cops J'aime bien quand mes petits cousins travaillent bien à l'école Pas ceux qui portent une mitraillette à l'épaule J'aime bien m'souvenir, à l'époque Quand tu m'trouvais pourri, sale et pauvre J'aime quand c'est hot et tout c'qui redonne le sourire à mes potes Assez haut, j'plane, oh, garde les Tim' au sol Vite fait d'être coincé dans l'impasse ou la camisole 113 et FF, dis bonjour à l'équipe J'veux pas qu'on nous plaigne, mais qu'on sorte encore des disques J'aime bien voir des gens partis d'rien s'en sortir Sinon, comme toi, j'aime bien manger, baiser et dormir J'aime bien plein d'choses sans les aimer toutes pareilles T'aimes pas tout c'que j'aime bien on n'est pas tous pareils C'est la routine on roule, on rôde À l'heure où ça roupille C'est la routine on roule, on rôde C'est la routine, j'connais la valeur d'la ferraille, d'la tune, d'l'acier On roule, on rôde avec amour On roule, on rôde, on roule, on fraude avec amour On s'mouille, on grogne, on s'fout du monde avec amour Tout c'qu'on fait avec amour, sans regrets Sans remords, jusqu'à la mort XXX2</t>
+          <t>Moi j'pue l'immigration comme une vieille cassette de raï Par rapport à c'que j'suis, c'que j'fais, c'que j'graille J'connais la valeur de la ferraille d'la tune Des dégâts que cause une arme Des corps entourés d'craie, des larmes, des funérailles J'connais la valeur d'la ferraille, gros Les délires des grosses chaînes C'est périmé depuis Fun Raï Extrait du darwa, d'un quartier bouillant d'parias On raccroche avec le banditisme avec un mariage Ça plaide jamais coupable, inviolable mentalement Ça collectionne les cicatrices depuis garnements On aime avoir l'dernier mot, foolek impérialement Mais humble, jusqu'à l'enterrement mon grand J'aime la femme, ou la flamme qu'allume mon deux-feuilles Les failles dans la justice ou les mecs fiables J'aime parler des choses graves avec un soupçon d'humour Alors l'micro j'le bastonne, j'lui fais l'amour C'est la routine on roule, on rôde À l'heure où ça roupille C'est la routine on roule, on rôde C'est la routine, j'connais la valeur d'la ferraille, d'la tune, d'l'acier On roule, on rôde avec amour On roule, on rôde, on roule, on fraude avec amour On s'mouille, on grogne, on s'fout du monde avec amour Tout c'qu'on fait avec amour, sans regrets Sans remords, jusqu'à la mort bref, on l'fait.. Sourire aux lèvres, larmes aux yeux À jeun ou bien ivre, j'me vide J'pose franc dès qu'mon cur vibre C'est avec les plus modestes que j'aime vivre J'aime l'odeur du béton, car elle aussi m'enivre Au fait, fais-en si tu es majeur et qu't'as les mains libres Ça risque d'être long comme le combat qu'les miens livrent Eh ma belle, dire c'qu'on aime c'est l'thème 113, F.F, pour tous les anti-système On aime Dieu, on aime mère, on aime père On aime savoir nos frères heureux Et quand nos surs trouvent leurs repères On aime tenir aux nôtres, jusqu'à nos vies d'dogs On aime les gens d'la zone et la musique d'hommes On n'aime pas l'État, on aime leurs sous et leur fameux sexe On aime..., glouglou et bang bang On aime écouter les conseils des anciens Veiller sur les nôtres et remercier Dieu chaque matin C'est la routine on roule, on rôde Quand d'autres roupillent Ça s'met en rogne pour des broutilles On roule, on rôde, on aime les virées nocturnes Les concerts, les compliments sincères La déroute des commissaires J'suis pas venu pour aller, j'aime ma vie comme elle est Ses hauts et ses bas, dans mon allée J'ai pas souvent l'inspiration et quand j'écris J'les dérange, ma ville m'inspire La rue c'est ma vie, ma ville Vitry Avec amour depuis l'âge ingrat Depuis qu'la poisse nous colle aux doigts, comme le gras Les bras toujours ouverts pour les proches, mon pote Vigilance en permanence quand les sirènes et les torches s'agitent On aime quand tu les évites On aime les coups à la Spaggiari Quand les voyous cogitent Quand les potos sont libérés pour bonne conduite Quand on fume, à s'mettre à l'envers comme dans l'grand huit C'est la routine on roule, on rôde À l'heure où ça roupille C'est la routine on roule, on rôde C'est la routine, j'connais la valeur d'la ferraille, d'la tune, d'l'acier On roule, on rôde avec amour On roule, on rôde, on roule, on fraude avec amour On s'mouille, on grogne, on s'fout du monde avec amour Tout c'qu'on fait avec amour, sans regrets Sans remords, jusqu'à la mort pour toujours Ouvrez grand les portes, on sait qu'on n'obtient rien sans effort Ancré dans l'décor, personne veut finir à terre ou dans les cordes Regarde ma sueur et ma rancur transpirer par mes pores On en a marre d'voir des gamins embarqués par les cops J'aime bien quand mes petits cousins travaillent bien à l'école Pas ceux qui portent une mitraillette à l'épaule J'aime bien m'souvenir, à l'époque Quand tu m'trouvais pourri, sale et pauvre J'aime quand c'est hot et tout c'qui redonne le sourire à mes potes Assez haut, j'plane, oh, garde les Tim' au sol Vite fait d'être coincé dans l'impasse ou la camisole 113 et FF, dis bonjour à l'équipe J'veux pas qu'on nous plaigne, mais qu'on sorte encore des disques J'aime bien voir des gens partis d'rien s'en sortir Sinon, comme toi, j'aime bien manger, baiser et dormir J'aime bien plein d'choses sans les aimer toutes pareilles T'aimes pas tout c'que j'aime bien on n'est pas tous pareils C'est la routine on roule, on rôde À l'heure où ça roupille C'est la routine on roule, on rôde C'est la routine, j'connais la valeur d'la ferraille, d'la tune, d'l'acier On roule, on rôde avec amour On roule, on rôde, on roule, on fraude avec amour On s'mouille, on grogne, on s'fout du monde avec amour Tout c'qu'on fait avec amour, sans regrets Sans remords, jusqu'à la mort XXX2</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>On vient de là où les gens ont la haine Rap, drogue, putes, crimes et délits On vient de là où les gens ont la haine Marseille et sa production cest Sat Laisse les croire qu'à Marseille le Rap est mort Laisse les dire on les entend plus Laisse-les croire qu'FF c'est mort Quand ça va péter, ça va faire du bruit Faudra rechercher les survivants au milieu des débris Ici personne n'attend de moi que je le sorte de la merde Les gens veulent qu'on les représente Et qu'on oublie pas de dire à quel point c'est la merde Ce truc, c'est plus que de la musique et des mots c'est toute une vie Il en va plus de nous huit mais de l'honneur de toute une ville Crois-le ou pas, mon but c'est pas d'être célèbre C'est de dire ces choses qui auraient pu sortir tout droit de tes lèvres Je me fais aucun film, moi je connais la chanson Je veux pas de la gloire, tôt ou tard faut payer sa rançon Je reste moi-même je la fais à ma façon Ça tombe bien, à ce qui parait les jolies filles raffolent des mauvais garçons Y'en a plein ma section elles seront servies fais courir le bruit on reprend du service On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose You might also like Le Rat Luciano Peu importe le terrain, les conditions Tu connais les règles, y'en a aucune Faut du flair, de la rage et des convictions Tu affrontes ou tu crèves, tu apprends, tu prouves, tu prends ou tu trouves C'est la politique de la cité des rêves, tout à gagner, rien à perdre Tu as oublié mais on est là Un, tres, tu connais, où qu'on aille on fait halla Victoire ou défaite, on défend le scalp et le plumage Un pour la relève, deux pour les pionniers, trois pour ceux qui sont plus là Aux indés sur le chemin de la démerde Aux talents détruits avec des mains faites pour l'or qui trempent dans la merde Nous, c'est le son pour le son, le blé pour le blé, le sang pour le sang Un, très, trait pour trait, 100 vrai pour de vrai Marseille, c'est une bagarre dans la bagarre Du Rap à tous les âges, tous les arts dans les bagages, intransférable, j'ai signé à vie Ce qui est fait est fait, tu peux rien défaire Plume chargée d'encre, je fais feu au nom de ma ville, au nom des frères On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Menzo J'ai pas d'arme, pas d'armée, je suis accompagné de mon équipe 16 mesures pour tout cramer, vider toute ma haine et mes tripes J'ai quitté le dernier wagon, m'installe dans la locomotive Je suis ni le king, ni le patron mais la compétition me motive Aujourd'hui, ils veulent s'en prendre à moi Mon crew et ma ville, wesh, ils croient qu'on est des putes parce que chez nous, on se dit tranquille Nul ne connait la force que renferme Massilia Nous, on s'invite, nous on s'infiltre comme la CIA J'laisse à Dieu le soin de me juger, qui tu es pour me critiquer, nous on est humble On vient pas pour tchatcher, pour tout niquer Y'a qu'en étant soudé, qu'on pourra tout niquer N'écoute pas ceux qui disent que pour réussir faut tous se niquer Sans les miens, je me serais peut-être écroulé Ça pas toujours été drôle durant tout ce temps écoulé On a su tenir le coup on est là Touché c'est pas coulé, ici t'es à Marseille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Don Choa J'entends que ça piaille, ils disent qu'on est die, êtes-vous certains...? Toi, c'est le mec attaché sur les rails et nous c'est le train L'bolide tout terrain, solide, souterrain Nique les hautes sphères un stylo dans le holster Offre aux jaloux un jeu de fléchettes et mon poster J'trace ma route comme la roquette qui shoote l'hélicoptère Speed style kill foster, tu connais mon crew, le son fait danser les loups pas besoin de Kevin Costner Ici y'a pas de frime, y'a plus que des rimes qui puent le crime On s'invite c'est l'heure ultime, c'est des Boeing dans ton building C'est haute tension, c'est hausse le niveau d'un cran, c'est baise la musique en France Nous, on voit les choses en grand, énervés, jamais contents Depuis que le business m'a mordu Je respecte ceux que tu traites de mecs instables et de filles tordues C'est du nique tout pour le tout pour beaucoup d'oseille, on a le son qui te bouffe un bout d'oreille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose</t>
+          <t>On vient de là où les gens ont la haine Rap, drogue, putes, crimes et délits On vient de là où les gens ont la haine Marseille et sa production cest Sat Laisse les croire qu'à Marseille le Rap est mort Laisse les dire on les entend plus Laisse-les croire qu'FF c'est mort Quand ça va péter, ça va faire du bruit Faudra rechercher les survivants au milieu des débris Ici personne n'attend de moi que je le sorte de la merde Les gens veulent qu'on les représente Et qu'on oublie pas de dire à quel point c'est la merde Ce truc, c'est plus que de la musique et des mots c'est toute une vie Il en va plus de nous huit mais de l'honneur de toute une ville Crois-le ou pas, mon but c'est pas d'être célèbre C'est de dire ces choses qui auraient pu sortir tout droit de tes lèvres Je me fais aucun film, moi je connais la chanson Je veux pas de la gloire, tôt ou tard faut payer sa rançon Je reste moi-même je la fais à ma façon Ça tombe bien, à ce qui parait les jolies filles raffolent des mauvais garçons Y'en a plein ma section elles seront servies fais courir le bruit on reprend du service On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Le Rat Luciano Peu importe le terrain, les conditions Tu connais les règles, y'en a aucune Faut du flair, de la rage et des convictions Tu affrontes ou tu crèves, tu apprends, tu prouves, tu prends ou tu trouves C'est la politique de la cité des rêves, tout à gagner, rien à perdre Tu as oublié mais on est là Un, tres, tu connais, où qu'on aille on fait halla Victoire ou défaite, on défend le scalp et le plumage Un pour la relève, deux pour les pionniers, trois pour ceux qui sont plus là Aux indés sur le chemin de la démerde Aux talents détruits avec des mains faites pour l'or qui trempent dans la merde Nous, c'est le son pour le son, le blé pour le blé, le sang pour le sang Un, très, trait pour trait, 100 vrai pour de vrai Marseille, c'est une bagarre dans la bagarre Du Rap à tous les âges, tous les arts dans les bagages, intransférable, j'ai signé à vie Ce qui est fait est fait, tu peux rien défaire Plume chargée d'encre, je fais feu au nom de ma ville, au nom des frères On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Menzo J'ai pas d'arme, pas d'armée, je suis accompagné de mon équipe 16 mesures pour tout cramer, vider toute ma haine et mes tripes J'ai quitté le dernier wagon, m'installe dans la locomotive Je suis ni le king, ni le patron mais la compétition me motive Aujourd'hui, ils veulent s'en prendre à moi Mon crew et ma ville, wesh, ils croient qu'on est des putes parce que chez nous, on se dit tranquille Nul ne connait la force que renferme Massilia Nous, on s'invite, nous on s'infiltre comme la CIA J'laisse à Dieu le soin de me juger, qui tu es pour me critiquer, nous on est humble On vient pas pour tchatcher, pour tout niquer Y'a qu'en étant soudé, qu'on pourra tout niquer N'écoute pas ceux qui disent que pour réussir faut tous se niquer Sans les miens, je me serais peut-être écroulé Ça pas toujours été drôle durant tout ce temps écoulé On a su tenir le coup on est là Touché c'est pas coulé, ici t'es à Marseille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Don Choa J'entends que ça piaille, ils disent qu'on est die, êtes-vous certains...? Toi, c'est le mec attaché sur les rails et nous c'est le train L'bolide tout terrain, solide, souterrain Nique les hautes sphères un stylo dans le holster Offre aux jaloux un jeu de fléchettes et mon poster J'trace ma route comme la roquette qui shoote l'hélicoptère Speed style kill foster, tu connais mon crew, le son fait danser les loups pas besoin de Kevin Costner Ici y'a pas de frime, y'a plus que des rimes qui puent le crime On s'invite c'est l'heure ultime, c'est des Boeing dans ton building C'est haute tension, c'est hausse le niveau d'un cran, c'est baise la musique en France Nous, on voit les choses en grand, énervés, jamais contents Depuis que le business m'a mordu Je respecte ceux que tu traites de mecs instables et de filles tordues C'est du nique tout pour le tout pour beaucoup d'oseille, on a le son qui te bouffe un bout d'oreille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Don Choa, c'est le p'tit gars sans gêne Laissez le foutre son p'tit bordel Laissez le foutre son p'tit bordel Laisse-moi foutre mon p'tit bordel Secoue bien ton gros cul ou ton p'tit corps maigre J'viens pas tourner un docu' sur flics, drogue, sexe, sang et larmes Un tempête dans l'crâne on prend les armes Laisse-laisse-moi foutre mon p'tit bordel Secoue bien tes fesses grasses ou ton p'tit corps maigre Le cerveau dans l'espace mais toujours sur Terre Le cur bat vite, les bras se lèvent donc pas d'panique Laissez-moi foutre mon bordel dans c'monde qui s'écroule Même si c'est tous les jours pareil faut chasser ses peurs et ses doutes J'ai qu'le cur et les couilles, pas d'morale ni d'leçon J'fonce sur le funk et parle sur le son Il reste pas grand chose au compte à rebours Et ça sert à rien d'crier au secours !, alors cours enfoiré cours Vie très courte, et seul Dieu est grand Faut qu'on s'éclate vraiment, et tu sais qu'c'est maintenant Prêt à botter l'cul du président ou d'sa femme Sur le grill ils demandent hésitants c'est où qu'ça crame ? Nuit chaude, gros flics rôdent, nord sud est ouest Bang, tu dors sur un tapis d'roses, paradis express Déstresse, voix sèche, angoisse traîtresse En détresse la haine blesse c'est une mauvaise maîtresse J'suis extrême mais pas comme le fisc proxénète J'aime juste foutre le souk dans la discothèque You might also like Laisse-moi foutre mon p'tit bordel Secoue bien ton gros cul ou ton p'tit corps maigre J'viens pas tourner un docu' sur flics, drogue, sexe, sang et larmes Un tempête dans l'crâne on prend les armes Laisse-laisse-moi foutre mon p'tit bordel Secoue bien tes fesses grasses ou ton p'tit corps maigre Le cerveau dans l'espace mais toujours sur Terre Le cur bat vite, les bras se lèvent donc pas d'panique Dans mon p'tit bordel, y a des garces et des dames C'est hardcore de ruelles, comme le port d'Amsterdam Faites sortir les pucelles et les âmes sensibles Laissez vos armes au vestiaires, et vos mains bien visibles Un accident est si vite arrivé, dommage On grince des dents à force de saliver, chômage Dieu soit loué j'ai l'toit pour m'abriter d'l'orage Mais dans mon bordel t'as d'quoi baliser, otage De m'sieur Hannibal, doux comme un agneau à vôtre service Mais aussi fou et anormal ce qu'on y prépare d'autres sévices Tomber le Levi's ou la chemise comme Zebda Mon rap synonyme de défoncé d'biz comme Zetla Bébé, viens dans mon p'tit boxon Ni CC ni produit dérivé d'toxzon ? Rêve d'une femme en Audi TT robe longue Prêt à fusiller, comme Doc Holliday à Tombstone Laisse-moi foutre mon p'tit bordel Secoue bien ton gros cul ou ton p'tit corps maigre J'viens pas tourner un docu' sur flics, drogue, sexe, sang et larmes Un tempête dans l'crâne on prend les armes Laisse-laisse-moi foutre mon p'tit bordel Secoue bien tes fesses grasses ou ton p'tit corps maigre Le cerveau dans l'espace mais toujours sur Terre Le cur bat vite, les bras se lèvent donc pas d'panique1</t>
+          <t>Don Choa, c'est le p'tit gars sans gêne Laissez le foutre son p'tit bordel Laissez le foutre son p'tit bordel Laisse-moi foutre mon p'tit bordel Secoue bien ton gros cul ou ton p'tit corps maigre J'viens pas tourner un docu' sur flics, drogue, sexe, sang et larmes Un tempête dans l'crâne on prend les armes Laisse-laisse-moi foutre mon p'tit bordel Secoue bien tes fesses grasses ou ton p'tit corps maigre Le cerveau dans l'espace mais toujours sur Terre Le cur bat vite, les bras se lèvent donc pas d'panique Laissez-moi foutre mon bordel dans c'monde qui s'écroule Même si c'est tous les jours pareil faut chasser ses peurs et ses doutes J'ai qu'le cur et les couilles, pas d'morale ni d'leçon J'fonce sur le funk et parle sur le son Il reste pas grand chose au compte à rebours Et ça sert à rien d'crier au secours !, alors cours enfoiré cours Vie très courte, et seul Dieu est grand Faut qu'on s'éclate vraiment, et tu sais qu'c'est maintenant Prêt à botter l'cul du président ou d'sa femme Sur le grill ils demandent hésitants c'est où qu'ça crame ? Nuit chaude, gros flics rôdent, nord sud est ouest Bang, tu dors sur un tapis d'roses, paradis express Déstresse, voix sèche, angoisse traîtresse En détresse la haine blesse c'est une mauvaise maîtresse J'suis extrême mais pas comme le fisc proxénète J'aime juste foutre le souk dans la discothèque Laisse-moi foutre mon p'tit bordel Secoue bien ton gros cul ou ton p'tit corps maigre J'viens pas tourner un docu' sur flics, drogue, sexe, sang et larmes Un tempête dans l'crâne on prend les armes Laisse-laisse-moi foutre mon p'tit bordel Secoue bien tes fesses grasses ou ton p'tit corps maigre Le cerveau dans l'espace mais toujours sur Terre Le cur bat vite, les bras se lèvent donc pas d'panique Dans mon p'tit bordel, y a des garces et des dames C'est hardcore de ruelles, comme le port d'Amsterdam Faites sortir les pucelles et les âmes sensibles Laissez vos armes au vestiaires, et vos mains bien visibles Un accident est si vite arrivé, dommage On grince des dents à force de saliver, chômage Dieu soit loué j'ai l'toit pour m'abriter d'l'orage Mais dans mon bordel t'as d'quoi baliser, otage De m'sieur Hannibal, doux comme un agneau à vôtre service Mais aussi fou et anormal ce qu'on y prépare d'autres sévices Tomber le Levi's ou la chemise comme Zebda Mon rap synonyme de défoncé d'biz comme Zetla Bébé, viens dans mon p'tit boxon Ni CC ni produit dérivé d'toxzon ? Rêve d'une femme en Audi TT robe longue Prêt à fusiller, comme Doc Holliday à Tombstone Laisse-moi foutre mon p'tit bordel Secoue bien ton gros cul ou ton p'tit corps maigre J'viens pas tourner un docu' sur flics, drogue, sexe, sang et larmes Un tempête dans l'crâne on prend les armes Laisse-laisse-moi foutre mon p'tit bordel Secoue bien tes fesses grasses ou ton p'tit corps maigre Le cerveau dans l'espace mais toujours sur Terre Le cur bat vite, les bras se lèvent donc pas d'panique1</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Laisse-moi m'en aller plus loin Laisse-moi dédier ça aux miens Laisse-moi en placer une pour nos gars, nos femmes de terrain Laisse, laisse-moi t'emmener plus loin Plus loin que ces vies de chiens Ou qu'on aille, jamais on oubliera d'où l'on vient Leurs ventres sont pleins Nous on a faim Comment tu veux qu'on soit sereins ? On rode, on fraude, on roule sans freins Génération peur de rien J'rentre dans le rap comme un sale gamin Comme deux doigts dans un sac à main C'est aujourd'hui qu'on construit demain Donc on s'battre jusqu'à la fin Trop speed pour sarrêter là À l'aise on nique vos faux débats Parce qu'on mérite bien mieux que ça Et les limites on connait pas Fais vite, Fais vite on t'attend pas Pourquoi t'hésites ? Viens on s'en va Loin des haines, des peines, des sirènes On veut s'en aller plus loin s'en aller plus loin On veut s'en aller loin s'en aller loin Y'a plus rien qui nous retient plus rien qui nous retient Jamais de la vie on n'oubliera d'où l'on vient Et on veut s'en aller plus loin s'en aller plus loin On est partis de rien partis de rien Et quand on se souvient quand on se souvient On pense a ceux qu'on a perdu sur le chemin On veut s'en aller plus loin s'en aller plus loin On veut s'en aller plus loin You might also like Trace, trace le monde est grand Tu préfères l'affronter en face ou le regarder sur un écran ? On veux notre part faire notre place On a les cojones, le manche On vient prendre notre revanche On attend pas on déclenche Tout ce temps quand on y pense Des jours sombres et des nuits blanches Fais pas le con, fais de ton mieux, de toute façon c'est Dieu qui tranche Tu sais que jamais je me plaindrai moi parce qu'on m'a donné ma chance donné ma chance Et pour ceux qui sont plus là laisse-nous pleurer leur absence pleurer leur absence On tient mais il suffit d'un rien pour qu'on pète vraiment les plombs Tout sauf perdre le contrôle ou exploser sous la pression sous la pression Combien qui s'en sortent ? Combien qui perdent la raison ? On veut s'en aller plus loin dans cette jungle de béton jungle de béton On veut s'en aller plus loin s'en aller plus loin On veut s'en aller loin s'en aller loin Y'a plus rien qui nous retient plus rien qui nous retient Jamais de la vie on n'oubliera d'où l'on vient Et on veut s'en aller plus loin s'en aller plus loin On est partis de rien partis de rien Et quand on se souvient quand on se souvient On pense a ceux qu'on a perdu sur le chemin On veut s'en aller plus loin s'en aller plus loin On veut s'en aller plus loin</t>
+          <t>Laisse-moi m'en aller plus loin Laisse-moi dédier ça aux miens Laisse-moi en placer une pour nos gars, nos femmes de terrain Laisse, laisse-moi t'emmener plus loin Plus loin que ces vies de chiens Ou qu'on aille, jamais on oubliera d'où l'on vient Leurs ventres sont pleins Nous on a faim Comment tu veux qu'on soit sereins ? On rode, on fraude, on roule sans freins Génération peur de rien J'rentre dans le rap comme un sale gamin Comme deux doigts dans un sac à main C'est aujourd'hui qu'on construit demain Donc on s'battre jusqu'à la fin Trop speed pour sarrêter là À l'aise on nique vos faux débats Parce qu'on mérite bien mieux que ça Et les limites on connait pas Fais vite, Fais vite on t'attend pas Pourquoi t'hésites ? Viens on s'en va Loin des haines, des peines, des sirènes On veut s'en aller plus loin s'en aller plus loin On veut s'en aller loin s'en aller loin Y'a plus rien qui nous retient plus rien qui nous retient Jamais de la vie on n'oubliera d'où l'on vient Et on veut s'en aller plus loin s'en aller plus loin On est partis de rien partis de rien Et quand on se souvient quand on se souvient On pense a ceux qu'on a perdu sur le chemin On veut s'en aller plus loin s'en aller plus loin On veut s'en aller plus loin Trace, trace le monde est grand Tu préfères l'affronter en face ou le regarder sur un écran ? On veux notre part faire notre place On a les cojones, le manche On vient prendre notre revanche On attend pas on déclenche Tout ce temps quand on y pense Des jours sombres et des nuits blanches Fais pas le con, fais de ton mieux, de toute façon c'est Dieu qui tranche Tu sais que jamais je me plaindrai moi parce qu'on m'a donné ma chance donné ma chance Et pour ceux qui sont plus là laisse-nous pleurer leur absence pleurer leur absence On tient mais il suffit d'un rien pour qu'on pète vraiment les plombs Tout sauf perdre le contrôle ou exploser sous la pression sous la pression Combien qui s'en sortent ? Combien qui perdent la raison ? On veut s'en aller plus loin dans cette jungle de béton jungle de béton On veut s'en aller plus loin s'en aller plus loin On veut s'en aller loin s'en aller loin Y'a plus rien qui nous retient plus rien qui nous retient Jamais de la vie on n'oubliera d'où l'on vient Et on veut s'en aller plus loin s'en aller plus loin On est partis de rien partis de rien Et quand on se souvient quand on se souvient On pense a ceux qu'on a perdu sur le chemin On veut s'en aller plus loin s'en aller plus loin On veut s'en aller plus loin</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'avais les poches vides J'avais les poches vides, et j'portais l'même survêt' trous d'boulettes Et, aujourd'hui, quoi qu'il s'passe, j'suis sous beuh, sept sur sept Soit tu touches le jackpot, soit t'accumules dette sur dette Moi, j'attends ma chance comme l'essence attend l'allumette brûler Tu dis c'est ton sang, ton frère, mais t'es prêt à la lui mettre Toi, t'étais un fils de pute avant-même le jour qui t'a vu naître putain d'traître Suffit d'un rien pour tuer un humain, il en faut peu Mais, pour en faire un, il en faut deux et, si y'en a qu'un, il en vaut deux À la guerre comme à la guerre, on va faire comme la bande à Baader On va pas séquestrer les patrons, on va les pendre aux lampadaires Tu voudrais voir l'atmosphère se détendre ? J'veux voir la classe ouvrière se défendre L'oseille se dépense et le sang se répand, laisse-moi ignorer ceux qui m'ignoraient quand... J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'avais les poches vides On est scandaleux, scandaleux, scandaleux On est scandaleux, scandaleux, scandaleux On est scandaleux, scandaleux, scandaleux On est scandaleux, scandaleux, scandaleux J'avais les poches vides, et j'roulais en réserve roule, roule, roule J'avais l'air d'un pauvre type égaré dans l'désert en plein désert J'ère sans but, sans limite, sans espoir, sans repère que dalle, que dalle Et je n'connais la valeur des choses que quand j'les perds rien à foutre Personne ne sait comment j'vais faire mais tout l'monde peut sentir le vice J'pourrais prendre tout c'qu'y'a sur Terre et toujours ressentir le vide Beaucoup voudraient comprendre et ils cherchent pour le comprendre, faut le vivre Quand j'ai vu le succès, j'l'ai laissé passer, j'étais trop feignant pour le suivre On s'bat pour le fer, pour le cuivre, pour l'argent, l'or et les diamants Ici, crise ou pas crise, on te brise pour le bif', les dents, les os, les ligaments Tu piges plus rien, plus rien n'est comme avant, l'épée d'Damoclès est sur ta pomme d'Adam On aime le bruit des pièces et l'odeur des craquants ça, c'est pour ceux qui m'aimaient déjà quand... J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'avais les poches vides On est scandaleux, scandaleux, scandaleux On est scandaleux, scandaleux, scandaleux On est scandaleux, scandaleux, scandaleux Si l'argent n'fait pas l'bonheur, rendez-leYou might also like</t>
+          <t>J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'avais les poches vides J'avais les poches vides, et j'portais l'même survêt' trous d'boulettes Et, aujourd'hui, quoi qu'il s'passe, j'suis sous beuh, sept sur sept Soit tu touches le jackpot, soit t'accumules dette sur dette Moi, j'attends ma chance comme l'essence attend l'allumette brûler Tu dis c'est ton sang, ton frère, mais t'es prêt à la lui mettre Toi, t'étais un fils de pute avant-même le jour qui t'a vu naître putain d'traître Suffit d'un rien pour tuer un humain, il en faut peu Mais, pour en faire un, il en faut deux et, si y'en a qu'un, il en vaut deux À la guerre comme à la guerre, on va faire comme la bande à Baader On va pas séquestrer les patrons, on va les pendre aux lampadaires Tu voudrais voir l'atmosphère se détendre ? J'veux voir la classe ouvrière se défendre L'oseille se dépense et le sang se répand, laisse-moi ignorer ceux qui m'ignoraient quand... J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'avais les poches vides On est scandaleux, scandaleux, scandaleux On est scandaleux, scandaleux, scandaleux On est scandaleux, scandaleux, scandaleux On est scandaleux, scandaleux, scandaleux J'avais les poches vides, et j'roulais en réserve roule, roule, roule J'avais l'air d'un pauvre type égaré dans l'désert en plein désert J'ère sans but, sans limite, sans espoir, sans repère que dalle, que dalle Et je n'connais la valeur des choses que quand j'les perds rien à foutre Personne ne sait comment j'vais faire mais tout l'monde peut sentir le vice J'pourrais prendre tout c'qu'y'a sur Terre et toujours ressentir le vide Beaucoup voudraient comprendre et ils cherchent pour le comprendre, faut le vivre Quand j'ai vu le succès, j'l'ai laissé passer, j'étais trop feignant pour le suivre On s'bat pour le fer, pour le cuivre, pour l'argent, l'or et les diamants Ici, crise ou pas crise, on te brise pour le bif', les dents, les os, les ligaments Tu piges plus rien, plus rien n'est comme avant, l'épée d'Damoclès est sur ta pomme d'Adam On aime le bruit des pièces et l'odeur des craquants ça, c'est pour ceux qui m'aimaient déjà quand... J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'portais l'même jean's J'avais les poches vides, j'avais les poches vides On est scandaleux, scandaleux, scandaleux On est scandaleux, scandaleux, scandaleux On est scandaleux, scandaleux, scandaleux Si l'argent n'fait pas l'bonheur, rendez-le</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Mon rap s'annonce comme un manifeste J'bénis le mic, j'actionne l'alarme Quand tu vois que mon posse débarque Sages Pozo, bazadozolozo On prend not' source dans la nature comme la tige du roseau Et telle une barre fixe, on reste toujours soudé Unis dans la douleur, on cause pour les minorités Et quand le Soleil se couche, sur un horizon vide J'dois faire gaffe, à pas me prendre une lame dans le bide Dans la rue car c'est comme ça quand un négro réussit Ils voudraient le faire oublier comme l'esclavage et Lucy Pourtant ma vie est simple, dure certains jours car sache que rien n'est acquis J'veux voir les yeux des enfants briller, motivés par la vie J'reviens de loin parce qu'il fallait que je revienne J'ai émigré comme un oiseau attiré par le Soleil Sages Poètes de la rue, on s'bat jusqu'à la mort On rap jusqu'à l'amour, pour tous nos squatteurs de tour Je dis stop à l'abrutissement, stop aux mauvais divertissements Et quand je dis stop c'est juste un avertissement après Mec faudra assumer les conséquences négatives Je t'aurai prévenu car j'suis l'genre d'mec dont les pensées s'activent Positivement, effectivement dans la vie parfois on réagit qu'instinctivement Et c'est ça qui va faire qu'un beau jour que la Terre va s'engloutir sous la mer Essai nucléaire ta mère Zox arrive, pourtant que je suis pas l'Pape, pas le président Pourtant j'porte pas d'cape, pourtant j'suis qu'un vieux négro Boulogne résident Résistant aux dures épreuves que la vie nous offre chaque jour Dans chaque tour, un jeune subit l'injustice de la BAC Pour rien au monde on manquera d'bravoure face aux attaques La force de notre amour réuni fera face aux matraques Macaques, métèques, plus rien ne pourra mener tous ces mecs J'détecterai l'arnaque, et n'répondrai qu'avec des textes en 4x4 You might also like bis On rap pour les minorités résidant sur le sol français Sages Po, Sages Po Pour les minorités, blancs ou noirs comme les dominos Je rappe pour les minots, les tontons et les gosses Le béton et ses bosses, tous rusés et féroces La rue ses putes et ses michetons Tous ces chiens qui flairent l'os, les biftons En fait je rappe jusqu'à l'amour comme Éros On vise ton cur car c'est ça qui anime un homme avant tout Maintenant c'est notre heure de faire le bordel mieux que ceux avant nous La belle vie j'suis pas Ricky, mon avenir est peut être gris comme un husky Parti d'rien j'veux faire du bruit style Clinton et Lewinsky Même si ma vie est dure comme une blessure anesthésiée au Whisky Jla trouve étrange mais attirante à la Nastasia Kinsky Mon hip hop et mon éthique ça va ensemble comme deux skis Ou comme mon stick et mon stylo Choa Moi et mon stylo on essaye d'aller le plus loin possible Comme tellement dgens essayent déjà de m'mettre des barrières Quand ça leur est dérangeant Je prépare ma vengeance comme ces pédés qui nous prenaient pour des ânes La meilleur arme c'est l'intelligence man et il le sait, Dan Vrai, vrai mais ou allons-nous ? doù venons-nous ? Le futur est fou, le passé est flou, des guerres souvenons-nous Et maintenant que voulons-nous ? des papiers d'identité L'équité, marcher dans la rue sans sfaire arrêter Hardcore réalité, j'mets dl'intensité dans mes paroles Tandis que la nuit je maraude, l'État fait cuir mes carottes Un député de la haute rédige des lois racistes à l'heure où jcrapote Puis tire une taff sur mon dixième splif, dans un parc près du périph Vérif, tu verras les traces de sang arrachées au shérif Sang mêlé aux flaques, causé par des coups dmatraques Sur le plus chétif d'entre nous, qui n'a pu fuir comme nous Entre nous, je donne à ces fumiers en enfer rendez-vous Oui ils kiffent dès qu'ils giflent un sans-le-sou, qui n'peut leur rendre les coups Qu'ils sachent que tout se payent, c'est naturel Je rap pour les minorités dès le lever du soleil, Dan bis</t>
+          <t>Mon rap s'annonce comme un manifeste J'bénis le mic, j'actionne l'alarme Quand tu vois que mon posse débarque Sages Pozo, bazadozolozo On prend not' source dans la nature comme la tige du roseau Et telle une barre fixe, on reste toujours soudé Unis dans la douleur, on cause pour les minorités Et quand le Soleil se couche, sur un horizon vide J'dois faire gaffe, à pas me prendre une lame dans le bide Dans la rue car c'est comme ça quand un négro réussit Ils voudraient le faire oublier comme l'esclavage et Lucy Pourtant ma vie est simple, dure certains jours car sache que rien n'est acquis J'veux voir les yeux des enfants briller, motivés par la vie J'reviens de loin parce qu'il fallait que je revienne J'ai émigré comme un oiseau attiré par le Soleil Sages Poètes de la rue, on s'bat jusqu'à la mort On rap jusqu'à l'amour, pour tous nos squatteurs de tour Je dis stop à l'abrutissement, stop aux mauvais divertissements Et quand je dis stop c'est juste un avertissement après Mec faudra assumer les conséquences négatives Je t'aurai prévenu car j'suis l'genre d'mec dont les pensées s'activent Positivement, effectivement dans la vie parfois on réagit qu'instinctivement Et c'est ça qui va faire qu'un beau jour que la Terre va s'engloutir sous la mer Essai nucléaire ta mère Zox arrive, pourtant que je suis pas l'Pape, pas le président Pourtant j'porte pas d'cape, pourtant j'suis qu'un vieux négro Boulogne résident Résistant aux dures épreuves que la vie nous offre chaque jour Dans chaque tour, un jeune subit l'injustice de la BAC Pour rien au monde on manquera d'bravoure face aux attaques La force de notre amour réuni fera face aux matraques Macaques, métèques, plus rien ne pourra mener tous ces mecs J'détecterai l'arnaque, et n'répondrai qu'avec des textes en 4x4 bis On rap pour les minorités résidant sur le sol français Sages Po, Sages Po Pour les minorités, blancs ou noirs comme les dominos Je rappe pour les minots, les tontons et les gosses Le béton et ses bosses, tous rusés et féroces La rue ses putes et ses michetons Tous ces chiens qui flairent l'os, les biftons En fait je rappe jusqu'à l'amour comme Éros On vise ton cur car c'est ça qui anime un homme avant tout Maintenant c'est notre heure de faire le bordel mieux que ceux avant nous La belle vie j'suis pas Ricky, mon avenir est peut être gris comme un husky Parti d'rien j'veux faire du bruit style Clinton et Lewinsky Même si ma vie est dure comme une blessure anesthésiée au Whisky Jla trouve étrange mais attirante à la Nastasia Kinsky Mon hip hop et mon éthique ça va ensemble comme deux skis Ou comme mon stick et mon stylo Choa Moi et mon stylo on essaye d'aller le plus loin possible Comme tellement dgens essayent déjà de m'mettre des barrières Quand ça leur est dérangeant Je prépare ma vengeance comme ces pédés qui nous prenaient pour des ânes La meilleur arme c'est l'intelligence man et il le sait, Dan Vrai, vrai mais ou allons-nous ? doù venons-nous ? Le futur est fou, le passé est flou, des guerres souvenons-nous Et maintenant que voulons-nous ? des papiers d'identité L'équité, marcher dans la rue sans sfaire arrêter Hardcore réalité, j'mets dl'intensité dans mes paroles Tandis que la nuit je maraude, l'État fait cuir mes carottes Un député de la haute rédige des lois racistes à l'heure où jcrapote Puis tire une taff sur mon dixième splif, dans un parc près du périph Vérif, tu verras les traces de sang arrachées au shérif Sang mêlé aux flaques, causé par des coups dmatraques Sur le plus chétif d'entre nous, qui n'a pu fuir comme nous Entre nous, je donne à ces fumiers en enfer rendez-vous Oui ils kiffent dès qu'ils giflent un sans-le-sou, qui n'peut leur rendre les coups Qu'ils sachent que tout se payent, c'est naturel Je rap pour les minorités dès le lever du soleil, Dan bis</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Quand j'vais la voir, j'sais c'qu'on fait l'soir On l'a cherché, pourtant on s'y perd dans ces putain d'histoires J'ai raison d'croire qu'en tant qu'partenaire infidèle j'pourrais causer des drames Si ma femme apprenait tout, j'crois qu'ma maison crame On s'tourmente mais après l'coup Ouais j'l'avoue, c'est ma faute après tout Ou celle de la folle qui voulait pas d'capote Comprenez-vous qu'il n'y a pas d'antidote ? Tout en sachant ma démence Je l'ai chhh au clair de lune comme un fou gâchant sa semence Ah un revenant, ça remont a y a tant d'temps Où je nous revois nous dux nous vantant que tout était si tentant Je l'entends encore me dire à la vie, à la mort sa citation L'ado hardcore et insolent sujet à toute incitation L'enfer c'est pas mon trip, j'laisse le sheitan aux marginaux Y a l'paradis dans mon script donc entre toi et moi y a d'la marge minot c'est ça, c'est ça Vu qu'les temps changent, les fléaux n'sont plus les mêmes Aujourd'hui le gros souci d'un jeune est d'oser dire je t'aime Et même protégé, les risques courent ou craquent Quand tu fraudes c'est comme le fisc, un jour ou l'autre il t'rattrape D.I.A.M.S., enlève le M et trie les lettres D.I.A.S. ou S.I.D.A., bref le genre de mot qui t'prend en traître You might also like Depuis le temps, ça m'donne chaud de te voir Tu t'rappelles de moi ? C'est ça que tu avais à me dire ? Tu t'rappelles de nous ou quoi ? Bien sûr que j'me rappelle J'ai un truc à t'dire Ouais j'sais qu't'as un truc à m'dire, dis-le moi Pourquoi t'en as pas mis ? C'est qu'tu m'as pas demandé L'ami, c'était à toi d'y penser Alors la faute à qui, pourquoi j'en ai pas mis ? J'sais pas, t'étais défoncé ? Aucun rapport Justement si y a un rapport Tu crois qu'j'vais jouer avec la mort ? C'est pire, tu joues avec l'amour D'accord, j'ai pris des risques Ouais, et c'est maintenant qu'tu m'dis ça Souviens-toi, on a fait ça vite Ça n'exclut pas qu'le virus file fissa Eh fille, ça n'sert à rien d'se faire du mauvais sang C'est toi qui files dans tous les sens Et toi t'es sûre à cent pourcents ? Sur ce S'il faut, ton mari s'tape des putes Ta femme des gigolos Ah les putes, il n'y a pas que les travelos qui l'attrapent ces salauds Eh, tu t'laisses aller J'ai pas été le seul, mais ça m'console même pas On s'contrôle même pas En somme, j'aime pas trop parler d'ces trucs-là Putain, j'arrive plus à être cool même en niquant J'pense à une boule pleine de piquants Tes mots m'indiquent qu'en c'moment tu flippes, depuis quand ? Je revois des séquences, dissèque l'acte, on sait c'qu'on a manqué Et alors, on ne va pas se rendre malade, eh, faut pas t'inquiéter Tu t'es fait dépister ? Non et toi ? Non j'ai pas fait le test T'as peur de l'faire ? Ouais et toi ? Ouais mais qu'est-ce qu'il nous reste ? Si on l'a, on s'en bat les... Ouais on s'en bat les... Car à l'époque c'était I need somebody et je crois qu'ça n'a pas changé Bref, arrêtons ces conneries, ça n'arrive qu'aux autres Pas à moi Ni à moi À qui alors ? Donc on s'méfie, on connaît l'assassin c'est pas un acteur Il n'a pas besoin d'femme pour faire de gosse ni d'flirter avec le facteur C'est traître mais nos mots n'sauveront personne À chacun d'être maître de c'que tu donnes, de c'que tu consommes Donc on s'méfie, on s'méfie, on s'méfie, on s'méfie Méfie-toi, faut s'méfie Eh fille, j'crois qu'on a fait l'boulot D.I.A.M.S., Don Cho</t>
+          <t>Quand j'vais la voir, j'sais c'qu'on fait l'soir On l'a cherché, pourtant on s'y perd dans ces putain d'histoires J'ai raison d'croire qu'en tant qu'partenaire infidèle j'pourrais causer des drames Si ma femme apprenait tout, j'crois qu'ma maison crame On s'tourmente mais après l'coup Ouais j'l'avoue, c'est ma faute après tout Ou celle de la folle qui voulait pas d'capote Comprenez-vous qu'il n'y a pas d'antidote ? Tout en sachant ma démence Je l'ai chhh au clair de lune comme un fou gâchant sa semence Ah un revenant, ça remont a y a tant d'temps Où je nous revois nous dux nous vantant que tout était si tentant Je l'entends encore me dire à la vie, à la mort sa citation L'ado hardcore et insolent sujet à toute incitation L'enfer c'est pas mon trip, j'laisse le sheitan aux marginaux Y a l'paradis dans mon script donc entre toi et moi y a d'la marge minot c'est ça, c'est ça Vu qu'les temps changent, les fléaux n'sont plus les mêmes Aujourd'hui le gros souci d'un jeune est d'oser dire je t'aime Et même protégé, les risques courent ou craquent Quand tu fraudes c'est comme le fisc, un jour ou l'autre il t'rattrape D.I.A.M.S., enlève le M et trie les lettres D.I.A.S. ou S.I.D.A., bref le genre de mot qui t'prend en traître Depuis le temps, ça m'donne chaud de te voir Tu t'rappelles de moi ? C'est ça que tu avais à me dire ? Tu t'rappelles de nous ou quoi ? Bien sûr que j'me rappelle J'ai un truc à t'dire Ouais j'sais qu't'as un truc à m'dire, dis-le moi Pourquoi t'en as pas mis ? C'est qu'tu m'as pas demandé L'ami, c'était à toi d'y penser Alors la faute à qui, pourquoi j'en ai pas mis ? J'sais pas, t'étais défoncé ? Aucun rapport Justement si y a un rapport Tu crois qu'j'vais jouer avec la mort ? C'est pire, tu joues avec l'amour D'accord, j'ai pris des risques Ouais, et c'est maintenant qu'tu m'dis ça Souviens-toi, on a fait ça vite Ça n'exclut pas qu'le virus file fissa Eh fille, ça n'sert à rien d'se faire du mauvais sang C'est toi qui files dans tous les sens Et toi t'es sûre à cent pourcents ? Sur ce S'il faut, ton mari s'tape des putes Ta femme des gigolos Ah les putes, il n'y a pas que les travelos qui l'attrapent ces salauds Eh, tu t'laisses aller J'ai pas été le seul, mais ça m'console même pas On s'contrôle même pas En somme, j'aime pas trop parler d'ces trucs-là Putain, j'arrive plus à être cool même en niquant J'pense à une boule pleine de piquants Tes mots m'indiquent qu'en c'moment tu flippes, depuis quand ? Je revois des séquences, dissèque l'acte, on sait c'qu'on a manqué Et alors, on ne va pas se rendre malade, eh, faut pas t'inquiéter Tu t'es fait dépister ? Non et toi ? Non j'ai pas fait le test T'as peur de l'faire ? Ouais et toi ? Ouais mais qu'est-ce qu'il nous reste ? Si on l'a, on s'en bat les... Ouais on s'en bat les... Car à l'époque c'était I need somebody et je crois qu'ça n'a pas changé Bref, arrêtons ces conneries, ça n'arrive qu'aux autres Pas à moi Ni à moi À qui alors ? Donc on s'méfie, on connaît l'assassin c'est pas un acteur Il n'a pas besoin d'femme pour faire de gosse ni d'flirter avec le facteur C'est traître mais nos mots n'sauveront personne À chacun d'être maître de c'que tu donnes, de c'que tu consommes Donc on s'méfie, on s'méfie, on s'méfie, on s'méfie Méfie-toi, faut s'méfie Eh fille, j'crois qu'on a fait l'boulot D.I.A.M.S., Don Cho</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Yeah man XXX this is Mister Choa Matinda give it today Yaniss Odua Pull up and Ce soir, c'est sans faille just check the vibe man check the vibe Ya ya ya ya yo, Matinda Ya ya ya ya Yaniss Odua Ya ya ya ya Don Choa Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Allumer le faya Et ça restera hot, hot, hot Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Pull up and Pull up and, pull up, pull up, pull up Chaud devant, la flamme j'l'attise Faut qu'ça brûle au Nord au Sud, à l'Est à l'Ouest Faut qu'ça hurle, pas le temps de prendre une pause La pression monte, faut qu'ça pète, faut qu'ça explose Appelle XXX Qui ne tente rien n'a rien, vas-y ose Si chacun y met du sien, ça changera les choses Dancehall hip-hop, voilà c'qu'on te propose Don Cho'! You might also like Yo, crie pull up ou hold-up quand on débarque dans l'club Haut les mics, j'calcine, funk skunk, pops et die Fais remuer les gyals oh!, autrement dit les gos Dancehall, tu sens d'où vient la chaleur, ambiance rodéo Tu clashes, c'est comme Roméo, tu dois mourir Don Cho', Odua, Matinda dorment pas, shoot avec le sourire Un stick entre les doigts, vite et sans débat On a l'feu et la foi, don't sleep ce soir On plie pas! Là ce soir, faut surtout pas qu'tu flippes, ah Ceux qu'ont pas dormi ne dorment pas, don't sleepa Ruff and tuff, tu sais que c'est notre trip, ah On sodom' le son avec nos tripes Si tu t'sens largué, accroche-toi faut qu'tu t'agrippes Odua, Don Cho', Matinda, la puissance on la triple Sur le Pone riddim, on reste dynamiques Matinda explique Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Allumer le faya Et ça restera hot, hot, hot Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Pull up and Pull up and, pull up, pull up, pull up Rentre dedans, nique ça sans sentiment Arrête de m'sucer, je sens tes dents Ne l'prenez pas mal, MC, j'aime vous taquiner Car vous jouez les macs même si c'est vous qui tapinez Tu t'demandes où es ta copine et qui l'a pinée Quand tu vois mes tags et les capotes éparpillées Fous mon bordel, les yeux sont équarquillés Les garces font comme Missy, hi hi hi hi hey Tonight c'est meeting, da one one one Le dancehall et le hip-hop font one one one Manifestez-vous si la vibe vous la donne donne donne Faisons le maximum de bruit faut que ça sonne sonne sonne Hey yo, bouh! Des West Indies à Marseille Pas l'temps de prendre sommeil, come again yo Bouh! Tout le monde se réveille Le son tourne depuis la veille, come again yo Bouh! Prépare tes oreilles à entendre une chose pareille, come again yo Bouh! XXX donné en direct et ça sans aucun appareil Put it up, put it up selecta non-stop Hip hip ouais, l'ambiance est au top, wow Qui a parlé de flop, dis donc c'est full cool et rempli d'pin-up Vas-y violent plein d'énergie et dans l'temps au max Just take it easy, t'inquiète y a pas d'taxes Quelle que soit ta position, reste toujours dans l'axe Domine le stress, avec nous c'est relax Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Allumer le faya Et ça restera hot, hot, hot Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Pull up and Pull up and, pull up, pull up, pull up</t>
+          <t>Yeah man XXX this is Mister Choa Matinda give it today Yaniss Odua Pull up and Ce soir, c'est sans faille just check the vibe man check the vibe Ya ya ya ya yo, Matinda Ya ya ya ya Yaniss Odua Ya ya ya ya Don Choa Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Allumer le faya Et ça restera hot, hot, hot Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Pull up and Pull up and, pull up, pull up, pull up Chaud devant, la flamme j'l'attise Faut qu'ça brûle au Nord au Sud, à l'Est à l'Ouest Faut qu'ça hurle, pas le temps de prendre une pause La pression monte, faut qu'ça pète, faut qu'ça explose Appelle XXX Qui ne tente rien n'a rien, vas-y ose Si chacun y met du sien, ça changera les choses Dancehall hip-hop, voilà c'qu'on te propose Don Cho'! Yo, crie pull up ou hold-up quand on débarque dans l'club Haut les mics, j'calcine, funk skunk, pops et die Fais remuer les gyals oh!, autrement dit les gos Dancehall, tu sens d'où vient la chaleur, ambiance rodéo Tu clashes, c'est comme Roméo, tu dois mourir Don Cho', Odua, Matinda dorment pas, shoot avec le sourire Un stick entre les doigts, vite et sans débat On a l'feu et la foi, don't sleep ce soir On plie pas! Là ce soir, faut surtout pas qu'tu flippes, ah Ceux qu'ont pas dormi ne dorment pas, don't sleepa Ruff and tuff, tu sais que c'est notre trip, ah On sodom' le son avec nos tripes Si tu t'sens largué, accroche-toi faut qu'tu t'agrippes Odua, Don Cho', Matinda, la puissance on la triple Sur le Pone riddim, on reste dynamiques Matinda explique Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Allumer le faya Et ça restera hot, hot, hot Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Pull up and Pull up and, pull up, pull up, pull up Rentre dedans, nique ça sans sentiment Arrête de m'sucer, je sens tes dents Ne l'prenez pas mal, MC, j'aime vous taquiner Car vous jouez les macs même si c'est vous qui tapinez Tu t'demandes où es ta copine et qui l'a pinée Quand tu vois mes tags et les capotes éparpillées Fous mon bordel, les yeux sont équarquillés Les garces font comme Missy, hi hi hi hi hey Tonight c'est meeting, da one one one Le dancehall et le hip-hop font one one one Manifestez-vous si la vibe vous la donne donne donne Faisons le maximum de bruit faut que ça sonne sonne sonne Hey yo, bouh! Des West Indies à Marseille Pas l'temps de prendre sommeil, come again yo Bouh! Tout le monde se réveille Le son tourne depuis la veille, come again yo Bouh! Prépare tes oreilles à entendre une chose pareille, come again yo Bouh! XXX donné en direct et ça sans aucun appareil Put it up, put it up selecta non-stop Hip hip ouais, l'ambiance est au top, wow Qui a parlé de flop, dis donc c'est full cool et rempli d'pin-up Vas-y violent plein d'énergie et dans l'temps au max Just take it easy, t'inquiète y a pas d'taxes Quelle que soit ta position, reste toujours dans l'axe Domine le stress, avec nous c'est relax Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Allumer le faya Et ça restera hot, hot, hot Pull up and come again Ce soir, c'est sans faille Assumé que ce sera hot Pull up and come again Pull up and Pull up and, pull up, pull up, pull up</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Aïe Caramba, dans l'club rien qu'de la bomba DJ pousse le son qu'elles secouent leurs bompa Gros bordel sans coke ni costard Tu veux d'la top model ou d'la porno star? Mais t'es encore dehors dans la file d'attente À piétiner dans l'froid ou sous la pluie battante Moi j'arrive avec trente potes, on passe sur le côté On rentre tous en short et moi sur un poney C'est ambiance saloon, j'bordélise le VIP Room Puis j'nique Dom Perignon et Redbull Les miss disent ''Il a des millions y doit être cool'' Ouais j'suis blindé comme le rhino sur mon polo Mais j'sais pas danser autre chose que le pogo, trop d'go Tu veux la plus belle, la plus riche Qu'est-ce tu cherches? La plus stylée, la plus cher, la plus biiiitch ? Ça sent le blé, ça sent l'oseille dans s'bordel Ça sent la beuh, ça sent l'essence dans mon cocktail Ça sent l'brûlé, ça sent l'ambiance scandale Sens-tu bien la chaleur? C'est l'anarchie totale. x2 Dans le club ça bounce fort Bordel sur le dance floor Ça chauffe non-stop jusqu'à faire cramer le spot Don Cho' mon nom de code Connu pour donner le sport et pour baiser le score Pas prêt à baisser le store Tu veux une girl qui wiiine, une dégaine qui bouge comme Shakira Ou une qui boit des Heineken, qui crache comme Kadéra ? Tu cherches les jambes d'Adriana, le boule de Rihanna Ou une baba cool saoul qui roule la Marijuana Tu veux une lady douce comme une glace à la menthe Une qui montre son string, son piercing a la langue Tu veux la number one qui les mets toutes à l'amende Ou une qui te travaille comme si elle braquait la banque Moi j'suis défoncé mais j'garde la classe J'vomis pas par terre mais dans l'seau à glace C'est pour les bad girls et les chiens d'la casse Lève ton majeur si tu sais comment ça s'passe You might also like X2 Ça sent le blé, ça sent l'oseille dans s'bordel Ça sent la beuh, ça sent l'essence dans mon cocktail Ça sent l'brûlé, ça sent l'ambiance scandale Sens-tu bien la chaleur? C'est l'anarchie totale. x2 Dans le club ça bounce fort Bordel sur le dance floor Ça chauffe non-stop jusqu'à faire cramer le spot Don Cho' mon nom de code Connu pour donner le sport et pour baiser le score Pas prêt à baisser le store. x2 X2 Ça sent le blé, ça sent l'oseille dans s'bordel Ça sent la beuh, ça sent l'essence dans mon cocktail Ça sent l'brûlé, ça sent l'ambiance scandale Sens-tu bien la chaleur? C'est l'anarchie totale. x2 Lève ton majeur si tu sais comment ça s'passe! C'est pour les bad girls et les chiens d'la casse Animals Animals Sons</t>
+          <t>Aïe Caramba, dans l'club rien qu'de la bomba DJ pousse le son qu'elles secouent leurs bompa Gros bordel sans coke ni costard Tu veux d'la top model ou d'la porno star? Mais t'es encore dehors dans la file d'attente À piétiner dans l'froid ou sous la pluie battante Moi j'arrive avec trente potes, on passe sur le côté On rentre tous en short et moi sur un poney C'est ambiance saloon, j'bordélise le VIP Room Puis j'nique Dom Perignon et Redbull Les miss disent ''Il a des millions y doit être cool'' Ouais j'suis blindé comme le rhino sur mon polo Mais j'sais pas danser autre chose que le pogo, trop d'go Tu veux la plus belle, la plus riche Qu'est-ce tu cherches? La plus stylée, la plus cher, la plus biiiitch ? Ça sent le blé, ça sent l'oseille dans s'bordel Ça sent la beuh, ça sent l'essence dans mon cocktail Ça sent l'brûlé, ça sent l'ambiance scandale Sens-tu bien la chaleur? C'est l'anarchie totale. x2 Dans le club ça bounce fort Bordel sur le dance floor Ça chauffe non-stop jusqu'à faire cramer le spot Don Cho' mon nom de code Connu pour donner le sport et pour baiser le score Pas prêt à baisser le store Tu veux une girl qui wiiine, une dégaine qui bouge comme Shakira Ou une qui boit des Heineken, qui crache comme Kadéra ? Tu cherches les jambes d'Adriana, le boule de Rihanna Ou une baba cool saoul qui roule la Marijuana Tu veux une lady douce comme une glace à la menthe Une qui montre son string, son piercing a la langue Tu veux la number one qui les mets toutes à l'amende Ou une qui te travaille comme si elle braquait la banque Moi j'suis défoncé mais j'garde la classe J'vomis pas par terre mais dans l'seau à glace C'est pour les bad girls et les chiens d'la casse Lève ton majeur si tu sais comment ça s'passe X2 Ça sent le blé, ça sent l'oseille dans s'bordel Ça sent la beuh, ça sent l'essence dans mon cocktail Ça sent l'brûlé, ça sent l'ambiance scandale Sens-tu bien la chaleur? C'est l'anarchie totale. x2 Dans le club ça bounce fort Bordel sur le dance floor Ça chauffe non-stop jusqu'à faire cramer le spot Don Cho' mon nom de code Connu pour donner le sport et pour baiser le score Pas prêt à baisser le store. x2 X2 Ça sent le blé, ça sent l'oseille dans s'bordel Ça sent la beuh, ça sent l'essence dans mon cocktail Ça sent l'brûlé, ça sent l'ambiance scandale Sens-tu bien la chaleur? C'est l'anarchie totale. x2 Lève ton majeur si tu sais comment ça s'passe! C'est pour les bad girls et les chiens d'la casse Animals Animals Sons</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Il y a des cloneurs de CB, des rouleurs d'OCB J'suis pas un gentleman, j'suis juste un escroc bébé T'es trop un obsédé, t'écoutes trop mon CD Mec vient pas test ou on te shoot en pleine tête, gros pédé Branleur invétéré, miss c'est ton escroc préféré Toutes les go essaient d'me serrer Tous les cops seraient prêts d'me défaire et on dirait qu'ça va dégénérer Dis-moi poto qu'est-ce que t'espérais T'as vite intérêt d'accélérer De bien garder tes p'tites fesses serrées J'sors ma tête de déterré des blocs mal éclairés J'laisse pas d'ADN juste une putain d'odeur pestiférée J'suis pas venu pour fédérer, j'suis venu pour tout incinérer Tu me trouves toujours sur tous les bons coups parce que j'sais trop bien les flairer Appelle-moi l'as de l'embrouille ou le roi de la magouille J'rentre dans le business avec le ventre qui gargouille J'baise la patrouille, venez m'reniflez les couilles J'respecte aucune loi à part celle de la débrouille C'est 1 pour les euros, 2 pour les escrocs Chacals, chacalettes, tous les pros du rodéo Pour les loups du ghetto, pas pour les intellos J'veux juste gagner gros mais c'est Sarko et Bardot C'est 1 pour les euros j'rafle le cash J'suis juste un escroc chérie j'veux que tu le saches 1 pour les euros j'rafle le cash Si t'aimes le rodéo faut juste que tu te lâches You might also like J'suis pas venu m'faire des amis, juste un max de money Je mets les MC dans l'coma et l'industrie à l'agonie J'ai la technique de Ronie, autant d'appétit comme Tony J'suis pas venu là pour blaguer, j'suis venu pour saigner Sony Sans gêne et mal poli, impossible de stopper ma folie Quand mon flow glisse comme un gros bolide même les plus solides ramollissent C'est pour les ténors du barreau, pas pour les commis d'office C'est pour les pros du rodéo jusqu'à ce que la police vomisse J'suis trop speed pour la douane, pour ces cons d'la bac j'suis trop rusé J'bosse avec l'envie d'avoir tout c'que la vie m'a refusé Escroc sans pompes en croco, juste mes vieilles baskets usées Rien à foutre de ta vago j'veux m'payer une putain d'fusée J'fournis la marchandise, mais pas le ticket de caisse Mais j'laisse une trace rouge comme une claque sur tes fesses Nique les kilos d'coke vive les tonnes de shit et d'herbe J'respecte aucune loi à part celle de la démerde C'est 1 pour les euros, 2 pour les escrocs Chacals, chacalettes, tous les pros du rodéo Pour les loups du ghetto, pas pour les intellos J'veux juste gagner gros mais c'est Sarko et Bardo C'est 1 pour les euros j'rafle le cash J'suis juste un escroc chérie j'veux que tu le saches 1 pour les euros j'rafle le cash Si t'aimes le rodéo faut juste que tu te lâches C'est la loi des plus pourris, le jeu du chat et d'la souris J'travaille Bardot au chalumeau et Sarkozy au bistouri Man ça sent l'entourloupe, putain ça pue l'enculerie J'sors direct le coupe-coupe si tu touches à mon bol de riz Remballe tes balivernes et tes motherfuckeries J'fais pas dans l'humanitaire, j'fais dans la grande escroquerie J'pense qu'au blé à détourner, j'te baise dès qu't'as l'dos tourné Si ça t'as fait trop mal va t'plaindre à Julien Courbet J'arnaque toute la journée, infiltré chez les blindés J'sais feinter pour te geinter, marre de patienter pour nienté Mon rap ramène plus d'oseille qu'un pick-pocket marseillais J' m'applique même quand j'nique j'fais ça comme si j'étais payé C'est 1 pour les euros, 2 pour les escrocs Chacals, chacalettes, tous les pros du rodéo Pour les loups du ghetto, pas pour les intellos J'veux juste gagner gros mais c'est Sarko et Bardo C'est 1 pour les euros j'rafle le cash J'suis juste un escroc chérie j'veux que tu le saches 1 pour les euros j'rafle le cash Si t'aimes le rodéo faut juste que tu te lâches</t>
+          <t>Il y a des cloneurs de CB, des rouleurs d'OCB J'suis pas un gentleman, j'suis juste un escroc bébé T'es trop un obsédé, t'écoutes trop mon CD Mec vient pas test ou on te shoot en pleine tête, gros pédé Branleur invétéré, miss c'est ton escroc préféré Toutes les go essaient d'me serrer Tous les cops seraient prêts d'me défaire et on dirait qu'ça va dégénérer Dis-moi poto qu'est-ce que t'espérais T'as vite intérêt d'accélérer De bien garder tes p'tites fesses serrées J'sors ma tête de déterré des blocs mal éclairés J'laisse pas d'ADN juste une putain d'odeur pestiférée J'suis pas venu pour fédérer, j'suis venu pour tout incinérer Tu me trouves toujours sur tous les bons coups parce que j'sais trop bien les flairer Appelle-moi l'as de l'embrouille ou le roi de la magouille J'rentre dans le business avec le ventre qui gargouille J'baise la patrouille, venez m'reniflez les couilles J'respecte aucune loi à part celle de la débrouille C'est 1 pour les euros, 2 pour les escrocs Chacals, chacalettes, tous les pros du rodéo Pour les loups du ghetto, pas pour les intellos J'veux juste gagner gros mais c'est Sarko et Bardot C'est 1 pour les euros j'rafle le cash J'suis juste un escroc chérie j'veux que tu le saches 1 pour les euros j'rafle le cash Si t'aimes le rodéo faut juste que tu te lâches J'suis pas venu m'faire des amis, juste un max de money Je mets les MC dans l'coma et l'industrie à l'agonie J'ai la technique de Ronie, autant d'appétit comme Tony J'suis pas venu là pour blaguer, j'suis venu pour saigner Sony Sans gêne et mal poli, impossible de stopper ma folie Quand mon flow glisse comme un gros bolide même les plus solides ramollissent C'est pour les ténors du barreau, pas pour les commis d'office C'est pour les pros du rodéo jusqu'à ce que la police vomisse J'suis trop speed pour la douane, pour ces cons d'la bac j'suis trop rusé J'bosse avec l'envie d'avoir tout c'que la vie m'a refusé Escroc sans pompes en croco, juste mes vieilles baskets usées Rien à foutre de ta vago j'veux m'payer une putain d'fusée J'fournis la marchandise, mais pas le ticket de caisse Mais j'laisse une trace rouge comme une claque sur tes fesses Nique les kilos d'coke vive les tonnes de shit et d'herbe J'respecte aucune loi à part celle de la démerde C'est 1 pour les euros, 2 pour les escrocs Chacals, chacalettes, tous les pros du rodéo Pour les loups du ghetto, pas pour les intellos J'veux juste gagner gros mais c'est Sarko et Bardo C'est 1 pour les euros j'rafle le cash J'suis juste un escroc chérie j'veux que tu le saches 1 pour les euros j'rafle le cash Si t'aimes le rodéo faut juste que tu te lâches C'est la loi des plus pourris, le jeu du chat et d'la souris J'travaille Bardot au chalumeau et Sarkozy au bistouri Man ça sent l'entourloupe, putain ça pue l'enculerie J'sors direct le coupe-coupe si tu touches à mon bol de riz Remballe tes balivernes et tes motherfuckeries J'fais pas dans l'humanitaire, j'fais dans la grande escroquerie J'pense qu'au blé à détourner, j'te baise dès qu't'as l'dos tourné Si ça t'as fait trop mal va t'plaindre à Julien Courbet J'arnaque toute la journée, infiltré chez les blindés J'sais feinter pour te geinter, marre de patienter pour nienté Mon rap ramène plus d'oseille qu'un pick-pocket marseillais J' m'applique même quand j'nique j'fais ça comme si j'étais payé C'est 1 pour les euros, 2 pour les escrocs Chacals, chacalettes, tous les pros du rodéo Pour les loups du ghetto, pas pour les intellos J'veux juste gagner gros mais c'est Sarko et Bardo C'est 1 pour les euros j'rafle le cash J'suis juste un escroc chérie j'veux que tu le saches 1 pour les euros j'rafle le cash Si t'aimes le rodéo faut juste que tu te lâches</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>J'pars à fond, ça passe ou ça casse, j'suis p't-être con, c'est vrai mais tocass Alors secoue ta carcasse, attaquons J'rentre sans invitation ni faire de menace non L'ambiance passe de scandale à dégueulasse han Fous les pieds dans la boue, t'en auras jusqu'aux Rayban Viens là où ça éclabousse, décoince-toi comme un Neiman Attention peaux de bananes dans l'action pas trop de palabres Ma, qué pasa, Don Cho' ? Nada trop Roule Po'-po', marijuana n'y goûte pas si ça t'rend malade Cent potos et huit-cent nanas, de la sueur sous les bandanas Roule, roule C'est l'moment d'oublier où t'as mal Roule Le son fait bouger Georges Bush et Oussama Roule, roule Tous zamals, faut foutre un coup fatal Roule yallah Roule Roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement Roule Roule Allez, roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement Roule You might also like J'oublie pas d'où je viens vu qu'je sais pas où je vais Si l'équilibre est quelque part, on doit pouvoir le trouver Tu connais la routine, les jours passent Réveille ceux qui roupillent, relève ceux qui s'sont écroulés Pas besoin d'faux sourire ni de tapis rouge déroulé N'arrête pas d'courir pour voir venir les coups d'enculés Avant d'courir, faut qu'je sorte le son du labo' Six millions façons d'mourir, soixante millions d'collabos Tire sur eux ou juste sur mon joint T'as beau dire Fais fumer, quoi ? J'entends pas très bien Monte le volume, allume la lampe Minuit, pleine Lune sous la pluie battante Ma tête fume et tu tires la langue ? Personne n'supporte plus d'être sur liste d'attente Dans cette vie, on est tous de passage Qu'est-ce que tu vas emporter dans tes bagages ? Roule Allez, roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement Roule Roule Allez, roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement J'fais comme j'tourne sur moi-même, roule où l'destin m'emmène Avec la haine d'un alien et l'haleine de la hyène Ça démarre en vitesse, plus besoin qu'on t'briefe Ramasse une tigresse si t'aimes qu'on t'griffe Les animaux sont sortis Et cette nuit n'sera pas animée par Attachez-le à poil, le cul dans les orties Creuse un trou et jette-le, il poussait des cris du style Huh, wuh, huh Un vent d'anarchie souffle mais la routine dure À cause de la drogue douce, tous crachent de la matière dure À bout d'souffle, range ton coupe-coupe Fais un bout d'route, allez, roule, roule x2 Roule Roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement Roule Roule Allez, roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement Roule</t>
+          <t>J'pars à fond, ça passe ou ça casse, j'suis p't-être con, c'est vrai mais tocass Alors secoue ta carcasse, attaquons J'rentre sans invitation ni faire de menace non L'ambiance passe de scandale à dégueulasse han Fous les pieds dans la boue, t'en auras jusqu'aux Rayban Viens là où ça éclabousse, décoince-toi comme un Neiman Attention peaux de bananes dans l'action pas trop de palabres Ma, qué pasa, Don Cho' ? Nada trop Roule Po'-po', marijuana n'y goûte pas si ça t'rend malade Cent potos et huit-cent nanas, de la sueur sous les bandanas Roule, roule C'est l'moment d'oublier où t'as mal Roule Le son fait bouger Georges Bush et Oussama Roule, roule Tous zamals, faut foutre un coup fatal Roule yallah Roule Roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement Roule Roule Allez, roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement Roule J'oublie pas d'où je viens vu qu'je sais pas où je vais Si l'équilibre est quelque part, on doit pouvoir le trouver Tu connais la routine, les jours passent Réveille ceux qui roupillent, relève ceux qui s'sont écroulés Pas besoin d'faux sourire ni de tapis rouge déroulé N'arrête pas d'courir pour voir venir les coups d'enculés Avant d'courir, faut qu'je sorte le son du labo' Six millions façons d'mourir, soixante millions d'collabos Tire sur eux ou juste sur mon joint T'as beau dire Fais fumer, quoi ? J'entends pas très bien Monte le volume, allume la lampe Minuit, pleine Lune sous la pluie battante Ma tête fume et tu tires la langue ? Personne n'supporte plus d'être sur liste d'attente Dans cette vie, on est tous de passage Qu'est-ce que tu vas emporter dans tes bagages ? Roule Allez, roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement Roule Roule Allez, roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement J'fais comme j'tourne sur moi-même, roule où l'destin m'emmène Avec la haine d'un alien et l'haleine de la hyène Ça démarre en vitesse, plus besoin qu'on t'briefe Ramasse une tigresse si t'aimes qu'on t'griffe Les animaux sont sortis Et cette nuit n'sera pas animée par Attachez-le à poil, le cul dans les orties Creuse un trou et jette-le, il poussait des cris du style Huh, wuh, huh Un vent d'anarchie souffle mais la routine dure À cause de la drogue douce, tous crachent de la matière dure À bout d'souffle, range ton coupe-coupe Fais un bout d'route, allez, roule, roule x2 Roule Roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement Roule Roule Allez, roule et fais pas d'manière Roule Fou, on l'est tous, et ça date pas d'hier Roule Fais pas d'manière, roue avantarrière Roule Prends d'l'élan, rentre dedans, grandes dents, vite ou lentement Roule</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>C'est du sale sud, papy, slap du string sur du lap dance Slap tapine est la break dance, Black Cardine de la dance dance C'est pas des bains d'douche mais des bains louches De la villageoise pour des bains d'bouche De la villageoise, de la sallardoise, de la sale artoise, de l'échappe mouche C'est du red rude, pastis, bouchées troubles, viande russe Cunnie Williams, cunnilingus, carcasse dans le cumulus Dans le cul de Jupiter Ou le silence des agneaux, Don Cho qui attend le bus La ville entière est sous mescaline Encore au temps du camarade Staline Si on paye pas de mine, fais pas ta maline Ici, la loi, c'est ta carabine J'ai le planteur d'herbes en décoline Si t'as peur de t'perdre, prends de la gazoline On siphonne ta caisse et ça dégouline Jette une allumette et tout s'illumine Ici, c'est Toulouse Là où même les mémés aiment leur kébouz Où même les bébés roulent en V12 Le vent, le temps t'poussent, à court de temps, j'tousse Rentre dedans en douce, bam, projet dans l'dos et c'est en le faisant cool You might also like x2 Dans les profondeurs du sud sale Consulte ta boussole, ça devient de plus en plus sale Descends dans les sous-sols, la mentalité, c'est freestyle Escrime et football, attention au réveil brutal La lune est pleine et les loups rodent C'est du sale sud, vif et brut, brut de stone, corrosif Du Nord au Sud, les nerfs à vif, coolement, doucement, agressif Sale et sincère et aussi bourrin que Bourvil Pour tous les types de Rouville qui traînent de Quimper à Trouville Dans ma vie Relaxe-toi mon poto, on va pas te cuire au poteau Joue pas le froid quand c'est chaud, joue pas le laid quand t'es beau Raclot, laisse-moi parling, ici, c'est panique au dancing Patch à la guigne, on ne perd pas, on persiste C'est pour les poulets de poulets, vicelards fumés, odeurs d'fumier PT Cruser, tue les types fauchés et fils de thunés Oh, racailles, odeurs fermiers, volailles aux yeux cernés Bâtiments pré-fabriqués, feuilles, shit, briquet On fait pas de détail, rien à foutre de ta médaille On a la foi et l'attirail ! Hey, il est 'à-l', c'est la CI Quarante degrés sous la grisaille ou sous la mitraille Y'a des go et des canailles, illico, on déballe Illégaux ou légales, pour les dogs et les gials Ici, c'est pas la France mais sa succursale x2 Dans les profondeurs du sud sale Consulte ta boussole, ça devient de plus en plus sale Descends dans les sous-sols, la mentalité, c'est freestyle Escrime et football, attention au réveil brutal La lune est pleine et les loups rodent On est les loups parmi les moutons, de la boue sur les shoes Clan de bouseux, tous des couz quand le venin de la route épouse Ici, Toulouse Toulouse, pas de lose, équipe de winner Pas de place pour les resquilleurs, pinailleurs, c'est du rap de trappeur Pour une nouvelle saveur, écoute, renifle, goûte Bienvenue, n'aie pas peur, shoot avant que le shérif te shoot La politique me dégoûte, de Baudis à Doust-Blazy Ils jouent tous les mecs cools mais ils se couperaient les cheveux courts si c'était de nouveau le temps des nazis Je parle du pays, on t'a pas appris que c'est une colonie depuis 700 ans Que les barons d'île de France l'ont conquis avec l'accord du Vatican Underworld Un ancien de la montagne m'a mis au parfum Dans sa cabane en en fumant un Faut savoir d'où l'on vient pour préparer demain Imagine que la vie est à portée de main Loin de cette jungle de béton Où la moindre occas' nous guettons Rage et passion que nous y mettons Ça va ensemble comme deux tétons Admettons qu'y en a pas deux pareils Ne me dis pas que le son te harcèle Le monde on en veut une parcelle Big up Toulouse et Marseille x2 Dans les profondeurs du sud sale Consulte ta boussole, ça devient de plus en plus sale Descends dans les sous-sols, la mentalité, c'est freestyle Escrime et football, attention au réveil brutal La lune est pleine et les loups rodent</t>
+          <t>C'est du sale sud, papy, slap du string sur du lap dance Slap tapine est la break dance, Black Cardine de la dance dance C'est pas des bains d'douche mais des bains louches De la villageoise pour des bains d'bouche De la villageoise, de la sallardoise, de la sale artoise, de l'échappe mouche C'est du red rude, pastis, bouchées troubles, viande russe Cunnie Williams, cunnilingus, carcasse dans le cumulus Dans le cul de Jupiter Ou le silence des agneaux, Don Cho qui attend le bus La ville entière est sous mescaline Encore au temps du camarade Staline Si on paye pas de mine, fais pas ta maline Ici, la loi, c'est ta carabine J'ai le planteur d'herbes en décoline Si t'as peur de t'perdre, prends de la gazoline On siphonne ta caisse et ça dégouline Jette une allumette et tout s'illumine Ici, c'est Toulouse Là où même les mémés aiment leur kébouz Où même les bébés roulent en V12 Le vent, le temps t'poussent, à court de temps, j'tousse Rentre dedans en douce, bam, projet dans l'dos et c'est en le faisant cool x2 Dans les profondeurs du sud sale Consulte ta boussole, ça devient de plus en plus sale Descends dans les sous-sols, la mentalité, c'est freestyle Escrime et football, attention au réveil brutal La lune est pleine et les loups rodent C'est du sale sud, vif et brut, brut de stone, corrosif Du Nord au Sud, les nerfs à vif, coolement, doucement, agressif Sale et sincère et aussi bourrin que Bourvil Pour tous les types de Rouville qui traînent de Quimper à Trouville Dans ma vie Relaxe-toi mon poto, on va pas te cuire au poteau Joue pas le froid quand c'est chaud, joue pas le laid quand t'es beau Raclot, laisse-moi parling, ici, c'est panique au dancing Patch à la guigne, on ne perd pas, on persiste C'est pour les poulets de poulets, vicelards fumés, odeurs d'fumier PT Cruser, tue les types fauchés et fils de thunés Oh, racailles, odeurs fermiers, volailles aux yeux cernés Bâtiments pré-fabriqués, feuilles, shit, briquet On fait pas de détail, rien à foutre de ta médaille On a la foi et l'attirail ! Hey, il est 'à-l', c'est la CI Quarante degrés sous la grisaille ou sous la mitraille Y'a des go et des canailles, illico, on déballe Illégaux ou légales, pour les dogs et les gials Ici, c'est pas la France mais sa succursale x2 Dans les profondeurs du sud sale Consulte ta boussole, ça devient de plus en plus sale Descends dans les sous-sols, la mentalité, c'est freestyle Escrime et football, attention au réveil brutal La lune est pleine et les loups rodent On est les loups parmi les moutons, de la boue sur les shoes Clan de bouseux, tous des couz quand le venin de la route épouse Ici, Toulouse Toulouse, pas de lose, équipe de winner Pas de place pour les resquilleurs, pinailleurs, c'est du rap de trappeur Pour une nouvelle saveur, écoute, renifle, goûte Bienvenue, n'aie pas peur, shoot avant que le shérif te shoot La politique me dégoûte, de Baudis à Doust-Blazy Ils jouent tous les mecs cools mais ils se couperaient les cheveux courts si c'était de nouveau le temps des nazis Je parle du pays, on t'a pas appris que c'est une colonie depuis 700 ans Que les barons d'île de France l'ont conquis avec l'accord du Vatican Underworld Un ancien de la montagne m'a mis au parfum Dans sa cabane en en fumant un Faut savoir d'où l'on vient pour préparer demain Imagine que la vie est à portée de main Loin de cette jungle de béton Où la moindre occas' nous guettons Rage et passion que nous y mettons Ça va ensemble comme deux tétons Admettons qu'y en a pas deux pareils Ne me dis pas que le son te harcèle Le monde on en veut une parcelle Big up Toulouse et Marseille x2 Dans les profondeurs du sud sale Consulte ta boussole, ça devient de plus en plus sale Descends dans les sous-sols, la mentalité, c'est freestyle Escrime et football, attention au réveil brutal La lune est pleine et les loups rodent</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Je suis dans la ville à 130, huh Les autorités on s'en branle T'inquiète les hagars savent à qui s'en prendre J'ai capté le vice Si t'es gentil on te bouffe, on prend ça pour de la faiblesse Non, ne fais pas le peace J'ai ton adresse et même ceux de ta mifa J'ai deux-trois poids dans la police, ouais j'ai deux, trois ma3rifa Que Dieu nous donne la santé parce que le reste est futile J'fais pas confiance à des mecs qui peuvent pas se payer un Fuze Tea J'rappe pour les tirailleurs et les Indigènes C'qui combat le COVID à l'huile de nigelle Pour la pizza moi je vais la manger chez Michel Toi, tu es le roi des fils de pute mais sur Insta j'ai mis j'aime Ils aiment tous l'argent mais ils savent pas en faire Même s'ils étaient millionnaire, ils niqueraient tout en faisant la fête Je prends mon cachet 20 sur 20 Je fais des showcases en survêt Ne croyez pas que je suis tout seul Oui, mon équipe me surveille On est chargé, Glock dans la caisse comme dans l'go-fast Plein phares, vroum dans ma team il y a deux, trois kufars J'suis matrixé je te nique ta mère sans raison Grosse embrouille, gros calibre oh, grosse combinaison Bienvenue dans la méta, toujours anti-état Pour le refrain c'est Vita, pour la promo c'est néta La police veut nous péta, pour la bagarre j'ai mes gars Pour ralentir les dégâts, j'irai prié à Mecca Ouais RG, je t'avais dit qu'il nous aime pas eux Ils nous craignent parce qu'ils le savent très bien qu'on n'est pas eux Et que Dieu m'éloigne de ceux qui parle de moi C'est pas grave mais n'oublie pas que ta carrière elle part de moi Pardonne-moi si je t'ai fait du mal, gros, c'était voulu Les gens disent que t'as changé quand t'évolues Je suis mal à l'aise quand je suis dans le VIP Je suis comme dans le vide Pour les feats vaut mieux qu'on évite Je veux pas qu'on m'invite On parait cool en vrai nous on s'en bat les couilles Nique ton marabout, ici les grigris n'arrêtent pas les douilles Je suis musulman, je réponds au Salaam-Alaikum Alaikum-Salaam Maintenant tu peux tracer ta route Ça fait un pour la mama Deux, deux pour la mama Trois pour la mama Quatre pour la mala Entre le halal et le haram, je suis mitigé Entre les parents et les profs, je suis négligé T'as fait le voyou, dans le temps on va te corriger Respecter la daronne, c'est comme la prière, c'est obligé Sur la vie de ma mère, santé et bonheur You might also like On a des sous, oui, on leur doit des comptes, non On a grandi ensemble, oui, mais est-ce qu'on est des potes? Non Je veux un 4x4, la doré ou la Black Card Je veux un 4x4, la doré ou la Black Card Dis-moi tu étais où quand on dînait avec un quatre quart? Quand on dînait avec les faux prince de Lidl Petit guns, tu nous casses les couilles on met pas de middle, ma gueule J'ai tout niqué mais en vrai c'était évident J'ai fait le trou tout seul moi, je suis pas venu en featant J'ai les dents, les rappeurs de chez moi je les pends Tu peux pas te comparer à nous, gros, tu poses même pas dans les temps Tu parles de braquages, de Kalash et de pétage De kilos, gros mytho, t'as même pas fait du guettage Je passe la douane avec le shit entre les couilles J'ai fait des sous, vas-y dis-moi que tu as pas les boules Je rappe comme la FF, Don Choa et Menzo Tu voudrais que je meurs alors qu'on a bu dans le même seau Fianso m'a dit baise le rap, fais leur des ish-ish On a pressé la détente, eux ils ont pressé des pshit-pshit Je suis rancunier mais je suis aussi reconnaissant J'ai fait couler le sang à ceux qui m'ont hagar adolescent J'étais petit, moi à l'époque j'avais la hachma Aujourd'hui, je fais des films avec Gilles Lellouche et Reichman Je peux garder la pêche man, les traîtres on les tèj man Le manager, c'est Deichmann J'écoute du Renaud Quand je veux écouter du vrai rap gros, j'écoute du Relo Fais-moi la passe mon ami On rattrape pas le péno J'écoute du Hasni, du Mami, du Khaled, du Bello Marseille, en vrai, c'est la guerre entre res-frè Tu as trahi la Honda on t'a tué c'est bien fait On a des sous? Oui, on leur doit des comptes? Non On a grandi ensemble? Oui, mais est-ce qu'on est des potes? Non</t>
+          <t>Je suis dans la ville à 130, huh Les autorités on s'en branle T'inquiète les hagars savent à qui s'en prendre J'ai capté le vice Si t'es gentil on te bouffe, on prend ça pour de la faiblesse Non, ne fais pas le peace J'ai ton adresse et même ceux de ta mifa J'ai deux-trois poids dans la police, ouais j'ai deux, trois ma3rifa Que Dieu nous donne la santé parce que le reste est futile J'fais pas confiance à des mecs qui peuvent pas se payer un Fuze Tea J'rappe pour les tirailleurs et les Indigènes C'qui combat le COVID à l'huile de nigelle Pour la pizza moi je vais la manger chez Michel Toi, tu es le roi des fils de pute mais sur Insta j'ai mis j'aime Ils aiment tous l'argent mais ils savent pas en faire Même s'ils étaient millionnaire, ils niqueraient tout en faisant la fête Je prends mon cachet 20 sur 20 Je fais des showcases en survêt Ne croyez pas que je suis tout seul Oui, mon équipe me surveille On est chargé, Glock dans la caisse comme dans l'go-fast Plein phares, vroum dans ma team il y a deux, trois kufars J'suis matrixé je te nique ta mère sans raison Grosse embrouille, gros calibre oh, grosse combinaison Bienvenue dans la méta, toujours anti-état Pour le refrain c'est Vita, pour la promo c'est néta La police veut nous péta, pour la bagarre j'ai mes gars Pour ralentir les dégâts, j'irai prié à Mecca Ouais RG, je t'avais dit qu'il nous aime pas eux Ils nous craignent parce qu'ils le savent très bien qu'on n'est pas eux Et que Dieu m'éloigne de ceux qui parle de moi C'est pas grave mais n'oublie pas que ta carrière elle part de moi Pardonne-moi si je t'ai fait du mal, gros, c'était voulu Les gens disent que t'as changé quand t'évolues Je suis mal à l'aise quand je suis dans le VIP Je suis comme dans le vide Pour les feats vaut mieux qu'on évite Je veux pas qu'on m'invite On parait cool en vrai nous on s'en bat les couilles Nique ton marabout, ici les grigris n'arrêtent pas les douilles Je suis musulman, je réponds au Salaam-Alaikum Alaikum-Salaam Maintenant tu peux tracer ta route Ça fait un pour la mama Deux, deux pour la mama Trois pour la mama Quatre pour la mala Entre le halal et le haram, je suis mitigé Entre les parents et les profs, je suis négligé T'as fait le voyou, dans le temps on va te corriger Respecter la daronne, c'est comme la prière, c'est obligé Sur la vie de ma mère, santé et bonheur On a des sous, oui, on leur doit des comptes, non On a grandi ensemble, oui, mais est-ce qu'on est des potes? Non Je veux un 4x4, la doré ou la Black Card Je veux un 4x4, la doré ou la Black Card Dis-moi tu étais où quand on dînait avec un quatre quart? Quand on dînait avec les faux prince de Lidl Petit guns, tu nous casses les couilles on met pas de middle, ma gueule J'ai tout niqué mais en vrai c'était évident J'ai fait le trou tout seul moi, je suis pas venu en featant J'ai les dents, les rappeurs de chez moi je les pends Tu peux pas te comparer à nous, gros, tu poses même pas dans les temps Tu parles de braquages, de Kalash et de pétage De kilos, gros mytho, t'as même pas fait du guettage Je passe la douane avec le shit entre les couilles J'ai fait des sous, vas-y dis-moi que tu as pas les boules Je rappe comme la FF, Don Choa et Menzo Tu voudrais que je meurs alors qu'on a bu dans le même seau Fianso m'a dit baise le rap, fais leur des ish-ish On a pressé la détente, eux ils ont pressé des pshit-pshit Je suis rancunier mais je suis aussi reconnaissant J'ai fait couler le sang à ceux qui m'ont hagar adolescent J'étais petit, moi à l'époque j'avais la hachma Aujourd'hui, je fais des films avec Gilles Lellouche et Reichman Je peux garder la pêche man, les traîtres on les tèj man Le manager, c'est Deichmann J'écoute du Renaud Quand je veux écouter du vrai rap gros, j'écoute du Relo Fais-moi la passe mon ami On rattrape pas le péno J'écoute du Hasni, du Mami, du Khaled, du Bello Marseille, en vrai, c'est la guerre entre res-frè Tu as trahi la Honda on t'a tué c'est bien fait On a des sous? Oui, on leur doit des comptes? Non On a grandi ensemble? Oui, mais est-ce qu'on est des potes? Non</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Sat Faisons ce qu'on a à faire une bonne fois pour toutes Tant qu'on sera pas tiré d'affaire on vivra dans le doute, je te jure C'est pas le moment d'aller manger la gamelle Non pas maintenant qu'on a un nom et l'appui d'un label Voilà mon plan J'suis sur un coup, un gros, le casse du siècle J'prends le taureau par les couilles en 2005 Pas là pour jouer la comédie, ni pour donner une bonne image des beurs Comme ils disent, je fais mon biz La musique c'est pas easy, tu sais On na pas le savoir vivre des gens aisés Quand on se croise ça donnent lieu à des réunions d'indigènes On y met à plat toutes nos vies indigestes Je suis pas un artiste Sur la pente de ma vie j'ai trop pratiqué le hors-piste Si je m'en sors, ça sera pas sans des bleus sur le corps Mais comme dit la chanson j'en serais plus fort De toute façon j'attends pas de messie Rien ne tombe du ciel hormis des gros missiles Y'a pas d'avenir ici, ça pue le souffre comme en Sicile Si si, à Marseille city Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique You might also like Menzo Ceux qui m'aiment le savent j'ai rien volé à personne Naviguer dans les eaux troubles, sans trahir ma personne Haine et peine sur ma route ont fait de moi c'que je suis Te casse pas la tête, jusqu'ici ça roule, MC Plus tu parles mal de moi, plus je sens que j'existe Même si mon espoir s'exile, j'résiste car la vie l'exige Le rap mon oxygène, mon passé, inchallah mon futur J'ai ça dans le sang mais tu le sais pas assez Qu'on m'comprenne ou pas, j'fais ça a ma façon Profite de mon respect avant de gouter à ma face sombre Passe mon salut au monde du rap à ceux qui rament Ceux qui grattent à tous nos proches qu'ont leur nom gravé sur du marbre A tous nos frères au hebs Plus mon rap est sincère, plus je me fais du mal, plus la vie ma marque 2005 frérot, chacun son biz Donc chacun sa façon de décrire le monde avec un stylo bille Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Don Choa Tout tourne autour du billet Pas envie d'être pris de court Plutôt les entendre dire crier oh putain ils sont de retour! On est sur le coup, toujours dans la course Le rap a les genoux dans la boue, le gun dans la bouche Prend les devants, qu'est-ce-que t'attends là, bouge Tellement sanglant que la couleur de l'argent passe du vert à rouge A chacun de faire sa route, moi ma rage déborde Pourquoi je fous mon petit bordel ? Je sors d'un grand désordre La première fois que tu nous a vus, à Brooklyn avec des menottes! Maintenant je suis dans la musique même si je connais pas deux notes On a rien trouvé de mieux comme business Prêt à tordre et à mordre, envie de croquer le monde comme Bill Gates Faut s'en sortir même si c'est sans issue Et qu'on se tire d'ici avant qu'on se tire dessus Qui reste déçu ? Qui encaisse ? Qui sue ? Qui pèse le plus ? Qui baise ? Qui suce? Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Le Rat Luciano Maintenant que je suis dedans, je vais les ramener au basic C'est l'instinct qui parle, un il sur le biz et un sur ma zik Je joue mon jeu à fond, fait ce que ma raison me dicte Pas d'otage, le plan, c'est l'argent de la maison de disque Gratte pas la confiance, je suis parano comme ils disent En plus tes yeux me parlent et trahisse ta triste comédie Maintenant que j'suis dans la musique tu peux plus me faire sortir Et si les curs sensibles se retirent, prêts à mourir dedans Ils voulaient kidnapper mon art, pirater mon navire, m'empêcher de bâtir Prendre ma place et niquer mon avenir Niquer mon business, mon hanout Mon destin inévitable comme ma rencontre avec Malik El Mawt Mais c'est mort, ils ont oubliés que j'avais que ça Tu respectes, je te respecte, c'est nouss nouss papa Au nom du HIP HOP, son de notre époque Son de tous les pôles, au nom des potes A qui les MD ferment les portes Don Choa Plus de fric, plus d'enjeu dans le biz Plus de risque, plus dangereux dans le biz Plus d'ennuis, plus d'envieux ils nous maudissent On garde confiance en Dieu en temps de crise1</t>
+          <t>Sat Faisons ce qu'on a à faire une bonne fois pour toutes Tant qu'on sera pas tiré d'affaire on vivra dans le doute, je te jure C'est pas le moment d'aller manger la gamelle Non pas maintenant qu'on a un nom et l'appui d'un label Voilà mon plan J'suis sur un coup, un gros, le casse du siècle J'prends le taureau par les couilles en 2005 Pas là pour jouer la comédie, ni pour donner une bonne image des beurs Comme ils disent, je fais mon biz La musique c'est pas easy, tu sais On na pas le savoir vivre des gens aisés Quand on se croise ça donnent lieu à des réunions d'indigènes On y met à plat toutes nos vies indigestes Je suis pas un artiste Sur la pente de ma vie j'ai trop pratiqué le hors-piste Si je m'en sors, ça sera pas sans des bleus sur le corps Mais comme dit la chanson j'en serais plus fort De toute façon j'attends pas de messie Rien ne tombe du ciel hormis des gros missiles Y'a pas d'avenir ici, ça pue le souffre comme en Sicile Si si, à Marseille city Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Menzo Ceux qui m'aiment le savent j'ai rien volé à personne Naviguer dans les eaux troubles, sans trahir ma personne Haine et peine sur ma route ont fait de moi c'que je suis Te casse pas la tête, jusqu'ici ça roule, MC Plus tu parles mal de moi, plus je sens que j'existe Même si mon espoir s'exile, j'résiste car la vie l'exige Le rap mon oxygène, mon passé, inchallah mon futur J'ai ça dans le sang mais tu le sais pas assez Qu'on m'comprenne ou pas, j'fais ça a ma façon Profite de mon respect avant de gouter à ma face sombre Passe mon salut au monde du rap à ceux qui rament Ceux qui grattent à tous nos proches qu'ont leur nom gravé sur du marbre A tous nos frères au hebs Plus mon rap est sincère, plus je me fais du mal, plus la vie ma marque 2005 frérot, chacun son biz Donc chacun sa façon de décrire le monde avec un stylo bille Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Don Choa Tout tourne autour du billet Pas envie d'être pris de court Plutôt les entendre dire crier oh putain ils sont de retour! On est sur le coup, toujours dans la course Le rap a les genoux dans la boue, le gun dans la bouche Prend les devants, qu'est-ce-que t'attends là, bouge Tellement sanglant que la couleur de l'argent passe du vert à rouge A chacun de faire sa route, moi ma rage déborde Pourquoi je fous mon petit bordel ? Je sors d'un grand désordre La première fois que tu nous a vus, à Brooklyn avec des menottes! Maintenant je suis dans la musique même si je connais pas deux notes On a rien trouvé de mieux comme business Prêt à tordre et à mordre, envie de croquer le monde comme Bill Gates Faut s'en sortir même si c'est sans issue Et qu'on se tire d'ici avant qu'on se tire dessus Qui reste déçu ? Qui encaisse ? Qui sue ? Qui pèse le plus ? Qui baise ? Qui suce? Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Le Rat Luciano Maintenant que je suis dedans, je vais les ramener au basic C'est l'instinct qui parle, un il sur le biz et un sur ma zik Je joue mon jeu à fond, fait ce que ma raison me dicte Pas d'otage, le plan, c'est l'argent de la maison de disque Gratte pas la confiance, je suis parano comme ils disent En plus tes yeux me parlent et trahisse ta triste comédie Maintenant que j'suis dans la musique tu peux plus me faire sortir Et si les curs sensibles se retirent, prêts à mourir dedans Ils voulaient kidnapper mon art, pirater mon navire, m'empêcher de bâtir Prendre ma place et niquer mon avenir Niquer mon business, mon hanout Mon destin inévitable comme ma rencontre avec Malik El Mawt Mais c'est mort, ils ont oubliés que j'avais que ça Tu respectes, je te respecte, c'est nouss nouss papa Au nom du HIP HOP, son de notre époque Son de tous les pôles, au nom des potes A qui les MD ferment les portes Don Choa Plus de fric, plus d'enjeu dans le biz Plus de risque, plus dangereux dans le biz Plus d'ennuis, plus d'envieux ils nous maudissent On garde confiance en Dieu en temps de crise1</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>J'suis dans les bails-ouails-ouails-ouails-ouails J'mets le way-way-way-way-way Là je fly-ouail-ouail-ouail-ouail J'mets la Chabrand dans la J'ai fait confiance mais c'est trop là J'vais finir seul comme un taulard Moi au fond, j'suis qu'un zonard J'évite les BDH, les folles, ah T'sais que mon son vient d'ailleurs Quand j'rappe et même à payol Et j'suis vite passé du stunt au Cayenne J'veux voir la mer sous une paillote Oh-oh Capo dei Capi Tu sais qu'c'est plus pareil Ça t'fait mal, oh-oh Tu sais qu'c'est plus pareil Faut qu'j'me taille J'mets la manita, j'protège la plata Million de problèmes, million de bagarres T'sais qu'c'est plus pareil, ouais c'est plus pareil J'ai plus la force de te rendre l'appareil Après on fait quoi ? Éteins ton séchoir Tu m'entends pas devant ton putain d'miroir Faudrait un miracle Pour essuyer tes larmes, hein-hein You might also like Fais-le, fais-le Tu voulais me voir céder Mais bon, soit y recèle Maintenant j'ai les yeux dépleurés, ah Vive ma vie à fond Fais-gaffe m'a dit la France Bandit pour la somme la somme Trop de vicieux dans la tess J'évade soucis dans ma tête mmm Des envies d'faire le tour d'la Terre J'tourne dans ville et j'fume ma beuh Dans la chaleur de la nuit, dans les rues d'Gotham Sans bruit je marche seul, comme Jean Jacques Goldman J'ignore les conseils, les appels au calme J'plane haut dans le ciel, j'regarde le monde qui crame En hélicoptère, j'suis les toits d'la ville J'serai comme le Joker, évadé d'l'asile Rêve d'une vie prospère et d'une vie facile Mais ici c'est la vida loca Vie d'amour et de frais, de cash et d'armes à feu Juste toi et moi, c'est la folie à deux Comme Joaquin Phoenix et Lady Gaga Dieu bénisse nos kids et nos baby mamas Tout l'monde veut sa part, s'infiltrer Faire le tour du monde, réaliser ses projets J'ai passé mon temps à chercher l'issue J'avoue que j'ai du mal à quitter le stud' On veut la belle vie Tout est possible quand tu prends toi, fiston Faut prendre des risques dans la vie La réussite se cache derrière la peur, mon ami Le temps passe vite, faut s'endurcir J'roule un stick pour pour oublier mes soucis J'aimerais m'enfuir Tout détruire et reconstruire Tous les soirs, j'suis die Elle veut ton amour ou ton PayPal Mélanie ou Meghan Tes copines prient pour qu'on se sépare J'fais l'affaire, j'la pouquette, et j'suis solo-lo-lo On est 15 dans le van, c'est la colo-lo-lo Cheveux longs, et croco sur le polo-lo-lo Et pour l'buzz, mon petit, elle te follow-low-low On veut les îles Maurice J'veux pas finir nourrice Devenir nouveau riche Mais pour ça faut du Ça fait longtemps que j'ai quitté le binks Te fais pas , ce qui faut, on le fait C'qu'il faut savoir, t'inquiète pas, on le sait Si il y a triple kichta, on le sert Ça fait longtemps que j'ai quitté le binks Te fais pas , ce qui faut, on le fait C'qu'il faut savoir, t'inquiète pas, on le sait Si il y a triple kichta, on le sert Y'en a très peu qui m'ont talonné W le moteur, il est barodé Deux millions le putain de baromètre La musique une vérité malhonnête Telles sont nos vies Partir d'ici, je t'ai promis Sur nous je mise Pas de compromis Le meilleur je vise All eyes on me Des jaloux à mort, rien à foutre, eh on vit Sur le vieux port, j'smoke ma weed Tu connais la suite, tu veux, on part Viens on prend la fuite, Lloret del mar Miami ou Rio rio Pété, danse le mia mia Cariño amore mio mio J'suis pété, j'danse le mia mia Assis au bord de la fenêtre du monde J'observe, j'écoute le bruit du silence shh Avec 10 grammes de Vue panoramique sur la Medina Loin des contraintes du quotidien Du côté sombre que le cartel ne te montre pas Armes exposées aux quatre vents Cadavre sur le goudron en gisant muchacho T'ont trahi, exécuté, en quatre temps en quatre temps En contre-temps On va tous monter au ciel au ciel, au ciel</t>
+          <t>J'suis dans les bails-ouails-ouails-ouails-ouails J'mets le way-way-way-way-way Là je fly-ouail-ouail-ouail-ouail J'mets la Chabrand dans la J'ai fait confiance mais c'est trop là J'vais finir seul comme un taulard Moi au fond, j'suis qu'un zonard J'évite les BDH, les folles, ah T'sais que mon son vient d'ailleurs Quand j'rappe et même à payol Et j'suis vite passé du stunt au Cayenne J'veux voir la mer sous une paillote Oh-oh Capo dei Capi Tu sais qu'c'est plus pareil Ça t'fait mal, oh-oh Tu sais qu'c'est plus pareil Faut qu'j'me taille J'mets la manita, j'protège la plata Million de problèmes, million de bagarres T'sais qu'c'est plus pareil, ouais c'est plus pareil J'ai plus la force de te rendre l'appareil Après on fait quoi ? Éteins ton séchoir Tu m'entends pas devant ton putain d'miroir Faudrait un miracle Pour essuyer tes larmes, hein-hein Fais-le, fais-le Tu voulais me voir céder Mais bon, soit y recèle Maintenant j'ai les yeux dépleurés, ah Vive ma vie à fond Fais-gaffe m'a dit la France Bandit pour la somme la somme Trop de vicieux dans la tess J'évade soucis dans ma tête mmm Des envies d'faire le tour d'la Terre J'tourne dans ville et j'fume ma beuh Dans la chaleur de la nuit, dans les rues d'Gotham Sans bruit je marche seul, comme Jean Jacques Goldman J'ignore les conseils, les appels au calme J'plane haut dans le ciel, j'regarde le monde qui crame En hélicoptère, j'suis les toits d'la ville J'serai comme le Joker, évadé d'l'asile Rêve d'une vie prospère et d'une vie facile Mais ici c'est la vida loca Vie d'amour et de frais, de cash et d'armes à feu Juste toi et moi, c'est la folie à deux Comme Joaquin Phoenix et Lady Gaga Dieu bénisse nos kids et nos baby mamas Tout l'monde veut sa part, s'infiltrer Faire le tour du monde, réaliser ses projets J'ai passé mon temps à chercher l'issue J'avoue que j'ai du mal à quitter le stud' On veut la belle vie Tout est possible quand tu prends toi, fiston Faut prendre des risques dans la vie La réussite se cache derrière la peur, mon ami Le temps passe vite, faut s'endurcir J'roule un stick pour pour oublier mes soucis J'aimerais m'enfuir Tout détruire et reconstruire Tous les soirs, j'suis die Elle veut ton amour ou ton PayPal Mélanie ou Meghan Tes copines prient pour qu'on se sépare J'fais l'affaire, j'la pouquette, et j'suis solo-lo-lo On est 15 dans le van, c'est la colo-lo-lo Cheveux longs, et croco sur le polo-lo-lo Et pour l'buzz, mon petit, elle te follow-low-low On veut les îles Maurice J'veux pas finir nourrice Devenir nouveau riche Mais pour ça faut du Ça fait longtemps que j'ai quitté le binks Te fais pas , ce qui faut, on le fait C'qu'il faut savoir, t'inquiète pas, on le sait Si il y a triple kichta, on le sert Ça fait longtemps que j'ai quitté le binks Te fais pas , ce qui faut, on le fait C'qu'il faut savoir, t'inquiète pas, on le sait Si il y a triple kichta, on le sert Y'en a très peu qui m'ont talonné W le moteur, il est barodé Deux millions le putain de baromètre La musique une vérité malhonnête Telles sont nos vies Partir d'ici, je t'ai promis Sur nous je mise Pas de compromis Le meilleur je vise All eyes on me Des jaloux à mort, rien à foutre, eh on vit Sur le vieux port, j'smoke ma weed Tu connais la suite, tu veux, on part Viens on prend la fuite, Lloret del mar Miami ou Rio rio Pété, danse le mia mia Cariño amore mio mio J'suis pété, j'danse le mia mia Assis au bord de la fenêtre du monde J'observe, j'écoute le bruit du silence shh Avec 10 grammes de Vue panoramique sur la Medina Loin des contraintes du quotidien Du côté sombre que le cartel ne te montre pas Armes exposées aux quatre vents Cadavre sur le goudron en gisant muchacho T'ont trahi, exécuté, en quatre temps en quatre temps En contre-temps On va tous monter au ciel au ciel, au ciel</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Mais qui peut nous découper ? x2 On est allez trop loin dans ce jeu pour en restez là Qui veut testez la Fonk Fam On est allez trop loin dans ce jeu pour en restez là Prends ça au sérieux avant testez la Famille infâme Sat LArtificier Je veux pas prétendre te cribler de trou comme une passoire J'invite les Mc de mes 2 qui veulent ma peau à aller se rasseoir J'entre dans le vive tranche comme une lame de rasoir Explosive comme une putain balle dans le réservoir C'est dangereux Comme un colis qui fait tic-tac Insulte mon crew on te plie en 2 comme un clic-clac Merde Ta mal choisit ton soir pour me tester Personne va te pleurez c'est au mic que tu vas-y restez Panique à déplorer quand ma clique se déploie sur la scène Et comme avec les Neg' Faut que ça saigne Fuck le social je veux voir FF zoner De gratte-ciel représenter jusque dans nos sous-sols Freestyle agressif, notes sacrifiées J'emmerde la justice et rap au nom de ceux dont y faut se méfier FF Si tu passes après faut que tu représentes sur une garce comme au micro Croit pas qu'on plaisante You might also like Don Choa Salement abominable FF rentre dedans Marre de cette attente interminable J'ai pas 32 ans mais pas 18 non plus Tu veux la suite marché conclue Tant que tu veux tu me critique moi je t'aime moi non plus Le monde évolue si vite Chacun veux palper son due Mais si ça part en poursuite tu peux embrasser mon cul Chien de malin on va-ten laisser des cicatrices Elle est plus large que le vagin d'une actrice de XXX On crame nos petits sticks vite et quand une bombe passe T'entends kskskss sans stress Mon micro est une arme tellement belle Comme American express ne sortez pas sans elle ? Vous me reconnaissez c'est le petit gars sans gêne Mon rap c'est de la tendresse comme un doigt entre tes lèvres Miss essuie tout grand tes lèvres Of the Fuck skool Funk soon De la Skunk je roule d'une bonne coule On te soûle salopard gros con de bourge J'épargne personne Les apparences trompent comme ces putains qui ont l'air bonne de loin Espèce d'obsédés mon but principal c'est de faire d'autre CD Alors fait le maintenait Do it now Je shoot puis ciao Chiennes et chattes font Ouw puis Miaouw Le Rat Luciano FF 2000 Parler à cur ouvert j'aime le faire mdam FF c'est mon groupe tous mes frères d'âmes Je donne tout mon amour Sans qu'ils sachent avec eux jusqu'à la mort Quitte à ce qu'on se tue à la tâche Quand j'écris c'est profond comme ce que ma mère me dit On à faim donne l'alerte La plupart des jours son merdique Le son choc tous qui bougent Du moins ça en a l'air Demande au jeune public Ça ne va pas et tu le sais dès qu'on parle Donc n'attend rien de jolie venant de notre part En 2000 la machine FF repart Grâce à Dieu on est encore en vie Quand tu veux on en reparle Faut pas que tu tarde ni que tu down men On dit des choses par besoin amour ou par haine Et on nous casse ça motive La roue tourne et plus vite que ce qu'on ne le croit Mon petit en 2000 FF Est ce qu'il y a danger ? Donne l'alerte Menzo Y a de l'action dans l'air Faut sonnez l'alerte Fier de retrouver mon équipe de mercenaire A ceux qui croyaient en notre perte On relance la compète 2000 faut ramener un son qui pète Avant on l'a niqué Aujourd'hui faut qu'on la raquette Tout en restant vrai et honnête Sur terre nul ne gratte des Hassanettes On doit les mériter FF pour les nôtres Croit entendus des débilités donc note Quon ne baissera pas notre froc Devant l'adversité Message adressé ouais A nos adversaires Etes-vous prêt pour la victoire Verse ici c'est l'inverse D'autres cas nous intéressent Ne pensez pas nous terrasser Endurcis par la galère qu'on traverse Par les malheurs qui font qu'un proche nous délaisse Et qu'une guerre n'a pas délais Alors prévient les tiens Ouais de pas se mêler Les miens pourront déclencher ou non On nest pas méchant C'est la paix que nous voulons On est déjà allez trop loin La victoire se gagne aussi au poing Miens tiens même sans armes Prêt à se battre avec ses poings Qu'on laissera jamais Dans un putain coin Je sais pas qu'est-ce tu as A mal parlez de nous continue comme ça On s'occupe de tout En aucun cas on va lâcher ce qu'on a FF est allez trop loin pour en restez là Je sais pas qu'est-ce tu as A mal parlez de nous continue comme ça On s'occupe de tout En aucun cas on va lâcher ce qu'on a FF est allez trop loin Tous aux abris quadrillez la ville FF x2</t>
+          <t>Mais qui peut nous découper ? x2 On est allez trop loin dans ce jeu pour en restez là Qui veut testez la Fonk Fam On est allez trop loin dans ce jeu pour en restez là Prends ça au sérieux avant testez la Famille infâme Sat LArtificier Je veux pas prétendre te cribler de trou comme une passoire J'invite les Mc de mes 2 qui veulent ma peau à aller se rasseoir J'entre dans le vive tranche comme une lame de rasoir Explosive comme une putain balle dans le réservoir C'est dangereux Comme un colis qui fait tic-tac Insulte mon crew on te plie en 2 comme un clic-clac Merde Ta mal choisit ton soir pour me tester Personne va te pleurez c'est au mic que tu vas-y restez Panique à déplorer quand ma clique se déploie sur la scène Et comme avec les Neg' Faut que ça saigne Fuck le social je veux voir FF zoner De gratte-ciel représenter jusque dans nos sous-sols Freestyle agressif, notes sacrifiées J'emmerde la justice et rap au nom de ceux dont y faut se méfier FF Si tu passes après faut que tu représentes sur une garce comme au micro Croit pas qu'on plaisante Don Choa Salement abominable FF rentre dedans Marre de cette attente interminable J'ai pas 32 ans mais pas 18 non plus Tu veux la suite marché conclue Tant que tu veux tu me critique moi je t'aime moi non plus Le monde évolue si vite Chacun veux palper son due Mais si ça part en poursuite tu peux embrasser mon cul Chien de malin on va-ten laisser des cicatrices Elle est plus large que le vagin d'une actrice de XXX On crame nos petits sticks vite et quand une bombe passe T'entends kskskss sans stress Mon micro est une arme tellement belle Comme American express ne sortez pas sans elle ? Vous me reconnaissez c'est le petit gars sans gêne Mon rap c'est de la tendresse comme un doigt entre tes lèvres Miss essuie tout grand tes lèvres Of the Fuck skool Funk soon De la Skunk je roule d'une bonne coule On te soûle salopard gros con de bourge J'épargne personne Les apparences trompent comme ces putains qui ont l'air bonne de loin Espèce d'obsédés mon but principal c'est de faire d'autre CD Alors fait le maintenait Do it now Je shoot puis ciao Chiennes et chattes font Ouw puis Miaouw Le Rat Luciano FF 2000 Parler à cur ouvert j'aime le faire mdam FF c'est mon groupe tous mes frères d'âmes Je donne tout mon amour Sans qu'ils sachent avec eux jusqu'à la mort Quitte à ce qu'on se tue à la tâche Quand j'écris c'est profond comme ce que ma mère me dit On à faim donne l'alerte La plupart des jours son merdique Le son choc tous qui bougent Du moins ça en a l'air Demande au jeune public Ça ne va pas et tu le sais dès qu'on parle Donc n'attend rien de jolie venant de notre part En 2000 la machine FF repart Grâce à Dieu on est encore en vie Quand tu veux on en reparle Faut pas que tu tarde ni que tu down men On dit des choses par besoin amour ou par haine Et on nous casse ça motive La roue tourne et plus vite que ce qu'on ne le croit Mon petit en 2000 FF Est ce qu'il y a danger ? Donne l'alerte Menzo Y a de l'action dans l'air Faut sonnez l'alerte Fier de retrouver mon équipe de mercenaire A ceux qui croyaient en notre perte On relance la compète 2000 faut ramener un son qui pète Avant on l'a niqué Aujourd'hui faut qu'on la raquette Tout en restant vrai et honnête Sur terre nul ne gratte des Hassanettes On doit les mériter FF pour les nôtres Croit entendus des débilités donc note Quon ne baissera pas notre froc Devant l'adversité Message adressé ouais A nos adversaires Etes-vous prêt pour la victoire Verse ici c'est l'inverse D'autres cas nous intéressent Ne pensez pas nous terrasser Endurcis par la galère qu'on traverse Par les malheurs qui font qu'un proche nous délaisse Et qu'une guerre n'a pas délais Alors prévient les tiens Ouais de pas se mêler Les miens pourront déclencher ou non On nest pas méchant C'est la paix que nous voulons On est déjà allez trop loin La victoire se gagne aussi au poing Miens tiens même sans armes Prêt à se battre avec ses poings Qu'on laissera jamais Dans un putain coin Je sais pas qu'est-ce tu as A mal parlez de nous continue comme ça On s'occupe de tout En aucun cas on va lâcher ce qu'on a FF est allez trop loin pour en restez là Je sais pas qu'est-ce tu as A mal parlez de nous continue comme ça On s'occupe de tout En aucun cas on va lâcher ce qu'on a FF est allez trop loin Tous aux abris quadrillez la ville FF x2</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, bordel, bordel toute la nuit ! J'viens du sud brûlant, sud puant, sud bruyant, sud chaud bouillant Sûr qu't'es dans l'sud les gens suent dans ma zone de turbulence Sud tellement sale qu'tu détales ou qu'tu repars en ambulance Sur instrumental tellement brutal qu'on tue la concurrence My man bilibang bang, dis-leur qu'on contrôle ce jeu N'essaie même pas de le faire car le sud le fait mieux Car le sud est trop teigneux, trop sévère, trop hargneux N'essaie même pas de me faire taire, n'essaie pas de me sucer la queue Ici c'est du nique tout, ici tout est plus chaud Nous on joue comme Zizou demande à Tommy Uzzo ! Elle, elle a le style, elle a le boule et elle en a rien à battre Elle veut pas le cure-dents elle veut la batte, elle veut du ratatatatata Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, bordel, bordel toute la nuit ! You might also like Je fous mon bordel bordel non-stop, toute la nuit man jusqu'au morning Don Cho ! Timinik, timinik, Euros, Dollars, Livres Sterling Comme ta Breitling, range ton bling bling je débarque speed à la big pimp ! Style de vermine, monte dans la berline et suce moi comme Bill Clint' Tu testes ma dream team, c'est du Boeing dans ton building J'suis , je suis l'ecstasy dans ton tchin-tchin Je touche ni copeaux ni shit, je cherche les chèques à 6 chiffres Le business c'est une trop grosse chatte pour ton petit chibre Elle veut du gros, elle veut des bulles dans son verre Elle veut pas des tes mythos ni de tes pubs mensongères Elle veut pas de pistolet à plomb, elle veut du 9M.M ! Elle veut du ho ! elle veut du ho ! Elle veut du hmm hmm hmm Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, bordel, bordel toute la nuit ! Je fais partie de ceux qui mordent mais pas de ceux qui aboient Je suis la pour niquer le bénef, baiser les flics, violer la loi J'ai le son pour te mettre K.O. comme un crochet dans le foie Le son qui te finit au couteau et qui va t'enterrer dans le bois Dès que je débarque, c'est le drame la foule s'écarte Et si je te parle de cent grammes, c'est pas du shit mais du C4 Je suis le fruit de cette époque où la coque se change en crack Où les revendeurs deviennent des grossistes, où les putes se changent en mac Pendant que je claque tout mon cash dans des tables de jeu Dans des sabres ou dans des chattes ou dans des sacs de beuh Juste sale morveux qui mène sa petite vie de dingue Ça fait bing, ça fait bing, ça fait clic clic bing Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, bordel, bordel toute la nuit !</t>
+          <t>Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, bordel, bordel toute la nuit ! J'viens du sud brûlant, sud puant, sud bruyant, sud chaud bouillant Sûr qu't'es dans l'sud les gens suent dans ma zone de turbulence Sud tellement sale qu'tu détales ou qu'tu repars en ambulance Sur instrumental tellement brutal qu'on tue la concurrence My man bilibang bang, dis-leur qu'on contrôle ce jeu N'essaie même pas de le faire car le sud le fait mieux Car le sud est trop teigneux, trop sévère, trop hargneux N'essaie même pas de me faire taire, n'essaie pas de me sucer la queue Ici c'est du nique tout, ici tout est plus chaud Nous on joue comme Zizou demande à Tommy Uzzo ! Elle, elle a le style, elle a le boule et elle en a rien à battre Elle veut pas le cure-dents elle veut la batte, elle veut du ratatatatata Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, bordel, bordel toute la nuit ! Je fous mon bordel bordel non-stop, toute la nuit man jusqu'au morning Don Cho ! Timinik, timinik, Euros, Dollars, Livres Sterling Comme ta Breitling, range ton bling bling je débarque speed à la big pimp ! Style de vermine, monte dans la berline et suce moi comme Bill Clint' Tu testes ma dream team, c'est du Boeing dans ton building J'suis , je suis l'ecstasy dans ton tchin-tchin Je touche ni copeaux ni shit, je cherche les chèques à 6 chiffres Le business c'est une trop grosse chatte pour ton petit chibre Elle veut du gros, elle veut des bulles dans son verre Elle veut pas des tes mythos ni de tes pubs mensongères Elle veut pas de pistolet à plomb, elle veut du 9M.M ! Elle veut du ho ! elle veut du ho ! Elle veut du hmm hmm hmm Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, bordel, bordel toute la nuit ! Je fais partie de ceux qui mordent mais pas de ceux qui aboient Je suis la pour niquer le bénef, baiser les flics, violer la loi J'ai le son pour te mettre K.O. comme un crochet dans le foie Le son qui te finit au couteau et qui va t'enterrer dans le bois Dès que je débarque, c'est le drame la foule s'écarte Et si je te parle de cent grammes, c'est pas du shit mais du C4 Je suis le fruit de cette époque où la coque se change en crack Où les revendeurs deviennent des grossistes, où les putes se changent en mac Pendant que je claque tout mon cash dans des tables de jeu Dans des sabres ou dans des chattes ou dans des sacs de beuh Juste sale morveux qui mène sa petite vie de dingue Ça fait bing, ça fait bing, ça fait clic clic bing Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Quoi ? J'fous le bordel toute la nuit ! Bordel, bordel, bordel, bordel toute la nuit !</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tout débute ici tout sfinira ailleurs Là où il y a le corps, il y a la mort, remets-toi de tes frayeurs Prédateur et proie chacun se bat pour ce qui est à lui La vie donne aux vivants les formules pour comprendre sa vie L'un chasse la solitude, l'autre la tristesse L'un cache la révolte, lautre montre sa richesse Plus de place pour la douceur ni pour les mises en scène Un nouvel amour remplace lancien cest ce que ce le poète enseigne Il ny a pas dautre couleur à part celle de largent On s'dit que la société est dure d'la changer même en la braquant La colère est sans fin la douleur est sans nom Les souvenirs d'enfance deviennent des souvenirs en or On vit tous les jours comme si cétait hier On sen bat les couilles de tout, chaque virée est peut-être la dernière Tout va de travers, mais tout se rejoint Tout ce quils ont, ils en sont fiers et nous on en a pas besoin Quune chose à savoir tout est à nous-même Une seule règle d'or resté vrai jusqu'au dernier je vous aime On ne peut rien changer même si on le voulait Souviens-toi leur joie cest notre peine qui est cagoulée Tout ce quon aime, cest tout ce quils détestent Tout à gagner rien à perdre victoire ou défaite Quartier attitude c'est le message De la rancur dans nos grand curs Du savoir vivre dans nos messages Cherche pas à comprendre si t'es pas dlà ! You might also like Ça tétonne Les jeunes défoncés les gamins qui déconnent T'applaudis des deux mains quand les condés les dégomment Tattendras combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones tout ce bordel ça tétonne Les jeunes défoncés les gamins qui déconnent Et t'applaudis des deux mains quand les condés les dégomment Il te faudra combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones L'arnaque vise le maximum, captif à Babylone Dans chaque coin ça gratte, rêve de plaque dor et platinium Paranoïaque sous cognac, sky, rhum ou Valium On craque et lÉtat braque pour le pétrole le gaz et luranium Diamant du Sierra Leone racket international Comme si je rentrais avec un lance-roquettes dans la banque mondiale Pourquoi tu me blâmes je suis que le fruit de mon époque Le diable veut échanger mon âme contre vingt-et-un grammes de coke Jai trop d'corps sur le carreau, le destin fait pas de cadeau Les jeunes sfâchent, les guns crachent pour le cash dEscobar Pablo Chacun veut sa part du gâteau même si la fin approche Jette nous du bateau les morts de faim saccrochent , ta poche, ta Porsche, si sa scorse on tamoche à la pioche, dit adios Oublie l'amour on joue pour la survie Chaque jour comme si c'était notre derrière nuit Avoir une vie normale on peut pas ! Ça tétonne Les jeunes défoncés les gamins qui déconnent T'applaudis des deux mains quand les condés les dégomment Tattendras combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones tout ce bordel ça tétonne Les jeunes défoncés les gamins qui déconnent Et t'applaudis des deux mains quand les condés les dégomment Il te faudra combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones Faut le courage et les poings serrés, qu'est-ce tu veux espérer Dans nos zones on compte plus ni les morts ni les gens quont serré Ni ceux qui triment, ni ceux qui baissent les bras, se laissent aller Ils friment mais leurs combines ne les mèneront pas à trente balais Pour sdéfendre pour trimbaler de la coke et des armes Lappât du gain pousse mes frères à vendre leurs âmes Dans ce contexte tout est emmêlé, écouté un sage Ghetto usé, pris en otage, normal quon ait la rage Cette vie décourage les plus déterminés les plus vaillant La réalité c'est qu'on dort dehors même en travaillant Au fond ce monde on le déguste pas, on le subit Toi tu te goinfres mais dans nos coins sache quon survit En manque de pèse, de pain, chaque jour à ses peines Dites-vous bien que si on splaint cest parce que la coupe est pleine Marre dêtre pris pour cible, jugés condamnés à tort Par une France qui voudrait nous voir en prison ou morts Cherche pas à comprendre si t'es pas dlà ! Ça tétonne Les jeunes défoncés les gamins qui déconnent T'applaudis des deux mains quand les condés les dégomment Tattendras combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones tout ce bordel ça tétonne Les jeunes défoncés les gamins qui déconnent Et t'applaudis des deux mains quand les condés les dégomment Il te faudra combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones</t>
+          <t>Tout débute ici tout sfinira ailleurs Là où il y a le corps, il y a la mort, remets-toi de tes frayeurs Prédateur et proie chacun se bat pour ce qui est à lui La vie donne aux vivants les formules pour comprendre sa vie L'un chasse la solitude, l'autre la tristesse L'un cache la révolte, lautre montre sa richesse Plus de place pour la douceur ni pour les mises en scène Un nouvel amour remplace lancien cest ce que ce le poète enseigne Il ny a pas dautre couleur à part celle de largent On s'dit que la société est dure d'la changer même en la braquant La colère est sans fin la douleur est sans nom Les souvenirs d'enfance deviennent des souvenirs en or On vit tous les jours comme si cétait hier On sen bat les couilles de tout, chaque virée est peut-être la dernière Tout va de travers, mais tout se rejoint Tout ce quils ont, ils en sont fiers et nous on en a pas besoin Quune chose à savoir tout est à nous-même Une seule règle d'or resté vrai jusqu'au dernier je vous aime On ne peut rien changer même si on le voulait Souviens-toi leur joie cest notre peine qui est cagoulée Tout ce quon aime, cest tout ce quils détestent Tout à gagner rien à perdre victoire ou défaite Quartier attitude c'est le message De la rancur dans nos grand curs Du savoir vivre dans nos messages Cherche pas à comprendre si t'es pas dlà ! Ça tétonne Les jeunes défoncés les gamins qui déconnent T'applaudis des deux mains quand les condés les dégomment Tattendras combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones tout ce bordel ça tétonne Les jeunes défoncés les gamins qui déconnent Et t'applaudis des deux mains quand les condés les dégomment Il te faudra combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones L'arnaque vise le maximum, captif à Babylone Dans chaque coin ça gratte, rêve de plaque dor et platinium Paranoïaque sous cognac, sky, rhum ou Valium On craque et lÉtat braque pour le pétrole le gaz et luranium Diamant du Sierra Leone racket international Comme si je rentrais avec un lance-roquettes dans la banque mondiale Pourquoi tu me blâmes je suis que le fruit de mon époque Le diable veut échanger mon âme contre vingt-et-un grammes de coke Jai trop d'corps sur le carreau, le destin fait pas de cadeau Les jeunes sfâchent, les guns crachent pour le cash dEscobar Pablo Chacun veut sa part du gâteau même si la fin approche Jette nous du bateau les morts de faim saccrochent , ta poche, ta Porsche, si sa scorse on tamoche à la pioche, dit adios Oublie l'amour on joue pour la survie Chaque jour comme si c'était notre derrière nuit Avoir une vie normale on peut pas ! Ça tétonne Les jeunes défoncés les gamins qui déconnent T'applaudis des deux mains quand les condés les dégomment Tattendras combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones tout ce bordel ça tétonne Les jeunes défoncés les gamins qui déconnent Et t'applaudis des deux mains quand les condés les dégomment Il te faudra combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones Faut le courage et les poings serrés, qu'est-ce tu veux espérer Dans nos zones on compte plus ni les morts ni les gens quont serré Ni ceux qui triment, ni ceux qui baissent les bras, se laissent aller Ils friment mais leurs combines ne les mèneront pas à trente balais Pour sdéfendre pour trimbaler de la coke et des armes Lappât du gain pousse mes frères à vendre leurs âmes Dans ce contexte tout est emmêlé, écouté un sage Ghetto usé, pris en otage, normal quon ait la rage Cette vie décourage les plus déterminés les plus vaillant La réalité c'est qu'on dort dehors même en travaillant Au fond ce monde on le déguste pas, on le subit Toi tu te goinfres mais dans nos coins sache quon survit En manque de pèse, de pain, chaque jour à ses peines Dites-vous bien que si on splaint cest parce que la coupe est pleine Marre dêtre pris pour cible, jugés condamnés à tort Par une France qui voudrait nous voir en prison ou morts Cherche pas à comprendre si t'es pas dlà ! Ça tétonne Les jeunes défoncés les gamins qui déconnent T'applaudis des deux mains quand les condés les dégomment Tattendras combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones tout ce bordel ça tétonne Les jeunes défoncés les gamins qui déconnent Et t'applaudis des deux mains quand les condés les dégomment Il te faudra combien de temps avant de nous traiter comme des hommes C'est pour tous les coins toutes les zones</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sat Faisons ce qu'on a à faire une bonne fois pour toutes Tant qu'on sera pas tiré d'affaire on vivra dans le doute, je te jure C'est pas le moment d'aller manger la gamelle Non pas maintenant qu'on a un nom et l'appui d'un label Voilà mon plan J'suis sur un coup, un gros, le casse du siècle J'prends le taureau par les couilles en 2005 Pas là pour jouer la comédie, ni pour donner une bonne image des beurs Comme ils disent, je fais mon biz La musique c'est pas easy, tu sais On na pas le savoir vivre des gens aisés Quand on se croise ça donnent lieu à des réunions d'indigènes On y met à plat toutes nos vies indigestes Je suis pas un artiste Sur la pente de ma vie j'ai trop pratiqué le hors-piste Si je m'en sors, ça sera pas sans des bleus sur le corps Mais comme dit la chanson j'en serais plus fort De toute façon j'attends pas de messie Rien ne tombe du ciel hormis des gros missiles Y'a pas d'avenir ici, ça pue le souffre comme en Sicile Si si, à Marseille city Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique You might also like Menzo Ceux qui m'aiment le savent j'ai rien volé à personne Naviguer dans les eaux troubles, sans trahir ma personne Haine et peine sur ma route ont fait de moi c'que je suis Te casse pas la tête, jusqu'ici ça roule, MC Plus tu parles mal de moi, plus je sens que j'existe Même si mon espoir s'exile, j'résiste car la vie l'exige Le rap mon oxygène, mon passé, inchallah mon futur J'ai ça dans le sang mais tu le sais pas assez Qu'on m'comprenne ou pas, j'fais ça a ma façon Profite de mon respect avant de gouter à ma face sombre Passe mon salut au monde du rap à ceux qui rament Ceux qui grattent à tous nos proches qu'ont leur nom gravé sur du marbre A tous nos frères au hebs Plus mon rap est sincère, plus je me fais du mal, plus la vie ma marque 2005 frérot, chacun son biz Donc chacun sa façon de décrire le monde avec un stylo bille Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Don Choa Tout tourne autour du billet Pas envie d'être pris de court Plutôt les entendre dire crier oh putain ils sont de retour! On est sur le coup, toujours dans la course Le rap a les genoux dans la boue, le gun dans la bouche Prend les devants, qu'est-ce-que t'attends là, bouge Tellement sanglant que la couleur de l'argent passe du vert à rouge A chacun de faire sa route, moi ma rage déborde Pourquoi je fous mon petit bordel ? Je sors d'un grand désordre La première fois que tu nous a vus, à Brooklyn avec des menottes! Maintenant je suis dans la musique même si je connais pas deux notes On a rien trouvé de mieux comme business Prêt à tordre et à mordre, envie de croquer le monde comme Bill Gates Faut s'en sortir même si c'est sans issue Et qu'on se tire d'ici avant qu'on se tire dessus Qui reste déçu ? Qui encaisse ? Qui sue ? Qui pèse le plus ? Qui baise ? Qui suce? Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Le Rat Luciano Maintenant que je suis dedans, je vais les ramener au basic C'est l'instinct qui parle, un il sur le biz et un sur ma zik Je joue mon jeu à fond, fait ce que ma raison me dicte Pas d'otage, le plan, c'est l'argent de la maison de disque Gratte pas la confiance, je suis parano comme ils disent En plus tes yeux me parlent et trahisse ta triste comédie Maintenant que j'suis dans la musique tu peux plus me faire sortir Et si les curs sensibles se retirent, prêts à mourir dedans Ils voulaient kidnapper mon art, pirater mon navire, m'empêcher de bâtir Prendre ma place et niquer mon avenir Niquer mon business, mon hanout Mon destin inévitable comme ma rencontre avec Malik El Mawt Mais c'est mort, ils ont oubliés que j'avais que ça Tu respectes, je te respecte, c'est nouss nouss papa Au nom du HIP HOP, son de notre époque Son de tous les pôles, au nom des potes A qui les MD ferment les portes Don Choa Plus de fric, plus d'enjeu dans le biz Plus de risque, plus dangereux dans le biz Plus d'ennuis, plus d'envieux ils nous maudissent On garde confiance en Dieu en temps de crise1</t>
+          <t>Sat Faisons ce qu'on a à faire une bonne fois pour toutes Tant qu'on sera pas tiré d'affaire on vivra dans le doute, je te jure C'est pas le moment d'aller manger la gamelle Non pas maintenant qu'on a un nom et l'appui d'un label Voilà mon plan J'suis sur un coup, un gros, le casse du siècle J'prends le taureau par les couilles en 2005 Pas là pour jouer la comédie, ni pour donner une bonne image des beurs Comme ils disent, je fais mon biz La musique c'est pas easy, tu sais On na pas le savoir vivre des gens aisés Quand on se croise ça donnent lieu à des réunions d'indigènes On y met à plat toutes nos vies indigestes Je suis pas un artiste Sur la pente de ma vie j'ai trop pratiqué le hors-piste Si je m'en sors, ça sera pas sans des bleus sur le corps Mais comme dit la chanson j'en serais plus fort De toute façon j'attends pas de messie Rien ne tombe du ciel hormis des gros missiles Y'a pas d'avenir ici, ça pue le souffre comme en Sicile Si si, à Marseille city Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Menzo Ceux qui m'aiment le savent j'ai rien volé à personne Naviguer dans les eaux troubles, sans trahir ma personne Haine et peine sur ma route ont fait de moi c'que je suis Te casse pas la tête, jusqu'ici ça roule, MC Plus tu parles mal de moi, plus je sens que j'existe Même si mon espoir s'exile, j'résiste car la vie l'exige Le rap mon oxygène, mon passé, inchallah mon futur J'ai ça dans le sang mais tu le sais pas assez Qu'on m'comprenne ou pas, j'fais ça a ma façon Profite de mon respect avant de gouter à ma face sombre Passe mon salut au monde du rap à ceux qui rament Ceux qui grattent à tous nos proches qu'ont leur nom gravé sur du marbre A tous nos frères au hebs Plus mon rap est sincère, plus je me fais du mal, plus la vie ma marque 2005 frérot, chacun son biz Donc chacun sa façon de décrire le monde avec un stylo bille Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Don Choa Tout tourne autour du billet Pas envie d'être pris de court Plutôt les entendre dire crier oh putain ils sont de retour! On est sur le coup, toujours dans la course Le rap a les genoux dans la boue, le gun dans la bouche Prend les devants, qu'est-ce-que t'attends là, bouge Tellement sanglant que la couleur de l'argent passe du vert à rouge A chacun de faire sa route, moi ma rage déborde Pourquoi je fous mon petit bordel ? Je sors d'un grand désordre La première fois que tu nous a vus, à Brooklyn avec des menottes! Maintenant je suis dans la musique même si je connais pas deux notes On a rien trouvé de mieux comme business Prêt à tordre et à mordre, envie de croquer le monde comme Bill Gates Faut s'en sortir même si c'est sans issue Et qu'on se tire d'ici avant qu'on se tire dessus Qui reste déçu ? Qui encaisse ? Qui sue ? Qui pèse le plus ? Qui baise ? Qui suce? Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Le Rat Luciano Maintenant que je suis dedans, je vais les ramener au basic C'est l'instinct qui parle, un il sur le biz et un sur ma zik Je joue mon jeu à fond, fait ce que ma raison me dicte Pas d'otage, le plan, c'est l'argent de la maison de disque Gratte pas la confiance, je suis parano comme ils disent En plus tes yeux me parlent et trahisse ta triste comédie Maintenant que j'suis dans la musique tu peux plus me faire sortir Et si les curs sensibles se retirent, prêts à mourir dedans Ils voulaient kidnapper mon art, pirater mon navire, m'empêcher de bâtir Prendre ma place et niquer mon avenir Niquer mon business, mon hanout Mon destin inévitable comme ma rencontre avec Malik El Mawt Mais c'est mort, ils ont oubliés que j'avais que ça Tu respectes, je te respecte, c'est nouss nouss papa Au nom du HIP HOP, son de notre époque Son de tous les pôles, au nom des potes A qui les MD ferment les portes Don Choa Plus de fric, plus d'enjeu dans le biz Plus de risque, plus dangereux dans le biz Plus d'ennuis, plus d'envieux ils nous maudissent On garde confiance en Dieu en temps de crise1</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Moi, c'est Ju-Jul, j'suis en Rebook J'suis dans ma bulle, j'veux pas qu'tu m'bookes Tu es mon poto, j'te montre où j'suis Mais mon poto, faut pas qu'tu m'pouques Ils m'cassent les couilles, la vie d'pépé Cherchent tous à savoir où j'étais J'suis devant le mic' hiver, été Pas de gang, pas de PGP Ils m'cassent les couilles, la vie d'pépé Cherchent tous à savoir où j'étais J'suis devant le mic' hiver, été Pas de gang, pas de PGP Dans les ruelles, ça t'charcle Ça crie akha, ouais, parce que Y a les poulets qui débarquent Si tu cours pas, ils t'mbarquent Personne m'a fait la pass et j'ai marqué Maintenant, j'veux du marbre sur mon parquet J'veux pas m'retrouver au parquet J'aime pas les tchoupeurs qui font remarquer Dans le secteur, c'est miné, gros J'vois la patrouille dans le rétro Y a des hauts, des bas, on s'y fait, gros Tu changes de team, ça s'fait pas, tu fais qu'tchouper gros You might also like x 2 Fils de jaloux, tu m'aimes pas Qu'est-ce c'que j't'ai fait? J'sais même pas Mais bon, j'suis là, j'me plains pas Venez pas m'faire les sympas Moi, c'est Don Cho', j'suis dans mes Nike J'suis dans ma bulle, j'suis dans mes vibes J'suis dans la brume, j'suis dans le vague J'suis même plus là, j'suis dans les vapes Toxic Non, j'suis pas là, il faut pas chercher Et même si j'suis là, j'vais pas rester On m'comprend pas, j'suis trop perché J'suis dans l'espace comme Thomas Pesquet J'fais qu'tout saboter Quand j'tire, ça passe à côté J'rate jamais une occasion de rater une occasion J'roule en voiture d'occasion Et même mes shoes ne sont pas trop neuves J'veux ramasser l'blé comme une moissonneuse Pêcher dans les eaux poissonneuses J'veux l'bonheur, la santé L'sourire d'N'Golo Kanté Rester sur la plage à glander avec Ariana Grande Je n'suis qu'un p'tit escro lambda J'connais l'bitume comme Gianni Longo Ah oui, j'ai faim comme à Koh-Lanta Je gagne à la fin comme Colombo Ils m'tirent dans les pattes, ils m'tirent dans l'dos Mais je les plie comme Marie Kondo On les refroidit, ils croient qu'ils sont chauds Ils n'sont pas chauds comme Mister Don Cho' J'suis pas Ne-Yo, même avec des sous C'est dur de croire à un monde meilleur Faut le milliard, c'est pas New York On s'fait la guerre comme à Jonea C'est bien d'ailleurs, viens dans my world On veut être champion comme le Bayern J'peux te dire qu'si t'as fait du mal T'arrêteras pas les balles comme Neuer Faut pas calculer ces enculés Les calculer, c'est reculer J'ai revu des photos défilées Il est bizarre, l'être humain Dans les ruelles, ça t'charcle Ça crie akha, ouais, parce que Y a les poulets qui débarquent Si tu cours pas, ils t'embarquent Personne m'a fait la passe et j'ai marqué Maintenant, j'veux du marbre sur mon parquet J'veux pas m'retrouver au parquet J'aime pas les tchoupeurs qui font remarquer Dans le secteur, c'est miné, gros J'vois la patrouille dans le rétro Y a des hauts, des bas, on s'y fait, gros Tu changes de team, ça s'fait pas, tu fais qu'tchouper gros x 2 Fils de jaloux, tu m'aimes pas Qu'est-ce c'que j't'ai fait? J'sais même pas Mais bon, j'suis là, j'me plains pas Venez pas m'faire les sympas</t>
+          <t>Moi, c'est Ju-Jul, j'suis en Rebook J'suis dans ma bulle, j'veux pas qu'tu m'bookes Tu es mon poto, j'te montre où j'suis Mais mon poto, faut pas qu'tu m'pouques Ils m'cassent les couilles, la vie d'pépé Cherchent tous à savoir où j'étais J'suis devant le mic' hiver, été Pas de gang, pas de PGP Ils m'cassent les couilles, la vie d'pépé Cherchent tous à savoir où j'étais J'suis devant le mic' hiver, été Pas de gang, pas de PGP Dans les ruelles, ça t'charcle Ça crie akha, ouais, parce que Y a les poulets qui débarquent Si tu cours pas, ils t'mbarquent Personne m'a fait la pass et j'ai marqué Maintenant, j'veux du marbre sur mon parquet J'veux pas m'retrouver au parquet J'aime pas les tchoupeurs qui font remarquer Dans le secteur, c'est miné, gros J'vois la patrouille dans le rétro Y a des hauts, des bas, on s'y fait, gros Tu changes de team, ça s'fait pas, tu fais qu'tchouper gros x 2 Fils de jaloux, tu m'aimes pas Qu'est-ce c'que j't'ai fait? J'sais même pas Mais bon, j'suis là, j'me plains pas Venez pas m'faire les sympas Moi, c'est Don Cho', j'suis dans mes Nike J'suis dans ma bulle, j'suis dans mes vibes J'suis dans la brume, j'suis dans le vague J'suis même plus là, j'suis dans les vapes Toxic Non, j'suis pas là, il faut pas chercher Et même si j'suis là, j'vais pas rester On m'comprend pas, j'suis trop perché J'suis dans l'espace comme Thomas Pesquet J'fais qu'tout saboter Quand j'tire, ça passe à côté J'rate jamais une occasion de rater une occasion J'roule en voiture d'occasion Et même mes shoes ne sont pas trop neuves J'veux ramasser l'blé comme une moissonneuse Pêcher dans les eaux poissonneuses J'veux l'bonheur, la santé L'sourire d'N'Golo Kanté Rester sur la plage à glander avec Ariana Grande Je n'suis qu'un p'tit escro lambda J'connais l'bitume comme Gianni Longo Ah oui, j'ai faim comme à Koh-Lanta Je gagne à la fin comme Colombo Ils m'tirent dans les pattes, ils m'tirent dans l'dos Mais je les plie comme Marie Kondo On les refroidit, ils croient qu'ils sont chauds Ils n'sont pas chauds comme Mister Don Cho' J'suis pas Ne-Yo, même avec des sous C'est dur de croire à un monde meilleur Faut le milliard, c'est pas New York On s'fait la guerre comme à Jonea C'est bien d'ailleurs, viens dans my world On veut être champion comme le Bayern J'peux te dire qu'si t'as fait du mal T'arrêteras pas les balles comme Neuer Faut pas calculer ces enculés Les calculer, c'est reculer J'ai revu des photos défilées Il est bizarre, l'être humain Dans les ruelles, ça t'charcle Ça crie akha, ouais, parce que Y a les poulets qui débarquent Si tu cours pas, ils t'embarquent Personne m'a fait la passe et j'ai marqué Maintenant, j'veux du marbre sur mon parquet J'veux pas m'retrouver au parquet J'aime pas les tchoupeurs qui font remarquer Dans le secteur, c'est miné, gros J'vois la patrouille dans le rétro Y a des hauts, des bas, on s'y fait, gros Tu changes de team, ça s'fait pas, tu fais qu'tchouper gros x 2 Fils de jaloux, tu m'aimes pas Qu'est-ce c'que j't'ai fait? J'sais même pas Mais bon, j'suis là, j'me plains pas Venez pas m'faire les sympas</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Sat Faisons ce qu'on a à faire une bonne fois pour toutes Tant qu'on sera pas tiré d'affaire on vivra dans le doute, je te jure C'est pas le moment d'aller manger la gamelle Non pas maintenant qu'on a un nom et l'appui d'un label Voilà mon plan J'suis sur un coup, un gros, le casse du siècle J'prends le taureau par les couilles en 2005 Pas là pour jouer la comédie, ni pour donner une bonne image des beurs Comme ils disent, je fais mon biz La musique c'est pas easy, tu sais On na pas le savoir vivre des gens aisés Quand on se croise ça donnent lieu à des réunions d'indigènes On y met à plat toutes nos vies indigestes Je suis pas un artiste Sur la pente de ma vie j'ai trop pratiqué le hors-piste Si je m'en sors, ça sera pas sans des bleus sur le corps Mais comme dit la chanson j'en serais plus fort De toute façon j'attends pas de messie Rien ne tombe du ciel hormis des gros missiles Y'a pas d'avenir ici, ça pue le souffre comme en Sicile Si si, à Marseille city Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique You might also like Menzo Ceux qui m'aiment le savent j'ai rien volé à personne Naviguer dans les eaux troubles, sans trahir ma personne Haine et peine sur ma route ont fait de moi c'que je suis Te casse pas la tête, jusqu'ici ça roule, MC Plus tu parles mal de moi, plus je sens que j'existe Même si mon espoir s'exile, j'résiste car la vie l'exige Le rap mon oxygène, mon passé, inchallah mon futur J'ai ça dans le sang mais tu le sais pas assez Qu'on m'comprenne ou pas, j'fais ça a ma façon Profite de mon respect avant de gouter à ma face sombre Passe mon salut au monde du rap à ceux qui rament Ceux qui grattent à tous nos proches qu'ont leur nom gravé sur du marbre A tous nos frères au hebs Plus mon rap est sincère, plus je me fais du mal, plus la vie ma marque 2005 frérot, chacun son biz Donc chacun sa façon de décrire le monde avec un stylo bille Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Don Choa Tout tourne autour du billet Pas envie d'être pris de court Plutôt les entendre dire crier oh putain ils sont de retour! On est sur le coup, toujours dans la course Le rap a les genoux dans la boue, le gun dans la bouche Prend les devants, qu'est-ce-que t'attends là, bouge Tellement sanglant que la couleur de l'argent passe du vert à rouge A chacun de faire sa route, moi ma rage déborde Pourquoi je fous mon petit bordel ? Je sors d'un grand désordre La première fois que tu nous a vus, à Brooklyn avec des menottes! Maintenant je suis dans la musique même si je connais pas deux notes On a rien trouvé de mieux comme business Prêt à tordre et à mordre, envie de croquer le monde comme Bill Gates Faut s'en sortir même si c'est sans issue Et qu'on se tire d'ici avant qu'on se tire dessus Qui reste déçu ? Qui encaisse ? Qui sue ? Qui pèse le plus ? Qui baise ? Qui suce? Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Le Rat Luciano Maintenant que je suis dedans, je vais les ramener au basic C'est l'instinct qui parle, un il sur le biz et un sur ma zik Je joue mon jeu à fond, fait ce que ma raison me dicte Pas d'otage, le plan, c'est l'argent de la maison de disque Gratte pas la confiance, je suis parano comme ils disent En plus tes yeux me parlent et trahisse ta triste comédie Maintenant que j'suis dans la musique tu peux plus me faire sortir Et si les curs sensibles se retirent, prêts à mourir dedans Ils voulaient kidnapper mon art, pirater mon navire, m'empêcher de bâtir Prendre ma place et niquer mon avenir Niquer mon business, mon hanout Mon destin inévitable comme ma rencontre avec Malik El Mawt Mais c'est mort, ils ont oubliés que j'avais que ça Tu respectes, je te respecte, c'est nouss nouss papa Au nom du HIP HOP, son de notre époque Son de tous les pôles, au nom des potes A qui les MD ferment les portes Don Choa Plus de fric, plus d'enjeu dans le biz Plus de risque, plus dangereux dans le biz Plus d'ennuis, plus d'envieux ils nous maudissent On garde confiance en Dieu en temps de crise1</t>
+          <t>Sat Faisons ce qu'on a à faire une bonne fois pour toutes Tant qu'on sera pas tiré d'affaire on vivra dans le doute, je te jure C'est pas le moment d'aller manger la gamelle Non pas maintenant qu'on a un nom et l'appui d'un label Voilà mon plan J'suis sur un coup, un gros, le casse du siècle J'prends le taureau par les couilles en 2005 Pas là pour jouer la comédie, ni pour donner une bonne image des beurs Comme ils disent, je fais mon biz La musique c'est pas easy, tu sais On na pas le savoir vivre des gens aisés Quand on se croise ça donnent lieu à des réunions d'indigènes On y met à plat toutes nos vies indigestes Je suis pas un artiste Sur la pente de ma vie j'ai trop pratiqué le hors-piste Si je m'en sors, ça sera pas sans des bleus sur le corps Mais comme dit la chanson j'en serais plus fort De toute façon j'attends pas de messie Rien ne tombe du ciel hormis des gros missiles Y'a pas d'avenir ici, ça pue le souffre comme en Sicile Si si, à Marseille city Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Menzo Ceux qui m'aiment le savent j'ai rien volé à personne Naviguer dans les eaux troubles, sans trahir ma personne Haine et peine sur ma route ont fait de moi c'que je suis Te casse pas la tête, jusqu'ici ça roule, MC Plus tu parles mal de moi, plus je sens que j'existe Même si mon espoir s'exile, j'résiste car la vie l'exige Le rap mon oxygène, mon passé, inchallah mon futur J'ai ça dans le sang mais tu le sais pas assez Qu'on m'comprenne ou pas, j'fais ça a ma façon Profite de mon respect avant de gouter à ma face sombre Passe mon salut au monde du rap à ceux qui rament Ceux qui grattent à tous nos proches qu'ont leur nom gravé sur du marbre A tous nos frères au hebs Plus mon rap est sincère, plus je me fais du mal, plus la vie ma marque 2005 frérot, chacun son biz Donc chacun sa façon de décrire le monde avec un stylo bille Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Don Choa Tout tourne autour du billet Pas envie d'être pris de court Plutôt les entendre dire crier oh putain ils sont de retour! On est sur le coup, toujours dans la course Le rap a les genoux dans la boue, le gun dans la bouche Prend les devants, qu'est-ce-que t'attends là, bouge Tellement sanglant que la couleur de l'argent passe du vert à rouge A chacun de faire sa route, moi ma rage déborde Pourquoi je fous mon petit bordel ? Je sors d'un grand désordre La première fois que tu nous a vus, à Brooklyn avec des menottes! Maintenant je suis dans la musique même si je connais pas deux notes On a rien trouvé de mieux comme business Prêt à tordre et à mordre, envie de croquer le monde comme Bill Gates Faut s'en sortir même si c'est sans issue Et qu'on se tire d'ici avant qu'on se tire dessus Qui reste déçu ? Qui encaisse ? Qui sue ? Qui pèse le plus ? Qui baise ? Qui suce? Chacun son business C'est chacun sa merde, nique sa mère On fait notre biz On revient aux affaires dans le trafic d'art, frère Nique le show business Plus de fric, plus d'enjeux Plus de risque, plus dangereux Plus t'en a plus t'en veux! On fait notre biz A notre sauce, le stylo à la place du flingue Et c'est l'anarchie en musique Le Rat Luciano Maintenant que je suis dedans, je vais les ramener au basic C'est l'instinct qui parle, un il sur le biz et un sur ma zik Je joue mon jeu à fond, fait ce que ma raison me dicte Pas d'otage, le plan, c'est l'argent de la maison de disque Gratte pas la confiance, je suis parano comme ils disent En plus tes yeux me parlent et trahisse ta triste comédie Maintenant que j'suis dans la musique tu peux plus me faire sortir Et si les curs sensibles se retirent, prêts à mourir dedans Ils voulaient kidnapper mon art, pirater mon navire, m'empêcher de bâtir Prendre ma place et niquer mon avenir Niquer mon business, mon hanout Mon destin inévitable comme ma rencontre avec Malik El Mawt Mais c'est mort, ils ont oubliés que j'avais que ça Tu respectes, je te respecte, c'est nouss nouss papa Au nom du HIP HOP, son de notre époque Son de tous les pôles, au nom des potes A qui les MD ferment les portes Don Choa Plus de fric, plus d'enjeu dans le biz Plus de risque, plus dangereux dans le biz Plus d'ennuis, plus d'envieux ils nous maudissent On garde confiance en Dieu en temps de crise1</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>On m'a pas dit comment faire dans les cuisines de l'enfer Ou les égouts du paradis, tu sens c'goût de maladie ? Entre poux et parasites, l'angoisse te pousse ou t'paralyse ? Jette ton bout d'paraffine, roots jusqu'à la racine Ouvre le parapluie, fou comme Bernie, j'bouffe le canari C'est rouge et ça coule de ta narine, j'm'étouffe, T.H.C, gaz carbonique Mais pousse pas l'vice jusqu'à la C.C et narcotiques J'm'essouffle, suis-moi si t'aimes bien suer un p'tit peu Toute cette inactivité va finir par m'tuer à p'tit feu J'veux faire plein d'trucs, en fin d'compte, je fais rien L'important, c'est d'avoir un but je suis loin du compte, je sais bien Affronte, qu'est-ce qui t'retient ? Regarde ce monde, c'est l'tien Le shit monte, l'effet vient, on est bien Dans les vapeurs toxiques, ma vie part en fumée Dans les vapeurs toxiques, envie d'tout brûler Dans les vapeurs toxiques, on a les limites qu'on s'fixe J'suis scotché, accroché, faut qu'j'me réveille avant d'm'asphyxier Dans les vapeurs toxiques, ça pue la mort comme l'or du Vatican Vapeurs toxiques, guerres et paix, crimes et châtiments Vapeurs toxiques, on pousse les risques jusqu'à l'accident Vapeurs toxiques On est libre de nos mouvements, prisonnier dans nos têtes Est-ce que la réussite sourit souvent aux gens droits et honnêtes ? Dans c'monde de gros traîtres, corruption, manigance, cupidité Arrogance et futilité, ignorance et stupidité Pas d'indulgence, ni d'humilité, j'fais qu'donner mon avis Le seul jugement qu'j'attends est censé s'passer après la vie Lucide et naïf, j'ai ni Merco, ni AX M'appelle pas Caïd mais Cahill, que d'la musique à mon actif Un avec la foi deux en vitesse, j'remonte mon avenue J'dis un merde au show-business deux gloire à l'art de rue Trois qui vivra verra, si t'es venu, t'as vu J'crois que dans cette affaire, y'aura ni vainqueur, ni vaincu Que des victimes du système Et si, j'étais aussi victime de moi-même ? Et si, j'essaie de vivre voilà de quoi j'suis coupable, et d'quoi d'autre ? Tous les yeux sur moi comme si j'étais 2Pac ou dans l'Loft J'suis parano comme tous ces cinglés d'barges, et alors ? De ma bouche coule un filet de bave, ah d'accord J'voulais être cool mais des enculés me narguent et m'abordent Ce sont ces bâtards des forces de l'ordre, on y est... You might also like Dans les vapeurs toxiques, ma vie part en fumée Dans les vapeurs toxiques, envie d'tout brûler Dans les vapeurs toxiques, on a les limites qu'on s'fixe J'suis scotché, accroché, faut qu'j'me réveille avant d'm'asphyxier Dans les vapeurs toxiques, ça pue la mort comme l'or du Vatican Vapeurs toxiques, guerres et paix, crimes et châtiments Vapeurs toxiques, on pousse les risques jusqu'à l'accident Vapeurs toxiques Celui qui croit qu'son cul prend d'la hauteur se casse le coccyx Dis Bonjour au nouveau chauffeur, j'braque le cockpit J'me dis Fais tes affaires et n'aie pas peur, profite Y'aura rien pour les dormeurs, don't sleep, mec Je sais qu'c'est dur mais il faut vivre Sans sombrer dans la folie, ni compter sur des hypocrites J'suis fautif, est-ce que j'vais m'amender ou m'lamenter ? Qu'es-tu prêt à tenter ? Ta liberté, ton moral, ta santé Ton âme, ta conscience, ton amour, ta confiance ? Sur un coup d'tête, tu peux tout perdre Qu'est-ce qu'il te reste à part beaucoup d'dettes ? Tranche, découpe net, j'planche, écoute chef, si j'flanche Faut pas qu'je scie la branche, on m'dit Reste cool mec Vous maudissez la vie jusque dans votre sommeil Souffle sur les braises, ça t'attise sous un autre soleil Tant d'critiques, tiens l'coup sans reculer Devant les malheurs chroniques, qu'est-ce qui m'retient de hurler ? x2 Dans les vapeurs toxiques, ma vie part en fumée Dans les vapeurs toxiques, envie d'tout brûler Dans les vapeurs toxiques, on a les limites qu'on s'fixe J'suis scotché, accroché, faut qu'j'me réveille avant d'm'asphyxier Dans les vapeurs toxiques, ça pue la mort comme l'or du Vatican Vapeurs toxiques, guerres et paix, crimes et châtiments Vapeurs toxiques, on pousse les risques jusqu'à l'accident Vapeurs toxiques Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>On m'a pas dit comment faire dans les cuisines de l'enfer Ou les égouts du paradis, tu sens c'goût de maladie ? Entre poux et parasites, l'angoisse te pousse ou t'paralyse ? Jette ton bout d'paraffine, roots jusqu'à la racine Ouvre le parapluie, fou comme Bernie, j'bouffe le canari C'est rouge et ça coule de ta narine, j'm'étouffe, T.H.C, gaz carbonique Mais pousse pas l'vice jusqu'à la C.C et narcotiques J'm'essouffle, suis-moi si t'aimes bien suer un p'tit peu Toute cette inactivité va finir par m'tuer à p'tit feu J'veux faire plein d'trucs, en fin d'compte, je fais rien L'important, c'est d'avoir un but je suis loin du compte, je sais bien Affronte, qu'est-ce qui t'retient ? Regarde ce monde, c'est l'tien Le shit monte, l'effet vient, on est bien Dans les vapeurs toxiques, ma vie part en fumée Dans les vapeurs toxiques, envie d'tout brûler Dans les vapeurs toxiques, on a les limites qu'on s'fixe J'suis scotché, accroché, faut qu'j'me réveille avant d'm'asphyxier Dans les vapeurs toxiques, ça pue la mort comme l'or du Vatican Vapeurs toxiques, guerres et paix, crimes et châtiments Vapeurs toxiques, on pousse les risques jusqu'à l'accident Vapeurs toxiques On est libre de nos mouvements, prisonnier dans nos têtes Est-ce que la réussite sourit souvent aux gens droits et honnêtes ? Dans c'monde de gros traîtres, corruption, manigance, cupidité Arrogance et futilité, ignorance et stupidité Pas d'indulgence, ni d'humilité, j'fais qu'donner mon avis Le seul jugement qu'j'attends est censé s'passer après la vie Lucide et naïf, j'ai ni Merco, ni AX M'appelle pas Caïd mais Cahill, que d'la musique à mon actif Un avec la foi deux en vitesse, j'remonte mon avenue J'dis un merde au show-business deux gloire à l'art de rue Trois qui vivra verra, si t'es venu, t'as vu J'crois que dans cette affaire, y'aura ni vainqueur, ni vaincu Que des victimes du système Et si, j'étais aussi victime de moi-même ? Et si, j'essaie de vivre voilà de quoi j'suis coupable, et d'quoi d'autre ? Tous les yeux sur moi comme si j'étais 2Pac ou dans l'Loft J'suis parano comme tous ces cinglés d'barges, et alors ? De ma bouche coule un filet de bave, ah d'accord J'voulais être cool mais des enculés me narguent et m'abordent Ce sont ces bâtards des forces de l'ordre, on y est... Dans les vapeurs toxiques, ma vie part en fumée Dans les vapeurs toxiques, envie d'tout brûler Dans les vapeurs toxiques, on a les limites qu'on s'fixe J'suis scotché, accroché, faut qu'j'me réveille avant d'm'asphyxier Dans les vapeurs toxiques, ça pue la mort comme l'or du Vatican Vapeurs toxiques, guerres et paix, crimes et châtiments Vapeurs toxiques, on pousse les risques jusqu'à l'accident Vapeurs toxiques Celui qui croit qu'son cul prend d'la hauteur se casse le coccyx Dis Bonjour au nouveau chauffeur, j'braque le cockpit J'me dis Fais tes affaires et n'aie pas peur, profite Y'aura rien pour les dormeurs, don't sleep, mec Je sais qu'c'est dur mais il faut vivre Sans sombrer dans la folie, ni compter sur des hypocrites J'suis fautif, est-ce que j'vais m'amender ou m'lamenter ? Qu'es-tu prêt à tenter ? Ta liberté, ton moral, ta santé Ton âme, ta conscience, ton amour, ta confiance ? Sur un coup d'tête, tu peux tout perdre Qu'est-ce qu'il te reste à part beaucoup d'dettes ? Tranche, découpe net, j'planche, écoute chef, si j'flanche Faut pas qu'je scie la branche, on m'dit Reste cool mec Vous maudissez la vie jusque dans votre sommeil Souffle sur les braises, ça t'attise sous un autre soleil Tant d'critiques, tiens l'coup sans reculer Devant les malheurs chroniques, qu'est-ce qui m'retient de hurler ? x2 Dans les vapeurs toxiques, ma vie part en fumée Dans les vapeurs toxiques, envie d'tout brûler Dans les vapeurs toxiques, on a les limites qu'on s'fixe J'suis scotché, accroché, faut qu'j'me réveille avant d'm'asphyxier Dans les vapeurs toxiques, ça pue la mort comme l'or du Vatican Vapeurs toxiques, guerres et paix, crimes et châtiments Vapeurs toxiques, on pousse les risques jusqu'à l'accident Vapeurs toxiques Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Yeah, Arafat Yo yo, écoute ça Comme ça qu'j'fais Die à la hia, vie à Beat 2 Boul J'en place une pour ma mama Ephia Sors de mon terrier, déploie ma force tout comme un guerrier Corse le niveau si combat il y a Face à ceux qui jadis voulaient me voir sous leurs pompes Aujourd'hui pour eux j'arrive en trombe Fin prêt pour la riposte Lance l'intifada sur disque, l'ultimatum comme promis Ma guerre des nerfs, sur ton poste y'a compromis L'ultime facette au profil hostile de mon concept De l'arme dont je suis la gâchette, le leadership Rare comme la providence, prodige rarissime J'prône ma présidence, quand le mic j'agrippe En pole position pour des productions IMS lance lassaut, lassé d'voir trop d'faces Histoire ddire aussi aux frères Qui est lcommandant au commandement supérieur Dans la vie, soit t'es avec eux, soit t'es avec nous Soit t'es neutre, mais si t'es des nôtres Et on t'vé-cre, la cité soir d'émeute Pour faire couler l'sang c'est sûr avec des textes sensés Bosser dur et tout l'posse sait Qu'on n'y arrive pas sans cette procédure Face aux leaders ils jouent les solides, sauf quand ils sont solitaires Eh ouais style, savent bien qu'on est tous solidaires J'ferai pas long feu alors levons nos verres Aux gens over, des gens sont verts, j'entends dire laissons-les faire genre sauveur Vise son visage, ma vie j'crache J'ai envie d'crier vengeance, d'brûler l'village À mon avis, Ex's et Cash ont grillé vos champs Laisse les faux MC pisser l'sang On va habiller l'son appuie dessus Et faire payer les leçons En billets d'cent You might also like Vengeance ! Tu m'ris au nez pour dissimuler ta traîtrise Vengeance ! Montrons qui on est à tous ces enculés qui nous méprisent Vengeance ! C'est triste, on n'a qu'des rimes, tu veux déjà les piller Pas besoin d'crier, un mic suffit pour t'déshabiller C'est une urgence, v'là la chance d'la violence La vengeance, les ex-braqueurs de diligence Diligences rechargées par ces putain d'schmitts À cause du shit shit qui tombe dans mon site site vite vite Il m'arrive une histoire d'bâtard Crevard, j'raconte au mic pour les ex et futurs taulards En guise de mollard pour le CSA Lim-Sa comme le Kama Sutra, j'baise ça Quoi, quoi, tu croyais qu'j'étais bon qu'à squatter les halls Fumer des joints, vivre dans le haram, mais mon rôle Est d'faire penser les cailles, danser les cailles Exploser la thaï, comme d'hab j'reste fly Des phases de bourrin, c'est tout c'que j'pourrais poser dans mon rap T'es au courant qu'c'est Pass Une bonne basse, bien le courant il passe À déguster comme du choco d'prestige Léonidas, Jeff de Bruges, Lindt et j'en passe À part ça, ici l'temps passe pas trop vite Sans tiep pour les faux, t'inquiète J'ai tout c'qu'il faut comme teille Me parle plus d'ces chanteurs sans texte Pour la variète, j'suis l'empesteur du milieu En fait le testeur de stars bidon À mille lieues des boys band et pas d'piston pour percer Pass Partoo sur le beat perché Vive les vrais MC au micro, juré Prestation comme d'hab assurée Vengeance ! Tu m'ris au nez pour dissimuler ta traîtrise Vengeance ! Montrons qui on est à tous ces enculés qui nous méprisent Vengeance ! C'est triste, on n'a qu'des rimes, tu veux déjà les piller Pas besoin d'crier, un mic suffit pour t'déshabiller Vengeance ! Je reste le même et c'est les gens qui changent Vengeance ! On dérange dur car c'est les temps qui changent Vengeance ! Zoxea, Mala, Doum's, la Faute et Don Cho' Une vengeance, aujourd'hui l'fameux plat on l'mange chaud Regarder devant, regarder derrière Retarder le plan ou le refaire Maintenant on est en pleine situation d'guerre Leur frère hier soir s'est fait kidnapper Si à l'envers l'ennemi t'l'a fait Sache que Zoxea t'avait prévenu, la nuit, tous les Noirs sont gris Mais toi t'a pas compris Alors maintenant prie pour pas qu'les yeux des mauvais garçons brillent trop gars Après quoi faut changer d'programme Et en plein soir ça vire au drame en gros, pour une histoire de kilos Grammes, manipulés, cerveaux chaud comme caniculés En plus les stylos chauffent comme des enculés Ça pue les embrouilles à gogo depuis l'époque d'la gogo T'as plus les couilles à Rocco, les arsouilles dépouillent ta coco Comme si tu n'étais qu'une photo vulgaire Une vieille moto ou une bulle d'air Un poto qu'a un ulcère sur son Autodestruction, faut qu'tu gères ta descente aux enfers Si tu laisses ta place aux enfants Quand t'sais plus comment faire quand il s'agit d'vengeance Vengeance ! Vlà un rap qui frappe comme à les abattre Vengeance ! Tout dans le rythme de la tête aux Vengeance ! On a d'quoi remuer leurs gros bides Hey yo Dan, crache le flow torride style Floride, yo J'embarque une rien à foutre attitude J'suis débonnaire par habitude Vas-y mets donc dans tous mes vers à l'étude Jétais radieux, ne Basse à forte amplitude, magnétisme, lyrisme et sollicitude Pour mes frères et surs, j'me crève le soir à écrire Observant la vie en poursuivant l'espoir de la décrire Je fais du SDF vomissant sur ses haillons Un pelé avec un ballon rebondissant sur ses talons Car au crayon j'suis ce fabuleux jeune premier lumineux Ma venimeuse langue lance un poison craint dans le milieu J'suis ambitieux, souvent vicieux, au mic taré Un gars à part par un lyrical raz-de-marée Avant j'étais rien, aujourd'hui toujours rien sauf que j'mange bien J'sais qu'tu l'as remarqué j'suis plus en chien Et j'range plein de dans mon larf', t'en veux un tiens C'est l'fruit d'ma tuerie qui m'rend large et m'entoure de tain-tains cousin Quand j'rappe, tout l'monde reste Mala le psy, coule il paraît qu'des MC m'recherchent Eh ben dis donc, comme s'ils savaient pas où j'crèche En freestyle j'suis pire qu'un boa lâché dans la nature Pire qu'un Serbe qui un Croate dans un piège capture Un vengeur masqué ou une créature mi-homme mi-mic en Nike chaussures Faisant casquer les faux soi-disant au style trop pur Et si ton armure vole en éclats c'est qu'ce mec-là c'est Sir J'déclare pire que la guerre aux MC, je scie leur empire Et peu d'eux s'en tirent comme dans la rue ceux qu'en disent trop Et finissent les tripes à l'air dans les WC d'un bistrot Faut t'ancrer dans l'crâne que plus tu cranes, plus moi j'compte te cramer les ailes Te voir en chien en larmes en bas de l'échelle Et même caché dans ton chalet aux Seychelles Sache qu'il y a ce vengeur brave Qui peut te sauter façon vendeur d'sav Vengeance ! Tu m'ris au nez pour dissimuler ta traîtrise Vengeance ! Montrons qui on est à tous ces enculés qui nous méprisent Vengeance ! C'est triste, on n'a qu'des rimes, tu veux déjà les piller Pas besoin d'crier, un mic suffit pour t'déshabiller Vengeance ! Je reste le même et c'est les gens qui changent Vengeance ! Si on dérange c'est qu'c'est les temps qui changent Vengeance ! Zoxea, Mala, Doum's, la Faute et Don Cho' Ce fameux plat on l'mange chaud On l'mange chaud</t>
+          <t>Yeah, Arafat Yo yo, écoute ça Comme ça qu'j'fais Die à la hia, vie à Beat 2 Boul J'en place une pour ma mama Ephia Sors de mon terrier, déploie ma force tout comme un guerrier Corse le niveau si combat il y a Face à ceux qui jadis voulaient me voir sous leurs pompes Aujourd'hui pour eux j'arrive en trombe Fin prêt pour la riposte Lance l'intifada sur disque, l'ultimatum comme promis Ma guerre des nerfs, sur ton poste y'a compromis L'ultime facette au profil hostile de mon concept De l'arme dont je suis la gâchette, le leadership Rare comme la providence, prodige rarissime J'prône ma présidence, quand le mic j'agrippe En pole position pour des productions IMS lance lassaut, lassé d'voir trop d'faces Histoire ddire aussi aux frères Qui est lcommandant au commandement supérieur Dans la vie, soit t'es avec eux, soit t'es avec nous Soit t'es neutre, mais si t'es des nôtres Et on t'vé-cre, la cité soir d'émeute Pour faire couler l'sang c'est sûr avec des textes sensés Bosser dur et tout l'posse sait Qu'on n'y arrive pas sans cette procédure Face aux leaders ils jouent les solides, sauf quand ils sont solitaires Eh ouais style, savent bien qu'on est tous solidaires J'ferai pas long feu alors levons nos verres Aux gens over, des gens sont verts, j'entends dire laissons-les faire genre sauveur Vise son visage, ma vie j'crache J'ai envie d'crier vengeance, d'brûler l'village À mon avis, Ex's et Cash ont grillé vos champs Laisse les faux MC pisser l'sang On va habiller l'son appuie dessus Et faire payer les leçons En billets d'cent Vengeance ! Tu m'ris au nez pour dissimuler ta traîtrise Vengeance ! Montrons qui on est à tous ces enculés qui nous méprisent Vengeance ! C'est triste, on n'a qu'des rimes, tu veux déjà les piller Pas besoin d'crier, un mic suffit pour t'déshabiller C'est une urgence, v'là la chance d'la violence La vengeance, les ex-braqueurs de diligence Diligences rechargées par ces putain d'schmitts À cause du shit shit qui tombe dans mon site site vite vite Il m'arrive une histoire d'bâtard Crevard, j'raconte au mic pour les ex et futurs taulards En guise de mollard pour le CSA Lim-Sa comme le Kama Sutra, j'baise ça Quoi, quoi, tu croyais qu'j'étais bon qu'à squatter les halls Fumer des joints, vivre dans le haram, mais mon rôle Est d'faire penser les cailles, danser les cailles Exploser la thaï, comme d'hab j'reste fly Des phases de bourrin, c'est tout c'que j'pourrais poser dans mon rap T'es au courant qu'c'est Pass Une bonne basse, bien le courant il passe À déguster comme du choco d'prestige Léonidas, Jeff de Bruges, Lindt et j'en passe À part ça, ici l'temps passe pas trop vite Sans tiep pour les faux, t'inquiète J'ai tout c'qu'il faut comme teille Me parle plus d'ces chanteurs sans texte Pour la variète, j'suis l'empesteur du milieu En fait le testeur de stars bidon À mille lieues des boys band et pas d'piston pour percer Pass Partoo sur le beat perché Vive les vrais MC au micro, juré Prestation comme d'hab assurée Vengeance ! Tu m'ris au nez pour dissimuler ta traîtrise Vengeance ! Montrons qui on est à tous ces enculés qui nous méprisent Vengeance ! C'est triste, on n'a qu'des rimes, tu veux déjà les piller Pas besoin d'crier, un mic suffit pour t'déshabiller Vengeance ! Je reste le même et c'est les gens qui changent Vengeance ! On dérange dur car c'est les temps qui changent Vengeance ! Zoxea, Mala, Doum's, la Faute et Don Cho' Une vengeance, aujourd'hui l'fameux plat on l'mange chaud Regarder devant, regarder derrière Retarder le plan ou le refaire Maintenant on est en pleine situation d'guerre Leur frère hier soir s'est fait kidnapper Si à l'envers l'ennemi t'l'a fait Sache que Zoxea t'avait prévenu, la nuit, tous les Noirs sont gris Mais toi t'a pas compris Alors maintenant prie pour pas qu'les yeux des mauvais garçons brillent trop gars Après quoi faut changer d'programme Et en plein soir ça vire au drame en gros, pour une histoire de kilos Grammes, manipulés, cerveaux chaud comme caniculés En plus les stylos chauffent comme des enculés Ça pue les embrouilles à gogo depuis l'époque d'la gogo T'as plus les couilles à Rocco, les arsouilles dépouillent ta coco Comme si tu n'étais qu'une photo vulgaire Une vieille moto ou une bulle d'air Un poto qu'a un ulcère sur son Autodestruction, faut qu'tu gères ta descente aux enfers Si tu laisses ta place aux enfants Quand t'sais plus comment faire quand il s'agit d'vengeance Vengeance ! Vlà un rap qui frappe comme à les abattre Vengeance ! Tout dans le rythme de la tête aux Vengeance ! On a d'quoi remuer leurs gros bides Hey yo Dan, crache le flow torride style Floride, yo J'embarque une rien à foutre attitude J'suis débonnaire par habitude Vas-y mets donc dans tous mes vers à l'étude Jétais radieux, ne Basse à forte amplitude, magnétisme, lyrisme et sollicitude Pour mes frères et surs, j'me crève le soir à écrire Observant la vie en poursuivant l'espoir de la décrire Je fais du SDF vomissant sur ses haillons Un pelé avec un ballon rebondissant sur ses talons Car au crayon j'suis ce fabuleux jeune premier lumineux Ma venimeuse langue lance un poison craint dans le milieu J'suis ambitieux, souvent vicieux, au mic taré Un gars à part par un lyrical raz-de-marée Avant j'étais rien, aujourd'hui toujours rien sauf que j'mange bien J'sais qu'tu l'as remarqué j'suis plus en chien Et j'range plein de dans mon larf', t'en veux un tiens C'est l'fruit d'ma tuerie qui m'rend large et m'entoure de tain-tains cousin Quand j'rappe, tout l'monde reste Mala le psy, coule il paraît qu'des MC m'recherchent Eh ben dis donc, comme s'ils savaient pas où j'crèche En freestyle j'suis pire qu'un boa lâché dans la nature Pire qu'un Serbe qui un Croate dans un piège capture Un vengeur masqué ou une créature mi-homme mi-mic en Nike chaussures Faisant casquer les faux soi-disant au style trop pur Et si ton armure vole en éclats c'est qu'ce mec-là c'est Sir J'déclare pire que la guerre aux MC, je scie leur empire Et peu d'eux s'en tirent comme dans la rue ceux qu'en disent trop Et finissent les tripes à l'air dans les WC d'un bistrot Faut t'ancrer dans l'crâne que plus tu cranes, plus moi j'compte te cramer les ailes Te voir en chien en larmes en bas de l'échelle Et même caché dans ton chalet aux Seychelles Sache qu'il y a ce vengeur brave Qui peut te sauter façon vendeur d'sav Vengeance ! Tu m'ris au nez pour dissimuler ta traîtrise Vengeance ! Montrons qui on est à tous ces enculés qui nous méprisent Vengeance ! C'est triste, on n'a qu'des rimes, tu veux déjà les piller Pas besoin d'crier, un mic suffit pour t'déshabiller Vengeance ! Je reste le même et c'est les gens qui changent Vengeance ! Si on dérange c'est qu'c'est les temps qui changent Vengeance ! Zoxea, Mala, Doum's, la Faute et Don Cho' Ce fameux plat on l'mange chaud On l'mange chaud</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Hook I dont take a chance Find me in the lab With a geek With a nerd In dexters laboratory x 4 Verse I dont take a chance Really moving fast Wanna get that cash People sleeping me But Im gonna relax Find me in the lab Never in a cab Watch me get the bag Watch me chase the bag Got my bros with me and we do it fast Its 2019 you still ain't doing shit Im in stu working for the riches Do it for the money never for the bitches Traumatized I aint really fucking with them guys Yeah I looked her in the eye Speak some shit and everything I told her was a lie You might also likeHook I dont take a chance Find me in the lab With a geek With a nerd In dexters laboratory x 4 Bridge In dexters laboratory In dexters laboratory Let me tell about a story Ive been cooking up in dexters laboratory With a geek With a geek These people still sleep With a geek For the week Yeah yeah for the week Hook I dont take a chance Find me in the lab With a geek With a nerd In dexters laboratory x 4</t>
+          <t>Hook I dont take a chance Find me in the lab With a geek With a nerd In dexters laboratory x 4 Verse I dont take a chance Really moving fast Wanna get that cash People sleeping me But Im gonna relax Find me in the lab Never in a cab Watch me get the bag Watch me chase the bag Got my bros with me and we do it fast Its 2019 you still ain't doing shit Im in stu working for the riches Do it for the money never for the bitches Traumatized I aint really fucking with them guys Yeah I looked her in the eye Speak some shit and everything I told her was a lie Hook I dont take a chance Find me in the lab With a geek With a nerd In dexters laboratory x 4 Bridge In dexters laboratory In dexters laboratory Let me tell about a story Ive been cooking up in dexters laboratory With a geek With a geek These people still sleep With a geek For the week Yeah yeah for the week Hook I dont take a chance Find me in the lab With a geek With a nerd In dexters laboratory x 4</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Verse I Hey young the world is yours But keep your work legal, please avoid these laws Them people want us workin free like its 16th century and Kids w Black skin destined for the penitentiaries Chorus I know you feel like youre on your own and All your luck is gone Verse II We in the streets killin ourselves as if we were savages Murder rate triple what the national average is We dont love ourselves, wreckless chasing benjamins Angola bound or up in University hemorrhaging Its just so much to put in a verse Bottom line is youre ORIGINAL, you were here first Black is the maker, owner, cream of the planet earth No way you should be 16 carried away in a hearse You like, this old dude dont even make sense And parents dont understand like Jeff and the Fresh Prince But the funny thing is, we actually do And 20 years ago, we was exactly like you You might also likeChorus Verse III Sometimes school is boring and teachers be aggravating Stick with it, 4 years you could be graduating 4 years of college could boost your finances Aint nothing guaranteed, but you have better chances The thing you love most, its worth pursuing it Figure out a way for you to get paid doing it I offer these words to help you stay on the right course Dont advocate military or the police force Thats just my advice, still it aint no joke They dont work in the interest of the poor and the Black folks I never sold dope, a day in my life But found ways to help my mama keep on the lights I thought of creative legal ways that I could get loot Kept kicks, Polo, Izod and Adidas sweatsuits Entrepreneur, sales I had a knack for 13, Slingin Mama noodles right out the back door Making paper, doing homework, watchin Looney Tunes Then, sold subscriptions to the Times Picayune I love my Mama, kept me offa the corner Bussed tables, dropped fries till I got my diploma Then I left home to get professional knowledge Pell grants and bakin bean pies got me through college On the real, I still owe for them Stafford loans But now I program, and see the world rockin microphones Bridge Verse IV Your dreams and passions you should chase behind Youll face struggles, I was faced with mine I really hope you embrace this rhyme I love you, if I didnt wouldnt waste my time Chorus</t>
+          <t>Verse I Hey young the world is yours But keep your work legal, please avoid these laws Them people want us workin free like its 16th century and Kids w Black skin destined for the penitentiaries Chorus I know you feel like youre on your own and All your luck is gone Verse II We in the streets killin ourselves as if we were savages Murder rate triple what the national average is We dont love ourselves, wreckless chasing benjamins Angola bound or up in University hemorrhaging Its just so much to put in a verse Bottom line is youre ORIGINAL, you were here first Black is the maker, owner, cream of the planet earth No way you should be 16 carried away in a hearse You like, this old dude dont even make sense And parents dont understand like Jeff and the Fresh Prince But the funny thing is, we actually do And 20 years ago, we was exactly like you Chorus Verse III Sometimes school is boring and teachers be aggravating Stick with it, 4 years you could be graduating 4 years of college could boost your finances Aint nothing guaranteed, but you have better chances The thing you love most, its worth pursuing it Figure out a way for you to get paid doing it I offer these words to help you stay on the right course Dont advocate military or the police force Thats just my advice, still it aint no joke They dont work in the interest of the poor and the Black folks I never sold dope, a day in my life But found ways to help my mama keep on the lights I thought of creative legal ways that I could get loot Kept kicks, Polo, Izod and Adidas sweatsuits Entrepreneur, sales I had a knack for 13, Slingin Mama noodles right out the back door Making paper, doing homework, watchin Looney Tunes Then, sold subscriptions to the Times Picayune I love my Mama, kept me offa the corner Bussed tables, dropped fries till I got my diploma Then I left home to get professional knowledge Pell grants and bakin bean pies got me through college On the real, I still owe for them Stafford loans But now I program, and see the world rockin microphones Bridge Verse IV Your dreams and passions you should chase behind Youll face struggles, I was faced with mine I really hope you embrace this rhyme I love you, if I didnt wouldnt waste my time Chorus</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Rien d'neuf, rien d'clinquant, gun dans les tympans Vieux déglingué fringuant, cinglé, jeune délinquant Inquiets, les cinq sens cherchent le billet d'cinq cent Les petits prenaient des cinq francs, maintenant ils prennent des cinq ans Pendant qu'on parle d'un temps qui n'pourra pas renaître Comme un printemps, j'regarde passer les putes à la fenêtre En trinquant, et j'écris jusqu'à c'que j'm'endorme Ma mémoire un disque dur ou une boîte de Pandore Moi, j'ai déçu leurs attentes, paraît qu'c'est trop tard, c'est mort Ferme ton cul quand j'chante, que les petites garces m'ignorent Je ris quand j'me plante, on dirait qu'j'suis Garcimore Mais c'est plus pareil depuis qu'ma bande a mis la clé sous la porte Mon clan a baisé le score, ouais, mais ça fait long time Porté disparu, putain d'barbu dans la montagne On gagne et on meurt, on s'marre et on pleure Mais ressasser les rancurs du passé, c'est zéro euro d'l'heure J'ai rien contre le succès, thanks to the almighty Mec, n'essaie pas d'me sucer MenaceToSociety J'ai pas fait ça pour la gloire, j'ai fait ça pour le biscuit J'ai fait ça pour pouvoir me lever tous les jours à midi Et je flippe qu'ça soit fini, j'traîne seul le soir sous liqueur Si ça parle mal sur Twitter, prévenez-moi sur mon bippeur Il m'a tellement donné, j'peux pas haïr ce jeu D'l'ancien volcan, ils veulent voir rejaillir le feu You might also like Vieille gloire, toute la ville connaît notre histoire Mais beaucoup d'eau a coulée depuis Arnaud-Bernard Vieille gloire, le temps a massacré nos espoirs Vous n'connaissez d'moi que c'que j'vous laisse voir Vieille gloire, comme un dernier verre, un dernier soir Éphémère comme un éclair dans un ciel noir Vieille gloire, vis et meurs entre les heurts et les déboires Mais reste dans les mémoires, vieille gloire, vieille gloire Or, or, or, or, platine, platine Veille gloire, d'accord, mais jamais has-been Speed jusqu'à la mort, mais jamais d'farine Cru, j'y vais peut-être fort, mais jamais d'vaseline Cous', j'm'en bats les couilles de leur couv' de magazine Notre art, c'est pas Le Louvre, c'est un grain de souffre dans la machine J'fais pas dans la magie, j'aime et sème l'anarchie J'chante pour celui qui s'en va, Dahmane El Harrachi Et, comme un bout d'haschisch, j'continue d'brûler Aïe, que tous les fascistes aillent se faire enculer D'l'ail pour les vampires, d'l'oseille pour les vivants Tu t'démerdes, tu t'en tires ou on t'raye, au suivant Sois pas hésitant, les choses vont trop vite Nique les mythes et les titans, vive les ventres vides Qu'est-ce qui reste du hip-hop, hein ? Quelques vieux tags Hein ? Quelques vieux tox', quelques vieux shlags Vieille gloire, toute la ville connaît notre histoire Mais beaucoup d'eau a coulée depuis Arnaud-Bernard Vieille gloire, le temps a massacré nos espoirs Vous n'connaissez d'moi que c'que j'vous laisse voir Vieille gloire, comme un dernier verre, un dernier soir Éphémère comme un éclair dans un ciel noir Vieille gloire, vis et meurs entre les gloires et les déboires Mais reste dans les mémoires, vieille gloire</t>
+          <t>Rien d'neuf, rien d'clinquant, gun dans les tympans Vieux déglingué fringuant, cinglé, jeune délinquant Inquiets, les cinq sens cherchent le billet d'cinq cent Les petits prenaient des cinq francs, maintenant ils prennent des cinq ans Pendant qu'on parle d'un temps qui n'pourra pas renaître Comme un printemps, j'regarde passer les putes à la fenêtre En trinquant, et j'écris jusqu'à c'que j'm'endorme Ma mémoire un disque dur ou une boîte de Pandore Moi, j'ai déçu leurs attentes, paraît qu'c'est trop tard, c'est mort Ferme ton cul quand j'chante, que les petites garces m'ignorent Je ris quand j'me plante, on dirait qu'j'suis Garcimore Mais c'est plus pareil depuis qu'ma bande a mis la clé sous la porte Mon clan a baisé le score, ouais, mais ça fait long time Porté disparu, putain d'barbu dans la montagne On gagne et on meurt, on s'marre et on pleure Mais ressasser les rancurs du passé, c'est zéro euro d'l'heure J'ai rien contre le succès, thanks to the almighty Mec, n'essaie pas d'me sucer MenaceToSociety J'ai pas fait ça pour la gloire, j'ai fait ça pour le biscuit J'ai fait ça pour pouvoir me lever tous les jours à midi Et je flippe qu'ça soit fini, j'traîne seul le soir sous liqueur Si ça parle mal sur Twitter, prévenez-moi sur mon bippeur Il m'a tellement donné, j'peux pas haïr ce jeu D'l'ancien volcan, ils veulent voir rejaillir le feu Vieille gloire, toute la ville connaît notre histoire Mais beaucoup d'eau a coulée depuis Arnaud-Bernard Vieille gloire, le temps a massacré nos espoirs Vous n'connaissez d'moi que c'que j'vous laisse voir Vieille gloire, comme un dernier verre, un dernier soir Éphémère comme un éclair dans un ciel noir Vieille gloire, vis et meurs entre les heurts et les déboires Mais reste dans les mémoires, vieille gloire, vieille gloire Or, or, or, or, platine, platine Veille gloire, d'accord, mais jamais has-been Speed jusqu'à la mort, mais jamais d'farine Cru, j'y vais peut-être fort, mais jamais d'vaseline Cous', j'm'en bats les couilles de leur couv' de magazine Notre art, c'est pas Le Louvre, c'est un grain de souffre dans la machine J'fais pas dans la magie, j'aime et sème l'anarchie J'chante pour celui qui s'en va, Dahmane El Harrachi Et, comme un bout d'haschisch, j'continue d'brûler Aïe, que tous les fascistes aillent se faire enculer D'l'ail pour les vampires, d'l'oseille pour les vivants Tu t'démerdes, tu t'en tires ou on t'raye, au suivant Sois pas hésitant, les choses vont trop vite Nique les mythes et les titans, vive les ventres vides Qu'est-ce qui reste du hip-hop, hein ? Quelques vieux tags Hein ? Quelques vieux tox', quelques vieux shlags Vieille gloire, toute la ville connaît notre histoire Mais beaucoup d'eau a coulée depuis Arnaud-Bernard Vieille gloire, le temps a massacré nos espoirs Vous n'connaissez d'moi que c'que j'vous laisse voir Vieille gloire, comme un dernier verre, un dernier soir Éphémère comme un éclair dans un ciel noir Vieille gloire, vis et meurs entre les gloires et les déboires Mais reste dans les mémoires, vieille gloire</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin En vrai, en faux plus vrai que les infos Du vécu enfin J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po Les mains sales et l'amour du risque C'est dans les gènes, c'est dans le sang On garde les nerfs à vif, arrêtez de parler dans le vent J'rentre pas dans leurs rangs Pas d'manières, j'ai pas le temps Nous on s'en branle du danger, on t'braque sans prendre de gants Et l'argent change de camp, comme la plupart des gens Moi j'ai passé ma vie défoncé la plupart du temps Tu sais qu'j'ai toujours un p'tit sac d'herbe au fond d'la poche Et une p'tite lame pour t'la mettre au fond d'la gorge À fond on rode, on roule à fond On s'démerde, on s'débrouille à fond Et on s'en bat les couilles à fond x5 On joue tous pour le pèze à fond Tout gagner ou tout perdre à fond Sans forcer on te baise à fond x5 You might also like Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin En vrai, en faux plus vrais que les infos Du vécu enfin J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po Sonne l'alarme, de Mars à Paname, écoute ma zik de favelas On chasse les liasses, gardez 2-3 pétards, 2-3 pétasses On vise le bif de Las Vegas, celui qui fait briller les yeux T'as une villa ? Une Ferrari ? On fait brûler les deux Arrête d'jouer le dingue, tu vas pas repartir entier Tu vas rien faire avec ce flingue, à part p'tet te tirer dans l'pied Ça fait blaaa J'garde la foi, la tête froide et le sang chaud J'compte mes amis sur les doigts de la main d'un manchot C'est D-D-D-Don Cho, qui vient niquer ton show Le son fait sonner les portes et puis bouger les bonnes gos Vider les bouteilles, fais briller les Breitling Taxe-lui son oseille et les clés de sa Berline Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin En vrai, en faux plus vrais que les infos Du vécu enfin J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po Les tox se lèvent au chant du colt, j'mixe la coke et l'alcool A l'aise je vogue dans les eaux troubles du fleuve pactole Toujours plus de billets, les envieux peuvent épier J'détourne un Airbus et j'm'en sers comme voiture bélier À fond on rode, on roule à fond On s'démerde, on s'débrouille à fond Et on s'en bat les couilles à fond x5 On joue tous pour le pèze à fond Tout gagner ou tout perdre à fond Sans forcer on te baise à fond x5 Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin En vrai, en faux plus vrais que les infos Du vécu enfin J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po</t>
+          <t>Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin En vrai, en faux plus vrai que les infos Du vécu enfin J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po Les mains sales et l'amour du risque C'est dans les gènes, c'est dans le sang On garde les nerfs à vif, arrêtez de parler dans le vent J'rentre pas dans leurs rangs Pas d'manières, j'ai pas le temps Nous on s'en branle du danger, on t'braque sans prendre de gants Et l'argent change de camp, comme la plupart des gens Moi j'ai passé ma vie défoncé la plupart du temps Tu sais qu'j'ai toujours un p'tit sac d'herbe au fond d'la poche Et une p'tite lame pour t'la mettre au fond d'la gorge À fond on rode, on roule à fond On s'démerde, on s'débrouille à fond Et on s'en bat les couilles à fond x5 On joue tous pour le pèze à fond Tout gagner ou tout perdre à fond Sans forcer on te baise à fond x5 Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin En vrai, en faux plus vrais que les infos Du vécu enfin J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po Sonne l'alarme, de Mars à Paname, écoute ma zik de favelas On chasse les liasses, gardez 2-3 pétards, 2-3 pétasses On vise le bif de Las Vegas, celui qui fait briller les yeux T'as une villa ? Une Ferrari ? On fait brûler les deux Arrête d'jouer le dingue, tu vas pas repartir entier Tu vas rien faire avec ce flingue, à part p'tet te tirer dans l'pied Ça fait blaaa J'garde la foi, la tête froide et le sang chaud J'compte mes amis sur les doigts de la main d'un manchot C'est D-D-D-Don Cho, qui vient niquer ton show Le son fait sonner les portes et puis bouger les bonnes gos Vider les bouteilles, fais briller les Breitling Taxe-lui son oseille et les clés de sa Berline Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin En vrai, en faux plus vrais que les infos Du vécu enfin J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po Les tox se lèvent au chant du colt, j'mixe la coke et l'alcool A l'aise je vogue dans les eaux troubles du fleuve pactole Toujours plus de billets, les envieux peuvent épier J'détourne un Airbus et j'm'en sers comme voiture bélier À fond on rode, on roule à fond On s'démerde, on s'débrouille à fond Et on s'en bat les couilles à fond x5 On joue tous pour le pèze à fond Tout gagner ou tout perdre à fond Sans forcer on te baise à fond x5 Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin Avec nos vies de chien Y'a d'quoi faire des histoires sans fin En vrai, en faux plus vrais que les infos Du vécu enfin J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po J'tire, j'tire, j'tire mon chapeau Aux braqueurs de banque, aux fournisseurs de po-po</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>J'arrive nerveux comme un toxico J'suis pas normal plutôt cas social limite trop psycho Mon son une pêche dans vos chicots Si on débarque en nombre c'est pour poser des bombes dans vos comicos J'veux la gloire non la caillasse oh ça oui Mais j'ai raté l'avion comme Zacarias Moussaoui J'ai le style qui fait bosser les bavards Le style kalashnikov, vodka et caviar... Connard J'fais mon p'tit biz sans cagoule Puis j'claque tout dans un club de strip-tease à Kaboul J'rêve pas qu'je roule en Maserati J'rêve que j'mets un coup d'boule à Matterazzi si si J'représente l'anarchie et rien ne m'guérit de mes sales manies J'arrive en surf sur un tsunami Ça fait bang bang dans ton punani Quand ça d'vient dingue on aime ça C'est le p'tit gars sans gêne t'arrête pas N'aie pas la haine reste zen à l'aise gars Quand ça fait bang bang dans ta cabeza Les grosses liasses on aime ça Quand ça fracasse on aime ça Polizia on baise ça Accroche-toi bébé voiture bélier You might also like Don Cho', flow voiture bélier Fouteur de merde j'fais ça comme un métier Je veux être payé quitte à bruler, piller Plus de billets juste pour gaspiller 50 dollars de pourboire au portier 100 au barman juste parce que ses glaçons sont frais Yeah, les mauvais garçons sont prêts Et les condés se barrent en mode carnage gonflé La volaille s'taille d'vant mon gang d'aliens Nous on pue le fauve eux y sentent la chienne Mais c'est pas grave trinque à la mienne Un cul sec puis descends dans l'arène Tous au taquet tous à fond Dans cette jungle de béton C'est quoi c'bordel, c'est quoi c'son? Un peu d'anarchie dans ta party Quand ça d'vient dingue on aime ça C'est le p'tit gars sans gêne t'arrête pas N'aie pas la haine reste zen à l'aise gars Quand ça fait bang bang dans ta cabeza Les grosses liasses on aime ça Quand ça fracasse on aime ça Polizia on baise ça Accroche-toi bébé voiture bélier Tous sur les nerfs tous à fond Dans ma jungle de béton C'est quoi s'bordel, c'est quoi s'son? Un peu d'anarchie dans ta party Quand ça d'vient dingue on aime ça C'est le p'tit gars sans gêne t'arrête pas N'aie pas la haine reste zen à l'aise gars Quand ça fait bang bang dans ta cabeza Les grosses liasses on aime ça Quand ça fracasse on aime ça Polizia on baise ça Accroche-toi bébé voiture bélier</t>
+          <t>J'arrive nerveux comme un toxico J'suis pas normal plutôt cas social limite trop psycho Mon son une pêche dans vos chicots Si on débarque en nombre c'est pour poser des bombes dans vos comicos J'veux la gloire non la caillasse oh ça oui Mais j'ai raté l'avion comme Zacarias Moussaoui J'ai le style qui fait bosser les bavards Le style kalashnikov, vodka et caviar... Connard J'fais mon p'tit biz sans cagoule Puis j'claque tout dans un club de strip-tease à Kaboul J'rêve pas qu'je roule en Maserati J'rêve que j'mets un coup d'boule à Matterazzi si si J'représente l'anarchie et rien ne m'guérit de mes sales manies J'arrive en surf sur un tsunami Ça fait bang bang dans ton punani Quand ça d'vient dingue on aime ça C'est le p'tit gars sans gêne t'arrête pas N'aie pas la haine reste zen à l'aise gars Quand ça fait bang bang dans ta cabeza Les grosses liasses on aime ça Quand ça fracasse on aime ça Polizia on baise ça Accroche-toi bébé voiture bélier Don Cho', flow voiture bélier Fouteur de merde j'fais ça comme un métier Je veux être payé quitte à bruler, piller Plus de billets juste pour gaspiller 50 dollars de pourboire au portier 100 au barman juste parce que ses glaçons sont frais Yeah, les mauvais garçons sont prêts Et les condés se barrent en mode carnage gonflé La volaille s'taille d'vant mon gang d'aliens Nous on pue le fauve eux y sentent la chienne Mais c'est pas grave trinque à la mienne Un cul sec puis descends dans l'arène Tous au taquet tous à fond Dans cette jungle de béton C'est quoi c'bordel, c'est quoi c'son? Un peu d'anarchie dans ta party Quand ça d'vient dingue on aime ça C'est le p'tit gars sans gêne t'arrête pas N'aie pas la haine reste zen à l'aise gars Quand ça fait bang bang dans ta cabeza Les grosses liasses on aime ça Quand ça fracasse on aime ça Polizia on baise ça Accroche-toi bébé voiture bélier Tous sur les nerfs tous à fond Dans ma jungle de béton C'est quoi s'bordel, c'est quoi s'son? Un peu d'anarchie dans ta party Quand ça d'vient dingue on aime ça C'est le p'tit gars sans gêne t'arrête pas N'aie pas la haine reste zen à l'aise gars Quand ça fait bang bang dans ta cabeza Les grosses liasses on aime ça Quand ça fracasse on aime ça Polizia on baise ça Accroche-toi bébé voiture bélier</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Production line chasing mechanical dreams I'm not just a number Balances gaining interest but who yields the profit? Can you measure a man by the line of his credit? I'm worth more than the sum of my parts Equations don't add up Heed this warning don't go chasing American dreams ripping at the seams Work lies sex love fear hate friendship In fifty years you'll be in the groundYou might also like</t>
+          <t>Production line chasing mechanical dreams I'm not just a number Balances gaining interest but who yields the profit? Can you measure a man by the line of his credit? I'm worth more than the sum of my parts Equations don't add up Heed this warning don't go chasing American dreams ripping at the seams Work lies sex love fear hate friendship In fifty years you'll be in the ground</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ça va de plus en plus haut, ça va de plus en plus vite Faut maintenir le niveau avant qu'le niveau nous quitte Ça va de plus en plus haut, ça va de plus en plus vite À nous de suivre le tempo pour ne pas s'décaler sur le beat Bis be we go, I write now J'suis devenu un accro du micro jusqu'au point Où on nous demande de ne pas faire de propagande Tant pis pour les ganja man mais si on s'éclate à tel point On fait ça pour les ondes, rien n'est acquis dans la vie Tant que t'as les yeux ouverts, vaut mieux pas qu'tu lâches l'affaire Young men, c'est sans répit, pas d'soucis Fais seulement c'que t'as à faire et fais confiance au père x2 Ça va de plus en plus haut, ça va de plus en plus vite Faut maintenir le niveau avant qu'le niveau nous quitte Ça va de plus en plus haut, ça va de plus en plus vite À nous de suivre le tempo pour ne pas s'décaler sur le beat J'suis pas bon un exemple pour les young men Avec mon fond d'dingue, la raison ma skunk flingue C'est pas un complainte, libère-toi des contraintes J'sais pas trop comment trop t'expliquer T'as mis les deux doigts dans la prise ou quoi ? P'tit excité Pas d'imprudence même si y'a des imprévus Va droit au but, pense, réagis, assume et continue Fais comme tu l'sens, renonce pas même si t'es déçu Pas d'concurrence, juste endurance, bouge ton cul, danse Saute dessus, pieds nus sur les braises, lève ta Rolex No stress, tranquille à l'aise, fracasse la chaise Avant qu'on déconnecte Bientôt la chute de la comète, sors le lance-roquette Non, j'déconnais, micro test un, rien n'est acquis Et si tu crois avoir un instant d'répit C'est que t'es con à te frotter les couilles sur du crépis Faut faire ses sous car la maison ne fait plus crédit Ancien petit, grands objectifs, are you ready ? You might also like x2 Ça va de plus en plus haut, ça va de plus en plus vite Faut maintenir le niveau avant qu'le niveau nous quitte Ça va de plus en plus haut, ça va de plus en plus vite À nous de suivre le tempo pour ne pas s'décaler sur le beat Young Men, on est là pour connecter nos idées Montrer qu'notre force, c'est l'unité, ça fait longtemps qu'on est DJ Young Men en hip-hop et au ragga combiné Au Don Choa, j'ai accompagné, la bombe est prête à exploser Dans tous les cas de citer, pour les riches et les moins riches Et tous ceux qu'ont envie de kiffer, ici, c'est Nowaw Pour les coincés, les moins coincés Mais qui savent listen to reggae, Liberty qui revient kicker Ça devait être pris pour nous, c'est clair, faut qu'y ait panpan au derrière C'est pas dit qu'on en fait notre affaire ou nous préparer à la guerre Les bombes éclatent sur les têtes de bambo black Lorsqu'il est chargé, il débarque, c'est pas une blague de mani, ça va Young Men, on est là pour connecter nos idées Montrer qu'notre force, c'est l'unité, ça fait longtemps qu'on est niqués Young Men en hip-hop et au ragga combiné Au Don Choa, j'ai accompagné, la bombe est prête à exploser x3 Ça va de plus en plus haut, ça va de plus en plus vite Faut maintenir le niveau avant qu'le niveau nous quitte Ça va de plus en plus haut, ça va de plus en plus vite À nous de suivre le tempo pour ne pas s'décaler sur le beat2</t>
+          <t>Ça va de plus en plus haut, ça va de plus en plus vite Faut maintenir le niveau avant qu'le niveau nous quitte Ça va de plus en plus haut, ça va de plus en plus vite À nous de suivre le tempo pour ne pas s'décaler sur le beat Bis be we go, I write now J'suis devenu un accro du micro jusqu'au point Où on nous demande de ne pas faire de propagande Tant pis pour les ganja man mais si on s'éclate à tel point On fait ça pour les ondes, rien n'est acquis dans la vie Tant que t'as les yeux ouverts, vaut mieux pas qu'tu lâches l'affaire Young men, c'est sans répit, pas d'soucis Fais seulement c'que t'as à faire et fais confiance au père x2 Ça va de plus en plus haut, ça va de plus en plus vite Faut maintenir le niveau avant qu'le niveau nous quitte Ça va de plus en plus haut, ça va de plus en plus vite À nous de suivre le tempo pour ne pas s'décaler sur le beat J'suis pas bon un exemple pour les young men Avec mon fond d'dingue, la raison ma skunk flingue C'est pas un complainte, libère-toi des contraintes J'sais pas trop comment trop t'expliquer T'as mis les deux doigts dans la prise ou quoi ? P'tit excité Pas d'imprudence même si y'a des imprévus Va droit au but, pense, réagis, assume et continue Fais comme tu l'sens, renonce pas même si t'es déçu Pas d'concurrence, juste endurance, bouge ton cul, danse Saute dessus, pieds nus sur les braises, lève ta Rolex No stress, tranquille à l'aise, fracasse la chaise Avant qu'on déconnecte Bientôt la chute de la comète, sors le lance-roquette Non, j'déconnais, micro test un, rien n'est acquis Et si tu crois avoir un instant d'répit C'est que t'es con à te frotter les couilles sur du crépis Faut faire ses sous car la maison ne fait plus crédit Ancien petit, grands objectifs, are you ready ? x2 Ça va de plus en plus haut, ça va de plus en plus vite Faut maintenir le niveau avant qu'le niveau nous quitte Ça va de plus en plus haut, ça va de plus en plus vite À nous de suivre le tempo pour ne pas s'décaler sur le beat Young Men, on est là pour connecter nos idées Montrer qu'notre force, c'est l'unité, ça fait longtemps qu'on est DJ Young Men en hip-hop et au ragga combiné Au Don Choa, j'ai accompagné, la bombe est prête à exploser Dans tous les cas de citer, pour les riches et les moins riches Et tous ceux qu'ont envie de kiffer, ici, c'est Nowaw Pour les coincés, les moins coincés Mais qui savent listen to reggae, Liberty qui revient kicker Ça devait être pris pour nous, c'est clair, faut qu'y ait panpan au derrière C'est pas dit qu'on en fait notre affaire ou nous préparer à la guerre Les bombes éclatent sur les têtes de bambo black Lorsqu'il est chargé, il débarque, c'est pas une blague de mani, ça va Young Men, on est là pour connecter nos idées Montrer qu'notre force, c'est l'unité, ça fait longtemps qu'on est niqués Young Men en hip-hop et au ragga combiné Au Don Choa, j'ai accompagné, la bombe est prête à exploser x3 Ça va de plus en plus haut, ça va de plus en plus vite Faut maintenir le niveau avant qu'le niveau nous quitte Ça va de plus en plus haut, ça va de plus en plus vite À nous de suivre le tempo pour ne pas s'décaler sur le beat2</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Don_Choa_songs.xlsx
+++ b/data/02_intermediate/cleaned_Don_Choa_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art de rue</t>
+          <t>L’amour du risque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Dewolph x Sawmal - The Adventures of Huile Smith FatMan Blue SUPERMAGENTA - 0501 Luni - Noir 0601 Crime TEAm - Carmin - 0601 Biffty DJ Weedim - La Réincarnation du Turn up 2 0701 Beozedzed - Sept - 0801 Le2s - Inconnu - 1001 Maes - Réelle vie 1601 Nasme - Spécial Guest Vol.2 1901 Le Hu - Hustler - 2001 Barack Adama La Propagande Saison 1 - 2001 Demi Portion 2 Chez Moi - 2001 Take A Mic - Bipolaire - 2001 Vald - Agartha 2501 Louvar - Zénith 2701 Bigty - Christrip Vol.2 TEM 2701 Bizon Gbz - Le silence des agneaux 2701 Escobar Macson - Mr. Punchlines - 2701 KeBlack - Premier Étage - 2701 Sofiane - JeSuisPasséChezSo 2801 Six - La salle du temps - 2901 Ozkar Zulu - Orée artificielle 3101 Franc Parler BLT Tape Février - 0202 T.I.S DJ Cross-Y - Gotham City Kids Épisode 2 0302 Bazoo Nordinomouk - Jupiter 0302 Féfé Bess Sek Ibrahimovich - Amistad 0302 Mike Lucazz - Soleil Gelé 0302 Tonio Mc - Déstresse 0502 Euphonik - Inconnu Mais Reconnu II - 0602 Scoop J.Keuz - Maestria - 1002 Flaco - Mundo - 1002 Heskis - GG Allin EP 1202 Ou2s - La Machine Vol.2 - 1202 Yaska Dawan - 5 AM 1302 Sons Of Melody - La route est longue - 1302 Spider ZED - Mes ex - 1402 Krisy - Paradis d'amour - 1502 4keus Gang - Vois t'as vu 1502 Dawa O Mic - La Galette Mixtape 1602 Akissa - Opium - EP - 1702 Abou Debeing - Debeinguerie - 1702 Aladin 135 - Indigo 1702 Le Bon Nob - Ptit Con - 1702 Féfé - Mauve 1702 H3RY LÜCK - FORCE 2 - 1702 Hayce Lemsi - Électron Libre 2 1702 La Massfa - Frères d'armes - 1702 Nusky Vaati - BLUH 1702 Segä - Nos Futurs - 1702 Zaho - Le monde à l'envers 2202 JMK - Love Loyalty - 2402 A2H - Les hommes pleurent en hiver Winter Tape - 2402 Jok'Air - Big Daddy Jok - 2402 Médine - Prose Elite - 2402 O'Trak ChriStorm - Sublime abomination - 2402 Sianna - Diamant Noir - 2802 Pink Tee - Période des 16 Mars - 0103 Sameer Ahmad - Jovontae EP 0303 AlTarba - La nuit se lève 0303 GLK - Murder Réédition - 0303 Ghetto Phénomène - La Vida Loca - 0303 IAM - Rêvolution 0303 Ixzo - L'Ennemi - 0303 Jayel - Laboratoire - 0303 Rim'K - Fantôme - 0303 Stupeflip - Stup Virus - 0303 Lord Esperanza Majeur Mineur - Drapeau Noir 0403 Nosfer - BHD - 0503 So'Clock - Saut de l'ange 0603 Iron Sy - Amadou Malick chapitre 1 0603 Skreally Boy - 0703 Nedoua - 420 - 0803 Elh Kmer - Indépendant - 1003 Booba - Autopsie 0 1003 Daouf - Après coups 1003 Eklips - Lips Beat box album 1003 Fadah - Cet Art - 1003 Gen Zu Clan - Rois De Lunderground - 1003 Hooss - Temps plein - 1003 Phénomène Bizness - Pharaon - 1003 Sneazzy - Dieu bénisse Supersound Vol. 2 - 1203 Yaruki Records - Satori - 1503 Scars - Je suis comme ça 1703 Artiste multiples - Bendo - 1703 Dandyguel - Trophée - 1703 Deen Burbigo - Grand Cru - 1703 Djadja Dinaz - Dans L'Arène - 1703 Homi - Au-delà des Alpes 1703 Original Tonio - Monologue Social - 1703 Roméo Elvis Le Motel - Morale 2 1703 TRZ - La Rue tappelle - 2003 Jul - Album Gratuit Vol. 3 - 2003 Triplego - 2020 2103 Euphonik - Dieu est une Femme 2103 ODT - La marque de la bête 2403 Le 3eme il - Les 20 Ans - 2403 Les Sages Poètes de la Rue - Art Contemporain - 2503 T.I.S - 001 - 2703 Patee Gee - Basilic - 3003 Vîrus - Les Soliloques du Pauvre 3103 Babarr - Les 7 péchés kapitaux - 3103 Benash - CDG - 3103 Kekra - Vréel 2 - 3103 Lacrim - Force honneur - 3103 Scylla - Masque de chair - 3103 Slimka - No Bad Vol.1 Avril - 0204 Lasco - Le blood - 0604 Luni - Rose - 0704 Falcko - Manny 0704 Ideal Jim - Hannah - 0704 Le Dé - Napalm 0704 Andy Luidje - 404 0704 T-Nord - Persona non grata - 0704 Take A Mic - Boîte noire 1004 Baek - 2016 1004 Guy2Bezbar - Jungle vol.2 1404 AkaperA - Loup 1404 Majster - Le cur dans les mains 1404 DJ Erise - Rizer - 1404 FK - Purple Kemet 2 - 1404 Gaël Faye - Rythmes Botanique - 1404 Jorrdee - Avant - 1404 L.O.A.S - Tout me fait rire - 1604 Beeby - MALA 800 ORION 1704 Napo - NAPOlogie Vol.1 - 2004 Grems - P.O.M - 2104 Columbine - Enfants Terribles - 2104 Isha - La Vie Augmente Vol.1 - 2104 Mac Tyer - Banger 3 2104 Robse - Colibri - 2104 Veerus - Mercure - 2204 Meyso - MiseAJour 2404 Euphonik - Dieu est une Femme 2 2404 Mairo - 365 2504 La Prune - Reine Claude - 2704 Assy Youv Dee - Beta test - 2804 Damso - Ipséité 2804 Dolfa - Dolfa is the New Black - 2804 Don Choa - EP - 2804 Loud - New Phone - 2804 Wit. - Dawa 3004 Nelick - Load 22 - 3004 T.I.S DJ Cross-Y - Gotham City Kids Épisode 3 Mai 0105 Bazoo - B-T2PE 2 0205 Poupa Lost - Incantations - 0305 L'Or du Commun - Zeppelin 0305 Sirsy - Avant Yaro - 0505 Eddie Hyde - La malédiction du Nord - 0505 Elams - Réussir et mourir - 0505 Hooss - Première Presse 0505 Marlo Flexxx - Jeune Pimp 0505 Numbers - Femmes Ennemis - 0505 Sch - Deo Favente - 0605 Lonepsi - Les premiers sons du reste de ma vie 0905 Freeman - Sous la mine - 1005 Di-Meh - Focus Part. 1 1005 El Matador - Mâle Dominant - 1105 Nelick - LOAD 57 - 1205 Caballero JeanJass - Double Hélice 2 - 1205 Hartigan - Purgatoire 1205 Kamikaz - L'Outsider - 1205 Le Club - Hors série 1205 Quincy - Évolution - 1205 Sofiane - Bandit Saleté 1205 Supernova - Immortel 1305 Rochdi Krystal - Mélodies de la cave 1405 Nelick - LOAD 94 - 1505 Jorrdee - Belle de jour - 1505 Tengo John Ocho - NUV - 1705 A Little Rooster, Hash24 Sanka - Chanson pour les oreilles 1805 Massa Moon - Fréquences - 1905 Beny - Pepito est grand - 1905 Cenza - Les prophéties d'une plume 1905 Coyote Jo Bastard - L'Enfer avant le Paradis - 1905 DTF - Sans rêve - 1905 Kalash Criminel - Oyoki - 1905 LTF - 2014 - 1905 Lucio Bukowski Soulchildren - SIMORGH - 1905 Mister V - Double V - 1905 Naps - Pochon Bleu - 2405 Zeno - Beurre Sucre 2505 Emotion Lafolie - Dopamine 2605 Bradley - Askia 2605 Baka - Guêpier Paris - 2605 Cheu-B - Welcome To Skyland - 2605 Le Club - Série 97 2605 Les 10' - Artefacts Vol.1 Les 10 - 2605 Nov - Evo 2 - 2605 Panama Bende - ADN 2805 Akrapovic - Havana Devil Juin - 0106 Retro X - DIGI - 0106 Taipan - Parlons Beuh 0206 Stensy - Rotations 0206 Casse-Croute - Éléphant rose 0206 Driver - Maintenant j'suis chaud - 0206 Keny Arkana - Lesquisse 3 - 0206 La Fouine - Capitale Du Crime Censuré - 0206 Ladea - Alpha Leonis - 0206 Larry Kid - Contrôle - 0206 Les Alchimistes - Danslaloge 0406 Lil Taï Z - TAÏZ 0406 Bitu - No more lemon - 0506 Eden Dillinger - Olaf 0706 Nedoua - Septième étage - 0906 Disiz La Peste - Pacifique - 0906 Infinit' - NSMLM - 0906 Josman - 000 0906 La Canaille - 11.08.73 0906 Rekta - Hustle life - 0906 USKY - Outsider 1506 Bhati - OULYPO - 1506 Grems - Ep 1506 Fossoyeur Ékékil - Collision - 1606 Biffty DJ Weedim - Souyegod - 1606 Fixpen Sill - A4637 - 1606 Jok'Air - Je suis Big Daddy 1606 Nikkfurie Young Zee - Ignorez l'annonce 1606 TiTo Prince - Poetic justice 1606 Youssef Swatt's - Vers l'infini et au-delà 1905 Chich - Chich Volume 2 1906 La Caillasse - Pantheism 2106 L'Hexaler O.B.L. - Au nom de l'indépendance - 2306 Biffty DJ Weedim - Mega bonus - 2306 Bigflo Oli - La vraie vie - 2306 Dehmo - Ethologie - 2306 Georgio - Héra réédition - 2306 GLGV - S6MPLE SCHOOL - 2306 Makala - Gun Love Fiction - 2506 Lucci Lpee - PL1106 - 2606 GaT.Taca - ECG 2606 Ockney - Stand de tir 2806 Korohima - Ajna 3006 Alpha 5.20 - Blood Le Sang des Martyrs - 3006 Jul - Je ne me vois pas briller - 3006 Lomepal - Flip - 3006 Lucio Bukowski - Aucun potentiel commercial - 3006 Siboy - Spécial - 3006 T.I.S DJ Cross-Y - Gotham City Kids Épisode 4 Juillet 0107 LK de l'Hotel Moscou - Rose de Jéricho - 0507 Laylow - Digitalova - 0707 Alkpote - Les Marches de l'Empereur 0707 ALP - Épilogue - 0707 Ash Kidd - Mila 809 - 0707 Taïro - Summer Tape - 0707 Niro - OX7 - 0707 Fally Ipupa - Tokooos 1307 Royal - Orion - 1407 Multi-interprètes - Afrotrap Volume 1 - 1707 Barack Adama La Propagande Saison 2 - 1707 Lartiste - Projet 000 1707 Royal - Osiris - 1808 GaT.Taca - ÉPINEUSEMUSIQUE 1807 The S and Layon - Plein soleil - 2107 A2H - Summer Stories Kushtape Volume 3 2107 Matatix - Néant - 2107 Niro - M8RE 2307 Keustee - Le Bouquet Final 2307 Kokoro Lee - Osaleeka 2807 La Mannschaft - Indépendant des autres Août 0108 Sauveur Eloheem - L'Enfer 0208 Lacraps - Bootleg Vol. 1 0508 Faktiss - POV 1008 Dr Bériz - Popcorn 1108 YW - YW 1208 Hotel Paradisio - Reveri 1408 Euphonik - Dieu est une Femme 3 1608 DF Cerk - Chorus - 1808 Leo Roi - Meteo canicule - 2508 Alonzo - 100 Septembre - 0109 Soprano - L'Everest EP - 0809 Ninho - Comme prévu - 0809 PLK - Ténébreux - 1109 Freeze Corleone TheHashClique - THC - 1309 Blaiz - Jungle Bibi - 1309 LK de l'Hotel Moscou - Xanadu - 1409 Luni - Orange - 1509 Jul - Album Gratuit Vol. 4 1509 L'Affreux Jojo - Portraits gâchés - 1509 Naps - En équipe Vol. 1 - 1509 Sadek - Vulgaire, Violent et Ravi Dêtre Là 2009 SelaS - Algorithme - 2109 Népal - 445e nuit - 2109 Various Artists - Paris L.A. Bruxelles - 2209 Hugo TSR - Tant qu'on est là - 2209 Lefa - Visionnaire 2209 L-Kaïss - Razzia - 2209 Niska - Commando - 2209 Nov - Babe Tape 2209 TonyToxik - Infini - 2309 Jok'Air - Jok' Pololo 2509 Bizon Gbz - Iki 2809 L'Hexaler - Cuatro Estaciones - 2909 4keus Gang - Hors série 2909 Bastard Prod - 100 comme un chien 2909 Dernier Pro - Dans les yeux - 2909 Hornet La Frappe - Nous-mêmes - 2909 Hyacinthe - Sarah - 2909 Naza - Incroyable - 2909 Still Fresh - Cur noir Octobre - 0110 Beeby - Quatre saisons Vol. 3 0110 B-Biface - M. Personne - 0110 7 Jaws - Nautilus - 0310 VII - Les matins sous la lune - 0610 Ghetto Phénomène - En catimini 0610 Hesytap Squad - Pression - 0610 Jayel - Sens Interdit 0610 Nefaste - Dans mon monde - 0610 Sneazzy - Dieu bénisse Supersound Vol. 3 - 0910 Django - Anthracite - 1210 Assassam - Les Heures Perdues - 1310 Jarod - Attitude - 1310 Kalash - Mwaka Moon - 1310 Klub des Loosers - Le chat et autres histoires - 1310 Maska - Akhal Téke - 1610 Sully - PUBG 1910 Petrodollars - Outre Monde 2010 EX-ILE - Direction Est 2010 Katana - LÉpée II justice - 2010 OrelSan - La fête est finie 2010 P-dro - Jardin Noir 2410 Wit. - ONYX - 2510 Spider ZED - Figurine 2710 Flaco - La Fafa 2710 Godié - NUBE - 2710 Hamza - 1994 - 2710 Kennedy - Valar morghulis - 2710 Lord Esperanza - Polaroïd - 2710 Loud - Une année record - 2710 VSO Maxenss - Southcoaster - 2910 Jorrdee - D-A-VELLI Version rouge 3110 Artistes multiples - O'Trak présente Les Sons de la Crypte Novembre - 0311 Bigflo Oli - La Vraie Vie Version Deluxe - 0311 Davodka - Accusé de réflexion - 0311 Doums - Pilote - 0311 Kaaris - Dozo 0311 Keros-N - Bipolaire - 0311 MC Solaar - Géopoétique - 0311 Verso - Colère calme 0411 Kaki Montana - Bullet Proof Vol. 1 0611 Eli MC - Manque moi - 1011 Chilla - Karma - 1011 Dooz Kawa - Contes cruels - 1011 Franglish - Signature 1011 Geule Blansh - J'raconte - 1011 High Five Crew - Joli rouge 1011 Korohima - Antidote - 1011 L'Ordre du Périph - Vogue Merry 1011 Ménélik - Qlassiks Vol. 1 - 1011 MMZ - N'DA - 1011 XV - 404 Error - 1111 Lombre - Eau trouble 1111 Theorem de Gama - Ingressum - 1711 Azuul Smith - L'argent suffira - 1711 Black M - Éternel Insatisfait Réédition 1711 Freez - Les minutes vides - 1711 Lacrim - R.I.P.R.O, Vol. 3 1711 Passi - Les Tentations Édition collector 1997-2017 - 1711 Pumpkin Vin's da Cuero - Persona Non Gratis - 1711 Sinik - Drone - 2011 T.I.S - 002 2111 Baek - Baek - 2311 Kekra - Vréel 3 - 2411 Dadju - Gentleman 2.0 - 2411 Ichon - Il suffit de le faire 2411 KPoint - Trap'n'Roll - 2411 Lucio Bukowski - RequiemNativité 2411 Pejmaxx - Pejmaxx 2411 Slim Lessio - Fruit de paix - 2411 Sopico - Ëpisode 1 3011 2Spee Gonzales - City Light 3011 Elpea - Coucher de soleil Décembre - 0112 Booba - Trône - 0112 Clément Dumoulin - B.O. Tueurs - 0112 Furax Barbarossa Jeff Le Nerf - Dernier Manuscrit - 0112 Guizmo - Amicalement vôtre - 0112 Haristone - Off 0112 Hiro - De la Haine à l'Amour - 0112 Jul - La tête dans les nuages - 0112 Lomepal - Flip Deluxe 0212 Royal - Exodia 0312 Convok Mistral - Haschtag - EP - 0412 Butter Bullets - Air Mès et Hermax 0512 Namils - Oeil Noir - 0812 Astro 90 - PHANTOM 0812 Hache-P - Before - 0812 Hayce Lemsi - Eurêka 0812 I2H - Échantillons - 0812 Nixon - Tout se passe comme prévu - 0912 Jorrdee - D-A-VELLI version extra rouge BEFORE REHAB - 1312 Jorrdee - LESS 1512 La Main Gauche - Ni le même, Ni un autre 1512 Néochrome - Compilation Rap de banlieusard, Vol. 4 - 1512 Youv Dee - Gear 2 - 1812 Lutce - Pulsions 2012 Joe Cross - Artefacts Vol.3 2212 Green Money - Gnosis 2212 Majster - Je n'ai rien fait d'autre que mon travail, Mr Simba... 2212 Skreally Boy - Lo3 - 2412 T.I.S Nehr - Aller Simple volume 4 - Lost beats, last words 2512 La Prune - Eau de vie 2712 Orus - Lumière froide 3112 Lil Sheitan - Sur mon bateau pirate Autres Du 0809 au XXXX Sofiane - Rentre dans le cercle - Du 2403 au 1606 Bavoog Avers - Les logorrhées Du 0412 au XXXX Alkpote - Les Marches de l'Empereur Saison 310</t>
+          <t>Ouha, tout le monde lève les bras Ouha c'est c'que la fonky family est là Ouha, que pasa que pasa ? Ouha, les jeunes du mic center Le Rat, check check du Rat dans l'art Don Choa pour la chaude ambiance tout le monde est relax Ouais, me sentir mixé sur la face B, le quartier du panier est dans la place ok Écoute et goute le son de Pone, Djellahi, King Shu, Crack Shu, Naomi Karima toute la Fonky Family Chaud les potos, Chill check le micro Je mimmisce dans le rythme comme la pieuvre peut flinguer Mes potes sont tous dingues, et la musique commence à schlinguer Une odeur qui pue le hangar moite Car le rap est né dans les caves et pas dans les boîtes, vu ? L.A.I. range ta panoplie de DJ Mets de la dance, pour ces izes qui n'ont rien pigé Mais sers-moi, un rythme qui frappe, un ascète À multiples facettes quand je pique une nouvelle cassette Pour le plaisir, pas de ramage, ni de fromage De racolage, je prends le mic pour faire des dommages Et j'assure plus que l'UAP, mon style est impec Les sec, à la tech, mec déclenche le plan ORSEC Fini, donc plus d'embrouillaminis, les règles ainsi définies Énoncent le rap appartient à l'infini Éloge à la mémoire des évaporés, unique Jamais autant de types sont morts pour l'amour d'une musique Une combinaison d'instruments, de scratches, de samplers C'est sur la face B que le hip-hop prend de l'ampleur Cut Killer, voilà de l'espace, en masse avec classe Scratche, cute en place, que je claque l'autre face Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B C'est du nouveau son qui frappe dans tes woofers Pas un discours d'esbrouffeur, qui confère cette couleur à tes boomers Les bufs badent Balla, les stressés croient en Pasqua Les FAF deviennent fadas, Akhenaton nique la halla J'ai choisi un éventail d'instrus de disques moisis Il y avait Saïd, Majid Mourad et son frère Razi Puis Houari, c'était l'été 85 Au centre ville de Marseille on entendait le bruit des flingues, dingue Les escaliers du centre Bourse, le quartier Belsunce Les Carmes, le Panier, c'est là où tout a commencé Les jeunes troquaient les cyclos pour les GTI pas pareil Ainsi se forgea le style des bad boys de Marseille Des histoires de barbares tous les soirs Dans les bars il n'était jamais trop tard pour une bagarre T'es jeune, t'es le roi, t'as peur de rien Jusqu'au jour où tu prends un pain d'un Marines américain Je pesais 65 kg et ce type 120 Je suis tombé sec, un coquard, et deux dents en moins Mais fils, qu'est-ce que j'ai pu rigoler Chaque fois qu'un se faisait balafrer par les clandos du quartier Maintenant je vis tranquille Toujours dans la même ville, mais plus d'embrouilles débiles Je suis passé sur la face A, j'ai eu la renommée Mais putain ce que j'aime déchirer sur la face B Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B Je fonce, avec fougue, dans le fond du microsillon Nous sommes des Attila ce sont des sons que nous pillons J'aime, je respecte les artistes que je sample, obsédé Par la destinée du vinyle alors fuck the CD, ouais Si j'ai pu débuter ce métier C'est qu'on a pu disposer des faces B, des nouveautés Sarcastiques, textes sur du plastique 100 personnes maximum, mais c'était fantastique J'aurais pu parler d'amour sur la face A Mais cette face-là ne m'intéresse pas Je suis de l'autre côté de la force De l'autre côté du risque, de l'autre côté du disque La partie émergée d'une puissance occulte Je demande à ce pays, la dignité pour mon culte Et tôt ou tard, ils seront bouche-bée Confondus d'avoir ignoré le pouvoir de la face B Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B1</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L’amour du risque</t>
+          <t>13 Organisé (Bonus Track)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ouha, tout le monde lève les bras Ouha c'est c'que la fonky family est là Ouha, que pasa que pasa ? Ouha, les jeunes du mic center Le Rat, check check du Rat dans l'art Don Choa pour la chaude ambiance tout le monde est relax Ouais, me sentir mixé sur la face B, le quartier du panier est dans la place ok Écoute et goute le son de Pone, Djellahi, King Shu, Crack Shu, Naomi Karima toute la Fonky Family Chaud les potos, Chill check le micro Je mimmisce dans le rythme comme la pieuvre peut flinguer Mes potes sont tous dingues, et la musique commence à schlinguer Une odeur qui pue le hangar moite Car le rap est né dans les caves et pas dans les boîtes, vu ? L.A.I. range ta panoplie de DJ Mets de la dance, pour ces izes qui n'ont rien pigé Mais sers-moi, un rythme qui frappe, un ascète À multiples facettes quand je pique une nouvelle cassette Pour le plaisir, pas de ramage, ni de fromage De racolage, je prends le mic pour faire des dommages Et j'assure plus que l'UAP, mon style est impec Les sec, à la tech, mec déclenche le plan ORSEC Fini, donc plus d'embrouillaminis, les règles ainsi définies Énoncent le rap appartient à l'infini Éloge à la mémoire des évaporés, unique Jamais autant de types sont morts pour l'amour d'une musique Une combinaison d'instruments, de scratches, de samplers C'est sur la face B que le hip-hop prend de l'ampleur Cut Killer, voilà de l'espace, en masse avec classe Scratche, cute en place, que je claque l'autre face Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B C'est du nouveau son qui frappe dans tes woofers Pas un discours d'esbrouffeur, qui confère cette couleur à tes boomers Les bufs badent Balla, les stressés croient en Pasqua Les FAF deviennent fadas, Akhenaton nique la halla J'ai choisi un éventail d'instrus de disques moisis Il y avait Saïd, Majid Mourad et son frère Razi Puis Houari, c'était l'été 85 Au centre ville de Marseille on entendait le bruit des flingues, dingue Les escaliers du centre Bourse, le quartier Belsunce Les Carmes, le Panier, c'est là où tout a commencé Les jeunes troquaient les cyclos pour les GTI pas pareil Ainsi se forgea le style des bad boys de Marseille Des histoires de barbares tous les soirs Dans les bars il n'était jamais trop tard pour une bagarre T'es jeune, t'es le roi, t'as peur de rien Jusqu'au jour où tu prends un pain d'un Marines américain Je pesais 65 kg et ce type 120 Je suis tombé sec, un coquard, et deux dents en moins Mais fils, qu'est-ce que j'ai pu rigoler Chaque fois qu'un se faisait balafrer par les clandos du quartier Maintenant je vis tranquille Toujours dans la même ville, mais plus d'embrouilles débiles Je suis passé sur la face A, j'ai eu la renommée Mais putain ce que j'aime déchirer sur la face B Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B Je fonce, avec fougue, dans le fond du microsillon Nous sommes des Attila ce sont des sons que nous pillons J'aime, je respecte les artistes que je sample, obsédé Par la destinée du vinyle alors fuck the CD, ouais Si j'ai pu débuter ce métier C'est qu'on a pu disposer des faces B, des nouveautés Sarcastiques, textes sur du plastique 100 personnes maximum, mais c'était fantastique J'aurais pu parler d'amour sur la face A Mais cette face-là ne m'intéresse pas Je suis de l'autre côté de la force De l'autre côté du risque, de l'autre côté du disque La partie émergée d'une puissance occulte Je demande à ce pays, la dignité pour mon culte Et tôt ou tard, ils seront bouche-bée Confondus d'avoir ignoré le pouvoir de la face B Rock the other side - la face B,la face B This is the B Side la face B, la face B Chill a débuté sur la face B1</t>
+          <t>This is a Nass production Mmh, mmh Merde alors Tu veux la guerre, juste après, tu bipes ton père ok À rien ça sert de faire pousser des affaires gamberge Plus de mala, tu t'es retrouvé à terre mala Maintenant, malade, tu grattes des blondes à l'after Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Lunettes de ski dans le Rover, derrière les pecs, j'ai un grand cur piou Loin des traîtres, loin des pompeurs, tu fais le fou, après tu ramènes ton père fiou, fiou, fiou Vingt projets après, j'ai les dents aiguisées, oue, oue, oue les schmitts ils ont des gros pet', des charbons déguisés wouh, wouh Frérot, tu deviens chaud bizarre quand t'as tisé, wouh tu dis que tu tires, tu sais même pas viser wouh J'suis dans des bails de malade, pas de mala, pas de cala, peu de câlins rah, rah, rah Pas de calibre, une pensée aux frères pas libres, à ceux qui rêvent de palettes ou de conduire la Ferrari wouh Pas b'soin de palettes au volant non, non, j'suis dans la soucoupe volante non Pas b'soin de palettes au volant non, j'suis dans la soucoupe volante Ça sent la beuh, fais vura, j'suis l'vingt-deux Ça sent la beuh, fais vura, j'suis l'vingt-deux Oh, j'suis carrément dans l'truc han Carrément, trois By SFR, mec C'est carrément les stup' brr, brr, han, les p'tits sont dans Matrix, Opinel On t'fait carrément du X, han, c'est que les frérots, que les numéros Que la plata, que la pasta, sa grand-mère taffer au bureau, oh Fer tchécoslovaque, boîtes de 30 arrivent sur l'Zodiac 'fack J'ai même pas bu d'Jack, bande organisée comme si t'avais vu l'Diable Et sur les jantes, ça roule, Vovo j'rentre à la 'son, minable 7.65 près des couilles, ça bosse pas la zone abdominale Ça tourne comme des civ' en automatique, tout niquer en équipe, c'est la thématique Pour le territoire, entre ennemis, ça s'éradique, sous shit et alcool, t'es tarpin lunatique J'entends le bruit du RR-1000, ça te cherche ça zone, outillé outillé Dans le quartier, la guigne ça va plus vite qu'une Audi, eh Audi, eh Il a acheté une Kalash' parce qu'on lui a dit Pas besoin d'savoir viser savoir viser À Marseille, à peine majeur, ça t'fait des RDC très organisé organisé À l'aise, j'vais t'niquer ta mère et tu ne verras jamais l'iPhone 13 C'est nous la tess, déstresse, K-K-K.O.F.S J'lui ai donné un faux nom, elle m'a donné un faux num', c'est une pute celle-là hey Elle fait la pucelle, j'prends mes lovés, je me taille voir les putes à Bruxelles wow Elle est plein de feinte, elle repart avec moi, elle est venue avec eux Je la branche à 20 heures, je la nique à 22, j'ai allumé la lumière, en fait, elle était 'quinte Que veux-tu que j'te dise de plus ? J'vise la tête ou je vise le but Le paradis est sous les pieds de ta mère mais t'es un fils de pute Là, j'suis en Audi, j'pars en virée, j'fais le tour de la ville, Soma me dit Fais-moi tirer Zone sombre dans le cendrier, fais pas trop de boulettes à la quali', mmh Non, tu n'peux pas l'nier, cette année, je vais te la bousiller, mmh Dom Pérignon, sapé, elle me trouve mignon Toi, tu fais le fou, quand j'sors le Glock, tu d'viens tout mignon J'sors mon mzing et tu zina, on t'allume, tu te zimen On t'fait danser, danser, dan-, danser, danser, dan- Tu vas crier Zim Zimma Oh, faya bondé, toi, tu n'arrives plus à bander Moi, j'vide mon barreau, j'pense aux frères derrière les barreaux Brillant, brillant, grillé, grillé, j'roule un pivado Vaillant, vaillant, toujours prêt pour monter dans un braquo' Me rate pas, j'reviens, j'te rate pas sur la vie d'ma mère Besoin d'dégun, Belsunce Breakdown T-MAX, pote-cra, j'suis une 22, donne-nous le, donne le go Andale, gandale, faut faire carnage à la Kalash' Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Survêt' Quechua ouais, dernier Merco ouais, showcase dans l'club ouais, faut faire des choix ouais Sur mon perchoir ouais, dans mon ghetto ouais, j'vois le bédo ouais, coupe au séchoir Survêt', baskets, plein de business, ça s'mange, ça s'tue comme du beefsteak Y a la fusée dans le Grinder, calibré comme les Peaky Blinders J'vois loin dans les étoiles, ah, et j'vois qu'tu es sûr de toi, ah Moula, moula, de té-cô, kichta lourde en mandat de dépôt Moula, moula, de té-cô, kichta lourde en mandat de dépôt J'suis sur la Corniche, j'fais le Tony, la gow est bombée dans le bolide ouais Bernard Tapie au bout du fil allô, allô, j'suis immortel comme le COVID Elle fait la fille bien, j'veux une coquine, terr-terr, pin-pon, c'est la routine C'est Marseille, salope, c'est pas Brooklyn, c'est Marseille, salope, c'est pas Brooklyn Prince de la ville dans le binks, j'fais le biff en équipe comme dans Heat comme dans Heat À 2000 sur l'périph' comme Lewis, on est quatre et pas dix et pas dix, dix Tu veux appeler l'dire ou applaudir, garde la monnaie, tu peux arrondir Elle a un sale boule, je veux rebondir, si je tire, c'dans la carotide Sur le bitume, j'fais du Billie Jean, c'est bouillant, c'est la canicule 40 degrés à l'ombre, c'est les Philippines T'as reconnu le matricule, tête cramée dans la tribune, y a la zone, y a la tribu, attitude depuis le début le début Le J me fait la passe, unh, et moi, je mets le but le but Je me regarde dans la glace, unh, j'ai jamais fait la pute Pour avoir la classe, pas besoin de notice, ça fait bang, bang, bang, c'est l'agonie, la police On les aime pas, c'est la folie, j'vise la lucarne comme le coup d'tête de Boli Abonné, j'suis dans le bolide, j'm'en bats les couilles de Clyde et Bonnie Ça s'propage comme le COVID, j'suis dans les airs comme un Boeing Alcoolisé, dans le bordel, elle a sympathisé Elle a trop sucé, on s'en bat les couilles, on la f'ra resucer On est trop rusés, sans l'succès, on s'est quand même propulsés Oui Paris, c'est magique magique, mais Marseille reste unique ouais Ici, y a pas d'limites limites, champion dans l'foot et l'shit Bloqués dans l'tiekson, certains voient pas plus loin que Lançon Merco GTS, conduite normale sous ballons hmm, ouais Fourgon d'armes de l'Est, camion semi plein d'ballots La moula jaune, ouais la moula jaune, comme la Bonne Mère, les cigales sonnent ouais, jusqu'à la Canebière En crabe sur les RR 1000, j'passe par les rues où y a pas d'civils vroum, vroum Fond dcinq, j'suis à Bougainville, j'passe faire un tour vers le centre-ville Ah putain, j'ai le pétard dans le jean, cache-le vite, y a les hams paw, paw Grosse kichta qui s'allume comme Billie Jean, 3.5.5 dans le sac, oh Je baise ma vida, j'vais m'vider, j'vais piler, c'est la fin, fume ton dernier pilon J'suis serein, t'es nerveux, J't'ouvre la tête au marteau, t'es un d'ces fils de chien qui retient que le seul nom Je m'endors c'est la guerre, j'me réveille, c'est la même Ouais ça fait très longtemps qu'on a banni la paix Je sors du forgeron, je parle une première fois, la deuxième fois je te fends le crâne a l'épée 20 heures de cellule sur 24, à 3 dans un 9 mètres carré, 40 degrés je suffoque J'connais les tes-traî, ouais toujours en retrait, jamais d'la vida j'tourne mon dos, gros je pivote La Grinta, du monde dans les gradins, se lève et m'applaudit, moi, j'attends la Ôla J'suis numéro 9, c'est moi qui plante les butes, et je choque comme cartel de Sinaloa brrw Parlez, parlez ça fait guili-guili 1.3, 0.9, j'suis frais comme les Guirri J'suis vrai comme un DZ, j'suis vrai comme Valkyrie Je reviens du désert, j'ai très gros appétit Ça remplit un chargeur et ça l'vide dans ta mère Rajoute deux-trois zéros sur mon putain d'salaire, sur mon putain d'vécu, sur mon putain de compte Sur mon putain de score, ouais, la putain d'ta mère Vite fait, bien fait, j'pose le truc, machin qui frotte mon fute 3.5 tout black, t'sais qu'ça pique L'équipe 1.3, t'sais qu'ça kick Toi, reste à sec, p'tit insecte On s'fait solo, nique ta secte, j'taffe sans cesse J'veux pas d'C.C, un peu d'Vovo décomplexe RS4 break, que des têtes au carbo, ça travaille les pecs sans penser aux abdos ouais Tu vois là, l'beat, j'l'ai choppé par l'cou, même à 46, tu vas l'saigner partout Crochet dans les artères, p'tite merde C'est plus des gifles mais des balles qui s'perdent La jalousie, pour moi, c'est un mystère, comme ceux qui pompent fort un peu comme leur sister comme leur sister T'as reconnu l'accent d'en bas ah ouais, fais pas celui qu'entend pas ah ouais On va te mêler comme Tong Po, tu trahis, nan, c'est pas sympa eh ouais Fais nous la passe le J, bah ouais, tout le Sud réuni, bah ouais C'est fini, donc n'insiste pas, à mes yeux tu n'existes pas 6h du mat', je dors pas, j'écris des rimes hors-pair J'm'en sors pas, tu sais comment je compte faire C'est le retour de la Soude, on reprend du service Faut des sous et y faut les faire vite Le son, c'est de la bombe, tu l'entends, tu sers fils T'en voulais, t'es servi Ne fais pas la bombe, tu peux pas me plaire miss Car tu fais trop la folle comme c'est pas permis Bang bang bang j'arrive comme un Fayzer Dans les rues de Mars' avec le flow assassin Ça veut piquer la gadji de ton poto, c'est malsain Oh, fils de pute gros fils de pute C'est Massilia, on est des milliers, on veut des milliards, on prend l'or s'il y est Ouais c'est Massilia, gros, c'est la guérilla, là, c'est la série A, 1.3.9, c'est sérieux J'crois qu'il mon pris pour un con, hein, j'crois que j'vais péter un plomb, hein J'croise les doigts et je compte, il m'dit Tu vas faire quoi ?, j'vais sortir un pompe C'est les quartiers Sud au volant, 1.3.9, c'est affolant Demande à mes collègues, ne crois pas qu'j'suis à fond, là Tu veux tester mais t'es trop lent, j't'efface en rigolant J'envoie un freestyle et tout le quartier fait la ola Place au pirate place au pirate, voiture full black voiture full black Aujourd'hui, j'fais le mac', j'mets le bandeau à Tupac Sur moi, j'ai une plaquette, 308 break c'est la bac Pare-balles et les claquettes, j'suis cramou, j'crois qu'ils me traquent J'ai pas changé d'époque, j'suis toujours sous bob J'croise une gadji, elle m'dit Tu rappes bien, mon bébé J'suis dans la loc', j'passe à la lim' J'crois qu'cette histoire va se finir à Pépé Lacoste TN, le boss, toute l'année, rien qu'je bosse J'ai même plus le temps d'me poser, j'vois les potos sous rosé Changement, j'arrive dans le temps mort, si tu m'fais la passe, ça va faire but Y a des putes qui font des mecs en or, des filles bien qui font des fils de pute Sur la côte en Bande organisée, que des carbos chargés dans le 4x4 T'as vu l'gang, tu veux sympathiser, grosse équipe de vikings barbue comme à Kattegatt Trop de coups de salope et je suis consterné, que tu t'inventes des vies, arrête, on t'a cerné Ça prend la route, ça pilote avec les g'noux, ça roule un pétard à 15h encore les yeux cernés Ton blaze est noté sur le carnet, p'tite merde, dis-moi qui tu voulais berner ? À la base, t'étais un mec bien, en kehba tu t'es réincarné J'traine avec des mecs clean, j'traine avec des mecs louches J'traine avec des Kevin, des Marvin, j'traine avec des mecs chouch Posté sur le terrain, toute l'année, toi t'es sur le banc d'touche Chaud comme elle sentait fort, tous ses morts, na3teha bain d'bouche C'est Marseille, poto, tempère, un clic-clic dans l'fute pour t'enterrer Ça claque la kichta loin du terrain, minimum, on brisera tous tes rêves Le Soleil s'lève pour tout l'monde, toi, t'es à l'ouest à l'ouest En Moonwalk, on débarque à l'aise à l'aise Dans le Vito, j'recompte la somme et là, midi-minuit, j'suis pump it up Hola chica, me gusta tu ? Vura vura, ne bois pas tout Tu trouves ça embêtant, qu'à la fin, ça t'met pas dedans Trop d'gentils jouent les méchants, devant l'canon deviennent tout doux Ils manquent du shit dans l'secteur, ça l'ravitaille en Subaru 13 Organisé, bordélique, grosse équipe, venue frapper comme un corps d'élite Marseille trace sa route hors des pistes, hors des pistes, bordélique Y a ceux que la Haute dénigre aie, passe entre les gouttes de pluie Rimeur de feu, plie en freestyle, enfant du cagnard a trop de style Aller, aller, faut laisser passer, parole d'hier est toujours valable Cruelle, insolente et restée vraie, éclats inespérés dans nos palabres Arkana, loin des radars oui, oui, capuchée comme La Rabia ah Un gros doigt devant vos caméras, le smile des favelas malgré les drames, hélas oy J'suis l'reflet de ma zone, puche-caté sous l'Aston, hey En PV, elle m'aborde, en public, elle veut qu'on s'pète, hey Quand t'es discrète, c'est bon dél', ils m'ont déféré pour m'libérer, fais l'bisou à ton bae On fait pas crari, du bloc au siège de la Ferrari Les Marseillais cramés sur Paris J'en veux une qui poucave pas son mari C'est des bambinos, à la place, jai mis lappuie gauche À la place de s'plaindre, fais les choses mi primo 13 Organisé dans la Benz à Ciro Fais pas l'voyou, t'vas t'manger l'revers à Nadal Tu fais le fou mais pas d'manies avec Madame La vie, c'est chaud c'est chaud Sur Paris, c'est chaud c'est chaud Sous vodka, Capri Sun, mes pensées sont bien sombres Quand elle bouge dans la salle, j'aimerai l'avoir pour moi seul Solo solo, solo solo, pour moi seul Solo solo, solo solo, pour moi seul Elle est pleine de manières mais j'ai fini solo Elle est belle, elle est mimi mais j'ai fini solo Solo, solo, ouais, solo, ouais, solo, mais j'ai fini solo On connaît le mitard ouais, on connait le danger ouais Ici, y a pas de blabla, pour la monnaie, ça blague pas, fais gaffe, ils vont te manger ouais On arrive au quartier ouais, tout le monde a plongé ouais Les petits sont barbares, font des trucs de bâtards, vraiment, tout a changé ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Eyah, voilà Sopra' mbaba, eyah, Sopra' Saitama, eyah Bientôt plus connu qu'Halliday, eyah QN dans le sang, eyah, quetas dans le son, eyah Choqué quand tu lis mon CV, eyah T'as mis une croix sur Marseille car tu sais qu'c'est là qu'est l'trésor 13 Organisé pour l'oseille, normal, ici, c'est les Cités d'or La Bonne Mère la huitième merveille On est vrai depuis les dinosaures Y a vos rappeurs dans nos cendriers, eyah En position, j'ai la fenêtre de tir, donne-moi le go, on me mandate et je tue Celui qui fait le plus cramé qu'en dit le plus aux stup' C'est souvent les proches qui seront les plus grosses putes Le mec, il investit, mes couilles, il veut le bénéfice T'es pas rentré avec la merde comme père et fils Véridique han, vérifie, une frappe de bâtard, DP qui fait la passe décisive, nan Si t'as la haine, y a la médecine douce, au loin, je vois ta grand-mère en train de faire le signe JuL On va épargner les femmes et les enfants 13 Organisé à l'infini comme un puit sans fond Minuit sur la Daytona, le charbon ferme, c'est pas raisonnable Y a des clients qui viennent de Saint-Cannat, en Clio 3 remplie de nanas 4 heures j'arrive pas à dormir, j'appelle Smogo, direction l'after J'fais des tout droit, y a une queue d'bâtard, j'repère une blonde, c'est un avatar 13 Organisé, fuck la banalisée, tu vas analyser, tu vas réaliser Même alcoolisé, t'inquiète, on sait tous viser Même alcoolisé, t'inquiète, on sait tous viser Shouf, la collision, le boulon, y a tout l'monde, on nique ta mère au harpon Réponds quand tu me dois du bifton, des litrons, ouais, j'vais compter les moutons en prison La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais Marseille, c'est l'meilleur, mon frère, ça date pas d'hier Né au cur d'la haine avec une mentalité meurtrière Nous sommes des briquets allumés dans la poudrière Ça fait boom, que des hommes, tu l'ressens, ça résonne Monte le son à balle, j'suis la voix de la jungle Pour ceux en cavale, empegué ou à jeun J'fais pas le voyou mais s'il faut, j'sors le machin J'représente le 13 de Tokyo à Agen Le revers à Nadal, j'fais péter la raquette Fais pas trop la mignonne, j'te baise sur la moquette Ravale ma fierté, j'suis qu'un homme sur la planète Et j'dis merci à JuL, il m'a sorti d'la retraite, Tonyno MC du ShootStar ouais, bande de bâtards ouais Faut éviter les radars, 50 frères à ma table 50 frères à ma table, j'ai chargé la AK au volant du A4 J'envoie la frappe, t'es khapta J'connais bien ta maman, tu peux m'appeler papa Ra-ta-ta-ta, la mule, c'est ta tata J'ai pas l'vague à l'âme, j'suis prêt pour l'Valhalla Y a tout Marseille sur l'titre, ça sent le classique, sent le hit Ça sent la rue, ça sent le shit, j'entends déjà les rageux parler dans le vide Parle mais ton flow est mort dans le film, j'suis dans le sale, j'suis dans le dîn J'suis dans le stade, j'suis dans la ville, j'suis dans le stud', j'suis dans ma suite J'fais dans le dur, j'fais dans le sweet, frère J'suis pas dans la série mais j'suis validé 12 mesures dans le barillet Passe au contrôle qualité, flow bien calibré, zone 13 quadrillée Hasta la muerte, 13 Organisé, l'projet est lourd, gros, t'as pas idée C'est QLF, wesh yo, pas de pression, laissons passer les mauvais garçons akha J'ai vu ta sur en caleçon, vas-y, descends, arrête de regarder les nichons akha Le J dans la maison, arrête de faire le mec qui parle trop, on va te baisons Et tu as vu, j'ai pas mis la veste, torse nu comme à Bucarest Elle est bonne, elle veut que j'la baise, nique ta mère, on te laisse les restes Organisé, 13, calibré, dans l'tieks, y a le CZ chargé chargé Maintenant, vide la caisse ou alors, j't'agresse comme un vrai Marseillais brr J'pense à la folle qu'j'ai cassée, aux frères au shtar qui s'tuent au pasta pasta J'récupère, j'envoie un placé, toi, t'es un faux boy, fais demi, trace trace J'arrive à fond, fais de la place, dans la 'teille, j'vide la canette, han Sur scène, j'arrive en claquettes comme le J et j'fume sur la plaquette, han plaquette Et pas mercé, t'as tout claqué au tiercé tiercé On sait qu't'es en train de nous pister On sait que tu tapes la C, non, fucking, non, non J'remonte la pente en SLR, c'est nous les boss, bande de comiques Ils sont nombreux, j'vais faire un strike comme une grosse partie de bowling T'as le nez dans la farine, moi, j'ai les épaules solides Dans la Matrix, j'suis dans X-Men, j'suis dans un film comme Wolverine J'suis avec la zone en personne, t'es dans les bouchons, tu klaxonnes 13 Organisé, ça cartonne, passe à La Caste', ça charbonne 1.3, nous le sommes, partout dans le sale, ça mise dans le son, ça mise dans le sale 68 000 vaillants dans le stade, 100 000 dans le sac, s'amuse dans le sale Tire-nous vers le haut, pas dans la tête, jamais formaté, vas-y, calmate On va tout gâter et ouais, ma gâtée, t'aimes te faire mater, vas-y, callate Ah, ah, poto, que pasa ? C'est notre quart d'heure, coup du pied, Carter La bella ragazza, c'est notre quatre-heures, a mi casa, cité Carter C'est Marseille, bébé, on t'a déjà dit, la Kala' sortie du capéo Pour les gens d'en bas, plus de tragédie, lève ton verre et zumba caféw À travers les baffles, j'te mets des biffles, j'ai vendu la came, j'ai fait du chiffre Yo, la police me traque et les bâtards me pistent, j'suis à bord du Zodiac, Jack Da' au fond d'une crique Y a pas d'intérim dans la zone comme Kery, on est des enfants terribles, calibrés comme Guirri Entrée sur l'périph', de la drogue dans l'ferri, de l'autre côté d'la rive, dans le brouillard, j'navigue J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' Charcle les kilos comme un libéro eh, ravitaille toute la French Riviera 13.0.15, c'est le numéro eh, en temps et en heure, on vous livrera Y a trop d'homicides, pas d'super-héros, les mains sales dans la street, qui les lavera ? J'vis la zone, c'est la vraie, y a pas d'caméras, j'fais la 'sique et la suite qui vivra, verra Mets du Jack et des ices dans le gobelet, j'suis léwé, j'fais le beau, quand tu tarbala Plus le temps, j'vois plus l'heure sous la jubilé, j'en roule un, en roue libre, c'est d'la Dybala Très organisé comme dans Heat, le chemin est long et dur comme ma bite Vas-y fais le fou qu'on rapplique, on t'envoie des piques on t'la pique super rapide Salope, t'as fait la pute on te veut plus dans l'équipe, j'suis entouré d'cramés que tu vois pas dans les clips Tu pries pour des lovés, on prie pour que Dieu nous guide Et quand y a des tes-traî, on prie Dieu pour qu'ils nous quittent Ma gadji, elle est chargée, chargée Ma Kalash', elle est chargée, chargée Ils font les fous mais les gars sachez, sachez Que c'est cagoulé qu'on va les chercher Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa M.A.R.S, Les Oliviers, c'est la zone, faut qu'on encaisse Des grosses sommes en vitesse, faut des mapes' pour la madre, c'est chaud, faut de l'espèce Moi, j'reste hip-hop et ça, depuis longtemps Salope, vas-y tiens prends ça dans tes dents Seul dans ma tête, j'mets les pleins phares, pied droit collé au plancher Trahison nocturne, cauchemars, 1.3, danger Gros culs, chichas, ballons, welcome 13 Organisé C'est la guérilla, donc prévient Macron que La Marseillaise, on va la remixer On va te faire du sale, et t'as pas idée, te faire danser, comme t'as pas idée Demande à Gastambide, Validé, Marseille City, ouais, qualité Viens pas chez nous, on va pas t'aimer, fais pas le fou, ça va pas t'aider hey Et si tu parles de foot, d'étoiles et de coupe, on est les seuls qui l'ont soulevée Et ouais mon pote hey, quoi d'neuf les folles hey, en direct d'la zone hey, c'est Vinz, tu connais Et ouais mon pote ouais, ouais, quoi d'neuf les folles ouais, en direct d'la zone ouais, c'est Vinz, tu connais J'arrive en , Tokarev, détonation devant le bloc ça veut brasser comme dans Blow Sur la côte en Christian Dior on fait les beaux, FrèresJ enfoiré 13 organisé, j'suis au hazi, paire de Yeezy, argent easy Dans la cuisine, pochon est vert, j'ai pas fini, c'est trop facile Notre mode de vie, il vous fascine, bande d'enculés Numéro 4, j'soulève la coupe, Basile Boli, fais moi la passe j'mets un bowlin J'ai l'attitude d'puis ma jolie, ça vient d'en bas, c'est la folie, j'suis avec l'ovni Hey yo, ouais c'est Marseille p'tit cur, si t'as la mentale tu seras ma baby girl Hey yo, 6 colis dans l'secteur, ouais on t'ramène que la frappe même devant l'inspecteur Hey yo, on a la Champion's League, hein, on vous laisse Neymar et la Ligue 1 Pas l'temps cest chaud dans la ville,zin y'a les schmits je crois ça lever la hein Plus de 13 , et j'ai beau on fait des bails Ça descend grosse kichta vers l'Espagne, ça remonte, distrib', tasse la maille Marseille, c'est malade, Coca ou salade J'suis dans les parages, j'recherche une Kalash' Tête dans les nuages, la douane au péage Les petits vont te faire 4000 la Kalash' Appel d'Algérie, le couz' veut un visa, la p'tite a grandi, donne son cul à Ibiza Frère, t'es trop bizarre ouais, t'es trop bizarre On va t'faire glisser sans pitié comme Ivar Zipette, pépette, vol à la tirette, chica chica, la p'tite aime les galipettes Showcase à Phuket, touche pas la mallette, le P.38 est caché dans l'appuie-tête Eh ouais c'est l'Algé', ra-ta-ta j'vais t'apprendre à danser hey J'fais des hits chaque été, là, c'est l'hiver, j'vais t'apprendre à rapper RS6 sur la Corniche, ça va vite J'ai chauffé la miss et les disques Y a de l'oeil dans l'air, sa mère, ça ma fatigué J'ai mis la cagoule, j'suis rentré dans le 13 Organisé Qu'est-ce tu as, tu veux qu'on s'tape ? Ok, chez moi on démarre au quart de tour Même chez toi, tu m'entends partout 1.3 gravé sur l'bambou Yeah, on arrive en ville comme Balavoine Déstresse, l'ouvreuse n'a pas vu la douane Devenu Jedi, le jeune padawan, on n'oublie pas l'époque où on n'avait r-one eh Chemin de la Bigotte, que tu prends la mâche, que tu bouges, tu gigottes hey, hey Descends du nord comme Visigoths, que ça paranoïd, gros, que ça psychote Eh, eh, bande organisée ouais, ouais, ouais Eh, eh, sors le cross volé ouais, ouais, ouais Fais pas l'con papy, j'te mets au tapis J'suis dans l'ombre tapi, pendant qu'tu tapines Psychothérapie, emmerdeur de base J'suis dans la partie comme un vendeur de taz Whisky ice, Marseille vice, 13, très au point, très organized Hypnotized, c'est une prise d'otage, c'est pas d'la folie, c'est du pilotage Roule, comme Jo la Mitraille, dis-moi si j'te saoule Je n'ai pas le time pour ces fils de poules Avant qu'je me taille, j'fais le signe de JuL le signe de Ju-Ju-JuL De retour sur les prémices, entends ces folles qui gémissent Marseille, tu le sais, miss, on fait des aces comme au tennis Boss One et Mombi s'adaptent, on est disque d'or, nous, ça date Style en survet' ou cravate, dans l'rap, on te met des savates Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà J'suis l'frère d'une star depuis la primaire Donc les jaloux, les lovés, les gens louches, les gens vrais, les mauvais Vérité, on connait, on connait, ça parle mal en public et s'excuse en privé J'suis dans l'espace, j'rentre partout, j'prends tout et j'pars Poto, j'suis en croco, défouraille la compo' Pas de bimbo, pas de mytho, pas de m'zigues dans la Vuitton J'ai les locks dans le guidon, j'vide mon sac Eh oui, papa, j'ai le flow pam-pam, mi corazón, tu aimes ma zone, scooter, peuf peuf J'fume ma chicha en Fiat 500, en semaine, on est plein de flics, descentes Bouge-toi de là que je mette l'essence, j'ai vidé mon carburant dans la piste de danse Oui, ok, je vous pisse sur les dents, c'est ma façon de vous dire bonjour poliment M'en bats les couilles qu'tu sois le meilleur, nous, on donne toujours l'meilleur Ailleurs, on voit le néant, Marseille, c'est notre régiment C'est moi le petit bâtard qui fait trembler cette putain d'ville eh J'entends que des ragots, mais dis-moi, frérot, on flippe de qui, nous ? eh Tu connais ma team eh, la monnaie du shit qui nous active eh Que des vantards, starfoullah, retiens-moi, j'vais faire une dinguerie Viens voir dans ma ville, poursuites, braquages, bendo Qué pasa bellissima, reste tranquille ou prends l'métro C'est bête, elle me filoche eh, appelle de phares dans l'rétro Dans l'réseau depuis minot eh, fais beleck à la Mondéo Pour kichta, j'assassine, ça boit du Coca dans la bassine Quand tu dors, on tartine, j'suis en d'or et platine Tout est illégal, à 240 sur l'A7 J'me taille au Sénégal après t'avoir laissé par terre Dadi Marseille, étoile légendaire sur le maillot On met ton camp sur le banc, j'ai le col levé à la Cantona Crois pas qu'la vie c'est un dream car, dehors, c'est marche ou crève Moi, j'ai toujours la même team, j'fais toujours partie d'la crème J'ai connu l'âge d'or du rap, quelques déceptions dans le hood Moi, de la gloire, je m'en tape, avec les frères, on s'serre les coudes</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bad Boys de Marseille (Part. 2)</t>
+          <t>Cherche pas à comprendre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>Je le sens venir Mon jour Je sens sa présence comme une proie J'attends Lundi, mardi, dimanche, peu importe Tu n'as jamais aimée les jours de la semaine Tu me disait toujours que le temps n'est pas divisé en sept Ou en vingt-quatre Ou en douze Le temps est une surface, comme tu disais, comme les autres Jamais séparé de l'espace Jamais aussi docile que l'on aimerait Un jour, tu as vu notre place dans le monde Comme si toi, tu t'en étais séparée Ce n'était pas une vision Car nos cinq sens sont trop primitifs pour te comprendre Je pense Mais d'un coup tu savais Et tu ne devais pas me le dire, non plus Je l'ai vu dans tes yeux Le temps Tu mas dit que tu t'étais sentie petite Comme un enfant qui essaie de voir au dessus de l'armoire Une telle lassitude que tu voulais en mourir Mais que tu étais dépourvue de sentiments depuis Je ne comprenais pas pourquoi tu ne m'aimais plus Mais tu m'avais expliqué que Quand dix hommes se tiennent debout L'un dentre eux est toujours coupable de son crime Et que tu ne te lèverais pas J'ai pris du temps à comprendre de quel crime tu parlais Serait-il simplement de m'aimer De te laisser emportée par une douceur trop humaine à ton goût? Je me le demandais En te voyant glisser entre les écrans de ma vision J'avais pensée que Face au vide Tu t'étais perdue Tu avais laissée la partie de toi qui me connaissait dans le coin dune lacune comme offrande Mais Tu n'as connue aucune abîme Car l'espace, le temps et leurs compagnons sont bien le contraire Tu as rencontré le tout Le congestionnement de l'univers que nous Les autres N'avons jamais entériné Toi, tu l'as consacré Tu avais compris que tu avais rencontré l'infini Et quil t'a montré tout ce qu'il te manquait Avant de te l'arracher Le baiser entre le gouffre et le tout est bien mieux que les nôtres Et quand la septième dimension te caresse la nuque En contact humain n'est que lagent pathogène qui te retiens C'est pour cela que je n'ai pas pleurée après que tu partes Ils t'ont choisis Ils t'ont montrée que tu n'est quun cafard qui invente la roue et le vaccin dans un univers ou deux qui cherche beaucoup plus loin que le prix nobel Aurais-tu été plus heureuse si tu serait morte dans un lit Confortable d'ignorance et de prétention dune banalité répugnante Comme nous? J'en ai aucune idée Tu n'as pas eue cette chance Ce don de l'ignorance Depuis toujours tu as sentie son appel Et tu l'as suivi jusquau jour où tu as sû Je l'entends aussi La cacophonie des étoiles me chuchote dans l'oreille gauche Et m'offre de doux baisers sur une peau trop humaine Trop jeune pour le mériter Ici, dans la petite bulle qu'on connaît Où les disputes de cafards dans une tour d'ivoire nous occupe Où on est assez petits pour penser que tout en dehors de nous est le vide Et nous, nous sommes le tout J'attends La caresse de l'univers sur mes lèvres me promet que je suis guettée Que tu me vois toujours Si mes années de piété ignorante ne te repoussent pas</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13 Organisé (Bonus Track)</t>
+          <t>Ma gadji</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>This is a Nass production Mmh, mmh Merde alors Tu veux la guerre, juste après, tu bipes ton père ok À rien ça sert de faire pousser des affaires gamberge Plus de mala, tu t'es retrouvé à terre mala Maintenant, malade, tu grattes des blondes à l'after Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Oh, oh ouh, donne-nous le go, oh On lâche pas le ghetto comme à Mexico cabron Lunettes de ski dans le Rover, derrière les pecs, j'ai un grand cur piou Loin des traîtres, loin des pompeurs, tu fais le fou, après tu ramènes ton père fiou, fiou, fiou Vingt projets après, j'ai les dents aiguisées, oue, oue, oue les schmitts ils ont des gros pet', des charbons déguisés wouh, wouh Frérot, tu deviens chaud bizarre quand t'as tisé, wouh tu dis que tu tires, tu sais même pas viser wouh J'suis dans des bails de malade, pas de mala, pas de cala, peu de câlins rah, rah, rah Pas de calibre, une pensée aux frères pas libres, à ceux qui rêvent de palettes ou de conduire la Ferrari wouh Pas b'soin de palettes au volant non, non, j'suis dans la soucoupe volante non Pas b'soin de palettes au volant non, j'suis dans la soucoupe volante Ça sent la beuh, fais vura, j'suis l'vingt-deux Ça sent la beuh, fais vura, j'suis l'vingt-deux Oh, j'suis carrément dans l'truc han Carrément, trois By SFR, mec C'est carrément les stup' brr, brr, han, les p'tits sont dans Matrix, Opinel On t'fait carrément du X, han, c'est que les frérots, que les numéros Que la plata, que la pasta, sa grand-mère taffer au bureau, oh Fer tchécoslovaque, boîtes de 30 arrivent sur l'Zodiac 'fack J'ai même pas bu d'Jack, bande organisée comme si t'avais vu l'Diable Et sur les jantes, ça roule, Vovo j'rentre à la 'son, minable 7.65 près des couilles, ça bosse pas la zone abdominale Ça tourne comme des civ' en automatique, tout niquer en équipe, c'est la thématique Pour le territoire, entre ennemis, ça s'éradique, sous shit et alcool, t'es tarpin lunatique J'entends le bruit du RR-1000, ça te cherche ça zone, outillé outillé Dans le quartier, la guigne ça va plus vite qu'une Audi, eh Audi, eh Il a acheté une Kalash' parce qu'on lui a dit Pas besoin d'savoir viser savoir viser À Marseille, à peine majeur, ça t'fait des RDC très organisé organisé À l'aise, j'vais t'niquer ta mère et tu ne verras jamais l'iPhone 13 C'est nous la tess, déstresse, K-K-K.O.F.S J'lui ai donné un faux nom, elle m'a donné un faux num', c'est une pute celle-là hey Elle fait la pucelle, j'prends mes lovés, je me taille voir les putes à Bruxelles wow Elle est plein de feinte, elle repart avec moi, elle est venue avec eux Je la branche à 20 heures, je la nique à 22, j'ai allumé la lumière, en fait, elle était 'quinte Que veux-tu que j'te dise de plus ? J'vise la tête ou je vise le but Le paradis est sous les pieds de ta mère mais t'es un fils de pute Là, j'suis en Audi, j'pars en virée, j'fais le tour de la ville, Soma me dit Fais-moi tirer Zone sombre dans le cendrier, fais pas trop de boulettes à la quali', mmh Non, tu n'peux pas l'nier, cette année, je vais te la bousiller, mmh Dom Pérignon, sapé, elle me trouve mignon Toi, tu fais le fou, quand j'sors le Glock, tu d'viens tout mignon J'sors mon mzing et tu zina, on t'allume, tu te zimen On t'fait danser, danser, dan-, danser, danser, dan- Tu vas crier Zim Zimma Oh, faya bondé, toi, tu n'arrives plus à bander Moi, j'vide mon barreau, j'pense aux frères derrière les barreaux Brillant, brillant, grillé, grillé, j'roule un pivado Vaillant, vaillant, toujours prêt pour monter dans un braquo' Me rate pas, j'reviens, j'te rate pas sur la vie d'ma mère Besoin d'dégun, Belsunce Breakdown T-MAX, pote-cra, j'suis une 22, donne-nous le, donne le go Andale, gandale, faut faire carnage à la Kalash' Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Donne-nous le, donne-nous le, on va lui faire l'amore, donne-nous le Survêt' Quechua ouais, dernier Merco ouais, showcase dans l'club ouais, faut faire des choix ouais Sur mon perchoir ouais, dans mon ghetto ouais, j'vois le bédo ouais, coupe au séchoir Survêt', baskets, plein de business, ça s'mange, ça s'tue comme du beefsteak Y a la fusée dans le Grinder, calibré comme les Peaky Blinders J'vois loin dans les étoiles, ah, et j'vois qu'tu es sûr de toi, ah Moula, moula, de té-cô, kichta lourde en mandat de dépôt Moula, moula, de té-cô, kichta lourde en mandat de dépôt J'suis sur la Corniche, j'fais le Tony, la gow est bombée dans le bolide ouais Bernard Tapie au bout du fil allô, allô, j'suis immortel comme le COVID Elle fait la fille bien, j'veux une coquine, terr-terr, pin-pon, c'est la routine C'est Marseille, salope, c'est pas Brooklyn, c'est Marseille, salope, c'est pas Brooklyn Prince de la ville dans le binks, j'fais le biff en équipe comme dans Heat comme dans Heat À 2000 sur l'périph' comme Lewis, on est quatre et pas dix et pas dix, dix Tu veux appeler l'dire ou applaudir, garde la monnaie, tu peux arrondir Elle a un sale boule, je veux rebondir, si je tire, c'dans la carotide Sur le bitume, j'fais du Billie Jean, c'est bouillant, c'est la canicule 40 degrés à l'ombre, c'est les Philippines T'as reconnu le matricule, tête cramée dans la tribune, y a la zone, y a la tribu, attitude depuis le début le début Le J me fait la passe, unh, et moi, je mets le but le but Je me regarde dans la glace, unh, j'ai jamais fait la pute Pour avoir la classe, pas besoin de notice, ça fait bang, bang, bang, c'est l'agonie, la police On les aime pas, c'est la folie, j'vise la lucarne comme le coup d'tête de Boli Abonné, j'suis dans le bolide, j'm'en bats les couilles de Clyde et Bonnie Ça s'propage comme le COVID, j'suis dans les airs comme un Boeing Alcoolisé, dans le bordel, elle a sympathisé Elle a trop sucé, on s'en bat les couilles, on la f'ra resucer On est trop rusés, sans l'succès, on s'est quand même propulsés Oui Paris, c'est magique magique, mais Marseille reste unique ouais Ici, y a pas d'limites limites, champion dans l'foot et l'shit Bloqués dans l'tiekson, certains voient pas plus loin que Lançon Merco GTS, conduite normale sous ballons hmm, ouais Fourgon d'armes de l'Est, camion semi plein d'ballots La moula jaune, ouais la moula jaune, comme la Bonne Mère, les cigales sonnent ouais, jusqu'à la Canebière En crabe sur les RR 1000, j'passe par les rues où y a pas d'civils vroum, vroum Fond dcinq, j'suis à Bougainville, j'passe faire un tour vers le centre-ville Ah putain, j'ai le pétard dans le jean, cache-le vite, y a les hams paw, paw Grosse kichta qui s'allume comme Billie Jean, 3.5.5 dans le sac, oh Je baise ma vida, j'vais m'vider, j'vais piler, c'est la fin, fume ton dernier pilon J'suis serein, t'es nerveux, J't'ouvre la tête au marteau, t'es un d'ces fils de chien qui retient que le seul nom Je m'endors c'est la guerre, j'me réveille, c'est la même Ouais ça fait très longtemps qu'on a banni la paix Je sors du forgeron, je parle une première fois, la deuxième fois je te fends le crâne a l'épée 20 heures de cellule sur 24, à 3 dans un 9 mètres carré, 40 degrés je suffoque J'connais les tes-traî, ouais toujours en retrait, jamais d'la vida j'tourne mon dos, gros je pivote La Grinta, du monde dans les gradins, se lève et m'applaudit, moi, j'attends la Ôla J'suis numéro 9, c'est moi qui plante les butes, et je choque comme cartel de Sinaloa brrw Parlez, parlez ça fait guili-guili 1.3, 0.9, j'suis frais comme les Guirri J'suis vrai comme un DZ, j'suis vrai comme Valkyrie Je reviens du désert, j'ai très gros appétit Ça remplit un chargeur et ça l'vide dans ta mère Rajoute deux-trois zéros sur mon putain d'salaire, sur mon putain d'vécu, sur mon putain de compte Sur mon putain de score, ouais, la putain d'ta mère Vite fait, bien fait, j'pose le truc, machin qui frotte mon fute 3.5 tout black, t'sais qu'ça pique L'équipe 1.3, t'sais qu'ça kick Toi, reste à sec, p'tit insecte On s'fait solo, nique ta secte, j'taffe sans cesse J'veux pas d'C.C, un peu d'Vovo décomplexe RS4 break, que des têtes au carbo, ça travaille les pecs sans penser aux abdos ouais Tu vois là, l'beat, j'l'ai choppé par l'cou, même à 46, tu vas l'saigner partout Crochet dans les artères, p'tite merde C'est plus des gifles mais des balles qui s'perdent La jalousie, pour moi, c'est un mystère, comme ceux qui pompent fort un peu comme leur sister comme leur sister T'as reconnu l'accent d'en bas ah ouais, fais pas celui qu'entend pas ah ouais On va te mêler comme Tong Po, tu trahis, nan, c'est pas sympa eh ouais Fais nous la passe le J, bah ouais, tout le Sud réuni, bah ouais C'est fini, donc n'insiste pas, à mes yeux tu n'existes pas 6h du mat', je dors pas, j'écris des rimes hors-pair J'm'en sors pas, tu sais comment je compte faire C'est le retour de la Soude, on reprend du service Faut des sous et y faut les faire vite Le son, c'est de la bombe, tu l'entends, tu sers fils T'en voulais, t'es servi Ne fais pas la bombe, tu peux pas me plaire miss Car tu fais trop la folle comme c'est pas permis Bang bang bang j'arrive comme un Fayzer Dans les rues de Mars' avec le flow assassin Ça veut piquer la gadji de ton poto, c'est malsain Oh, fils de pute gros fils de pute C'est Massilia, on est des milliers, on veut des milliards, on prend l'or s'il y est Ouais c'est Massilia, gros, c'est la guérilla, là, c'est la série A, 1.3.9, c'est sérieux J'crois qu'il mon pris pour un con, hein, j'crois que j'vais péter un plomb, hein J'croise les doigts et je compte, il m'dit Tu vas faire quoi ?, j'vais sortir un pompe C'est les quartiers Sud au volant, 1.3.9, c'est affolant Demande à mes collègues, ne crois pas qu'j'suis à fond, là Tu veux tester mais t'es trop lent, j't'efface en rigolant J'envoie un freestyle et tout le quartier fait la ola Place au pirate place au pirate, voiture full black voiture full black Aujourd'hui, j'fais le mac', j'mets le bandeau à Tupac Sur moi, j'ai une plaquette, 308 break c'est la bac Pare-balles et les claquettes, j'suis cramou, j'crois qu'ils me traquent J'ai pas changé d'époque, j'suis toujours sous bob J'croise une gadji, elle m'dit Tu rappes bien, mon bébé J'suis dans la loc', j'passe à la lim' J'crois qu'cette histoire va se finir à Pépé Lacoste TN, le boss, toute l'année, rien qu'je bosse J'ai même plus le temps d'me poser, j'vois les potos sous rosé Changement, j'arrive dans le temps mort, si tu m'fais la passe, ça va faire but Y a des putes qui font des mecs en or, des filles bien qui font des fils de pute Sur la côte en Bande organisée, que des carbos chargés dans le 4x4 T'as vu l'gang, tu veux sympathiser, grosse équipe de vikings barbue comme à Kattegatt Trop de coups de salope et je suis consterné, que tu t'inventes des vies, arrête, on t'a cerné Ça prend la route, ça pilote avec les g'noux, ça roule un pétard à 15h encore les yeux cernés Ton blaze est noté sur le carnet, p'tite merde, dis-moi qui tu voulais berner ? À la base, t'étais un mec bien, en kehba tu t'es réincarné J'traine avec des mecs clean, j'traine avec des mecs louches J'traine avec des Kevin, des Marvin, j'traine avec des mecs chouch Posté sur le terrain, toute l'année, toi t'es sur le banc d'touche Chaud comme elle sentait fort, tous ses morts, na3teha bain d'bouche C'est Marseille, poto, tempère, un clic-clic dans l'fute pour t'enterrer Ça claque la kichta loin du terrain, minimum, on brisera tous tes rêves Le Soleil s'lève pour tout l'monde, toi, t'es à l'ouest à l'ouest En Moonwalk, on débarque à l'aise à l'aise Dans le Vito, j'recompte la somme et là, midi-minuit, j'suis pump it up Hola chica, me gusta tu ? Vura vura, ne bois pas tout Tu trouves ça embêtant, qu'à la fin, ça t'met pas dedans Trop d'gentils jouent les méchants, devant l'canon deviennent tout doux Ils manquent du shit dans l'secteur, ça l'ravitaille en Subaru 13 Organisé, bordélique, grosse équipe, venue frapper comme un corps d'élite Marseille trace sa route hors des pistes, hors des pistes, bordélique Y a ceux que la Haute dénigre aie, passe entre les gouttes de pluie Rimeur de feu, plie en freestyle, enfant du cagnard a trop de style Aller, aller, faut laisser passer, parole d'hier est toujours valable Cruelle, insolente et restée vraie, éclats inespérés dans nos palabres Arkana, loin des radars oui, oui, capuchée comme La Rabia ah Un gros doigt devant vos caméras, le smile des favelas malgré les drames, hélas oy J'suis l'reflet de ma zone, puche-caté sous l'Aston, hey En PV, elle m'aborde, en public, elle veut qu'on s'pète, hey Quand t'es discrète, c'est bon dél', ils m'ont déféré pour m'libérer, fais l'bisou à ton bae On fait pas crari, du bloc au siège de la Ferrari Les Marseillais cramés sur Paris J'en veux une qui poucave pas son mari C'est des bambinos, à la place, jai mis lappuie gauche À la place de s'plaindre, fais les choses mi primo 13 Organisé dans la Benz à Ciro Fais pas l'voyou, t'vas t'manger l'revers à Nadal Tu fais le fou mais pas d'manies avec Madame La vie, c'est chaud c'est chaud Sur Paris, c'est chaud c'est chaud Sous vodka, Capri Sun, mes pensées sont bien sombres Quand elle bouge dans la salle, j'aimerai l'avoir pour moi seul Solo solo, solo solo, pour moi seul Solo solo, solo solo, pour moi seul Elle est pleine de manières mais j'ai fini solo Elle est belle, elle est mimi mais j'ai fini solo Solo, solo, ouais, solo, ouais, solo, mais j'ai fini solo On connaît le mitard ouais, on connait le danger ouais Ici, y a pas de blabla, pour la monnaie, ça blague pas, fais gaffe, ils vont te manger ouais On arrive au quartier ouais, tout le monde a plongé ouais Les petits sont barbares, font des trucs de bâtards, vraiment, tout a changé ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Plus de respect nan, nan, ils veulent tous se venger ouais, ouais Ils ont pris la confiance, ils ont plus de conscience, ils veulent plus s'arranger ouais, ouais Eyah, voilà Sopra' mbaba, eyah, Sopra' Saitama, eyah Bientôt plus connu qu'Halliday, eyah QN dans le sang, eyah, quetas dans le son, eyah Choqué quand tu lis mon CV, eyah T'as mis une croix sur Marseille car tu sais qu'c'est là qu'est l'trésor 13 Organisé pour l'oseille, normal, ici, c'est les Cités d'or La Bonne Mère la huitième merveille On est vrai depuis les dinosaures Y a vos rappeurs dans nos cendriers, eyah En position, j'ai la fenêtre de tir, donne-moi le go, on me mandate et je tue Celui qui fait le plus cramé qu'en dit le plus aux stup' C'est souvent les proches qui seront les plus grosses putes Le mec, il investit, mes couilles, il veut le bénéfice T'es pas rentré avec la merde comme père et fils Véridique han, vérifie, une frappe de bâtard, DP qui fait la passe décisive, nan Si t'as la haine, y a la médecine douce, au loin, je vois ta grand-mère en train de faire le signe JuL On va épargner les femmes et les enfants 13 Organisé à l'infini comme un puit sans fond Minuit sur la Daytona, le charbon ferme, c'est pas raisonnable Y a des clients qui viennent de Saint-Cannat, en Clio 3 remplie de nanas 4 heures j'arrive pas à dormir, j'appelle Smogo, direction l'after J'fais des tout droit, y a une queue d'bâtard, j'repère une blonde, c'est un avatar 13 Organisé, fuck la banalisée, tu vas analyser, tu vas réaliser Même alcoolisé, t'inquiète, on sait tous viser Même alcoolisé, t'inquiète, on sait tous viser Shouf, la collision, le boulon, y a tout l'monde, on nique ta mère au harpon Réponds quand tu me dois du bifton, des litrons, ouais, j'vais compter les moutons en prison La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais La rotonde en marche arrière, ça fait longtemps qu'j'suis plus locataire À Corbière, j'vais plonger en équerre, organisé dans la ville comme des dockers, ouais Marseille, c'est l'meilleur, mon frère, ça date pas d'hier Né au cur d'la haine avec une mentalité meurtrière Nous sommes des briquets allumés dans la poudrière Ça fait boom, que des hommes, tu l'ressens, ça résonne Monte le son à balle, j'suis la voix de la jungle Pour ceux en cavale, empegué ou à jeun J'fais pas le voyou mais s'il faut, j'sors le machin J'représente le 13 de Tokyo à Agen Le revers à Nadal, j'fais péter la raquette Fais pas trop la mignonne, j'te baise sur la moquette Ravale ma fierté, j'suis qu'un homme sur la planète Et j'dis merci à JuL, il m'a sorti d'la retraite, Tonyno MC du ShootStar ouais, bande de bâtards ouais Faut éviter les radars, 50 frères à ma table 50 frères à ma table, j'ai chargé la AK au volant du A4 J'envoie la frappe, t'es khapta J'connais bien ta maman, tu peux m'appeler papa Ra-ta-ta-ta, la mule, c'est ta tata J'ai pas l'vague à l'âme, j'suis prêt pour l'Valhalla Y a tout Marseille sur l'titre, ça sent le classique, sent le hit Ça sent la rue, ça sent le shit, j'entends déjà les rageux parler dans le vide Parle mais ton flow est mort dans le film, j'suis dans le sale, j'suis dans le dîn J'suis dans le stade, j'suis dans la ville, j'suis dans le stud', j'suis dans ma suite J'fais dans le dur, j'fais dans le sweet, frère J'suis pas dans la série mais j'suis validé 12 mesures dans le barillet Passe au contrôle qualité, flow bien calibré, zone 13 quadrillée Hasta la muerte, 13 Organisé, l'projet est lourd, gros, t'as pas idée C'est QLF, wesh yo, pas de pression, laissons passer les mauvais garçons akha J'ai vu ta sur en caleçon, vas-y, descends, arrête de regarder les nichons akha Le J dans la maison, arrête de faire le mec qui parle trop, on va te baisons Et tu as vu, j'ai pas mis la veste, torse nu comme à Bucarest Elle est bonne, elle veut que j'la baise, nique ta mère, on te laisse les restes Organisé, 13, calibré, dans l'tieks, y a le CZ chargé chargé Maintenant, vide la caisse ou alors, j't'agresse comme un vrai Marseillais brr J'pense à la folle qu'j'ai cassée, aux frères au shtar qui s'tuent au pasta pasta J'récupère, j'envoie un placé, toi, t'es un faux boy, fais demi, trace trace J'arrive à fond, fais de la place, dans la 'teille, j'vide la canette, han Sur scène, j'arrive en claquettes comme le J et j'fume sur la plaquette, han plaquette Et pas mercé, t'as tout claqué au tiercé tiercé On sait qu't'es en train de nous pister On sait que tu tapes la C, non, fucking, non, non J'remonte la pente en SLR, c'est nous les boss, bande de comiques Ils sont nombreux, j'vais faire un strike comme une grosse partie de bowling T'as le nez dans la farine, moi, j'ai les épaules solides Dans la Matrix, j'suis dans X-Men, j'suis dans un film comme Wolverine J'suis avec la zone en personne, t'es dans les bouchons, tu klaxonnes 13 Organisé, ça cartonne, passe à La Caste', ça charbonne 1.3, nous le sommes, partout dans le sale, ça mise dans le son, ça mise dans le sale 68 000 vaillants dans le stade, 100 000 dans le sac, s'amuse dans le sale Tire-nous vers le haut, pas dans la tête, jamais formaté, vas-y, calmate On va tout gâter et ouais, ma gâtée, t'aimes te faire mater, vas-y, callate Ah, ah, poto, que pasa ? C'est notre quart d'heure, coup du pied, Carter La bella ragazza, c'est notre quatre-heures, a mi casa, cité Carter C'est Marseille, bébé, on t'a déjà dit, la Kala' sortie du capéo Pour les gens d'en bas, plus de tragédie, lève ton verre et zumba caféw À travers les baffles, j'te mets des biffles, j'ai vendu la came, j'ai fait du chiffre Yo, la police me traque et les bâtards me pistent, j'suis à bord du Zodiac, Jack Da' au fond d'une crique Y a pas d'intérim dans la zone comme Kery, on est des enfants terribles, calibrés comme Guirri Entrée sur l'périph', de la drogue dans l'ferri, de l'autre côté d'la rive, dans le brouillard, j'navigue J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' J'ai cellophané mon passé, j'l'ai laissé à l'appart' J'avais une vie sans options, j'vais la changer en appart' Charcle les kilos comme un libéro eh, ravitaille toute la French Riviera 13.0.15, c'est le numéro eh, en temps et en heure, on vous livrera Y a trop d'homicides, pas d'super-héros, les mains sales dans la street, qui les lavera ? J'vis la zone, c'est la vraie, y a pas d'caméras, j'fais la 'sique et la suite qui vivra, verra Mets du Jack et des ices dans le gobelet, j'suis léwé, j'fais le beau, quand tu tarbala Plus le temps, j'vois plus l'heure sous la jubilé, j'en roule un, en roue libre, c'est d'la Dybala Très organisé comme dans Heat, le chemin est long et dur comme ma bite Vas-y fais le fou qu'on rapplique, on t'envoie des piques on t'la pique super rapide Salope, t'as fait la pute on te veut plus dans l'équipe, j'suis entouré d'cramés que tu vois pas dans les clips Tu pries pour des lovés, on prie pour que Dieu nous guide Et quand y a des tes-traî, on prie Dieu pour qu'ils nous quittent Ma gadji, elle est chargée, chargée Ma Kalash', elle est chargée, chargée Ils font les fous mais les gars sachez, sachez Que c'est cagoulé qu'on va les chercher Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa Sois le bienvenu dans l'13, 13 Même si on est connu pour les pa-pa-pa-pa M.A.R.S, Les Oliviers, c'est la zone, faut qu'on encaisse Des grosses sommes en vitesse, faut des mapes' pour la madre, c'est chaud, faut de l'espèce Moi, j'reste hip-hop et ça, depuis longtemps Salope, vas-y tiens prends ça dans tes dents Seul dans ma tête, j'mets les pleins phares, pied droit collé au plancher Trahison nocturne, cauchemars, 1.3, danger Gros culs, chichas, ballons, welcome 13 Organisé C'est la guérilla, donc prévient Macron que La Marseillaise, on va la remixer On va te faire du sale, et t'as pas idée, te faire danser, comme t'as pas idée Demande à Gastambide, Validé, Marseille City, ouais, qualité Viens pas chez nous, on va pas t'aimer, fais pas le fou, ça va pas t'aider hey Et si tu parles de foot, d'étoiles et de coupe, on est les seuls qui l'ont soulevée Et ouais mon pote hey, quoi d'neuf les folles hey, en direct d'la zone hey, c'est Vinz, tu connais Et ouais mon pote ouais, ouais, quoi d'neuf les folles ouais, en direct d'la zone ouais, c'est Vinz, tu connais J'arrive en , Tokarev, détonation devant le bloc ça veut brasser comme dans Blow Sur la côte en Christian Dior on fait les beaux, FrèresJ enfoiré 13 organisé, j'suis au hazi, paire de Yeezy, argent easy Dans la cuisine, pochon est vert, j'ai pas fini, c'est trop facile Notre mode de vie, il vous fascine, bande d'enculés Numéro 4, j'soulève la coupe, Basile Boli, fais moi la passe j'mets un bowlin J'ai l'attitude d'puis ma jolie, ça vient d'en bas, c'est la folie, j'suis avec l'ovni Hey yo, ouais c'est Marseille p'tit cur, si t'as la mentale tu seras ma baby girl Hey yo, 6 colis dans l'secteur, ouais on t'ramène que la frappe même devant l'inspecteur Hey yo, on a la Champion's League, hein, on vous laisse Neymar et la Ligue 1 Pas l'temps cest chaud dans la ville,zin y'a les schmits je crois ça lever la hein Plus de 13 , et j'ai beau on fait des bails Ça descend grosse kichta vers l'Espagne, ça remonte, distrib', tasse la maille Marseille, c'est malade, Coca ou salade J'suis dans les parages, j'recherche une Kalash' Tête dans les nuages, la douane au péage Les petits vont te faire 4000 la Kalash' Appel d'Algérie, le couz' veut un visa, la p'tite a grandi, donne son cul à Ibiza Frère, t'es trop bizarre ouais, t'es trop bizarre On va t'faire glisser sans pitié comme Ivar Zipette, pépette, vol à la tirette, chica chica, la p'tite aime les galipettes Showcase à Phuket, touche pas la mallette, le P.38 est caché dans l'appuie-tête Eh ouais c'est l'Algé', ra-ta-ta j'vais t'apprendre à danser hey J'fais des hits chaque été, là, c'est l'hiver, j'vais t'apprendre à rapper RS6 sur la Corniche, ça va vite J'ai chauffé la miss et les disques Y a de l'oeil dans l'air, sa mère, ça ma fatigué J'ai mis la cagoule, j'suis rentré dans le 13 Organisé Qu'est-ce tu as, tu veux qu'on s'tape ? Ok, chez moi on démarre au quart de tour Même chez toi, tu m'entends partout 1.3 gravé sur l'bambou Yeah, on arrive en ville comme Balavoine Déstresse, l'ouvreuse n'a pas vu la douane Devenu Jedi, le jeune padawan, on n'oublie pas l'époque où on n'avait r-one eh Chemin de la Bigotte, que tu prends la mâche, que tu bouges, tu gigottes hey, hey Descends du nord comme Visigoths, que ça paranoïd, gros, que ça psychote Eh, eh, bande organisée ouais, ouais, ouais Eh, eh, sors le cross volé ouais, ouais, ouais Fais pas l'con papy, j'te mets au tapis J'suis dans l'ombre tapi, pendant qu'tu tapines Psychothérapie, emmerdeur de base J'suis dans la partie comme un vendeur de taz Whisky ice, Marseille vice, 13, très au point, très organized Hypnotized, c'est une prise d'otage, c'est pas d'la folie, c'est du pilotage Roule, comme Jo la Mitraille, dis-moi si j'te saoule Je n'ai pas le time pour ces fils de poules Avant qu'je me taille, j'fais le signe de JuL le signe de Ju-Ju-JuL De retour sur les prémices, entends ces folles qui gémissent Marseille, tu le sais, miss, on fait des aces comme au tennis Boss One et Mombi s'adaptent, on est disque d'or, nous, ça date Style en survet' ou cravate, dans l'rap, on te met des savates Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà Testarossa pour mes lauds-sa, 1.4.3 sur le dossard La rue, la vraie, elle ne blague pas T'es une chochotte, vas-y, drah çà J'suis l'frère d'une star depuis la primaire Donc les jaloux, les lovés, les gens louches, les gens vrais, les mauvais Vérité, on connait, on connait, ça parle mal en public et s'excuse en privé J'suis dans l'espace, j'rentre partout, j'prends tout et j'pars Poto, j'suis en croco, défouraille la compo' Pas de bimbo, pas de mytho, pas de m'zigues dans la Vuitton J'ai les locks dans le guidon, j'vide mon sac Eh oui, papa, j'ai le flow pam-pam, mi corazón, tu aimes ma zone, scooter, peuf peuf J'fume ma chicha en Fiat 500, en semaine, on est plein de flics, descentes Bouge-toi de là que je mette l'essence, j'ai vidé mon carburant dans la piste de danse Oui, ok, je vous pisse sur les dents, c'est ma façon de vous dire bonjour poliment M'en bats les couilles qu'tu sois le meilleur, nous, on donne toujours l'meilleur Ailleurs, on voit le néant, Marseille, c'est notre régiment C'est moi le petit bâtard qui fait trembler cette putain d'ville eh J'entends que des ragots, mais dis-moi, frérot, on flippe de qui, nous ? eh Tu connais ma team eh, la monnaie du shit qui nous active eh Que des vantards, starfoullah, retiens-moi, j'vais faire une dinguerie Viens voir dans ma ville, poursuites, braquages, bendo Qué pasa bellissima, reste tranquille ou prends l'métro C'est bête, elle me filoche eh, appelle de phares dans l'rétro Dans l'réseau depuis minot eh, fais beleck à la Mondéo Pour kichta, j'assassine, ça boit du Coca dans la bassine Quand tu dors, on tartine, j'suis en d'or et platine Tout est illégal, à 240 sur l'A7 J'me taille au Sénégal après t'avoir laissé par terre Dadi Marseille, étoile légendaire sur le maillot On met ton camp sur le banc, j'ai le col levé à la Cantona Crois pas qu'la vie c'est un dream car, dehors, c'est marche ou crève Moi, j'ai toujours la même team, j'fais toujours partie d'la crème J'ai connu l'âge d'or du rap, quelques déceptions dans le hood Moi, de la gloire, je m'en tape, avec les frères, on s'serre les coudes</t>
+          <t>Ma gadji C'est ma gadji J'crois que je vais finir solo Ma gadji en a marre que je traine dehors Des cheveux longs sur mon polo, merde alors alors Ma gadji, elle a le blues de moi de moi Mais c'est vrai que desfois, elle doute de moi Je lui ai dit Écoute-moi, je suis fou de toi Mi amor, je l'aime trop toutes ses manières J'la connais depuis jeune, ça date pas d'hier Elle était là bien avant toute ma carrière C'est pas mes potes, c'est elle qui surveille mes arrières Oh, ma gadji, j'compte sur toi fort, ne me salis pas Oh, ma gadji, j'te fais confiance, ne me trahis pas Forte de caractère et elle a trop de manières Elle veut la robe, elle croit qu'on va se marier On vit dans une époque où elles sont toutes 3aryan J'suis dans le Porsche avec une belle Italienne Trop de maquillage, pas de mariage J'suis aux Baléares avec Nawel et Mariah Posé en terrasse en train d'siroter sangria J'ai une préférence pour les métisses et 3arbia Pété comme Bob Marley, elle est bonita 'Sais plus comment parler, señorita J'ai sorti la kichta, que des pistaches Elle a le boule chargé, mamacita La vida loca, la mort,ou l'hôpital Kiffe la coca la couz' à Tchikita J'appelle l'avocat, j'ai rangé la guitare, j'suis cramé Oui, c'est mon cur, c'est ma gadji, je vis, je meurs pour ma gadji J'meurs pour mon cur, pour ma gadji, j'me sens tout seul sans ma gadji Trop belle, trop belle, top model, trop intelligente, Marie Curie, Prix Nobel J'arrête mon bordel, j'arrête mon bordel, tout autour du monde, y en aura jamais deux comme elle J'vois ni les jours ni les années qui passent, j'vois que l'amour et jamais je me lasse Je sens la chaleur comme le feu sur la glace, le feu sur la glace C'est la meilleure à mes yeux, c'est la plus belle, j'suis fou d'elle Ma gadji C'est la femme de ma vie, c'est ma collègue, ma prunelle Ma gadji Malgré les dettes, les problèmes et les querelles, c'est ma belle Ma gadji Quand tu parles d'elle quand elle se promène, de quoi tu t'mêles ? C'est ma gadji Ma lova, je sais qu'j'te rends loca, on s'était dit jusqu'à la fin mais bon, l'argent m'appelle Faut qu'je taille, oh, ma baby lova, tu peux rester si ça t'plait, tu peux rester mais sans t'plaindre Tu peux rester, bébé, peux pas tester tu sais, t'es consciente mais quand même, tu nies les faits J'te porte comme un trophée, p't-être que j'en ai trop fait Oh nana, non, c'est pas ma go ça Des fois, j'revends la drogua, baby mama, j'refuse de perdre un dollar Mais ça, c'est normal, elle a passé ma passion mais j'dois penser à mama J't'analyse, tu peux partir, tu l'feras quoi qu'je dise C'est vrai, j't'ai trompé plus d'une dizaine mais t'es ma gadji pour la vida Te mettre avec moi, c'est les problèmes han, j'en ai marre de voir couler tes larmes au parloir Je me rappelle de nos virées dans le Cayenne bam, bam, c'est toi la plus belle, pas b'soin de miroir Elle m'envoie je t'aime sur le PGP brr, on était ensemble, j'avais pas one Dans le trafic, jeunesse agitée, on ira à la Mecque et pas en Thaïlande Et la noche, j'ferme le rrain-té, tu cherches à me joindre mais j'suis pas là La GameBoy ne fait que bipper brr, je sers les clients, ne m'attends pas Je rentre tu fouilles mes jeans, tu penses que j'suis avec des folles nan, nan C'est toi la seule que je kiffe, de mon amour, t'as l'monopole brr Ma gadji, ma nana, mon bébé, ma moina Elle me rappelle qui est l'ennemi car j'oublie tout sous marijuana Mon bras droit, ma copilote sur la route du cash à fond, évite la douane Ma baby, ma gâtée, un mélange de 3ada et diroulou l'henna Ma Teresa Mendoza, panama pas sur le même dossard Lui qui s'manque j'vais le crosser, j'vais lui faire danser le makossa Elle me rassure quand je doute, elle sait d'où on vient donc faut faire le double On va d'l'avant, pas de moonwalk, vivons cachés, vivons loin des hassah C'est la meilleure à mes yeux, c'est la plus belle, j'suis fou d'elle Ma gadji C'est la femme de ma vie, c'est ma collègue, ma prunelle Ma gadji Malgré les dettes, les problèmes et les querelles, c'est ma belle Ma gadji Quand tu parles d'elle quand elle se promène, de quoi tu t'mêles ? C'est ma gadji Elle est passée, ça n'a pas marché, rien à cacher, sac à mâcher Cur arraché, j'l'ai cravachée, elle vit pour moi, j'meurs pour elle, pour elle j'vais kalasher Fallait tout cacher, dis pas bon, on a tout gâché On s'est clashés, s'est roulés par terre, notre love crashé C'est d'la C, t'es déclassé, jeter l'il, bâtard, c'est d'jà déplacé La mienne est bonne, affaire classée La tienne est bonne qu'à s'faire casser, eh C'est ma gadji, c'est ma D, j'f'rai pas la queue pour la voir, nan Rien à dire, c'est la D, j'suis mieux qu'eux, j'tuerais des gens pour l'avoir Pour ma chérie, pour mon bébé, tu sais comment qu'c'est, laisse-les romancer Pour ma chérie, pour mon bébé, allons danser, finir c'qu'on a commencé Pour ma chérie, pour mon bébé, laisse-les romancer Pour ma chérie, pour mon bébé, allons danser, finir c'qu'on a commencé La plus belle, la plus simple, gros, c'est ma gadji Elle a des belles fesses, elle regarde pas l'espèce, c'est ma gadji Elle rend fou, elle m'énerve des fois mais bon, c'est ma gadji Des fois, on vit l'enfer, mais dans ses yeux, j'vois le paradis Elle est là quand tous ils me laissent ma gadji, c'est mon poto Ma famille, c'est tout c'qu'il m'reste, j'ai même plus de photos S'faire des crises, à quoi ça sert ? J'vais rouler vite avec l'auto Et les gens, ils font des manières, plus de traître sur ma moto Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux La plus belle, la plus simple, gros, c'est ma gadji Elle a des belles fesses, elle regarde pas l'espèce, c'est ma gadji Elle rend fou, elle m'énerve des fois mais bon, c'est ma gadji Des fois, on vit l'enfer, mais dans ses yeux, j'vois le paradis</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cherche pas à comprendre</t>
+          <t>Sans rémission</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Je le sens venir Mon jour Je sens sa présence comme une proie J'attends Lundi, mardi, dimanche, peu importe Tu n'as jamais aimée les jours de la semaine Tu me disait toujours que le temps n'est pas divisé en sept Ou en vingt-quatre Ou en douze Le temps est une surface, comme tu disais, comme les autres Jamais séparé de l'espace Jamais aussi docile que l'on aimerait Un jour, tu as vu notre place dans le monde Comme si toi, tu t'en étais séparée Ce n'était pas une vision Car nos cinq sens sont trop primitifs pour te comprendre Je pense Mais d'un coup tu savais Et tu ne devais pas me le dire, non plus Je l'ai vu dans tes yeux Le temps Tu mas dit que tu t'étais sentie petite Comme un enfant qui essaie de voir au dessus de l'armoire Une telle lassitude que tu voulais en mourir Mais que tu étais dépourvue de sentiments depuis Je ne comprenais pas pourquoi tu ne m'aimais plus Mais tu m'avais expliqué que Quand dix hommes se tiennent debout L'un dentre eux est toujours coupable de son crime Et que tu ne te lèverais pas J'ai pris du temps à comprendre de quel crime tu parlais Serait-il simplement de m'aimer De te laisser emportée par une douceur trop humaine à ton goût? Je me le demandais En te voyant glisser entre les écrans de ma vision J'avais pensée que Face au vide Tu t'étais perdue Tu avais laissée la partie de toi qui me connaissait dans le coin dune lacune comme offrande Mais Tu n'as connue aucune abîme Car l'espace, le temps et leurs compagnons sont bien le contraire Tu as rencontré le tout Le congestionnement de l'univers que nous Les autres N'avons jamais entériné Toi, tu l'as consacré Tu avais compris que tu avais rencontré l'infini Et quil t'a montré tout ce qu'il te manquait Avant de te l'arracher Le baiser entre le gouffre et le tout est bien mieux que les nôtres Et quand la septième dimension te caresse la nuque En contact humain n'est que lagent pathogène qui te retiens C'est pour cela que je n'ai pas pleurée après que tu partes Ils t'ont choisis Ils t'ont montrée que tu n'est quun cafard qui invente la roue et le vaccin dans un univers ou deux qui cherche beaucoup plus loin que le prix nobel Aurais-tu été plus heureuse si tu serait morte dans un lit Confortable d'ignorance et de prétention dune banalité répugnante Comme nous? J'en ai aucune idée Tu n'as pas eue cette chance Ce don de l'ignorance Depuis toujours tu as sentie son appel Et tu l'as suivi jusquau jour où tu as sû Je l'entends aussi La cacophonie des étoiles me chuchote dans l'oreille gauche Et m'offre de doux baisers sur une peau trop humaine Trop jeune pour le mériter Ici, dans la petite bulle qu'on connaît Où les disputes de cafards dans une tour d'ivoire nous occupe Où on est assez petits pour penser que tout en dehors de nous est le vide Et nous, nous sommes le tout J'attends La caresse de l'univers sur mes lèvres me promet que je suis guettée Que tu me vois toujours Si mes années de piété ignorante ne te repoussent pas</t>
+          <t>Formado em 1994, desfeito em 2006, o Fonky Family ou, simplesmente F.F. foi um dos principais representantes do Hip-Hop de rue francês. De Marselha e composto pelos MCs Le Rat Luciano, Sat, Don Choa, Menzo, e pelos produtores Pone e DJ Djel, o grupo deixou bons trabalhos como legado, e o maior deles foi o álbum Si Dieu Veut...Inch Allah Si Dieu Veut significa se Deus quiser em francês e Inch Allah nada mais é que se Deus quiser em árabe La F.F. começou a se destacar na cena underground local, até despertar a atenção do expressivo grupo IAM, também de Marselha. Assim, o grupo de garotos ganhou um contrato com a gravadora Côté Obscur, selo do IAM e, sob influência direta do lendário IAM, os jovens da F.F. começaram os trabalhos para lançar o álbum Si Dieu Veut... Em 1998 Si Dieu Veut... chama atenção pela maturidade lírica, originalidade e qualidade de produção, vale destacar que a média de idade do grupo Fonky Family ná época de concepção deste álbum girava em torno dos 20 anos! O álbum possui uma energia quase mágica, com letras nostálgicas, urbanas, inteligentes e extremamente ricas. O estilo do grupo francês até chega a lembrar o grupo paulista RZO, porém, com uma lírica mais reflexiva O álbum é rua. Si Dieu Veut... possui a alma de cada rua, cada esquina, cada beco da Marselha do fim dos anos 90. Mas não de maneira vulgar, pelo contrário. O álbum carrega uma nostalgia reflexiva, um olhar pensativo, agonizante e ao mesmo tempo agressivo e enérgico para tratar dos mais variados assuntos recorrentes a um álbum de rap. A produção é irretocável, Pone e DJ Djel recriaram com maestria toda a atmosfera nostálgica proposta pelo álbum, sob forma de um boom bap simples, rústico e encantador, e os scratches do DJ Djel, com samples de soul, jazz, maravilhosamente harmônicos que se encaixam de maneira homogênea à lírica do álbum, transportando o ouvinte para uma atmosfera única, a atmosfera Si Dieu Veut... As canções Sans Rémission Incessante e La résistance A Resistência com a participação de Akhenaton, Líder do grupo IAM entraram para a lista dos clássicos do rap francês. A faixa La Furie et La Foi A Fúria e a Fé também merece destaque, essa track foi usada como tema por J B Gillet um dos maiores skatistas da França, em sua cena no filme Rodney Vs Daewon Round II. Si Dieu Veut... se tornou um cult do rap francês, um álbum maravilhosamente rústico e nostálgico, a visão de seis garotos sobre como era crescer em Marselha no fim dos anos 90, conviver entre as escolhas, os dilemas e fatores que os cercavam. O álbum mostrou como um grupo formado por jovens pôde emplacar um disco entre os clássicos europeus NOTAS</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ma gadji</t>
+          <t>Le retour du Shit Squad</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ma gadji C'est ma gadji J'crois que je vais finir solo Ma gadji en a marre que je traine dehors Des cheveux longs sur mon polo, merde alors alors Ma gadji, elle a le blues de moi de moi Mais c'est vrai que desfois, elle doute de moi Je lui ai dit Écoute-moi, je suis fou de toi Mi amor, je l'aime trop toutes ses manières J'la connais depuis jeune, ça date pas d'hier Elle était là bien avant toute ma carrière C'est pas mes potes, c'est elle qui surveille mes arrières Oh, ma gadji, j'compte sur toi fort, ne me salis pas Oh, ma gadji, j'te fais confiance, ne me trahis pas Forte de caractère et elle a trop de manières Elle veut la robe, elle croit qu'on va se marier On vit dans une époque où elles sont toutes 3aryan J'suis dans le Porsche avec une belle Italienne Trop de maquillage, pas de mariage J'suis aux Baléares avec Nawel et Mariah Posé en terrasse en train d'siroter sangria J'ai une préférence pour les métisses et 3arbia Pété comme Bob Marley, elle est bonita 'Sais plus comment parler, señorita J'ai sorti la kichta, que des pistaches Elle a le boule chargé, mamacita La vida loca, la mort,ou l'hôpital Kiffe la coca la couz' à Tchikita J'appelle l'avocat, j'ai rangé la guitare, j'suis cramé Oui, c'est mon cur, c'est ma gadji, je vis, je meurs pour ma gadji J'meurs pour mon cur, pour ma gadji, j'me sens tout seul sans ma gadji Trop belle, trop belle, top model, trop intelligente, Marie Curie, Prix Nobel J'arrête mon bordel, j'arrête mon bordel, tout autour du monde, y en aura jamais deux comme elle J'vois ni les jours ni les années qui passent, j'vois que l'amour et jamais je me lasse Je sens la chaleur comme le feu sur la glace, le feu sur la glace C'est la meilleure à mes yeux, c'est la plus belle, j'suis fou d'elle Ma gadji C'est la femme de ma vie, c'est ma collègue, ma prunelle Ma gadji Malgré les dettes, les problèmes et les querelles, c'est ma belle Ma gadji Quand tu parles d'elle quand elle se promène, de quoi tu t'mêles ? C'est ma gadji Ma lova, je sais qu'j'te rends loca, on s'était dit jusqu'à la fin mais bon, l'argent m'appelle Faut qu'je taille, oh, ma baby lova, tu peux rester si ça t'plait, tu peux rester mais sans t'plaindre Tu peux rester, bébé, peux pas tester tu sais, t'es consciente mais quand même, tu nies les faits J'te porte comme un trophée, p't-être que j'en ai trop fait Oh nana, non, c'est pas ma go ça Des fois, j'revends la drogua, baby mama, j'refuse de perdre un dollar Mais ça, c'est normal, elle a passé ma passion mais j'dois penser à mama J't'analyse, tu peux partir, tu l'feras quoi qu'je dise C'est vrai, j't'ai trompé plus d'une dizaine mais t'es ma gadji pour la vida Te mettre avec moi, c'est les problèmes han, j'en ai marre de voir couler tes larmes au parloir Je me rappelle de nos virées dans le Cayenne bam, bam, c'est toi la plus belle, pas b'soin de miroir Elle m'envoie je t'aime sur le PGP brr, on était ensemble, j'avais pas one Dans le trafic, jeunesse agitée, on ira à la Mecque et pas en Thaïlande Et la noche, j'ferme le rrain-té, tu cherches à me joindre mais j'suis pas là La GameBoy ne fait que bipper brr, je sers les clients, ne m'attends pas Je rentre tu fouilles mes jeans, tu penses que j'suis avec des folles nan, nan C'est toi la seule que je kiffe, de mon amour, t'as l'monopole brr Ma gadji, ma nana, mon bébé, ma moina Elle me rappelle qui est l'ennemi car j'oublie tout sous marijuana Mon bras droit, ma copilote sur la route du cash à fond, évite la douane Ma baby, ma gâtée, un mélange de 3ada et diroulou l'henna Ma Teresa Mendoza, panama pas sur le même dossard Lui qui s'manque j'vais le crosser, j'vais lui faire danser le makossa Elle me rassure quand je doute, elle sait d'où on vient donc faut faire le double On va d'l'avant, pas de moonwalk, vivons cachés, vivons loin des hassah C'est la meilleure à mes yeux, c'est la plus belle, j'suis fou d'elle Ma gadji C'est la femme de ma vie, c'est ma collègue, ma prunelle Ma gadji Malgré les dettes, les problèmes et les querelles, c'est ma belle Ma gadji Quand tu parles d'elle quand elle se promène, de quoi tu t'mêles ? C'est ma gadji Elle est passée, ça n'a pas marché, rien à cacher, sac à mâcher Cur arraché, j'l'ai cravachée, elle vit pour moi, j'meurs pour elle, pour elle j'vais kalasher Fallait tout cacher, dis pas bon, on a tout gâché On s'est clashés, s'est roulés par terre, notre love crashé C'est d'la C, t'es déclassé, jeter l'il, bâtard, c'est d'jà déplacé La mienne est bonne, affaire classée La tienne est bonne qu'à s'faire casser, eh C'est ma gadji, c'est ma D, j'f'rai pas la queue pour la voir, nan Rien à dire, c'est la D, j'suis mieux qu'eux, j'tuerais des gens pour l'avoir Pour ma chérie, pour mon bébé, tu sais comment qu'c'est, laisse-les romancer Pour ma chérie, pour mon bébé, allons danser, finir c'qu'on a commencé Pour ma chérie, pour mon bébé, laisse-les romancer Pour ma chérie, pour mon bébé, allons danser, finir c'qu'on a commencé La plus belle, la plus simple, gros, c'est ma gadji Elle a des belles fesses, elle regarde pas l'espèce, c'est ma gadji Elle rend fou, elle m'énerve des fois mais bon, c'est ma gadji Des fois, on vit l'enfer, mais dans ses yeux, j'vois le paradis Elle est là quand tous ils me laissent ma gadji, c'est mon poto Ma famille, c'est tout c'qu'il m'reste, j'ai même plus de photos S'faire des crises, à quoi ça sert ? J'vais rouler vite avec l'auto Et les gens, ils font des manières, plus de traître sur ma moto Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux Elle a des beaux yeux, elle a des beaux yeux La plus belle, la plus simple, gros, c'est ma gadji Elle a des belles fesses, elle regarde pas l'espèce, c'est ma gadji Elle rend fou, elle m'énerve des fois mais bon, c'est ma gadji Des fois, on vit l'enfer, mais dans ses yeux, j'vois le paradis</t>
+          <t>Le Parc et le Panier roulent avec le Shit Squad Don't Sleep roule avec le Shit Squad Le 3e il et la FF roulent avec le Shit Squad Donne du bang, hé ! Je tombe dans la guette sans zigzaguer Aux aguets, débonze et bien gai Je suis délégué du Shit Squad, amigo bingo Si tu tiens jusqu'à la fin du gong Nous sommes tous des James Bond Du Shit sous les ongles Skunk au gong, ça laisse KO Comme un coup du fusil à pompe Et direct, on va haut... Rat-man né Batman ami de Boss One Et marié à la Marie-Jeanne Luciano, réalise ton vu Si tu veux, enfume-toi la vie, mon vieux Un peu de Marseillaise, et tu perds les cheveux Shit Squad, Tonton et ses neveux pour les nerveux Bienvenue dans Haschich City morveux J'échange mes sticks seulement contre une femme Style Néfertiti Fais fumer la FF, Tonton j'ai fini T'as pris ton paquet et ta femme avec toi Marijuana bien roulée que tu tiens entre tes doigts Quoi, l'atmosphère s'enfume Fume le Shit Squad et pas de frime sur ça La boumba si ça te dit Prends ce choco de maxi, comme si Une armada de fumeurs de gandja se disputent le contrat Eh, batty boy, tu veux rouler avec le Squad Ce n'est pas un fan-club de Ease Mais un putain de Shit Squad Roulé entre deux feuilles de Rizla Croix Original bad boy pour l'esquisse, fils Pas de paix en soirée avec les DJ, fais tourner Tu veux toucher nos phases, vas-y, mets le prix Je t'assure, c'est de la bombe Elle monte comme des bambous Le S ! Squad tient le bon bout Toujours dans les bons coups En tout cas, on s'adonne pas à la para Ici-bas, on décompresse comme on peut La THC nous conduit tout droit aux septièmes cieux Yo, pète ton joint de canna, à l'écoute des canailles Sat rime pour tout défoncer comme la bouddha Thaï Fume dans un studio ou dans un coffee-shop Ambiance Hip Hop, à voir les yeux de mes potes Pour eux, je finis en freestyle Je lâche un fonky style, la FF, tous M'Ghetta au shit M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana Si gandja il y a chez toi, gringo Elle sautera au nom du Père du Fils et du Sentenza Amen Je serai sec si tu n'es pas chaud Prépare un bon space-gaspacho Pour tous les sales muchachos de ma clique Le Squad, escouade rascale Et Tonton Pedro, Pascal Tu prendras bien un spatial Verre de mescal un poquito Débarque avec un kilo pour les mythos Lâché, donne, No te muevas, cabróncito! In situ, bratou kakou chez vous, y'a plus de sous Attention le ladre prépare un mauvais coup Un larcin, un truc de merde, un encas Nada, tu connais Sentenza Qui donc fait péter la banca ? Quand je te chope, quand je te bloque Voilà les troupes de choc Le Shit Squad de retour pour un smoke-tour Armé de stocks lourds Plat de jour space-cake, calumets Mèches allumées, atmosphère embrumée FF, fais fumer A fond défoncé à la sensi C'est ça qui m'incite Don Choa, Hannibal Smith, agence du Shit Arrivage de choix Ici on est à Marseille, mon frère Sortis tout droit du conteneur Le produit qui te met à l'envers Tu flaires les joints Mieux que les chiens de la douane volante Fumes des mixtures à base boulettes brûlantes Herbes collantes Production Tonton Pedro, le gros bonnet Tu connais l'effet Je roule avec le Shit Squad et ses doigts de fée, bébé Faf Larage, fils, ne fume pas Pedro, n'en déplaise, fume les cigarettes, le tabac à sec Et là je suis bien, mec Mes potos fument pour moi Circuit lindo thaï skunk cesse devant moi Eh, connard, j'ai pas à te dire ce qu'il faut faire Pour entrer dans la partie Fils, tu m'as bien compris Tu crois qu'il y a des vapeurs, représente l'odeur Premiers symptômes qui font sur moi Speed, des lors j'suis d'humeur On pourrait croire que j'intègre le Squad Quand je conte mes histoires de fêtes Ici à la Stormbringa Ce que je dis, fils, ça veut rien dire Mais sous l'emprise du Shit... Le Squad, c'est un hit M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Oh la gravité a frappé M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Yeah, je suis défoncé A coup de bambous Au sud, y'a du nouveau, fils Le Squad refait surface, noyé dans le masse Avec ses potos du micro, des mégots, amigo Des barreaux, il en faut pour subvenir à nos besoins Du matin au soir, plein On a cuvé comme du bon vin Le bon khéné en fait vilain Veut niquer notre business Que la guine l'a perdu Tu fuse, gus si on te frappe Comme un guerrier Hashashin Frappé après un joint, tu charase Colle tes oreilles devant tes baffles Tu rêves pas, gringo L'examen, c'est devenu l'impasse Sans cesse, représente notre emblème L'herbe épaisse, femme du Rat La princesse pour l'honneur des troupes rebelles Pour la fumette et les belles f... Daddy Mamadi, sur le mic, ça c'est acquis Fais tourner l'herbe cosmique Pour que la famille mette la panique Un bandeau-pro avec tous les machos chauds Et c'est parti pour le show FF, freestyle pour représenter avec un joint d'gandja Tu ne peux pas lutter Fumes, fumes, fumes avant que la vie ne te fume Aujourd'hui j'assume avec le Shit Squad Kif-Kif Production, association banguée Pour des fins de soirées, très fatigué J'envoie ziguer les télés Pour tous les frères avec qui j'ai calciné des bambous Du Secteur au Café Julien Les neveux ne craignent plus rien Accrochés sur la locale comme des morts de faim Shonga m'attend demain, ouais Tu reconnais la voix du Padre, sorti du trece Sur le mic, usé par le pollen et la sensi Toujours d'attaque avec le Shit Squad Mec, reste sur tes gardes En attendant lyricalement que l'on bombarde Balance nos cocktails de ferié néné Si tu cherches la khemia Y'a que chez nous que tu pourras la trouver J'fais pas de topo Je suis plein de popo Demandes à mes potes C'est un 16 S mec que j'ai sous le capot Je pose toujours à mes répèts sans oublier mon matos Un stylo, un micro, mon chocos Et vatos portos C'est comme ça que j'aime bosser Je suis pas du genre à caler ou taper des blocages Et vas-y, cesses de ricaner Ouais, mon big, Jo Popo représente pour le 3e oeil Mc j't'effrite dans mon deux-feuilles Je regarde mes potes, drôlement débonze Tous guidés par le hachich comme par erreur Haza plein de mimiques, ils sont chics Regarde-moi droit dans les yeux, khô T'y arrives pas, quel minable, ce gros Dis-moi, c'est du shit que tu fumes? Ou des pilules que tu gobes ? Combien de gosses en voulant se la jouer grands se sont perdus Je te l'avais dit de rester dans la sensi En soirée bad boy, pompe un joint Reste cool comme ton pote, l'ami, Ali, allez ha ! Je ne fume pas Mais préfère voir des gens down avec le Shit Squad Qu'être à Toxland à la CameSquadra A croire que c'est un championnat Où c'est le plus bête qui l'emportera Avant d'appuyer sur play, t'aurais dû faire un petit A la santé du Squad, Jo Popo, Luciano, Pedro Mon z'ami, c'est la vie C'est la vie qui veut ça N.I.K, N.I.K M'Ghetta au shit</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sans rémission</t>
+          <t>Dr Hannibal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Formado em 1994, desfeito em 2006, o Fonky Family ou, simplesmente F.F. foi um dos principais representantes do Hip-Hop de rue francês. De Marselha e composto pelos MCs Le Rat Luciano, Sat, Don Choa, Menzo, e pelos produtores Pone e DJ Djel, o grupo deixou bons trabalhos como legado, e o maior deles foi o álbum Si Dieu Veut...Inch Allah Si Dieu Veut significa se Deus quiser em francês e Inch Allah nada mais é que se Deus quiser em árabe La F.F. começou a se destacar na cena underground local, até despertar a atenção do expressivo grupo IAM, também de Marselha. Assim, o grupo de garotos ganhou um contrato com a gravadora Côté Obscur, selo do IAM e, sob influência direta do lendário IAM, os jovens da F.F. começaram os trabalhos para lançar o álbum Si Dieu Veut... Em 1998 Si Dieu Veut... chama atenção pela maturidade lírica, originalidade e qualidade de produção, vale destacar que a média de idade do grupo Fonky Family ná época de concepção deste álbum girava em torno dos 20 anos! O álbum possui uma energia quase mágica, com letras nostálgicas, urbanas, inteligentes e extremamente ricas. O estilo do grupo francês até chega a lembrar o grupo paulista RZO, porém, com uma lírica mais reflexiva O álbum é rua. Si Dieu Veut... possui a alma de cada rua, cada esquina, cada beco da Marselha do fim dos anos 90. Mas não de maneira vulgar, pelo contrário. O álbum carrega uma nostalgia reflexiva, um olhar pensativo, agonizante e ao mesmo tempo agressivo e enérgico para tratar dos mais variados assuntos recorrentes a um álbum de rap. A produção é irretocável, Pone e DJ Djel recriaram com maestria toda a atmosfera nostálgica proposta pelo álbum, sob forma de um boom bap simples, rústico e encantador, e os scratches do DJ Djel, com samples de soul, jazz, maravilhosamente harmônicos que se encaixam de maneira homogênea à lírica do álbum, transportando o ouvinte para uma atmosfera única, a atmosfera Si Dieu Veut... As canções Sans Rémission Incessante e La résistance A Resistência com a participação de Akhenaton, Líder do grupo IAM entraram para a lista dos clássicos do rap francês. A faixa La Furie et La Foi A Fúria e a Fé também merece destaque, essa track foi usada como tema por J B Gillet um dos maiores skatistas da França, em sua cena no filme Rodney Vs Daewon Round II. Si Dieu Veut... se tornou um cult do rap francês, um álbum maravilhosamente rústico e nostálgico, a visão de seis garotos sobre como era crescer em Marselha no fim dos anos 90, conviver entre as escolhas, os dilemas e fatores que os cercavam. O álbum mostrou como um grupo formado por jovens pôde emplacar um disco entre os clássicos europeus NOTAS</t>
+          <t>Vous voulez une histoire, les enfants ? J'ai une p'tite histoire pour vous... Quand j'vois un film d'horreur, j'm'identifie au tueur Michael Myers, Jason, Fredy Krueger Hannibal Lecter, on t'avait pas menti J'ai dégusté son foie avec un excellent chianti J't'invite à ma table, et j'ai cuisiné un bout d'ton cerveau J'jette ta carcasse aux cochons, Nettoyez les os J'me lèche les babines, tu rigoles ou quoi ? Si t'as pas vu Shining, Jack Nicholson Pourquoi j'débloque ? Tu veux savoir ? Viens Mon bloc construit sur un cimetière indien Merde, j'en ai jamais marre des crimes Au fait, faut qu'j'aille remettre mon masque de Scream Devine qui va t'appeler Allô ? Oui ? Moi, j'tue toute l'année, qu'est-ce que j'm'en fous d'Halloween ? Ah, où est l'gardien du campus ? Il est die En temps d'guerre, il m'filerait une médaille Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals J'tue gratuitement, sans contrat à honorer Et, pour toi, c'était pas l'heure de faire un tour dans la forêt J'aime bien l'goût délicat qu'à la jeunesse dorée Les fils à papa, j'te les soigne façon goret Et où tu vas t'échapper avec tes jambes en charpie ? Ça va être un putain d'puzzle, ton autopsie Tu connais l'épreuve pour être un meurtrier crédible ? Non Faire dégueuler le médecin légiste Moi, j'fais pas d'fric avec les morts comme Puffy J'veux juste un peu mordre, amenez-moi Buffy Et les trois surs de Charmed Hummmmmmmmmmmm Tu sens la raideur de mon arme ? Hmmm hmmm Au fond, j'm'en bats les couilles de quoi t'as l'air, bitch J'ai même niqué la sorcière de Blair Witch Attends, j'crois qu'j'ai oublié un détail En temps d'guerre, il m'filerait une médaille Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals Tronçonneuse allumée, faut qu'j'en remette une couche Toi, t'es comme Tony attaché dans la douche Oublie Manny, la blonde en maillot bleu l'a saigné C'est ma complice, une vampire, dans l'sang, elle aime s'y baigner J'vais aller à Monaco m'occuper du Prince Rainier et d'Stéphanie J'ai eu l'tuyau par son mari Celui qui a niqué la strip-teaseuse au bord d'la piscine Au fait, pour les cadavres, y'a pas mieux qu'l'acide À force de découper, d'faire des trous, j'ai mal au dos Ta femme était trop belle, Brad Pitt, moi, c'est John Doe Pas Don Cho', celui-là aussi, j'l'ai liquidé Ce p'tit Français, il faisait style sourcils froncés Quand j'suis arrivé, mais, tinquiète, il a pas souffert J'ai tiré direct dans l'cur puis, son ventre, j'l'ai ouvert Son foie, comme d'hab', j'l'ai mangé, j'ai mis sa tête dans un bocal Et, en souvenir, je m'suis greffé ses cordes vocales x2 Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals3</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Le retour du Shit Squad</t>
+          <t>Filles, flics, descentes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Le Parc et le Panier roulent avec le Shit Squad Don't Sleep roule avec le Shit Squad Le 3e il et la FF roulent avec le Shit Squad Donne du bang, hé ! Je tombe dans la guette sans zigzaguer Aux aguets, débonze et bien gai Je suis délégué du Shit Squad, amigo bingo Si tu tiens jusqu'à la fin du gong Nous sommes tous des James Bond Du Shit sous les ongles Skunk au gong, ça laisse KO Comme un coup du fusil à pompe Et direct, on va haut... Rat-man né Batman ami de Boss One Et marié à la Marie-Jeanne Luciano, réalise ton vu Si tu veux, enfume-toi la vie, mon vieux Un peu de Marseillaise, et tu perds les cheveux Shit Squad, Tonton et ses neveux pour les nerveux Bienvenue dans Haschich City morveux J'échange mes sticks seulement contre une femme Style Néfertiti Fais fumer la FF, Tonton j'ai fini T'as pris ton paquet et ta femme avec toi Marijuana bien roulée que tu tiens entre tes doigts Quoi, l'atmosphère s'enfume Fume le Shit Squad et pas de frime sur ça La boumba si ça te dit Prends ce choco de maxi, comme si Une armada de fumeurs de gandja se disputent le contrat Eh, batty boy, tu veux rouler avec le Squad Ce n'est pas un fan-club de Ease Mais un putain de Shit Squad Roulé entre deux feuilles de Rizla Croix Original bad boy pour l'esquisse, fils Pas de paix en soirée avec les DJ, fais tourner Tu veux toucher nos phases, vas-y, mets le prix Je t'assure, c'est de la bombe Elle monte comme des bambous Le S ! Squad tient le bon bout Toujours dans les bons coups En tout cas, on s'adonne pas à la para Ici-bas, on décompresse comme on peut La THC nous conduit tout droit aux septièmes cieux Yo, pète ton joint de canna, à l'écoute des canailles Sat rime pour tout défoncer comme la bouddha Thaï Fume dans un studio ou dans un coffee-shop Ambiance Hip Hop, à voir les yeux de mes potes Pour eux, je finis en freestyle Je lâche un fonky style, la FF, tous M'Ghetta au shit M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana Si gandja il y a chez toi, gringo Elle sautera au nom du Père du Fils et du Sentenza Amen Je serai sec si tu n'es pas chaud Prépare un bon space-gaspacho Pour tous les sales muchachos de ma clique Le Squad, escouade rascale Et Tonton Pedro, Pascal Tu prendras bien un spatial Verre de mescal un poquito Débarque avec un kilo pour les mythos Lâché, donne, No te muevas, cabróncito! In situ, bratou kakou chez vous, y'a plus de sous Attention le ladre prépare un mauvais coup Un larcin, un truc de merde, un encas Nada, tu connais Sentenza Qui donc fait péter la banca ? Quand je te chope, quand je te bloque Voilà les troupes de choc Le Shit Squad de retour pour un smoke-tour Armé de stocks lourds Plat de jour space-cake, calumets Mèches allumées, atmosphère embrumée FF, fais fumer A fond défoncé à la sensi C'est ça qui m'incite Don Choa, Hannibal Smith, agence du Shit Arrivage de choix Ici on est à Marseille, mon frère Sortis tout droit du conteneur Le produit qui te met à l'envers Tu flaires les joints Mieux que les chiens de la douane volante Fumes des mixtures à base boulettes brûlantes Herbes collantes Production Tonton Pedro, le gros bonnet Tu connais l'effet Je roule avec le Shit Squad et ses doigts de fée, bébé Faf Larage, fils, ne fume pas Pedro, n'en déplaise, fume les cigarettes, le tabac à sec Et là je suis bien, mec Mes potos fument pour moi Circuit lindo thaï skunk cesse devant moi Eh, connard, j'ai pas à te dire ce qu'il faut faire Pour entrer dans la partie Fils, tu m'as bien compris Tu crois qu'il y a des vapeurs, représente l'odeur Premiers symptômes qui font sur moi Speed, des lors j'suis d'humeur On pourrait croire que j'intègre le Squad Quand je conte mes histoires de fêtes Ici à la Stormbringa Ce que je dis, fils, ça veut rien dire Mais sous l'emprise du Shit... Le Squad, c'est un hit M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Oh la gravité a frappé M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Yeah, je suis défoncé A coup de bambous Au sud, y'a du nouveau, fils Le Squad refait surface, noyé dans le masse Avec ses potos du micro, des mégots, amigo Des barreaux, il en faut pour subvenir à nos besoins Du matin au soir, plein On a cuvé comme du bon vin Le bon khéné en fait vilain Veut niquer notre business Que la guine l'a perdu Tu fuse, gus si on te frappe Comme un guerrier Hashashin Frappé après un joint, tu charase Colle tes oreilles devant tes baffles Tu rêves pas, gringo L'examen, c'est devenu l'impasse Sans cesse, représente notre emblème L'herbe épaisse, femme du Rat La princesse pour l'honneur des troupes rebelles Pour la fumette et les belles f... Daddy Mamadi, sur le mic, ça c'est acquis Fais tourner l'herbe cosmique Pour que la famille mette la panique Un bandeau-pro avec tous les machos chauds Et c'est parti pour le show FF, freestyle pour représenter avec un joint d'gandja Tu ne peux pas lutter Fumes, fumes, fumes avant que la vie ne te fume Aujourd'hui j'assume avec le Shit Squad Kif-Kif Production, association banguée Pour des fins de soirées, très fatigué J'envoie ziguer les télés Pour tous les frères avec qui j'ai calciné des bambous Du Secteur au Café Julien Les neveux ne craignent plus rien Accrochés sur la locale comme des morts de faim Shonga m'attend demain, ouais Tu reconnais la voix du Padre, sorti du trece Sur le mic, usé par le pollen et la sensi Toujours d'attaque avec le Shit Squad Mec, reste sur tes gardes En attendant lyricalement que l'on bombarde Balance nos cocktails de ferié néné Si tu cherches la khemia Y'a que chez nous que tu pourras la trouver J'fais pas de topo Je suis plein de popo Demandes à mes potes C'est un 16 S mec que j'ai sous le capot Je pose toujours à mes répèts sans oublier mon matos Un stylo, un micro, mon chocos Et vatos portos C'est comme ça que j'aime bosser Je suis pas du genre à caler ou taper des blocages Et vas-y, cesses de ricaner Ouais, mon big, Jo Popo représente pour le 3e oeil Mc j't'effrite dans mon deux-feuilles Je regarde mes potes, drôlement débonze Tous guidés par le hachich comme par erreur Haza plein de mimiques, ils sont chics Regarde-moi droit dans les yeux, khô T'y arrives pas, quel minable, ce gros Dis-moi, c'est du shit que tu fumes? Ou des pilules que tu gobes ? Combien de gosses en voulant se la jouer grands se sont perdus Je te l'avais dit de rester dans la sensi En soirée bad boy, pompe un joint Reste cool comme ton pote, l'ami, Ali, allez ha ! Je ne fume pas Mais préfère voir des gens down avec le Shit Squad Qu'être à Toxland à la CameSquadra A croire que c'est un championnat Où c'est le plus bête qui l'emportera Avant d'appuyer sur play, t'aurais dû faire un petit A la santé du Squad, Jo Popo, Luciano, Pedro Mon z'ami, c'est la vie C'est la vie qui veut ça N.I.K, N.I.K M'Ghetta au shit</t>
+          <t>J'préfère les choses fictives Ça m'évite de m'faire des films et d'en être victime J'kicke depuis qu'j'ai fifteen, bitch please J'avance pour garder l'équilibre comme si j'roulais à vélo Pas loin d'être intello, pélo, j'kicke comme Donatello Hello, Josman sur tes vres-lè comme Labello Hey yo, ninja flow, j'vois rouge comme Rafaello Hey oh, j'vois rouge comme Scott Summers Cyclope Punchline dans tes poumons, rien qu'tu tousses SixClopes La vie est pleine d'obstacles, j'les saute comme Ladji Doucouré Sur ma vie, c'est magique, quand j'arrive vous courrez Et vas-y, c'est facile, j't'envoie à l'asile, assis, avec un flow basique Me dépasser jamais vous pourrez Et paraît qu'y'a du talent, mon gars t'as vu ça Tu savais ap, normal j'cache ma richesse comme Cahuzac On t'a vu zinc Moi j'kiffe la iv et c'est à ça qu'on trinque Comme si j'étais à 5 contre 1, j'ai la puissance de 50 trains Et tu m'veux rencontrer parce qu'on t'a raconté qu'j'suis l'boss de ta contrée Mais j'ai déjà démontré que j'pouvais démonter des prods Tête de oim, j'ferai tourner tes proches J'ai progressé en deuspi comme si j'avais pris des prot' J'suis le prof, on dit qu'j'suis pas gentil Mais j'te baise avec galanterie J'ai pas menti, j'serais lourd aussi même si j'rappais au ralenti Si on s'ressemble c'est qu'j'suis comme toi en mieux Négro, j'ai des tas d'envieux parce qu'ils savent que j'suis talentueux Putain d'merde Moi j'suis l'huitième nain, j'viens baiser Blanche la putain d'Neige On sait qu'l'État escroque, mais petit néglige pas les profs Garde mains et baskets propres, ecsta', CC touche pas cette drogue Pourquoi cotiser 55 ans, ou bien même faire cinq ans ça comme en taule ? Bref, en gros si j'm'associe c'est 50-50 La crise fait dresser les tifs, chez nous pas de tri sélectif On fait parfois criser les vieux quand l'soir on fait crisser les pneus Tes parents rappliquent chez les bleus, t'en as même attristé les deux C'qui nous baise le fric et les gueuses, nous on tend à trise-maî les deux Tu peux t'mettre à briser des beuj' ou encore t'défriser les veuch' Ça n'empêche pas qu'le monopole tangue entre la Chine et les Feujs Demande à Nakk Mendosa On n'a pas l'même dossard, fournit pas l'même dosage Nos relations avec les keufs sont souvent tendues Celles avec les meufs, remplies de bluff, de sous-entendus C'est souvent l'temps du Je t'aime, mais on s'entend plus T'étais le A, devenue le B, désormais t'es mon plan cul Viens j't'explique en 2-4-6, sensations fortes via 2-3 spliffs Embrouille de tess de 2-3 types, un frère se perd en 2-3 clics, boom Le swag d'un pitbull, à l'affût d'une p'tite poule Tu es un prototype cool, ce soir j'ai besoin d'un p'tit... Veni vidi vici, 22 v'là les vils-ci Viens on s'éloigne d'ici, checke-moi sur N.Y ou D.C On tré-ren par la p'tite porte, on consomme d'la tise forte J'kiffe gratter dans état sous alcool dans l'sang Pique une tête chez le propriétaire lorsqu'il est absent J'ai ap d'abcès, alcool, drogue, baise ex et J'exerce et, mec, c'est entre 2 fesses que j'reste axé Mais laisse-les Tu sais, mes textes, peu les testent, expulsent Et moi je reste, peux test, avec ma et les mecs disent que j'suis désaxé Tu vas pas m'taxer ma tête Sur la MPC j'suis blessé mais God bless me Ça dit quoi enfoiré ? Moi j'suis paxé presque et que les bougs, mec, touchent leur sexe en number masqué, bref Textuelle ma gestuelle, déplacée J'crache, j'frise une haleine au taux d'alcoolémie dépassé J'brasse sans boire la tasse tout d'même Même si j'suis die mamen E.A.Z.Y. te lâche une phase quand même J'prends ma place au départ Dans mon espace, que des barges Et même si l'rappe ne m'intéresse pas, j'prends ma place quand même Grand j'ai la prose, tu psychotes quand j'mets la dose C'est la p'tite bête qui vient manger la grosse J'rapperai jusqu'à vétéran, Joss vient titiller les grands Ils vont avoir mal longtemps, ouais, j'suis un plaie béante Mais ma fainéantise, me fera pas trop bouger Flow trop urbain, j'serai sûrement enterré en ville Tu veux coucher mon flow ? Vas-y pousse d'abord J'ouvre la porte du game sans frapper, j'vous mets tous d'accord Si tu veux l'voir grimper ou grimper sur l'applaudimètre, faut s'y mettre Ils veulent me shoot, mais j'fais qu'des renvoies aux six mètres T'as jamais vu d'précision aussi nette, aussi bonne Aussi lourde, aussi fat, aussi clean, aussi propre Et pas d'souci, c'coup-ci, si j'bousille tout Ça sent l'roussi fou, quand j'troue ton crew d'pussys J'veux tout tout de suite, enfoiré j'te l'dirais pas 100 fois Mais j'ai pas besoin d'perdre la mienne pour t'laisser sans voix Fais pas le gars qui sait ou c'lui qui veut sympathiser T'as pas d'cran si t'as pas tisé, tu baves et tu veux pactiser J'me tape pour pas pisser en taule ou finir par glisser Chez moi y'a pas d'mur tapissé, quand j't'appelle demande pas qui c'est Du lourd comme d'habitude, parce qu'on incarne le rap qui tue Flow, phases, attitude qui remet en cause leurs aptitudes De toute manière s'te plaît flambe pas j'découpe tes seize Evidemment qu'mes couplets blessent, aucune salope ne touche mes fesses P'tite prod, Mitch Corp P'tite conne, j'kick propre Est-ce que tu captes le truc ? J'ai plus d'clope, c'est comme si j'en avais dix C't'odeur de peur autour de quoi j'aiguise mon appétit On m'dit C'est ça, c'est mieux pour toi mais j'suis un taré J'tise dans l'carré VIP, affalé, j'parlais d'chiffres, nouveau maléfice Un jour les tiens verront qu'tu les entubes Du moins, t'essayes en pensant qu'à ta race de vrai enculé Le gérant gère pas pour gérer mais car se géant s'tue Et t'inquiètes maintenant j'ai pété tous ceux qui dérangent plus A cause d'un plat ce sera tout l'temps d'ma faute Ce poids sur mes jambes, j'adore, il travaille mes abdos Avance besoin, qu'attend demain quand j'redeviendrai humain Et m'achèterai un feu à cause de ceux qui n'checkent pas mais s'adossent Ce genre de truc pour moi c'est quesaco Y'a un problème avec ma tête mais j'peux toujours plaire à d'autres C'est pas un 'blème, c'est qu'une putain d'observation Tu cherche une échappatoire, moi une putain qu'opère à fond DJ, fous ça dans ton Serato Ils n'servent à rien, on sert à tout va, s'en va en vrai bateau J'ai pas fini, j'vais rester là comme Platini et monter comme un putain d'alpiniste loin d'ton hexagone Tout mon schéma s'est fait là, mon négro, j'péra trop On m'envoie que d'la merde et m'envoie C'est grave chaud Je l'savais mais c'est d'la daube J'suis jamais tout seul C'est pas par choix, mon négro, sinon j'crée ma zone Dehors, négro, c'est gratos Si j'tiens bon, moi j'écris pour m'offrir un peu d'air Le deux tiers de mes amis, le trois quart de mes frères Savent que j'fais ça rapide On a trop peu à perdre pour pas qu'la folie s'rapplique On écarte ceux qui l'appellent Tant qu'les aiguilles tourneront Tous les jours j'fais la même C'est comme pousser la fonte pour surmonter la flemme Attaché à la console, j'laisse le micro à terre C'est pas pour rien qu'on sonne mais j'ferai pas danser la terre Et tu dois penser la même On s'doit garder les bons souvenirs Et ma plus grande fierté serait l'sourire de ma mère Aucune ne ferait ma paire, donc pourquoi trouver la bonne ? Y'a qu'pour une que j'voudrais la lune ou soulèverais la mer Et quand l'soleil se couchera, on débouchera la 'teille Comme tous ceux qui taffent, le 12 ont déjà tout déboursé Souvent on garde la tête haute en voyant ceux qui la perdent En attendant, faut d'la tise, pour qu'on parte jusqu'en l'air Car c'est partout la même Si tu m'croises et qu'j'te vois pas c'est qu'j'suis dans ma tête Si j'te croise et qu'tu m'vois pas c'est qu'j'suis dans ma caisse Si tu m'vois frotter en te-boî c'est qu't'es dans la cess Jamais fourré dans un coup mais bourré dans la pièce On joue dans les temps, pour le coup c'est fou les mecs Moi, j'joue des tours aux poulets tant qu'j'ai wallou dans la veste Jamais deux sans trois les gobelets, la funk et le reste Plus d'deux cent fois où j'ai poncé, défoncé, des textes Et me parlez pas d'monnaie J'ai deux oreilles, il m'faut plus que d'l'oseille pour m'raisonner J'fais du son pour oim, juste parce qu'il le fallait Si ça t'plaît c'est mieux, appelle-moi Eazy Dew Allen et mes potes kiffent la fumette À deux doigts d'en abuser Frérot, j'assume le fait que quelques uns peuvent me juger Pour l'instant c'est clean, j'suis fier d'mes plans pour l'lendemain J'sais pas qui j'pourrais croiser en chemin mais j'ai la musique Hey yo, what's up ? Jos fuckin man, j'arrive en force, en feu Ils ont des plus gros dorsaux qu'oim mais j'fais des meilleurs morceaux qu'eux J'ai beaucoup d'flow, j'ai beaucoup d'technique, en plus j'suis grave précis Donc pas besoin d'être agressif pour qu'ils apprécient J'me déguise pas, j'reste vrai J'reste délicat exprès J'suis efficace, ken une p'tite 'tasse qui n'mérite pas l'respect Donc, me compare pas, j'suis pas comme eux, téma, j'prends l'ascendant Crari, ils font tous la même chose, crari faut être dans la tendance En attendant, je fais l'taf, mé-cra, j'm'esclaffe Donc laisse place quand j'm'exclame Des jets d'flammes, les mecs clamsent Vas-y c'est mort, maintenant j'ai pris les devants Et j'crois qu'il est temps de mettre les bouchées doubles Fini la dilettante, ça y est j'ai mis les gants d'boxe Violent comme Hancock ou Bangkok T'écoutes mes rimes, ça t'arrache les oreilles comme Van Gogh Et j'suis l'meilleur par déduction rap, séduction L'éloquence est élégante, ça y est la prod est en cloque, nigga 2014, j'ai beau chercher, y a toujours pas de taf Et mon voisin du dessus, le pauvre, n'a toujours pas de fafs Et ce petit du quartier, dans le foot, rêvait de percer Maintenant c'est la drogue douce le soir qui vient le bercer Cousin, je viens d'une époque où les professeurs Ont des photos d'ados dans leur processeur De plus leur politique ne cesse de reculer Maintenant voter c'est faire une queue pour se faire enculer L'Afrique, ses guerres, ses militaires armés Comprends pourquoi mes frères traversent la Méditerranée GABOS, la rue te cueille à la naissance Te fait faner à Fleury dès l'adolescence Je vois des daronnes stressées, le daron parti, pressé Qui laissent traîner leurs gosses sur le parking On s'était dit que dans 10 piges on aura le flow Dans un teddy, bas Dickies, Polo Ralph Lau' Par manque d'intelligence, de calme, de vigilance La plupart des tits-pe craquent, braquent la diligence Paris l'incandescente, le tumulte des descentes Le cumul des décès, le vacarme des détentes Et j'entends même au loin les ambulanciers Une mère pleurer son fils des blessures pansées Des familles à plat ventre, en mauvaise posture Car l'État joue les sourds là où les gosses hurlent Négro, j'suis français comme Montana Gros et j'suis qu'un étranger sur mon canap J'propose des millions à condition qu'j'aie un fond banal Être meilleur qu'eux, c'est pas qu'mon travail Check, j'arrive sans RS4, on j'me pavane Le sol va trembler même si Billie Jean raconte des salades C'est violent, gros, c'est lourd de malade Rien à foutre de tout si t'as un mic et quelques balafres Frère, le vrai, ça marche mais t'inquiète pas qu'on cavale Au tieks on m'dit T'es perdu, force mon reuf même si tu t'acharnes, nos différends n'sont pas graves La weed a créé un putain d'truc de bâtard Pas dans la fume elle-même mais ceux qui croient qu'des pilules j'avale P'tit frère, c'est logique si j'fais pas c'qui s'fait J'ai inventé un vin et ça en sorte dans quelques mixtapes Cuit, cuit, pas un oiseau mais mon bifteck Ton vrai gars sait qui c'est qui arrive comme du ginseng Mystère comment est l'mille quand elle tient l'pieu J't'ai inventé un vent et ça avant d'te sortir un skeud Eddie, 3000seudi, 61 pieux La fin sera belle c'est pour ça qu'j'entretiens l'creux A gauche parce que j'viens d'l'Ouest Depuis l'temps quand j'arrive c'est l'feu Végéta contre Cell 2 Ils cherchent un moyen d'rapper ces textes Ceux qui préfèrent nous voir en perte plutôt qu'dans un Benz bleu Ou dans un Bentley, j'fais l'vu De sortir à la tronche d'un enfoiré, mon négro, j'fais, j'veux Ma tête fuse avec des bottes de sept lieues J'choppe des techniques mais l'risque est qu'mon petit naisse vieux En vérité, j'aime avoir l'silence Pour copuler avec une fille ayant des formes et un don pour la bouffe confirmé, de préférence J'aime le mystère sans pour autant signer Comprends le film sans avoir à le rembobiner Finesse et flow combinés Quand j'rentre en scène on m'observe avant d'laisser la place à celui qui va baragouiner Rap binaire de position comme les Playmobil Retourne souvent serrer des ratures, file en Lamborghini Parfois j'doute dois-je bosser ou non ? Mais si on m'priverait d'zique, j'serais comme un tox sous l'pont Les gens t'fient aux philosophies d'mythos Je n'fais qu'apprendre mieux vaut être fonce-dé à mi-temps qu'enfermé à huit clos Soyez au rendez-vous, soyez à l'heure Bouche bée et yeux écarquillés quand vous m'voyez à l'oeuvre J'voyais toutes ces chiennes aboyer alors Qu'aujourd'hui ces chiennes m'obéissent au doigt et à l'il Le mec tape fort, le mec frappe fort Pour les mettre d'accord, les mettre d'accord Le mec tape fort, le mec tape fort À coups d'rimes, de métaphores, de métaphores J'donne plus d'informations que tout c'que la télé lance Tout est camouflé, yo, l'éloquence est élégante Le rap c'était mieux avant c'est tout c'que ces fêlés pensent Moi, j'ramène du flow et du groove pour que ces pédés dansent J'ai mes gants, j'suis équipé, pas d'équité Entre eux et moi, tu peux pas métiqueter Jos', tu sais qui c'est J'dois esquisser un smile, viser l'soleil, avant de m'éclipser Tu m'vois tout déchiqueter, tu peux pas éviter la triste vérité Et j'peux pas hésiter devant l'but Parfois j'rêve de m'exiler dans l'Sud Paraît qu'la misère est moins pénible au soleil Donc avant d'devenir obsolète faut qu'j'passe pro Pour ça faut qu'on s'batte, bro' x4 Oh merde, pour tout ça j'étais pas prêt Tu veux qu'on s'tape, on s'tape, j'te mets dans les cordes Putain ça fait longtemps qu'on stagne, postés devant les blocs Si j'te sens pas poto, j'fais capoter l'affaire J'ai ni des dents, ni du sang, ni du temps à perdre Hey, ici c'est pas Madagascar, c'est glacé comme en Alaska Donc te prends pas pour un lascar, nigga Par ici, dans la minute, tu peux t'faire crosser Y'en a qu'on élimine pour un regard, deux-trois mots grossiers Sur le terrain, certains d'mes frères s'comportent en radins À chacune de mes passes, les flics m'observent en haut des gradins J'suis chaud bouillant, sa mère la pute, appelle les pompiers C'matin j'ai pas la pêche, j'suis pas levé du bon pied Ramène ta paire de gants si tu veux pas perdre de dent J'te l'ai déjà dit ramène mon bif, mon pote, j'aime pas trop les pertes de temps Le 3.5.7, ça c'est pour les sprinters Les gars balèzes qui veulent un peu trop jouer les Maître Splinter Est-ce que tu captes ? On est dans les bails de ninjas Amène ta part de pizza Les mecs vont m'appeler Monsieur Bachirou Aucune marche à monter j'ai un tapis rouge J'suis l'un d'ces départs à même pas 10 sous Qui taffe pour convertir le bail en Bébé, tu veux partir où ? Caméléon comme ton idée d'mon rap Non, pas de Hey, trop fort vu qu'ils ne font qu'comparer Moi et frérot sortent, ces thèmes vont de la sorte Bouteilles, balcon et bords on fait une putain d'soirée Accorde du crédit à c'sacré numéro On t'l'avait prédit, frère, on veut plus d'ces go Celles qui font belhani genre On veut plus d'ces gars j'pensais elles si vivraient ... J'pensais elles si vivraient ? surtout où est l'flow Elles m'remercient de pas être comme tous les autres Putains d'euros dans la poche de tous mes bro' Kanga munoko, négro, fecha tu boca Shut the fuck up et va m'chercher du Coca Jo, S majuscule, minuscule, me transforme au crépuscule Quand j'rappe je fais ma muscul' Ceux qui ont l'veau-cer vide vont s'taire vite Trop d'pigeons ici c'est Skyrock ou la gare d'Austerlitz ? Ils cherchent le buzz, moi l'oseille T'endors pas sur mes dettes ou tu retrouveras pas l'sommeil Moi, j'traîne, j'me tue, j'cherche les thunes jusque tard le soir J'suis meilleur qu'eux, ça crève les yeux mais ils font semblant d'pas me voir Tu parles de quoi ? T'inquiète même pas, ils finiront par me croire J'leur ferai tellement du sale, ils m'diront Jos', calme-toi À 13 ans j'étais fou, à présent j'me défoule Pour cultiver mon blé, si j'suis riche, j'suis comblé Nerfs à block, j'suis gonflé Fuck les putes, j'veux ma go, j'vais récup' mon magot Et m'barrer d'ici Je viens de là où on a du mal à respirer Le taux de chômage nous coupe le souffle et les yaourts ont expiré Je te parle de tout, des galères et des frigos Du clochard du coin de la rue ou du crochet de Luis Figo Et j'oublie pas nos mères qui jouent les gladiateurs Qui taffent dur pour ramener de quoi faire chauffer les radiateurs Une pensée pour la mienne, sans elle, mon frère, je tombe Hier, inconscient, j'ai claqué le loyer dans une paire de pompes Je l'ai claqué dans une 'teille et en Enfer je vais peut-être rôtir Comme les poulets qui m'ont dit Plus facile d'entrer en taule que d'en sortir Parmi mes shabs combien ont mangé la gamelle ? Elle est loin l'époque des Schtroumpfs qui se font courser par Gargamel Ça sent la tôle pourtant le plavan vaut de l'or On a tellement traîné dehors que le froid nous est indolore Je réfléchis trop, c'est pour ça que j'ai tué mes ongles Je fais des C.V. et des CDs en attendant de tuer les ondes Mais je veux pas tuer l'avenir, de mon futur fils de 3 ans Alors je taffe pour qu'il ne manque ni de lait ni de croissants Je suis technique sur le terrain, je joue à l'espagnol À 'iep ou en grosse bagnole, j'emmerde les Willy Sagnol S.Pri c'est oim, ouais je suis frais sur la cover J'ai pas le temps de faire le lover, je veux mes seufs dans la Rover Et j'ai appris que parmi mes potes il y avait des mythos Qui peuvent virer ennemis pour du gent-ar ou bien des clitos Pour la gloire, la haine ou la jalousie Condamnés à survivre, est-ce que c'est ça nos vies ? La ligne 3, la ligne 4, le RER B Le boulot, la bicrave et la BRB Y'a pas photo, ce sont les beaux clichés que mes gars kiffent On a pas de pellicules mais sous nos crânes c'est négatif L'amour rend aveugle, c'est pour ça que la France nous voit pas Crois pas que ton fils est un you-voi 'Pa Même si comme toi, il s'est mis dans quelques magouilles Qu'il traîne en bas avec des types qui l'appellent ma couille Papa, je me tape pour que tu passes la porte du château En chemise Dior, borsalino, la paire de Smalto J'suis pas ce rappeur paperasse avec objectif, demande Mais celui touché par la grâce à qui on dit Qu'est-ce qu'il te prend ? Comme la FF, toute la musique de France Celle qui divise pas mes frères quand toute la ville demande Ah, on pourrait tant les brûler On est les mêmes mais ils préfèrent s'entre-tuer, bande d'enculés Chacun d'mes 'blèmes j'vais les descendre, j'ai juré J'me dis qu'des galères comme moi te donnent pas le temps d'reculer Le temps est pur et L'ensemble est chez nous impeccable L'ensemble de ton crew, ces bécasses Viennent nous voir genre Vous les trouvez où ces pétasses ? C'est trop simple, Parifornie, tout est légal Et j'ai connu ce genre de bourbier Comme pire ennemi mon propre courrier J'suis grand, même vrai, toujours petit Car ma daronne a l'paradis sous l'pied J'fais que parsemer, j'fais que parfaire Et par semaine j'fais passer une masse d'herbe J'vais les shooter au ralenti comme dans Max Payne J'les aurai par l'feeling, par l'flow et par l'fer On a pas la même ta fan base bat d'l'aile On peut saboter ta life en cas d'blème On ère, les deux pieds dans la merde, j'ai la paire Je n'sens plus l'amour, le nez dans mes affaires Shooter moi-même, j'suis dans ma scène Enfoiré, t'as le seum, c'est ta sur qui m'harcèle Et elle sait qu'elle ne deviendra pas chérie J'marche seul, me passant des intentions malsaines C'est d'la remise en forme Le flow est lourd, tu sais qu'ça pèse J'fous l'bordel sur la scène mais j'garde la tête sur les trapèzes Ouais, j'suis un mec carré J'veux faire le tour du globe ou d'l'hexagone Mais j'bouffe des 'dwiches triangles parce que j'ai pas un rond, moi j'aimerais m'barrer Quand j'ken des prod', t'appelles ça des agressions par contre Quand moi j'disais ça tu trouvais ça invraisemblable, donc Quand j'entre en scène, quand j'enchaîne, redresse-toi, mets-toi en scelle Le rap j'enseigne dès mon blaze annoncé Les rimes s'amoncellent, tout l'monde sait que j'ai la prose qui tu les prostituées Du rap, et j'sais plus trop où m'situer Mais, montre qui tu es Ça c'est c'que j'fais depuis l'lancement Depuis l'commencement, maintenant, j'prends du poids depuis l'grand changement Quand j'bouge les gars s'poussent J'suis un mec au style aussi et J'shoote des cartouche une fois celles de mon stylo vidées Tu m'trouves indécent quand j'dis qu'j'palpe des seins Flow incessant, tu vois c'que j'veux dire mais j'te fais pas d'dessin Ici c'est big city, vie d'cité, mixité Vite si t'es vif, fais tes billes Évite les vils-ci, fuck les flics Si t'es apte à ça, ok on s'engage Rodéo sans casque pour des ou-s' en cash, tous ces oufs s'encastrent On veut des pourcentages Des p'tites parts, une p'tite Cab' sur le king-par Ma claque que les flics palpent Les familles du Sept-Cinq qui vivent avec sept surs et reufs Ou même sept zinc', qui te-por les mêmes fringues Les sans-fafs, les blédards, les clochards qui dorment dans des draps sales Les gangstas qui meurent dans des drive-by Les surs aux culs bombés, cambré D'origine du Maghreb ou de Bombay De Saint-Blaise à Cambrai Qui font des heures sup' au McDo Les man et les maquereaux qui manient la maille, kho Les chauffeurs de tacos Comme eux, c'qui nous importe c'est l'bénéfice C'est pour mes chacals qui s'butent au Coca-Hennessy J'suis parano et au fond je l'sais pas comme un loup qui boufferait trop d'chèvres J'vois seulement le fait qu'on m'observe Evidemment qu'c'est honnête J'tourne ma langue et finis par une vie d'amour et d'grosses fesses Je n'suis pas pour les promesses Nique l'amour, c'est trop d'stress Bordel, pour les gens présents lors du cortège A ceux qu'j'ai raté, je parie qu'ils croyaient qu'je dormais Et j'suis khalé, j'fais qu'me noyer dans des corvées En même temps coffre pour un Corvette Pour ceux qui m'connaissent, j'suis un borné Qui fait que d'la 'zique car il veut plus entendre leurs sornettes C'est fort net Un cornet, ensuite une bonne baise et dans l'verre un dernier cocktail De Trappes à l'avenue Voltaire J'essaye juste le blé, j'ai pas eu l'temps d'apprendre le solfège J'atterris dans c'merdier en soucoupe Ici j'ai presque froid, mais qu'est-ce que j'dois faire ? J'ai vu une paire, j'suis resté j'suis comme vous tous Qu'ça soit de rap ou de meufs, de frappe ou de kush Couche-toi sur le king size, mes potes et moi on fourre tout Fini l'rêve, fini d'jouer, fini d'plaire, fini tous tes frères J'ai bu la vie au goulot, j'finis c'verre sans t'faire goûter Moi, c'est les yeux plissés qu'j'finis d'faire c'que j'fais Vieux, quand j'ai les idées claires je n'finis pas la nuit entre des tchoutchs Rien qu'j'les blesse comme ça Limite fiers, ils finissent perdants On est pas d'la même mère mais on s'définit frère Pourtant à la vue d'ses formes, t'as cru t'éloigner d'Lucifer Donc pourquoi te croire si fort ? Devant, tu t'es senti frêle Tasse pudique dans l'appart, c'est pas elle qui paye les factures T'as cru qu'on avait des bords venus du Finistère ? Merde, ce biz j'gène Ces fils de n'ont pas l'bruit qu'j'ai Car j'fais l'tour du riph'-pé, mes reufs sous Mary Jane Tu voudrais couper mon filon mais je reste en haut du pilonne et Reste là, gros, t'envierras la vie qu'j'ai Fais ta vie et j'traîne La tête haute, j'les vois tous baisser les têtes Ils m'doivent le respect, négro, faut payer le dettes Ils apprécient ma cuisine, ils peuvent qu'apprécier le chef J'ai su encaisser l'échec Donc j'peux encaisser les chèques J'écris mon histoire, et ce depuis l'sommaire Nique sa mère, moi j'veux voyager tout l'summer Parfois, j'suis pris d'seum parce que le respect se meurt Mais quand on m'dit Cool l'ceau-mor, moi j'réponds Cool ci-mer Et j'suis dans cette merde, j'suis en pleine immersion Ils sont dans la trap, pour les piéger, on fait diversion Ils racontent des stories pour être crédibles, c'est débile Des stories pour lesquelles y'a p't-être dix versions Et j'me pose des questions Sur les questions en question J'entends les réponses et j'remets les réponses en question Et j'prends d'la marge, j'fais qu'd'y penser à chaque station J'suis dans l'coin, dans les sièges à 4, dans l'sens d'la marche Avec ma vois intérieure On établit des stratégies pour descendre tous ceux qui voudraient nous voir inférieurs Car plus personne n'a l'esprit judicieux Plus personne n'est vierge, même pas les casiers judiciaires Et j'souris d'abord, quand l'orgueil n'est plus là Quand ça sent l'traître, j'guette par l'il de Judas Avant d'ouvrir la porte Et rien qu'je soupire à force Les porcs, on s'nourrit avec On s'tape des fous rires avec mes potes On s'dit qu'les autres sont pourris à mort Wassup boy ? C'est pour mes dealers, mes killers Qu'écoulent des kil' depuis la GameBoy Font leur trucs boy pour remplir l'bol Errent dans l'coin, herbe dans l'joint Tchin-tchin on trinque à la tienne C'est pour mes tas d'p'tites surs Qui s'comportent ap' comme des chiennes Et puis mes gars qui s'tapent, que des braves Pas d'p'tites frappes ne t'inquiète ap' ils s'cachent C'est pour aç' qu'ils cashent sec Money money C'est pour les encaisseurs d'Assdec' Les pauvres même les Aztèques Les p'tits G-Money Ceux qui manient le Glock Ceux qui s'font soulever à six ou seven o'clock Parce qu'ils dealent en bas des bâtiments Fournissent les boloss d'la ville en tos-ma de qualité tarifé gentiment Ceux qui trafiquent la dope sans avoir d'agréments Ceux qui suivent la recette sans parler d'ingrédients Gravir les échelons, mon négro, j'fais de l'alpinisme Ouais mon négro, nan mon négro, ce n'est pas fini J'compte plus les années d'nouveaux arrivages C'bâtard il va juste faire du Gaumont à la Kamini Activiste, même pas d'ici et rarissime J'me sacrifie, prépare missiles et eux leurs artifices Et t'inquiète pas qu'on sait qu'ça part en couilles Ouais ça rend fou ces ventouses collées aux gars qui triment Idéalement, j'fais du bénef' vite Mif' et allemandes qui m'disent Alors, Ben, tu fais Bercy ? Vite les amours, vire ce sélectif Oui mais alors file une capote, mamie, c'est l'équipe La base du savoir c'est merci J'en vois aux parkas réversibles J'suis juste moi, j'ai pas besoin de ces MCs Y'a juste des vrais gars et une énergie Souhaite-moi Bon' chance, j'suis Bryan Mills Ils veulent m'atteindre, j'suis intouchable comme Bryan Mills, mothefucker J'suis à tes trousses, je te trouve et je te troue, comme Bryan Mills Pète ta bouche si tu touches à la mif' J'ai encore plein d'choses à accomplir J'veux crever vétéran, j'veux pas canner d'nos vices J'te l'apprends si t'as pas compris C'est pas en jouant au Loto qu'on va gagner nos vies J'roule qu'au feu vert, j'franchis pas la ligne blanche J'garde mes distances, j'me conduis bien car j'suis fliqué si j'flanche J'rentre dans une p'tite transe quand j'rentre en cabine Tu finis dans les abîmes car quand la bitch tremble l'alcool au goulot Mes rimes sont profondes comme le sol sous l'eau Dread lock, destroy, négro j'fais l'job, j'fais le boulot Jusqu'à c'qu'ils coulent, qu'ils s'disent Quel enculé, quel culot J'faisais ça bien avant internet Les murs comme public, j'faisais ça en interne, mec Les occasions, c'est pas fini quand t'en rates une Car personne prend la thune sans rature J'veux être torse poil, un air valeureux sur un voilier Mon accueil chaleureux, tu vas pas l'nier Habillé d'manière abstraite, y'a tout eu sur mes poignets On ne voit pas ce jeu mais le panier Ouais, j'dirai toujours que ça ira C'est ces deux notes qui vont faire que avec moi t'iras Même les menottes m'ont appris qu'on pouvait gagner Allier, rentrer l'oseille et pouvoir puff de la sativa Donc en fait c'est d'la magie noire Loin d'un monde moins fake que Paris Match Ouais qu'ça colle bien ensemble Faut Zizou pour qu't'oublies d'douter qu'on n'est pas rien ensemble Frolo, quitte ou double la mise ? Là pour combler la mif Jamais été au Parc Astérix, y'a que Paris J'dis pas qu'on fait la diff' vu que l'son l'prouve Eddie Eddie sur la gueule de l'monde-tout 3000seudi MC t'es chaud ? Viens on s'la donne, le temps d'un freestyle J'te mets à poil, comme si y'avait du GHB dans ton cristal Mon flow attire les p'tites 'tasses, efface les p'tites taches C'est Fougères Dope sur mon étiquetage, toute mon équipe passe De Paris à MTP, on finit game en MVP On shoote à trois points... Switch ! Producteur de CD, ayant des potes décédés J'fréquente rouleurs d'OCB, et arracheurs de CB Sept-Cinq, Sept-Cinq, protège ta mère et ta tête, zinc' J'suis tout droit sorti d'une arène Y'a personne qui m'arrête, surtout pas toutes tes merdes, zinc' Ancien découpeur de lamelles venu pour te la mettre On n'est pas de la même trempe Nan, on n'est pas de la même mif' Surtout pas de la même bande J'suis l'genre de type qui t'met une crampe Ou bien une trempe, en moins d'130 Sur nos armes, on a plus l'cran On a plus d'gants, on a plus l'temps Il est minuit, j'sors d'une garde-à-v', j'fais mes lacets L'OPJ m'a menacé, mais au final m'a relaxé, bitch Ouais mon négro, ouais mon rebeu, ouais mon bab' J'fais kiffer ta famille et tes amis et ton bord J'm'habillais en sorte Arrivé sur Paris, j'vois qu'ils balisent et qu'ils paniquent Vu mes qualités, ils ont validé mon score On est fatigués, on dort pas, toujours dans l'cockpit Mes gars arrachent les code-barres, les meufs s'arrachent mon code PIN Appelle le numéro d'mon code postal quand j'mets l'fire Parfois, j'suis là, j'me poste au calme mais j'rêve d'ailleurs Ouais, j'fais preuve de bon sens et d'constance Paraît qu'j'suis très fort mais depuis l'début j'fais des efforts, nigga2</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr Hannibal</t>
+          <t>Lune de Miel</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vous voulez une histoire, les enfants ? J'ai une p'tite histoire pour vous... Quand j'vois un film d'horreur, j'm'identifie au tueur Michael Myers, Jason, Fredy Krueger Hannibal Lecter, on t'avait pas menti J'ai dégusté son foie avec un excellent chianti J't'invite à ma table, et j'ai cuisiné un bout d'ton cerveau J'jette ta carcasse aux cochons, Nettoyez les os J'me lèche les babines, tu rigoles ou quoi ? Si t'as pas vu Shining, Jack Nicholson Pourquoi j'débloque ? Tu veux savoir ? Viens Mon bloc construit sur un cimetière indien Merde, j'en ai jamais marre des crimes Au fait, faut qu'j'aille remettre mon masque de Scream Devine qui va t'appeler Allô ? Oui ? Moi, j'tue toute l'année, qu'est-ce que j'm'en fous d'Halloween ? Ah, où est l'gardien du campus ? Il est die En temps d'guerre, il m'filerait une médaille Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals J'tue gratuitement, sans contrat à honorer Et, pour toi, c'était pas l'heure de faire un tour dans la forêt J'aime bien l'goût délicat qu'à la jeunesse dorée Les fils à papa, j'te les soigne façon goret Et où tu vas t'échapper avec tes jambes en charpie ? Ça va être un putain d'puzzle, ton autopsie Tu connais l'épreuve pour être un meurtrier crédible ? Non Faire dégueuler le médecin légiste Moi, j'fais pas d'fric avec les morts comme Puffy J'veux juste un peu mordre, amenez-moi Buffy Et les trois surs de Charmed Hummmmmmmmmmmm Tu sens la raideur de mon arme ? Hmmm hmmm Au fond, j'm'en bats les couilles de quoi t'as l'air, bitch J'ai même niqué la sorcière de Blair Witch Attends, j'crois qu'j'ai oublié un détail En temps d'guerre, il m'filerait une médaille Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals Tronçonneuse allumée, faut qu'j'en remette une couche Toi, t'es comme Tony attaché dans la douche Oublie Manny, la blonde en maillot bleu l'a saigné C'est ma complice, une vampire, dans l'sang, elle aime s'y baigner J'vais aller à Monaco m'occuper du Prince Rainier et d'Stéphanie J'ai eu l'tuyau par son mari Celui qui a niqué la strip-teaseuse au bord d'la piscine Au fait, pour les cadavres, y'a pas mieux qu'l'acide À force de découper, d'faire des trous, j'ai mal au dos Ta femme était trop belle, Brad Pitt, moi, c'est John Doe Pas Don Cho', celui-là aussi, j'l'ai liquidé Ce p'tit Français, il faisait style sourcils froncés Quand j'suis arrivé, mais, tinquiète, il a pas souffert J'ai tiré direct dans l'cur puis, son ventre, j'l'ai ouvert Son foie, comme d'hab', j'l'ai mangé, j'ai mis sa tête dans un bocal Et, en souvenir, je m'suis greffé ses cordes vocales x2 Dans mon biz, pas d'rival Bonjour docteur Hannibal Appétit cannibale Le plus méchant des animals C'est le docteur Hannibal Dans mon biz, pas d'rival Appétit cannibale Le plus méchant des animals3</t>
+          <t>Viens on va s'en aller Rouler du matin au soir Et se laisser aller Zaho, Don Choa Viens on va s'en aller J'irai où tu veux memmener Où tu veux m'emmener Ok, on va y aller à la Bonnie et Clyde, clic, bang, vida loca, vie de dingue Ma belle attrape le volant, j'm'occupe de charger les flingues T'es ma vie, t'es ma weed, mes armes et ma Bible Une fois vide, la bouteille de Jack' sert de cible Shoot, chérie suis-moi on va shooter le shérif Puis faire des Photomatons sur les radars du périph' Juste moi et ma caille, c'est GTA style Carnage quand on mitraille, même l'armée n'est pas d'taille Toujours le smile même menotté au comico J'm'inquiète pas, j'sais qu'tu viendras m'chercher en hélico Et même si ça finit mal, style Tignasse et Bérénice Dis-toi il vaut mieux ça plutôt qu'on finisse RMIstes Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet Le programme c'est détente aux Pays-Bas, shopping en Italie On achète des bagnoles en Allemagne, des flingues en ex-Yougoslavie On bouge en jet privé de Colombie à Miami Jet-ski dans les West Indies à la tombée d'la nuit Ils rêvent de nous buter, d'nous mettre en HP ou en cage On s'relaxe dans une grande suite au 25ème étage Cognac Hennessy, Cristal Roederer Fait voler plus de billets que chez les faux-monnayeurs On débarque comme un verre qu'éclate dans ton écran plasma On roule à 220 en Mercedes sous le pont d'l'Alma On en amènera quelques-uns en enfer ou là-haut On partira pas seuls, attends, t'as dit quoi Zaho ? T'as dit quoi Zaho ? Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet C'est la vie qu'on s'est promis Et si demain tout doit finir, on mourra dans le même lit Crimes et délits, à la tombée de la nuit Viens on se fout des ennuis tant qu'on vit ce qu'on s'est promis Où tu vas, je te suis Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Filles, flics, descentes</t>
+          <t>Tonight</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>J'préfère les choses fictives Ça m'évite de m'faire des films et d'en être victime J'kicke depuis qu'j'ai fifteen, bitch please J'avance pour garder l'équilibre comme si j'roulais à vélo Pas loin d'être intello, pélo, j'kicke comme Donatello Hello, Josman sur tes vres-lè comme Labello Hey yo, ninja flow, j'vois rouge comme Rafaello Hey oh, j'vois rouge comme Scott Summers Cyclope Punchline dans tes poumons, rien qu'tu tousses SixClopes La vie est pleine d'obstacles, j'les saute comme Ladji Doucouré Sur ma vie, c'est magique, quand j'arrive vous courrez Et vas-y, c'est facile, j't'envoie à l'asile, assis, avec un flow basique Me dépasser jamais vous pourrez Et paraît qu'y'a du talent, mon gars t'as vu ça Tu savais ap, normal j'cache ma richesse comme Cahuzac On t'a vu zinc Moi j'kiffe la iv et c'est à ça qu'on trinque Comme si j'étais à 5 contre 1, j'ai la puissance de 50 trains Et tu m'veux rencontrer parce qu'on t'a raconté qu'j'suis l'boss de ta contrée Mais j'ai déjà démontré que j'pouvais démonter des prods Tête de oim, j'ferai tourner tes proches J'ai progressé en deuspi comme si j'avais pris des prot' J'suis le prof, on dit qu'j'suis pas gentil Mais j'te baise avec galanterie J'ai pas menti, j'serais lourd aussi même si j'rappais au ralenti Si on s'ressemble c'est qu'j'suis comme toi en mieux Négro, j'ai des tas d'envieux parce qu'ils savent que j'suis talentueux Putain d'merde Moi j'suis l'huitième nain, j'viens baiser Blanche la putain d'Neige On sait qu'l'État escroque, mais petit néglige pas les profs Garde mains et baskets propres, ecsta', CC touche pas cette drogue Pourquoi cotiser 55 ans, ou bien même faire cinq ans ça comme en taule ? Bref, en gros si j'm'associe c'est 50-50 La crise fait dresser les tifs, chez nous pas de tri sélectif On fait parfois criser les vieux quand l'soir on fait crisser les pneus Tes parents rappliquent chez les bleus, t'en as même attristé les deux C'qui nous baise le fric et les gueuses, nous on tend à trise-maî les deux Tu peux t'mettre à briser des beuj' ou encore t'défriser les veuch' Ça n'empêche pas qu'le monopole tangue entre la Chine et les Feujs Demande à Nakk Mendosa On n'a pas l'même dossard, fournit pas l'même dosage Nos relations avec les keufs sont souvent tendues Celles avec les meufs, remplies de bluff, de sous-entendus C'est souvent l'temps du Je t'aime, mais on s'entend plus T'étais le A, devenue le B, désormais t'es mon plan cul Viens j't'explique en 2-4-6, sensations fortes via 2-3 spliffs Embrouille de tess de 2-3 types, un frère se perd en 2-3 clics, boom Le swag d'un pitbull, à l'affût d'une p'tite poule Tu es un prototype cool, ce soir j'ai besoin d'un p'tit... Veni vidi vici, 22 v'là les vils-ci Viens on s'éloigne d'ici, checke-moi sur N.Y ou D.C On tré-ren par la p'tite porte, on consomme d'la tise forte J'kiffe gratter dans état sous alcool dans l'sang Pique une tête chez le propriétaire lorsqu'il est absent J'ai ap d'abcès, alcool, drogue, baise ex et J'exerce et, mec, c'est entre 2 fesses que j'reste axé Mais laisse-les Tu sais, mes textes, peu les testent, expulsent Et moi je reste, peux test, avec ma et les mecs disent que j'suis désaxé Tu vas pas m'taxer ma tête Sur la MPC j'suis blessé mais God bless me Ça dit quoi enfoiré ? Moi j'suis paxé presque et que les bougs, mec, touchent leur sexe en number masqué, bref Textuelle ma gestuelle, déplacée J'crache, j'frise une haleine au taux d'alcoolémie dépassé J'brasse sans boire la tasse tout d'même Même si j'suis die mamen E.A.Z.Y. te lâche une phase quand même J'prends ma place au départ Dans mon espace, que des barges Et même si l'rappe ne m'intéresse pas, j'prends ma place quand même Grand j'ai la prose, tu psychotes quand j'mets la dose C'est la p'tite bête qui vient manger la grosse J'rapperai jusqu'à vétéran, Joss vient titiller les grands Ils vont avoir mal longtemps, ouais, j'suis un plaie béante Mais ma fainéantise, me fera pas trop bouger Flow trop urbain, j'serai sûrement enterré en ville Tu veux coucher mon flow ? Vas-y pousse d'abord J'ouvre la porte du game sans frapper, j'vous mets tous d'accord Si tu veux l'voir grimper ou grimper sur l'applaudimètre, faut s'y mettre Ils veulent me shoot, mais j'fais qu'des renvoies aux six mètres T'as jamais vu d'précision aussi nette, aussi bonne Aussi lourde, aussi fat, aussi clean, aussi propre Et pas d'souci, c'coup-ci, si j'bousille tout Ça sent l'roussi fou, quand j'troue ton crew d'pussys J'veux tout tout de suite, enfoiré j'te l'dirais pas 100 fois Mais j'ai pas besoin d'perdre la mienne pour t'laisser sans voix Fais pas le gars qui sait ou c'lui qui veut sympathiser T'as pas d'cran si t'as pas tisé, tu baves et tu veux pactiser J'me tape pour pas pisser en taule ou finir par glisser Chez moi y'a pas d'mur tapissé, quand j't'appelle demande pas qui c'est Du lourd comme d'habitude, parce qu'on incarne le rap qui tue Flow, phases, attitude qui remet en cause leurs aptitudes De toute manière s'te plaît flambe pas j'découpe tes seize Evidemment qu'mes couplets blessent, aucune salope ne touche mes fesses P'tite prod, Mitch Corp P'tite conne, j'kick propre Est-ce que tu captes le truc ? J'ai plus d'clope, c'est comme si j'en avais dix C't'odeur de peur autour de quoi j'aiguise mon appétit On m'dit C'est ça, c'est mieux pour toi mais j'suis un taré J'tise dans l'carré VIP, affalé, j'parlais d'chiffres, nouveau maléfice Un jour les tiens verront qu'tu les entubes Du moins, t'essayes en pensant qu'à ta race de vrai enculé Le gérant gère pas pour gérer mais car se géant s'tue Et t'inquiètes maintenant j'ai pété tous ceux qui dérangent plus A cause d'un plat ce sera tout l'temps d'ma faute Ce poids sur mes jambes, j'adore, il travaille mes abdos Avance besoin, qu'attend demain quand j'redeviendrai humain Et m'achèterai un feu à cause de ceux qui n'checkent pas mais s'adossent Ce genre de truc pour moi c'est quesaco Y'a un problème avec ma tête mais j'peux toujours plaire à d'autres C'est pas un 'blème, c'est qu'une putain d'observation Tu cherche une échappatoire, moi une putain qu'opère à fond DJ, fous ça dans ton Serato Ils n'servent à rien, on sert à tout va, s'en va en vrai bateau J'ai pas fini, j'vais rester là comme Platini et monter comme un putain d'alpiniste loin d'ton hexagone Tout mon schéma s'est fait là, mon négro, j'péra trop On m'envoie que d'la merde et m'envoie C'est grave chaud Je l'savais mais c'est d'la daube J'suis jamais tout seul C'est pas par choix, mon négro, sinon j'crée ma zone Dehors, négro, c'est gratos Si j'tiens bon, moi j'écris pour m'offrir un peu d'air Le deux tiers de mes amis, le trois quart de mes frères Savent que j'fais ça rapide On a trop peu à perdre pour pas qu'la folie s'rapplique On écarte ceux qui l'appellent Tant qu'les aiguilles tourneront Tous les jours j'fais la même C'est comme pousser la fonte pour surmonter la flemme Attaché à la console, j'laisse le micro à terre C'est pas pour rien qu'on sonne mais j'ferai pas danser la terre Et tu dois penser la même On s'doit garder les bons souvenirs Et ma plus grande fierté serait l'sourire de ma mère Aucune ne ferait ma paire, donc pourquoi trouver la bonne ? Y'a qu'pour une que j'voudrais la lune ou soulèverais la mer Et quand l'soleil se couchera, on débouchera la 'teille Comme tous ceux qui taffent, le 12 ont déjà tout déboursé Souvent on garde la tête haute en voyant ceux qui la perdent En attendant, faut d'la tise, pour qu'on parte jusqu'en l'air Car c'est partout la même Si tu m'croises et qu'j'te vois pas c'est qu'j'suis dans ma tête Si j'te croise et qu'tu m'vois pas c'est qu'j'suis dans ma caisse Si tu m'vois frotter en te-boî c'est qu't'es dans la cess Jamais fourré dans un coup mais bourré dans la pièce On joue dans les temps, pour le coup c'est fou les mecs Moi, j'joue des tours aux poulets tant qu'j'ai wallou dans la veste Jamais deux sans trois les gobelets, la funk et le reste Plus d'deux cent fois où j'ai poncé, défoncé, des textes Et me parlez pas d'monnaie J'ai deux oreilles, il m'faut plus que d'l'oseille pour m'raisonner J'fais du son pour oim, juste parce qu'il le fallait Si ça t'plaît c'est mieux, appelle-moi Eazy Dew Allen et mes potes kiffent la fumette À deux doigts d'en abuser Frérot, j'assume le fait que quelques uns peuvent me juger Pour l'instant c'est clean, j'suis fier d'mes plans pour l'lendemain J'sais pas qui j'pourrais croiser en chemin mais j'ai la musique Hey yo, what's up ? Jos fuckin man, j'arrive en force, en feu Ils ont des plus gros dorsaux qu'oim mais j'fais des meilleurs morceaux qu'eux J'ai beaucoup d'flow, j'ai beaucoup d'technique, en plus j'suis grave précis Donc pas besoin d'être agressif pour qu'ils apprécient J'me déguise pas, j'reste vrai J'reste délicat exprès J'suis efficace, ken une p'tite 'tasse qui n'mérite pas l'respect Donc, me compare pas, j'suis pas comme eux, téma, j'prends l'ascendant Crari, ils font tous la même chose, crari faut être dans la tendance En attendant, je fais l'taf, mé-cra, j'm'esclaffe Donc laisse place quand j'm'exclame Des jets d'flammes, les mecs clamsent Vas-y c'est mort, maintenant j'ai pris les devants Et j'crois qu'il est temps de mettre les bouchées doubles Fini la dilettante, ça y est j'ai mis les gants d'boxe Violent comme Hancock ou Bangkok T'écoutes mes rimes, ça t'arrache les oreilles comme Van Gogh Et j'suis l'meilleur par déduction rap, séduction L'éloquence est élégante, ça y est la prod est en cloque, nigga 2014, j'ai beau chercher, y a toujours pas de taf Et mon voisin du dessus, le pauvre, n'a toujours pas de fafs Et ce petit du quartier, dans le foot, rêvait de percer Maintenant c'est la drogue douce le soir qui vient le bercer Cousin, je viens d'une époque où les professeurs Ont des photos d'ados dans leur processeur De plus leur politique ne cesse de reculer Maintenant voter c'est faire une queue pour se faire enculer L'Afrique, ses guerres, ses militaires armés Comprends pourquoi mes frères traversent la Méditerranée GABOS, la rue te cueille à la naissance Te fait faner à Fleury dès l'adolescence Je vois des daronnes stressées, le daron parti, pressé Qui laissent traîner leurs gosses sur le parking On s'était dit que dans 10 piges on aura le flow Dans un teddy, bas Dickies, Polo Ralph Lau' Par manque d'intelligence, de calme, de vigilance La plupart des tits-pe craquent, braquent la diligence Paris l'incandescente, le tumulte des descentes Le cumul des décès, le vacarme des détentes Et j'entends même au loin les ambulanciers Une mère pleurer son fils des blessures pansées Des familles à plat ventre, en mauvaise posture Car l'État joue les sourds là où les gosses hurlent Négro, j'suis français comme Montana Gros et j'suis qu'un étranger sur mon canap J'propose des millions à condition qu'j'aie un fond banal Être meilleur qu'eux, c'est pas qu'mon travail Check, j'arrive sans RS4, on j'me pavane Le sol va trembler même si Billie Jean raconte des salades C'est violent, gros, c'est lourd de malade Rien à foutre de tout si t'as un mic et quelques balafres Frère, le vrai, ça marche mais t'inquiète pas qu'on cavale Au tieks on m'dit T'es perdu, force mon reuf même si tu t'acharnes, nos différends n'sont pas graves La weed a créé un putain d'truc de bâtard Pas dans la fume elle-même mais ceux qui croient qu'des pilules j'avale P'tit frère, c'est logique si j'fais pas c'qui s'fait J'ai inventé un vin et ça en sorte dans quelques mixtapes Cuit, cuit, pas un oiseau mais mon bifteck Ton vrai gars sait qui c'est qui arrive comme du ginseng Mystère comment est l'mille quand elle tient l'pieu J't'ai inventé un vent et ça avant d'te sortir un skeud Eddie, 3000seudi, 61 pieux La fin sera belle c'est pour ça qu'j'entretiens l'creux A gauche parce que j'viens d'l'Ouest Depuis l'temps quand j'arrive c'est l'feu Végéta contre Cell 2 Ils cherchent un moyen d'rapper ces textes Ceux qui préfèrent nous voir en perte plutôt qu'dans un Benz bleu Ou dans un Bentley, j'fais l'vu De sortir à la tronche d'un enfoiré, mon négro, j'fais, j'veux Ma tête fuse avec des bottes de sept lieues J'choppe des techniques mais l'risque est qu'mon petit naisse vieux En vérité, j'aime avoir l'silence Pour copuler avec une fille ayant des formes et un don pour la bouffe confirmé, de préférence J'aime le mystère sans pour autant signer Comprends le film sans avoir à le rembobiner Finesse et flow combinés Quand j'rentre en scène on m'observe avant d'laisser la place à celui qui va baragouiner Rap binaire de position comme les Playmobil Retourne souvent serrer des ratures, file en Lamborghini Parfois j'doute dois-je bosser ou non ? Mais si on m'priverait d'zique, j'serais comme un tox sous l'pont Les gens t'fient aux philosophies d'mythos Je n'fais qu'apprendre mieux vaut être fonce-dé à mi-temps qu'enfermé à huit clos Soyez au rendez-vous, soyez à l'heure Bouche bée et yeux écarquillés quand vous m'voyez à l'oeuvre J'voyais toutes ces chiennes aboyer alors Qu'aujourd'hui ces chiennes m'obéissent au doigt et à l'il Le mec tape fort, le mec frappe fort Pour les mettre d'accord, les mettre d'accord Le mec tape fort, le mec tape fort À coups d'rimes, de métaphores, de métaphores J'donne plus d'informations que tout c'que la télé lance Tout est camouflé, yo, l'éloquence est élégante Le rap c'était mieux avant c'est tout c'que ces fêlés pensent Moi, j'ramène du flow et du groove pour que ces pédés dansent J'ai mes gants, j'suis équipé, pas d'équité Entre eux et moi, tu peux pas métiqueter Jos', tu sais qui c'est J'dois esquisser un smile, viser l'soleil, avant de m'éclipser Tu m'vois tout déchiqueter, tu peux pas éviter la triste vérité Et j'peux pas hésiter devant l'but Parfois j'rêve de m'exiler dans l'Sud Paraît qu'la misère est moins pénible au soleil Donc avant d'devenir obsolète faut qu'j'passe pro Pour ça faut qu'on s'batte, bro' x4 Oh merde, pour tout ça j'étais pas prêt Tu veux qu'on s'tape, on s'tape, j'te mets dans les cordes Putain ça fait longtemps qu'on stagne, postés devant les blocs Si j'te sens pas poto, j'fais capoter l'affaire J'ai ni des dents, ni du sang, ni du temps à perdre Hey, ici c'est pas Madagascar, c'est glacé comme en Alaska Donc te prends pas pour un lascar, nigga Par ici, dans la minute, tu peux t'faire crosser Y'en a qu'on élimine pour un regard, deux-trois mots grossiers Sur le terrain, certains d'mes frères s'comportent en radins À chacune de mes passes, les flics m'observent en haut des gradins J'suis chaud bouillant, sa mère la pute, appelle les pompiers C'matin j'ai pas la pêche, j'suis pas levé du bon pied Ramène ta paire de gants si tu veux pas perdre de dent J'te l'ai déjà dit ramène mon bif, mon pote, j'aime pas trop les pertes de temps Le 3.5.7, ça c'est pour les sprinters Les gars balèzes qui veulent un peu trop jouer les Maître Splinter Est-ce que tu captes ? On est dans les bails de ninjas Amène ta part de pizza Les mecs vont m'appeler Monsieur Bachirou Aucune marche à monter j'ai un tapis rouge J'suis l'un d'ces départs à même pas 10 sous Qui taffe pour convertir le bail en Bébé, tu veux partir où ? Caméléon comme ton idée d'mon rap Non, pas de Hey, trop fort vu qu'ils ne font qu'comparer Moi et frérot sortent, ces thèmes vont de la sorte Bouteilles, balcon et bords on fait une putain d'soirée Accorde du crédit à c'sacré numéro On t'l'avait prédit, frère, on veut plus d'ces go Celles qui font belhani genre On veut plus d'ces gars j'pensais elles si vivraient ... J'pensais elles si vivraient ? surtout où est l'flow Elles m'remercient de pas être comme tous les autres Putains d'euros dans la poche de tous mes bro' Kanga munoko, négro, fecha tu boca Shut the fuck up et va m'chercher du Coca Jo, S majuscule, minuscule, me transforme au crépuscule Quand j'rappe je fais ma muscul' Ceux qui ont l'veau-cer vide vont s'taire vite Trop d'pigeons ici c'est Skyrock ou la gare d'Austerlitz ? Ils cherchent le buzz, moi l'oseille T'endors pas sur mes dettes ou tu retrouveras pas l'sommeil Moi, j'traîne, j'me tue, j'cherche les thunes jusque tard le soir J'suis meilleur qu'eux, ça crève les yeux mais ils font semblant d'pas me voir Tu parles de quoi ? T'inquiète même pas, ils finiront par me croire J'leur ferai tellement du sale, ils m'diront Jos', calme-toi À 13 ans j'étais fou, à présent j'me défoule Pour cultiver mon blé, si j'suis riche, j'suis comblé Nerfs à block, j'suis gonflé Fuck les putes, j'veux ma go, j'vais récup' mon magot Et m'barrer d'ici Je viens de là où on a du mal à respirer Le taux de chômage nous coupe le souffle et les yaourts ont expiré Je te parle de tout, des galères et des frigos Du clochard du coin de la rue ou du crochet de Luis Figo Et j'oublie pas nos mères qui jouent les gladiateurs Qui taffent dur pour ramener de quoi faire chauffer les radiateurs Une pensée pour la mienne, sans elle, mon frère, je tombe Hier, inconscient, j'ai claqué le loyer dans une paire de pompes Je l'ai claqué dans une 'teille et en Enfer je vais peut-être rôtir Comme les poulets qui m'ont dit Plus facile d'entrer en taule que d'en sortir Parmi mes shabs combien ont mangé la gamelle ? Elle est loin l'époque des Schtroumpfs qui se font courser par Gargamel Ça sent la tôle pourtant le plavan vaut de l'or On a tellement traîné dehors que le froid nous est indolore Je réfléchis trop, c'est pour ça que j'ai tué mes ongles Je fais des C.V. et des CDs en attendant de tuer les ondes Mais je veux pas tuer l'avenir, de mon futur fils de 3 ans Alors je taffe pour qu'il ne manque ni de lait ni de croissants Je suis technique sur le terrain, je joue à l'espagnol À 'iep ou en grosse bagnole, j'emmerde les Willy Sagnol S.Pri c'est oim, ouais je suis frais sur la cover J'ai pas le temps de faire le lover, je veux mes seufs dans la Rover Et j'ai appris que parmi mes potes il y avait des mythos Qui peuvent virer ennemis pour du gent-ar ou bien des clitos Pour la gloire, la haine ou la jalousie Condamnés à survivre, est-ce que c'est ça nos vies ? La ligne 3, la ligne 4, le RER B Le boulot, la bicrave et la BRB Y'a pas photo, ce sont les beaux clichés que mes gars kiffent On a pas de pellicules mais sous nos crânes c'est négatif L'amour rend aveugle, c'est pour ça que la France nous voit pas Crois pas que ton fils est un you-voi 'Pa Même si comme toi, il s'est mis dans quelques magouilles Qu'il traîne en bas avec des types qui l'appellent ma couille Papa, je me tape pour que tu passes la porte du château En chemise Dior, borsalino, la paire de Smalto J'suis pas ce rappeur paperasse avec objectif, demande Mais celui touché par la grâce à qui on dit Qu'est-ce qu'il te prend ? Comme la FF, toute la musique de France Celle qui divise pas mes frères quand toute la ville demande Ah, on pourrait tant les brûler On est les mêmes mais ils préfèrent s'entre-tuer, bande d'enculés Chacun d'mes 'blèmes j'vais les descendre, j'ai juré J'me dis qu'des galères comme moi te donnent pas le temps d'reculer Le temps est pur et L'ensemble est chez nous impeccable L'ensemble de ton crew, ces bécasses Viennent nous voir genre Vous les trouvez où ces pétasses ? C'est trop simple, Parifornie, tout est légal Et j'ai connu ce genre de bourbier Comme pire ennemi mon propre courrier J'suis grand, même vrai, toujours petit Car ma daronne a l'paradis sous l'pied J'fais que parsemer, j'fais que parfaire Et par semaine j'fais passer une masse d'herbe J'vais les shooter au ralenti comme dans Max Payne J'les aurai par l'feeling, par l'flow et par l'fer On a pas la même ta fan base bat d'l'aile On peut saboter ta life en cas d'blème On ère, les deux pieds dans la merde, j'ai la paire Je n'sens plus l'amour, le nez dans mes affaires Shooter moi-même, j'suis dans ma scène Enfoiré, t'as le seum, c'est ta sur qui m'harcèle Et elle sait qu'elle ne deviendra pas chérie J'marche seul, me passant des intentions malsaines C'est d'la remise en forme Le flow est lourd, tu sais qu'ça pèse J'fous l'bordel sur la scène mais j'garde la tête sur les trapèzes Ouais, j'suis un mec carré J'veux faire le tour du globe ou d'l'hexagone Mais j'bouffe des 'dwiches triangles parce que j'ai pas un rond, moi j'aimerais m'barrer Quand j'ken des prod', t'appelles ça des agressions par contre Quand moi j'disais ça tu trouvais ça invraisemblable, donc Quand j'entre en scène, quand j'enchaîne, redresse-toi, mets-toi en scelle Le rap j'enseigne dès mon blaze annoncé Les rimes s'amoncellent, tout l'monde sait que j'ai la prose qui tu les prostituées Du rap, et j'sais plus trop où m'situer Mais, montre qui tu es Ça c'est c'que j'fais depuis l'lancement Depuis l'commencement, maintenant, j'prends du poids depuis l'grand changement Quand j'bouge les gars s'poussent J'suis un mec au style aussi et J'shoote des cartouche une fois celles de mon stylo vidées Tu m'trouves indécent quand j'dis qu'j'palpe des seins Flow incessant, tu vois c'que j'veux dire mais j'te fais pas d'dessin Ici c'est big city, vie d'cité, mixité Vite si t'es vif, fais tes billes Évite les vils-ci, fuck les flics Si t'es apte à ça, ok on s'engage Rodéo sans casque pour des ou-s' en cash, tous ces oufs s'encastrent On veut des pourcentages Des p'tites parts, une p'tite Cab' sur le king-par Ma claque que les flics palpent Les familles du Sept-Cinq qui vivent avec sept surs et reufs Ou même sept zinc', qui te-por les mêmes fringues Les sans-fafs, les blédards, les clochards qui dorment dans des draps sales Les gangstas qui meurent dans des drive-by Les surs aux culs bombés, cambré D'origine du Maghreb ou de Bombay De Saint-Blaise à Cambrai Qui font des heures sup' au McDo Les man et les maquereaux qui manient la maille, kho Les chauffeurs de tacos Comme eux, c'qui nous importe c'est l'bénéfice C'est pour mes chacals qui s'butent au Coca-Hennessy J'suis parano et au fond je l'sais pas comme un loup qui boufferait trop d'chèvres J'vois seulement le fait qu'on m'observe Evidemment qu'c'est honnête J'tourne ma langue et finis par une vie d'amour et d'grosses fesses Je n'suis pas pour les promesses Nique l'amour, c'est trop d'stress Bordel, pour les gens présents lors du cortège A ceux qu'j'ai raté, je parie qu'ils croyaient qu'je dormais Et j'suis khalé, j'fais qu'me noyer dans des corvées En même temps coffre pour un Corvette Pour ceux qui m'connaissent, j'suis un borné Qui fait que d'la 'zique car il veut plus entendre leurs sornettes C'est fort net Un cornet, ensuite une bonne baise et dans l'verre un dernier cocktail De Trappes à l'avenue Voltaire J'essaye juste le blé, j'ai pas eu l'temps d'apprendre le solfège J'atterris dans c'merdier en soucoupe Ici j'ai presque froid, mais qu'est-ce que j'dois faire ? J'ai vu une paire, j'suis resté j'suis comme vous tous Qu'ça soit de rap ou de meufs, de frappe ou de kush Couche-toi sur le king size, mes potes et moi on fourre tout Fini l'rêve, fini d'jouer, fini d'plaire, fini tous tes frères J'ai bu la vie au goulot, j'finis c'verre sans t'faire goûter Moi, c'est les yeux plissés qu'j'finis d'faire c'que j'fais Vieux, quand j'ai les idées claires je n'finis pas la nuit entre des tchoutchs Rien qu'j'les blesse comme ça Limite fiers, ils finissent perdants On est pas d'la même mère mais on s'définit frère Pourtant à la vue d'ses formes, t'as cru t'éloigner d'Lucifer Donc pourquoi te croire si fort ? Devant, tu t'es senti frêle Tasse pudique dans l'appart, c'est pas elle qui paye les factures T'as cru qu'on avait des bords venus du Finistère ? Merde, ce biz j'gène Ces fils de n'ont pas l'bruit qu'j'ai Car j'fais l'tour du riph'-pé, mes reufs sous Mary Jane Tu voudrais couper mon filon mais je reste en haut du pilonne et Reste là, gros, t'envierras la vie qu'j'ai Fais ta vie et j'traîne La tête haute, j'les vois tous baisser les têtes Ils m'doivent le respect, négro, faut payer le dettes Ils apprécient ma cuisine, ils peuvent qu'apprécier le chef J'ai su encaisser l'échec Donc j'peux encaisser les chèques J'écris mon histoire, et ce depuis l'sommaire Nique sa mère, moi j'veux voyager tout l'summer Parfois, j'suis pris d'seum parce que le respect se meurt Mais quand on m'dit Cool l'ceau-mor, moi j'réponds Cool ci-mer Et j'suis dans cette merde, j'suis en pleine immersion Ils sont dans la trap, pour les piéger, on fait diversion Ils racontent des stories pour être crédibles, c'est débile Des stories pour lesquelles y'a p't-être dix versions Et j'me pose des questions Sur les questions en question J'entends les réponses et j'remets les réponses en question Et j'prends d'la marge, j'fais qu'd'y penser à chaque station J'suis dans l'coin, dans les sièges à 4, dans l'sens d'la marche Avec ma vois intérieure On établit des stratégies pour descendre tous ceux qui voudraient nous voir inférieurs Car plus personne n'a l'esprit judicieux Plus personne n'est vierge, même pas les casiers judiciaires Et j'souris d'abord, quand l'orgueil n'est plus là Quand ça sent l'traître, j'guette par l'il de Judas Avant d'ouvrir la porte Et rien qu'je soupire à force Les porcs, on s'nourrit avec On s'tape des fous rires avec mes potes On s'dit qu'les autres sont pourris à mort Wassup boy ? C'est pour mes dealers, mes killers Qu'écoulent des kil' depuis la GameBoy Font leur trucs boy pour remplir l'bol Errent dans l'coin, herbe dans l'joint Tchin-tchin on trinque à la tienne C'est pour mes tas d'p'tites surs Qui s'comportent ap' comme des chiennes Et puis mes gars qui s'tapent, que des braves Pas d'p'tites frappes ne t'inquiète ap' ils s'cachent C'est pour aç' qu'ils cashent sec Money money C'est pour les encaisseurs d'Assdec' Les pauvres même les Aztèques Les p'tits G-Money Ceux qui manient le Glock Ceux qui s'font soulever à six ou seven o'clock Parce qu'ils dealent en bas des bâtiments Fournissent les boloss d'la ville en tos-ma de qualité tarifé gentiment Ceux qui trafiquent la dope sans avoir d'agréments Ceux qui suivent la recette sans parler d'ingrédients Gravir les échelons, mon négro, j'fais de l'alpinisme Ouais mon négro, nan mon négro, ce n'est pas fini J'compte plus les années d'nouveaux arrivages C'bâtard il va juste faire du Gaumont à la Kamini Activiste, même pas d'ici et rarissime J'me sacrifie, prépare missiles et eux leurs artifices Et t'inquiète pas qu'on sait qu'ça part en couilles Ouais ça rend fou ces ventouses collées aux gars qui triment Idéalement, j'fais du bénef' vite Mif' et allemandes qui m'disent Alors, Ben, tu fais Bercy ? Vite les amours, vire ce sélectif Oui mais alors file une capote, mamie, c'est l'équipe La base du savoir c'est merci J'en vois aux parkas réversibles J'suis juste moi, j'ai pas besoin de ces MCs Y'a juste des vrais gars et une énergie Souhaite-moi Bon' chance, j'suis Bryan Mills Ils veulent m'atteindre, j'suis intouchable comme Bryan Mills, mothefucker J'suis à tes trousses, je te trouve et je te troue, comme Bryan Mills Pète ta bouche si tu touches à la mif' J'ai encore plein d'choses à accomplir J'veux crever vétéran, j'veux pas canner d'nos vices J'te l'apprends si t'as pas compris C'est pas en jouant au Loto qu'on va gagner nos vies J'roule qu'au feu vert, j'franchis pas la ligne blanche J'garde mes distances, j'me conduis bien car j'suis fliqué si j'flanche J'rentre dans une p'tite transe quand j'rentre en cabine Tu finis dans les abîmes car quand la bitch tremble l'alcool au goulot Mes rimes sont profondes comme le sol sous l'eau Dread lock, destroy, négro j'fais l'job, j'fais le boulot Jusqu'à c'qu'ils coulent, qu'ils s'disent Quel enculé, quel culot J'faisais ça bien avant internet Les murs comme public, j'faisais ça en interne, mec Les occasions, c'est pas fini quand t'en rates une Car personne prend la thune sans rature J'veux être torse poil, un air valeureux sur un voilier Mon accueil chaleureux, tu vas pas l'nier Habillé d'manière abstraite, y'a tout eu sur mes poignets On ne voit pas ce jeu mais le panier Ouais, j'dirai toujours que ça ira C'est ces deux notes qui vont faire que avec moi t'iras Même les menottes m'ont appris qu'on pouvait gagner Allier, rentrer l'oseille et pouvoir puff de la sativa Donc en fait c'est d'la magie noire Loin d'un monde moins fake que Paris Match Ouais qu'ça colle bien ensemble Faut Zizou pour qu't'oublies d'douter qu'on n'est pas rien ensemble Frolo, quitte ou double la mise ? Là pour combler la mif Jamais été au Parc Astérix, y'a que Paris J'dis pas qu'on fait la diff' vu que l'son l'prouve Eddie Eddie sur la gueule de l'monde-tout 3000seudi MC t'es chaud ? Viens on s'la donne, le temps d'un freestyle J'te mets à poil, comme si y'avait du GHB dans ton cristal Mon flow attire les p'tites 'tasses, efface les p'tites taches C'est Fougères Dope sur mon étiquetage, toute mon équipe passe De Paris à MTP, on finit game en MVP On shoote à trois points... Switch ! Producteur de CD, ayant des potes décédés J'fréquente rouleurs d'OCB, et arracheurs de CB Sept-Cinq, Sept-Cinq, protège ta mère et ta tête, zinc' J'suis tout droit sorti d'une arène Y'a personne qui m'arrête, surtout pas toutes tes merdes, zinc' Ancien découpeur de lamelles venu pour te la mettre On n'est pas de la même trempe Nan, on n'est pas de la même mif' Surtout pas de la même bande J'suis l'genre de type qui t'met une crampe Ou bien une trempe, en moins d'130 Sur nos armes, on a plus l'cran On a plus d'gants, on a plus l'temps Il est minuit, j'sors d'une garde-à-v', j'fais mes lacets L'OPJ m'a menacé, mais au final m'a relaxé, bitch Ouais mon négro, ouais mon rebeu, ouais mon bab' J'fais kiffer ta famille et tes amis et ton bord J'm'habillais en sorte Arrivé sur Paris, j'vois qu'ils balisent et qu'ils paniquent Vu mes qualités, ils ont validé mon score On est fatigués, on dort pas, toujours dans l'cockpit Mes gars arrachent les code-barres, les meufs s'arrachent mon code PIN Appelle le numéro d'mon code postal quand j'mets l'fire Parfois, j'suis là, j'me poste au calme mais j'rêve d'ailleurs Ouais, j'fais preuve de bon sens et d'constance Paraît qu'j'suis très fort mais depuis l'début j'fais des efforts, nigga2</t>
+          <t>Black gold, black gold Black gold, black gold I know you better than you know yourself You're not a secret or a story to tell I walk on runways just to know you're safe Ain't nothing sacred in this hostile place Don't change, don't change I need you tonight, I need you tonight Don't change, don't change We'll take down satellites Take down satellites You're not gonna be afraid Now it's a little late Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes And we can't answer Put your hand up if you're running scared Choke my engine, it cannot be repaired Our superheroes, well, where are they now? Put your foot down till the petrol runs out Don't change, don't change I need you tonight, I need you tonight Don't change, don't change We'll take down satellites Take down satellites You're not gonna be afraid Now it's a little late Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes Black gold is the colour Did we ever belong? Black gold, black gold Black gold like no other Black gold, black gold Black gold is the colour Black gold, black gold Black gold, black gold</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lune de Miel</t>
+          <t>7h du mat</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Viens on va s'en aller Rouler du matin au soir Et se laisser aller Zaho, Don Choa Viens on va s'en aller J'irai où tu veux memmener Où tu veux m'emmener Ok, on va y aller à la Bonnie et Clyde, clic, bang, vida loca, vie de dingue Ma belle attrape le volant, j'm'occupe de charger les flingues T'es ma vie, t'es ma weed, mes armes et ma Bible Une fois vide, la bouteille de Jack' sert de cible Shoot, chérie suis-moi on va shooter le shérif Puis faire des Photomatons sur les radars du périph' Juste moi et ma caille, c'est GTA style Carnage quand on mitraille, même l'armée n'est pas d'taille Toujours le smile même menotté au comico J'm'inquiète pas, j'sais qu'tu viendras m'chercher en hélico Et même si ça finit mal, style Tignasse et Bérénice Dis-toi il vaut mieux ça plutôt qu'on finisse RMIstes Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet Le programme c'est détente aux Pays-Bas, shopping en Italie On achète des bagnoles en Allemagne, des flingues en ex-Yougoslavie On bouge en jet privé de Colombie à Miami Jet-ski dans les West Indies à la tombée d'la nuit Ils rêvent de nous buter, d'nous mettre en HP ou en cage On s'relaxe dans une grande suite au 25ème étage Cognac Hennessy, Cristal Roederer Fait voler plus de billets que chez les faux-monnayeurs On débarque comme un verre qu'éclate dans ton écran plasma On roule à 220 en Mercedes sous le pont d'l'Alma On en amènera quelques-uns en enfer ou là-haut On partira pas seuls, attends, t'as dit quoi Zaho ? T'as dit quoi Zaho ? Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet C'est la vie qu'on s'est promis Et si demain tout doit finir, on mourra dans le même lit Crimes et délits, à la tombée de la nuit Viens on se fout des ennuis tant qu'on vit ce qu'on s'est promis Où tu vas, je te suis Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet</t>
+          <t>D'minuit à 7h du mat' p'tite ballade, oh malade Tiens ta langue, range ta lame, ne rends pas lâme Mais la salope là, grimpe à l'arbre, hop là Imparable, topez là, fou comme ça, cest rare, hein madame ? Plus insomniaque que joueur hors pair de poker J'reste en décalage et s'agit-il que d'horaire ? Du crépuscule à l'aurore, faits divers à l'honneur Cafard d'os chasse quelque chose à l'odeur 1h du mat' dehors, déjà plus beaucoup d'monde 2h du mat' surtout des flics qui font leur ronde 3h du mat' les zonards cherchent des vagabondes 4h du mat' eh connard, j'ai pas vu ta tronche A 5h du mat', parait qu'tu fais l'mignon A la sortie des boites, parait aussi qu't'as des millions Moi, à 6h du mat', j'entends venir les camions Ceux qui nettoient la rue, et les travailleurs qui s'en vont Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air A 7h, je suis on n'sait où Réveille-toi c'est l'heure, il faut qu'on t'secoue Ou qu'on t'balance un verre d'eau Dédié à ceux qui partent travailler sur une bleue ou un vélo Ma vie, ça a été l'école puis l'boulot A tous les patrons chez qui j'ai bossé vafanculo J'ai porté des cagettes et rempli des palettes Tout en gardant l'espoir de croquer dans la grosse galette J'aime pas la hiérarchie, ni marcher à la baguette Le fric me fait bander à m'en faire péter la braguette J'préfère les claquettes aux chaussures de chantier Chacals, chacalettes, c'est pas d'main la veille qu'on sera rentier Le but, c'est juste de rester entier Et ça sans faire la pute même si y'a pas de sot métier Lutte, bouge, hurle, saute, envie d'vomir Des cernes sous mes yeux rouges, j'ai pas dormi Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air A 7h, les Assedic sont pas encore ouverts Suis-je assez riche pour me laisser faire ? Pour moi, la musique, c'est devenu nécessaire Et pas seulement pour niquer, payer ma facture SFR Ou ma consommation d'herbe et d'shit, c'est par ici là Chacun son biz comme Eric Sermon et Parrish Smith A 7h du mat' T'as besoin d'un joint, d'une latte, d'ton poing, d'une batte C'rap, c'est un truc de défoncé ouais Je men bats les couilles de c'que tu peux penser ouais Tu t'demandes c'que j'deviens, j'essaye d'rester debout Avec le cur sur la main, la main sur les 2 boules Un doigt en l'air contre l'état, s'ils veulent que j'me taise moi Qu'ils m'interdisent comme ce film là Baise-moi ! Laissez-moi foutre mon p'tit bordel Même s'il y'a des bruits bizarres comme dans un p'tit hôtel Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tonight</t>
+          <t>Si je les avais ecoutés</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Black gold, black gold Black gold, black gold I know you better than you know yourself You're not a secret or a story to tell I walk on runways just to know you're safe Ain't nothing sacred in this hostile place Don't change, don't change I need you tonight, I need you tonight Don't change, don't change We'll take down satellites Take down satellites You're not gonna be afraid Now it's a little late Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes And we can't answer Put your hand up if you're running scared Choke my engine, it cannot be repaired Our superheroes, well, where are they now? Put your foot down till the petrol runs out Don't change, don't change I need you tonight, I need you tonight Don't change, don't change We'll take down satellites Take down satellites You're not gonna be afraid Now it's a little late Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes And we don't answer when you're wrong Black gold like no other Did we ever belong? Just take them on and then we're gone Black gold is the colour The dawn never comes Black gold is the colour Did we ever belong? Black gold, black gold Black gold like no other Black gold, black gold Black gold is the colour Black gold, black gold Black gold, black gold</t>
+          <t>Euh, quoi dneuf docteur ? Hey, he-he-hey Qui va menlever le pain dla bouche ? qui ?, chargeur grande cap jpeux lui faire plein ddouches Hey, on sait à combien tu la touches, on la recoupe et on tord ton prix dtouche ouais, ouais Jai reçu un litron de brocolis hey, tu tires une latte tu frôles la pneumonie nan, nan Hey, no link si no money nan, nan, jte hagar ton rrain-te comme une colonie nan, nan, nan Bats les couilles d me faire émanciper hy, ce ne sont pas les bleus qui mènent la danse nan, nan, nan 350 euros pour ma fragrance, devant le proc je pue limmensité Zoubavir, moi je suis trop la cité Dino, même si je mets pas trop de TN hey Jsais quil faut récup et détaill et vi-ser zou, javel et extinct ça c'est pour lADN zou Baramine direct quand jlai senti elle elle, jvais tgrr jarrive comme un sentinelle nan, nan Piou, piou pfff à lopinel, jte laisse à lhôpital Mermoz-Pinel Cest plus lépoque Facebook, Messenger, jmachète deux trios Messenger Mademoiselle jveux savoir ton number, en parachute negro jatterris à Lumber Ils ont attendu la drill pour faire des délits tsia, moi cest VR negro jsuis V.R.A.I Hey, si jai un poto qui mtrahit, jfume mon pote comme YNW Melly Ton père frappe tellement quil lui faut deux pailles, jdrip sa mère negro jme sens comme Depay jdrip sa mère Hey, mort de rire tu nes pas de taille, toi tu nas pas dbail, en plus tes une retaille Demande à akhi jsuis fenwick du warwick, make a reservation for one week Don Papa dix ans dâge je suis on fleek, tu perds tout mon respect si tes un flic Si tes une balance, un traitre cest la même, cque tu mets dans ton naseau cest la mienne tsia Hey, jte ramène un échant de pur tsia, le kil est charclé et jte dis qucest la même tsia On a rarement été au complet, dans la meute il manquait toujours un ptit loup Tu peux aller vérifier tous mes couplets, ça fait plus ddix ans que jdis Libérez Bilou nan, nan Viens voir, viens voir, viens voir, viens voir, tu diras cest Zoubir qui ma fait goûter hey Que jserais devenu si jles avais écouté, moi perso cest Gucci qui ma dégouté hey Rolex au poignet jarrive quand même en retard tsia, jdois faire un régime, je ressemble à Mokhtar Longue vie aux bikers, la grand-mère aux motards, faut bibi les pochtar et pas finir au shtar hey Jattends une be-bom, rouge sous ses talons, jvais devenir un daron, je reviens dans pas long tsia Comme un dimanche je vais glander au salon, jnettoie mes tre-mon et je graisse mes canons hey Je lui baisse le taro que si elle me dit viens piner jlui dis claro que si , hey Jarrive en full DG, elle ma dit cest vachement baroque ici tsia Ces blagueurs jles appelle les SDF, ils changent jamais dhabits, ils nont pas à manger Quand jtaperçois negro jnai aucun réflexe, mon cerveau sait très bien que tes pas un danger De la tête aux pieds, toi tu es falshé, viens pas me serrer la main je vais me fâcher tsia Jai lseum, le rayon spiritueux est bâché, pense pas à mclasher negro jvais tout gâcher grr Bronzerland gravé sur tous les panneaux, Dino cest har mais cest pas jalapeños Jsuis plein doutils negro jsuis pas mécano, tout est noir negro comme Upamecano hey Tsia Nan, nan Nan, nan, nan</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7h du mat</t>
+          <t>Doucement</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D'minuit à 7h du mat' p'tite ballade, oh malade Tiens ta langue, range ta lame, ne rends pas lâme Mais la salope là, grimpe à l'arbre, hop là Imparable, topez là, fou comme ça, cest rare, hein madame ? Plus insomniaque que joueur hors pair de poker J'reste en décalage et s'agit-il que d'horaire ? Du crépuscule à l'aurore, faits divers à l'honneur Cafard d'os chasse quelque chose à l'odeur 1h du mat' dehors, déjà plus beaucoup d'monde 2h du mat' surtout des flics qui font leur ronde 3h du mat' les zonards cherchent des vagabondes 4h du mat' eh connard, j'ai pas vu ta tronche A 5h du mat', parait qu'tu fais l'mignon A la sortie des boites, parait aussi qu't'as des millions Moi, à 6h du mat', j'entends venir les camions Ceux qui nettoient la rue, et les travailleurs qui s'en vont Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air A 7h, je suis on n'sait où Réveille-toi c'est l'heure, il faut qu'on t'secoue Ou qu'on t'balance un verre d'eau Dédié à ceux qui partent travailler sur une bleue ou un vélo Ma vie, ça a été l'école puis l'boulot A tous les patrons chez qui j'ai bossé vafanculo J'ai porté des cagettes et rempli des palettes Tout en gardant l'espoir de croquer dans la grosse galette J'aime pas la hiérarchie, ni marcher à la baguette Le fric me fait bander à m'en faire péter la braguette J'préfère les claquettes aux chaussures de chantier Chacals, chacalettes, c'est pas d'main la veille qu'on sera rentier Le but, c'est juste de rester entier Et ça sans faire la pute même si y'a pas de sot métier Lutte, bouge, hurle, saute, envie d'vomir Des cernes sous mes yeux rouges, j'ai pas dormi Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air A 7h, les Assedic sont pas encore ouverts Suis-je assez riche pour me laisser faire ? Pour moi, la musique, c'est devenu nécessaire Et pas seulement pour niquer, payer ma facture SFR Ou ma consommation d'herbe et d'shit, c'est par ici là Chacun son biz comme Eric Sermon et Parrish Smith A 7h du mat' T'as besoin d'un joint, d'une latte, d'ton poing, d'une batte C'rap, c'est un truc de défoncé ouais Je men bats les couilles de c'que tu peux penser ouais Tu t'demandes c'que j'deviens, j'essaye d'rester debout Avec le cur sur la main, la main sur les 2 boules Un doigt en l'air contre l'état, s'ils veulent que j'me taise moi Qu'ils m'interdisent comme ce film là Baise-moi ! Laissez-moi foutre mon p'tit bordel Même s'il y'a des bruits bizarres comme dans un p'tit hôtel Et, à 7h du mat', sur les nerfs J'roule un joint, j'ouvre une bière A 7h du mat', les yeux bien ouverts J'ai mal aux genoux à force de niquer par terre A 7h du mat', ciel bleu ou couvert Moment d'un bon boulot, comprend vafanculo A 7h du mat' J'crois qu'c'est l'moment d'aller prendre un peu l'air Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Don-Don-Don-Don-Don Cho' ! Un peu d'anarchie dans ta partie Jusqu'à ce que mort s'ensuive ! Hein... Tous te mentent, ça va des infos, aux nymphos Seins faux, gros impôts, bosse en poste, frangin On sort l'engin si ça emmerde le monde C'est pas pour faire le con mais une volonté profonde Chauffe ça sans court-bouillon, ni micro-ondes Nage avec les gros poissons, eau profonde Viens sur le terrain, sors de ton cocon Ce n'est pas ma main qui fait sourire la Joconde Soyez sans crainte, j'arrive trop pacifique Mais j'm'arrête pas quand on me dit Oh ! Pas si vite Instant fatidique, instinct fanatique Plus du vice comme tout le monde Il s'agit de survivre, bon Je suis sur mes gardes alors j'veille Un faux pas ça peut finir l'étiquette à l'orteil Course pour l'oseille, tous poussent pour passer devant Mes raps sont pourris mais j'les vends Défends mon clan et si tu comprends plus bien Seize mesures, c'est comme deux tafs ça m'fait plus rien Il paraît que j'vois pas plus loin que le bout d'mon joint C'est vrai, et j'ai envie de trucs chics et chers Nique ces chèvres, si la fumée de mon pchh pique les lèvres T'es pas obligé d'y goûter, à part si tu veux te rajouter des problèmes Quand j'arrive, ils appellent Allô Houston nous avons un problème Ils ont besoin de limite, nous, on fait sans Plane haut, attention, on descend Qu'est ce que je vais faire avec 313 litres d'essence Vingt grammes de pollen par litre de sang ? Espèce de con, tu fumes trop ! Doucement, doucement Ralentis un peu ton flow ! Doucement, doucement Piano, piano, piano ! Doucement, doucement Du calme mon cheval ! Desperado ! J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucement Profitons tant qu'il est temps donc, tant pis, je tente En restant anti-État, ça va tranquille, et toi ? J'fais pas ça en dilettante, c'est plutôt vendetta L'époque est bouillante, ça va pas te brûler les doigts, papi Ce qu'on fume peut envoyer au tapis, j'incite pas Et c'est pas le club des 5 ou Ocapi N'hésite pas, rentre dans le gros bordel Ma clique va plus vite que tes snowborders Trop de hors-duvre provoquent le haut le cur On snob, euh, hip-hop, roots, reggaes, rockers O-ok, téléphone à ton docteur J'moquais, j'ai faim comme Hannibal Lecter T'es choqué ? Ya partout rien de personnel Sautez comme sur une mine anti-personnelle On hait tant d'choses, envie de brûler Leurs bureaux brûlés ! Leurs euros brûlés ! T'as promis de nous tuer ? Prends des piles longues durées Tous se poussent comme si j'allais envoyer la purée Le feu est allumé, il ne s'éteint pas avec de l'eau J'arrive comme trois shootés au crack avec un chalumeau Tranquille, calme toi ! Doucement, doucement Est-ce que tu sais où tu vas ? Doucement, doucement Han, han, han, han, han... Doucement, doucement J'viens prendre mon oseille et foutre mon bordel x2 J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucement Tout n'est pas que calme, luxe et biftons Y'a aussi came, mac, putes et michetons Flics et voyous, tripes et boyaux Traîtres et types loyaux, galères et tripes royaux Sur ma route, et elle était pas pavée d'or Gagne ta croûte, tandis que les camés dorment, les affamés mordent Les pieds devants tu sors si les choses se compliquent T'as pas compris ? Sors, aujourd'hui le Monde tourne vite Pour des mecs comme nous partant de tchi Pas question de tomber dans des histoires de snif Honorer nos familles reste notre priorité Et nous n'avons pas d'amis dans la haute société Y paraît qu'il y a plus de pédés qu'à Act Up 28 ans je n'ai pas monté de start up Tape tes pas de hard rock, pendant que je rappe par cur Le Monde de demain, quoi qu'il advient, nous appartient Alors je veux maintenant ! Doucement, doucement Avant que ça tourne en bain de sang ! Doucement, doucement Han, han, han, han, han... Doucement, doucement x2 J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucementParoles rédigées et expliquées par la communauté RapGenius France4</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bad Boys de Marseille (Sauvage)</t>
+          <t>Freestyle Skyrock (21/04/2015)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0401 La Ligne Bleue - Blue Points 0601 Edvy Dash - LEVITATE - 0601 Favé - F4 - 0601 Ghost Killer Track - Que de l'amour pt.2 - 0601 Saamou Skuu - Nous Cest La TH, vol. 2 0601 Slim C - Killu Kinf G 2 0801 Lowssa - L 1201 L'Don - Limportant cest pas la chute vol. 1 - 1201 Retro X - Yellowtape - 1301 Aketo - Zone bleue Réédition - 1301 Arlk1 Gaman lo - MAUDIT SAME SHIT 1301 GAULOIS - La Gaule Vol. 1 1301 KLS Le K - ANALOGIE 1301 Mini Rttclan - New Jersey 1301 Regularboy - TOUJOURS LA MÊME 1301 RBK - Lignes De Vécu 1301 Sam - Quelle vie - 1301 Spider Zed - Club de cur - 1301 Vin's - La chambre d'écoute - 1301 Yvnnis - NOVAE 1301 Zeusé - Zéro Degré - 1501 Djado Mado - RDV 1501 LITO - B.EYES 1801 RR - Sang Bleu 2001 93TWENTY - ABYME 2001 111knu - 111knuTape vol.1 2001 Anas - La vie de Many - 2001 Angsty Camboyz Revnge - ETERNELLE - 2001 ASHE 22 - Vingt-deux - 2001 Baby Neelou - Bromance - 2001 Caballro JeanJass - High Fines Herbes La Mixtape - Volume 2 - Saison 4. Parce quon na pas fait de mixtape pour les deux premières saisons. Ok, cest pas très logique, mais on-sen-bat-les-couilles, le projet il tue sa mère ! 2001 Carré d'As - ALPHA SIERRA 2001 Fresh LaDouille - Voltaire - 2001 Gianni - 42 jours avant MRTHN 2001 Johny Smile - CACHE-CASH 2001 Masto - Sonar - 2001 nelick - Supplément Chantilly Version deluxe - 2001 Roswein - FOLLOW MAC TWISP - 2001 Sir Reda - Amer.2 - 2001 Tommy Isaac - CAHM1R 2001 Yassin C2s - Denali - 2001 Zaho - Résilience - 2001 Zkr - Caméléon 2301 23 Megabits - 23MEGASPHERE - 2401 SOMA - hustle mode - 2701 Darealright - Dareal m'a tuer 2701 Denza - Ocean Violet part.1 2701 DIL - Fissure cérébrale - 2701 Dri-i - FLYDRI-I 2701 Elten - AUTARCIE - 2701 Jeune Morty - Ghetto Youth - 2701 Kekra - Stratos - 2701 Mano Leyra - C'EST PAS DU TAYC - 2701 Planaway - PREMIERE RENCONTRE 2701 Refré Couplain - NO FACE - 2701 Sadek - Changement de propriétaire - 2701 Seizur - Pluie d'Automne 2701 Venom Cz - Burn Alive 2701 Vves - Message groupé - 2701 ULQUI - NOTÍCIA - 2801 HOUDI - GRHÜNT 77 - 2901 Nobodylikesbirdie - DANS DE BEAUX DRAPS Février 0102 Cogofrégé - Sire Denathrius - 0102 Henri Bleu - armor - 0202 Costa - La ville derrière nos torches - 0302 Alkpote - LSDC - 0302 Chanje - BLACKBIRD 0302 Char - Comme si de rien n'était 0302 Dhab King - T.O.R. - 0302 F430 - Street Quality II - 0302 Georgio - Années Sauvages 0302 Kodes - NO CAP, Vol. 1 - 0302 Kofs - Matrixé - 0302 Lowtso - BZZZZZZ - 0302 Lujipeka - Montagnes Russes Menu XL - 0302 Sadandsolo - Subsahara 0302 WarEnd - Mutation Hg - 0302 YG Pablo - Kiss And Tell 0702 Misère Record - Deadline - 0902 Dirtyiceboyz - ONE OF A KIND 0902 Kaeles - VIBRATIONS 1002 Blasko - Carré Noir - 1002 Deemax - CAP CAPUCHE - 1002 DTF - KARMA - 1002 Myth Syzer - POISON 1002 Niro - Taulier 1002 Squadra - Mourir 100 regrets - 1002 Upsilon - Maison Hantée - 1102 Realo - EURO STEP - 1202 Laws Babyface - TROIS 1502 M.A.M - Starter Pack Side A 1502 Pbl - L'HEURE BLEUE 1602 Blue Sky Publishing - COOTB vol.2 - 1602 Luni - CAMELLIA 1602 ShuriGuzman - D-Boyy World 1702 2zer - Zerzervol2 - 1702 404Billy - BLKKKK VAN GOGH 2 1702 8Ruki BinksBeatz - INT8TION 1702 Achim - Aquarium Vol.1 - 1702 AKISSI - IMPURE. 1702 Beceith - Quand le ciel tombera 1702 Cacahouète - Les sales gueules - 1702 Captaine Roshi - Larosh 1er 1702 Criminls - WW3 - 1702 Dajak - LES LARMES DU SOLEIL 1702 DJ Weedim - Boulangerie française, Vol. 5 - 1702 FouKi - Zayon - 1702 Genezio - VIBESTARS SAISON 1 - 1702 gvs - ST4RS - 1702 Hamza - Sincèrement - 1702 Jey Brownie - Faits divers - 1702 Nunca - VISAG3 1702 TK - Avant la fête Bonus 1702 Trixxo - RotterK 2002 Bavaz - V.O. Violence Occidentale - 2002 Yuri Online mh - MEGALOVER 2202 Grödash - Grödash présente Flymen Music - 2302 Asinine - XIII - 2402 bupropion. - haven 2402 Cenza - Z.0 2402 Djavann - ATTENDS-MOI LÀ-HAUT 2402 DJ MS Mr. Dillinger - Jeune OG 2402 Hös Copperfield - LUEUR - 2402 JEUNE OBSERVATEUR - E.VOLUTION - 2402 Karmen - 100 DIAMANTS 2402 Klem Schen - Clément 2402 Kozi - VDA 2402 KR Malsain - Korozif Vol.1 - 2402 Landy - BRAVE - 2402 La F - GENJUTSU 2402 Malty2BZ - Enfant de Malheur 2402 Mapess - NO FACE - 2402 Maxi Jay - BADMAN - 2402 Peet - Todo Bien - 2402 Pirate - KDO 2 2402 Raous gang - Mauvais Chemin - 2402 Sultan - Iwazaru - 2402 Tengo John - Monstrueux EP - 2402 The Free - Filaments Bleus 2402 Waïv - VOUS COMPRENDREZ PLUS TARD - 2402 Ziak - Chrome - 2802 ihatemed - Genesis Mars - 0103 MC Lokass - Partage Vol. 2 0203 BimBim - La bande à Bimbim 1 0203 Cesar Niso - PRÉMICES - 0203 Hyacinthe - c'était pas le bruit du vent c'était juste mon souffle - 0203 JWK - FUCK ÇA - 0303 Azur - Horizon Deluxe Réédition 0303 Ben.C - SILVER BOY 0303 Bené - Rosa Nera 0303 C4 Family - CARTIER-BRESSON - 0303 Dandyguel - Chapitre 1 lhistoire continue - 0303 Deelay - 111e Saison 0303 Djadja Dinaz - ALPHA 0303 DJ Hamida - À la bien Winter edition - 0303 Double Zulu Just Music Beats - HUSTLEMANIA 0303 Drismer PCN - Sang 9 Volume 2 - 0303 Empty7 - Averse Nuit - 0303 Foleymingo - Les pensées d'un jeune casanier - 0303 HOUDI - LA FOLIE DES GRANDEURS 0303 JEUNESAINT - RIDEORDIE - 0303 Jwles Bob Marlich - Histoire Vraie - 0303 La Plaie - Sans Pression - 0303 Lyre - IRIS - 0303 M le Maudit - M.A.C.R. 0303 Nessbeal - Lumières Nocturnes - 0303 NOMATTER - Paradise Bay - 0303 Rvhim - Galb 0303 Softo - Mirage 0303 TripleGo - GIBRALTAR - 0303 web7 - world first 0403 Aero - Nouvelle ère - 0803 GEAVN - L'AMOUR SUR LES CENDRES 1003 GO GO GO - L'ÉPOPÉE 1003 2 Mètres - 2X46 - 1003 A2H - Une rose et une lame II 1003 Bilk - J'perds pas le nord 1003 Bné - Zone 4 1003 Compilation Bendo - Bendo X, Pt. 3 1003 J2LASTEU - J2 CORP - 1003 J9ueve - LE BIJOU LE PLUS BRILLANT - 1003 Keroué - CANDELA 1003 L'As - Saison 2 - 1003 Lorenzo - Coco Todiefor Remix - 1003 mademoiselle lou - Précieux - 1003 Maes - OMERTA - 1003 Novy - Nuketown 1003 Oumar - TRAUMA Saison 3 - 1003 Primero - Fragments, Pt. 4 - 1003 Princesse - Skyclub 1003 Ritzo - Ailleurs - 1003 Sadek - Changement de propriétaire version physique 1003 SAF - WINTERLOVE 1003 Sciences Peura - L'atelier - 1003 TIF - 1.6 - 1003 Werenoi - Carré - 1103 404Billy - BLKKKK VAN GOGH version vinyle 1303 13Mini - Exutoire - 1503 HVDDOCK Benjay - GLOW 1503 Janis - MULTIVERS 1503 Rapi Sati - Rapi Sati School - 1503 Toam - Plus Réel - 1603 Heskis - Plot Twist - 1603 Theodora Jeez Suave - Lili Aux Paradis Artificiels - 1703 Absolem - Balle d'argent - 1703 Achim - STRATUS JOYEUX 1703 Bilton - B.I.L - 1703 CAPUH - LOST VALLEY 1703 Cshmr - Twin Flame 1703 Decimo - Symphonia Vol. 1 1703 Djadja Dinaz - ALPHA part. 2 - 1703 Django - Logos 1703 Gianni - MRTHN 1703 H.LA DROGUE - Drogue - 1703 Leonis - De l'autre côté - 1703 LinLin - The Espers - 1703 Lost - Pont Champlain 1703 MV - Wavy 1703 Nakk Mendosa - Artefacts Vol. 6 1703 Noodels - Love Story 1703 Nubi - Artefacts Vol. 5 - 1703 PHLP - C'EST UN FAIT - 1703 Prinzly - PASSAGER 8 1703 Rocca - CIMARRON 1703 Rvzmo - 100 moi - 1703 Slimka Mairo - QUI A VOLÉ LE SOLEIL ? 1703 Thaubi - STRAYDOG.3 1703 Tisco - Narsheshe 3.0 1703 Tissmey - Noir blanc Volume 1 - 1703 Ucyll Ryo - la peau des yeux - 1703 winnterzuko - WINNTERMANIA 1703 Yams - Personally - 1703 Zola - DIAMANT DU BLED - 1803 Max D. Carter - Singulièrement Vôtre - 2003 JuL - Album gratuit, Vol. 7 - 2003 Loto - ALL FAX LIL NIGGA VOL1 2103 88Kvly - Sirius B 2103 Kamas Skuh - La Paye - 2103 Lucio Bukowski - ASADACHI TAPE Vol. 3 - 2203 YEND - Yekrik - 2303 23wa - RORSCHACH - 2303 Jolagreen23 - 23 2303 Ockney Krimophonik - LAZARE - 2403 34murphy - première traque - 2403 6osy - Kiss, Marry Kill Vol. 1 - 2403 BEN plg - Jrêve mieux quavant - 2403 Carbonne - Sous l'averse - 2403 DMS - VAGALAME 2403 Elams - Faits divers - 2403 Falcko - Black Code, Tome 3 2403 Lapostroz - BLEU - 2403 Resell - ZÉRO51 - 2403 Rozzy - VANTANOIR 1 - 2403 Varnish La Piscine - THIS LAKE IS SUCCESSFUL 2403 WarEnd - Mercure - 2403 YUNG POOR ALO - JEUNE PAUVRE 3 2403 Zaky - S.P.T. - 2403 Zéphir - Zé - 2803 akkai - LUM!NOL - 2803 arøne - conséquences - 2803 WISSKELESH - DU BINKS AU WISSEX WISSBINKS - 2903 Luther - AMI 3003 San-Nom - Silence Assourdissant - 3103 Akan - MAPP - 3103 Bekar - Plus fort que l'orage - 3103 Bramsito - Enchanté 3103 Dany Dan - Spécial Dany Dan Vol. 4 - 3103 Django - Eros 3103 Gizo Evoracci - Playeurisme Grâce 3103 Grödash - Monnaie Time 2 3103 Guizmo - Réédition 10 Ans 3103 Josué - Confessions 3103 LaF - CHROME 3103 La Place - Des perles et des cendres 3103 L'Hexaler - Lune Croissante - 3103 LUMJR - LOTERIE - 3103 Mara - LOVÉLAND 3103 Yasmine Ase - BLACKSWAN Avril 0104 James Deano - Existentiel Vol.1 - 0604 Närka - SWITCH - 0704 528ron Lovarran - DESDB 2 0704 Ashéo - Double Visage - 0704 Benjamin Epps - La grande désillusion - 0704 Cellulaire Sno3 - LE VRAI, L'INVERSE 0704 Donguti - BREAK UP SEASON 0704 Driver Le A - CONGÉS PAYÉS - 0704 Gatchete - AMR - 0704 Hicham - POLARITÉ 2 0704 JNR - Junior 0704 Kim - Evidence - 0704 Lord Esperanza - Phoenix 0704 Mister.C - Bantu Tape - 0704 Skia - Comme si j'avais - 0704 Sokuu - kenöpsia - 0704 Vadek - PACK - 0904 T.I.S - Vieux Indiens dans un monde moderne 1004 Recklessboise - H6 - 1304 TAKU - GHOST TRAIN - 1404 18snor - repulsa - 1404 47Ter - Au bon endroit - 1404 Bolémvn - Kaleidoscope - 1404 Charles BDL - Kaïros - 1404 Damlif - MAISON À L'AIDE 1404 Flynt - MAUVAIS POUR LE BUSINESS 1404 iTo - Biutiful ! - 1404 Jwles V900 - 25 sur 8 - 1404 Kahnji HIBA - quasi triste 1404 Kayna Samet - Altaïr, Pt. 2 - 1404 Lucio Bukowski - ET LE PRESTIDIGITATEUR IVRE MANQUA SON TOUR - 1404 Meryl - Ozoror - 1404 PLK - 2069' - 1404 Sabuu - PARTIR SUFFIRA 1404 Tenn Jeune Producer - SPIRAL 1404 Theodore - CHIC CHOC LOYENGE - 1404 Yome - ATMOSPHERIA - 1404 Yuz Boy - SAJÉ 1404 Zidi - MAUVAIS SENTIMENTS - 1904 Bluume - BLU PART 3 Muun Flowerz - 1904 Kay The Prodigy Mezzo Millo - Eastern Wind Deluxe - 1904 Urde - Faire des vagues 2104 2TH - Union - 2104 Bambino47 - Drillmatic 2 2104 Bunny - Quoi d9 - 2104 Dasuun - MADARA 2104 Diem Elioi - DragonTree 2104 Geeeko - Peine 333 - 2104 GRËJ - TAKE AWAY EP - 2104 Indydono - KANDIES - 2104 L'Don - FRANCONE MAFIA 2104 Le Risque - CPPR - 2104 Lpee - 33 - 2104 NeS - ÇA VA ALLER 2104 Rêves - Le bleu a des yeux - 2104 Rozzy - VANTANOIR 2 2104 Shaim - ZROGRAVITY 2104 Skefre - SKRRT Vol.1 - 2104 Tsew The Kid - Deuxième chance 2104 Wood - Dans mon Wood - 2104 Yonidas - Tréfonds - 2204 wasting shit - G.L.O.CC - 2304 Beeby - UN GRAND CUR DANS UN MONDE DE FILS DE PUTE - 2604 Green Montana - ROUGE NÉON 2704 Costa - Derrière la ville - 2704 Gris Anthracite - Anémone - 2804 Arsaphe - MURBERRY STREET - 2804 Atro Boi - L'inconnue d'en face - 2804 Dau - 2CB 2804 Elh Kmer - Vivaldi - 2804 Empty7 - BLV NUIT - 2804 Fuzati Le Motel - Baltimore - 2804 GR OMEGA - ResetStart 2804 Kaba Hyas - Music 4 Tesla 2804 Kima - Baby project - 2804 Leo SVR - Manita 2804 Naps - En temps réel 2804 RAS - Retour Aux Sources 2804 Selby - Black - 2804 Sheldon - Îlot 2804 Shtar Academy - Shtar Academy En permission - 2804 Stony Stone HOUDI - AVANT LES YEUX - 2804 X-Sphère - Après lHiver Mai 0205 Reta - Trash Life - 0305 ENOCK - DERNIÈRE PLUIE - 0305 STLR - 12 grammes 0505 Bolémvn - 5.0.5 0505 HD La Relève - Dieu, mes Frères et le Fer 0505 Rémy - Camus 0505 Sadandsolo - Oasis 0505 Slkrack - Crackito, vol. 1 - 0505 Yuri Online, Bricksy 3G - HUMAN LABORATORY 0905 Suspect 95 - Société Suspecte 1005 Di-Meh - Pixel 1005 Tovaritch - Baba Yaga - 1205 323madon - parental advisory - 1205 Baek - Minuit - 1205 Celestino - UNTITLED TAPE 2 - 1205 Furax Barbarossa - Libérable 1205 Hatik - niyya - 1205 James Loup - FULL OPTION - 1205 Jeune Observateur - PORISMA - 1205 Jok'Air - Melvin de Paris - 1205 L2B - Plus comme avant - 1205 LETS GO - LETS GO 1205 Paco - Contrôle Technique - 1205 Soleil Noir - Avant l'aube - 1205 Vacra - Galatée - 1205 Vadek - DU TEMPS - 1205 Zed - SOIXVNT3 1305 Jeune Lion - HIGHLY SPIRITUAL - 1605 Vink - Lordre et le Chaos - 1705 Sameer Ahmad - Tracy 168 - 1705 T.I.S Kaer MKS - Robots - 1805 Antoniucci - ENVIRONNEMENTS HOSTILES - 1905 Django - Troisième Terme 1905 Fresh - À labri Réédition 1905 GAZY MP - Masiaka 1905 Houssbad - GATE 67 - 1905 Kenyon - DATA - 1905 La F - 691 1905 La Gale - On vous rappellera 1905 L'uZine - La 26ème lettre 1905 Leone - ÉCLIPSE - 1905 Luv Resval - Mustafar 1905 Lybro - Oozaru - 1905 Mairo - omar chappier - 1905 Navve Tyngaa - AFTERMAPP 1905 Ol Zico - Tout baigne - 1905 Reynz - R - 1905 Tuerie - Papillon Monarque - 2305 Nosnow - 478 Hotline 2405 Blue Sky Publishing - COOTB vol.3 - 2405 Hakai - HOLLOW 2405 La Pépite - Apollo Mission Evangelion 2605 Def Prod - Def Prod Vol. 1 2605 Elams - Mwanamboka 2605 Elh Kmer - Vivaldi Vatna 2605 Fabio - L'OMBRE ET LA NUIT - 2605 Gemen Tenma - DRAGA - 2605 Gen - GENNIFER - 2605 GRËJ - RESTAURANT - 2605 H JeuneCrack - MATIÈRE PREMIÈRE - 2605 i300 - 3HUNNA 2605 Jwles - Blablazin 2605 MIG - 21 - 2605 NewStain - Du Rêve? - 2605 R.E.D.K. - N'écoutez pas cette merde - 2605 Rethno - SEULFIER - 2605 Riski - Paris vaut bien une messe - 2605 Roméo Elvis - Les galeries - 2605 Souldia - Non conventionnel - 2605 thaHomey - RARISSIME - 2605 USKY - RETINA - 3005 Ptite Soeur - REDSUN 3105 Fadah - DELUGE Juin - 0206 313 - RVMA II 0206 3arbi Amine Farsi - Interlope 0206 Aketo - Une petite vie sans histoires 0206 Allebou - BUNRAKU 0206 Couli B - Ambiance Joviale 0206 Dehmo - FLEGMATIQUE 0206 Don Milli - Le prix d'une vie 0206 JMK - SOUTH BABY 0206 khazy - MOURIR PEUT ATTENDRE 0206 La Famax - RÉTRO - 0206 Malo - iD - 0206 Moji x Sboy - AUTOMNE 0206 Raplume - TALENTS VOL.1 0206 Relo - Dieu Merci 0206 Rouge Carmin - Radio Futurista Vol. 3 - 0206 Rozzy - VANTANOIR 3 - 0206 Sheng - DI YU 0206 SLK - La Centrale - 0206 T.I.S Ouayiie - Lépidoptères 0206 Vin's - Le masque vide 0706 Famille Nombreuse - Ziamois - 0806 Lester - PIONEER - 0906 34murphy - fata morgana 0906 Achim - ALMA - 0906 Gambi - N'A STRAGIA 0906 Ghetto Phénomène - Longue Vie 0906 I.K - Rêves de rue 2.0 0906 Jackmaboy - MENACE SAISON I - 0906 JuL - C'est quand qu'il s'éteint ? - 0906 Lazer MMZ - BUSHIDO 0906 Lucci x Jeune Gueule - REFLEXION - 0906 Mussy - JIG 2.2 0906 Raplume - TALENTS VOL.2 0906 Royce - Avant-gardiste 0906 Ol' Kainry - Noble art 0906 Sto - Time Out Vol. 2 - 0906 Surprise - L'INVERSE 0906 Swift Guad - Les meilleurs feats du Swifton, Part.1 - 0906 TripleGo - Quand tu partiras 1406 Bakari - Arcadia - 1406 Bluume Triple Nine - OUT OF THE MUDD - 1406 Cyrious - Nés pour... - 1506 AAMO - LAKEHOUSE SEASON 1506 Bimbim - La bande 2 Bimbim 1606 Benab - Drapeau Blanc 1606 Black Jack - Don Black 1606 Cashmire - Mes rêves m'épuisent 1606 Deezer - Deezer Originals La Relève 4 1606 Donguti - Polaroïd Memories 1606 Dwen - Crack 1606 Ice Crimi Just Music Beats - Big Pap's El Papso 1606 Kodes - NO CAP, Vol. 1 Deluxe 1606 La Rumeur - Comment rester propre ? - 1606 Le Juiice - Trap Mama 2 - 1606 Linton - Black Bumble 1606 Nahir - Intégral 2 POV - 1606 Ratu - Ratusserie 1606 Sadek - Ouvert tout l'été - 1606 SOPA - PEIVNE - 1606 Wallace Cleaver - baiser 1606 Yanso - BX 212 - 1906 Henri Bleu - Jette moi le sort 1906 Implaccable - So Vladdy Shit - 2106 Eric Eract - LENDEMAIN D'UN MARDI GRAS - 2106 Fenka - Doll Lover 2106 STLR - Fer 2206 Araujo - Une larme de 2306 Cheu-B - BIG 2306 Chich - MANNSCHAFT 2306 Decimo - Symphonia Vol. 2 - 2306 Double Zulu Pablaw - KAIJU 2 2306 Elh Kmer - Vivaldi Jokül - 2306 Esso Luxueux - Liaisons Dangereuses 2306 Greenfinch - GREENY Lo-Fi 2306 Hash24 Sobek - Antartica 2306 Insa - Gris Béton - 2306 Kay The Prodigy - Triple Kay Supremacy 2306 Unfamouslouie - FREE UNFAMOUS 2306 Le 3ème il - Renaissance Réédition - 2306 Lpee - Intermède - 2306 Luidji - Saison 00 - 2306 PHLP - Magnifique - 2306 Rafal - Jukai Tome I - 2306 Selug - Le jour se lève 2306 Seyté - En chemin 2306 Shinzo - poétiquement votre 2306 So La Zone - La rue m'a eu - 2306 YG Pablo Sofiane Pamart - DIAMOND TEARS - 2306 Zéphir - Interlude ZÉ 2306 Zokush - SÛR ET CERTAIN 3006 Abah - Lumière 3006 AM La Scampia - Triste fête... ncor - 3006 Ammar - L'ARGENT AVANT LA FAME 3006 Ben.C - BLOODY SUMMER 3006 Boub'z - BDLB 3006 Butter Bullets - JAZZ 3006 Capou Jeune Gueule - Uno Nueve - 3006 Deadi - Autrement 3006 Deelee S - 3 FOIS 3006 Ether - SIMULCAST - 3006 Gapman - Prochaine Chèvre - 3006 Heuss L'enfoiré - Chef D'orchestre 3006 Jeri - R1NGTONE 3006 LaCraps Dezef - ASSOCIÉS 3006 L'Don - L'Don Compagnie vol.1 Starring Monsieur Dioni 3006 Leonis - De l'autre côté Réédition - 3006 Lotus - SOURIR - 3006 luXe Timeless Bessy Bess - BUSINESS MOVES - 3006 Melan - La tr3ntaine Partie 1 - 3006 Magnar - BLEU LAGON - 3006 Moken - PHASE 1 - RACINES 3006 Moubarak - Dans le vrai - 3006 Ninho - NI - 3006 OSO - c pas d'la pop! 3006 rad cartier - VISION NOCTURNE - 3006 robdbloc - Caméo - 3006 Rowjay - LA VIE RAPIDE EARLY ACCESS - 3006 SNSET - 22 - 3006 Zeu - WATERGATE Juillet - 0107 Yuz Boy - AVEC SINCÉRITÉ ET LE COEUR LÉGER. - 0507 Caballero JeanJass - High Fines Herbes - Édition 420 - 0507 Empty7 - Nessun dorma - 0507 Jelyh - 222 - 0507 Many Santana - PHANTOM - 0607 Costa - Là, derrière - 0607 Theodora - Lili Aux Paradis Artificiels Tome 2 0707 BRK - Top Boy, Vol. 2 - 0707 Coelho - LE SOLEIL NE S'ÉTEINT JAMAIS 0707 Dau - DENNIS - 0707 Deen Burbigo - OG San II 0707 Fresh LaDouille - Voltaire Deluxe - 0707 Gemen - VARA - 0707 HOUDI - SUN7 0707 Le Croc - BLOOM 0707 Lim Zeler - Nik ma vie 0707 Lrk - Hoshi 0707 Maxi Jay - BADGYAL - 0707 Ninho - NI Extension - 0707 Norsacce Berlusconi Dinos - Fallout Ushuaïa - 0707 Pirate - KDO 3 - 0707 Prototype - FAREWELL 0707 SAF - SUMMERLOVE - 0707 Tsukii Lyre - TL 0707 Youpi2000 - L'Amour me suffira toujours - 1007 ANTON - Même les méchants rêvent damour 1207 Lapostroz - GALLICE - 1307 baby hayabusa - Deadly Poison Sting 1307 Cesar Niso - ELMER - 1407 Ateyaba - La vie en Violet 1407 Bedjik - MULTIVERSE X1 - 1407 Bob Marlich - Gro-tex 1407 Gizo Evoracci - Superfly - 1407 Inflow - Hélios 1407 ISS - Libre 2.0 1407 Jackmaboy - MENACE SAISON II - 1907 Realo Tony Seng - BASSLINE 2007 asmarr311, Planaway meto - vraiment 2107 Artistes divers - Les Déguns 2 BO 2107 Elh Kmer - Vivaldi Vík 2107 Famille Nombreuse - Ziamois Deluxe - 2107 Flynt Don Choa - FLYNT DON CHOA 2107 Gambino La MG - Après Gambinerie - 2107 J9ueve - WDTA 2107 Karmen - MOTEL STUDIO 2107 Keeqaid - ANTICIPE 2107 Lybro - swimmingpool aqua 2107 Malty2BZ - 097 - 2107 NKP - AIGRI 2107 Nunca - Aléa 2107 Yassin - V3.5 2307 Adæb - Alphablanca - 2707 BabySolo33 - Radio ummer Hits - 2807 404Billy - Mr. AAA - 2807 Cellulaire - CMV - 2807 H.LA DROGUE - En attendant Drogue 2 - 2807 HVDDOCK Benjay - MIRAGE - 2807 Josué - MaisOùEstJosué 2807 Le Lij - Juste un Enfant du Queens II 2807 Momsii - LGT 2807 Oumar - MALCOLM X AVEC UN PARE-BALLES - 2807 Saiba - 9STA - 2907 ouley - FEVER .FM Août - 0208 liesaa - liesaa sors nous ce miel ! 0308 PAPI TeddyBear, GAL FFO RION - 3TROIS 0408 Ghetto One - Ghetto One - 0408 GVS - The Blue Fade 0408 Lascaar - Dis-leur - 0408 Lil Zamm - K!LL THËM ALL - 0408 Zoomy Vilhelm - GATE - 1108 Achim - icare. - 1108 Bob Marlich - Boutique de souvenirs 1108 Mola - Omar 1108 Pins Dimeh - Nindo III - Réédition - 1608 Inflow - Hélios - réédition 1608 Ouxma - Earth is hell 1808 Furlax - NEBULA - 1808 Jayel - Puzzle première pièce 1808 Kaki Santana - Back to Back - 1808 KronoMuzik - FREE KRONO - 1808 L'Don - LDon Compagnie vol.2 Starring PAPI TeddyBear GAL - 1808 Nosnow - Ipanema 1808 Sadek - Toujours ouvert tout l'été - 1808 SOPA - YEUZ BLEUS - 1808 Tyngaa - SUMMER MEMORIES 2 2208 Ludovico - Lehen Lorpena - 2408 Gris Anthracite - Drosera - 2508 DMS - NO PASSION - 2508 Navve - ESSKO - 3008 DOC OVG - Pourcentage vol. 1 - 3008 Jolagreen23 Kosei - 888823 - 3108 Tedax Max Just Music Beats - Palm Brick Septembre - 0109 Cellulaire - DÉSOLÉ D'ÊTRE 0109 Earvin - 2024 - 0109 Krisy - euphorie - 0109 Lester - wizard confirmé - 0109 Livaï Cosmo - on sen sort toujours pas - 0109 Max D. Carter - Vers La Beauté 0109 Nixon - Wall East 0109 Smeels - UCKME - 0109 TH - SI - 0209 wasting shit abel31 - mercuriales 0409 Mini RTTCLAN - Mini l'ingé - 0709 N3MS - EVERYDAY - 0809 404Billy - BLKKKK VAN GOGH 3 0809 Golgoth - JOUR DE PLUIE - 0809 KIK - ADIEU 0809 Leck - Mode Nuit 0809 Lil Zamm - FRÖM HESS TÖ EUROPE - 0809 Slayeur Slace - PROJET SANG BOUILLANT - 0809 Ulqui - ETNA - 1009 Nemavo - PostMortem - 1109 Freeze Corleone - ADC - 1309 sean - Se laver de ses péchés - 1409 Jeune LC - FIN DE JEU - 1509 47Ter - Au bon endroit Deluxe - 1509 Ammar - MA VIE AVANT LA TIENNE - 1509 Darlean - DEAD FILES 1509 Glauque - Les gens passent, le temps reste - 1509 LOTO - Detroit 2 Paris - 1509 Mandyspie - La Vie en Rose Vision 1509 Nyda - Acte II Le loup dans la bergerie 1509 Skefre - SKRRT Vol.2 - 1509 Théo Juice - Passionnément 1509 The Strangers - The Strangers 1809 Ry's - ARABIC DIAL - 1909 Primero - Fragments 2009 ihatemed - NMS 2109 BXII - Que la salade - 2209 A2H - Une rose et une lame, FIN. - 2209 babyxi - HIT OR MISS - 2209 Disiz - L'Amour... 2209 Hornet La Frappe - Avant Cités d'or 2209 J2LASTEU - RSF, pt. 1 - 2209 Mairo JeanJass - Déjeuner en paix 2209 Rookie - AMPLITUDE THERMIQUE - 2209 TH - SIGN - 2209 T.I.S Öster - TOY Terror Of the Year - 2209 Werenoi - Telegram 2 - 2609 Moken - PHASE 3 - EFFET TUNNEL 2609 TIPI MOBB - FCQTAA VOL1 - 2709 Empty7 - Ora pro nobis - 2709 H JeuneCrack Hologram Lo' - La pieuvre 2909 Banlieue Ouest Mafia - Banlieue Ouest Mafia 2809 Bricksy 3g - it looks fun - 2809 OgLounis - OGLOUNIS VS LES DOUTES 2909 DIEGO - Entre ciel et terre 2909 Genezio - VIBESTARS SAISON 2 - 2909 HK La Paille - NOCTAMBULE - 2909 Ikaz Boi - BRUT4L - 2909 Irko AMNE - DANGER RAPPROCHÉ - 2909 Jayel - Puzzle deuxième pièce 2909 Klem Schen - Temps davant - 2909 KT Gorique - DIASPORA GANG - 2909 Luni - AHBON MIXTAPE 2909 Mac Seamus - HUMAIN - 2909 MEL - Même pas mal - 2909 Niaks - Mandat de Dépôt - 2909 samayusi - FRACTALE - 2909 Tengo John - Métamorphoz 2909 Venom Cz - Crime Master 2909 Zequin - RESCAPÉ DES RUES RR 700FS 2909 Zesau - RC Octobre - 0410 Jwles Mad Rey - Le Zin dans la maison - 0410 Dj Per-k Moïse The Dude - Deep - 0510 AnNie .Adaa - MENTALITY RECOVERY - 0610 22Carbone - Entropie - 0610 34murphy Sobek - 9m 0610 Cesar Niso - LA FISSURE NSLW - 0610 Cyrious - Briller - 0610 Georgio - Les Alizés - 0610 Kaneki - 4REAL - 0610 KIK - ADIEU Version Feats - 0610 Krisy - euphoria 0610 Rosaliedu38 - RELOAD - 0610 Shay - Commando - 0610 Vicky R - SYSTM - 1110 Akhenaton Veust - Monopolium - 1110 Ucyll Ryo - NUKEM 1310 Aelpéacha - XYLOSTOMIASE 1310 Artistes divers - Chroniques de Mars 3 - 1310 Beendo Z - De la fontaine 1310 Black M - La légende Black - 1310 Cellulaire - SILENCE SOUS LAVERSE 1310 Cinco - 0TA BENGV 1310 E17 - E17 - 1310 Favé - IL LE FALLAIT - 1310 GLK - VENI 1310 Heavy - POLYGONES 1310 Keuchei - Cest Le Gang 1310 KT Gorique - AKISSI - 1310 L'Don - LDon Compagnie vol.3 Starring Râmiro - 1310 Lotus - Moneymachine, Vol. 2 - 1310 Lyre - merci, j'sais m'perdre - 1310 Mano Leyra - VOVÓ 1310 NDO Runway - Personne Ne Dormira Dans Le Hood Ce Soir 1310 Swift Guad Willy Bank - Artefact 1310 VVES - Implication - 1310 Yamê - ELOWI 1310 Ydane - Kanda 3D Blade Bouffon - 1310 YUNG POOR ALO PUSH GIO - CHAT NOIR 1710 Virgile - NUAGERIES - 1810 Leo SVR - SVR EFFECT - 1910 Bluume Triple Nine - RARI458 - 1910 N3MS - SPARRING 1910 TheYoungGolfeur - Sacrilèges - 2010 808NOCHE - STELLA - 2010 ADVM - .s'oublier encore. - 2010 arøne - toutes mes larmes - 2010 Gris Anthracite - Valériane - 2010 Ichon - KASSESSA - 2010 Inspire - Hier je meurs - 2010 Leto - TRAPTAR 3 2010 L'Hexaler - Croissant de lune 2010 Mac Kregor Kazkami - La guerre des nerfs Réédition 2010 Mehdi YZ - Troisième il 2010 Microbe - Lever de rideau - 2010 OSO - osowhereRu? 2010 Paco - Du gris au bleu 2010 SIMONY - ORIGINES Euphoria 2010 Softo - Instinct - 2010 TH - SIGNAL - 2010 web7 - wizard child - 2210 Laws Babyface - SUNFM - 2510 Lovarran UnfamousLouie - Ils Me Manquent Mes Rêves 2610 Oumar - MALCOLM X AVEC UN PARE-BALLES Vol.2 2710 Absolem - Balle d'argent Réédition 2710 BÉNI BASS DJ - L'homme de l'ombre 2710 Ici cest la street - Ici cest la street 2710 ISK - LDLG L'art de la guerre - 2710 Jewel Usain - Où les garçons grandissent 2710 Kemmler - 37 Folie-Méricourt - 2710 Livaï Cosmo - un long fleuve bien chiant 2710 Luzi Dar - GrandBazaar 01 2710 Milanezie kofi bæ - La Nuit Porte Conseil - 2710 Sensey - Hokage - 2710 Sokuu - tatlm 2710 Zaky - REVLUTION 2710 Zbig - Docteur Zbig - 2810 Damso - QALF LIVE - 2810 Josman - J.000. - 2910 Cielbleu - Par les yeux 3110 Harley - Loading 3110 Karl Drogo - La naissance de drogo - 3110 Kosei - AI - 3110 Magnim - Refem - 3110 MSyn - NWR Novembre 0111 Dafliky - Pas fait pour eux - 0211 abel31 - 4h16 - 0211 Fokca - Qui Est Baby Fokca ? 0311 AliasJazz - Échappée Belle 0311 Flaco Mundo - DRAPETOMANIA - 0311 GRËJ - ÉTOILES MICHELIN - 0311 Klem Schen - Archives - 0311 L'Don - L'Don Compagnie vol.4 Starring Famille Nombreuse - 0311 Neop0p whatever51 - EIGENGRAU - 0311 okis - Rêve dun rouilleur 0311 Rsko - Memory 0311 Sakage - IRL 0311 Slkrack - Crackito, vol. 2 - 0311 TIF - 1.6 LIVE SESSION 0311 Viez - Nemrock All Star - 0411 Sa2d - NEXT GEN - 0611 Zekhso - FULGURANCES 0711 Kaki Santana - Piege Volume 3 - 0711 ozkar - KANSAS - 0811 Lacrim - SALE ÉPOQUE - 0811 SAM - EXTÉRIEUR NUIT - 0811 AKISSI - Ciel m'en veut - 1011 AYATH - Perturbations 1011 Cheu-B - SKY - 1011 Dalí - Muse - 1011 Georgio - Années Sauvages Part. 2 1011 ihatemed - NMS NIGHTMARES EDITION 1011 Mister You - HLM3 1011 Ouss Riane - Razien 1011 Rockin' Squat - L'undaground s'exprime 1011 Sicario - Silence - 1011 snorunt - arva offmode - 1011 So' - SAHARA, Vol. 2 - 1011 Souffrance - Eau de source 1011 STI - Retrodrill vol.1 - 1011 Stony Stone - ROUGE RED ROSSO 1311 Hash24 - Origin - 1311 Krisy - euphoria sans interludes 1311 Warlock - Sorcellerie - 1411 Lorenzo - Coffret ultime - 1511 Malo - X3 - 1511 Peka59 - Fenêtre ouverte - 1511 Urde - Maintenant ou jamais - 1711 Achim - Ariane 1711 Criminls Congo Bill - VINDICTA - 1711 Double Zulu Pablaw - KAIJU MECHA - 1711 Dri-i - ne mexcuse pas - 1711 FouKi - RAP CLUB - 1711 GEAVN - CYNE 1711 Guy2Bezbar - AMBITION 1711 Hös Copperfield - LUEUR ESPOIR - 1711 Lazuli Angie - ANGILINAZULI 1711 LUMJR - CASINO 1711 Mvms - Renégat - 1711 Nayra - Riah 1711 Pivi - Triste mais Heureux - 1711 Youri Darealright - Neva - 1711 Yuzmv - Gardien du Labyrinthe - 2111 Zonmai - SunCash feelings - 2211 Rapclub - La Litanie des Horlas 2211 Ekloz - 3motional b!tch 2311 DTF - Karma Extended - 2311 Hamza - Drifté - 2311 JRK 19 - FreeJRK - 2311 MPablo - HUMAIN - 2411 ADVM - .soublier encore. - 2411 Ajar - Ö 2411 Bhk220 - Génération 2000 - 2411 Chanceko - La voix dans ma tête 2411 Fababy - La Symphonie des chargeurs Vol 2 - 2411 Fanny's Station - FANNY 2411 Générations - Générations Street - 2411 GR OMEGA - ICARE - 2411 Halo - BAD JAZZ 2411 Imed zee - Bipolaire 2411 Keeqaid - GENRE - 2411 Kerchak - En attendant Saison 2 2411 La Famax - Album Gratuix - 2411 Lujipeka - Weekend à Marseille - 2411 Noti Rose - Mirages Moisissures - 2411 Rémy - Le fils de la gardienne - 2411 Reynz - Z - 2411 Richie Beats - Oh My God Vol.1 - 2411 Sheldon - Seuls 2411 Yaro - Ciel - 2411 YL - LARLAR Part. 1 - 2711 Dalienski - Dali - 2711 Duke Mobb - En attendant La cassette 2 - 2711 FEMTOGO Neophron - NAMELESS BELLIGERENT - 2811 luXe Timeless - ALLUME - 2911 HAKAI - VEGA - 2911 Zalmad Nannaa - SUPERWHOAYEAH Décembre - 0112 Ajna - Boys Basement - 0112 ASHE 22 - KH-22 - 0112 Benjamin Epps - READY FOR WAR 0112 Bob Marlich - Sans Filtre II 0112 Chicaille Argenté - RESET 0112 Couli B - Encore 0112 Decimo - Symphonia, vol. 3 0112 Fuku JeanJass - Phoenix - 0112 Gazo Tiakola - LA MELO EST GANGX - 0112 Gemen Tsukii - 4PEAT - 0112 Gris Anthracite - Triple Venom 0112 Golgoth - Hostie part2 0112 ISS - Libre 3.0 - 0112 Jeune Mort - No colors - 0112 Jeune Ras - LUNE DE SANG - 0112 Khali - 23 - - 0112 L'Don - LDon Compagnie vol. 5 Starring Worms-T 0112 La Financière - TOO BIG TO FAIL 0112 Lasco - PENSÉE 2 - 0112 Limsa d'Aulnay ISHA - Bitume Caviar Vol.1 - 0112 Malko - MAELSTRÖM 0112 Mitch Ladrogua - Big Meech - 0112 Oni Kira - 237 BLOC F - 0112 Pollux - BLUES LAGUNE - 0112 Swing - AU REVOIR SIMEON 0112 Twenty9 - thérapie, stéréo - 0112 wasting shit - wase ape volume 3 0112 Yuri Online Chenpol - Noctura Pure Pueri Musika Magica - 0312 Djeemy RedUzi GRËJ - TAKE AWAY FOR TWO 0512 Blaz Pit - NO SKIP - 0512 Lonepsi - au sommet de ma tour 0512 VII - SCRAP vol.1 0612 PEKA - L'un parle de l'autre 0712 Tovaritch - Systema - 0812 243red - 001red 0812 47ter - Au bon endroit 47tour Live 0812 Bakari - SUPERNOVA 0812 DJ Quick - Onde2Choc 0812 Foot Korner - Du Nord au Sud - Compilation Foot Korner - 0812 Hugo TSR - Jeudi - 0812 ICO - MIA 0812 JSX - Antebellum - 0812 JuL - La route est longue - 0812 Kaba Hyas - Music 4 Tesla Vol. 2 - 0812 Kanoé - NOÉ - 0812 L2B - Plus comme avant Réédition - 0812 L'Allemand - Ma vie 0812 Lil Zamm - ZAMMWORLD 0812 Lossa2Squa - Afrowave 0812 Ludmael - Hérésie - 0812 Prinzly - ESCALE 8000 0812 Oldpee - JE M'APPELLE SIDI - 0812 robdbloc - Faux départs - 0812 Sadek - Nique le Casino 2 0812 Samy - Club Espoir - 0812 So La Lune - L'enfant de la pluie - 0812 SVUDVDE - SAUDADE 1012 Adæb - Casablanca - 1012 T.I.S Lando - MINUIT PILE 1112 IAM - HHHistory - 1112 Luni Sacks - Inédits 2022 - 2023 - 1212 Douze Déluge - MCRCLMT - 1212 OG L'Enf - 3x4 - 1312 Danyl - KHEDMA 2 1312 Loveni - BACK IN THE DAY ROOKIE II - 1312 YUNG POOR ALO - À l'envers - 1412 Nono La Grinta - 75022 - 1512 Ammar - MA PAIX AVANT L'AMOUR 1512 Diddi Trix - Trix City 2 - 1512 DIEGO - Rouge sang Félin version orchestrale - 1512 Jolagreen23 - RECHERCHE DESTRUCTION - 1512 Kaaris - Day One 1512 Lacrim - En attendant Corleone 1512 Lison - GODMODE 1512 Mayo - YOSKI 2 1512 Nefaste - Hiver 365 1512 Niro - Taulier La recave - 1512 Nono La Grinta - LA QUOIII ? - 1512 Prince Waly - BO Y Z Vol.2 1512 Roshi Amine Farsi - Night Ride - 1512 Selug enar - Le monde qui m'tombe sur la tête 1512 Sventx - UN SEUL IL 1512 Todd - UN NOIR SUR LA LUNE 1512 YPN - La patrie - 1812 Ptite Soeur Neophron - NOUVELLE ECONOMIE 1912 Afro S - Parenthèse 1912 ENV444 - Prélude - 2012 Jaymee - Brand New Jazz Trilogie 2112 N3MS - NAUSICAA - 2212 Dinos Dosseh - CÉSIUM 2212 Eloquence - El Chalino - 2212 Jayel - Puzzle Dernière pièce - 2212 Kay The Prodigy Mezzo Millo - Eastern Wind 2 - 2212 La Fève - 24 2212 Shotas - Oue La 6T 2212 Slayeur Slace Emes - ALPHA 2212 TAÏZ - POST-MORTEM 2512 Deelee S - RED ALERT 2 2512 Raplume - MIEL 2612 L'Don - LDon Compagnie hors-série Repas de famille 2712 BLOODYANJI - KILL TO LIVE 2712 Tarkov Lee - MÉCHANT DU FILM 2912 BERRY Phasm - TOP NIVEAU ll - 2912 Gouap Mini - BACK EN TRAP 2912 Kemi Gunner - Elf Oxy Fantasy 2912 Lemon Haze - 31 2912 Narson - Maquette Tape4</t>
+          <t>Comment sappelle lalbum ? La Cour des Grands Comment sappelle lalbum ? La Cour des Grands Mais il sort quand lalbum ? Le premier juin Mais il sort quand lalbum ? Le premier juin Est-cque tu vas lchoper ? Ouais ouais ouais Est-cque tu vas lchoper ? Ouais ouais ouais Et si tu télécharges, tes un bâtard Et si tu télécharges, tes un bâtard Voici le retour des gosses terribles J'ai grave taffé, oui le flow se mérite Il fausse mes rimes Si t'es cardiaque ou si t'es fêlé, fait pause fait vite Le Boss de la ville Rose t'envoie dans la fosse septique C'est le retour du King des mecs qui défoncent des têtes de cons Qui parlent mal Biggy débite des rimes ce mec est trop bon A paname Il se la pète c'est pour eux quelques balles de plomb Ca clashe grave Mais quand j'ai le mike ta clique se jette d'un pont Balance une instru classique que je l'astique Les mots je les mastique, puis les recrache en rap flow élastique Bigflo est l'as, la classe, l'art, la tactique MC fantastique comme Nas Envoie tous ses nazes au casse pipe Non mais les gars, écoutez moi, je mets le rap dans tous ses états J'suis Végéta, karatéka, vous avez mal mais ne cavalez pas Quand on arrive on distribue des baffes verbales On t'éclate on se tape des barres On épargnera pas ni les filles ni les gars Fermez la Ca sort les flingues les benz', ça joue les gangsta Ca joue les Ben Laden, les dingues, mais ça le fait même pas Moi je te fous des beignes, je te saigne, ouais j'suis pas sympa J'fais pointer les seins, les dindes sont en extase Et je t'ai fait une selecta des MC à écouter sous smecta Qu'est ce t'as j'suis pas ta bestah moi, je suis une guest star J'suis extra, c'est le retour de la gestapo Pour de l'exsta', tes meilleurs potos veulent ta peau J'entends le démon en moi je défie la peur Ma tête bouge de haut en bas, elle crée de la vapeur Tu sais je fais l'acteur, lourd comme un tracteur A la fin de ce couplet amène un défibrillateur Car mon cur part en couille, faut le sauver L'amour on l'a frôlé Oui la foule on la connait Non j'avoue j'ai déconné Et tous les MC font les hooligans Et tout à coup les bouls apparaissent Car les go's elles aiment les fous il parait Désolé je crois que tu voulais parler Non je ne vais pas m'arrêter là je rappe encore Tu le sais quand je prend le mic', pas de temps mort Toi t'as qu'à lever les bras et j'temporte Illégal tellement ça claque Attends que je pose le mic, ils font les macs mais je suis le master Pire que Michael, mate mes Nike, je pète les bacs J'perd les backs, j'sèche les , À coups de battes dans les pattes de ces bâtards Trop d'amateurs, trop de blagues, trop de nazes Dadoo, mon pote ça vient du sud Don Choa, mon pote ça vient du sud Set Match, mon pote ça vient du sud Demi P, mon pote ça vient du sud Bigflo Oli, mon pote ça vient du sud Iam, mon pote ça vient du sud Kimfu, mon pote ça vient du sud Un flow de malade, un enfant dur à soigner Le temps passe avec ou sans montre autour du poignet J'trace sans strass, j'reste honnête J'écris fier mes poèmes incompris comme la pierre de rosette Derrière le rideau, l'artiste se prépare On peut être partout et n'aller nulle part J'ai rallumé la flamme, c'est le début d'un incendie Ils ont brulé nos livres comme à Alexandrie Et, si tout le monde m'aime, moi, je déteste personne Le rap est mort mais s'vend encore MichaelJackson Et j'enterre ces gangsters, ces connards de bandits J'ai le regard qui tue mais comme les yeux de Gandhi J'ai vu des combats sur papier échappés des bas fond J'ai déterré la hache de guerre pour l'enterrer plus profond Le génie se distille un peu et je médite L'amour, ça crève les yeux, demande à dipe Dans l'noir, le soir, j'ravale mes doutes L'Diable m'a appellé pour acheter mon âme, je lui ai dit qu'elle en valait le double Et, dans cette conquête, je me balade et j'grave mes vers Le rap ? C'est le malade imaginaire Et il va s'manger le décor, attraper le virus J'bats des records, ma plume dévore le papyrus L'avenir se dessine, j'rime dans un but précis MC, on m'désigne messie de cette prophétie Le vynil grésille, ici, j'éclaircis le récit Net et précis, l'horizon rétrécit Depuis des années, des fous prédisent tous sa mort Mais à Planète Rap, le son tourne encore Quand je dis Dadoo, vous dites classique Je ne vais pas dans une berline jouer les macs mon frère Ni même me torcher au dollar pour du crack mon frère Page publicitaire, ouvre ton Macbook Air Google double O, tape MC légendaire Ça y est le rap change d'air, retour à l'Elysée Punchlines aiguisées, retour des dents aiguisées J'ai plus de trente piges et je n'ai pas de Bentley J'suis la mort du bling-bling dans le rap français Ici c'est Midi-P, pays des flambeurs à pile Les rolex brillent mais elles fondent à midi pile Tas d'amis en Audi sur l'autoroute du crédit J'ai vu l'avenir tirer des cartes de crédit en double file J'ai le son qui met la pression, comme un cours de zumba Tout le contraire de Booba, mon nom c'est Dooda Je rappe dans le vers, pas de revolver J'ai pas de Jack pervers, balance comme Jacques Prévert Mon rap est mort comme un vulgaire junkee Dans un costume d'égocentrie à la couleur du mépris Pas une prise un peu consciente de vide Les racines de sa conscience sont d'abord endormies Le verbe fumant du feu MC brule encore sur les platines crépitantes de nostalgie Quelques témoins n'ont pour lui que des cris, noyés par des larmes sourdes Alors je pousse pas, je rappe sans forcer, au fond je m'en bats Je dois élever ma fille, mais le rap a besoin de moi Don't make a sound pour mes saloperies de voyelles Si le rap c'est tendance, lève ton string pucelle J'suis l'école des tordus, des mordus t'entends? Mic' branché, j'suis de l'école des maquereaux d'argent Oh, j'ai déjà rappé pour pas trop d'argent Mais entre toi et moi, je préfère pour beaucoup d'argent Ouais t'as reconnu la pureté, Cosy Bang Bang Ouais t'as reconnu la dureté, ça va péter Quand je kicke j'enlève le cran de sureté T'avais déjà kiffé avant d'appuyer sur play Négro on arrive lourd, feu sur Toute la capitale et ses alentours je te jure Cette année on rentre dans la grande cour Posé dans ma grande tour je vais les rendre fou en douze mesures Nous c'est que du one shot, pas besoin d'un tas de pistes Punchline pimentée pour que ça arrache plus Raconte pas ta vie, fais tourner le oinj à Faktiss Qui vivra verra mon négro, nique sa mère le bac plus On bicrave des pulls et des teesh', étudie le disque On t'apprendra comment faire des tubes et du biff Parlons peu, parlons bien, parlons de liquide industrie des putes et du shit Le premier et le quinze juin, le rap français en avait bien besoin Mon négro précommande cette shit Faut qu'on atteigne le nombre à 7 chiffres Le premier et le quinze juin, le rap français en avait bien besoin Mon négro vas y achète le C'est moins cher et plus puissant qu'un sachet de beuh Je vais vous montrer que je suis le meilleur, sans vous parler de mon bras d'enfant Toujours un temps avance comme les cainris oui, mais je fais du rap en France Dans le futur je suis dans ton foutu seigneur Je prépare l'otage, je prépare la rançon Cette équipe veut des buts, veut faire plein de hits J'sui Pelé, le meilleur avant-centre Je prend des épaules, pas des épaulettes J'écoute pas de rap français pour être honnête Il y a que mon crew que je suis censé connaitre Négro j'ai les crocs et qu'une parole, je vais tenir mes promesses , dis moi tu veux du flow, du groove dans tes synapses Cosy Bang Bang fait danser tout le village Notre prochain album est déjà dans le sillage Cosy Cosy Bang Bang Trentenaire, trentenaire, j'en ai marre de ces bolosses et leurs sapes de merde Trop de boulettes sur mon coste-La boy Je respire le rap, tu n'en as que l'air Surpris par la foule à tous nos concerts Frappé par la foudre depuis collège Ouais depuis O'High je fais des tracks illicites Je vois même crier des meufs devant nos posters Cosy Bang Bang pour toi joli cur Premier disque, dispo chez ton disquaire Ouais harcèle ton fournisseur Grosse énergie, vibe d'apothicaire Vas y remue ton boul petite tass' Tu veux des Dès la première note tu fais des folies, folies Tu veux des selfies, tu veux des dédicaces Trop de flow, tellement Que tu vas m'accuser d'harcèlement Je ne suis que joie et bonne humeur Alors vous ferez la fête le jour de mon enterrement Tu me vois loin devant Torse bombé, je cours fièrement Tu me parles de vitesse, tu me parles de vie de rêve Je crois que je suis en plein dedans Rien d'neuf, rien d'clinquant, gun dans les tympans Vieux déglingué fringuant, cinglé, jeune délinquant Inquiet les cinq sens, cherche le billet d'cinq cent Les petits prenaient des cinq francs, maintenant ils prennent des cinq ans Pendant qu'on m'parle d'un temps qui n'pourra pas renaître Comme un printemps, j'regarde passer les putes à la fenêtre En trinquant, et j'ai crié jusqu'à c'que j'm'endorme Ma mémoire... ou une boite de Pandore Moi, j'ai déçu leurs attentes, paraît qu'c'est trop tard, c'est mort Ferme ton cul quand j'chante, que les petites garces m'ignorent Moi, j'ris quand j'me plante, on dirait qu'j'suis Garcimore Mais c'est plus pareil depuis qu'ma bande a mis la clé sous la porte Mon clan a baisé le score, ouais, mais ça fait long time Porté disparu, putain d'barbu dans la montagne On gagne ou on meurt, on s'marre et on pleure Mais, ressasser les rancurs du passé, c'est zéro euro d'l'heure J'ai rien contre le succès, thanks to the almighty N'essaie pas d'me sucer MenaceToSociety J'ai pas fait ça pour la gloire, j'ai fait ça pour le biscuit J'ai fait ça pour pouvoir me lever tous les jours à midi Et je flippe que ça soit fini, j'traîne seul le soir sous liqueur Ça parle mal sur Twitter, préviens-moi sur mon bippeur Il m'a tellement donné, j'peux pas haïr ce jeu D'l'ancien volcan, ils veulent voir rejaillir le feu Hey yo, roule un gros zbar négro Ton number one pothead est dans le spot Je veux une Jouer pour le Barça, vivre une vie de pacha Faire le même score que Jackson Thriller Ma vie est tournée vers ça Puis vice et versa je vise la couronne de Versailles Méduse sur le torse je porte du Versace Camouflage vert kaki Nouvelle chance, qui la offerte à qui ? Jirai provoquer la banque je veux pas de tes vers gratuits Pacifiste en lâme mais jai le verbe actif Cest quand les miens fondent en larmes que je me serre la vis Navigue sur des mers arides, attendant que le best arrive Pour le reste cest le même tarif Jsuis lopposé du maire de la ville Fumée dherbe à pleine narine Vivre jusquà en perdre la vie Jai versé trop de sang sur feuille blanche Aujourdhui je tombe chaque neurone pour que mon flambe Fortifie mes fondations, faut que les leurs tremblent Que leurs armes soient dirigées sur leurs propres tempes Jemmerde leur culte jai mon propre temple Quand tu tires le recul à trop dimportance Jcroise que des MC impotents Faux, comme croire de croiser les choses en votant Tu mcroiseras joint au bec en sifflotant Le futur tappartient seulement si tu prends le volant Donc met ta cagoule met les gants Jme sens mieux quand les billets se mélangent Jvais pas tirer sur les gens mais jsuis attiré par les grands de ce monde Qui me poussent à prier pour que mes plans se montent La tête appuyée sur les planches du sol On est venus en peace, négro range ton Glock En plus ça roule des spliffs toutes les 30 secondes Demi Portion tape un petit passe-passe sur la touche Mais vise la surface, l'effet de surprise Big Up à pour rester sur pause, une vida loca, cherche loccaz Un peu d'audace de faire des bêtises On a passé lâge, on sen fiche Un jour tout sefface Oui cest Rachid, fait voir ton visage Oui cest facile de parler trop mal Non cest rapide de faire des dommages Atterrit tandis que décolle lâge Pas de coloriage ne me colle pas de biatch Rien à lamiable jeune âge Je me sers de ma bouche comme une arme Où je me couche, toi tu te caches Centre de menaces, tu toublies grave Oui je vis sans, loin des strass Pourquoi tu stresses ? Faut que tu saches Manque pas dadresse à chaque message Oui les mots blessent, mais qui est sage ? Naal dine oumouk un coup de schlass Rentrer dans le moule, ça faut pas Tout est fragile, il y a tout qui se casse Qui fait la tête, et qui sécrase Sorti de Sète, Lion de lAtlas Pas de compet, jai pas le temps pour ça La grosse tête te gâchit la face Oui ça magace, pas trop ma tasse Pendant que tu parles, et bousille le taff Bigflo et Oli, freestyle Dédicace à mon crew le classique Beaucoup de bruit pour Bigflo et Oli Le sud le fait mieux, le sud le fait mieux Le sud le fait mieux, le sud le fait mieux 7 piges de silence, et le rap est blessé Il est passé de Nique Ta Mère à Mathilde Seigner Parait quil ne mange plus de porc, et se gave de billets Pour une Bentley en or, certains se mettent à briller Je ne suis pas le meilleur des oursons, au pays du rap game Moi je rappe pour ton frisson, eux ils font du rap Whats my name ? D double O dans le rap game Clint Eastwood mon nickname Tu gobes mon flow tu deviens dingue Je te bang bang, bang bang, molécules je les décompose Je naime pas quand le mic', jflingue, MC que tes Nike reposent Weed bleue dans le gros bang Mon cur vogue à Penny Lane Wicked, Wikileaks, mon flow qui tape tout ton abdomen Si je nai pas pris le mic' depuis Où vous êtes , cest que vous êtes la En paquet de six, un paquet pour six, des couches et du zetla Weed bleue qui te guette la Rap français qui te jet-lague Weed bleue qui me jette la Rap français on est quittes Donne des low-kicks comme une kalash dans un pays de apaches Grand armés de haches, et dune équipe sans attaches Jfuck tout ce business, cest de lamour au kilogramme Manager dans le money gramme, et lespoir miroite comme un hologramme Quand je dis Dadoo, vous dites classique, classique Quand je dis Dadoo, vous dites classique, classique Les MC débitent des phrases débiles Se prennent pour les rois des beats mais les échecs défilent Pourtant ils font partie des hits, ils font le tour des villes Voici venus Biggy et Oli te fait pas de bile La jeunesse ne connaît plus le respect Ils rêvent que de caisses, de liasses et de tasse-pé Ils aiment le sexe sous tous ses aspects On les engraisse au MacDo et tous ces abcès Séjour carcéral, non mais envoie le flow même si ça fait mal Contrôle parental, si tu mets pas du cul, je sais c'est pas rentable C'est lamentable mais c'est l'industrie du chiffre aujourd'hui Tu vends plus aucun disque, poursuivi par le fisc Tu veux pas prendre de risques alors tu sors une connerie En plus ça se vend par milliers Musique décevante, humilié Ils veulent que tu banques, ils veulent que tu danses, tu flanches Ils veulent nous faire plier On va pas les prier, nous on les casse, leurs tours de passe-passe, leur cache-cache face à face Qu'est ce que tu veux qu'ils fassent ? On va leur casser le dos, pour plus qu'ils fassent les beaux Télévision pour les dix petites arnaques au téléphone Met des culs dans les clips pendant que l'état nous assome Et des tonnes de codes, l'école déconne, les bonnes sont connes, à coup de Aucune envie d'vous aider, jeune padawan, vieux pédé J'vous découpe à coup d'épée, vous et vos putes toutes pétées Les fous, c'est plus c'que c'était, tout l'monde me demande Où t'étais ? Même si tu parles pas, tout se sait et, même si tu parles, tout se paie Tout se paie cash ou à crédit, come on biatch, are you ready? Are you ready? De la douleur, j'prédis, pas de douceur, j't'ai dit, moi, c'est Krueger Freddy Ou Rocco Siffredi-fredi et, tout d'un coup, ton pussy frémit, frémit J'suis la nouvelle épidémie-démie, you know I'm not good comme Amy, Amy, Amy Rest in peace miss Amy Winehouse, François in the hood, j'suis dans la White House Où ? Dans la White House où ? Dans la White House, suce mon cigare ou bye-bye pétasse Aïe, des fois, massacrer, ça fait mal au cur, aïe, mais tu l'as mérité motherfucker Die, et tu vas nous quitter motherfucker, die motherfucker, die motherfucker Tminik et j'te baise, moi, c'est Philippe Etchebest Timnik et j'te baise, moi, c'est Philippe Etchebest C'est Philippe Etchebest, Philippe, Philippe Etchebest Philippe Etchebest Y'a pas de hasard, tout est logique, j'suis un barbare technologique J'frappe à coup d'marteau dans ton crâne, et j'soigne tous tes problèmes psy-psychologiques C'est pas la peine d'appeler la police, non, à peine arrivés, ils périssent Les grillons, on les crame, on les brûle dans les flammes Comme les dragons de Daenerys Je vois des flashs, j'en entends qui rouspètent Nique la kalash, j'ai sorti la 12.7 J'arrive plus bordélique qu'un bolchévique ouzbek C'est pas Michael, mais ils vont crier Who's Bad? , à coup d'rafale dans la tête Quand ça rafale, ils se cachent, ils cavalent, là, je crache, ils avalent, ils avalent, ils avalent Dans le conduit nasal, ma came artisanale, ton style, il a mal, lyrics archi-banales Nanani nanana, mais y'a tchi, y'a nada, plus précis qu'la NASA J'suis ratatatatatatata Tminik et j'te... Tminik et j'te baise, moi, c'est Philippe Etchebest Philippe Etchebest, Philippe, Philippe Etchebest Tminik et j'te baise, moi, c'est Philippe Etchebest Pour mes sahbs, pour mes homies Pour les singes et les barges et les jolies L'ambiance elle est calme elle est cosy Oui dans ma tête, dans mes rêves, dans mes folies T'as voulu réveiller l'eau qui dort Dis moi alors quand est-ce qu'on s'isole ? J'ai des pensées insensées, c'est mon corps qui se colle Surtout ne crie pas il y a mes potes qui dorment Le jour se lève sur ton Je flippe, je redoute, mais ta Je le vis dans ma tête, et je goute tes lèvres Je remercie Dieu vers la voute céleste Cosy cosy bang bang Je vis d'amour et d'eau tiède Fuck ta parano je n'ai plus peur des triangles isocèles</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Si je les avais ecoutés</t>
+          <t>Dans la légende</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Euh, quoi dneuf docteur ? Hey, he-he-hey Qui va menlever le pain dla bouche ? qui ?, chargeur grande cap jpeux lui faire plein ddouches Hey, on sait à combien tu la touches, on la recoupe et on tord ton prix dtouche ouais, ouais Jai reçu un litron de brocolis hey, tu tires une latte tu frôles la pneumonie nan, nan Hey, no link si no money nan, nan, jte hagar ton rrain-te comme une colonie nan, nan, nan Bats les couilles d me faire émanciper hy, ce ne sont pas les bleus qui mènent la danse nan, nan, nan 350 euros pour ma fragrance, devant le proc je pue limmensité Zoubavir, moi je suis trop la cité Dino, même si je mets pas trop de TN hey Jsais quil faut récup et détaill et vi-ser zou, javel et extinct ça c'est pour lADN zou Baramine direct quand jlai senti elle elle, jvais tgrr jarrive comme un sentinelle nan, nan Piou, piou pfff à lopinel, jte laisse à lhôpital Mermoz-Pinel Cest plus lépoque Facebook, Messenger, jmachète deux trios Messenger Mademoiselle jveux savoir ton number, en parachute negro jatterris à Lumber Ils ont attendu la drill pour faire des délits tsia, moi cest VR negro jsuis V.R.A.I Hey, si jai un poto qui mtrahit, jfume mon pote comme YNW Melly Ton père frappe tellement quil lui faut deux pailles, jdrip sa mère negro jme sens comme Depay jdrip sa mère Hey, mort de rire tu nes pas de taille, toi tu nas pas dbail, en plus tes une retaille Demande à akhi jsuis fenwick du warwick, make a reservation for one week Don Papa dix ans dâge je suis on fleek, tu perds tout mon respect si tes un flic Si tes une balance, un traitre cest la même, cque tu mets dans ton naseau cest la mienne tsia Hey, jte ramène un échant de pur tsia, le kil est charclé et jte dis qucest la même tsia On a rarement été au complet, dans la meute il manquait toujours un ptit loup Tu peux aller vérifier tous mes couplets, ça fait plus ddix ans que jdis Libérez Bilou nan, nan Viens voir, viens voir, viens voir, viens voir, tu diras cest Zoubir qui ma fait goûter hey Que jserais devenu si jles avais écouté, moi perso cest Gucci qui ma dégouté hey Rolex au poignet jarrive quand même en retard tsia, jdois faire un régime, je ressemble à Mokhtar Longue vie aux bikers, la grand-mère aux motards, faut bibi les pochtar et pas finir au shtar hey Jattends une be-bom, rouge sous ses talons, jvais devenir un daron, je reviens dans pas long tsia Comme un dimanche je vais glander au salon, jnettoie mes tre-mon et je graisse mes canons hey Je lui baisse le taro que si elle me dit viens piner jlui dis claro que si , hey Jarrive en full DG, elle ma dit cest vachement baroque ici tsia Ces blagueurs jles appelle les SDF, ils changent jamais dhabits, ils nont pas à manger Quand jtaperçois negro jnai aucun réflexe, mon cerveau sait très bien que tes pas un danger De la tête aux pieds, toi tu es falshé, viens pas me serrer la main je vais me fâcher tsia Jai lseum, le rayon spiritueux est bâché, pense pas à mclasher negro jvais tout gâcher grr Bronzerland gravé sur tous les panneaux, Dino cest har mais cest pas jalapeños Jsuis plein doutils negro jsuis pas mécano, tout est noir negro comme Upamecano hey Tsia Nan, nan Nan, nan, nan</t>
+          <t>High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie qu'ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange High dans le ciel avec un ange J'aime bien ma vie, j'ai pas envie que ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange On baise au chant du coq Là dans ta main c'est ma cock Y a nos initiales sur ta coque Hun Là j'm'habille j'ai sortit les Doc J'dis que ça va avec tes bottes Ça va pas avec tes potes Hun En plus t'as pas envie d'leur dire qu'on est ensemble Pourtant, tous les soirs, tu viens toquer à ma chambre Parce que j'suis l'seul pélo qui fait trembler tes jambes Enchanté, Laïoss, bientôt j'rentre dans la légende Don't cry Laïoss dans, dans la légende High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie qu'ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie que ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Doucement</t>
+          <t>Bad Boys de Marseille</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Don-Don-Don-Don-Don Cho' ! Un peu d'anarchie dans ta partie Jusqu'à ce que mort s'ensuive ! Hein... Tous te mentent, ça va des infos, aux nymphos Seins faux, gros impôts, bosse en poste, frangin On sort l'engin si ça emmerde le monde C'est pas pour faire le con mais une volonté profonde Chauffe ça sans court-bouillon, ni micro-ondes Nage avec les gros poissons, eau profonde Viens sur le terrain, sors de ton cocon Ce n'est pas ma main qui fait sourire la Joconde Soyez sans crainte, j'arrive trop pacifique Mais j'm'arrête pas quand on me dit Oh ! Pas si vite Instant fatidique, instinct fanatique Plus du vice comme tout le monde Il s'agit de survivre, bon Je suis sur mes gardes alors j'veille Un faux pas ça peut finir l'étiquette à l'orteil Course pour l'oseille, tous poussent pour passer devant Mes raps sont pourris mais j'les vends Défends mon clan et si tu comprends plus bien Seize mesures, c'est comme deux tafs ça m'fait plus rien Il paraît que j'vois pas plus loin que le bout d'mon joint C'est vrai, et j'ai envie de trucs chics et chers Nique ces chèvres, si la fumée de mon pchh pique les lèvres T'es pas obligé d'y goûter, à part si tu veux te rajouter des problèmes Quand j'arrive, ils appellent Allô Houston nous avons un problème Ils ont besoin de limite, nous, on fait sans Plane haut, attention, on descend Qu'est ce que je vais faire avec 313 litres d'essence Vingt grammes de pollen par litre de sang ? Espèce de con, tu fumes trop ! Doucement, doucement Ralentis un peu ton flow ! Doucement, doucement Piano, piano, piano ! Doucement, doucement Du calme mon cheval ! Desperado ! J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucement Profitons tant qu'il est temps donc, tant pis, je tente En restant anti-État, ça va tranquille, et toi ? J'fais pas ça en dilettante, c'est plutôt vendetta L'époque est bouillante, ça va pas te brûler les doigts, papi Ce qu'on fume peut envoyer au tapis, j'incite pas Et c'est pas le club des 5 ou Ocapi N'hésite pas, rentre dans le gros bordel Ma clique va plus vite que tes snowborders Trop de hors-duvre provoquent le haut le cur On snob, euh, hip-hop, roots, reggaes, rockers O-ok, téléphone à ton docteur J'moquais, j'ai faim comme Hannibal Lecter T'es choqué ? Ya partout rien de personnel Sautez comme sur une mine anti-personnelle On hait tant d'choses, envie de brûler Leurs bureaux brûlés ! Leurs euros brûlés ! T'as promis de nous tuer ? Prends des piles longues durées Tous se poussent comme si j'allais envoyer la purée Le feu est allumé, il ne s'éteint pas avec de l'eau J'arrive comme trois shootés au crack avec un chalumeau Tranquille, calme toi ! Doucement, doucement Est-ce que tu sais où tu vas ? Doucement, doucement Han, han, han, han, han... Doucement, doucement J'viens prendre mon oseille et foutre mon bordel x2 J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucement Tout n'est pas que calme, luxe et biftons Y'a aussi came, mac, putes et michetons Flics et voyous, tripes et boyaux Traîtres et types loyaux, galères et tripes royaux Sur ma route, et elle était pas pavée d'or Gagne ta croûte, tandis que les camés dorment, les affamés mordent Les pieds devants tu sors si les choses se compliquent T'as pas compris ? Sors, aujourd'hui le Monde tourne vite Pour des mecs comme nous partant de tchi Pas question de tomber dans des histoires de snif Honorer nos familles reste notre priorité Et nous n'avons pas d'amis dans la haute société Y paraît qu'il y a plus de pédés qu'à Act Up 28 ans je n'ai pas monté de start up Tape tes pas de hard rock, pendant que je rappe par cur Le Monde de demain, quoi qu'il advient, nous appartient Alors je veux maintenant ! Doucement, doucement Avant que ça tourne en bain de sang ! Doucement, doucement Han, han, han, han, han... Doucement, doucement x2 J'mets tout dedans, que ça soit coup de pied Coup de viet, coup de dent Si je suis si speed, c'est que j'ai perdu tout ce temps Il s'agit d'aller vite doucement, doucementParoles rédigées et expliquées par la communauté RapGenius France4</t>
+          <t>Chaud comme Marseille, on vous met le feu Le cur de la ville s'enflamme quand le son entre en jeu Les préoccupations des frères s'infiltrent dans ton Walkman L'argent, la boisson, la fumée et les femmes Je nagerais avec les femmes et un micro dans une piscine Si j'avais l'occasion de partir loin des vermines L'hésitation ne se ferait pas, c'est certain Mes poches sont vides et j'ai faim de pognon et d'un bon destin J'extirpe ces quelques mots, un stylo de mon paletot, sorti un jour Du caniveau, je roule dans les casinos Ouais, je fais le zguègue en espadrilles, mais j'assure quand même Quoi qu'il arrive, car Fonky est la Famille Autant parler des mains que la bouche chez nous n'est pas louche Méditerranéen de souche, mes styles font mouches Au milieu d'embrouilles ou de mauvais coups Je crame tous les tintanos qui nous cherchent des poux Dans la nuit, un MC check check le mic Taquiner la rime et le beat est mon véritable hobby Envoyer des styles pour tous les frères qui nique la halla Pour la première fois, le refrain commence comme ça Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys Pendant que tu fais un flop, que tu tapes un magnétoscope Don Choa calcine les rimes comme une clope en garde à vue Le hip-hop au top descend le long de la rue Et se saisit du showbiz à son insu Accepte le son, qui touche de près mes entrailles Au bercail, ma fonction est le travail Je me comporte en canaille, aïe ! Les mauvais garçons se collent comme des moucherons Au jupons, frappent sans hésiter pour le pognon Comme les apaches guinchent ton scalp Ton fric est la proie, des hordes de chiens des Alpes En veulent à tes Delacroix Mais pas moi, je suis droit, respecte les autres et crois Au pouvoir de la rime dans la destruction des hazas L'été, les quartiers, postes dans le bus Que demander de plus, fusse le funk ou des Vénus ? Gus, soi-disant ma ville pue en plus Dieu t'a-t-il fait avec un anus au lieu des sinus ? Simple dans ma façon de faire mon sang rouge clair Pourtant, j'ai la peau noire et fier de l'avoir Je cours à la gloire des quartiers avec mes idées Le produit, sera toujours enragé Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys J'en ai marre de les voir flipper Y'a pas que le mauvais côté Le Rat te le dira, la vie est faite pour s'amuser Capte le concept des mecs qui s'en battent les couilles Le bon délire est là, t'inquiète on se débrouille Mes pensées drivent coolo, coolo Voilà quelques mots Pour l'avenir incertain de mes potos Qui ont quitté les cours tôt La rage est dans mon âme pour le drame du Front National J'allume la flamme, la flamme Fils, comprends ce que tu peux comprendre Un bon conseil, prétends à ce que tu peux prétendre Réfléchis un instant avant de faire un pas, tu saisiras Pourquoi on te lèvera où que tu sois Avant, je combattais contre des moulins à vent Maintenant, je fais vibrer les salles et le public en rappant Satir au soleil, zique à l'oreille Signe une carte de visite live de Marseille La balle de ping-pong d'Ali Kong tape De Marseille à Naples, pour le rap, je capte les étapes Et cap vers le possee qui me suit J'en suis reconnaissant à fond Voilà pourquoi mes potes sont souvent Dans mes chansons Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys1</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Freestyle Skyrock (21/04/2015)</t>
+          <t>La furie et la foi</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Comment sappelle lalbum ? La Cour des Grands Comment sappelle lalbum ? La Cour des Grands Mais il sort quand lalbum ? Le premier juin Mais il sort quand lalbum ? Le premier juin Est-cque tu vas lchoper ? Ouais ouais ouais Est-cque tu vas lchoper ? Ouais ouais ouais Et si tu télécharges, tes un bâtard Et si tu télécharges, tes un bâtard Voici le retour des gosses terribles J'ai grave taffé, oui le flow se mérite Il fausse mes rimes Si t'es cardiaque ou si t'es fêlé, fait pause fait vite Le Boss de la ville Rose t'envoie dans la fosse septique C'est le retour du King des mecs qui défoncent des têtes de cons Qui parlent mal Biggy débite des rimes ce mec est trop bon A paname Il se la pète c'est pour eux quelques balles de plomb Ca clashe grave Mais quand j'ai le mike ta clique se jette d'un pont Balance une instru classique que je l'astique Les mots je les mastique, puis les recrache en rap flow élastique Bigflo est l'as, la classe, l'art, la tactique MC fantastique comme Nas Envoie tous ses nazes au casse pipe Non mais les gars, écoutez moi, je mets le rap dans tous ses états J'suis Végéta, karatéka, vous avez mal mais ne cavalez pas Quand on arrive on distribue des baffes verbales On t'éclate on se tape des barres On épargnera pas ni les filles ni les gars Fermez la Ca sort les flingues les benz', ça joue les gangsta Ca joue les Ben Laden, les dingues, mais ça le fait même pas Moi je te fous des beignes, je te saigne, ouais j'suis pas sympa J'fais pointer les seins, les dindes sont en extase Et je t'ai fait une selecta des MC à écouter sous smecta Qu'est ce t'as j'suis pas ta bestah moi, je suis une guest star J'suis extra, c'est le retour de la gestapo Pour de l'exsta', tes meilleurs potos veulent ta peau J'entends le démon en moi je défie la peur Ma tête bouge de haut en bas, elle crée de la vapeur Tu sais je fais l'acteur, lourd comme un tracteur A la fin de ce couplet amène un défibrillateur Car mon cur part en couille, faut le sauver L'amour on l'a frôlé Oui la foule on la connait Non j'avoue j'ai déconné Et tous les MC font les hooligans Et tout à coup les bouls apparaissent Car les go's elles aiment les fous il parait Désolé je crois que tu voulais parler Non je ne vais pas m'arrêter là je rappe encore Tu le sais quand je prend le mic', pas de temps mort Toi t'as qu'à lever les bras et j'temporte Illégal tellement ça claque Attends que je pose le mic, ils font les macs mais je suis le master Pire que Michael, mate mes Nike, je pète les bacs J'perd les backs, j'sèche les , À coups de battes dans les pattes de ces bâtards Trop d'amateurs, trop de blagues, trop de nazes Dadoo, mon pote ça vient du sud Don Choa, mon pote ça vient du sud Set Match, mon pote ça vient du sud Demi P, mon pote ça vient du sud Bigflo Oli, mon pote ça vient du sud Iam, mon pote ça vient du sud Kimfu, mon pote ça vient du sud Un flow de malade, un enfant dur à soigner Le temps passe avec ou sans montre autour du poignet J'trace sans strass, j'reste honnête J'écris fier mes poèmes incompris comme la pierre de rosette Derrière le rideau, l'artiste se prépare On peut être partout et n'aller nulle part J'ai rallumé la flamme, c'est le début d'un incendie Ils ont brulé nos livres comme à Alexandrie Et, si tout le monde m'aime, moi, je déteste personne Le rap est mort mais s'vend encore MichaelJackson Et j'enterre ces gangsters, ces connards de bandits J'ai le regard qui tue mais comme les yeux de Gandhi J'ai vu des combats sur papier échappés des bas fond J'ai déterré la hache de guerre pour l'enterrer plus profond Le génie se distille un peu et je médite L'amour, ça crève les yeux, demande à dipe Dans l'noir, le soir, j'ravale mes doutes L'Diable m'a appellé pour acheter mon âme, je lui ai dit qu'elle en valait le double Et, dans cette conquête, je me balade et j'grave mes vers Le rap ? C'est le malade imaginaire Et il va s'manger le décor, attraper le virus J'bats des records, ma plume dévore le papyrus L'avenir se dessine, j'rime dans un but précis MC, on m'désigne messie de cette prophétie Le vynil grésille, ici, j'éclaircis le récit Net et précis, l'horizon rétrécit Depuis des années, des fous prédisent tous sa mort Mais à Planète Rap, le son tourne encore Quand je dis Dadoo, vous dites classique Je ne vais pas dans une berline jouer les macs mon frère Ni même me torcher au dollar pour du crack mon frère Page publicitaire, ouvre ton Macbook Air Google double O, tape MC légendaire Ça y est le rap change d'air, retour à l'Elysée Punchlines aiguisées, retour des dents aiguisées J'ai plus de trente piges et je n'ai pas de Bentley J'suis la mort du bling-bling dans le rap français Ici c'est Midi-P, pays des flambeurs à pile Les rolex brillent mais elles fondent à midi pile Tas d'amis en Audi sur l'autoroute du crédit J'ai vu l'avenir tirer des cartes de crédit en double file J'ai le son qui met la pression, comme un cours de zumba Tout le contraire de Booba, mon nom c'est Dooda Je rappe dans le vers, pas de revolver J'ai pas de Jack pervers, balance comme Jacques Prévert Mon rap est mort comme un vulgaire junkee Dans un costume d'égocentrie à la couleur du mépris Pas une prise un peu consciente de vide Les racines de sa conscience sont d'abord endormies Le verbe fumant du feu MC brule encore sur les platines crépitantes de nostalgie Quelques témoins n'ont pour lui que des cris, noyés par des larmes sourdes Alors je pousse pas, je rappe sans forcer, au fond je m'en bats Je dois élever ma fille, mais le rap a besoin de moi Don't make a sound pour mes saloperies de voyelles Si le rap c'est tendance, lève ton string pucelle J'suis l'école des tordus, des mordus t'entends? Mic' branché, j'suis de l'école des maquereaux d'argent Oh, j'ai déjà rappé pour pas trop d'argent Mais entre toi et moi, je préfère pour beaucoup d'argent Ouais t'as reconnu la pureté, Cosy Bang Bang Ouais t'as reconnu la dureté, ça va péter Quand je kicke j'enlève le cran de sureté T'avais déjà kiffé avant d'appuyer sur play Négro on arrive lourd, feu sur Toute la capitale et ses alentours je te jure Cette année on rentre dans la grande cour Posé dans ma grande tour je vais les rendre fou en douze mesures Nous c'est que du one shot, pas besoin d'un tas de pistes Punchline pimentée pour que ça arrache plus Raconte pas ta vie, fais tourner le oinj à Faktiss Qui vivra verra mon négro, nique sa mère le bac plus On bicrave des pulls et des teesh', étudie le disque On t'apprendra comment faire des tubes et du biff Parlons peu, parlons bien, parlons de liquide industrie des putes et du shit Le premier et le quinze juin, le rap français en avait bien besoin Mon négro précommande cette shit Faut qu'on atteigne le nombre à 7 chiffres Le premier et le quinze juin, le rap français en avait bien besoin Mon négro vas y achète le C'est moins cher et plus puissant qu'un sachet de beuh Je vais vous montrer que je suis le meilleur, sans vous parler de mon bras d'enfant Toujours un temps avance comme les cainris oui, mais je fais du rap en France Dans le futur je suis dans ton foutu seigneur Je prépare l'otage, je prépare la rançon Cette équipe veut des buts, veut faire plein de hits J'sui Pelé, le meilleur avant-centre Je prend des épaules, pas des épaulettes J'écoute pas de rap français pour être honnête Il y a que mon crew que je suis censé connaitre Négro j'ai les crocs et qu'une parole, je vais tenir mes promesses , dis moi tu veux du flow, du groove dans tes synapses Cosy Bang Bang fait danser tout le village Notre prochain album est déjà dans le sillage Cosy Cosy Bang Bang Trentenaire, trentenaire, j'en ai marre de ces bolosses et leurs sapes de merde Trop de boulettes sur mon coste-La boy Je respire le rap, tu n'en as que l'air Surpris par la foule à tous nos concerts Frappé par la foudre depuis collège Ouais depuis O'High je fais des tracks illicites Je vois même crier des meufs devant nos posters Cosy Bang Bang pour toi joli cur Premier disque, dispo chez ton disquaire Ouais harcèle ton fournisseur Grosse énergie, vibe d'apothicaire Vas y remue ton boul petite tass' Tu veux des Dès la première note tu fais des folies, folies Tu veux des selfies, tu veux des dédicaces Trop de flow, tellement Que tu vas m'accuser d'harcèlement Je ne suis que joie et bonne humeur Alors vous ferez la fête le jour de mon enterrement Tu me vois loin devant Torse bombé, je cours fièrement Tu me parles de vitesse, tu me parles de vie de rêve Je crois que je suis en plein dedans Rien d'neuf, rien d'clinquant, gun dans les tympans Vieux déglingué fringuant, cinglé, jeune délinquant Inquiet les cinq sens, cherche le billet d'cinq cent Les petits prenaient des cinq francs, maintenant ils prennent des cinq ans Pendant qu'on m'parle d'un temps qui n'pourra pas renaître Comme un printemps, j'regarde passer les putes à la fenêtre En trinquant, et j'ai crié jusqu'à c'que j'm'endorme Ma mémoire... ou une boite de Pandore Moi, j'ai déçu leurs attentes, paraît qu'c'est trop tard, c'est mort Ferme ton cul quand j'chante, que les petites garces m'ignorent Moi, j'ris quand j'me plante, on dirait qu'j'suis Garcimore Mais c'est plus pareil depuis qu'ma bande a mis la clé sous la porte Mon clan a baisé le score, ouais, mais ça fait long time Porté disparu, putain d'barbu dans la montagne On gagne ou on meurt, on s'marre et on pleure Mais, ressasser les rancurs du passé, c'est zéro euro d'l'heure J'ai rien contre le succès, thanks to the almighty N'essaie pas d'me sucer MenaceToSociety J'ai pas fait ça pour la gloire, j'ai fait ça pour le biscuit J'ai fait ça pour pouvoir me lever tous les jours à midi Et je flippe que ça soit fini, j'traîne seul le soir sous liqueur Ça parle mal sur Twitter, préviens-moi sur mon bippeur Il m'a tellement donné, j'peux pas haïr ce jeu D'l'ancien volcan, ils veulent voir rejaillir le feu Hey yo, roule un gros zbar négro Ton number one pothead est dans le spot Je veux une Jouer pour le Barça, vivre une vie de pacha Faire le même score que Jackson Thriller Ma vie est tournée vers ça Puis vice et versa je vise la couronne de Versailles Méduse sur le torse je porte du Versace Camouflage vert kaki Nouvelle chance, qui la offerte à qui ? Jirai provoquer la banque je veux pas de tes vers gratuits Pacifiste en lâme mais jai le verbe actif Cest quand les miens fondent en larmes que je me serre la vis Navigue sur des mers arides, attendant que le best arrive Pour le reste cest le même tarif Jsuis lopposé du maire de la ville Fumée dherbe à pleine narine Vivre jusquà en perdre la vie Jai versé trop de sang sur feuille blanche Aujourdhui je tombe chaque neurone pour que mon flambe Fortifie mes fondations, faut que les leurs tremblent Que leurs armes soient dirigées sur leurs propres tempes Jemmerde leur culte jai mon propre temple Quand tu tires le recul à trop dimportance Jcroise que des MC impotents Faux, comme croire de croiser les choses en votant Tu mcroiseras joint au bec en sifflotant Le futur tappartient seulement si tu prends le volant Donc met ta cagoule met les gants Jme sens mieux quand les billets se mélangent Jvais pas tirer sur les gens mais jsuis attiré par les grands de ce monde Qui me poussent à prier pour que mes plans se montent La tête appuyée sur les planches du sol On est venus en peace, négro range ton Glock En plus ça roule des spliffs toutes les 30 secondes Demi Portion tape un petit passe-passe sur la touche Mais vise la surface, l'effet de surprise Big Up à pour rester sur pause, une vida loca, cherche loccaz Un peu d'audace de faire des bêtises On a passé lâge, on sen fiche Un jour tout sefface Oui cest Rachid, fait voir ton visage Oui cest facile de parler trop mal Non cest rapide de faire des dommages Atterrit tandis que décolle lâge Pas de coloriage ne me colle pas de biatch Rien à lamiable jeune âge Je me sers de ma bouche comme une arme Où je me couche, toi tu te caches Centre de menaces, tu toublies grave Oui je vis sans, loin des strass Pourquoi tu stresses ? Faut que tu saches Manque pas dadresse à chaque message Oui les mots blessent, mais qui est sage ? Naal dine oumouk un coup de schlass Rentrer dans le moule, ça faut pas Tout est fragile, il y a tout qui se casse Qui fait la tête, et qui sécrase Sorti de Sète, Lion de lAtlas Pas de compet, jai pas le temps pour ça La grosse tête te gâchit la face Oui ça magace, pas trop ma tasse Pendant que tu parles, et bousille le taff Bigflo et Oli, freestyle Dédicace à mon crew le classique Beaucoup de bruit pour Bigflo et Oli Le sud le fait mieux, le sud le fait mieux Le sud le fait mieux, le sud le fait mieux 7 piges de silence, et le rap est blessé Il est passé de Nique Ta Mère à Mathilde Seigner Parait quil ne mange plus de porc, et se gave de billets Pour une Bentley en or, certains se mettent à briller Je ne suis pas le meilleur des oursons, au pays du rap game Moi je rappe pour ton frisson, eux ils font du rap Whats my name ? D double O dans le rap game Clint Eastwood mon nickname Tu gobes mon flow tu deviens dingue Je te bang bang, bang bang, molécules je les décompose Je naime pas quand le mic', jflingue, MC que tes Nike reposent Weed bleue dans le gros bang Mon cur vogue à Penny Lane Wicked, Wikileaks, mon flow qui tape tout ton abdomen Si je nai pas pris le mic' depuis Où vous êtes , cest que vous êtes la En paquet de six, un paquet pour six, des couches et du zetla Weed bleue qui te guette la Rap français qui te jet-lague Weed bleue qui me jette la Rap français on est quittes Donne des low-kicks comme une kalash dans un pays de apaches Grand armés de haches, et dune équipe sans attaches Jfuck tout ce business, cest de lamour au kilogramme Manager dans le money gramme, et lespoir miroite comme un hologramme Quand je dis Dadoo, vous dites classique, classique Quand je dis Dadoo, vous dites classique, classique Les MC débitent des phrases débiles Se prennent pour les rois des beats mais les échecs défilent Pourtant ils font partie des hits, ils font le tour des villes Voici venus Biggy et Oli te fait pas de bile La jeunesse ne connaît plus le respect Ils rêvent que de caisses, de liasses et de tasse-pé Ils aiment le sexe sous tous ses aspects On les engraisse au MacDo et tous ces abcès Séjour carcéral, non mais envoie le flow même si ça fait mal Contrôle parental, si tu mets pas du cul, je sais c'est pas rentable C'est lamentable mais c'est l'industrie du chiffre aujourd'hui Tu vends plus aucun disque, poursuivi par le fisc Tu veux pas prendre de risques alors tu sors une connerie En plus ça se vend par milliers Musique décevante, humilié Ils veulent que tu banques, ils veulent que tu danses, tu flanches Ils veulent nous faire plier On va pas les prier, nous on les casse, leurs tours de passe-passe, leur cache-cache face à face Qu'est ce que tu veux qu'ils fassent ? On va leur casser le dos, pour plus qu'ils fassent les beaux Télévision pour les dix petites arnaques au téléphone Met des culs dans les clips pendant que l'état nous assome Et des tonnes de codes, l'école déconne, les bonnes sont connes, à coup de Aucune envie d'vous aider, jeune padawan, vieux pédé J'vous découpe à coup d'épée, vous et vos putes toutes pétées Les fous, c'est plus c'que c'était, tout l'monde me demande Où t'étais ? Même si tu parles pas, tout se sait et, même si tu parles, tout se paie Tout se paie cash ou à crédit, come on biatch, are you ready? Are you ready? De la douleur, j'prédis, pas de douceur, j't'ai dit, moi, c'est Krueger Freddy Ou Rocco Siffredi-fredi et, tout d'un coup, ton pussy frémit, frémit J'suis la nouvelle épidémie-démie, you know I'm not good comme Amy, Amy, Amy Rest in peace miss Amy Winehouse, François in the hood, j'suis dans la White House Où ? Dans la White House où ? Dans la White House, suce mon cigare ou bye-bye pétasse Aïe, des fois, massacrer, ça fait mal au cur, aïe, mais tu l'as mérité motherfucker Die, et tu vas nous quitter motherfucker, die motherfucker, die motherfucker Tminik et j'te baise, moi, c'est Philippe Etchebest Timnik et j'te baise, moi, c'est Philippe Etchebest C'est Philippe Etchebest, Philippe, Philippe Etchebest Philippe Etchebest Y'a pas de hasard, tout est logique, j'suis un barbare technologique J'frappe à coup d'marteau dans ton crâne, et j'soigne tous tes problèmes psy-psychologiques C'est pas la peine d'appeler la police, non, à peine arrivés, ils périssent Les grillons, on les crame, on les brûle dans les flammes Comme les dragons de Daenerys Je vois des flashs, j'en entends qui rouspètent Nique la kalash, j'ai sorti la 12.7 J'arrive plus bordélique qu'un bolchévique ouzbek C'est pas Michael, mais ils vont crier Who's Bad? , à coup d'rafale dans la tête Quand ça rafale, ils se cachent, ils cavalent, là, je crache, ils avalent, ils avalent, ils avalent Dans le conduit nasal, ma came artisanale, ton style, il a mal, lyrics archi-banales Nanani nanana, mais y'a tchi, y'a nada, plus précis qu'la NASA J'suis ratatatatatatata Tminik et j'te... Tminik et j'te baise, moi, c'est Philippe Etchebest Philippe Etchebest, Philippe, Philippe Etchebest Tminik et j'te baise, moi, c'est Philippe Etchebest Pour mes sahbs, pour mes homies Pour les singes et les barges et les jolies L'ambiance elle est calme elle est cosy Oui dans ma tête, dans mes rêves, dans mes folies T'as voulu réveiller l'eau qui dort Dis moi alors quand est-ce qu'on s'isole ? J'ai des pensées insensées, c'est mon corps qui se colle Surtout ne crie pas il y a mes potes qui dorment Le jour se lève sur ton Je flippe, je redoute, mais ta Je le vis dans ma tête, et je goute tes lèvres Je remercie Dieu vers la voute céleste Cosy cosy bang bang Je vis d'amour et d'eau tiède Fuck ta parano je n'ai plus peur des triangles isocèles</t>
+          <t>Dandyguel, Black 10 Invincible for real LR Prod, good music Yeah On vient de l'Essonne, Dandyguel Black 10, ta rime est trop one-one Tu fais ta belle, on te malmène à plus de mille, mine De rien, on passe pour des anciens Sur les faux sur les nuls, lancez des ufs XXX en huit, en quatre, en deux Adulte, ado, plaidez, aidez le hip-hop On a les mains on a les pieds dedans Le plin non-stop, j'rappe, tant mieux si ça plaît Du moment qu je ne me travestis pas T'es dans de beaux draps, vesqui pas la vérité Tu sais pas rapper, à l'époque on t'aurait rembarré Comme un lion en cage, ton rap tourne en rond Bourrés doivent être les imbéciles qui ont osé misé sur toi On rappe depuis l'époque où jamais tu ne sortais Hip-hop mon étendard, à l'époque on était durs Et non pas laissés en l'état Dire qu'il n'y a que d'la soupe serait t'mentir La résistance, un freaky flow en guise de monture Reste hip-hop Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Trop de convenances, pas assez de consistance, j'organise la résistance Si t'es hésitant j'me fous de c'que tu penses Les lyrics que j'balance, ne les mets pas de côté De toute évidence on comprend qu'le rap s'est fait boycotter Jette la pierre aux spectateurs aux faux jacteurs, au fond acteurs Trop en quête de projecteurs Et d'beaux mecs qui ont tort De n'pas comprendre que l'rap c'est d'la culture hip-hop Pour tous ceux qui dérapent, pas moyen que j'les big-up Message aux mecs sages, grands ou de bas âge Le temps j'prend pour c'pétage d'instru, je tourne la page De mon cahier d'notes pour préparer le braquage Je me tape du flop, j'suis venu exprimer ma rage On défendra ce truc sans arrêt, on raisonne comme des tarés Si parfois on tourne en rond, sur beat on met ça carré J'me prends pas un cainri, j'ai pas voté Obama Le 9-1, Viry Grigny, sera jamais l'Alabama Je lâche pas, je tape ça, du côté des minorités Je vate-sa les lopes-sa qui rappent avec médiocrité J'ai la furie et la foi comme Don Choa, j'suis trop chaud, la Pression monte, car trop d'ses-pha Reste hip-hop Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote Dandyguel, Black 10 Represent On s'empare du micro pour de nouvelles aventures</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dans la légende</t>
+          <t>Philippe Etchebest</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie qu'ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange High dans le ciel avec un ange J'aime bien ma vie, j'ai pas envie que ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange On baise au chant du coq Là dans ta main c'est ma cock Y a nos initiales sur ta coque Hun Là j'm'habille j'ai sortit les Doc J'dis que ça va avec tes bottes Ça va pas avec tes potes Hun En plus t'as pas envie d'leur dire qu'on est ensemble Pourtant, tous les soirs, tu viens toquer à ma chambre Parce que j'suis l'seul pélo qui fait trembler tes jambes Enchanté, Laïoss, bientôt j'rentre dans la légende Don't cry Laïoss dans, dans la légende High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie qu'ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange High dans l'ciel avec un ange J'aime bien ma vie, j'ai pas envie que ça change T'essaies de m'cacher c'que t'as sous la manche Range tes médocs, ce soir on fuck et tout s'arrange</t>
+          <t>Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest Han, ta cuisine est sale et ta bouffe est dégueu' Ta chatte a des champignons vénéneux Putains d'MC bons qu'à bouffer des queues J'ai deux fois leur âge, j'suis deux fois plus frais qu'eux Ouais, j'suis plus frais que ces jeunes pédés Plus frais que tous ces vieux cons de rappeurs Ouais, j'suis plus frais qu'un nouveau né Plus frais qu'un bébé dans le congélateur Poto, tu parles trop, tu m'emmerdes Ouais, ok, envoie-moi un e-mail Défoncé, je roule sur leur grand-mère Comme si j'étais Benoît Magimel Te fais pas d'espoir imaginaire Ils ne peuvent pas copier mes recettes Comme un chef, j'suis à l'aise, je les baise Avec du piment dEspelette Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest Y'a pas de hasard, tout est logique J'suis un barbare technologique J'frappe à coup d'marteau dans ton crâne Et j'soigne tous tes problèmes psy-psychologiques C'est pas la peine d'appeler la police, non À peine arrivés, ils périssent, han Les grillons, on les crame, on les brûle dans les flammes Comme les dragons de Daenerys Je vois des flashs, j'en entends qui rouspètent Nique la Kalach', j'ai sorti la 12.7 J'arrive plus bordélique qu'un Bolchevique Ouzbek C'est pas Michael, mais ils vont crier Who's Bad? À coup d'rafale dans la tête Cash, ça rafale, ils se cachent, ils cavalent Là, je crache, ils avalent, ils avalent, ils avalent Dans le conduit nasal, ma came artisanale Ah, ton style, il a mal, lyrics archi-banales Nanani nanana, mais y'a tchi, y'a nada Plus précis qu'la NASA, je tire ratatataratatatata Tatataratatatata Tatataratatatata Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest2</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bad Boys de Marseille</t>
+          <t>Aux absents</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chaud comme Marseille, on vous met le feu Le cur de la ville s'enflamme quand le son entre en jeu Les préoccupations des frères s'infiltrent dans ton Walkman L'argent, la boisson, la fumée et les femmes Je nagerais avec les femmes et un micro dans une piscine Si j'avais l'occasion de partir loin des vermines L'hésitation ne se ferait pas, c'est certain Mes poches sont vides et j'ai faim de pognon et d'un bon destin J'extirpe ces quelques mots, un stylo de mon paletot, sorti un jour Du caniveau, je roule dans les casinos Ouais, je fais le zguègue en espadrilles, mais j'assure quand même Quoi qu'il arrive, car Fonky est la Famille Autant parler des mains que la bouche chez nous n'est pas louche Méditerranéen de souche, mes styles font mouches Au milieu d'embrouilles ou de mauvais coups Je crame tous les tintanos qui nous cherchent des poux Dans la nuit, un MC check check le mic Taquiner la rime et le beat est mon véritable hobby Envoyer des styles pour tous les frères qui nique la halla Pour la première fois, le refrain commence comme ça Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys Pendant que tu fais un flop, que tu tapes un magnétoscope Don Choa calcine les rimes comme une clope en garde à vue Le hip-hop au top descend le long de la rue Et se saisit du showbiz à son insu Accepte le son, qui touche de près mes entrailles Au bercail, ma fonction est le travail Je me comporte en canaille, aïe ! Les mauvais garçons se collent comme des moucherons Au jupons, frappent sans hésiter pour le pognon Comme les apaches guinchent ton scalp Ton fric est la proie, des hordes de chiens des Alpes En veulent à tes Delacroix Mais pas moi, je suis droit, respecte les autres et crois Au pouvoir de la rime dans la destruction des hazas L'été, les quartiers, postes dans le bus Que demander de plus, fusse le funk ou des Vénus ? Gus, soi-disant ma ville pue en plus Dieu t'a-t-il fait avec un anus au lieu des sinus ? Simple dans ma façon de faire mon sang rouge clair Pourtant, j'ai la peau noire et fier de l'avoir Je cours à la gloire des quartiers avec mes idées Le produit, sera toujours enragé Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys J'en ai marre de les voir flipper Y'a pas que le mauvais côté Le Rat te le dira, la vie est faite pour s'amuser Capte le concept des mecs qui s'en battent les couilles Le bon délire est là, t'inquiète on se débrouille Mes pensées drivent coolo, coolo Voilà quelques mots Pour l'avenir incertain de mes potos Qui ont quitté les cours tôt La rage est dans mon âme pour le drame du Front National J'allume la flamme, la flamme Fils, comprends ce que tu peux comprendre Un bon conseil, prétends à ce que tu peux prétendre Réfléchis un instant avant de faire un pas, tu saisiras Pourquoi on te lèvera où que tu sois Avant, je combattais contre des moulins à vent Maintenant, je fais vibrer les salles et le public en rappant Satir au soleil, zique à l'oreille Signe une carte de visite live de Marseille La balle de ping-pong d'Ali Kong tape De Marseille à Naples, pour le rap, je capte les étapes Et cap vers le possee qui me suit J'en suis reconnaissant à fond Voilà pourquoi mes potes sont souvent Dans mes chansons Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys1</t>
+          <t>Je vais dire la légende De celui qui s'est enfui Et fait les oiseaux des Andes Se taire au cur de la nuit Le ciel était de velours Incompréhensiblement Le soir tombe et les beaux jours Meurent on ne sait comment Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Lorsque la musique est belle Tous les hommes sont égaux Et l'injustice rebelle Paris ou Santiago Nous parlons même langage Et le même chant nous lie Une cage est une cage En France comme au Chili Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Sous le fouet de la famine Terre terre des volcans Le gendarme te domine Mon vieux pays araucan Pays double où peuvent vivre Des lièvres et des pumas Triste et beau comme le cuivre Au désert d'Atacama Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Avec tes forêts de hêtres Tes myrtes méridionaux O mon pays de salpêtre D'arsenic et de guano Mon pays contradictoire Jamais libre ni conquis Verras-tu sur ton histoire Planer l'aigle des Yankees Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Absent et présent ensemble Invisible mais trahi Neruda que tu ressembles À ton malheureux pays Ta résidence est la terre Et le ciel en même temps Silencieux solitaire Et dans la foule chantant Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>La furie et la foi</t>
+          <t>Sous le soleil</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Dandyguel, Black 10 Invincible for real LR Prod, good music Yeah On vient de l'Essonne, Dandyguel Black 10, ta rime est trop one-one Tu fais ta belle, on te malmène à plus de mille, mine De rien, on passe pour des anciens Sur les faux sur les nuls, lancez des ufs XXX en huit, en quatre, en deux Adulte, ado, plaidez, aidez le hip-hop On a les mains on a les pieds dedans Le plin non-stop, j'rappe, tant mieux si ça plaît Du moment qu je ne me travestis pas T'es dans de beaux draps, vesqui pas la vérité Tu sais pas rapper, à l'époque on t'aurait rembarré Comme un lion en cage, ton rap tourne en rond Bourrés doivent être les imbéciles qui ont osé misé sur toi On rappe depuis l'époque où jamais tu ne sortais Hip-hop mon étendard, à l'époque on était durs Et non pas laissés en l'état Dire qu'il n'y a que d'la soupe serait t'mentir La résistance, un freaky flow en guise de monture Reste hip-hop Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Trop de convenances, pas assez de consistance, j'organise la résistance Si t'es hésitant j'me fous de c'que tu penses Les lyrics que j'balance, ne les mets pas de côté De toute évidence on comprend qu'le rap s'est fait boycotter Jette la pierre aux spectateurs aux faux jacteurs, au fond acteurs Trop en quête de projecteurs Et d'beaux mecs qui ont tort De n'pas comprendre que l'rap c'est d'la culture hip-hop Pour tous ceux qui dérapent, pas moyen que j'les big-up Message aux mecs sages, grands ou de bas âge Le temps j'prend pour c'pétage d'instru, je tourne la page De mon cahier d'notes pour préparer le braquage Je me tape du flop, j'suis venu exprimer ma rage On défendra ce truc sans arrêt, on raisonne comme des tarés Si parfois on tourne en rond, sur beat on met ça carré J'me prends pas un cainri, j'ai pas voté Obama Le 9-1, Viry Grigny, sera jamais l'Alabama Je lâche pas, je tape ça, du côté des minorités Je vate-sa les lopes-sa qui rappent avec médiocrité J'ai la furie et la foi comme Don Choa, j'suis trop chaud, la Pression monte, car trop d'ses-pha Reste hip-hop Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote J'suis l'antalgique des nostalgiques, nos mecs on big-up Eh ouais, p'tite fiotte Tu nous retrouveras aux antipodes Next episode, textes qu'on isole Sortez les camisoles Tu veux du son, v'là l'antidote Dandyguel, Black 10 Represent On s'empare du micro pour de nouvelles aventures</t>
+          <t>Oh, oh, oh C'est lovni au mic', mec Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, cest pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Ma ville est belle mais la vie, elle y est pire qu'avant Parce que de nos jours, ici, que ça tire et rien qu'ça vend Si seulement je savais comment remonter dans l'temps J'crois que plus jamais je reverrai mon Marseille dantan Jai fait le deuil, c'est mort, cest dev'nu Baltimore Je reconnais plus mon centre-ville et mes quartiers Nord On a payé un lourd tribut, on a payé l'prix fort À qui crois-tu que sont les enfants que la ville dévore ? Dont elle recrache les corps, dont elle noircit les curs Mais qu'en ont-ils à faire au fond, cest pas leurs mères qui pleurent Leurs petits frères qui meurent au pied des barres d'immeubles Nous ont livré, abandonné à notre triste sort À Marseille, gros, tout s'passe dans la tête, laisse pas traîner tes dettes J'suis calé sur la côte, envie d'me barrer, j'prends l'A7 J'partageais mon assiette en souriant quand j'étais à sec Des quartiers Sud aux quartiers Nord, les p'tits ont faim Ils remontent d'Espagne, tu l'sais, n'est-ce pas ? Moi, j'm'attache pas, basta, t'sais qu'on baise tout, j'suis vers l'Estaque 1.3, j'tourne jamais l'dos dans le restau' Chica, une grosse kichta, verte comme pesto Envoie le feu, hachek, y a trop d'herkey, 3aychek, histoires de shit, faux chèques Histoires de shit, faux chèques, ça vend des kil', pochettes Trahi son équipe pour une p'tite qui a des p'tites fossettes, yeah Comme un vide à combler, la Parole de Dieu, ça m'aide à tout surmonter J'regarde vers le Ciel, sais qu'Il m'laissera pas tomber Des quartiers Sud aux quartiers Nord, des Baumettes au Pontet J'suis Marseillais comme Nasri, pour y arriver, j'ai souffert Combien j'ai pensé aux gens, est-ce qu'ils penseront à moi sous terre ? Tout part de la chambre, un mic', une carte son Pardon maman, j'ai fini aux geôles mais j'étais pas un mauvais garçon Né dans les quartiers Sud, j'trainais dans les quartiers Nord Lève le T-Max dans les rues, t'entends à coup d'Va niquer tes morts Ici, personne s'serre les coudes, y a trop d'problèmes d'ego Te jette pas à l'eau, ici, même les sirènes donnent des go Ils veulent trop t'voir à terre, gros, pour ça, j'tiens debout Quand les murs ont des oreilles, les problèmes sortent des égouts J'ai mon DP, ma Chabrand, j'ai des soucis, des chagrins J'fais des erreurs mais j'apprends, eux, ils parlent mais ils savent rien C'est la crise quand y a des 'blèmes dans Marseille Les mamans, elles sortent plus, ça a tiré la veille Ça sent la braise, les képis, ils harcèlent T'façon, on va finir seuls dans un coin de Marseille Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah J't'ai pris ton tapis avec une petite paire de cinq J't'ai pris ton tapin qu'a exhibé sa paire de seins Avant on était plein, maint'nant, y a plus dégun Au temps des francs, on était , on s'aimait, c'était pas pour les gains Nouvelle école, sales sont les codes, et tes potes Sale est l'époque, poussette, coup d'épaule Jadis, sous le porche, rien dans les poches L'amour était proche et aujourd'hui, la mort se rapproche Maintenant, ils font le plein, autoroute à 2.20 Dernière paire de Requin sans penser à demain C'est le début d'la fin, tout l'monde a faim Tout a changé changé, maint'nant c'est le bordel Pas trop manuel, plutôt semi-automatique Elle est refaite, l'ami, j'peux t'en dire qu'c'est de l'art plastique Deux ans de loyer entourés par un élastique On passe très vite d'un air sympathique à Saint-Patrick Electriques sont les gosses, la vie de narcos, tiens l'arme sans l'arthrose On attend pas qu'ça tombe du ciel, on fait les causes T'as grandi dans l'sah, sang froid comme dans glacière à Bielsa Chacun porte ses péchés, mais pas dans le même sac Léwé, en journée, toute l'année, trop jnouné, j'peux tourner, contourner, tourne pas trop autour du pot Tu m'remets ? C'est Papé ou plutôt, c'est Capo Marseillais, essayez, faut payer, c'est Capo Les grands influencent la pluie, tout pour les miens, mon seul appui Murder sur la piste, j'perds le temps à m'mettre sous la pluie Le temps en cristaux liquides, le temps à servir les clins Mes larmes sur les gouttes d'encre mais j'écris sur cristaux liquides Après quelques shots , j'nous r'vois young Une des plus belles vies d'voyou, 1980-quelque chose Par ces temps-là, on était bien libres comme l'art X temps après, c'est zéro peine comme l'arme, mon silence comme larme Pa-pa-pim, homme à terre, décès Cuillère, LDC sur flaque de sang RDC, c'qu'on a laissé Qui zappe le passé n'a pas d'futur à portée d'mains Qu'est-ce que la peine d'aujourd'hui peut apporter d'main ? De Saint-Antoine, au Panier, à la Cayolle Avant-après, c'est Marseille, c'est mariole Ça vit au taquet, met l'paquet dans v'là les domaines Gros, raye le parquet, t'as r'marqué, loin est demain Comme la nuit à l'Opéra, pas peur d'se salir les mains Qui nuit le paiera, et qui veut salir les miens 1.3 en mode opéra, j'suis dans ma paranoïa J'viens du ghetto, ya, t'en veux, tu paies le plot, ya Longue vie aux braves qui mettent du cur pour les 111 Y a qu'l'amour de grave, mon sang ose Comme Zizou, comme Sopra', comme le J, et merci, oh Flamme JO, toujours aussi haut, c'est Marseille, oh Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Dans une ville qui n'existe plus Des ruines et des cendres, réminiscence J'ai vu ces rues ruisseler de sang Plus rien n'a de sens Rêve incandescent, rêve de renaissance Retour au réel, petit, redescends Du passé au présent, tout part en fumée Des pensées perturbées, turbulent, tête brûlée Perdre du temps à calculer, regarder passer les trains Regarder l'sablier s'écouler grain par grain Des sous au chaud, off-shore, ça sort pas d'Oxford Onde de choc, Don Cho', trop chaud, gunshot Ici, si ça sort chargé, c'est logique La Psy, FF, PN, l'Algé, le J Et ouais, mon pote, tout a changé, c'est plus les mêmes choses Plus les mêmes façons d's'habiller, c'est plus les mêmes codes On reconnaît plus nos quartiers, c'est plus les mêmes blocs Mais mashallah, depuis le temps passé, toujours les mêmes potes On reconnaît plus nos quartiers Avant c'était respect, loyauté, plus de complicité, d'amour et de sincérité On reconnaît plus nos quartiers Maintenant, ça met le pare-balles en été Ça blague pas, la vérité, c'est chaud, y a trop d'rivalité Eh, l'atmosphère est tendue comme un string Entends-tu la voix d'la street, mon art tue On reconnaît plus nos quartiers Le petit frère te torture, homicide Tu tchatches plus, t'hallucines au rap cru, aux racistes T'as reconnu la mélodie, le sang, de la ville au grand cur Sages poètes de la street, le film des Tontons flingueurs On m'dit qu'tout a changé, méfie-toi de ton frangin Influencé et matrixé par des films à l'accent latin Bats les couilles d'ton cartel, mouille le maillot, Van Buyten Si RedBull donne des ailes, j'suis Papin, j'suis Verstappen Marseille, city beach, ça va vite, 4Motion Viens faire l'tour de la ville sur une scène en slow motion 1.3, papy, étoile, 'na-'nard Tapie, on t'fait danser dans la street comme Blackstreet No Diggity C'est V.I.N de la Psy4 a.k.a. À l'ancienne, ça f'sait les 4 Marseillais dans ta ville Déjà, une pensée aux absents Pour eux, j'porte le brassard plein d'sang en imposant mon accent Là où nous ont interdit l'accès Dans c'game, j'suis l'vaccin, pas pour tes Rolex mais pour mes frères relaxés Ici, y a qu'dans le kandou qu'on a grandi dans la soie On confie pas estime de soi et obsession d'soi Comme le groupe de François, on a la furie et la foi On porte le keffieh comme les enfants d'Rafah dans l'pe-ra J'suis pas comme eux, j'suis pas commun, jJ'suis pas con mais, joue au con et la faute, je commets J'suis une comète comorienne qui commémore les morts des quartiers Nord Ici combien se noient pour un billet comme la pochette de Kurt Cobain ? Ne prends pas notre pudeur pour une image lisse Marseille, c'est trop vrai pour ton Netflix Marseille, c'est sincère comme les larmes d'un daron Et ça, depuis les grands frères aux surnoms de pharaons Tout en détente, sans casque, en deux temps Penser à ramener le bon vieux temps, celui qu'on aime tant Mais bon je tente On peut pas leur ressembler 13 Organisé vient pour rassembler</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Philippe Etchebest</t>
+          <t>P’tit Bordel 2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Meilleur ouvrier d'France Philippe Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest Han, ta cuisine est sale et ta bouffe est dégueu' Ta chatte a des champignons vénéneux Putains d'MC bons qu'à bouffer des queues J'ai deux fois leur âge, j'suis deux fois plus frais qu'eux Ouais, j'suis plus frais que ces jeunes pédés Plus frais que tous ces vieux cons de rappeurs Ouais, j'suis plus frais qu'un nouveau né Plus frais qu'un bébé dans le congélateur Poto, tu parles trop, tu m'emmerdes Ouais, ok, envoie-moi un e-mail Défoncé, je roule sur leur grand-mère Comme si j'étais Benoît Magimel Te fais pas d'espoir imaginaire Ils ne peuvent pas copier mes recettes Comme un chef, j'suis à l'aise, je les baise Avec du piment dEspelette Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest Y'a pas de hasard, tout est logique J'suis un barbare technologique J'frappe à coup d'marteau dans ton crâne Et j'soigne tous tes problèmes psy-psychologiques C'est pas la peine d'appeler la police, non À peine arrivés, ils périssent, han Les grillons, on les crame, on les brûle dans les flammes Comme les dragons de Daenerys Je vois des flashs, j'en entends qui rouspètent Nique la Kalach', j'ai sorti la 12.7 J'arrive plus bordélique qu'un Bolchevique Ouzbek C'est pas Michael, mais ils vont crier Who's Bad? À coup d'rafale dans la tête Cash, ça rafale, ils se cachent, ils cavalent Là, je crache, ils avalent, ils avalent, ils avalent Dans le conduit nasal, ma came artisanale Ah, ton style, il a mal, lyrics archi-banales Nanani nanana, mais y'a tchi, y'a nada Plus précis qu'la NASA, je tire ratatataratatatata Tatataratatatata Tatataratatatata Tminik et j'te baise moi, c'est Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest J'arrive comme un pilier dans la mêlée, j'suis plus méchant qu'à la télé La cafetière un peu fêlée, ils ne veulent pas se rebeller Han, c'est Philippe Etchebest, Philippe, Philippe Etchebest Han, tminik et j'te baise moi, c'est Philippe Etchebest2</t>
+          <t>Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer J'ai niqué tout l'budget et j'ai même pas fait l'album Vu qu'c'est Sony qui payait, les gosses de chez moi ont dit C'est la bombe J'ai lancé un concours de rimes, personne n'a gagné J'ai dû mixer du Dadoo, du Rat, du NTM, du Marley Et du Yaniss Odua avec mes textes d'il y a quelques années Secoue-moi tout ça, comme le Mapouka, pas besoin de bazooka Juste un petit cutter, ouvre la cabine de pilotage Les égouts débordent, le sol un marécage Bien puant, chien hurlant, ça devient gluant Terrain brûlant, j'reviens suant, marche sans but Dans la rue en deux-zéro-zéro-deux, merci bon Dieu 2003 sois droit et squatte pas qu'ton pieu Dis-moi si tu m'entends maintenant, mon vieux Que tous ceux qui ne sont pas contents se plaignent en haut lieu Je m'en bats les couilles, je suis vraiment feignant et odieux Laisse-moi juste faire ce que je sais faire au mieux... Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer J'emmerde fonctionnaires, flics et curés Ça t'pose problème ? Va t'faire enculer ! Heu... c'est le petit gars sans gêne Ne mentez pas, vous voudriez que je me calme, non Vous m'préférez rageux jours et nuits Vous voudriez que je me came Tellement j'me dépense, je fais ma vie à l'arrache On veut voir la musique de France découpée à la hache Trancher la langue de Garou, rouler en camion sur Sardou Faire l'amour sans tabou aux chanteuses de chansons d'amour Il faut qu'on savoure... Sans perdre de vue le plus précieux Dédié aux mêmes que sur le premier album Si Dieu Veut Et quand on criait dans le désert logés à la même enseigne J'donnerai tout ce que j'ai pour retrouver cette ambiance à l'ancienne Avant on s'amusait, c'est maintenant qu'on galère Avec des responsabilités, gagne ton salaire Faut pas faire que se débrouiller, sauver les femmes et les enfants Je sais pas si tu m'comprends, en tout cas, si tu m'entends... Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer Je sais que vous en avez marre des leçons et de ceux qui les donnent Des rappeurs télévisés qui déconnent et que plus rien n'vous étonne Donc je vais vous donner Don Cho' Avez-vous le sang froid pour François ? Non, c'est trop, pas assez, hum, c'est pas ça, quoi faire ? Laissez-moi retourner toutes les pierres Voir ce qu'il y a de caché derrière N'aie pas peur des vapeurs toxiques Otages de l'industrie comme l'A.Z.F Hommage à ceux qui ont déjà crié pour la F.F Grillé le train pour la F.F C'est pas moi qui paierai l'amende Je suis comme toi, je veux faire mes affaires tranquillement Quand chacun y met du sien ça change les choses Tout a déjà été dit, mais on fait quoi ? Pas grand chose Je suis pas dans les grandes causes, ni dans la polémique Le milieu de la coke, les caïds ou la politique Je veux avoir à tuer personne, même pas toi MC J'me fie à mon instinct, ne dis pas que j'incite Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter le thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aux absents</t>
+          <t>Ghetto People (Version longue)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Je vais dire la légende De celui qui s'est enfui Et fait les oiseaux des Andes Se taire au cur de la nuit Le ciel était de velours Incompréhensiblement Le soir tombe et les beaux jours Meurent on ne sait comment Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Lorsque la musique est belle Tous les hommes sont égaux Et l'injustice rebelle Paris ou Santiago Nous parlons même langage Et le même chant nous lie Une cage est une cage En France comme au Chili Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Sous le fouet de la famine Terre terre des volcans Le gendarme te domine Mon vieux pays araucan Pays double où peuvent vivre Des lièvres et des pumas Triste et beau comme le cuivre Au désert d'Atacama Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Avec tes forêts de hêtres Tes myrtes méridionaux O mon pays de salpêtre D'arsenic et de guano Mon pays contradictoire Jamais libre ni conquis Verras-tu sur ton histoire Planer l'aigle des Yankees Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda Absent et présent ensemble Invisible mais trahi Neruda que tu ressembles À ton malheureux pays Ta résidence est la terre Et le ciel en même temps Silencieux solitaire Et dans la foule chantant Comment croire comment croire Au pas pesant des soldats Quand j'entends la chanson noire De Don Pablo Neruda</t>
+          <t>Hé on est encore là, yeah ! On dit indépendants quoi qu'il arrive Y a que des enfoirés Moi, c'est hé Joey hé pour le B.O., quoi qu'il arrive Hé t'inquiète ! Hé, on est là pour foutre ça sans dessus dessous Bordéliques, whaaa Un jour la misère gèle ton cul et la vie te défie Ça te rend plus philosophe, plus cru qu'Henry Lévy Dire qu'on veut en faire des criminels, coupables de subir la crise T'as vu la bâtardise depuis que Sarko sévit ? Moi je dis mollo, trop de gens ont la tête sous l'eau Que Dieu nous pardonne, on fait ce que l'argent ordonne Pourquoi cette misère alors qu'y a assez de rizières ? Pas assez de neurones pour voir qu'y a assez d'euros ? Moi, j'ai bien foiré dans le rap, mais dans le bon sens du terme Je respecte cette démarche, mon rap admire les rap à thèmes Et si je pouvais faire plus, saches que je ferais beaucoup plus K'1 Fry rap, Resto du coeur, déclenchons le processus Pour le Resto, Popa pose avec le coeur Une rime, un service qui peut prendre de l'ampleur Pour les démunis qui profiteront du bénéfice Ancien ou ne-jeu, tu peux pas test le Project Peace Mec, en guise de maison, un carton sous un pont Sans un pot, gros gratteurs d'euros et ça à chaque saison Z'êtes zen. Nous, pour être heureux, faut qu'on soit plein aux as Mais pour eux, une pièce, un feu, un sourire, une viniasse Tous les jours devant eux on passe, souvent on les mets dans le gess Mais qu'est-ce tu veux qu'on y fasse ? Sadak et fais un geste En bref, pas de toit, pas de bouffe, ni famille Hormis la liberté, y seraient p't-être mieux traités en son-pri Le people crie famine, mais nous parle de quelle faim ? Rien dans la gamelle, ils vivent au jour le jour, ils craignent leur lendemain Juste le temps d'un refrain pour tendre la main aux miens Qui vivent la larme à l'oeil, la main sur l'arme ou le coeur sur la main Allez, lâche un peu de thune, sale jaf ! Je vois que t'es plein de liasses Mais comme d'hab, toi tu lâches ap ouais, regarde ça Pourtant les gens le savent mais ça se passe alors moi je grave Certains te braquent dans le dark et tu te demandes pourquoi, tu brailles J'ai de la peine quand je vois la haine Je vois que l'étrange gêne, or je vois que les trans' se plaignent C'est fort mais les gens crèvent Pendant que ces gens gèlent, s'aiment de-mer, le peuple saigne On a froid, faim, les jeunes sont frades, frais Certains apprennent leur destin au parquet Je suis pas né pour me faire embarquer Trop bradé, je rame trop, je casse ma barque hé C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien Un monde rempli de richesses à la merci de quelques hommes Et des peuples qui s'engraissent et d'autres qui se contentent des restes qu'on leur donne Les Restos du Coeur car le reste a eu peur On veut des gestes et pas juste des promesses, oh feinteurs Je me dois d'être solidaire pour les plus démunis sur Terre Tristes mais solitaires dans toute cette pauvreté qui prolifère Pour tous ceux qui aux yeux des autres ont si peu compté Qui doivent affronter l'indignité, réclament juste un geste de bonté Les choses s'arrangent pas, en 2003, encore des gens qui ne mangent pas Tant que ça t'arrive pas à toi, ça ne te dérange pas, ça change pas Donc le processus se déclenche Quoi de plus à part que de plus en plus font la manche ? En 2003, qui reste en France des gens malades qui meurent de faim Incroyable qu'il y en ait encore qui ne mangent pas à leur faim Ce qu'il m'arrive dans mon train-train, une seule histoire sans fin Système babyphone, un geste aux victimes Nos goûts chics 77 et boutiques Chanel et Gucci... Dis-moi qui a tué Michel Colucci Le gouvernement ne fait rien pour ceux qui dorment dehors L'été y les laissent galérer, l'hiver y ramassent les corps Ecorché par mes échecs, la poisse je l'ai pas semée Je veux brasser sans qu'on me passe les putain de bracelets Ça me lasse mais j'ai pas le droit de laisser abattre Car je pense à ceux qui souffrent et qui n'ont pas de toit De plus en plus on mendie. Comment dire que le gars qui commande, y doit être barge Qu'est-ce vous en dites ? C'est Babylone, c'est splendide On peut écrire plus de cent titres sur ça mais sans hit Ou on peut graille en restant transit, regarde et penses-y Peu de gens se doutent, la misère s'engendre des gares aux parvis L'air perdu, le flair dépourvu de sens, sans abri Là où ils mentent Le nombre de laissés-pour-compte augmente, paix Juste avec un euro, tu peux redonner le sourire On dort mal, mais c'est pas grave on a des frères à nourrir Je suis pas un guerrier au fond, juste un débrouillard Ça n'arrive pas qu'aux autres, faut s'entraider dans ce brouillard Tu peux crier plus fort la vie est belle, y en a encore qui crèvent la dalle Affalés sur le sol, sous un temps de chien à perdre la boule Paraît que la France est tout plein de couvertures sociales Mais sûr qu'ils s'intéressent plus à l'aéro-spatiale On sait que c'est dur, ça bascule Du bonheur à la bavure, v'là l'aventure d'envergure Tout ce qu'on cédait dans la merde pour qu'au fur et à mesure Sois le gardien de mon frère, je veux qu'on se rassure, enfoirés C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien4</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sous le soleil</t>
+          <t>Maintenant ou Jamais</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Oh, oh, oh C'est lovni au mic', mec Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, cest pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Ma ville est belle mais la vie, elle y est pire qu'avant Parce que de nos jours, ici, que ça tire et rien qu'ça vend Si seulement je savais comment remonter dans l'temps J'crois que plus jamais je reverrai mon Marseille dantan Jai fait le deuil, c'est mort, cest dev'nu Baltimore Je reconnais plus mon centre-ville et mes quartiers Nord On a payé un lourd tribut, on a payé l'prix fort À qui crois-tu que sont les enfants que la ville dévore ? Dont elle recrache les corps, dont elle noircit les curs Mais qu'en ont-ils à faire au fond, cest pas leurs mères qui pleurent Leurs petits frères qui meurent au pied des barres d'immeubles Nous ont livré, abandonné à notre triste sort À Marseille, gros, tout s'passe dans la tête, laisse pas traîner tes dettes J'suis calé sur la côte, envie d'me barrer, j'prends l'A7 J'partageais mon assiette en souriant quand j'étais à sec Des quartiers Sud aux quartiers Nord, les p'tits ont faim Ils remontent d'Espagne, tu l'sais, n'est-ce pas ? Moi, j'm'attache pas, basta, t'sais qu'on baise tout, j'suis vers l'Estaque 1.3, j'tourne jamais l'dos dans le restau' Chica, une grosse kichta, verte comme pesto Envoie le feu, hachek, y a trop d'herkey, 3aychek, histoires de shit, faux chèques Histoires de shit, faux chèques, ça vend des kil', pochettes Trahi son équipe pour une p'tite qui a des p'tites fossettes, yeah Comme un vide à combler, la Parole de Dieu, ça m'aide à tout surmonter J'regarde vers le Ciel, sais qu'Il m'laissera pas tomber Des quartiers Sud aux quartiers Nord, des Baumettes au Pontet J'suis Marseillais comme Nasri, pour y arriver, j'ai souffert Combien j'ai pensé aux gens, est-ce qu'ils penseront à moi sous terre ? Tout part de la chambre, un mic', une carte son Pardon maman, j'ai fini aux geôles mais j'étais pas un mauvais garçon Né dans les quartiers Sud, j'trainais dans les quartiers Nord Lève le T-Max dans les rues, t'entends à coup d'Va niquer tes morts Ici, personne s'serre les coudes, y a trop d'problèmes d'ego Te jette pas à l'eau, ici, même les sirènes donnent des go Ils veulent trop t'voir à terre, gros, pour ça, j'tiens debout Quand les murs ont des oreilles, les problèmes sortent des égouts J'ai mon DP, ma Chabrand, j'ai des soucis, des chagrins J'fais des erreurs mais j'apprends, eux, ils parlent mais ils savent rien C'est la crise quand y a des 'blèmes dans Marseille Les mamans, elles sortent plus, ça a tiré la veille Ça sent la braise, les képis, ils harcèlent T'façon, on va finir seuls dans un coin de Marseille Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah J't'ai pris ton tapis avec une petite paire de cinq J't'ai pris ton tapin qu'a exhibé sa paire de seins Avant on était plein, maint'nant, y a plus dégun Au temps des francs, on était , on s'aimait, c'était pas pour les gains Nouvelle école, sales sont les codes, et tes potes Sale est l'époque, poussette, coup d'épaule Jadis, sous le porche, rien dans les poches L'amour était proche et aujourd'hui, la mort se rapproche Maintenant, ils font le plein, autoroute à 2.20 Dernière paire de Requin sans penser à demain C'est le début d'la fin, tout l'monde a faim Tout a changé changé, maint'nant c'est le bordel Pas trop manuel, plutôt semi-automatique Elle est refaite, l'ami, j'peux t'en dire qu'c'est de l'art plastique Deux ans de loyer entourés par un élastique On passe très vite d'un air sympathique à Saint-Patrick Electriques sont les gosses, la vie de narcos, tiens l'arme sans l'arthrose On attend pas qu'ça tombe du ciel, on fait les causes T'as grandi dans l'sah, sang froid comme dans glacière à Bielsa Chacun porte ses péchés, mais pas dans le même sac Léwé, en journée, toute l'année, trop jnouné, j'peux tourner, contourner, tourne pas trop autour du pot Tu m'remets ? C'est Papé ou plutôt, c'est Capo Marseillais, essayez, faut payer, c'est Capo Les grands influencent la pluie, tout pour les miens, mon seul appui Murder sur la piste, j'perds le temps à m'mettre sous la pluie Le temps en cristaux liquides, le temps à servir les clins Mes larmes sur les gouttes d'encre mais j'écris sur cristaux liquides Après quelques shots , j'nous r'vois young Une des plus belles vies d'voyou, 1980-quelque chose Par ces temps-là, on était bien libres comme l'art X temps après, c'est zéro peine comme l'arme, mon silence comme larme Pa-pa-pim, homme à terre, décès Cuillère, LDC sur flaque de sang RDC, c'qu'on a laissé Qui zappe le passé n'a pas d'futur à portée d'mains Qu'est-ce que la peine d'aujourd'hui peut apporter d'main ? De Saint-Antoine, au Panier, à la Cayolle Avant-après, c'est Marseille, c'est mariole Ça vit au taquet, met l'paquet dans v'là les domaines Gros, raye le parquet, t'as r'marqué, loin est demain Comme la nuit à l'Opéra, pas peur d'se salir les mains Qui nuit le paiera, et qui veut salir les miens 1.3 en mode opéra, j'suis dans ma paranoïa J'viens du ghetto, ya, t'en veux, tu paies le plot, ya Longue vie aux braves qui mettent du cur pour les 111 Y a qu'l'amour de grave, mon sang ose Comme Zizou, comme Sopra', comme le J, et merci, oh Flamme JO, toujours aussi haut, c'est Marseille, oh Marseille, ouais, c'est dans les veines Y a des joies, y a de lourdes peines Notre histoire, c'est pas la tienne Rien de nouveau sous le soleil, yeah J'me vois dans les yeux d'la mama Y a des joies, y a de lourdes peines Marseille, ouais, c'est dans les veines Rien de nouveau sous le soleil, yeah Dans une ville qui n'existe plus Des ruines et des cendres, réminiscence J'ai vu ces rues ruisseler de sang Plus rien n'a de sens Rêve incandescent, rêve de renaissance Retour au réel, petit, redescends Du passé au présent, tout part en fumée Des pensées perturbées, turbulent, tête brûlée Perdre du temps à calculer, regarder passer les trains Regarder l'sablier s'écouler grain par grain Des sous au chaud, off-shore, ça sort pas d'Oxford Onde de choc, Don Cho', trop chaud, gunshot Ici, si ça sort chargé, c'est logique La Psy, FF, PN, l'Algé, le J Et ouais, mon pote, tout a changé, c'est plus les mêmes choses Plus les mêmes façons d's'habiller, c'est plus les mêmes codes On reconnaît plus nos quartiers, c'est plus les mêmes blocs Mais mashallah, depuis le temps passé, toujours les mêmes potes On reconnaît plus nos quartiers Avant c'était respect, loyauté, plus de complicité, d'amour et de sincérité On reconnaît plus nos quartiers Maintenant, ça met le pare-balles en été Ça blague pas, la vérité, c'est chaud, y a trop d'rivalité Eh, l'atmosphère est tendue comme un string Entends-tu la voix d'la street, mon art tue On reconnaît plus nos quartiers Le petit frère te torture, homicide Tu tchatches plus, t'hallucines au rap cru, aux racistes T'as reconnu la mélodie, le sang, de la ville au grand cur Sages poètes de la street, le film des Tontons flingueurs On m'dit qu'tout a changé, méfie-toi de ton frangin Influencé et matrixé par des films à l'accent latin Bats les couilles d'ton cartel, mouille le maillot, Van Buyten Si RedBull donne des ailes, j'suis Papin, j'suis Verstappen Marseille, city beach, ça va vite, 4Motion Viens faire l'tour de la ville sur une scène en slow motion 1.3, papy, étoile, 'na-'nard Tapie, on t'fait danser dans la street comme Blackstreet No Diggity C'est V.I.N de la Psy4 a.k.a. À l'ancienne, ça f'sait les 4 Marseillais dans ta ville Déjà, une pensée aux absents Pour eux, j'porte le brassard plein d'sang en imposant mon accent Là où nous ont interdit l'accès Dans c'game, j'suis l'vaccin, pas pour tes Rolex mais pour mes frères relaxés Ici, y a qu'dans le kandou qu'on a grandi dans la soie On confie pas estime de soi et obsession d'soi Comme le groupe de François, on a la furie et la foi On porte le keffieh comme les enfants d'Rafah dans l'pe-ra J'suis pas comme eux, j'suis pas commun, jJ'suis pas con mais, joue au con et la faute, je commets J'suis une comète comorienne qui commémore les morts des quartiers Nord Ici combien se noient pour un billet comme la pochette de Kurt Cobain ? Ne prends pas notre pudeur pour une image lisse Marseille, c'est trop vrai pour ton Netflix Marseille, c'est sincère comme les larmes d'un daron Et ça, depuis les grands frères aux surnoms de pharaons Tout en détente, sans casque, en deux temps Penser à ramener le bon vieux temps, celui qu'on aime tant Mais bon je tente On peut pas leur ressembler 13 Organisé vient pour rassembler</t>
+          <t>FF, On prend les mêmes et on recommence Tu sais quel genre de vie qu'on relate Dès qu'on s'lance 2000 L'heure des comptes a sonné faut qu'on s'venge Bang, bang C'est FF, Bang, bang C'est FF, Bang, bang, c'est FF J'imagine mal faire de vieux os mais si le contraire s'produit J'm'imagine mal à la tête d'un réseau Refourguer un tas de produits A chacun son truc, j'ai choisi la musique mais ça va pas sans risque Y a tout un tas d'connards et d'losers qui doivent nous jalouser Ils croient que j'ai rien d'autre à foutre que d'partouzer Faire du sport en chambre, tomber du Champ' Claquer un max de blé à bout de champs pour tuer le temps dès que ça m'chante J'ai tenté ma chance sans savoir si elle me sourirait Mon vier, maintenant c'est moi qui m'retrouve envié Ils se disent étonnés de me voir traîner seul en ville Mais j'étais là avant qu'tous s'intéressent de près à ma vie J'veux pas m'plaindre j'connaissais les règles avant d'jouer La partie n'est pas finie qu'beaucoup veulent nous voir échouer J'sais pas si j'suis prêt ou encore loin du but Vu qu'ça devient aussi dangereux et chaud que la chatte d'une pute Si tu n'protèges ni toi ni tes arrières Tu t'mets en danger le mal a une grande soif dure à étancher Y a un tas de pain sur la planche j'peux pas flancher C'est simple me fais pas chier, nous pousse pas à nous fâcher C'est maintenant ou jamais, respect, sinon va-t-on charmer ? Moi j'suis pas venu armé Si la mort donne à la vie toute sa valeur Qui sait les nôtres finiront peut-être enfin par en prendre dès tout à l'heure Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Tu cherches pas les emmerdes, elles viennent quand même toutes seules Rattrapé par ton passé ou des mecs qui veulent te casser la gueule Qu'est-c'que j'fous au mic? comme Gainsbarre, des petits trous Y paraît qu'j'suis dur ou y paraît qu'j'suis doux, nique tout Pour bien qu'tu comprennes le sens de l'expression Faut-il que je laisse une capote usagée dans ton salon? Traite-moi de salop, Don Cho salement abominable Je m'prend pas pour ton po', j'ai qu'un seul abdominal Rentre dans le coin chaud, on te plaque comme de la gomina Allez, dors comme sur les tables de l'école communale J'arrive et j'dis, c'est qui ce crétin ? Un alcoolique, un petit naïf, un malpoli qui plante un petit canif Si tu savais comment j'leur chie dessus Ils nous critiquent mais connaissent-ils vraiment la vie d'rue J'suis un parmi des millions qui n'en ont plus rien a foutre Arrive incognito comme un fou dans la foule J'préfère aller en studio que faire des trous dans la route J'préfère la classe affaire que faire un tour dans la soute Nos nerfs sont ordinaires pour de simples citadins FF, brûle ça bien si tu t'crois si malin Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Les soirées c'est mince, dingue Mais si tu me voyais en BM, bing On vient braquer tout ça mais sans flingue N'aie crainte, j'viens pas épater la galerie Il faudrait plus qu'une feinte pour stopper ma cavalerie Tu tiens à nous néguer donc on prend le large Coule les sous-marins, nie ceux qui en sous-marin joue les ennemis T'as beau envoyer tes mayday mayday , t'es mal barré Vu qu'personne ne viendra t'aider Ton organisme va serrer, ça va être infernal FF est de retour, on s'doit d'faire mal Ferme-la si t'es pas d'accord avec c'que j'défends Les mecs du béton aiment ça et en s'en servant J'vais pas soigner mon langage pour faire vendre Rapper sur des sons nazes ou sur des airs tendres Fais ton truc maintenant, qui sait où tu seras demain On peut y passer bêtement en un rien de temps C'est maintenant, pousse le son, vas-y fais le dingue Bouge ta viande, n'aie crainte si la température grimpe On est entre nous, entre crèves, entre couz' d'la zone qui ont la fièvre J'suis pas un vendeur de rêves, dédié à ceux qui sont dedans et dehors Sois dans le coup ou hors, ça vient du 13 et pas d'New-York Ici, FF, tu penses connaître la recette mais les choses ne sont jamais c'qu'elles paraissent être Si tu veux nique la fête, on donne l'alerte Pour nos frères, nos surs qui aiment l'ambiance monte parfaite Touche ton front, vois si la fièvre monte Fais pas l'croque-mort mais le croque le monde Sans regrets, sans remords, c'est maintenant à tout moment On peut y passer bêtement Sur Terre, c'est vie pour vie, il pour il, dent pour dent Perds mon clan, ma clique et les autres Ami, si tu aimes le béton, mets la main sur ton cur et vois s'il bat vite Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P’tit Bordel 2</t>
+          <t>Atmosphère suspecte</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer J'ai niqué tout l'budget et j'ai même pas fait l'album Vu qu'c'est Sony qui payait, les gosses de chez moi ont dit C'est la bombe J'ai lancé un concours de rimes, personne n'a gagné J'ai dû mixer du Dadoo, du Rat, du NTM, du Marley Et du Yaniss Odua avec mes textes d'il y a quelques années Secoue-moi tout ça, comme le Mapouka, pas besoin de bazooka Juste un petit cutter, ouvre la cabine de pilotage Les égouts débordent, le sol un marécage Bien puant, chien hurlant, ça devient gluant Terrain brûlant, j'reviens suant, marche sans but Dans la rue en deux-zéro-zéro-deux, merci bon Dieu 2003 sois droit et squatte pas qu'ton pieu Dis-moi si tu m'entends maintenant, mon vieux Que tous ceux qui ne sont pas contents se plaignent en haut lieu Je m'en bats les couilles, je suis vraiment feignant et odieux Laisse-moi juste faire ce que je sais faire au mieux... Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer J'emmerde fonctionnaires, flics et curés Ça t'pose problème ? Va t'faire enculer ! Heu... c'est le petit gars sans gêne Ne mentez pas, vous voudriez que je me calme, non Vous m'préférez rageux jours et nuits Vous voudriez que je me came Tellement j'me dépense, je fais ma vie à l'arrache On veut voir la musique de France découpée à la hache Trancher la langue de Garou, rouler en camion sur Sardou Faire l'amour sans tabou aux chanteuses de chansons d'amour Il faut qu'on savoure... Sans perdre de vue le plus précieux Dédié aux mêmes que sur le premier album Si Dieu Veut Et quand on criait dans le désert logés à la même enseigne J'donnerai tout ce que j'ai pour retrouver cette ambiance à l'ancienne Avant on s'amusait, c'est maintenant qu'on galère Avec des responsabilités, gagne ton salaire Faut pas faire que se débrouiller, sauver les femmes et les enfants Je sais pas si tu m'comprends, en tout cas, si tu m'entends... Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter l'thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer Je sais que vous en avez marre des leçons et de ceux qui les donnent Des rappeurs télévisés qui déconnent et que plus rien n'vous étonne Donc je vais vous donner Don Cho' Avez-vous le sang froid pour François ? Non, c'est trop, pas assez, hum, c'est pas ça, quoi faire ? Laissez-moi retourner toutes les pierres Voir ce qu'il y a de caché derrière N'aie pas peur des vapeurs toxiques Otages de l'industrie comme l'A.Z.F Hommage à ceux qui ont déjà crié pour la F.F Grillé le train pour la F.F C'est pas moi qui paierai l'amende Je suis comme toi, je veux faire mes affaires tranquillement Quand chacun y met du sien ça change les choses Tout a déjà été dit, mais on fait quoi ? Pas grand chose Je suis pas dans les grandes causes, ni dans la polémique Le milieu de la coke, les caïds ou la politique Je veux avoir à tuer personne, même pas toi MC J'me fie à mon instinct, ne dis pas que j'incite Laisse-moi foutre mon p'tit bordel Continuez le vacarme mais n'ramenez pas d'arme Prêt à faire péter le thermomètre Avec juste un bloc de glace, son dégueulasse Odeur tenace dans mes godasses Un stylo et un kilo d'herbe Chacals et chacalettes veulent croquer dans la galette Passe-moi les clés du bulldozer Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>C'est du nique-tout les gars, en mission pour Première classe La section nique-tout, Ärsenik, hé yo ! FF, Ärsenik Plus rien n'va si les gars qui font cet art se niquent Premièrement, j'rappe salement et saluement Seulement, dernièrement y a du monde derrière moi y compris de sales mômes Deuxièmement rien à foutre des stars Du moment où Luciano J'aime ça Crée verbalement, vrai également, si des frères flippent on a l'manche. On fait l'fric illégalement sans manche L'extase manque, mes textes marquent si j'smoke FF s'marre sur Mars, tu sais d'qui on s'moque D'où vient l'malaise ? On a toujours les sales rôles D'mande à Malemek, on zonera jamais en sales Rolls J'viens d'en bas les mecs, cette vie underground n'est pas rose. Là où on s'en bat les mecs A Marseille ça d'vient le Far-West et c'est pas drôle J'amène nos potes, la preuve qu'on va niquer l'monopole Et en faire paniquer avec nos noms, mon pauvre Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro Mate la technique, j'évite le non-sens comme un virus Superstar dans l'ghetto ! Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro Mate la technique, une musique pas faite pour 100 personnes mais pour des millions Celui par qui vient l'scandale, poète vandale En dalo chauffe la dalle ou crève la dalle Sur ta face, j'essuie ma sandale Première Classe, Lino, Luciano en featuring Mon rap un sport de sang, t'es en chien si tu sors du ring J'kick la misère et les autres mendient miséricorde Et tandis qu'ils passent du bon temps, le diable me tend la corde 16 temps pour déchirer alors j's'rai bref, j'irai droit au but, j'dirai merde aux putes. J'greffe mon blaze, chef, mon HF à l'blues FF-Ärsenik et v'là douze mille façons d'mourir J'suis z'def car la rage a chou-rav l'sourire C'est pourrir dans c'trou à rat ou mourir loin du brouhaha S'nourrir d'espérance niquée comme à la roulette Sous la houlette mon staff roule et fait swinguer les zoulettes J'évite les schmits comme les boulettes sur mon satin Dixit Borsalino et le Rat, objectif atteint Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro J'marque la technique, j'évite le non-sens comme un virus superstar dans l'ghetto Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro J'crois qu'on a notre truc à faire, sur rythme la ramener Tu veux nous calmer, man, amène un mandat d'amener Yo, ma hargne se propage, cause du vacarme comme le SIDA N'épargne aucun étage, la rime mon arme, qui décida d'essayer d'nous rayer ? C'est l'heure pour eux d'payer Écoutes mon rap fait pour tailler les pourris en place, déblayer Dieu m'as compris mec, même si j'parle vite, sec comme une détonation. Celle de la F.F, c'est une déflagration A c'qu'on dit d'ma Fonky, c'est tout sauf fade Mais qu'est ce qu'on peut y faire, chef, si même ta femme nous back Du freestyle, c'est ça ma vie mec, nique les mics F.F style, fans de sous secs, shit, skyy, rap rafale, pluie d'pruneaux, avale, Don Choa mitraille, cavale Feu à volonté, sur les be-vi De minuit à 7 heures du mat, j'affûte mes styles jusqu'à l'infini Des lyrics de sniper comme mon pote Soon en graffiti Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro J'marque la technique, j'évite le non-sens comme un virus Superstar dans l'ghetto Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro Mate la technique, une musique pas faite pour 100 personnes mais pour des millions Don Choa, Le Rat Luciano, Lino, Fonky Family, Ärsenik Première Classe, il dit ça, si Dieu veut, un jour aussi nous on sera en place, yeah... Secteur Ä, c'est du nique tout F.F hein, clin d'il, 3ème il, Venom, Carré Rouge yeah La Section nique tout Première Classe, Première Classe, Première Classe Si Dieu veut nous aussi un jour on sera en place Comme dit S.A.T., c'est ma S.N.T, nique tout comme la TNT yeah, Secteur Ä, Fonky Family, Première Classe1</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ghetto People (Version longue)</t>
+          <t>Assassin</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hé on est encore là, yeah ! On dit indépendants quoi qu'il arrive Y a que des enfoirés Moi, c'est hé Joey hé pour le B.O., quoi qu'il arrive Hé t'inquiète ! Hé, on est là pour foutre ça sans dessus dessous Bordéliques, whaaa Un jour la misère gèle ton cul et la vie te défie Ça te rend plus philosophe, plus cru qu'Henry Lévy Dire qu'on veut en faire des criminels, coupables de subir la crise T'as vu la bâtardise depuis que Sarko sévit ? Moi je dis mollo, trop de gens ont la tête sous l'eau Que Dieu nous pardonne, on fait ce que l'argent ordonne Pourquoi cette misère alors qu'y a assez de rizières ? Pas assez de neurones pour voir qu'y a assez d'euros ? Moi, j'ai bien foiré dans le rap, mais dans le bon sens du terme Je respecte cette démarche, mon rap admire les rap à thèmes Et si je pouvais faire plus, saches que je ferais beaucoup plus K'1 Fry rap, Resto du coeur, déclenchons le processus Pour le Resto, Popa pose avec le coeur Une rime, un service qui peut prendre de l'ampleur Pour les démunis qui profiteront du bénéfice Ancien ou ne-jeu, tu peux pas test le Project Peace Mec, en guise de maison, un carton sous un pont Sans un pot, gros gratteurs d'euros et ça à chaque saison Z'êtes zen. Nous, pour être heureux, faut qu'on soit plein aux as Mais pour eux, une pièce, un feu, un sourire, une viniasse Tous les jours devant eux on passe, souvent on les mets dans le gess Mais qu'est-ce tu veux qu'on y fasse ? Sadak et fais un geste En bref, pas de toit, pas de bouffe, ni famille Hormis la liberté, y seraient p't-être mieux traités en son-pri Le people crie famine, mais nous parle de quelle faim ? Rien dans la gamelle, ils vivent au jour le jour, ils craignent leur lendemain Juste le temps d'un refrain pour tendre la main aux miens Qui vivent la larme à l'oeil, la main sur l'arme ou le coeur sur la main Allez, lâche un peu de thune, sale jaf ! Je vois que t'es plein de liasses Mais comme d'hab, toi tu lâches ap ouais, regarde ça Pourtant les gens le savent mais ça se passe alors moi je grave Certains te braquent dans le dark et tu te demandes pourquoi, tu brailles J'ai de la peine quand je vois la haine Je vois que l'étrange gêne, or je vois que les trans' se plaignent C'est fort mais les gens crèvent Pendant que ces gens gèlent, s'aiment de-mer, le peuple saigne On a froid, faim, les jeunes sont frades, frais Certains apprennent leur destin au parquet Je suis pas né pour me faire embarquer Trop bradé, je rame trop, je casse ma barque hé C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien Un monde rempli de richesses à la merci de quelques hommes Et des peuples qui s'engraissent et d'autres qui se contentent des restes qu'on leur donne Les Restos du Coeur car le reste a eu peur On veut des gestes et pas juste des promesses, oh feinteurs Je me dois d'être solidaire pour les plus démunis sur Terre Tristes mais solitaires dans toute cette pauvreté qui prolifère Pour tous ceux qui aux yeux des autres ont si peu compté Qui doivent affronter l'indignité, réclament juste un geste de bonté Les choses s'arrangent pas, en 2003, encore des gens qui ne mangent pas Tant que ça t'arrive pas à toi, ça ne te dérange pas, ça change pas Donc le processus se déclenche Quoi de plus à part que de plus en plus font la manche ? En 2003, qui reste en France des gens malades qui meurent de faim Incroyable qu'il y en ait encore qui ne mangent pas à leur faim Ce qu'il m'arrive dans mon train-train, une seule histoire sans fin Système babyphone, un geste aux victimes Nos goûts chics 77 et boutiques Chanel et Gucci... Dis-moi qui a tué Michel Colucci Le gouvernement ne fait rien pour ceux qui dorment dehors L'été y les laissent galérer, l'hiver y ramassent les corps Ecorché par mes échecs, la poisse je l'ai pas semée Je veux brasser sans qu'on me passe les putain de bracelets Ça me lasse mais j'ai pas le droit de laisser abattre Car je pense à ceux qui souffrent et qui n'ont pas de toit De plus en plus on mendie. Comment dire que le gars qui commande, y doit être barge Qu'est-ce vous en dites ? C'est Babylone, c'est splendide On peut écrire plus de cent titres sur ça mais sans hit Ou on peut graille en restant transit, regarde et penses-y Peu de gens se doutent, la misère s'engendre des gares aux parvis L'air perdu, le flair dépourvu de sens, sans abri Là où ils mentent Le nombre de laissés-pour-compte augmente, paix Juste avec un euro, tu peux redonner le sourire On dort mal, mais c'est pas grave on a des frères à nourrir Je suis pas un guerrier au fond, juste un débrouillard Ça n'arrive pas qu'aux autres, faut s'entraider dans ce brouillard Tu peux crier plus fort la vie est belle, y en a encore qui crèvent la dalle Affalés sur le sol, sous un temps de chien à perdre la boule Paraît que la France est tout plein de couvertures sociales Mais sûr qu'ils s'intéressent plus à l'aéro-spatiale On sait que c'est dur, ça bascule Du bonheur à la bavure, v'là l'aventure d'envergure Tout ce qu'on cédait dans la merde pour qu'au fur et à mesure Sois le gardien de mon frère, je veux qu'on se rassure, enfoirés C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien C'est pas tout le monde qui a la chance de manger à sa faim C'est le coeur qui cause avant l'esprit pour eux, le temps d'un petit refrain Montrons l'exemple, Ghetto People, donnons-nous la main Pour nos semblables qui crèvent la dalle sur les dalles du métro parisien4</t>
+          <t>Rxkz I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail The town will bury you alive, dig me out this bitch The love is faker over here, this some counterfeit I was takin' all these shots, and without a grip Now Jayden touchin' more chicken than some flower, shit Look, I make my own decisions small 'cause I'm my mama's son When I come to self, I'm centered like I seen George Washington I'm the center of my team, don't fuck with me, I'm not the one I seen what you really are inside, Jay Eazy got byakugan Or I just know if the sequence has occurred Because it's sort of like catching it is getting simpler I'm good with the signs, no signature Y'all makin' me laugh but my feelings hurt My shoulder not Forest Whitaker You tryna lean on me like I spilled the syrup But Jay don't fuck with people, Jay introvert, you get on my nerves So get off my body, don't want yo' bum ass habits rubbin' off on me I make hella bands off rapping, does it seem like just a hobby? If I talk that talk and back it up every time, is that called cocky? I don't know, I just whip it, Ricky Bobby I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail Mama moved here for a better life, it's the same for me Still, the devil's makin' deals like NHL free agency But shit get ugly, don't use makeup, nature don't use Maybelline You can take them out the hood, they'll make a hood, so Hood is with them everywhere they go, like Assassin's Creed Upstate don't change nun' but area codes, if you askin' me Look at NBA, they scorin' everywhere, don't matter teams Me, I just wanna get money, be a hero, think Lantern, I'm after Green I hope my message is save the babies if it isn't gonna save your average teen Right now, you think you know though, and you got caught, you kickin' with McAfee Right now, y'all into the same shit, but when it changes, don't grab a tape, we makin' arrangements Look, you're on a path that they are on to So, don't ride with 'em Like no packs of the mongoose, because, look, you are who you keepin' around you Because, look, compromising with mediocrity means that you allow it In that case, any time I give my two cents it's to a felon I'm keepin' it brief with 'em In that case, there's nothin' to unpack, y'all ain't about it I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Maintenant ou Jamais</t>
+          <t>16'30 contre la censure</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FF, On prend les mêmes et on recommence Tu sais quel genre de vie qu'on relate Dès qu'on s'lance 2000 L'heure des comptes a sonné faut qu'on s'venge Bang, bang C'est FF, Bang, bang C'est FF, Bang, bang, c'est FF J'imagine mal faire de vieux os mais si le contraire s'produit J'm'imagine mal à la tête d'un réseau Refourguer un tas de produits A chacun son truc, j'ai choisi la musique mais ça va pas sans risque Y a tout un tas d'connards et d'losers qui doivent nous jalouser Ils croient que j'ai rien d'autre à foutre que d'partouzer Faire du sport en chambre, tomber du Champ' Claquer un max de blé à bout de champs pour tuer le temps dès que ça m'chante J'ai tenté ma chance sans savoir si elle me sourirait Mon vier, maintenant c'est moi qui m'retrouve envié Ils se disent étonnés de me voir traîner seul en ville Mais j'étais là avant qu'tous s'intéressent de près à ma vie J'veux pas m'plaindre j'connaissais les règles avant d'jouer La partie n'est pas finie qu'beaucoup veulent nous voir échouer J'sais pas si j'suis prêt ou encore loin du but Vu qu'ça devient aussi dangereux et chaud que la chatte d'une pute Si tu n'protèges ni toi ni tes arrières Tu t'mets en danger le mal a une grande soif dure à étancher Y a un tas de pain sur la planche j'peux pas flancher C'est simple me fais pas chier, nous pousse pas à nous fâcher C'est maintenant ou jamais, respect, sinon va-t-on charmer ? Moi j'suis pas venu armé Si la mort donne à la vie toute sa valeur Qui sait les nôtres finiront peut-être enfin par en prendre dès tout à l'heure Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Tu cherches pas les emmerdes, elles viennent quand même toutes seules Rattrapé par ton passé ou des mecs qui veulent te casser la gueule Qu'est-c'que j'fous au mic? comme Gainsbarre, des petits trous Y paraît qu'j'suis dur ou y paraît qu'j'suis doux, nique tout Pour bien qu'tu comprennes le sens de l'expression Faut-il que je laisse une capote usagée dans ton salon? Traite-moi de salop, Don Cho salement abominable Je m'prend pas pour ton po', j'ai qu'un seul abdominal Rentre dans le coin chaud, on te plaque comme de la gomina Allez, dors comme sur les tables de l'école communale J'arrive et j'dis, c'est qui ce crétin ? Un alcoolique, un petit naïf, un malpoli qui plante un petit canif Si tu savais comment j'leur chie dessus Ils nous critiquent mais connaissent-ils vraiment la vie d'rue J'suis un parmi des millions qui n'en ont plus rien a foutre Arrive incognito comme un fou dans la foule J'préfère aller en studio que faire des trous dans la route J'préfère la classe affaire que faire un tour dans la soute Nos nerfs sont ordinaires pour de simples citadins FF, brûle ça bien si tu t'crois si malin Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant Les soirées c'est mince, dingue Mais si tu me voyais en BM, bing On vient braquer tout ça mais sans flingue N'aie crainte, j'viens pas épater la galerie Il faudrait plus qu'une feinte pour stopper ma cavalerie Tu tiens à nous néguer donc on prend le large Coule les sous-marins, nie ceux qui en sous-marin joue les ennemis T'as beau envoyer tes mayday mayday , t'es mal barré Vu qu'personne ne viendra t'aider Ton organisme va serrer, ça va être infernal FF est de retour, on s'doit d'faire mal Ferme-la si t'es pas d'accord avec c'que j'défends Les mecs du béton aiment ça et en s'en servant J'vais pas soigner mon langage pour faire vendre Rapper sur des sons nazes ou sur des airs tendres Fais ton truc maintenant, qui sait où tu seras demain On peut y passer bêtement en un rien de temps C'est maintenant, pousse le son, vas-y fais le dingue Bouge ta viande, n'aie crainte si la température grimpe On est entre nous, entre crèves, entre couz' d'la zone qui ont la fièvre J'suis pas un vendeur de rêves, dédié à ceux qui sont dedans et dehors Sois dans le coup ou hors, ça vient du 13 et pas d'New-York Ici, FF, tu penses connaître la recette mais les choses ne sont jamais c'qu'elles paraissent être Si tu veux nique la fête, on donne l'alerte Pour nos frères, nos surs qui aiment l'ambiance monte parfaite Touche ton front, vois si la fièvre monte Fais pas l'croque-mort mais le croque le monde Sans regrets, sans remords, c'est maintenant à tout moment On peut y passer bêtement Sur Terre, c'est vie pour vie, il pour il, dent pour dent Perds mon clan, ma clique et les autres Ami, si tu aimes le béton, mets la main sur ton cur et vois s'il bat vite Tu sais que c'est maintenant, combien y passent bêtement D'ici demain, tant on part en un rien de temps Chaude ambiance, viens dedans, bouge ta viande sans bain de sang La fièvre du béton m'prend, faut y aller maintenant</t>
+          <t>Ouai jvoulais dire, bon écoute j'voulais dire Cercle Rouge de retour contre toutes les censure possibles, oui j'vais l'dire contre tous ces fils de ...biiip Putain vous faites quoi ? c'est toi Fabien ? Mais non c'est pas moi c'est Jeff Mais arrête c'est Spirit Ouai, ouai c'est tout, à chaque fois qu'y'a une censure, hein, c'est jamais personne J'vais leur dire aussi qu'c'est des encu...biiip Ouai et pas n'prendre pour des c...tuut encore longtemps Eh vous l'faites exprès ou quoi ?biiiiiip Mais mer...biiip fais ch...biiiip... Qui fait du censeur censé Contrôler nos dires, nos raps, nos pensées Sur ce son, soeur, jcompte bien représenter Nos consors, en insensé Déverser les vérités que jrecense et dire tout cque jressens Cest ma vie ça ? alors mles brise pas si tas un 'blème avec FF de Mars' débarque et tcloue lbec, vite fait bien fait Comme des mecs cagoulés Rapper mcolle à la peau tel une sangsue Et ça se sent si jprends une version cash, que jpose dessus A coup sûr, à ce jour, personne mempêchera dlouvrir Tant qude bon et pauvres gens continueront dsouffrir Estimez-vous heureux cest juste des mots pour se faire entendre Jusquà cquon descende ensemble,pour tout foutre à feu, à cendre ! Me traite pas djeunes à problèmes Juste d'calcineur de pollen Les accrocs aiment le bordel Nos propos lsèment Mais lété est là avant quon sen mêle Heureusement, ici, on te torture pas pour ce que tu as dit Surtout si cest qudes pécadilles Là ça leur plait bien aux PDs Jsuis pas sortit de South Central, ni dnulle part Tu connais ma section, cest du nique tout comme South Park Ou l'historique FF on cherche pas la merde, cest juste le son quon trafique Au mic responsable de massacres comme Elf en Afrique Faut que jparle cash, qulétat sache, quaujourdhui notre rap marche On sacharne à nos vies donc ça fâche les vaches La rue notre repère, on a vu cque vous avez fait à nos pères Travailler pour une misère cest grave On dérange mais dorénavant cest trop tard Comme disent mes potes on a not truc à faire Jchoque les plus fort en grammaire Institution française, ceux qui empochent nos Francs Assis sur une chaise Après faudrait quon staise Nique la musique de France et la censure Qule pays srassure Cercle Rouge - FF, une grosse bavure Yo, il flippe le sas, boom et shoot La censure passe mes textes à la loupe Bosse ton jeu Boy Scout Mission accomplie tant que plane le doute Il faut quma science passe devant Mène devant Sème devant la rage Hé, mais sans laisser de bains dsang On sobstine, faut qula rime contamine Chez lhomme en baggy et blue-jean En France on sexprime, parler devient un crime Le rap est dangereux verbe, argot illicite Cest dans lregard de ses mômes, que la vérité est inscrite Je suis sur la liste de la censure, ils savent que vos oreilles sont séduites Nique la censure, il faut que la vérité soit dite Honnêtement, cest plus de rime pour plus de crimes, maintenant Que la rime est bonne et fine, je connais la bonne combine en ce-Fran De qui sont, ces balles qui sifflent sur nos têtes ? Ces préfets qui décrètent, arrêtent des lois façon chasse ouverte Parce que jsème ma graine dans leur jardin secret Pousse comme le cannabis dans leur paradis parce que jcréé La rime qui gêne, la rime qui chatouille Les consciences, mes douilles Par tes patrouilles, ta douce France part en couille Là où ça pense ça dérange Là où ça rappe ça démange La vie se mélange à lart et le mien est lécho des coups quon smange On boycotte ma prod, empêche ma plume de taffer Pour sinstaller, lautocratie passe par lautodafé On brûle les disques indésirables, les films indésirables Le genre douvrage qui inspirent les inquiétudes comme le sourire du Diable Jte promets nous on sfera plus en-lec On dira cquon a à dire et désormais ça va cogner sec Il est temps que le underground ouvre sa gueule La réalité au mic, jla donne pour ceux qui veulent Pour ceux qui tisent la bonne rime fraîche des MC's Qui toastent avec intelligence et savent cquil disent De lombre je suis sortit, désormais tes avertit Face aux grands dce monde, la vérité sort de la bouche des ptits Jaurais pu quer-bra, vivre de quage-bra Puis finir enchaîné comme Kounta Me réveiller et dire quma vie coûte à Une erreur de jeunesse mais cest pas lcas Jai choisit, de faire du peur-a hardcore sans faire de sentiments Car dans la rue pas dcharabia, avec lEtat cest la carotte quon sprend Alors la censure, rien à foutre dénonce, shoote dans ltas Enfonce lEtat, resserre létau, prononce la vendetta Le malaise faut ldécrire et puis tant pis si ça empire La merde en France cest pas nous qui lavons créée, alors pourquoi smentir LEtat nique sa même si sa mère jla connais pas Jserais certainement pas ldernier à lavoir violée dans un dmes peu-ras Crois-moi, jai la haine aucun vaccin ne pourra me calmer Et sache que lpoids dmes mots ça équivaut à 50 000 tures-voi cramées Rap corsé, langue française pour multicolore Jeunesse blessée, remplie de blessures, déçue par le tricolore Cest plus on censure Eben, quEben sait plus ses peu-ra Jveux pas surfer entre les problèmes, jveux carrément foncer dans ltas - Eh Spirit stoppe la musique, stoppe la musique Spirit Stoppe ça, stoppe ça Eben Attends tu crois vraiment là qujai été hardcore ? qujai représenté le texte au maximum, là ? - Tu vois, jcrois qutaurais pus rentrer un peu plus dans lfond du sujet, tu vois un peu plus bien dedans - Plus hardcore encore ? - Ouais, ouais, encore, vraiment tu vois Rappelle-toi Fabius sang-contaminé... Aucune censure ! Le Pen les camps dconcentration, un détail... Aucune censure ! Quand pour Chirac il y a des mauvaises odeurs... Aucune censure ! Quand les keufs flinguent des jeunes dans lcommissariat Aucune censure ! Lhistoire des sans-papiers, homme politiques Aucune censure ! Qules chômeurs sfont per-ta par les CRS Aucune censure ! Quand ces mêmes CRS foncent-dé une église Aucune censure, aucune censure, aucune censure On la reçoit comme Jean-Marie en Martinique Gauche-droite, moi jopte pour lactivisme Micro-organism Bou-A stoppe Tout pacifisme, thèse massive 9-8 jreprends mes droits en 16 mesures Extrémiste, subversif, bref contre lEtat Polémiquer, jai plus ltemps faut qutu saches ça Quand la voix nsuffit plus à sfaire entendre faut des actes, moi Dans ma chambre jproduis des bombes artisanales Donc range tes textes et fais dmême, cest facile dailleurs jai àl Sous les yeux dquoi faire craquer ta cité Sauter des têtes sitôt qujaurais ajouté le clou du spectacle à ce plan dmaître Faire participer lEtat à mon trip, mon but Faire en sorte quil mette le couvercle sur ma cocotte-minute Que vite la pression monte, compte-à-rebours enclenché Cest dors et déjà trop tard pour désamorcer Dun premier ou second degré ? Maintenant à toi de voir Mais sache que nombreux sront brûlés quand la vérité éclatera Ya trop denjeux, les jeunes qui prennent le mic sont trop dangereux LEtat me censure quand je veux cracher des vérités, vieux Ils ont trop dchoses à cacher, moi jai trop dchoses à dire Jpeux pas laisser faire un Etat qui veut interdire Toute forme dexpression de not part Quelque part, je comprends ça leur ferait peur de voir des lascars qui ont raison Et pour ceux qui ont pour vision de nous foutre en prison Sachez que sur le micro on est plus dun million Jeffraie les pince-cul en cravate, bureaucrate Qui pensent que nous naurons jamais la parole du pas dnos banlieues Un nique la police a autant dimpact que les balles dun gun Et si jdis nique la police, cest nique la police dans la tête de 300 000 jeunes Tous unis par les mêmes propos le temps dun morceau Mobilisés pour léveil des esprits bluffés par linfo Info filtrée, réseaux politiques, lEtat balise Si tous les groupes salliaient et se mettaient en cellule de crise Jaccouche mes textes dans la douleur ils veulent que je me taise Trop dmecs qui bougent contre le stylo ils veulent que je me taise Jdeale des mots pas dla came che-lou ils veulent que je me taise Que je me taise ? là le silence a lodeur de la baise Contrôles de condés hagards hein ! Tu veux que je dise quoi hein ! Que je reste cool, à laise dans mes Cortez hein ! Que je dise rien ! Finir plaqué au sol comme un Comorien Que laffaire stasse comme une liasse Que le français moyen ne voie rien Moi on me dicte pas tout Mon nique tout, cest du nique tout Mes 400 coups sont mes 4351 coups Tas le droit de dire ce qui est dit, décrire ce qui est écrit Pour eux le rap cest comme toubib prends ce quon tas prescrit On te pique tout lEtat un Picsou, qui sarrête pas à tes sous Et qui te brûle, sans dessus-dessous Double-Delta, Cercle-Rouge, cette fois-ci on brûle tout On rase tout Black PPDA alias Dadoo Et dire que je me plaignait en cours quand mon prof voulait pas que jouvre ma bouche Et dire que je me plaignait en cours quand on disait que mes textes étaient louches Le rap, le seul moyen dexpression pour H2O Jai lâché toutes mes tripes pour ce putain dsoit-disant fléau Et maintenant on ose me dire que ma zique est une musique à part Son à part de ptits délinquants finissant dans un rempart Tout lmonde sait qule rap dérange mais que veux-tu cest comme ça On nous prends pas encore au sérieux mais tinquiètes ça viendra Pour linstant je prie dur que ma zique monte et nique tout Au nom du Kappa Double Delta, H2O rappe un point cest tout Un jour tu susurre un track-show Quelques journaux tchient dssus Mais lvent tourne et plus tard un gars te tire dssus À quoi ça rime deux rimes seules ? Sonne autant devine, jbombe le torse Même si sur mes textes le ciel tombe Jbrandirai tout cqui a fait notre amitié, Sako LEtat mfait peur comme létat des miens mfait pitié, pain-co Et qumon son sur les murs et les mots servent Quon mcensure mes mots dserf Tu aurait vu dlà, ma faim dsans mesure Si le vieux lchangent, pas les vies Les mêmes ptites gens dans les faces Pleines dplis sur les mêmes pigeons Une plaie dculture nous nargue Notre art lunique chance de vendetta Comme les énarques qui niquent, narguent, font lAmérique State Dans les mairies qu'ces gars briguent Mon rap irrite parce quil se mêle dce qui gêne Et puis dquoi on smêle si on smêle pas dce qui gêne Ils ont fait dnous Sako et VenzeChill Ça compte et ??? Leur dire quon était des gosses bien ? ils en ont rien à foutre ! Comme ils en ont rien à foutre, quon ait rien dbien à foutre Comme on saccoutre ça choque leur murs Mais qui sait des pervers pleins dfoutre Par ces vers quils aillent tous se faire foutre Nous somme les Maures sur le drapeau Sarde Bâillon sur le paupières, le drapeau stargue Et nos vies sentent le graillon, à ce stade à quoi bon ? Ya quoi dbon si on sla ferme ? Si on slâche ferme, on slâche plus, jveille avec un schlass ferme Le silence implicite, complicité La chasse est ouverte, schlass à tout va Les penseurs leur camp sserre Les dents des censeurs, serre leur poings Ils veulent nous tuer parce que le mot les tue Rentrer ces voix dans nos gorges Qutout soit clair comme leau droche Jcrierai sur les toits quici pour qules bouches sferment On corrompt les curs, mes coups seront de courts textes Lécho des cris dmon âme Ldécor décrit nest pas fictif même si dès quon ldécrit Qupléthore des kleenex des curs écrits pour quil renaisse enfin Al belek quand le Arbi sy met Aucun simulacre. La censure massacrer lhomme à abattre Ainsi que, tous ceux qui ont le parler-haut trop vrai Les mecs trop près du réel qui nromancent pas les faits Ceux qui nrenoncent pas, les vrais Qui côtoient linjustice de près Ceux pour qui la misère na pas dsecret Mais créent des textes qui éveillent les consciences Dès lors, ça créé ltrouble dans lcerveau du schmidt gueulard Alors dis-leur qulheure est venue pour nous dlouvrir De tout dire, la censure quil aillent tous mourir Ils mfont surtout rire quand ils parlent dnous censurer Nous on crie, juste haut et fort ce que lélite nous fait endurer Joue les curés quand il sagit de nous, ça Quand Madonna montre son cul, là, ils applaudissent tous debout Le pouls à 140, ils rêvent dy mettre leur carotte Encore une bande de crâneuses qui joue les propres Tu ne tariras pas mon activité Main mis de côté Nassagira pas ma verve critique Mystik, dune autre école, dun autre bahut Que du chahut Je nfais quchanter les peines et les espoirs, les surs, les frères quya eu En scred, mon esprit est libre, vibre On veut mfaire fermer ma bouche car jtouche leur fibre Comment écrire quand les interdits tombent plus vite Que les caractères dun télé-script Quand nos films, nos textes, nos pensées me tètent, irritent Finis les bruits silencieux, même sse-lai, seul et scellés en solo Debout dans les roues jai lbon essieu Je suis dceux qui au micro niquent le décor Le transistor, au micro sonore, empêche ces messieurs de mi-dor À chaque attaque jbrûle vos droits dvéto Lève létendard de révolte comme létau Mon blaze me trahit Javance à tâtons avec le Cercle le plus haït On a des comptes à régler au pays dla liberté des censeurs Cest sincère ma section va saigner même si lon sen sort Les infos durent toujours une demi-heure à la télé Déclarent des contre-vérités Au J.T. lagité fait vent dEtat Les médias méditent sur que fait la police et lboycotte Quitte à cacher la réalité du monde et toffrent un bon colt Jmène mon enquête sur ma quête et pas dpitié pour les estampes Pour certains cest lfestin La mort en empestant le teston des plus démunis Cest à la pauvreté qujfais référence Ils voudraient qujla ferme alors quà peine commence ma conférence Jparle et jdis cque jai à dire forcé quça fasse grincer les dents La prise de position cest chaud selon la couleur dlépiderme Beaucoup aimerait mentendre chanter il court, il court, le furet Les moralistes de la France profonde de Monsieur lcuré Jbalance ma purée, j'évolue dans un style épuré En featuring avec le Cercle Rouge on détruira nos adversaires Ils veulent me scotcher la bouche Ils se touchent Mes speechs mettent de lordre, mes textes mordent Je gêne et sème la discorde Ma horde crie révolte, ce mot dordre Mon rap résorbe le désordre Merde la censure nous absorbent Jsuis anti-flic et F.N Nique leur mouvement de haine Les jeunes se plaignent, on baigne dans linjustice Nos stylos saignent Jlève mon majeur, jfais couler dlencre Ils veulent clouer mon bec ces cancres Jdéfonce la porte pour que la vérité entre Dans ma triste époque, jdéfends la cause de mes tristes potes Censure ou pas peu importe, jplace mes idées fortes Le flic faf nest pas une légende, il faut quon sdéfende Les gens qui commandent veulent couper mes jambes et couper ma langue LEtat nous berne, le mot nique devient mon terme Jdis cque jaime, le soin cest cque jaime Pas moyen qujme prosterne Jreste fort, jmarche encore, parle encore, gueule encore Tant quya désaccord, jrappe encore, jrappe encore La France veut m'bâillonner, me faire taire, mempêcher d'parler Ceux qui la gouverne savent que de ma bouche peut venir le danger J'pense trop, je gêne trop, la France censure mes propos À coup d'procès, coups d'matraque et d'bombes lacrymo On s'organise, papy La France flippe, papy Le mouvement d'masse fait peur, la pression monte, papy Bien, on amplifie les cris d'rage d'une jeunesse Promesse, les voitures brûlent de Strasbourg jusqu'aux tess' de l'Est C'est feu et cendres Ici, tout l'monde veut s'faire entendre La foule se mobilise, les casques de CRS vont s'fendre J'lutte pour mes convictions, céder sur seule solution Contre-censure, pression, féroce Niro en mission Ménélik, MNLK World-Disney, 24 carats Souviens-toi cest lgars qui fait la te-fê même quand ça va pas Jveux une musique plurielle, loin des envieux Que penser des gens qui pensent que le Hip Hop est à eux Si la censure est laction de faire taire les autres Très bien pourquoi faire le ménage ailleurs faisons le notre Bon ben, le premier qui sur mon texte posera une rature, se sera censure Ça coule de source tellement c'en est sûr Ai-je le droit ddire que je naime pas qutu tappelles Nique Ta Mère ? Si tu mfais taire cest sûr quil y aura dla censure dans lair Quand S préfère jouer les groupes signés sur major Est-ce de la censure, hein ? dis-moi si jai tort Arrête la langue de bois, maintenant il faut mdire de quoi il sagit Mes gars sagitent, mes beaux discours nles arrêtent pas Trop dnégro qui croient posséder la science infuse Trop dD.A. kiffent signer le beurre à profuz Trop dmédia qui à force de sucer, la bouche susent Trop dmajor qui prennent la tendance comme une muse Jai du succès, cest vrai, je sais, mais si jtombe personne me loupe Saloperie de censure, faut savoir cracher dans la soupe Pamphlet numéro 1 Ménélik Je pense cque jdis, donc jdis cque jpense Impossible de me stopper dans mon élan, première sentence Rytmo, pour abolir la censure Jtable sur les mots, finis les blessures De carrière et dégaux Ya pas deffets sans causes, une cause commune Tous pour la même cause, on cause jusquà lover-dose Ya comme une odeur, une pression sur la liberté dexpression Ils veulent refuser au public nos prestations Moi jveux dlaction dans mes textes de rap pour des lyrics Toxiques, explosifs, corrosifs, on changera pas les armes nos lexiques Hé, ils veulent nous voir les nerfs à vif À bout dnerfs, ils veulent nous voir vénèr À bout dsouffle, ils veulent et merde, mais quest-ce quelle a ma gueule ? Elle plait pas aux bâillonneurs haut-placés Message sous forme de baillonnette pour les déplacés Placer bientôt, lÂme du Razwar pour briser létau LAme du Razwar bannit lvéto Piqûre de tranquillisant comme au véto On mcensure de quoi slever tôt On msusurre que jai pas dbol, con Ils sont sûrs quils veulent me trôle-con Sassurent qumon co fasse pas trop lcon Trop jparle, quitte à être peu Des lyrics blindés, phrases subliminales Ben quoi ? tas lair surpris minable ! Quand on veut poucave des scoops Tout-ltemps on stéléscope Les ondes, les antennes scoupe Délie ta langue ou j ripe tels les scouts Puis écoute bien dire fait rire, bien faire fait taire Cest lfoutoir, lÂme du Razwar fouteurs de merde A bon entendeur demi mot Y mreste trop dcostars à tailler, les mettre à nu comme dans Streap-Tease, Demi Moore LInsomniak au mic' splace, spose Fais-moi grâce, jcause, jexplose le CSA Puis mes sujets jexpose Une grande cause impossible dtenir ma langue de mtaire Les baillons, les illères nous servent de batailles en hiver Lair de rien je signale éclaboussures, blessures LInsmoniak, lafflux dfissures, méfie-toi dla morsure Du scorpion, qui retombe sur ses pattes Qui pète le score et lpion tmet en échec et mat Leur vocal blesse, le total stress Ce sont des pestes, aussi tordues qula lettre S Les conflits confirment ma face aride Jsuis lardent défenseur aux arguments torrides 6-6-6 fois 3 font 1-9-9-8 Course poursuite du fils durant les trois 8 De chez White et Spirit, la vérité sébruite Les MCs restent les furets par qui passent les fuites Caméra, média sur mes pas Textes surveillés à la loupe de haut en bas De fond en comble, les mots des rappeurs sont guettés Boycottés, les bâtons dans les rues jles bouffe pour mieux les cracher Vomir cque jai envie ddire, ma direction Érection ou injection de rimes ma protection La ligne de conduite, fil conducteur Noyau, vif du sujet, cest là qujvais Et si on mroule je roule dessus, obligé Driver cest mon nom, quand jveux cracher, jcrache La censure va snoyer dans mon molard, quelle le sache Tu peux pas mempêcher de dire cque jai à dire Ma langue est libre et pour toi cest ce quil y a de pire Laissez-moi assurer Ya pas dblanc sûr et on est censuré Linformation circulera quand même sans censurer certains Faut se taire, bah, nique sa race, jfais mon job cest des News fraîches que les SF pêchent aux quatre coins du globe BDB OOGY car on acte dans la même bataille La censure fait quon a toujours pas dmaille Se serait con qujtravaille donc de tfaçon, garçon On sen bat les couilles, mon crew prépare son combat Et les gros tron-pa mordront à lhameçon Constamment les médias médisent sur le mouvement Une mode à coups de vent mais ça fait déjà 10 ans 10 ans quon peut sy exprimer, soi-disant Cest pas nouveau donc on chie dedans Et prie pour voir un jour le CSA les pieds devant Jdis cque jvis, jvis cque jvois Mcensurer pourquoi ? SoldaFada, black bazooka, rap renégat Opposé à tout quota en France Le rap en télésurveillance Donc ta bienveillance, yeah, on passe outre Autorité, juges, censeurs, rien à foutre Donc, cest parti, jte mets tout sur étalage comme un Pakistanais Papy jconnais, les Victoires de la Musique ce sera jsais pas qui ctannée Pas dpistonné Nakk, Nakk veut pas quon lbâillonne Dac', dac' chaque claque de nous en fait du rap tout-terrain 4x4 Ils niquent ma musique, ça mamuse, les muselières Sont pour nos gueules, jsuis ému ils ont même lu Molière SoldaFada, tu mdiras, ils sont débiles ceux-là Pour eux jsuis plus proche de Mamadou lZoulou que dÉmile Zola Avec White et Spirit, une version adéquate et jtirrite Quoi tes stérile ? taccouche pas, mon micro de 500 Watts est terrible Prendre les armes ben jsais pas. On hésite Ils ont mis des chaînes à mes ancêtres, faut pas quil mettent des chaînes à ma musique Et on verra, qui fait lcon, qui paiera Ça on lsaura, quand la majeure partie des majors participera1</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Atmosphère suspecte</t>
+          <t>Haute tension</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>C'est du nique-tout les gars, en mission pour Première classe La section nique-tout, Ärsenik, hé yo ! FF, Ärsenik Plus rien n'va si les gars qui font cet art se niquent Premièrement, j'rappe salement et saluement Seulement, dernièrement y a du monde derrière moi y compris de sales mômes Deuxièmement rien à foutre des stars Du moment où Luciano J'aime ça Crée verbalement, vrai également, si des frères flippent on a l'manche. On fait l'fric illégalement sans manche L'extase manque, mes textes marquent si j'smoke FF s'marre sur Mars, tu sais d'qui on s'moque D'où vient l'malaise ? On a toujours les sales rôles D'mande à Malemek, on zonera jamais en sales Rolls J'viens d'en bas les mecs, cette vie underground n'est pas rose. Là où on s'en bat les mecs A Marseille ça d'vient le Far-West et c'est pas drôle J'amène nos potes, la preuve qu'on va niquer l'monopole Et en faire paniquer avec nos noms, mon pauvre Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro Mate la technique, j'évite le non-sens comme un virus Superstar dans l'ghetto ! Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro Mate la technique, une musique pas faite pour 100 personnes mais pour des millions Celui par qui vient l'scandale, poète vandale En dalo chauffe la dalle ou crève la dalle Sur ta face, j'essuie ma sandale Première Classe, Lino, Luciano en featuring Mon rap un sport de sang, t'es en chien si tu sors du ring J'kick la misère et les autres mendient miséricorde Et tandis qu'ils passent du bon temps, le diable me tend la corde 16 temps pour déchirer alors j's'rai bref, j'irai droit au but, j'dirai merde aux putes. J'greffe mon blaze, chef, mon HF à l'blues FF-Ärsenik et v'là douze mille façons d'mourir J'suis z'def car la rage a chou-rav l'sourire C'est pourrir dans c'trou à rat ou mourir loin du brouhaha S'nourrir d'espérance niquée comme à la roulette Sous la houlette mon staff roule et fait swinguer les zoulettes J'évite les schmits comme les boulettes sur mon satin Dixit Borsalino et le Rat, objectif atteint Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro J'marque la technique, j'évite le non-sens comme un virus superstar dans l'ghetto Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro J'crois qu'on a notre truc à faire, sur rythme la ramener Tu veux nous calmer, man, amène un mandat d'amener Yo, ma hargne se propage, cause du vacarme comme le SIDA N'épargne aucun étage, la rime mon arme, qui décida d'essayer d'nous rayer ? C'est l'heure pour eux d'payer Écoutes mon rap fait pour tailler les pourris en place, déblayer Dieu m'as compris mec, même si j'parle vite, sec comme une détonation. Celle de la F.F, c'est une déflagration A c'qu'on dit d'ma Fonky, c'est tout sauf fade Mais qu'est ce qu'on peut y faire, chef, si même ta femme nous back Du freestyle, c'est ça ma vie mec, nique les mics F.F style, fans de sous secs, shit, skyy, rap rafale, pluie d'pruneaux, avale, Don Choa mitraille, cavale Feu à volonté, sur les be-vi De minuit à 7 heures du mat, j'affûte mes styles jusqu'à l'infini Des lyrics de sniper comme mon pote Soon en graffiti Atmosphère suspecte et lignes plates ce morceau va faire date Les jeunes délinquants s'éclatent un max au micro J'marque la technique, j'évite le non-sens comme un virus Superstar dans l'ghetto Atmosphère suspecte, et Lin' pacte pour n'pas faire d'actes Les jeunes délinquants s'éclatent un max au micro Mate la technique, une musique pas faite pour 100 personnes mais pour des millions Don Choa, Le Rat Luciano, Lino, Fonky Family, Ärsenik Première Classe, il dit ça, si Dieu veut, un jour aussi nous on sera en place, yeah... Secteur Ä, c'est du nique tout F.F hein, clin d'il, 3ème il, Venom, Carré Rouge yeah La Section nique tout Première Classe, Première Classe, Première Classe Si Dieu veut nous aussi un jour on sera en place Comme dit S.A.T., c'est ma S.N.T, nique tout comme la TNT yeah, Secteur Ä, Fonky Family, Première Classe1</t>
+          <t>Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Il paraîtrait qu'nos propos sont violents, mais la vie reste cruelle Comme le viol d'une fille dans une ruelle Un jeune que les flics passent à tabac et vire au violet Vois-tu tous ces gosses qui de plus en plus tôt s'mettent à voler Qu'est-ce que vous vouliez, que j'dise être désolé Mon rap lui restera dur quitte à vous affoler Et si ça te gêne, suce mon goro Depuis qu'j'suis venu au monde, j'ai rien vu d'très beau J'ai vu des potes qui sont tombés très tôt ou très bas Mène un terrible combat, ils jurent de pas s'faire ron-ba Ceux qui comprennent pas dur de pas s'faire baiser Parfois blessés dans leur chair, mais tous prêts à se dresser Ils s'disent agressés quand on livre nos pensées Sur le gouvernement, quand on s'lâche ouvertement Sans retenue, quel intérêt on a à c'que l'ordre soit maintenu Vu qu'leurs promesses sont jamais tenues Sous haute tension, mais vivants par la grâce du Très Haut Prend l'courant tu r'pars froid ou très chaud Moral zéro, ils s'font rares les héros, on n'a qu'des mots Pour t'secouer comme un rail d'héro L'arme lame d'rasoir, matraque, batte de baseball Chatte mouillée, seins qui bougent et fesses chaudes Série d'électrochocs, transaction d'coke Attente du verdict, réquisitoire du proc' J'entends d'drôles d'histoires mon pote, juste trop vrai J'crie Vive la zone et fuck le progrès J'ai si peu d'essence et tant d'choses à cramer J'ai si peu d'temps avant qu'j'me taise à jamais J'peux pas m'calmer, mec, j'veux la ramener Textes armés d'haine, et sans cran d'sureté T'sais que tout pète, c'est bien dans notre intention Don Choa, FF haute tension Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Qu'est-ce qui est mis sous haute tension ? Baiser une inconnue sans Manix Foutre un suisse dans un neiman de GSX Quand j'commence là où toi tu t'arrêtes Quand y a les civils en face et dans les poches les restes de barrette Vie dure argent et mains sales, frère, ça forge Et d'puis, tu peux pas imginer tout c'que les miens savent faire Faut qu'j'respecte ça fort Trouver l'bonheur là où il est peu importe sa forme Aller chercher les armes, s'retrouver au volant d'un bolide Ou voir mère verser des larmes Tout ça, mis sous haute tension, comme un pompe pointé vers soi Ou apprendre que son môme est en détention Quand la famille a b'soin d'argent et qu'il y a rien C'est comme voir la mort de près, l'éviter de rien Être sous haute tension, quand même, on aime bien Comme chacun des citoyens on veut dominer l'monde dès qu'ça vient On désire produire d'l'effet, profiter Car la vie est la plus grande fortune que Dieu nous ait donnée C'est pas tiré d'un roman mais inspiré d'réels faits Au bon endroit au bon moment et c'est comme ça qu'l'histoire se crée Tu crois avoir affaire aux chanteurs à la croix d'bois 'foiré T'as 4 clebs, toujours aux abois, ouais, enfoiré Ça vient d'Mars, pas celui d'Pagnol Mais d'ces rues qui sentent la tétrahydrocannabinol Merci à Dieu de m'donner ma chance, maintenir mon groupe vivant, entier C'est pas un jeu nous on n'est pas là pour plaisanter Pour c'qui nous ont quitté avant l'heure, c'est à souhaiter qu'ils aient trouvé mieux ailleurs Ce sera pas bien dur ici y a peu d'allégresse Les jours se ressemblent comme deux goutes d'eau ou presque On espère que la misère régresse Mais cette pute brise plus de foyer qu'les maitresses De Mars' on r'part en croisade contre l'état avare C'est la même merde aux 4 coins de France et d'Navarre J'laisserai qui s'mettre en travers de mon groupe de mes buts ? Ni l'fric ni la dope et encore moins une pute Prend le bien ou mal, ça m'est bien égal J'continuerai même s'ils rendaient nos phases illégales T'aimes tant mieux, t'aimes pas tant pis De toute façon qu'est-ce que ça change vu qu'on s'attend au pire FF, y a plus d'enjeu hormis sauver nos peaux Vu qu'vivre par les temps qui courent est devenu dangereux êtes vous prêts Espèces d'enfoirés êtes vous prêts ? Moi j'suis prêt Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension1</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Assassin</t>
+          <t>Une seule fois</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Rxkz I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail The town will bury you alive, dig me out this bitch The love is faker over here, this some counterfeit I was takin' all these shots, and without a grip Now Jayden touchin' more chicken than some flower, shit Look, I make my own decisions small 'cause I'm my mama's son When I come to self, I'm centered like I seen George Washington I'm the center of my team, don't fuck with me, I'm not the one I seen what you really are inside, Jay Eazy got byakugan Or I just know if the sequence has occurred Because it's sort of like catching it is getting simpler I'm good with the signs, no signature Y'all makin' me laugh but my feelings hurt My shoulder not Forest Whitaker You tryna lean on me like I spilled the syrup But Jay don't fuck with people, Jay introvert, you get on my nerves So get off my body, don't want yo' bum ass habits rubbin' off on me I make hella bands off rapping, does it seem like just a hobby? If I talk that talk and back it up every time, is that called cocky? I don't know, I just whip it, Ricky Bobby I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail Mama moved here for a better life, it's the same for me Still, the devil's makin' deals like NHL free agency But shit get ugly, don't use makeup, nature don't use Maybelline You can take them out the hood, they'll make a hood, so Hood is with them everywhere they go, like Assassin's Creed Upstate don't change nun' but area codes, if you askin' me Look at NBA, they scorin' everywhere, don't matter teams Me, I just wanna get money, be a hero, think Lantern, I'm after Green I hope my message is save the babies if it isn't gonna save your average teen Right now, you think you know though, and you got caught, you kickin' with McAfee Right now, y'all into the same shit, but when it changes, don't grab a tape, we makin' arrangements Look, you're on a path that they are on to So, don't ride with 'em Like no packs of the mongoose, because, look, you are who you keepin' around you Because, look, compromising with mediocrity means that you allow it In that case, any time I give my two cents it's to a felon I'm keepin' it brief with 'em In that case, there's nothin' to unpack, y'all ain't about it I'm in Middletown, New York, I don't care if you ain't heard of it Middletown, New York would have you stuck in this shit permanent In Middletown, New York, I swept the floor, I worked at retail In Middletown, New York, and I still hit a M like Gmail</t>
+          <t>Elle avait le teint caramel j'avais la dent sucrée Le désir était trop sportif pour que j'essaie d'lutter vous avez 0 ami en commun Il faut que j'en fasse partie avant qu'elle parte et le tout sans m'incruster Jlai vue comme elle demandait au serveur son résumé Elle sort par la deuxième sortie au fond et pouf! fumée Glisser entre mes doigts comme un objet trop lustré Laissant son prénom sur un Starbucks cup Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était là devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie So jai glissé ses dm J'sais pas pourquoi jlai fait mais c'est trop tard jsuis dans ses dm eeh merde Mon message devient claustrophobe Coincé sur une petite page blanche il faut que j'me sauve Message à mon image, prisonnier d'un téléphone Qui en oublie sa fonction première à force de traverser l'époque Et y'a aucune porte pour sortir de la messagerie Mais on sait quel type d'humain se tient près de la sortie Mon style de dame à plus classe que cette manière d'approcher en a Elle connait ses classiques mais sait aussi ébrancher un arbre Elle aime B.I.G. mais connait Jeru The Damaja Et elle m'parle de Lunatik si jlui parle de B2oba Elle préfère Gibbs avec Madlib elle a même Pinata en wax Et elle baverait devant mon P-Town autographié par Jazzy Bazz Tu vois c'est ltype de styfe Qu'on rencontre qu'une seule fois Surtout quand tu glisse dans ses dm et qu'elle vague sur toi Dm Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était la devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Allô On s'follow sur instagram depuis wayback Ouin Checkez-moi bien Glisser dans ses dm comme Laurie Blouin Ouin I don't wanna be alone Chanter Sur des airs de violon Devant le feu de foyer En chest comme Joe Rocca Dans l'futur on va appeler ça la belle époque Peut-être même fall in love C'est pas impossible c'est pas impossible Parler jusqu'à oublier cqu'on voulais dire Jveux tlifter sur les pegs de mon bmx Rouler jusqu'à s'perdre dans nos souvenirs Yeah Yeah Check moi bien y dire straight up straight up Check moi bien y dire what's up whats up On s'follow sur Instagram depuis way back Mais elle me répond même pas Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était là devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16'30 contre la censure</t>
+          <t>Le sum</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ouai jvoulais dire, bon écoute j'voulais dire Cercle Rouge de retour contre toutes les censure possibles, oui j'vais l'dire contre tous ces fils de ...biiip Putain vous faites quoi ? c'est toi Fabien ? Mais non c'est pas moi c'est Jeff Mais arrête c'est Spirit Ouai, ouai c'est tout, à chaque fois qu'y'a une censure, hein, c'est jamais personne J'vais leur dire aussi qu'c'est des encu...biiip Ouai et pas n'prendre pour des c...tuut encore longtemps Eh vous l'faites exprès ou quoi ?biiiiiip Mais mer...biiip fais ch...biiiip... Qui fait du censeur censé Contrôler nos dires, nos raps, nos pensées Sur ce son, soeur, jcompte bien représenter Nos consors, en insensé Déverser les vérités que jrecense et dire tout cque jressens Cest ma vie ça ? alors mles brise pas si tas un 'blème avec FF de Mars' débarque et tcloue lbec, vite fait bien fait Comme des mecs cagoulés Rapper mcolle à la peau tel une sangsue Et ça se sent si jprends une version cash, que jpose dessus A coup sûr, à ce jour, personne mempêchera dlouvrir Tant qude bon et pauvres gens continueront dsouffrir Estimez-vous heureux cest juste des mots pour se faire entendre Jusquà cquon descende ensemble,pour tout foutre à feu, à cendre ! Me traite pas djeunes à problèmes Juste d'calcineur de pollen Les accrocs aiment le bordel Nos propos lsèment Mais lété est là avant quon sen mêle Heureusement, ici, on te torture pas pour ce que tu as dit Surtout si cest qudes pécadilles Là ça leur plait bien aux PDs Jsuis pas sortit de South Central, ni dnulle part Tu connais ma section, cest du nique tout comme South Park Ou l'historique FF on cherche pas la merde, cest juste le son quon trafique Au mic responsable de massacres comme Elf en Afrique Faut que jparle cash, qulétat sache, quaujourdhui notre rap marche On sacharne à nos vies donc ça fâche les vaches La rue notre repère, on a vu cque vous avez fait à nos pères Travailler pour une misère cest grave On dérange mais dorénavant cest trop tard Comme disent mes potes on a not truc à faire Jchoque les plus fort en grammaire Institution française, ceux qui empochent nos Francs Assis sur une chaise Après faudrait quon staise Nique la musique de France et la censure Qule pays srassure Cercle Rouge - FF, une grosse bavure Yo, il flippe le sas, boom et shoot La censure passe mes textes à la loupe Bosse ton jeu Boy Scout Mission accomplie tant que plane le doute Il faut quma science passe devant Mène devant Sème devant la rage Hé, mais sans laisser de bains dsang On sobstine, faut qula rime contamine Chez lhomme en baggy et blue-jean En France on sexprime, parler devient un crime Le rap est dangereux verbe, argot illicite Cest dans lregard de ses mômes, que la vérité est inscrite Je suis sur la liste de la censure, ils savent que vos oreilles sont séduites Nique la censure, il faut que la vérité soit dite Honnêtement, cest plus de rime pour plus de crimes, maintenant Que la rime est bonne et fine, je connais la bonne combine en ce-Fran De qui sont, ces balles qui sifflent sur nos têtes ? Ces préfets qui décrètent, arrêtent des lois façon chasse ouverte Parce que jsème ma graine dans leur jardin secret Pousse comme le cannabis dans leur paradis parce que jcréé La rime qui gêne, la rime qui chatouille Les consciences, mes douilles Par tes patrouilles, ta douce France part en couille Là où ça pense ça dérange Là où ça rappe ça démange La vie se mélange à lart et le mien est lécho des coups quon smange On boycotte ma prod, empêche ma plume de taffer Pour sinstaller, lautocratie passe par lautodafé On brûle les disques indésirables, les films indésirables Le genre douvrage qui inspirent les inquiétudes comme le sourire du Diable Jte promets nous on sfera plus en-lec On dira cquon a à dire et désormais ça va cogner sec Il est temps que le underground ouvre sa gueule La réalité au mic, jla donne pour ceux qui veulent Pour ceux qui tisent la bonne rime fraîche des MC's Qui toastent avec intelligence et savent cquil disent De lombre je suis sortit, désormais tes avertit Face aux grands dce monde, la vérité sort de la bouche des ptits Jaurais pu quer-bra, vivre de quage-bra Puis finir enchaîné comme Kounta Me réveiller et dire quma vie coûte à Une erreur de jeunesse mais cest pas lcas Jai choisit, de faire du peur-a hardcore sans faire de sentiments Car dans la rue pas dcharabia, avec lEtat cest la carotte quon sprend Alors la censure, rien à foutre dénonce, shoote dans ltas Enfonce lEtat, resserre létau, prononce la vendetta Le malaise faut ldécrire et puis tant pis si ça empire La merde en France cest pas nous qui lavons créée, alors pourquoi smentir LEtat nique sa même si sa mère jla connais pas Jserais certainement pas ldernier à lavoir violée dans un dmes peu-ras Crois-moi, jai la haine aucun vaccin ne pourra me calmer Et sache que lpoids dmes mots ça équivaut à 50 000 tures-voi cramées Rap corsé, langue française pour multicolore Jeunesse blessée, remplie de blessures, déçue par le tricolore Cest plus on censure Eben, quEben sait plus ses peu-ra Jveux pas surfer entre les problèmes, jveux carrément foncer dans ltas - Eh Spirit stoppe la musique, stoppe la musique Spirit Stoppe ça, stoppe ça Eben Attends tu crois vraiment là qujai été hardcore ? qujai représenté le texte au maximum, là ? - Tu vois, jcrois qutaurais pus rentrer un peu plus dans lfond du sujet, tu vois un peu plus bien dedans - Plus hardcore encore ? - Ouais, ouais, encore, vraiment tu vois Rappelle-toi Fabius sang-contaminé... Aucune censure ! Le Pen les camps dconcentration, un détail... Aucune censure ! Quand pour Chirac il y a des mauvaises odeurs... Aucune censure ! Quand les keufs flinguent des jeunes dans lcommissariat Aucune censure ! Lhistoire des sans-papiers, homme politiques Aucune censure ! Qules chômeurs sfont per-ta par les CRS Aucune censure ! Quand ces mêmes CRS foncent-dé une église Aucune censure, aucune censure, aucune censure On la reçoit comme Jean-Marie en Martinique Gauche-droite, moi jopte pour lactivisme Micro-organism Bou-A stoppe Tout pacifisme, thèse massive 9-8 jreprends mes droits en 16 mesures Extrémiste, subversif, bref contre lEtat Polémiquer, jai plus ltemps faut qutu saches ça Quand la voix nsuffit plus à sfaire entendre faut des actes, moi Dans ma chambre jproduis des bombes artisanales Donc range tes textes et fais dmême, cest facile dailleurs jai àl Sous les yeux dquoi faire craquer ta cité Sauter des têtes sitôt qujaurais ajouté le clou du spectacle à ce plan dmaître Faire participer lEtat à mon trip, mon but Faire en sorte quil mette le couvercle sur ma cocotte-minute Que vite la pression monte, compte-à-rebours enclenché Cest dors et déjà trop tard pour désamorcer Dun premier ou second degré ? Maintenant à toi de voir Mais sache que nombreux sront brûlés quand la vérité éclatera Ya trop denjeux, les jeunes qui prennent le mic sont trop dangereux LEtat me censure quand je veux cracher des vérités, vieux Ils ont trop dchoses à cacher, moi jai trop dchoses à dire Jpeux pas laisser faire un Etat qui veut interdire Toute forme dexpression de not part Quelque part, je comprends ça leur ferait peur de voir des lascars qui ont raison Et pour ceux qui ont pour vision de nous foutre en prison Sachez que sur le micro on est plus dun million Jeffraie les pince-cul en cravate, bureaucrate Qui pensent que nous naurons jamais la parole du pas dnos banlieues Un nique la police a autant dimpact que les balles dun gun Et si jdis nique la police, cest nique la police dans la tête de 300 000 jeunes Tous unis par les mêmes propos le temps dun morceau Mobilisés pour léveil des esprits bluffés par linfo Info filtrée, réseaux politiques, lEtat balise Si tous les groupes salliaient et se mettaient en cellule de crise Jaccouche mes textes dans la douleur ils veulent que je me taise Trop dmecs qui bougent contre le stylo ils veulent que je me taise Jdeale des mots pas dla came che-lou ils veulent que je me taise Que je me taise ? là le silence a lodeur de la baise Contrôles de condés hagards hein ! Tu veux que je dise quoi hein ! Que je reste cool, à laise dans mes Cortez hein ! Que je dise rien ! Finir plaqué au sol comme un Comorien Que laffaire stasse comme une liasse Que le français moyen ne voie rien Moi on me dicte pas tout Mon nique tout, cest du nique tout Mes 400 coups sont mes 4351 coups Tas le droit de dire ce qui est dit, décrire ce qui est écrit Pour eux le rap cest comme toubib prends ce quon tas prescrit On te pique tout lEtat un Picsou, qui sarrête pas à tes sous Et qui te brûle, sans dessus-dessous Double-Delta, Cercle-Rouge, cette fois-ci on brûle tout On rase tout Black PPDA alias Dadoo Et dire que je me plaignait en cours quand mon prof voulait pas que jouvre ma bouche Et dire que je me plaignait en cours quand on disait que mes textes étaient louches Le rap, le seul moyen dexpression pour H2O Jai lâché toutes mes tripes pour ce putain dsoit-disant fléau Et maintenant on ose me dire que ma zique est une musique à part Son à part de ptits délinquants finissant dans un rempart Tout lmonde sait qule rap dérange mais que veux-tu cest comme ça On nous prends pas encore au sérieux mais tinquiètes ça viendra Pour linstant je prie dur que ma zique monte et nique tout Au nom du Kappa Double Delta, H2O rappe un point cest tout Un jour tu susurre un track-show Quelques journaux tchient dssus Mais lvent tourne et plus tard un gars te tire dssus À quoi ça rime deux rimes seules ? Sonne autant devine, jbombe le torse Même si sur mes textes le ciel tombe Jbrandirai tout cqui a fait notre amitié, Sako LEtat mfait peur comme létat des miens mfait pitié, pain-co Et qumon son sur les murs et les mots servent Quon mcensure mes mots dserf Tu aurait vu dlà, ma faim dsans mesure Si le vieux lchangent, pas les vies Les mêmes ptites gens dans les faces Pleines dplis sur les mêmes pigeons Une plaie dculture nous nargue Notre art lunique chance de vendetta Comme les énarques qui niquent, narguent, font lAmérique State Dans les mairies qu'ces gars briguent Mon rap irrite parce quil se mêle dce qui gêne Et puis dquoi on smêle si on smêle pas dce qui gêne Ils ont fait dnous Sako et VenzeChill Ça compte et ??? Leur dire quon était des gosses bien ? ils en ont rien à foutre ! Comme ils en ont rien à foutre, quon ait rien dbien à foutre Comme on saccoutre ça choque leur murs Mais qui sait des pervers pleins dfoutre Par ces vers quils aillent tous se faire foutre Nous somme les Maures sur le drapeau Sarde Bâillon sur le paupières, le drapeau stargue Et nos vies sentent le graillon, à ce stade à quoi bon ? Ya quoi dbon si on sla ferme ? Si on slâche ferme, on slâche plus, jveille avec un schlass ferme Le silence implicite, complicité La chasse est ouverte, schlass à tout va Les penseurs leur camp sserre Les dents des censeurs, serre leur poings Ils veulent nous tuer parce que le mot les tue Rentrer ces voix dans nos gorges Qutout soit clair comme leau droche Jcrierai sur les toits quici pour qules bouches sferment On corrompt les curs, mes coups seront de courts textes Lécho des cris dmon âme Ldécor décrit nest pas fictif même si dès quon ldécrit Qupléthore des kleenex des curs écrits pour quil renaisse enfin Al belek quand le Arbi sy met Aucun simulacre. La censure massacrer lhomme à abattre Ainsi que, tous ceux qui ont le parler-haut trop vrai Les mecs trop près du réel qui nromancent pas les faits Ceux qui nrenoncent pas, les vrais Qui côtoient linjustice de près Ceux pour qui la misère na pas dsecret Mais créent des textes qui éveillent les consciences Dès lors, ça créé ltrouble dans lcerveau du schmidt gueulard Alors dis-leur qulheure est venue pour nous dlouvrir De tout dire, la censure quil aillent tous mourir Ils mfont surtout rire quand ils parlent dnous censurer Nous on crie, juste haut et fort ce que lélite nous fait endurer Joue les curés quand il sagit de nous, ça Quand Madonna montre son cul, là, ils applaudissent tous debout Le pouls à 140, ils rêvent dy mettre leur carotte Encore une bande de crâneuses qui joue les propres Tu ne tariras pas mon activité Main mis de côté Nassagira pas ma verve critique Mystik, dune autre école, dun autre bahut Que du chahut Je nfais quchanter les peines et les espoirs, les surs, les frères quya eu En scred, mon esprit est libre, vibre On veut mfaire fermer ma bouche car jtouche leur fibre Comment écrire quand les interdits tombent plus vite Que les caractères dun télé-script Quand nos films, nos textes, nos pensées me tètent, irritent Finis les bruits silencieux, même sse-lai, seul et scellés en solo Debout dans les roues jai lbon essieu Je suis dceux qui au micro niquent le décor Le transistor, au micro sonore, empêche ces messieurs de mi-dor À chaque attaque jbrûle vos droits dvéto Lève létendard de révolte comme létau Mon blaze me trahit Javance à tâtons avec le Cercle le plus haït On a des comptes à régler au pays dla liberté des censeurs Cest sincère ma section va saigner même si lon sen sort Les infos durent toujours une demi-heure à la télé Déclarent des contre-vérités Au J.T. lagité fait vent dEtat Les médias méditent sur que fait la police et lboycotte Quitte à cacher la réalité du monde et toffrent un bon colt Jmène mon enquête sur ma quête et pas dpitié pour les estampes Pour certains cest lfestin La mort en empestant le teston des plus démunis Cest à la pauvreté qujfais référence Ils voudraient qujla ferme alors quà peine commence ma conférence Jparle et jdis cque jai à dire forcé quça fasse grincer les dents La prise de position cest chaud selon la couleur dlépiderme Beaucoup aimerait mentendre chanter il court, il court, le furet Les moralistes de la France profonde de Monsieur lcuré Jbalance ma purée, j'évolue dans un style épuré En featuring avec le Cercle Rouge on détruira nos adversaires Ils veulent me scotcher la bouche Ils se touchent Mes speechs mettent de lordre, mes textes mordent Je gêne et sème la discorde Ma horde crie révolte, ce mot dordre Mon rap résorbe le désordre Merde la censure nous absorbent Jsuis anti-flic et F.N Nique leur mouvement de haine Les jeunes se plaignent, on baigne dans linjustice Nos stylos saignent Jlève mon majeur, jfais couler dlencre Ils veulent clouer mon bec ces cancres Jdéfonce la porte pour que la vérité entre Dans ma triste époque, jdéfends la cause de mes tristes potes Censure ou pas peu importe, jplace mes idées fortes Le flic faf nest pas une légende, il faut quon sdéfende Les gens qui commandent veulent couper mes jambes et couper ma langue LEtat nous berne, le mot nique devient mon terme Jdis cque jaime, le soin cest cque jaime Pas moyen qujme prosterne Jreste fort, jmarche encore, parle encore, gueule encore Tant quya désaccord, jrappe encore, jrappe encore La France veut m'bâillonner, me faire taire, mempêcher d'parler Ceux qui la gouverne savent que de ma bouche peut venir le danger J'pense trop, je gêne trop, la France censure mes propos À coup d'procès, coups d'matraque et d'bombes lacrymo On s'organise, papy La France flippe, papy Le mouvement d'masse fait peur, la pression monte, papy Bien, on amplifie les cris d'rage d'une jeunesse Promesse, les voitures brûlent de Strasbourg jusqu'aux tess' de l'Est C'est feu et cendres Ici, tout l'monde veut s'faire entendre La foule se mobilise, les casques de CRS vont s'fendre J'lutte pour mes convictions, céder sur seule solution Contre-censure, pression, féroce Niro en mission Ménélik, MNLK World-Disney, 24 carats Souviens-toi cest lgars qui fait la te-fê même quand ça va pas Jveux une musique plurielle, loin des envieux Que penser des gens qui pensent que le Hip Hop est à eux Si la censure est laction de faire taire les autres Très bien pourquoi faire le ménage ailleurs faisons le notre Bon ben, le premier qui sur mon texte posera une rature, se sera censure Ça coule de source tellement c'en est sûr Ai-je le droit ddire que je naime pas qutu tappelles Nique Ta Mère ? Si tu mfais taire cest sûr quil y aura dla censure dans lair Quand S préfère jouer les groupes signés sur major Est-ce de la censure, hein ? dis-moi si jai tort Arrête la langue de bois, maintenant il faut mdire de quoi il sagit Mes gars sagitent, mes beaux discours nles arrêtent pas Trop dnégro qui croient posséder la science infuse Trop dD.A. kiffent signer le beurre à profuz Trop dmédia qui à force de sucer, la bouche susent Trop dmajor qui prennent la tendance comme une muse Jai du succès, cest vrai, je sais, mais si jtombe personne me loupe Saloperie de censure, faut savoir cracher dans la soupe Pamphlet numéro 1 Ménélik Je pense cque jdis, donc jdis cque jpense Impossible de me stopper dans mon élan, première sentence Rytmo, pour abolir la censure Jtable sur les mots, finis les blessures De carrière et dégaux Ya pas deffets sans causes, une cause commune Tous pour la même cause, on cause jusquà lover-dose Ya comme une odeur, une pression sur la liberté dexpression Ils veulent refuser au public nos prestations Moi jveux dlaction dans mes textes de rap pour des lyrics Toxiques, explosifs, corrosifs, on changera pas les armes nos lexiques Hé, ils veulent nous voir les nerfs à vif À bout dnerfs, ils veulent nous voir vénèr À bout dsouffle, ils veulent et merde, mais quest-ce quelle a ma gueule ? Elle plait pas aux bâillonneurs haut-placés Message sous forme de baillonnette pour les déplacés Placer bientôt, lÂme du Razwar pour briser létau LAme du Razwar bannit lvéto Piqûre de tranquillisant comme au véto On mcensure de quoi slever tôt On msusurre que jai pas dbol, con Ils sont sûrs quils veulent me trôle-con Sassurent qumon co fasse pas trop lcon Trop jparle, quitte à être peu Des lyrics blindés, phrases subliminales Ben quoi ? tas lair surpris minable ! Quand on veut poucave des scoops Tout-ltemps on stéléscope Les ondes, les antennes scoupe Délie ta langue ou j ripe tels les scouts Puis écoute bien dire fait rire, bien faire fait taire Cest lfoutoir, lÂme du Razwar fouteurs de merde A bon entendeur demi mot Y mreste trop dcostars à tailler, les mettre à nu comme dans Streap-Tease, Demi Moore LInsomniak au mic' splace, spose Fais-moi grâce, jcause, jexplose le CSA Puis mes sujets jexpose Une grande cause impossible dtenir ma langue de mtaire Les baillons, les illères nous servent de batailles en hiver Lair de rien je signale éclaboussures, blessures LInsmoniak, lafflux dfissures, méfie-toi dla morsure Du scorpion, qui retombe sur ses pattes Qui pète le score et lpion tmet en échec et mat Leur vocal blesse, le total stress Ce sont des pestes, aussi tordues qula lettre S Les conflits confirment ma face aride Jsuis lardent défenseur aux arguments torrides 6-6-6 fois 3 font 1-9-9-8 Course poursuite du fils durant les trois 8 De chez White et Spirit, la vérité sébruite Les MCs restent les furets par qui passent les fuites Caméra, média sur mes pas Textes surveillés à la loupe de haut en bas De fond en comble, les mots des rappeurs sont guettés Boycottés, les bâtons dans les rues jles bouffe pour mieux les cracher Vomir cque jai envie ddire, ma direction Érection ou injection de rimes ma protection La ligne de conduite, fil conducteur Noyau, vif du sujet, cest là qujvais Et si on mroule je roule dessus, obligé Driver cest mon nom, quand jveux cracher, jcrache La censure va snoyer dans mon molard, quelle le sache Tu peux pas mempêcher de dire cque jai à dire Ma langue est libre et pour toi cest ce quil y a de pire Laissez-moi assurer Ya pas dblanc sûr et on est censuré Linformation circulera quand même sans censurer certains Faut se taire, bah, nique sa race, jfais mon job cest des News fraîches que les SF pêchent aux quatre coins du globe BDB OOGY car on acte dans la même bataille La censure fait quon a toujours pas dmaille Se serait con qujtravaille donc de tfaçon, garçon On sen bat les couilles, mon crew prépare son combat Et les gros tron-pa mordront à lhameçon Constamment les médias médisent sur le mouvement Une mode à coups de vent mais ça fait déjà 10 ans 10 ans quon peut sy exprimer, soi-disant Cest pas nouveau donc on chie dedans Et prie pour voir un jour le CSA les pieds devant Jdis cque jvis, jvis cque jvois Mcensurer pourquoi ? SoldaFada, black bazooka, rap renégat Opposé à tout quota en France Le rap en télésurveillance Donc ta bienveillance, yeah, on passe outre Autorité, juges, censeurs, rien à foutre Donc, cest parti, jte mets tout sur étalage comme un Pakistanais Papy jconnais, les Victoires de la Musique ce sera jsais pas qui ctannée Pas dpistonné Nakk, Nakk veut pas quon lbâillonne Dac', dac' chaque claque de nous en fait du rap tout-terrain 4x4 Ils niquent ma musique, ça mamuse, les muselières Sont pour nos gueules, jsuis ému ils ont même lu Molière SoldaFada, tu mdiras, ils sont débiles ceux-là Pour eux jsuis plus proche de Mamadou lZoulou que dÉmile Zola Avec White et Spirit, une version adéquate et jtirrite Quoi tes stérile ? taccouche pas, mon micro de 500 Watts est terrible Prendre les armes ben jsais pas. On hésite Ils ont mis des chaînes à mes ancêtres, faut pas quil mettent des chaînes à ma musique Et on verra, qui fait lcon, qui paiera Ça on lsaura, quand la majeure partie des majors participera1</t>
+          <t>On vient de là où les gens ont la haine Rap, drogue, putes, crimes et délits On vient de là où les gens ont la haine Marseille et sa production cest Sat Laisse les croire qu'à Marseille le Rap est mort Laisse les dire on les entend plus Laisse-les croire qu'FF c'est mort Quand ça va péter, ça va faire du bruit Faudra rechercher les survivants au milieu des débris Ici personne n'attend de moi que je le sorte de la merde Les gens veulent qu'on les représente Et qu'on oublie pas de dire à quel point c'est la merde Ce truc, c'est plus que de la musique et des mots c'est toute une vie Il en va plus de nous huit mais de l'honneur de toute une ville Crois-le ou pas, mon but c'est pas d'être célèbre C'est de dire ces choses qui auraient pu sortir tout droit de tes lèvres Je me fais aucun film, moi je connais la chanson Je veux pas de la gloire, tôt ou tard faut payer sa rançon Je reste moi-même je la fais à ma façon Ça tombe bien, à ce qui parait les jolies filles raffolent des mauvais garçons Y'en a plein ma section elles seront servies fais courir le bruit on reprend du service On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Le Rat Luciano Peu importe le terrain, les conditions Tu connais les règles, y'en a aucune Faut du flair, de la rage et des convictions Tu affrontes ou tu crèves, tu apprends, tu prouves, tu prends ou tu trouves C'est la politique de la cité des rêves, tout à gagner, rien à perdre Tu as oublié mais on est là Un, tres, tu connais, où qu'on aille on fait halla Victoire ou défaite, on défend le scalp et le plumage Un pour la relève, deux pour les pionniers, trois pour ceux qui sont plus là Aux indés sur le chemin de la démerde Aux talents détruits avec des mains faites pour l'or qui trempent dans la merde Nous, c'est le son pour le son, le blé pour le blé, le sang pour le sang Un, très, trait pour trait, 100 vrai pour de vrai Marseille, c'est une bagarre dans la bagarre Du Rap à tous les âges, tous les arts dans les bagages, intransférable, j'ai signé à vie Ce qui est fait est fait, tu peux rien défaire Plume chargée d'encre, je fais feu au nom de ma ville, au nom des frères On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Menzo J'ai pas d'arme, pas d'armée, je suis accompagné de mon équipe 16 mesures pour tout cramer, vider toute ma haine et mes tripes J'ai quitté le dernier wagon, m'installe dans la locomotive Je suis ni le king, ni le patron mais la compétition me motive Aujourd'hui, ils veulent s'en prendre à moi Mon crew et ma ville, wesh, ils croient qu'on est des putes parce que chez nous, on se dit tranquille Nul ne connait la force que renferme Massilia Nous, on s'invite, nous on s'infiltre comme la CIA J'laisse à Dieu le soin de me juger, qui tu es pour me critiquer, nous on est humble On vient pas pour tchatcher, pour tout niquer Y'a qu'en étant soudé, qu'on pourra tout niquer N'écoute pas ceux qui disent que pour réussir faut tous se niquer Sans les miens, je me serais peut-être écroulé Ça pas toujours été drôle durant tout ce temps écoulé On a su tenir le coup on est là Touché c'est pas coulé, ici t'es à Marseille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Don Choa J'entends que ça piaille, ils disent qu'on est die, êtes-vous certains...? Toi, c'est le mec attaché sur les rails et nous c'est le train L'bolide tout terrain, solide, souterrain Nique les hautes sphères un stylo dans le holster Offre aux jaloux un jeu de fléchettes et mon poster J'trace ma route comme la roquette qui shoote l'hélicoptère Speed style kill foster, tu connais mon crew, le son fait danser les loups pas besoin de Kevin Costner Ici y'a pas de frime, y'a plus que des rimes qui puent le crime On s'invite c'est l'heure ultime, c'est des Boeing dans ton building C'est haute tension, c'est hausse le niveau d'un cran, c'est baise la musique en France Nous, on voit les choses en grand, énervés, jamais contents Depuis que le business m'a mordu Je respecte ceux que tu traites de mecs instables et de filles tordues C'est du nique tout pour le tout pour beaucoup d'oseille, on a le son qui te bouffe un bout d'oreille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Haute tension</t>
+          <t>Marginale musique</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Il paraîtrait qu'nos propos sont violents, mais la vie reste cruelle Comme le viol d'une fille dans une ruelle Un jeune que les flics passent à tabac et vire au violet Vois-tu tous ces gosses qui de plus en plus tôt s'mettent à voler Qu'est-ce que vous vouliez, que j'dise être désolé Mon rap lui restera dur quitte à vous affoler Et si ça te gêne, suce mon goro Depuis qu'j'suis venu au monde, j'ai rien vu d'très beau J'ai vu des potes qui sont tombés très tôt ou très bas Mène un terrible combat, ils jurent de pas s'faire ron-ba Ceux qui comprennent pas dur de pas s'faire baiser Parfois blessés dans leur chair, mais tous prêts à se dresser Ils s'disent agressés quand on livre nos pensées Sur le gouvernement, quand on s'lâche ouvertement Sans retenue, quel intérêt on a à c'que l'ordre soit maintenu Vu qu'leurs promesses sont jamais tenues Sous haute tension, mais vivants par la grâce du Très Haut Prend l'courant tu r'pars froid ou très chaud Moral zéro, ils s'font rares les héros, on n'a qu'des mots Pour t'secouer comme un rail d'héro L'arme lame d'rasoir, matraque, batte de baseball Chatte mouillée, seins qui bougent et fesses chaudes Série d'électrochocs, transaction d'coke Attente du verdict, réquisitoire du proc' J'entends d'drôles d'histoires mon pote, juste trop vrai J'crie Vive la zone et fuck le progrès J'ai si peu d'essence et tant d'choses à cramer J'ai si peu d'temps avant qu'j'me taise à jamais J'peux pas m'calmer, mec, j'veux la ramener Textes armés d'haine, et sans cran d'sureté T'sais que tout pète, c'est bien dans notre intention Don Choa, FF haute tension Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension Qu'est-ce qui est mis sous haute tension ? Baiser une inconnue sans Manix Foutre un suisse dans un neiman de GSX Quand j'commence là où toi tu t'arrêtes Quand y a les civils en face et dans les poches les restes de barrette Vie dure argent et mains sales, frère, ça forge Et d'puis, tu peux pas imginer tout c'que les miens savent faire Faut qu'j'respecte ça fort Trouver l'bonheur là où il est peu importe sa forme Aller chercher les armes, s'retrouver au volant d'un bolide Ou voir mère verser des larmes Tout ça, mis sous haute tension, comme un pompe pointé vers soi Ou apprendre que son môme est en détention Quand la famille a b'soin d'argent et qu'il y a rien C'est comme voir la mort de près, l'éviter de rien Être sous haute tension, quand même, on aime bien Comme chacun des citoyens on veut dominer l'monde dès qu'ça vient On désire produire d'l'effet, profiter Car la vie est la plus grande fortune que Dieu nous ait donnée C'est pas tiré d'un roman mais inspiré d'réels faits Au bon endroit au bon moment et c'est comme ça qu'l'histoire se crée Tu crois avoir affaire aux chanteurs à la croix d'bois 'foiré T'as 4 clebs, toujours aux abois, ouais, enfoiré Ça vient d'Mars, pas celui d'Pagnol Mais d'ces rues qui sentent la tétrahydrocannabinol Merci à Dieu de m'donner ma chance, maintenir mon groupe vivant, entier C'est pas un jeu nous on n'est pas là pour plaisanter Pour c'qui nous ont quitté avant l'heure, c'est à souhaiter qu'ils aient trouvé mieux ailleurs Ce sera pas bien dur ici y a peu d'allégresse Les jours se ressemblent comme deux goutes d'eau ou presque On espère que la misère régresse Mais cette pute brise plus de foyer qu'les maitresses De Mars' on r'part en croisade contre l'état avare C'est la même merde aux 4 coins de France et d'Navarre J'laisserai qui s'mettre en travers de mon groupe de mes buts ? Ni l'fric ni la dope et encore moins une pute Prend le bien ou mal, ça m'est bien égal J'continuerai même s'ils rendaient nos phases illégales T'aimes tant mieux, t'aimes pas tant pis De toute façon qu'est-ce que ça change vu qu'on s'attend au pire FF, y a plus d'enjeu hormis sauver nos peaux Vu qu'vivre par les temps qui courent est devenu dangereux êtes vous prêts Espèces d'enfoirés êtes vous prêts ? Moi j'suis prêt Fin d'soirée boite concert, haute tension Pompe, couteau, crâne ouvert, haute tension Les larmes d'une mère mettent sous haute tension FF Marseille haute tension Le matos sous l'siège, haute tension Civil, CRS haute tension Un sac plein d'billets, haute tension FF Marseille haute tension1</t>
+          <t>I was talking to someone who works on one of those half-dozen or so apps that we tend to associate with teenagers the ones that were built around some novel concept that distracted us for a few years while they settled into their roles as slightly different ways to text. He mentioned something, offhand, while describing his anxieties about his job, that to him felt obvious. In his weird zone of the internet, he said, the concept of a large publication seemed utterly hopeless. The only thing that keeps people coming back to apps in great enough numbers over time to make real money is the presence of other people. So the only apps that people use in the way publications want their readers to behavewith growing loyalty that can be turned into moneyare communications services. The near-future internet puts the publishing and communications industries in competition with each other for the same confused advertising dollars, and its not even close. This is a stray observation from an app bubble within an investment bubble. But if you listen to what the internets best-capitalized and savviest media companieswhich themselves exist in a separate set of Matryoshka bubblesare saying, and watch what they are doing, you can tell that they dont think its crazy. Here is a question worth asking of any large media company, as well as an answer Disney has given Fusion a lot of money to launch. What does the company see as a successful return on that investment? Traffic goals? TV audience? Influence? I think its all of the above. Part of our overall mission is to be a lab for experimentation and innovation for our parent company. Univision and ABC want Fusions help in figuring out how to reach this incredibly dynamic, diverse, and digitally connected audience, so well be investing heavily in audience development and technology and transferring knowledge to the parent company about what we learn. This might sound a little deflating to Fusions newly launched site, which surely doesnt think of itself as a market-research arm for an entertainment conglomerate, but its not, really. This is a journalist and manager speaking the language of her business, acknowledging Fusions particular relationship with the capital that keeps it running. If anything it should be read as comforting. It suggests a mothership that is more interested in observing than meddling, at least for the time being. The startups equivalent answer Sale or IPO, idiot! And in the meantime Fusion is fun to think about because it exists very slightly outside the weird new Zones of Content. It isnt an established print publication trying to revamp itself under the same name for the fifth time in fifteen years, nor is it a VC-funded company that people started paying attention to a few years ago and thats speeding toward some sort of liquidity event. What does it want? To build a new kind of newsroom to greet the changing demographics of America that is also a little bit outside of the media bubble. When does it want it? As soon as possible, but, whatever. Another thing that Fusion does not have to do is decide what kind of company it is, because it is a literal extension of much larger ones that already know. For Fusion to talk about promiscuous media and build our brand in the places is spending timeas opposed to publishing everything on a single website and hoping it spreads from thereis not strange in the context of television companies. Theyre used to filling channels that they dont totally control. Meanwhile, some of the most visible companies in internet media are converging on a nearby point. Vox is now publishing directly to social networks and apps BuzzFeed has a growing team of people dedicated to figuring out what BuzzFeed might look like without a website at the middle. Vice, already distributing a large portion of its video on Googles YouTube, has a channel in Snapchats app, along with CNN, Comedy Central, ESPN, Cosmo and the Daily Mail. So, for the sake of thinking things all the way through, lets grant this that, for a publisher that wants to grow dramatically, websites are unnecessary vestiges of a time before there were better ways to find things to look at on your computer or your phone. What happens next? What does a media that knows or believes this look like? This is an incredibly obvious question that nobody seems to have taken much time to talk about??? I mean you have the director of audience development at Vox telling trade publications that in general, we do see higher sharing rates from the native-only posts and then its global vp of marketing and partnerships dropping this excellent quote The great thing about Facebook leaning in to the new video strategy is that publishers on average are seeing a lot more views and a lot more engagement with that video content. This could theoretically be a pretty massive revenue stream with publishers when and if they do enable monetization around this inventory. When and if, lmao. When and if! So, when and if and when, its not too hard to imagine how Content Internets web abandonment accelerates. Following a brief and painful period of cant-beat-em-join-em soul searching, companies with the most financial and operational freedom experiment with channels in apps. More people are over there, but we are here, so why dont we go over there? managers will ask-splain in tense meetings. These companies suddenly reach more people than ever. Some of them figure out how to make a lot of money in the process, either from some sort of revenue sharing or through sponsored content. They begin to see their websites as Just One More App, and realize that fewer people are using them, proportionally, than before. Eventually they might even symbolically close their websites, finishing the job they started when they all stopped paying attention to what their front pages looked like. Then, they will do a whole lot of what they already do, according to the demands of their new venues. They will report news and tell stories and post garbage and make mistakes. They will be given new metrics that are both more shallow and more urgent than ever before they will adapt to them, all the while avoiding, as is tradition, honest discussions about the relationship between success and quality and self-respect. They will learn to cater to the structures within which they are working and come up with some new forms. Some of what worked in print didnt work on the web some of what worked on the web didnt work on social media some of what worked on social media wont work in these apps. If you think Facebook had a distorting effect on news as a mere referrer, just wait until its a host. What was even the point of websites, certain people will find themselves wondering.Were they just weird slow apps with nobody in them?? Why? A bunch of publications will go out of business and a bunch of others will survive the transition and a few will become app content GIANTS with news teams filing to Facebook and their very own Vine stars and thriving Snapchat channels and a Viber bureau and embedded Yakkers and hundreds of people uploading videos in every direction and brands and brands and brands and brands and brands, the end. Welcome to 201..7? This is a huge financial opportunity, obviously! Media companies will realize the potential in the platforms audiences the platforms will see a way, in media companies, to extract more money and time from the people they have already gathered in one place. I cant tell you what the numbers are, but theyre fucking incredible, says an anonymous source, already, of Snapchats Discovery channels. Meanwhile, the amount of time you spend on these channels will increase not quite as quickly as the supply of things to look at on them, and everything will be fine. Everything is always fine, when it comes to things like this, because capitalism knows better than to ever look back. There will also be quite a few jobs, at least, which is great! The gaps left by the websites we stop looking at will be filled with new things, and most people wont really notice the change until its nearly done, because they will have been incredibly not bored. Maybe the web thrives in a new and unexpected way as it is again relegated to marginal status? Maybe it just chugs along because nothing seems to fully die on the internet anymore. Sure, why not? Teens, whose idiot mystique will have played no small part in setting this whole thing in motion, will meanwhile begin plotting their escape. In this scenario, what publications will have done individually is adapt to survive what they will have helped do together is take the grand weird promises of writing and reporting and film and art on the internet and consolidated them into a set of business interests that most closely resemble the TV industry. Which sounds extremely lucrative! TV makes a lot of money, and theres a lot of excellent TV. But TV is also a byzantine nightmare of conflict and compromise and trash and waste and legacy. The prospect of Facebook, for example, as a primary host for news organizations, not just an outsized source of traffic, is depressing even if you like Facebook. A new generation of artists and creative people ceding the still-fresh dream of direct compensation and independence to mediated advertising arrangements with accidentally enormous middlemen apps that have no special interest in publishing beyond value extraction through advertising is the early internet utopians worst-case scenario. And so one more obvious theoretical question for this particular view of the future that seems to be quite popular right now, in which we have circled back to TV via the internet or apps or social media or even TV itself Wasnt the internet supposed to be BETTER, somehow, in all its broken decentralized chaos and glory? The TV industry, which is mediated at every possible point, is a brutal interface for culture and commerce. Within a week of launch, were already reading stories like this about creative differences with the network Snapchat When Snapchat last month debuted its Discover feature a new section within the app that shows articles and videos from a range of media companies one rumored launch partner was noticeably absent BuzzFeed. he two companies were at loggerheads creatively, people at the meeting said. At issue was the fact that Snapchats editorial team would be involved in BuzzFeeds content, creating friction. The two companies had creative differences, Mr. Peretti said at the meeting, a person with the matter said. If in five years Im just watching NFL-endorsed ESPN clips through a syndication deal with a messaging app, and Vice is just an age-skewed Viacom with better audience data, and Im looking up the same trivia on Genius instead of Wikipedia, and publications are just content agencies that solve temporary optimization issues for much larger platforms, what will have been point of the last twenty years of creating things for the web? These are just some of the many questions that feel impertinent as your body accelerates at the rate of gravity.</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Une seule fois</t>
+          <t>Imagine</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Elle avait le teint caramel j'avais la dent sucrée Le désir était trop sportif pour que j'essaie d'lutter vous avez 0 ami en commun Il faut que j'en fasse partie avant qu'elle parte et le tout sans m'incruster Jlai vue comme elle demandait au serveur son résumé Elle sort par la deuxième sortie au fond et pouf! fumée Glisser entre mes doigts comme un objet trop lustré Laissant son prénom sur un Starbucks cup Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était là devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie So jai glissé ses dm J'sais pas pourquoi jlai fait mais c'est trop tard jsuis dans ses dm eeh merde Mon message devient claustrophobe Coincé sur une petite page blanche il faut que j'me sauve Message à mon image, prisonnier d'un téléphone Qui en oublie sa fonction première à force de traverser l'époque Et y'a aucune porte pour sortir de la messagerie Mais on sait quel type d'humain se tient près de la sortie Mon style de dame à plus classe que cette manière d'approcher en a Elle connait ses classiques mais sait aussi ébrancher un arbre Elle aime B.I.G. mais connait Jeru The Damaja Et elle m'parle de Lunatik si jlui parle de B2oba Elle préfère Gibbs avec Madlib elle a même Pinata en wax Et elle baverait devant mon P-Town autographié par Jazzy Bazz Tu vois c'est ltype de styfe Qu'on rencontre qu'une seule fois Surtout quand tu glisse dans ses dm et qu'elle vague sur toi Dm Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était la devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Allô On s'follow sur instagram depuis wayback Ouin Checkez-moi bien Glisser dans ses dm comme Laurie Blouin Ouin I don't wanna be alone Chanter Sur des airs de violon Devant le feu de foyer En chest comme Joe Rocca Dans l'futur on va appeler ça la belle époque Peut-être même fall in love C'est pas impossible c'est pas impossible Parler jusqu'à oublier cqu'on voulais dire Jveux tlifter sur les pegs de mon bmx Rouler jusqu'à s'perdre dans nos souvenirs Yeah Yeah Check moi bien y dire straight up straight up Check moi bien y dire what's up whats up On s'follow sur Instagram depuis way back Mais elle me répond même pas Et moi j'ai glissé dans ses dm ouais j'ai fait ça Ouais j'ai glissé dans ses dm Elle était là devant moi j'pouvais l'aborder à l'ancienne Mais j'étais pressé, faible et J'ai juste glissé dans ses dm J'ai glissé dans ses dm J'ai glissé dans ses dm Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie Direction messagerie Direction messagerie J'ai glissé en direction de sa messagerie</t>
+          <t>I saw you walking my way Those hazel eyes, I cant forget That toasted honey skin I melt like ice cream You have me hypnotized To you my lips I cant deny I must admit that I have a crush Have a crush on you Cmon Cmon kiss ma lips And now I want you Want you to want me Im stepping into you Dont wonder what I want And now I want you to want me Dont wonder what I want Just want to boom boom bam And now I want you Want you to want me Dont wonder what I want Just wanna boom boom bam I feel this high electricity Running from your veins to me I feel it on my skin wo-oh You could draw out a new me Oh my gosh, gotta catcha hands on me You have me hypnotized To you my lips I cant deny I must admit That I have a crush Have a crush on you Cmon Cmon kiss my lips And now I want you Want you to want me Dont cha imagine how this could be Im stepping at you Im really into you Dont wonder what I want Just want to boom boom bam And now I want you Want you to want me Dont wonder what I want Just wanna boom boom bam Come over here Cmon cmon kiss my lips!</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Le sum</t>
+          <t>Aaah</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>On vient de là où les gens ont la haine Rap, drogue, putes, crimes et délits On vient de là où les gens ont la haine Marseille et sa production cest Sat Laisse les croire qu'à Marseille le Rap est mort Laisse les dire on les entend plus Laisse-les croire qu'FF c'est mort Quand ça va péter, ça va faire du bruit Faudra rechercher les survivants au milieu des débris Ici personne n'attend de moi que je le sorte de la merde Les gens veulent qu'on les représente Et qu'on oublie pas de dire à quel point c'est la merde Ce truc, c'est plus que de la musique et des mots c'est toute une vie Il en va plus de nous huit mais de l'honneur de toute une ville Crois-le ou pas, mon but c'est pas d'être célèbre C'est de dire ces choses qui auraient pu sortir tout droit de tes lèvres Je me fais aucun film, moi je connais la chanson Je veux pas de la gloire, tôt ou tard faut payer sa rançon Je reste moi-même je la fais à ma façon Ça tombe bien, à ce qui parait les jolies filles raffolent des mauvais garçons Y'en a plein ma section elles seront servies fais courir le bruit on reprend du service On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Le Rat Luciano Peu importe le terrain, les conditions Tu connais les règles, y'en a aucune Faut du flair, de la rage et des convictions Tu affrontes ou tu crèves, tu apprends, tu prouves, tu prends ou tu trouves C'est la politique de la cité des rêves, tout à gagner, rien à perdre Tu as oublié mais on est là Un, tres, tu connais, où qu'on aille on fait halla Victoire ou défaite, on défend le scalp et le plumage Un pour la relève, deux pour les pionniers, trois pour ceux qui sont plus là Aux indés sur le chemin de la démerde Aux talents détruits avec des mains faites pour l'or qui trempent dans la merde Nous, c'est le son pour le son, le blé pour le blé, le sang pour le sang Un, très, trait pour trait, 100 vrai pour de vrai Marseille, c'est une bagarre dans la bagarre Du Rap à tous les âges, tous les arts dans les bagages, intransférable, j'ai signé à vie Ce qui est fait est fait, tu peux rien défaire Plume chargée d'encre, je fais feu au nom de ma ville, au nom des frères On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Menzo J'ai pas d'arme, pas d'armée, je suis accompagné de mon équipe 16 mesures pour tout cramer, vider toute ma haine et mes tripes J'ai quitté le dernier wagon, m'installe dans la locomotive Je suis ni le king, ni le patron mais la compétition me motive Aujourd'hui, ils veulent s'en prendre à moi Mon crew et ma ville, wesh, ils croient qu'on est des putes parce que chez nous, on se dit tranquille Nul ne connait la force que renferme Massilia Nous, on s'invite, nous on s'infiltre comme la CIA J'laisse à Dieu le soin de me juger, qui tu es pour me critiquer, nous on est humble On vient pas pour tchatcher, pour tout niquer Y'a qu'en étant soudé, qu'on pourra tout niquer N'écoute pas ceux qui disent que pour réussir faut tous se niquer Sans les miens, je me serais peut-être écroulé Ça pas toujours été drôle durant tout ce temps écoulé On a su tenir le coup on est là Touché c'est pas coulé, ici t'es à Marseille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose Don Choa J'entends que ça piaille, ils disent qu'on est die, êtes-vous certains...? Toi, c'est le mec attaché sur les rails et nous c'est le train L'bolide tout terrain, solide, souterrain Nique les hautes sphères un stylo dans le holster Offre aux jaloux un jeu de fléchettes et mon poster J'trace ma route comme la roquette qui shoote l'hélicoptère Speed style kill foster, tu connais mon crew, le son fait danser les loups pas besoin de Kevin Costner Ici y'a pas de frime, y'a plus que des rimes qui puent le crime On s'invite c'est l'heure ultime, c'est des Boeing dans ton building C'est haute tension, c'est hausse le niveau d'un cran, c'est baise la musique en France Nous, on voit les choses en grand, énervés, jamais contents Depuis que le business m'a mordu Je respecte ceux que tu traites de mecs instables et de filles tordues C'est du nique tout pour le tout pour beaucoup d'oseille, on a le son qui te bouffe un bout d'oreille On revient sévir Personne nous attend nous on s'invite On crée la brèche, derrière c'est tout Marseille qui s'infiltre Si t'es avec nous lève ton poing Si t'es contre mets-toi un doigt Ça c'est de la part du 1-3 On revient sévir Personne nous attend nous on s'invite On crée la brèche derrière c'est tout Marseille qui s'infiltre On allume la mèche et c'est toute une ville qui explose Toute une ville qu'on exporte Toute une ville qu'on expose</t>
+          <t>J'rappe chaque jour avec l'amour, les nerfs et la folie La haine et la phobie, traîne un air mal poli Réveillez le petit gars sans gène Est-ce qu'il s'est ramolli le frangin ? Prêt à te sortir du lit, je renverse ton hamac Ouvre les yeux en panique, pour les cardiaques Branchez l'assistance mécanique Arnaques, crimes et conflits diplomatiques Je calcine les rimes et la médecine botanique Pas un truc fade ni trop dur, ni trop politique Quoi ? Un truc crade et de la bombe hydroponique Thaï stick... Bad weed, ne pas trop s'approcher Apprécie ces beats où le vieux te jette un rocher Faudrait qu'on se parle avant qu'on puisse plus le faire Que je me libère de mes doutes avant d'avoir un ulcère Attention, sans stress, sur terrain miné À tâtons, on progresse, est-ce que t'es bien guidé ? Papi, écoute cet air macabre Les compagnies pétrolières laissent des tas de cadavres Ça date pas d'hier, même histoire, s'ils se souvenaient Ça s'est passé près de chez toi, juste sous ton nez Si juste on se soutenait, c'est le même vieux couplet Je fais que le répéter Ça suffit pas, c'est dans le mode de vie que ça doit se refléter À chaque instant tu peux remercier et prier Je méditais un moment avant de crier... Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Anarchie sur toute la planète Agonie, trime, pour une miette de la galette Abolie la frime, le strass et les paillettes À qui profite la crise ? Qui vend les mitraillettes ? Même des gosses ont le doigt sur la gâchette Mais c'est les boss qui ont le fric dans la mallette La cupidité dévore et la chaleur crame Le feu détruit tout leur or et leurs armes Qu'eux aussi paient le prix fort des erreurs Drames en série ton décor bascule dans l'horreur Panique à bord, l'hôtesse se met à prier Je crois que, tout ce qu'il me reste à faire, c'est crier... Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Jouez gros, gagnez gros, perdez gros C'est lÉtat qui ramassera la mise et ça dans tous les cas Comment tu peux dire que jusque là ça va ? Regarde, de pire en pire donc ça s'écroulera Regarde chuter ton empire, le sang retombera Sur la nuque des vampires quand tout vole en éclat Y'a nulle part où s'enfuir, le sol s'ouvre sous tes pas On peut pardonner, oui, mais on noubliera pas Faut garder le sourire et maintenir sa foi Je fais la promo du shit et de la marijuana Mes rêves, c'est pas qu'une vie chic et voilà Si ça te gêne mon bruit Chirac... Bouffe-moi la... Toi, t'es peut-être ivre, nous, on est malade Ne citez pas mon équipe dans vos bla bla Si tu crois que j'incite, dis-moi juste à quoi ? Que les femmes fassent Huh et les mecs crient... Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Marginale musique</t>
+          <t>A l’arrache</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>I was talking to someone who works on one of those half-dozen or so apps that we tend to associate with teenagers the ones that were built around some novel concept that distracted us for a few years while they settled into their roles as slightly different ways to text. He mentioned something, offhand, while describing his anxieties about his job, that to him felt obvious. In his weird zone of the internet, he said, the concept of a large publication seemed utterly hopeless. The only thing that keeps people coming back to apps in great enough numbers over time to make real money is the presence of other people. So the only apps that people use in the way publications want their readers to behavewith growing loyalty that can be turned into moneyare communications services. The near-future internet puts the publishing and communications industries in competition with each other for the same confused advertising dollars, and its not even close. This is a stray observation from an app bubble within an investment bubble. But if you listen to what the internets best-capitalized and savviest media companieswhich themselves exist in a separate set of Matryoshka bubblesare saying, and watch what they are doing, you can tell that they dont think its crazy. Here is a question worth asking of any large media company, as well as an answer Disney has given Fusion a lot of money to launch. What does the company see as a successful return on that investment? Traffic goals? TV audience? Influence? I think its all of the above. Part of our overall mission is to be a lab for experimentation and innovation for our parent company. Univision and ABC want Fusions help in figuring out how to reach this incredibly dynamic, diverse, and digitally connected audience, so well be investing heavily in audience development and technology and transferring knowledge to the parent company about what we learn. This might sound a little deflating to Fusions newly launched site, which surely doesnt think of itself as a market-research arm for an entertainment conglomerate, but its not, really. This is a journalist and manager speaking the language of her business, acknowledging Fusions particular relationship with the capital that keeps it running. If anything it should be read as comforting. It suggests a mothership that is more interested in observing than meddling, at least for the time being. The startups equivalent answer Sale or IPO, idiot! And in the meantime Fusion is fun to think about because it exists very slightly outside the weird new Zones of Content. It isnt an established print publication trying to revamp itself under the same name for the fifth time in fifteen years, nor is it a VC-funded company that people started paying attention to a few years ago and thats speeding toward some sort of liquidity event. What does it want? To build a new kind of newsroom to greet the changing demographics of America that is also a little bit outside of the media bubble. When does it want it? As soon as possible, but, whatever. Another thing that Fusion does not have to do is decide what kind of company it is, because it is a literal extension of much larger ones that already know. For Fusion to talk about promiscuous media and build our brand in the places is spending timeas opposed to publishing everything on a single website and hoping it spreads from thereis not strange in the context of television companies. Theyre used to filling channels that they dont totally control. Meanwhile, some of the most visible companies in internet media are converging on a nearby point. Vox is now publishing directly to social networks and apps BuzzFeed has a growing team of people dedicated to figuring out what BuzzFeed might look like without a website at the middle. Vice, already distributing a large portion of its video on Googles YouTube, has a channel in Snapchats app, along with CNN, Comedy Central, ESPN, Cosmo and the Daily Mail. So, for the sake of thinking things all the way through, lets grant this that, for a publisher that wants to grow dramatically, websites are unnecessary vestiges of a time before there were better ways to find things to look at on your computer or your phone. What happens next? What does a media that knows or believes this look like? This is an incredibly obvious question that nobody seems to have taken much time to talk about??? I mean you have the director of audience development at Vox telling trade publications that in general, we do see higher sharing rates from the native-only posts and then its global vp of marketing and partnerships dropping this excellent quote The great thing about Facebook leaning in to the new video strategy is that publishers on average are seeing a lot more views and a lot more engagement with that video content. This could theoretically be a pretty massive revenue stream with publishers when and if they do enable monetization around this inventory. When and if, lmao. When and if! So, when and if and when, its not too hard to imagine how Content Internets web abandonment accelerates. Following a brief and painful period of cant-beat-em-join-em soul searching, companies with the most financial and operational freedom experiment with channels in apps. More people are over there, but we are here, so why dont we go over there? managers will ask-splain in tense meetings. These companies suddenly reach more people than ever. Some of them figure out how to make a lot of money in the process, either from some sort of revenue sharing or through sponsored content. They begin to see their websites as Just One More App, and realize that fewer people are using them, proportionally, than before. Eventually they might even symbolically close their websites, finishing the job they started when they all stopped paying attention to what their front pages looked like. Then, they will do a whole lot of what they already do, according to the demands of their new venues. They will report news and tell stories and post garbage and make mistakes. They will be given new metrics that are both more shallow and more urgent than ever before they will adapt to them, all the while avoiding, as is tradition, honest discussions about the relationship between success and quality and self-respect. They will learn to cater to the structures within which they are working and come up with some new forms. Some of what worked in print didnt work on the web some of what worked on the web didnt work on social media some of what worked on social media wont work in these apps. If you think Facebook had a distorting effect on news as a mere referrer, just wait until its a host. What was even the point of websites, certain people will find themselves wondering.Were they just weird slow apps with nobody in them?? Why? A bunch of publications will go out of business and a bunch of others will survive the transition and a few will become app content GIANTS with news teams filing to Facebook and their very own Vine stars and thriving Snapchat channels and a Viber bureau and embedded Yakkers and hundreds of people uploading videos in every direction and brands and brands and brands and brands and brands, the end. Welcome to 201..7? This is a huge financial opportunity, obviously! Media companies will realize the potential in the platforms audiences the platforms will see a way, in media companies, to extract more money and time from the people they have already gathered in one place. I cant tell you what the numbers are, but theyre fucking incredible, says an anonymous source, already, of Snapchats Discovery channels. Meanwhile, the amount of time you spend on these channels will increase not quite as quickly as the supply of things to look at on them, and everything will be fine. Everything is always fine, when it comes to things like this, because capitalism knows better than to ever look back. There will also be quite a few jobs, at least, which is great! The gaps left by the websites we stop looking at will be filled with new things, and most people wont really notice the change until its nearly done, because they will have been incredibly not bored. Maybe the web thrives in a new and unexpected way as it is again relegated to marginal status? Maybe it just chugs along because nothing seems to fully die on the internet anymore. Sure, why not? Teens, whose idiot mystique will have played no small part in setting this whole thing in motion, will meanwhile begin plotting their escape. In this scenario, what publications will have done individually is adapt to survive what they will have helped do together is take the grand weird promises of writing and reporting and film and art on the internet and consolidated them into a set of business interests that most closely resemble the TV industry. Which sounds extremely lucrative! TV makes a lot of money, and theres a lot of excellent TV. But TV is also a byzantine nightmare of conflict and compromise and trash and waste and legacy. The prospect of Facebook, for example, as a primary host for news organizations, not just an outsized source of traffic, is depressing even if you like Facebook. A new generation of artists and creative people ceding the still-fresh dream of direct compensation and independence to mediated advertising arrangements with accidentally enormous middlemen apps that have no special interest in publishing beyond value extraction through advertising is the early internet utopians worst-case scenario. And so one more obvious theoretical question for this particular view of the future that seems to be quite popular right now, in which we have circled back to TV via the internet or apps or social media or even TV itself Wasnt the internet supposed to be BETTER, somehow, in all its broken decentralized chaos and glory? The TV industry, which is mediated at every possible point, is a brutal interface for culture and commerce. Within a week of launch, were already reading stories like this about creative differences with the network Snapchat When Snapchat last month debuted its Discover feature a new section within the app that shows articles and videos from a range of media companies one rumored launch partner was noticeably absent BuzzFeed. he two companies were at loggerheads creatively, people at the meeting said. At issue was the fact that Snapchats editorial team would be involved in BuzzFeeds content, creating friction. The two companies had creative differences, Mr. Peretti said at the meeting, a person with the matter said. If in five years Im just watching NFL-endorsed ESPN clips through a syndication deal with a messaging app, and Vice is just an age-skewed Viacom with better audience data, and Im looking up the same trivia on Genius instead of Wikipedia, and publications are just content agencies that solve temporary optimization issues for much larger platforms, what will have been point of the last twenty years of creating things for the web? These are just some of the many questions that feel impertinent as your body accelerates at the rate of gravity.</t>
+          <t>A la salía' de Asturias Y al entrar en la montaña Fabrico mis caramelos Pa yo venderlos en España Caramelos, caramelos Caramelos vendo yo Caramelos, caramelos Caramelos vendo yo Vendo las pastillas de mentol y cocaína Del señor Crespo de fama universal Vendo las pastillas de mentol y cocaína Sigan pidiendo, sigan pidiendo Sigan pidiendo, que esto es barato Vendo las pastillas de mentol y cocaína Que no maltratan la encía No tienen problema con la policía Vendo las pastillas de mentol y cocaína No tengan miedo! Ay! la tos... Vendo las pastillas de mentol y cocaína La ronquera, la tos catarral Vendo las pastillas de mentol y cocaína Quita el cosquilleo, la sequedad y el picor Vendo las pastillas de mentol y cocaína To se va curando chupando, chupando Al maestro Don Antonio Chacón que después de cantar toita' una noche estas pastillas le gobernaban la garganta</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Imagine</t>
+          <t>Anesthésie Générale</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>I saw you walking my way Those hazel eyes, I cant forget That toasted honey skin I melt like ice cream You have me hypnotized To you my lips I cant deny I must admit that I have a crush Have a crush on you Cmon Cmon kiss ma lips And now I want you Want you to want me Im stepping into you Dont wonder what I want And now I want you to want me Dont wonder what I want Just want to boom boom bam And now I want you Want you to want me Dont wonder what I want Just wanna boom boom bam I feel this high electricity Running from your veins to me I feel it on my skin wo-oh You could draw out a new me Oh my gosh, gotta catcha hands on me You have me hypnotized To you my lips I cant deny I must admit That I have a crush Have a crush on you Cmon Cmon kiss my lips And now I want you Want you to want me Dont cha imagine how this could be Im stepping at you Im really into you Dont wonder what I want Just want to boom boom bam And now I want you Want you to want me Dont wonder what I want Just wanna boom boom bam Come over here Cmon cmon kiss my lips!</t>
+          <t>Oh ! Oh ! Enculé ! Docteur ! Docteur ! Laisse-moi sortir ! Oooh ! Ooooh ! Docteur docteur laisse-moi sortir Ou dépêche-toi de me faire une piqure pour m'endormir Oh docteur tu comat' faut te réveiller T'es sous Prozac ou quoi ? Qu'est-ce qui te fait bégayer ? Tu baves, t'as pris trop de somnifère au dessert Moi je tourne à dix joints par jour, j'ai toujours les idées claires Pendant que les flics serrent les dealeurs d'héro' L'industrie pharmaceutique prend le fric des toxicos Ils veulent te rendre accro aux anxiolytiques Pour te garder au chaud dans leurs camisoles chimiques Tout pour que tévite de gamberger Ils ont plus besoin de barreaux pour t'enfermer Ils te donnent ce qu'il faut pour supporter cette vie de chien Et t'as plus besoin de rien d'autre pour te sentir bien Laissez-moi dans mon délire, laissez-moi partir loin Si tout est encore flou, c'est que je suis encore sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale Docteur, docteur, qu'est-ce que je fais ? Quand l'alcool et la weed me font plus aucun effet Donne-moi ce qu'il faut pour que je pionce comme un bébé Bercé par la défonce et le son de la télé La télé gamin, celle qui nous éduque Vaut mieux que tes parents fassent du fric si tu veux faire des études On te demande pas ton avis, t'as pas choisi ton camp On te prend, on te jette, on t'achète, on te vend On te berne, on te ment, le temps soigne les blessures Refais-moi une piqûre, je m'endors trop lentement On peut s'en sortir, c'est ce qu'ils nous laissent croire Car ils savent comment se comporte une foule qui a perdu tout espoir Ce système formate nos pensées, nos mémoires Comment les croire ? Vous nous racontez que la moitié de l'histoire Chaque jour je me débrouille, j'avance dans le brouillard Et même si je tiens le coup, ils me maintiennent sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale À coups d'propagande ou d'came, ils nous maintiennent au calme Dans nos prisons cérébrales, lobotomie générale Devant un spectacle inhumain on fait comme si cétait normal Ici lhypocrisie, c'est le sport national Les disciples du diable viennent faire les leçons de morale Pour que personne ne différencie plus le bien du mal Traite-moi de cas social, envoie les infirmiers Tu peux me traiter, m'interner, je m'en fous Je dors à poings fermés sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aaah</t>
+          <t>Apocalypse</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>J'rappe chaque jour avec l'amour, les nerfs et la folie La haine et la phobie, traîne un air mal poli Réveillez le petit gars sans gène Est-ce qu'il s'est ramolli le frangin ? Prêt à te sortir du lit, je renverse ton hamac Ouvre les yeux en panique, pour les cardiaques Branchez l'assistance mécanique Arnaques, crimes et conflits diplomatiques Je calcine les rimes et la médecine botanique Pas un truc fade ni trop dur, ni trop politique Quoi ? Un truc crade et de la bombe hydroponique Thaï stick... Bad weed, ne pas trop s'approcher Apprécie ces beats où le vieux te jette un rocher Faudrait qu'on se parle avant qu'on puisse plus le faire Que je me libère de mes doutes avant d'avoir un ulcère Attention, sans stress, sur terrain miné À tâtons, on progresse, est-ce que t'es bien guidé ? Papi, écoute cet air macabre Les compagnies pétrolières laissent des tas de cadavres Ça date pas d'hier, même histoire, s'ils se souvenaient Ça s'est passé près de chez toi, juste sous ton nez Si juste on se soutenait, c'est le même vieux couplet Je fais que le répéter Ça suffit pas, c'est dans le mode de vie que ça doit se refléter À chaque instant tu peux remercier et prier Je méditais un moment avant de crier... Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Anarchie sur toute la planète Agonie, trime, pour une miette de la galette Abolie la frime, le strass et les paillettes À qui profite la crise ? Qui vend les mitraillettes ? Même des gosses ont le doigt sur la gâchette Mais c'est les boss qui ont le fric dans la mallette La cupidité dévore et la chaleur crame Le feu détruit tout leur or et leurs armes Qu'eux aussi paient le prix fort des erreurs Drames en série ton décor bascule dans l'horreur Panique à bord, l'hôtesse se met à prier Je crois que, tout ce qu'il me reste à faire, c'est crier... Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Jouez gros, gagnez gros, perdez gros C'est lÉtat qui ramassera la mise et ça dans tous les cas Comment tu peux dire que jusque là ça va ? Regarde, de pire en pire donc ça s'écroulera Regarde chuter ton empire, le sang retombera Sur la nuque des vampires quand tout vole en éclat Y'a nulle part où s'enfuir, le sol s'ouvre sous tes pas On peut pardonner, oui, mais on noubliera pas Faut garder le sourire et maintenir sa foi Je fais la promo du shit et de la marijuana Mes rêves, c'est pas qu'une vie chic et voilà Si ça te gêne mon bruit Chirac... Bouffe-moi la... Toi, t'es peut-être ivre, nous, on est malade Ne citez pas mon équipe dans vos bla bla Si tu crois que j'incite, dis-moi juste à quoi ? Que les femmes fassent Huh et les mecs crient... Aaah !, du mal à respirer Je cris juste Aaah ! pour m'exprimer Donne ça Aaah !, tiens le coup, n'abandonne pas Et réponds moi Aaah ! Faut qu'on s'nique la voix en criant Aaah ! Je suis venu pour ça Juste gueuler Aaah ! sur un son de guérilla Et, on bosse pas pour la CIA... Bun Faya ! Bun Faya ! Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Il paraît que c'est les derniers jours, ça sent l'apocalypse Si tu veux sauver l'amour, prends un très gros calibre Un coup en l'air pour chasser les vautours, la place n'est pas libre Pas de débat, on sait déjà qui paiera les dégâts Je cherche pas à être calife à la place du calife Des fois, il faut se servir du cerveau à la place du canif Mon boulot, c'est pas de faire la morale ou parler de trucs tragiques Tout le monde veut vivre, alors travaille et trafique Va-et-vient, allées venues, descentes et montées, époque tourmentée Quelles sont tes dernières volontés ? Une bonbonne de Rhum, des bonnes chattes qui ronronnent In the jungle Are you ready to rumble ? C'est la lutte pour grailler, on devient fou à lier Don Cho Boomayé ! Que le rap retourne au Hip-Hop, les poules au poulailler Tu sens que ça vient là, ouh, ça y est Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... Impossible n'est pas ma mission Bouche-toi le nez et prends une longue respiration Ma section arrive, mettez les warnings Oh, danger, panique, orange mécanique I'm singing in the rain, vite dégaine Bientôt la Terre aura l'air d'une ville tchétchène Ils manipulent de l'ADN aux HLM Allez men, il faut traverser la Géhenne J'entends des cris entre cendres et débris Mission cherche et détruis avant que la tempête se déchaîne Le sang a un prix, j'sais pas qui il paiera Tout ce que j'ai compris c'est qui vivra verra Et qu'il y a du blé à se faire, j'aurais tort de manger 2003 sera gore avec trois grands G Et que tu sois pas d'accord, qu'est-ce que ça peut y changer ? Pourquoi je fous mon bordel ? C'est que ça me démangeait Et ce sont les ordres de King Zaman Kill them all et qu'ils aient mal Brûle quelque chose pour qu'on sente que c'est chaud Et qu'on chante tous en cur No, No, No Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... Époque choc et têtes brûlées Liqueur forte, fais fumer Les mecs se grattent les couilles et les filles se touchent les tétés En criant Nique lÉtat ! Nique lÉtat La météo dit Été torride 60 degrés, orage de feu, pluie de météorites C'était horrible répètent les deux seuls survivants Tout en se nourrissant du cadavre radioactif d'un chien errant Buvant de l'eau orange sous un ciel rouge Atmosphère étrange, on dirait que plus rien ne bouge Mais sous tes pas, tu sens tout ce qui grouille ? Cafards, morpions, serpents, scorpions Mets un gros lion ou un tigre dans ton moteur Mon délire va plus loin que le Pape sous Poppers Apocalyptique, chaleur d'enfer Navigue sur le Styx, fais un tour dans la caverne Odeur toxique, ça pue et c'est pas l'herbe Peut-être un MC qui pourrie les tripes à l'air T'as pas l'air en forme, faut pas que tu t'endormes Sinon le démon te nique avec ses grandes cornes Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A l’arrache</t>
+          <t>Au Bout De Ton Rêve</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A la salía' de Asturias Y al entrar en la montaña Fabrico mis caramelos Pa yo venderlos en España Caramelos, caramelos Caramelos vendo yo Caramelos, caramelos Caramelos vendo yo Vendo las pastillas de mentol y cocaína Del señor Crespo de fama universal Vendo las pastillas de mentol y cocaína Sigan pidiendo, sigan pidiendo Sigan pidiendo, que esto es barato Vendo las pastillas de mentol y cocaína Que no maltratan la encía No tienen problema con la policía Vendo las pastillas de mentol y cocaína No tengan miedo! Ay! la tos... Vendo las pastillas de mentol y cocaína La ronquera, la tos catarral Vendo las pastillas de mentol y cocaína Quita el cosquilleo, la sequedad y el picor Vendo las pastillas de mentol y cocaína To se va curando chupando, chupando Al maestro Don Antonio Chacón que después de cantar toita' una noche estas pastillas le gobernaban la garganta</t>
+          <t>J'ai qu'un mic comme arme On veut me shooter comme dans Heat J'reste sur mes gardes comme les deux chiens sur mon sweat La nuit ça s'agite, j'entends des bruits de course poursuite, tragique Les p'tits partis de rien veulent tout tout de suite, logique la température monte J'brûle le mic' pour ceux qui l'voudront chaud Tu vois c'qu'on raconte, rien de nouveau sur le goudron chaud Bref comme ça tu veux qu'on s'en sorte, qu'on éclate les portes Sans faire couler le sang, sans que ce soit la joie qu'on apporte Et même si j'rame j'vais rien lâcher tout peut arriver Comme a dit Thuram J'vais rien gâcher Inchallah qu'on se retrouve tous blindés comme à South Fork Imagine, j'aime mes assos' forts Demande à K-Reen, n'épargne pas ta peine Sers-toi de la haine qui t'entraîne même si la vie est parfois dure Car c'est dans les épreuves de la vie tu sais que se forgera ton armure N'écoute pas ceux qui veulent que tu restes dans la même galère Si tu vas jusqu'au bout de tes projets tu verras le bout du tunnel Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne Jamais ne doute de toi Prends ton destin en main, sors de se sommeil Et puis agis pour demain, toi seul peut faire venir à toi ton propre soleil Va au bout de ton rêve avant que t'en crève va de l'avant Pour aller de l'avant il faut que tu te lèves, n'oublie jamais Si tu vas jusqu'au bout de ce que tu fais, tu réaliseras tous tes rêves Crois-moi, c'est vrai Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne x2 Non, lâche pas N'attends pas Que ton heure sonne Et ouais paix, grâce à Dieu encore libre J'vends ni barrette ni Beretta Avec mes gars on s'marre d'l'état, plus fan de Vu l'manège lorsqu'on m'arrêta Le destin inquiète trop d'vies, man on côtoie la rue trop vite Le ventre trop vide, trop vire mal Comme dans trop d'villes, trop l'vivent mal Demande aux oncles, notre vision du monde choque en étant quelconque C'est pas en se niquant qu'on changera l'décor Va au bout de ton rêve comme K-Reen Au bout d'ton raid, d'ton règne, sans cocaïne Paix, les gens d'ce monde, ami, personne a de vie Le monde devine la merde que c'est en voyant nos modes de vie Tu sais je viens d'où et boy to merde Trop d'doutes pour nous autres, dur d'être doux comme Boyz II Men Depuis toujours contre les leçons et les fourgons d'schmits Mon truc c'était contrôler le son, pas vendre des lingots de shit Réaliser les rêves, imaginés en QHS par mes frères Ou dans le quartier une fois cuit, HS, avec mes frères Tu sais l'ami c'est pour nos frères qu'on fait ça Ceux qui sont là dans toutes situas' et qui se lassent de cette situation Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Anesthésie Générale</t>
+          <t>Autodestruction</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Oh ! Oh ! Enculé ! Docteur ! Docteur ! Laisse-moi sortir ! Oooh ! Ooooh ! Docteur docteur laisse-moi sortir Ou dépêche-toi de me faire une piqure pour m'endormir Oh docteur tu comat' faut te réveiller T'es sous Prozac ou quoi ? Qu'est-ce qui te fait bégayer ? Tu baves, t'as pris trop de somnifère au dessert Moi je tourne à dix joints par jour, j'ai toujours les idées claires Pendant que les flics serrent les dealeurs d'héro' L'industrie pharmaceutique prend le fric des toxicos Ils veulent te rendre accro aux anxiolytiques Pour te garder au chaud dans leurs camisoles chimiques Tout pour que tévite de gamberger Ils ont plus besoin de barreaux pour t'enfermer Ils te donnent ce qu'il faut pour supporter cette vie de chien Et t'as plus besoin de rien d'autre pour te sentir bien Laissez-moi dans mon délire, laissez-moi partir loin Si tout est encore flou, c'est que je suis encore sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale Docteur, docteur, qu'est-ce que je fais ? Quand l'alcool et la weed me font plus aucun effet Donne-moi ce qu'il faut pour que je pionce comme un bébé Bercé par la défonce et le son de la télé La télé gamin, celle qui nous éduque Vaut mieux que tes parents fassent du fric si tu veux faire des études On te demande pas ton avis, t'as pas choisi ton camp On te prend, on te jette, on t'achète, on te vend On te berne, on te ment, le temps soigne les blessures Refais-moi une piqûre, je m'endors trop lentement On peut s'en sortir, c'est ce qu'ils nous laissent croire Car ils savent comment se comporte une foule qui a perdu tout espoir Ce système formate nos pensées, nos mémoires Comment les croire ? Vous nous racontez que la moitié de l'histoire Chaque jour je me débrouille, j'avance dans le brouillard Et même si je tiens le coup, ils me maintiennent sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale À coups d'propagande ou d'came, ils nous maintiennent au calme Dans nos prisons cérébrales, lobotomie générale Devant un spectacle inhumain on fait comme si cétait normal Ici lhypocrisie, c'est le sport national Les disciples du diable viennent faire les leçons de morale Pour que personne ne différencie plus le bien du mal Traite-moi de cas social, envoie les infirmiers Tu peux me traiter, m'interner, je m'en fous Je dors à poings fermés sous Anesthésie générale, pour que tout reste calme Dans nos prisons cérébrales, on trouve toutes sortes de cames Interdites ou légales, elles travaillent mon mental Anesthésie générale</t>
+          <t>Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction autodestruction C'est c'qu'ils attendent, c'est c'qu'ils veulent autodestruction Paranoïa, gamberger tout seul autodestruction Fumer des clopes, manger au MacDo autodestruction Télévision, lavage de cerveau autodestruction Les vices et le mensonge se répandent même dans l'instruction Dites la vérité aux enfants autodestruction Plus tu vis et plus tu apprends faut une direction Envie, avarice, pognon sanglant autodestruction Luxure, jalousie, le monde en cendres autodestruction Ils ne veulent pas nous voir ensemble autodestruction Couteaux, kebbouz, putes et partouzes autodestruction Si ça part en couilles un peu partout autodestruction Colonialisme, impérialisme autodestruction Et tous les mots qui finissent en -isme autodestruction Ils combattent les ganjamans poto attention Remercie et prie Almighty High protection À tuer le temps il n'y a qu'un pas Pourquoi t'en vouloir d'écrire chez nous ce qui ne va pas XXX certitudes en un instant réduites à néant Mon peuple XXX à graille tout en se détruisant Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction On brûle notre jeunesse par les deux bouts autodestruction Tu l'sais, partout tu vas entendre parler d'nous La vie s'consume comme un zedou Même après dix sky, on reste debout autodestruction Depuis l'esclavage et les coups d'bambou Le noir m'colle à la peau comme le cambouis Moi j'suis un bamboula, on fait du bon boulot Tiens le bon bout là Un mec cool, eux, ils disent c'est un bon boug ça autodestruction Lorsque le diable a susurré Tu comprends pourquoi mon esprit est déstructuré Des coups durs, des points d'suture au mental Suicide à p'tit feu comme des soudures sur l'métal On s'noie dans l'alcool Juste un chemin pour arriver plus vite à l'alcôve Et puis ces lâches cognent Et puis c'est là j'colle comme la skunk ou la taule Tepa mon nom d'code, déstructuré comme l'atome Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction J'perds ma vie à tuer l'temps L'atmosphère sur nous a déteint On la répand jusqu'au jour où on s'éteint Un mode de vie incertain, un système trop insultant Qui tombera par ceux qui en sont l'résultat Et vu l'état des choses, personne n'ose forcer l'destin On connaît les causes, mais on fait qu's'plaindre et on reste plein À s'laisser mourir, même étant lucides Autodestruction avec comme seule solution l'suicide Ignorance à foison, haine tolérance zéro Comme ce poison dans les veines où se mêlent alcool héro Autodestruction physique ou cérébrale Nos courtes existences, c'est bien loin d'être la quête du Saint Graal Si ça sent la mort, c'est c'nuage de fumée qui nous contient Rien n'convient et c'est avec la rage de vivre qu'on tient C'est p't-être une façon d'abréger nos douleurs Quand notre sang devient noir, partout c'est la seule couleur Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Cet État t'assomme et t'laisse sur place assise Défoncé, affaibli par cette vie qui t'brutalise Ton cerveau gamberge jusqu'à toucher le sol Perdu dans ta foncedé, t'as cassé ta boussole La nuit tu pleures à l'aide, malheureux d'être seul Mais c'est toi-même, chaque jour, qui dépose ton linceul Tu t'consumes à p'tit feu vers un suicide à long terme Mais ta vie n'se résume que par débauche et haine Mais la partie s'arrête, tuée par toi-même Ne vois-tu pas qu'tu vas droit dans les filets du système Qui sème les graines de la haine Que tu prends par les veines jusqu'à l'autodestruction À tuer le temps il n'y a qu'un pas Pourquoi t'en vouloir d'écrire chez nous ce qui ne va pas XXX certitudes en un instant réduites à néant Mon peuple XXX à graille tout en se détruisant Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Apocalypse</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Il paraît que c'est les derniers jours, ça sent l'apocalypse Si tu veux sauver l'amour, prends un très gros calibre Un coup en l'air pour chasser les vautours, la place n'est pas libre Pas de débat, on sait déjà qui paiera les dégâts Je cherche pas à être calife à la place du calife Des fois, il faut se servir du cerveau à la place du canif Mon boulot, c'est pas de faire la morale ou parler de trucs tragiques Tout le monde veut vivre, alors travaille et trafique Va-et-vient, allées venues, descentes et montées, époque tourmentée Quelles sont tes dernières volontés ? Une bonbonne de Rhum, des bonnes chattes qui ronronnent In the jungle Are you ready to rumble ? C'est la lutte pour grailler, on devient fou à lier Don Cho Boomayé ! Que le rap retourne au Hip-Hop, les poules au poulailler Tu sens que ça vient là, ouh, ça y est Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... Impossible n'est pas ma mission Bouche-toi le nez et prends une longue respiration Ma section arrive, mettez les warnings Oh, danger, panique, orange mécanique I'm singing in the rain, vite dégaine Bientôt la Terre aura l'air d'une ville tchétchène Ils manipulent de l'ADN aux HLM Allez men, il faut traverser la Géhenne J'entends des cris entre cendres et débris Mission cherche et détruis avant que la tempête se déchaîne Le sang a un prix, j'sais pas qui il paiera Tout ce que j'ai compris c'est qui vivra verra Et qu'il y a du blé à se faire, j'aurais tort de manger 2003 sera gore avec trois grands G Et que tu sois pas d'accord, qu'est-ce que ça peut y changer ? Pourquoi je fous mon bordel ? C'est que ça me démangeait Et ce sont les ordres de King Zaman Kill them all et qu'ils aient mal Brûle quelque chose pour qu'on sente que c'est chaud Et qu'on chante tous en cur No, No, No Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... Époque choc et têtes brûlées Liqueur forte, fais fumer Les mecs se grattent les couilles et les filles se touchent les tétés En criant Nique lÉtat ! Nique lÉtat La météo dit Été torride 60 degrés, orage de feu, pluie de météorites C'était horrible répètent les deux seuls survivants Tout en se nourrissant du cadavre radioactif d'un chien errant Buvant de l'eau orange sous un ciel rouge Atmosphère étrange, on dirait que plus rien ne bouge Mais sous tes pas, tu sens tout ce qui grouille ? Cafards, morpions, serpents, scorpions Mets un gros lion ou un tigre dans ton moteur Mon délire va plus loin que le Pape sous Poppers Apocalyptique, chaleur d'enfer Navigue sur le Styx, fais un tour dans la caverne Odeur toxique, ça pue et c'est pas l'herbe Peut-être un MC qui pourrie les tripes à l'air T'as pas l'air en forme, faut pas que tu t'endormes Sinon le démon te nique avec ses grandes cornes Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, regarde la chute de l'ange L'erreur est humaine c'est pour ça que la nature se venge Apocalypse, c'est tout de suite Poursuite, cours vite, coup de speed, mouille le sweat Apocalypse, art de rrrrr Oh ça caille là, it's cold, ça berd, brrr... Paroles rédigées et expliquées par la communauté RapGenius France2</t>
+          <t>Faut qu'on se sorte d'ici, qu'on se tire tous de là Kertra, Fonky Family Dis-toi qu'ici-bas, j'ai trop rappé par bénévolat Et maintenant, c'est pour eux de payer Ça va en chier pour les nantis Kertra, Fonky Family et maintenant Je m'obstine et même si ça rapporte peu, personne nous mettra au pas On représente nos gars, qui soient tombés pour faute, grave ou pas À ce moment précis, je n'ai que mon rap pour espérer de plus beaux lendemains Demande aux miens, les jours meilleurs ne viennent pas en un tour de main Non, si c'était le cas, on le saurait et on ne se plaindrait pas tant Peut-être qu'on ne passerait pas tout ce temps chez nous à écrire des heures durant Quoique dehors je rate rien, je connais le décor, les acteurs, le scénar' avant de l'avoir lu La fin de ce putain de film avant de l'avoir vu Quand tout sera terminé, elles seront où les putes qui me trouvaient mignon ? Sûrement au large quand elles verront qu'on ne brasse pas des millions C'est ça la vie, faut se montrer vif dans ce monde, cet abattoir Tout va si vite, jeune, t'y laisses ta peau quand t'as pas d'échappatoire La mienne reste l'écriture, juste basée sur des faits réels À les entendre, tu comprends cash qu'ils viennent des vraies ruelles Celles où les jeunes veulent autant de fric à la banque que dans le matelas Respect aux nôtres de Marseille jusqu'à Mantes-la Comme je voyais le monde d'la musique, je croyais qu'ça rendait riche un seul disque Une seule couv' ou un seul clip, plein de flouze sans un seul risque Soldat du hip-hop sans sol fixe, t'inquiète, je me plaindrais pas Je mange sans bosser à heure fixe, je sais même pas si je bosse moi Cherche l'os moi, va jouer le zguègue dans le showbizz Si j'aurais voulu vendre mon cul, j'aurais fait gigolo Elles font de grosses bises à toi parce que ton truc s'vend bien Regarde bien qu'ils lui rendent son contrat, pour eux, il vaut plus rien Ils sont rapides à calculer, ces enculés Tu crois qu'ils sont là pour rigoler, alors Pourtant j'en ai vu un qui est payé des millions à picoler, alors Ce milieu-là est bizarre, rien à voir avec la rue Combien ont pété les plombs avec tout ce qu'ils ont vu Tout ce qu'ils ont bu, tout ce qu'ils ont pu sniffer Toutes les putes qu'ils ont eu, tout ce qu'ils ont dû kiffer Tout ce qu'ils ont su, le succès, ça peut changer un homme Même avec une faim énorme, garde la tête froide, mécréant FF, un album si Dieu veut et Dieu est grand Scratches Ce qu'on essaye d'expliquer et quoi que tu fasses, tu dois t'appliquer Beaucoup ont cru que faire un album c'était pas compliqué La route est longue et la réussite ne vient pas rappliquer À chaque seconde tu te dois de savoir répliquer Le business de la sique-mu, fils, n'a rien à voir avec le business de la rue, fils Et c'est comme ça, fils, tu sors un skeudi, deux skeudis, ça y est t'es che-ri Tout le monde te charrie, pour les nnes-ch' t'es le nouveau chéri Mais c'est du vent pour réussir à t'enrichir La sagesse est le début donc commence à réfléchir J'dis pas qu'il y a pas de seille-o parce que là, ce serait te mentir À vrai dire, comme qui dirait, je préfère avertir Ils niaient qui aujourd'hui avouent, alors qu'avant ils niaient Je les vois chialer, alors que dans le temps au loin ils riaient On lâchera pas l'affaire jusqu'à ce qu'on revienne briller On restera maintenant qu'on y est Scratches</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Art de rue (Live au Dôme de Marseille 2003)</t>
+          <t>C’est ça ou rien</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Annotation typeJanvier 0101 LEDOUBLE JEUNE SACHET - 2034 - 0101 Max D. Carter - ingulièrement Vôtre Haché Vissé 0501 Dibson - Le D 0501 Gazy MP - Process - 0501 Houdi - HOOD VOLUME.1 0501 Jeff le Nerf - Dark Green Tape - 0501 Mougli - Dans la jungle 0501 Negrito - Débrouillard 0501 Popey - À découvert - 0501 Resell - BALACLAVA PREMIER GAOUBISAP 0501 Saamou Skuu - Nous cest la TH Vol. 3 0501 Vink - L'Ordre et le Chaos Volume 2 - 1101 Booska-P - Les 11 à suivre 2024 - 1201 404Billy - GDAY - 1201 Bavaz - Noble Art - 1201 Caballero JeanJass - Zushiboyz, volume 3 1201 DosPunto - DOS 1201 HeyMikey!, Bricksy 3g - New Chapitre - 1201 Kaza - HEARTBREAK LIFE II - 1201 Kerchak - Saison 2 1201 Noss Misère Record - Récidive - 1201 Roméo Elvis - Écho - 1201 Rowtag - Zone Tendue - 1201 Serane - S.E.R. - 1201 Still Fresh - PSG OM QUAND TES IVRE - 1201 Yvnnis - L'AFRO OU LES TRESSES - 1301 Ateyaba - ECSTATIC - 1701 Gama Boonta - GRAND DICTATOR 1801 Tali 2C - DOUTER NEST PAS UNE OPTION - 1901 8ruki - POURquoi!! 1901 Demi Portion - Poids plume 1901 JuL - Décennie 1901 Kofs - Après minuit - 1901 Lesram - Du peu que j'ai eu, du mieux que j'ai pu - 1901 Noti Rose - MENTIRDÉCIBELS 1901 Oumaï - SEUL - 1901 PLK - Chambre 140 Part.1 1901 Rizla - RE7 - 1901 Shay - Pourvu qu'il pleuve 1901 So La Zone - De la cellule au château - 1901 Uzibinski - Résilience 1901 Yanso Boub'z - FANTÔMES - 2201 Lonepsi - Sans visage - 2401 Gio Nuovo - The Battacio Mixtape Vol1 - 2401 PAPI TEDDY BEAR Pense - LA CHAUFFE - 2401 your.nash - la plaie et le couteau - 2501 Le Règlement - Règlement Freestyle Saison 5 - 2601 BEN plg - Dire je t'aime 2601 Insa - Blanc comme les murs - 2601 Jaymee - Ma Way - 2601 KIK - ADIEU EDITION GANG 2601 Larry - NCE Partie 1 - 2601 mademoiselle lou - LES OMBRES 2601 morphée. - SPLEEN EST IDEAL - 2601 PLK - Chambre 140 Part.2 - 2601 Rounhaa - JAAFAR - 2601 Rozzy Friendsofbryan - Epik Angels 2601 CO - CEST POUR LES MÉCHANTS 2 - 2601 Sokuu 8 Shuff - CHROMATIC TEARS 2601 Tizzy Miller - 444 - 2601 Zola Koba LaD - Frères Ennemis 2801 ouley mh - S 3101 Bricksy 3g - But It Ain't Février 0102 Chilly Gonzales - Grünt 63 0102 Lybro - Salle du temps - 0101 Yovo DIOGENES - little boy fat man 0202 2TH - Les Prémices - 0202 Cannelle - ODD - 0202 Cellulaire - DAMOUR DARGENT 0202 IAM - HHHistory 0202 kozi - VDA Vol 2 - 0202 Lala ce - SOLSTICE - 0202 PLK - Chambre 140 Part.3 0202 Roshi Shaz - NIGHT RIDE 2 - 0202 Ruff - DADDY GERANIUM - 0202 San-Nom - Un peu pitoyable - 0202 Slimka - Le Grand Mystico - 0202 S.Pri Noir - La Cour des Miracles 0202 S-Tee - LOWLIFE 0202 VVES - SOLIDE - 0202 Zaky - SOULGAZE - 0202 Zkr - Mode Opératoire, vol. 1 - 0402 404Billy - GDAY Version physique - 0402 orphevre - IRREGULAR TRAPPEUR - 0602 Rim'K - Lifat Mat 0702 75ERA - HÉRITAGE - 0702 Empty7 - Lacrimosa - 0802 Jäde - Diabolo Grenadine Rivalise - 0902 528ron Lovarran - DESDB 3 - 0902 BAKSOOZ - CHAOS KING - 0902 Booba - AD VITAM ÆTERNAM 0902 Dany Dan Kyo Itachi - Pièces montées 0902 Dertay - Désolé, d'être moi 0902 Doria - Petite fille 0902 Fanny Polly - MEUF 0902 Lamatrix - SEREIN 0902 MLKWAV - TSUNAMI - 0902 Sokuu - SOLANIN - 0902 TH - SIGNAL II - 1002 Ry's - FANTASMAGORIQUE MUSIC 1202 2 Mètres - 92 Life 1202 Didi B - Before Olympia - 1402 Djibso - Exodia - 1402 Jok'Air - Lune de fiel - 1402 Spider Zed - Mes Ex, Pt. 4 Les mouettes - 1502 Grems - Vie Compte - 1502 Mairo H JeuneCrack - La solution 1502 Noti Rose - dead internet theory 1502 roolio - pour quoi faire? - 1602 Dadju Tayc - Héritage 1602 Dara - Chaos 1602 Gips - Passager59 - 1602 Franglish - Prime - 1602 Infinit' - 888 1602 Lp2.0 - Indifférent 1602 Meel B - UFONY - 1602 menace Santana - Freestyle covid Part. 3 - 1602 Nusky - Tchi 1602 RAS - Retour Aux Sources, Vol. II - 1602 So' - SAHARA, Vol. 2 LAYLA - 1602 Tenma Douze Déluge - ANIMA 1602 Uzi - SUR LE CHEMIN 1602 Valser - SIROCCO - 1602 Wassim - CETTE VIE-LÀ - 1602 Werenoi - Pyramide - 1702 Yarok wasting shit - SSD - 1802 Max D. Carter - Dans la salle de bain de Samantha Jones 1902 Furlax - ETHERIA - 2002 Tiers - Drapétomania - 2102 ihatemed - Serial Killer - 2102 Kaza - Une de perdue - 2202 L'ETAT2ND - L'ÉTAT2ND Vol.2 - 2302 Abou Tall - Monsieur Saudade - 2302 Celestino, Damlif Toboë - emojiski - 2302 Féfé - Hélicoptère 2302 Game Over - Game Over 3 - Terminal 2 - 2302 Gen - Fidel - 2302 GLK - VIDI 2302 IDHEM - RÊVE MACHINE - 2302 Kalash Criminel - BON COURAGE 2302 La MG - PROLOGUE 2302 Larry - NCE 2302 Le A - Eveil 2302 Manny - Shootstar 2302 Melan - La trentaine l'intégrale 2302 Moubarak - ÉPREUVES - 2302 PRIME - MONTADA 2302 Relo - DIEU MERCI ENCORE Réédition 2302 V2 Almz - MAUVAIS PARCOURS 2302 Voleur2Voleur - AUCUNE ATTACHE Vol.1 2302 YL - LARLAR Part.2 - 2302 Zamdane - SOLSAD - 2802 Jaymee - BLACK YELLOW 2802 Moha K - Salam - 2802 your.nash - la pluie sur le coupable 2902 Am La Scampia - La Scamp' - 2902 Médine - HAP LIVE SESSION live session 2902 Hypo'z - Birthday Cake Mars 0103 Allebou - Epicerie du bonheur 0103 aru! - parhélie - 0103 Big Ben - JET - 0103 Croma - Une journée dans mes shoes 0103 Elh Kmer - KJU 0103 Fresh - P.M.R. - 0103 Grems - Algèbre 3.0 0103 LIKMA 140 - TRAIN DE VIE - 0103 Luther - EXIT - 0103 Misa Mano - GRAND ANGLE 0103 Mortalla - Calibré 0103 Nessbeal - Lumières Nocturnes Chapitre 2 0103 Shotas - Oue La 6T 2 0103 Squidji - ANTARCTIQUE - 0103 Teklam - Questquetuveux?? 0103 Tunisiano - Avis de tempête 0103 Uzi - SUR LE CHEMIN Phase 2 - 0103 WarEnd - EMC - 0203 Myth Syzer Ateyaba - ECSTATIC Myth Syzer Edition - 0303 Tiakola - X - 0503 spookyghost333 CCCXXXIII 0503 VII - Seconde Zone - 0603 Marty de Lutece - La nuit d'après 0603 TK - 6 Mars 2024 0603 Venom Cz - Crime Master Reedition 0703 theotin - L'Horreur Des Autres réduit 0803 Achim - Prométhée - 0803 ADÉS THE PLANET - JPLEURE EN DANSANT - 0803 Busta Flex - TCLV 0803 Dinor rdt - RDT - 0803 Dries Bormans - Dries Bormans 0803 Kaeles - NEVERMORE 0803 Keuchei - Gang ou rien 0803 Lapostroz - NOCTURNE Pt. 1 0803 Leys - LEYS - 0803 Malo - 95 - 0803 Sirap - Rapsi World - 0803 Yassine Stein - C'EST DIEU QUI DESSINE - 0903 NDO Runway - La Culture Habite Chez Nous - 1203 nelick - QUI VEUT LA PEAU DE KIWIBUNNY ? - 1303 YUNG POOR ALO - L'oiseau - 1403 Nusky - Deux minutes - 1503 Bekar - Plus fort. 1503 Demszer - REZET - 1503 Eline - Mieux vaut guérir - 1503 FEMTOGO Vilhelm. - La Bête - 1503 Jäde - Les Malheurs de Jäde - 1503 Jeune Lion - SO DIEU - 1503 Le Lij Izen - X.O 1503 Matou - Élixir Vol. 2 - 1503 MC Solaar - Triptyque Lueurs Célestes 1503 Sameer Ahmad - La vie est bien faite - 1503 Sno3 - SOUS LA RÉTINE - 1503 Spider Zed - Prends le bien - 1803 slump. - Z Unit, Vol. 1 - 2003 Chavi - 10 ANS D'ÂGE - 2003 Gio - Le Berger Le Mouton - 2003 Leo SVR - RAP INSTINCTIF APOLOGIE - 2103 LK de l'Hotel Moscou - Wu Wei 2 2103 Senamo - Un cauchemar avant le jour daprès - 2103 T.I.S Kaer MKS - Période bleue - 2203 34murphy - La chouette - 2203 AAMO - CHARBONNER OU PRIER 2203 Dina - DNA 2203 DND - CINQ 2203 Ekloz - 3motional bada b!tch 2203 Falcko - BLACK CODE TOME 4 2203 Hatik - LA VIE DE TYLER - 2203 Jeune Observateur - Fuir Les Ombres 2203 K.S.A - On Load... 2203 Perso - Eminence Grise - 2203 sean - OÙ EST PASSÉ ZEUDOG ? - 2203 Vin's - Le faux miroir 2703 PHLP - Maison Posture - 2703 Todd - MAX2BLÉ - 2803 B.B. Jacques - HORIZON 25 2803 Herman - Pas normal, pas bizarre 2903 Absolem - Les yeux grands fermés - 2903 BUHI - Bushi Tape 3 - 2903 CAPUH - THE RAIN NEVER LIES - 2903 Cheval Blanc - INSPECTEUR CHEVAL - 2903 Deelee S Arsaphe - STEEPLE-CHASE - 2903 J9ueve - NUEVE SEAZON 2903 Josué - Etat d'esprit 2903 Kamas Skuh - La Paye 2 2903 KLS - LA PAIX DES BRAVES PART. 2 2903 L'Hexaler - En parallèle 3 2903 Lybro - Plein potentiel - 2903 Matox Sale Epoque - Les Chats - 2903 NeS - POUR DE VRAI - 2903 Nobodylikesbirdie - The Birdie Tale II Reservoir Dawgz Avril - 0204 Lucio Bukowski Mani Deïz - CHARDONS BLEUS - 0404 SONBEST - Symphonie Des Marécages - 0504 Cellulaire - MAQUINA - 0504 Daej Phantom - Rire Drame et Vendetta - 0504 Green Montana - SAUDADE - 0504 Keroué JeanJass - SCOPE 0504 Moxy - Aube Rose - 0504 Nelick - MON CUR BAT - 0504 Shien - Obsession - 0504 YUNG POOR ALO - Alo et l'oiseau - 0904 Bob Marlich - Les points sur l'Haÿ - 1004 Henri Bleu - REGARDE - 1004 Youri - Enfermez moi - 1204 Dau - ÉTATS D'ÂMES 1204 Guy2Bezbar - AMBITION II - 1204 Inflow - Dernières fleurs - 1204 Joé Dwèt Filé - GOUMIN TERMINÉ - 1204 Kpri - 2002 - 1204 Lycos - HYPERION 1204 Paco Raw Saitama - TRAMONTANE 1204 Peet - À demain - 1204 Rodrigo - ÉTERNEL SECOND 1204 SID - STELLAGONY 1204 SLD Prod Tha Manz - Sixième Sample - 1204 Smeels - GLOF 1204 Tedax Max - Hardeur contemporain 1404 Jahrel Jones - BAKANA SENSITIVE LOVER VOL.1 Talkin' Dirty Before Dark 1504 3xmacoño - LE 3 - 1704 HIBA Lyes Kaci - presque heureux - 1804 Akkai - PragmatiKkK 1804 AnNie .Adaa - Juste Un Peu De Ciel - 1804 Sadandsolo - FACTORY RESET - 1804 Saytam - Marseille Nuit - 1904 Deadi - Enfin - 1904 Enima - DZ D'AMERIQUE 1904 GAZY MP - Vision - 1904 Grand Bazaar - GrandBazaar 02 1904 Jarod - Rédemption 1904 Larsé - Jeune Rookie 1904 Lazzio - DUR LABEUR 1904 mademoiselle lou - LA VAGUE 1904 Mac Tyer - LA VIE DU TRIPLE OG 1904 Mehdi YZ - Ça passe ou ça cash 1904 Momsii - LGT Vol.2 - 1904 Nusky - Pussy miaou 1904 Pedro - Living Room 1904 Rimkus - Fracturé - 1904 Spider Zed - Xari 1904 Uzi - SUR LE CHEMIN Phase 3 - 2304 paradise rq - L'un des sept No.3 - 2404 Owen - WEIHENMAYER 2604 Ashéo - ALO premier appel 2604 Davinhor - Karaba Partie I - 2604 Gros Mo - LES DIÈSES 2 2604 Gutti - AVANT LE GLO 2604 Kima - L'école des Stars - 2604 Lester - Oz 2604 Linton - Home Run 2604 Mister You - HLM3 Réédition 2604 Nyda - Murder Music - 2604 ozkar - scories vol.1 - 2604 Ratu - TTMS, Vol. 3 2604 Stavo - Il était une fois - 2604 Tomàs V - LAdversaire 2604 Suzuya - Morceaux de moi - 2604 Wit. - LE JOUR D'APRÈS - 2904 Asinine - Brûler la maison 2904 JMK ambezza - SOUTH STORY 3004 Black Jack - Strangulation 3004 Flamingo Santana - NAUGHTY BOY Mai 0105 Bouss - Depuis le temps 0105 Chanceko - En roue libre 0305 Baby Neelou - Le Chemin du cur 0305 Bhk220 - Génération 2000 0305 Game Over - Game Over 3 - Terminal 3 - 0305 Gapman - Prochaine Chèvre 2 0305 Heloïm - DERNIER RUSH 0305 KPoint - SHOTTAS 0305 LowKey Juvito Various Artists - JuvTape Vol. 1 NevJoueurs 0305 Nixon - Outsider 0305 Rouge Carmin - GRAND CARMIN HOTEL 0305 samayusi - Des cauchemars qui ont saigné - 0305 Souldia Lost - Portrait robot - 0505 Nemavo - Chrysalide - 0805 VILK - VILKCORE - 1005 AK - BIGDAWG EVO 1005 Cacahouète - Vrai Igo 1005 Dr. Yaro La Folie - À Deux 1005 JYEUHAIR - DAIZOISO 1005 K.S.A - Energie - 1005 Misa Yeuze Low - L'HUILE AU SOL 1005 Skary Wysko - PROLOGUE LE HORLA 1005 Slkrack - Jeune, black qu'en à rien à branler - 1005 Take A Mic - M1NDSET 1005 White N - DEUX FOIS PLUS QU'EUX 1105 Mitch - MODE S 1105 T.I.S - Dans la ville 1505 Bricksy 3g Lilguwop - Glowop - 1505 Zoomy - DIRTY SPRITE 19 - 1605 Butter Bullets - Château - 1605 Närka - HOTEL BLEU 97 1705 Ben.C - BENNY 1705 Biwai - Remontada 2 1705 dima - bastide 1705 Eesah Yasuke - PS J'écris l'album 1705 Harley - Who's Harley - 1705 Huntrill Hologram Lo' - REPLICA 2 - 1705 La F - TNF 3.5 - 1705 Laskiiz - GODJENG 1705 Leith - SI LA FORTUNE EST AVEUGLE - 1705 Magnim - Blanc et Bleu - 1705 Mandyspie - Monster Therapy - 1705 Peka59 - Maryse 1705 SAM - 1ère mi-temps 1705 Stavo - Éviter la misère 1705 Timal - Darzava - 1705 USKY - Anhédonie 1705 your.nash - solitaire, mais bien accompagné - 1705 Yzü - SWIRL TRAUMA - 1705 Zinée - OSMIN - 1905 Cielbleu - Janvier jtm quand même - 2305 So La Lune - NUMERO 11 - 2405 ADVM - .DEMAIN C'EST MIEUX. - 2405 Bluume Triple Nine - MELOGRAM 2405 Dadinho - Coeur Nwar - 2405 Dau - ÉTATS D'ÂMES Vol. 2 - 2405 Douze Déluge - HINTERHALT pt1 - 2405 Folie's - Folie's je t'aime - 2405 Hotel Paradisio - INSOMNIA 2405 Koffi Lossa - À la maison - 2405 Osirus Jack - TSAR NOIR 2405 Skary Wysko - LE HORLA - 2805 Toothpick - JEUNE LIFTIER - 2905 F430 - Focus 2905 PAPI TEDDY BEAR Pense - LA TREMPE - 2905 Toam - CRIMERA - 3005 Famille Nombreuse - Reste Dangereux 3105 410 - 410 Pt. 2 - 3105 AMK - T.A.T - 3105 Dalienski - L'Arme de Cristal - 3105 Deemax - À MA PLACE 3105 Elso - Fula - 3105 Elyon - La musique est une porte - 3105 Hugo TSR - La Pluie 3105 Jack Many - Des flingues et des roses - 3105 Kemmler - Alain - 3105 Lary Kidd - Le cheval blanc de Napoléon 3105 Maks - Enfant Béni 3105 RK - DLPDA - 3105 SCH - JVLIVS Prequel Giulio 3105 Skima - Krieg - 3105 Surprise - Le plus beau des monstres - 3105 thaHomey - RARISSIME II - 3105 Zed - Malcom - 3105 zonmai - Birthday Saison Juin - 0406 Gringe - Du Plomb Effet de Surplomb 0406 Jama - DEVIL Z, Pt. 2 0706 Jey Brownie - Mélodie céleste 0706 JKSN - CRACK - 0706 Jok'Air - Turpitude - 0706 JuL - Mise à jour 0706 Le Lij Brodinski - Zéro Degré 0706 Loveni - MAD LOV 0706 Madjer - LUCKY LUXE - 0706 MSyn - BEFORE Atalante 0706 Skary Wysko - ÉPILOGUE LE HORLA 0706 Slkrack - Le charbon ne s'arrête jamais - 0706 TH - E-TRAP 0706 TiBab - BRICKBABY - 1306 Farloski Pablaw - EUROSTAR MUSIC - 1306 Maeg - Hall of Shame - 1406 abel31 - 0010 - 1406 Arsaphe - NÉVROSÉ - 1406 Caballero - Dose héroïque - 1406 Heuss l'Enfoiré - LVDR - 1406 iTo - Mourir jamais - 1406 Izar - 38ème étage - 1406 Jaymee - ÇA C'EST DU RUN 1406 KABBSKY - DYSTOPIE 1406 Kasar - ALTAÏR 1406 Keeqaid - PARTICIPE 1406 KLS - HORION 1406 Lacrim - VENI VIDI VICI 1406 La Kadrilla - M.A.P 1406 Mano Leyra Kooking - 92BADD 1406 Many Santana - PHE 1406 Meryl - Caviar I 1406 Nayra - TALWIT 1406 Nosnow - Dolo 1406 Notorious 2T - SURVEILLÉ - 1406 OSO - Tundra XP 1406 Princesse - Prélude Nouvelle Romance 1406 Raous Gang - 94 Filature 1406 Still Fresh - CEST LA DERNIÈRE FOIS, Pt. 1 - 1406 Take A Mic - MIN2SET 1406 TheHashClique - LEET 1406 Tovaritch - TSAR - 1406 wasting shit - 1M NE SE GASPILLE PAS TT SEUL 1506 Maes - EN ATTENDANT LVC II 1906 Lison - ABRASIVE NOISES FRAGMENTS - 1906 Romero Xr Dr. Fongible - Mixtape Éon I - 1906 Rowjay - LA VIE RAPIDE - 1906 San-Nom - Un peu moins pitoyable 2106 808NOCHE - 808 BPM 2106 Aketo Unfamouslouie - SPIRITIC 2106 Anas - Diaspora, Vol.1 - 2106 arøne - fin d'été 2106 Bouss - Depuis le temps Part. 2 - 2106 Cellulaire - ÉVANESCENCE 2106 Heykel - Particule élémentaire 2106 Houari - Cest de la Cali 2106 JRK 19 - MAUDIT À VIE 2106 Kay The Prodigy Mezzo Millo - EASTERN WIND 2 BLOOM EDITION 2106 Lebza Khey - Coeur Froid - 2106 LEDOUBLE Hologram Lo' - enfant du soleil 2106 Leith - LE RICHE EST SOURD 2106 Lyonzon - Wave ruler 2106 Naps - MEC DE CITÉ SIMPLE 2106 Naza - Nazaland - 2106 Noti Rose - AVEUGLES 2106 Rohff - Fitna - 2106 Soprano - Freedom 2106 Still Fresh - C'EST LA DERNIÈRE FOIS 2106 TripleGo - NOIR CARBONE 2106 TRZ - TRANSIT 2106 Uzi - SUR LE CHEMIN Phase finale - 2106 Vîrus - NYCTHÉMÈRE 2606 Ashh - Katrina - 2606 Jorrdan - Stevie - 2606 Selug enar - No Signal 2706 Leust - FRAMELESS 2806 Achim - APHANTASIA 2806 Bambino47 Alek500 - SKYLINE 2806 Benab - Drapeau Noir 2806 Cenza - 2997 - 2806 Chilla - 33 2806 Damys - D or D, vol. 2 - 2806 Enima - DZ DAMERIQUE Deluxe Edition 2806 Karmen - MOTEL STUDIO 2 2806 KR Malsain - Une nuit sans étoiles 2806 La Famax - La vie de généraux - 2806 LauCarré - Merci la vie pour les douleurs 2806 Lil Zamm - EUROTAPE 2806 Melan - Havana 2806 Michel - Les Orties 2806 Missan - Full Vision 2806 Mougli - Dans la jungle partie 2 2806 Myth Syzer - HARD 2806 Nono La Grinta - La Griiint 2806 Prototype - LA FÊTE DU SERPENT - 2806 Sasso - VICE CITY - 2806 Scylla - Ivresse des profondeurs 2806 Slim Lessio - La Grande Vie - 2806 St. Jimmy - Boulevard des Rêves Brisés - 2806 Wallace Cleaver - merci - 2806 Yvnnis - SCORE! 2806 Zequin - NTABASHII 2806 Zokush - Du jour au lendemain 3006 Di-Meh - OV3 - 3006 Ptite Soeur Gemroz - KAYFABE CHIMERA - 3006 Zeu - WATERGATE SCANDAL Juillet 0107 Worms-T - Wolf Gang - 0207 T.I.S Kaer MKS - 007 AM 0307 Anta - ANTAGONIS2TE - 0307 B.B. Jacques - Honeymoon - 0307 Mairo - 45 et rouge - 0307 Souffrance - Éléphant - 0507 Artistes divers - Nouvelle École Saison 3 Partie 1 0507 FAYV - MONÊRÊS 0507 Hache-P Kezo - Auto 0507 i300 - LA TRAP M'A SAUVÉ 0507 IPNDEGO - MORNINGSTAR 0507 ISS - Favori - 0507 KLM - JUSTE EN CRIME - 0507 Maxlinker - rose incident 0507 Mortalla - Boussole 0507 Nuev - DESTOCK - 0507 sheng - FCK SCHOOL 0507 Slkrack - La chance n'existe pas 0707 Blaz Pit - NO SKIP, Pt. 2 0907 Godson Anybxdy - LE SALON DES CONDAMNÉS 1007 ICY - RESET 1207 63OG - MPM 1207 ADÉS THE PLANET - UN TRÈS BEL ENTERREMENT - 1207 Artistes divers - Nouvelle École Saison 3 Partie 2 - 1207 Beendo Z - CONNU POUR EXTORSION - 1207 Carbonne - Par nous-mêmes 1207 Gambino - CAPSULE 1207 Hash24 - Trafic 1207 Hulk Van JMF - Je t'avais dit, non? 1207 ISK - Hannibal Part.1 1207 Kaeles - CLOUD NINE - 1207 Lamanif - Jean-Pierre 1207 La MG - ÉPILOGUE 1207 La Rvfleuze - EALS - 1207 Lazuli - Aphrodisiaque 1207 Liim's - Mentalité Baara 1207 Lord Esperanza - Atlas - 1207 mademoiselle lou - VIVRE 1207 MAPESS - VERSUS 1207 Sicario78 - L'instable 1207 YUNG POOR ALO - Un monde où ça va - 1307 baby hayabusa Neophron - Faded Flower Story - 1407 Deelee S - Saison chaude 1607 Deelay - Agoraphonie - 1707 Yovo - EQUUS 1907 Chaax - Kaïzen 1907 Fresh laDouille - Sang limite 1907 Gatchete - SEDNA - 1907 Guy2Bezbar - Maison Blanche 1907 JaySoCold - BODY THERAPY - 1907 Leto - Capitaine fait de l'art 1907 LEVELSANTANA - NONCHALANT - 1907 Maes - LA VIE CONTINUE 1907 Malko - SAHARA 1907 Nessbeal - Black Summer - 1907 Rémy - Après la pluie - 1907 Take A Mic - MINDS3T 2207 La Hasba22 - 75022 2507 Neop0p, Brodinski Modulaw - METANOÏA - 2607 Rizzy Wallace - R FRANCE 2607 SAF - SINAVOICE 2707 Lucci - Qu'une seule route - 3007 OG L'Enf - FAUX RÊVEUR Août 0108 LNK - SAISON 00 LES COEURS S'EMBRASENT 0208 BKRBABYBOY - LOVSZN 0208 Insa - Nuances de I - 0208 Jungle Jack - JUNGLE DES ILLUSIONS VOL 2 0208 Marla - NAISSANCE 0208 Mayo - Yoski 2 Golden Edition 0908 Ruff - PICON GRENADINE 1408 Le Jeune D - HIghland Vol. 1 - 1508 Ateyaba - ECSTATIC 1.5 - 1508 Zinera - Mr. Fastlife 1608 Durden - Le Rap avant T.A.L - 1608 Futur Bandit - POST-APO, vol.1 1608 Morphée - AVI - 1608 Parasit - NOUVEAU LABEL - 1608 Toothpick Guydelafonsdal - TOOTHPICKDELAFONSDAL - 2008 Strano - SDF MUSIK 2308 ARTR - Histoire de 2308 Cinco - PREACH SUMMER - 2308 baby hayabusa Neophron - Faded Flower Story Deluxe - 2308 T.I.S Lando - Citadine 2808 Bricksy 3g Lilguwop - Glowop Deluxe 2808 Moubarak - Tout Droit - 2908 Damso - VIEUX SONS 3008 Afro S - A.N.T 3008 DND - T3 sur soleil 3008 MALTY 2BZ - Solitaire - 3008 Primero - Plaine des Asphodèles Septembre 0109 Saiba - KAESTAR 480P - 0309 The Strangers - Rise Together Que ton mic repose en paix 0409 Chavi - no ref - 0409 JeanJass - Tous ces ongles rongés - 0509 Lucio Bukowski Tcheep - ASADACHI TAPE Vol. 4 - 0609 Deemax - TRASHTALK - 0609 Furlax - ASTRA NOVA - 0609 Jeune Foy - ONCE UPON A TIME - 0609 La Fève - BIGLAF 0609 La Hasba22 - 75022 0609 Raplume - FREESTYLES RAPLUME 2024 - 1309 A2H - ULTRA-SENSIBLE - 1309 ANTHA Jeune Ras - DU SANG SUR LES LÈVRES 1309 Brav - Café crève 1309 Dadi - TPLM 1309 GEPETOGANG - MobbTape Chapitre 1 - 1309 GIMS - LE NORD SE SOUVIENT - 1309 Giuseppe - 1ST PICK - 1309 HOUDI - LE DERNIER RAYON DE SOLEIL 1309 Lyre - MANTRA 1309 N3MS - LE BRUIT DES VAGUES 1309 Norsacce Berlusconi - Sacce Season Trailer 1309 Savage Toddy - Spécial 1309 Trankil Trankil - Surf School 1309 Triple Nine - Daytona - 1309 Yorssy - Road Trip - 1709 DollMoney MIXTAPE PALESTINE LIBRE DE LA MER AU JOURDAIN - 1809 T.I.S J.Crown - 008 PM 1909 Tisma - HAPPY DAYZ 2009 Allebou - L'esquive 2009 Ashéo - ALO deuxième appel - 2009 BARA8! Hitech - Ok Cool! - 2009 Chilla - 333 - 2009 COEURCO - UNRESTRICTED INTERNET ACCESS 2009 Dooz Kawa - Vol de Nuit - 2009 EDGE - JANVIER... 2009 Gringe - Hypersensible - 2009 Tiakola - BDLM VOL.1 2209 Zippo - Automne - 2709 Baby Neelou - Briller de fou - 2709 Chanje - Humain - 2709 Darlean - REBOOT 2709 Double Zulu Just Music Beats - Last Man Standing - 2709 FEDALL - RARE 2709 K.S.A - Energie Reloaded - 2709 Moha MMZ - La plage 2709 Savage Toddy - Né spécial - 2709 SDM - A LA VIE A LA MORT 2809 Caballero JeanJass - Zushiboyz, volume 4 Octobre 0210 Myth Syzer - HARD Deluxe 0310 Yassine Stein - LE SOL TREMBLE 0410 13 Organisé - 13 Organisé 2 - 0410 B.B. Jacques - BLACKBIRD 0410 Jwles - Bijoux 0410 Sensey' - Des rires et des pleurs - 0410 Serane - Prise Musique 3 0410 Souf - Sentiments - 0910 Good Bana - V-IVRE - 0910 Sadandsolo - FACTORY PRESET - 0910 Yovo - EQUUS FERUS 1110 AMK - 15 Vol.2 La polyvalence est un don 1110 Balafré - 40 ACRES 1 MULE - 1110 Godson Anybxdy - CASINO ROYAL II - 1110 James Loup - SOLEIL FROID 1110 JaySoCold - BLESSED 1110 LA HAINE - LA HAINE - 1110 Lovarran - Cascade 1110 Savage Toddy - Personne n'est spécial 1110 Seventiine - Apollo 17 1110 Todd - DBNA - 1410 shooda - Darkness Light - 1610 Teklam - Par ou on passe 1810 AnNie .Adaa - Là où le Soleil se Fait Rare - 1810 Django - paris, 31 août 1810 Ikaz Boi - BRUT4L 2LUXE - 1810 Jayel - Trend 1810 joysad - L'auteur de mes contes 1810 M87 - EMPRISE - 1810 MadeInParis - mourir peut attendre - 1810 MEL - MAISON VIII 1810 RK - DLPDA Extended Version 1810 Ry's - RAYON LASER 1810 Tetsuro - Ce qui compte vraiment - 1810 Werenoi - Pyramide 2 1910 Ashh - PPA - 2210 T.I.S Dysflow - Interférences 2410 34murphy - 8 PAGES 2410 Rsko - En chemin II 2510 Artistes divers - LA MAIN SUR LE CUR 2510 Bramsito - BIG MAN - 2510 Davodka - Héritage - 2510 Jeune Mort - DEMAIN EST ANNULÉ 2510 Julaï - Rapide et Dangereux 3 2510 Lycos - AUTUMN S97 - 2510 NeS - POUR 2 VRAI - 2510 Ninho Niska - GOAT 2510 PHÄNTOM - LA LUMIÈRE DANS L'OBSCURITÉ 2510 Saamou - Impact 2510 Sazamyzy - Dangereuse famille 2510 Sto - Time Out Vol.3 Novembre 0111 Ajna - GOLDMAKER 0111 Bluume - SPIRITS 0111 Diddi Trix - DOPE MUSIC 0111 DIL - MISANTHROPIE 0111 FXLL Tonio 8cho - TRASHTALK - 0111 GRËJ - ANTIPASTI - 0111 Hippocampe Fou - PRÉSENT 0111 Keeqaid Dafliky - PURIZÉ 0111 L'Animal Maté Beats - Dédales 0111 Malo - ARCTIC 0111 Many Santana - NO 0111 Prinzly - DUSK 0111 Theodora - BAD BOY LOVESTORY 0111 Zbig - Zanekkk 0811 Jolagreen23 - 99XP 0811 Le Juiice - NOUS ART Masterpiece 0811 Maydo - Maison Blanca 0811 Percy - RÉSILIENCE 0811 Ratu - Les miens avant les vôtres 1311 Zek - Localisable 1411 Remastered - SYMBIOSE 1511 Damso - J'ai menti 1511 Tyngaa - NSND 2 1511 Zeu - DOPPELGÄNGER 2211 Hatik - 1 2211 Keblack - FOCUS 2211 Yoshi Di Original - Deepa 2211 Yuri Online, Bricksy 3g - HUECO MUNDO 2911 Elh Kmer - Amaru 2911 Dinos - KINTSUGI 2911 Gazo - APOCALYPSE XX11 Huntrill - Nouvelle Trap 2 XX11 Steban - Mode Sport 2 XX11 Swift Guad Ol Zico - Orage Décembre 0612 LaCraps - Poussez-vous 0612 SCH - JVLIVS III Ad Finem 1312 Soprano - Émancipation XX12 Poupy - 4 XX12 Resell - Nouveau projet XX12 Solomando GRËJ - Jeune Basquiat Dates à confirmer 404Billy - SAMO 77 Degrés - 77 Degrés Alpha Wann - Deuxième album ASHE 22 - Nouveau projet Beeby - Nouveau projet Bigflo Oli - Cinquième album Chanceko - En roue libre 2 Cheu-B - BigSky Mixtape Deelee S - RED ALERT 3 Dioussa - Premier projet Dosseh - IKKI Duke Mobb - La cassette 2 F430 - Nouveau projet Gemen - Nouveau projet Genezio - BOUNCE MUSIC S2 Gradur - Projet Kongo H.LA DROGUE - Drogue 2 Ici c'est Paris - Ici c'est Paris J2LASTEU - RSF, pt. 2 Jeune Lion - RULE MI HEART Jeune Morty - Éponyme JOON - Premier projet JRK19 - Nouveau projet JuL - Nouvel album Kery James - Nouvel album Khali - Nouveau projet KronoMuzik - FREE KRONO Part 2 La Caution - Symétrie D'Argan LaCraps - Machine à écrire édition finale Laylow - Troisième album Le Croc - Blue Europe LEDOUBLE Guydelafonsdal - LEDOUBLEDELAFONSDAL L'Hexaler - Nouvel album Lucio Bukowski Mani Deïz - La Noblesse de l'Échec Vol. 2 Lucio Bukowski Oster Lapwass - TEPHRAS Lucio Bukowski Oster Lapwass - NI D.A NI MAÎTRE... Luni Sacks - Nouvel album Mahdi Ba - The Pirate Bay Mini Rttclan - Mini Lingé vol.2 M le Maudit - Nouveau projet Mvshy - EP No Limit - No Limit OBOY - OLYBOY Ormaz - Premier projet Recklessboise - H6 Resell - deuxième projet Rockin' Squat - 1520 Rounhaa - Nouveau projet Rousnam - World Tour Rozzy - Nouvel album So' - SAHARA VOL.3 So La Lune - Nouveau projet Stony Stone - Nouveau projet Swift Guad - Narvalo TK - Nouvel album TLZ Clan - Nouveau projet Ucyll - Nouveau projet Udeyfa - Authentique USKY - HADES Vald - Cinquième album Virgile - Deuxième projet Waïv - Nouvel album winnterzuko - Nouveau projet Yaya D - CityBoi3 Youri - Nouveau projet Zuukou Mayzie - Le film 19h193</t>
+          <t>Sat Je réponds de rien le jour où les miens nont plus rien à se mettre sous la dent Putain de merde, il faut que je fasse rentrer les sous à temps Je suis plus motivé que jamais je joue pas pour jouer Je suis condamné à réussir moi je joue pour gagner Que Dieu tentende, le plus tôt sera le mieux Parce que le diable se fait tentant Cet enfoiré na pas fini de me tester Le plus dur nest pas de trouver le droit chemin cest dy rester Parfois je suis dépassé, je crois que je vais serrer Des fois je me dis tant que jy serais pas passé je réessayerai Souvent je me remonte le moral en me disant tout bas Ça ira mieux demain et puis tant que la famille va tout va Jremonte le terrain, parti de derrière je vais de lavant Parce que jai pas le pouvoir de revenir en arrière Tu veux toucher les sommets frère, faut plus semer Le plus dur nest pas de faire des choix cest de les assumer Don Choa À la poursuite de mon rêve si Dieu veut jirai au bout Parce que je veux rentrer dedans et pas tourner autour Déjà perdu trop de temps si tu savais tout ce que je regrette Le passé me revient sous forme de doutes ou de dettes Ma vie je lai misé sur un coup de tête Et maintenant je sais plus si je dois lenvisager sous forme de route ou de quête Mais malgré, les obstacles je serai sincère et entier Tu préfères être hypocrite pour être le patron du chantier Chacal, chacalette, on sera jamais des rentiers Au mieux on sera des vieux avec des cannes et des dentiers Donne le meilleur quel que soit ton but ou ton métier Et ne juge pas, moi-même pour les putes, jai du respect Ne juge pas les gens tu sais pas par quoi il sont passés De nos jours ça rappe pas pour sexprimer mais pour ramasser Faire sauter le coffre et les portes du succès cadenassé Et on en donne toujours plus parce que cest jamais assez Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien Le Rat Luciano En traînant où les grands traînent jai pris les manières, appris le manège Tout appris sur la monnaie et le mal-être, tout sur la vie en bande Tout appris sur le manque, sur le vol, sur les jeux Tout sur les ventes de la drogue, tout sur les dégâts des feux Depuis, bons ou pas, je fais mes choix Je mets la merde en perspective Je fais de ma putain de vie ce que je veux quelle soit Un pour les miens, deux pour la monnaie Mec ma vie ne sarrête pas au Rap Jpeux tout quitter dans la minute même Moi cest lépoque dialogue de sourd Affronte ou crève dans larène L'époque moi je veux faire des sous, j'veux la villa de rêve Lépoque tente pour le tout Lépoque rend coup pour coup Lépoque dangereuse Lépoque pou pou pou pou pou pou Chacun, sa putain dâme Chacun, ses putains de choix Chacun, son braquage, sa putain darme Chacun, sa putain de voie, ses putains de proies Son putain dart, et le mien dart Cest tout le quartier dans ma putain de voix Menzo Dans la vie, personne ne peut le faire ou y croire à ta place Tas le choix ou tu baisses les bras ou tes le premier de la classe Au départ on passe par les mêmes voies les mêmes parcours Certains trouvent leurs routes, dautres empruntent lissue de secours Mais quoi quil en soit frangin, cest toi seul qui décide Ton avenir est entre tes mains et cest toi seul qui le dessine Fais ce que tas à faire mais surtout noublies pas Que personne ne viendra purger ta peine si tes jugé coupable Donne le meilleur, repousse tes limites, cest le prix Reconnais cqui est bon et ce qui est mauvais pour toi, puis fais ltri Cette vie ressemble à un combat, la rue à un ring, chaque jour à un round On fait avec en se serrant les coudes On sait que ça tient à rien Pour aller loin faut se donner les moyens Ni plus ni moins, cest ça ou rien Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Au Bout De Ton Rêve</t>
+          <t>C’est plus comme avant</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>J'ai qu'un mic comme arme On veut me shooter comme dans Heat J'reste sur mes gardes comme les deux chiens sur mon sweat La nuit ça s'agite, j'entends des bruits de course poursuite, tragique Les p'tits partis de rien veulent tout tout de suite, logique la température monte J'brûle le mic' pour ceux qui l'voudront chaud Tu vois c'qu'on raconte, rien de nouveau sur le goudron chaud Bref comme ça tu veux qu'on s'en sorte, qu'on éclate les portes Sans faire couler le sang, sans que ce soit la joie qu'on apporte Et même si j'rame j'vais rien lâcher tout peut arriver Comme a dit Thuram J'vais rien gâcher Inchallah qu'on se retrouve tous blindés comme à South Fork Imagine, j'aime mes assos' forts Demande à K-Reen, n'épargne pas ta peine Sers-toi de la haine qui t'entraîne même si la vie est parfois dure Car c'est dans les épreuves de la vie tu sais que se forgera ton armure N'écoute pas ceux qui veulent que tu restes dans la même galère Si tu vas jusqu'au bout de tes projets tu verras le bout du tunnel Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne Jamais ne doute de toi Prends ton destin en main, sors de se sommeil Et puis agis pour demain, toi seul peut faire venir à toi ton propre soleil Va au bout de ton rêve avant que t'en crève va de l'avant Pour aller de l'avant il faut que tu te lèves, n'oublie jamais Si tu vas jusqu'au bout de ce que tu fais, tu réaliseras tous tes rêves Crois-moi, c'est vrai Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne x2 Non, lâche pas N'attends pas Que ton heure sonne Et ouais paix, grâce à Dieu encore libre J'vends ni barrette ni Beretta Avec mes gars on s'marre d'l'état, plus fan de Vu l'manège lorsqu'on m'arrêta Le destin inquiète trop d'vies, man on côtoie la rue trop vite Le ventre trop vide, trop vire mal Comme dans trop d'villes, trop l'vivent mal Demande aux oncles, notre vision du monde choque en étant quelconque C'est pas en se niquant qu'on changera l'décor Va au bout de ton rêve comme K-Reen Au bout d'ton raid, d'ton règne, sans cocaïne Paix, les gens d'ce monde, ami, personne a de vie Le monde devine la merde que c'est en voyant nos modes de vie Tu sais je viens d'où et boy to merde Trop d'doutes pour nous autres, dur d'être doux comme Boyz II Men Depuis toujours contre les leçons et les fourgons d'schmits Mon truc c'était contrôler le son, pas vendre des lingots de shit Réaliser les rêves, imaginés en QHS par mes frères Ou dans le quartier une fois cuit, HS, avec mes frères Tu sais l'ami c'est pour nos frères qu'on fait ça Ceux qui sont là dans toutes situas' et qui se lassent de cette situation Va au bout de ton rêve, du tunnel N'attends pas assis, passif que ton heure sonne Va au bout de ton rêve, juste fais-le Car tu sais que tu ne dois rien à personne N'attends pas que ton heure sonne</t>
+          <t>Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prends la harbat, popo national, normal Tout le tiek' international, madame Elle m'fait des caprices, elle me trouve mignon Mon collègue khapta sous Don Perignan Les civils rien qu'ils ont la haine Comme Riyad Mahrez j'leur mets des petits ponts Pochon vert, jaune ou violet , la zone est minée J'fais danser bonita sous les cocotiers Nous on fête le single d'or, indé J'ai une tête de cramé, j'passe la douane On arrive en showcase tah Amsterdam En cellule, pété, le pétou en flamme Si j'ramène le quartier, la boîte on la crâme J'suis posé devant le Monde, moi je dis pas non J'me balec de ta minch mais j'dis pas non De la cellule à la vie, c'est plus comme avant J'vois la terre tourner, j'ai plus le temps International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Salsa, bonita, j'te fais danser 80 kil' ? Moi j'les fais passer Il m'appelle en cellule Gambino c'est good! Ramène ta copine, on va la chasser L'équipe, ils font des tours et des rodéos Obligé d'mettre deux p'tits au réseau J'baise le game Juliette, j'suis pas Roméo Mode avion C'est toi le patron Donc envoie la paye-paye Brunette, c'est nous les barons Donc envoie la teille-teille Ça gamberge dans la cellule Ça fume le pet' de la veille-veille Ce soir c'est nous on les allume Demande à Nasser, à Kamel International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame International-nal, j'prends la national-nal Gambino en légende-gende , j'évite les banals-nals International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Autodestruction</t>
+          <t>Check 1, 1, 1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction autodestruction C'est c'qu'ils attendent, c'est c'qu'ils veulent autodestruction Paranoïa, gamberger tout seul autodestruction Fumer des clopes, manger au MacDo autodestruction Télévision, lavage de cerveau autodestruction Les vices et le mensonge se répandent même dans l'instruction Dites la vérité aux enfants autodestruction Plus tu vis et plus tu apprends faut une direction Envie, avarice, pognon sanglant autodestruction Luxure, jalousie, le monde en cendres autodestruction Ils ne veulent pas nous voir ensemble autodestruction Couteaux, kebbouz, putes et partouzes autodestruction Si ça part en couilles un peu partout autodestruction Colonialisme, impérialisme autodestruction Et tous les mots qui finissent en -isme autodestruction Ils combattent les ganjamans poto attention Remercie et prie Almighty High protection À tuer le temps il n'y a qu'un pas Pourquoi t'en vouloir d'écrire chez nous ce qui ne va pas XXX certitudes en un instant réduites à néant Mon peuple XXX à graille tout en se détruisant Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction On brûle notre jeunesse par les deux bouts autodestruction Tu l'sais, partout tu vas entendre parler d'nous La vie s'consume comme un zedou Même après dix sky, on reste debout autodestruction Depuis l'esclavage et les coups d'bambou Le noir m'colle à la peau comme le cambouis Moi j'suis un bamboula, on fait du bon boulot Tiens le bon bout là Un mec cool, eux, ils disent c'est un bon boug ça autodestruction Lorsque le diable a susurré Tu comprends pourquoi mon esprit est déstructuré Des coups durs, des points d'suture au mental Suicide à p'tit feu comme des soudures sur l'métal On s'noie dans l'alcool Juste un chemin pour arriver plus vite à l'alcôve Et puis ces lâches cognent Et puis c'est là j'colle comme la skunk ou la taule Tepa mon nom d'code, déstructuré comme l'atome Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction J'perds ma vie à tuer l'temps L'atmosphère sur nous a déteint On la répand jusqu'au jour où on s'éteint Un mode de vie incertain, un système trop insultant Qui tombera par ceux qui en sont l'résultat Et vu l'état des choses, personne n'ose forcer l'destin On connaît les causes, mais on fait qu's'plaindre et on reste plein À s'laisser mourir, même étant lucides Autodestruction avec comme seule solution l'suicide Ignorance à foison, haine tolérance zéro Comme ce poison dans les veines où se mêlent alcool héro Autodestruction physique ou cérébrale Nos courtes existences, c'est bien loin d'être la quête du Saint Graal Si ça sent la mort, c'est c'nuage de fumée qui nous contient Rien n'convient et c'est avec la rage de vivre qu'on tient C'est p't-être une façon d'abréger nos douleurs Quand notre sang devient noir, partout c'est la seule couleur Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Cet État t'assomme et t'laisse sur place assise Défoncé, affaibli par cette vie qui t'brutalise Ton cerveau gamberge jusqu'à toucher le sol Perdu dans ta foncedé, t'as cassé ta boussole La nuit tu pleures à l'aide, malheureux d'être seul Mais c'est toi-même, chaque jour, qui dépose ton linceul Tu t'consumes à p'tit feu vers un suicide à long terme Mais ta vie n'se résume que par débauche et haine Mais la partie s'arrête, tuée par toi-même Ne vois-tu pas qu'tu vas droit dans les filets du système Qui sème les graines de la haine Que tu prends par les veines jusqu'à l'autodestruction À tuer le temps il n'y a qu'un pas Pourquoi t'en vouloir d'écrire chez nous ce qui ne va pas XXX certitudes en un instant réduites à néant Mon peuple XXX à graille tout en se détruisant Trop d'négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction Le négatif mène à l'autodestruction L'homme a mal mais l'homme fait régner la division On sonne l'alarme mais peu d'secours pour ma génération Qui perd la boussole avance mais dans la mauvaise direction</t>
+          <t>Check 1,1,1 x12 Check 1,1,1, hommage au bon vieux temps C'est Menz' et Don Choa tu sais qu'on rentre dedans Basket survêtement cassette dans l'poste Ragga dancehall break et hard-rock Joint d'shit ou d'herbe y avait pas d'coke Et pour le son des concerts des ingénieurs d'Europe Pas autant d'gens, beaucoup moins d'argent Dans ce mouvement ils croyaient qu'ça passerait vite comme un coup d'vent Et quoi dire maintenant la rue reprend ses droits Il était temps courage honneur et devoir Essaie d'contester ou même de nous tester L'essentiel c'est qu'on y est et qu'on va y rester Dans cet art qui fut détester aujourd'hui Même les parents y accordent du respect et nous disent Loin d'être blindés encore en train d'chercher l'fric Grâce à Dieu on n'est pas recherchés par les flics Peut-être qu'ils nous écoutent quand on parle de la crise Vu qu'l'État s'mêe de tout, contrôle et divise Nique le monopole, laissez-nous vivre Nos visions n'sont pas drôles, non et on n'a pas tout dit Vole au-dessus des taudis ? viens on t'amène Est-ce un sol maudit ? tout seul s'en sortir quand même Ne croient plus au paradis vu qu'ils vivent en enfer T'as reconnu Mamadi et le p'tit gars sans gène Check 1,1,1 x8 Rappelle-toi du bon vieux temps x12</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Cherche pas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Faut qu'on se sorte d'ici, qu'on se tire tous de là Kertra, Fonky Family Dis-toi qu'ici-bas, j'ai trop rappé par bénévolat Et maintenant, c'est pour eux de payer Ça va en chier pour les nantis Kertra, Fonky Family et maintenant Je m'obstine et même si ça rapporte peu, personne nous mettra au pas On représente nos gars, qui soient tombés pour faute, grave ou pas À ce moment précis, je n'ai que mon rap pour espérer de plus beaux lendemains Demande aux miens, les jours meilleurs ne viennent pas en un tour de main Non, si c'était le cas, on le saurait et on ne se plaindrait pas tant Peut-être qu'on ne passerait pas tout ce temps chez nous à écrire des heures durant Quoique dehors je rate rien, je connais le décor, les acteurs, le scénar' avant de l'avoir lu La fin de ce putain de film avant de l'avoir vu Quand tout sera terminé, elles seront où les putes qui me trouvaient mignon ? Sûrement au large quand elles verront qu'on ne brasse pas des millions C'est ça la vie, faut se montrer vif dans ce monde, cet abattoir Tout va si vite, jeune, t'y laisses ta peau quand t'as pas d'échappatoire La mienne reste l'écriture, juste basée sur des faits réels À les entendre, tu comprends cash qu'ils viennent des vraies ruelles Celles où les jeunes veulent autant de fric à la banque que dans le matelas Respect aux nôtres de Marseille jusqu'à Mantes-la Comme je voyais le monde d'la musique, je croyais qu'ça rendait riche un seul disque Une seule couv' ou un seul clip, plein de flouze sans un seul risque Soldat du hip-hop sans sol fixe, t'inquiète, je me plaindrais pas Je mange sans bosser à heure fixe, je sais même pas si je bosse moi Cherche l'os moi, va jouer le zguègue dans le showbizz Si j'aurais voulu vendre mon cul, j'aurais fait gigolo Elles font de grosses bises à toi parce que ton truc s'vend bien Regarde bien qu'ils lui rendent son contrat, pour eux, il vaut plus rien Ils sont rapides à calculer, ces enculés Tu crois qu'ils sont là pour rigoler, alors Pourtant j'en ai vu un qui est payé des millions à picoler, alors Ce milieu-là est bizarre, rien à voir avec la rue Combien ont pété les plombs avec tout ce qu'ils ont vu Tout ce qu'ils ont bu, tout ce qu'ils ont pu sniffer Toutes les putes qu'ils ont eu, tout ce qu'ils ont dû kiffer Tout ce qu'ils ont su, le succès, ça peut changer un homme Même avec une faim énorme, garde la tête froide, mécréant FF, un album si Dieu veut et Dieu est grand Scratches Ce qu'on essaye d'expliquer et quoi que tu fasses, tu dois t'appliquer Beaucoup ont cru que faire un album c'était pas compliqué La route est longue et la réussite ne vient pas rappliquer À chaque seconde tu te dois de savoir répliquer Le business de la sique-mu, fils, n'a rien à voir avec le business de la rue, fils Et c'est comme ça, fils, tu sors un skeudi, deux skeudis, ça y est t'es che-ri Tout le monde te charrie, pour les nnes-ch' t'es le nouveau chéri Mais c'est du vent pour réussir à t'enrichir La sagesse est le début donc commence à réfléchir J'dis pas qu'il y a pas de seille-o parce que là, ce serait te mentir À vrai dire, comme qui dirait, je préfère avertir Ils niaient qui aujourd'hui avouent, alors qu'avant ils niaient Je les vois chialer, alors que dans le temps au loin ils riaient On lâchera pas l'affaire jusqu'à ce qu'on revienne briller On restera maintenant qu'on y est Scratches</t>
+          <t>Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Le Rat Luciano Et tu vas rien m'enlever Ni le peu de foi que j'ai Ni mon nom dans le business Ni le poids de mes pêchés Ni mon style de vie, ni mon beefsteak Ni l'amour des miens, ni mon histoire Ni mes défaites, ni mes victoires Ni le soutien des tiens, ni ton nom sur ma liste noire Tu peux pas m'enlever ma loyauté envers le rap Ma reconnaissance envers la rue Ceux qui font du son qui frappe Tu as beau parler sur mon compte, mais en vrai Le respect que les gens me donnent, ça tu peux pas me l'enlever C'est comme toutes ses heures dures en mémoire Ma rancur, mon droit d'y croire Mes mots, la voix de mon cur, l'équipe qui bouge pour moi Tu peux pas m'enlever mon sens de la famille, ni mes adversaires d'aujourd'hui amis autrefois Toutes ces années que j'ai investies dans la musique Toutes mes chéries amoureuses Mon côté rien à foutre du biz Tu peux pas m'enlever les souvenirs Ni mon public restreint mais fidèles Qui me salut toujours avec respect et sourire Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Sat Durant ma courte vie, j'ai connu des jolies filles De celles qui te font oublier tes soucis dès qu'elles ôtent leur lingerie fine J'ai eu la chance de faire de long et beau voyages De gagner plus d'argent que ma mère en 20 ans de ménages J'ai pris le micro aux quatre coins du globe Était ému de voir les lettres FF dans les premières lignes du top C'est pas donné à tout le monde Sur le dernier album on a parlé au nom d'un demi-million de personnes Boy, pour autant ça lève rien à mes doutes Tu peux pas m'attendre au tournant Je dériverais pas de ma route Tu peux rien enlever à notre histoire rude boy Si on faisait pas le poids on aurait sauté depuis Bad Boys Déjà 10 ans que ma plume combat l'épée J'ai le devoir d'éveiller une conscience à chaque nouveau LP Te méprend pas sur moi je ne suis pas triste Avec le temps on oublie pas on cicatrise Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Menzo Je me fous que tu sois le plus grand Le plus fort ou le meilleur Tu peux rien contre ma réussite ni contre mes malheurs Imagine toi à ma place, tu fonces ou tu fais du sur place Nous fallait qu'on le fasse Qu'on se batte et qu'on se surpasse Tu peux rien m'enlever Ni ma foi ni ma volonté Si on en est là c'est forcément qu'on l'a mérité Je rappe et protège mes biens sans oublier d'où je viens C'est pour nos socios, nos vatos qu'aujourd'hui on revient Quand l'amour apparait Il ne fait jamais nuit Quand tu sors de l'ombre Frangin, tu ne peux éviter les ennuis Chez nous la réussite dans le foot, dans le rap peuvent te nuire Mais les croyants savent qu'il n'y a que Dieu qui peut nous détruire Tu peux rien m'enlever Ni nos victoires, ni nos trophées A force de trop parler, mouanama Tu peux t'étouffer 2005, nouveau départ vers une nouvelle étape Avant de passer à la trappe et que l'avenir nous échappe Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Don Choa Pas même la plus bidon de mes rimes gars Tu peux rien m'enlever Tu peux juste répéter que je le mérite pas Mais mon appétit pour plus ne me quitte pas Plus tu montes Plus tu te rends comptes que tu peux tomber vite bas Plus sa rentre plus je suis loin du compte Je continue j'avance même si vers la fin du monde C'est la vie que tu veux m'apprendre Parle-moi des risques mec Tu peux rien me prendre à part si t'es du fisc Dans l'industrie du disque on évolue Déteste moi mon fric, les blondes que je nique, les ondes que je pollue Le shit que je brûle mauvaise influence Non chacun fait ses choix et paye le prix de son imprudence Je vais pas mentir dans mes raps même si t'insistes Sain d'esprit mais nique le civisme Je suis pas l'instit Qu'un petit con dans le game Pas au bout de notre peine Tes critiques valent rien, tu veux juste notre pain Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever !</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>C’est ça ou rien</t>
+          <t>Chez nous</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sat Je réponds de rien le jour où les miens nont plus rien à se mettre sous la dent Putain de merde, il faut que je fasse rentrer les sous à temps Je suis plus motivé que jamais je joue pas pour jouer Je suis condamné à réussir moi je joue pour gagner Que Dieu tentende, le plus tôt sera le mieux Parce que le diable se fait tentant Cet enfoiré na pas fini de me tester Le plus dur nest pas de trouver le droit chemin cest dy rester Parfois je suis dépassé, je crois que je vais serrer Des fois je me dis tant que jy serais pas passé je réessayerai Souvent je me remonte le moral en me disant tout bas Ça ira mieux demain et puis tant que la famille va tout va Jremonte le terrain, parti de derrière je vais de lavant Parce que jai pas le pouvoir de revenir en arrière Tu veux toucher les sommets frère, faut plus semer Le plus dur nest pas de faire des choix cest de les assumer Don Choa À la poursuite de mon rêve si Dieu veut jirai au bout Parce que je veux rentrer dedans et pas tourner autour Déjà perdu trop de temps si tu savais tout ce que je regrette Le passé me revient sous forme de doutes ou de dettes Ma vie je lai misé sur un coup de tête Et maintenant je sais plus si je dois lenvisager sous forme de route ou de quête Mais malgré, les obstacles je serai sincère et entier Tu préfères être hypocrite pour être le patron du chantier Chacal, chacalette, on sera jamais des rentiers Au mieux on sera des vieux avec des cannes et des dentiers Donne le meilleur quel que soit ton but ou ton métier Et ne juge pas, moi-même pour les putes, jai du respect Ne juge pas les gens tu sais pas par quoi il sont passés De nos jours ça rappe pas pour sexprimer mais pour ramasser Faire sauter le coffre et les portes du succès cadenassé Et on en donne toujours plus parce que cest jamais assez Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien Le Rat Luciano En traînant où les grands traînent jai pris les manières, appris le manège Tout appris sur la monnaie et le mal-être, tout sur la vie en bande Tout appris sur le manque, sur le vol, sur les jeux Tout sur les ventes de la drogue, tout sur les dégâts des feux Depuis, bons ou pas, je fais mes choix Je mets la merde en perspective Je fais de ma putain de vie ce que je veux quelle soit Un pour les miens, deux pour la monnaie Mec ma vie ne sarrête pas au Rap Jpeux tout quitter dans la minute même Moi cest lépoque dialogue de sourd Affronte ou crève dans larène L'époque moi je veux faire des sous, j'veux la villa de rêve Lépoque tente pour le tout Lépoque rend coup pour coup Lépoque dangereuse Lépoque pou pou pou pou pou pou Chacun, sa putain dâme Chacun, ses putains de choix Chacun, son braquage, sa putain darme Chacun, sa putain de voie, ses putains de proies Son putain dart, et le mien dart Cest tout le quartier dans ma putain de voix Menzo Dans la vie, personne ne peut le faire ou y croire à ta place Tas le choix ou tu baisses les bras ou tes le premier de la classe Au départ on passe par les mêmes voies les mêmes parcours Certains trouvent leurs routes, dautres empruntent lissue de secours Mais quoi quil en soit frangin, cest toi seul qui décide Ton avenir est entre tes mains et cest toi seul qui le dessine Fais ce que tas à faire mais surtout noublies pas Que personne ne viendra purger ta peine si tes jugé coupable Donne le meilleur, repousse tes limites, cest le prix Reconnais cqui est bon et ce qui est mauvais pour toi, puis fais ltri Cette vie ressemble à un combat, la rue à un ring, chaque jour à un round On fait avec en se serrant les coudes On sait que ça tient à rien Pour aller loin faut se donner les moyens Ni plus ni moins, cest ça ou rien Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien</t>
+          <t>Chaud comme Marseille, on vous met le feu Le cur de la ville s'enflamme quand le son entre en jeu Les préoccupations des frères s'infiltrent dans ton Walkman L'argent, la boisson, la fumée et les femmes Je nagerais avec les femmes et un micro dans une piscine Si j'avais l'occasion de partir loin des vermines L'hésitation ne se ferait pas, c'est certain Mes poches sont vides et j'ai faim de pognon et d'un bon destin J'extirpe ces quelques mots, un stylo de mon paletot, sorti un jour Du caniveau, je roule dans les casinos Ouais, je fais le zguègue en espadrilles, mais j'assure quand même Quoi qu'il arrive, car Fonky est la Famille Autant parler des mains que la bouche chez nous n'est pas louche Méditerranéen de souche, mes styles font mouches Au milieu d'embrouilles ou de mauvais coups Je crame tous les tintanos qui nous cherchent des poux Dans la nuit, un MC check check le mic Taquiner la rime et le beat est mon véritable hobby Envoyer des styles pour tous les frères qui nique la halla Pour la première fois, le refrain commence comme ça Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys Pendant que tu fais un flop, que tu tapes un magnétoscope Don Choa calcine les rimes comme une clope en garde à vue Le hip-hop au top descend le long de la rue Et se saisit du showbiz à son insu Accepte le son, qui touche de près mes entrailles Au bercail, ma fonction est le travail Je me comporte en canaille, aïe ! Les mauvais garçons se collent comme des moucherons Au jupons, frappent sans hésiter pour le pognon Comme les apaches guinchent ton scalp Ton fric est la proie, des hordes de chiens des Alpes En veulent à tes Delacroix Mais pas moi, je suis droit, respecte les autres et crois Au pouvoir de la rime dans la destruction des hazas L'été, les quartiers, postes dans le bus Que demander de plus, fusse le funk ou des Vénus ? Gus, soi-disant ma ville pue en plus Dieu t'a-t-il fait avec un anus au lieu des sinus ? Simple dans ma façon de faire mon sang rouge clair Pourtant, j'ai la peau noire et fier de l'avoir Je cours à la gloire des quartiers avec mes idées Le produit, sera toujours enragé Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys J'en ai marre de les voir flipper Y'a pas que le mauvais côté Le Rat te le dira, la vie est faite pour s'amuser Capte le concept des mecs qui s'en battent les couilles Le bon délire est là, t'inquiète on se débrouille Mes pensées drivent coolo, coolo Voilà quelques mots Pour l'avenir incertain de mes potos Qui ont quitté les cours tôt La rage est dans mon âme pour le drame du Front National J'allume la flamme, la flamme Fils, comprends ce que tu peux comprendre Un bon conseil, prétends à ce que tu peux prétendre Réfléchis un instant avant de faire un pas, tu saisiras Pourquoi on te lèvera où que tu sois Avant, je combattais contre des moulins à vent Maintenant, je fais vibrer les salles et le public en rappant Satir au soleil, zique à l'oreille Signe une carte de visite live de Marseille La balle de ping-pong d'Ali Kong tape De Marseille à Naples, pour le rap, je capte les étapes Et cap vers le possee qui me suit J'en suis reconnaissant à fond Voilà pourquoi mes potes sont souvent Dans mes chansons Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys1</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>C’est plus comme avant</t>
+          <t>Chip leader</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prends la harbat, popo national, normal Tout le tiek' international, madame Elle m'fait des caprices, elle me trouve mignon Mon collègue khapta sous Don Perignan Les civils rien qu'ils ont la haine Comme Riyad Mahrez j'leur mets des petits ponts Pochon vert, jaune ou violet , la zone est minée J'fais danser bonita sous les cocotiers Nous on fête le single d'or, indé J'ai une tête de cramé, j'passe la douane On arrive en showcase tah Amsterdam En cellule, pété, le pétou en flamme Si j'ramène le quartier, la boîte on la crâme J'suis posé devant le Monde, moi je dis pas non J'me balec de ta minch mais j'dis pas non De la cellule à la vie, c'est plus comme avant J'vois la terre tourner, j'ai plus le temps International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Salsa, bonita, j'te fais danser 80 kil' ? Moi j'les fais passer Il m'appelle en cellule Gambino c'est good! Ramène ta copine, on va la chasser L'équipe, ils font des tours et des rodéos Obligé d'mettre deux p'tits au réseau J'baise le game Juliette, j'suis pas Roméo Mode avion C'est toi le patron Donc envoie la paye-paye Brunette, c'est nous les barons Donc envoie la teille-teille Ça gamberge dans la cellule Ça fume le pet' de la veille-veille Ce soir c'est nous on les allume Demande à Nasser, à Kamel International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame International-nal, j'prends la national-nal Gambino en légende-gende , j'évite les banals-nals International, international International, international Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame Au quartier, international-dam-dam Ça fume des pet' d'Amsterdam, normal Prend la ahkhba, popo national, normal Tout le tiek' international, madame</t>
+          <t>OK ! Tu peux m'appeler chip leader Le niqueur du bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker, serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Bienvenue dans le real game, blindé de grosses blinds Les MC veulent du fame mais moi, je baise ces grosses dindes Attention ça va vite, c'est tragique, c'est cruel Moi, jai le sourire, pourquoi, je viens de saigner Patrick Bruel C'est Don Cho A.K.A. Mister Chip Leader Et tu voudrais ty frotter, mais tas un trop petit kicker À ma table les players meurent dans la douleur En balançant bêtement leur tapis sur un vieux tirage couleur Rien à foutre tes pourcentages, tes putains de statistiques Sérieux, je tattends et je te nique quand tes en kilt Ouais je te baise, et quand je te laisse, tes en kilt Je te laisse en morceaux, MC Ikea tes en kit Oh les cons, ils marronnent ils ont la haine Au bouton, jenvoie une centaine dans la plaine Cest pas des balles, arrête de taffoler Paye, hé le croupier, passe les jetons de mon côté OK ! Tu peux m'appeler chip leader Le niqueur de bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker, serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Tes toxico, tes drogué, ce putain de jeu ta rendu fou Tas plus de quoi payer ton loyer, mais moi je men fous Je prends tes sous, je prends ton cash, tes bijoux Ta bagnole, ta baraque, mec, en quelques coups de cartes Tu me dois le prix dun appart Ici cest sérieux, ici cest high tech Si tu veux tamuser cest PES ou MySpace Paye en espèces, dépêche-toi, sors la maille Sors ta maille, quest-ce que tu brailles Tes pas de taille, you can die Trop endetté, tes wanted, mets les voiles Le seul truc qui peut te sauver cest 5 numéros et 2 étoiles Mais ferme ta gueule, va pleurer chez ta consoleuse Je viens te chanter une petite berceuse avec ma langue tronçonneuse Excusez-moi jai pas bien vu il faisait noir Mais je crois que jai égorgé le vieux Sarkozy dans la baignoire J'suis dur comme un bad beat à la river Appelle-moi World poker serial killer OK ! Tu peux m'appeler chip leader Le niqueur de bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Check 1, 1, 1</t>
+          <t>Comme à l’ancienne</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Check 1,1,1 x12 Check 1,1,1, hommage au bon vieux temps C'est Menz' et Don Choa tu sais qu'on rentre dedans Basket survêtement cassette dans l'poste Ragga dancehall break et hard-rock Joint d'shit ou d'herbe y avait pas d'coke Et pour le son des concerts des ingénieurs d'Europe Pas autant d'gens, beaucoup moins d'argent Dans ce mouvement ils croyaient qu'ça passerait vite comme un coup d'vent Et quoi dire maintenant la rue reprend ses droits Il était temps courage honneur et devoir Essaie d'contester ou même de nous tester L'essentiel c'est qu'on y est et qu'on va y rester Dans cet art qui fut détester aujourd'hui Même les parents y accordent du respect et nous disent Loin d'être blindés encore en train d'chercher l'fric Grâce à Dieu on n'est pas recherchés par les flics Peut-être qu'ils nous écoutent quand on parle de la crise Vu qu'l'État s'mêe de tout, contrôle et divise Nique le monopole, laissez-nous vivre Nos visions n'sont pas drôles, non et on n'a pas tout dit Vole au-dessus des taudis ? viens on t'amène Est-ce un sol maudit ? tout seul s'en sortir quand même Ne croient plus au paradis vu qu'ils vivent en enfer T'as reconnu Mamadi et le p'tit gars sans gène Check 1,1,1 x8 Rappelle-toi du bon vieux temps x12</t>
+          <t>Stef Backer Beatmaker On est vif, on est revif, demande à mon pote Amine Quand ça va mal il faut du biff, ah ouais c'est les vitamines Ils veulent nous vacciner comme des ienchs, t'sais très bien qu'c'est pas logique Eh ouais c'est moi qu'avait la chemise dans mon freestyle d'anthologie C'est l'grand classico, j'mouille le maillot pour le J On a tous refait les chicos, on mise sur la technologie Légalement, illégalement, crame l'osille n'importe comment Y a ds gamos devant le stud' qui valent le prix d'un appartement J'ai plein de Rolex mais j'ai pas l'temps, j'gue-nar les keufs en boitant Aujourd'hui j'ai fumé trop de verte, dans mon cerveau c'est le printemps Ça peut s'finir en bain d'sang tout ça juste pour un Nous frère on est titulaire on va pas jouer les remplaçants J'aime bouffe et les pasta, les casse et les casse-dalle Mes potos sont pas stables, t'es costaud, j'te castagne Une photo, j'suis re-sta, la coco ne touche pas, j'ai vovo, une fiesta Dans le bendo, je fête ça, les bicos, les rastas, les blancos, les rapzas Une moto, tu passes pas, un couteau et basta Une photo, j'te baise pas, des kilos, j'te laisse pas C'est trop chaud, ne rêve pas, j'vais mollo, j'me presse pas La boco, les messes basses, je coco, je laisse passe Une vovo, une impasse, j'm'envo'vo' dans l'espace Tu me coco, ne teste pas, j'te coco, tu pèse pas Mais coco, dis qu'est-ce t'as, j'suis chaos, j'suis gangsta Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala OJ, tonton, jogging coton, grosse team, gros son Cristalline, potion, one love Marsilia Comme une ville d'adoption, une fonky familia, yeah C'est l'heure du classico, j'suis pas français, j'suis parigo J'trouve l'inspi au bistrot, j'réponds pas au bigo, occupé à m'dérégler Le cur lourd, j'te mens quand j'te dis qu'c'est léger Dis, si tu m'écoutais dans mon jardin secret, tous les mômes ont des rêves Tous les hommes ont des regrets, la limite c'est l'mur J'ai besoin d'vérifier si j'ai bien la tête dure, ouais Tu vas pas r'voir ça d'si tôt, te casse minôt C'est Marseille et Paname, le grand classico Débarque dans l'top comme Despacito Le hip-hop c'est un cadavre et j'suis un asticot À l'aise en business comme en classe éco Palace ou Algeco, j'ai l'feeling ma gueule, Boly, Waddle J'écoute pas les conseils à part ceux d'mon amie pone J'cours que pour l'oseille où les cris dans l'babyphone Dédicace à toutes les zones des Bouches-du-Rhône à l'IDF Don Choa is back, comme Karim Benzema en EDF Déstresse, on se dépêche d'vider la caisse Partage de bénefs, yes, le J c'est le S Moi c'est GER en mode S.N.I.P.E.R Si j'étais d'Paris, j'aurais vendu de la beuh dans le RER J'roule en GTR, ça se tire dessus comme dans GTA Dans la rue beaucoup d'acteurs sont bons qu'à faire du théâtre J'pilote comme Statham, hamdoullah j'ai pas pris d'platane Nerveux comme Zlatan, tu parles de rafales t'as pas de charme Dans les étoiles, je pense au poto là-haut AK47 c'est pas un pistolet à eau J'vais la chercher en merco à 45 C'est pas ma faute à moi si elle repart enceinte J'ai grossi d'la taille, jfais du 46 Y'en a beaucoup pour réussir, ils sont passés par en dessous Moi, je perds pas le nord, j'vais passer par un psy Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala J'vis ma vie, faut pas me casser les couilles RS3 pas d'plaque, faut esquiver la fouille Dans la cale y a des requins, par terre y a des douilles Baba j'me débrouille, ne t'inquiète même pas pour le reste Grandis sur le terrain, pas la tête à faire la malla J'écris seul pas besoin de DA, quelque millions c'est l'idéal Discret comme un pirate, on marque des buts pendant qu'ils ratent Faut des projets durables et dépenser l'argent du rap Wesh le J c'est comment ? Ils parlent trop ces commères J'vais pas changer pour du buzz, allez tous niquer vos mères Il est plein d'actions de boloss, il va finir par te blesser J'ai pas fini le lycée, j'ai fini déscolarisé avec C'est des fous à lier, tout ça pour mailler Te-ma leur trou de balle, ce qu'on leur insère J'préfère être sincère quitte à m'faire noyer et prendre l'escalier Que sucer ces fils de pute dans l'ascenseur pour me faire choyer J'vois que des menteurs, vous faites pas les stars dehors Y a que dans vos clips que vous faites des transacs avec des sacs de drogue On veut le monde chico, on veut rien à part le globe Moi J'peux claquer l'avance de l'album dans la garde-robe Et y a plus de ce-pla dans l'Aston ni dans mon corazon Tu m'verras pas faire le bandeur d'hommes peu importe la somme Tu verras pas ça de si tôt, aquarium dans le Vito C'est pas Despacito, c'est le grand classico Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Check 1, 1, 1 (Live au Dôme de Marseille 2003)</t>
+          <t>Comme on débarque</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>IT MAY NOT BE UNNECESSARY to inform the reader that the following Reflections had their origin in a correspondence between the Author and a very young gentleman at Paris, who did him the honor of desiring his opinion upon the important transactions which then, and ever since, have so much occupied the attention of all men. An answer was written sometime in the month of October 1789, but it was kept back upon prudential considerations. That letter is alluded to in the beginning of the following sheets. It has been since forwarded to the person to whom it was addressed. The reasons for the delay in sending it were assigned in a short letter to the same gentleman. This produced on his part a new and pressing application for the Author's sentiments. The Author began a second and more full discussion on the subject. This he had some thoughts of publishing early in the last spring but, the matter gaining upon him, he found that what he had undertaken not only far exceeded the measure of a letter, but that its importance required rather a more detailed consideration than at that time he had any leisure to bestow upon it. However, having thrown down his first thoughts in the form of a letter, and, indeed, when he sat down to write, having intended it for a private letter, he found it difficult to change the form of address when his sentiments had grown into a greater extent and had received another direction. A different plan, he is sensible, might be more favourable to a commodious division and distribution of his matter. Dear Sir, You are pleased to call again, and with some earnestness, for my thoughts on the late proceedings in France. I will not give you reason to imagine that I think my sentiments of such value as to wish myself to be solicited about them. They are of too little consequence to be very anxiously either communicated or withheld. It was from attention to you, and to you only, that I hesitated at the time when you first desired to receive them. In the first letter I had the honor to write to you, and which at length I send, I wrote neither for, nor from, any description of men, nor shall I in this. My errors, if any, are my own. My reputation alone is to answer for them. You see, Sir, by the long letter I have transmitted to you, that though I do most heartily wish that France may be animated by a spirit of rational liberty, and that I think you bound, in all honest policy, to provide a permanent body in which that spirit may reside, and an effectual organ by which it may act, it is my misfortune to entertain great doubts concerning several material points in your late transactions. YOU IMAGINED, WHEN YOU WROTE LAST, that I might possibly be reckoned among the approvers of certain proceedings in France, from the solemn public seal of sanction they have received from two clubs of gentlemen in London, called the Constitutional Society and the Revolution Society. I certainly have the honor to belong to more clubs than one, in which the constitution of this kingdom and the principles of the glorious Revolution are held in high reverence, and I reckon myself among the most forward in my zeal for maintaining that constitution and those principles in their utmost purity and vigor. It is because I do so, that I think it necessary for me that there should be no mistake. Those who cultivate the memory of our Revolution and those who are attached to the constitution of this kingdom will take good care how they are involved with persons who, under the pretext of zeal toward the Revolution and constitution, too frequently wander from their true principles and are ready on every occasion to depart from the firm but cautious and deliberate spirit which produced the one, and which presides in the other. Before I proceed to answer the more material particulars in your letter, I shall beg leave to give you such information as I have been able to obtain of the two clubs which have thought proper, as bodies, to interfere in the concerns of France, first assuring you that I am not, and that I have never been, a member of either of those societies. The first, calling itself the Constitutional Society, or Society for Constitutional Information, or by some such title, is, I believe, of seven or eight years standing. The institution of this society appears to be of a charitable and so far of a laudable nature it was intended for the circulation, at the expense of the members, of many books which few others would be at the expense of buying, and which might lie on the hands of the booksellers, to the great loss of an useful body of men. Whether the books, so charitably circulated, were ever as charitably read is more than I know. Possibly several of them have been exported to France and, like goods not in request here, may with you have found a market. I have heard much talk of the lights to be drawn from books that are sent from hence. What improvements they have had in their passage as it is said some liquors are meliorated by crossing the sea I cannot tell but I never heard a man of common judgment or the least degree of information speak a word in praise of the greater part of the publications circulated by that society, nor have their proceedings been accounted, except by some of themselves, as of any serious consequence. Your National Assembly seems to entertain much the same opinion that I do of this poor charitable club. As a nation, you reserved the whole stock of your eloquent acknowledgments for the Revolution Society, when their fellows in the Constitutional were, in equity, entitled to some share. Since you have selected the Revolution Society as the great object of your national thanks and praises, you will think me excusable in making its late conduct the subject of my observations. The National Assembly of France has given importance to these gentlemen by adopting them and they return the favor by acting as a committee in England for extending the principles of the National Assembly. Henceforward we must consider them as a kind of privileged persons, as no inconsiderable members in the diplomatic body. This is one among the revolutions which have given splendour to obscurity, and distinction to undiscerned merit. Until very lately I do not recollect to have heard of this club. I am quite sure that it never occupied a moment of my thoughts, nor, I believe, those of any person out of their own set. I find, upon inquiry, that on the anniversary of the Revolution in 1688, a club of dissenters, but of what denomination I know not, have long had the custom of hearing a sermon in one of their churches and that afterwards they spent the day cheerfully, as other clubs do, at the tavern. But I never heard that any public measure or political system, much less that the merits of the constitution of any foreign nation, had been the subject of a formal proceeding at their festivals, until, to my inexpressible surprise, I found them in a sort of public capacity, by a congratulatory address, giving an authoritative sanction to the proceedings of the National Assembly in France. In the ancient principles and conduct of the club, so far at least as they were declared, I see nothing to which I could take exception. I think it very probable that for some purpose new members may have entered among them, and that some truly Christian politicians, who love to dispense benefits but are careful to conceal the hand which distributes the dole, may have made them the instruments of their pious designs. Whatever I may have reason to suspect concerning private management, I shall speak of nothing as of a certainty but what is public. For one, I should be sorry to be thought, directly or indirectly, concerned in their proceedings. I certainly take my full share, along with the rest of the world, in my individual and private capacity, in speculating on what has been done or is doing on the public stage in any place ancient or modern in the republic of Rome or the republic of Paris but having no general apostolically mission, being a citizen of a particular state and being bound up, in a considerable degree, by its public will, I should think it at least improper and irregular for me to open a formal public correspondence with the actual government of a foreign nation, without the express authority of the government under which I live. I should be still more unwilling to enter into that correspondence under anything like an equivocal description, which to many, unacquainted with our usages, might make the address, in which I joined, appear as the act of persons in some sort of corporate capacity acknowledged by the laws of this kingdom and authorized to speak the sense of some part of it. On account of the ambiguity and uncertainty of unauthorized general descriptions, and of the deceit which may be practiced under them, and not from mere formality, the House of Commons would reject the most sneaking petition for the most trifling object, under that mode of signature to which you have thrown open the folding doors of your presence chamber, and have ushered into your National Assembly with as much ceremony and parade, and with as great a bustle of applause, as if you have been visited by the whole representative majesty of the whole English nation. If what this society has thought proper to send forth had been a piece of argument, it would have signified little whose argument it was. It would be neither the more nor the less convincing on account of the party it came from. But this is only a vote and resolution. It stands solely on authority and in this case it is the mere authority of individuals, few of whom appear. Their signatures ought, in my opinion, to have been annexed to their instrument. The world would then have the means of knowing how many they are who they are and of what value their opinions may be, from their personal abilities, from their knowledge, their experience, or their lead and authority in this state. To me, who am but a plain man, the proceeding looks a little too refined and too ingenious it has too much the air of a political stratagem adopted for the sake of giving, under a high-sounding name, an importance to the public declarations of this club which, when the matter came to be closely inspected, they did not altogether so well deserve. It is a policy that has very much the complexion of a fraud. I flatter myself that I love a manly, moral, regulated liberty as well as any gentleman of that society, be he who he will and perhaps I have given as good proofs of my attachment to that cause in the whole course of my public conduct. I think I envy liberty as little as they do to any other nation. But I cannot stand forward and give praise or blame to anything which relates to human actions, and human concerns, on a simple view of the object, as it stands stripped of every relation, in all the nakedness and solitude of metaphysical abstraction. Circumstances which with some gentlemen pass for nothing give in reality to every political principle its distinguishing color and discriminating effect. The circumstances are what render every civil and political scheme beneficial or noxious to mankind. Abstractedly speaking, government, as well as liberty, is good yet could I, in common sense, ten years ago, have felicitated France on her enjoyment of a government for she then had a government without inquiry what the nature of that government was, or how it was administered? Can I now congratulate the same nation upon its freedom? Is it because liberty in the abstract may be classed amongst the blessings of mankind, that I am seriously to felicitate a madman, who has escaped from the protecting restraint and wholesome darkness of his cell, on his restoration to the enjoyment of light and liberty? Am I to congratulate a highwayman and murderer who has broke prison upon the recovery of his natural rights? This would be to act over again the scene of the criminals condemned to the galleys, and their heroic deliverer, the metaphysic Knight of the Sorrowful Countenance. When I see the spirit of liberty in action, I see a strong principle at work and this, for a while, is all I can possibly know of it. The wild gas, the fixed air, is plainly broke loose but we ought to suspend our judgment until the first effervescence is a little subsided, till the liquor is cleared, and until we see something deeper than the agitation of a troubled and frothy surface. I must be tolerably sure, before I venture publicly to congratulate men upon a blessing, that they have really received one. Flattery corrupts both the receiver and the giver, and adulation is not of more service to the people than to kings. I should, therefore, suspend my congratulations on the new liberty of France until I was informed how it had been combined with government, with public force, with the discipline and obedience of armies, with the collection of an effective and well-distributed revenue, with morality and religion, with the solidity of property, with peace and order, with civil and social manners. All these in their way are good things, too, and without them liberty is not a benefit whilst it lasts, and is not likely to continue long. The effect of liberty to individuals is that they may do what they please we ought to see what it will please them to do, before we risk congratulations which may be soon turned into complaints. Prudence would dictate this in the case of separate, insulated, private men, but liberty, when men act in bodies, is power. Considerate people, before they declare themselves, will observe the use which is made of power and particularly of so trying a thing as new power in new persons of whose principles, tempers, and dispositions they have little or no experience, and in situations where those who appear the most stirring in the scene may possibly not be the real movers. ALL these considerations, however, were below the transcendental dignity of the Revolution Society. Whilst I continued in the country, from whence I had the honor of writing to you, I had but an imperfect idea of their transactions. On my coming to town, I sent for an account of their proceedings, which had been published by their authority, containing a sermon of Dr. Price, with the Duke de Rochefoucault's and the Archbishop of Aix's letter, and several other documents annexed. The whole of that publication, with the manifest design of connecting the affairs of France with those of England by drawing us into an imitation of the conduct of the National Assembly, gave me a considerable degree of uneasiness. The effect of that conduct upon the power, credit, prosperity, and tranquillity of France became every day more evident. The form of constitution to be settled for its future polity became more clear. We are now in a condition to discern, with tolerable exactness, the true nature of the object held up to our imitation. If the prudence of reserve and decorum dictates silence in some circumstances, in others prudence of a higher order may justify us in speaking our thoughts. The beginnings of confusion with us in England are at present feeble enough, but, with you, we have seen an infancy still more feeble growing by moments into a strength to heap mountains upon mountains and to wage war with heaven itself. Whenever our neighbours house is on fire, it cannot be amiss for the engines to play a little on our own. Better to be despised for too anxious apprehensions than ruined by too confident a security. Solicitous chiefly for the peace of my own country, but by no means unconcerned for yours, I wish to communicate more largely what was at first intended only for your private satisfaction. I shall still keep your affairs in my eye and continue to address myself to you. Indulging myself in the freedom of epistolary intercourse, I beg leave to throw out my thoughts and express my feelings just as they arise in my mind, with very little attention to formal method. I set out with the proceedings of the Revolution Society, but I shall not confine myself to them. Is it possible I should? It appears to me as if I were in a great crisis, not of the affairs of France alone, but of all Europe, perhaps of more than Europe. All circumstances taken together, the French revolution is the most astonishing that has hitherto happened in the world. The most wonderful things are brought about, in many instances by means the most absurd and ridiculous, in the most ridiculous modes, and apparently by the most contemptible instruments. Everything seems out of nature in this strange chaos of levity and ferocity, and of all sorts of crimes jumbled together with all sorts of follies. In viewing this monstrous tragicomic scene, the most opposite passions necessarily succeed and sometimes mix with each other in the mind alternate contempt and indignation, alternate laughter and tears, alternate scorn and horror. It cannot, however, be denied that to some this strange scene appeared in quite another point of view. Into them it inspired no other sentiments than those of exultation and rapture. They saw nothing in what has been done in France but a firm and temperate exertion of freedom, so consistent, on the whole, with morals and with piety as to make it deserving not only of the secular applause of dashing Machiavellian politicians, but to render it a fit theme for all the devout effusions of sacred eloquence. On the forenoon of the fourth of November last, Doctor Richard Price, a non conforming minister of eminence, preached, at the dissenting meeting house of the Old Jewry, to his club or society, a very extraordinary miscellaneous sermon, in which there are some good moral and religious sentiments, and not ill expressed, mixed up in a sort of porridge of various political opinions and reflections but the Revolution in France is the grand ingredient in the cauldron. I consider the address transmitted by the Revolution Society to the National Assembly, through Earl Stanhope, as originating in the principles of the sermon and as a corollary from them. It was moved by the preacher of that discourse. It was passed by those who came reeking from the effect of the sermon without any censure or qualification, expressed or implied. If, however, any of the gentlemen concerned shall wish to separate the sermon from the resolution, they know how to acknowledge the one and to disavow the other. They may do it I cannot. For my part, I looked on that sermon as the public declaration of a man much connected with literary caballers and intriguing philosophers, with political theologians and theological politicians both at home and abroad. I know they set him up as a sort of oracle, because, with the best intentions in the world, he naturally philippizes and chants his prophetic song in exact unison with their designs. That sermon is in a strain which I believe has not been heard in this kingdom, in any of the pulpits which are tolerated or encouraged in it, since the year 1648, when a predecessor of Dr. Price, the Rev. Hugh Peters, made the vault of the king's own chapel at St. James's ring with the honor and privilege of the saints, who, with the high praises of God in their mouths, and a two-edged sword in their hands, were to execute judgment on the heathen, and punishments upon the people to bind their kings with chains, and their nobles with fetters of iron. Few harangues from the pulpit, except in the days of your league in France or in the days of our Solemn League and Covenant in England, have ever breathed less of the spirit of moderation than this lecture in the Old Jewry. Supposing, however, that something like moderation were visible in this political sermon, yet politics and the pulpit are terms that have little agreement. No sound ought to be heard in the church but the healing voice of Christian charity. The cause of civil liberty and civil government gains as little as that of religion by this confusion of duties. Those who quit their proper character to assume what does not belong to them are, for the greater part, ignorant both of the character they leave and of the character they assume. Wholly unacquainted with the world in which they are so fond of meddling, and inexperienced in all its affairs on which they pronounce with so much confidence, they have nothing of politics but the passions they excite. Surely the church is a place where one day's truce ought to be allowed to the dissensions and animosities of mankind. This pulpit style, revived after so long a discontinuance, had to me the air of novelty, and of a novelty not wholly without danger. I do not charge this danger equally to every part of the discourse. The hint given to a noble and reverend lay divine, who is supposed high in office in one of our universities, and other lay divines of rank and literature may be proper and seasonable, though somewhat new. If the noble Seekers should find nothing to satisfy their pious fancies in the old staple of the national church, or in all the rich variety to be found in the well-assorted warehouses of the dissenting congregations, Dr. Price advises them to improve upon non-conformity and to set up, each of them, a separate meeting house upon his own particular principles. It is somewhat remarkable that this reverend divine should be so earnest for setting up new churches and so perfectly indifferent concerning the doctrine which may be taught in them. His zeal is of a curious character. It is not for the propagation of his own opinions, but of any opinions. It is not for the diffusion of truth, but for the spreading of contradiction. Let the noble teachers but dissent, it is no matter from whom or from what. This great point once secured, it is taken for granted their religion will be rational and manly. I doubt whether religion would reap all the benefits which the calculating divine computes from this great company of great preachers. It would certainly be a valuable addition of nondescripts to the ample collection of known classes, genera and species, which at present beautify the hortus siccus of dissent. A sermon from a noble duke, or a noble marquis, or a noble earl, or baron bold would certainly increase and diversify the amusements of this town, which begins to grow satiated with the uniform round of its vapid dissipations. I should only stipulate that these new Mess-Johns in robes and coronets should keep some sort of bounds in the democratic and levelling principles which are expected from their titled pulpits. The new evangelists will, I dare say, disappoint the hopes that are conceived of them. They will not become, literally as well as figuratively, polemic divines, nor be disposed so to drill their congregations that they may, as in former blessed times, preach their doctrines to regiments of dragoons and corps of infantry and artillery. Such arrangements, however favourable to the cause of compulsory freedom, civil and religious, may not be equally conducive to the national tranquillity. These few restrictions I hope are no great stretches of intolerance, no very violent exertions of despotism. BUT I may say of our preacher utinam nugis tota illa dedisset tempora saevitiae. All things in this his fulminating bull are not of so in noxious a tendency. His doctrines affect our constitution in its vital parts. He tells the Revolution Society in this political sermon that his Majesty is almost the only lawful king in the world because the only one who owes his crown to the choice of his people. As to the kings of the world, all of whom except one this arch pontiff of the rights of men, with all the plenitude and with more than the boldness of the papal deposing power in its meridian fervour of the twelfth century, puts into one sweeping clause of ban and anathema and proclaims usurpers by circles of longitude and latitude, over the whole globe, it behoves them to consider how they admit into their territories these apostolic missionaries who are to tell their subjects they are not lawful kings. That is their concern. It is ours, as a domestic interest of some moment, seriously to consider the solidity of the only principle upon which these gentlemen acknowledge a king of Great Britain to be entitled to their allegiance. This doctrine, as applied to the prince now on the British throne, either is nonsense and therefore neither true nor false, or it affirms a most unfounded, dangerous, illegal, and unconstitutional position. According to this spiritual doctor of politics, if his Majesty does not owe his crown to the choice of his people, he is no lawful king. Now nothing can be more untrue than that the crown of this kingdom is so held by his Majesty. Therefore, if you follow their rule, the king of Great Britain, who most certainly does not owe his high office to any form of popular election, is in no respect better than the rest of the gang of usurpers who reign, or rather rob, all over the face of this our miserable world without any sort of right or title to the allegiance of their people. The policy of this general doctrine, so qualified, is evident enough. The propagators of this political gospel are in hopes that their abstract principle their principle that a popular choice is necessary to the legal existence of the sovereign magistracy would be overlooked, whilst the king of Great Britain was not affected by it. In the meantime the ears of their congregations would be gradually habituated to it, as if it were a first principle admitted without dispute. For the present it would only operate as a theory, pickled in the preserving juices of pulpit eloquence, and laid by for future use. Condo et compo no quae mox depromere possim. By this policy, whilst our government is soothed with a reservation in its favor, to which it has no claim, the security which it has in common with all governments, so far as opinion is security, is taken away. Thus these politicians proceed whilst little notice is taken of their doctrines but when they come to be examined upon the plain meaning of their words and the direct tendency of their doctrines, then equivocations and slippery constructions come into play. When they say the king owes his crown to the choice of his people and is therefore the only lawful sovereign in the world, they will perhaps tell us they mean to say no more than that some of the king's predecessors have been called to the throne by some sort of choice, and therefore he owes his crown to the choice of his people. Thus, by a miserable subterfuge, they hope to render their proposition safe by rendering it nugatory. They are welcome to the asylum they seek for their offense, since they take refuge in their folly. For if you admit this interpretation, how does their idea of election differ from our idea of inheritance? And how does the settlement of the crown in the Brunswick line derived from James the First come to legalize our monarchy rather than that of any of the neighbouring countries? At some time or other, to be sure, all the beginners of dynasties were chosen by those who called them to govern. There is ground enough for the opinion that all the kingdoms of Europe were, at a remote period, elective, with more or fewer limitations in the objects of choice. But whatever kings might have been here or elsewhere a thousand years ago, or in whatever manner the ruling dynasties of England or France may have begun, the king of Great Britain is, at this day, king by a fixed rule of succession according to the laws of his country and whilst the legal conditions of the compact of sovereignty are performed by him as they are performed, he holds his crown in contempt of the choice of the Revolution Society, who have not a single vote for a king amongst them, either individually or collectively, though I make no doubt they would soon erect themselves into an electoral college if things were ripe to give effect to their claim. His Majesty's heirs and successors, each in his time and order, will come to the crown with the same contempt of their choice with which his Majesty has succeeded to that he wears. Whatever may be the success of evasion in explaining away the gross error of fact, which supposes that his Majesty though he holds it in concurrence with the wishes owes his crown to the choice of his people, yet nothing can evade their full explicit declaration concerning the principle of a right in the people to choose which right is directly maintained and tenaciously adhered to. All the oblique insinuations concerning election bottom in this proposition and are referable to it. Lest the foundation of the king's exclusive legal title should pass for a mere rant of adulatory freedom, the political divine proceeds dogmatically to assert that, by the principles of the Revolution, the people of England have acquired three fundamental rights, all which, with him, compose one system and lie together in one short sentence, namely, that we have acquired a right 1 to choose our own governors. 2 to cashier them for misconduct. 3 to frame a government for ourselves. This new and hitherto unheard-of bill of rights, though made in the name of the whole people, belongs to those gentlemen and their faction only. The body of the people of England have no share in it. They utterly disclaim it. They will resist the practical assertion of it with their lives and fortunes. They are bound to do so by the laws of their country made at the time of that very Revolution which is appealed to in favor of the fictitious rights claimed by the Society which abuses its name. THESE GENTLEMEN OF THE OLD JEWRY, in all their reasonings on the Revolution of 1688, have a revolution which happened in England about forty years before and the late French revolution, so much before their eyes and in their hearts that they are constantly confounding all the three together. It is necessary that we should separate what they confound. We must recall their erring fancies to the acts of the Revolution which we revere, for the discovery of its true principles. If the principles of the Revolution of 1688 are anywhere to be found, it is in the statute called the Declaration of Right. In that most wise, sober, and considerate declaration, drawn up by great lawyers and great statesmen, and not by warm and inexperienced enthusiasts, not one word is said, nor one suggestion made, of a general right to choose our own governors, to cashier them for misconduct, and to form a government for ourselves. This Declaration of Right the act of the 1st of William and Mary, sess. 2, ch. 2 is the cornerstone of our constitution as reinforced, explained, improved, and in its fundamental principles for ever settled. It is called, An Act for declaring the rights and liberties of the subject, and for settling the succession of the crown. You will observe that these rights and this succession are declared in one body and bound indissolubly together. A few years after this period, a second opportunity offered for asserting a right of election to the crown. On the prospect of a total failure of issue from King William, and from the Princess, afterwards Queen Anne, the consideration of the settlement of the crown and of a further security for the liberties of the people again came before the legislature. Did they this second time make any provision for legalizing the crown on the spurious revolution principles of the Old Jewry? No. They followed the principles which prevailed in the Declaration of Right, indicating with more precision the persons who were to inherit in the Protestant line. This act also incorporated, by the same policy, our liberties and an hereditary succession in the same act. Instead of a right to choose our own governors, they declared that the succession in that line the Protestant line drawn from James the First, was absolutely necessary for the peace, quiet, and security of the realm, and that it was equally urgent on them to maintain a certainty in the succession thereof, to which the subjects may safely have recourse for their protection. Both these acts, in which are heard the unerring, unambiguous oracles of revolution policy, instead of countenancing the delusive, gipsy predictions of a right to choose our governors, prove to a demonstration how totally adverse the wisdom of the nation was from turning a case of necessity into a rule of law. Unquestionably, there was at the Revolution, in the person of King William, a small and a temporary deviation from the strict order of a regular hereditary succession but it is against all genuine principles of jurisprudence to draw a principle from a law made in a special case and regarding an individual perso</t>
+          <t>Viens on va s'en aller Rouler du matin au soir Et se laisser aller Zaho, Don Choa Viens on va s'en aller J'irai où tu veux memmener Où tu veux m'emmener Ok, on va y aller à la Bonnie et Clyde, clic, bang, vida loca, vie de dingue Ma belle attrape le volant, j'm'occupe de charger les flingues T'es ma vie, t'es ma weed, mes armes et ma Bible Une fois vide, la bouteille de Jack' sert de cible Shoot, chérie suis-moi on va shooter le shérif Puis faire des Photomatons sur les radars du périph' Juste moi et ma caille, c'est GTA style Carnage quand on mitraille, même l'armée n'est pas d'taille Toujours le smile même menotté au comico J'm'inquiète pas, j'sais qu'tu viendras m'chercher en hélico Et même si ça finit mal, style Tignasse et Bérénice Dis-toi il vaut mieux ça plutôt qu'on finisse RMIstes Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet Le programme c'est détente aux Pays-Bas, shopping en Italie On achète des bagnoles en Allemagne, des flingues en ex-Yougoslavie On bouge en jet privé de Colombie à Miami Jet-ski dans les West Indies à la tombée d'la nuit Ils rêvent de nous buter, d'nous mettre en HP ou en cage On s'relaxe dans une grande suite au 25ème étage Cognac Hennessy, Cristal Roederer Fait voler plus de billets que chez les faux-monnayeurs On débarque comme un verre qu'éclate dans ton écran plasma On roule à 220 en Mercedes sous le pont d'l'Alma On en amènera quelques-uns en enfer ou là-haut On partira pas seuls, attends, t'as dit quoi Zaho ? T'as dit quoi Zaho ? Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet C'est la vie qu'on s'est promis Et si demain tout doit finir, on mourra dans le même lit Crimes et délits, à la tombée de la nuit Viens on se fout des ennuis tant qu'on vit ce qu'on s'est promis Où tu vas, je te suis Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cherche pas</t>
+          <t>Conquas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Le Rat Luciano Et tu vas rien m'enlever Ni le peu de foi que j'ai Ni mon nom dans le business Ni le poids de mes pêchés Ni mon style de vie, ni mon beefsteak Ni l'amour des miens, ni mon histoire Ni mes défaites, ni mes victoires Ni le soutien des tiens, ni ton nom sur ma liste noire Tu peux pas m'enlever ma loyauté envers le rap Ma reconnaissance envers la rue Ceux qui font du son qui frappe Tu as beau parler sur mon compte, mais en vrai Le respect que les gens me donnent, ça tu peux pas me l'enlever C'est comme toutes ses heures dures en mémoire Ma rancur, mon droit d'y croire Mes mots, la voix de mon cur, l'équipe qui bouge pour moi Tu peux pas m'enlever mon sens de la famille, ni mes adversaires d'aujourd'hui amis autrefois Toutes ces années que j'ai investies dans la musique Toutes mes chéries amoureuses Mon côté rien à foutre du biz Tu peux pas m'enlever les souvenirs Ni mon public restreint mais fidèles Qui me salut toujours avec respect et sourire Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Sat Durant ma courte vie, j'ai connu des jolies filles De celles qui te font oublier tes soucis dès qu'elles ôtent leur lingerie fine J'ai eu la chance de faire de long et beau voyages De gagner plus d'argent que ma mère en 20 ans de ménages J'ai pris le micro aux quatre coins du globe Était ému de voir les lettres FF dans les premières lignes du top C'est pas donné à tout le monde Sur le dernier album on a parlé au nom d'un demi-million de personnes Boy, pour autant ça lève rien à mes doutes Tu peux pas m'attendre au tournant Je dériverais pas de ma route Tu peux rien enlever à notre histoire rude boy Si on faisait pas le poids on aurait sauté depuis Bad Boys Déjà 10 ans que ma plume combat l'épée J'ai le devoir d'éveiller une conscience à chaque nouveau LP Te méprend pas sur moi je ne suis pas triste Avec le temps on oublie pas on cicatrise Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Menzo Je me fous que tu sois le plus grand Le plus fort ou le meilleur Tu peux rien contre ma réussite ni contre mes malheurs Imagine toi à ma place, tu fonces ou tu fais du sur place Nous fallait qu'on le fasse Qu'on se batte et qu'on se surpasse Tu peux rien m'enlever Ni ma foi ni ma volonté Si on en est là c'est forcément qu'on l'a mérité Je rappe et protège mes biens sans oublier d'où je viens C'est pour nos socios, nos vatos qu'aujourd'hui on revient Quand l'amour apparait Il ne fait jamais nuit Quand tu sors de l'ombre Frangin, tu ne peux éviter les ennuis Chez nous la réussite dans le foot, dans le rap peuvent te nuire Mais les croyants savent qu'il n'y a que Dieu qui peut nous détruire Tu peux rien m'enlever Ni nos victoires, ni nos trophées A force de trop parler, mouanama Tu peux t'étouffer 2005, nouveau départ vers une nouvelle étape Avant de passer à la trappe et que l'avenir nous échappe Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever ! Don Choa Pas même la plus bidon de mes rimes gars Tu peux rien m'enlever Tu peux juste répéter que je le mérite pas Mais mon appétit pour plus ne me quitte pas Plus tu montes Plus tu te rends comptes que tu peux tomber vite bas Plus sa rentre plus je suis loin du compte Je continue j'avance même si vers la fin du monde C'est la vie que tu veux m'apprendre Parle-moi des risques mec Tu peux rien me prendre à part si t'es du fisc Dans l'industrie du disque on évolue Déteste moi mon fric, les blondes que je nique, les ondes que je pollue Le shit que je brûle mauvaise influence Non chacun fait ses choix et paye le prix de son imprudence Je vais pas mentir dans mes raps même si t'insistes Sain d'esprit mais nique le civisme Je suis pas l'instit Qu'un petit con dans le game Pas au bout de notre peine Tes critiques valent rien, tu veux juste notre pain Cherche pas, tu peux rien nous enlever Ni nos biens, ni notre histoire, ni nos socios Ni nos corps, ni notre pouvoir, ni l'amour de nos vatos Ni cette putain d'envie d'y croire X2 Tu peux rien nous enlever !</t>
+          <t>2003, yeah Don Cho', on dit quoi négro? Yeah, Don't Sleep, Horseck Fonky Flex Sta-Beu C'est pour les ladies Qui aiment les friandises Hey yo yo J'suis parfois distant, discret ou parfois distrait Mais quand j'crane, mes notes sont loin d's'effacer comme de la craie Crois-moi j'suis anti-crari, les faux m'contrarient, les gos m'contrarient Donc j'parie sur le rap et pas sur Paris En pagaille j'balance des vibes, tu pagayes, t'as pas d'hype Busta Flex le prototype, donne-moi ton corps on te scalpe Flex Sta-Beu a.k.a. B-b-b-bounce A.k.a. danger danger, c'est l'heure de s'venger, d'trancher Car ma source de flow jamais ne tarit Ta meuf en redemande et applaudit comme une otarie Ça vient du 1-3 en passant par le 9-3 et le 9-5 Synchro comme un offset, encore un autre set Encore une meuf enceinte D'un p'tit gars sans-gêne comme Don Choa My man Horseck a l'il du tigre comme Rocky Balboa Le rap ne peut pas m'abandonner J'suis dans l'son depuis qu'j'ai d'la morve au nez 2003, dix ans d'rimes, faut pas déconner On n'm'a jamais décoré et j'suis encore là Prêt à foutre le souk et tout l'monde est cord-d'a C'est, prêt à foutre le souk et tout l'monde est cord-d'a C'est Don Choa, Horseck, Fonky Flex Busta De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera Le style coule fluide comme l'ADSL, c'est incontestable J'excelle comme une SL4 traçant mon destin J'préfère les scènes et le rap, parsemer mes vibes Plutôt que m'saigner les veines à engraisser l'État En France j'ai des contentieux et pas d'compte en Suisse Jamais prétentieux, intense dans mes textes sensés et construits J'suis un lyriciste, explicite, un missile J't'explique que cette musique m'excite comme une MILF, c'est Jusqu'à c'que j'crève, j'irai cracher mes vers Faits de crasse et de merde, de trash et de haine, car J'suis né pour le faire, emmêler le verbe, car J'suis né pour le dire, préparé au pire J'lâche une salve de sale flow donc levez vos verres Bougez vos derches, hochez vos têtes et jumpez en l'air Encore un nèg' fait de chair et de flow Un type qui respire grâce à de l'air et des mots Un genre de Shakespeare usant des lettres du ghetto Et qui s'en extirpe en maîtrisant son micro Négro, yo De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera Tu sais c'qui manque dans mes textes quoi?, juste un ple-sam Mais c'est comme la fin d'tes règles, y a juste un peu d'sang Est-ce que t'as vu c'qu'il nous reste, quoi?, juste un peu d'encre Laisse-les parler, laisse c'est juste un peu d'vent Calme avant la tornade Donne un mic, on rentre dans ça comme Razorback Saque ton quater back, no job dans l'biz No coke dans l'pif, trop d'choc dans l'spliff Faut qu'j'croque, Don't Sleep Bouge ton corps, Flex comme Fonky Sta-Beu Don Cho', Horseck et mes gars niquent au MK2 Pas de chute comme Nikkei ou Dow Jones Chope les charts hits entre Indochine et Tom Jones Du pur shit si t'en as, do-do-do donne Wicked weed, même les gars crient ropopopom pom Faut pas qu'tu t'étonnes, des tubes on en a des tonnes Appelle Don Cho' présent pour qu'le bon son résonne De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chez nous</t>
+          <t>Dans les yeux</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Chaud comme Marseille, on vous met le feu Le cur de la ville s'enflamme quand le son entre en jeu Les préoccupations des frères s'infiltrent dans ton Walkman L'argent, la boisson, la fumée et les femmes Je nagerais avec les femmes et un micro dans une piscine Si j'avais l'occasion de partir loin des vermines L'hésitation ne se ferait pas, c'est certain Mes poches sont vides et j'ai faim de pognon et d'un bon destin J'extirpe ces quelques mots, un stylo de mon paletot, sorti un jour Du caniveau, je roule dans les casinos Ouais, je fais le zguègue en espadrilles, mais j'assure quand même Quoi qu'il arrive, car Fonky est la Famille Autant parler des mains que la bouche chez nous n'est pas louche Méditerranéen de souche, mes styles font mouches Au milieu d'embrouilles ou de mauvais coups Je crame tous les tintanos qui nous cherchent des poux Dans la nuit, un MC check check le mic Taquiner la rime et le beat est mon véritable hobby Envoyer des styles pour tous les frères qui nique la halla Pour la première fois, le refrain commence comme ça Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys Pendant que tu fais un flop, que tu tapes un magnétoscope Don Choa calcine les rimes comme une clope en garde à vue Le hip-hop au top descend le long de la rue Et se saisit du showbiz à son insu Accepte le son, qui touche de près mes entrailles Au bercail, ma fonction est le travail Je me comporte en canaille, aïe ! Les mauvais garçons se collent comme des moucherons Au jupons, frappent sans hésiter pour le pognon Comme les apaches guinchent ton scalp Ton fric est la proie, des hordes de chiens des Alpes En veulent à tes Delacroix Mais pas moi, je suis droit, respecte les autres et crois Au pouvoir de la rime dans la destruction des hazas L'été, les quartiers, postes dans le bus Que demander de plus, fusse le funk ou des Vénus ? Gus, soi-disant ma ville pue en plus Dieu t'a-t-il fait avec un anus au lieu des sinus ? Simple dans ma façon de faire mon sang rouge clair Pourtant, j'ai la peau noire et fier de l'avoir Je cours à la gloire des quartiers avec mes idées Le produit, sera toujours enragé Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys J'en ai marre de les voir flipper Y'a pas que le mauvais côté Le Rat te le dira, la vie est faite pour s'amuser Capte le concept des mecs qui s'en battent les couilles Le bon délire est là, t'inquiète on se débrouille Mes pensées drivent coolo, coolo Voilà quelques mots Pour l'avenir incertain de mes potos Qui ont quitté les cours tôt La rage est dans mon âme pour le drame du Front National J'allume la flamme, la flamme Fils, comprends ce que tu peux comprendre Un bon conseil, prétends à ce que tu peux prétendre Réfléchis un instant avant de faire un pas, tu saisiras Pourquoi on te lèvera où que tu sois Avant, je combattais contre des moulins à vent Maintenant, je fais vibrer les salles et le public en rappant Satir au soleil, zique à l'oreille Signe une carte de visite live de Marseille La balle de ping-pong d'Ali Kong tape De Marseille à Naples, pour le rap, je capte les étapes Et cap vers le possee qui me suit J'en suis reconnaissant à fond Voilà pourquoi mes potes sont souvent Dans mes chansons Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys de Marseille Porche sombre et gadjos dans les couloirs Tu reconnais bien là le style des Bad Boys de Marseille T'as garé ta voiture ici trop tard Tu reconnais bien là le style des Bad Boys de Marseille Tranquille au bar Et popo dans le pétard Tu reconnais bien là le style des Bad Boys1</t>
+          <t>Marseille, han Skalp, yeah han, han Mister Don Choa han, han Han, han, Tony P han, han Okay, okay yeah, okay Vas-y Depuis tout jeune dans le game, du basket à la scène Les efforts sont les mêmes, la compète dans les veines Maillons fort de la chaine, le début de mon règne Le chemin de la gloire est long, parsemé de peines Tu vois la réussite tient à peu de chose 20 pour cent de volonté, de sacrifices à haute dose 20 pour cent de talent, 20 pour cent de chance 20 pour cent de capacités pour dead la concurrence Fais-toi plaisir gamin, ton destin est dans tes mains Dix pour cent de fun, on est jeune, on a soif de victoires On a du cur, on arrête pas Tony P, frérot, j'ai le buzz Et je m'installe tranquillement dans le rap Les derniers dix pour cent du boulot, c'est mon entourage Je garde la tête froide malgré les orages L'argent et le succès n'auront jamais mon âme I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah Okay, j'ai toujours cru à mon potentiel Mais dans une cage, difficile de déployer ses ailes Pour toucher le ciel, il m'a fallu de la bravoure Voilà à quoi ça sert les crocs, limer les barreaux qui t'entourent J'ai le parcours d'un jeune qui croit aux miracles Qu'à des éclairs dans les yeux depuis son coup de foudre pour le rap J'ai tout fait pour faire partie des meilleurs Et depuis la concurrence s'est noyé dans ma sueur J'fais mon beurre pour les tartines de ma famille C'est pour eux que dans le rap, j'suis le tsunami Je vis de mon hobby Et les jaloux ont le rire qu'a la couleur du maillot de Kobe File-moi la balle Tony, j'ai promis de dominer l'rap avec mes gimmicks Mes potes m'ont dit Vas-y fonce l'ami, crois-y à ton accent du midi. Et vois aujourd'hui où j'en suis I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown Faites place au ptit gars sans gêne L'anarchie dans les gênes J'ai l'haleine de la hyène Et la haine de l'alien De la lave dans les veines Majeur levé comme emblème quand j'me ramène T'entends Pull-up, pull-up come again. On m'a dit T'y arriveras pas, tu t'fais des films. Les clefs de la réussite, si j'les trouve pas, j'ferai les fils J'me débrouille man, every day I'm hustlin Money, money time, j'te baise, j'te baise sans vaseline C'pas le même jeu, ni les mêmes billets Toi c'est la CFA 2, moi, c'est la NBA J'marche sur des douilles Ils veulent voir d'quoi j'suis capable ? Moi j'veux qu'ils m'bouffent les couilles, donc j'les mets sur la table Putain d'instinct animal, j'fais pas l'truc à demi man J'ai la technique, le fair-play et le sourire de Zidane On tient mains sur nos guiboles Demande à Tony P's all On roule, on rode On roule, on rode Jusqu'au prochain épisode I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah Tony P, Sopra', Mister Don Choa FF, Psy 4 Yeah, yeah Skalpovich, Skalpovich Pour les clefs de la réussite frangin</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chip leader</t>
+          <t>DE BONNE HUMEUR</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>OK ! Tu peux m'appeler chip leader Le niqueur du bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker, serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Bienvenue dans le real game, blindé de grosses blinds Les MC veulent du fame mais moi, je baise ces grosses dindes Attention ça va vite, c'est tragique, c'est cruel Moi, jai le sourire, pourquoi, je viens de saigner Patrick Bruel C'est Don Cho A.K.A. Mister Chip Leader Et tu voudrais ty frotter, mais tas un trop petit kicker À ma table les players meurent dans la douleur En balançant bêtement leur tapis sur un vieux tirage couleur Rien à foutre tes pourcentages, tes putains de statistiques Sérieux, je tattends et je te nique quand tes en kilt Ouais je te baise, et quand je te laisse, tes en kilt Je te laisse en morceaux, MC Ikea tes en kit Oh les cons, ils marronnent ils ont la haine Au bouton, jenvoie une centaine dans la plaine Cest pas des balles, arrête de taffoler Paye, hé le croupier, passe les jetons de mon côté OK ! Tu peux m'appeler chip leader Le niqueur de bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker, serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Tes toxico, tes drogué, ce putain de jeu ta rendu fou Tas plus de quoi payer ton loyer, mais moi je men fous Je prends tes sous, je prends ton cash, tes bijoux Ta bagnole, ta baraque, mec, en quelques coups de cartes Tu me dois le prix dun appart Ici cest sérieux, ici cest high tech Si tu veux tamuser cest PES ou MySpace Paye en espèces, dépêche-toi, sors la maille Sors ta maille, quest-ce que tu brailles Tes pas de taille, you can die Trop endetté, tes wanted, mets les voiles Le seul truc qui peut te sauver cest 5 numéros et 2 étoiles Mais ferme ta gueule, va pleurer chez ta consoleuse Je viens te chanter une petite berceuse avec ma langue tronçonneuse Excusez-moi jai pas bien vu il faisait noir Mais je crois que jai égorgé le vieux Sarkozy dans la baignoire J'suis dur comme un bad beat à la river Appelle-moi World poker serial killer OK ! Tu peux m'appeler chip leader Le niqueur de bénef' Je suis de mèche avec le dealer Passe la monnaie gros Tu peux m'appeler chip leader World poker serial killer Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros Passe la monnaie gros, passe-moi la monnaie les euros</t>
+          <t>Jeune SkeeZ sur le beat Je suis de bonne humeur aujourd'hui Je roule à cinquante et jt'emmerde Je suis de bonne humeur aujourd'hui de très bonne humeur aujourdhui Je roule à cinquante et j't'emmerde Je suis de bonne humeur aujourd'hui, je roule à cinquante et je t'emmerde Ma voiture sort pas de chez Pozzi, j'arriverai à destination quand même Je compte acquérir un immeuble, je prends des infos, je me renseigne Faire les sous pour les besoins de la famille, tous les jours, c'est la même rengaine Tu fais du stop, je fais l'plein, jallume une clope, je fais lplein J'écris pour ne pas quon m'oublie, j'écris pour devenir quelqu'un Jfais pas de la zumba comme bon nombre, je mérite qu'une rue porte mon nom J'veux pas que ma chérie porte mon nom, ni qu'elle me suive comme mon ombre Je suis parti depuis plusieurs semaines, elle veut savoir quand j'rentre à la maison Je suis chez le coiffeur, je te rappelle, je dois ramener ma coupe à la raison Je suis apolitique et athée au lit, je suis gâté J'éteins la radio, c'est éclaté, donnez le ballon à Mbappé Paris, c'est la rue à mon père, je laisse les jolies filles traverser J'ai de l'amour pour mes confrères, je laisse toujours les MC traverser J'aime les vans et les fourgonnettes, un jour je roulerai en GMC Inch'Allah Si tu veux m'check par la fenêtre, faudra te mettre sur la pointe des pieds Je suis de bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde hey, salut Je suis de bonne humeur aujourd'hui de très bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde Tout va bien mais vous boudez, moi, j'suis dans un good mood today J'ai autre chose à foutre que vous écouter ou mater les boules au passage clouté Feu vert, ça klaxonne derrière, moi, j'démarre pas, non, j'ai pas calé J'ai les yeux fermés et les bras en l'air, je chante à tue-tête sur Mariah Carey Yeah, yeah Dans les nuages, les pieds sur les freins et l'embrayage Quand ça roule bien, j'trouve ça dommage, vu qu'j'écris mes textes dans les embouteillages J'veux pas semer la discorde, j'baisse la vitre, j'fais un p'tit coucou Mon bolide sort de l'usine Ford, fabriqué par Philippe Poutou Pas besoin d'une caisse de pimp, on est bien, on est comme des kings Sur la route avec mon pote Flynt, road movie avec et Clint Eastwood my mental is good, j'fais pas la morale, j'fais mon rap discount Je n'ai pas le time pour tous leurs discours, shut up, shit Je suis de bonne humeur aujourd'hui de très bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde ah ouais ? Je suis de bonne humeur aujourd'hui de très bonne humeur Je roule à cinquante et j't'emmerde je roule à trente même Je suis de bonne humeur aujourd'hui je suis pas ta mère, je suis pas ta sur Je roule à cinquante et j't'emmerde j'baisse la vitre, j'fais un p'tit coucou Je suis de bonne humeur aujourd'hui je vous en prie Je roule à cinquante et j't'emmerde hey Je suis de bonne humeur aujourd'hui</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Comme à l’ancienne</t>
+          <t>Demain j’t’appelle</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Stef Backer Beatmaker On est vif, on est revif, demande à mon pote Amine Quand ça va mal il faut du biff, ah ouais c'est les vitamines Ils veulent nous vacciner comme des ienchs, t'sais très bien qu'c'est pas logique Eh ouais c'est moi qu'avait la chemise dans mon freestyle d'anthologie C'est l'grand classico, j'mouille le maillot pour le J On a tous refait les chicos, on mise sur la technologie Légalement, illégalement, crame l'osille n'importe comment Y a ds gamos devant le stud' qui valent le prix d'un appartement J'ai plein de Rolex mais j'ai pas l'temps, j'gue-nar les keufs en boitant Aujourd'hui j'ai fumé trop de verte, dans mon cerveau c'est le printemps Ça peut s'finir en bain d'sang tout ça juste pour un Nous frère on est titulaire on va pas jouer les remplaçants J'aime bouffe et les pasta, les casse et les casse-dalle Mes potos sont pas stables, t'es costaud, j'te castagne Une photo, j'suis re-sta, la coco ne touche pas, j'ai vovo, une fiesta Dans le bendo, je fête ça, les bicos, les rastas, les blancos, les rapzas Une moto, tu passes pas, un couteau et basta Une photo, j'te baise pas, des kilos, j'te laisse pas C'est trop chaud, ne rêve pas, j'vais mollo, j'me presse pas La boco, les messes basses, je coco, je laisse passe Une vovo, une impasse, j'm'envo'vo' dans l'espace Tu me coco, ne teste pas, j'te coco, tu pèse pas Mais coco, dis qu'est-ce t'as, j'suis chaos, j'suis gangsta Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala OJ, tonton, jogging coton, grosse team, gros son Cristalline, potion, one love Marsilia Comme une ville d'adoption, une fonky familia, yeah C'est l'heure du classico, j'suis pas français, j'suis parigo J'trouve l'inspi au bistrot, j'réponds pas au bigo, occupé à m'dérégler Le cur lourd, j'te mens quand j'te dis qu'c'est léger Dis, si tu m'écoutais dans mon jardin secret, tous les mômes ont des rêves Tous les hommes ont des regrets, la limite c'est l'mur J'ai besoin d'vérifier si j'ai bien la tête dure, ouais Tu vas pas r'voir ça d'si tôt, te casse minôt C'est Marseille et Paname, le grand classico Débarque dans l'top comme Despacito Le hip-hop c'est un cadavre et j'suis un asticot À l'aise en business comme en classe éco Palace ou Algeco, j'ai l'feeling ma gueule, Boly, Waddle J'écoute pas les conseils à part ceux d'mon amie pone J'cours que pour l'oseille où les cris dans l'babyphone Dédicace à toutes les zones des Bouches-du-Rhône à l'IDF Don Choa is back, comme Karim Benzema en EDF Déstresse, on se dépêche d'vider la caisse Partage de bénefs, yes, le J c'est le S Moi c'est GER en mode S.N.I.P.E.R Si j'étais d'Paris, j'aurais vendu de la beuh dans le RER J'roule en GTR, ça se tire dessus comme dans GTA Dans la rue beaucoup d'acteurs sont bons qu'à faire du théâtre J'pilote comme Statham, hamdoullah j'ai pas pris d'platane Nerveux comme Zlatan, tu parles de rafales t'as pas de charme Dans les étoiles, je pense au poto là-haut AK47 c'est pas un pistolet à eau J'vais la chercher en merco à 45 C'est pas ma faute à moi si elle repart enceinte J'ai grossi d'la taille, jfais du 46 Y'en a beaucoup pour réussir, ils sont passés par en dessous Moi, je perds pas le nord, j'vais passer par un psy Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala J'vis ma vie, faut pas me casser les couilles RS3 pas d'plaque, faut esquiver la fouille Dans la cale y a des requins, par terre y a des douilles Baba j'me débrouille, ne t'inquiète même pas pour le reste Grandis sur le terrain, pas la tête à faire la malla J'écris seul pas besoin de DA, quelque millions c'est l'idéal Discret comme un pirate, on marque des buts pendant qu'ils ratent Faut des projets durables et dépenser l'argent du rap Wesh le J c'est comment ? Ils parlent trop ces commères J'vais pas changer pour du buzz, allez tous niquer vos mères Il est plein d'actions de boloss, il va finir par te blesser J'ai pas fini le lycée, j'ai fini déscolarisé avec C'est des fous à lier, tout ça pour mailler Te-ma leur trou de balle, ce qu'on leur insère J'préfère être sincère quitte à m'faire noyer et prendre l'escalier Que sucer ces fils de pute dans l'ascenseur pour me faire choyer J'vois que des menteurs, vous faites pas les stars dehors Y a que dans vos clips que vous faites des transacs avec des sacs de drogue On veut le monde chico, on veut rien à part le globe Moi J'peux claquer l'avance de l'album dans la garde-robe Et y a plus de ce-pla dans l'Aston ni dans mon corazon Tu m'verras pas faire le bandeur d'hommes peu importe la somme Tu verras pas ça de si tôt, aquarium dans le Vito C'est pas Despacito, c'est le grand classico Et ne parle pas des gens, tu n'sais pas c'qui peut t'arriver dans la vie t'arriver dans la vie T'es devenu bizarre, pourquoi tu fais comme ça tu étais mon ami La rue c'est pas des lol N'importe qui peut t'faire la peau L'alcool c'est pas de l'eau Ça peut te tirer dans l'dos Palapapala Palapapala</t>
+          <t>Dans les clubs il y a des go mortelles On va jouer les pilleurs rien que pour elles Prêt à ambiancer ces miss Soudain le regard de cette métisse Me stoppe, je n'ai pas pu résister Miss t'es rea-really bonne, rea- really really bonne Et c'est du vrai, pas du si-sili silicone Tu t'éclates, tu déboites, tu squattes le podium L'air est moite, la boite d'vient une fumerie d'opium J'te mens pas, tu chauffes de haut en bas Quand on voit ton bon-pas on dit matte la bomba Ton regard ne trompe pas tu as c'que les autres n'ont pas Me mets pas de stop, girl, donne moi ton number Hey miss, me mets pas de stop, approche-toi faut que j'te dise j'te dise J'peux pas partir sans ton phone, lâche-moi ton 06 Tu m'rends dingue, t'es trop belle trop belle Demain j't'apelle Hey miss, me mets pas de stop, hey miss, hey miss Hey miss, me mets pas de stop, hey miss, hey miss Approches-toi faut que j'te dise Tu veux danser pour une bague de fiancé Tu veux l'son pour danser à la Beyoncé Tu veux t'ambiancer, reste dans ta lancée J'viens pas t'offenser même si j'suis défoncé Lady, tu sais ce que j'veux n'est-ce pas Et si tu viens pas, j'en mourrais pas Mais ça te chauffe, approche, faut pas que tu t'arrêtes Dans ma poche, c'est ni mon phone, ni mes cigarettes J'viens claquer ma paye, siffler les bouteilles Vider les cocktails, vise la top-model Jette un il dans le club tu vois cette go mortelle Trop belle, donne moi ton phone et demain j't'appelle Tu m'as trop rendu fou miss Impossible que j't'oublie J'peux pas repartir sans ton 06 Hey miss, me mets pas de stop, approche-toi faut que j'te dise j'te dise J'peux pas partir sans ton phone, lâche-moi ton 06 Tu m'rends dingue, t'es trop belle trop belle Demain j't'apelle</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Comme on débarque</t>
+          <t>De nos jours</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Viens on va s'en aller Rouler du matin au soir Et se laisser aller Zaho, Don Choa Viens on va s'en aller J'irai où tu veux memmener Où tu veux m'emmener Ok, on va y aller à la Bonnie et Clyde, clic, bang, vida loca, vie de dingue Ma belle attrape le volant, j'm'occupe de charger les flingues T'es ma vie, t'es ma weed, mes armes et ma Bible Une fois vide, la bouteille de Jack' sert de cible Shoot, chérie suis-moi on va shooter le shérif Puis faire des Photomatons sur les radars du périph' Juste moi et ma caille, c'est GTA style Carnage quand on mitraille, même l'armée n'est pas d'taille Toujours le smile même menotté au comico J'm'inquiète pas, j'sais qu'tu viendras m'chercher en hélico Et même si ça finit mal, style Tignasse et Bérénice Dis-toi il vaut mieux ça plutôt qu'on finisse RMIstes Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet Le programme c'est détente aux Pays-Bas, shopping en Italie On achète des bagnoles en Allemagne, des flingues en ex-Yougoslavie On bouge en jet privé de Colombie à Miami Jet-ski dans les West Indies à la tombée d'la nuit Ils rêvent de nous buter, d'nous mettre en HP ou en cage On s'relaxe dans une grande suite au 25ème étage Cognac Hennessy, Cristal Roederer Fait voler plus de billets que chez les faux-monnayeurs On débarque comme un verre qu'éclate dans ton écran plasma On roule à 220 en Mercedes sous le pont d'l'Alma On en amènera quelques-uns en enfer ou là-haut On partira pas seuls, attends, t'as dit quoi Zaho ? T'as dit quoi Zaho ? Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet C'est la vie qu'on s'est promis Et si demain tout doit finir, on mourra dans le même lit Crimes et délits, à la tombée de la nuit Viens on se fout des ennuis tant qu'on vit ce qu'on s'est promis Où tu vas, je te suis Viens on va s'en aller J'irai où tu veux m'emmener Où tu veux m'emmener Rouler du matin au soir Et se laisser aller Sur les rues abandonnées Juste arriver au sommet</t>
+          <t>Sat Je réponds de rien le jour où les miens nont plus rien à se mettre sous la dent Putain de merde, il faut que je fasse rentrer les sous à temps Je suis plus motivé que jamais je joue pas pour jouer Je suis condamné à réussir moi je joue pour gagner Que Dieu tentende, le plus tôt sera le mieux Parce que le diable se fait tentant Cet enfoiré na pas fini de me tester Le plus dur nest pas de trouver le droit chemin cest dy rester Parfois je suis dépassé, je crois que je vais serrer Des fois je me dis tant que jy serais pas passé je réessayerai Souvent je me remonte le moral en me disant tout bas Ça ira mieux demain et puis tant que la famille va tout va Jremonte le terrain, parti de derrière je vais de lavant Parce que jai pas le pouvoir de revenir en arrière Tu veux toucher les sommets frère, faut plus semer Le plus dur nest pas de faire des choix cest de les assumer Don Choa À la poursuite de mon rêve si Dieu veut jirai au bout Parce que je veux rentrer dedans et pas tourner autour Déjà perdu trop de temps si tu savais tout ce que je regrette Le passé me revient sous forme de doutes ou de dettes Ma vie je lai misé sur un coup de tête Et maintenant je sais plus si je dois lenvisager sous forme de route ou de quête Mais malgré, les obstacles je serai sincère et entier Tu préfères être hypocrite pour être le patron du chantier Chacal, chacalette, on sera jamais des rentiers Au mieux on sera des vieux avec des cannes et des dentiers Donne le meilleur quel que soit ton but ou ton métier Et ne juge pas, moi-même pour les putes, jai du respect Ne juge pas les gens tu sais pas par quoi il sont passés De nos jours ça rappe pas pour sexprimer mais pour ramasser Faire sauter le coffre et les portes du succès cadenassé Et on en donne toujours plus parce que cest jamais assez Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien Le Rat Luciano En traînant où les grands traînent jai pris les manières, appris le manège Tout appris sur la monnaie et le mal-être, tout sur la vie en bande Tout appris sur le manque, sur le vol, sur les jeux Tout sur les ventes de la drogue, tout sur les dégâts des feux Depuis, bons ou pas, je fais mes choix Je mets la merde en perspective Je fais de ma putain de vie ce que je veux quelle soit Un pour les miens, deux pour la monnaie Mec ma vie ne sarrête pas au Rap Jpeux tout quitter dans la minute même Moi cest lépoque dialogue de sourd Affronte ou crève dans larène L'époque moi je veux faire des sous, j'veux la villa de rêve Lépoque tente pour le tout Lépoque rend coup pour coup Lépoque dangereuse Lépoque pou pou pou pou pou pou Chacun, sa putain dâme Chacun, ses putains de choix Chacun, son braquage, sa putain darme Chacun, sa putain de voie, ses putains de proies Son putain dart, et le mien dart Cest tout le quartier dans ma putain de voix Menzo Dans la vie, personne ne peut le faire ou y croire à ta place Tas le choix ou tu baisses les bras ou tes le premier de la classe Au départ on passe par les mêmes voies les mêmes parcours Certains trouvent leurs routes, dautres empruntent lissue de secours Mais quoi quil en soit frangin, cest toi seul qui décide Ton avenir est entre tes mains et cest toi seul qui le dessine Fais ce que tas à faire mais surtout noublies pas Que personne ne viendra purger ta peine si tes jugé coupable Donne le meilleur, repousse tes limites, cest le prix Reconnais cqui est bon et ce qui est mauvais pour toi, puis fais ltri Cette vie ressemble à un combat, la rue à un ring, chaque jour à un round On fait avec en se serrant les coudes On sait que ça tient à rien Pour aller loin faut se donner les moyens Ni plus ni moins, cest ça ou rien Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Conquas</t>
+          <t>Don Choa Mitraille</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2003, yeah Don Cho', on dit quoi négro? Yeah, Don't Sleep, Horseck Fonky Flex Sta-Beu C'est pour les ladies Qui aiment les friandises Hey yo yo J'suis parfois distant, discret ou parfois distrait Mais quand j'crane, mes notes sont loin d's'effacer comme de la craie Crois-moi j'suis anti-crari, les faux m'contrarient, les gos m'contrarient Donc j'parie sur le rap et pas sur Paris En pagaille j'balance des vibes, tu pagayes, t'as pas d'hype Busta Flex le prototype, donne-moi ton corps on te scalpe Flex Sta-Beu a.k.a. B-b-b-bounce A.k.a. danger danger, c'est l'heure de s'venger, d'trancher Car ma source de flow jamais ne tarit Ta meuf en redemande et applaudit comme une otarie Ça vient du 1-3 en passant par le 9-3 et le 9-5 Synchro comme un offset, encore un autre set Encore une meuf enceinte D'un p'tit gars sans-gêne comme Don Choa My man Horseck a l'il du tigre comme Rocky Balboa Le rap ne peut pas m'abandonner J'suis dans l'son depuis qu'j'ai d'la morve au nez 2003, dix ans d'rimes, faut pas déconner On n'm'a jamais décoré et j'suis encore là Prêt à foutre le souk et tout l'monde est cord-d'a C'est, prêt à foutre le souk et tout l'monde est cord-d'a C'est Don Choa, Horseck, Fonky Flex Busta De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera Le style coule fluide comme l'ADSL, c'est incontestable J'excelle comme une SL4 traçant mon destin J'préfère les scènes et le rap, parsemer mes vibes Plutôt que m'saigner les veines à engraisser l'État En France j'ai des contentieux et pas d'compte en Suisse Jamais prétentieux, intense dans mes textes sensés et construits J'suis un lyriciste, explicite, un missile J't'explique que cette musique m'excite comme une MILF, c'est Jusqu'à c'que j'crève, j'irai cracher mes vers Faits de crasse et de merde, de trash et de haine, car J'suis né pour le faire, emmêler le verbe, car J'suis né pour le dire, préparé au pire J'lâche une salve de sale flow donc levez vos verres Bougez vos derches, hochez vos têtes et jumpez en l'air Encore un nèg' fait de chair et de flow Un type qui respire grâce à de l'air et des mots Un genre de Shakespeare usant des lettres du ghetto Et qui s'en extirpe en maîtrisant son micro Négro, yo De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera Tu sais c'qui manque dans mes textes quoi?, juste un ple-sam Mais c'est comme la fin d'tes règles, y a juste un peu d'sang Est-ce que t'as vu c'qu'il nous reste, quoi?, juste un peu d'encre Laisse-les parler, laisse c'est juste un peu d'vent Calme avant la tornade Donne un mic, on rentre dans ça comme Razorback Saque ton quater back, no job dans l'biz No coke dans l'pif, trop d'choc dans l'spliff Faut qu'j'croque, Don't Sleep Bouge ton corps, Flex comme Fonky Sta-Beu Don Cho', Horseck et mes gars niquent au MK2 Pas de chute comme Nikkei ou Dow Jones Chope les charts hits entre Indochine et Tom Jones Du pur shit si t'en as, do-do-do donne Wicked weed, même les gars crient ropopopom pom Faut pas qu'tu t'étonnes, des tubes on en a des tonnes Appelle Don Cho' présent pour qu'le bon son résonne De retour pour conquas C'est conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Et le jugement tombera De retour pour conquas Conquête et combat On sait qu'pour eux on compte pas Ils voudraient qu'on tombe bas Est-ce qu'on a besoin d'contrats Avec la voix qu'on a L'Éternel nous tient sous son bras Seul son jugement comptera</t>
+          <t>J'débarque à l'heure où la piste est déjà humide Dedans plus que des femmes vénales et des gars cupides Moi, j'ai pas besoin de boire, j'suis déjà stupide Et, si tu me refiles ta bouteille, c'est que t'es pas lucide Montre tes orteils si t'es pas pudique Y'a toutes sortes de freestyles sur la voie publique J'sors un truc de forme conique à déconseiller aux comiques Ici, c'est pas la colonie, ni le jardin zoologique Garde les yeux dans les orbites quand tu marches Reste ou pars, mais fais pas style Y'en a marre Juste derrière toi, où ça ? Oh pardon Demande une blonde à la brune et la tournée au patron x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Elles veulent qu'des blindés, pas des soûlards qui branchent en bandes Ok, laisse tomber, c'est pour rien que tu bandes J'ai l'air d'un obsédé ou d'un tox' en manque Ou d'un rappeur qui a plus rien sur son compte en banque ? Don't Sleep sur les platines, de la fumée dans la cabine Marijuana la vitamine, jamais de rail dans la narine Je suis ni dans la marine, ni l'armée Juste prêt à semer la panique qui la fait Quoi ? J'ai pas vomi sur le mic, ni sur tes Nike C'est pas moi qu'ai volé la selle de ton mountain bike Rentre à pied mais rentre entier Ramène-là à lhôtel ou nique dans le chantier x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Ouais, y a des femmes célibataires, ouais, elles sont à fond Ouais, elles dansent la fonk mais certaines sentent la skunk Sous les aisselles donc dis-leur de pas lever les bras Une nuit avec elle tu peux jeter les draps Trop près du feu tu vas griller Aaah À côté des enceintes, on s'entend plus crier Quoi ?! Qui veut boire à lil et rentrer sans payer ? Moi ! Dire que, tout à l'heure, faut aller travailler Ah... Appelle la police, Chirac ou David Douillet Tu peux leur dire d'aller tous se faire fouiller On n'a que le cur et les couilles Mon armée de salauds se débrouille Je veux pas laisser de douille Don Choa mitraille x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille x2 Mets le feu sur le toit de la discothèque Big up le DJ car il envoie des petites rockets Levez pas les bras, y'a des pickpockets Quoi faire ? Hurler, terre brûlée x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dans les yeux</t>
+          <t>Entrailles</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Marseille, han Skalp, yeah han, han Mister Don Choa han, han Han, han, Tony P han, han Okay, okay yeah, okay Vas-y Depuis tout jeune dans le game, du basket à la scène Les efforts sont les mêmes, la compète dans les veines Maillons fort de la chaine, le début de mon règne Le chemin de la gloire est long, parsemé de peines Tu vois la réussite tient à peu de chose 20 pour cent de volonté, de sacrifices à haute dose 20 pour cent de talent, 20 pour cent de chance 20 pour cent de capacités pour dead la concurrence Fais-toi plaisir gamin, ton destin est dans tes mains Dix pour cent de fun, on est jeune, on a soif de victoires On a du cur, on arrête pas Tony P, frérot, j'ai le buzz Et je m'installe tranquillement dans le rap Les derniers dix pour cent du boulot, c'est mon entourage Je garde la tête froide malgré les orages L'argent et le succès n'auront jamais mon âme I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah Okay, j'ai toujours cru à mon potentiel Mais dans une cage, difficile de déployer ses ailes Pour toucher le ciel, il m'a fallu de la bravoure Voilà à quoi ça sert les crocs, limer les barreaux qui t'entourent J'ai le parcours d'un jeune qui croit aux miracles Qu'à des éclairs dans les yeux depuis son coup de foudre pour le rap J'ai tout fait pour faire partie des meilleurs Et depuis la concurrence s'est noyé dans ma sueur J'fais mon beurre pour les tartines de ma famille C'est pour eux que dans le rap, j'suis le tsunami Je vis de mon hobby Et les jaloux ont le rire qu'a la couleur du maillot de Kobe File-moi la balle Tony, j'ai promis de dominer l'rap avec mes gimmicks Mes potes m'ont dit Vas-y fonce l'ami, crois-y à ton accent du midi. Et vois aujourd'hui où j'en suis I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown Faites place au ptit gars sans gêne L'anarchie dans les gênes J'ai l'haleine de la hyène Et la haine de l'alien De la lave dans les veines Majeur levé comme emblème quand j'me ramène T'entends Pull-up, pull-up come again. On m'a dit T'y arriveras pas, tu t'fais des films. Les clefs de la réussite, si j'les trouve pas, j'ferai les fils J'me débrouille man, every day I'm hustlin Money, money time, j'te baise, j'te baise sans vaseline C'pas le même jeu, ni les mêmes billets Toi c'est la CFA 2, moi, c'est la NBA J'marche sur des douilles Ils veulent voir d'quoi j'suis capable ? Moi j'veux qu'ils m'bouffent les couilles, donc j'les mets sur la table Putain d'instinct animal, j'fais pas l'truc à demi man J'ai la technique, le fair-play et le sourire de Zidane On tient mains sur nos guiboles Demande à Tony P's all On roule, on rode On roule, on rode Jusqu'au prochain épisode I know I must make sure my, my story's told my story's told I'ma give my all, one hundred percent 'Cause that's all I know that's all I know I work hard yeah, I play hard yeah That's how the story goes that's how the story goes I'ma live my life to the day I die on the stuff I've shown My glory road, hey My glory road, yeah uh-huh My glory road, hey My glory road, yeah Tony P, Sopra', Mister Don Choa FF, Psy 4 Yeah, yeah Skalpovich, Skalpovich Pour les clefs de la réussite frangin</t>
+          <t>Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis J'me rappelle de c'qui m'a fait mal, ça m'l'aisse un sale arrière-goût Faudrait garder qu'les bons souvenirs, j'me rappelle trop, ça m'rend fou J'me rappelle qu'y'a rien à y faire mais, quand même, ça m'ronge On a chacun c'qu'on regrette, ses remords, sa fierté, sa honte Sans pudeur au mic, j'veux une revanche comme Mike Rouge de rage quand j'braille, rappelle-toi qu'on sort des entrailles Sanglantes de la femme tremblante Sèche tes larmes, entre dans ce monde et écoute ceux qui s'lamentent Ça m'rappelle un truc, fallait qu'j'ai un but, y'a pas d'remède La vie va te décevoir si tu fais qu'attendre un peu d'aide J'me rappelle d'où on est parti, et qu'il faut niquer l'bénef Va fouiller le fond d'tes archives, mon groupe, c'est la FF Maintenant qu'on a fait des disques, tu t'rappelles de moi Je m'rappelle et, toi, t'idéalises, quoi ? Tu t'rappelles pas ? J'me rappelle quand on m'a trahi, rejeté, détesté, haï Je me rappelle que j'me sens naïf et que l'espoir doit rejaillir J'me rappelle c'que c'est de perdre des êtres chers de sa famille J'me rappelle quand on parlait sur un banc, j'me rappelle mes amis Ceux qu'on a, ceux qu'on a perdu, des visages dans ma tête dure Ici bas, ça sent l'pourri, envoyez-moi un peu d'air pur J'brûle la verdure dans des feuilles à rouler Goûte à l'amertume depuis qu'la première larme de mon il a coulé Tu sais qu'ils se foutent de savoir si ce monde nous convient Lâche rien, on se souvient d'où on vient Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis J'ai des séquelles dans la mémoire, des squelettes dans l'armoire Je jette une belette dans ta baignoire, une allumette dans l'réservoir J'aurai beau courir, mon passé me suit comme mon ombre Vous voudriez que j'me suicide, comme mon oncle ? Lutte, jusqu'à ce que tout soit fini, et donne le compte On monte le score, hausse le ton, cogne fort, et monte le son Quand j'arrivais, ils disaient Hmm, hmm, nan nan nan Et, aujourd'hui, écoute-moi rire Ha ha ha ha ha J'remercie et prie à chaque instant avec insistance Laisse-moi cracher sur les hautes instances devant l'assistance J'ai pas la prétention de dire c'que nous devons faire Laisse-moi exprimer ma joie avec ceux qui m'sont chers Tout serait différent si on était moins paresseux, mon frère Si on s'entraidait au lieu du contraire Les dirigeants oublient l'temps où ils pleuraient pour qu'on leur change leur couche S'ils s'en rappelaient, ils auraient plus d'humanité pour ceux qui souffrent Ceux qui se sentent prisonniers, enfermés même au dehors Assis au bord de la fenêtre en rêvant d'un autre décor Rappelle-toi que ceux en fauteuil roulant nous voient courir Rappelle-toi de ces parents qui voient leurs enfants mourir Ici bas abominations, meurtres, viols, incestes Un royaume attend ses princes et ses princesses Ils se foutent de savoir si ce monde nous convient Lâche rien, on se souvient d'où on vient Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DE BONNE HUMEUR</t>
+          <t>Entre deux feux</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Jeune SkeeZ sur le beat Je suis de bonne humeur aujourd'hui Je roule à cinquante et jt'emmerde Je suis de bonne humeur aujourd'hui de très bonne humeur aujourdhui Je roule à cinquante et j't'emmerde Je suis de bonne humeur aujourd'hui, je roule à cinquante et je t'emmerde Ma voiture sort pas de chez Pozzi, j'arriverai à destination quand même Je compte acquérir un immeuble, je prends des infos, je me renseigne Faire les sous pour les besoins de la famille, tous les jours, c'est la même rengaine Tu fais du stop, je fais l'plein, jallume une clope, je fais lplein J'écris pour ne pas quon m'oublie, j'écris pour devenir quelqu'un Jfais pas de la zumba comme bon nombre, je mérite qu'une rue porte mon nom J'veux pas que ma chérie porte mon nom, ni qu'elle me suive comme mon ombre Je suis parti depuis plusieurs semaines, elle veut savoir quand j'rentre à la maison Je suis chez le coiffeur, je te rappelle, je dois ramener ma coupe à la raison Je suis apolitique et athée au lit, je suis gâté J'éteins la radio, c'est éclaté, donnez le ballon à Mbappé Paris, c'est la rue à mon père, je laisse les jolies filles traverser J'ai de l'amour pour mes confrères, je laisse toujours les MC traverser J'aime les vans et les fourgonnettes, un jour je roulerai en GMC Inch'Allah Si tu veux m'check par la fenêtre, faudra te mettre sur la pointe des pieds Je suis de bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde hey, salut Je suis de bonne humeur aujourd'hui de très bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde Tout va bien mais vous boudez, moi, j'suis dans un good mood today J'ai autre chose à foutre que vous écouter ou mater les boules au passage clouté Feu vert, ça klaxonne derrière, moi, j'démarre pas, non, j'ai pas calé J'ai les yeux fermés et les bras en l'air, je chante à tue-tête sur Mariah Carey Yeah, yeah Dans les nuages, les pieds sur les freins et l'embrayage Quand ça roule bien, j'trouve ça dommage, vu qu'j'écris mes textes dans les embouteillages J'veux pas semer la discorde, j'baisse la vitre, j'fais un p'tit coucou Mon bolide sort de l'usine Ford, fabriqué par Philippe Poutou Pas besoin d'une caisse de pimp, on est bien, on est comme des kings Sur la route avec mon pote Flynt, road movie avec et Clint Eastwood my mental is good, j'fais pas la morale, j'fais mon rap discount Je n'ai pas le time pour tous leurs discours, shut up, shit Je suis de bonne humeur aujourd'hui de très bonne humeur aujourd'hui Je roule à cinquante et j't'emmerde ah ouais ? Je suis de bonne humeur aujourd'hui de très bonne humeur Je roule à cinquante et j't'emmerde je roule à trente même Je suis de bonne humeur aujourd'hui je suis pas ta mère, je suis pas ta sur Je roule à cinquante et j't'emmerde j'baisse la vitre, j'fais un p'tit coucou Je suis de bonne humeur aujourd'hui je vous en prie Je roule à cinquante et j't'emmerde hey Je suis de bonne humeur aujourd'hui</t>
+          <t>La rue nous surveille et observe telle une caméra On veut tous le million et la Porsche Carrera Peu importe le moyen par lequel on y accédera Est ce pour le Diable ou les Anges qu'on cédera ? Est ce que c'est dans l'travail où l'bizz qu'on finira ? Nul ne sait si c'est au paradis ou en enfer qu'on ira Seul la teneur de nos actes nous l'indiquera C'est encore trop tôt pour le dire qui vivra verra S'il y a un paradis c'est qu'il y a un enfer S'il y a du bien c'est qu'il y a du mal S'il y a un Dieu c'est qu'il y a un Diable Je suis pris entre les deux feux C'est un peu le lot d'chacun faut faire avec c'est inévitable Pris entre deux feux quand une garce me dit J'me fous que t'aies une gonze vas-y serre moi Pris entre deux feux lorsque mes gars m'disent Vas-y fume, bois, ça fait du bien Alors que c'est mauvais pour moi Si j'foire à qui veux-tu que je m'en prenne hormis à moi même Personne ne me force ni ne m'entraîne Qui que tu sois tu restes seul maître à bord De ce jour de ta naissance jusqu'à celui de ta mort On a tous une tâche à accomplir Que ce soit en bien ou en mal J'ferais mon truc avant de partir Rejoindre les Anges au cieux C'est tout ce que je nous souhaite Que brûler en enfer, quoiqu'on y est déjà peut-être ? C'est une histoire de haine et d'amour Je brûle entre ces deux feux Tu ne vois pas le point rouge entre tes deux yeux ? Mort en sursis, tous on s'contente de peu Les limites se r'poussent, ça t'rend nerveux Boulot sérieux Don' sale gamin Rentre dans le rap comme deux doigts dans un sac à main Si on te tire dessus de chaque côté de la rue Couche toi sous les balles que ces cons sentretuent Il était une fois entre ciel et terre Entre dans un monde nouveau comme si c'était hier Entre paix, guerres, cris et prières C'est comme ça qu'on vit entre ciel et terre Je me souviens de tout comme si c'était hier Verse par terre pour un ami mis en terre Va dire aux Anges qu'ici l'argent est l'nerf de la guerre C'est comme ça qu'on vit entre ciel et terre Béton style, quelque soit l'âge, le sexe, l'niveau d'étude La vie fait de nous ce qu'on est y'a pas de quoi garder rancune Être déboussolé ou plein damertume Tant qu'on a la volonté, la liberté d'choisir pas d'inquiétude Nous apprenons jour et nuit la vie entre ciel et terre On peut répondre non et oui Aimer mère et père Évaluer le pour et le contre Se retrouver haut et bas Perdre ou retrouver son compte lorsqu'on est entre le bien et le mal Ce que la vie offre à la vie Ne nourrit pas tout le temps l'espoir On croit aux amours tolérances douceurs et joies Y'a aussi le côté morose Haine humeur noire, angoisse, fureur, crainte, tristesse, et désespoir Chacun choisit ses valeurs, sa manière d'être et de voir Son code moral, son mode de vie, son clan et son devoir J'dis ces trucs histoire de faire savoir Ce que c'est de ne savoir que faire A part se servir de son savoir La vie te donne et elle te l'reprend aussitôt Y'a t-il pire que la destiné d'un nécessiteux Dans la pauvreté totalisons la force et résiste Garde la foi en Dieu et je les félicite On n'a pas toujours ce qu'on mérite Pas toujours à manger dans la marmite Là le mal et le bien se précipitent Testent le peuple pour voir ses limites Entre ciel et terre, Satan s'agite Il était une fois entre ciel et terre Entre dans un monde nouveau comme si c'était hier Entre paix, guerres, cris et prières C'est comme ça qu'on vit entre ciel et terre Je me souviens de tout comme si c'était hier Verse par terre pour un ami mis en terre Va dire aux Anges qu'ici l'argent est l'nerf de la guerre C'est comme ça qu'on vit entre ciel et terre</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Demain j’t’appelle</t>
+          <t>Esprit de clan</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dans les clubs il y a des go mortelles On va jouer les pilleurs rien que pour elles Prêt à ambiancer ces miss Soudain le regard de cette métisse Me stoppe, je n'ai pas pu résister Miss t'es rea-really bonne, rea- really really bonne Et c'est du vrai, pas du si-sili silicone Tu t'éclates, tu déboites, tu squattes le podium L'air est moite, la boite d'vient une fumerie d'opium J'te mens pas, tu chauffes de haut en bas Quand on voit ton bon-pas on dit matte la bomba Ton regard ne trompe pas tu as c'que les autres n'ont pas Me mets pas de stop, girl, donne moi ton number Hey miss, me mets pas de stop, approche-toi faut que j'te dise j'te dise J'peux pas partir sans ton phone, lâche-moi ton 06 Tu m'rends dingue, t'es trop belle trop belle Demain j't'apelle Hey miss, me mets pas de stop, hey miss, hey miss Hey miss, me mets pas de stop, hey miss, hey miss Approches-toi faut que j'te dise Tu veux danser pour une bague de fiancé Tu veux l'son pour danser à la Beyoncé Tu veux t'ambiancer, reste dans ta lancée J'viens pas t'offenser même si j'suis défoncé Lady, tu sais ce que j'veux n'est-ce pas Et si tu viens pas, j'en mourrais pas Mais ça te chauffe, approche, faut pas que tu t'arrêtes Dans ma poche, c'est ni mon phone, ni mes cigarettes J'viens claquer ma paye, siffler les bouteilles Vider les cocktails, vise la top-model Jette un il dans le club tu vois cette go mortelle Trop belle, donne moi ton phone et demain j't'appelle Tu m'as trop rendu fou miss Impossible que j't'oublie J'peux pas repartir sans ton 06 Hey miss, me mets pas de stop, approche-toi faut que j'te dise j'te dise J'peux pas partir sans ton phone, lâche-moi ton 06 Tu m'rends dingue, t'es trop belle trop belle Demain j't'apelle</t>
+          <t>Moral de guerrier Dj Djel, please, augmente le level Ceci est destiné aux types qui nous en veulent D'autant plus à ceux qui en veulent Il faut qu'on trempe le maillot tel les eleven d'une équipe La rythmique fourrée dans les veines, quoi qu'il advienne Te casse pour l'équipement hypocrite, on est loin d'être quittes C'est que le commencement, les membres du premier régiment Et des morts subites sur beat j'mène seul Façon Nelson là où on crèche jeunes Les murs sont assez grands ne voyez-vous pas qu'ils tiennent seuls Dans l'under, si difficultueux d'être tendre Ces vers engendrent les racistes d'aller s'faire pendre Dans l'under on y découvre une richesse d'artistes Qui n'demandent qu'à s'faire entendre Eh là, soldats, équipe de choc esprit d'clan Les résistants sautent sur ce son, on navigue Là en pleine crise de démence mais c'est comme ça qu'je suis Dès qu'la partie commence ceux qui aiment nous suivent Nique la présidence ! C'est un message du maquis Nique la musique de France ! Mais ça on t'l'a déjà dit, ouais Chut chut chut chut, laissez-nous faire face aux ennemis ces Putes putes putes, pour régner tentent en vain d'nous diviser Nan nan, soudés soudés Don Don Alerte sur le Fonk' Don, jump comme Buju Banton On attaque, c'est l'moment, faut qu'ça tacle et comment Sur un mic, étonnant, reggae night, come one Hip hop du ghetto, tu cherchais le seum quand t'as appuyé sur play Minot esprit d'clan, quand vient l'moment aiguise les Crocs comme ciselés, Wesley Frérot au M.I.C.R.O, la famille VS Le reste du monde, s'il faut, PS 2001 c'est chaud, reste fidèle comme Castro Avant qu'ma clique annonce l'apocalypse show, gringo Oublie l'stress, et viens voir ce qu'est avoir des corones Conio, car XXX, on jouera des mots à la vitesse de flingues Façon bang bang, pour les rendre dingues dingues dingues Si ça schlingue la tyrannie après notre passage Personne n'a dit qu'on était là pour avertir d'un quelconque mauvais présage 143 et l'reuf, représente l'esprit d'clan Engage cette même force qu'après les dominés les dominants Les rapaces rendent hommage Faut pas s'voiler la face dans l'rap y a plus d'valeur D'ailleurs y a qu'à voir d'quoi on parle De flics, de sexe, de tess de folles en chaleur Rien hormis c'putain d'esprit d'clan On s'bat tous pour une même cause sans faire partie du même camp Pour c'qui parlent en mal de nous qu'ils viennent sur scène merde J'voudrais leur faire payer la rime qu'ils viennent de m'faire perdre On n'a qu'une vie, qu'un amour, qu'une famille qu'un groupe Qu'un ami, qu'une mère, j'aurai p't-être pas d'autres chances de les rendre fiers Frère, faut pas qu'on coule comme l'OM Tu les trouves pas cools, nos, textes, normal c'est pas des poèmes Bébé donne ça jusqu'à c'que les flics se ramènent C'est pas tous les jours noël, conçoit qu'on ait la haine Au M.I.C, qui c'est ? Jo Pop's OK j'y vais Pour ma famille, mon clan, j'suis prêt à tout niquer 2001 l'année de tous les dangers faut qu'on soit 3 fois plus engagés Du hip hop on n'compte pas en être ses naufragés On ramène du neuf un nouveau cri d'ralliement FF, Venin, Troiz, Cocoss les enfants du ciment On est tous des gars censés, sincères Tous soudés m'baba ? pour quitter ensemble cet enfer Qu'on soit un jour fierté d'nos pères et d'nos frères Ça c'est l'esprit du clan, ça ça n's'achète pas Ça n'se travaille pas, ou on l'est ou on l'est pas Et nous on fonctionne comme ça Considérez ça comme des liens fraternels Qu'on touche à l'un d'nous au mic on peut devenir très cruels Fonky Family, déclare l'esprit d'clan V.E.N.I.N, déclare l'esprit d'clan Cocoss et le reuf, déclarent l'esprit d'clan 3ème il et All Star, déclarent l'esprit d'clan Le clan, c'est comme le destin dans une vie t'en as qu'un Et quand j'cause du mien putain j'le fais pas d'mauvais cur Il est gravé dans mon esprit et même si j'décède Si l'un d'nous saigne, faut pas que l'un d'nous cède Paix à mon clan, ma clique et c'qui nous narguent Ce coup là c'qui parle c'est la hargne Si t'aimes, lève ta paluche ou ta Heine T'as pas b'soin d'dessin, tu l'sais J'apprécierai comme quand j'pose mes mains sales sur des seins Le temps contient toutes sortes de choses que nous verrons naître Pour l'moment j'marche avec 3ème il, venin, Cocoss et FF Paix aux élèves du grand Maître Confondez pas c'qu'on est et c'qu'on laisse paraitre On commence là où tout l'monde s'arrête On est juste des frères unis par les liens sacrés d'la vie Juste des têtes bornées, endurcies par les lieux ? On vis juste, une bande d'enfoirés qui saisit sa chance au vol On parle ni d'monopole ni d'devenir vos idoles Juste un cocktail explosif qui donne des frissons Juste des braves qui tapent l'incruste sans piston C'est juré sur la mère à XXX Que sur l'album FF on donne, le meilleur d'nous même, quitte à créer un putsch Les mitchs ? love ça too much Ancrés dans l'enfer du devoir, si on représente de toi-même viens vite voir Viens avec les tiens, plus on est d'fous plus on rit Promis, pas d'bizarrerie, juste un peu d'ces rues Si ça charrie, ben c'est tous nous ça une bande de sgegs Un esprit saint, qui s'prend pas au sérieux même pas un brin, cousin Quoi qu'il en soit, j'reste un khel, un vrai mec des Comores Mon rap c'est pas un rêve, j'narre gros des remords Je me nourris de haine, y a qu'les miens que j'honore Si tu veux tu m'aimes, sinon Vaya con Dios J'suis entouré d'mes frères une équipe de sales gosses Avec qui j'traîne le 3, Venin FF et Cocoss Voilà l'clan sur lequel je repose 2001, c'est sur un putain d'son d'Djel qu'on repart Gaffe aux bâtards, on est toujours en guerre contre l'État avare Et qui protège, à Marseille, à part Notre-Dame de la Garde Ma famille, ceux qui ont cru, et nous ont soutenus Depuis le départ Hey yo c'est chaud kho, au M.I.C.R.O 143, les reufs XXX pour les frérots Émissaire des ghettos momento ? j'le dis pour ceux qui doutent XXX Mon clan se dresse contre leur politique jusqu'à la base collabo Ceux qui dans la confusion trouvent l'extase XXX Comme dit le F l'intelligence c'est comme un parachute Quand on l'a pas on s'écrase Suppôts d'nazi ces flics nazes, et toutes ces langues de putes à l'occase Ces charlots pour eux j'ai des fuck phases minot XXX Il parait que des mecs ont XXX de schneck Qu'ils ne peuvent fermer leur bec, inspecte le clan Appuie sur REC car si on t'y reprend tu signeras tes obsèques Sur ce asalamalek J'ai un clan car j'aime pas marcher seul ou mal accompagné Et c'est d'puis gosse que cet état d'esprit m'a gagné J'y pense tellement fort, j'en ai du mal à rimer À la vie à la mort et peu importe c'qui doit arriver Malgré les hauts et les bas l'amour et mon clan est là dans mon cur Et rien n'peut l'tuer, même pas les balles Rien n'peut l'tuer, même pas ta haine Tu sais qu'Fel mise tout sur son C.L.A.N Et si tu l'savais pas maintenant j't'ai mis au parfum Ça risque d'être danger, en 2.0.0.1 J'n'ai plus d'limite comme les mômes C'est bientôt la fin du monde J'dis c'que j'pense car attendre demain j'suis mort Scratches</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>De nos jours</t>
+          <t>Faut qu’on s’accroche</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sat Je réponds de rien le jour où les miens nont plus rien à se mettre sous la dent Putain de merde, il faut que je fasse rentrer les sous à temps Je suis plus motivé que jamais je joue pas pour jouer Je suis condamné à réussir moi je joue pour gagner Que Dieu tentende, le plus tôt sera le mieux Parce que le diable se fait tentant Cet enfoiré na pas fini de me tester Le plus dur nest pas de trouver le droit chemin cest dy rester Parfois je suis dépassé, je crois que je vais serrer Des fois je me dis tant que jy serais pas passé je réessayerai Souvent je me remonte le moral en me disant tout bas Ça ira mieux demain et puis tant que la famille va tout va Jremonte le terrain, parti de derrière je vais de lavant Parce que jai pas le pouvoir de revenir en arrière Tu veux toucher les sommets frère, faut plus semer Le plus dur nest pas de faire des choix cest de les assumer Don Choa À la poursuite de mon rêve si Dieu veut jirai au bout Parce que je veux rentrer dedans et pas tourner autour Déjà perdu trop de temps si tu savais tout ce que je regrette Le passé me revient sous forme de doutes ou de dettes Ma vie je lai misé sur un coup de tête Et maintenant je sais plus si je dois lenvisager sous forme de route ou de quête Mais malgré, les obstacles je serai sincère et entier Tu préfères être hypocrite pour être le patron du chantier Chacal, chacalette, on sera jamais des rentiers Au mieux on sera des vieux avec des cannes et des dentiers Donne le meilleur quel que soit ton but ou ton métier Et ne juge pas, moi-même pour les putes, jai du respect Ne juge pas les gens tu sais pas par quoi il sont passés De nos jours ça rappe pas pour sexprimer mais pour ramasser Faire sauter le coffre et les portes du succès cadenassé Et on en donne toujours plus parce que cest jamais assez Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien Le Rat Luciano En traînant où les grands traînent jai pris les manières, appris le manège Tout appris sur la monnaie et le mal-être, tout sur la vie en bande Tout appris sur le manque, sur le vol, sur les jeux Tout sur les ventes de la drogue, tout sur les dégâts des feux Depuis, bons ou pas, je fais mes choix Je mets la merde en perspective Je fais de ma putain de vie ce que je veux quelle soit Un pour les miens, deux pour la monnaie Mec ma vie ne sarrête pas au Rap Jpeux tout quitter dans la minute même Moi cest lépoque dialogue de sourd Affronte ou crève dans larène L'époque moi je veux faire des sous, j'veux la villa de rêve Lépoque tente pour le tout Lépoque rend coup pour coup Lépoque dangereuse Lépoque pou pou pou pou pou pou Chacun, sa putain dâme Chacun, ses putains de choix Chacun, son braquage, sa putain darme Chacun, sa putain de voie, ses putains de proies Son putain dart, et le mien dart Cest tout le quartier dans ma putain de voix Menzo Dans la vie, personne ne peut le faire ou y croire à ta place Tas le choix ou tu baisses les bras ou tes le premier de la classe Au départ on passe par les mêmes voies les mêmes parcours Certains trouvent leurs routes, dautres empruntent lissue de secours Mais quoi quil en soit frangin, cest toi seul qui décide Ton avenir est entre tes mains et cest toi seul qui le dessine Fais ce que tas à faire mais surtout noublies pas Que personne ne viendra purger ta peine si tes jugé coupable Donne le meilleur, repousse tes limites, cest le prix Reconnais cqui est bon et ce qui est mauvais pour toi, puis fais ltri Cette vie ressemble à un combat, la rue à un ring, chaque jour à un round On fait avec en se serrant les coudes On sait que ça tient à rien Pour aller loin faut se donner les moyens Ni plus ni moins, cest ça ou rien Tu veux vivre, sauver ta peau faut te battre et donner le meilleur Cest ça ou rien, faut donner le meilleur Tu veux ten mettre plein des poches rouler ta bosse ? Pousse les limites Cest ça ou rien, pousse les limites Faut jouer pour gagner, être prêt à tout perdre cest le prix à payer Cest ça ou rien, cest le prix à payer Cest ça ou rien, cest ça ou rien</t>
+          <t>Faut qu'on saccroche quand la vie nous défie, car On sera jamais c'qu'on veut être si on fuit gars De toute façon ici-bas, rien nest gratuit Faut toujours payer l'prix fort, j'crois qu'c'est pour ça Qu'chaque jour on s'bat Des vapeurs toxiques, pas de toxiques Que des affamés gonflés à bloc, chiche enfoiré Do you smoke shit ? Paix aux Pour tout cramer, ça finit jamais Pille le stock, chie sur les porcs qui dorment et rro-pchi Mon armée kamikaze marche sur le fil Opération, ouvre le gaz, crame sur le grill Explosion dans la chaleur de la nuit, peur sur la ville Plus de héros, c'est Don Cho mais appelle-moi Cahill Séronégatif à mon dernier test Strictly hétéro sans sédatif, mon rap fait taper la sieste ou agiter la tête Fou, fais chauffer ta caisse, on veut tous la bouffe dans lassiette Chez nous c'est pas tous les jours la fête Boss Oni Douze mesures pour dire à ceux quj'aime l'amour que j'leur porte Dire à ceux qui mdétestent qu'ils courent tous à leur perte Qu'on joue tous la même partie avec des dés différents ton innocence si entre nous y a différend FF et l'Troiz sur un son d'Luch, c'est opé Autant qu'Saïdou en mission en Bosnie, es-tu prêt? Faut si peu pour égayer une ville walaye Chez nous soit conscient qu'les mecs dépriment walaye Si les primes s'amoncèlent, c'est qu'plus rien n'se négocie Si les bleds paumés deviennent dangereux, c'est qu'ils existent eux aussi L'attitude des hommes bouge peu, seules les conditions progressent La faim on l'a grosse, c'est dû à ceux qu'nos rimes agressent Yo, croire à la beauté du monde ou à la vie en rose À la longue ça gonfle, et à force on est toujours en rogne C'est rare d'avoir l'moral en hausse, même avec des ronds On en devient morose, cherche les solutions mais tourne en rond La vie c'est pas que drogue, sexe et pèze La vie c'est dur mais faut être là sinon c'est toi qu'elle baise Faut lutter sans trêve, jouer là où d'autres stressent Posé là où nombreux s'taisent jusqu'à c'qu'on en crève Les tracas rongent, mais pour isoler y a pas qu'les bringues Au bout d'ses rêves, pour y aller y a pas qu'les pleins Pour être classe dans cette vie, faut pas qu'les fringues C'est comme les braquages, pour les faire, faut pas qu'les flingues Faut qu'on s'accroche quand la vie nous défie, car On sera jamais c'qu'on veut être si on fuit gars De toute façon ici-bas, rien n'est gratuit Faut toujours payer l'prix fort, j'crois qu'c'est pour ça Qu'chaque jour on s'bat Comment oublier qu'on doit tous mourir, hein? Que si tu baisses ta garde on t'blesse et on t'baise avec le sourire J'veux bien finir dans l'rôle du plouc ou du sous-fifre À condition d'avoir une vie intense et de riches souvenirs J'ai pas trop l'temps d'm'étaler ni d'détailler J'ai douze mesures avant de m'tailler, d'détaler Retrouver ces rues et caler, ces SDF étalés Ces histoires propres à nos coins et à ces foutues cages d'escalier Si ces murs parlaient, ils t'diraient à quel point l'cadre est sordide, morbide Que Troiz et FF c'est du solide La même équipe, la même famille Unis à la vie par l'même péril, à la mort dans l'même périple C'est pas des paroles qui vont nous faire du mal, enfoiré tu t'fais du mal Remballe tes putain d'critiques à dix balles J'déballe, parle de rue mec et je me régale Les moments qu'j'ai vécus, d'acc', n'ont pas d'égal Rappe pour les khels des Comores jusqu'au Sénégal Pour nos parents qui s'sont battus pour qu'on n'ait pas la dalle J'me dois de pas râler, c'qu'on a fait, il le fallait C'qu'on raconte c'est c'qui fallait Qu'on s'le dise, on n'en a rien à carrer C'est l'Troiz, FF, Section Nique Tout dites-leur faut niquer l'bénef! Car chez nous y a pas d'chef La vie c'est bref, faut tout niquer avant qu'on crève faut tout niquer avant qu'on crève Que chaque jour qui s'lève soit béni Chaque paroles broie des curs, laisse des âmes en furie J'vais sauver ma gueule tant que j'vis M'en sortir seul, compter sur qui qu'ce soit oublie Qu'on fasse tant d'bruit, entendre tant d'cris Rapporte tant d'joie Comme ce fameux soir où tu nous as vus pour la première fois Que c'morceau soit en repeat dans ta sono jusqu'à c'qu'elle si si Dans l'juke-box du bar du coin, autant de fois qu'nécessaire si si Que ton voisin s'arrache les cheveux parce qu'il sature Trop dis-lui de s'taire Et s'il appelle les dis-leur qu'FF, Troiz Sont aussi dangereux qu'un bon si si J'uvre pour l'amour de cette musique qui d'tes enceintes résonne Dans l'cur des mômes, classés number one Faut qu'on s'accroche quand la vie nous défie, car On sera jamais c'qu'on veut être si on fuit gars De toute façon ici-bas, rien n'est gratuit Faut toujours payer l'prix fort, j'crois qu'c'est pour ça Qu'chaque jour on s'bat</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Don Choa Mitraille</t>
+          <t>F.F.F</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>J'débarque à l'heure où la piste est déjà humide Dedans plus que des femmes vénales et des gars cupides Moi, j'ai pas besoin de boire, j'suis déjà stupide Et, si tu me refiles ta bouteille, c'est que t'es pas lucide Montre tes orteils si t'es pas pudique Y'a toutes sortes de freestyles sur la voie publique J'sors un truc de forme conique à déconseiller aux comiques Ici, c'est pas la colonie, ni le jardin zoologique Garde les yeux dans les orbites quand tu marches Reste ou pars, mais fais pas style Y'en a marre Juste derrière toi, où ça ? Oh pardon Demande une blonde à la brune et la tournée au patron x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Elles veulent qu'des blindés, pas des soûlards qui branchent en bandes Ok, laisse tomber, c'est pour rien que tu bandes J'ai l'air d'un obsédé ou d'un tox' en manque Ou d'un rappeur qui a plus rien sur son compte en banque ? Don't Sleep sur les platines, de la fumée dans la cabine Marijuana la vitamine, jamais de rail dans la narine Je suis ni dans la marine, ni l'armée Juste prêt à semer la panique qui la fait Quoi ? J'ai pas vomi sur le mic, ni sur tes Nike C'est pas moi qu'ai volé la selle de ton mountain bike Rentre à pied mais rentre entier Ramène-là à lhôtel ou nique dans le chantier x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Ouais, y a des femmes célibataires, ouais, elles sont à fond Ouais, elles dansent la fonk mais certaines sentent la skunk Sous les aisselles donc dis-leur de pas lever les bras Une nuit avec elle tu peux jeter les draps Trop près du feu tu vas griller Aaah À côté des enceintes, on s'entend plus crier Quoi ?! Qui veut boire à lil et rentrer sans payer ? Moi ! Dire que, tout à l'heure, faut aller travailler Ah... Appelle la police, Chirac ou David Douillet Tu peux leur dire d'aller tous se faire fouiller On n'a que le cur et les couilles Mon armée de salauds se débrouille Je veux pas laisser de douille Don Choa mitraille x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille x2 Mets le feu sur le toit de la discothèque Big up le DJ car il envoie des petites rockets Levez pas les bras, y'a des pickpockets Quoi faire ? Hurler, terre brûlée x2 Faut qu'on savoure où qu'on aille Désolé mon amour, ma vie, c'est le freestyle À c'que je vois, c'est toujours les mêmes qui graillent Cours enfoiré, cours, Don Choa mitraille Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Pour mes dogs, Don Choa, Nega, Stress, L.U.C.I.A.N.O On na pas le C.I.A à nos fesses, demandes à Juliano Cest une connexion de plus pour ta collection Du son à mettre dans le baccara ou le turbo injection Avec la section dans la jungle, on va niquer la hype F.F, Double Pact vont te rendre high pour la night Mon slogan conjo faut le faire et les fuck Les faux frères, on les bloque et je donne ce que jai en stock Quand il y a un trafic dart, il te faut le meilleur Comme dans le trafic darmes ou chez les faux-monnayeurs Mes gars me disent vas -y, cest lheure dêtre présent Parle-leur de notre présent, fais leur fermer leur grandes gueules et représente Représente pour nous-mêmes, nos mamans et nos mômes Dans ce monde lamour cest tout ce quon a, bonhomme Il ny aura jamais nos figures sur les billets de banque, frère Plutôt sur les fichiers de bacs ou sur les pages de fait divers Faut le faire pour toucher au fruit de la gloire, vraiment faut le faire Cest le moment, profitons-en, vu que la vie, Dieu la offerte Le truc est brouillon autant que nos existences Cest chaud bouillant mammy si ça texcite danse Rien ne va, alors nique tout F.F, Double Pact, faut le faire et les fuck Saisi quici on donne le maximum pour le hip-hop Double Pact, F.F, faut le faire et les fuck Rien ne va alors nique tout F.F, Double Pact, faut le faire et les fuck Tous ensemble pour tout niquer Double Pact, F.F, faut le faire et les fuck Le rap synonyme de défonce et de biz comme zetla fille Tomber la chemise comme Zebda Je brille sous la lune prépare la vendetta Nocif comme ce que t'allumes, les Glocks devant l'état Fuis avant qu'on t'allume, nos armes sont en métal Crache un feu qui consume les salles, Monsieur Hannibal Ah ! La vie et ses aléas, les bas, les hauts Ça choque comme le Paléo et c'est chaud comme les Baléares Allégorie personnelle de type existentiel On est venu du sol pour finir notre vie au ciel C'est pas difficile, faut qu'on excelle du style S.S.L Cette vie peut être docile et chienne, si tu la provoques J'aime la mienne, elle est trop chaude T'as deviné qui vient, F.F, Double Pact, éléctrochoc Elle est trop chic, non nique ça, viens dans nos rues Viens qu'on t'explique ça bien Ne touche pas notre truc, c'est sacré comme le pain Mais qui peut nous l'enlever de la bouche S'il y a des volontaires je leur dis see ya sur un pur son de pillard Ambiance de bar à billard, ruelle et coin de trottoir, faut le faire et les fuck Rien ne va, alors nique tout F.F, Double Pact, faut le faire et les fuck Saisi quici on donne le maximum pour le hip-hop Double Pact, F.F, faut le faire et les fuck Rien ne va alors nique tout F.F, Double Pact, faut le faire et les fuck Tous ensemble pour tout niquer Double Pact, F.F, faut le faire et les fuck</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Entrailles</t>
+          <t>FF (freestyle)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis J'me rappelle de c'qui m'a fait mal, ça m'l'aisse un sale arrière-goût Faudrait garder qu'les bons souvenirs, j'me rappelle trop, ça m'rend fou J'me rappelle qu'y'a rien à y faire mais, quand même, ça m'ronge On a chacun c'qu'on regrette, ses remords, sa fierté, sa honte Sans pudeur au mic, j'veux une revanche comme Mike Rouge de rage quand j'braille, rappelle-toi qu'on sort des entrailles Sanglantes de la femme tremblante Sèche tes larmes, entre dans ce monde et écoute ceux qui s'lamentent Ça m'rappelle un truc, fallait qu'j'ai un but, y'a pas d'remède La vie va te décevoir si tu fais qu'attendre un peu d'aide J'me rappelle d'où on est parti, et qu'il faut niquer l'bénef Va fouiller le fond d'tes archives, mon groupe, c'est la FF Maintenant qu'on a fait des disques, tu t'rappelles de moi Je m'rappelle et, toi, t'idéalises, quoi ? Tu t'rappelles pas ? J'me rappelle quand on m'a trahi, rejeté, détesté, haï Je me rappelle que j'me sens naïf et que l'espoir doit rejaillir J'me rappelle c'que c'est de perdre des êtres chers de sa famille J'me rappelle quand on parlait sur un banc, j'me rappelle mes amis Ceux qu'on a, ceux qu'on a perdu, des visages dans ma tête dure Ici bas, ça sent l'pourri, envoyez-moi un peu d'air pur J'brûle la verdure dans des feuilles à rouler Goûte à l'amertume depuis qu'la première larme de mon il a coulé Tu sais qu'ils se foutent de savoir si ce monde nous convient Lâche rien, on se souvient d'où on vient Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis J'ai des séquelles dans la mémoire, des squelettes dans l'armoire Je jette une belette dans ta baignoire, une allumette dans l'réservoir J'aurai beau courir, mon passé me suit comme mon ombre Vous voudriez que j'me suicide, comme mon oncle ? Lutte, jusqu'à ce que tout soit fini, et donne le compte On monte le score, hausse le ton, cogne fort, et monte le son Quand j'arrivais, ils disaient Hmm, hmm, nan nan nan Et, aujourd'hui, écoute-moi rire Ha ha ha ha ha J'remercie et prie à chaque instant avec insistance Laisse-moi cracher sur les hautes instances devant l'assistance J'ai pas la prétention de dire c'que nous devons faire Laisse-moi exprimer ma joie avec ceux qui m'sont chers Tout serait différent si on était moins paresseux, mon frère Si on s'entraidait au lieu du contraire Les dirigeants oublient l'temps où ils pleuraient pour qu'on leur change leur couche S'ils s'en rappelaient, ils auraient plus d'humanité pour ceux qui souffrent Ceux qui se sentent prisonniers, enfermés même au dehors Assis au bord de la fenêtre en rêvant d'un autre décor Rappelle-toi que ceux en fauteuil roulant nous voient courir Rappelle-toi de ces parents qui voient leurs enfants mourir Ici bas abominations, meurtres, viols, incestes Un royaume attend ses princes et ses princesses Ils se foutent de savoir si ce monde nous convient Lâche rien, on se souvient d'où on vient Dans cette vie, cette douce vie Malheur à celui qui l'oublie Pardon maman pour la peine et les soucis Ce qui ne nous détruit pas doit nous endurcir On sait d'où l'on vient dans cette dure vie Y'a pas d'pitié pour celui qui supplie Mauvais système mais on s'y plie Ici bas, on n'est que des morts en sursis</t>
+          <t>Le Parc et le Panier roulent avec le Shit Squad Don't Sleep roule avec le Shit Squad Le 3e il et la FF roulent avec le Shit Squad Donne du bang, hé ! Je tombe dans la guette sans zigzaguer Aux aguets, débonze et bien gai Je suis délégué du Shit Squad, amigo bingo Si tu tiens jusqu'à la fin du gong Nous sommes tous des James Bond Du Shit sous les ongles Skunk au gong, ça laisse KO Comme un coup du fusil à pompe Et direct, on va haut... Rat-man né Batman ami de Boss One Et marié à la Marie-Jeanne Luciano, réalise ton vu Si tu veux, enfume-toi la vie, mon vieux Un peu de Marseillaise, et tu perds les cheveux Shit Squad, Tonton et ses neveux pour les nerveux Bienvenue dans Haschich City morveux J'échange mes sticks seulement contre une femme Style Néfertiti Fais fumer la FF, Tonton j'ai fini T'as pris ton paquet et ta femme avec toi Marijuana bien roulée que tu tiens entre tes doigts Quoi, l'atmosphère s'enfume Fume le Shit Squad et pas de frime sur ça La boumba si ça te dit Prends ce choco de maxi, comme si Une armada de fumeurs de gandja se disputent le contrat Eh, batty boy, tu veux rouler avec le Squad Ce n'est pas un fan-club de Ease Mais un putain de Shit Squad Roulé entre deux feuilles de Rizla Croix Original bad boy pour l'esquisse, fils Pas de paix en soirée avec les DJ, fais tourner Tu veux toucher nos phases, vas-y, mets le prix Je t'assure, c'est de la bombe Elle monte comme des bambous Le S ! Squad tient le bon bout Toujours dans les bons coups En tout cas, on s'adonne pas à la para Ici-bas, on décompresse comme on peut La THC nous conduit tout droit aux septièmes cieux Yo, pète ton joint de canna, à l'écoute des canailles Sat rime pour tout défoncer comme la bouddha Thaï Fume dans un studio ou dans un coffee-shop Ambiance Hip Hop, à voir les yeux de mes potes Pour eux, je finis en freestyle Je lâche un fonky style, la FF, tous M'Ghetta au shit M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana Si gandja il y a chez toi, gringo Elle sautera au nom du Père du Fils et du Sentenza Amen Je serai sec si tu n'es pas chaud Prépare un bon space-gaspacho Pour tous les sales muchachos de ma clique Le Squad, escouade rascale Et Tonton Pedro, Pascal Tu prendras bien un spatial Verre de mescal un poquito Débarque avec un kilo pour les mythos Lâché, donne, No te muevas, cabróncito! In situ, bratou kakou chez vous, y'a plus de sous Attention le ladre prépare un mauvais coup Un larcin, un truc de merde, un encas Nada, tu connais Sentenza Qui donc fait péter la banca ? Quand je te chope, quand je te bloque Voilà les troupes de choc Le Shit Squad de retour pour un smoke-tour Armé de stocks lourds Plat de jour space-cake, calumets Mèches allumées, atmosphère embrumée FF, fais fumer A fond défoncé à la sensi C'est ça qui m'incite Don Choa, Hannibal Smith, agence du Shit Arrivage de choix Ici on est à Marseille, mon frère Sortis tout droit du conteneur Le produit qui te met à l'envers Tu flaires les joints Mieux que les chiens de la douane volante Fumes des mixtures à base boulettes brûlantes Herbes collantes Production Tonton Pedro, le gros bonnet Tu connais l'effet Je roule avec le Shit Squad et ses doigts de fée, bébé Faf Larage, fils, ne fume pas Pedro, n'en déplaise, fume les cigarettes, le tabac à sec Et là je suis bien, mec Mes potos fument pour moi Circuit lindo thaï skunk cesse devant moi Eh, connard, j'ai pas à te dire ce qu'il faut faire Pour entrer dans la partie Fils, tu m'as bien compris Tu crois qu'il y a des vapeurs, représente l'odeur Premiers symptômes qui font sur moi Speed, des lors j'suis d'humeur On pourrait croire que j'intègre le Squad Quand je conte mes histoires de fêtes Ici à la Stormbringa Ce que je dis, fils, ça veut rien dire Mais sous l'emprise du Shit... Le Squad, c'est un hit M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Oh la gravité a frappé M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Yeah, je suis défoncé A coup de bambous Au sud, y'a du nouveau, fils Le Squad refait surface, noyé dans le masse Avec ses potos du micro, des mégots, amigo Des barreaux, il en faut pour subvenir à nos besoins Du matin au soir, plein On a cuvé comme du bon vin Le bon khéné en fait vilain Veut niquer notre business Que la guine l'a perdu Tu fuse, gus si on te frappe Comme un guerrier Hashashin Frappé après un joint, tu charase Colle tes oreilles devant tes baffles Tu rêves pas, gringo L'examen, c'est devenu l'impasse Sans cesse, représente notre emblème L'herbe épaisse, femme du Rat La princesse pour l'honneur des troupes rebelles Pour la fumette et les belles f... Daddy Mamadi, sur le mic, ça c'est acquis Fais tourner l'herbe cosmique Pour que la famille mette la panique Un bandeau-pro avec tous les machos chauds Et c'est parti pour le show FF, freestyle pour représenter avec un joint d'gandja Tu ne peux pas lutter Fumes, fumes, fumes avant que la vie ne te fume Aujourd'hui j'assume avec le Shit Squad Kif-Kif Production, association banguée Pour des fins de soirées, très fatigué J'envoie ziguer les télés Pour tous les frères avec qui j'ai calciné des bambous Du Secteur au Café Julien Les neveux ne craignent plus rien Accrochés sur la locale comme des morts de faim Shonga m'attend demain, ouais Tu reconnais la voix du Padre, sorti du trece Sur le mic, usé par le pollen et la sensi Toujours d'attaque avec le Shit Squad Mec, reste sur tes gardes En attendant lyricalement que l'on bombarde Balance nos cocktails de ferié néné Si tu cherches la khemia Y'a que chez nous que tu pourras la trouver J'fais pas de topo Je suis plein de popo Demandes à mes potes C'est un 16 S mec que j'ai sous le capot Je pose toujours à mes répèts sans oublier mon matos Un stylo, un micro, mon chocos Et vatos portos C'est comme ça que j'aime bosser Je suis pas du genre à caler ou taper des blocages Et vas-y, cesses de ricaner Ouais, mon big, Jo Popo représente pour le 3e oeil Mc j't'effrite dans mon deux-feuilles Je regarde mes potes, drôlement débonze Tous guidés par le hachich comme par erreur Haza plein de mimiques, ils sont chics Regarde-moi droit dans les yeux, khô T'y arrives pas, quel minable, ce gros Dis-moi, c'est du shit que tu fumes? Ou des pilules que tu gobes ? Combien de gosses en voulant se la jouer grands se sont perdus Je te l'avais dit de rester dans la sensi En soirée bad boy, pompe un joint Reste cool comme ton pote, l'ami, Ali, allez ha ! Je ne fume pas Mais préfère voir des gens down avec le Shit Squad Qu'être à Toxland à la CameSquadra A croire que c'est un championnat Où c'est le plus bête qui l'emportera Avant d'appuyer sur play, t'aurais dû faire un petit A la santé du Squad, Jo Popo, Luciano, Pedro Mon z'ami, c'est la vie C'est la vie qui veut ça N.I.K, N.I.K M'Ghetta au shit</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Entre deux feux</t>
+          <t>Fiers D’Être Marseillais</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>La rue nous surveille et observe telle une caméra On veut tous le million et la Porsche Carrera Peu importe le moyen par lequel on y accédera Est ce pour le Diable ou les Anges qu'on cédera ? Est ce que c'est dans l'travail où l'bizz qu'on finira ? Nul ne sait si c'est au paradis ou en enfer qu'on ira Seul la teneur de nos actes nous l'indiquera C'est encore trop tôt pour le dire qui vivra verra S'il y a un paradis c'est qu'il y a un enfer S'il y a du bien c'est qu'il y a du mal S'il y a un Dieu c'est qu'il y a un Diable Je suis pris entre les deux feux C'est un peu le lot d'chacun faut faire avec c'est inévitable Pris entre deux feux quand une garce me dit J'me fous que t'aies une gonze vas-y serre moi Pris entre deux feux lorsque mes gars m'disent Vas-y fume, bois, ça fait du bien Alors que c'est mauvais pour moi Si j'foire à qui veux-tu que je m'en prenne hormis à moi même Personne ne me force ni ne m'entraîne Qui que tu sois tu restes seul maître à bord De ce jour de ta naissance jusqu'à celui de ta mort On a tous une tâche à accomplir Que ce soit en bien ou en mal J'ferais mon truc avant de partir Rejoindre les Anges au cieux C'est tout ce que je nous souhaite Que brûler en enfer, quoiqu'on y est déjà peut-être ? C'est une histoire de haine et d'amour Je brûle entre ces deux feux Tu ne vois pas le point rouge entre tes deux yeux ? Mort en sursis, tous on s'contente de peu Les limites se r'poussent, ça t'rend nerveux Boulot sérieux Don' sale gamin Rentre dans le rap comme deux doigts dans un sac à main Si on te tire dessus de chaque côté de la rue Couche toi sous les balles que ces cons sentretuent Il était une fois entre ciel et terre Entre dans un monde nouveau comme si c'était hier Entre paix, guerres, cris et prières C'est comme ça qu'on vit entre ciel et terre Je me souviens de tout comme si c'était hier Verse par terre pour un ami mis en terre Va dire aux Anges qu'ici l'argent est l'nerf de la guerre C'est comme ça qu'on vit entre ciel et terre Béton style, quelque soit l'âge, le sexe, l'niveau d'étude La vie fait de nous ce qu'on est y'a pas de quoi garder rancune Être déboussolé ou plein damertume Tant qu'on a la volonté, la liberté d'choisir pas d'inquiétude Nous apprenons jour et nuit la vie entre ciel et terre On peut répondre non et oui Aimer mère et père Évaluer le pour et le contre Se retrouver haut et bas Perdre ou retrouver son compte lorsqu'on est entre le bien et le mal Ce que la vie offre à la vie Ne nourrit pas tout le temps l'espoir On croit aux amours tolérances douceurs et joies Y'a aussi le côté morose Haine humeur noire, angoisse, fureur, crainte, tristesse, et désespoir Chacun choisit ses valeurs, sa manière d'être et de voir Son code moral, son mode de vie, son clan et son devoir J'dis ces trucs histoire de faire savoir Ce que c'est de ne savoir que faire A part se servir de son savoir La vie te donne et elle te l'reprend aussitôt Y'a t-il pire que l